--- a/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
+++ b/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
@@ -31,7 +31,7 @@
     <t>AN_TRI_202008</t>
   </si>
   <si>
-    <t>AN_20200816</t>
+    <t>AN_20200823</t>
   </si>
   <si>
     <t>SPI1_202007</t>
@@ -1639,16 +1639,16 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>-47.5</v>
+        <v>-43.4</v>
       </c>
       <c r="D2">
-        <v>-57.3</v>
+        <v>-47.9</v>
       </c>
       <c r="E2">
-        <v>-35.6</v>
+        <v>-16.2</v>
       </c>
       <c r="F2">
-        <v>-25.2</v>
+        <v>45.9</v>
       </c>
       <c r="G2">
         <v>-1.04</v>
@@ -1671,16 +1671,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>-55.3</v>
+        <v>-51.7</v>
       </c>
       <c r="D3">
-        <v>-61.9</v>
+        <v>-53.3</v>
       </c>
       <c r="E3">
-        <v>-39</v>
+        <v>-20.6</v>
       </c>
       <c r="F3">
-        <v>-26.3</v>
+        <v>38.4</v>
       </c>
       <c r="G3">
         <v>-1.01</v>
@@ -1703,16 +1703,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>-37.1</v>
+        <v>-35.4</v>
       </c>
       <c r="D4">
-        <v>-38.4</v>
+        <v>-34.3</v>
       </c>
       <c r="E4">
-        <v>-5.9</v>
+        <v>2.9</v>
       </c>
       <c r="F4">
-        <v>-28.2</v>
+        <v>-0.6</v>
       </c>
       <c r="G4">
         <v>-0.63</v>
@@ -1735,16 +1735,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>-44.8</v>
+        <v>-42.8</v>
       </c>
       <c r="D5">
-        <v>-45.7</v>
+        <v>-40.8</v>
       </c>
       <c r="E5">
-        <v>-20.3</v>
+        <v>-10.3</v>
       </c>
       <c r="F5">
-        <v>-32.9</v>
+        <v>-0.1</v>
       </c>
       <c r="G5">
         <v>-0.57</v>
@@ -1767,16 +1767,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>-51.9</v>
+        <v>-48</v>
       </c>
       <c r="D6">
-        <v>-56.8</v>
+        <v>-47.7</v>
       </c>
       <c r="E6">
-        <v>-28.6</v>
+        <v>-8.9</v>
       </c>
       <c r="F6">
-        <v>-19.9</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>-1.11</v>
@@ -1799,16 +1799,16 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>-28.7</v>
+        <v>-25.3</v>
       </c>
       <c r="D7">
-        <v>-34.2</v>
+        <v>-26.1</v>
       </c>
       <c r="E7">
-        <v>-35</v>
+        <v>-14.7</v>
       </c>
       <c r="F7">
-        <v>-30.3</v>
+        <v>35.9</v>
       </c>
       <c r="G7">
         <v>-0.48</v>
@@ -1831,16 +1831,16 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>-28.2</v>
+        <v>-24.6</v>
       </c>
       <c r="D8">
-        <v>-34.5</v>
+        <v>-26.3</v>
       </c>
       <c r="E8">
-        <v>-35.6</v>
+        <v>-15.4</v>
       </c>
       <c r="F8">
-        <v>-32.2</v>
+        <v>30.5</v>
       </c>
       <c r="G8">
         <v>-0.52</v>
@@ -1863,16 +1863,16 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>-29.1</v>
+        <v>-24</v>
       </c>
       <c r="D9">
-        <v>-43.6</v>
+        <v>-29.4</v>
       </c>
       <c r="E9">
-        <v>-26.4</v>
+        <v>10.4</v>
       </c>
       <c r="F9">
-        <v>-24.3</v>
+        <v>99.2</v>
       </c>
       <c r="G9">
         <v>-1.41</v>
@@ -1895,16 +1895,16 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>-36.5</v>
+        <v>-29</v>
       </c>
       <c r="D10">
-        <v>-39.8</v>
+        <v>-21.4</v>
       </c>
       <c r="E10">
-        <v>-22.3</v>
+        <v>20.6</v>
       </c>
       <c r="F10">
-        <v>-37</v>
+        <v>137.8</v>
       </c>
       <c r="G10">
         <v>-1.05</v>
@@ -1927,16 +1927,16 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>-47.7</v>
+        <v>-41.6</v>
       </c>
       <c r="D11">
-        <v>-46.3</v>
+        <v>-30.9</v>
       </c>
       <c r="E11">
-        <v>-25.9</v>
+        <v>10.2</v>
       </c>
       <c r="F11">
-        <v>-23.3</v>
+        <v>126.2</v>
       </c>
       <c r="G11">
         <v>-0.99</v>
@@ -1959,16 +1959,16 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>-52.1</v>
+        <v>-50.4</v>
       </c>
       <c r="D12">
-        <v>-46.1</v>
+        <v>-41.8</v>
       </c>
       <c r="E12">
-        <v>-7.8</v>
+        <v>1.1</v>
       </c>
       <c r="F12">
-        <v>37.2</v>
+        <v>69.2</v>
       </c>
       <c r="G12">
         <v>-0.41</v>
@@ -1991,16 +1991,16 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>-32.2</v>
+        <v>-25.1</v>
       </c>
       <c r="D13">
-        <v>-49.2</v>
+        <v>-31.6</v>
       </c>
       <c r="E13">
-        <v>-37.4</v>
+        <v>4.9</v>
       </c>
       <c r="F13">
-        <v>-33.7</v>
+        <v>138.9</v>
       </c>
       <c r="G13">
         <v>-1.06</v>
@@ -2023,16 +2023,16 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>-36.5</v>
+        <v>-28.5</v>
       </c>
       <c r="D14">
-        <v>-51.1</v>
+        <v>-31.3</v>
       </c>
       <c r="E14">
-        <v>-38</v>
+        <v>8.7</v>
       </c>
       <c r="F14">
-        <v>-37.3</v>
+        <v>142.5</v>
       </c>
       <c r="G14">
         <v>-1.1</v>
@@ -2055,16 +2055,16 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>-33.3</v>
+        <v>-23.9</v>
       </c>
       <c r="D15">
-        <v>-48.5</v>
+        <v>-20.2</v>
       </c>
       <c r="E15">
-        <v>-6</v>
+        <v>74.9</v>
       </c>
       <c r="F15">
-        <v>86</v>
+        <v>566.1</v>
       </c>
       <c r="G15">
         <v>-1.25</v>
@@ -2087,16 +2087,16 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>-20.7</v>
+        <v>-12.8</v>
       </c>
       <c r="D16">
-        <v>-20.3</v>
+        <v>4.1</v>
       </c>
       <c r="E16">
-        <v>47.7</v>
+        <v>125.1</v>
       </c>
       <c r="F16">
-        <v>121.5</v>
+        <v>584.3</v>
       </c>
       <c r="G16">
         <v>-1.28</v>
@@ -2119,16 +2119,16 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>-45.2</v>
+        <v>-40.3</v>
       </c>
       <c r="D17">
-        <v>-47.1</v>
+        <v>-35.3</v>
       </c>
       <c r="E17">
-        <v>-27.8</v>
+        <v>-1.9</v>
       </c>
       <c r="F17">
-        <v>-23.1</v>
+        <v>78</v>
       </c>
       <c r="G17">
         <v>-0.95</v>
@@ -2151,16 +2151,16 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>-51.7</v>
+        <v>-47.2</v>
       </c>
       <c r="D18">
-        <v>-49.6</v>
+        <v>-37.6</v>
       </c>
       <c r="E18">
-        <v>-28.6</v>
+        <v>-0.9</v>
       </c>
       <c r="F18">
-        <v>-47.3</v>
+        <v>55.9</v>
       </c>
       <c r="G18">
         <v>-1.23</v>
@@ -2183,16 +2183,16 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>-58.6</v>
+        <v>-56.5</v>
       </c>
       <c r="D19">
-        <v>-62.2</v>
+        <v>-56.6</v>
       </c>
       <c r="E19">
-        <v>-30.6</v>
+        <v>-13.8</v>
       </c>
       <c r="F19">
-        <v>-45.3</v>
+        <v>10.5</v>
       </c>
       <c r="G19">
         <v>-0.94</v>
@@ -2215,16 +2215,16 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>-61.1</v>
+        <v>-58</v>
       </c>
       <c r="D20">
-        <v>-66.5</v>
+        <v>-58.7</v>
       </c>
       <c r="E20">
-        <v>-43</v>
+        <v>-25.1</v>
       </c>
       <c r="F20">
-        <v>-35.5</v>
+        <v>28.1</v>
       </c>
       <c r="G20">
         <v>-0.93</v>
@@ -2247,16 +2247,16 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>-56.4</v>
+        <v>-53.1</v>
       </c>
       <c r="D21">
-        <v>-56</v>
+        <v>-47</v>
       </c>
       <c r="E21">
-        <v>-44</v>
+        <v>-23.7</v>
       </c>
       <c r="F21">
-        <v>-56.8</v>
+        <v>2.1</v>
       </c>
       <c r="G21">
         <v>-1.27</v>
@@ -2279,16 +2279,16 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>-53.2</v>
+        <v>-50.3</v>
       </c>
       <c r="D22">
-        <v>-54.9</v>
+        <v>-46.8</v>
       </c>
       <c r="E22">
-        <v>-37</v>
+        <v>-18.1</v>
       </c>
       <c r="F22">
-        <v>-41.4</v>
+        <v>15.3</v>
       </c>
       <c r="G22">
         <v>-1.26</v>
@@ -2311,16 +2311,16 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>-31.6</v>
+        <v>-27.9</v>
       </c>
       <c r="D23">
-        <v>-41.7</v>
+        <v>-33.2</v>
       </c>
       <c r="E23">
-        <v>-49.9</v>
+        <v>-29.4</v>
       </c>
       <c r="F23">
-        <v>-44.5</v>
+        <v>21</v>
       </c>
       <c r="G23">
         <v>-0.47</v>
@@ -2343,16 +2343,16 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>-63.5</v>
+        <v>-60.1</v>
       </c>
       <c r="D24">
-        <v>-63.1</v>
+        <v>-54.6</v>
       </c>
       <c r="E24">
-        <v>-39.1</v>
+        <v>-20.6</v>
       </c>
       <c r="F24">
-        <v>-34.5</v>
+        <v>25.8</v>
       </c>
       <c r="G24">
         <v>-1.17</v>
@@ -2375,16 +2375,16 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>-62.9</v>
+        <v>-59.9</v>
       </c>
       <c r="D25">
-        <v>-59.1</v>
+        <v>-51.3</v>
       </c>
       <c r="E25">
-        <v>-32</v>
+        <v>-14.5</v>
       </c>
       <c r="F25">
-        <v>-32.9</v>
+        <v>21.6</v>
       </c>
       <c r="G25">
         <v>-1.17</v>
@@ -2407,16 +2407,16 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>-8.9</v>
+        <v>-5.6</v>
       </c>
       <c r="D26">
-        <v>-12.7</v>
+        <v>-4.9</v>
       </c>
       <c r="E26">
-        <v>15.8</v>
+        <v>36.6</v>
       </c>
       <c r="F26">
-        <v>7.8</v>
+        <v>73.8</v>
       </c>
       <c r="G26">
         <v>-0.53</v>
@@ -2439,16 +2439,16 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>-10.8</v>
+        <v>-7.6</v>
       </c>
       <c r="D27">
-        <v>-14.5</v>
+        <v>-7</v>
       </c>
       <c r="E27">
-        <v>2.1</v>
+        <v>21.1</v>
       </c>
       <c r="F27">
-        <v>14.9</v>
+        <v>84.8</v>
       </c>
       <c r="G27">
         <v>-0.52</v>
@@ -2471,16 +2471,16 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>-40</v>
+        <v>-38.3</v>
       </c>
       <c r="D28">
-        <v>-40.3</v>
+        <v>-36.5</v>
       </c>
       <c r="E28">
-        <v>-21.3</v>
+        <v>-13.4</v>
       </c>
       <c r="F28">
-        <v>-29</v>
+        <v>-1.5</v>
       </c>
       <c r="G28">
         <v>-0.94</v>
@@ -2503,16 +2503,16 @@
         <v>37</v>
       </c>
       <c r="C29">
-        <v>-47.3</v>
+        <v>-44.6</v>
       </c>
       <c r="D29">
-        <v>-49.4</v>
+        <v>-42.8</v>
       </c>
       <c r="E29">
-        <v>-12.8</v>
+        <v>1.1</v>
       </c>
       <c r="F29">
-        <v>10.9</v>
+        <v>60.5</v>
       </c>
       <c r="G29">
         <v>-1.01</v>
@@ -2535,16 +2535,16 @@
         <v>38</v>
       </c>
       <c r="C30">
-        <v>-30</v>
+        <v>-27.3</v>
       </c>
       <c r="D30">
-        <v>-21.4</v>
+        <v>-14.1</v>
       </c>
       <c r="E30">
-        <v>26.2</v>
+        <v>47.6</v>
       </c>
       <c r="F30">
-        <v>-30.6</v>
+        <v>24.1</v>
       </c>
       <c r="G30">
         <v>-2.09</v>
@@ -2567,16 +2567,16 @@
         <v>39</v>
       </c>
       <c r="C31">
-        <v>-55.5</v>
+        <v>-51.7</v>
       </c>
       <c r="D31">
-        <v>-52.2</v>
+        <v>-42.6</v>
       </c>
       <c r="E31">
-        <v>-18.7</v>
+        <v>2.9</v>
       </c>
       <c r="F31">
-        <v>-14.1</v>
+        <v>60.1</v>
       </c>
       <c r="G31">
         <v>-1.38</v>
@@ -2599,16 +2599,16 @@
         <v>40</v>
       </c>
       <c r="C32">
-        <v>-26.1</v>
+        <v>-18.4</v>
       </c>
       <c r="D32">
-        <v>-45.4</v>
+        <v>-26.2</v>
       </c>
       <c r="E32">
-        <v>-32.2</v>
+        <v>14.7</v>
       </c>
       <c r="F32">
-        <v>-50.4</v>
+        <v>131.7</v>
       </c>
       <c r="G32">
         <v>-1.06</v>
@@ -2631,16 +2631,16 @@
         <v>41</v>
       </c>
       <c r="C33">
-        <v>-24.1</v>
+        <v>-15.4</v>
       </c>
       <c r="D33">
-        <v>-43.6</v>
+        <v>-21.8</v>
       </c>
       <c r="E33">
-        <v>-27</v>
+        <v>27.9</v>
       </c>
       <c r="F33">
-        <v>-59.7</v>
+        <v>147.7</v>
       </c>
       <c r="G33">
         <v>-0.98</v>
@@ -2663,16 +2663,16 @@
         <v>42</v>
       </c>
       <c r="C34">
-        <v>-50.6</v>
+        <v>-49</v>
       </c>
       <c r="D34">
-        <v>-64.4</v>
+        <v>-60.1</v>
       </c>
       <c r="E34">
-        <v>-38.3</v>
+        <v>-26.4</v>
       </c>
       <c r="F34">
-        <v>-76</v>
+        <v>-36</v>
       </c>
       <c r="G34">
         <v>-0.52</v>
@@ -2695,16 +2695,16 @@
         <v>43</v>
       </c>
       <c r="C35">
-        <v>-52.3</v>
+        <v>-49.5</v>
       </c>
       <c r="D35">
-        <v>-42.5</v>
+        <v>-36</v>
       </c>
       <c r="E35">
-        <v>-12.8</v>
+        <v>0.8</v>
       </c>
       <c r="F35">
-        <v>42.7</v>
+        <v>90.6</v>
       </c>
       <c r="G35">
         <v>-0.81</v>
@@ -2727,16 +2727,16 @@
         <v>44</v>
       </c>
       <c r="C36">
-        <v>-50</v>
+        <v>-46.5</v>
       </c>
       <c r="D36">
-        <v>-44.7</v>
+        <v>-36.4</v>
       </c>
       <c r="E36">
-        <v>-24.8</v>
+        <v>-7.4</v>
       </c>
       <c r="F36">
-        <v>35.2</v>
+        <v>105</v>
       </c>
       <c r="G36">
         <v>-0.85</v>
@@ -2759,16 +2759,16 @@
         <v>45</v>
       </c>
       <c r="C37">
-        <v>-46.9</v>
+        <v>-43.5</v>
       </c>
       <c r="D37">
-        <v>-51</v>
+        <v>-41.9</v>
       </c>
       <c r="E37">
-        <v>-24.5</v>
+        <v>-6.1</v>
       </c>
       <c r="F37">
-        <v>-30.5</v>
+        <v>27.7</v>
       </c>
       <c r="G37">
         <v>-0.92</v>
@@ -2791,16 +2791,16 @@
         <v>46</v>
       </c>
       <c r="C38">
-        <v>-40.9</v>
+        <v>-37</v>
       </c>
       <c r="D38">
-        <v>-34</v>
+        <v>-24.5</v>
       </c>
       <c r="E38">
-        <v>-15.5</v>
+        <v>5.4</v>
       </c>
       <c r="F38">
-        <v>28.2</v>
+        <v>105.5</v>
       </c>
       <c r="G38">
         <v>-0.8</v>
@@ -2823,16 +2823,16 @@
         <v>47</v>
       </c>
       <c r="C39">
-        <v>-41.9</v>
+        <v>-37.6</v>
       </c>
       <c r="D39">
-        <v>-53.7</v>
+        <v>-43.7</v>
       </c>
       <c r="E39">
-        <v>-35.5</v>
+        <v>-15.8</v>
       </c>
       <c r="F39">
-        <v>-7.7</v>
+        <v>78.6</v>
       </c>
       <c r="G39">
         <v>-1.12</v>
@@ -2855,16 +2855,16 @@
         <v>48</v>
       </c>
       <c r="C40">
-        <v>-50</v>
+        <v>-46.2</v>
       </c>
       <c r="D40">
-        <v>-55.9</v>
+        <v>-47</v>
       </c>
       <c r="E40">
-        <v>-39</v>
+        <v>-21.7</v>
       </c>
       <c r="F40">
-        <v>-18.9</v>
+        <v>60.2</v>
       </c>
       <c r="G40">
         <v>-1.03</v>
@@ -2887,16 +2887,16 @@
         <v>49</v>
       </c>
       <c r="C41">
-        <v>-21.4</v>
+        <v>-17.1</v>
       </c>
       <c r="D41">
-        <v>-24.4</v>
+        <v>-14.1</v>
       </c>
       <c r="E41">
-        <v>-10.8</v>
+        <v>14.2</v>
       </c>
       <c r="F41">
-        <v>20.6</v>
+        <v>105.1</v>
       </c>
       <c r="G41">
         <v>-0.53</v>
@@ -2919,16 +2919,16 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>-43.6</v>
+        <v>-40.6</v>
       </c>
       <c r="D42">
-        <v>-51.6</v>
+        <v>-43.8</v>
       </c>
       <c r="E42">
-        <v>-26.4</v>
+        <v>-9.9</v>
       </c>
       <c r="F42">
-        <v>-39.3</v>
+        <v>19.7</v>
       </c>
       <c r="G42">
         <v>-0.64</v>
@@ -2951,16 +2951,16 @@
         <v>51</v>
       </c>
       <c r="C43">
-        <v>-50.5</v>
+        <v>-48.1</v>
       </c>
       <c r="D43">
-        <v>-61.8</v>
+        <v>-55.5</v>
       </c>
       <c r="E43">
-        <v>-36.2</v>
+        <v>-20.7</v>
       </c>
       <c r="F43">
-        <v>-58.5</v>
+        <v>-2.1</v>
       </c>
       <c r="G43">
         <v>-0.69</v>
@@ -2983,16 +2983,16 @@
         <v>52</v>
       </c>
       <c r="C44">
-        <v>-25.5</v>
+        <v>-21.8</v>
       </c>
       <c r="D44">
-        <v>-33</v>
+        <v>-24.6</v>
       </c>
       <c r="E44">
-        <v>-36.6</v>
+        <v>-16.9</v>
       </c>
       <c r="F44">
-        <v>-25.8</v>
+        <v>34.9</v>
       </c>
       <c r="G44">
         <v>-0.67</v>
@@ -3015,16 +3015,16 @@
         <v>53</v>
       </c>
       <c r="C45">
-        <v>-33.2</v>
+        <v>-31.3</v>
       </c>
       <c r="D45">
-        <v>-33.8</v>
+        <v>-29.3</v>
       </c>
       <c r="E45">
-        <v>-22.5</v>
+        <v>-11.3</v>
       </c>
       <c r="F45">
-        <v>-27.3</v>
+        <v>10.1</v>
       </c>
       <c r="G45">
         <v>-0.51</v>
@@ -3047,16 +3047,16 @@
         <v>54</v>
       </c>
       <c r="C46">
-        <v>-31.4</v>
+        <v>-29.1</v>
       </c>
       <c r="D46">
-        <v>-30.9</v>
+        <v>-25.7</v>
       </c>
       <c r="E46">
-        <v>-17.9</v>
+        <v>-5.2</v>
       </c>
       <c r="F46">
-        <v>-20.6</v>
+        <v>21.8</v>
       </c>
       <c r="G46">
         <v>-0.51</v>
@@ -3079,16 +3079,16 @@
         <v>55</v>
       </c>
       <c r="C47">
-        <v>-26.7</v>
+        <v>-23.1</v>
       </c>
       <c r="D47">
-        <v>-32.2</v>
+        <v>-24</v>
       </c>
       <c r="E47">
-        <v>-31.9</v>
+        <v>-12.4</v>
       </c>
       <c r="F47">
-        <v>-31.9</v>
+        <v>29.3</v>
       </c>
       <c r="G47">
         <v>-0.55</v>
@@ -3111,16 +3111,16 @@
         <v>56</v>
       </c>
       <c r="C48">
-        <v>-21.1</v>
+        <v>-17</v>
       </c>
       <c r="D48">
-        <v>-29.2</v>
+        <v>-19.4</v>
       </c>
       <c r="E48">
-        <v>-22.5</v>
+        <v>1.1</v>
       </c>
       <c r="F48">
-        <v>12.4</v>
+        <v>88.4</v>
       </c>
       <c r="G48">
         <v>-0.77</v>
@@ -3143,16 +3143,16 @@
         <v>57</v>
       </c>
       <c r="C49">
-        <v>-50.5</v>
+        <v>-47.1</v>
       </c>
       <c r="D49">
-        <v>-57.6</v>
+        <v>-49.7</v>
       </c>
       <c r="E49">
-        <v>-34.5</v>
+        <v>-18.2</v>
       </c>
       <c r="F49">
-        <v>-15.8</v>
+        <v>51</v>
       </c>
       <c r="G49">
         <v>-1.01</v>
@@ -3175,16 +3175,16 @@
         <v>58</v>
       </c>
       <c r="C50">
-        <v>-50.8</v>
+        <v>-46.9</v>
       </c>
       <c r="D50">
-        <v>-60.7</v>
+        <v>-51.4</v>
       </c>
       <c r="E50">
-        <v>-39.8</v>
+        <v>-20.3</v>
       </c>
       <c r="F50">
-        <v>-23.7</v>
+        <v>55</v>
       </c>
       <c r="G50">
         <v>-1.03</v>
@@ -3207,16 +3207,16 @@
         <v>59</v>
       </c>
       <c r="C51">
-        <v>-53.9</v>
+        <v>-50.7</v>
       </c>
       <c r="D51">
-        <v>-47.5</v>
+        <v>-40.1</v>
       </c>
       <c r="E51">
-        <v>-24.9</v>
+        <v>-10</v>
       </c>
       <c r="F51">
-        <v>22.5</v>
+        <v>85</v>
       </c>
       <c r="G51">
         <v>-0.89</v>
@@ -3239,16 +3239,16 @@
         <v>60</v>
       </c>
       <c r="C52">
-        <v>-49.3</v>
+        <v>-45.4</v>
       </c>
       <c r="D52">
-        <v>-51.9</v>
+        <v>-42.6</v>
       </c>
       <c r="E52">
-        <v>-33.5</v>
+        <v>-12.8</v>
       </c>
       <c r="F52">
-        <v>-7.1</v>
+        <v>71.5</v>
       </c>
       <c r="G52">
         <v>-0.84</v>
@@ -3271,16 +3271,16 @@
         <v>61</v>
       </c>
       <c r="C53">
-        <v>-54.8</v>
+        <v>-51.1</v>
       </c>
       <c r="D53">
-        <v>-56.1</v>
+        <v>-47.5</v>
       </c>
       <c r="E53">
-        <v>-40.4</v>
+        <v>-22.2</v>
       </c>
       <c r="F53">
-        <v>-22.1</v>
+        <v>53.6</v>
       </c>
       <c r="G53">
         <v>-0.88</v>
@@ -3303,16 +3303,16 @@
         <v>62</v>
       </c>
       <c r="C54">
-        <v>-16.5</v>
+        <v>-12.4</v>
       </c>
       <c r="D54">
-        <v>-18.1</v>
+        <v>-8.9</v>
       </c>
       <c r="E54">
-        <v>-0.4</v>
+        <v>22</v>
       </c>
       <c r="F54">
-        <v>107.3</v>
+        <v>191.4</v>
       </c>
       <c r="G54">
         <v>-0.58</v>
@@ -3335,16 +3335,16 @@
         <v>63</v>
       </c>
       <c r="C55">
-        <v>-53.1</v>
+        <v>-50.3</v>
       </c>
       <c r="D55">
-        <v>-61.7</v>
+        <v>-54.4</v>
       </c>
       <c r="E55">
-        <v>-36.2</v>
+        <v>-20.2</v>
       </c>
       <c r="F55">
-        <v>-44.9</v>
+        <v>15.7</v>
       </c>
       <c r="G55">
         <v>-0.65</v>
@@ -3367,16 +3367,16 @@
         <v>64</v>
       </c>
       <c r="C56">
-        <v>-51.5</v>
+        <v>-48</v>
       </c>
       <c r="D56">
-        <v>-60.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E56">
-        <v>-37.7</v>
+        <v>-19.8</v>
       </c>
       <c r="F56">
-        <v>-22.9</v>
+        <v>51</v>
       </c>
       <c r="G56">
         <v>-0.96</v>
@@ -3399,16 +3399,16 @@
         <v>65</v>
       </c>
       <c r="C57">
-        <v>-31.5</v>
+        <v>-27.4</v>
       </c>
       <c r="D57">
-        <v>-19.8</v>
+        <v>-9.4</v>
       </c>
       <c r="E57">
-        <v>18.4</v>
+        <v>45.3</v>
       </c>
       <c r="F57">
-        <v>56.6</v>
+        <v>131.9</v>
       </c>
       <c r="G57">
         <v>-2.26</v>
@@ -3431,16 +3431,16 @@
         <v>66</v>
       </c>
       <c r="C58">
-        <v>-30.2</v>
+        <v>-25.4</v>
       </c>
       <c r="D58">
-        <v>-23.6</v>
+        <v>-12.1</v>
       </c>
       <c r="E58">
-        <v>5.9</v>
+        <v>34.8</v>
       </c>
       <c r="F58">
-        <v>33.9</v>
+        <v>122.6</v>
       </c>
       <c r="G58">
         <v>-1.53</v>
@@ -3463,16 +3463,16 @@
         <v>67</v>
       </c>
       <c r="C59">
-        <v>-26</v>
+        <v>-22.5</v>
       </c>
       <c r="D59">
-        <v>-23.6</v>
+        <v>-14.5</v>
       </c>
       <c r="E59">
-        <v>7.6</v>
+        <v>32.7</v>
       </c>
       <c r="F59">
-        <v>21.1</v>
+        <v>82.4</v>
       </c>
       <c r="G59">
         <v>-0.57</v>
@@ -3495,16 +3495,16 @@
         <v>68</v>
       </c>
       <c r="C60">
-        <v>-32</v>
+        <v>-28.4</v>
       </c>
       <c r="D60">
-        <v>-29.4</v>
+        <v>-20.2</v>
       </c>
       <c r="E60">
-        <v>-0.4</v>
+        <v>24.4</v>
       </c>
       <c r="F60">
-        <v>-6.2</v>
+        <v>60.8</v>
       </c>
       <c r="G60">
         <v>-0.98</v>
@@ -3527,16 +3527,16 @@
         <v>69</v>
       </c>
       <c r="C61">
-        <v>-50</v>
+        <v>-46.1</v>
       </c>
       <c r="D61">
-        <v>-53</v>
+        <v>-43.4</v>
       </c>
       <c r="E61">
-        <v>-32.6</v>
+        <v>-12.1</v>
       </c>
       <c r="F61">
-        <v>-34.9</v>
+        <v>44.8</v>
       </c>
       <c r="G61">
         <v>-0.92</v>
@@ -3559,16 +3559,16 @@
         <v>70</v>
       </c>
       <c r="C62">
-        <v>-25.6</v>
+        <v>-22.3</v>
       </c>
       <c r="D62">
-        <v>-36.6</v>
+        <v>-28.8</v>
       </c>
       <c r="E62">
-        <v>-38.2</v>
+        <v>-20.4</v>
       </c>
       <c r="F62">
-        <v>-8.4</v>
+        <v>46.2</v>
       </c>
       <c r="G62">
         <v>-0.9</v>
@@ -3591,16 +3591,16 @@
         <v>71</v>
       </c>
       <c r="C63">
-        <v>-31.5</v>
+        <v>-27.1</v>
       </c>
       <c r="D63">
-        <v>-22.6</v>
+        <v>-11.8</v>
       </c>
       <c r="E63">
-        <v>9.1</v>
+        <v>36.1</v>
       </c>
       <c r="F63">
-        <v>42.4</v>
+        <v>129.6</v>
       </c>
       <c r="G63">
         <v>-1.1</v>
@@ -3623,16 +3623,16 @@
         <v>72</v>
       </c>
       <c r="C64">
-        <v>-12</v>
+        <v>-6.5</v>
       </c>
       <c r="D64">
-        <v>-16</v>
+        <v>-2.6</v>
       </c>
       <c r="E64">
-        <v>2.8</v>
+        <v>39</v>
       </c>
       <c r="F64">
-        <v>11</v>
+        <v>99.7</v>
       </c>
       <c r="G64">
         <v>-0.71</v>
@@ -3655,16 +3655,16 @@
         <v>73</v>
       </c>
       <c r="C65">
-        <v>-16.8</v>
+        <v>-12.3</v>
       </c>
       <c r="D65">
-        <v>-17.1</v>
+        <v>-6</v>
       </c>
       <c r="E65">
-        <v>12.2</v>
+        <v>42.6</v>
       </c>
       <c r="F65">
-        <v>20.3</v>
+        <v>96.1</v>
       </c>
       <c r="G65">
         <v>-0.66</v>
@@ -3687,16 +3687,16 @@
         <v>74</v>
       </c>
       <c r="C66">
-        <v>-18.6</v>
+        <v>-14.5</v>
       </c>
       <c r="D66">
-        <v>-22.3</v>
+        <v>-12.4</v>
       </c>
       <c r="E66">
-        <v>-10.1</v>
+        <v>14.7</v>
       </c>
       <c r="F66">
-        <v>9.1</v>
+        <v>75.3</v>
       </c>
       <c r="G66">
         <v>-0.48</v>
@@ -3719,16 +3719,16 @@
         <v>75</v>
       </c>
       <c r="C67">
-        <v>-58.3</v>
+        <v>-55.7</v>
       </c>
       <c r="D67">
-        <v>-67.4</v>
+        <v>-60.7</v>
       </c>
       <c r="E67">
-        <v>-43.9</v>
+        <v>-26.2</v>
       </c>
       <c r="F67">
-        <v>-51.6</v>
+        <v>7.5</v>
       </c>
       <c r="G67">
         <v>-0.9</v>
@@ -3751,16 +3751,16 @@
         <v>76</v>
       </c>
       <c r="C68">
-        <v>-32.1</v>
+        <v>-28.4</v>
       </c>
       <c r="D68">
-        <v>-44.6</v>
+        <v>-36.2</v>
       </c>
       <c r="E68">
-        <v>-54.5</v>
+        <v>-34.7</v>
       </c>
       <c r="F68">
-        <v>-56.7</v>
+        <v>-1.2</v>
       </c>
       <c r="G68">
         <v>-0.52</v>
@@ -3783,16 +3783,16 @@
         <v>77</v>
       </c>
       <c r="C69">
-        <v>-48.9</v>
+        <v>-45.2</v>
       </c>
       <c r="D69">
-        <v>-54.3</v>
+        <v>-45.7</v>
       </c>
       <c r="E69">
-        <v>-38.7</v>
+        <v>-20.3</v>
       </c>
       <c r="F69">
-        <v>-12.5</v>
+        <v>60.9</v>
       </c>
       <c r="G69">
         <v>-0.86</v>
@@ -3815,16 +3815,16 @@
         <v>78</v>
       </c>
       <c r="C70">
-        <v>-46.6</v>
+        <v>-42.3</v>
       </c>
       <c r="D70">
-        <v>-51.8</v>
+        <v>-41.6</v>
       </c>
       <c r="E70">
-        <v>-34.3</v>
+        <v>-12.6</v>
       </c>
       <c r="F70">
-        <v>-19.2</v>
+        <v>71.2</v>
       </c>
       <c r="G70">
         <v>-0.88</v>
@@ -3847,16 +3847,16 @@
         <v>79</v>
       </c>
       <c r="C71">
-        <v>-25.3</v>
+        <v>-21.5</v>
       </c>
       <c r="D71">
-        <v>-38.3</v>
+        <v>-29.4</v>
       </c>
       <c r="E71">
-        <v>-42.3</v>
+        <v>-21.2</v>
       </c>
       <c r="F71">
-        <v>-1.9</v>
+        <v>69.6</v>
       </c>
       <c r="G71">
         <v>-0.45</v>
@@ -3879,16 +3879,16 @@
         <v>80</v>
       </c>
       <c r="C72">
-        <v>-26.5</v>
+        <v>-22.9</v>
       </c>
       <c r="D72">
-        <v>-36.9</v>
+        <v>-28.8</v>
       </c>
       <c r="E72">
-        <v>-45</v>
+        <v>-26.6</v>
       </c>
       <c r="F72">
-        <v>-45.9</v>
+        <v>2.7</v>
       </c>
       <c r="G72">
         <v>-0.75</v>
@@ -3911,16 +3911,16 @@
         <v>81</v>
       </c>
       <c r="C73">
-        <v>-15</v>
+        <v>-7.5</v>
       </c>
       <c r="D73">
-        <v>-31.1</v>
+        <v>-8.3</v>
       </c>
       <c r="E73">
-        <v>26.8</v>
+        <v>94.9</v>
       </c>
       <c r="F73">
-        <v>52.6</v>
+        <v>355.4</v>
       </c>
       <c r="G73">
         <v>-1.4</v>
@@ -3943,16 +3943,16 @@
         <v>82</v>
       </c>
       <c r="C74">
-        <v>-5.4</v>
+        <v>2.7</v>
       </c>
       <c r="D74">
-        <v>-14.5</v>
+        <v>10.3</v>
       </c>
       <c r="E74">
-        <v>80.1</v>
+        <v>163.9</v>
       </c>
       <c r="F74">
-        <v>51.7</v>
+        <v>333.7</v>
       </c>
       <c r="G74">
         <v>-1.38</v>
@@ -3975,16 +3975,16 @@
         <v>83</v>
       </c>
       <c r="C75">
-        <v>12.1</v>
+        <v>20.5</v>
       </c>
       <c r="D75">
-        <v>-1.9</v>
+        <v>23.5</v>
       </c>
       <c r="E75">
-        <v>56.3</v>
+        <v>128.1</v>
       </c>
       <c r="F75">
-        <v>79.7</v>
+        <v>386</v>
       </c>
       <c r="G75">
         <v>-1.38</v>
@@ -4007,16 +4007,16 @@
         <v>84</v>
       </c>
       <c r="C76">
-        <v>20.5</v>
+        <v>29.4</v>
       </c>
       <c r="D76">
-        <v>13.1</v>
+        <v>41.4</v>
       </c>
       <c r="E76">
-        <v>94.7</v>
+        <v>178.3</v>
       </c>
       <c r="F76">
-        <v>99.8</v>
+        <v>424.5</v>
       </c>
       <c r="G76">
         <v>-1.37</v>
@@ -4039,16 +4039,16 @@
         <v>85</v>
       </c>
       <c r="C77">
-        <v>-9.4</v>
+        <v>-2.7</v>
       </c>
       <c r="D77">
-        <v>-25.5</v>
+        <v>-6.6</v>
       </c>
       <c r="E77">
-        <v>-1.7</v>
+        <v>50.3</v>
       </c>
       <c r="F77">
-        <v>-5.7</v>
+        <v>163.6</v>
       </c>
       <c r="G77">
         <v>-1.41</v>
@@ -4071,16 +4071,16 @@
         <v>86</v>
       </c>
       <c r="C78">
-        <v>-2.2</v>
+        <v>5.3</v>
       </c>
       <c r="D78">
-        <v>-14.7</v>
+        <v>7.4</v>
       </c>
       <c r="E78">
-        <v>40.1</v>
+        <v>107.9</v>
       </c>
       <c r="F78">
-        <v>49.1</v>
+        <v>318</v>
       </c>
       <c r="G78">
         <v>-1.41</v>
@@ -4103,16 +4103,16 @@
         <v>87</v>
       </c>
       <c r="C79">
-        <v>-37.4</v>
+        <v>-31.3</v>
       </c>
       <c r="D79">
-        <v>-39.9</v>
+        <v>-25</v>
       </c>
       <c r="E79">
-        <v>-24.2</v>
+        <v>10.5</v>
       </c>
       <c r="F79">
-        <v>-34.6</v>
+        <v>100.1</v>
       </c>
       <c r="G79">
         <v>-0.95</v>
@@ -4135,16 +4135,16 @@
         <v>88</v>
       </c>
       <c r="C80">
-        <v>-40.6</v>
+        <v>-34.1</v>
       </c>
       <c r="D80">
-        <v>-37.5</v>
+        <v>-21.7</v>
       </c>
       <c r="E80">
-        <v>-14.4</v>
+        <v>21.4</v>
       </c>
       <c r="F80">
-        <v>-16.3</v>
+        <v>134.3</v>
       </c>
       <c r="G80">
         <v>-0.93</v>
@@ -4167,16 +4167,16 @@
         <v>89</v>
       </c>
       <c r="C81">
-        <v>-35.2</v>
+        <v>-28.1</v>
       </c>
       <c r="D81">
-        <v>-51.8</v>
+        <v>-34.9</v>
       </c>
       <c r="E81">
-        <v>-41.2</v>
+        <v>-0.6</v>
       </c>
       <c r="F81">
-        <v>-69.7</v>
+        <v>88.5</v>
       </c>
       <c r="G81">
         <v>-0.96</v>
@@ -4199,16 +4199,16 @@
         <v>90</v>
       </c>
       <c r="C82">
-        <v>-48.1</v>
+        <v>-42.7</v>
       </c>
       <c r="D82">
-        <v>-63.1</v>
+        <v>-50.6</v>
       </c>
       <c r="E82">
-        <v>-56.5</v>
+        <v>-26.9</v>
       </c>
       <c r="F82">
-        <v>-69.8</v>
+        <v>53.9</v>
       </c>
       <c r="G82">
         <v>-0.97</v>
@@ -4231,16 +4231,16 @@
         <v>91</v>
       </c>
       <c r="C83">
-        <v>-32.7</v>
+        <v>-25.4</v>
       </c>
       <c r="D83">
-        <v>-44.1</v>
+        <v>-26.6</v>
       </c>
       <c r="E83">
-        <v>-35.7</v>
+        <v>5.6</v>
       </c>
       <c r="F83">
-        <v>-41.1</v>
+        <v>119.8</v>
       </c>
       <c r="G83">
         <v>-1.05</v>
@@ -4263,16 +4263,16 @@
         <v>92</v>
       </c>
       <c r="C84">
-        <v>-48.1</v>
+        <v>-44.4</v>
       </c>
       <c r="D84">
-        <v>-46.9</v>
+        <v>-37.3</v>
       </c>
       <c r="E84">
-        <v>-27.4</v>
+        <v>-6.5</v>
       </c>
       <c r="F84">
-        <v>-44.9</v>
+        <v>33.6</v>
       </c>
       <c r="G84">
         <v>-1.34</v>
@@ -4295,16 +4295,16 @@
         <v>93</v>
       </c>
       <c r="C85">
-        <v>-49.5</v>
+        <v>-46.5</v>
       </c>
       <c r="D85">
-        <v>-46.5</v>
+        <v>-38.6</v>
       </c>
       <c r="E85">
-        <v>-22.4</v>
+        <v>-5.2</v>
       </c>
       <c r="F85">
-        <v>-43.9</v>
+        <v>19.1</v>
       </c>
       <c r="G85">
         <v>-1.32</v>
@@ -4327,16 +4327,16 @@
         <v>94</v>
       </c>
       <c r="C86">
-        <v>-15.1</v>
+        <v>-7</v>
       </c>
       <c r="D86">
-        <v>-32.4</v>
+        <v>-13.1</v>
       </c>
       <c r="E86">
-        <v>-19</v>
+        <v>28.6</v>
       </c>
       <c r="F86">
-        <v>-52.4</v>
+        <v>115.2</v>
       </c>
       <c r="G86">
         <v>-1</v>
@@ -4359,16 +4359,16 @@
         <v>95</v>
       </c>
       <c r="C87">
-        <v>-32.3</v>
+        <v>-25.6</v>
       </c>
       <c r="D87">
-        <v>-52.4</v>
+        <v>-36.9</v>
       </c>
       <c r="E87">
-        <v>-48.7</v>
+        <v>-11</v>
       </c>
       <c r="F87">
-        <v>-67.2</v>
+        <v>65.1</v>
       </c>
       <c r="G87">
         <v>-0.94</v>
@@ -4391,16 +4391,16 @@
         <v>96</v>
       </c>
       <c r="C88">
-        <v>-42.8</v>
+        <v>-35.6</v>
       </c>
       <c r="D88">
-        <v>-44.8</v>
+        <v>-26.5</v>
       </c>
       <c r="E88">
-        <v>-25.6</v>
+        <v>18.4</v>
       </c>
       <c r="F88">
-        <v>-41.3</v>
+        <v>134</v>
       </c>
       <c r="G88">
         <v>-1.07</v>
@@ -4423,16 +4423,16 @@
         <v>97</v>
       </c>
       <c r="C89">
-        <v>-45.6</v>
+        <v>-39.7</v>
       </c>
       <c r="D89">
-        <v>-47.3</v>
+        <v>-32.3</v>
       </c>
       <c r="E89">
-        <v>-26.8</v>
+        <v>9.4</v>
       </c>
       <c r="F89">
-        <v>-41.9</v>
+        <v>99.4</v>
       </c>
       <c r="G89">
         <v>-1.11</v>
@@ -4455,16 +4455,16 @@
         <v>98</v>
       </c>
       <c r="C90">
-        <v>-39.7</v>
+        <v>-31.7</v>
       </c>
       <c r="D90">
-        <v>-44.4</v>
+        <v>-24.2</v>
       </c>
       <c r="E90">
-        <v>-29.6</v>
+        <v>18.5</v>
       </c>
       <c r="F90">
-        <v>-44.8</v>
+        <v>140.1</v>
       </c>
       <c r="G90">
         <v>-1.06</v>
@@ -4487,16 +4487,16 @@
         <v>99</v>
       </c>
       <c r="C91">
-        <v>-41.2</v>
+        <v>-33.5</v>
       </c>
       <c r="D91">
-        <v>-48.5</v>
+        <v>-29.1</v>
       </c>
       <c r="E91">
-        <v>-35.5</v>
+        <v>10.7</v>
       </c>
       <c r="F91">
-        <v>-51.1</v>
+        <v>120.2</v>
       </c>
       <c r="G91">
         <v>-1.06</v>
@@ -4519,16 +4519,16 @@
         <v>100</v>
       </c>
       <c r="C92">
-        <v>-52.4</v>
+        <v>-49.6</v>
       </c>
       <c r="D92">
-        <v>-49.8</v>
+        <v>-42</v>
       </c>
       <c r="E92">
-        <v>-23.1</v>
+        <v>-5.6</v>
       </c>
       <c r="F92">
-        <v>-45.2</v>
+        <v>15.1</v>
       </c>
       <c r="G92">
         <v>-1.31</v>
@@ -4551,16 +4551,16 @@
         <v>101</v>
       </c>
       <c r="C93">
-        <v>-40.3</v>
+        <v>-33.8</v>
       </c>
       <c r="D93">
-        <v>-56.6</v>
+        <v>-41.7</v>
       </c>
       <c r="E93">
-        <v>-52.3</v>
+        <v>-16.1</v>
       </c>
       <c r="F93">
-        <v>-65.5</v>
+        <v>69.7</v>
       </c>
       <c r="G93">
         <v>-1.01</v>
@@ -4583,16 +4583,16 @@
         <v>102</v>
       </c>
       <c r="C94">
-        <v>-33.3</v>
+        <v>-26.1</v>
       </c>
       <c r="D94">
-        <v>-51.7</v>
+        <v>-34.8</v>
       </c>
       <c r="E94">
-        <v>-45</v>
+        <v>-3.6</v>
       </c>
       <c r="F94">
-        <v>-76.9</v>
+        <v>62.2</v>
       </c>
       <c r="G94">
         <v>-0.95</v>
@@ -4615,16 +4615,16 @@
         <v>103</v>
       </c>
       <c r="C95">
-        <v>-45.6</v>
+        <v>-40.3</v>
       </c>
       <c r="D95">
-        <v>-58.7</v>
+        <v>-45.3</v>
       </c>
       <c r="E95">
-        <v>-48.2</v>
+        <v>-14</v>
       </c>
       <c r="F95">
-        <v>-68.7</v>
+        <v>56.7</v>
       </c>
       <c r="G95">
         <v>-0.95</v>
@@ -4647,16 +4647,16 @@
         <v>104</v>
       </c>
       <c r="C96">
-        <v>-45.4</v>
+        <v>-41.7</v>
       </c>
       <c r="D96">
-        <v>-40.8</v>
+        <v>-30.3</v>
       </c>
       <c r="E96">
-        <v>-2</v>
+        <v>22.4</v>
       </c>
       <c r="F96">
-        <v>-26.4</v>
+        <v>51.9</v>
       </c>
       <c r="G96">
         <v>-1.32</v>
@@ -4679,16 +4679,16 @@
         <v>105</v>
       </c>
       <c r="C97">
-        <v>-51.8</v>
+        <v>-48.5</v>
       </c>
       <c r="D97">
-        <v>-48.9</v>
+        <v>-39.4</v>
       </c>
       <c r="E97">
-        <v>-27.1</v>
+        <v>-6.4</v>
       </c>
       <c r="F97">
-        <v>-50.2</v>
+        <v>27.7</v>
       </c>
       <c r="G97">
         <v>-1.32</v>
@@ -4711,16 +4711,16 @@
         <v>106</v>
       </c>
       <c r="C98">
-        <v>-25.6</v>
+        <v>-18</v>
       </c>
       <c r="D98">
-        <v>-48.3</v>
+        <v>-30.1</v>
       </c>
       <c r="E98">
-        <v>-44.9</v>
+        <v>-0.6</v>
       </c>
       <c r="F98">
-        <v>-77.1</v>
+        <v>71.3</v>
       </c>
       <c r="G98">
         <v>-0.93</v>
@@ -4743,16 +4743,16 @@
         <v>107</v>
       </c>
       <c r="C99">
-        <v>-21.3</v>
+        <v>-13.1</v>
       </c>
       <c r="D99">
-        <v>-43.1</v>
+        <v>-22.7</v>
       </c>
       <c r="E99">
-        <v>-33.8</v>
+        <v>16.7</v>
       </c>
       <c r="F99">
-        <v>-74.9</v>
+        <v>75.2</v>
       </c>
       <c r="G99">
         <v>-0.94</v>
@@ -4775,16 +4775,16 @@
         <v>108</v>
       </c>
       <c r="C100">
-        <v>-59.8</v>
+        <v>-57</v>
       </c>
       <c r="D100">
-        <v>-56.8</v>
+        <v>-48.8</v>
       </c>
       <c r="E100">
-        <v>-37.2</v>
+        <v>-20</v>
       </c>
       <c r="F100">
-        <v>-59.6</v>
+        <v>-4.9</v>
       </c>
       <c r="G100">
         <v>-1.3</v>
@@ -4807,16 +4807,16 @@
         <v>109</v>
       </c>
       <c r="C101">
-        <v>-34.9</v>
+        <v>-29.3</v>
       </c>
       <c r="D101">
-        <v>-53.1</v>
+        <v>-38.3</v>
       </c>
       <c r="E101">
-        <v>-42.4</v>
+        <v>-6.3</v>
       </c>
       <c r="F101">
-        <v>-51.1</v>
+        <v>94.4</v>
       </c>
       <c r="G101">
         <v>-1.3</v>
@@ -4839,16 +4839,16 @@
         <v>110</v>
       </c>
       <c r="C102">
-        <v>-32.9</v>
+        <v>-27.1</v>
       </c>
       <c r="D102">
-        <v>-47.1</v>
+        <v>-31.5</v>
       </c>
       <c r="E102">
-        <v>-36.6</v>
+        <v>1.1</v>
       </c>
       <c r="F102">
-        <v>-39.4</v>
+        <v>99.9</v>
       </c>
       <c r="G102">
         <v>-1.36</v>
@@ -4871,16 +4871,16 @@
         <v>111</v>
       </c>
       <c r="C103">
-        <v>-23.8</v>
+        <v>-15.3</v>
       </c>
       <c r="D103">
-        <v>-34.8</v>
+        <v>-11.6</v>
       </c>
       <c r="E103">
-        <v>-19.1</v>
+        <v>40.7</v>
       </c>
       <c r="F103">
-        <v>-1.3</v>
+        <v>277.5</v>
       </c>
       <c r="G103">
         <v>-1.15</v>
@@ -4903,16 +4903,16 @@
         <v>112</v>
       </c>
       <c r="C104">
-        <v>-32.6</v>
+        <v>-27.3</v>
       </c>
       <c r="D104">
-        <v>-46.4</v>
+        <v>-31.9</v>
       </c>
       <c r="E104">
-        <v>-32.1</v>
+        <v>4</v>
       </c>
       <c r="F104">
-        <v>-30.1</v>
+        <v>100.8</v>
       </c>
       <c r="G104">
         <v>-1.39</v>
@@ -4935,16 +4935,16 @@
         <v>113</v>
       </c>
       <c r="C105">
-        <v>-29.5</v>
+        <v>-22.9</v>
       </c>
       <c r="D105">
-        <v>-43.3</v>
+        <v>-25.7</v>
       </c>
       <c r="E105">
-        <v>-22.5</v>
+        <v>21.3</v>
       </c>
       <c r="F105">
-        <v>-31.8</v>
+        <v>121.3</v>
       </c>
       <c r="G105">
         <v>-1.19</v>
@@ -4967,16 +4967,16 @@
         <v>114</v>
       </c>
       <c r="C106">
-        <v>-29.6</v>
+        <v>-22.9</v>
       </c>
       <c r="D106">
-        <v>-43.7</v>
+        <v>-26.1</v>
       </c>
       <c r="E106">
-        <v>-28.3</v>
+        <v>15.5</v>
       </c>
       <c r="F106">
-        <v>-28.3</v>
+        <v>121.2</v>
       </c>
       <c r="G106">
         <v>-1.21</v>
@@ -4999,16 +4999,16 @@
         <v>115</v>
       </c>
       <c r="C107">
-        <v>-28.2</v>
+        <v>-22.6</v>
       </c>
       <c r="D107">
-        <v>-45</v>
+        <v>-30.6</v>
       </c>
       <c r="E107">
-        <v>-28.6</v>
+        <v>10.5</v>
       </c>
       <c r="F107">
-        <v>-44.2</v>
+        <v>88.8</v>
       </c>
       <c r="G107">
         <v>-1.12</v>
@@ -5031,16 +5031,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>-29.8</v>
+        <v>-23</v>
       </c>
       <c r="D108">
-        <v>-44.1</v>
+        <v>-25.9</v>
       </c>
       <c r="E108">
-        <v>-22</v>
+        <v>24.2</v>
       </c>
       <c r="F108">
-        <v>-21.7</v>
+        <v>151.7</v>
       </c>
       <c r="G108">
         <v>-1.2</v>
@@ -5063,16 +5063,16 @@
         <v>117</v>
       </c>
       <c r="C109">
-        <v>-30.7</v>
+        <v>-23</v>
       </c>
       <c r="D109">
-        <v>-35.3</v>
+        <v>-14.4</v>
       </c>
       <c r="E109">
-        <v>-20.5</v>
+        <v>32.5</v>
       </c>
       <c r="F109">
-        <v>-15.9</v>
+        <v>212.2</v>
       </c>
       <c r="G109">
         <v>-1.2</v>
@@ -5095,16 +5095,16 @@
         <v>118</v>
       </c>
       <c r="C110">
-        <v>-29.2</v>
+        <v>-21.2</v>
       </c>
       <c r="D110">
-        <v>-33.6</v>
+        <v>-11.1</v>
       </c>
       <c r="E110">
-        <v>-11.6</v>
+        <v>47.5</v>
       </c>
       <c r="F110">
-        <v>31.8</v>
+        <v>345.6</v>
       </c>
       <c r="G110">
         <v>-1.31</v>
@@ -5127,16 +5127,16 @@
         <v>119</v>
       </c>
       <c r="C111">
-        <v>-30.2</v>
+        <v>-23.2</v>
       </c>
       <c r="D111">
-        <v>-42</v>
+        <v>-23.2</v>
       </c>
       <c r="E111">
-        <v>-32.6</v>
+        <v>16.1</v>
       </c>
       <c r="F111">
-        <v>-25.4</v>
+        <v>167.4</v>
       </c>
       <c r="G111">
         <v>-1.15</v>
@@ -5159,16 +5159,16 @@
         <v>120</v>
       </c>
       <c r="C112">
-        <v>-32</v>
+        <v>-26.2</v>
       </c>
       <c r="D112">
-        <v>-43.9</v>
+        <v>-28.2</v>
       </c>
       <c r="E112">
-        <v>-30.1</v>
+        <v>9.9</v>
       </c>
       <c r="F112">
-        <v>-29.5</v>
+        <v>101.5</v>
       </c>
       <c r="G112">
         <v>-1.37</v>
@@ -5191,16 +5191,16 @@
         <v>121</v>
       </c>
       <c r="C113">
-        <v>-51.4</v>
+        <v>-48.5</v>
       </c>
       <c r="D113">
-        <v>-53</v>
+        <v>-44.9</v>
       </c>
       <c r="E113">
-        <v>-27.6</v>
+        <v>-9.1</v>
       </c>
       <c r="F113">
-        <v>-37.5</v>
+        <v>19.3</v>
       </c>
       <c r="G113">
         <v>-1.27</v>
@@ -5223,16 +5223,16 @@
         <v>122</v>
       </c>
       <c r="C114">
-        <v>-57.2</v>
+        <v>-55.2</v>
       </c>
       <c r="D114">
-        <v>-60.3</v>
+        <v>-54.3</v>
       </c>
       <c r="E114">
-        <v>-35.2</v>
+        <v>-19.4</v>
       </c>
       <c r="F114">
-        <v>-20.9</v>
+        <v>30.7</v>
       </c>
       <c r="G114">
         <v>-1.26</v>
@@ -5255,16 +5255,16 @@
         <v>123</v>
       </c>
       <c r="C115">
-        <v>-13.6</v>
+        <v>-6.7</v>
       </c>
       <c r="D115">
-        <v>-28.5</v>
+        <v>-9.3</v>
       </c>
       <c r="E115">
-        <v>1.3</v>
+        <v>60.1</v>
       </c>
       <c r="F115">
-        <v>-26.6</v>
+        <v>155.6</v>
       </c>
       <c r="G115">
         <v>-1.03</v>
@@ -5287,16 +5287,16 @@
         <v>124</v>
       </c>
       <c r="C116">
-        <v>-57.9</v>
+        <v>-53.3</v>
       </c>
       <c r="D116">
-        <v>-60</v>
+        <v>-47.5</v>
       </c>
       <c r="E116">
-        <v>-45.3</v>
+        <v>-14.8</v>
       </c>
       <c r="F116">
-        <v>-42.6</v>
+        <v>63.2</v>
       </c>
       <c r="G116">
         <v>-1.43</v>
@@ -5319,16 +5319,16 @@
         <v>125</v>
       </c>
       <c r="C117">
-        <v>-24.3</v>
+        <v>-15.3</v>
       </c>
       <c r="D117">
-        <v>-33.6</v>
+        <v>-8</v>
       </c>
       <c r="E117">
-        <v>-8.5</v>
+        <v>58.9</v>
       </c>
       <c r="F117">
-        <v>34.3</v>
+        <v>372.8</v>
       </c>
       <c r="G117">
         <v>-1.2</v>
@@ -5351,16 +5351,16 @@
         <v>126</v>
       </c>
       <c r="C118">
-        <v>-27.8</v>
+        <v>-21.9</v>
       </c>
       <c r="D118">
-        <v>-44.3</v>
+        <v>-29.2</v>
       </c>
       <c r="E118">
-        <v>-27.4</v>
+        <v>15.8</v>
       </c>
       <c r="F118">
-        <v>-40.2</v>
+        <v>106.2</v>
       </c>
       <c r="G118">
         <v>-1.03</v>
@@ -5383,16 +5383,16 @@
         <v>127</v>
       </c>
       <c r="C119">
-        <v>-19.7</v>
+        <v>-12.9</v>
       </c>
       <c r="D119">
-        <v>-36.6</v>
+        <v>-18.9</v>
       </c>
       <c r="E119">
-        <v>-20.1</v>
+        <v>31</v>
       </c>
       <c r="F119">
-        <v>-38.6</v>
+        <v>139.7</v>
       </c>
       <c r="G119">
         <v>-0.97</v>
@@ -5415,16 +5415,16 @@
         <v>128</v>
       </c>
       <c r="C120">
-        <v>-20.9</v>
+        <v>-14.8</v>
       </c>
       <c r="D120">
-        <v>-33.4</v>
+        <v>-16.9</v>
       </c>
       <c r="E120">
-        <v>-2.9</v>
+        <v>46.5</v>
       </c>
       <c r="F120">
-        <v>-13.5</v>
+        <v>151.4</v>
       </c>
       <c r="G120">
         <v>-1.06</v>
@@ -5447,16 +5447,16 @@
         <v>129</v>
       </c>
       <c r="C121">
-        <v>-53.4</v>
+        <v>-49.4</v>
       </c>
       <c r="D121">
-        <v>-52.8</v>
+        <v>-42.1</v>
       </c>
       <c r="E121">
-        <v>-40.1</v>
+        <v>-15.4</v>
       </c>
       <c r="F121">
-        <v>-60.1</v>
+        <v>13.5</v>
       </c>
       <c r="G121">
         <v>-1.28</v>
@@ -5479,16 +5479,16 @@
         <v>130</v>
       </c>
       <c r="C122">
-        <v>-28.4</v>
+        <v>-23.2</v>
       </c>
       <c r="D122">
-        <v>-43</v>
+        <v>-28.6</v>
       </c>
       <c r="E122">
-        <v>-26.8</v>
+        <v>10.8</v>
       </c>
       <c r="F122">
-        <v>-29.7</v>
+        <v>93.4</v>
       </c>
       <c r="G122">
         <v>-1.42</v>
@@ -5511,16 +5511,16 @@
         <v>131</v>
       </c>
       <c r="C123">
-        <v>-28.8</v>
+        <v>-22.6</v>
       </c>
       <c r="D123">
-        <v>-42.1</v>
+        <v>-25.4</v>
       </c>
       <c r="E123">
-        <v>-23.7</v>
+        <v>19</v>
       </c>
       <c r="F123">
-        <v>-21.8</v>
+        <v>124.7</v>
       </c>
       <c r="G123">
         <v>-1.24</v>
@@ -5543,16 +5543,16 @@
         <v>132</v>
       </c>
       <c r="C124">
-        <v>-25.2</v>
+        <v>-17.6</v>
       </c>
       <c r="D124">
-        <v>-41.3</v>
+        <v>-20.4</v>
       </c>
       <c r="E124">
-        <v>-6.3</v>
+        <v>49.6</v>
       </c>
       <c r="F124">
-        <v>15.1</v>
+        <v>254.5</v>
       </c>
       <c r="G124">
         <v>-1.28</v>
@@ -5575,16 +5575,16 @@
         <v>133</v>
       </c>
       <c r="C125">
-        <v>-40.3</v>
+        <v>-34.2</v>
       </c>
       <c r="D125">
-        <v>-37.6</v>
+        <v>-19.6</v>
       </c>
       <c r="E125">
-        <v>-17.4</v>
+        <v>31</v>
       </c>
       <c r="F125">
-        <v>5.7</v>
+        <v>214.7</v>
       </c>
       <c r="G125">
         <v>-1.42</v>
@@ -5607,16 +5607,16 @@
         <v>134</v>
       </c>
       <c r="C126">
-        <v>-33.8</v>
+        <v>-26.6</v>
       </c>
       <c r="D126">
-        <v>-36.1</v>
+        <v>-15.4</v>
       </c>
       <c r="E126">
-        <v>-17.6</v>
+        <v>37.1</v>
       </c>
       <c r="F126">
-        <v>34.8</v>
+        <v>324.3</v>
       </c>
       <c r="G126">
         <v>-1.41</v>
@@ -5639,16 +5639,16 @@
         <v>135</v>
       </c>
       <c r="C127">
-        <v>-26</v>
+        <v>-16.8</v>
       </c>
       <c r="D127">
-        <v>-36.5</v>
+        <v>-9</v>
       </c>
       <c r="E127">
-        <v>-6.3</v>
+        <v>69.1</v>
       </c>
       <c r="F127">
-        <v>56.2</v>
+        <v>455.6</v>
       </c>
       <c r="G127">
         <v>-1.26</v>
@@ -5671,16 +5671,16 @@
         <v>136</v>
       </c>
       <c r="C128">
-        <v>-26.9</v>
+        <v>-18.3</v>
       </c>
       <c r="D128">
-        <v>-41.9</v>
+        <v>-17.8</v>
       </c>
       <c r="E128">
-        <v>-3.6</v>
+        <v>61.5</v>
       </c>
       <c r="F128">
-        <v>43.5</v>
+        <v>387.5</v>
       </c>
       <c r="G128">
         <v>-1.23</v>
@@ -5703,16 +5703,16 @@
         <v>137</v>
       </c>
       <c r="C129">
-        <v>-38.1</v>
+        <v>-30.5</v>
       </c>
       <c r="D129">
-        <v>-39.6</v>
+        <v>-17.3</v>
       </c>
       <c r="E129">
-        <v>-27.3</v>
+        <v>25.9</v>
       </c>
       <c r="F129">
-        <v>-18.6</v>
+        <v>189.6</v>
       </c>
       <c r="G129">
         <v>-1.44</v>
@@ -5735,16 +5735,16 @@
         <v>138</v>
       </c>
       <c r="C130">
-        <v>-40.5</v>
+        <v>-32.8</v>
       </c>
       <c r="D130">
-        <v>-43.5</v>
+        <v>-21.9</v>
       </c>
       <c r="E130">
-        <v>-29.7</v>
+        <v>22.4</v>
       </c>
       <c r="F130">
-        <v>-27.5</v>
+        <v>163.4</v>
       </c>
       <c r="G130">
         <v>-1.42</v>
@@ -5767,16 +5767,16 @@
         <v>139</v>
       </c>
       <c r="C131">
-        <v>-31</v>
+        <v>-24.6</v>
       </c>
       <c r="D131">
-        <v>-44.3</v>
+        <v>-26.3</v>
       </c>
       <c r="E131">
-        <v>-22.6</v>
+        <v>25.2</v>
       </c>
       <c r="F131">
-        <v>-21.2</v>
+        <v>142.9</v>
       </c>
       <c r="G131">
         <v>-1.42</v>
@@ -5799,16 +5799,16 @@
         <v>140</v>
       </c>
       <c r="C132">
-        <v>-30.4</v>
+        <v>-22.2</v>
       </c>
       <c r="D132">
-        <v>-45.3</v>
+        <v>-22.3</v>
       </c>
       <c r="E132">
-        <v>-14.4</v>
+        <v>45.3</v>
       </c>
       <c r="F132">
-        <v>11.8</v>
+        <v>312.5</v>
       </c>
       <c r="G132">
         <v>-1.2</v>
@@ -5831,16 +5831,16 @@
         <v>141</v>
       </c>
       <c r="C133">
-        <v>-53.2</v>
+        <v>-50.8</v>
       </c>
       <c r="D133">
-        <v>-60.3</v>
+        <v>-53.6</v>
       </c>
       <c r="E133">
-        <v>-43.4</v>
+        <v>-25.8</v>
       </c>
       <c r="F133">
-        <v>-37</v>
+        <v>21</v>
       </c>
       <c r="G133">
         <v>-1.26</v>
@@ -5863,16 +5863,16 @@
         <v>142</v>
       </c>
       <c r="C134">
-        <v>-48.7</v>
+        <v>-45.4</v>
       </c>
       <c r="D134">
-        <v>-47.4</v>
+        <v>-38.4</v>
       </c>
       <c r="E134">
-        <v>-20.5</v>
+        <v>3</v>
       </c>
       <c r="F134">
-        <v>-29.9</v>
+        <v>46.2</v>
       </c>
       <c r="G134">
         <v>-1.26</v>
@@ -5895,16 +5895,16 @@
         <v>143</v>
       </c>
       <c r="C135">
-        <v>-26.8</v>
+        <v>-18.2</v>
       </c>
       <c r="D135">
-        <v>-37.8</v>
+        <v>-13.6</v>
       </c>
       <c r="E135">
-        <v>-17.1</v>
+        <v>45.4</v>
       </c>
       <c r="F135">
-        <v>15.9</v>
+        <v>325.1</v>
       </c>
       <c r="G135">
         <v>-1.19</v>
@@ -5927,16 +5927,16 @@
         <v>144</v>
       </c>
       <c r="C136">
-        <v>-37.4</v>
+        <v>-28.6</v>
       </c>
       <c r="D136">
-        <v>-51.2</v>
+        <v>-25.3</v>
       </c>
       <c r="E136">
-        <v>-25.8</v>
+        <v>41.1</v>
       </c>
       <c r="F136">
-        <v>27.9</v>
+        <v>373.1</v>
       </c>
       <c r="G136">
         <v>-1.21</v>
@@ -5959,16 +5959,16 @@
         <v>145</v>
       </c>
       <c r="C137">
-        <v>-19.5</v>
+        <v>-10.6</v>
       </c>
       <c r="D137">
-        <v>-16.7</v>
+        <v>10.4</v>
       </c>
       <c r="E137">
-        <v>22.9</v>
+        <v>101.8</v>
       </c>
       <c r="F137">
-        <v>86.8</v>
+        <v>505.4</v>
       </c>
       <c r="G137">
         <v>-1.34</v>
@@ -5991,16 +5991,16 @@
         <v>146</v>
       </c>
       <c r="C138">
-        <v>-34.9</v>
+        <v>-27.9</v>
       </c>
       <c r="D138">
-        <v>-48.7</v>
+        <v>-31.1</v>
       </c>
       <c r="E138">
-        <v>-37.2</v>
+        <v>7.6</v>
       </c>
       <c r="F138">
-        <v>-68.2</v>
+        <v>77.8</v>
       </c>
       <c r="G138">
         <v>-0.95</v>
@@ -6023,16 +6023,16 @@
         <v>147</v>
       </c>
       <c r="C139">
-        <v>-47</v>
+        <v>-41.1</v>
       </c>
       <c r="D139">
-        <v>-60</v>
+        <v>-45.9</v>
       </c>
       <c r="E139">
-        <v>-49.8</v>
+        <v>-15.5</v>
       </c>
       <c r="F139">
-        <v>-73.7</v>
+        <v>50.6</v>
       </c>
       <c r="G139">
         <v>-0.95</v>
@@ -6055,16 +6055,16 @@
         <v>148</v>
       </c>
       <c r="C140">
-        <v>-31.6</v>
+        <v>-24.7</v>
       </c>
       <c r="D140">
-        <v>-47.8</v>
+        <v>-29.9</v>
       </c>
       <c r="E140">
-        <v>-24</v>
+        <v>22.5</v>
       </c>
       <c r="F140">
-        <v>-28.4</v>
+        <v>154</v>
       </c>
       <c r="G140">
         <v>-1.19</v>
@@ -6087,16 +6087,16 @@
         <v>149</v>
       </c>
       <c r="C141">
-        <v>-29.5</v>
+        <v>-22.3</v>
       </c>
       <c r="D141">
-        <v>-45.9</v>
+        <v>-27.1</v>
       </c>
       <c r="E141">
-        <v>-20.7</v>
+        <v>25.8</v>
       </c>
       <c r="F141">
-        <v>-36</v>
+        <v>136.8</v>
       </c>
       <c r="G141">
         <v>-1.19</v>
@@ -6119,16 +6119,16 @@
         <v>150</v>
       </c>
       <c r="C142">
-        <v>-58.2</v>
+        <v>-55.5</v>
       </c>
       <c r="D142">
-        <v>-61.3</v>
+        <v>-54</v>
       </c>
       <c r="E142">
-        <v>-50.8</v>
+        <v>-34.2</v>
       </c>
       <c r="F142">
-        <v>-62</v>
+        <v>-13.5</v>
       </c>
       <c r="G142">
         <v>-1.27</v>
@@ -6151,16 +6151,16 @@
         <v>151</v>
       </c>
       <c r="C143">
-        <v>-38.7</v>
+        <v>-33.3</v>
       </c>
       <c r="D143">
-        <v>-51.5</v>
+        <v>-37.5</v>
       </c>
       <c r="E143">
-        <v>-39.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F143">
-        <v>-58.6</v>
+        <v>76.6</v>
       </c>
       <c r="G143">
         <v>-0.95</v>
@@ -6183,16 +6183,16 @@
         <v>152</v>
       </c>
       <c r="C144">
-        <v>-48.3</v>
+        <v>-43.3</v>
       </c>
       <c r="D144">
-        <v>-46.4</v>
+        <v>-32.5</v>
       </c>
       <c r="E144">
-        <v>-36</v>
+        <v>-0.9</v>
       </c>
       <c r="F144">
-        <v>-47.8</v>
+        <v>75.8</v>
       </c>
       <c r="G144">
         <v>-1.22</v>
@@ -6215,16 +6215,16 @@
         <v>153</v>
       </c>
       <c r="C145">
-        <v>-40.8</v>
+        <v>-34.9</v>
       </c>
       <c r="D145">
-        <v>-43.1</v>
+        <v>-27.1</v>
       </c>
       <c r="E145">
-        <v>-36</v>
+        <v>4</v>
       </c>
       <c r="F145">
-        <v>-40.8</v>
+        <v>97.5</v>
       </c>
       <c r="G145">
         <v>-1.14</v>
@@ -6247,16 +6247,16 @@
         <v>154</v>
       </c>
       <c r="C146">
-        <v>-52.6</v>
+        <v>-49.6</v>
       </c>
       <c r="D146">
-        <v>-56.4</v>
+        <v>-48.2</v>
       </c>
       <c r="E146">
-        <v>-39.7</v>
+        <v>-21.4</v>
       </c>
       <c r="F146">
-        <v>-53.6</v>
+        <v>3.3</v>
       </c>
       <c r="G146">
         <v>-1.27</v>
@@ -6279,16 +6279,16 @@
         <v>155</v>
       </c>
       <c r="C147">
-        <v>-35.8</v>
+        <v>-30.3</v>
       </c>
       <c r="D147">
-        <v>-45.7</v>
+        <v>-30.6</v>
       </c>
       <c r="E147">
-        <v>-28.7</v>
+        <v>9.9</v>
       </c>
       <c r="F147">
-        <v>-27.4</v>
+        <v>93.9</v>
       </c>
       <c r="G147">
         <v>-1.42</v>
@@ -6311,16 +6311,16 @@
         <v>156</v>
       </c>
       <c r="C148">
-        <v>-29.2</v>
+        <v>-25.5</v>
       </c>
       <c r="D148">
-        <v>-43.6</v>
+        <v>-35.2</v>
       </c>
       <c r="E148">
-        <v>-53.4</v>
+        <v>-34.2</v>
       </c>
       <c r="F148">
-        <v>-46.8</v>
+        <v>6</v>
       </c>
       <c r="G148">
         <v>-0.49</v>
@@ -6343,16 +6343,16 @@
         <v>157</v>
       </c>
       <c r="C149">
-        <v>-52.7</v>
+        <v>-49.3</v>
       </c>
       <c r="D149">
-        <v>-46.5</v>
+        <v>-37</v>
       </c>
       <c r="E149">
-        <v>-16.4</v>
+        <v>8.8</v>
       </c>
       <c r="F149">
-        <v>-27.6</v>
+        <v>53.9</v>
       </c>
       <c r="G149">
         <v>-1.26</v>
@@ -6375,16 +6375,16 @@
         <v>158</v>
       </c>
       <c r="C150">
-        <v>-15.7</v>
+        <v>-7.2</v>
       </c>
       <c r="D150">
-        <v>-20.7</v>
+        <v>5.1</v>
       </c>
       <c r="E150">
-        <v>61.1</v>
+        <v>143.9</v>
       </c>
       <c r="F150">
-        <v>100.3</v>
+        <v>548.1</v>
       </c>
       <c r="G150">
         <v>-1.3</v>
@@ -6407,16 +6407,16 @@
         <v>159</v>
       </c>
       <c r="C151">
-        <v>-17.6</v>
+        <v>-10.6</v>
       </c>
       <c r="D151">
-        <v>-30.6</v>
+        <v>-9.2</v>
       </c>
       <c r="E151">
-        <v>34.3</v>
+        <v>102.5</v>
       </c>
       <c r="F151">
-        <v>21.3</v>
+        <v>263.6</v>
       </c>
       <c r="G151">
         <v>-1.4</v>
@@ -6439,16 +6439,16 @@
         <v>160</v>
       </c>
       <c r="C152">
-        <v>-13.1</v>
+        <v>-6.1</v>
       </c>
       <c r="D152">
-        <v>-26.5</v>
+        <v>-4.9</v>
       </c>
       <c r="E152">
-        <v>28.1</v>
+        <v>95.8</v>
       </c>
       <c r="F152">
-        <v>27.6</v>
+        <v>276.9</v>
       </c>
       <c r="G152">
         <v>-1.41</v>
@@ -6471,16 +6471,16 @@
         <v>161</v>
       </c>
       <c r="C153">
-        <v>-20.1</v>
+        <v>-13.2</v>
       </c>
       <c r="D153">
-        <v>-32.3</v>
+        <v>-12.6</v>
       </c>
       <c r="E153">
-        <v>-5.4</v>
+        <v>49.7</v>
       </c>
       <c r="F153">
-        <v>-8.1</v>
+        <v>185.3</v>
       </c>
       <c r="G153">
         <v>-1.42</v>
@@ -6503,16 +6503,16 @@
         <v>162</v>
       </c>
       <c r="C154">
-        <v>-6.4</v>
+        <v>2.4</v>
       </c>
       <c r="D154">
-        <v>-23</v>
+        <v>1.9</v>
       </c>
       <c r="E154">
-        <v>-9.6</v>
+        <v>58.6</v>
       </c>
       <c r="F154">
-        <v>-62.9</v>
+        <v>130</v>
       </c>
       <c r="G154">
         <v>-0.95</v>
@@ -6535,16 +6535,16 @@
         <v>163</v>
       </c>
       <c r="C155">
-        <v>-24.6</v>
+        <v>-16.7</v>
       </c>
       <c r="D155">
-        <v>-48.5</v>
+        <v>-29.2</v>
       </c>
       <c r="E155">
-        <v>-48.6</v>
+        <v>2.4</v>
       </c>
       <c r="F155">
-        <v>-76.8</v>
+        <v>83.2</v>
       </c>
       <c r="G155">
         <v>-0.84</v>
@@ -6567,16 +6567,16 @@
         <v>164</v>
       </c>
       <c r="C156">
-        <v>-29.1</v>
+        <v>-25.5</v>
       </c>
       <c r="D156">
-        <v>-39.7</v>
+        <v>-30.9</v>
       </c>
       <c r="E156">
-        <v>-39.8</v>
+        <v>-18.8</v>
       </c>
       <c r="F156">
-        <v>-2.5</v>
+        <v>54.3</v>
       </c>
       <c r="G156">
         <v>-0.47</v>
@@ -6599,16 +6599,16 @@
         <v>165</v>
       </c>
       <c r="C157">
-        <v>-28.4</v>
+        <v>-25.3</v>
       </c>
       <c r="D157">
-        <v>-27.6</v>
+        <v>-20.6</v>
       </c>
       <c r="E157">
-        <v>-18.8</v>
+        <v>-1.2</v>
       </c>
       <c r="F157">
-        <v>-18.6</v>
+        <v>39.8</v>
       </c>
       <c r="G157">
         <v>-0.51</v>
@@ -6631,16 +6631,16 @@
         <v>166</v>
       </c>
       <c r="C158">
-        <v>-24.7</v>
+        <v>-21.8</v>
       </c>
       <c r="D158">
-        <v>-26.4</v>
+        <v>-19.7</v>
       </c>
       <c r="E158">
-        <v>-17.4</v>
+        <v>-0.7</v>
       </c>
       <c r="F158">
-        <v>-24.6</v>
+        <v>30.8</v>
       </c>
       <c r="G158">
         <v>-0.52</v>
@@ -6663,16 +6663,16 @@
         <v>167</v>
       </c>
       <c r="C159">
-        <v>-8.9</v>
+        <v>-6.1</v>
       </c>
       <c r="D159">
-        <v>-0.8</v>
+        <v>6.1</v>
       </c>
       <c r="E159">
-        <v>32.3</v>
+        <v>50.9</v>
       </c>
       <c r="F159">
-        <v>-14.3</v>
+        <v>33.9</v>
       </c>
       <c r="G159">
         <v>-0.69</v>
@@ -6695,16 +6695,16 @@
         <v>168</v>
       </c>
       <c r="C160">
-        <v>-12.7</v>
+        <v>-11.3</v>
       </c>
       <c r="D160">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="E160">
-        <v>109</v>
+        <v>120.5</v>
       </c>
       <c r="F160">
-        <v>28.9</v>
+        <v>61.7</v>
       </c>
       <c r="G160">
         <v>-0.5</v>
@@ -6727,16 +6727,16 @@
         <v>169</v>
       </c>
       <c r="C161">
-        <v>-14.9</v>
+        <v>-12.9</v>
       </c>
       <c r="D161">
-        <v>-4.1</v>
+        <v>0.9</v>
       </c>
       <c r="E161">
-        <v>65</v>
+        <v>79.5</v>
       </c>
       <c r="F161">
-        <v>-14.6</v>
+        <v>21.1</v>
       </c>
       <c r="G161">
         <v>-0.48</v>
@@ -6759,16 +6759,16 @@
         <v>170</v>
       </c>
       <c r="C162">
-        <v>-4.1</v>
+        <v>-1</v>
       </c>
       <c r="D162">
-        <v>5.1</v>
+        <v>12.9</v>
       </c>
       <c r="E162">
-        <v>40.8</v>
+        <v>61.3</v>
       </c>
       <c r="F162">
-        <v>-9.4</v>
+        <v>47</v>
       </c>
       <c r="G162">
         <v>-0.65</v>
@@ -6791,16 +6791,16 @@
         <v>171</v>
       </c>
       <c r="C163">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="D163">
-        <v>3.3</v>
+        <v>11.7</v>
       </c>
       <c r="E163">
-        <v>33.7</v>
+        <v>56</v>
       </c>
       <c r="F163">
-        <v>4.6</v>
+        <v>73.9</v>
       </c>
       <c r="G163">
         <v>-0.62</v>
@@ -6823,16 +6823,16 @@
         <v>172</v>
       </c>
       <c r="C164">
-        <v>-9.8</v>
+        <v>-8.3</v>
       </c>
       <c r="D164">
-        <v>-7.1</v>
+        <v>-3.1</v>
       </c>
       <c r="E164">
-        <v>86.1</v>
+        <v>98.8</v>
       </c>
       <c r="F164">
-        <v>-1.9</v>
+        <v>32.2</v>
       </c>
       <c r="G164">
         <v>-0.56</v>
@@ -6855,16 +6855,16 @@
         <v>173</v>
       </c>
       <c r="C165">
-        <v>-19.1</v>
+        <v>-17.1</v>
       </c>
       <c r="D165">
-        <v>-15.5</v>
+        <v>-10.2</v>
       </c>
       <c r="E165">
-        <v>72.9</v>
+        <v>91.2</v>
       </c>
       <c r="F165">
-        <v>-10.5</v>
+        <v>33.8</v>
       </c>
       <c r="G165">
         <v>-0.92</v>
@@ -6887,16 +6887,16 @@
         <v>174</v>
       </c>
       <c r="C166">
-        <v>-24.5</v>
+        <v>-22.7</v>
       </c>
       <c r="D166">
-        <v>-16.8</v>
+        <v>-12.4</v>
       </c>
       <c r="E166">
-        <v>32.7</v>
+        <v>44.3</v>
       </c>
       <c r="F166">
-        <v>-17.8</v>
+        <v>17.8</v>
       </c>
       <c r="G166">
         <v>-0.46</v>
@@ -6919,16 +6919,16 @@
         <v>175</v>
       </c>
       <c r="C167">
-        <v>-55.6</v>
+        <v>-53.5</v>
       </c>
       <c r="D167">
-        <v>-58</v>
+        <v>-52.5</v>
       </c>
       <c r="E167">
-        <v>-24.6</v>
+        <v>-11.7</v>
       </c>
       <c r="F167">
-        <v>-63.8</v>
+        <v>-19.9</v>
       </c>
       <c r="G167">
         <v>-0.47</v>
@@ -6951,16 +6951,16 @@
         <v>176</v>
       </c>
       <c r="C168">
-        <v>-50.8</v>
+        <v>-48.8</v>
       </c>
       <c r="D168">
-        <v>-59.4</v>
+        <v>-54.5</v>
       </c>
       <c r="E168">
-        <v>-22.9</v>
+        <v>-12.1</v>
       </c>
       <c r="F168">
-        <v>-52.6</v>
+        <v>-16.2</v>
       </c>
       <c r="G168">
         <v>-0.44</v>
@@ -6983,16 +6983,16 @@
         <v>177</v>
       </c>
       <c r="C169">
-        <v>-56</v>
+        <v>-53.8</v>
       </c>
       <c r="D169">
-        <v>-61.2</v>
+        <v>-55.9</v>
       </c>
       <c r="E169">
-        <v>-29.9</v>
+        <v>-18.2</v>
       </c>
       <c r="F169">
-        <v>-53.6</v>
+        <v>-11.4</v>
       </c>
       <c r="G169">
         <v>-0.48</v>
@@ -7015,16 +7015,16 @@
         <v>178</v>
       </c>
       <c r="C170">
-        <v>-19.7</v>
+        <v>-17.2</v>
       </c>
       <c r="D170">
-        <v>-19.4</v>
+        <v>-13.4</v>
       </c>
       <c r="E170">
-        <v>5.3</v>
+        <v>21</v>
       </c>
       <c r="F170">
-        <v>-18.2</v>
+        <v>30.5</v>
       </c>
       <c r="G170">
         <v>-0.8</v>
@@ -7047,16 +7047,16 @@
         <v>179</v>
       </c>
       <c r="C171">
-        <v>-13.1</v>
+        <v>-10</v>
       </c>
       <c r="D171">
-        <v>-16.6</v>
+        <v>-9.4</v>
       </c>
       <c r="E171">
-        <v>1.2</v>
+        <v>20.4</v>
       </c>
       <c r="F171">
-        <v>-3.7</v>
+        <v>60.6</v>
       </c>
       <c r="G171">
         <v>-0.58</v>
@@ -7079,16 +7079,16 @@
         <v>180</v>
       </c>
       <c r="C172">
-        <v>-22.1</v>
+        <v>-19.1</v>
       </c>
       <c r="D172">
-        <v>-26.5</v>
+        <v>-19.6</v>
       </c>
       <c r="E172">
-        <v>-17.5</v>
+        <v>-0.2</v>
       </c>
       <c r="F172">
-        <v>-24.5</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>-0.93</v>
@@ -7111,16 +7111,16 @@
         <v>181</v>
       </c>
       <c r="C173">
-        <v>-33.8</v>
+        <v>-31.6</v>
       </c>
       <c r="D173">
-        <v>-35.2</v>
+        <v>-29.7</v>
       </c>
       <c r="E173">
-        <v>14.9</v>
+        <v>26.5</v>
       </c>
       <c r="F173">
-        <v>30.3</v>
+        <v>67.3</v>
       </c>
       <c r="G173">
         <v>-0.41</v>
@@ -7143,16 +7143,16 @@
         <v>182</v>
       </c>
       <c r="C174">
-        <v>-34.2</v>
+        <v>-31.7</v>
       </c>
       <c r="D174">
-        <v>-38.2</v>
+        <v>-31.8</v>
       </c>
       <c r="E174">
-        <v>11.9</v>
+        <v>25.5</v>
       </c>
       <c r="F174">
-        <v>31.2</v>
+        <v>78.7</v>
       </c>
       <c r="G174">
         <v>-0.53</v>
@@ -7175,16 +7175,16 @@
         <v>183</v>
       </c>
       <c r="C175">
-        <v>-37.2</v>
+        <v>-35.7</v>
       </c>
       <c r="D175">
-        <v>-38.6</v>
+        <v>-34.9</v>
       </c>
       <c r="E175">
-        <v>-14.2</v>
+        <v>-6</v>
       </c>
       <c r="F175">
-        <v>-39.2</v>
+        <v>-9.9</v>
       </c>
       <c r="G175">
         <v>-0.99</v>
@@ -7207,16 +7207,16 @@
         <v>184</v>
       </c>
       <c r="C176">
-        <v>-28.5</v>
+        <v>-26.4</v>
       </c>
       <c r="D176">
-        <v>-23.9</v>
+        <v>-18.6</v>
       </c>
       <c r="E176">
-        <v>17.3</v>
+        <v>31.9</v>
       </c>
       <c r="F176">
-        <v>-27</v>
+        <v>15.6</v>
       </c>
       <c r="G176">
         <v>-0.7</v>
@@ -7239,16 +7239,16 @@
         <v>185</v>
       </c>
       <c r="C177">
-        <v>-27.9</v>
+        <v>-26</v>
       </c>
       <c r="D177">
-        <v>-25.5</v>
+        <v>-20.4</v>
       </c>
       <c r="E177">
-        <v>23.6</v>
+        <v>38.2</v>
       </c>
       <c r="F177">
-        <v>-36.1</v>
+        <v>3</v>
       </c>
       <c r="G177">
         <v>-2.23</v>
@@ -7271,16 +7271,16 @@
         <v>186</v>
       </c>
       <c r="C178">
-        <v>-48</v>
+        <v>-45.6</v>
       </c>
       <c r="D178">
-        <v>-50.8</v>
+        <v>-45</v>
       </c>
       <c r="E178">
-        <v>-31.2</v>
+        <v>-19.1</v>
       </c>
       <c r="F178">
-        <v>-28.5</v>
+        <v>14.1</v>
       </c>
       <c r="G178">
         <v>-0.68</v>
@@ -7303,16 +7303,16 @@
         <v>187</v>
       </c>
       <c r="C179">
-        <v>-39.5</v>
+        <v>-37.2</v>
       </c>
       <c r="D179">
-        <v>-50.2</v>
+        <v>-44.7</v>
       </c>
       <c r="E179">
-        <v>-9.8</v>
+        <v>1.9</v>
       </c>
       <c r="F179">
-        <v>-25.8</v>
+        <v>12.3</v>
       </c>
       <c r="G179">
         <v>-0.44</v>
@@ -7335,16 +7335,16 @@
         <v>188</v>
       </c>
       <c r="C180">
-        <v>-47.1</v>
+        <v>-44.8</v>
       </c>
       <c r="D180">
-        <v>-55.5</v>
+        <v>-50.1</v>
       </c>
       <c r="E180">
-        <v>-15</v>
+        <v>-2.7</v>
       </c>
       <c r="F180">
-        <v>-26.3</v>
+        <v>19</v>
       </c>
       <c r="G180">
         <v>-0.59</v>
@@ -7367,16 +7367,16 @@
         <v>189</v>
       </c>
       <c r="C181">
-        <v>-27.9</v>
+        <v>-23.4</v>
       </c>
       <c r="D181">
-        <v>-31.6</v>
+        <v>-21.5</v>
       </c>
       <c r="E181">
-        <v>-29.8</v>
+        <v>-8</v>
       </c>
       <c r="F181">
-        <v>-17.5</v>
+        <v>75.2</v>
       </c>
       <c r="G181">
         <v>-0.58</v>
@@ -7399,16 +7399,16 @@
         <v>190</v>
       </c>
       <c r="C182">
-        <v>-22.9</v>
+        <v>-18.8</v>
       </c>
       <c r="D182">
-        <v>-27.8</v>
+        <v>-18.1</v>
       </c>
       <c r="E182">
-        <v>-21.7</v>
+        <v>0.6</v>
       </c>
       <c r="F182">
-        <v>14.3</v>
+        <v>104</v>
       </c>
       <c r="G182">
         <v>-0.46</v>
@@ -7431,16 +7431,16 @@
         <v>191</v>
       </c>
       <c r="C183">
-        <v>-28.2</v>
+        <v>-24.7</v>
       </c>
       <c r="D183">
-        <v>-31.2</v>
+        <v>-22.8</v>
       </c>
       <c r="E183">
-        <v>-23.5</v>
+        <v>-3</v>
       </c>
       <c r="F183">
-        <v>29.8</v>
+        <v>114.3</v>
       </c>
       <c r="G183">
         <v>-0.48</v>
@@ -7463,16 +7463,16 @@
         <v>192</v>
       </c>
       <c r="C184">
-        <v>-16.2</v>
+        <v>-12.1</v>
       </c>
       <c r="D184">
-        <v>-18.3</v>
+        <v>-8.9</v>
       </c>
       <c r="E184">
-        <v>-12.3</v>
+        <v>10.6</v>
       </c>
       <c r="F184">
-        <v>64.5</v>
+        <v>168.8</v>
       </c>
       <c r="G184">
         <v>-0.48</v>
@@ -7495,16 +7495,16 @@
         <v>193</v>
       </c>
       <c r="C185">
-        <v>-17.8</v>
+        <v>-13.8</v>
       </c>
       <c r="D185">
-        <v>-18.5</v>
+        <v>-8.8</v>
       </c>
       <c r="E185">
-        <v>-2.8</v>
+        <v>20.6</v>
       </c>
       <c r="F185">
-        <v>113.7</v>
+        <v>214.4</v>
       </c>
       <c r="G185">
         <v>-0.48</v>
@@ -7527,16 +7527,16 @@
         <v>194</v>
       </c>
       <c r="C186">
-        <v>-45.9</v>
+        <v>-42.1</v>
       </c>
       <c r="D186">
-        <v>-52.4</v>
+        <v>-42.9</v>
       </c>
       <c r="E186">
-        <v>-21</v>
+        <v>-0.5</v>
       </c>
       <c r="F186">
-        <v>-4.5</v>
+        <v>89.4</v>
       </c>
       <c r="G186">
         <v>-0.87</v>
@@ -7559,16 +7559,16 @@
         <v>195</v>
       </c>
       <c r="C187">
-        <v>-47.5</v>
+        <v>-43.7</v>
       </c>
       <c r="D187">
-        <v>-59.5</v>
+        <v>-50.7</v>
       </c>
       <c r="E187">
-        <v>-41.2</v>
+        <v>-24.4</v>
       </c>
       <c r="F187">
-        <v>-6.2</v>
+        <v>86.3</v>
       </c>
       <c r="G187">
         <v>-1.1</v>
@@ -7591,16 +7591,16 @@
         <v>196</v>
       </c>
       <c r="C188">
-        <v>-34.6</v>
+        <v>-31.2</v>
       </c>
       <c r="D188">
-        <v>-26</v>
+        <v>-16.8</v>
       </c>
       <c r="E188">
-        <v>1.9</v>
+        <v>26.9</v>
       </c>
       <c r="F188">
-        <v>-21.1</v>
+        <v>43.4</v>
       </c>
       <c r="G188">
         <v>-2.65</v>
@@ -7623,16 +7623,16 @@
         <v>197</v>
       </c>
       <c r="C189">
-        <v>-35.8</v>
+        <v>-32.1</v>
       </c>
       <c r="D189">
-        <v>-30.5</v>
+        <v>-21.7</v>
       </c>
       <c r="E189">
-        <v>-12.2</v>
+        <v>8.5</v>
       </c>
       <c r="F189">
-        <v>2.6</v>
+        <v>69.9</v>
       </c>
       <c r="G189">
         <v>-2.36</v>
@@ -7655,16 +7655,16 @@
         <v>198</v>
       </c>
       <c r="C190">
-        <v>-21.6</v>
+        <v>-14.7</v>
       </c>
       <c r="D190">
-        <v>-30.9</v>
+        <v>-13.9</v>
       </c>
       <c r="E190">
-        <v>-11.8</v>
+        <v>30.5</v>
       </c>
       <c r="F190">
-        <v>-60</v>
+        <v>76.6</v>
       </c>
       <c r="G190">
         <v>-1.05</v>
@@ -7687,16 +7687,16 @@
         <v>199</v>
       </c>
       <c r="C191">
-        <v>-26.3</v>
+        <v>-18.6</v>
       </c>
       <c r="D191">
-        <v>-40.2</v>
+        <v>-21.3</v>
       </c>
       <c r="E191">
-        <v>-26</v>
+        <v>18.4</v>
       </c>
       <c r="F191">
-        <v>-38.1</v>
+        <v>144.2</v>
       </c>
       <c r="G191">
         <v>-1.05</v>
@@ -7719,16 +7719,16 @@
         <v>200</v>
       </c>
       <c r="C192">
-        <v>-50.7</v>
+        <v>-47.8</v>
       </c>
       <c r="D192">
-        <v>-50.8</v>
+        <v>-42.6</v>
       </c>
       <c r="E192">
-        <v>-28.4</v>
+        <v>-9.4</v>
       </c>
       <c r="F192">
-        <v>-52.6</v>
+        <v>9.6</v>
       </c>
       <c r="G192">
         <v>-1.3</v>
@@ -7751,16 +7751,16 @@
         <v>201</v>
       </c>
       <c r="C193">
-        <v>-58.7</v>
+        <v>-55.6</v>
       </c>
       <c r="D193">
-        <v>-61.3</v>
+        <v>-53</v>
       </c>
       <c r="E193">
-        <v>-46.4</v>
+        <v>-26.8</v>
       </c>
       <c r="F193">
-        <v>-63.2</v>
+        <v>-1.3</v>
       </c>
       <c r="G193">
         <v>-1.32</v>
@@ -7783,16 +7783,16 @@
         <v>202</v>
       </c>
       <c r="C194">
-        <v>-66.1</v>
+        <v>-63.3</v>
       </c>
       <c r="D194">
-        <v>-66.2</v>
+        <v>-58.9</v>
       </c>
       <c r="E194">
-        <v>-47.8</v>
+        <v>-30.2</v>
       </c>
       <c r="F194">
-        <v>-57.4</v>
+        <v>-0.3</v>
       </c>
       <c r="G194">
         <v>-1.39</v>
@@ -7815,16 +7815,16 @@
         <v>203</v>
       </c>
       <c r="C195">
-        <v>-62.7</v>
+        <v>-60</v>
       </c>
       <c r="D195">
-        <v>-61.2</v>
+        <v>-54.2</v>
       </c>
       <c r="E195">
-        <v>-38.9</v>
+        <v>-21.9</v>
       </c>
       <c r="F195">
-        <v>-55.4</v>
+        <v>2.1</v>
       </c>
       <c r="G195">
         <v>-1.36</v>
@@ -7847,16 +7847,16 @@
         <v>204</v>
       </c>
       <c r="C196">
-        <v>-68.7</v>
+        <v>-65.9</v>
       </c>
       <c r="D196">
-        <v>-69.7</v>
+        <v>-62.4</v>
       </c>
       <c r="E196">
-        <v>-54.3</v>
+        <v>-36.7</v>
       </c>
       <c r="F196">
-        <v>-57.7</v>
+        <v>-0.5</v>
       </c>
       <c r="G196">
         <v>-1.41</v>
@@ -7879,16 +7879,16 @@
         <v>205</v>
       </c>
       <c r="C197">
-        <v>-55.9</v>
+        <v>-53.2</v>
       </c>
       <c r="D197">
-        <v>-55.1</v>
+        <v>-47.5</v>
       </c>
       <c r="E197">
-        <v>-29.5</v>
+        <v>-11.9</v>
       </c>
       <c r="F197">
-        <v>-43.3</v>
+        <v>9.8</v>
       </c>
       <c r="G197">
         <v>-1.29</v>
@@ -7911,16 +7911,16 @@
         <v>206</v>
       </c>
       <c r="C198">
-        <v>-49.5</v>
+        <v>-46.4</v>
       </c>
       <c r="D198">
-        <v>-52.4</v>
+        <v>-43.6</v>
       </c>
       <c r="E198">
-        <v>-26.4</v>
+        <v>-6.2</v>
       </c>
       <c r="F198">
-        <v>-46.5</v>
+        <v>17</v>
       </c>
       <c r="G198">
         <v>-1.29</v>
@@ -7943,16 +7943,16 @@
         <v>207</v>
       </c>
       <c r="C199">
-        <v>-12.4</v>
+        <v>-4.9</v>
       </c>
       <c r="D199">
-        <v>-28.1</v>
+        <v>-7.7</v>
       </c>
       <c r="E199">
-        <v>-9.8</v>
+        <v>48.4</v>
       </c>
       <c r="F199">
-        <v>-49.6</v>
+        <v>129.3</v>
       </c>
       <c r="G199">
         <v>-0.96</v>
@@ -7975,16 +7975,16 @@
         <v>208</v>
       </c>
       <c r="C200">
-        <v>-48.2</v>
+        <v>-44.1</v>
       </c>
       <c r="D200">
-        <v>-43.5</v>
+        <v>-32.5</v>
       </c>
       <c r="E200">
-        <v>-17.1</v>
+        <v>9.1</v>
       </c>
       <c r="F200">
-        <v>-40.3</v>
+        <v>41.7</v>
       </c>
       <c r="G200">
         <v>-1.27</v>
@@ -8007,16 +8007,16 @@
         <v>209</v>
       </c>
       <c r="C201">
-        <v>-22</v>
+        <v>-13.4</v>
       </c>
       <c r="D201">
-        <v>-29.9</v>
+        <v>-4</v>
       </c>
       <c r="E201">
-        <v>39.1</v>
+        <v>120.5</v>
       </c>
       <c r="F201">
-        <v>128.5</v>
+        <v>665.8</v>
       </c>
       <c r="G201">
         <v>-1.28</v>
@@ -8039,16 +8039,16 @@
         <v>210</v>
       </c>
       <c r="C202">
-        <v>-17.7</v>
+        <v>-9.5</v>
       </c>
       <c r="D202">
-        <v>-18.6</v>
+        <v>6.5</v>
       </c>
       <c r="E202">
-        <v>62.4</v>
+        <v>144.4</v>
       </c>
       <c r="F202">
-        <v>115.4</v>
+        <v>587.4</v>
       </c>
       <c r="G202">
         <v>-1.28</v>
@@ -8071,16 +8071,16 @@
         <v>211</v>
       </c>
       <c r="C203">
-        <v>-31.7</v>
+        <v>-22.7</v>
       </c>
       <c r="D203">
-        <v>-47.4</v>
+        <v>-20.3</v>
       </c>
       <c r="E203">
-        <v>1.8</v>
+        <v>80.6</v>
       </c>
       <c r="F203">
-        <v>99.5</v>
+        <v>603.1</v>
       </c>
       <c r="G203">
         <v>-1.26</v>
@@ -8103,16 +8103,16 @@
         <v>212</v>
       </c>
       <c r="C204">
-        <v>-16.8</v>
+        <v>-8.2</v>
       </c>
       <c r="D204">
-        <v>-30.6</v>
+        <v>-4.4</v>
       </c>
       <c r="E204">
-        <v>31</v>
+        <v>108.9</v>
       </c>
       <c r="F204">
-        <v>84.3</v>
+        <v>504.2</v>
       </c>
       <c r="G204">
         <v>-1.34</v>
@@ -8135,16 +8135,16 @@
         <v>213</v>
       </c>
       <c r="C205">
-        <v>-13.3</v>
+        <v>-5.1</v>
       </c>
       <c r="D205">
-        <v>-19</v>
+        <v>5.9</v>
       </c>
       <c r="E205">
-        <v>70.8</v>
+        <v>151.7</v>
       </c>
       <c r="F205">
-        <v>90.6</v>
+        <v>480.3</v>
       </c>
       <c r="G205">
         <v>-1.33</v>
@@ -8167,16 +8167,16 @@
         <v>214</v>
       </c>
       <c r="C206">
-        <v>-8.8</v>
+        <v>-1</v>
       </c>
       <c r="D206">
-        <v>-16.4</v>
+        <v>6.8</v>
       </c>
       <c r="E206">
-        <v>80.1</v>
+        <v>158.2</v>
       </c>
       <c r="F206">
-        <v>86.5</v>
+        <v>407.7</v>
       </c>
       <c r="G206">
         <v>-1.34</v>
@@ -8199,16 +8199,16 @@
         <v>215</v>
       </c>
       <c r="C207">
-        <v>-40</v>
+        <v>-38.3</v>
       </c>
       <c r="D207">
-        <v>-41.7</v>
+        <v>-37.6</v>
       </c>
       <c r="E207">
-        <v>-27.7</v>
+        <v>-18.8</v>
       </c>
       <c r="F207">
-        <v>-50.6</v>
+        <v>-17.2</v>
       </c>
       <c r="G207">
         <v>-2.52</v>
@@ -8231,16 +8231,16 @@
         <v>216</v>
       </c>
       <c r="C208">
-        <v>-52.7</v>
+        <v>-49.6</v>
       </c>
       <c r="D208">
-        <v>-47</v>
+        <v>-38.6</v>
       </c>
       <c r="E208">
-        <v>-21</v>
+        <v>-1.5</v>
       </c>
       <c r="F208">
-        <v>-46.7</v>
+        <v>22</v>
       </c>
       <c r="G208">
         <v>-1.33</v>
@@ -8263,16 +8263,16 @@
         <v>217</v>
       </c>
       <c r="C209">
-        <v>-53</v>
+        <v>-50.3</v>
       </c>
       <c r="D209">
-        <v>-47.9</v>
+        <v>-40.4</v>
       </c>
       <c r="E209">
-        <v>-21.1</v>
+        <v>-3.3</v>
       </c>
       <c r="F209">
-        <v>-50.7</v>
+        <v>9.5</v>
       </c>
       <c r="G209">
         <v>-1.32</v>
@@ -8295,16 +8295,16 @@
         <v>218</v>
       </c>
       <c r="C210">
-        <v>-41</v>
+        <v>-34.9</v>
       </c>
       <c r="D210">
-        <v>-45.6</v>
+        <v>-30.2</v>
       </c>
       <c r="E210">
-        <v>-28.5</v>
+        <v>7.6</v>
       </c>
       <c r="F210">
-        <v>-48.5</v>
+        <v>88.1</v>
       </c>
       <c r="G210">
         <v>-1.13</v>
@@ -8327,16 +8327,16 @@
         <v>219</v>
       </c>
       <c r="C211">
-        <v>-47.8</v>
+        <v>-42.8</v>
       </c>
       <c r="D211">
-        <v>-48</v>
+        <v>-35.4</v>
       </c>
       <c r="E211">
-        <v>-27.7</v>
+        <v>3.2</v>
       </c>
       <c r="F211">
-        <v>-41.6</v>
+        <v>78.1</v>
       </c>
       <c r="G211">
         <v>-1.15</v>
@@ -8359,16 +8359,16 @@
         <v>220</v>
       </c>
       <c r="C212">
-        <v>-34.1</v>
+        <v>-25.9</v>
       </c>
       <c r="D212">
-        <v>-53.3</v>
+        <v>-33.2</v>
       </c>
       <c r="E212">
-        <v>-43.8</v>
+        <v>3.6</v>
       </c>
       <c r="F212">
-        <v>-46</v>
+        <v>129</v>
       </c>
       <c r="G212">
         <v>-1.14</v>
@@ -8391,16 +8391,16 @@
         <v>221</v>
       </c>
       <c r="C213">
-        <v>-48.3</v>
+        <v>-43.9</v>
       </c>
       <c r="D213">
-        <v>-47.3</v>
+        <v>-35.5</v>
       </c>
       <c r="E213">
-        <v>-33.5</v>
+        <v>-4.2</v>
       </c>
       <c r="F213">
-        <v>-47</v>
+        <v>60.3</v>
       </c>
       <c r="G213">
         <v>-1.25</v>
@@ -8423,16 +8423,16 @@
         <v>222</v>
       </c>
       <c r="C214">
-        <v>-39.4</v>
+        <v>-37.4</v>
       </c>
       <c r="D214">
-        <v>-40.4</v>
+        <v>-35.7</v>
       </c>
       <c r="E214">
-        <v>-18.1</v>
+        <v>-8.7</v>
       </c>
       <c r="F214">
-        <v>-21.6</v>
+        <v>10.5</v>
       </c>
       <c r="G214">
         <v>-0.79</v>
@@ -8455,16 +8455,16 @@
         <v>223</v>
       </c>
       <c r="C215">
-        <v>-46.4</v>
+        <v>-40.3</v>
       </c>
       <c r="D215">
-        <v>-43.6</v>
+        <v>-28.5</v>
       </c>
       <c r="E215">
-        <v>-22.9</v>
+        <v>10.4</v>
       </c>
       <c r="F215">
-        <v>-20.9</v>
+        <v>109.5</v>
       </c>
       <c r="G215">
         <v>-0.9</v>
@@ -8487,16 +8487,16 @@
         <v>224</v>
       </c>
       <c r="C216">
-        <v>-51.9</v>
+        <v>-48.3</v>
       </c>
       <c r="D216">
-        <v>-53.5</v>
+        <v>-44.9</v>
       </c>
       <c r="E216">
-        <v>-37.5</v>
+        <v>-18.8</v>
       </c>
       <c r="F216">
-        <v>-48.4</v>
+        <v>19</v>
       </c>
       <c r="G216">
         <v>-1.08</v>
@@ -8519,16 +8519,16 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>-32.4</v>
+        <v>-26.5</v>
       </c>
       <c r="D217">
-        <v>-44.4</v>
+        <v>-28.3</v>
       </c>
       <c r="E217">
-        <v>-24.3</v>
+        <v>17.7</v>
       </c>
       <c r="F217">
-        <v>-22.8</v>
+        <v>116.1</v>
       </c>
       <c r="G217">
         <v>-1.39</v>
@@ -8551,16 +8551,16 @@
         <v>226</v>
       </c>
       <c r="C218">
-        <v>-20.3</v>
+        <v>-16.9</v>
       </c>
       <c r="D218">
-        <v>-17.2</v>
+        <v>-8.7</v>
       </c>
       <c r="E218">
-        <v>8.4</v>
+        <v>29.7</v>
       </c>
       <c r="F218">
-        <v>4.2</v>
+        <v>65.6</v>
       </c>
       <c r="G218">
         <v>-0.97</v>
@@ -8583,16 +8583,16 @@
         <v>227</v>
       </c>
       <c r="C219">
-        <v>-20.1</v>
+        <v>-17.7</v>
       </c>
       <c r="D219">
-        <v>-14.8</v>
+        <v>-9.1</v>
       </c>
       <c r="E219">
-        <v>4.9</v>
+        <v>18.5</v>
       </c>
       <c r="F219">
-        <v>-38.8</v>
+        <v>0.6</v>
       </c>
       <c r="G219">
         <v>-0.68</v>
@@ -8615,16 +8615,16 @@
         <v>228</v>
       </c>
       <c r="C220">
-        <v>-10.6</v>
+        <v>-7.3</v>
       </c>
       <c r="D220">
-        <v>-7.7</v>
+        <v>0</v>
       </c>
       <c r="E220">
-        <v>1.3</v>
+        <v>20.5</v>
       </c>
       <c r="F220">
-        <v>37.5</v>
+        <v>112.3</v>
       </c>
       <c r="G220">
         <v>-0.52</v>
@@ -8647,16 +8647,16 @@
         <v>229</v>
       </c>
       <c r="C221">
-        <v>-50.5</v>
+        <v>-47.8</v>
       </c>
       <c r="D221">
-        <v>-46.1</v>
+        <v>-39.6</v>
       </c>
       <c r="E221">
-        <v>-23.7</v>
+        <v>-10</v>
       </c>
       <c r="F221">
-        <v>9.7</v>
+        <v>59.1</v>
       </c>
       <c r="G221">
         <v>-0.71</v>
@@ -8679,16 +8679,16 @@
         <v>230</v>
       </c>
       <c r="C222">
-        <v>-27.2</v>
+        <v>-24.6</v>
       </c>
       <c r="D222">
-        <v>-25</v>
+        <v>-18.4</v>
       </c>
       <c r="E222">
-        <v>-14.3</v>
+        <v>0.8</v>
       </c>
       <c r="F222">
-        <v>-38.2</v>
+        <v>14</v>
       </c>
       <c r="G222">
         <v>-3.45</v>
@@ -8711,16 +8711,16 @@
         <v>231</v>
       </c>
       <c r="C223">
-        <v>-45.5</v>
+        <v>-43</v>
       </c>
       <c r="D223">
-        <v>-41</v>
+        <v>-34.9</v>
       </c>
       <c r="E223">
-        <v>-7.7</v>
+        <v>5</v>
       </c>
       <c r="F223">
-        <v>-0.9</v>
+        <v>41.6</v>
       </c>
       <c r="G223">
         <v>-0.52</v>
@@ -8743,16 +8743,16 @@
         <v>232</v>
       </c>
       <c r="C224">
-        <v>-58.5</v>
+        <v>-55.8</v>
       </c>
       <c r="D224">
-        <v>-55.1</v>
+        <v>-48.6</v>
       </c>
       <c r="E224">
-        <v>-30.7</v>
+        <v>-17.7</v>
       </c>
       <c r="F224">
-        <v>-7.3</v>
+        <v>43.8</v>
       </c>
       <c r="G224">
         <v>-0.74</v>
@@ -8775,16 +8775,16 @@
         <v>233</v>
       </c>
       <c r="C225">
-        <v>-49.1</v>
+        <v>-46.3</v>
       </c>
       <c r="D225">
-        <v>-54.1</v>
+        <v>-47.1</v>
       </c>
       <c r="E225">
-        <v>-26.5</v>
+        <v>-11</v>
       </c>
       <c r="F225">
-        <v>-41.7</v>
+        <v>16.7</v>
       </c>
       <c r="G225">
         <v>-0.63</v>
@@ -8807,16 +8807,16 @@
         <v>234</v>
       </c>
       <c r="C226">
-        <v>-61.8</v>
+        <v>-58.4</v>
       </c>
       <c r="D226">
-        <v>-64.6</v>
+        <v>-55.8</v>
       </c>
       <c r="E226">
-        <v>-40.6</v>
+        <v>-21.6</v>
       </c>
       <c r="F226">
-        <v>-32.7</v>
+        <v>34.1</v>
       </c>
       <c r="G226">
         <v>-1.05</v>
@@ -8839,16 +8839,16 @@
         <v>235</v>
       </c>
       <c r="C227">
-        <v>-52.9</v>
+        <v>-48.7</v>
       </c>
       <c r="D227">
-        <v>-55.9</v>
+        <v>-45.8</v>
       </c>
       <c r="E227">
-        <v>-27.3</v>
+        <v>-5.9</v>
       </c>
       <c r="F227">
-        <v>-17.4</v>
+        <v>65.5</v>
       </c>
       <c r="G227">
         <v>-1.15</v>
@@ -8871,16 +8871,16 @@
         <v>236</v>
       </c>
       <c r="C228">
-        <v>-19.6</v>
+        <v>-12.3</v>
       </c>
       <c r="D228">
-        <v>-35.7</v>
+        <v>-14.3</v>
       </c>
       <c r="E228">
-        <v>8.6</v>
+        <v>68.8</v>
       </c>
       <c r="F228">
-        <v>37.3</v>
+        <v>315</v>
       </c>
       <c r="G228">
         <v>-1.4</v>
@@ -8903,16 +8903,16 @@
         <v>237</v>
       </c>
       <c r="C229">
-        <v>-37.3</v>
+        <v>-28.4</v>
       </c>
       <c r="D229">
-        <v>-52.3</v>
+        <v>-26.3</v>
       </c>
       <c r="E229">
-        <v>-19.7</v>
+        <v>49.7</v>
       </c>
       <c r="F229">
-        <v>35.5</v>
+        <v>410.3</v>
       </c>
       <c r="G229">
         <v>-1.23</v>
@@ -8935,16 +8935,16 @@
         <v>238</v>
       </c>
       <c r="C230">
-        <v>-22.2</v>
+        <v>-13.5</v>
       </c>
       <c r="D230">
-        <v>-37.3</v>
+        <v>-11.7</v>
       </c>
       <c r="E230">
-        <v>11.3</v>
+        <v>83.2</v>
       </c>
       <c r="F230">
-        <v>65.3</v>
+        <v>448.5</v>
       </c>
       <c r="G230">
         <v>-1.31</v>
@@ -8967,16 +8967,16 @@
         <v>239</v>
       </c>
       <c r="C231">
-        <v>-17.9</v>
+        <v>-12.4</v>
       </c>
       <c r="D231">
-        <v>-34.8</v>
+        <v>-19.7</v>
       </c>
       <c r="E231">
-        <v>-13.4</v>
+        <v>27.7</v>
       </c>
       <c r="F231">
-        <v>-14.1</v>
+        <v>122.5</v>
       </c>
       <c r="G231">
         <v>-1.39</v>
@@ -8999,16 +8999,16 @@
         <v>240</v>
       </c>
       <c r="C232">
-        <v>-24.8</v>
+        <v>-19.7</v>
       </c>
       <c r="D232">
-        <v>-40.5</v>
+        <v>-26.5</v>
       </c>
       <c r="E232">
-        <v>-20.1</v>
+        <v>17.4</v>
       </c>
       <c r="F232">
-        <v>-16.2</v>
+        <v>110.2</v>
       </c>
       <c r="G232">
         <v>-1.4</v>
@@ -9031,16 +9031,16 @@
         <v>241</v>
       </c>
       <c r="C233">
-        <v>-34.6</v>
+        <v>-27.1</v>
       </c>
       <c r="D233">
-        <v>-44.6</v>
+        <v>-26.4</v>
       </c>
       <c r="E233">
-        <v>-34.9</v>
+        <v>8.2</v>
       </c>
       <c r="F233">
-        <v>-44.5</v>
+        <v>120.5</v>
       </c>
       <c r="G233">
         <v>-1.05</v>
@@ -9063,16 +9063,16 @@
         <v>242</v>
       </c>
       <c r="C234">
-        <v>-37.7</v>
+        <v>-30.3</v>
       </c>
       <c r="D234">
-        <v>-47.8</v>
+        <v>-29.1</v>
       </c>
       <c r="E234">
-        <v>-38</v>
+        <v>6.3</v>
       </c>
       <c r="F234">
-        <v>-47.3</v>
+        <v>120.5</v>
       </c>
       <c r="G234">
         <v>-1.07</v>
@@ -9095,16 +9095,16 @@
         <v>243</v>
       </c>
       <c r="C235">
-        <v>-40.7</v>
+        <v>-33.7</v>
       </c>
       <c r="D235">
-        <v>-49</v>
+        <v>-30.9</v>
       </c>
       <c r="E235">
-        <v>-36</v>
+        <v>7.7</v>
       </c>
       <c r="F235">
-        <v>-49.7</v>
+        <v>106.8</v>
       </c>
       <c r="G235">
         <v>-1.12</v>
@@ -9127,16 +9127,16 @@
         <v>244</v>
       </c>
       <c r="C236">
-        <v>-36.5</v>
+        <v>-30.3</v>
       </c>
       <c r="D236">
-        <v>-44.1</v>
+        <v>-27.5</v>
       </c>
       <c r="E236">
-        <v>-29.8</v>
+        <v>11</v>
       </c>
       <c r="F236">
-        <v>-39.2</v>
+        <v>104.5</v>
       </c>
       <c r="G236">
         <v>-1.16</v>
@@ -9159,16 +9159,16 @@
         <v>245</v>
       </c>
       <c r="C237">
-        <v>-47</v>
+        <v>-41.6</v>
       </c>
       <c r="D237">
-        <v>-44.8</v>
+        <v>-31.5</v>
       </c>
       <c r="E237">
-        <v>-21.2</v>
+        <v>8.7</v>
       </c>
       <c r="F237">
-        <v>-28.1</v>
+        <v>85.9</v>
       </c>
       <c r="G237">
         <v>-0.91</v>
@@ -9191,16 +9191,16 @@
         <v>246</v>
       </c>
       <c r="C238">
-        <v>-37.1</v>
+        <v>-32.5</v>
       </c>
       <c r="D238">
-        <v>-34.5</v>
+        <v>-23.4</v>
       </c>
       <c r="E238">
-        <v>-17.5</v>
+        <v>8.9</v>
       </c>
       <c r="F238">
-        <v>-22.9</v>
+        <v>59.6</v>
       </c>
       <c r="G238">
         <v>-1.08</v>
@@ -9223,16 +9223,16 @@
         <v>247</v>
       </c>
       <c r="C239">
-        <v>-42.2</v>
+        <v>-37.4</v>
       </c>
       <c r="D239">
-        <v>-43.3</v>
+        <v>-31.6</v>
       </c>
       <c r="E239">
-        <v>-27.8</v>
+        <v>0.1</v>
       </c>
       <c r="F239">
-        <v>-34.1</v>
+        <v>57.8</v>
       </c>
       <c r="G239">
         <v>-0.91</v>
@@ -9255,16 +9255,16 @@
         <v>248</v>
       </c>
       <c r="C240">
-        <v>-38.2</v>
+        <v>-34.2</v>
       </c>
       <c r="D240">
-        <v>-28.8</v>
+        <v>-19.1</v>
       </c>
       <c r="E240">
-        <v>-1.6</v>
+        <v>22.3</v>
       </c>
       <c r="F240">
-        <v>33.8</v>
+        <v>112.7</v>
       </c>
       <c r="G240">
         <v>-0.95</v>
@@ -9287,16 +9287,16 @@
         <v>249</v>
       </c>
       <c r="C241">
-        <v>-33.2</v>
+        <v>-28.3</v>
       </c>
       <c r="D241">
-        <v>-32.3</v>
+        <v>-20.8</v>
       </c>
       <c r="E241">
-        <v>-12.3</v>
+        <v>14.9</v>
       </c>
       <c r="F241">
-        <v>-2.7</v>
+        <v>88.9</v>
       </c>
       <c r="G241">
         <v>-1.1</v>
@@ -9319,16 +9319,16 @@
         <v>250</v>
       </c>
       <c r="C242">
-        <v>-25.9</v>
+        <v>-21.8</v>
       </c>
       <c r="D242">
-        <v>-26.6</v>
+        <v>-16.7</v>
       </c>
       <c r="E242">
-        <v>6.3</v>
+        <v>32.3</v>
       </c>
       <c r="F242">
-        <v>9.5</v>
+        <v>82.1</v>
       </c>
       <c r="G242">
         <v>-0.91</v>
@@ -9351,16 +9351,16 @@
         <v>251</v>
       </c>
       <c r="C243">
-        <v>-50.4</v>
+        <v>-46.5</v>
       </c>
       <c r="D243">
-        <v>-53.8</v>
+        <v>-44.3</v>
       </c>
       <c r="E243">
-        <v>-28.1</v>
+        <v>-7.2</v>
       </c>
       <c r="F243">
-        <v>-23.3</v>
+        <v>49.3</v>
       </c>
       <c r="G243">
         <v>-1.09</v>
@@ -9383,16 +9383,16 @@
         <v>252</v>
       </c>
       <c r="C244">
-        <v>-24.3</v>
+        <v>-20.7</v>
       </c>
       <c r="D244">
-        <v>-34.2</v>
+        <v>-26</v>
       </c>
       <c r="E244">
-        <v>-41.6</v>
+        <v>-22.7</v>
       </c>
       <c r="F244">
-        <v>-37.1</v>
+        <v>13.5</v>
       </c>
       <c r="G244">
         <v>-0.78</v>
@@ -9415,16 +9415,16 @@
         <v>253</v>
       </c>
       <c r="C245">
-        <v>-29.4</v>
+        <v>-25.8</v>
       </c>
       <c r="D245">
-        <v>-39.5</v>
+        <v>-31</v>
       </c>
       <c r="E245">
-        <v>-45.6</v>
+        <v>-25.5</v>
       </c>
       <c r="F245">
-        <v>-44.7</v>
+        <v>12.4</v>
       </c>
       <c r="G245">
         <v>-0.79</v>
@@ -9447,16 +9447,16 @@
         <v>254</v>
       </c>
       <c r="C246">
-        <v>-52.5</v>
+        <v>-48.4</v>
       </c>
       <c r="D246">
-        <v>-53.9</v>
+        <v>-44.2</v>
       </c>
       <c r="E246">
-        <v>-38</v>
+        <v>-16.8</v>
       </c>
       <c r="F246">
-        <v>-43.6</v>
+        <v>34.5</v>
       </c>
       <c r="G246">
         <v>-0.84</v>
@@ -9479,16 +9479,16 @@
         <v>255</v>
       </c>
       <c r="C247">
-        <v>-28.1</v>
+        <v>-24.5</v>
       </c>
       <c r="D247">
-        <v>-41</v>
+        <v>-32.5</v>
       </c>
       <c r="E247">
-        <v>-49.5</v>
+        <v>-30.2</v>
       </c>
       <c r="F247">
-        <v>-45.9</v>
+        <v>6.3</v>
       </c>
       <c r="G247">
         <v>-0.49</v>
@@ -9511,16 +9511,16 @@
         <v>256</v>
       </c>
       <c r="C248">
-        <v>-22.5</v>
+        <v>-17.7</v>
       </c>
       <c r="D248">
-        <v>-36.4</v>
+        <v>-24.8</v>
       </c>
       <c r="E248">
-        <v>-27.5</v>
+        <v>2.2</v>
       </c>
       <c r="F248">
-        <v>-14.8</v>
+        <v>69.4</v>
       </c>
       <c r="G248">
         <v>-0.95</v>
@@ -9543,16 +9543,16 @@
         <v>257</v>
       </c>
       <c r="C249">
-        <v>-4.8</v>
+        <v>3</v>
       </c>
       <c r="D249">
-        <v>-4.5</v>
+        <v>14.4</v>
       </c>
       <c r="E249">
-        <v>30.8</v>
+        <v>88.6</v>
       </c>
       <c r="F249">
-        <v>-0.5</v>
+        <v>160.5</v>
       </c>
       <c r="G249">
         <v>-0.99</v>
@@ -9575,16 +9575,16 @@
         <v>258</v>
       </c>
       <c r="C250">
-        <v>-53.6</v>
+        <v>-49.7</v>
       </c>
       <c r="D250">
-        <v>-53.7</v>
+        <v>-44.4</v>
       </c>
       <c r="E250">
-        <v>-34.7</v>
+        <v>-14.9</v>
       </c>
       <c r="F250">
-        <v>-36.3</v>
+        <v>31.6</v>
       </c>
       <c r="G250">
         <v>-0.91</v>
@@ -9607,16 +9607,16 @@
         <v>259</v>
       </c>
       <c r="C251">
-        <v>-36.9</v>
+        <v>-31.6</v>
       </c>
       <c r="D251">
-        <v>-40.2</v>
+        <v>-26.9</v>
       </c>
       <c r="E251">
-        <v>-28.9</v>
+        <v>2.4</v>
       </c>
       <c r="F251">
-        <v>-50.3</v>
+        <v>49.4</v>
       </c>
       <c r="G251">
         <v>-1.01</v>
@@ -9639,16 +9639,16 @@
         <v>260</v>
       </c>
       <c r="C252">
-        <v>-45.1</v>
+        <v>-41.1</v>
       </c>
       <c r="D252">
-        <v>-44</v>
+        <v>-34.1</v>
       </c>
       <c r="E252">
-        <v>-26.3</v>
+        <v>-2.7</v>
       </c>
       <c r="F252">
-        <v>-10.3</v>
+        <v>68.3</v>
       </c>
       <c r="G252">
         <v>-0.87</v>
@@ -9671,16 +9671,16 @@
         <v>261</v>
       </c>
       <c r="C253">
-        <v>-46.5</v>
+        <v>-40.9</v>
       </c>
       <c r="D253">
-        <v>-48.6</v>
+        <v>-34.9</v>
       </c>
       <c r="E253">
-        <v>-31.9</v>
+        <v>-2.1</v>
       </c>
       <c r="F253">
-        <v>-29.1</v>
+        <v>87.4</v>
       </c>
       <c r="G253">
         <v>-0.88</v>
@@ -9703,16 +9703,16 @@
         <v>262</v>
       </c>
       <c r="C254">
-        <v>-28.6</v>
+        <v>-23.7</v>
       </c>
       <c r="D254">
-        <v>-32.3</v>
+        <v>-20.7</v>
       </c>
       <c r="E254">
-        <v>-6</v>
+        <v>22.8</v>
       </c>
       <c r="F254">
-        <v>-0.2</v>
+        <v>94.6</v>
       </c>
       <c r="G254">
         <v>-1.09</v>
@@ -9735,16 +9735,16 @@
         <v>263</v>
       </c>
       <c r="C255">
-        <v>-22.1</v>
+        <v>-15.9</v>
       </c>
       <c r="D255">
-        <v>-28.7</v>
+        <v>-13.8</v>
       </c>
       <c r="E255">
-        <v>-10.7</v>
+        <v>28.7</v>
       </c>
       <c r="F255">
-        <v>-28.9</v>
+        <v>96</v>
       </c>
       <c r="G255">
         <v>-1.07</v>
@@ -9767,16 +9767,16 @@
         <v>264</v>
       </c>
       <c r="C256">
-        <v>-33</v>
+        <v>-28.9</v>
       </c>
       <c r="D256">
-        <v>-41.7</v>
+        <v>-31.5</v>
       </c>
       <c r="E256">
-        <v>-43.8</v>
+        <v>-19.4</v>
       </c>
       <c r="F256">
-        <v>-14.7</v>
+        <v>57</v>
       </c>
       <c r="G256">
         <v>-0.72</v>
@@ -9799,16 +9799,16 @@
         <v>265</v>
       </c>
       <c r="C257">
-        <v>-55.7</v>
+        <v>-51.4</v>
       </c>
       <c r="D257">
-        <v>-52</v>
+        <v>-41.3</v>
       </c>
       <c r="E257">
-        <v>-22.6</v>
+        <v>-0.1</v>
       </c>
       <c r="F257">
-        <v>-15.1</v>
+        <v>65.6</v>
       </c>
       <c r="G257">
         <v>-1.35</v>
@@ -9831,16 +9831,16 @@
         <v>266</v>
       </c>
       <c r="C258">
-        <v>-11.1</v>
+        <v>-5.1</v>
       </c>
       <c r="D258">
-        <v>-17.6</v>
+        <v>-3.2</v>
       </c>
       <c r="E258">
-        <v>0.2</v>
+        <v>39.3</v>
       </c>
       <c r="F258">
-        <v>13.8</v>
+        <v>111.8</v>
       </c>
       <c r="G258">
         <v>-0.87</v>
@@ -9863,16 +9863,16 @@
         <v>267</v>
       </c>
       <c r="C259">
-        <v>-35.1</v>
+        <v>-29.9</v>
       </c>
       <c r="D259">
-        <v>-41</v>
+        <v>-28.7</v>
       </c>
       <c r="E259">
-        <v>-30.9</v>
+        <v>-1.4</v>
       </c>
       <c r="F259">
-        <v>-45</v>
+        <v>45.8</v>
       </c>
       <c r="G259">
         <v>-1.1</v>
@@ -9895,16 +9895,16 @@
         <v>268</v>
       </c>
       <c r="C260">
-        <v>-26.5</v>
+        <v>-20.7</v>
       </c>
       <c r="D260">
-        <v>-34.6</v>
+        <v>-20.3</v>
       </c>
       <c r="E260">
-        <v>-20.9</v>
+        <v>14.3</v>
       </c>
       <c r="F260">
-        <v>-52.2</v>
+        <v>58.3</v>
       </c>
       <c r="G260">
         <v>-1.08</v>
@@ -9927,16 +9927,16 @@
         <v>269</v>
       </c>
       <c r="C261">
-        <v>-17.7</v>
+        <v>-12.5</v>
       </c>
       <c r="D261">
-        <v>-29.3</v>
+        <v>-16.8</v>
       </c>
       <c r="E261">
-        <v>-17.2</v>
+        <v>14.7</v>
       </c>
       <c r="F261">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="G261">
         <v>-0.95</v>
@@ -9959,16 +9959,16 @@
         <v>270</v>
       </c>
       <c r="C262">
-        <v>-16.2</v>
+        <v>-10.8</v>
       </c>
       <c r="D262">
-        <v>-25.2</v>
+        <v>-12.2</v>
       </c>
       <c r="E262">
-        <v>-12.2</v>
+        <v>21.2</v>
       </c>
       <c r="F262">
-        <v>8.2</v>
+        <v>96.7</v>
       </c>
       <c r="G262">
         <v>-0.93</v>
@@ -9991,16 +9991,16 @@
         <v>271</v>
       </c>
       <c r="C263">
-        <v>-24.6</v>
+        <v>-18.6</v>
       </c>
       <c r="D263">
-        <v>-37</v>
+        <v>-22.7</v>
       </c>
       <c r="E263">
-        <v>-32.6</v>
+        <v>3.8</v>
       </c>
       <c r="F263">
-        <v>-24.2</v>
+        <v>85.1</v>
       </c>
       <c r="G263">
         <v>-1.06</v>
@@ -10023,16 +10023,16 @@
         <v>272</v>
       </c>
       <c r="C264">
-        <v>-28</v>
+        <v>-21.6</v>
       </c>
       <c r="D264">
-        <v>-42.8</v>
+        <v>-27.6</v>
       </c>
       <c r="E264">
-        <v>-37.9</v>
+        <v>-0.4</v>
       </c>
       <c r="F264">
-        <v>-16.3</v>
+        <v>106.2</v>
       </c>
       <c r="G264">
         <v>-1.05</v>
@@ -10055,16 +10055,16 @@
         <v>273</v>
       </c>
       <c r="C265">
-        <v>-14.7</v>
+        <v>-8.2</v>
       </c>
       <c r="D265">
-        <v>-20.2</v>
+        <v>-4.8</v>
       </c>
       <c r="E265">
-        <v>-3</v>
+        <v>40.1</v>
       </c>
       <c r="F265">
-        <v>8.4</v>
+        <v>124.3</v>
       </c>
       <c r="G265">
         <v>-0.94</v>
@@ -10087,16 +10087,16 @@
         <v>274</v>
       </c>
       <c r="C266">
-        <v>-17.5</v>
+        <v>-11.3</v>
       </c>
       <c r="D266">
-        <v>-24.2</v>
+        <v>-9.2</v>
       </c>
       <c r="E266">
-        <v>-9.1</v>
+        <v>31.3</v>
       </c>
       <c r="F266">
-        <v>5.1</v>
+        <v>114.8</v>
       </c>
       <c r="G266">
         <v>-0.98</v>
@@ -10119,16 +10119,16 @@
         <v>275</v>
       </c>
       <c r="C267">
-        <v>-10.5</v>
+        <v>-3.4</v>
       </c>
       <c r="D267">
-        <v>-13.6</v>
+        <v>3.3</v>
       </c>
       <c r="E267">
-        <v>3.8</v>
+        <v>50.7</v>
       </c>
       <c r="F267">
-        <v>-2.5</v>
+        <v>151.3</v>
       </c>
       <c r="G267">
         <v>-1.01</v>
@@ -10151,16 +10151,16 @@
         <v>276</v>
       </c>
       <c r="C268">
-        <v>-37</v>
+        <v>-32.7</v>
       </c>
       <c r="D268">
-        <v>-44.9</v>
+        <v>-34.4</v>
       </c>
       <c r="E268">
-        <v>-52.7</v>
+        <v>-27.4</v>
       </c>
       <c r="F268">
-        <v>-27.5</v>
+        <v>54.4</v>
       </c>
       <c r="G268">
         <v>-0.86</v>
@@ -10183,16 +10183,16 @@
         <v>277</v>
       </c>
       <c r="C269">
-        <v>-33</v>
+        <v>-29.1</v>
       </c>
       <c r="D269">
-        <v>-46</v>
+        <v>-36.8</v>
       </c>
       <c r="E269">
-        <v>-52.6</v>
+        <v>-30.5</v>
       </c>
       <c r="F269">
-        <v>-27.1</v>
+        <v>42.4</v>
       </c>
       <c r="G269">
         <v>-0.84</v>
@@ -10215,16 +10215,16 @@
         <v>278</v>
       </c>
       <c r="C270">
-        <v>-8.5</v>
+        <v>-0.9</v>
       </c>
       <c r="D270">
-        <v>-20.4</v>
+        <v>-1.9</v>
       </c>
       <c r="E270">
-        <v>-1.5</v>
+        <v>46.5</v>
       </c>
       <c r="F270">
-        <v>-53.2</v>
+        <v>98.4</v>
       </c>
       <c r="G270">
         <v>-1.04</v>
@@ -10247,16 +10247,16 @@
         <v>279</v>
       </c>
       <c r="C271">
-        <v>-6.5</v>
+        <v>1.5</v>
       </c>
       <c r="D271">
-        <v>-16.2</v>
+        <v>2.4</v>
       </c>
       <c r="E271">
-        <v>-3.5</v>
+        <v>45.7</v>
       </c>
       <c r="F271">
-        <v>-34.2</v>
+        <v>130.2</v>
       </c>
       <c r="G271">
         <v>-1.01</v>
@@ -10279,16 +10279,16 @@
         <v>280</v>
       </c>
       <c r="C272">
-        <v>-33.9</v>
+        <v>-28.5</v>
       </c>
       <c r="D272">
-        <v>-50.2</v>
+        <v>-37</v>
       </c>
       <c r="E272">
-        <v>-51.1</v>
+        <v>-19.3</v>
       </c>
       <c r="F272">
-        <v>-17.9</v>
+        <v>88.4</v>
       </c>
       <c r="G272">
         <v>-0.94</v>
@@ -10311,16 +10311,16 @@
         <v>281</v>
       </c>
       <c r="C273">
-        <v>-37.9</v>
+        <v>-33.2</v>
       </c>
       <c r="D273">
-        <v>-50.6</v>
+        <v>-38.9</v>
       </c>
       <c r="E273">
-        <v>-55</v>
+        <v>-27.4</v>
       </c>
       <c r="F273">
-        <v>-24.6</v>
+        <v>70.6</v>
       </c>
       <c r="G273">
         <v>-0.91</v>
@@ -10343,16 +10343,16 @@
         <v>282</v>
       </c>
       <c r="C274">
-        <v>-16.3</v>
+        <v>-8.6</v>
       </c>
       <c r="D274">
-        <v>-19.9</v>
+        <v>-0.4</v>
       </c>
       <c r="E274">
-        <v>-8.2</v>
+        <v>35.2</v>
       </c>
       <c r="F274">
-        <v>-49.4</v>
+        <v>112.5</v>
       </c>
       <c r="G274">
         <v>-1.05</v>
@@ -10375,16 +10375,16 @@
         <v>283</v>
       </c>
       <c r="C275">
-        <v>-13.3</v>
+        <v>-4.5</v>
       </c>
       <c r="D275">
-        <v>-35.1</v>
+        <v>-12.4</v>
       </c>
       <c r="E275">
-        <v>-30</v>
+        <v>29.9</v>
       </c>
       <c r="F275">
-        <v>-69.4</v>
+        <v>92.6</v>
       </c>
       <c r="G275">
         <v>-0.91</v>
@@ -10407,16 +10407,16 @@
         <v>284</v>
       </c>
       <c r="C276">
-        <v>-47.2</v>
+        <v>-44.1</v>
       </c>
       <c r="D276">
-        <v>-50.5</v>
+        <v>-41.6</v>
       </c>
       <c r="E276">
-        <v>-26.9</v>
+        <v>-6.7</v>
       </c>
       <c r="F276">
-        <v>-46.3</v>
+        <v>19.4</v>
       </c>
       <c r="G276">
         <v>-1.29</v>
@@ -10439,16 +10439,16 @@
         <v>285</v>
       </c>
       <c r="C277">
-        <v>-38.5</v>
+        <v>-32.7</v>
       </c>
       <c r="D277">
-        <v>-43.4</v>
+        <v>-27.8</v>
       </c>
       <c r="E277">
-        <v>-32.7</v>
+        <v>6.9</v>
       </c>
       <c r="F277">
-        <v>-32.3</v>
+        <v>103.5</v>
       </c>
       <c r="G277">
         <v>-1.15</v>
@@ -10471,16 +10471,16 @@
         <v>286</v>
       </c>
       <c r="C278">
-        <v>-34</v>
+        <v>-27.4</v>
       </c>
       <c r="D278">
-        <v>-45.8</v>
+        <v>-28.5</v>
       </c>
       <c r="E278">
-        <v>-27.7</v>
+        <v>16.5</v>
       </c>
       <c r="F278">
-        <v>-29.5</v>
+        <v>140.1</v>
       </c>
       <c r="G278">
         <v>-1.18</v>
@@ -10503,16 +10503,16 @@
         <v>287</v>
       </c>
       <c r="C279">
-        <v>-36.9</v>
+        <v>-30.2</v>
       </c>
       <c r="D279">
-        <v>-38.8</v>
+        <v>-20.7</v>
       </c>
       <c r="E279">
-        <v>-32.5</v>
+        <v>12.7</v>
       </c>
       <c r="F279">
-        <v>-39.7</v>
+        <v>124.2</v>
       </c>
       <c r="G279">
         <v>-1.17</v>
@@ -10535,16 +10535,16 @@
         <v>288</v>
       </c>
       <c r="C280">
-        <v>-23.7</v>
+        <v>-15.9</v>
       </c>
       <c r="D280">
-        <v>-44.9</v>
+        <v>-25</v>
       </c>
       <c r="E280">
-        <v>-36.3</v>
+        <v>11.5</v>
       </c>
       <c r="F280">
-        <v>-44.7</v>
+        <v>116.9</v>
       </c>
       <c r="G280">
         <v>-1.22</v>
@@ -10567,16 +10567,16 @@
         <v>289</v>
       </c>
       <c r="C281">
-        <v>-28.8</v>
+        <v>-22.3</v>
       </c>
       <c r="D281">
-        <v>-42.4</v>
+        <v>-25.1</v>
       </c>
       <c r="E281">
-        <v>-30.8</v>
+        <v>12.8</v>
       </c>
       <c r="F281">
-        <v>-33.9</v>
+        <v>111.5</v>
       </c>
       <c r="G281">
         <v>-1.27</v>
@@ -10599,16 +10599,16 @@
         <v>290</v>
       </c>
       <c r="C282">
-        <v>-50.1</v>
+        <v>-47</v>
       </c>
       <c r="D282">
-        <v>-52.2</v>
+        <v>-43.9</v>
       </c>
       <c r="E282">
-        <v>-27.4</v>
+        <v>-8.6</v>
       </c>
       <c r="F282">
-        <v>-39.2</v>
+        <v>19</v>
       </c>
       <c r="G282">
         <v>-1.27</v>
@@ -10631,16 +10631,16 @@
         <v>291</v>
       </c>
       <c r="C283">
-        <v>-59.5</v>
+        <v>-56.7</v>
       </c>
       <c r="D283">
-        <v>-56.9</v>
+        <v>-49.3</v>
       </c>
       <c r="E283">
-        <v>-32.6</v>
+        <v>-15</v>
       </c>
       <c r="F283">
-        <v>-50.7</v>
+        <v>2.6</v>
       </c>
       <c r="G283">
         <v>-1.29</v>
@@ -10663,16 +10663,16 @@
         <v>292</v>
       </c>
       <c r="C284">
-        <v>-57.4</v>
+        <v>-55</v>
       </c>
       <c r="D284">
-        <v>-56.3</v>
+        <v>-49.6</v>
       </c>
       <c r="E284">
-        <v>-28.1</v>
+        <v>-11.3</v>
       </c>
       <c r="F284">
-        <v>-30.5</v>
+        <v>21.4</v>
       </c>
       <c r="G284">
         <v>-1.27</v>
@@ -10695,16 +10695,16 @@
         <v>293</v>
       </c>
       <c r="C285">
-        <v>-32.8</v>
+        <v>-26.4</v>
       </c>
       <c r="D285">
-        <v>-51.5</v>
+        <v>-34.7</v>
       </c>
       <c r="E285">
-        <v>-42.5</v>
+        <v>-2.2</v>
       </c>
       <c r="F285">
-        <v>-52.5</v>
+        <v>97.7</v>
       </c>
       <c r="G285">
         <v>-1.3</v>
@@ -10727,16 +10727,16 @@
         <v>294</v>
       </c>
       <c r="C286">
-        <v>-39</v>
+        <v>-30.8</v>
       </c>
       <c r="D286">
-        <v>-52.9</v>
+        <v>-32.4</v>
       </c>
       <c r="E286">
-        <v>-34.2</v>
+        <v>15</v>
       </c>
       <c r="F286">
-        <v>-32.8</v>
+        <v>139.5</v>
       </c>
       <c r="G286">
         <v>-1.19</v>
@@ -10759,16 +10759,16 @@
         <v>295</v>
       </c>
       <c r="C287">
-        <v>-34.1</v>
+        <v>-26.7</v>
       </c>
       <c r="D287">
-        <v>-49.4</v>
+        <v>-30.4</v>
       </c>
       <c r="E287">
-        <v>-32.5</v>
+        <v>14.1</v>
       </c>
       <c r="F287">
-        <v>-31.9</v>
+        <v>130.2</v>
       </c>
       <c r="G287">
         <v>-1.2</v>
@@ -10791,16 +10791,16 @@
         <v>296</v>
       </c>
       <c r="C288">
-        <v>-42</v>
+        <v>-33.4</v>
       </c>
       <c r="D288">
-        <v>-51.8</v>
+        <v>-30.6</v>
       </c>
       <c r="E288">
-        <v>-28.7</v>
+        <v>22.2</v>
       </c>
       <c r="F288">
-        <v>-28.7</v>
+        <v>157.1</v>
       </c>
       <c r="G288">
         <v>-1.19</v>
@@ -10823,16 +10823,16 @@
         <v>297</v>
       </c>
       <c r="C289">
-        <v>-37.9</v>
+        <v>-32</v>
       </c>
       <c r="D289">
-        <v>-54.8</v>
+        <v>-39.8</v>
       </c>
       <c r="E289">
-        <v>-41.5</v>
+        <v>-3</v>
       </c>
       <c r="F289">
-        <v>-63.8</v>
+        <v>76.9</v>
       </c>
       <c r="G289">
         <v>-1</v>
@@ -10855,16 +10855,16 @@
         <v>298</v>
       </c>
       <c r="C290">
-        <v>-32.8</v>
+        <v>-27.4</v>
       </c>
       <c r="D290">
-        <v>-50.3</v>
+        <v>-36.1</v>
       </c>
       <c r="E290">
-        <v>-35.2</v>
+        <v>1.6</v>
       </c>
       <c r="F290">
-        <v>-46.4</v>
+        <v>90.4</v>
       </c>
       <c r="G290">
         <v>-1.19</v>
@@ -10887,16 +10887,16 @@
         <v>299</v>
       </c>
       <c r="C291">
-        <v>-33.4</v>
+        <v>-28.1</v>
       </c>
       <c r="D291">
-        <v>-49.4</v>
+        <v>-35.7</v>
       </c>
       <c r="E291">
-        <v>-36.8</v>
+        <v>1.2</v>
       </c>
       <c r="F291">
-        <v>-52.9</v>
+        <v>77.3</v>
       </c>
       <c r="G291">
         <v>-0.99</v>
@@ -10919,16 +10919,16 @@
         <v>300</v>
       </c>
       <c r="C292">
-        <v>-60.6</v>
+        <v>-57.3</v>
       </c>
       <c r="D292">
-        <v>-61.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E292">
-        <v>-43.8</v>
+        <v>-23.5</v>
       </c>
       <c r="F292">
-        <v>-55.4</v>
+        <v>9.2</v>
       </c>
       <c r="G292">
         <v>-1.36</v>
@@ -10951,16 +10951,16 @@
         <v>301</v>
       </c>
       <c r="C293">
-        <v>-38.1</v>
+        <v>-31.2</v>
       </c>
       <c r="D293">
-        <v>-39.3</v>
+        <v>-18.6</v>
       </c>
       <c r="E293">
-        <v>-28</v>
+        <v>22.3</v>
       </c>
       <c r="F293">
-        <v>5.6</v>
+        <v>241.7</v>
       </c>
       <c r="G293">
         <v>-1.44</v>
@@ -10983,16 +10983,16 @@
         <v>302</v>
       </c>
       <c r="C294">
-        <v>-48.9</v>
+        <v>-43.3</v>
       </c>
       <c r="D294">
-        <v>-49</v>
+        <v>-33.9</v>
       </c>
       <c r="E294">
-        <v>-35.9</v>
+        <v>1</v>
       </c>
       <c r="F294">
-        <v>-45.6</v>
+        <v>70.4</v>
       </c>
       <c r="G294">
         <v>-1.35</v>
@@ -11015,16 +11015,16 @@
         <v>303</v>
       </c>
       <c r="C295">
-        <v>-49.9</v>
+        <v>-45.9</v>
       </c>
       <c r="D295">
-        <v>-48.4</v>
+        <v>-38.1</v>
       </c>
       <c r="E295">
-        <v>-31.5</v>
+        <v>-5.8</v>
       </c>
       <c r="F295">
-        <v>-50.9</v>
+        <v>44.5</v>
       </c>
       <c r="G295">
         <v>-1.24</v>
@@ -11047,16 +11047,16 @@
         <v>304</v>
       </c>
       <c r="C296">
-        <v>-41.4</v>
+        <v>-38.5</v>
       </c>
       <c r="D296">
-        <v>-43.1</v>
+        <v>-36.6</v>
       </c>
       <c r="E296">
-        <v>-27.7</v>
+        <v>-13.6</v>
       </c>
       <c r="F296">
-        <v>-29</v>
+        <v>22.7</v>
       </c>
       <c r="G296">
         <v>-1.11</v>
@@ -11079,16 +11079,16 @@
         <v>305</v>
       </c>
       <c r="C297">
-        <v>-3.2</v>
+        <v>0.2</v>
       </c>
       <c r="D297">
-        <v>-3.4</v>
+        <v>4.9</v>
       </c>
       <c r="E297">
-        <v>30.2</v>
+        <v>52.5</v>
       </c>
       <c r="F297">
-        <v>9</v>
+        <v>77.3</v>
       </c>
       <c r="G297">
         <v>-0.57</v>
@@ -11111,16 +11111,16 @@
         <v>306</v>
       </c>
       <c r="C298">
-        <v>-6.6</v>
+        <v>-3.4</v>
       </c>
       <c r="D298">
-        <v>-2.8</v>
+        <v>5</v>
       </c>
       <c r="E298">
-        <v>24.7</v>
+        <v>45.9</v>
       </c>
       <c r="F298">
-        <v>-9.7</v>
+        <v>50.5</v>
       </c>
       <c r="G298">
         <v>-0.68</v>
@@ -11143,16 +11143,16 @@
         <v>307</v>
       </c>
       <c r="C299">
-        <v>-11.1</v>
+        <v>-8.2</v>
       </c>
       <c r="D299">
-        <v>-12.5</v>
+        <v>-5.5</v>
       </c>
       <c r="E299">
-        <v>12.6</v>
+        <v>31.6</v>
       </c>
       <c r="F299">
-        <v>-9.7</v>
+        <v>48.3</v>
       </c>
       <c r="G299">
         <v>-0.62</v>
@@ -11175,16 +11175,16 @@
         <v>308</v>
       </c>
       <c r="C300">
-        <v>-30.9</v>
+        <v>-23.8</v>
       </c>
       <c r="D300">
-        <v>-48.2</v>
+        <v>-31.9</v>
       </c>
       <c r="E300">
-        <v>-43.6</v>
+        <v>-3.8</v>
       </c>
       <c r="F300">
-        <v>-48.5</v>
+        <v>88.3</v>
       </c>
       <c r="G300">
         <v>-1.04</v>
@@ -11207,16 +11207,16 @@
         <v>309</v>
       </c>
       <c r="C301">
-        <v>-27.8</v>
+        <v>-24.1</v>
       </c>
       <c r="D301">
-        <v>-38.1</v>
+        <v>-28.7</v>
       </c>
       <c r="E301">
-        <v>-34.5</v>
+        <v>-11.5</v>
       </c>
       <c r="F301">
-        <v>14.3</v>
+        <v>76.6</v>
       </c>
       <c r="G301">
         <v>-0.52</v>
@@ -11239,16 +11239,16 @@
         <v>310</v>
       </c>
       <c r="C302">
-        <v>-19.9</v>
+        <v>-16</v>
       </c>
       <c r="D302">
-        <v>-25.4</v>
+        <v>-16.1</v>
       </c>
       <c r="E302">
-        <v>-15.4</v>
+        <v>6.9</v>
       </c>
       <c r="F302">
-        <v>14.7</v>
+        <v>85.4</v>
       </c>
       <c r="G302">
         <v>-0.47</v>
@@ -11271,16 +11271,16 @@
         <v>311</v>
       </c>
       <c r="C303">
-        <v>-14.3</v>
+        <v>-10.7</v>
       </c>
       <c r="D303">
-        <v>-13.4</v>
+        <v>-5.2</v>
       </c>
       <c r="E303">
-        <v>-4.5</v>
+        <v>15.5</v>
       </c>
       <c r="F303">
-        <v>8.1</v>
+        <v>78.5</v>
       </c>
       <c r="G303">
         <v>-0.52</v>
@@ -11303,16 +11303,16 @@
         <v>312</v>
       </c>
       <c r="C304">
-        <v>-12.2</v>
+        <v>-8.1</v>
       </c>
       <c r="D304">
-        <v>-13.3</v>
+        <v>-3.7</v>
       </c>
       <c r="E304">
-        <v>4.7</v>
+        <v>28.6</v>
       </c>
       <c r="F304">
-        <v>156</v>
+        <v>264.6</v>
       </c>
       <c r="G304">
         <v>-0.48</v>
@@ -11335,16 +11335,16 @@
         <v>313</v>
       </c>
       <c r="C305">
-        <v>-48.2</v>
+        <v>-46.7</v>
       </c>
       <c r="D305">
-        <v>-69.2</v>
+        <v>-65.3</v>
       </c>
       <c r="E305">
-        <v>-48.1</v>
+        <v>-36.7</v>
       </c>
       <c r="F305">
-        <v>-82.4</v>
+        <v>-41.7</v>
       </c>
       <c r="G305">
         <v>-0.46</v>
@@ -11367,16 +11367,16 @@
         <v>314</v>
       </c>
       <c r="C306">
-        <v>-51.5</v>
+        <v>-49</v>
       </c>
       <c r="D306">
-        <v>-62.2</v>
+        <v>-55.9</v>
       </c>
       <c r="E306">
-        <v>-28.7</v>
+        <v>-8.4</v>
       </c>
       <c r="F306">
-        <v>-59.2</v>
+        <v>8.6</v>
       </c>
       <c r="G306">
         <v>-0.63</v>
@@ -11399,16 +11399,16 @@
         <v>315</v>
       </c>
       <c r="C307">
-        <v>-21.8</v>
+        <v>-18.1</v>
       </c>
       <c r="D307">
-        <v>-26.4</v>
+        <v>-17.8</v>
       </c>
       <c r="E307">
-        <v>-28.4</v>
+        <v>-7.2</v>
       </c>
       <c r="F307">
-        <v>-16.3</v>
+        <v>66.6</v>
       </c>
       <c r="G307">
         <v>-0.67</v>
@@ -11431,16 +11431,16 @@
         <v>316</v>
       </c>
       <c r="C308">
-        <v>-17.7</v>
+        <v>-14.5</v>
       </c>
       <c r="D308">
-        <v>-23</v>
+        <v>-15.3</v>
       </c>
       <c r="E308">
-        <v>-16.8</v>
+        <v>3</v>
       </c>
       <c r="F308">
-        <v>8.1</v>
+        <v>82.4</v>
       </c>
       <c r="G308">
         <v>-0.54</v>
@@ -11463,16 +11463,16 @@
         <v>317</v>
       </c>
       <c r="C309">
-        <v>-42.9</v>
+        <v>-40.5</v>
       </c>
       <c r="D309">
-        <v>-41.1</v>
+        <v>-35.2</v>
       </c>
       <c r="E309">
-        <v>-18.4</v>
+        <v>-6</v>
       </c>
       <c r="F309">
-        <v>-15.6</v>
+        <v>26.6</v>
       </c>
       <c r="G309">
         <v>-0.73</v>
@@ -11495,16 +11495,16 @@
         <v>318</v>
       </c>
       <c r="C310">
-        <v>-43.4</v>
+        <v>-39.9</v>
       </c>
       <c r="D310">
-        <v>-38.6</v>
+        <v>-30.4</v>
       </c>
       <c r="E310">
-        <v>-19</v>
+        <v>-1.7</v>
       </c>
       <c r="F310">
-        <v>25.4</v>
+        <v>89.4</v>
       </c>
       <c r="G310">
         <v>-0.57</v>
@@ -11527,16 +11527,16 @@
         <v>319</v>
       </c>
       <c r="C311">
-        <v>-27.1</v>
+        <v>-23.3</v>
       </c>
       <c r="D311">
-        <v>-16.4</v>
+        <v>-6.2</v>
       </c>
       <c r="E311">
-        <v>24.8</v>
+        <v>53.7</v>
       </c>
       <c r="F311">
-        <v>30</v>
+        <v>107.9</v>
       </c>
       <c r="G311">
         <v>-0.99</v>
@@ -11559,16 +11559,16 @@
         <v>320</v>
       </c>
       <c r="C312">
-        <v>-31.4</v>
+        <v>-27.5</v>
       </c>
       <c r="D312">
-        <v>-17</v>
+        <v>-6.6</v>
       </c>
       <c r="E312">
-        <v>26.1</v>
+        <v>56.9</v>
       </c>
       <c r="F312">
-        <v>-6.1</v>
+        <v>84.8</v>
       </c>
       <c r="G312">
         <v>-1.1</v>
@@ -11591,16 +11591,16 @@
         <v>321</v>
       </c>
       <c r="C313">
-        <v>-33.7</v>
+        <v>-30.3</v>
       </c>
       <c r="D313">
-        <v>-24.4</v>
+        <v>-15</v>
       </c>
       <c r="E313">
-        <v>9.4</v>
+        <v>37.1</v>
       </c>
       <c r="F313">
-        <v>-21.9</v>
+        <v>47.2</v>
       </c>
       <c r="G313">
         <v>-1.23</v>
@@ -11623,16 +11623,16 @@
         <v>322</v>
       </c>
       <c r="C314">
-        <v>-50.3</v>
+        <v>-47.2</v>
       </c>
       <c r="D314">
-        <v>-56.2</v>
+        <v>-48.5</v>
       </c>
       <c r="E314">
-        <v>-21.1</v>
+        <v>-4</v>
       </c>
       <c r="F314">
-        <v>-16.2</v>
+        <v>55.6</v>
       </c>
       <c r="G314">
         <v>-0.94</v>
@@ -11655,16 +11655,16 @@
         <v>323</v>
       </c>
       <c r="C315">
-        <v>-26.7</v>
+        <v>-22.3</v>
       </c>
       <c r="D315">
-        <v>-29.9</v>
+        <v>-19.5</v>
       </c>
       <c r="E315">
-        <v>-26.1</v>
+        <v>-1.7</v>
       </c>
       <c r="F315">
-        <v>-5.7</v>
+        <v>100.5</v>
       </c>
       <c r="G315">
         <v>-0.56</v>
@@ -11687,16 +11687,16 @@
         <v>324</v>
       </c>
       <c r="C316">
-        <v>-34</v>
+        <v>-28.5</v>
       </c>
       <c r="D316">
-        <v>-45.1</v>
+        <v>-30.1</v>
       </c>
       <c r="E316">
-        <v>-31.4</v>
+        <v>6.4</v>
       </c>
       <c r="F316">
-        <v>-27.6</v>
+        <v>98.8</v>
       </c>
       <c r="G316">
         <v>-1.4</v>
@@ -11719,16 +11719,16 @@
         <v>325</v>
       </c>
       <c r="C317">
-        <v>-30</v>
+        <v>-26</v>
       </c>
       <c r="D317">
-        <v>-19.8</v>
+        <v>-9.4</v>
       </c>
       <c r="E317">
-        <v>10.8</v>
+        <v>38</v>
       </c>
       <c r="F317">
-        <v>17.6</v>
+        <v>90.5</v>
       </c>
       <c r="G317">
         <v>-1.61</v>
@@ -11751,16 +11751,16 @@
         <v>326</v>
       </c>
       <c r="C318">
-        <v>-28.5</v>
+        <v>-24.2</v>
       </c>
       <c r="D318">
-        <v>-19.3</v>
+        <v>-8.4</v>
       </c>
       <c r="E318">
-        <v>15.7</v>
+        <v>43.5</v>
       </c>
       <c r="F318">
-        <v>27.9</v>
+        <v>111.1</v>
       </c>
       <c r="G318">
         <v>-1.12</v>
@@ -11783,16 +11783,16 @@
         <v>327</v>
       </c>
       <c r="C319">
-        <v>-46</v>
+        <v>-42.2</v>
       </c>
       <c r="D319">
-        <v>-55.6</v>
+        <v>-46.9</v>
       </c>
       <c r="E319">
-        <v>-22.6</v>
+        <v>-3.6</v>
       </c>
       <c r="F319">
-        <v>-17.6</v>
+        <v>69.2</v>
       </c>
       <c r="G319">
         <v>-0.61</v>
@@ -11815,16 +11815,16 @@
         <v>328</v>
       </c>
       <c r="C320">
-        <v>-23.2</v>
+        <v>-15.8</v>
       </c>
       <c r="D320">
-        <v>-31.8</v>
+        <v>-13.3</v>
       </c>
       <c r="E320">
-        <v>-17.1</v>
+        <v>26.7</v>
       </c>
       <c r="F320">
-        <v>-56.8</v>
+        <v>92.3</v>
       </c>
       <c r="G320">
         <v>-1.05</v>
@@ -11847,16 +11847,16 @@
         <v>329</v>
       </c>
       <c r="C321">
-        <v>-29.3</v>
+        <v>-23</v>
       </c>
       <c r="D321">
-        <v>-47.9</v>
+        <v>-32.1</v>
       </c>
       <c r="E321">
-        <v>-48.6</v>
+        <v>-9.2</v>
       </c>
       <c r="F321">
-        <v>-43.4</v>
+        <v>77.5</v>
       </c>
       <c r="G321">
         <v>-0.86</v>
@@ -11879,16 +11879,16 @@
         <v>330</v>
       </c>
       <c r="C322">
-        <v>-35.2</v>
+        <v>-29.5</v>
       </c>
       <c r="D322">
-        <v>-49.5</v>
+        <v>-36.6</v>
       </c>
       <c r="E322">
-        <v>-48.6</v>
+        <v>-18.4</v>
       </c>
       <c r="F322">
-        <v>-59.5</v>
+        <v>57.7</v>
       </c>
       <c r="G322">
         <v>-1.05</v>
@@ -11911,16 +11911,16 @@
         <v>331</v>
       </c>
       <c r="C323">
-        <v>-48.8</v>
+        <v>-44.9</v>
       </c>
       <c r="D323">
-        <v>-49.5</v>
+        <v>-39.9</v>
       </c>
       <c r="E323">
-        <v>-29.7</v>
+        <v>-8.5</v>
       </c>
       <c r="F323">
-        <v>-36.3</v>
+        <v>48.1</v>
       </c>
       <c r="G323">
         <v>-1.32</v>
@@ -11943,16 +11943,16 @@
         <v>332</v>
       </c>
       <c r="C324">
-        <v>-23.6</v>
+        <v>-17</v>
       </c>
       <c r="D324">
-        <v>-37.8</v>
+        <v>-22.9</v>
       </c>
       <c r="E324">
-        <v>-33.9</v>
+        <v>2.1</v>
       </c>
       <c r="F324">
-        <v>-56.5</v>
+        <v>80.8</v>
       </c>
       <c r="G324">
         <v>-1.01</v>
@@ -11975,16 +11975,16 @@
         <v>333</v>
       </c>
       <c r="C325">
-        <v>-40.2</v>
+        <v>-33.4</v>
       </c>
       <c r="D325">
-        <v>-39.2</v>
+        <v>-22.7</v>
       </c>
       <c r="E325">
-        <v>-18.1</v>
+        <v>19.9</v>
       </c>
       <c r="F325">
-        <v>-19.2</v>
+        <v>148.3</v>
       </c>
       <c r="G325">
         <v>-1.01</v>
@@ -12007,16 +12007,16 @@
         <v>334</v>
       </c>
       <c r="C326">
-        <v>-50.8</v>
+        <v>-47.5</v>
       </c>
       <c r="D326">
-        <v>-52.8</v>
+        <v>-44.5</v>
       </c>
       <c r="E326">
-        <v>-29.4</v>
+        <v>-11</v>
       </c>
       <c r="F326">
-        <v>-30.8</v>
+        <v>36.8</v>
       </c>
       <c r="G326">
         <v>-1.23</v>
@@ -12039,16 +12039,16 @@
         <v>335</v>
       </c>
       <c r="C327">
-        <v>-49.9</v>
+        <v>-46</v>
       </c>
       <c r="D327">
-        <v>-48.9</v>
+        <v>-38.6</v>
       </c>
       <c r="E327">
-        <v>-18.5</v>
+        <v>4.9</v>
       </c>
       <c r="F327">
-        <v>-23.9</v>
+        <v>58.3</v>
       </c>
       <c r="G327">
         <v>-1.32</v>
@@ -12071,16 +12071,16 @@
         <v>336</v>
       </c>
       <c r="C328">
-        <v>-36.7</v>
+        <v>-30.6</v>
       </c>
       <c r="D328">
-        <v>-52.1</v>
+        <v>-37.9</v>
       </c>
       <c r="E328">
-        <v>-45.9</v>
+        <v>-13</v>
       </c>
       <c r="F328">
-        <v>-65.6</v>
+        <v>69</v>
       </c>
       <c r="G328">
         <v>-1</v>
@@ -12103,16 +12103,16 @@
         <v>337</v>
       </c>
       <c r="C329">
-        <v>-11.8</v>
+        <v>-3.9</v>
       </c>
       <c r="D329">
-        <v>-26.2</v>
+        <v>-7.5</v>
       </c>
       <c r="E329">
-        <v>-14.1</v>
+        <v>32.4</v>
       </c>
       <c r="F329">
-        <v>-48.7</v>
+        <v>104.8</v>
       </c>
       <c r="G329">
         <v>-1.02</v>
@@ -12135,16 +12135,16 @@
         <v>338</v>
       </c>
       <c r="C330">
-        <v>-14.6</v>
+        <v>-6.4</v>
       </c>
       <c r="D330">
-        <v>-31.2</v>
+        <v>-11.2</v>
       </c>
       <c r="E330">
-        <v>-16.1</v>
+        <v>33.5</v>
       </c>
       <c r="F330">
-        <v>-53.1</v>
+        <v>117.2</v>
       </c>
       <c r="G330">
         <v>-1.04</v>
@@ -12167,16 +12167,16 @@
         <v>339</v>
       </c>
       <c r="C331">
-        <v>-30</v>
+        <v>-23.5</v>
       </c>
       <c r="D331">
-        <v>-48.4</v>
+        <v>-32.8</v>
       </c>
       <c r="E331">
-        <v>-45.3</v>
+        <v>-7.2</v>
       </c>
       <c r="F331">
-        <v>-25</v>
+        <v>108.9</v>
       </c>
       <c r="G331">
         <v>-0.93</v>
@@ -12199,16 +12199,16 @@
         <v>340</v>
       </c>
       <c r="C332">
-        <v>-30.5</v>
+        <v>-24.7</v>
       </c>
       <c r="D332">
-        <v>-50.7</v>
+        <v>-36</v>
       </c>
       <c r="E332">
-        <v>-47.6</v>
+        <v>-10.7</v>
       </c>
       <c r="F332">
-        <v>-27.2</v>
+        <v>84.8</v>
       </c>
       <c r="G332">
         <v>-0.78</v>
@@ -12231,16 +12231,16 @@
         <v>341</v>
       </c>
       <c r="C333">
-        <v>-27.8</v>
+        <v>-20</v>
       </c>
       <c r="D333">
-        <v>-49</v>
+        <v>-29.4</v>
       </c>
       <c r="E333">
-        <v>-41.1</v>
+        <v>5.9</v>
       </c>
       <c r="F333">
-        <v>-46.3</v>
+        <v>122.2</v>
       </c>
       <c r="G333">
         <v>-1.18</v>
@@ -12263,16 +12263,16 @@
         <v>342</v>
       </c>
       <c r="C334">
-        <v>-42.9</v>
+        <v>-37</v>
       </c>
       <c r="D334">
-        <v>-49.5</v>
+        <v>-34.3</v>
       </c>
       <c r="E334">
-        <v>-37.4</v>
+        <v>-1.6</v>
       </c>
       <c r="F334">
-        <v>-56.3</v>
+        <v>66.9</v>
       </c>
       <c r="G334">
         <v>-1.14</v>
@@ -12295,16 +12295,16 @@
         <v>343</v>
       </c>
       <c r="C335">
-        <v>-44.1</v>
+        <v>-38.9</v>
       </c>
       <c r="D335">
-        <v>-48.9</v>
+        <v>-35</v>
       </c>
       <c r="E335">
-        <v>-37.3</v>
+        <v>-3.4</v>
       </c>
       <c r="F335">
-        <v>-50.5</v>
+        <v>62.3</v>
       </c>
       <c r="G335">
         <v>-1.15</v>
@@ -12327,16 +12327,16 @@
         <v>344</v>
       </c>
       <c r="C336">
-        <v>-30.1</v>
+        <v>-22.5</v>
       </c>
       <c r="D336">
-        <v>-51.7</v>
+        <v>-32.5</v>
       </c>
       <c r="E336">
-        <v>-39.8</v>
+        <v>6.7</v>
       </c>
       <c r="F336">
-        <v>-50.8</v>
+        <v>127.1</v>
       </c>
       <c r="G336">
         <v>-1.13</v>
@@ -12359,16 +12359,16 @@
         <v>345</v>
       </c>
       <c r="C337">
-        <v>-54.7</v>
+        <v>-51.9</v>
       </c>
       <c r="D337">
-        <v>-50.8</v>
+        <v>-43.1</v>
       </c>
       <c r="E337">
-        <v>-24.5</v>
+        <v>-6</v>
       </c>
       <c r="F337">
-        <v>-48.3</v>
+        <v>15.1</v>
       </c>
       <c r="G337">
         <v>-1.32</v>
@@ -12391,16 +12391,16 @@
         <v>346</v>
       </c>
       <c r="C338">
-        <v>-51.3</v>
+        <v>-48.5</v>
       </c>
       <c r="D338">
-        <v>-51</v>
+        <v>-43.1</v>
       </c>
       <c r="E338">
-        <v>-24.8</v>
+        <v>-6.7</v>
       </c>
       <c r="F338">
-        <v>-52.4</v>
+        <v>9.2</v>
       </c>
       <c r="G338">
         <v>-1.3</v>
@@ -12423,16 +12423,16 @@
         <v>347</v>
       </c>
       <c r="C339">
-        <v>-44.8</v>
+        <v>-41.4</v>
       </c>
       <c r="D339">
-        <v>-48</v>
+        <v>-38.5</v>
       </c>
       <c r="E339">
-        <v>-26.1</v>
+        <v>-5.1</v>
       </c>
       <c r="F339">
-        <v>-44.3</v>
+        <v>25.3</v>
       </c>
       <c r="G339">
         <v>-1.29</v>
@@ -12455,16 +12455,16 @@
         <v>348</v>
       </c>
       <c r="C340">
-        <v>-54.7</v>
+        <v>-51.7</v>
       </c>
       <c r="D340">
-        <v>-53.8</v>
+        <v>-45.2</v>
       </c>
       <c r="E340">
-        <v>-30.8</v>
+        <v>-11.5</v>
       </c>
       <c r="F340">
-        <v>-54.2</v>
+        <v>8.8</v>
       </c>
       <c r="G340">
         <v>-1.31</v>
@@ -12487,16 +12487,16 @@
         <v>349</v>
       </c>
       <c r="C341">
-        <v>-22</v>
+        <v>-13.6</v>
       </c>
       <c r="D341">
-        <v>-48.1</v>
+        <v>-27.6</v>
       </c>
       <c r="E341">
-        <v>-49.7</v>
+        <v>4.7</v>
       </c>
       <c r="F341">
-        <v>-78.5</v>
+        <v>84.5</v>
       </c>
       <c r="G341">
         <v>-0.85</v>
@@ -12519,16 +12519,16 @@
         <v>350</v>
       </c>
       <c r="C342">
-        <v>-18.9</v>
+        <v>-10.6</v>
       </c>
       <c r="D342">
-        <v>-43.2</v>
+        <v>-23</v>
       </c>
       <c r="E342">
-        <v>-43.6</v>
+        <v>7.3</v>
       </c>
       <c r="F342">
-        <v>-76.5</v>
+        <v>73.1</v>
       </c>
       <c r="G342">
         <v>-0.92</v>
@@ -12551,16 +12551,16 @@
         <v>351</v>
       </c>
       <c r="C343">
-        <v>-38.6</v>
+        <v>-30.3</v>
       </c>
       <c r="D343">
-        <v>-48.9</v>
+        <v>-28</v>
       </c>
       <c r="E343">
-        <v>-30.4</v>
+        <v>19.8</v>
       </c>
       <c r="F343">
-        <v>-33.9</v>
+        <v>157.6</v>
       </c>
       <c r="G343">
         <v>-1.17</v>
@@ -12583,16 +12583,16 @@
         <v>352</v>
       </c>
       <c r="C344">
-        <v>-45.4</v>
+        <v>-40.4</v>
       </c>
       <c r="D344">
-        <v>-47.1</v>
+        <v>-33.7</v>
       </c>
       <c r="E344">
-        <v>-32</v>
+        <v>0.8</v>
       </c>
       <c r="F344">
-        <v>-44.1</v>
+        <v>77</v>
       </c>
       <c r="G344">
         <v>-1.17</v>
@@ -12615,16 +12615,16 @@
         <v>353</v>
       </c>
       <c r="C345">
-        <v>-46.1</v>
+        <v>-41.1</v>
       </c>
       <c r="D345">
-        <v>-49.1</v>
+        <v>-35.6</v>
       </c>
       <c r="E345">
-        <v>-35.9</v>
+        <v>-3.3</v>
       </c>
       <c r="F345">
-        <v>-50.1</v>
+        <v>63.3</v>
       </c>
       <c r="G345">
         <v>-1.15</v>
@@ -12647,16 +12647,16 @@
         <v>354</v>
       </c>
       <c r="C346">
-        <v>-51.3</v>
+        <v>-47.6</v>
       </c>
       <c r="D346">
-        <v>-47.6</v>
+        <v>-37.6</v>
       </c>
       <c r="E346">
-        <v>-31.1</v>
+        <v>-7</v>
       </c>
       <c r="F346">
-        <v>-47.9</v>
+        <v>40</v>
       </c>
       <c r="G346">
         <v>-1.32</v>
@@ -12679,16 +12679,16 @@
         <v>355</v>
       </c>
       <c r="C347">
-        <v>-53.7</v>
+        <v>-49.1</v>
       </c>
       <c r="D347">
-        <v>-52.2</v>
+        <v>-39.4</v>
       </c>
       <c r="E347">
-        <v>-41</v>
+        <v>-9.4</v>
       </c>
       <c r="F347">
-        <v>-43.3</v>
+        <v>78.4</v>
       </c>
       <c r="G347">
         <v>-1.42</v>
@@ -12711,16 +12711,16 @@
         <v>356</v>
       </c>
       <c r="C348">
-        <v>-39.1</v>
+        <v>-32.2</v>
       </c>
       <c r="D348">
-        <v>-38.7</v>
+        <v>-18.8</v>
       </c>
       <c r="E348">
-        <v>-16.5</v>
+        <v>35.5</v>
       </c>
       <c r="F348">
-        <v>-1.2</v>
+        <v>209.6</v>
       </c>
       <c r="G348">
         <v>-1.42</v>
@@ -12743,16 +12743,16 @@
         <v>357</v>
       </c>
       <c r="C349">
-        <v>-42.5</v>
+        <v>-36.4</v>
       </c>
       <c r="D349">
-        <v>-39.1</v>
+        <v>-21.4</v>
       </c>
       <c r="E349">
-        <v>-8.9</v>
+        <v>40.5</v>
       </c>
       <c r="F349">
-        <v>-15.3</v>
+        <v>176.7</v>
       </c>
       <c r="G349">
         <v>-1.38</v>
@@ -12775,16 +12775,16 @@
         <v>358</v>
       </c>
       <c r="C350">
-        <v>-45.1</v>
+        <v>-39.1</v>
       </c>
       <c r="D350">
-        <v>-45.2</v>
+        <v>-28.2</v>
       </c>
       <c r="E350">
-        <v>-22.6</v>
+        <v>22.5</v>
       </c>
       <c r="F350">
-        <v>-26.5</v>
+        <v>134.3</v>
       </c>
       <c r="G350">
         <v>-1.35</v>
@@ -12807,16 +12807,16 @@
         <v>359</v>
       </c>
       <c r="C351">
-        <v>-50.6</v>
+        <v>-45.7</v>
       </c>
       <c r="D351">
-        <v>-52.1</v>
+        <v>-38.9</v>
       </c>
       <c r="E351">
-        <v>-39.2</v>
+        <v>-5.3</v>
       </c>
       <c r="F351">
-        <v>-58.9</v>
+        <v>56.1</v>
       </c>
       <c r="G351">
         <v>-1.29</v>
@@ -12839,16 +12839,16 @@
         <v>360</v>
       </c>
       <c r="C352">
-        <v>-17.5</v>
+        <v>-11.8</v>
       </c>
       <c r="D352">
-        <v>-33.7</v>
+        <v>-18.4</v>
       </c>
       <c r="E352">
-        <v>-11.2</v>
+        <v>31.4</v>
       </c>
       <c r="F352">
-        <v>-20</v>
+        <v>117</v>
       </c>
       <c r="G352">
         <v>-1.34</v>
@@ -12871,16 +12871,16 @@
         <v>361</v>
       </c>
       <c r="C353">
-        <v>-25.6</v>
+        <v>-18.6</v>
       </c>
       <c r="D353">
-        <v>-19.2</v>
+        <v>2.1</v>
       </c>
       <c r="E353">
-        <v>3.9</v>
+        <v>61.5</v>
       </c>
       <c r="F353">
-        <v>16.4</v>
+        <v>245.9</v>
       </c>
       <c r="G353">
         <v>-1.39</v>
@@ -12903,16 +12903,16 @@
         <v>362</v>
       </c>
       <c r="C354">
-        <v>-21.2</v>
+        <v>-15.2</v>
       </c>
       <c r="D354">
-        <v>-33</v>
+        <v>-17.2</v>
       </c>
       <c r="E354">
-        <v>-4.7</v>
+        <v>41.5</v>
       </c>
       <c r="F354">
-        <v>-2.3</v>
+        <v>149.7</v>
       </c>
       <c r="G354">
         <v>-1.1</v>
@@ -12935,16 +12935,16 @@
         <v>363</v>
       </c>
       <c r="C355">
-        <v>-14.1</v>
+        <v>-7.8</v>
       </c>
       <c r="D355">
-        <v>-25.1</v>
+        <v>-7.6</v>
       </c>
       <c r="E355">
-        <v>4.6</v>
+        <v>53.4</v>
       </c>
       <c r="F355">
-        <v>-2.6</v>
+        <v>162.8</v>
       </c>
       <c r="G355">
         <v>-1.3</v>
@@ -12967,16 +12967,16 @@
         <v>364</v>
       </c>
       <c r="C356">
-        <v>-43.9</v>
+        <v>-41.1</v>
       </c>
       <c r="D356">
-        <v>-49</v>
+        <v>-40.9</v>
       </c>
       <c r="E356">
-        <v>-22.1</v>
+        <v>0.7</v>
       </c>
       <c r="F356">
-        <v>-19.4</v>
+        <v>60.9</v>
       </c>
       <c r="G356">
         <v>-1.26</v>
@@ -12999,16 +12999,16 @@
         <v>365</v>
       </c>
       <c r="C357">
-        <v>-54.2</v>
+        <v>-50.2</v>
       </c>
       <c r="D357">
-        <v>-52.4</v>
+        <v>-41.3</v>
       </c>
       <c r="E357">
-        <v>-33.8</v>
+        <v>-4.6</v>
       </c>
       <c r="F357">
-        <v>-58</v>
+        <v>41.3</v>
       </c>
       <c r="G357">
         <v>-1.27</v>
@@ -13031,16 +13031,16 @@
         <v>366</v>
       </c>
       <c r="C358">
-        <v>-20.4</v>
+        <v>-11.8</v>
       </c>
       <c r="D358">
-        <v>-21.9</v>
+        <v>4.5</v>
       </c>
       <c r="E358">
-        <v>24.8</v>
+        <v>103.4</v>
       </c>
       <c r="F358">
-        <v>99.2</v>
+        <v>551.9</v>
       </c>
       <c r="G358">
         <v>-1.3</v>
@@ -13063,16 +13063,16 @@
         <v>367</v>
       </c>
       <c r="C359">
-        <v>-14.8</v>
+        <v>-7.7</v>
       </c>
       <c r="D359">
-        <v>-34.5</v>
+        <v>-13.4</v>
       </c>
       <c r="E359">
-        <v>10.3</v>
+        <v>73.3</v>
       </c>
       <c r="F359">
-        <v>36.1</v>
+        <v>300.9</v>
       </c>
       <c r="G359">
         <v>-1.42</v>
@@ -13095,16 +13095,16 @@
         <v>368</v>
       </c>
       <c r="C360">
-        <v>-17.8</v>
+        <v>-9.6</v>
       </c>
       <c r="D360">
-        <v>-9.5</v>
+        <v>16.2</v>
       </c>
       <c r="E360">
-        <v>49.2</v>
+        <v>129.5</v>
       </c>
       <c r="F360">
-        <v>114.3</v>
+        <v>539</v>
       </c>
       <c r="G360">
         <v>-1.32</v>
@@ -13127,16 +13127,16 @@
         <v>369</v>
       </c>
       <c r="C361">
-        <v>-23.4</v>
+        <v>-16.1</v>
       </c>
       <c r="D361">
-        <v>-14.2</v>
+        <v>9</v>
       </c>
       <c r="E361">
-        <v>51.1</v>
+        <v>125.8</v>
       </c>
       <c r="F361">
-        <v>88</v>
+        <v>469.4</v>
       </c>
       <c r="G361">
         <v>-1.31</v>
@@ -13159,16 +13159,16 @@
         <v>370</v>
       </c>
       <c r="C362">
-        <v>-27.1</v>
+        <v>-19.9</v>
       </c>
       <c r="D362">
-        <v>-15.2</v>
+        <v>7.1</v>
       </c>
       <c r="E362">
-        <v>37.5</v>
+        <v>107</v>
       </c>
       <c r="F362">
-        <v>34.7</v>
+        <v>333.8</v>
       </c>
       <c r="G362">
         <v>-1.35</v>
@@ -13191,16 +13191,16 @@
         <v>371</v>
       </c>
       <c r="C363">
-        <v>-16.5</v>
+        <v>-10.6</v>
       </c>
       <c r="D363">
-        <v>-28.7</v>
+        <v>-11.9</v>
       </c>
       <c r="E363">
-        <v>9.2</v>
+        <v>60.5</v>
       </c>
       <c r="F363">
-        <v>13.7</v>
+        <v>202.7</v>
       </c>
       <c r="G363">
         <v>-1.18</v>
@@ -13223,16 +13223,16 @@
         <v>372</v>
       </c>
       <c r="C364">
-        <v>-11.5</v>
+        <v>-5.2</v>
       </c>
       <c r="D364">
-        <v>-20.3</v>
+        <v>-1.9</v>
       </c>
       <c r="E364">
-        <v>23.3</v>
+        <v>77.7</v>
       </c>
       <c r="F364">
-        <v>30.7</v>
+        <v>242.4</v>
       </c>
       <c r="G364">
         <v>-1.27</v>
@@ -13255,16 +13255,16 @@
         <v>373</v>
       </c>
       <c r="C365">
-        <v>-5.9</v>
+        <v>0.7</v>
       </c>
       <c r="D365">
-        <v>-15.2</v>
+        <v>4.4</v>
       </c>
       <c r="E365">
-        <v>32.8</v>
+        <v>91.4</v>
       </c>
       <c r="F365">
-        <v>52.1</v>
+        <v>296.1</v>
       </c>
       <c r="G365">
         <v>-1.33</v>
@@ -13287,16 +13287,16 @@
         <v>374</v>
       </c>
       <c r="C366">
-        <v>-6.6</v>
+        <v>0</v>
       </c>
       <c r="D366">
-        <v>-19.6</v>
+        <v>0</v>
       </c>
       <c r="E366">
-        <v>20.7</v>
+        <v>76.6</v>
       </c>
       <c r="F366">
-        <v>32.3</v>
+        <v>247.7</v>
       </c>
       <c r="G366">
         <v>-1.37</v>
@@ -13319,16 +13319,16 @@
         <v>375</v>
       </c>
       <c r="C367">
-        <v>-5.5</v>
+        <v>2.2</v>
       </c>
       <c r="D367">
-        <v>-13.6</v>
+        <v>9.4</v>
       </c>
       <c r="E367">
-        <v>92.7</v>
+        <v>173.6</v>
       </c>
       <c r="F367">
-        <v>68.9</v>
+        <v>337.9</v>
       </c>
       <c r="G367">
         <v>-1.36</v>
@@ -13351,16 +13351,16 @@
         <v>376</v>
       </c>
       <c r="C368">
-        <v>-25.6</v>
+        <v>-20.1</v>
       </c>
       <c r="D368">
-        <v>-29.6</v>
+        <v>-16.6</v>
       </c>
       <c r="E368">
-        <v>-4.8</v>
+        <v>30.1</v>
       </c>
       <c r="F368">
-        <v>-17.7</v>
+        <v>83.1</v>
       </c>
       <c r="G368">
         <v>-1.01</v>
@@ -13383,16 +13383,16 @@
         <v>377</v>
       </c>
       <c r="C369">
-        <v>-19.3</v>
+        <v>-17.3</v>
       </c>
       <c r="D369">
-        <v>-10.1</v>
+        <v>-5.4</v>
       </c>
       <c r="E369">
-        <v>20.4</v>
+        <v>32.9</v>
       </c>
       <c r="F369">
-        <v>-20.5</v>
+        <v>12.6</v>
       </c>
       <c r="G369">
         <v>-0.62</v>
@@ -13415,16 +13415,16 @@
         <v>378</v>
       </c>
       <c r="C370">
-        <v>-18.4</v>
+        <v>-16.3</v>
       </c>
       <c r="D370">
-        <v>-10.4</v>
+        <v>-5.4</v>
       </c>
       <c r="E370">
-        <v>25</v>
+        <v>38.9</v>
       </c>
       <c r="F370">
-        <v>-29.6</v>
+        <v>5</v>
       </c>
       <c r="G370">
         <v>-0.52</v>
@@ -13447,16 +13447,16 @@
         <v>379</v>
       </c>
       <c r="C371">
-        <v>-12.5</v>
+        <v>-9.7</v>
       </c>
       <c r="D371">
-        <v>-12.3</v>
+        <v>-5.4</v>
       </c>
       <c r="E371">
-        <v>14.7</v>
+        <v>33.6</v>
       </c>
       <c r="F371">
-        <v>-14.8</v>
+        <v>40.7</v>
       </c>
       <c r="G371">
         <v>-0.72</v>
@@ -13479,16 +13479,16 @@
         <v>380</v>
       </c>
       <c r="C372">
-        <v>-31.4</v>
+        <v>-30.1</v>
       </c>
       <c r="D372">
-        <v>-43.2</v>
+        <v>-40.1</v>
       </c>
       <c r="E372">
-        <v>-29.4</v>
+        <v>-22.7</v>
       </c>
       <c r="F372">
-        <v>-50.6</v>
+        <v>-27.3</v>
       </c>
       <c r="G372">
         <v>-0.57</v>
@@ -13511,16 +13511,16 @@
         <v>381</v>
       </c>
       <c r="C373">
-        <v>-42.8</v>
+        <v>-41.5</v>
       </c>
       <c r="D373">
-        <v>-43.4</v>
+        <v>-40.2</v>
       </c>
       <c r="E373">
-        <v>-30.4</v>
+        <v>-23.7</v>
       </c>
       <c r="F373">
-        <v>-51.4</v>
+        <v>-29.3</v>
       </c>
       <c r="G373">
         <v>-0.96</v>
@@ -13543,16 +13543,16 @@
         <v>382</v>
       </c>
       <c r="C374">
-        <v>-56.5</v>
+        <v>-52.6</v>
       </c>
       <c r="D374">
-        <v>-54.9</v>
+        <v>-45.8</v>
       </c>
       <c r="E374">
-        <v>-36.3</v>
+        <v>-17.6</v>
       </c>
       <c r="F374">
-        <v>-28.5</v>
+        <v>49.5</v>
       </c>
       <c r="G374">
         <v>-0.87</v>
@@ -13575,16 +13575,16 @@
         <v>383</v>
       </c>
       <c r="C375">
-        <v>-50.9</v>
+        <v>-48.4</v>
       </c>
       <c r="D375">
-        <v>-64.1</v>
+        <v>-57.8</v>
       </c>
       <c r="E375">
-        <v>-30.1</v>
+        <v>-10.1</v>
       </c>
       <c r="F375">
-        <v>-57.4</v>
+        <v>12.7</v>
       </c>
       <c r="G375">
         <v>-0.49</v>
@@ -13607,16 +13607,16 @@
         <v>384</v>
       </c>
       <c r="C376">
-        <v>-38.2</v>
+        <v>-31.7</v>
       </c>
       <c r="D376">
-        <v>-31.1</v>
+        <v>-11.8</v>
       </c>
       <c r="E376">
-        <v>3.1</v>
+        <v>60.4</v>
       </c>
       <c r="F376">
-        <v>-3.9</v>
+        <v>234.6</v>
       </c>
       <c r="G376">
         <v>-1.37</v>
@@ -13639,16 +13639,16 @@
         <v>385</v>
       </c>
       <c r="C377">
-        <v>-53.9</v>
+        <v>-49.9</v>
       </c>
       <c r="D377">
-        <v>-57.9</v>
+        <v>-46.9</v>
       </c>
       <c r="E377">
-        <v>-47.6</v>
+        <v>-22.5</v>
       </c>
       <c r="F377">
-        <v>-59.6</v>
+        <v>13.5</v>
       </c>
       <c r="G377">
         <v>-1.33</v>
@@ -13671,16 +13671,16 @@
         <v>386</v>
       </c>
       <c r="C378">
-        <v>-17.1</v>
+        <v>-14</v>
       </c>
       <c r="D378">
-        <v>-17.1</v>
+        <v>-9.8</v>
       </c>
       <c r="E378">
-        <v>-3.4</v>
+        <v>15.2</v>
       </c>
       <c r="F378">
-        <v>65.1</v>
+        <v>136.4</v>
       </c>
       <c r="G378">
         <v>-0.49</v>
@@ -13703,16 +13703,16 @@
         <v>387</v>
       </c>
       <c r="C379">
-        <v>-43.3</v>
+        <v>-41.8</v>
       </c>
       <c r="D379">
-        <v>-42.7</v>
+        <v>-39.3</v>
       </c>
       <c r="E379">
-        <v>-26</v>
+        <v>-19.2</v>
       </c>
       <c r="F379">
-        <v>-27.7</v>
+        <v>-4.5</v>
       </c>
       <c r="G379">
         <v>-0.72</v>
@@ -13735,16 +13735,16 @@
         <v>388</v>
       </c>
       <c r="C380">
-        <v>-30.4</v>
+        <v>-24</v>
       </c>
       <c r="D380">
-        <v>-45.9</v>
+        <v>-30.9</v>
       </c>
       <c r="E380">
-        <v>-46.1</v>
+        <v>-8.8</v>
       </c>
       <c r="F380">
-        <v>-48.8</v>
+        <v>66.2</v>
       </c>
       <c r="G380">
         <v>-1.08</v>
@@ -13767,16 +13767,16 @@
         <v>389</v>
       </c>
       <c r="C381">
-        <v>-31.7</v>
+        <v>-25.2</v>
       </c>
       <c r="D381">
-        <v>-47.3</v>
+        <v>-32.1</v>
       </c>
       <c r="E381">
-        <v>-46.7</v>
+        <v>-8.8</v>
       </c>
       <c r="F381">
-        <v>-46.1</v>
+        <v>75</v>
       </c>
       <c r="G381">
         <v>-1.08</v>
@@ -13799,16 +13799,16 @@
         <v>390</v>
       </c>
       <c r="C382">
-        <v>-31.2</v>
+        <v>-23</v>
       </c>
       <c r="D382">
-        <v>-43.6</v>
+        <v>-20.6</v>
       </c>
       <c r="E382">
-        <v>-18.4</v>
+        <v>39.9</v>
       </c>
       <c r="F382">
-        <v>2.9</v>
+        <v>292.7</v>
       </c>
       <c r="G382">
         <v>-1.2</v>
@@ -13831,16 +13831,16 @@
         <v>391</v>
       </c>
       <c r="C383">
-        <v>-55.4</v>
+        <v>-52.8</v>
       </c>
       <c r="D383">
-        <v>-57.5</v>
+        <v>-50.3</v>
       </c>
       <c r="E383">
-        <v>-41</v>
+        <v>-25.2</v>
       </c>
       <c r="F383">
-        <v>-50.3</v>
+        <v>-4.2</v>
       </c>
       <c r="G383">
         <v>-1.27</v>
@@ -13863,16 +13863,16 @@
         <v>392</v>
       </c>
       <c r="C384">
-        <v>-35.1</v>
+        <v>-30.5</v>
       </c>
       <c r="D384">
-        <v>-44.7</v>
+        <v>-32.9</v>
       </c>
       <c r="E384">
-        <v>-42.9</v>
+        <v>-15.8</v>
       </c>
       <c r="F384">
-        <v>-3.5</v>
+        <v>79.6</v>
       </c>
       <c r="G384">
         <v>-0.84</v>
@@ -13895,16 +13895,16 @@
         <v>393</v>
       </c>
       <c r="C385">
-        <v>-32.4</v>
+        <v>-26</v>
       </c>
       <c r="D385">
-        <v>-50.2</v>
+        <v>-35.5</v>
       </c>
       <c r="E385">
-        <v>-50.8</v>
+        <v>-15.9</v>
       </c>
       <c r="F385">
-        <v>-58.1</v>
+        <v>68.1</v>
       </c>
       <c r="G385">
         <v>-1.07</v>
@@ -13927,16 +13927,16 @@
         <v>394</v>
       </c>
       <c r="C386">
-        <v>-18.6</v>
+        <v>-15.6</v>
       </c>
       <c r="D386">
-        <v>-18.9</v>
+        <v>-12</v>
       </c>
       <c r="E386">
-        <v>-8.6</v>
+        <v>7.1</v>
       </c>
       <c r="F386">
-        <v>-34.5</v>
+        <v>16.7</v>
       </c>
       <c r="G386">
         <v>-0.99</v>
@@ -13959,16 +13959,16 @@
         <v>395</v>
       </c>
       <c r="C387">
-        <v>-18.4</v>
+        <v>-16</v>
       </c>
       <c r="D387">
-        <v>-12.2</v>
+        <v>-6.5</v>
       </c>
       <c r="E387">
-        <v>16.9</v>
+        <v>30.9</v>
       </c>
       <c r="F387">
-        <v>-37.3</v>
+        <v>2.3</v>
       </c>
       <c r="G387">
         <v>-0.51</v>
@@ -13991,16 +13991,16 @@
         <v>396</v>
       </c>
       <c r="C388">
-        <v>-18.7</v>
+        <v>-15.6</v>
       </c>
       <c r="D388">
-        <v>-23.6</v>
+        <v>-16.2</v>
       </c>
       <c r="E388">
-        <v>-16.5</v>
+        <v>2.8</v>
       </c>
       <c r="F388">
-        <v>-17.7</v>
+        <v>49.6</v>
       </c>
       <c r="G388">
         <v>-0.82</v>
@@ -14023,16 +14023,16 @@
         <v>397</v>
       </c>
       <c r="C389">
-        <v>-58.8</v>
+        <v>-55.9</v>
       </c>
       <c r="D389">
-        <v>-62.9</v>
+        <v>-55.1</v>
       </c>
       <c r="E389">
-        <v>-54.9</v>
+        <v>-37</v>
       </c>
       <c r="F389">
-        <v>-67.9</v>
+        <v>-15.5</v>
       </c>
       <c r="G389">
         <v>-1.28</v>
@@ -14055,16 +14055,16 @@
         <v>398</v>
       </c>
       <c r="C390">
-        <v>-55.5</v>
+        <v>-50.6</v>
       </c>
       <c r="D390">
-        <v>-57.7</v>
+        <v>-44.4</v>
       </c>
       <c r="E390">
-        <v>-44.4</v>
+        <v>-12.7</v>
       </c>
       <c r="F390">
-        <v>-46.4</v>
+        <v>51.5</v>
       </c>
       <c r="G390">
         <v>-1.4</v>
@@ -14087,16 +14087,16 @@
         <v>399</v>
       </c>
       <c r="C391">
-        <v>-11</v>
+        <v>-7.9</v>
       </c>
       <c r="D391">
-        <v>-12.3</v>
+        <v>-5.1</v>
       </c>
       <c r="E391">
-        <v>7</v>
+        <v>25.9</v>
       </c>
       <c r="F391">
-        <v>13.4</v>
+        <v>79.9</v>
       </c>
       <c r="G391">
         <v>-0.53</v>
@@ -14119,16 +14119,16 @@
         <v>400</v>
       </c>
       <c r="C392">
-        <v>-23.3</v>
+        <v>-19.4</v>
       </c>
       <c r="D392">
-        <v>-28.8</v>
+        <v>-20.1</v>
       </c>
       <c r="E392">
-        <v>-26.7</v>
+        <v>-7.8</v>
       </c>
       <c r="F392">
-        <v>-31.9</v>
+        <v>41.7</v>
       </c>
       <c r="G392">
         <v>-0.93</v>
@@ -14151,16 +14151,16 @@
         <v>401</v>
       </c>
       <c r="C393">
-        <v>-21.2</v>
+        <v>-17.2</v>
       </c>
       <c r="D393">
-        <v>-24</v>
+        <v>-14.8</v>
       </c>
       <c r="E393">
-        <v>-13.5</v>
+        <v>7.4</v>
       </c>
       <c r="F393">
-        <v>9.1</v>
+        <v>87.9</v>
       </c>
       <c r="G393">
         <v>-0.88</v>
@@ -14183,16 +14183,16 @@
         <v>402</v>
       </c>
       <c r="C394">
-        <v>-21.4</v>
+        <v>-15.5</v>
       </c>
       <c r="D394">
-        <v>-34.6</v>
+        <v>-19.1</v>
       </c>
       <c r="E394">
-        <v>-9.7</v>
+        <v>34.8</v>
       </c>
       <c r="F394">
-        <v>-12.9</v>
+        <v>130.2</v>
       </c>
       <c r="G394">
         <v>-1.18</v>
@@ -14215,16 +14215,16 @@
         <v>403</v>
       </c>
       <c r="C395">
-        <v>-21</v>
+        <v>-12.8</v>
       </c>
       <c r="D395">
-        <v>-26.1</v>
+        <v>-6</v>
       </c>
       <c r="E395">
-        <v>-8.9</v>
+        <v>36.3</v>
       </c>
       <c r="F395">
-        <v>-30.4</v>
+        <v>155.2</v>
       </c>
       <c r="G395">
         <v>-1.04</v>
@@ -14247,16 +14247,16 @@
         <v>404</v>
       </c>
       <c r="C396">
-        <v>-35.5</v>
+        <v>-27.6</v>
       </c>
       <c r="D396">
-        <v>-43.1</v>
+        <v>-24</v>
       </c>
       <c r="E396">
-        <v>-29.8</v>
+        <v>14.9</v>
       </c>
       <c r="F396">
-        <v>-48.7</v>
+        <v>123.6</v>
       </c>
       <c r="G396">
         <v>-1.05</v>
@@ -14279,16 +14279,16 @@
         <v>405</v>
       </c>
       <c r="C397">
-        <v>-28.8</v>
+        <v>-22</v>
       </c>
       <c r="D397">
-        <v>-49.6</v>
+        <v>-33.6</v>
       </c>
       <c r="E397">
-        <v>-46.5</v>
+        <v>-6</v>
       </c>
       <c r="F397">
-        <v>-62.2</v>
+        <v>74.2</v>
       </c>
       <c r="G397">
         <v>-0.91</v>
@@ -14311,16 +14311,16 @@
         <v>406</v>
       </c>
       <c r="C398">
-        <v>-28.4</v>
+        <v>-23</v>
       </c>
       <c r="D398">
-        <v>-44.6</v>
+        <v>-30.6</v>
       </c>
       <c r="E398">
-        <v>-23.6</v>
+        <v>14.1</v>
       </c>
       <c r="F398">
-        <v>-19.3</v>
+        <v>114.2</v>
       </c>
       <c r="G398">
         <v>-1.32</v>
@@ -14343,16 +14343,16 @@
         <v>407</v>
       </c>
       <c r="C399">
-        <v>-62.4</v>
+        <v>-58.7</v>
       </c>
       <c r="D399">
-        <v>-64.8</v>
+        <v>-55</v>
       </c>
       <c r="E399">
-        <v>-51.1</v>
+        <v>-28.3</v>
       </c>
       <c r="F399">
-        <v>-53.1</v>
+        <v>17.4</v>
       </c>
       <c r="G399">
         <v>-1.4</v>
@@ -14375,16 +14375,16 @@
         <v>408</v>
       </c>
       <c r="C400">
-        <v>-23.9</v>
+        <v>-16.6</v>
       </c>
       <c r="D400">
-        <v>-39.2</v>
+        <v>-18.4</v>
       </c>
       <c r="E400">
-        <v>0.9</v>
+        <v>57.9</v>
       </c>
       <c r="F400">
-        <v>24.4</v>
+        <v>279.4</v>
       </c>
       <c r="G400">
         <v>-1.36</v>

--- a/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
+++ b/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
@@ -31,7 +31,7 @@
     <t>AN_TRI_202009</t>
   </si>
   <si>
-    <t>AN_20200908</t>
+    <t>AN_20200915</t>
   </si>
   <si>
     <t>SPI1_202008</t>
@@ -1651,16 +1651,16 @@
         <v>-100</v>
       </c>
       <c r="G2">
-        <v>-0.7</v>
+        <v>0.94</v>
       </c>
       <c r="H2">
-        <v>-0.71</v>
+        <v>0.22</v>
       </c>
       <c r="I2">
-        <v>-2.84</v>
+        <v>-1.8</v>
       </c>
       <c r="J2">
-        <v>-2.71</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1674,25 +1674,25 @@
         <v>-56.5</v>
       </c>
       <c r="D3">
-        <v>-54.2</v>
+        <v>-54.1</v>
       </c>
       <c r="E3">
         <v>-57</v>
       </c>
       <c r="F3">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G3">
-        <v>-0.67</v>
+        <v>1.02</v>
       </c>
       <c r="H3">
-        <v>-0.62</v>
+        <v>0.33</v>
       </c>
       <c r="I3">
-        <v>-2.63</v>
+        <v>-1.6</v>
       </c>
       <c r="J3">
-        <v>-2.54</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1715,16 +1715,16 @@
         <v>-100</v>
       </c>
       <c r="G4">
-        <v>-0.55</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
-        <v>-0.03</v>
+        <v>0.41</v>
       </c>
       <c r="I4">
-        <v>-0.93</v>
+        <v>-0.51</v>
       </c>
       <c r="J4">
-        <v>-1.29</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1747,16 +1747,16 @@
         <v>-100</v>
       </c>
       <c r="G5">
-        <v>-0.4</v>
+        <v>0.76</v>
       </c>
       <c r="H5">
-        <v>0.07</v>
+        <v>0.57</v>
       </c>
       <c r="I5">
-        <v>-0.82</v>
+        <v>-0.36</v>
       </c>
       <c r="J5">
-        <v>-1.13</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1779,16 +1779,16 @@
         <v>-100</v>
       </c>
       <c r="G6">
-        <v>-0.76</v>
+        <v>1.25</v>
       </c>
       <c r="H6">
-        <v>-0.51</v>
+        <v>0.57</v>
       </c>
       <c r="I6">
-        <v>-2.28</v>
+        <v>-1.17</v>
       </c>
       <c r="J6">
-        <v>-2.29</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1802,25 +1802,25 @@
         <v>-25.8</v>
       </c>
       <c r="D7">
-        <v>-30.9</v>
+        <v>-30.8</v>
       </c>
       <c r="E7">
-        <v>-46.4</v>
+        <v>-46.1</v>
       </c>
       <c r="F7">
-        <v>-100</v>
+        <v>-99.3</v>
       </c>
       <c r="G7">
-        <v>-0.12</v>
+        <v>0.86</v>
       </c>
       <c r="H7">
-        <v>-0.72</v>
+        <v>0.12</v>
       </c>
       <c r="I7">
-        <v>-1.88</v>
+        <v>-0.77</v>
       </c>
       <c r="J7">
-        <v>-0.77</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1831,28 +1831,28 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>-26.7</v>
+        <v>-26.6</v>
       </c>
       <c r="D8">
-        <v>-30.8</v>
+        <v>-30.5</v>
       </c>
       <c r="E8">
-        <v>-44</v>
+        <v>-43.4</v>
       </c>
       <c r="F8">
-        <v>-100</v>
+        <v>-98.5</v>
       </c>
       <c r="G8">
-        <v>-0.38</v>
+        <v>0.75</v>
       </c>
       <c r="H8">
-        <v>-0.67</v>
+        <v>0.17</v>
       </c>
       <c r="I8">
-        <v>-1.43</v>
+        <v>-0.58</v>
       </c>
       <c r="J8">
-        <v>-0.89</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1875,16 +1875,16 @@
         <v>-100</v>
       </c>
       <c r="G9">
-        <v>-0.99</v>
+        <v>1.31</v>
       </c>
       <c r="H9">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>-1.58</v>
+        <v>-0.43</v>
       </c>
       <c r="J9">
-        <v>-1.47</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1907,16 +1907,16 @@
         <v>-100</v>
       </c>
       <c r="G10">
-        <v>-0.63</v>
+        <v>1.14</v>
       </c>
       <c r="H10">
-        <v>-0.44</v>
+        <v>0.62</v>
       </c>
       <c r="I10">
-        <v>-1.17</v>
+        <v>-0.48</v>
       </c>
       <c r="J10">
-        <v>-0.89</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1939,16 +1939,16 @@
         <v>-100</v>
       </c>
       <c r="G11">
-        <v>-0.69</v>
+        <v>1.37</v>
       </c>
       <c r="H11">
-        <v>-0.47</v>
+        <v>0.72</v>
       </c>
       <c r="I11">
-        <v>-1.6</v>
+        <v>-0.59</v>
       </c>
       <c r="J11">
-        <v>-1.59</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1971,16 +1971,16 @@
         <v>-100</v>
       </c>
       <c r="G12">
-        <v>-0.22</v>
+        <v>0.89</v>
       </c>
       <c r="H12">
-        <v>0.34</v>
+        <v>0.88</v>
       </c>
       <c r="I12">
-        <v>-0.99</v>
+        <v>-0.48</v>
       </c>
       <c r="J12">
-        <v>-1.26</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2003,16 +2003,16 @@
         <v>-100</v>
       </c>
       <c r="G13">
-        <v>-0.64</v>
+        <v>1.12</v>
       </c>
       <c r="H13">
-        <v>-0.41</v>
+        <v>0.64</v>
       </c>
       <c r="I13">
-        <v>-1.12</v>
+        <v>-0.45</v>
       </c>
       <c r="J13">
-        <v>-0.82</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2035,16 +2035,16 @@
         <v>-100</v>
       </c>
       <c r="G14">
-        <v>-0.69</v>
+        <v>1.13</v>
       </c>
       <c r="H14">
-        <v>-0.33</v>
+        <v>0.74</v>
       </c>
       <c r="I14">
-        <v>-1.05</v>
+        <v>-0.38</v>
       </c>
       <c r="J14">
-        <v>-0.75</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2067,16 +2067,16 @@
         <v>-100</v>
       </c>
       <c r="G15">
-        <v>-0.82</v>
+        <v>1.33</v>
       </c>
       <c r="H15">
-        <v>-0.53</v>
+        <v>0.83</v>
       </c>
       <c r="I15">
-        <v>-1.2</v>
+        <v>-0.36</v>
       </c>
       <c r="J15">
-        <v>-1.08</v>
+        <v>-0.56</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2099,16 +2099,16 @@
         <v>-100</v>
       </c>
       <c r="G16">
-        <v>-0.81</v>
+        <v>1.41</v>
       </c>
       <c r="H16">
-        <v>-0.69</v>
+        <v>0.75</v>
       </c>
       <c r="I16">
-        <v>-1.32</v>
+        <v>-0.41</v>
       </c>
       <c r="J16">
-        <v>-1.28</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2131,16 +2131,16 @@
         <v>-100</v>
       </c>
       <c r="G17">
-        <v>-0.71</v>
+        <v>1.51</v>
       </c>
       <c r="H17">
-        <v>-0.39</v>
+        <v>0.81</v>
       </c>
       <c r="I17">
-        <v>-1.75</v>
+        <v>-0.58</v>
       </c>
       <c r="J17">
-        <v>-1.82</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2163,16 +2163,16 @@
         <v>-100</v>
       </c>
       <c r="G18">
-        <v>-0.93</v>
+        <v>1.85</v>
       </c>
       <c r="H18">
-        <v>-0.32</v>
+        <v>1.02</v>
       </c>
       <c r="I18">
-        <v>-1.31</v>
+        <v>-0.07</v>
       </c>
       <c r="J18">
-        <v>-1.38</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2195,16 +2195,16 @@
         <v>-97.5</v>
       </c>
       <c r="G19">
-        <v>-0.41</v>
+        <v>1.18</v>
       </c>
       <c r="H19">
-        <v>-0.85</v>
+        <v>0.3</v>
       </c>
       <c r="I19">
-        <v>-3.22</v>
+        <v>-2.06</v>
       </c>
       <c r="J19">
-        <v>-2.91</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2224,19 +2224,19 @@
         <v>-57.6</v>
       </c>
       <c r="F20">
-        <v>-99.8</v>
+        <v>-99.7</v>
       </c>
       <c r="G20">
-        <v>-0.35</v>
+        <v>1.21</v>
       </c>
       <c r="H20">
-        <v>-0.74</v>
+        <v>0.42</v>
       </c>
       <c r="I20">
-        <v>-2.84</v>
+        <v>-1.7</v>
       </c>
       <c r="J20">
-        <v>-2.9</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2259,16 +2259,16 @@
         <v>-100</v>
       </c>
       <c r="G21">
-        <v>-1.15</v>
+        <v>1.04</v>
       </c>
       <c r="H21">
-        <v>-0.99</v>
+        <v>0.39</v>
       </c>
       <c r="I21">
-        <v>-1.78</v>
+        <v>-0.72</v>
       </c>
       <c r="J21">
-        <v>-1.64</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2291,16 +2291,16 @@
         <v>-100</v>
       </c>
       <c r="G22">
-        <v>-1.18</v>
+        <v>0.99</v>
       </c>
       <c r="H22">
-        <v>-1.01</v>
+        <v>0.37</v>
       </c>
       <c r="I22">
-        <v>-1.8</v>
+        <v>-0.75</v>
       </c>
       <c r="J22">
-        <v>-1.65</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2314,25 +2314,25 @@
         <v>-29.7</v>
       </c>
       <c r="D23">
-        <v>-37.9</v>
+        <v>-37.8</v>
       </c>
       <c r="E23">
-        <v>-50</v>
+        <v>-49.9</v>
       </c>
       <c r="F23">
-        <v>-100</v>
+        <v>-99.7</v>
       </c>
       <c r="G23">
-        <v>-0.12</v>
+        <v>0.97</v>
       </c>
       <c r="H23">
-        <v>-0.73</v>
+        <v>0.06</v>
       </c>
       <c r="I23">
-        <v>-1.89</v>
+        <v>-0.95</v>
       </c>
       <c r="J23">
-        <v>-0.77</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2352,19 +2352,19 @@
         <v>-57.8</v>
       </c>
       <c r="F24">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G24">
-        <v>-0.54</v>
+        <v>1.28</v>
       </c>
       <c r="H24">
-        <v>-0.78</v>
+        <v>0.45</v>
       </c>
       <c r="I24">
-        <v>-2.49</v>
+        <v>-1.32</v>
       </c>
       <c r="J24">
-        <v>-2.67</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2381,22 +2381,22 @@
         <v>-56.1</v>
       </c>
       <c r="E25">
-        <v>-56</v>
+        <v>-55.9</v>
       </c>
       <c r="F25">
-        <v>-100</v>
+        <v>-99.8</v>
       </c>
       <c r="G25">
-        <v>-0.62</v>
+        <v>1.33</v>
       </c>
       <c r="H25">
-        <v>-0.8</v>
+        <v>0.48</v>
       </c>
       <c r="I25">
-        <v>-2.7</v>
+        <v>-1.41</v>
       </c>
       <c r="J25">
-        <v>-2.7</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2413,22 +2413,22 @@
         <v>-12.4</v>
       </c>
       <c r="E26">
-        <v>-35</v>
+        <v>-34.9</v>
       </c>
       <c r="F26">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G26">
-        <v>-0.51</v>
+        <v>0.73</v>
       </c>
       <c r="H26">
-        <v>-0.4</v>
+        <v>0.21</v>
       </c>
       <c r="I26">
-        <v>-0.74</v>
+        <v>-0.29</v>
       </c>
       <c r="J26">
-        <v>-0.77</v>
+        <v>-0.56</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2442,25 +2442,25 @@
         <v>-10.3</v>
       </c>
       <c r="D27">
-        <v>-14.8</v>
+        <v>-14.7</v>
       </c>
       <c r="E27">
-        <v>-39.8</v>
+        <v>-39.5</v>
       </c>
       <c r="F27">
-        <v>-99.6</v>
+        <v>-98.9</v>
       </c>
       <c r="G27">
-        <v>-0.54</v>
+        <v>0.66</v>
       </c>
       <c r="H27">
-        <v>-0.41</v>
+        <v>0.17</v>
       </c>
       <c r="I27">
-        <v>-0.74</v>
+        <v>-0.29</v>
       </c>
       <c r="J27">
-        <v>-0.72</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2483,16 +2483,16 @@
         <v>-100</v>
       </c>
       <c r="G28">
-        <v>-0.62</v>
+        <v>0.75</v>
       </c>
       <c r="H28">
-        <v>-0.16</v>
+        <v>0.51</v>
       </c>
       <c r="I28">
+        <v>-0.38</v>
+      </c>
+      <c r="J28">
         <v>-0.96</v>
-      </c>
-      <c r="J28">
-        <v>-1.6</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2515,16 +2515,16 @@
         <v>-100</v>
       </c>
       <c r="G29">
-        <v>-0.79</v>
+        <v>1.19</v>
       </c>
       <c r="H29">
-        <v>-0.19</v>
+        <v>0.83</v>
       </c>
       <c r="I29">
-        <v>-1.96</v>
+        <v>-0.77</v>
       </c>
       <c r="J29">
-        <v>-1.73</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2547,16 +2547,16 @@
         <v>-100</v>
       </c>
       <c r="G30">
-        <v>-1.84</v>
+        <v>0.16</v>
       </c>
       <c r="H30">
-        <v>-0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I30">
-        <v>-0.9</v>
+        <v>-0.59</v>
       </c>
       <c r="J30">
-        <v>-1.23</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2579,16 +2579,16 @@
         <v>-100</v>
       </c>
       <c r="G31">
-        <v>-1.07</v>
+        <v>1.67</v>
       </c>
       <c r="H31">
-        <v>-0.38</v>
+        <v>0.98</v>
       </c>
       <c r="I31">
-        <v>-1.89</v>
+        <v>-0.48</v>
       </c>
       <c r="J31">
-        <v>-1.79</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2611,16 +2611,16 @@
         <v>-100</v>
       </c>
       <c r="G32">
-        <v>-0.7</v>
+        <v>1.16</v>
       </c>
       <c r="H32">
-        <v>-0.45</v>
+        <v>0.66</v>
       </c>
       <c r="I32">
-        <v>-1.2</v>
+        <v>-0.46</v>
       </c>
       <c r="J32">
-        <v>-1.03</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2634,25 +2634,25 @@
         <v>-18.6</v>
       </c>
       <c r="D33">
-        <v>-30</v>
+        <v>-29.9</v>
       </c>
       <c r="E33">
         <v>-31.3</v>
       </c>
       <c r="F33">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G33">
-        <v>-0.77</v>
+        <v>1.3</v>
       </c>
       <c r="H33">
-        <v>-0.48</v>
+        <v>0.77</v>
       </c>
       <c r="I33">
-        <v>-1.36</v>
+        <v>-0.43</v>
       </c>
       <c r="J33">
-        <v>-1.53</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2672,19 +2672,19 @@
         <v>-70.5</v>
       </c>
       <c r="F34">
-        <v>-97.6</v>
+        <v>-97.5</v>
       </c>
       <c r="G34">
-        <v>-0.11</v>
+        <v>0.67</v>
       </c>
       <c r="H34">
-        <v>-0.23</v>
+        <v>0.16</v>
       </c>
       <c r="I34">
-        <v>-1.79</v>
+        <v>-1.53</v>
       </c>
       <c r="J34">
-        <v>-1.5</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2707,16 +2707,16 @@
         <v>-100</v>
       </c>
       <c r="G35">
-        <v>-0.51</v>
+        <v>1.28</v>
       </c>
       <c r="H35">
-        <v>-0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I35">
-        <v>-1.22</v>
+        <v>-0.46</v>
       </c>
       <c r="J35">
-        <v>-2.77</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2739,16 +2739,16 @@
         <v>-100</v>
       </c>
       <c r="G36">
-        <v>-0.56</v>
+        <v>1.29</v>
       </c>
       <c r="H36">
-        <v>-0.47</v>
+        <v>0.56</v>
       </c>
       <c r="I36">
-        <v>-1.36</v>
+        <v>-0.57</v>
       </c>
       <c r="J36">
-        <v>-3.16</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2771,16 +2771,16 @@
         <v>-100</v>
       </c>
       <c r="G37">
-        <v>-0.58</v>
+        <v>0.97</v>
       </c>
       <c r="H37">
-        <v>-0.59</v>
+        <v>0.31</v>
       </c>
       <c r="I37">
-        <v>-2.55</v>
+        <v>-1.62</v>
       </c>
       <c r="J37">
-        <v>-2.45</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2803,16 +2803,16 @@
         <v>-100</v>
       </c>
       <c r="G38">
-        <v>-0.82</v>
+        <v>1.3</v>
       </c>
       <c r="H38">
-        <v>-0.55</v>
+        <v>0.45</v>
       </c>
       <c r="I38">
-        <v>-1.32</v>
+        <v>-0.46</v>
       </c>
       <c r="J38">
-        <v>-2.48</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2835,16 +2835,16 @@
         <v>-100</v>
       </c>
       <c r="G39">
-        <v>-0.79</v>
+        <v>1.56</v>
       </c>
       <c r="H39">
-        <v>-0.78</v>
+        <v>0.64</v>
       </c>
       <c r="I39">
-        <v>-2.86</v>
+        <v>-1.09</v>
       </c>
       <c r="J39">
-        <v>-1.81</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2867,16 +2867,16 @@
         <v>-100</v>
       </c>
       <c r="G40">
-        <v>-0.71</v>
+        <v>1.42</v>
       </c>
       <c r="H40">
-        <v>-0.61</v>
+        <v>0.63</v>
       </c>
       <c r="I40">
-        <v>-2.37</v>
+        <v>-0.95</v>
       </c>
       <c r="J40">
-        <v>-2.13</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2899,16 +2899,16 @@
         <v>-100</v>
       </c>
       <c r="G41">
-        <v>-0.36</v>
+        <v>1.08</v>
       </c>
       <c r="H41">
-        <v>-0.52</v>
+        <v>0.35</v>
       </c>
       <c r="I41">
-        <v>-0.79</v>
+        <v>-0.16</v>
       </c>
       <c r="J41">
-        <v>-0.45</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2919,28 +2919,28 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>-47.3</v>
+        <v>-47.2</v>
       </c>
       <c r="D42">
-        <v>-48.3</v>
+        <v>-47.9</v>
       </c>
       <c r="E42">
-        <v>-53.7</v>
+        <v>-52.9</v>
       </c>
       <c r="F42">
-        <v>-96.7</v>
+        <v>-94.8</v>
       </c>
       <c r="G42">
-        <v>-0.25</v>
+        <v>1.08</v>
       </c>
       <c r="H42">
-        <v>-0.24</v>
+        <v>0.57</v>
       </c>
       <c r="I42">
-        <v>-1.71</v>
+        <v>-1.1</v>
       </c>
       <c r="J42">
-        <v>-1.75</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2951,28 +2951,28 @@
         <v>51</v>
       </c>
       <c r="C43">
-        <v>-52.6</v>
+        <v>-52.5</v>
       </c>
       <c r="D43">
-        <v>-58.2</v>
+        <v>-57.9</v>
       </c>
       <c r="E43">
-        <v>-58.6</v>
+        <v>-58</v>
       </c>
       <c r="F43">
-        <v>-92.6</v>
+        <v>-91.2</v>
       </c>
       <c r="G43">
-        <v>-0.27</v>
+        <v>1.02</v>
       </c>
       <c r="H43">
-        <v>-0.28</v>
+        <v>0.45</v>
       </c>
       <c r="I43">
-        <v>-1.99</v>
+        <v>-1.42</v>
       </c>
       <c r="J43">
-        <v>-2</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2983,28 +2983,28 @@
         <v>52</v>
       </c>
       <c r="C44">
-        <v>-26.1</v>
+        <v>-25.9</v>
       </c>
       <c r="D44">
-        <v>-30.9</v>
+        <v>-30.6</v>
       </c>
       <c r="E44">
-        <v>-44.5</v>
+        <v>-43.7</v>
       </c>
       <c r="F44">
-        <v>-100</v>
+        <v>-97.7</v>
       </c>
       <c r="G44">
-        <v>-0.61</v>
+        <v>0.85</v>
       </c>
       <c r="H44">
-        <v>-0.84</v>
+        <v>-0.03</v>
       </c>
       <c r="I44">
-        <v>-1.34</v>
+        <v>-0.7</v>
       </c>
       <c r="J44">
-        <v>-1.23</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3018,25 +3018,25 @@
         <v>-31.8</v>
       </c>
       <c r="D45">
-        <v>-35.8</v>
+        <v>-35.7</v>
       </c>
       <c r="E45">
-        <v>-56.8</v>
+        <v>-56.7</v>
       </c>
       <c r="F45">
-        <v>-100</v>
+        <v>-99.8</v>
       </c>
       <c r="G45">
-        <v>-0.35</v>
+        <v>0.72</v>
       </c>
       <c r="H45">
-        <v>-0.62</v>
+        <v>0.21</v>
       </c>
       <c r="I45">
-        <v>-1.39</v>
+        <v>-0.52</v>
       </c>
       <c r="J45">
-        <v>-0.83</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3047,28 +3047,28 @@
         <v>54</v>
       </c>
       <c r="C46">
-        <v>-29.8</v>
+        <v>-29.7</v>
       </c>
       <c r="D46">
-        <v>-33.2</v>
+        <v>-33.1</v>
       </c>
       <c r="E46">
-        <v>-53</v>
+        <v>-52.9</v>
       </c>
       <c r="F46">
-        <v>-99.7</v>
+        <v>-99.4</v>
       </c>
       <c r="G46">
-        <v>-0.33</v>
+        <v>0.72</v>
       </c>
       <c r="H46">
-        <v>-0.63</v>
+        <v>0.2</v>
       </c>
       <c r="I46">
-        <v>-1.43</v>
+        <v>-0.53</v>
       </c>
       <c r="J46">
-        <v>-0.83</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3079,28 +3079,28 @@
         <v>55</v>
       </c>
       <c r="C47">
-        <v>-25.3</v>
+        <v>-25.2</v>
       </c>
       <c r="D47">
-        <v>-29.5</v>
+        <v>-29.1</v>
       </c>
       <c r="E47">
-        <v>-45.5</v>
+        <v>-44.5</v>
       </c>
       <c r="F47">
-        <v>-100</v>
+        <v>-97.5</v>
       </c>
       <c r="G47">
-        <v>-0.53</v>
+        <v>0.71</v>
       </c>
       <c r="H47">
-        <v>-0.55</v>
+        <v>0.12</v>
       </c>
       <c r="I47">
-        <v>-1</v>
+        <v>-0.45</v>
       </c>
       <c r="J47">
-        <v>-0.86</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3111,28 +3111,28 @@
         <v>56</v>
       </c>
       <c r="C48">
-        <v>-20.3</v>
+        <v>-20.2</v>
       </c>
       <c r="D48">
         <v>-24.7</v>
       </c>
       <c r="E48">
-        <v>-30.7</v>
+        <v>-30.6</v>
       </c>
       <c r="F48">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G48">
-        <v>-0.68</v>
+        <v>0.97</v>
       </c>
       <c r="H48">
-        <v>-1.12</v>
+        <v>-0.13</v>
       </c>
       <c r="I48">
-        <v>-1.63</v>
+        <v>-0.88</v>
       </c>
       <c r="J48">
-        <v>-1.36</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3155,16 +3155,16 @@
         <v>-100</v>
       </c>
       <c r="G49">
-        <v>-0.68</v>
+        <v>0.91</v>
       </c>
       <c r="H49">
-        <v>-0.69</v>
+        <v>0.2</v>
       </c>
       <c r="I49">
-        <v>-2.8</v>
+        <v>-1.8</v>
       </c>
       <c r="J49">
-        <v>-2.66</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3178,25 +3178,25 @@
         <v>-52</v>
       </c>
       <c r="D50">
-        <v>-52.9</v>
+        <v>-52.8</v>
       </c>
       <c r="E50">
-        <v>-56.5</v>
+        <v>-56.4</v>
       </c>
       <c r="F50">
-        <v>-100</v>
+        <v>-99.7</v>
       </c>
       <c r="G50">
-        <v>-0.71</v>
+        <v>1.19</v>
       </c>
       <c r="H50">
-        <v>-0.54</v>
+        <v>0.52</v>
       </c>
       <c r="I50">
-        <v>-2.35</v>
+        <v>-1.22</v>
       </c>
       <c r="J50">
-        <v>-2.35</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3219,16 +3219,16 @@
         <v>-100</v>
       </c>
       <c r="G51">
-        <v>-0.52</v>
+        <v>1.35</v>
       </c>
       <c r="H51">
-        <v>-0.51</v>
+        <v>0.56</v>
       </c>
       <c r="I51">
-        <v>-1.38</v>
+        <v>-0.58</v>
       </c>
       <c r="J51">
-        <v>-3.37</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3251,16 +3251,16 @@
         <v>-100</v>
       </c>
       <c r="G52">
-        <v>-0.68</v>
+        <v>1.31</v>
       </c>
       <c r="H52">
-        <v>-0.47</v>
+        <v>0.59</v>
       </c>
       <c r="I52">
-        <v>-1.51</v>
+        <v>-0.58</v>
       </c>
       <c r="J52">
-        <v>-2.42</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3283,16 +3283,16 @@
         <v>-100</v>
       </c>
       <c r="G53">
-        <v>-0.52</v>
+        <v>1.29</v>
       </c>
       <c r="H53">
-        <v>-0.48</v>
+        <v>0.54</v>
       </c>
       <c r="I53">
-        <v>-1.39</v>
+        <v>-0.63</v>
       </c>
       <c r="J53">
-        <v>-3.16</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3312,19 +3312,19 @@
         <v>-4.9</v>
       </c>
       <c r="F54">
-        <v>-100</v>
+        <v>-99.8</v>
       </c>
       <c r="G54">
+        <v>1.12</v>
+      </c>
+      <c r="H54">
+        <v>0.22</v>
+      </c>
+      <c r="I54">
         <v>-0.41</v>
       </c>
-      <c r="H54">
-        <v>-0.59</v>
-      </c>
-      <c r="I54">
-        <v>-0.95</v>
-      </c>
       <c r="J54">
-        <v>-1.21</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3335,28 +3335,28 @@
         <v>63</v>
       </c>
       <c r="C55">
-        <v>-55.3</v>
+        <v>-55.1</v>
       </c>
       <c r="D55">
-        <v>-56.1</v>
+        <v>-55.5</v>
       </c>
       <c r="E55">
-        <v>-55.8</v>
+        <v>-54.5</v>
       </c>
       <c r="F55">
-        <v>-95.4</v>
+        <v>-92.2</v>
       </c>
       <c r="G55">
-        <v>-0.21</v>
+        <v>1.17</v>
       </c>
       <c r="H55">
-        <v>-0.22</v>
+        <v>0.65</v>
       </c>
       <c r="I55">
-        <v>-1.77</v>
+        <v>-1.1</v>
       </c>
       <c r="J55">
-        <v>-1.85</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3379,16 +3379,16 @@
         <v>-100</v>
       </c>
       <c r="G56">
-        <v>-0.61</v>
+        <v>0.97</v>
       </c>
       <c r="H56">
-        <v>-0.62</v>
+        <v>0.29</v>
       </c>
       <c r="I56">
-        <v>-2.63</v>
+        <v>-1.66</v>
       </c>
       <c r="J56">
-        <v>-2.53</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3411,16 +3411,16 @@
         <v>-100</v>
       </c>
       <c r="G57">
-        <v>-2.08</v>
+        <v>0.38</v>
       </c>
       <c r="H57">
-        <v>-0.59</v>
+        <v>0.05</v>
       </c>
       <c r="I57">
-        <v>-1.13</v>
+        <v>-0.63</v>
       </c>
       <c r="J57">
-        <v>-1.83</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3443,16 +3443,16 @@
         <v>-100</v>
       </c>
       <c r="G58">
-        <v>-1.36</v>
+        <v>0.9</v>
       </c>
       <c r="H58">
-        <v>-0.66</v>
+        <v>0.31</v>
       </c>
       <c r="I58">
-        <v>-1.35</v>
+        <v>-0.56</v>
       </c>
       <c r="J58">
-        <v>-2.52</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3475,16 +3475,16 @@
         <v>-100</v>
       </c>
       <c r="G59">
-        <v>-0.4</v>
+        <v>1.08</v>
       </c>
       <c r="H59">
-        <v>-0.52</v>
+        <v>0.34</v>
       </c>
       <c r="I59">
-        <v>-0.81</v>
+        <v>-0.18</v>
       </c>
       <c r="J59">
-        <v>-0.54</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3507,16 +3507,16 @@
         <v>-100</v>
       </c>
       <c r="G60">
-        <v>-0.77</v>
+        <v>1.07</v>
       </c>
       <c r="H60">
-        <v>-0.6</v>
+        <v>0.39</v>
       </c>
       <c r="I60">
-        <v>-1.2</v>
+        <v>-0.41</v>
       </c>
       <c r="J60">
-        <v>-1.86</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3539,16 +3539,16 @@
         <v>-100</v>
       </c>
       <c r="G61">
-        <v>-0.59</v>
+        <v>1.08</v>
       </c>
       <c r="H61">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I61">
-        <v>-1.62</v>
+        <v>-0.92</v>
       </c>
       <c r="J61">
-        <v>-2.92</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3559,28 +3559,28 @@
         <v>70</v>
       </c>
       <c r="C62">
-        <v>-28.8</v>
+        <v>-28.7</v>
       </c>
       <c r="D62">
-        <v>-34.4</v>
+        <v>-34.3</v>
       </c>
       <c r="E62">
-        <v>-45.1</v>
+        <v>-44.9</v>
       </c>
       <c r="F62">
-        <v>-100</v>
+        <v>-99.3</v>
       </c>
       <c r="G62">
-        <v>-0.85</v>
+        <v>0.9</v>
       </c>
       <c r="H62">
-        <v>-1.4</v>
+        <v>-0.34</v>
       </c>
       <c r="I62">
-        <v>-2.02</v>
+        <v>-1.18</v>
       </c>
       <c r="J62">
-        <v>-1.62</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3603,16 +3603,16 @@
         <v>-100</v>
       </c>
       <c r="G63">
-        <v>-0.94</v>
+        <v>1.22</v>
       </c>
       <c r="H63">
-        <v>-0.71</v>
+        <v>0.46</v>
       </c>
       <c r="I63">
-        <v>-1.49</v>
+        <v>-0.53</v>
       </c>
       <c r="J63">
-        <v>-2.95</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3635,16 +3635,16 @@
         <v>-98.5</v>
       </c>
       <c r="G64">
-        <v>-0.57</v>
+        <v>1.05</v>
       </c>
       <c r="H64">
-        <v>-0.84</v>
+        <v>0.12</v>
       </c>
       <c r="I64">
-        <v>-1.3</v>
+        <v>-0.58</v>
       </c>
       <c r="J64">
-        <v>-1.1</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3667,16 +3667,16 @@
         <v>-99</v>
       </c>
       <c r="G65">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H65">
-        <v>-0.67</v>
+        <v>0.28</v>
       </c>
       <c r="I65">
-        <v>-1.05</v>
+        <v>-0.35</v>
       </c>
       <c r="J65">
-        <v>-1.01</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3699,16 +3699,16 @@
         <v>-99.1</v>
       </c>
       <c r="G66">
-        <v>-0.34</v>
+        <v>1.13</v>
       </c>
       <c r="H66">
-        <v>-0.59</v>
+        <v>0.32</v>
       </c>
       <c r="I66">
-        <v>-0.8</v>
+        <v>-0.17</v>
       </c>
       <c r="J66">
-        <v>-0.5</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3725,22 +3725,22 @@
         <v>-62.6</v>
       </c>
       <c r="E67">
-        <v>-59.1</v>
+        <v>-58.9</v>
       </c>
       <c r="F67">
-        <v>-96.1</v>
+        <v>-95.7</v>
       </c>
       <c r="G67">
-        <v>-0.39</v>
+        <v>1.29</v>
       </c>
       <c r="H67">
-        <v>-0.79</v>
+        <v>0.36</v>
       </c>
       <c r="I67">
-        <v>-3.52</v>
+        <v>-2.35</v>
       </c>
       <c r="J67">
-        <v>-2.94</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3754,25 +3754,25 @@
         <v>-32.3</v>
       </c>
       <c r="D68">
-        <v>-41.9</v>
+        <v>-41.8</v>
       </c>
       <c r="E68">
-        <v>-55</v>
+        <v>-54.7</v>
       </c>
       <c r="F68">
-        <v>-100</v>
+        <v>-99.4</v>
       </c>
       <c r="G68">
-        <v>-0.25</v>
+        <v>0.93</v>
       </c>
       <c r="H68">
-        <v>-0.81</v>
+        <v>0.01</v>
       </c>
       <c r="I68">
-        <v>-1.87</v>
+        <v>-0.96</v>
       </c>
       <c r="J68">
-        <v>-0.94</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3795,16 +3795,16 @@
         <v>-100</v>
       </c>
       <c r="G69">
-        <v>-0.57</v>
+        <v>1.28</v>
       </c>
       <c r="H69">
-        <v>-0.45</v>
+        <v>0.56</v>
       </c>
       <c r="I69">
-        <v>-1.39</v>
+        <v>-0.59</v>
       </c>
       <c r="J69">
-        <v>-2.92</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3827,16 +3827,16 @@
         <v>-100</v>
       </c>
       <c r="G70">
-        <v>-0.62</v>
+        <v>1.3</v>
       </c>
       <c r="H70">
-        <v>-0.41</v>
+        <v>0.64</v>
       </c>
       <c r="I70">
-        <v>-1.55</v>
+        <v>-0.63</v>
       </c>
       <c r="J70">
-        <v>-2.36</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3847,28 +3847,28 @@
         <v>79</v>
       </c>
       <c r="C71">
-        <v>-22.8</v>
+        <v>-22.7</v>
       </c>
       <c r="D71">
         <v>-34.4</v>
       </c>
       <c r="E71">
-        <v>-39.2</v>
+        <v>-39</v>
       </c>
       <c r="F71">
-        <v>-100</v>
+        <v>-99.6</v>
       </c>
       <c r="G71">
-        <v>-0.09</v>
+        <v>1.04</v>
       </c>
       <c r="H71">
-        <v>-0.72</v>
+        <v>0.02</v>
       </c>
       <c r="I71">
-        <v>-1.9</v>
+        <v>-1.07</v>
       </c>
       <c r="J71">
-        <v>-0.75</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3879,28 +3879,28 @@
         <v>80</v>
       </c>
       <c r="C72">
-        <v>-29.3</v>
+        <v>-29.2</v>
       </c>
       <c r="D72">
-        <v>-36.9</v>
+        <v>-36.5</v>
       </c>
       <c r="E72">
-        <v>-55.5</v>
+        <v>-54.7</v>
       </c>
       <c r="F72">
-        <v>-100</v>
+        <v>-97.9</v>
       </c>
       <c r="G72">
-        <v>-0.62</v>
+        <v>0.82</v>
       </c>
       <c r="H72">
-        <v>-1.16</v>
+        <v>-0.28</v>
       </c>
       <c r="I72">
-        <v>-2.03</v>
+        <v>-1.19</v>
       </c>
       <c r="J72">
-        <v>-1.5</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3923,16 +3923,16 @@
         <v>-100</v>
       </c>
       <c r="G73">
-        <v>-0.98</v>
+        <v>1.3</v>
       </c>
       <c r="H73">
-        <v>-0.71</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>-1.53</v>
+        <v>-0.42</v>
       </c>
       <c r="J73">
-        <v>-1.4</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3955,16 +3955,16 @@
         <v>-100</v>
       </c>
       <c r="G74">
-        <v>-0.96</v>
+        <v>1.29</v>
       </c>
       <c r="H74">
-        <v>-0.68</v>
+        <v>0.98</v>
       </c>
       <c r="I74">
-        <v>-1.49</v>
+        <v>-0.41</v>
       </c>
       <c r="J74">
-        <v>-1.36</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3987,16 +3987,16 @@
         <v>-100</v>
       </c>
       <c r="G75">
-        <v>-0.97</v>
+        <v>1.3</v>
       </c>
       <c r="H75">
-        <v>-0.73</v>
+        <v>0.98</v>
       </c>
       <c r="I75">
-        <v>-1.55</v>
+        <v>-0.43</v>
       </c>
       <c r="J75">
-        <v>-1.45</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4019,16 +4019,16 @@
         <v>-100</v>
       </c>
       <c r="G76">
-        <v>-0.96</v>
+        <v>1.3</v>
       </c>
       <c r="H76">
-        <v>-0.72</v>
+        <v>0.97</v>
       </c>
       <c r="I76">
-        <v>-1.55</v>
+        <v>-0.43</v>
       </c>
       <c r="J76">
-        <v>-1.44</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4051,16 +4051,16 @@
         <v>-100</v>
       </c>
       <c r="G77">
-        <v>-0.99</v>
+        <v>1.31</v>
       </c>
       <c r="H77">
-        <v>-0.76</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>-1.59</v>
+        <v>-0.43</v>
       </c>
       <c r="J77">
-        <v>-1.47</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4083,16 +4083,16 @@
         <v>-100</v>
       </c>
       <c r="G78">
-        <v>-0.99</v>
+        <v>1.31</v>
       </c>
       <c r="H78">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>-1.57</v>
+        <v>-0.43</v>
       </c>
       <c r="J78">
-        <v>-1.46</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4115,16 +4115,16 @@
         <v>-100</v>
       </c>
       <c r="G79">
-        <v>-0.66</v>
+        <v>1.3</v>
       </c>
       <c r="H79">
-        <v>-0.46</v>
+        <v>0.68</v>
       </c>
       <c r="I79">
-        <v>-1.61</v>
+        <v>-0.63</v>
       </c>
       <c r="J79">
-        <v>-1.67</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4147,16 +4147,16 @@
         <v>-100</v>
       </c>
       <c r="G80">
+        <v>1.35</v>
+      </c>
+      <c r="H80">
+        <v>0.71</v>
+      </c>
+      <c r="I80">
         <v>-0.66</v>
       </c>
-      <c r="H80">
-        <v>-0.44</v>
-      </c>
-      <c r="I80">
-        <v>-1.71</v>
-      </c>
       <c r="J80">
-        <v>-1.72</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4167,28 +4167,28 @@
         <v>89</v>
       </c>
       <c r="C81">
-        <v>-31.2</v>
+        <v>-31.1</v>
       </c>
       <c r="D81">
-        <v>-41</v>
+        <v>-40.9</v>
       </c>
       <c r="E81">
-        <v>-43.7</v>
+        <v>-43.5</v>
       </c>
       <c r="F81">
-        <v>-100</v>
+        <v>-99.5</v>
       </c>
       <c r="G81">
-        <v>-0.78</v>
+        <v>1.32</v>
       </c>
       <c r="H81">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I81">
-        <v>-1.4</v>
+        <v>-0.45</v>
       </c>
       <c r="J81">
-        <v>-1.59</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4199,28 +4199,28 @@
         <v>90</v>
       </c>
       <c r="C82">
-        <v>-45</v>
+        <v>-44.9</v>
       </c>
       <c r="D82">
-        <v>-53.3</v>
+        <v>-53.1</v>
       </c>
       <c r="E82">
-        <v>-56.8</v>
+        <v>-56.4</v>
       </c>
       <c r="F82">
-        <v>-100</v>
+        <v>-99.2</v>
       </c>
       <c r="G82">
-        <v>-0.8</v>
+        <v>1.31</v>
       </c>
       <c r="H82">
-        <v>-0.56</v>
+        <v>0.69</v>
       </c>
       <c r="I82">
-        <v>-1.44</v>
+        <v>-0.5</v>
       </c>
       <c r="J82">
-        <v>-1.6</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4243,16 +4243,16 @@
         <v>-100</v>
       </c>
       <c r="G83">
-        <v>-0.62</v>
+        <v>1.11</v>
       </c>
       <c r="H83">
-        <v>-0.42</v>
+        <v>0.6</v>
       </c>
       <c r="I83">
-        <v>-1.11</v>
+        <v>-0.47</v>
       </c>
       <c r="J83">
-        <v>-0.78</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4275,16 +4275,16 @@
         <v>-100</v>
       </c>
       <c r="G84">
-        <v>-1.06</v>
+        <v>2.07</v>
       </c>
       <c r="H84">
-        <v>-0.18</v>
+        <v>1.19</v>
       </c>
       <c r="I84">
-        <v>-1.08</v>
+        <v>0.24</v>
       </c>
       <c r="J84">
-        <v>-1.15</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4307,16 +4307,16 @@
         <v>-100</v>
       </c>
       <c r="G85">
-        <v>-0.92</v>
+        <v>1.96</v>
       </c>
       <c r="H85">
-        <v>-0.12</v>
+        <v>1.24</v>
       </c>
       <c r="I85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="J85">
-        <v>-1.25</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4339,16 +4339,16 @@
         <v>-100</v>
       </c>
       <c r="G86">
-        <v>-0.76</v>
+        <v>1.22</v>
       </c>
       <c r="H86">
-        <v>-0.59</v>
+        <v>0.59</v>
       </c>
       <c r="I86">
-        <v>-1.41</v>
+        <v>-0.55</v>
       </c>
       <c r="J86">
-        <v>-1.44</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4371,16 +4371,16 @@
         <v>-97.9</v>
       </c>
       <c r="G87">
-        <v>-0.63</v>
+        <v>1.25</v>
       </c>
       <c r="H87">
-        <v>-0.91</v>
+        <v>0.33</v>
       </c>
       <c r="I87">
-        <v>-1.94</v>
+        <v>-0.79</v>
       </c>
       <c r="J87">
-        <v>-1.45</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4403,16 +4403,16 @@
         <v>-100</v>
       </c>
       <c r="G88">
-        <v>-0.68</v>
+        <v>1.21</v>
       </c>
       <c r="H88">
-        <v>-0.48</v>
+        <v>0.65</v>
       </c>
       <c r="I88">
-        <v>-1.23</v>
+        <v>-0.47</v>
       </c>
       <c r="J88">
-        <v>-1.03</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4435,16 +4435,16 @@
         <v>-100</v>
       </c>
       <c r="G89">
-        <v>-0.77</v>
+        <v>1.37</v>
       </c>
       <c r="H89">
-        <v>-0.6</v>
+        <v>0.71</v>
       </c>
       <c r="I89">
-        <v>-1.36</v>
+        <v>-0.46</v>
       </c>
       <c r="J89">
-        <v>-1.3</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4467,16 +4467,16 @@
         <v>-100</v>
       </c>
       <c r="G90">
-        <v>-0.64</v>
+        <v>1.14</v>
       </c>
       <c r="H90">
-        <v>-0.44</v>
+        <v>0.62</v>
       </c>
       <c r="I90">
-        <v>-1.14</v>
+        <v>-0.46</v>
       </c>
       <c r="J90">
-        <v>-0.86</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4499,16 +4499,16 @@
         <v>-100</v>
       </c>
       <c r="G91">
-        <v>-0.65</v>
+        <v>1.14</v>
       </c>
       <c r="H91">
-        <v>-0.44</v>
+        <v>0.63</v>
       </c>
       <c r="I91">
-        <v>-1.13</v>
+        <v>-0.45</v>
       </c>
       <c r="J91">
-        <v>-0.83</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4531,16 +4531,16 @@
         <v>-100</v>
       </c>
       <c r="G92">
-        <v>-0.53</v>
+        <v>1.76</v>
       </c>
       <c r="H92">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="I92">
-        <v>-0.63</v>
+        <v>0.49</v>
       </c>
       <c r="J92">
-        <v>-1.63</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4557,22 +4557,22 @@
         <v>-45.3</v>
       </c>
       <c r="E93">
-        <v>-48</v>
+        <v>-47.9</v>
       </c>
       <c r="F93">
-        <v>-100</v>
+        <v>-99.7</v>
       </c>
       <c r="G93">
-        <v>-0.84</v>
+        <v>1.25</v>
       </c>
       <c r="H93">
-        <v>-0.73</v>
+        <v>0.49</v>
       </c>
       <c r="I93">
-        <v>-1.58</v>
+        <v>-0.68</v>
       </c>
       <c r="J93">
-        <v>-1.55</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4595,16 +4595,16 @@
         <v>-99.2</v>
       </c>
       <c r="G94">
-        <v>-0.77</v>
+        <v>1.31</v>
       </c>
       <c r="H94">
-        <v>-0.56</v>
+        <v>0.69</v>
       </c>
       <c r="I94">
-        <v>-1.48</v>
+        <v>-0.5</v>
       </c>
       <c r="J94">
-        <v>-1.59</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4615,28 +4615,28 @@
         <v>103</v>
       </c>
       <c r="C95">
-        <v>-42.3</v>
+        <v>-42.2</v>
       </c>
       <c r="D95">
-        <v>-51.4</v>
+        <v>-51.1</v>
       </c>
       <c r="E95">
-        <v>-55.4</v>
+        <v>-54.8</v>
       </c>
       <c r="F95">
-        <v>-100</v>
+        <v>-98.5</v>
       </c>
       <c r="G95">
-        <v>-0.78</v>
+        <v>1.35</v>
       </c>
       <c r="H95">
-        <v>-0.45</v>
+        <v>0.82</v>
       </c>
       <c r="I95">
-        <v>-1.35</v>
+        <v>-0.39</v>
       </c>
       <c r="J95">
-        <v>-1.63</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4659,16 +4659,16 @@
         <v>-100</v>
       </c>
       <c r="G96">
-        <v>-0.55</v>
+        <v>1.72</v>
       </c>
       <c r="H96">
-        <v>0.1</v>
+        <v>1.48</v>
       </c>
       <c r="I96">
-        <v>-0.77</v>
+        <v>0.37</v>
       </c>
       <c r="J96">
-        <v>-1.98</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4691,16 +4691,16 @@
         <v>-100</v>
       </c>
       <c r="G97">
-        <v>-0.46</v>
+        <v>1.73</v>
       </c>
       <c r="H97">
-        <v>0.2</v>
+        <v>1.59</v>
       </c>
       <c r="I97">
-        <v>-0.55</v>
+        <v>0.55</v>
       </c>
       <c r="J97">
-        <v>-1.97</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4723,16 +4723,16 @@
         <v>-97.5</v>
       </c>
       <c r="G98">
-        <v>-0.71</v>
+        <v>1.29</v>
       </c>
       <c r="H98">
-        <v>-0.63</v>
+        <v>0.61</v>
       </c>
       <c r="I98">
-        <v>-1.58</v>
+        <v>-0.56</v>
       </c>
       <c r="J98">
-        <v>-1.54</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4755,16 +4755,16 @@
         <v>-99.2</v>
       </c>
       <c r="G99">
-        <v>-0.77</v>
+        <v>1.34</v>
       </c>
       <c r="H99">
-        <v>-0.48</v>
+        <v>0.79</v>
       </c>
       <c r="I99">
-        <v>-1.39</v>
+        <v>-0.42</v>
       </c>
       <c r="J99">
-        <v>-1.61</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4787,16 +4787,16 @@
         <v>-100</v>
       </c>
       <c r="G100">
-        <v>-0.52</v>
+        <v>1.68</v>
       </c>
       <c r="H100">
-        <v>0.1</v>
+        <v>1.47</v>
       </c>
       <c r="I100">
-        <v>-0.68</v>
+        <v>0.41</v>
       </c>
       <c r="J100">
-        <v>-1.93</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4819,16 +4819,16 @@
         <v>-100</v>
       </c>
       <c r="G101">
-        <v>-0.92</v>
+        <v>1.28</v>
       </c>
       <c r="H101">
-        <v>-0.62</v>
+        <v>0.95</v>
       </c>
       <c r="I101">
-        <v>-1.45</v>
+        <v>-0.4</v>
       </c>
       <c r="J101">
-        <v>-1.36</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4851,16 +4851,16 @@
         <v>-100</v>
       </c>
       <c r="G102">
-        <v>-0.95</v>
+        <v>1.28</v>
       </c>
       <c r="H102">
-        <v>-0.64</v>
+        <v>0.99</v>
       </c>
       <c r="I102">
-        <v>-1.46</v>
+        <v>-0.4</v>
       </c>
       <c r="J102">
-        <v>-1.32</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4883,16 +4883,16 @@
         <v>-100</v>
       </c>
       <c r="G103">
-        <v>-0.87</v>
+        <v>1.39</v>
       </c>
       <c r="H103">
-        <v>-0.73</v>
+        <v>0.76</v>
       </c>
       <c r="I103">
-        <v>-1.27</v>
+        <v>-0.38</v>
       </c>
       <c r="J103">
-        <v>-1.17</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4915,16 +4915,16 @@
         <v>-100</v>
       </c>
       <c r="G104">
-        <v>-0.97</v>
+        <v>1.3</v>
       </c>
       <c r="H104">
-        <v>-0.71</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>-1.54</v>
+        <v>-0.42</v>
       </c>
       <c r="J104">
-        <v>-1.42</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4947,16 +4947,16 @@
         <v>-100</v>
       </c>
       <c r="G105">
-        <v>-0.79</v>
+        <v>1.13</v>
       </c>
       <c r="H105">
-        <v>-0.06</v>
+        <v>1.01</v>
       </c>
       <c r="I105">
-        <v>-0.86</v>
+        <v>-0.21</v>
       </c>
       <c r="J105">
-        <v>-0.56</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4979,16 +4979,16 @@
         <v>-100</v>
       </c>
       <c r="G106">
-        <v>-0.8</v>
+        <v>1.15</v>
       </c>
       <c r="H106">
-        <v>-0.11</v>
+        <v>1.01</v>
       </c>
       <c r="I106">
-        <v>-0.92</v>
+        <v>-0.23</v>
       </c>
       <c r="J106">
-        <v>-0.63</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -5011,16 +5011,16 @@
         <v>-100</v>
       </c>
       <c r="G107">
-        <v>-0.85</v>
+        <v>1.32</v>
       </c>
       <c r="H107">
-        <v>-0.56</v>
+        <v>0.87</v>
       </c>
       <c r="I107">
-        <v>-1.43</v>
+        <v>-0.41</v>
       </c>
       <c r="J107">
-        <v>-1.52</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -5043,16 +5043,16 @@
         <v>-100</v>
       </c>
       <c r="G108">
-        <v>-0.79</v>
+        <v>1.14</v>
       </c>
       <c r="H108">
-        <v>-0.08</v>
+        <v>1.01</v>
       </c>
       <c r="I108">
-        <v>-0.88</v>
+        <v>-0.22</v>
       </c>
       <c r="J108">
-        <v>-0.58</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -5075,16 +5075,16 @@
         <v>-100</v>
       </c>
       <c r="G109">
-        <v>-0.85</v>
+        <v>1.45</v>
       </c>
       <c r="H109">
-        <v>-0.81</v>
+        <v>0.7</v>
       </c>
       <c r="I109">
-        <v>-1.34</v>
+        <v>-0.42</v>
       </c>
       <c r="J109">
-        <v>-1.3</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -5107,16 +5107,16 @@
         <v>-100</v>
       </c>
       <c r="G110">
-        <v>-0.78</v>
+        <v>1.55</v>
       </c>
       <c r="H110">
+        <v>0.6</v>
+      </c>
+      <c r="I110">
+        <v>-0.49</v>
+      </c>
+      <c r="J110">
         <v>-0.93</v>
-      </c>
-      <c r="I110">
-        <v>-1.44</v>
-      </c>
-      <c r="J110">
-        <v>-1.51</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -5139,16 +5139,16 @@
         <v>-100</v>
       </c>
       <c r="G111">
-        <v>-0.86</v>
+        <v>1.33</v>
       </c>
       <c r="H111">
-        <v>-0.57</v>
+        <v>0.82</v>
       </c>
       <c r="I111">
-        <v>-1.17</v>
+        <v>-0.33</v>
       </c>
       <c r="J111">
-        <v>-1.02</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -5171,16 +5171,16 @@
         <v>-100</v>
       </c>
       <c r="G112">
-        <v>-0.95</v>
+        <v>1.27</v>
       </c>
       <c r="H112">
-        <v>-0.6</v>
+        <v>1.01</v>
       </c>
       <c r="I112">
-        <v>-1.42</v>
+        <v>-0.38</v>
       </c>
       <c r="J112">
-        <v>-1.26</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -5203,16 +5203,16 @@
         <v>-100</v>
       </c>
       <c r="G113">
-        <v>-1.1</v>
+        <v>1.08</v>
       </c>
       <c r="H113">
-        <v>-0.87</v>
+        <v>0.5</v>
       </c>
       <c r="I113">
-        <v>-1.67</v>
+        <v>-0.61</v>
       </c>
       <c r="J113">
-        <v>-1.7</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -5235,16 +5235,16 @@
         <v>-100</v>
       </c>
       <c r="G114">
+        <v>0.99</v>
+      </c>
+      <c r="H114">
+        <v>0.38</v>
+      </c>
+      <c r="I114">
+        <v>-0.74</v>
+      </c>
+      <c r="J114">
         <v>-1.17</v>
-      </c>
-      <c r="H114">
-        <v>-1</v>
-      </c>
-      <c r="I114">
-        <v>-1.8</v>
-      </c>
-      <c r="J114">
-        <v>-1.78</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -5267,16 +5267,16 @@
         <v>-100</v>
       </c>
       <c r="G115">
-        <v>-0.78</v>
+        <v>1.28</v>
       </c>
       <c r="H115">
-        <v>-0.58</v>
+        <v>0.73</v>
       </c>
       <c r="I115">
-        <v>-1.48</v>
+        <v>-0.48</v>
       </c>
       <c r="J115">
-        <v>-1.52</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -5299,16 +5299,16 @@
         <v>-100</v>
       </c>
       <c r="G116">
-        <v>-0.71</v>
+        <v>1.67</v>
       </c>
       <c r="H116">
-        <v>-1.08</v>
+        <v>0.48</v>
       </c>
       <c r="I116">
-        <v>-1.57</v>
+        <v>-0.57</v>
       </c>
       <c r="J116">
-        <v>-1.79</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -5331,16 +5331,16 @@
         <v>-100</v>
       </c>
       <c r="G117">
-        <v>-0.84</v>
+        <v>1.41</v>
       </c>
       <c r="H117">
-        <v>-0.73</v>
+        <v>0.74</v>
       </c>
       <c r="I117">
-        <v>-1.28</v>
+        <v>-0.39</v>
       </c>
       <c r="J117">
-        <v>-1.22</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -5363,16 +5363,16 @@
         <v>-100</v>
       </c>
       <c r="G118">
-        <v>-0.81</v>
+        <v>1.33</v>
       </c>
       <c r="H118">
-        <v>-0.51</v>
+        <v>0.84</v>
       </c>
       <c r="I118">
-        <v>-1.4</v>
+        <v>-0.41</v>
       </c>
       <c r="J118">
-        <v>-1.57</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -5395,16 +5395,16 @@
         <v>-100</v>
       </c>
       <c r="G119">
-        <v>-0.78</v>
+        <v>1.33</v>
       </c>
       <c r="H119">
-        <v>-0.48</v>
+        <v>0.81</v>
       </c>
       <c r="I119">
-        <v>-1.38</v>
+        <v>-0.41</v>
       </c>
       <c r="J119">
-        <v>-1.6</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -5427,16 +5427,16 @@
         <v>-100</v>
       </c>
       <c r="G120">
-        <v>-0.81</v>
+        <v>1.3</v>
       </c>
       <c r="H120">
-        <v>-0.56</v>
+        <v>0.79</v>
       </c>
       <c r="I120">
-        <v>-1.45</v>
+        <v>-0.45</v>
       </c>
       <c r="J120">
-        <v>-1.53</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -5459,16 +5459,16 @@
         <v>-100</v>
       </c>
       <c r="G121">
-        <v>-1.12</v>
+        <v>1.07</v>
       </c>
       <c r="H121">
-        <v>-0.99</v>
+        <v>0.4</v>
       </c>
       <c r="I121">
-        <v>-1.76</v>
+        <v>-0.71</v>
       </c>
       <c r="J121">
-        <v>-1.66</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -5491,16 +5491,16 @@
         <v>-100</v>
       </c>
       <c r="G122">
-        <v>-1</v>
+        <v>1.31</v>
       </c>
       <c r="H122">
-        <v>-0.77</v>
+        <v>1.01</v>
       </c>
       <c r="I122">
-        <v>-1.6</v>
+        <v>-0.43</v>
       </c>
       <c r="J122">
-        <v>-1.48</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -5523,16 +5523,16 @@
         <v>-100</v>
       </c>
       <c r="G123">
-        <v>-0.83</v>
+        <v>1.17</v>
       </c>
       <c r="H123">
-        <v>-0.21</v>
+        <v>1.01</v>
       </c>
       <c r="I123">
-        <v>-1.01</v>
+        <v>-0.26</v>
       </c>
       <c r="J123">
-        <v>-0.75</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -5555,16 +5555,16 @@
         <v>-100</v>
       </c>
       <c r="G124">
-        <v>-0.87</v>
+        <v>1.21</v>
       </c>
       <c r="H124">
-        <v>-0.35</v>
+        <v>1.01</v>
       </c>
       <c r="I124">
-        <v>-1.16</v>
+        <v>-0.3</v>
       </c>
       <c r="J124">
-        <v>-0.93</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -5587,16 +5587,16 @@
         <v>-100</v>
       </c>
       <c r="G125">
-        <v>-0.72</v>
+        <v>1.65</v>
       </c>
       <c r="H125">
-        <v>-1.06</v>
+        <v>0.49</v>
       </c>
       <c r="I125">
-        <v>-1.56</v>
+        <v>-0.56</v>
       </c>
       <c r="J125">
-        <v>-1.75</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -5619,16 +5619,16 @@
         <v>-100</v>
       </c>
       <c r="G126">
-        <v>-0.72</v>
+        <v>1.65</v>
       </c>
       <c r="H126">
-        <v>-1.05</v>
+        <v>0.5</v>
       </c>
       <c r="I126">
-        <v>-1.55</v>
+        <v>-0.56</v>
       </c>
       <c r="J126">
-        <v>-1.74</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5651,16 +5651,16 @@
         <v>-100</v>
       </c>
       <c r="G127">
-        <v>-0.81</v>
+        <v>1.43</v>
       </c>
       <c r="H127">
-        <v>-0.72</v>
+        <v>0.72</v>
       </c>
       <c r="I127">
-        <v>-1.31</v>
+        <v>-0.41</v>
       </c>
       <c r="J127">
-        <v>-1.27</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5683,16 +5683,16 @@
         <v>-100</v>
       </c>
       <c r="G128">
-        <v>-0.83</v>
+        <v>1.18</v>
       </c>
       <c r="H128">
-        <v>-0.21</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>-1.01</v>
+        <v>-0.26</v>
       </c>
       <c r="J128">
-        <v>-0.75</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5715,16 +5715,16 @@
         <v>-100</v>
       </c>
       <c r="G129">
-        <v>-0.71</v>
+        <v>1.67</v>
       </c>
       <c r="H129">
-        <v>-1.09</v>
+        <v>0.47</v>
       </c>
       <c r="I129">
-        <v>-1.58</v>
+        <v>-0.57</v>
       </c>
       <c r="J129">
-        <v>-1.8</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5747,16 +5747,16 @@
         <v>-100</v>
       </c>
       <c r="G130">
-        <v>-0.73</v>
+        <v>1.64</v>
       </c>
       <c r="H130">
-        <v>-1.06</v>
+        <v>0.48</v>
       </c>
       <c r="I130">
-        <v>-1.57</v>
+        <v>-0.57</v>
       </c>
       <c r="J130">
-        <v>-1.77</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5779,16 +5779,16 @@
         <v>-100</v>
       </c>
       <c r="G131">
-        <v>-1</v>
+        <v>1.31</v>
       </c>
       <c r="H131">
-        <v>-0.77</v>
+        <v>1.01</v>
       </c>
       <c r="I131">
-        <v>-1.6</v>
+        <v>-0.43</v>
       </c>
       <c r="J131">
-        <v>-1.48</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -5811,16 +5811,16 @@
         <v>-100</v>
       </c>
       <c r="G132">
-        <v>-0.79</v>
+        <v>1.15</v>
       </c>
       <c r="H132">
-        <v>-0.1</v>
+        <v>1.01</v>
       </c>
       <c r="I132">
-        <v>-0.89</v>
+        <v>-0.22</v>
       </c>
       <c r="J132">
-        <v>-0.61</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -5843,16 +5843,16 @@
         <v>-100</v>
       </c>
       <c r="G133">
-        <v>-1.19</v>
+        <v>0.98</v>
       </c>
       <c r="H133">
-        <v>-1.02</v>
+        <v>0.35</v>
       </c>
       <c r="I133">
-        <v>-1.82</v>
+        <v>-0.76</v>
       </c>
       <c r="J133">
-        <v>-1.7</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -5875,16 +5875,16 @@
         <v>-100</v>
       </c>
       <c r="G134">
-        <v>-1.19</v>
+        <v>0.97</v>
       </c>
       <c r="H134">
-        <v>-1.02</v>
+        <v>0.35</v>
       </c>
       <c r="I134">
-        <v>-1.82</v>
+        <v>-0.76</v>
       </c>
       <c r="J134">
-        <v>-1.66</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -5907,16 +5907,16 @@
         <v>-100</v>
       </c>
       <c r="G135">
-        <v>-0.83</v>
+        <v>1.29</v>
       </c>
       <c r="H135">
-        <v>-0.45</v>
+        <v>0.86</v>
       </c>
       <c r="I135">
-        <v>-1.1</v>
+        <v>-0.31</v>
       </c>
       <c r="J135">
-        <v>-0.93</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -5939,16 +5939,16 @@
         <v>-100</v>
       </c>
       <c r="G136">
-        <v>-0.81</v>
+        <v>1.25</v>
       </c>
       <c r="H136">
-        <v>-0.35</v>
+        <v>0.9</v>
       </c>
       <c r="I136">
-        <v>-1.06</v>
+        <v>-0.29</v>
       </c>
       <c r="J136">
-        <v>-0.86</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -5971,16 +5971,16 @@
         <v>-100</v>
       </c>
       <c r="G137">
-        <v>-0.77</v>
+        <v>1.55</v>
       </c>
       <c r="H137">
-        <v>-0.92</v>
+        <v>0.59</v>
       </c>
       <c r="I137">
-        <v>-1.45</v>
+        <v>-0.49</v>
       </c>
       <c r="J137">
-        <v>-1.53</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -5991,28 +5991,28 @@
         <v>146</v>
       </c>
       <c r="C138">
-        <v>-30</v>
+        <v>-29.9</v>
       </c>
       <c r="D138">
-        <v>-36.7</v>
+        <v>-36.5</v>
       </c>
       <c r="E138">
-        <v>-44.6</v>
+        <v>-44.1</v>
       </c>
       <c r="F138">
-        <v>-100</v>
+        <v>-98.8</v>
       </c>
       <c r="G138">
-        <v>-0.78</v>
+        <v>1.34</v>
       </c>
       <c r="H138">
-        <v>-0.45</v>
+        <v>0.82</v>
       </c>
       <c r="I138">
-        <v>-1.36</v>
+        <v>-0.4</v>
       </c>
       <c r="J138">
-        <v>-1.63</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -6023,28 +6023,28 @@
         <v>147</v>
       </c>
       <c r="C139">
-        <v>-43.2</v>
+        <v>-43</v>
       </c>
       <c r="D139">
-        <v>-49.8</v>
+        <v>-49.5</v>
       </c>
       <c r="E139">
-        <v>-54</v>
+        <v>-53.3</v>
       </c>
       <c r="F139">
-        <v>-100</v>
+        <v>-98.3</v>
       </c>
       <c r="G139">
-        <v>-0.78</v>
+        <v>1.34</v>
       </c>
       <c r="H139">
-        <v>-0.45</v>
+        <v>0.81</v>
       </c>
       <c r="I139">
-        <v>-1.36</v>
+        <v>-0.4</v>
       </c>
       <c r="J139">
-        <v>-1.63</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -6067,16 +6067,16 @@
         <v>-100</v>
       </c>
       <c r="G140">
-        <v>-0.79</v>
+        <v>1.14</v>
       </c>
       <c r="H140">
-        <v>-0.08</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>-0.87</v>
+        <v>-0.21</v>
       </c>
       <c r="J140">
-        <v>-0.58</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -6099,16 +6099,16 @@
         <v>-100</v>
       </c>
       <c r="G141">
-        <v>-0.78</v>
+        <v>1.13</v>
       </c>
       <c r="H141">
-        <v>-0.05</v>
+        <v>1.01</v>
       </c>
       <c r="I141">
-        <v>-0.85</v>
+        <v>-0.21</v>
       </c>
       <c r="J141">
-        <v>-0.55</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -6131,16 +6131,16 @@
         <v>-100</v>
       </c>
       <c r="G142">
-        <v>-1.08</v>
+        <v>1.15</v>
       </c>
       <c r="H142">
-        <v>-0.86</v>
+        <v>0.51</v>
       </c>
       <c r="I142">
-        <v>-1.66</v>
+        <v>-0.59</v>
       </c>
       <c r="J142">
-        <v>-1.58</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -6154,25 +6154,25 @@
         <v>-34.8</v>
       </c>
       <c r="D143">
-        <v>-43.7</v>
+        <v>-43.5</v>
       </c>
       <c r="E143">
-        <v>-51.5</v>
+        <v>-51.1</v>
       </c>
       <c r="F143">
-        <v>-100</v>
+        <v>-99.1</v>
       </c>
       <c r="G143">
-        <v>-0.78</v>
+        <v>1.35</v>
       </c>
       <c r="H143">
-        <v>-0.44</v>
+        <v>0.83</v>
       </c>
       <c r="I143">
-        <v>-1.35</v>
+        <v>-0.39</v>
       </c>
       <c r="J143">
-        <v>-1.63</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -6195,16 +6195,16 @@
         <v>-100</v>
       </c>
       <c r="G144">
-        <v>-0.83</v>
+        <v>1.47</v>
       </c>
       <c r="H144">
-        <v>-0.83</v>
+        <v>0.68</v>
       </c>
       <c r="I144">
-        <v>-1.36</v>
+        <v>-0.43</v>
       </c>
       <c r="J144">
-        <v>-1.34</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -6227,16 +6227,16 @@
         <v>-100</v>
       </c>
       <c r="G145">
-        <v>-0.88</v>
+        <v>1.39</v>
       </c>
       <c r="H145">
-        <v>-0.74</v>
+        <v>0.76</v>
       </c>
       <c r="I145">
-        <v>-1.27</v>
+        <v>-0.37</v>
       </c>
       <c r="J145">
-        <v>-1.17</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -6259,16 +6259,16 @@
         <v>-100</v>
       </c>
       <c r="G146">
-        <v>-0.94</v>
+        <v>1.34</v>
       </c>
       <c r="H146">
-        <v>-0.59</v>
+        <v>0.77</v>
       </c>
       <c r="I146">
-        <v>-1.4</v>
+        <v>-0.32</v>
       </c>
       <c r="J146">
-        <v>-1.54</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -6291,16 +6291,16 @@
         <v>-100</v>
       </c>
       <c r="G147">
-        <v>-1</v>
+        <v>1.31</v>
       </c>
       <c r="H147">
-        <v>-0.77</v>
+        <v>1.01</v>
       </c>
       <c r="I147">
-        <v>-1.6</v>
+        <v>-0.43</v>
       </c>
       <c r="J147">
-        <v>-1.49</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -6314,25 +6314,25 @@
         <v>-30.3</v>
       </c>
       <c r="D148">
-        <v>-41.8</v>
+        <v>-41.7</v>
       </c>
       <c r="E148">
-        <v>-55</v>
+        <v>-54.9</v>
       </c>
       <c r="F148">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G148">
-        <v>-0.17</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>-0.78</v>
+        <v>-0.02</v>
       </c>
       <c r="I148">
-        <v>-1.92</v>
+        <v>-1.08</v>
       </c>
       <c r="J148">
-        <v>-0.86</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -6355,16 +6355,16 @@
         <v>-100</v>
       </c>
       <c r="G149">
-        <v>-1.19</v>
+        <v>0.98</v>
       </c>
       <c r="H149">
-        <v>-1.02</v>
+        <v>0.35</v>
       </c>
       <c r="I149">
-        <v>-1.82</v>
+        <v>-0.76</v>
       </c>
       <c r="J149">
-        <v>-1.65</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -6387,16 +6387,16 @@
         <v>-100</v>
       </c>
       <c r="G150">
-        <v>-0.88</v>
+        <v>1.3</v>
       </c>
       <c r="H150">
-        <v>-0.56</v>
+        <v>0.91</v>
       </c>
       <c r="I150">
-        <v>-1.31</v>
+        <v>-0.37</v>
       </c>
       <c r="J150">
-        <v>-1.18</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -6419,16 +6419,16 @@
         <v>-100</v>
       </c>
       <c r="G151">
-        <v>-0.98</v>
+        <v>1.3</v>
       </c>
       <c r="H151">
-        <v>-0.72</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>-1.55</v>
+        <v>-0.42</v>
       </c>
       <c r="J151">
-        <v>-1.43</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -6451,16 +6451,16 @@
         <v>-100</v>
       </c>
       <c r="G152">
-        <v>-0.99</v>
+        <v>1.31</v>
       </c>
       <c r="H152">
-        <v>-0.74</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>-1.57</v>
+        <v>-0.43</v>
       </c>
       <c r="J152">
-        <v>-1.45</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -6483,16 +6483,16 @@
         <v>-100</v>
       </c>
       <c r="G153">
-        <v>-1</v>
+        <v>1.31</v>
       </c>
       <c r="H153">
-        <v>-0.76</v>
+        <v>1.01</v>
       </c>
       <c r="I153">
-        <v>-1.59</v>
+        <v>-0.43</v>
       </c>
       <c r="J153">
-        <v>-1.48</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -6515,16 +6515,16 @@
         <v>-100</v>
       </c>
       <c r="G154">
-        <v>-0.76</v>
+        <v>1.32</v>
       </c>
       <c r="H154">
-        <v>-0.51</v>
+        <v>0.75</v>
       </c>
       <c r="I154">
-        <v>-1.42</v>
+        <v>-0.45</v>
       </c>
       <c r="J154">
-        <v>-1.59</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -6547,16 +6547,16 @@
         <v>-99.4</v>
       </c>
       <c r="G155">
-        <v>-0.46</v>
+        <v>1.13</v>
       </c>
       <c r="H155">
-        <v>-0.91</v>
+        <v>0.24</v>
       </c>
       <c r="I155">
-        <v>-1.91</v>
+        <v>-0.82</v>
       </c>
       <c r="J155">
-        <v>-1.28</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -6570,25 +6570,25 @@
         <v>-28.1</v>
       </c>
       <c r="D156">
-        <v>-40.4</v>
+        <v>-40.3</v>
       </c>
       <c r="E156">
-        <v>-40.9</v>
+        <v>-40.8</v>
       </c>
       <c r="F156">
-        <v>-100</v>
+        <v>-99.7</v>
       </c>
       <c r="G156">
-        <v>-0.12</v>
+        <v>1.04</v>
       </c>
       <c r="H156">
-        <v>-0.74</v>
+        <v>0.01</v>
       </c>
       <c r="I156">
-        <v>-1.91</v>
+        <v>-1.07</v>
       </c>
       <c r="J156">
-        <v>-0.79</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -6605,22 +6605,22 @@
         <v>-25.4</v>
       </c>
       <c r="E157">
-        <v>-45.2</v>
+        <v>-45.1</v>
       </c>
       <c r="F157">
-        <v>-100</v>
+        <v>-99.6</v>
       </c>
       <c r="G157">
-        <v>-0.37</v>
+        <v>0.72</v>
       </c>
       <c r="H157">
-        <v>-0.6</v>
+        <v>0.2</v>
       </c>
       <c r="I157">
-        <v>-1.32</v>
+        <v>-0.53</v>
       </c>
       <c r="J157">
-        <v>-0.8</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -6631,28 +6631,28 @@
         <v>166</v>
       </c>
       <c r="C158">
-        <v>-22.6</v>
+        <v>-22.5</v>
       </c>
       <c r="D158">
-        <v>-24</v>
+        <v>-23.7</v>
       </c>
       <c r="E158">
-        <v>-47</v>
+        <v>-46.1</v>
       </c>
       <c r="F158">
-        <v>-100</v>
+        <v>-97.5</v>
       </c>
       <c r="G158">
-        <v>-0.55</v>
+        <v>0.67</v>
       </c>
       <c r="H158">
-        <v>-0.44</v>
+        <v>0.17</v>
       </c>
       <c r="I158">
-        <v>-0.81</v>
+        <v>-0.41</v>
       </c>
       <c r="J158">
-        <v>-0.71</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -6666,25 +6666,25 @@
         <v>-8.9</v>
       </c>
       <c r="D159">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="E159">
-        <v>-27.2</v>
+        <v>-26.8</v>
       </c>
       <c r="F159">
-        <v>-97.1</v>
+        <v>-96.4</v>
       </c>
       <c r="G159">
-        <v>-0.42</v>
+        <v>0.68</v>
       </c>
       <c r="H159">
-        <v>0.04</v>
+        <v>0.56</v>
       </c>
       <c r="I159">
-        <v>-0.84</v>
+        <v>-0.39</v>
       </c>
       <c r="J159">
-        <v>-1.13</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -6707,16 +6707,16 @@
         <v>-99.5</v>
       </c>
       <c r="G160">
-        <v>-0.23</v>
+        <v>0.52</v>
       </c>
       <c r="H160">
-        <v>0.45</v>
+        <v>0.81</v>
       </c>
       <c r="I160">
-        <v>-0.74</v>
+        <v>-0.43</v>
       </c>
       <c r="J160">
-        <v>-1.61</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -6739,16 +6739,16 @@
         <v>-99.4</v>
       </c>
       <c r="G161">
-        <v>-0.2</v>
+        <v>0.54</v>
       </c>
       <c r="H161">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="I161">
-        <v>-0.73</v>
+        <v>-0.42</v>
       </c>
       <c r="J161">
-        <v>-1.64</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -6771,16 +6771,16 @@
         <v>-98.7</v>
       </c>
       <c r="G162">
-        <v>-0.47</v>
+        <v>0.77</v>
       </c>
       <c r="H162">
-        <v>-0.21</v>
+        <v>0.39</v>
       </c>
       <c r="I162">
-        <v>-0.82</v>
+        <v>-0.35</v>
       </c>
       <c r="J162">
-        <v>-0.97</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -6803,16 +6803,16 @@
         <v>-99.7</v>
       </c>
       <c r="G163">
-        <v>-0.47</v>
+        <v>0.8</v>
       </c>
       <c r="H163">
-        <v>-0.27</v>
+        <v>0.34</v>
       </c>
       <c r="I163">
-        <v>-0.8</v>
+        <v>-0.32</v>
       </c>
       <c r="J163">
-        <v>-0.91</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -6835,16 +6835,16 @@
         <v>-99.9</v>
       </c>
       <c r="G164">
-        <v>-0.36</v>
+        <v>0.35</v>
       </c>
       <c r="H164">
-        <v>0.08</v>
+        <v>0.39</v>
       </c>
       <c r="I164">
-        <v>-0.73</v>
+        <v>-0.49</v>
       </c>
       <c r="J164">
-        <v>-1.2</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -6867,16 +6867,16 @@
         <v>-100</v>
       </c>
       <c r="G165">
-        <v>-0.64</v>
+        <v>0.41</v>
       </c>
       <c r="H165">
-        <v>0.16</v>
+        <v>0.52</v>
       </c>
       <c r="I165">
-        <v>-0.84</v>
+        <v>-0.53</v>
       </c>
       <c r="J165">
-        <v>-1.46</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -6899,16 +6899,16 @@
         <v>-100</v>
       </c>
       <c r="G166">
-        <v>-0.19</v>
+        <v>0.54</v>
       </c>
       <c r="H166">
-        <v>0.51</v>
+        <v>0.87</v>
       </c>
       <c r="I166">
-        <v>-0.73</v>
+        <v>-0.42</v>
       </c>
       <c r="J166">
-        <v>-1.66</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -6931,16 +6931,16 @@
         <v>-98.3</v>
       </c>
       <c r="G167">
-        <v>0.05</v>
+        <v>0.73</v>
       </c>
       <c r="H167">
-        <v>-0.06</v>
+        <v>0.24</v>
       </c>
       <c r="I167">
-        <v>-1.55</v>
+        <v>-1.26</v>
       </c>
       <c r="J167">
-        <v>-1.23</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -6963,16 +6963,16 @@
         <v>-99.9</v>
       </c>
       <c r="G168">
-        <v>-0.12</v>
+        <v>0.58</v>
       </c>
       <c r="H168">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="I168">
-        <v>-1.18</v>
+        <v>-0.91</v>
       </c>
       <c r="J168">
-        <v>-0.97</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -6995,16 +6995,16 @@
         <v>-100</v>
       </c>
       <c r="G169">
-        <v>-0.09</v>
+        <v>0.69</v>
       </c>
       <c r="H169">
-        <v>-0.02</v>
+        <v>0.34</v>
       </c>
       <c r="I169">
-        <v>-1.53</v>
+        <v>-1.18</v>
       </c>
       <c r="J169">
-        <v>-1.23</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -7027,16 +7027,16 @@
         <v>-99.8</v>
       </c>
       <c r="G170">
-        <v>-0.49</v>
+        <v>0.68</v>
       </c>
       <c r="H170">
-        <v>-0.01</v>
+        <v>0.54</v>
       </c>
       <c r="I170">
-        <v>-0.91</v>
+        <v>-0.4</v>
       </c>
       <c r="J170">
-        <v>-0.96</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -7059,16 +7059,16 @@
         <v>-100</v>
       </c>
       <c r="G171">
-        <v>-0.43</v>
+        <v>0.9</v>
       </c>
       <c r="H171">
-        <v>-0.33</v>
+        <v>0.32</v>
       </c>
       <c r="I171">
-        <v>-0.73</v>
+        <v>-0.26</v>
       </c>
       <c r="J171">
-        <v>-0.88</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -7091,16 +7091,16 @@
         <v>-100</v>
       </c>
       <c r="G172">
-        <v>-0.59</v>
+        <v>0.72</v>
       </c>
       <c r="H172">
-        <v>-0.17</v>
+        <v>0.44</v>
       </c>
       <c r="I172">
-        <v>-0.99</v>
+        <v>-0.4</v>
       </c>
       <c r="J172">
-        <v>-0.7</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -7120,19 +7120,19 @@
         <v>-38.5</v>
       </c>
       <c r="F173">
-        <v>-100</v>
+        <v>-99.8</v>
       </c>
       <c r="G173">
-        <v>-0.14</v>
+        <v>0.78</v>
       </c>
       <c r="H173">
-        <v>0.55</v>
+        <v>0.94</v>
       </c>
       <c r="I173">
-        <v>-0.79</v>
+        <v>-0.43</v>
       </c>
       <c r="J173">
-        <v>-0.47</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -7155,16 +7155,16 @@
         <v>-100</v>
       </c>
       <c r="G174">
-        <v>-0.28</v>
+        <v>0.76</v>
       </c>
       <c r="H174">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="I174">
-        <v>-1.16</v>
+        <v>-0.61</v>
       </c>
       <c r="J174">
-        <v>-0.9</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -7187,16 +7187,16 @@
         <v>-99.8</v>
       </c>
       <c r="G175">
-        <v>-0.62</v>
+        <v>0.42</v>
       </c>
       <c r="H175">
-        <v>-0.22</v>
+        <v>0.19</v>
       </c>
       <c r="I175">
-        <v>-1.09</v>
+        <v>-0.71</v>
       </c>
       <c r="J175">
-        <v>-1.25</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -7219,16 +7219,16 @@
         <v>-100</v>
       </c>
       <c r="G176">
-        <v>-0.42</v>
+        <v>0.51</v>
       </c>
       <c r="H176">
-        <v>0.36</v>
+        <v>0.74</v>
       </c>
       <c r="I176">
-        <v>-0.78</v>
+        <v>-0.44</v>
       </c>
       <c r="J176">
-        <v>-1.53</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -7251,16 +7251,16 @@
         <v>-100</v>
       </c>
       <c r="G177">
-        <v>-1.97</v>
+        <v>0.04</v>
       </c>
       <c r="H177">
-        <v>-0.38</v>
+        <v>-0.05</v>
       </c>
       <c r="I177">
-        <v>-0.99</v>
+        <v>-0.72</v>
       </c>
       <c r="J177">
-        <v>-1.27</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -7280,19 +7280,19 @@
         <v>-65.7</v>
       </c>
       <c r="F178">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G178">
-        <v>-0.59</v>
+        <v>0.79</v>
       </c>
       <c r="H178">
-        <v>-0.12</v>
+        <v>0.49</v>
       </c>
       <c r="I178">
-        <v>-0.93</v>
+        <v>-0.4</v>
       </c>
       <c r="J178">
-        <v>-1.61</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -7315,16 +7315,16 @@
         <v>-100</v>
       </c>
       <c r="G179">
-        <v>-0.13</v>
+        <v>0.58</v>
       </c>
       <c r="H179">
-        <v>0.39</v>
+        <v>0.75</v>
       </c>
       <c r="I179">
-        <v>-1.13</v>
+        <v>-0.86</v>
       </c>
       <c r="J179">
-        <v>-0.94</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -7347,16 +7347,16 @@
         <v>-100</v>
       </c>
       <c r="G180">
-        <v>-0.3</v>
+        <v>0.72</v>
       </c>
       <c r="H180">
-        <v>0.23</v>
+        <v>0.73</v>
       </c>
       <c r="I180">
-        <v>-1.34</v>
+        <v>-0.84</v>
       </c>
       <c r="J180">
-        <v>-1.17</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -7379,16 +7379,16 @@
         <v>-100</v>
       </c>
       <c r="G181">
-        <v>-0.38</v>
+        <v>1.05</v>
       </c>
       <c r="H181">
-        <v>-0.47</v>
+        <v>0.36</v>
       </c>
       <c r="I181">
-        <v>-0.8</v>
+        <v>-0.19</v>
       </c>
       <c r="J181">
-        <v>-0.51</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -7411,16 +7411,16 @@
         <v>-100</v>
       </c>
       <c r="G182">
-        <v>-0.3</v>
+        <v>1.17</v>
       </c>
       <c r="H182">
-        <v>-0.52</v>
+        <v>0.36</v>
       </c>
       <c r="I182">
-        <v>-0.71</v>
+        <v>-0.12</v>
       </c>
       <c r="J182">
-        <v>-0.56</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -7443,16 +7443,16 @@
         <v>-99.9</v>
       </c>
       <c r="G183">
-        <v>-0.25</v>
+        <v>1.24</v>
       </c>
       <c r="H183">
-        <v>-0.33</v>
+        <v>0.42</v>
       </c>
       <c r="I183">
-        <v>-0.58</v>
+        <v>-0.14</v>
       </c>
       <c r="J183">
-        <v>-1.08</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -7469,22 +7469,22 @@
         <v>-12.9</v>
       </c>
       <c r="E184">
-        <v>-15.6</v>
+        <v>-15.5</v>
       </c>
       <c r="F184">
         <v>-100</v>
       </c>
       <c r="G184">
-        <v>-0.28</v>
+        <v>1.19</v>
       </c>
       <c r="H184">
-        <v>-0.32</v>
+        <v>0.4</v>
       </c>
       <c r="I184">
-        <v>-0.58</v>
+        <v>-0.16</v>
       </c>
       <c r="J184">
-        <v>-1.1</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -7507,16 +7507,16 @@
         <v>-99.9</v>
       </c>
       <c r="G185">
-        <v>-0.24</v>
+        <v>1.26</v>
       </c>
       <c r="H185">
-        <v>-0.32</v>
+        <v>0.43</v>
       </c>
       <c r="I185">
-        <v>-0.57</v>
+        <v>-0.14</v>
       </c>
       <c r="J185">
-        <v>-1.12</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -7533,22 +7533,22 @@
         <v>-44.9</v>
       </c>
       <c r="E186">
-        <v>-50.2</v>
+        <v>-50.1</v>
       </c>
       <c r="F186">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G186">
-        <v>-0.53</v>
+        <v>0.97</v>
       </c>
       <c r="H186">
-        <v>-0.37</v>
+        <v>0.43</v>
       </c>
       <c r="I186">
-        <v>-2.19</v>
+        <v>-1.32</v>
       </c>
       <c r="J186">
-        <v>-2.01</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -7571,16 +7571,16 @@
         <v>-100</v>
       </c>
       <c r="G187">
-        <v>-0.81</v>
+        <v>1.42</v>
       </c>
       <c r="H187">
-        <v>-0.61</v>
+        <v>0.67</v>
       </c>
       <c r="I187">
-        <v>-2.59</v>
+        <v>-1.04</v>
       </c>
       <c r="J187">
-        <v>-1.88</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -7603,16 +7603,16 @@
         <v>-100</v>
       </c>
       <c r="G188">
-        <v>-2.44</v>
+        <v>0.03</v>
       </c>
       <c r="H188">
-        <v>-0.48</v>
+        <v>-0.09</v>
       </c>
       <c r="I188">
-        <v>-0.96</v>
+        <v>-0.66</v>
       </c>
       <c r="J188">
-        <v>-1.26</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -7635,16 +7635,16 @@
         <v>-100</v>
       </c>
       <c r="G189">
-        <v>-2.24</v>
+        <v>0.31</v>
       </c>
       <c r="H189">
-        <v>-0.56</v>
+        <v>-0.01</v>
       </c>
       <c r="I189">
-        <v>-1.07</v>
+        <v>-0.63</v>
       </c>
       <c r="J189">
-        <v>-1.7</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -7667,16 +7667,16 @@
         <v>-100</v>
       </c>
       <c r="G190">
-        <v>-0.65</v>
+        <v>1.12</v>
       </c>
       <c r="H190">
-        <v>-0.46</v>
+        <v>0.59</v>
       </c>
       <c r="I190">
-        <v>-1.16</v>
+        <v>-0.48</v>
       </c>
       <c r="J190">
-        <v>-1.03</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -7699,16 +7699,16 @@
         <v>-100</v>
       </c>
       <c r="G191">
-        <v>-0.63</v>
+        <v>1.11</v>
       </c>
       <c r="H191">
-        <v>-0.43</v>
+        <v>0.6</v>
       </c>
       <c r="I191">
-        <v>-1.12</v>
+        <v>-0.47</v>
       </c>
       <c r="J191">
-        <v>-0.82</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -7731,16 +7731,16 @@
         <v>-100</v>
       </c>
       <c r="G192">
-        <v>-0.87</v>
+        <v>1.73</v>
       </c>
       <c r="H192">
-        <v>-0.28</v>
+        <v>1.08</v>
       </c>
       <c r="I192">
-        <v>-1.13</v>
+        <v>0.04</v>
       </c>
       <c r="J192">
-        <v>-1.36</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -7763,16 +7763,16 @@
         <v>-100</v>
       </c>
       <c r="G193">
-        <v>-0.89</v>
+        <v>1.61</v>
       </c>
       <c r="H193">
-        <v>-0.66</v>
+        <v>0.75</v>
       </c>
       <c r="I193">
-        <v>-1.4</v>
+        <v>-0.31</v>
       </c>
       <c r="J193">
-        <v>-1.52</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -7795,16 +7795,16 @@
         <v>-100</v>
       </c>
       <c r="G194">
-        <v>-0.76</v>
+        <v>1.66</v>
       </c>
       <c r="H194">
-        <v>-0.94</v>
+        <v>0.58</v>
       </c>
       <c r="I194">
-        <v>-1.5</v>
+        <v>-0.48</v>
       </c>
       <c r="J194">
-        <v>-1.69</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -7827,16 +7827,16 @@
         <v>-100</v>
       </c>
       <c r="G195">
-        <v>-0.82</v>
+        <v>1.73</v>
       </c>
       <c r="H195">
-        <v>-0.75</v>
+        <v>0.72</v>
       </c>
       <c r="I195">
-        <v>-1.4</v>
+        <v>-0.32</v>
       </c>
       <c r="J195">
-        <v>-1.56</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -7859,16 +7859,16 @@
         <v>-100</v>
       </c>
       <c r="G196">
-        <v>-0.73</v>
+        <v>1.66</v>
       </c>
       <c r="H196">
-        <v>-1.02</v>
+        <v>0.52</v>
       </c>
       <c r="I196">
-        <v>-1.54</v>
+        <v>-0.54</v>
       </c>
       <c r="J196">
-        <v>-1.74</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -7891,16 +7891,16 @@
         <v>-100</v>
       </c>
       <c r="G197">
-        <v>-0.72</v>
+        <v>1.49</v>
       </c>
       <c r="H197">
-        <v>-0.23</v>
+        <v>1.14</v>
       </c>
       <c r="I197">
-        <v>-1.03</v>
+        <v>0.05</v>
       </c>
       <c r="J197">
-        <v>-1.78</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -7923,16 +7923,16 @@
         <v>-100</v>
       </c>
       <c r="G198">
-        <v>-0.67</v>
+        <v>1.57</v>
       </c>
       <c r="H198">
-        <v>-0.13</v>
+        <v>1.24</v>
       </c>
       <c r="I198">
-        <v>-0.92</v>
+        <v>0.17</v>
       </c>
       <c r="J198">
-        <v>-1.62</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -7955,16 +7955,16 @@
         <v>-100</v>
       </c>
       <c r="G199">
-        <v>-0.77</v>
+        <v>1.33</v>
       </c>
       <c r="H199">
-        <v>-0.48</v>
+        <v>0.79</v>
       </c>
       <c r="I199">
-        <v>-1.39</v>
+        <v>-0.42</v>
       </c>
       <c r="J199">
-        <v>-1.6</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -7987,16 +7987,16 @@
         <v>-100</v>
       </c>
       <c r="G200">
-        <v>-1.17</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>-1.01</v>
+        <v>0.37</v>
       </c>
       <c r="I200">
-        <v>-1.8</v>
+        <v>-0.75</v>
       </c>
       <c r="J200">
-        <v>-1.66</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -8019,16 +8019,16 @@
         <v>-100</v>
       </c>
       <c r="G201">
-        <v>-0.84</v>
+        <v>1.32</v>
       </c>
       <c r="H201">
-        <v>-0.56</v>
+        <v>0.85</v>
       </c>
       <c r="I201">
-        <v>-1.26</v>
+        <v>-0.37</v>
       </c>
       <c r="J201">
-        <v>-1.14</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -8051,16 +8051,16 @@
         <v>-100</v>
       </c>
       <c r="G202">
-        <v>-0.84</v>
+        <v>1.35</v>
       </c>
       <c r="H202">
-        <v>-0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I202">
-        <v>-1.3</v>
+        <v>-0.39</v>
       </c>
       <c r="J202">
-        <v>-1.2</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -8083,16 +8083,16 @@
         <v>-100</v>
       </c>
       <c r="G203">
-        <v>-0.85</v>
+        <v>1.27</v>
       </c>
       <c r="H203">
-        <v>-0.45</v>
+        <v>0.92</v>
       </c>
       <c r="I203">
-        <v>-1.19</v>
+        <v>-0.33</v>
       </c>
       <c r="J203">
-        <v>-1.02</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -8115,16 +8115,16 @@
         <v>-100</v>
       </c>
       <c r="G204">
-        <v>-0.92</v>
+        <v>1.27</v>
       </c>
       <c r="H204">
-        <v>-0.57</v>
+        <v>0.98</v>
       </c>
       <c r="I204">
-        <v>-1.36</v>
+        <v>-0.37</v>
       </c>
       <c r="J204">
-        <v>-1.21</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -8147,16 +8147,16 @@
         <v>-100</v>
       </c>
       <c r="G205">
-        <v>-0.91</v>
+        <v>1.29</v>
       </c>
       <c r="H205">
-        <v>-0.58</v>
+        <v>0.94</v>
       </c>
       <c r="I205">
-        <v>-1.36</v>
+        <v>-0.38</v>
       </c>
       <c r="J205">
-        <v>-1.22</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -8179,16 +8179,16 @@
         <v>-100</v>
       </c>
       <c r="G206">
-        <v>-0.92</v>
+        <v>1.29</v>
       </c>
       <c r="H206">
-        <v>-0.62</v>
+        <v>0.96</v>
       </c>
       <c r="I206">
-        <v>-1.41</v>
+        <v>-0.39</v>
       </c>
       <c r="J206">
-        <v>-1.27</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -8211,16 +8211,16 @@
         <v>-99.9</v>
       </c>
       <c r="G207">
-        <v>-2.3</v>
+        <v>0.08</v>
       </c>
       <c r="H207">
-        <v>-0.45</v>
+        <v>-0.05</v>
       </c>
       <c r="I207">
-        <v>-0.96</v>
+        <v>-0.67</v>
       </c>
       <c r="J207">
-        <v>-1.3</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -8243,16 +8243,16 @@
         <v>-100</v>
       </c>
       <c r="G208">
-        <v>-1.03</v>
+        <v>2.04</v>
       </c>
       <c r="H208">
-        <v>-0.18</v>
+        <v>1.18</v>
       </c>
       <c r="I208">
-        <v>-1.08</v>
+        <v>0.22</v>
       </c>
       <c r="J208">
-        <v>-1.18</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -8275,16 +8275,16 @@
         <v>-100</v>
       </c>
       <c r="G209">
-        <v>-0.99</v>
+        <v>1.95</v>
       </c>
       <c r="H209">
-        <v>-0.22</v>
+        <v>1.14</v>
       </c>
       <c r="I209">
-        <v>-1.11</v>
+        <v>0.15</v>
       </c>
       <c r="J209">
-        <v>-1.24</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -8307,16 +8307,16 @@
         <v>-100</v>
       </c>
       <c r="G210">
-        <v>-0.78</v>
+        <v>1.33</v>
       </c>
       <c r="H210">
-        <v>-0.62</v>
+        <v>0.71</v>
       </c>
       <c r="I210">
-        <v>-1.26</v>
+        <v>-0.42</v>
       </c>
       <c r="J210">
-        <v>-1.13</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -8339,16 +8339,16 @@
         <v>-100</v>
       </c>
       <c r="G211">
-        <v>-0.79</v>
+        <v>1.5</v>
       </c>
       <c r="H211">
-        <v>-0.62</v>
+        <v>0.74</v>
       </c>
       <c r="I211">
-        <v>-1.44</v>
+        <v>-0.43</v>
       </c>
       <c r="J211">
-        <v>-1.46</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -8371,16 +8371,16 @@
         <v>-100</v>
       </c>
       <c r="G212">
-        <v>-0.73</v>
+        <v>1.14</v>
       </c>
       <c r="H212">
-        <v>-0.27</v>
+        <v>0.83</v>
       </c>
       <c r="I212">
-        <v>-1.02</v>
+        <v>-0.33</v>
       </c>
       <c r="J212">
-        <v>-0.75</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -8403,16 +8403,16 @@
         <v>-100</v>
       </c>
       <c r="G213">
-        <v>-0.81</v>
+        <v>1.5</v>
       </c>
       <c r="H213">
-        <v>-0.85</v>
+        <v>0.66</v>
       </c>
       <c r="I213">
-        <v>-1.39</v>
+        <v>-0.45</v>
       </c>
       <c r="J213">
-        <v>-1.41</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -8429,22 +8429,22 @@
         <v>-43.3</v>
       </c>
       <c r="E214">
-        <v>-63.5</v>
+        <v>-63.4</v>
       </c>
       <c r="F214">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G214">
-        <v>-0.73</v>
+        <v>0.55</v>
       </c>
       <c r="H214">
-        <v>-0.25</v>
+        <v>0.28</v>
       </c>
       <c r="I214">
-        <v>-1.01</v>
+        <v>-0.56</v>
       </c>
       <c r="J214">
-        <v>-1.63</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -8467,16 +8467,16 @@
         <v>-100</v>
       </c>
       <c r="G215">
-        <v>-0.66</v>
+        <v>1.41</v>
       </c>
       <c r="H215">
-        <v>-0.44</v>
+        <v>0.74</v>
       </c>
       <c r="I215">
-        <v>-1.86</v>
+        <v>-0.72</v>
       </c>
       <c r="J215">
-        <v>-1.89</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -8499,16 +8499,16 @@
         <v>-100</v>
       </c>
       <c r="G216">
-        <v>-0.75</v>
+        <v>1.55</v>
       </c>
       <c r="H216">
-        <v>-0.27</v>
+        <v>0.84</v>
       </c>
       <c r="I216">
-        <v>-1.27</v>
+        <v>-0.3</v>
       </c>
       <c r="J216">
-        <v>-1.88</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -8531,16 +8531,16 @@
         <v>-100</v>
       </c>
       <c r="G217">
-        <v>-0.96</v>
+        <v>1.28</v>
       </c>
       <c r="H217">
-        <v>-0.66</v>
+        <v>1.01</v>
       </c>
       <c r="I217">
-        <v>-1.48</v>
+        <v>-0.4</v>
       </c>
       <c r="J217">
-        <v>-1.34</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -8563,16 +8563,16 @@
         <v>-100</v>
       </c>
       <c r="G218">
-        <v>-0.62</v>
+        <v>0.69</v>
       </c>
       <c r="H218">
-        <v>-0.16</v>
+        <v>0.44</v>
       </c>
       <c r="I218">
-        <v>-1.02</v>
+        <v>-0.42</v>
       </c>
       <c r="J218">
-        <v>-0.67</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -8595,16 +8595,16 @@
         <v>-100</v>
       </c>
       <c r="G219">
-        <v>-0.37</v>
+        <v>0.6</v>
       </c>
       <c r="H219">
-        <v>0.23</v>
+        <v>0.68</v>
       </c>
       <c r="I219">
-        <v>-0.85</v>
+        <v>-0.42</v>
       </c>
       <c r="J219">
-        <v>-1.23</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -8621,22 +8621,22 @@
         <v>-7.7</v>
       </c>
       <c r="E220">
-        <v>-34.6</v>
+        <v>-34.5</v>
       </c>
       <c r="F220">
-        <v>-99.8</v>
+        <v>-99.6</v>
       </c>
       <c r="G220">
-        <v>-0.53</v>
+        <v>0.68</v>
       </c>
       <c r="H220">
-        <v>-0.41</v>
+        <v>0.18</v>
       </c>
       <c r="I220">
-        <v>-0.74</v>
+        <v>-0.28</v>
       </c>
       <c r="J220">
-        <v>-0.73</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -8659,16 +8659,16 @@
         <v>-100</v>
       </c>
       <c r="G221">
-        <v>-0.53</v>
+        <v>1.08</v>
       </c>
       <c r="H221">
-        <v>-0.16</v>
+        <v>0.68</v>
       </c>
       <c r="I221">
-        <v>-1.07</v>
+        <v>-0.38</v>
       </c>
       <c r="J221">
-        <v>-2.05</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -8691,16 +8691,16 @@
         <v>-100</v>
       </c>
       <c r="G222">
-        <v>-3.25</v>
+        <v>-0.3</v>
       </c>
       <c r="H222">
-        <v>-0.61</v>
+        <v>-0.34</v>
       </c>
       <c r="I222">
-        <v>-0.93</v>
+        <v>-0.76</v>
       </c>
       <c r="J222">
-        <v>-1.26</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -8723,16 +8723,16 @@
         <v>-100</v>
       </c>
       <c r="G223">
-        <v>-0.35</v>
+        <v>1.07</v>
       </c>
       <c r="H223">
-        <v>0.21</v>
+        <v>0.89</v>
       </c>
       <c r="I223">
-        <v>-0.8</v>
+        <v>-0.24</v>
       </c>
       <c r="J223">
-        <v>-1.3</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -8755,16 +8755,16 @@
         <v>-100</v>
       </c>
       <c r="G224">
-        <v>-0.5</v>
+        <v>1.26</v>
       </c>
       <c r="H224">
-        <v>-0.12</v>
+        <v>0.79</v>
       </c>
       <c r="I224">
-        <v>-1.31</v>
+        <v>-0.46</v>
       </c>
       <c r="J224">
-        <v>-1.9</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -8787,16 +8787,16 @@
         <v>-99.7</v>
       </c>
       <c r="G225">
-        <v>-0.21</v>
+        <v>0.86</v>
       </c>
       <c r="H225">
-        <v>-0.2</v>
+        <v>0.33</v>
       </c>
       <c r="I225">
-        <v>-1.74</v>
+        <v>-1.31</v>
       </c>
       <c r="J225">
-        <v>-1.72</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -8819,16 +8819,16 @@
         <v>-100</v>
       </c>
       <c r="G226">
-        <v>-0.44</v>
+        <v>1.25</v>
       </c>
       <c r="H226">
-        <v>-0.59</v>
+        <v>0.52</v>
       </c>
       <c r="I226">
-        <v>-2.32</v>
+        <v>-1.28</v>
       </c>
       <c r="J226">
-        <v>-2.55</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -8851,16 +8851,16 @@
         <v>-100</v>
       </c>
       <c r="G227">
-        <v>-0.78</v>
+        <v>1.36</v>
       </c>
       <c r="H227">
-        <v>-0.48</v>
+        <v>0.67</v>
       </c>
       <c r="I227">
-        <v>-2.2</v>
+        <v>-1.04</v>
       </c>
       <c r="J227">
-        <v>-2.14</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -8883,16 +8883,16 @@
         <v>-100</v>
       </c>
       <c r="G228">
-        <v>-0.98</v>
+        <v>1.29</v>
       </c>
       <c r="H228">
-        <v>-0.7</v>
+        <v>1.01</v>
       </c>
       <c r="I228">
-        <v>-1.53</v>
+        <v>-0.41</v>
       </c>
       <c r="J228">
-        <v>-1.39</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -8915,16 +8915,16 @@
         <v>-100</v>
       </c>
       <c r="G229">
-        <v>-0.82</v>
+        <v>1.21</v>
       </c>
       <c r="H229">
+        <v>0.96</v>
+      </c>
+      <c r="I229">
         <v>-0.28</v>
       </c>
-      <c r="I229">
-        <v>-1.04</v>
-      </c>
       <c r="J229">
-        <v>-0.81</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -8947,16 +8947,16 @@
         <v>-100</v>
       </c>
       <c r="G230">
-        <v>-0.9</v>
+        <v>1.24</v>
       </c>
       <c r="H230">
-        <v>-0.46</v>
+        <v>0.99</v>
       </c>
       <c r="I230">
-        <v>-1.26</v>
+        <v>-0.34</v>
       </c>
       <c r="J230">
-        <v>-1.07</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -8979,16 +8979,16 @@
         <v>-100</v>
       </c>
       <c r="G231">
-        <v>-0.98</v>
+        <v>1.31</v>
       </c>
       <c r="H231">
-        <v>-0.73</v>
+        <v>0.99</v>
       </c>
       <c r="I231">
-        <v>-1.57</v>
+        <v>-0.43</v>
       </c>
       <c r="J231">
-        <v>-1.47</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -9011,16 +9011,16 @@
         <v>-100</v>
       </c>
       <c r="G232">
-        <v>-0.98</v>
+        <v>1.31</v>
       </c>
       <c r="H232">
-        <v>-0.74</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>-1.58</v>
+        <v>-0.43</v>
       </c>
       <c r="J232">
-        <v>-1.47</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -9043,16 +9043,16 @@
         <v>-100</v>
       </c>
       <c r="G233">
-        <v>-0.62</v>
+        <v>1.11</v>
       </c>
       <c r="H233">
-        <v>-0.42</v>
+        <v>0.6</v>
       </c>
       <c r="I233">
-        <v>-1.11</v>
+        <v>-0.47</v>
       </c>
       <c r="J233">
-        <v>-0.78</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -9075,16 +9075,16 @@
         <v>-100</v>
       </c>
       <c r="G234">
-        <v>-0.65</v>
+        <v>1.12</v>
       </c>
       <c r="H234">
-        <v>-0.39</v>
+        <v>0.66</v>
       </c>
       <c r="I234">
-        <v>-1.09</v>
+        <v>-0.43</v>
       </c>
       <c r="J234">
-        <v>-0.79</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -9107,16 +9107,16 @@
         <v>-100</v>
       </c>
       <c r="G235">
-        <v>-0.73</v>
+        <v>1.19</v>
       </c>
       <c r="H235">
-        <v>-0.41</v>
+        <v>0.75</v>
       </c>
       <c r="I235">
-        <v>-1.1</v>
+        <v>-0.38</v>
       </c>
       <c r="J235">
-        <v>-0.85</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -9139,16 +9139,16 @@
         <v>-100</v>
       </c>
       <c r="G236">
-        <v>-0.81</v>
+        <v>1.25</v>
       </c>
       <c r="H236">
-        <v>-0.4</v>
+        <v>0.86</v>
       </c>
       <c r="I236">
-        <v>-1.07</v>
+        <v>-0.31</v>
       </c>
       <c r="J236">
-        <v>-0.87</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -9171,16 +9171,16 @@
         <v>-100</v>
       </c>
       <c r="G237">
-        <v>-0.67</v>
+        <v>1.43</v>
       </c>
       <c r="H237">
-        <v>-0.43</v>
+        <v>0.76</v>
       </c>
       <c r="I237">
-        <v>-1.84</v>
+        <v>-0.69</v>
       </c>
       <c r="J237">
-        <v>-1.87</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -9203,16 +9203,16 @@
         <v>-100</v>
       </c>
       <c r="G238">
-        <v>-0.88</v>
+        <v>1.27</v>
       </c>
       <c r="H238">
-        <v>-0.74</v>
+        <v>0.49</v>
       </c>
       <c r="I238">
-        <v>-1.54</v>
+        <v>-0.53</v>
       </c>
       <c r="J238">
-        <v>-3.07</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -9235,16 +9235,16 @@
         <v>-100</v>
       </c>
       <c r="G239">
-        <v>-0.75</v>
+        <v>1.34</v>
       </c>
       <c r="H239">
-        <v>-0.52</v>
+        <v>0.62</v>
       </c>
       <c r="I239">
-        <v>-1.65</v>
+        <v>-0.62</v>
       </c>
       <c r="J239">
-        <v>-2.25</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -9267,16 +9267,16 @@
         <v>-100</v>
       </c>
       <c r="G240">
-        <v>-0.89</v>
+        <v>1.3</v>
       </c>
       <c r="H240">
-        <v>-0.64</v>
+        <v>0.45</v>
       </c>
       <c r="I240">
-        <v>-1.37</v>
+        <v>-0.48</v>
       </c>
       <c r="J240">
-        <v>-2.67</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -9299,16 +9299,16 @@
         <v>-100</v>
       </c>
       <c r="G241">
-        <v>-0.89</v>
+        <v>1.27</v>
       </c>
       <c r="H241">
-        <v>-0.77</v>
+        <v>0.5</v>
       </c>
       <c r="I241">
-        <v>-1.57</v>
+        <v>-0.54</v>
       </c>
       <c r="J241">
-        <v>-3.19</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -9331,16 +9331,16 @@
         <v>-99.7</v>
       </c>
       <c r="G242">
-        <v>-0.72</v>
+        <v>1.15</v>
       </c>
       <c r="H242">
-        <v>-0.7</v>
+        <v>0.39</v>
       </c>
       <c r="I242">
-        <v>-1.31</v>
+        <v>-0.46</v>
       </c>
       <c r="J242">
-        <v>-2.06</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -9357,22 +9357,22 @@
         <v>-46.7</v>
       </c>
       <c r="E243">
-        <v>-55.8</v>
+        <v>-55.7</v>
       </c>
       <c r="F243">
-        <v>-100</v>
+        <v>-99.7</v>
       </c>
       <c r="G243">
-        <v>-0.76</v>
+        <v>1.23</v>
       </c>
       <c r="H243">
-        <v>-0.38</v>
+        <v>0.66</v>
       </c>
       <c r="I243">
-        <v>-1.68</v>
+        <v>-0.8</v>
       </c>
       <c r="J243">
-        <v>-2.94</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -9383,28 +9383,28 @@
         <v>252</v>
       </c>
       <c r="C244">
-        <v>-27.7</v>
+        <v>-27.5</v>
       </c>
       <c r="D244">
-        <v>-35</v>
+        <v>-34.7</v>
       </c>
       <c r="E244">
-        <v>-53.2</v>
+        <v>-52.5</v>
       </c>
       <c r="F244">
-        <v>-100</v>
+        <v>-98.3</v>
       </c>
       <c r="G244">
-        <v>-0.65</v>
+        <v>0.79</v>
       </c>
       <c r="H244">
-        <v>-1.2</v>
+        <v>-0.35</v>
       </c>
       <c r="I244">
-        <v>-2.1</v>
+        <v>-1.26</v>
       </c>
       <c r="J244">
-        <v>-1.59</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -9421,22 +9421,22 @@
         <v>-39.1</v>
       </c>
       <c r="E245">
-        <v>-56.6</v>
+        <v>-56.5</v>
       </c>
       <c r="F245">
-        <v>-100</v>
+        <v>-99.7</v>
       </c>
       <c r="G245">
-        <v>-0.67</v>
+        <v>0.71</v>
       </c>
       <c r="H245">
-        <v>-1.21</v>
+        <v>-0.41</v>
       </c>
       <c r="I245">
-        <v>-2.14</v>
+        <v>-1.31</v>
       </c>
       <c r="J245">
-        <v>-1.73</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -9459,16 +9459,16 @@
         <v>-100</v>
       </c>
       <c r="G246">
-        <v>-0.49</v>
+        <v>1.15</v>
       </c>
       <c r="H246">
-        <v>-0.36</v>
+        <v>0.54</v>
       </c>
       <c r="I246">
-        <v>-1.38</v>
+        <v>-0.69</v>
       </c>
       <c r="J246">
-        <v>-2.4</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -9482,25 +9482,25 @@
         <v>-28.7</v>
       </c>
       <c r="D247">
-        <v>-40.9</v>
+        <v>-40.8</v>
       </c>
       <c r="E247">
-        <v>-56.2</v>
+        <v>-56.1</v>
       </c>
       <c r="F247">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G247">
-        <v>-0.16</v>
+        <v>1.01</v>
       </c>
       <c r="H247">
-        <v>-0.77</v>
+        <v>-0.02</v>
       </c>
       <c r="I247">
-        <v>-1.93</v>
+        <v>-1.09</v>
       </c>
       <c r="J247">
-        <v>-0.85</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -9520,19 +9520,19 @@
         <v>-31.4</v>
       </c>
       <c r="F248">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G248">
-        <v>-0.84</v>
+        <v>0.91</v>
       </c>
       <c r="H248">
-        <v>-1.19</v>
+        <v>-0.18</v>
       </c>
       <c r="I248">
-        <v>-1.99</v>
+        <v>-1.16</v>
       </c>
       <c r="J248">
-        <v>-1.66</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -9555,16 +9555,16 @@
         <v>-100</v>
       </c>
       <c r="G249">
-        <v>-0.79</v>
+        <v>1.12</v>
       </c>
       <c r="H249">
-        <v>-0.81</v>
+        <v>0.3</v>
       </c>
       <c r="I249">
-        <v>-1.54</v>
+        <v>-0.68</v>
       </c>
       <c r="J249">
-        <v>-1.92</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -9587,16 +9587,16 @@
         <v>-100</v>
       </c>
       <c r="G250">
-        <v>-0.58</v>
+        <v>1.03</v>
       </c>
       <c r="H250">
-        <v>-0.38</v>
+        <v>0.48</v>
       </c>
       <c r="I250">
-        <v>-1.53</v>
+        <v>-0.92</v>
       </c>
       <c r="J250">
-        <v>-3.07</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -9619,16 +9619,16 @@
         <v>-100</v>
       </c>
       <c r="G251">
-        <v>-0.78</v>
+        <v>1.29</v>
       </c>
       <c r="H251">
-        <v>-0.6</v>
+        <v>0.58</v>
       </c>
       <c r="I251">
-        <v>-1.59</v>
+        <v>-0.59</v>
       </c>
       <c r="J251">
-        <v>-2.4</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -9651,16 +9651,16 @@
         <v>-100</v>
       </c>
       <c r="G252">
-        <v>-0.81</v>
+        <v>1.36</v>
       </c>
       <c r="H252">
-        <v>-0.57</v>
+        <v>0.53</v>
       </c>
       <c r="I252">
-        <v>-1.47</v>
+        <v>-0.54</v>
       </c>
       <c r="J252">
-        <v>-2.38</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -9683,16 +9683,16 @@
         <v>-100</v>
       </c>
       <c r="G253">
-        <v>-0.65</v>
+        <v>1.4</v>
       </c>
       <c r="H253">
-        <v>-0.44</v>
+        <v>0.74</v>
       </c>
       <c r="I253">
-        <v>-1.89</v>
+        <v>-0.74</v>
       </c>
       <c r="J253">
-        <v>-1.94</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -9715,16 +9715,16 @@
         <v>-99.8</v>
       </c>
       <c r="G254">
-        <v>-0.88</v>
+        <v>1.26</v>
       </c>
       <c r="H254">
-        <v>-0.76</v>
+        <v>0.49</v>
       </c>
       <c r="I254">
-        <v>-1.55</v>
+        <v>-0.53</v>
       </c>
       <c r="J254">
-        <v>-3.09</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -9747,16 +9747,16 @@
         <v>-100</v>
       </c>
       <c r="G255">
-        <v>-0.84</v>
+        <v>1.22</v>
       </c>
       <c r="H255">
-        <v>-0.72</v>
+        <v>0.48</v>
       </c>
       <c r="I255">
-        <v>-1.5</v>
+        <v>-0.54</v>
       </c>
       <c r="J255">
-        <v>-2.68</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -9779,16 +9779,16 @@
         <v>-100</v>
       </c>
       <c r="G256">
-        <v>-0.39</v>
+        <v>1.09</v>
       </c>
       <c r="H256">
-        <v>-0.93</v>
+        <v>0.07</v>
       </c>
       <c r="I256">
-        <v>-2.03</v>
+        <v>-0.99</v>
       </c>
       <c r="J256">
-        <v>-1.21</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -9808,19 +9808,19 @@
         <v>-52.8</v>
       </c>
       <c r="F257">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G257">
-        <v>-1.03</v>
+        <v>1.62</v>
       </c>
       <c r="H257">
-        <v>-0.43</v>
+        <v>0.9</v>
       </c>
       <c r="I257">
-        <v>-1.99</v>
+        <v>-0.62</v>
       </c>
       <c r="J257">
-        <v>-1.85</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -9843,16 +9843,16 @@
         <v>-99</v>
       </c>
       <c r="G258">
-        <v>-0.76</v>
+        <v>0.97</v>
       </c>
       <c r="H258">
-        <v>-1.1</v>
+        <v>-0.08</v>
       </c>
       <c r="I258">
-        <v>-1.75</v>
+        <v>-0.95</v>
       </c>
       <c r="J258">
-        <v>-1.49</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -9875,16 +9875,16 @@
         <v>-100</v>
       </c>
       <c r="G259">
-        <v>-0.88</v>
+        <v>1.27</v>
       </c>
       <c r="H259">
-        <v>-0.76</v>
+        <v>0.5</v>
       </c>
       <c r="I259">
-        <v>-1.55</v>
+        <v>-0.54</v>
       </c>
       <c r="J259">
-        <v>-3.11</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -9907,16 +9907,16 @@
         <v>-100</v>
       </c>
       <c r="G260">
-        <v>-0.78</v>
+        <v>1.2</v>
       </c>
       <c r="H260">
-        <v>-0.63</v>
+        <v>0.53</v>
       </c>
       <c r="I260">
-        <v>-1.39</v>
+        <v>-0.51</v>
       </c>
       <c r="J260">
-        <v>-2.22</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -9939,16 +9939,16 @@
         <v>-100</v>
       </c>
       <c r="G261">
-        <v>-0.86</v>
+        <v>0.94</v>
       </c>
       <c r="H261">
-        <v>-1.24</v>
+        <v>-0.19</v>
       </c>
       <c r="I261">
-        <v>-1.98</v>
+        <v>-1.15</v>
       </c>
       <c r="J261">
-        <v>-1.62</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -9971,16 +9971,16 @@
         <v>-100</v>
       </c>
       <c r="G262">
-        <v>-0.84</v>
+        <v>0.95</v>
       </c>
       <c r="H262">
-        <v>-1.22</v>
+        <v>-0.17</v>
       </c>
       <c r="I262">
-        <v>-1.93</v>
+        <v>-1.1</v>
       </c>
       <c r="J262">
-        <v>-1.58</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -10003,16 +10003,16 @@
         <v>-100</v>
       </c>
       <c r="G263">
-        <v>-0.91</v>
+        <v>1.12</v>
       </c>
       <c r="H263">
-        <v>-1.02</v>
+        <v>0.12</v>
       </c>
       <c r="I263">
-        <v>-1.81</v>
+        <v>-0.98</v>
       </c>
       <c r="J263">
-        <v>-1.5</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -10035,16 +10035,16 @@
         <v>-100</v>
       </c>
       <c r="G264">
-        <v>-0.88</v>
+        <v>1.11</v>
       </c>
       <c r="H264">
-        <v>-1.02</v>
+        <v>0.11</v>
       </c>
       <c r="I264">
-        <v>-1.85</v>
+        <v>-0.99</v>
       </c>
       <c r="J264">
-        <v>-1.51</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -10067,16 +10067,16 @@
         <v>-99.6</v>
       </c>
       <c r="G265">
-        <v>-0.82</v>
+        <v>1.01</v>
       </c>
       <c r="H265">
+        <v>-0.03</v>
+      </c>
+      <c r="I265">
+        <v>-0.99</v>
+      </c>
+      <c r="J265">
         <v>-1.09</v>
-      </c>
-      <c r="I265">
-        <v>-1.82</v>
-      </c>
-      <c r="J265">
-        <v>-1.54</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -10099,16 +10099,16 @@
         <v>-100</v>
       </c>
       <c r="G266">
-        <v>-0.85</v>
+        <v>1.02</v>
       </c>
       <c r="H266">
-        <v>-1.1</v>
+        <v>-0.02</v>
       </c>
       <c r="I266">
-        <v>-1.85</v>
+        <v>-1.02</v>
       </c>
       <c r="J266">
-        <v>-1.55</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -10131,16 +10131,16 @@
         <v>-100</v>
       </c>
       <c r="G267">
-        <v>-0.85</v>
+        <v>1.1</v>
       </c>
       <c r="H267">
-        <v>-0.97</v>
+        <v>0.14</v>
       </c>
       <c r="I267">
-        <v>-1.75</v>
+        <v>-0.91</v>
       </c>
       <c r="J267">
-        <v>-1.54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -10163,16 +10163,16 @@
         <v>-100</v>
       </c>
       <c r="G268">
-        <v>-0.57</v>
+        <v>1.08</v>
       </c>
       <c r="H268">
-        <v>-1.07</v>
+        <v>0.03</v>
       </c>
       <c r="I268">
-        <v>-2.12</v>
+        <v>-1.01</v>
       </c>
       <c r="J268">
-        <v>-1.5</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -10186,25 +10186,25 @@
         <v>-34.2</v>
       </c>
       <c r="D269">
-        <v>-44.5</v>
+        <v>-44.4</v>
       </c>
       <c r="E269">
-        <v>-50.8</v>
+        <v>-50.6</v>
       </c>
       <c r="F269">
-        <v>-100</v>
+        <v>-99.6</v>
       </c>
       <c r="G269">
-        <v>-0.72</v>
+        <v>0.76</v>
       </c>
       <c r="H269">
-        <v>-1.23</v>
+        <v>-0.36</v>
       </c>
       <c r="I269">
-        <v>-2.15</v>
+        <v>-1.27</v>
       </c>
       <c r="J269">
-        <v>-1.77</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -10227,16 +10227,16 @@
         <v>-100</v>
       </c>
       <c r="G270">
-        <v>-0.7</v>
+        <v>1.14</v>
       </c>
       <c r="H270">
-        <v>-0.55</v>
+        <v>0.53</v>
       </c>
       <c r="I270">
-        <v>-1.27</v>
+        <v>-0.52</v>
       </c>
       <c r="J270">
-        <v>-1.32</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -10259,16 +10259,16 @@
         <v>-100</v>
       </c>
       <c r="G271">
-        <v>-0.79</v>
+        <v>1.14</v>
       </c>
       <c r="H271">
-        <v>-0.78</v>
+        <v>0.34</v>
       </c>
       <c r="I271">
-        <v>-1.56</v>
+        <v>-0.72</v>
       </c>
       <c r="J271">
-        <v>-1.55</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -10291,16 +10291,16 @@
         <v>-100</v>
       </c>
       <c r="G272">
-        <v>-0.62</v>
+        <v>1.21</v>
       </c>
       <c r="H272">
-        <v>-1.03</v>
+        <v>0.19</v>
       </c>
       <c r="I272">
-        <v>-2.09</v>
+        <v>-0.91</v>
       </c>
       <c r="J272">
-        <v>-1.47</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -10323,16 +10323,16 @@
         <v>-100</v>
       </c>
       <c r="G273">
-        <v>-0.53</v>
+        <v>1.26</v>
       </c>
       <c r="H273">
-        <v>-1.02</v>
+        <v>0.26</v>
       </c>
       <c r="I273">
-        <v>-2.15</v>
+        <v>-0.86</v>
       </c>
       <c r="J273">
-        <v>-1.44</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -10355,16 +10355,16 @@
         <v>-100</v>
       </c>
       <c r="G274">
+        <v>1.14</v>
+      </c>
+      <c r="H274">
+        <v>0.58</v>
+      </c>
+      <c r="I274">
+        <v>-0.48</v>
+      </c>
+      <c r="J274">
         <v>-0.67</v>
-      </c>
-      <c r="H274">
-        <v>-0.48</v>
-      </c>
-      <c r="I274">
-        <v>-1.21</v>
-      </c>
-      <c r="J274">
-        <v>-1.22</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -10387,16 +10387,16 @@
         <v>-99.8</v>
       </c>
       <c r="G275">
-        <v>-0.66</v>
+        <v>1.25</v>
       </c>
       <c r="H275">
-        <v>-0.65</v>
+        <v>0.57</v>
       </c>
       <c r="I275">
-        <v>-1.58</v>
+        <v>-0.58</v>
       </c>
       <c r="J275">
-        <v>-1.49</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -10419,16 +10419,16 @@
         <v>-100</v>
       </c>
       <c r="G276">
-        <v>-0.73</v>
+        <v>1.59</v>
       </c>
       <c r="H276">
-        <v>-0.2</v>
+        <v>1.16</v>
       </c>
       <c r="I276">
-        <v>-1.02</v>
+        <v>0.09</v>
       </c>
       <c r="J276">
-        <v>-1.52</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -10451,16 +10451,16 @@
         <v>-100</v>
       </c>
       <c r="G277">
-        <v>-0.87</v>
+        <v>1.36</v>
       </c>
       <c r="H277">
-        <v>-0.66</v>
+        <v>0.78</v>
       </c>
       <c r="I277">
-        <v>-1.23</v>
+        <v>-0.36</v>
       </c>
       <c r="J277">
-        <v>-1.1</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -10483,16 +10483,16 @@
         <v>-100</v>
       </c>
       <c r="G278">
-        <v>-0.8</v>
+        <v>1.17</v>
       </c>
       <c r="H278">
-        <v>-0.16</v>
+        <v>0.97</v>
       </c>
       <c r="I278">
-        <v>-0.92</v>
+        <v>-0.24</v>
       </c>
       <c r="J278">
-        <v>-0.65</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -10515,16 +10515,16 @@
         <v>-100</v>
       </c>
       <c r="G279">
-        <v>-0.86</v>
+        <v>1.42</v>
       </c>
       <c r="H279">
-        <v>-0.78</v>
+        <v>0.73</v>
       </c>
       <c r="I279">
-        <v>-1.31</v>
+        <v>-0.4</v>
       </c>
       <c r="J279">
-        <v>-1.24</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -10547,16 +10547,16 @@
         <v>-100</v>
       </c>
       <c r="G280">
-        <v>-0.82</v>
+        <v>1.2</v>
       </c>
       <c r="H280">
-        <v>-0.35</v>
+        <v>0.93</v>
       </c>
       <c r="I280">
-        <v>-1.15</v>
+        <v>-0.33</v>
       </c>
       <c r="J280">
-        <v>-0.94</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -10579,16 +10579,16 @@
         <v>-100</v>
       </c>
       <c r="G281">
-        <v>-0.86</v>
+        <v>1.19</v>
       </c>
       <c r="H281">
-        <v>-0.3</v>
+        <v>1.01</v>
       </c>
       <c r="I281">
-        <v>-1.11</v>
+        <v>-0.29</v>
       </c>
       <c r="J281">
-        <v>-0.88</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -10611,16 +10611,16 @@
         <v>-100</v>
       </c>
       <c r="G282">
-        <v>-0.95</v>
+        <v>1.25</v>
       </c>
       <c r="H282">
-        <v>-0.62</v>
+        <v>0.74</v>
       </c>
       <c r="I282">
-        <v>-1.43</v>
+        <v>-0.36</v>
       </c>
       <c r="J282">
-        <v>-1.68</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -10643,16 +10643,16 @@
         <v>-100</v>
       </c>
       <c r="G283">
-        <v>-0.68</v>
+        <v>1.52</v>
       </c>
       <c r="H283">
-        <v>-0.17</v>
+        <v>1.19</v>
       </c>
       <c r="I283">
-        <v>-0.97</v>
+        <v>0.11</v>
       </c>
       <c r="J283">
-        <v>-1.87</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -10675,16 +10675,16 @@
         <v>-100</v>
       </c>
       <c r="G284">
-        <v>-1.03</v>
+        <v>1.14</v>
       </c>
       <c r="H284">
-        <v>-0.77</v>
+        <v>0.6</v>
       </c>
       <c r="I284">
-        <v>-1.58</v>
+        <v>-0.51</v>
       </c>
       <c r="J284">
-        <v>-1.82</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -10707,16 +10707,16 @@
         <v>-100</v>
       </c>
       <c r="G285">
-        <v>-0.9</v>
+        <v>1.25</v>
       </c>
       <c r="H285">
-        <v>-0.52</v>
+        <v>0.97</v>
       </c>
       <c r="I285">
-        <v>-1.34</v>
+        <v>-0.37</v>
       </c>
       <c r="J285">
-        <v>-1.19</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -10739,16 +10739,16 @@
         <v>-100</v>
       </c>
       <c r="G286">
-        <v>-0.79</v>
+        <v>1.14</v>
       </c>
       <c r="H286">
-        <v>-0.09</v>
+        <v>1</v>
       </c>
       <c r="I286">
-        <v>-0.89</v>
+        <v>-0.22</v>
       </c>
       <c r="J286">
-        <v>-0.6</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -10771,16 +10771,16 @@
         <v>-100</v>
       </c>
       <c r="G287">
-        <v>-0.79</v>
+        <v>1.14</v>
       </c>
       <c r="H287">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="I287">
-        <v>-0.9</v>
+        <v>-0.23</v>
       </c>
       <c r="J287">
-        <v>-0.61</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -10803,16 +10803,16 @@
         <v>-100</v>
       </c>
       <c r="G288">
-        <v>-0.78</v>
+        <v>1.14</v>
       </c>
       <c r="H288">
-        <v>-0.07</v>
+        <v>1</v>
       </c>
       <c r="I288">
-        <v>-0.87</v>
+        <v>-0.22</v>
       </c>
       <c r="J288">
-        <v>-0.58</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -10832,19 +10832,19 @@
         <v>-52.2</v>
       </c>
       <c r="F289">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G289">
-        <v>-0.79</v>
+        <v>1.32</v>
       </c>
       <c r="H289">
-        <v>-0.47</v>
+        <v>0.82</v>
       </c>
       <c r="I289">
-        <v>-1.36</v>
+        <v>-0.4</v>
       </c>
       <c r="J289">
-        <v>-1.56</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -10867,16 +10867,16 @@
         <v>-100</v>
       </c>
       <c r="G290">
-        <v>-0.88</v>
+        <v>1.31</v>
       </c>
       <c r="H290">
-        <v>-0.58</v>
+        <v>0.9</v>
       </c>
       <c r="I290">
-        <v>-1.44</v>
+        <v>-0.41</v>
       </c>
       <c r="J290">
-        <v>-1.47</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -10899,16 +10899,16 @@
         <v>-100</v>
       </c>
       <c r="G291">
-        <v>-0.8</v>
+        <v>1.33</v>
       </c>
       <c r="H291">
-        <v>-0.48</v>
+        <v>0.83</v>
       </c>
       <c r="I291">
-        <v>-1.38</v>
+        <v>-0.4</v>
       </c>
       <c r="J291">
-        <v>-1.59</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -10931,16 +10931,16 @@
         <v>-100</v>
       </c>
       <c r="G292">
-        <v>-0.82</v>
+        <v>1.65</v>
       </c>
       <c r="H292">
-        <v>-0.82</v>
+        <v>0.65</v>
       </c>
       <c r="I292">
-        <v>-1.46</v>
+        <v>-0.4</v>
       </c>
       <c r="J292">
-        <v>-1.62</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -10963,16 +10963,16 @@
         <v>-100</v>
       </c>
       <c r="G293">
-        <v>-0.7</v>
+        <v>1.68</v>
       </c>
       <c r="H293">
-        <v>-1.09</v>
+        <v>0.47</v>
       </c>
       <c r="I293">
-        <v>-1.58</v>
+        <v>-0.58</v>
       </c>
       <c r="J293">
-        <v>-1.81</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -10995,16 +10995,16 @@
         <v>-100</v>
       </c>
       <c r="G294">
-        <v>-0.89</v>
+        <v>1.41</v>
       </c>
       <c r="H294">
-        <v>-1</v>
+        <v>0.47</v>
       </c>
       <c r="I294">
-        <v>-1.63</v>
+        <v>-0.61</v>
       </c>
       <c r="J294">
-        <v>-1.72</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -11027,16 +11027,16 @@
         <v>-100</v>
       </c>
       <c r="G295">
-        <v>-0.81</v>
+        <v>1.56</v>
       </c>
       <c r="H295">
-        <v>-0.74</v>
+        <v>0.71</v>
       </c>
       <c r="I295">
-        <v>-1.41</v>
+        <v>-0.4</v>
       </c>
       <c r="J295">
-        <v>-1.46</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -11059,16 +11059,16 @@
         <v>-100</v>
       </c>
       <c r="G296">
-        <v>-0.99</v>
+        <v>0.82</v>
       </c>
       <c r="H296">
-        <v>-0.23</v>
+        <v>0.51</v>
       </c>
       <c r="I296">
-        <v>-1.06</v>
+        <v>-0.42</v>
       </c>
       <c r="J296">
-        <v>-1.75</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -11088,19 +11088,19 @@
         <v>-28.3</v>
       </c>
       <c r="F297">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G297">
-        <v>-0.48</v>
+        <v>0.79</v>
       </c>
       <c r="H297">
-        <v>-0.35</v>
+        <v>0.27</v>
       </c>
       <c r="I297">
-        <v>-0.76</v>
+        <v>-0.29</v>
       </c>
       <c r="J297">
-        <v>-0.84</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -11120,19 +11120,19 @@
         <v>-30.5</v>
       </c>
       <c r="F298">
-        <v>-98.8</v>
+        <v>-98.7</v>
       </c>
       <c r="G298">
-        <v>-0.46</v>
+        <v>0.78</v>
       </c>
       <c r="H298">
-        <v>-0.17</v>
+        <v>0.43</v>
       </c>
       <c r="I298">
-        <v>-0.83</v>
+        <v>-0.34</v>
       </c>
       <c r="J298">
-        <v>-0.96</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -11155,16 +11155,16 @@
         <v>-100</v>
       </c>
       <c r="G299">
-        <v>-0.45</v>
+        <v>0.85</v>
       </c>
       <c r="H299">
+        <v>0.34</v>
+      </c>
+      <c r="I299">
         <v>-0.29</v>
       </c>
-      <c r="I299">
-        <v>-0.78</v>
-      </c>
       <c r="J299">
-        <v>-0.88</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -11187,16 +11187,16 @@
         <v>-99.9</v>
       </c>
       <c r="G300">
-        <v>-0.85</v>
+        <v>1.19</v>
       </c>
       <c r="H300">
-        <v>-0.94</v>
+        <v>0.25</v>
       </c>
       <c r="I300">
-        <v>-1.79</v>
+        <v>-0.88</v>
       </c>
       <c r="J300">
-        <v>-1.48</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="301" spans="1:10">
@@ -11213,22 +11213,22 @@
         <v>-39.9</v>
       </c>
       <c r="E301">
-        <v>-35.8</v>
+        <v>-35.6</v>
       </c>
       <c r="F301">
-        <v>-100</v>
+        <v>-99.6</v>
       </c>
       <c r="G301">
-        <v>-0.17</v>
+        <v>1.04</v>
       </c>
       <c r="H301">
-        <v>-0.78</v>
+        <v>0.03</v>
       </c>
       <c r="I301">
-        <v>-1.93</v>
+        <v>-1.05</v>
       </c>
       <c r="J301">
-        <v>-0.87</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="302" spans="1:10">
@@ -11248,19 +11248,19 @@
         <v>-27.3</v>
       </c>
       <c r="F302">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G302">
-        <v>-0.33</v>
+        <v>1.14</v>
       </c>
       <c r="H302">
-        <v>-0.58</v>
+        <v>0.32</v>
       </c>
       <c r="I302">
-        <v>-0.78</v>
+        <v>-0.15</v>
       </c>
       <c r="J302">
-        <v>-0.49</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -11271,28 +11271,28 @@
         <v>311</v>
       </c>
       <c r="C303">
-        <v>-11.8</v>
+        <v>-11.7</v>
       </c>
       <c r="D303">
-        <v>-11.7</v>
+        <v>-11.6</v>
       </c>
       <c r="E303">
-        <v>-34.6</v>
+        <v>-34.4</v>
       </c>
       <c r="F303">
-        <v>-99.9</v>
+        <v>-99.5</v>
       </c>
       <c r="G303">
-        <v>-0.53</v>
+        <v>0.68</v>
       </c>
       <c r="H303">
-        <v>-0.41</v>
+        <v>0.18</v>
       </c>
       <c r="I303">
-        <v>-0.73</v>
+        <v>-0.28</v>
       </c>
       <c r="J303">
-        <v>-0.73</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -11315,16 +11315,16 @@
         <v>-100</v>
       </c>
       <c r="G304">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="H304">
-        <v>-0.32</v>
+        <v>0.42</v>
       </c>
       <c r="I304">
-        <v>-0.57</v>
+        <v>-0.14</v>
       </c>
       <c r="J304">
-        <v>-1.14</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -11347,16 +11347,16 @@
         <v>-94.9</v>
       </c>
       <c r="G305">
-        <v>-0.25</v>
+        <v>0.47</v>
       </c>
       <c r="H305">
-        <v>-0.45</v>
+        <v>-0.06</v>
       </c>
       <c r="I305">
-        <v>-2.06</v>
+        <v>-1.82</v>
       </c>
       <c r="J305">
-        <v>-1.52</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -11379,16 +11379,16 @@
         <v>-97.5</v>
       </c>
       <c r="G306">
-        <v>-0.29</v>
+        <v>0.78</v>
       </c>
       <c r="H306">
-        <v>-0.51</v>
+        <v>0.14</v>
       </c>
       <c r="I306">
-        <v>-2.39</v>
+        <v>-1.84</v>
       </c>
       <c r="J306">
-        <v>-1.97</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -11411,16 +11411,16 @@
         <v>-100</v>
       </c>
       <c r="G307">
-        <v>-0.42</v>
+        <v>0.99</v>
       </c>
       <c r="H307">
-        <v>-0.29</v>
+        <v>0.4</v>
       </c>
       <c r="I307">
-        <v>-0.78</v>
+        <v>-0.26</v>
       </c>
       <c r="J307">
-        <v>-0.85</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -11443,16 +11443,16 @@
         <v>-100</v>
       </c>
       <c r="G308">
-        <v>-0.34</v>
+        <v>1.08</v>
       </c>
       <c r="H308">
-        <v>-0.32</v>
+        <v>0.38</v>
       </c>
       <c r="I308">
-        <v>-0.66</v>
+        <v>-0.2</v>
       </c>
       <c r="J308">
-        <v>-0.99</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -11475,16 +11475,16 @@
         <v>-100</v>
       </c>
       <c r="G309">
-        <v>-0.73</v>
+        <v>0.8</v>
       </c>
       <c r="H309">
-        <v>-0.23</v>
+        <v>0.5</v>
       </c>
       <c r="I309">
-        <v>-1.1</v>
+        <v>-0.46</v>
       </c>
       <c r="J309">
-        <v>-1.93</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -11507,16 +11507,16 @@
         <v>-100</v>
       </c>
       <c r="G310">
-        <v>-0.68</v>
+        <v>1.02</v>
       </c>
       <c r="H310">
-        <v>-0.23</v>
+        <v>0.69</v>
       </c>
       <c r="I310">
-        <v>-1.34</v>
+        <v>-0.47</v>
       </c>
       <c r="J310">
-        <v>-2.14</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -11539,16 +11539,16 @@
         <v>-100</v>
       </c>
       <c r="G311">
-        <v>-0.64</v>
+        <v>0.69</v>
       </c>
       <c r="H311">
-        <v>-0.18</v>
+        <v>0.43</v>
       </c>
       <c r="I311">
-        <v>-1.02</v>
+        <v>-0.42</v>
       </c>
       <c r="J311">
-        <v>-0.67</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -11571,16 +11571,16 @@
         <v>-100</v>
       </c>
       <c r="G312">
-        <v>-0.78</v>
+        <v>0.61</v>
       </c>
       <c r="H312">
-        <v>-0.13</v>
+        <v>0.42</v>
       </c>
       <c r="I312">
-        <v>-0.97</v>
+        <v>-0.44</v>
       </c>
       <c r="J312">
-        <v>-0.86</v>
+        <v>-0.56</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -11603,16 +11603,16 @@
         <v>-100</v>
       </c>
       <c r="G313">
-        <v>-0.95</v>
+        <v>0.64</v>
       </c>
       <c r="H313">
-        <v>-0.3</v>
+        <v>0.32</v>
       </c>
       <c r="I313">
-        <v>-0.97</v>
+        <v>-0.42</v>
       </c>
       <c r="J313">
-        <v>-0.86</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -11635,16 +11635,16 @@
         <v>-100</v>
       </c>
       <c r="G314">
-        <v>-0.7</v>
+        <v>1.04</v>
       </c>
       <c r="H314">
-        <v>-0.12</v>
+        <v>0.74</v>
       </c>
       <c r="I314">
-        <v>-1.83</v>
+        <v>-0.87</v>
       </c>
       <c r="J314">
-        <v>-1.74</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -11667,16 +11667,16 @@
         <v>-99.9</v>
       </c>
       <c r="G315">
-        <v>-0.35</v>
+        <v>1.1</v>
       </c>
       <c r="H315">
+        <v>0.38</v>
+      </c>
+      <c r="I315">
+        <v>-0.19</v>
+      </c>
+      <c r="J315">
         <v>-0.41</v>
-      </c>
-      <c r="I315">
-        <v>-0.74</v>
-      </c>
-      <c r="J315">
-        <v>-0.72</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -11699,16 +11699,16 @@
         <v>-100</v>
       </c>
       <c r="G316">
-        <v>-0.98</v>
+        <v>1.29</v>
       </c>
       <c r="H316">
-        <v>-0.7</v>
+        <v>1</v>
       </c>
       <c r="I316">
-        <v>-1.53</v>
+        <v>-0.41</v>
       </c>
       <c r="J316">
-        <v>-1.4</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -11731,16 +11731,16 @@
         <v>-100</v>
       </c>
       <c r="G317">
-        <v>-1.4</v>
+        <v>0.74</v>
       </c>
       <c r="H317">
-        <v>-0.58</v>
+        <v>0.26</v>
       </c>
       <c r="I317">
-        <v>-1.22</v>
+        <v>-0.54</v>
       </c>
       <c r="J317">
-        <v>-2.03</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -11763,16 +11763,16 @@
         <v>-100</v>
       </c>
       <c r="G318">
-        <v>-0.91</v>
+        <v>1.25</v>
       </c>
       <c r="H318">
-        <v>-0.76</v>
+        <v>0.49</v>
       </c>
       <c r="I318">
-        <v>-1.55</v>
+        <v>-0.54</v>
       </c>
       <c r="J318">
-        <v>-3.14</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -11795,16 +11795,16 @@
         <v>-100</v>
       </c>
       <c r="G319">
-        <v>-0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H319">
-        <v>-0.26</v>
+        <v>0.24</v>
       </c>
       <c r="I319">
-        <v>-1.86</v>
+        <v>-1.37</v>
       </c>
       <c r="J319">
-        <v>-1.64</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -11827,16 +11827,16 @@
         <v>-99.9</v>
       </c>
       <c r="G320">
-        <v>-0.62</v>
+        <v>1.11</v>
       </c>
       <c r="H320">
-        <v>-0.43</v>
+        <v>0.6</v>
       </c>
       <c r="I320">
-        <v>-1.12</v>
+        <v>-0.47</v>
       </c>
       <c r="J320">
-        <v>-0.85</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -11859,16 +11859,16 @@
         <v>-100</v>
       </c>
       <c r="G321">
-        <v>-0.46</v>
+        <v>1.19</v>
       </c>
       <c r="H321">
-        <v>-0.98</v>
+        <v>0.23</v>
       </c>
       <c r="I321">
-        <v>-2.06</v>
+        <v>-0.85</v>
       </c>
       <c r="J321">
-        <v>-1.32</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -11891,16 +11891,16 @@
         <v>-100</v>
       </c>
       <c r="G322">
+        <v>1.16</v>
+      </c>
+      <c r="H322">
+        <v>0.23</v>
+      </c>
+      <c r="I322">
         <v>-0.89</v>
       </c>
-      <c r="H322">
-        <v>-0.94</v>
-      </c>
-      <c r="I322">
-        <v>-1.74</v>
-      </c>
       <c r="J322">
-        <v>-1.49</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -11923,16 +11923,16 @@
         <v>-100</v>
       </c>
       <c r="G323">
-        <v>-1.04</v>
+        <v>2.03</v>
       </c>
       <c r="H323">
-        <v>-0.19</v>
+        <v>1.16</v>
       </c>
       <c r="I323">
-        <v>-1.12</v>
+        <v>0.19</v>
       </c>
       <c r="J323">
-        <v>-1.2</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -11955,16 +11955,16 @@
         <v>-100</v>
       </c>
       <c r="G324">
-        <v>-0.83</v>
+        <v>1.17</v>
       </c>
       <c r="H324">
-        <v>-0.82</v>
+        <v>0.34</v>
       </c>
       <c r="I324">
-        <v>-1.63</v>
+        <v>-0.76</v>
       </c>
       <c r="J324">
-        <v>-1.51</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -11987,16 +11987,16 @@
         <v>-100</v>
       </c>
       <c r="G325">
-        <v>-0.65</v>
+        <v>1.23</v>
       </c>
       <c r="H325">
-        <v>-0.45</v>
+        <v>0.66</v>
       </c>
       <c r="I325">
-        <v>-1.39</v>
+        <v>-0.55</v>
       </c>
       <c r="J325">
-        <v>-1.26</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -12019,16 +12019,16 @@
         <v>-100</v>
       </c>
       <c r="G326">
-        <v>-0.6</v>
+        <v>1.61</v>
       </c>
       <c r="H326">
-        <v>-0.01</v>
+        <v>1.26</v>
       </c>
       <c r="I326">
-        <v>-0.94</v>
+        <v>0.11</v>
       </c>
       <c r="J326">
-        <v>-2.26</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -12051,16 +12051,16 @@
         <v>-100</v>
       </c>
       <c r="G327">
-        <v>-0.5</v>
+        <v>1.73</v>
       </c>
       <c r="H327">
-        <v>0.16</v>
+        <v>1.54</v>
       </c>
       <c r="I327">
-        <v>-0.65</v>
+        <v>0.46</v>
       </c>
       <c r="J327">
-        <v>-2.06</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -12083,16 +12083,16 @@
         <v>-100</v>
       </c>
       <c r="G328">
-        <v>-0.82</v>
+        <v>1.24</v>
       </c>
       <c r="H328">
-        <v>-0.71</v>
+        <v>0.5</v>
       </c>
       <c r="I328">
-        <v>-1.56</v>
+        <v>-0.66</v>
       </c>
       <c r="J328">
-        <v>-1.54</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -12115,16 +12115,16 @@
         <v>-100</v>
       </c>
       <c r="G329">
-        <v>-0.74</v>
+        <v>1.16</v>
       </c>
       <c r="H329">
-        <v>-0.62</v>
+        <v>0.49</v>
       </c>
       <c r="I329">
-        <v>-1.4</v>
+        <v>-0.59</v>
       </c>
       <c r="J329">
-        <v>-1.35</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -12147,16 +12147,16 @@
         <v>-100</v>
       </c>
       <c r="G330">
-        <v>-0.68</v>
+        <v>1.15</v>
       </c>
       <c r="H330">
+        <v>0.6</v>
+      </c>
+      <c r="I330">
         <v>-0.49</v>
       </c>
-      <c r="I330">
-        <v>-1.23</v>
-      </c>
       <c r="J330">
-        <v>-1.08</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -12179,16 +12179,16 @@
         <v>-99.9</v>
       </c>
       <c r="G331">
-        <v>-0.55</v>
+        <v>1.28</v>
       </c>
       <c r="H331">
-        <v>-1.01</v>
+        <v>0.27</v>
       </c>
       <c r="I331">
-        <v>-2.13</v>
+        <v>-0.85</v>
       </c>
       <c r="J331">
-        <v>-1.43</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -12211,16 +12211,16 @@
         <v>-100</v>
       </c>
       <c r="G332">
-        <v>-0.36</v>
+        <v>1.03</v>
       </c>
       <c r="H332">
-        <v>-0.93</v>
+        <v>0.14</v>
       </c>
       <c r="I332">
-        <v>-1.91</v>
+        <v>-0.87</v>
       </c>
       <c r="J332">
-        <v>-1.16</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -12243,16 +12243,16 @@
         <v>-100</v>
       </c>
       <c r="G333">
-        <v>-0.78</v>
+        <v>1.17</v>
       </c>
       <c r="H333">
-        <v>-0.29</v>
+        <v>0.89</v>
       </c>
       <c r="I333">
-        <v>-1.07</v>
+        <v>-0.32</v>
       </c>
       <c r="J333">
-        <v>-0.83</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="334" spans="1:10">
@@ -12275,16 +12275,16 @@
         <v>-100</v>
       </c>
       <c r="G334">
-        <v>-0.8</v>
+        <v>1.31</v>
       </c>
       <c r="H334">
-        <v>-0.6</v>
+        <v>0.74</v>
       </c>
       <c r="I334">
-        <v>-1.21</v>
+        <v>-0.39</v>
       </c>
       <c r="J334">
-        <v>-1.06</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -12307,16 +12307,16 @@
         <v>-100</v>
       </c>
       <c r="G335">
-        <v>-0.86</v>
+        <v>1.36</v>
       </c>
       <c r="H335">
-        <v>-0.67</v>
+        <v>0.77</v>
       </c>
       <c r="I335">
-        <v>-1.24</v>
+        <v>-0.37</v>
       </c>
       <c r="J335">
-        <v>-1.12</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -12339,16 +12339,16 @@
         <v>-100</v>
       </c>
       <c r="G336">
-        <v>-0.8</v>
+        <v>1.24</v>
       </c>
       <c r="H336">
-        <v>-0.47</v>
+        <v>0.82</v>
       </c>
       <c r="I336">
-        <v>-1.28</v>
+        <v>-0.4</v>
       </c>
       <c r="J336">
-        <v>-1.21</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="337" spans="1:10">
@@ -12371,16 +12371,16 @@
         <v>-100</v>
       </c>
       <c r="G337">
-        <v>-0.99</v>
+        <v>1.96</v>
       </c>
       <c r="H337">
-        <v>-0.28</v>
+        <v>1.09</v>
       </c>
       <c r="I337">
-        <v>-1.15</v>
+        <v>0.11</v>
       </c>
       <c r="J337">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="338" spans="1:10">
@@ -12403,16 +12403,16 @@
         <v>-100</v>
       </c>
       <c r="G338">
-        <v>-0.58</v>
+        <v>1.74</v>
       </c>
       <c r="H338">
-        <v>0.07</v>
+        <v>1.44</v>
       </c>
       <c r="I338">
-        <v>-0.72</v>
+        <v>0.4</v>
       </c>
       <c r="J338">
-        <v>-1.47</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="339" spans="1:10">
@@ -12435,16 +12435,16 @@
         <v>-100</v>
       </c>
       <c r="G339">
-        <v>-0.78</v>
+        <v>1.61</v>
       </c>
       <c r="H339">
-        <v>-0.25</v>
+        <v>1.11</v>
       </c>
       <c r="I339">
-        <v>-1.07</v>
+        <v>0.04</v>
       </c>
       <c r="J339">
-        <v>-1.45</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="340" spans="1:10">
@@ -12467,16 +12467,16 @@
         <v>-100</v>
       </c>
       <c r="G340">
-        <v>-0.48</v>
+        <v>1.72</v>
       </c>
       <c r="H340">
-        <v>0.16</v>
+        <v>1.54</v>
       </c>
       <c r="I340">
-        <v>-0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J340">
-        <v>-1.82</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="341" spans="1:10">
@@ -12499,16 +12499,16 @@
         <v>-99.7</v>
       </c>
       <c r="G341">
-        <v>-0.51</v>
+        <v>1.15</v>
       </c>
       <c r="H341">
-        <v>-0.84</v>
+        <v>0.31</v>
       </c>
       <c r="I341">
-        <v>-1.82</v>
+        <v>-0.77</v>
       </c>
       <c r="J341">
-        <v>-1.33</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="342" spans="1:10">
@@ -12531,16 +12531,16 @@
         <v>-98.8</v>
       </c>
       <c r="G342">
-        <v>-0.66</v>
+        <v>1.26</v>
       </c>
       <c r="H342">
-        <v>-0.67</v>
+        <v>0.56</v>
       </c>
       <c r="I342">
-        <v>-1.62</v>
+        <v>-0.6</v>
       </c>
       <c r="J342">
-        <v>-1.5</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="343" spans="1:10">
@@ -12563,16 +12563,16 @@
         <v>-100</v>
       </c>
       <c r="G343">
-        <v>-0.77</v>
+        <v>1.15</v>
       </c>
       <c r="H343">
-        <v>-0.16</v>
+        <v>0.94</v>
       </c>
       <c r="I343">
-        <v>-0.93</v>
+        <v>-0.26</v>
       </c>
       <c r="J343">
-        <v>-0.65</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="344" spans="1:10">
@@ -12595,16 +12595,16 @@
         <v>-100</v>
       </c>
       <c r="G344">
-        <v>-0.85</v>
+        <v>1.42</v>
       </c>
       <c r="H344">
-        <v>-0.76</v>
+        <v>0.73</v>
       </c>
       <c r="I344">
-        <v>-1.31</v>
+        <v>-0.4</v>
       </c>
       <c r="J344">
-        <v>-1.24</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="345" spans="1:10">
@@ -12627,16 +12627,16 @@
         <v>-100</v>
       </c>
       <c r="G345">
-        <v>-0.86</v>
+        <v>1.39</v>
       </c>
       <c r="H345">
-        <v>-0.73</v>
+        <v>0.75</v>
       </c>
       <c r="I345">
-        <v>-1.28</v>
+        <v>-0.38</v>
       </c>
       <c r="J345">
-        <v>-1.19</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="346" spans="1:10">
@@ -12659,16 +12659,16 @@
         <v>-100</v>
       </c>
       <c r="G346">
-        <v>-0.79</v>
+        <v>1.63</v>
       </c>
       <c r="H346">
-        <v>-0.84</v>
+        <v>0.65</v>
       </c>
       <c r="I346">
-        <v>-1.44</v>
+        <v>-0.43</v>
       </c>
       <c r="J346">
-        <v>-1.56</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="347" spans="1:10">
@@ -12691,16 +12691,16 @@
         <v>-100</v>
       </c>
       <c r="G347">
-        <v>-0.71</v>
+        <v>1.66</v>
       </c>
       <c r="H347">
-        <v>-1.07</v>
+        <v>0.49</v>
       </c>
       <c r="I347">
-        <v>-1.56</v>
+        <v>-0.56</v>
       </c>
       <c r="J347">
-        <v>-1.77</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="348" spans="1:10">
@@ -12723,16 +12723,16 @@
         <v>-100</v>
       </c>
       <c r="G348">
-        <v>-0.73</v>
+        <v>1.64</v>
       </c>
       <c r="H348">
-        <v>-1.06</v>
+        <v>0.49</v>
       </c>
       <c r="I348">
-        <v>-1.56</v>
+        <v>-0.57</v>
       </c>
       <c r="J348">
-        <v>-1.76</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="349" spans="1:10">
@@ -12755,16 +12755,16 @@
         <v>-100</v>
       </c>
       <c r="G349">
-        <v>-0.78</v>
+        <v>1.55</v>
       </c>
       <c r="H349">
-        <v>-1.01</v>
+        <v>0.51</v>
       </c>
       <c r="I349">
-        <v>-1.56</v>
+        <v>-0.57</v>
       </c>
       <c r="J349">
-        <v>-1.7</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="350" spans="1:10">
@@ -12787,16 +12787,16 @@
         <v>-100</v>
       </c>
       <c r="G350">
-        <v>-0.88</v>
+        <v>1.41</v>
       </c>
       <c r="H350">
-        <v>-1.01</v>
+        <v>0.47</v>
       </c>
       <c r="I350">
-        <v>-1.63</v>
+        <v>-0.61</v>
       </c>
       <c r="J350">
-        <v>-1.71</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="351" spans="1:10">
@@ -12819,16 +12819,16 @@
         <v>-100</v>
       </c>
       <c r="G351">
+        <v>1.13</v>
+      </c>
+      <c r="H351">
+        <v>0.41</v>
+      </c>
+      <c r="I351">
+        <v>-0.7</v>
+      </c>
+      <c r="J351">
         <v>-1.08</v>
-      </c>
-      <c r="H351">
-        <v>-1</v>
-      </c>
-      <c r="I351">
-        <v>-1.74</v>
-      </c>
-      <c r="J351">
-        <v>-1.68</v>
       </c>
     </row>
     <row r="352" spans="1:10">
@@ -12851,16 +12851,16 @@
         <v>-100</v>
       </c>
       <c r="G352">
-        <v>-0.95</v>
+        <v>1.3</v>
       </c>
       <c r="H352">
-        <v>-0.7</v>
+        <v>0.96</v>
       </c>
       <c r="I352">
-        <v>-1.54</v>
+        <v>-0.43</v>
       </c>
       <c r="J352">
-        <v>-1.47</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="353" spans="1:10">
@@ -12883,16 +12883,16 @@
         <v>-100</v>
       </c>
       <c r="G353">
-        <v>-0.73</v>
+        <v>1.62</v>
       </c>
       <c r="H353">
-        <v>-1.01</v>
+        <v>0.53</v>
       </c>
       <c r="I353">
-        <v>-1.52</v>
+        <v>-0.54</v>
       </c>
       <c r="J353">
-        <v>-1.68</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="354" spans="1:10">
@@ -12915,16 +12915,16 @@
         <v>-100</v>
       </c>
       <c r="G354">
-        <v>-0.83</v>
+        <v>1.31</v>
       </c>
       <c r="H354">
-        <v>-0.57</v>
+        <v>0.83</v>
       </c>
       <c r="I354">
-        <v>-1.45</v>
+        <v>-0.44</v>
       </c>
       <c r="J354">
-        <v>-1.52</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="355" spans="1:10">
@@ -12947,16 +12947,16 @@
         <v>-100</v>
       </c>
       <c r="G355">
-        <v>-0.93</v>
+        <v>1.3</v>
       </c>
       <c r="H355">
-        <v>-0.68</v>
+        <v>0.93</v>
       </c>
       <c r="I355">
-        <v>-1.52</v>
+        <v>-0.44</v>
       </c>
       <c r="J355">
-        <v>-1.46</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="356" spans="1:10">
@@ -12979,16 +12979,16 @@
         <v>-100</v>
       </c>
       <c r="G356">
-        <v>-1.19</v>
+        <v>0.97</v>
       </c>
       <c r="H356">
-        <v>-1.02</v>
+        <v>0.35</v>
       </c>
       <c r="I356">
-        <v>-1.82</v>
+        <v>-0.77</v>
       </c>
       <c r="J356">
-        <v>-1.67</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="357" spans="1:10">
@@ -13011,16 +13011,16 @@
         <v>-100</v>
       </c>
       <c r="G357">
-        <v>-1.17</v>
+        <v>1</v>
       </c>
       <c r="H357">
-        <v>-1.01</v>
+        <v>0.36</v>
       </c>
       <c r="I357">
-        <v>-1.8</v>
+        <v>-0.75</v>
       </c>
       <c r="J357">
-        <v>-1.66</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="358" spans="1:10">
@@ -13043,16 +13043,16 @@
         <v>-100</v>
       </c>
       <c r="G358">
-        <v>-0.79</v>
+        <v>1.48</v>
       </c>
       <c r="H358">
-        <v>-0.81</v>
+        <v>0.66</v>
       </c>
       <c r="I358">
-        <v>-1.37</v>
+        <v>-0.45</v>
       </c>
       <c r="J358">
-        <v>-1.39</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="359" spans="1:10">
@@ -13075,16 +13075,16 @@
         <v>-100</v>
       </c>
       <c r="G359">
-        <v>-0.99</v>
+        <v>1.31</v>
       </c>
       <c r="H359">
-        <v>-0.76</v>
+        <v>1.01</v>
       </c>
       <c r="I359">
-        <v>-1.59</v>
+        <v>-0.43</v>
       </c>
       <c r="J359">
-        <v>-1.47</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="360" spans="1:10">
@@ -13107,16 +13107,16 @@
         <v>-100</v>
       </c>
       <c r="G360">
-        <v>-0.78</v>
+        <v>1.52</v>
       </c>
       <c r="H360">
-        <v>-0.86</v>
+        <v>0.63</v>
       </c>
       <c r="I360">
-        <v>-1.42</v>
+        <v>-0.48</v>
       </c>
       <c r="J360">
-        <v>-1.48</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="361" spans="1:10">
@@ -13139,16 +13139,16 @@
         <v>-100</v>
       </c>
       <c r="G361">
-        <v>-0.79</v>
+        <v>1.47</v>
       </c>
       <c r="H361">
-        <v>-0.8</v>
+        <v>0.67</v>
       </c>
       <c r="I361">
-        <v>-1.39</v>
+        <v>-0.46</v>
       </c>
       <c r="J361">
-        <v>-1.41</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="362" spans="1:10">
@@ -13171,16 +13171,16 @@
         <v>-100</v>
       </c>
       <c r="G362">
-        <v>-0.77</v>
+        <v>1.54</v>
       </c>
       <c r="H362">
-        <v>-0.91</v>
+        <v>0.59</v>
       </c>
       <c r="I362">
-        <v>-1.46</v>
+        <v>-0.5</v>
       </c>
       <c r="J362">
-        <v>-1.56</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="363" spans="1:10">
@@ -13203,16 +13203,16 @@
         <v>-100</v>
       </c>
       <c r="G363">
-        <v>-0.86</v>
+        <v>1.28</v>
       </c>
       <c r="H363">
-        <v>-0.64</v>
+        <v>0.83</v>
       </c>
       <c r="I363">
-        <v>-1.5</v>
+        <v>-0.46</v>
       </c>
       <c r="J363">
-        <v>-1.46</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="364" spans="1:10">
@@ -13235,16 +13235,16 @@
         <v>-100</v>
       </c>
       <c r="G364">
-        <v>-0.91</v>
+        <v>1.29</v>
       </c>
       <c r="H364">
-        <v>-0.67</v>
+        <v>0.9</v>
       </c>
       <c r="I364">
-        <v>-1.51</v>
+        <v>-0.45</v>
       </c>
       <c r="J364">
-        <v>-1.44</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="365" spans="1:10">
@@ -13267,16 +13267,16 @@
         <v>-100</v>
       </c>
       <c r="G365">
-        <v>-0.94</v>
+        <v>1.29</v>
       </c>
       <c r="H365">
-        <v>-0.7</v>
+        <v>0.94</v>
       </c>
       <c r="I365">
-        <v>-1.53</v>
+        <v>-0.44</v>
       </c>
       <c r="J365">
-        <v>-1.44</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="366" spans="1:10">
@@ -13299,16 +13299,16 @@
         <v>-100</v>
       </c>
       <c r="G366">
-        <v>-0.96</v>
+        <v>1.3</v>
       </c>
       <c r="H366">
-        <v>-0.72</v>
+        <v>0.97</v>
       </c>
       <c r="I366">
-        <v>-1.55</v>
+        <v>-0.43</v>
       </c>
       <c r="J366">
-        <v>-1.45</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="367" spans="1:10">
@@ -13331,16 +13331,16 @@
         <v>-100</v>
       </c>
       <c r="G367">
-        <v>-0.94</v>
+        <v>1.29</v>
       </c>
       <c r="H367">
-        <v>-0.66</v>
+        <v>0.97</v>
       </c>
       <c r="I367">
-        <v>-1.47</v>
+        <v>-0.4</v>
       </c>
       <c r="J367">
-        <v>-1.34</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="368" spans="1:10">
@@ -13363,16 +13363,16 @@
         <v>-99.9</v>
       </c>
       <c r="G368">
-        <v>-0.81</v>
+        <v>1.18</v>
       </c>
       <c r="H368">
-        <v>-0.76</v>
+        <v>0.4</v>
       </c>
       <c r="I368">
-        <v>-1.49</v>
+        <v>-0.56</v>
       </c>
       <c r="J368">
-        <v>-2.5</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="369" spans="1:10">
@@ -13386,25 +13386,25 @@
         <v>-19.5</v>
       </c>
       <c r="D369">
-        <v>-17.6</v>
+        <v>-17.5</v>
       </c>
       <c r="E369">
-        <v>-38.4</v>
+        <v>-38.3</v>
       </c>
       <c r="F369">
-        <v>-97.6</v>
+        <v>-97.4</v>
       </c>
       <c r="G369">
-        <v>-0.33</v>
+        <v>0.6</v>
       </c>
       <c r="H369">
-        <v>0.27</v>
+        <v>0.71</v>
       </c>
       <c r="I369">
-        <v>-0.81</v>
+        <v>-0.42</v>
       </c>
       <c r="J369">
-        <v>-1.36</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="370" spans="1:10">
@@ -13427,16 +13427,16 @@
         <v>-98.7</v>
       </c>
       <c r="G370">
-        <v>-0.24</v>
+        <v>0.56</v>
       </c>
       <c r="H370">
-        <v>0.43</v>
+        <v>0.81</v>
       </c>
       <c r="I370">
-        <v>-0.76</v>
+        <v>-0.42</v>
       </c>
       <c r="J370">
-        <v>-1.55</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="371" spans="1:10">
@@ -13456,19 +13456,19 @@
         <v>-35.1</v>
       </c>
       <c r="F371">
-        <v>-99.3</v>
+        <v>-99.1</v>
       </c>
       <c r="G371">
-        <v>-0.47</v>
+        <v>0.77</v>
       </c>
       <c r="H371">
-        <v>-0.13</v>
+        <v>0.46</v>
       </c>
       <c r="I371">
-        <v>-0.85</v>
+        <v>-0.35</v>
       </c>
       <c r="J371">
-        <v>-0.95</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="372" spans="1:10">
@@ -13491,16 +13491,16 @@
         <v>-99.6</v>
       </c>
       <c r="G372">
-        <v>-0.41</v>
+        <v>0.31</v>
       </c>
       <c r="H372">
-        <v>-0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I372">
-        <v>-0.83</v>
+        <v>-0.51</v>
       </c>
       <c r="J372">
-        <v>-1.18</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="373" spans="1:10">
@@ -13523,16 +13523,16 @@
         <v>-99.3</v>
       </c>
       <c r="G373">
-        <v>-0.65</v>
+        <v>0.56</v>
       </c>
       <c r="H373">
-        <v>-0.68</v>
+        <v>0.41</v>
       </c>
       <c r="I373">
-        <v>-1.71</v>
+        <v>-0.46</v>
       </c>
       <c r="J373">
-        <v>-3.35</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="374" spans="1:10">
@@ -13555,16 +13555,16 @@
         <v>-100</v>
       </c>
       <c r="G374">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="H374">
-        <v>-0.46</v>
+        <v>0.53</v>
       </c>
       <c r="I374">
-        <v>-1.4</v>
+        <v>-0.67</v>
       </c>
       <c r="J374">
-        <v>-3.05</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="375" spans="1:10">
@@ -13587,16 +13587,16 @@
         <v>-98.1</v>
       </c>
       <c r="G375">
-        <v>-0.25</v>
+        <v>0.53</v>
       </c>
       <c r="H375">
-        <v>-0.45</v>
+        <v>-0.02</v>
       </c>
       <c r="I375">
-        <v>-2.09</v>
+        <v>-1.81</v>
       </c>
       <c r="J375">
-        <v>-1.59</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="376" spans="1:10">
@@ -13619,16 +13619,16 @@
         <v>-100</v>
       </c>
       <c r="G376">
-        <v>-0.76</v>
+        <v>1.58</v>
       </c>
       <c r="H376">
-        <v>-0.98</v>
+        <v>0.54</v>
       </c>
       <c r="I376">
-        <v>-1.52</v>
+        <v>-0.54</v>
       </c>
       <c r="J376">
-        <v>-1.65</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="377" spans="1:10">
@@ -13651,16 +13651,16 @@
         <v>-100</v>
       </c>
       <c r="G377">
-        <v>-0.9</v>
+        <v>1.43</v>
       </c>
       <c r="H377">
-        <v>-0.92</v>
+        <v>0.53</v>
       </c>
       <c r="I377">
-        <v>-1.58</v>
+        <v>-0.55</v>
       </c>
       <c r="J377">
-        <v>-1.67</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="378" spans="1:10">
@@ -13677,22 +13677,22 @@
         <v>-13.3</v>
       </c>
       <c r="E378">
-        <v>-25.1</v>
+        <v>-25</v>
       </c>
       <c r="F378">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G378">
-        <v>-0.32</v>
+        <v>1.1</v>
       </c>
       <c r="H378">
-        <v>-0.33</v>
+        <v>0.36</v>
       </c>
       <c r="I378">
-        <v>-0.61</v>
+        <v>-0.18</v>
       </c>
       <c r="J378">
-        <v>-1.03</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="379" spans="1:10">
@@ -13715,16 +13715,16 @@
         <v>-100</v>
       </c>
       <c r="G379">
-        <v>-0.51</v>
+        <v>0.65</v>
       </c>
       <c r="H379">
-        <v>-0.11</v>
+        <v>0.5</v>
       </c>
       <c r="I379">
-        <v>-1.04</v>
+        <v>-0.44</v>
       </c>
       <c r="J379">
-        <v>-1.56</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="380" spans="1:10">
@@ -13747,16 +13747,16 @@
         <v>-100</v>
       </c>
       <c r="G380">
-        <v>-0.93</v>
+        <v>1.15</v>
       </c>
       <c r="H380">
-        <v>-1</v>
+        <v>0.16</v>
       </c>
       <c r="I380">
-        <v>-1.78</v>
+        <v>-0.95</v>
       </c>
       <c r="J380">
-        <v>-1.47</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="381" spans="1:10">
@@ -13779,16 +13779,16 @@
         <v>-100</v>
       </c>
       <c r="G381">
-        <v>-0.93</v>
+        <v>1.15</v>
       </c>
       <c r="H381">
-        <v>-0.99</v>
+        <v>0.16</v>
       </c>
       <c r="I381">
-        <v>-1.78</v>
+        <v>-0.95</v>
       </c>
       <c r="J381">
-        <v>-1.47</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="382" spans="1:10">
@@ -13811,16 +13811,16 @@
         <v>-100</v>
       </c>
       <c r="G382">
-        <v>-0.79</v>
+        <v>1.16</v>
       </c>
       <c r="H382">
-        <v>-0.12</v>
+        <v>0.99</v>
       </c>
       <c r="I382">
-        <v>-0.9</v>
+        <v>-0.23</v>
       </c>
       <c r="J382">
-        <v>-0.62</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="383" spans="1:10">
@@ -13843,16 +13843,16 @@
         <v>-100</v>
       </c>
       <c r="G383">
-        <v>-1.11</v>
+        <v>1.08</v>
       </c>
       <c r="H383">
-        <v>-0.89</v>
+        <v>0.48</v>
       </c>
       <c r="I383">
-        <v>-1.69</v>
+        <v>-0.63</v>
       </c>
       <c r="J383">
-        <v>-1.62</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="384" spans="1:10">
@@ -13875,16 +13875,16 @@
         <v>-100</v>
       </c>
       <c r="G384">
-        <v>-0.45</v>
+        <v>1.17</v>
       </c>
       <c r="H384">
-        <v>-0.97</v>
+        <v>0.2</v>
       </c>
       <c r="I384">
-        <v>-2.05</v>
+        <v>-0.88</v>
       </c>
       <c r="J384">
-        <v>-1.31</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="385" spans="1:10">
@@ -13907,16 +13907,16 @@
         <v>-100</v>
       </c>
       <c r="G385">
-        <v>-0.92</v>
+        <v>1.16</v>
       </c>
       <c r="H385">
-        <v>-0.97</v>
+        <v>0.19</v>
       </c>
       <c r="I385">
-        <v>-1.77</v>
+        <v>-0.93</v>
       </c>
       <c r="J385">
-        <v>-1.48</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="386" spans="1:10">
@@ -13939,16 +13939,16 @@
         <v>-99.8</v>
       </c>
       <c r="G386">
-        <v>-0.63</v>
+        <v>0.69</v>
       </c>
       <c r="H386">
-        <v>-0.17</v>
+        <v>0.43</v>
       </c>
       <c r="I386">
-        <v>-1.03</v>
+        <v>-0.42</v>
       </c>
       <c r="J386">
-        <v>-0.65</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="387" spans="1:10">
@@ -13971,16 +13971,16 @@
         <v>-100</v>
       </c>
       <c r="G387">
-        <v>-0.23</v>
+        <v>0.56</v>
       </c>
       <c r="H387">
-        <v>0.45</v>
+        <v>0.83</v>
       </c>
       <c r="I387">
-        <v>-0.76</v>
+        <v>-0.42</v>
       </c>
       <c r="J387">
-        <v>-1.56</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="388" spans="1:10">
@@ -14003,16 +14003,16 @@
         <v>-100</v>
       </c>
       <c r="G388">
-        <v>-0.53</v>
+        <v>0.81</v>
       </c>
       <c r="H388">
-        <v>-0.21</v>
+        <v>0.42</v>
       </c>
       <c r="I388">
-        <v>-0.91</v>
+        <v>-0.35</v>
       </c>
       <c r="J388">
-        <v>-0.77</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="389" spans="1:10">
@@ -14035,16 +14035,16 @@
         <v>-100</v>
       </c>
       <c r="G389">
-        <v>-1.03</v>
+        <v>1.24</v>
       </c>
       <c r="H389">
-        <v>-0.86</v>
+        <v>0.53</v>
       </c>
       <c r="I389">
-        <v>-1.63</v>
+        <v>-0.57</v>
       </c>
       <c r="J389">
-        <v>-1.59</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="390" spans="1:10">
@@ -14067,16 +14067,16 @@
         <v>-100</v>
       </c>
       <c r="G390">
-        <v>-0.76</v>
+        <v>1.6</v>
       </c>
       <c r="H390">
-        <v>-1.03</v>
+        <v>0.5</v>
       </c>
       <c r="I390">
-        <v>-1.57</v>
+        <v>-0.56</v>
       </c>
       <c r="J390">
-        <v>-1.75</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="391" spans="1:10">
@@ -14096,19 +14096,19 @@
         <v>-38.2</v>
       </c>
       <c r="F391">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G391">
-        <v>-0.49</v>
+        <v>0.77</v>
       </c>
       <c r="H391">
-        <v>-0.39</v>
+        <v>0.22</v>
       </c>
       <c r="I391">
-        <v>-0.72</v>
+        <v>-0.27</v>
       </c>
       <c r="J391">
-        <v>-0.8</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="392" spans="1:10">
@@ -14131,16 +14131,16 @@
         <v>-100</v>
       </c>
       <c r="G392">
-        <v>-0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H392">
-        <v>-0.22</v>
+        <v>0.42</v>
       </c>
       <c r="I392">
-        <v>-0.99</v>
+        <v>-0.39</v>
       </c>
       <c r="J392">
-        <v>-0.63</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="393" spans="1:10">
@@ -14163,16 +14163,16 @@
         <v>-100</v>
       </c>
       <c r="G393">
-        <v>-0.57</v>
+        <v>0.8</v>
       </c>
       <c r="H393">
-        <v>-0.27</v>
+        <v>0.4</v>
       </c>
       <c r="I393">
-        <v>-0.97</v>
+        <v>-0.36</v>
       </c>
       <c r="J393">
-        <v>-0.58</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="394" spans="1:10">
@@ -14195,16 +14195,16 @@
         <v>-100</v>
       </c>
       <c r="G394">
+        <v>1.31</v>
+      </c>
+      <c r="H394">
+        <v>0.88</v>
+      </c>
+      <c r="I394">
+        <v>-0.43</v>
+      </c>
+      <c r="J394">
         <v>-0.87</v>
-      </c>
-      <c r="H394">
-        <v>-0.6</v>
-      </c>
-      <c r="I394">
-        <v>-1.47</v>
-      </c>
-      <c r="J394">
-        <v>-1.5</v>
       </c>
     </row>
     <row r="395" spans="1:10">
@@ -14227,16 +14227,16 @@
         <v>-100</v>
       </c>
       <c r="G395">
-        <v>-0.63</v>
+        <v>1.13</v>
       </c>
       <c r="H395">
-        <v>-0.43</v>
+        <v>0.6</v>
       </c>
       <c r="I395">
-        <v>-1.16</v>
+        <v>-0.48</v>
       </c>
       <c r="J395">
-        <v>-0.9</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="396" spans="1:10">
@@ -14259,16 +14259,16 @@
         <v>-100</v>
       </c>
       <c r="G396">
-        <v>-0.62</v>
+        <v>1.11</v>
       </c>
       <c r="H396">
-        <v>-0.42</v>
+        <v>0.6</v>
       </c>
       <c r="I396">
-        <v>-1.11</v>
+        <v>-0.47</v>
       </c>
       <c r="J396">
-        <v>-0.79</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="397" spans="1:10">
@@ -14291,16 +14291,16 @@
         <v>-99.1</v>
       </c>
       <c r="G397">
-        <v>-0.52</v>
+        <v>1.26</v>
       </c>
       <c r="H397">
-        <v>-1</v>
+        <v>0.27</v>
       </c>
       <c r="I397">
-        <v>-2.12</v>
+        <v>-0.84</v>
       </c>
       <c r="J397">
-        <v>-1.41</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="398" spans="1:10">
@@ -14323,16 +14323,16 @@
         <v>-100</v>
       </c>
       <c r="G398">
-        <v>-0.94</v>
+        <v>1.3</v>
       </c>
       <c r="H398">
-        <v>-0.68</v>
+        <v>0.96</v>
       </c>
       <c r="I398">
-        <v>-1.52</v>
+        <v>-0.42</v>
       </c>
       <c r="J398">
-        <v>-1.45</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="399" spans="1:10">
@@ -14355,16 +14355,16 @@
         <v>-100</v>
       </c>
       <c r="G399">
-        <v>-0.75</v>
+        <v>1.63</v>
       </c>
       <c r="H399">
-        <v>-1.01</v>
+        <v>0.52</v>
       </c>
       <c r="I399">
-        <v>-1.55</v>
+        <v>-0.54</v>
       </c>
       <c r="J399">
-        <v>-1.74</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="400" spans="1:10">
@@ -14387,16 +14387,16 @@
         <v>-100</v>
       </c>
       <c r="G400">
-        <v>-0.94</v>
+        <v>1.27</v>
       </c>
       <c r="H400">
-        <v>-0.59</v>
+        <v>1.01</v>
       </c>
       <c r="I400">
-        <v>-1.41</v>
+        <v>-0.38</v>
       </c>
       <c r="J400">
-        <v>-1.25</v>
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
+++ b/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
@@ -31,7 +31,7 @@
     <t>AN_TRI_202009</t>
   </si>
   <si>
-    <t>AN_20200915</t>
+    <t>AN_20200921</t>
   </si>
   <si>
     <t>SPI1_202008</t>
@@ -1642,13 +1642,13 @@
         <v>-48.9</v>
       </c>
       <c r="D2">
-        <v>-50.5</v>
+        <v>-50.4</v>
       </c>
       <c r="E2">
-        <v>-55.7</v>
+        <v>-55.6</v>
       </c>
       <c r="F2">
-        <v>-100</v>
+        <v>-99.7</v>
       </c>
       <c r="G2">
         <v>0.94</v>
@@ -1677,7 +1677,7 @@
         <v>-54.1</v>
       </c>
       <c r="E3">
-        <v>-57</v>
+        <v>-56.9</v>
       </c>
       <c r="F3">
         <v>-99.9</v>
@@ -1703,16 +1703,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>-40</v>
+        <v>-39.4</v>
       </c>
       <c r="D4">
-        <v>-40.7</v>
+        <v>-39.3</v>
       </c>
       <c r="E4">
-        <v>-63.9</v>
+        <v>-61</v>
       </c>
       <c r="F4">
-        <v>-100</v>
+        <v>-93.1</v>
       </c>
       <c r="G4">
         <v>0.5</v>
@@ -1735,16 +1735,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>-47.2</v>
+        <v>-46.6</v>
       </c>
       <c r="D5">
-        <v>-47</v>
+        <v>-45.6</v>
       </c>
       <c r="E5">
-        <v>-66.2</v>
+        <v>-63.5</v>
       </c>
       <c r="F5">
-        <v>-100</v>
+        <v>-93.4</v>
       </c>
       <c r="G5">
         <v>0.76</v>
@@ -1799,16 +1799,16 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>-25.8</v>
+        <v>-25.2</v>
       </c>
       <c r="D7">
-        <v>-30.8</v>
+        <v>-29.4</v>
       </c>
       <c r="E7">
-        <v>-46.1</v>
+        <v>-42.7</v>
       </c>
       <c r="F7">
-        <v>-99.3</v>
+        <v>-91.1</v>
       </c>
       <c r="G7">
         <v>0.86</v>
@@ -1831,16 +1831,16 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>-26.6</v>
+        <v>-25.9</v>
       </c>
       <c r="D8">
-        <v>-30.5</v>
+        <v>-29</v>
       </c>
       <c r="E8">
-        <v>-43.4</v>
+        <v>-39.5</v>
       </c>
       <c r="F8">
-        <v>-98.5</v>
+        <v>-88.2</v>
       </c>
       <c r="G8">
         <v>0.75</v>
@@ -1863,16 +1863,16 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>-25.2</v>
+        <v>-24.9</v>
       </c>
       <c r="D9">
-        <v>-38</v>
+        <v>-37.1</v>
       </c>
       <c r="E9">
-        <v>-45.9</v>
+        <v>-44</v>
       </c>
       <c r="F9">
-        <v>-100</v>
+        <v>-95.6</v>
       </c>
       <c r="G9">
         <v>1.31</v>
@@ -1895,16 +1895,16 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>-31.5</v>
+        <v>-31.4</v>
       </c>
       <c r="D10">
-        <v>-29.4</v>
+        <v>-29.2</v>
       </c>
       <c r="E10">
-        <v>-39.1</v>
+        <v>-38.6</v>
       </c>
       <c r="F10">
-        <v>-100</v>
+        <v>-98.8</v>
       </c>
       <c r="G10">
         <v>1.14</v>
@@ -1959,16 +1959,16 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>-55.3</v>
+        <v>-55.2</v>
       </c>
       <c r="D12">
-        <v>-44.9</v>
+        <v>-44.8</v>
       </c>
       <c r="E12">
-        <v>-48.5</v>
+        <v>-48.3</v>
       </c>
       <c r="F12">
-        <v>-100</v>
+        <v>-99.7</v>
       </c>
       <c r="G12">
         <v>0.89</v>
@@ -1991,16 +1991,16 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>-27.5</v>
+        <v>-27.4</v>
       </c>
       <c r="D13">
-        <v>-41.1</v>
+        <v>-40.8</v>
       </c>
       <c r="E13">
-        <v>-43.1</v>
+        <v>-42.4</v>
       </c>
       <c r="F13">
-        <v>-100</v>
+        <v>-98.2</v>
       </c>
       <c r="G13">
         <v>1.12</v>
@@ -2023,16 +2023,16 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>-30.9</v>
+        <v>-30.7</v>
       </c>
       <c r="D14">
-        <v>-41.7</v>
+        <v>-41.1</v>
       </c>
       <c r="E14">
-        <v>-39.7</v>
+        <v>-38.4</v>
       </c>
       <c r="F14">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="G14">
         <v>1.13</v>
@@ -2055,16 +2055,16 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>-27.5</v>
+        <v>-27.1</v>
       </c>
       <c r="D15">
-        <v>-24.5</v>
+        <v>-23.1</v>
       </c>
       <c r="E15">
-        <v>-7.7</v>
+        <v>-4.8</v>
       </c>
       <c r="F15">
-        <v>-100</v>
+        <v>-94.7</v>
       </c>
       <c r="G15">
         <v>1.33</v>
@@ -2087,16 +2087,16 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>-16.3</v>
+        <v>-15.6</v>
       </c>
       <c r="D16">
-        <v>-3.3</v>
+        <v>-1</v>
       </c>
       <c r="E16">
-        <v>-12.9</v>
+        <v>-8</v>
       </c>
       <c r="F16">
-        <v>-100</v>
+        <v>-91.6</v>
       </c>
       <c r="G16">
         <v>1.41</v>
@@ -2122,13 +2122,13 @@
         <v>-43.6</v>
       </c>
       <c r="D17">
-        <v>-41.1</v>
+        <v>-40.9</v>
       </c>
       <c r="E17">
-        <v>-53.2</v>
+        <v>-52.8</v>
       </c>
       <c r="F17">
-        <v>-100</v>
+        <v>-99.2</v>
       </c>
       <c r="G17">
         <v>1.51</v>
@@ -2151,16 +2151,16 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>-49.6</v>
+        <v>-49.5</v>
       </c>
       <c r="D18">
-        <v>-44.2</v>
+        <v>-44</v>
       </c>
       <c r="E18">
-        <v>-59.8</v>
+        <v>-59.5</v>
       </c>
       <c r="F18">
-        <v>-100</v>
+        <v>-99.1</v>
       </c>
       <c r="G18">
         <v>1.85</v>
@@ -2183,16 +2183,16 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>-59.3</v>
+        <v>-59.2</v>
       </c>
       <c r="D19">
-        <v>-57.3</v>
+        <v>-57.2</v>
       </c>
       <c r="E19">
-        <v>-54.1</v>
+        <v>-53.7</v>
       </c>
       <c r="F19">
-        <v>-97.5</v>
+        <v>-96.3</v>
       </c>
       <c r="G19">
         <v>1.18</v>
@@ -2218,13 +2218,13 @@
         <v>-62.2</v>
       </c>
       <c r="D20">
-        <v>-61.3</v>
+        <v>-61.2</v>
       </c>
       <c r="E20">
-        <v>-57.6</v>
+        <v>-57.4</v>
       </c>
       <c r="F20">
-        <v>-99.7</v>
+        <v>-99.4</v>
       </c>
       <c r="G20">
         <v>1.21</v>
@@ -2247,16 +2247,16 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>-55.2</v>
+        <v>-55.1</v>
       </c>
       <c r="D21">
-        <v>-52.1</v>
+        <v>-51.8</v>
       </c>
       <c r="E21">
-        <v>-63.8</v>
+        <v>-63.1</v>
       </c>
       <c r="F21">
-        <v>-100</v>
+        <v>-98.2</v>
       </c>
       <c r="G21">
         <v>1.04</v>
@@ -2279,16 +2279,16 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>-52.3</v>
+        <v>-52</v>
       </c>
       <c r="D22">
-        <v>-49.3</v>
+        <v>-48.7</v>
       </c>
       <c r="E22">
-        <v>-61.7</v>
+        <v>-60.4</v>
       </c>
       <c r="F22">
-        <v>-100</v>
+        <v>-96.8</v>
       </c>
       <c r="G22">
         <v>0.99</v>
@@ -2311,16 +2311,16 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>-29.7</v>
+        <v>-29.1</v>
       </c>
       <c r="D23">
-        <v>-37.8</v>
+        <v>-36.6</v>
       </c>
       <c r="E23">
-        <v>-49.9</v>
+        <v>-46.8</v>
       </c>
       <c r="F23">
-        <v>-99.7</v>
+        <v>-91.9</v>
       </c>
       <c r="G23">
         <v>0.97</v>
@@ -2378,13 +2378,13 @@
         <v>-63.5</v>
       </c>
       <c r="D25">
-        <v>-56.1</v>
+        <v>-56</v>
       </c>
       <c r="E25">
         <v>-55.9</v>
       </c>
       <c r="F25">
-        <v>-99.8</v>
+        <v>-99.7</v>
       </c>
       <c r="G25">
         <v>1.33</v>
@@ -2407,16 +2407,16 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>-8.4</v>
+        <v>-8</v>
       </c>
       <c r="D26">
-        <v>-12.4</v>
+        <v>-11.4</v>
       </c>
       <c r="E26">
-        <v>-34.9</v>
+        <v>-32.5</v>
       </c>
       <c r="F26">
-        <v>-99.9</v>
+        <v>-94.1</v>
       </c>
       <c r="G26">
         <v>0.73</v>
@@ -2439,16 +2439,16 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>-10.3</v>
+        <v>-10</v>
       </c>
       <c r="D27">
-        <v>-14.7</v>
+        <v>-13.9</v>
       </c>
       <c r="E27">
-        <v>-39.5</v>
+        <v>-37.7</v>
       </c>
       <c r="F27">
-        <v>-98.9</v>
+        <v>-94.7</v>
       </c>
       <c r="G27">
         <v>0.66</v>
@@ -2471,16 +2471,16 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>-42</v>
+        <v>-41.4</v>
       </c>
       <c r="D28">
-        <v>-45</v>
+        <v>-43.7</v>
       </c>
       <c r="E28">
-        <v>-67.9</v>
+        <v>-65.3</v>
       </c>
       <c r="F28">
-        <v>-100</v>
+        <v>-93.8</v>
       </c>
       <c r="G28">
         <v>0.75</v>
@@ -2535,16 +2535,16 @@
         <v>38</v>
       </c>
       <c r="C30">
-        <v>-29.7</v>
+        <v>-28.9</v>
       </c>
       <c r="D30">
-        <v>-18.3</v>
+        <v>-16.1</v>
       </c>
       <c r="E30">
-        <v>-52</v>
+        <v>-46.9</v>
       </c>
       <c r="F30">
-        <v>-100</v>
+        <v>-88.9</v>
       </c>
       <c r="G30">
         <v>0.16</v>
@@ -2576,7 +2576,7 @@
         <v>-52.9</v>
       </c>
       <c r="F31">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G31">
         <v>1.67</v>
@@ -2602,13 +2602,13 @@
         <v>-21</v>
       </c>
       <c r="D32">
-        <v>-37.1</v>
+        <v>-36.9</v>
       </c>
       <c r="E32">
-        <v>-40.3</v>
+        <v>-40</v>
       </c>
       <c r="F32">
-        <v>-100</v>
+        <v>-99.2</v>
       </c>
       <c r="G32">
         <v>1.16</v>
@@ -2631,16 +2631,16 @@
         <v>41</v>
       </c>
       <c r="C33">
-        <v>-18.6</v>
+        <v>-18.5</v>
       </c>
       <c r="D33">
-        <v>-29.9</v>
+        <v>-29.8</v>
       </c>
       <c r="E33">
-        <v>-31.3</v>
+        <v>-30.9</v>
       </c>
       <c r="F33">
-        <v>-99.9</v>
+        <v>-99.1</v>
       </c>
       <c r="G33">
         <v>1.3</v>
@@ -2666,13 +2666,13 @@
         <v>-53.4</v>
       </c>
       <c r="D34">
-        <v>-65.1</v>
+        <v>-65</v>
       </c>
       <c r="E34">
-        <v>-70.5</v>
+        <v>-70.3</v>
       </c>
       <c r="F34">
-        <v>-97.5</v>
+        <v>-97.3</v>
       </c>
       <c r="G34">
         <v>0.67</v>
@@ -2695,16 +2695,16 @@
         <v>43</v>
       </c>
       <c r="C35">
-        <v>-53.2</v>
+        <v>-53.1</v>
       </c>
       <c r="D35">
-        <v>-41.6</v>
+        <v>-41.5</v>
       </c>
       <c r="E35">
-        <v>-43.6</v>
+        <v>-43.5</v>
       </c>
       <c r="F35">
-        <v>-100</v>
+        <v>-99.8</v>
       </c>
       <c r="G35">
         <v>1.28</v>
@@ -2733,10 +2733,10 @@
         <v>-42.4</v>
       </c>
       <c r="E36">
-        <v>-44.8</v>
+        <v>-44.7</v>
       </c>
       <c r="F36">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G36">
         <v>1.29</v>
@@ -2791,16 +2791,16 @@
         <v>46</v>
       </c>
       <c r="C38">
-        <v>-40.5</v>
+        <v>-40.4</v>
       </c>
       <c r="D38">
-        <v>-32.1</v>
+        <v>-31.9</v>
       </c>
       <c r="E38">
-        <v>-38.3</v>
+        <v>-37.9</v>
       </c>
       <c r="F38">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="G38">
         <v>1.3</v>
@@ -2864,7 +2864,7 @@
         <v>-59.4</v>
       </c>
       <c r="F40">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G40">
         <v>1.42</v>
@@ -2887,16 +2887,16 @@
         <v>49</v>
       </c>
       <c r="C41">
-        <v>-18.2</v>
+        <v>-17.4</v>
       </c>
       <c r="D41">
-        <v>-18.5</v>
+        <v>-16.8</v>
       </c>
       <c r="E41">
-        <v>-29.3</v>
+        <v>-25.1</v>
       </c>
       <c r="F41">
-        <v>-100</v>
+        <v>-89.6</v>
       </c>
       <c r="G41">
         <v>1.08</v>
@@ -2919,16 +2919,16 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>-47.2</v>
+        <v>-47</v>
       </c>
       <c r="D42">
-        <v>-47.9</v>
+        <v>-47.3</v>
       </c>
       <c r="E42">
-        <v>-52.9</v>
+        <v>-51.8</v>
       </c>
       <c r="F42">
-        <v>-94.8</v>
+        <v>-92</v>
       </c>
       <c r="G42">
         <v>1.08</v>
@@ -2951,16 +2951,16 @@
         <v>51</v>
       </c>
       <c r="C43">
-        <v>-52.5</v>
+        <v>-52.4</v>
       </c>
       <c r="D43">
-        <v>-57.9</v>
+        <v>-57.5</v>
       </c>
       <c r="E43">
-        <v>-58</v>
+        <v>-57.1</v>
       </c>
       <c r="F43">
-        <v>-91.2</v>
+        <v>-89</v>
       </c>
       <c r="G43">
         <v>1.02</v>
@@ -2983,16 +2983,16 @@
         <v>52</v>
       </c>
       <c r="C44">
-        <v>-25.9</v>
+        <v>-25.4</v>
       </c>
       <c r="D44">
-        <v>-30.6</v>
+        <v>-29.3</v>
       </c>
       <c r="E44">
-        <v>-43.7</v>
+        <v>-40.6</v>
       </c>
       <c r="F44">
-        <v>-97.7</v>
+        <v>-89.8</v>
       </c>
       <c r="G44">
         <v>0.85</v>
@@ -3015,16 +3015,16 @@
         <v>53</v>
       </c>
       <c r="C45">
-        <v>-31.8</v>
+        <v>-31.2</v>
       </c>
       <c r="D45">
-        <v>-35.7</v>
+        <v>-34.3</v>
       </c>
       <c r="E45">
-        <v>-56.7</v>
+        <v>-53.3</v>
       </c>
       <c r="F45">
-        <v>-99.8</v>
+        <v>-91.7</v>
       </c>
       <c r="G45">
         <v>0.72</v>
@@ -3047,16 +3047,16 @@
         <v>54</v>
       </c>
       <c r="C46">
-        <v>-29.7</v>
+        <v>-29.2</v>
       </c>
       <c r="D46">
-        <v>-33.1</v>
+        <v>-31.8</v>
       </c>
       <c r="E46">
-        <v>-52.9</v>
+        <v>-49.9</v>
       </c>
       <c r="F46">
-        <v>-99.4</v>
+        <v>-92.2</v>
       </c>
       <c r="G46">
         <v>0.72</v>
@@ -3079,16 +3079,16 @@
         <v>55</v>
       </c>
       <c r="C47">
-        <v>-25.2</v>
+        <v>-24.5</v>
       </c>
       <c r="D47">
-        <v>-29.1</v>
+        <v>-27.5</v>
       </c>
       <c r="E47">
-        <v>-44.5</v>
+        <v>-40.5</v>
       </c>
       <c r="F47">
-        <v>-97.5</v>
+        <v>-87.1</v>
       </c>
       <c r="G47">
         <v>0.71</v>
@@ -3111,16 +3111,16 @@
         <v>56</v>
       </c>
       <c r="C48">
-        <v>-20.2</v>
+        <v>-20.1</v>
       </c>
       <c r="D48">
-        <v>-24.7</v>
+        <v>-24.3</v>
       </c>
       <c r="E48">
-        <v>-30.6</v>
+        <v>-29.7</v>
       </c>
       <c r="F48">
-        <v>-99.9</v>
+        <v>-97.5</v>
       </c>
       <c r="G48">
         <v>0.97</v>
@@ -3242,13 +3242,13 @@
         <v>-49.2</v>
       </c>
       <c r="D52">
-        <v>-47</v>
+        <v>-46.9</v>
       </c>
       <c r="E52">
-        <v>-52</v>
+        <v>-51.9</v>
       </c>
       <c r="F52">
-        <v>-100</v>
+        <v>-99.7</v>
       </c>
       <c r="G52">
         <v>1.31</v>
@@ -3271,16 +3271,16 @@
         <v>61</v>
       </c>
       <c r="C53">
-        <v>-55.1</v>
+        <v>-55</v>
       </c>
       <c r="D53">
-        <v>-50.7</v>
+        <v>-50.6</v>
       </c>
       <c r="E53">
         <v>-58.4</v>
       </c>
       <c r="F53">
-        <v>-100</v>
+        <v>-99.8</v>
       </c>
       <c r="G53">
         <v>1.29</v>
@@ -3303,16 +3303,16 @@
         <v>62</v>
       </c>
       <c r="C54">
-        <v>-15</v>
+        <v>-14.2</v>
       </c>
       <c r="D54">
-        <v>-14.5</v>
+        <v>-12.8</v>
       </c>
       <c r="E54">
-        <v>-4.9</v>
+        <v>-0.5</v>
       </c>
       <c r="F54">
-        <v>-99.8</v>
+        <v>-89.1</v>
       </c>
       <c r="G54">
         <v>1.12</v>
@@ -3335,16 +3335,16 @@
         <v>63</v>
       </c>
       <c r="C55">
-        <v>-55.1</v>
+        <v>-54.7</v>
       </c>
       <c r="D55">
-        <v>-55.5</v>
+        <v>-54.5</v>
       </c>
       <c r="E55">
-        <v>-54.5</v>
+        <v>-52.5</v>
       </c>
       <c r="F55">
-        <v>-92.2</v>
+        <v>-87.4</v>
       </c>
       <c r="G55">
         <v>1.17</v>
@@ -3376,7 +3376,7 @@
         <v>-57.3</v>
       </c>
       <c r="F56">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G56">
         <v>0.97</v>
@@ -3399,16 +3399,16 @@
         <v>65</v>
       </c>
       <c r="C57">
-        <v>-29.4</v>
+        <v>-29</v>
       </c>
       <c r="D57">
-        <v>-13.3</v>
+        <v>-12.4</v>
       </c>
       <c r="E57">
-        <v>-9</v>
+        <v>-6.7</v>
       </c>
       <c r="F57">
-        <v>-100</v>
+        <v>-94.7</v>
       </c>
       <c r="G57">
         <v>0.38</v>
@@ -3431,16 +3431,16 @@
         <v>66</v>
       </c>
       <c r="C58">
-        <v>-28.2</v>
+        <v>-28.1</v>
       </c>
       <c r="D58">
-        <v>-16.2</v>
+        <v>-15.9</v>
       </c>
       <c r="E58">
-        <v>-15.5</v>
+        <v>-14.7</v>
       </c>
       <c r="F58">
-        <v>-100</v>
+        <v>-98</v>
       </c>
       <c r="G58">
         <v>0.9</v>
@@ -3463,16 +3463,16 @@
         <v>67</v>
       </c>
       <c r="C59">
-        <v>-23.9</v>
+        <v>-23.6</v>
       </c>
       <c r="D59">
-        <v>-15.8</v>
+        <v>-14.9</v>
       </c>
       <c r="E59">
-        <v>-20.9</v>
+        <v>-18.8</v>
       </c>
       <c r="F59">
-        <v>-100</v>
+        <v>-94.5</v>
       </c>
       <c r="G59">
         <v>1.08</v>
@@ -3495,16 +3495,16 @@
         <v>68</v>
       </c>
       <c r="C60">
-        <v>-30.2</v>
+        <v>-30</v>
       </c>
       <c r="D60">
-        <v>-22.5</v>
+        <v>-22.1</v>
       </c>
       <c r="E60">
-        <v>-37.3</v>
+        <v>-36.2</v>
       </c>
       <c r="F60">
-        <v>-100</v>
+        <v>-97.3</v>
       </c>
       <c r="G60">
         <v>1.07</v>
@@ -3527,16 +3527,16 @@
         <v>69</v>
       </c>
       <c r="C61">
-        <v>-49.9</v>
+        <v>-49.8</v>
       </c>
       <c r="D61">
-        <v>-46.5</v>
+        <v>-46.3</v>
       </c>
       <c r="E61">
-        <v>-59.2</v>
+        <v>-58.9</v>
       </c>
       <c r="F61">
-        <v>-100</v>
+        <v>-99.2</v>
       </c>
       <c r="G61">
         <v>1.08</v>
@@ -3559,16 +3559,16 @@
         <v>70</v>
       </c>
       <c r="C62">
-        <v>-28.7</v>
+        <v>-28.5</v>
       </c>
       <c r="D62">
-        <v>-34.3</v>
+        <v>-33.7</v>
       </c>
       <c r="E62">
-        <v>-44.9</v>
+        <v>-43.4</v>
       </c>
       <c r="F62">
-        <v>-99.3</v>
+        <v>-95.5</v>
       </c>
       <c r="G62">
         <v>0.9</v>
@@ -3591,16 +3591,16 @@
         <v>71</v>
       </c>
       <c r="C63">
-        <v>-30.7</v>
+        <v>-30.6</v>
       </c>
       <c r="D63">
-        <v>-20.2</v>
+        <v>-19.7</v>
       </c>
       <c r="E63">
-        <v>-22.1</v>
+        <v>-21</v>
       </c>
       <c r="F63">
-        <v>-100</v>
+        <v>-97.5</v>
       </c>
       <c r="G63">
         <v>1.22</v>
@@ -3623,16 +3623,16 @@
         <v>72</v>
       </c>
       <c r="C64">
-        <v>-9.1</v>
+        <v>-8.8</v>
       </c>
       <c r="D64">
-        <v>-4.9</v>
+        <v>-4.3</v>
       </c>
       <c r="E64">
-        <v>-3.2</v>
+        <v>-1.4</v>
       </c>
       <c r="F64">
-        <v>-98.5</v>
+        <v>-93.5</v>
       </c>
       <c r="G64">
         <v>1.05</v>
@@ -3655,16 +3655,16 @@
         <v>73</v>
       </c>
       <c r="C65">
-        <v>-13.9</v>
+        <v>-13.6</v>
       </c>
       <c r="D65">
-        <v>-8.8</v>
+        <v>-8.1</v>
       </c>
       <c r="E65">
-        <v>-12.4</v>
+        <v>-10.5</v>
       </c>
       <c r="F65">
-        <v>-99</v>
+        <v>-94.1</v>
       </c>
       <c r="G65">
         <v>1.1</v>
@@ -3687,16 +3687,16 @@
         <v>74</v>
       </c>
       <c r="C66">
-        <v>-15.6</v>
+        <v>-15.5</v>
       </c>
       <c r="D66">
-        <v>-17.3</v>
+        <v>-16.9</v>
       </c>
       <c r="E66">
-        <v>-22.5</v>
+        <v>-21.5</v>
       </c>
       <c r="F66">
-        <v>-99.1</v>
+        <v>-96.5</v>
       </c>
       <c r="G66">
         <v>1.13</v>
@@ -3719,16 +3719,16 @@
         <v>75</v>
       </c>
       <c r="C67">
+        <v>-58.5</v>
+      </c>
+      <c r="D67">
+        <v>-62.4</v>
+      </c>
+      <c r="E67">
         <v>-58.6</v>
       </c>
-      <c r="D67">
-        <v>-62.6</v>
-      </c>
-      <c r="E67">
-        <v>-58.9</v>
-      </c>
       <c r="F67">
-        <v>-95.7</v>
+        <v>-94.7</v>
       </c>
       <c r="G67">
         <v>1.29</v>
@@ -3751,16 +3751,16 @@
         <v>76</v>
       </c>
       <c r="C68">
-        <v>-32.3</v>
+        <v>-31.7</v>
       </c>
       <c r="D68">
-        <v>-41.8</v>
+        <v>-40.5</v>
       </c>
       <c r="E68">
-        <v>-54.7</v>
+        <v>-51.5</v>
       </c>
       <c r="F68">
-        <v>-99.4</v>
+        <v>-91.1</v>
       </c>
       <c r="G68">
         <v>0.93</v>
@@ -3783,16 +3783,16 @@
         <v>77</v>
       </c>
       <c r="C69">
-        <v>-50.3</v>
+        <v>-50.2</v>
       </c>
       <c r="D69">
-        <v>-50.1</v>
+        <v>-49.9</v>
       </c>
       <c r="E69">
-        <v>-55.5</v>
+        <v>-55.1</v>
       </c>
       <c r="F69">
-        <v>-100</v>
+        <v>-99.1</v>
       </c>
       <c r="G69">
         <v>1.28</v>
@@ -3818,13 +3818,13 @@
         <v>-46.5</v>
       </c>
       <c r="D70">
-        <v>-46.1</v>
+        <v>-46</v>
       </c>
       <c r="E70">
-        <v>-53.2</v>
+        <v>-53.1</v>
       </c>
       <c r="F70">
-        <v>-100</v>
+        <v>-99.6</v>
       </c>
       <c r="G70">
         <v>1.3</v>
@@ -3847,16 +3847,16 @@
         <v>79</v>
       </c>
       <c r="C71">
-        <v>-22.7</v>
+        <v>-22.3</v>
       </c>
       <c r="D71">
-        <v>-34.4</v>
+        <v>-33.3</v>
       </c>
       <c r="E71">
-        <v>-39</v>
+        <v>-36.5</v>
       </c>
       <c r="F71">
-        <v>-99.6</v>
+        <v>-93.5</v>
       </c>
       <c r="G71">
         <v>1.04</v>
@@ -3879,16 +3879,16 @@
         <v>80</v>
       </c>
       <c r="C72">
-        <v>-29.2</v>
+        <v>-28.8</v>
       </c>
       <c r="D72">
-        <v>-36.5</v>
+        <v>-35.6</v>
       </c>
       <c r="E72">
-        <v>-54.7</v>
+        <v>-52.5</v>
       </c>
       <c r="F72">
-        <v>-97.9</v>
+        <v>-92.3</v>
       </c>
       <c r="G72">
         <v>0.82</v>
@@ -3911,16 +3911,16 @@
         <v>81</v>
       </c>
       <c r="C73">
-        <v>-11.7</v>
+        <v>-10.9</v>
       </c>
       <c r="D73">
-        <v>-25.9</v>
+        <v>-23.5</v>
       </c>
       <c r="E73">
-        <v>-30.9</v>
+        <v>-25.8</v>
       </c>
       <c r="F73">
-        <v>-100</v>
+        <v>-91.3</v>
       </c>
       <c r="G73">
         <v>1.3</v>
@@ -3943,16 +3943,16 @@
         <v>82</v>
       </c>
       <c r="C74">
-        <v>-3.1</v>
+        <v>-2.2</v>
       </c>
       <c r="D74">
-        <v>-11.9</v>
+        <v>-9.6</v>
       </c>
       <c r="E74">
-        <v>-28.7</v>
+        <v>-24.1</v>
       </c>
       <c r="F74">
-        <v>-100</v>
+        <v>-92.6</v>
       </c>
       <c r="G74">
         <v>1.29</v>
@@ -3975,16 +3975,16 @@
         <v>83</v>
       </c>
       <c r="C75">
-        <v>17</v>
+        <v>18.7</v>
       </c>
       <c r="D75">
-        <v>5.4</v>
+        <v>10.1</v>
       </c>
       <c r="E75">
-        <v>-22.7</v>
+        <v>-13.3</v>
       </c>
       <c r="F75">
-        <v>-100</v>
+        <v>-84.4</v>
       </c>
       <c r="G75">
         <v>1.3</v>
@@ -4007,16 +4007,16 @@
         <v>84</v>
       </c>
       <c r="C76">
-        <v>25.5</v>
+        <v>27.4</v>
       </c>
       <c r="D76">
-        <v>19.2</v>
+        <v>24.5</v>
       </c>
       <c r="E76">
-        <v>-14.5</v>
+        <v>-4.4</v>
       </c>
       <c r="F76">
-        <v>-100</v>
+        <v>-84.2</v>
       </c>
       <c r="G76">
         <v>1.3</v>
@@ -4039,16 +4039,16 @@
         <v>85</v>
       </c>
       <c r="C77">
-        <v>-5.7</v>
+        <v>-4.7</v>
       </c>
       <c r="D77">
-        <v>-21.7</v>
+        <v>-18.7</v>
       </c>
       <c r="E77">
-        <v>-36.6</v>
+        <v>-30.3</v>
       </c>
       <c r="F77">
-        <v>-100</v>
+        <v>-87.8</v>
       </c>
       <c r="G77">
         <v>1.31</v>
@@ -4071,16 +4071,16 @@
         <v>86</v>
       </c>
       <c r="C78">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="D78">
-        <v>-9.7</v>
+        <v>-4.6</v>
       </c>
       <c r="E78">
-        <v>-24.7</v>
+        <v>-14.1</v>
       </c>
       <c r="F78">
-        <v>-100</v>
+        <v>-82.1</v>
       </c>
       <c r="G78">
         <v>1.31</v>
@@ -4106,13 +4106,13 @@
         <v>-34.5</v>
       </c>
       <c r="D79">
-        <v>-31</v>
+        <v>-30.9</v>
       </c>
       <c r="E79">
-        <v>-44.3</v>
+        <v>-44.2</v>
       </c>
       <c r="F79">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G79">
         <v>1.3</v>
@@ -4167,16 +4167,16 @@
         <v>89</v>
       </c>
       <c r="C81">
-        <v>-31.1</v>
+        <v>-30.8</v>
       </c>
       <c r="D81">
-        <v>-40.9</v>
+        <v>-40.1</v>
       </c>
       <c r="E81">
-        <v>-43.5</v>
+        <v>-41.4</v>
       </c>
       <c r="F81">
-        <v>-99.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G81">
         <v>1.32</v>
@@ -4199,16 +4199,16 @@
         <v>90</v>
       </c>
       <c r="C82">
-        <v>-44.9</v>
+        <v>-44.2</v>
       </c>
       <c r="D82">
-        <v>-53.1</v>
+        <v>-51.4</v>
       </c>
       <c r="E82">
-        <v>-56.4</v>
+        <v>-52.1</v>
       </c>
       <c r="F82">
-        <v>-99.2</v>
+        <v>-88.1</v>
       </c>
       <c r="G82">
         <v>1.31</v>
@@ -4231,16 +4231,16 @@
         <v>91</v>
       </c>
       <c r="C83">
-        <v>-27.4</v>
+        <v>-26.9</v>
       </c>
       <c r="D83">
-        <v>-35.1</v>
+        <v>-33.8</v>
       </c>
       <c r="E83">
-        <v>-42.8</v>
+        <v>-39.9</v>
       </c>
       <c r="F83">
-        <v>-100</v>
+        <v>-93</v>
       </c>
       <c r="G83">
         <v>1.11</v>
@@ -4272,7 +4272,7 @@
         <v>-63.8</v>
       </c>
       <c r="F84">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G84">
         <v>2.07</v>
@@ -4295,7 +4295,7 @@
         <v>93</v>
       </c>
       <c r="C85">
-        <v>-49.7</v>
+        <v>-49.6</v>
       </c>
       <c r="D85">
         <v>-45</v>
@@ -4327,16 +4327,16 @@
         <v>94</v>
       </c>
       <c r="C86">
-        <v>-10.8</v>
+        <v>-10.6</v>
       </c>
       <c r="D86">
-        <v>-24.4</v>
+        <v>-23.8</v>
       </c>
       <c r="E86">
-        <v>-31</v>
+        <v>-29.6</v>
       </c>
       <c r="F86">
-        <v>-100</v>
+        <v>-96.5</v>
       </c>
       <c r="G86">
         <v>1.22</v>
@@ -4359,16 +4359,16 @@
         <v>95</v>
       </c>
       <c r="C87">
-        <v>-26.9</v>
+        <v>-26.8</v>
       </c>
       <c r="D87">
-        <v>-40.3</v>
+        <v>-40</v>
       </c>
       <c r="E87">
-        <v>-43.2</v>
+        <v>-42.4</v>
       </c>
       <c r="F87">
-        <v>-97.9</v>
+        <v>-95.6</v>
       </c>
       <c r="G87">
         <v>1.25</v>
@@ -4400,7 +4400,7 @@
         <v>-38.1</v>
       </c>
       <c r="F88">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G88">
         <v>1.21</v>
@@ -4426,13 +4426,13 @@
         <v>-41.9</v>
       </c>
       <c r="D89">
-        <v>-36.9</v>
+        <v>-36.8</v>
       </c>
       <c r="E89">
-        <v>-46</v>
+        <v>-45.8</v>
       </c>
       <c r="F89">
-        <v>-100</v>
+        <v>-99.6</v>
       </c>
       <c r="G89">
         <v>1.37</v>
@@ -4455,16 +4455,16 @@
         <v>98</v>
       </c>
       <c r="C90">
-        <v>-33.9</v>
+        <v>-33.8</v>
       </c>
       <c r="D90">
-        <v>-32.1</v>
+        <v>-31.9</v>
       </c>
       <c r="E90">
-        <v>-35.3</v>
+        <v>-34.8</v>
       </c>
       <c r="F90">
-        <v>-100</v>
+        <v>-98.7</v>
       </c>
       <c r="G90">
         <v>1.14</v>
@@ -4487,16 +4487,16 @@
         <v>99</v>
       </c>
       <c r="C91">
-        <v>-35.7</v>
+        <v>-35.5</v>
       </c>
       <c r="D91">
-        <v>-37.4</v>
+        <v>-37</v>
       </c>
       <c r="E91">
-        <v>-40.3</v>
+        <v>-39.3</v>
       </c>
       <c r="F91">
-        <v>-100</v>
+        <v>-97.6</v>
       </c>
       <c r="G91">
         <v>1.14</v>
@@ -4525,10 +4525,10 @@
         <v>-44.9</v>
       </c>
       <c r="E92">
-        <v>-62.7</v>
+        <v>-62.6</v>
       </c>
       <c r="F92">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G92">
         <v>1.76</v>
@@ -4551,16 +4551,16 @@
         <v>101</v>
       </c>
       <c r="C93">
-        <v>-35.8</v>
+        <v>-34.9</v>
       </c>
       <c r="D93">
-        <v>-45.3</v>
+        <v>-43.2</v>
       </c>
       <c r="E93">
-        <v>-47.9</v>
+        <v>-42.6</v>
       </c>
       <c r="F93">
-        <v>-99.7</v>
+        <v>-85.5</v>
       </c>
       <c r="G93">
         <v>1.25</v>
@@ -4583,16 +4583,16 @@
         <v>102</v>
       </c>
       <c r="C94">
-        <v>-28.2</v>
+        <v>-27.9</v>
       </c>
       <c r="D94">
-        <v>-39.3</v>
+        <v>-38.6</v>
       </c>
       <c r="E94">
-        <v>-43.9</v>
+        <v>-42</v>
       </c>
       <c r="F94">
-        <v>-99.2</v>
+        <v>-93.9</v>
       </c>
       <c r="G94">
         <v>1.31</v>
@@ -4615,16 +4615,16 @@
         <v>103</v>
       </c>
       <c r="C95">
-        <v>-42.2</v>
+        <v>-42</v>
       </c>
       <c r="D95">
-        <v>-51.1</v>
+        <v>-50.8</v>
       </c>
       <c r="E95">
-        <v>-54.8</v>
+        <v>-54.1</v>
       </c>
       <c r="F95">
-        <v>-98.5</v>
+        <v>-96.8</v>
       </c>
       <c r="G95">
         <v>1.35</v>
@@ -4650,13 +4650,13 @@
         <v>-46.2</v>
       </c>
       <c r="D96">
-        <v>-29.9</v>
+        <v>-29.8</v>
       </c>
       <c r="E96">
-        <v>-44</v>
+        <v>-43.9</v>
       </c>
       <c r="F96">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G96">
         <v>1.72</v>
@@ -4682,13 +4682,13 @@
         <v>-53</v>
       </c>
       <c r="D97">
-        <v>-41.4</v>
+        <v>-41.3</v>
       </c>
       <c r="E97">
-        <v>-55.4</v>
+        <v>-55.3</v>
       </c>
       <c r="F97">
-        <v>-100</v>
+        <v>-99.6</v>
       </c>
       <c r="G97">
         <v>1.73</v>
@@ -4717,10 +4717,10 @@
         <v>-35.1</v>
       </c>
       <c r="E98">
-        <v>-41.6</v>
+        <v>-41.5</v>
       </c>
       <c r="F98">
-        <v>-97.5</v>
+        <v>-97.2</v>
       </c>
       <c r="G98">
         <v>1.29</v>
@@ -4749,10 +4749,10 @@
         <v>-28.6</v>
       </c>
       <c r="E99">
-        <v>-37.1</v>
+        <v>-37</v>
       </c>
       <c r="F99">
-        <v>-99.2</v>
+        <v>-99</v>
       </c>
       <c r="G99">
         <v>1.34</v>
@@ -4775,16 +4775,16 @@
         <v>108</v>
       </c>
       <c r="C100">
-        <v>-62.1</v>
+        <v>-62</v>
       </c>
       <c r="D100">
-        <v>-48.9</v>
+        <v>-48.6</v>
       </c>
       <c r="E100">
-        <v>-60.5</v>
+        <v>-59.9</v>
       </c>
       <c r="F100">
-        <v>-100</v>
+        <v>-98.3</v>
       </c>
       <c r="G100">
         <v>1.68</v>
@@ -4807,16 +4807,16 @@
         <v>109</v>
       </c>
       <c r="C101">
-        <v>-30.2</v>
+        <v>-30</v>
       </c>
       <c r="D101">
-        <v>-45.1</v>
+        <v>-44.7</v>
       </c>
       <c r="E101">
-        <v>-52.4</v>
+        <v>-51.6</v>
       </c>
       <c r="F101">
-        <v>-100</v>
+        <v>-98</v>
       </c>
       <c r="G101">
         <v>1.28</v>
@@ -4839,16 +4839,16 @@
         <v>110</v>
       </c>
       <c r="C102">
-        <v>-27.6</v>
+        <v>-27.4</v>
       </c>
       <c r="D102">
-        <v>-39.8</v>
+        <v>-39.3</v>
       </c>
       <c r="E102">
-        <v>-48.8</v>
+        <v>-47.6</v>
       </c>
       <c r="F102">
-        <v>-100</v>
+        <v>-97.3</v>
       </c>
       <c r="G102">
         <v>1.28</v>
@@ -4871,16 +4871,16 @@
         <v>111</v>
       </c>
       <c r="C103">
-        <v>-18.1</v>
+        <v>-17.8</v>
       </c>
       <c r="D103">
-        <v>-25.2</v>
+        <v>-24.5</v>
       </c>
       <c r="E103">
-        <v>-19.8</v>
+        <v>-18.3</v>
       </c>
       <c r="F103">
-        <v>-100</v>
+        <v>-96.8</v>
       </c>
       <c r="G103">
         <v>1.39</v>
@@ -4903,16 +4903,16 @@
         <v>112</v>
       </c>
       <c r="C104">
-        <v>-27.7</v>
+        <v>-27.5</v>
       </c>
       <c r="D104">
-        <v>-39.1</v>
+        <v>-38.5</v>
       </c>
       <c r="E104">
-        <v>-47.3</v>
+        <v>-46.1</v>
       </c>
       <c r="F104">
-        <v>-100</v>
+        <v>-97.3</v>
       </c>
       <c r="G104">
         <v>1.3</v>
@@ -4935,16 +4935,16 @@
         <v>113</v>
       </c>
       <c r="C105">
-        <v>-25</v>
+        <v>-24.8</v>
       </c>
       <c r="D105">
-        <v>-33.4</v>
+        <v>-32.8</v>
       </c>
       <c r="E105">
-        <v>-41.1</v>
+        <v>-39.9</v>
       </c>
       <c r="F105">
-        <v>-100</v>
+        <v>-96.9</v>
       </c>
       <c r="G105">
         <v>1.13</v>
@@ -4967,16 +4967,16 @@
         <v>114</v>
       </c>
       <c r="C106">
-        <v>-24.9</v>
+        <v>-24.7</v>
       </c>
       <c r="D106">
-        <v>-37.2</v>
+        <v>-36.5</v>
       </c>
       <c r="E106">
-        <v>-41.3</v>
+        <v>-39.8</v>
       </c>
       <c r="F106">
-        <v>-100</v>
+        <v>-96.4</v>
       </c>
       <c r="G106">
         <v>1.15</v>
@@ -4999,16 +4999,16 @@
         <v>115</v>
       </c>
       <c r="C107">
-        <v>-23.6</v>
+        <v>-23.4</v>
       </c>
       <c r="D107">
-        <v>-37.3</v>
+        <v>-36.6</v>
       </c>
       <c r="E107">
-        <v>-46.1</v>
+        <v>-44.6</v>
       </c>
       <c r="F107">
-        <v>-100</v>
+        <v>-96.7</v>
       </c>
       <c r="G107">
         <v>1.32</v>
@@ -5031,16 +5031,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>-25.2</v>
+        <v>-24.9</v>
       </c>
       <c r="D108">
-        <v>-32.1</v>
+        <v>-31.3</v>
       </c>
       <c r="E108">
-        <v>-36</v>
+        <v>-34.3</v>
       </c>
       <c r="F108">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="G108">
         <v>1.14</v>
@@ -5063,16 +5063,16 @@
         <v>117</v>
       </c>
       <c r="C109">
-        <v>-25.8</v>
+        <v>-25.5</v>
       </c>
       <c r="D109">
-        <v>-27.7</v>
+        <v>-26.7</v>
       </c>
       <c r="E109">
-        <v>-26.4</v>
+        <v>-24.3</v>
       </c>
       <c r="F109">
-        <v>-100</v>
+        <v>-95.3</v>
       </c>
       <c r="G109">
         <v>1.45</v>
@@ -5095,16 +5095,16 @@
         <v>118</v>
       </c>
       <c r="C110">
-        <v>-23.5</v>
+        <v>-23</v>
       </c>
       <c r="D110">
-        <v>-21.4</v>
+        <v>-20.1</v>
       </c>
       <c r="E110">
-        <v>-16.3</v>
+        <v>-13.4</v>
       </c>
       <c r="F110">
-        <v>-100</v>
+        <v>-93.7</v>
       </c>
       <c r="G110">
         <v>1.55</v>
@@ -5127,16 +5127,16 @@
         <v>119</v>
       </c>
       <c r="C111">
-        <v>-25.8</v>
+        <v>-25.6</v>
       </c>
       <c r="D111">
-        <v>-36.3</v>
+        <v>-35.8</v>
       </c>
       <c r="E111">
-        <v>-35.4</v>
+        <v>-34.2</v>
       </c>
       <c r="F111">
-        <v>-100</v>
+        <v>-97.3</v>
       </c>
       <c r="G111">
         <v>1.33</v>
@@ -5159,16 +5159,16 @@
         <v>120</v>
       </c>
       <c r="C112">
-        <v>-27.9</v>
+        <v>-27.5</v>
       </c>
       <c r="D112">
-        <v>-39.8</v>
+        <v>-38.8</v>
       </c>
       <c r="E112">
-        <v>-45.6</v>
+        <v>-43.4</v>
       </c>
       <c r="F112">
-        <v>-100</v>
+        <v>-94.9</v>
       </c>
       <c r="G112">
         <v>1.27</v>
@@ -5191,16 +5191,16 @@
         <v>121</v>
       </c>
       <c r="C113">
-        <v>-50.9</v>
+        <v>-50.7</v>
       </c>
       <c r="D113">
-        <v>-44.9</v>
+        <v>-44.5</v>
       </c>
       <c r="E113">
-        <v>-59.2</v>
+        <v>-58.4</v>
       </c>
       <c r="F113">
-        <v>-100</v>
+        <v>-97.9</v>
       </c>
       <c r="G113">
         <v>1.08</v>
@@ -5223,16 +5223,16 @@
         <v>122</v>
       </c>
       <c r="C114">
-        <v>-57.5</v>
+        <v>-57.4</v>
       </c>
       <c r="D114">
-        <v>-54.5</v>
+        <v>-54</v>
       </c>
       <c r="E114">
-        <v>-63.4</v>
+        <v>-62.3</v>
       </c>
       <c r="F114">
-        <v>-100</v>
+        <v>-97.6</v>
       </c>
       <c r="G114">
         <v>0.99</v>
@@ -5255,16 +5255,16 @@
         <v>123</v>
       </c>
       <c r="C115">
-        <v>-8.4</v>
+        <v>-7.7</v>
       </c>
       <c r="D115">
-        <v>-17.9</v>
+        <v>-16</v>
       </c>
       <c r="E115">
-        <v>-30.7</v>
+        <v>-26.1</v>
       </c>
       <c r="F115">
-        <v>-100</v>
+        <v>-90.8</v>
       </c>
       <c r="G115">
         <v>1.28</v>
@@ -5287,16 +5287,16 @@
         <v>124</v>
       </c>
       <c r="C116">
-        <v>-54.6</v>
+        <v>-54.2</v>
       </c>
       <c r="D116">
-        <v>-53.4</v>
+        <v>-52.5</v>
       </c>
       <c r="E116">
-        <v>-52.9</v>
+        <v>-50.8</v>
       </c>
       <c r="F116">
-        <v>-100</v>
+        <v>-95.6</v>
       </c>
       <c r="G116">
         <v>1.67</v>
@@ -5319,16 +5319,16 @@
         <v>125</v>
       </c>
       <c r="C117">
-        <v>-18</v>
+        <v>-17.6</v>
       </c>
       <c r="D117">
-        <v>-18.9</v>
+        <v>-17.7</v>
       </c>
       <c r="E117">
-        <v>-11.1</v>
+        <v>-8.6</v>
       </c>
       <c r="F117">
-        <v>-100</v>
+        <v>-94.8</v>
       </c>
       <c r="G117">
         <v>1.41</v>
@@ -5351,16 +5351,16 @@
         <v>126</v>
       </c>
       <c r="C118">
-        <v>-23.2</v>
+        <v>-23.1</v>
       </c>
       <c r="D118">
-        <v>-35.2</v>
+        <v>-34.9</v>
       </c>
       <c r="E118">
-        <v>-43.7</v>
+        <v>-42.9</v>
       </c>
       <c r="F118">
-        <v>-100</v>
+        <v>-98.2</v>
       </c>
       <c r="G118">
         <v>1.33</v>
@@ -5383,16 +5383,16 @@
         <v>127</v>
       </c>
       <c r="C119">
-        <v>-14.6</v>
+        <v>-14.4</v>
       </c>
       <c r="D119">
-        <v>-24.7</v>
+        <v>-24.4</v>
       </c>
       <c r="E119">
-        <v>-37.3</v>
+        <v>-36.5</v>
       </c>
       <c r="F119">
-        <v>-100</v>
+        <v>-98.3</v>
       </c>
       <c r="G119">
         <v>1.33</v>
@@ -5415,16 +5415,16 @@
         <v>128</v>
       </c>
       <c r="C120">
-        <v>-16.3</v>
+        <v>-15.9</v>
       </c>
       <c r="D120">
-        <v>-25.2</v>
+        <v>-24.2</v>
       </c>
       <c r="E120">
-        <v>-34.9</v>
+        <v>-32.5</v>
       </c>
       <c r="F120">
-        <v>-100</v>
+        <v>-95.4</v>
       </c>
       <c r="G120">
         <v>1.3</v>
@@ -5447,16 +5447,16 @@
         <v>129</v>
       </c>
       <c r="C121">
-        <v>-52.1</v>
+        <v>-52</v>
       </c>
       <c r="D121">
-        <v>-47.6</v>
+        <v>-47.4</v>
       </c>
       <c r="E121">
-        <v>-61.5</v>
+        <v>-60.9</v>
       </c>
       <c r="F121">
-        <v>-100</v>
+        <v>-98.5</v>
       </c>
       <c r="G121">
         <v>1.07</v>
@@ -5479,16 +5479,16 @@
         <v>130</v>
       </c>
       <c r="C122">
-        <v>-25.2</v>
+        <v>-24.8</v>
       </c>
       <c r="D122">
-        <v>-38.3</v>
+        <v>-37.2</v>
       </c>
       <c r="E122">
-        <v>-48.1</v>
+        <v>-45.6</v>
       </c>
       <c r="F122">
-        <v>-100</v>
+        <v>-94.4</v>
       </c>
       <c r="G122">
         <v>1.31</v>
@@ -5511,16 +5511,16 @@
         <v>131</v>
       </c>
       <c r="C123">
-        <v>-24.7</v>
+        <v>-24.3</v>
       </c>
       <c r="D123">
-        <v>-33.7</v>
+        <v>-32.7</v>
       </c>
       <c r="E123">
-        <v>-39.4</v>
+        <v>-37.4</v>
       </c>
       <c r="F123">
-        <v>-100</v>
+        <v>-95.3</v>
       </c>
       <c r="G123">
         <v>1.17</v>
@@ -5543,16 +5543,16 @@
         <v>132</v>
       </c>
       <c r="C124">
-        <v>-20.3</v>
+        <v>-19.6</v>
       </c>
       <c r="D124">
-        <v>-28.8</v>
+        <v>-26.8</v>
       </c>
       <c r="E124">
-        <v>-24</v>
+        <v>-19.8</v>
       </c>
       <c r="F124">
-        <v>-100</v>
+        <v>-91.2</v>
       </c>
       <c r="G124">
         <v>1.21</v>
@@ -5575,16 +5575,16 @@
         <v>133</v>
       </c>
       <c r="C125">
-        <v>-36.5</v>
+        <v>-36.1</v>
       </c>
       <c r="D125">
-        <v>-30.9</v>
+        <v>-29.6</v>
       </c>
       <c r="E125">
-        <v>-38.4</v>
+        <v>-35.8</v>
       </c>
       <c r="F125">
-        <v>-100</v>
+        <v>-94.9</v>
       </c>
       <c r="G125">
         <v>1.65</v>
@@ -5607,16 +5607,16 @@
         <v>134</v>
       </c>
       <c r="C126">
-        <v>-28.8</v>
+        <v>-28.5</v>
       </c>
       <c r="D126">
-        <v>-26.1</v>
+        <v>-25</v>
       </c>
       <c r="E126">
-        <v>-24.1</v>
+        <v>-21.8</v>
       </c>
       <c r="F126">
-        <v>-100</v>
+        <v>-95.3</v>
       </c>
       <c r="G126">
         <v>1.65</v>
@@ -5639,16 +5639,16 @@
         <v>135</v>
       </c>
       <c r="C127">
-        <v>-19.6</v>
+        <v>-19.2</v>
       </c>
       <c r="D127">
-        <v>-16.8</v>
+        <v>-15.7</v>
       </c>
       <c r="E127">
-        <v>-8.9</v>
+        <v>-6.6</v>
       </c>
       <c r="F127">
-        <v>-100</v>
+        <v>-95.5</v>
       </c>
       <c r="G127">
         <v>1.43</v>
@@ -5671,16 +5671,16 @@
         <v>136</v>
       </c>
       <c r="C128">
-        <v>-21.3</v>
+        <v>-20.5</v>
       </c>
       <c r="D128">
-        <v>-25.5</v>
+        <v>-23.1</v>
       </c>
       <c r="E128">
-        <v>-14.6</v>
+        <v>-9.5</v>
       </c>
       <c r="F128">
-        <v>-100</v>
+        <v>-89.8</v>
       </c>
       <c r="G128">
         <v>1.18</v>
@@ -5703,16 +5703,16 @@
         <v>137</v>
       </c>
       <c r="C129">
-        <v>-32.2</v>
+        <v>-31.9</v>
       </c>
       <c r="D129">
-        <v>-26.8</v>
+        <v>-25.9</v>
       </c>
       <c r="E129">
-        <v>-30.4</v>
+        <v>-28.4</v>
       </c>
       <c r="F129">
-        <v>-100</v>
+        <v>-95.7</v>
       </c>
       <c r="G129">
         <v>1.67</v>
@@ -5735,16 +5735,16 @@
         <v>138</v>
       </c>
       <c r="C130">
-        <v>-35</v>
+        <v>-34.8</v>
       </c>
       <c r="D130">
-        <v>-28.5</v>
+        <v>-27.9</v>
       </c>
       <c r="E130">
-        <v>-31</v>
+        <v>-29.7</v>
       </c>
       <c r="F130">
-        <v>-100</v>
+        <v>-96.9</v>
       </c>
       <c r="G130">
         <v>1.64</v>
@@ -5767,16 +5767,16 @@
         <v>139</v>
       </c>
       <c r="C131">
-        <v>-27.3</v>
+        <v>-26.7</v>
       </c>
       <c r="D131">
-        <v>-37.7</v>
+        <v>-36</v>
       </c>
       <c r="E131">
-        <v>-42.4</v>
+        <v>-38.9</v>
       </c>
       <c r="F131">
-        <v>-100</v>
+        <v>-93</v>
       </c>
       <c r="G131">
         <v>1.31</v>
@@ -5799,16 +5799,16 @@
         <v>140</v>
       </c>
       <c r="C132">
-        <v>-24.7</v>
+        <v>-24.3</v>
       </c>
       <c r="D132">
-        <v>-28.4</v>
+        <v>-27.2</v>
       </c>
       <c r="E132">
-        <v>-22</v>
+        <v>-19.5</v>
       </c>
       <c r="F132">
-        <v>-100</v>
+        <v>-94.7</v>
       </c>
       <c r="G132">
         <v>1.15</v>
@@ -5831,16 +5831,16 @@
         <v>141</v>
       </c>
       <c r="C133">
-        <v>-53.1</v>
+        <v>-52.9</v>
       </c>
       <c r="D133">
-        <v>-55.4</v>
+        <v>-54.7</v>
       </c>
       <c r="E133">
-        <v>-66.2</v>
+        <v>-64.6</v>
       </c>
       <c r="F133">
-        <v>-100</v>
+        <v>-96.3</v>
       </c>
       <c r="G133">
         <v>0.98</v>
@@ -5863,16 +5863,16 @@
         <v>142</v>
       </c>
       <c r="C134">
-        <v>-47.8</v>
+        <v>-47.5</v>
       </c>
       <c r="D134">
-        <v>-41.3</v>
+        <v>-40.3</v>
       </c>
       <c r="E134">
-        <v>-58.2</v>
+        <v>-56.1</v>
       </c>
       <c r="F134">
-        <v>-100</v>
+        <v>-95.2</v>
       </c>
       <c r="G134">
         <v>0.97</v>
@@ -5895,16 +5895,16 @@
         <v>143</v>
       </c>
       <c r="C135">
-        <v>-20.9</v>
+        <v>-20.5</v>
       </c>
       <c r="D135">
-        <v>-24.1</v>
+        <v>-22.9</v>
       </c>
       <c r="E135">
-        <v>-17.3</v>
+        <v>-14.8</v>
       </c>
       <c r="F135">
-        <v>-100</v>
+        <v>-94.6</v>
       </c>
       <c r="G135">
         <v>1.29</v>
@@ -5927,16 +5927,16 @@
         <v>144</v>
       </c>
       <c r="C136">
-        <v>-31.3</v>
+        <v>-30.8</v>
       </c>
       <c r="D136">
-        <v>-30.4</v>
+        <v>-28.9</v>
       </c>
       <c r="E136">
-        <v>-13.7</v>
+        <v>-10.7</v>
       </c>
       <c r="F136">
-        <v>-100</v>
+        <v>-93.7</v>
       </c>
       <c r="G136">
         <v>1.25</v>
@@ -5959,16 +5959,16 @@
         <v>145</v>
       </c>
       <c r="C137">
-        <v>-13.9</v>
+        <v>-13.8</v>
       </c>
       <c r="D137">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E137">
-        <v>-4.9</v>
+        <v>-3.6</v>
       </c>
       <c r="F137">
-        <v>-100</v>
+        <v>-97.7</v>
       </c>
       <c r="G137">
         <v>1.55</v>
@@ -5994,13 +5994,13 @@
         <v>-29.9</v>
       </c>
       <c r="D138">
-        <v>-36.5</v>
+        <v>-36.3</v>
       </c>
       <c r="E138">
-        <v>-44.1</v>
+        <v>-43.7</v>
       </c>
       <c r="F138">
-        <v>-98.8</v>
+        <v>-97.8</v>
       </c>
       <c r="G138">
         <v>1.34</v>
@@ -6023,16 +6023,16 @@
         <v>147</v>
       </c>
       <c r="C139">
-        <v>-43</v>
+        <v>-42.6</v>
       </c>
       <c r="D139">
-        <v>-49.5</v>
+        <v>-48.3</v>
       </c>
       <c r="E139">
-        <v>-53.3</v>
+        <v>-50.4</v>
       </c>
       <c r="F139">
-        <v>-98.3</v>
+        <v>-90.9</v>
       </c>
       <c r="G139">
         <v>1.34</v>
@@ -6055,16 +6055,16 @@
         <v>148</v>
       </c>
       <c r="C140">
-        <v>-27.2</v>
+        <v>-26.9</v>
       </c>
       <c r="D140">
-        <v>-35.2</v>
+        <v>-34.6</v>
       </c>
       <c r="E140">
-        <v>-37.7</v>
+        <v>-36.4</v>
       </c>
       <c r="F140">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="G140">
         <v>1.14</v>
@@ -6087,16 +6087,16 @@
         <v>149</v>
       </c>
       <c r="C141">
-        <v>-24.7</v>
+        <v>-24.6</v>
       </c>
       <c r="D141">
-        <v>-30.8</v>
+        <v>-30.3</v>
       </c>
       <c r="E141">
-        <v>-38</v>
+        <v>-37</v>
       </c>
       <c r="F141">
-        <v>-100</v>
+        <v>-97.5</v>
       </c>
       <c r="G141">
         <v>1.13</v>
@@ -6119,16 +6119,16 @@
         <v>150</v>
       </c>
       <c r="C142">
-        <v>-57.2</v>
+        <v>-57</v>
       </c>
       <c r="D142">
-        <v>-57.1</v>
+        <v>-56.5</v>
       </c>
       <c r="E142">
-        <v>-67.3</v>
+        <v>-66.2</v>
       </c>
       <c r="F142">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="G142">
         <v>1.15</v>
@@ -6151,16 +6151,16 @@
         <v>151</v>
       </c>
       <c r="C143">
-        <v>-34.8</v>
+        <v>-34.7</v>
       </c>
       <c r="D143">
-        <v>-43.5</v>
+        <v>-43.3</v>
       </c>
       <c r="E143">
-        <v>-51.1</v>
+        <v>-50.7</v>
       </c>
       <c r="F143">
-        <v>-99.1</v>
+        <v>-98</v>
       </c>
       <c r="G143">
         <v>1.35</v>
@@ -6183,16 +6183,16 @@
         <v>152</v>
       </c>
       <c r="C144">
-        <v>-45.2</v>
+        <v>-45</v>
       </c>
       <c r="D144">
-        <v>-43.3</v>
+        <v>-42.7</v>
       </c>
       <c r="E144">
-        <v>-51.9</v>
+        <v>-50.5</v>
       </c>
       <c r="F144">
-        <v>-100</v>
+        <v>-96.9</v>
       </c>
       <c r="G144">
         <v>1.47</v>
@@ -6215,16 +6215,16 @@
         <v>153</v>
       </c>
       <c r="C145">
-        <v>-37.3</v>
+        <v>-37.1</v>
       </c>
       <c r="D145">
-        <v>-40.3</v>
+        <v>-39.8</v>
       </c>
       <c r="E145">
-        <v>-43.9</v>
+        <v>-42.9</v>
       </c>
       <c r="F145">
-        <v>-100</v>
+        <v>-97.8</v>
       </c>
       <c r="G145">
         <v>1.39</v>
@@ -6247,16 +6247,16 @@
         <v>154</v>
       </c>
       <c r="C146">
-        <v>-52</v>
+        <v>-51.8</v>
       </c>
       <c r="D146">
-        <v>-50.1</v>
+        <v>-49.5</v>
       </c>
       <c r="E146">
-        <v>-60.4</v>
+        <v>-59.2</v>
       </c>
       <c r="F146">
-        <v>-100</v>
+        <v>-96.9</v>
       </c>
       <c r="G146">
         <v>1.34</v>
@@ -6279,16 +6279,16 @@
         <v>155</v>
       </c>
       <c r="C147">
-        <v>-32.3</v>
+        <v>-31.9</v>
       </c>
       <c r="D147">
-        <v>-40.8</v>
+        <v>-39.5</v>
       </c>
       <c r="E147">
-        <v>-46</v>
+        <v>-43.4</v>
       </c>
       <c r="F147">
-        <v>-100</v>
+        <v>-94.2</v>
       </c>
       <c r="G147">
         <v>1.31</v>
@@ -6311,16 +6311,16 @@
         <v>156</v>
       </c>
       <c r="C148">
-        <v>-30.3</v>
+        <v>-29.9</v>
       </c>
       <c r="D148">
-        <v>-41.7</v>
+        <v>-40.7</v>
       </c>
       <c r="E148">
-        <v>-54.9</v>
+        <v>-52.6</v>
       </c>
       <c r="F148">
-        <v>-99.9</v>
+        <v>-94</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -6343,16 +6343,16 @@
         <v>157</v>
       </c>
       <c r="C149">
-        <v>-51.2</v>
+        <v>-50.8</v>
       </c>
       <c r="D149">
-        <v>-39.4</v>
+        <v>-38.3</v>
       </c>
       <c r="E149">
-        <v>-58.3</v>
+        <v>-56</v>
       </c>
       <c r="F149">
-        <v>-100</v>
+        <v>-95.1</v>
       </c>
       <c r="G149">
         <v>0.98</v>
@@ -6375,16 +6375,16 @@
         <v>158</v>
       </c>
       <c r="C150">
-        <v>-11.5</v>
+        <v>-10.5</v>
       </c>
       <c r="D150">
-        <v>-7.8</v>
+        <v>-4.9</v>
       </c>
       <c r="E150">
-        <v>-18.9</v>
+        <v>-12.9</v>
       </c>
       <c r="F150">
-        <v>-100</v>
+        <v>-89.8</v>
       </c>
       <c r="G150">
         <v>1.3</v>
@@ -6407,16 +6407,16 @@
         <v>159</v>
       </c>
       <c r="C151">
-        <v>-14.5</v>
+        <v>-13.7</v>
       </c>
       <c r="D151">
-        <v>-26.9</v>
+        <v>-24.7</v>
       </c>
       <c r="E151">
-        <v>-38.4</v>
+        <v>-33.9</v>
       </c>
       <c r="F151">
-        <v>-100</v>
+        <v>-92.5</v>
       </c>
       <c r="G151">
         <v>1.3</v>
@@ -6439,16 +6439,16 @@
         <v>160</v>
       </c>
       <c r="C152">
-        <v>-9.8</v>
+        <v>-8.6</v>
       </c>
       <c r="D152">
-        <v>-23.2</v>
+        <v>-20</v>
       </c>
       <c r="E152">
-        <v>-34.4</v>
+        <v>-27.7</v>
       </c>
       <c r="F152">
-        <v>-100</v>
+        <v>-89.1</v>
       </c>
       <c r="G152">
         <v>1.31</v>
@@ -6471,16 +6471,16 @@
         <v>161</v>
       </c>
       <c r="C153">
-        <v>-16.3</v>
+        <v>-15.3</v>
       </c>
       <c r="D153">
-        <v>-26.7</v>
+        <v>-23.9</v>
       </c>
       <c r="E153">
-        <v>-37.1</v>
+        <v>-31.2</v>
       </c>
       <c r="F153">
-        <v>-100</v>
+        <v>-88.7</v>
       </c>
       <c r="G153">
         <v>1.31</v>
@@ -6503,16 +6503,16 @@
         <v>162</v>
       </c>
       <c r="C154">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>-4.1</v>
+        <v>-3.6</v>
       </c>
       <c r="E154">
-        <v>-28.6</v>
+        <v>-27.4</v>
       </c>
       <c r="F154">
-        <v>-100</v>
+        <v>-97.4</v>
       </c>
       <c r="G154">
         <v>1.32</v>
@@ -6544,7 +6544,7 @@
         <v>-37.2</v>
       </c>
       <c r="F155">
-        <v>-99.4</v>
+        <v>-99.2</v>
       </c>
       <c r="G155">
         <v>1.13</v>
@@ -6567,16 +6567,16 @@
         <v>164</v>
       </c>
       <c r="C156">
-        <v>-28.1</v>
+        <v>-27.6</v>
       </c>
       <c r="D156">
-        <v>-40.3</v>
+        <v>-39.2</v>
       </c>
       <c r="E156">
-        <v>-40.8</v>
+        <v>-38.2</v>
       </c>
       <c r="F156">
-        <v>-99.7</v>
+        <v>-93.9</v>
       </c>
       <c r="G156">
         <v>1.04</v>
@@ -6599,16 +6599,16 @@
         <v>165</v>
       </c>
       <c r="C157">
-        <v>-25.9</v>
+        <v>-25.3</v>
       </c>
       <c r="D157">
-        <v>-25.4</v>
+        <v>-24</v>
       </c>
       <c r="E157">
-        <v>-45.1</v>
+        <v>-41.7</v>
       </c>
       <c r="F157">
-        <v>-99.6</v>
+        <v>-91.4</v>
       </c>
       <c r="G157">
         <v>0.72</v>
@@ -6631,16 +6631,16 @@
         <v>166</v>
       </c>
       <c r="C158">
-        <v>-22.5</v>
+        <v>-21.8</v>
       </c>
       <c r="D158">
-        <v>-23.7</v>
+        <v>-22</v>
       </c>
       <c r="E158">
-        <v>-46.1</v>
+        <v>-41.9</v>
       </c>
       <c r="F158">
-        <v>-97.5</v>
+        <v>-86.8</v>
       </c>
       <c r="G158">
         <v>0.67</v>
@@ -6663,16 +6663,16 @@
         <v>167</v>
       </c>
       <c r="C159">
-        <v>-8.9</v>
+        <v>-8.5</v>
       </c>
       <c r="D159">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="E159">
-        <v>-26.8</v>
+        <v>-24.4</v>
       </c>
       <c r="F159">
-        <v>-96.4</v>
+        <v>-90.6</v>
       </c>
       <c r="G159">
         <v>0.68</v>
@@ -6695,16 +6695,16 @@
         <v>168</v>
       </c>
       <c r="C160">
-        <v>-15.3</v>
+        <v>-15</v>
       </c>
       <c r="D160">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="E160">
-        <v>-30</v>
+        <v>-28.4</v>
       </c>
       <c r="F160">
-        <v>-99.5</v>
+        <v>-96.2</v>
       </c>
       <c r="G160">
         <v>0.52</v>
@@ -6727,16 +6727,16 @@
         <v>169</v>
       </c>
       <c r="C161">
-        <v>-16.2</v>
+        <v>-16</v>
       </c>
       <c r="D161">
-        <v>-8.5</v>
+        <v>-8.2</v>
       </c>
       <c r="E161">
-        <v>-30</v>
+        <v>-29.1</v>
       </c>
       <c r="F161">
-        <v>-99.4</v>
+        <v>-97.4</v>
       </c>
       <c r="G161">
         <v>0.54</v>
@@ -6759,16 +6759,16 @@
         <v>170</v>
       </c>
       <c r="C162">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="D162">
-        <v>-1.6</v>
+        <v>-1.3</v>
       </c>
       <c r="E162">
-        <v>-32.6</v>
+        <v>-31.8</v>
       </c>
       <c r="F162">
-        <v>-98.7</v>
+        <v>-97</v>
       </c>
       <c r="G162">
         <v>0.77</v>
@@ -6791,16 +6791,16 @@
         <v>171</v>
       </c>
       <c r="C163">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>-0.9</v>
+        <v>-0.5</v>
       </c>
       <c r="E163">
-        <v>-28.9</v>
+        <v>-27.8</v>
       </c>
       <c r="F163">
-        <v>-99.7</v>
+        <v>-97.1</v>
       </c>
       <c r="G163">
         <v>0.8</v>
@@ -6823,16 +6823,16 @@
         <v>172</v>
       </c>
       <c r="C164">
-        <v>-12.4</v>
+        <v>-11.9</v>
       </c>
       <c r="D164">
-        <v>-2.2</v>
+        <v>-0.7</v>
       </c>
       <c r="E164">
-        <v>-40.1</v>
+        <v>-36.8</v>
       </c>
       <c r="F164">
-        <v>-99.9</v>
+        <v>-92.7</v>
       </c>
       <c r="G164">
         <v>0.35</v>
@@ -6855,16 +6855,16 @@
         <v>173</v>
       </c>
       <c r="C165">
-        <v>-20.5</v>
+        <v>-19.6</v>
       </c>
       <c r="D165">
-        <v>-8.4</v>
+        <v>-5.9</v>
       </c>
       <c r="E165">
-        <v>-42.8</v>
+        <v>-36.8</v>
       </c>
       <c r="F165">
-        <v>-100</v>
+        <v>-87.3</v>
       </c>
       <c r="G165">
         <v>0.41</v>
@@ -6887,16 +6887,16 @@
         <v>174</v>
       </c>
       <c r="C166">
-        <v>-25.6</v>
+        <v>-25.3</v>
       </c>
       <c r="D166">
-        <v>-18.9</v>
+        <v>-18.3</v>
       </c>
       <c r="E166">
-        <v>-46.1</v>
+        <v>-44.7</v>
       </c>
       <c r="F166">
-        <v>-100</v>
+        <v>-96.9</v>
       </c>
       <c r="G166">
         <v>0.54</v>
@@ -6922,13 +6922,13 @@
         <v>-59.9</v>
       </c>
       <c r="D167">
-        <v>-56.9</v>
+        <v>-56.8</v>
       </c>
       <c r="E167">
-        <v>-65.2</v>
+        <v>-65</v>
       </c>
       <c r="F167">
-        <v>-98.3</v>
+        <v>-97.9</v>
       </c>
       <c r="G167">
         <v>0.73</v>
@@ -7015,16 +7015,16 @@
         <v>178</v>
       </c>
       <c r="C170">
-        <v>-20</v>
+        <v>-19.8</v>
       </c>
       <c r="D170">
-        <v>-19.9</v>
+        <v>-19.4</v>
       </c>
       <c r="E170">
-        <v>-45.1</v>
+        <v>-43.9</v>
       </c>
       <c r="F170">
-        <v>-99.8</v>
+        <v>-97</v>
       </c>
       <c r="G170">
         <v>0.68</v>
@@ -7047,16 +7047,16 @@
         <v>179</v>
       </c>
       <c r="C171">
-        <v>-13.3</v>
+        <v>-13</v>
       </c>
       <c r="D171">
-        <v>-14.8</v>
+        <v>-14.2</v>
       </c>
       <c r="E171">
-        <v>-40.4</v>
+        <v>-38.8</v>
       </c>
       <c r="F171">
-        <v>-100</v>
+        <v>-96.3</v>
       </c>
       <c r="G171">
         <v>0.9</v>
@@ -7079,16 +7079,16 @@
         <v>180</v>
       </c>
       <c r="C172">
-        <v>-22.2</v>
+        <v>-22</v>
       </c>
       <c r="D172">
-        <v>-23</v>
+        <v>-22.4</v>
       </c>
       <c r="E172">
-        <v>-48.8</v>
+        <v>-47.1</v>
       </c>
       <c r="F172">
-        <v>-100</v>
+        <v>-95.9</v>
       </c>
       <c r="G172">
         <v>0.72</v>
@@ -7111,16 +7111,16 @@
         <v>181</v>
       </c>
       <c r="C173">
-        <v>-40.4</v>
+        <v>-40.3</v>
       </c>
       <c r="D173">
-        <v>-33.8</v>
+        <v>-33.7</v>
       </c>
       <c r="E173">
-        <v>-38.5</v>
+        <v>-38.4</v>
       </c>
       <c r="F173">
-        <v>-99.8</v>
+        <v>-99.7</v>
       </c>
       <c r="G173">
         <v>0.78</v>
@@ -7175,16 +7175,16 @@
         <v>183</v>
       </c>
       <c r="C175">
-        <v>-38.7</v>
+        <v>-38</v>
       </c>
       <c r="D175">
-        <v>-41.6</v>
+        <v>-39.8</v>
       </c>
       <c r="E175">
-        <v>-70.8</v>
+        <v>-67.1</v>
       </c>
       <c r="F175">
-        <v>-99.8</v>
+        <v>-91</v>
       </c>
       <c r="G175">
         <v>0.42</v>
@@ -7207,16 +7207,16 @@
         <v>184</v>
       </c>
       <c r="C176">
-        <v>-28.6</v>
+        <v>-28</v>
       </c>
       <c r="D176">
-        <v>-22</v>
+        <v>-20.4</v>
       </c>
       <c r="E176">
-        <v>-52.1</v>
+        <v>-48.5</v>
       </c>
       <c r="F176">
-        <v>-100</v>
+        <v>-91.7</v>
       </c>
       <c r="G176">
         <v>0.51</v>
@@ -7239,16 +7239,16 @@
         <v>185</v>
       </c>
       <c r="C177">
-        <v>-28.8</v>
+        <v>-28.1</v>
       </c>
       <c r="D177">
-        <v>-25.1</v>
+        <v>-23.1</v>
       </c>
       <c r="E177">
-        <v>-60.4</v>
+        <v>-56</v>
       </c>
       <c r="F177">
-        <v>-100</v>
+        <v>-90.5</v>
       </c>
       <c r="G177">
         <v>0.04</v>
@@ -7271,16 +7271,16 @@
         <v>186</v>
       </c>
       <c r="C178">
-        <v>-49.5</v>
+        <v>-49.2</v>
       </c>
       <c r="D178">
-        <v>-50.6</v>
+        <v>-49.9</v>
       </c>
       <c r="E178">
-        <v>-65.7</v>
+        <v>-64.4</v>
       </c>
       <c r="F178">
-        <v>-99.9</v>
+        <v>-96.7</v>
       </c>
       <c r="G178">
         <v>0.79</v>
@@ -7367,16 +7367,16 @@
         <v>189</v>
       </c>
       <c r="C181">
-        <v>-24.2</v>
+        <v>-23.5</v>
       </c>
       <c r="D181">
-        <v>-25.6</v>
+        <v>-24.1</v>
       </c>
       <c r="E181">
-        <v>-46.9</v>
+        <v>-43.4</v>
       </c>
       <c r="F181">
-        <v>-100</v>
+        <v>-91.3</v>
       </c>
       <c r="G181">
         <v>1.05</v>
@@ -7399,16 +7399,16 @@
         <v>190</v>
       </c>
       <c r="C182">
-        <v>-19.3</v>
+        <v>-18.8</v>
       </c>
       <c r="D182">
-        <v>-23</v>
+        <v>-21.7</v>
       </c>
       <c r="E182">
-        <v>-38.5</v>
+        <v>-35.4</v>
       </c>
       <c r="F182">
-        <v>-100</v>
+        <v>-92.3</v>
       </c>
       <c r="G182">
         <v>1.17</v>
@@ -7431,16 +7431,16 @@
         <v>191</v>
       </c>
       <c r="C183">
-        <v>-25.4</v>
+        <v>-25.2</v>
       </c>
       <c r="D183">
-        <v>-25.1</v>
+        <v>-24.7</v>
       </c>
       <c r="E183">
-        <v>-37.4</v>
+        <v>-36.5</v>
       </c>
       <c r="F183">
-        <v>-99.9</v>
+        <v>-97.5</v>
       </c>
       <c r="G183">
         <v>1.24</v>
@@ -7463,16 +7463,16 @@
         <v>192</v>
       </c>
       <c r="C184">
-        <v>-12.6</v>
+        <v>-12.3</v>
       </c>
       <c r="D184">
-        <v>-12.9</v>
+        <v>-12.1</v>
       </c>
       <c r="E184">
-        <v>-15.5</v>
+        <v>-13.4</v>
       </c>
       <c r="F184">
-        <v>-100</v>
+        <v>-94.6</v>
       </c>
       <c r="G184">
         <v>1.19</v>
@@ -7495,16 +7495,16 @@
         <v>193</v>
       </c>
       <c r="C185">
-        <v>-14.1</v>
+        <v>-13.7</v>
       </c>
       <c r="D185">
-        <v>-12.7</v>
+        <v>-11.6</v>
       </c>
       <c r="E185">
-        <v>-11.6</v>
+        <v>-9</v>
       </c>
       <c r="F185">
-        <v>-99.9</v>
+        <v>-93.6</v>
       </c>
       <c r="G185">
         <v>1.26</v>
@@ -7530,13 +7530,13 @@
         <v>-50.7</v>
       </c>
       <c r="D186">
-        <v>-44.9</v>
+        <v>-44.8</v>
       </c>
       <c r="E186">
-        <v>-50.1</v>
+        <v>-50</v>
       </c>
       <c r="F186">
-        <v>-99.9</v>
+        <v>-99.7</v>
       </c>
       <c r="G186">
         <v>0.97</v>
@@ -7591,16 +7591,16 @@
         <v>196</v>
       </c>
       <c r="C188">
-        <v>-33.7</v>
+        <v>-32.9</v>
       </c>
       <c r="D188">
-        <v>-21.3</v>
+        <v>-19</v>
       </c>
       <c r="E188">
-        <v>-45.2</v>
+        <v>-40.1</v>
       </c>
       <c r="F188">
-        <v>-100</v>
+        <v>-88.3</v>
       </c>
       <c r="G188">
         <v>0.03</v>
@@ -7623,16 +7623,16 @@
         <v>197</v>
       </c>
       <c r="C189">
-        <v>-34.9</v>
+        <v>-34.5</v>
       </c>
       <c r="D189">
-        <v>-28.6</v>
+        <v>-27.7</v>
       </c>
       <c r="E189">
-        <v>-41.7</v>
+        <v>-39.5</v>
       </c>
       <c r="F189">
-        <v>-100</v>
+        <v>-94.8</v>
       </c>
       <c r="G189">
         <v>0.31</v>
@@ -7655,16 +7655,16 @@
         <v>198</v>
       </c>
       <c r="C190">
-        <v>-17.9</v>
+        <v>-17.4</v>
       </c>
       <c r="D190">
-        <v>-22.5</v>
+        <v>-21.3</v>
       </c>
       <c r="E190">
-        <v>-43.7</v>
+        <v>-40.9</v>
       </c>
       <c r="F190">
-        <v>-100</v>
+        <v>-93.6</v>
       </c>
       <c r="G190">
         <v>1.12</v>
@@ -7687,16 +7687,16 @@
         <v>199</v>
       </c>
       <c r="C191">
-        <v>-21.2</v>
+        <v>-21</v>
       </c>
       <c r="D191">
-        <v>-31</v>
+        <v>-30.6</v>
       </c>
       <c r="E191">
-        <v>-38.1</v>
+        <v>-37.2</v>
       </c>
       <c r="F191">
-        <v>-100</v>
+        <v>-98</v>
       </c>
       <c r="G191">
         <v>1.11</v>
@@ -7719,16 +7719,16 @@
         <v>200</v>
       </c>
       <c r="C192">
-        <v>-50.4</v>
+        <v>-50.3</v>
       </c>
       <c r="D192">
-        <v>-47.2</v>
+        <v>-46.8</v>
       </c>
       <c r="E192">
-        <v>-62.8</v>
+        <v>-62</v>
       </c>
       <c r="F192">
-        <v>-100</v>
+        <v>-98.3</v>
       </c>
       <c r="G192">
         <v>1.73</v>
@@ -7751,16 +7751,16 @@
         <v>201</v>
       </c>
       <c r="C193">
-        <v>-57.5</v>
+        <v>-57.2</v>
       </c>
       <c r="D193">
-        <v>-57.1</v>
+        <v>-56.3</v>
       </c>
       <c r="E193">
-        <v>-66.9</v>
+        <v>-65.2</v>
       </c>
       <c r="F193">
-        <v>-100</v>
+        <v>-96.2</v>
       </c>
       <c r="G193">
         <v>1.61</v>
@@ -7783,16 +7783,16 @@
         <v>202</v>
       </c>
       <c r="C194">
-        <v>-64.7</v>
+        <v>-64.4</v>
       </c>
       <c r="D194">
-        <v>-62.5</v>
+        <v>-61.6</v>
       </c>
       <c r="E194">
-        <v>-68.8</v>
+        <v>-66.9</v>
       </c>
       <c r="F194">
-        <v>-100</v>
+        <v>-95.7</v>
       </c>
       <c r="G194">
         <v>1.66</v>
@@ -7815,16 +7815,16 @@
         <v>203</v>
       </c>
       <c r="C195">
-        <v>-61.9</v>
+        <v>-61.7</v>
       </c>
       <c r="D195">
-        <v>-58.3</v>
+        <v>-57.6</v>
       </c>
       <c r="E195">
-        <v>-69.8</v>
+        <v>-68.1</v>
       </c>
       <c r="F195">
-        <v>-100</v>
+        <v>-96.3</v>
       </c>
       <c r="G195">
         <v>1.73</v>
@@ -7847,16 +7847,16 @@
         <v>204</v>
       </c>
       <c r="C196">
-        <v>-67.1</v>
+        <v>-66.8</v>
       </c>
       <c r="D196">
-        <v>-65.7</v>
+        <v>-64.9</v>
       </c>
       <c r="E196">
-        <v>-68.8</v>
+        <v>-67</v>
       </c>
       <c r="F196">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="G196">
         <v>1.66</v>
@@ -7879,16 +7879,16 @@
         <v>205</v>
       </c>
       <c r="C197">
-        <v>-56.4</v>
+        <v>-56.3</v>
       </c>
       <c r="D197">
-        <v>-46.8</v>
+        <v>-46.5</v>
       </c>
       <c r="E197">
-        <v>-56.4</v>
+        <v>-55.9</v>
       </c>
       <c r="F197">
-        <v>-100</v>
+        <v>-98.5</v>
       </c>
       <c r="G197">
         <v>1.49</v>
@@ -7914,13 +7914,13 @@
         <v>-49.5</v>
       </c>
       <c r="D198">
-        <v>-43.8</v>
+        <v>-43.7</v>
       </c>
       <c r="E198">
-        <v>-53.9</v>
+        <v>-53.5</v>
       </c>
       <c r="F198">
-        <v>-100</v>
+        <v>-99.1</v>
       </c>
       <c r="G198">
         <v>1.57</v>
@@ -7943,16 +7943,16 @@
         <v>207</v>
       </c>
       <c r="C199">
-        <v>-6.8</v>
+        <v>-6.7</v>
       </c>
       <c r="D199">
-        <v>-13</v>
+        <v>-12.5</v>
       </c>
       <c r="E199">
-        <v>-30.9</v>
+        <v>-29.7</v>
       </c>
       <c r="F199">
-        <v>-100</v>
+        <v>-97.4</v>
       </c>
       <c r="G199">
         <v>1.33</v>
@@ -7975,16 +7975,16 @@
         <v>208</v>
       </c>
       <c r="C200">
-        <v>-48.3</v>
+        <v>-48</v>
       </c>
       <c r="D200">
-        <v>-36.2</v>
+        <v>-35.3</v>
       </c>
       <c r="E200">
-        <v>-54.2</v>
+        <v>-52.4</v>
       </c>
       <c r="F200">
-        <v>-100</v>
+        <v>-95.7</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -8007,16 +8007,16 @@
         <v>209</v>
       </c>
       <c r="C201">
-        <v>-17.2</v>
+        <v>-16.4</v>
       </c>
       <c r="D201">
-        <v>-11.6</v>
+        <v>-9.1</v>
       </c>
       <c r="E201">
-        <v>-15.4</v>
+        <v>-10.3</v>
       </c>
       <c r="F201">
-        <v>-100</v>
+        <v>-91</v>
       </c>
       <c r="G201">
         <v>1.32</v>
@@ -8039,16 +8039,16 @@
         <v>210</v>
       </c>
       <c r="C202">
-        <v>-13</v>
+        <v>-12.1</v>
       </c>
       <c r="D202">
-        <v>-2.2</v>
+        <v>0.7</v>
       </c>
       <c r="E202">
-        <v>-13.1</v>
+        <v>-6.9</v>
       </c>
       <c r="F202">
-        <v>-100</v>
+        <v>-89.3</v>
       </c>
       <c r="G202">
         <v>1.35</v>
@@ -8071,16 +8071,16 @@
         <v>211</v>
       </c>
       <c r="C203">
-        <v>-26.4</v>
+        <v>-25.8</v>
       </c>
       <c r="D203">
-        <v>-26.6</v>
+        <v>-24.8</v>
       </c>
       <c r="E203">
-        <v>-13.7</v>
+        <v>-9.9</v>
       </c>
       <c r="F203">
-        <v>-100</v>
+        <v>-93.2</v>
       </c>
       <c r="G203">
         <v>1.27</v>
@@ -8103,16 +8103,16 @@
         <v>212</v>
       </c>
       <c r="C204">
-        <v>-12.6</v>
+        <v>-11.6</v>
       </c>
       <c r="D204">
-        <v>-19.9</v>
+        <v>-17.2</v>
       </c>
       <c r="E204">
-        <v>-21.4</v>
+        <v>-16</v>
       </c>
       <c r="F204">
-        <v>-100</v>
+        <v>-90.7</v>
       </c>
       <c r="G204">
         <v>1.27</v>
@@ -8135,16 +8135,16 @@
         <v>213</v>
       </c>
       <c r="C205">
-        <v>-9.6</v>
+        <v>-8.6</v>
       </c>
       <c r="D205">
-        <v>-10.1</v>
+        <v>-7.4</v>
       </c>
       <c r="E205">
-        <v>-23.2</v>
+        <v>-17.4</v>
       </c>
       <c r="F205">
-        <v>-100</v>
+        <v>-90.5</v>
       </c>
       <c r="G205">
         <v>1.29</v>
@@ -8167,16 +8167,16 @@
         <v>214</v>
       </c>
       <c r="C206">
-        <v>-6</v>
+        <v>-5.1</v>
       </c>
       <c r="D206">
-        <v>-11.6</v>
+        <v>-9.1</v>
       </c>
       <c r="E206">
-        <v>-24.8</v>
+        <v>-19.6</v>
       </c>
       <c r="F206">
-        <v>-100</v>
+        <v>-91.6</v>
       </c>
       <c r="G206">
         <v>1.29</v>
@@ -8199,16 +8199,16 @@
         <v>215</v>
       </c>
       <c r="C207">
-        <v>-40.9</v>
+        <v>-40.3</v>
       </c>
       <c r="D207">
-        <v>-45.5</v>
+        <v>-44.1</v>
       </c>
       <c r="E207">
-        <v>-75.6</v>
+        <v>-72.7</v>
       </c>
       <c r="F207">
-        <v>-99.9</v>
+        <v>-92.7</v>
       </c>
       <c r="G207">
         <v>0.08</v>
@@ -8231,16 +8231,16 @@
         <v>216</v>
       </c>
       <c r="C208">
-        <v>-52.2</v>
+        <v>-52.1</v>
       </c>
       <c r="D208">
-        <v>-45.5</v>
+        <v>-45.2</v>
       </c>
       <c r="E208">
-        <v>-65.5</v>
+        <v>-65</v>
       </c>
       <c r="F208">
-        <v>-100</v>
+        <v>-98.8</v>
       </c>
       <c r="G208">
         <v>2.04</v>
@@ -8263,16 +8263,16 @@
         <v>217</v>
       </c>
       <c r="C209">
-        <v>-52.6</v>
+        <v>-52.4</v>
       </c>
       <c r="D209">
-        <v>-47.1</v>
+        <v>-46.6</v>
       </c>
       <c r="E209">
-        <v>-67.3</v>
+        <v>-66.1</v>
       </c>
       <c r="F209">
-        <v>-100</v>
+        <v>-97.5</v>
       </c>
       <c r="G209">
         <v>1.95</v>
@@ -8298,13 +8298,13 @@
         <v>-37.3</v>
       </c>
       <c r="D210">
-        <v>-35.2</v>
+        <v>-35.1</v>
       </c>
       <c r="E210">
-        <v>-45.5</v>
+        <v>-45.2</v>
       </c>
       <c r="F210">
-        <v>-100</v>
+        <v>-99.3</v>
       </c>
       <c r="G210">
         <v>1.33</v>
@@ -8330,13 +8330,13 @@
         <v>-45</v>
       </c>
       <c r="D211">
-        <v>-42.3</v>
+        <v>-42.1</v>
       </c>
       <c r="E211">
-        <v>-54.3</v>
+        <v>-53.8</v>
       </c>
       <c r="F211">
-        <v>-100</v>
+        <v>-98.9</v>
       </c>
       <c r="G211">
         <v>1.5</v>
@@ -8359,16 +8359,16 @@
         <v>220</v>
       </c>
       <c r="C212">
-        <v>-28.5</v>
+        <v>-28.4</v>
       </c>
       <c r="D212">
-        <v>-43.5</v>
+        <v>-43.1</v>
       </c>
       <c r="E212">
-        <v>-40.7</v>
+        <v>-39.9</v>
       </c>
       <c r="F212">
-        <v>-100</v>
+        <v>-98</v>
       </c>
       <c r="G212">
         <v>1.14</v>
@@ -8391,16 +8391,16 @@
         <v>221</v>
       </c>
       <c r="C213">
-        <v>-46.1</v>
+        <v>-45.9</v>
       </c>
       <c r="D213">
-        <v>-44.9</v>
+        <v>-44.4</v>
       </c>
       <c r="E213">
-        <v>-57.3</v>
+        <v>-56.2</v>
       </c>
       <c r="F213">
-        <v>-100</v>
+        <v>-97.5</v>
       </c>
       <c r="G213">
         <v>1.5</v>
@@ -8423,16 +8423,16 @@
         <v>222</v>
       </c>
       <c r="C214">
-        <v>-41.4</v>
+        <v>-40.6</v>
       </c>
       <c r="D214">
-        <v>-43.3</v>
+        <v>-41.5</v>
       </c>
       <c r="E214">
-        <v>-63.4</v>
+        <v>-60</v>
       </c>
       <c r="F214">
-        <v>-99.9</v>
+        <v>-91.5</v>
       </c>
       <c r="G214">
         <v>0.55</v>
@@ -8490,13 +8490,13 @@
         <v>-51.7</v>
       </c>
       <c r="D216">
-        <v>-49.8</v>
+        <v>-49.7</v>
       </c>
       <c r="E216">
-        <v>-67.1</v>
+        <v>-66.9</v>
       </c>
       <c r="F216">
-        <v>-100</v>
+        <v>-99.5</v>
       </c>
       <c r="G216">
         <v>1.55</v>
@@ -8519,16 +8519,16 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>-28.6</v>
+        <v>-28.1</v>
       </c>
       <c r="D217">
-        <v>-38.4</v>
+        <v>-37</v>
       </c>
       <c r="E217">
-        <v>-42.4</v>
+        <v>-39.4</v>
       </c>
       <c r="F217">
-        <v>-100</v>
+        <v>-93.4</v>
       </c>
       <c r="G217">
         <v>1.28</v>
@@ -8551,16 +8551,16 @@
         <v>226</v>
       </c>
       <c r="C218">
-        <v>-19.2</v>
+        <v>-18.2</v>
       </c>
       <c r="D218">
-        <v>-13.5</v>
+        <v>-11</v>
       </c>
       <c r="E218">
-        <v>-35.6</v>
+        <v>-29.8</v>
       </c>
       <c r="F218">
-        <v>-100</v>
+        <v>-86.3</v>
       </c>
       <c r="G218">
         <v>0.69</v>
@@ -8583,16 +8583,16 @@
         <v>227</v>
       </c>
       <c r="C219">
-        <v>-20.4</v>
+        <v>-19.9</v>
       </c>
       <c r="D219">
-        <v>-18.6</v>
+        <v>-17.4</v>
       </c>
       <c r="E219">
-        <v>-55</v>
+        <v>-52.3</v>
       </c>
       <c r="F219">
-        <v>-100</v>
+        <v>-93.7</v>
       </c>
       <c r="G219">
         <v>0.6</v>
@@ -8615,16 +8615,16 @@
         <v>228</v>
       </c>
       <c r="C220">
-        <v>-9.4</v>
+        <v>-9.2</v>
       </c>
       <c r="D220">
-        <v>-7.7</v>
+        <v>-7.3</v>
       </c>
       <c r="E220">
-        <v>-34.5</v>
+        <v>-33.6</v>
       </c>
       <c r="F220">
-        <v>-99.6</v>
+        <v>-97.3</v>
       </c>
       <c r="G220">
         <v>0.68</v>
@@ -8650,13 +8650,13 @@
         <v>-51.2</v>
       </c>
       <c r="D221">
-        <v>-45.5</v>
+        <v>-45.4</v>
       </c>
       <c r="E221">
-        <v>-53.4</v>
+        <v>-53.2</v>
       </c>
       <c r="F221">
-        <v>-100</v>
+        <v>-99.6</v>
       </c>
       <c r="G221">
         <v>1.08</v>
@@ -8679,16 +8679,16 @@
         <v>230</v>
       </c>
       <c r="C222">
-        <v>-27.9</v>
+        <v>-27.3</v>
       </c>
       <c r="D222">
-        <v>-28.9</v>
+        <v>-27.4</v>
       </c>
       <c r="E222">
-        <v>-64.9</v>
+        <v>-61.4</v>
       </c>
       <c r="F222">
-        <v>-100</v>
+        <v>-92.1</v>
       </c>
       <c r="G222">
         <v>-0.3</v>
@@ -8711,16 +8711,16 @@
         <v>231</v>
       </c>
       <c r="C223">
-        <v>-48.6</v>
+        <v>-48.5</v>
       </c>
       <c r="D223">
-        <v>-41.1</v>
+        <v>-40.7</v>
       </c>
       <c r="E223">
-        <v>-51.2</v>
+        <v>-50.5</v>
       </c>
       <c r="F223">
-        <v>-100</v>
+        <v>-98.3</v>
       </c>
       <c r="G223">
         <v>1.07</v>
@@ -8743,7 +8743,7 @@
         <v>232</v>
       </c>
       <c r="C224">
-        <v>-60.2</v>
+        <v>-60.1</v>
       </c>
       <c r="D224">
         <v>-51.5</v>
@@ -8781,10 +8781,10 @@
         <v>-52.7</v>
       </c>
       <c r="E225">
-        <v>-59.2</v>
+        <v>-59.1</v>
       </c>
       <c r="F225">
-        <v>-99.7</v>
+        <v>-99.4</v>
       </c>
       <c r="G225">
         <v>0.86</v>
@@ -8813,10 +8813,10 @@
         <v>-58.6</v>
       </c>
       <c r="E226">
-        <v>-56.8</v>
+        <v>-56.7</v>
       </c>
       <c r="F226">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G226">
         <v>1.25</v>
@@ -8871,16 +8871,16 @@
         <v>236</v>
       </c>
       <c r="C228">
-        <v>-15.8</v>
+        <v>-14.9</v>
       </c>
       <c r="D228">
-        <v>-27.6</v>
+        <v>-25.1</v>
       </c>
       <c r="E228">
-        <v>-30</v>
+        <v>-24.8</v>
       </c>
       <c r="F228">
-        <v>-100</v>
+        <v>-90.5</v>
       </c>
       <c r="G228">
         <v>1.29</v>
@@ -8903,16 +8903,16 @@
         <v>237</v>
       </c>
       <c r="C229">
-        <v>-31.6</v>
+        <v>-31</v>
       </c>
       <c r="D229">
-        <v>-31.2</v>
+        <v>-29.4</v>
       </c>
       <c r="E229">
-        <v>-14.9</v>
+        <v>-11.2</v>
       </c>
       <c r="F229">
-        <v>-100</v>
+        <v>-92.7</v>
       </c>
       <c r="G229">
         <v>1.21</v>
@@ -8935,16 +8935,16 @@
         <v>238</v>
       </c>
       <c r="C230">
-        <v>-17.2</v>
+        <v>-16.2</v>
       </c>
       <c r="D230">
-        <v>-23.7</v>
+        <v>-20.9</v>
       </c>
       <c r="E230">
-        <v>-16.3</v>
+        <v>-10.4</v>
       </c>
       <c r="F230">
-        <v>-100</v>
+        <v>-89</v>
       </c>
       <c r="G230">
         <v>1.24</v>
@@ -8967,16 +8967,16 @@
         <v>239</v>
       </c>
       <c r="C231">
-        <v>-14.3</v>
+        <v>-13.8</v>
       </c>
       <c r="D231">
-        <v>-29.3</v>
+        <v>-27.8</v>
       </c>
       <c r="E231">
-        <v>-39.7</v>
+        <v>-36.4</v>
       </c>
       <c r="F231">
-        <v>-100</v>
+        <v>-92.7</v>
       </c>
       <c r="G231">
         <v>1.31</v>
@@ -8999,16 +8999,16 @@
         <v>240</v>
       </c>
       <c r="C232">
-        <v>-21.2</v>
+        <v>-20.8</v>
       </c>
       <c r="D232">
-        <v>-34.7</v>
+        <v>-33.6</v>
       </c>
       <c r="E232">
-        <v>-43.3</v>
+        <v>-40.8</v>
       </c>
       <c r="F232">
-        <v>-100</v>
+        <v>-94.4</v>
       </c>
       <c r="G232">
         <v>1.31</v>
@@ -9031,16 +9031,16 @@
         <v>241</v>
       </c>
       <c r="C233">
-        <v>-29.3</v>
+        <v>-28.9</v>
       </c>
       <c r="D233">
-        <v>-35.8</v>
+        <v>-34.7</v>
       </c>
       <c r="E233">
-        <v>-42.3</v>
+        <v>-40</v>
       </c>
       <c r="F233">
-        <v>-100</v>
+        <v>-94.2</v>
       </c>
       <c r="G233">
         <v>1.11</v>
@@ -9063,16 +9063,16 @@
         <v>242</v>
       </c>
       <c r="C234">
-        <v>-32.7</v>
+        <v>-32.4</v>
       </c>
       <c r="D234">
-        <v>-40.2</v>
+        <v>-39.6</v>
       </c>
       <c r="E234">
-        <v>-44</v>
+        <v>-42.6</v>
       </c>
       <c r="F234">
-        <v>-100</v>
+        <v>-96.5</v>
       </c>
       <c r="G234">
         <v>1.12</v>
@@ -9095,16 +9095,16 @@
         <v>243</v>
       </c>
       <c r="C235">
-        <v>-36.1</v>
+        <v>-35.9</v>
       </c>
       <c r="D235">
-        <v>-40.3</v>
+        <v>-39.9</v>
       </c>
       <c r="E235">
-        <v>-44.3</v>
+        <v>-43.4</v>
       </c>
       <c r="F235">
-        <v>-100</v>
+        <v>-97.8</v>
       </c>
       <c r="G235">
         <v>1.19</v>
@@ -9127,16 +9127,16 @@
         <v>244</v>
       </c>
       <c r="C236">
-        <v>-33</v>
+        <v>-32.8</v>
       </c>
       <c r="D236">
-        <v>-38.6</v>
+        <v>-38</v>
       </c>
       <c r="E236">
-        <v>-44.9</v>
+        <v>-43.6</v>
       </c>
       <c r="F236">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="G236">
         <v>1.25</v>
@@ -9165,10 +9165,10 @@
         <v>-36.8</v>
       </c>
       <c r="E237">
-        <v>-51.1</v>
+        <v>-51</v>
       </c>
       <c r="F237">
-        <v>-100</v>
+        <v>-99.7</v>
       </c>
       <c r="G237">
         <v>1.43</v>
@@ -9191,16 +9191,16 @@
         <v>246</v>
       </c>
       <c r="C238">
-        <v>-35.8</v>
+        <v>-35.6</v>
       </c>
       <c r="D238">
-        <v>-31.9</v>
+        <v>-31.4</v>
       </c>
       <c r="E238">
-        <v>-44.6</v>
+        <v>-43.7</v>
       </c>
       <c r="F238">
-        <v>-100</v>
+        <v>-97.7</v>
       </c>
       <c r="G238">
         <v>1.27</v>
@@ -9223,16 +9223,16 @@
         <v>247</v>
       </c>
       <c r="C239">
-        <v>-40.3</v>
+        <v>-40.2</v>
       </c>
       <c r="D239">
-        <v>-37.1</v>
+        <v>-36.9</v>
       </c>
       <c r="E239">
-        <v>-48.6</v>
+        <v>-48.2</v>
       </c>
       <c r="F239">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="G239">
         <v>1.34</v>
@@ -9255,16 +9255,16 @@
         <v>248</v>
       </c>
       <c r="C240">
-        <v>-38.1</v>
+        <v>-37.9</v>
       </c>
       <c r="D240">
-        <v>-27.5</v>
+        <v>-27</v>
       </c>
       <c r="E240">
-        <v>-31.5</v>
+        <v>-30.3</v>
       </c>
       <c r="F240">
-        <v>-100</v>
+        <v>-97.5</v>
       </c>
       <c r="G240">
         <v>1.3</v>
@@ -9287,16 +9287,16 @@
         <v>249</v>
       </c>
       <c r="C241">
-        <v>-31.3</v>
+        <v>-31.1</v>
       </c>
       <c r="D241">
-        <v>-27.5</v>
+        <v>-27.1</v>
       </c>
       <c r="E241">
-        <v>-40.7</v>
+        <v>-39.7</v>
       </c>
       <c r="F241">
-        <v>-100</v>
+        <v>-97.4</v>
       </c>
       <c r="G241">
         <v>1.27</v>
@@ -9319,16 +9319,16 @@
         <v>250</v>
       </c>
       <c r="C242">
-        <v>-24</v>
+        <v>-23.9</v>
       </c>
       <c r="D242">
-        <v>-19.4</v>
+        <v>-19.1</v>
       </c>
       <c r="E242">
-        <v>-32</v>
+        <v>-31.3</v>
       </c>
       <c r="F242">
-        <v>-99.7</v>
+        <v>-98</v>
       </c>
       <c r="G242">
         <v>1.15</v>
@@ -9354,13 +9354,13 @@
         <v>-49.8</v>
       </c>
       <c r="D243">
-        <v>-46.7</v>
+        <v>-46.6</v>
       </c>
       <c r="E243">
         <v>-55.7</v>
       </c>
       <c r="F243">
-        <v>-99.7</v>
+        <v>-99.6</v>
       </c>
       <c r="G243">
         <v>1.23</v>
@@ -9383,16 +9383,16 @@
         <v>252</v>
       </c>
       <c r="C244">
-        <v>-27.5</v>
+        <v>-27.3</v>
       </c>
       <c r="D244">
-        <v>-34.7</v>
+        <v>-34.1</v>
       </c>
       <c r="E244">
-        <v>-52.5</v>
+        <v>-51</v>
       </c>
       <c r="F244">
-        <v>-98.3</v>
+        <v>-94.4</v>
       </c>
       <c r="G244">
         <v>0.79</v>
@@ -9415,16 +9415,16 @@
         <v>253</v>
       </c>
       <c r="C245">
-        <v>-31.4</v>
+        <v>-31.1</v>
       </c>
       <c r="D245">
-        <v>-39.1</v>
+        <v>-38.5</v>
       </c>
       <c r="E245">
-        <v>-56.5</v>
+        <v>-55.2</v>
       </c>
       <c r="F245">
-        <v>-99.7</v>
+        <v>-96.5</v>
       </c>
       <c r="G245">
         <v>0.71</v>
@@ -9450,13 +9450,13 @@
         <v>-52</v>
       </c>
       <c r="D246">
-        <v>-48.7</v>
+        <v>-48.6</v>
       </c>
       <c r="E246">
-        <v>-61.2</v>
+        <v>-61.1</v>
       </c>
       <c r="F246">
-        <v>-100</v>
+        <v>-99.6</v>
       </c>
       <c r="G246">
         <v>1.15</v>
@@ -9479,16 +9479,16 @@
         <v>255</v>
       </c>
       <c r="C247">
-        <v>-28.7</v>
+        <v>-28.2</v>
       </c>
       <c r="D247">
-        <v>-40.8</v>
+        <v>-39.8</v>
       </c>
       <c r="E247">
-        <v>-56.1</v>
+        <v>-53.8</v>
       </c>
       <c r="F247">
-        <v>-99.9</v>
+        <v>-94.2</v>
       </c>
       <c r="G247">
         <v>1.01</v>
@@ -9511,16 +9511,16 @@
         <v>256</v>
       </c>
       <c r="C248">
-        <v>-23.5</v>
+        <v>-23.4</v>
       </c>
       <c r="D248">
-        <v>-30.5</v>
+        <v>-30.2</v>
       </c>
       <c r="E248">
-        <v>-31.4</v>
+        <v>-30.6</v>
       </c>
       <c r="F248">
-        <v>-99.9</v>
+        <v>-98</v>
       </c>
       <c r="G248">
         <v>0.91</v>
@@ -9543,16 +9543,16 @@
         <v>257</v>
       </c>
       <c r="C249">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D249">
-        <v>15.3</v>
+        <v>17.8</v>
       </c>
       <c r="E249">
-        <v>8.3</v>
+        <v>15.5</v>
       </c>
       <c r="F249">
-        <v>-100</v>
+        <v>-82</v>
       </c>
       <c r="G249">
         <v>1.12</v>
@@ -9575,16 +9575,16 @@
         <v>258</v>
       </c>
       <c r="C250">
-        <v>-52.7</v>
+        <v>-52.6</v>
       </c>
       <c r="D250">
-        <v>-46.3</v>
+        <v>-46.2</v>
       </c>
       <c r="E250">
-        <v>-59.5</v>
+        <v>-59.3</v>
       </c>
       <c r="F250">
-        <v>-100</v>
+        <v>-99.4</v>
       </c>
       <c r="G250">
         <v>1.03</v>
@@ -9607,16 +9607,16 @@
         <v>259</v>
       </c>
       <c r="C251">
-        <v>-34.7</v>
+        <v>-34.6</v>
       </c>
       <c r="D251">
-        <v>-34.1</v>
+        <v>-33.9</v>
       </c>
       <c r="E251">
-        <v>-49.4</v>
+        <v>-49</v>
       </c>
       <c r="F251">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="G251">
         <v>1.29</v>
@@ -9639,16 +9639,16 @@
         <v>260</v>
       </c>
       <c r="C252">
-        <v>-44.4</v>
+        <v>-44.3</v>
       </c>
       <c r="D252">
-        <v>-39.9</v>
+        <v>-39.6</v>
       </c>
       <c r="E252">
-        <v>-46.6</v>
+        <v>-46</v>
       </c>
       <c r="F252">
-        <v>-100</v>
+        <v>-98.7</v>
       </c>
       <c r="G252">
         <v>1.36</v>
@@ -9674,13 +9674,13 @@
         <v>-44</v>
       </c>
       <c r="D253">
-        <v>-40</v>
+        <v>-39.9</v>
       </c>
       <c r="E253">
         <v>-47.8</v>
       </c>
       <c r="F253">
-        <v>-100</v>
+        <v>-99.8</v>
       </c>
       <c r="G253">
         <v>1.4</v>
@@ -9703,16 +9703,16 @@
         <v>262</v>
       </c>
       <c r="C254">
-        <v>-26.6</v>
+        <v>-26.3</v>
       </c>
       <c r="D254">
-        <v>-24.9</v>
+        <v>-24.3</v>
       </c>
       <c r="E254">
-        <v>-39.7</v>
+        <v>-38.4</v>
       </c>
       <c r="F254">
-        <v>-99.8</v>
+        <v>-96.6</v>
       </c>
       <c r="G254">
         <v>1.26</v>
@@ -9735,16 +9735,16 @@
         <v>263</v>
       </c>
       <c r="C255">
-        <v>-18.3</v>
+        <v>-17.5</v>
       </c>
       <c r="D255">
-        <v>-18.4</v>
+        <v>-16.4</v>
       </c>
       <c r="E255">
-        <v>-35.5</v>
+        <v>-30.6</v>
       </c>
       <c r="F255">
-        <v>-100</v>
+        <v>-88.4</v>
       </c>
       <c r="G255">
         <v>1.22</v>
@@ -9767,16 +9767,16 @@
         <v>264</v>
       </c>
       <c r="C256">
-        <v>-31.2</v>
+        <v>-31.1</v>
       </c>
       <c r="D256">
-        <v>-43</v>
+        <v>-42.7</v>
       </c>
       <c r="E256">
-        <v>-45.5</v>
+        <v>-44.9</v>
       </c>
       <c r="F256">
-        <v>-100</v>
+        <v>-98.6</v>
       </c>
       <c r="G256">
         <v>1.09</v>
@@ -9802,7 +9802,7 @@
         <v>-55.2</v>
       </c>
       <c r="D257">
-        <v>-44.5</v>
+        <v>-44.4</v>
       </c>
       <c r="E257">
         <v>-52.8</v>
@@ -9831,16 +9831,16 @@
         <v>266</v>
       </c>
       <c r="C258">
-        <v>-9.4</v>
+        <v>-9</v>
       </c>
       <c r="D258">
-        <v>-4.3</v>
+        <v>-3.2</v>
       </c>
       <c r="E258">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="F258">
-        <v>-99</v>
+        <v>-89.9</v>
       </c>
       <c r="G258">
         <v>0.97</v>
@@ -9863,16 +9863,16 @@
         <v>267</v>
       </c>
       <c r="C259">
-        <v>-32.8</v>
+        <v>-32.5</v>
       </c>
       <c r="D259">
-        <v>-37.2</v>
+        <v>-36.3</v>
       </c>
       <c r="E259">
-        <v>-51.4</v>
+        <v>-49.5</v>
       </c>
       <c r="F259">
-        <v>-100</v>
+        <v>-95.6</v>
       </c>
       <c r="G259">
         <v>1.27</v>
@@ -9895,16 +9895,16 @@
         <v>268</v>
       </c>
       <c r="C260">
-        <v>-24</v>
+        <v>-23.4</v>
       </c>
       <c r="D260">
-        <v>-29.7</v>
+        <v>-28.4</v>
       </c>
       <c r="E260">
-        <v>-48.6</v>
+        <v>-45.7</v>
       </c>
       <c r="F260">
-        <v>-100</v>
+        <v>-93.8</v>
       </c>
       <c r="G260">
         <v>1.2</v>
@@ -9927,16 +9927,16 @@
         <v>269</v>
       </c>
       <c r="C261">
-        <v>-18.7</v>
+        <v>-18.4</v>
       </c>
       <c r="D261">
-        <v>-22.7</v>
+        <v>-21.8</v>
       </c>
       <c r="E261">
-        <v>-19.3</v>
+        <v>-17.2</v>
       </c>
       <c r="F261">
-        <v>-100</v>
+        <v>-94.4</v>
       </c>
       <c r="G261">
         <v>0.94</v>
@@ -9959,16 +9959,16 @@
         <v>270</v>
       </c>
       <c r="C262">
-        <v>-16.2</v>
+        <v>-15.8</v>
       </c>
       <c r="D262">
-        <v>-16.5</v>
+        <v>-15.5</v>
       </c>
       <c r="E262">
-        <v>-12.8</v>
+        <v>-10</v>
       </c>
       <c r="F262">
-        <v>-100</v>
+        <v>-92.4</v>
       </c>
       <c r="G262">
         <v>0.95</v>
@@ -9991,16 +9991,16 @@
         <v>271</v>
       </c>
       <c r="C263">
-        <v>-23.6</v>
+        <v>-22.9</v>
       </c>
       <c r="D263">
-        <v>-28.9</v>
+        <v>-27.3</v>
       </c>
       <c r="E263">
-        <v>-24.5</v>
+        <v>-20.2</v>
       </c>
       <c r="F263">
-        <v>-100</v>
+        <v>-88.5</v>
       </c>
       <c r="G263">
         <v>1.12</v>
@@ -10023,16 +10023,16 @@
         <v>272</v>
       </c>
       <c r="C264">
-        <v>-25.1</v>
+        <v>-25</v>
       </c>
       <c r="D264">
-        <v>-33.5</v>
+        <v>-33.2</v>
       </c>
       <c r="E264">
-        <v>-30</v>
+        <v>-29.2</v>
       </c>
       <c r="F264">
-        <v>-100</v>
+        <v>-98.1</v>
       </c>
       <c r="G264">
         <v>1.11</v>
@@ -10055,16 +10055,16 @@
         <v>273</v>
       </c>
       <c r="C265">
-        <v>-12.8</v>
+        <v>-11.9</v>
       </c>
       <c r="D265">
-        <v>-4.7</v>
+        <v>-2.5</v>
       </c>
       <c r="E265">
-        <v>3.3</v>
+        <v>9.6</v>
       </c>
       <c r="F265">
-        <v>-99.6</v>
+        <v>-81.8</v>
       </c>
       <c r="G265">
         <v>1.01</v>
@@ -10087,16 +10087,16 @@
         <v>274</v>
       </c>
       <c r="C266">
-        <v>-16.2</v>
+        <v>-15.4</v>
       </c>
       <c r="D266">
-        <v>-11.1</v>
+        <v>-8.9</v>
       </c>
       <c r="E266">
-        <v>-3.9</v>
+        <v>2.2</v>
       </c>
       <c r="F266">
-        <v>-100</v>
+        <v>-83.1</v>
       </c>
       <c r="G266">
         <v>1.02</v>
@@ -10119,16 +10119,16 @@
         <v>275</v>
       </c>
       <c r="C267">
-        <v>-7.2</v>
+        <v>-6</v>
       </c>
       <c r="D267">
-        <v>-0.8</v>
+        <v>2.2</v>
       </c>
       <c r="E267">
-        <v>-3.1</v>
+        <v>5.9</v>
       </c>
       <c r="F267">
-        <v>-100</v>
+        <v>-76.9</v>
       </c>
       <c r="G267">
         <v>1.1</v>
@@ -10151,16 +10151,16 @@
         <v>276</v>
       </c>
       <c r="C268">
-        <v>-35.4</v>
+        <v>-35.3</v>
       </c>
       <c r="D268">
-        <v>-46</v>
+        <v>-45.8</v>
       </c>
       <c r="E268">
-        <v>-49.1</v>
+        <v>-48.8</v>
       </c>
       <c r="F268">
-        <v>-100</v>
+        <v>-99.2</v>
       </c>
       <c r="G268">
         <v>1.08</v>
@@ -10183,16 +10183,16 @@
         <v>277</v>
       </c>
       <c r="C269">
-        <v>-34.2</v>
+        <v>-34.1</v>
       </c>
       <c r="D269">
-        <v>-44.4</v>
+        <v>-44.3</v>
       </c>
       <c r="E269">
-        <v>-50.6</v>
+        <v>-50.2</v>
       </c>
       <c r="F269">
-        <v>-99.6</v>
+        <v>-98.7</v>
       </c>
       <c r="G269">
         <v>0.76</v>
@@ -10215,16 +10215,16 @@
         <v>278</v>
       </c>
       <c r="C270">
-        <v>-5</v>
+        <v>-4.5</v>
       </c>
       <c r="D270">
-        <v>-11.3</v>
+        <v>-10.1</v>
       </c>
       <c r="E270">
-        <v>-31.7</v>
+        <v>-28.5</v>
       </c>
       <c r="F270">
-        <v>-100</v>
+        <v>-92.8</v>
       </c>
       <c r="G270">
         <v>1.14</v>
@@ -10247,16 +10247,16 @@
         <v>279</v>
       </c>
       <c r="C271">
-        <v>-2.8</v>
+        <v>-2.1</v>
       </c>
       <c r="D271">
-        <v>-4.7</v>
+        <v>-2.9</v>
       </c>
       <c r="E271">
-        <v>-19.8</v>
+        <v>-15.1</v>
       </c>
       <c r="F271">
-        <v>-100</v>
+        <v>-88.3</v>
       </c>
       <c r="G271">
         <v>1.14</v>
@@ -10320,7 +10320,7 @@
         <v>-47.8</v>
       </c>
       <c r="F273">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G273">
         <v>1.26</v>
@@ -10343,16 +10343,16 @@
         <v>282</v>
       </c>
       <c r="C274">
-        <v>-12.6</v>
+        <v>-12.3</v>
       </c>
       <c r="D274">
-        <v>-14.2</v>
+        <v>-13.4</v>
       </c>
       <c r="E274">
-        <v>-38.4</v>
+        <v>-36.8</v>
       </c>
       <c r="F274">
-        <v>-100</v>
+        <v>-96.4</v>
       </c>
       <c r="G274">
         <v>1.14</v>
@@ -10375,16 +10375,16 @@
         <v>283</v>
       </c>
       <c r="C275">
-        <v>-6.8</v>
+        <v>-6.6</v>
       </c>
       <c r="D275">
-        <v>-17.1</v>
+        <v>-16.6</v>
       </c>
       <c r="E275">
-        <v>-31.5</v>
+        <v>-30.2</v>
       </c>
       <c r="F275">
-        <v>-99.8</v>
+        <v>-96.5</v>
       </c>
       <c r="G275">
         <v>1.25</v>
@@ -10407,16 +10407,16 @@
         <v>284</v>
       </c>
       <c r="C276">
-        <v>-47.1</v>
+        <v>-47</v>
       </c>
       <c r="D276">
-        <v>-43.4</v>
+        <v>-43.1</v>
       </c>
       <c r="E276">
-        <v>-54.3</v>
+        <v>-53.7</v>
       </c>
       <c r="F276">
-        <v>-100</v>
+        <v>-98.7</v>
       </c>
       <c r="G276">
         <v>1.59</v>
@@ -10439,16 +10439,16 @@
         <v>285</v>
       </c>
       <c r="C277">
-        <v>-35.2</v>
+        <v>-35.1</v>
       </c>
       <c r="D277">
-        <v>-40.2</v>
+        <v>-39.7</v>
       </c>
       <c r="E277">
-        <v>-42.1</v>
+        <v>-41</v>
       </c>
       <c r="F277">
-        <v>-100</v>
+        <v>-97.4</v>
       </c>
       <c r="G277">
         <v>1.36</v>
@@ -10471,16 +10471,16 @@
         <v>286</v>
       </c>
       <c r="C278">
-        <v>-29.9</v>
+        <v>-29.7</v>
       </c>
       <c r="D278">
-        <v>-37.3</v>
+        <v>-36.7</v>
       </c>
       <c r="E278">
-        <v>-41.1</v>
+        <v>-39.8</v>
       </c>
       <c r="F278">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="G278">
         <v>1.17</v>
@@ -10503,16 +10503,16 @@
         <v>287</v>
       </c>
       <c r="C279">
-        <v>-32.8</v>
+        <v>-32.6</v>
       </c>
       <c r="D279">
-        <v>-35.7</v>
+        <v>-35.1</v>
       </c>
       <c r="E279">
-        <v>-39.4</v>
+        <v>-38</v>
       </c>
       <c r="F279">
-        <v>-100</v>
+        <v>-96.7</v>
       </c>
       <c r="G279">
         <v>1.42</v>
@@ -10535,16 +10535,16 @@
         <v>288</v>
       </c>
       <c r="C280">
-        <v>-18.1</v>
+        <v>-17.9</v>
       </c>
       <c r="D280">
-        <v>-36.2</v>
+        <v>-35.6</v>
       </c>
       <c r="E280">
-        <v>-39.2</v>
+        <v>-38</v>
       </c>
       <c r="F280">
-        <v>-100</v>
+        <v>-97.1</v>
       </c>
       <c r="G280">
         <v>1.2</v>
@@ -10567,16 +10567,16 @@
         <v>289</v>
       </c>
       <c r="C281">
-        <v>-24.1</v>
+        <v>-23.8</v>
       </c>
       <c r="D281">
-        <v>-37.1</v>
+        <v>-36.2</v>
       </c>
       <c r="E281">
-        <v>-43.2</v>
+        <v>-41.4</v>
       </c>
       <c r="F281">
-        <v>-100</v>
+        <v>-95.8</v>
       </c>
       <c r="G281">
         <v>1.19</v>
@@ -10599,16 +10599,16 @@
         <v>290</v>
       </c>
       <c r="C282">
-        <v>-49.7</v>
+        <v>-49.5</v>
       </c>
       <c r="D282">
-        <v>-43.3</v>
+        <v>-42.8</v>
       </c>
       <c r="E282">
-        <v>-56</v>
+        <v>-55</v>
       </c>
       <c r="F282">
-        <v>-100</v>
+        <v>-97.2</v>
       </c>
       <c r="G282">
         <v>1.25</v>
@@ -10631,16 +10631,16 @@
         <v>291</v>
       </c>
       <c r="C283">
-        <v>-60.6</v>
+        <v>-60.5</v>
       </c>
       <c r="D283">
-        <v>-48.9</v>
+        <v>-48.6</v>
       </c>
       <c r="E283">
-        <v>-59.6</v>
+        <v>-58.9</v>
       </c>
       <c r="F283">
-        <v>-100</v>
+        <v>-98.2</v>
       </c>
       <c r="G283">
         <v>1.52</v>
@@ -10663,16 +10663,16 @@
         <v>292</v>
       </c>
       <c r="C284">
-        <v>-57.9</v>
+        <v>-57.8</v>
       </c>
       <c r="D284">
-        <v>-49.9</v>
+        <v>-49.6</v>
       </c>
       <c r="E284">
-        <v>-60.7</v>
+        <v>-60.2</v>
       </c>
       <c r="F284">
-        <v>-100</v>
+        <v>-98.8</v>
       </c>
       <c r="G284">
         <v>1.14</v>
@@ -10695,16 +10695,16 @@
         <v>293</v>
       </c>
       <c r="C285">
-        <v>-27.5</v>
+        <v>-27.3</v>
       </c>
       <c r="D285">
-        <v>-43.2</v>
+        <v>-42.7</v>
       </c>
       <c r="E285">
-        <v>-50.1</v>
+        <v>-49</v>
       </c>
       <c r="F285">
-        <v>-100</v>
+        <v>-97.5</v>
       </c>
       <c r="G285">
         <v>1.25</v>
@@ -10727,16 +10727,16 @@
         <v>294</v>
       </c>
       <c r="C286">
-        <v>-33</v>
+        <v>-32.9</v>
       </c>
       <c r="D286">
-        <v>-42.4</v>
+        <v>-42</v>
       </c>
       <c r="E286">
-        <v>-38.4</v>
+        <v>-37.7</v>
       </c>
       <c r="F286">
-        <v>-100</v>
+        <v>-98.3</v>
       </c>
       <c r="G286">
         <v>1.14</v>
@@ -10759,16 +10759,16 @@
         <v>295</v>
       </c>
       <c r="C287">
-        <v>-28.8</v>
+        <v>-28.6</v>
       </c>
       <c r="D287">
-        <v>-41.2</v>
+        <v>-40.7</v>
       </c>
       <c r="E287">
-        <v>-40.3</v>
+        <v>-39.3</v>
       </c>
       <c r="F287">
-        <v>-100</v>
+        <v>-97.5</v>
       </c>
       <c r="G287">
         <v>1.14</v>
@@ -10791,16 +10791,16 @@
         <v>296</v>
       </c>
       <c r="C288">
-        <v>-35.6</v>
+        <v>-35.5</v>
       </c>
       <c r="D288">
-        <v>-38.5</v>
+        <v>-38.2</v>
       </c>
       <c r="E288">
-        <v>-35.9</v>
+        <v>-35.2</v>
       </c>
       <c r="F288">
-        <v>-100</v>
+        <v>-98.2</v>
       </c>
       <c r="G288">
         <v>1.14</v>
@@ -10823,16 +10823,16 @@
         <v>297</v>
       </c>
       <c r="C289">
-        <v>-34</v>
+        <v>-33.9</v>
       </c>
       <c r="D289">
-        <v>-46.8</v>
+        <v>-46.6</v>
       </c>
       <c r="E289">
-        <v>-52.2</v>
+        <v>-51.6</v>
       </c>
       <c r="F289">
-        <v>-99.9</v>
+        <v>-98.6</v>
       </c>
       <c r="G289">
         <v>1.32</v>
@@ -10855,16 +10855,16 @@
         <v>298</v>
       </c>
       <c r="C290">
-        <v>-28.6</v>
+        <v>-28.4</v>
       </c>
       <c r="D290">
-        <v>-42.8</v>
+        <v>-42.3</v>
       </c>
       <c r="E290">
-        <v>-49.4</v>
+        <v>-48.2</v>
       </c>
       <c r="F290">
-        <v>-100</v>
+        <v>-97.3</v>
       </c>
       <c r="G290">
         <v>1.31</v>
@@ -10887,16 +10887,16 @@
         <v>299</v>
       </c>
       <c r="C291">
-        <v>-29.3</v>
+        <v>-29.2</v>
       </c>
       <c r="D291">
-        <v>-41.9</v>
+        <v>-41.6</v>
       </c>
       <c r="E291">
-        <v>-51.3</v>
+        <v>-50.4</v>
       </c>
       <c r="F291">
-        <v>-100</v>
+        <v>-98.1</v>
       </c>
       <c r="G291">
         <v>1.33</v>
@@ -10919,16 +10919,16 @@
         <v>300</v>
       </c>
       <c r="C292">
-        <v>-59.1</v>
+        <v>-58.7</v>
       </c>
       <c r="D292">
-        <v>-57</v>
+        <v>-56</v>
       </c>
       <c r="E292">
-        <v>-64.6</v>
+        <v>-62.5</v>
       </c>
       <c r="F292">
-        <v>-100</v>
+        <v>-95.2</v>
       </c>
       <c r="G292">
         <v>1.65</v>
@@ -10951,16 +10951,16 @@
         <v>301</v>
       </c>
       <c r="C293">
-        <v>-33</v>
+        <v>-32.7</v>
       </c>
       <c r="D293">
-        <v>-30.4</v>
+        <v>-29.4</v>
       </c>
       <c r="E293">
-        <v>-33</v>
+        <v>-30.8</v>
       </c>
       <c r="F293">
-        <v>-100</v>
+        <v>-95.2</v>
       </c>
       <c r="G293">
         <v>1.68</v>
@@ -10983,16 +10983,16 @@
         <v>302</v>
       </c>
       <c r="C294">
-        <v>-45.7</v>
+        <v>-45.5</v>
       </c>
       <c r="D294">
-        <v>-41.3</v>
+        <v>-40.7</v>
       </c>
       <c r="E294">
-        <v>-48.2</v>
+        <v>-47</v>
       </c>
       <c r="F294">
-        <v>-100</v>
+        <v>-97.2</v>
       </c>
       <c r="G294">
         <v>1.41</v>
@@ -11015,16 +11015,16 @@
         <v>303</v>
       </c>
       <c r="C295">
-        <v>-48.1</v>
+        <v>-48</v>
       </c>
       <c r="D295">
-        <v>-47</v>
+        <v>-46.7</v>
       </c>
       <c r="E295">
-        <v>-62.2</v>
+        <v>-61.5</v>
       </c>
       <c r="F295">
-        <v>-100</v>
+        <v>-98.3</v>
       </c>
       <c r="G295">
         <v>1.56</v>
@@ -11047,16 +11047,16 @@
         <v>304</v>
       </c>
       <c r="C296">
-        <v>-41.4</v>
+        <v>-40.9</v>
       </c>
       <c r="D296">
-        <v>-43.1</v>
+        <v>-42</v>
       </c>
       <c r="E296">
-        <v>-61.3</v>
+        <v>-59</v>
       </c>
       <c r="F296">
-        <v>-100</v>
+        <v>-93.9</v>
       </c>
       <c r="G296">
         <v>0.82</v>
@@ -11079,16 +11079,16 @@
         <v>305</v>
       </c>
       <c r="C297">
-        <v>-2.8</v>
+        <v>-2.4</v>
       </c>
       <c r="D297">
-        <v>-4.3</v>
+        <v>-3.4</v>
       </c>
       <c r="E297">
-        <v>-28.3</v>
+        <v>-26</v>
       </c>
       <c r="F297">
-        <v>-99.9</v>
+        <v>-94.7</v>
       </c>
       <c r="G297">
         <v>0.79</v>
@@ -11111,16 +11111,16 @@
         <v>306</v>
       </c>
       <c r="C298">
-        <v>-6.7</v>
+        <v>-6.2</v>
       </c>
       <c r="D298">
-        <v>-4</v>
+        <v>-2.9</v>
       </c>
       <c r="E298">
-        <v>-30.5</v>
+        <v>-27.6</v>
       </c>
       <c r="F298">
-        <v>-98.7</v>
+        <v>-92</v>
       </c>
       <c r="G298">
         <v>0.78</v>
@@ -11143,16 +11143,16 @@
         <v>307</v>
       </c>
       <c r="C299">
-        <v>-11.4</v>
+        <v>-11</v>
       </c>
       <c r="D299">
-        <v>-12.2</v>
+        <v>-11.2</v>
       </c>
       <c r="E299">
-        <v>-37.6</v>
+        <v>-34.8</v>
       </c>
       <c r="F299">
-        <v>-100</v>
+        <v>-93.4</v>
       </c>
       <c r="G299">
         <v>0.85</v>
@@ -11175,16 +11175,16 @@
         <v>308</v>
       </c>
       <c r="C300">
-        <v>-25.7</v>
+        <v>-25.2</v>
       </c>
       <c r="D300">
-        <v>-36.1</v>
+        <v>-35</v>
       </c>
       <c r="E300">
-        <v>-36</v>
+        <v>-33</v>
       </c>
       <c r="F300">
-        <v>-99.9</v>
+        <v>-91.5</v>
       </c>
       <c r="G300">
         <v>1.19</v>
@@ -11207,16 +11207,16 @@
         <v>309</v>
       </c>
       <c r="C301">
-        <v>-26.3</v>
+        <v>-26</v>
       </c>
       <c r="D301">
-        <v>-39.9</v>
+        <v>-39.2</v>
       </c>
       <c r="E301">
-        <v>-35.6</v>
+        <v>-34</v>
       </c>
       <c r="F301">
-        <v>-99.6</v>
+        <v>-96.1</v>
       </c>
       <c r="G301">
         <v>1.04</v>
@@ -11239,16 +11239,16 @@
         <v>310</v>
       </c>
       <c r="C302">
-        <v>-17.2</v>
+        <v>-16.8</v>
       </c>
       <c r="D302">
-        <v>-20.2</v>
+        <v>-19.3</v>
       </c>
       <c r="E302">
-        <v>-27.3</v>
+        <v>-24.9</v>
       </c>
       <c r="F302">
-        <v>-99.9</v>
+        <v>-93.5</v>
       </c>
       <c r="G302">
         <v>1.14</v>
@@ -11271,16 +11271,16 @@
         <v>311</v>
       </c>
       <c r="C303">
-        <v>-11.7</v>
+        <v>-11.5</v>
       </c>
       <c r="D303">
-        <v>-11.6</v>
+        <v>-11.2</v>
       </c>
       <c r="E303">
-        <v>-34.4</v>
+        <v>-33.3</v>
       </c>
       <c r="F303">
-        <v>-99.5</v>
+        <v>-96.6</v>
       </c>
       <c r="G303">
         <v>0.68</v>
@@ -11303,16 +11303,16 @@
         <v>312</v>
       </c>
       <c r="C304">
-        <v>-8.7</v>
+        <v>-8.1</v>
       </c>
       <c r="D304">
-        <v>-7.2</v>
+        <v>-5.7</v>
       </c>
       <c r="E304">
-        <v>6.7</v>
+        <v>10.9</v>
       </c>
       <c r="F304">
-        <v>-100</v>
+        <v>-89.8</v>
       </c>
       <c r="G304">
         <v>1.25</v>
@@ -11338,13 +11338,13 @@
         <v>-49.2</v>
       </c>
       <c r="D305">
-        <v>-68.2</v>
+        <v>-68.1</v>
       </c>
       <c r="E305">
-        <v>-76.4</v>
+        <v>-76.2</v>
       </c>
       <c r="F305">
-        <v>-94.9</v>
+        <v>-94.3</v>
       </c>
       <c r="G305">
         <v>0.47</v>
@@ -11367,16 +11367,16 @@
         <v>314</v>
       </c>
       <c r="C306">
-        <v>-53.3</v>
+        <v>-53.2</v>
       </c>
       <c r="D306">
-        <v>-59.1</v>
+        <v>-58.9</v>
       </c>
       <c r="E306">
-        <v>-61.1</v>
+        <v>-60.6</v>
       </c>
       <c r="F306">
-        <v>-97.5</v>
+        <v>-96.4</v>
       </c>
       <c r="G306">
         <v>0.78</v>
@@ -11399,16 +11399,16 @@
         <v>315</v>
       </c>
       <c r="C307">
-        <v>-20.4</v>
+        <v>-20.1</v>
       </c>
       <c r="D307">
-        <v>-18.9</v>
+        <v>-18.4</v>
       </c>
       <c r="E307">
-        <v>-44.5</v>
+        <v>-43</v>
       </c>
       <c r="F307">
-        <v>-100</v>
+        <v>-96.1</v>
       </c>
       <c r="G307">
         <v>0.99</v>
@@ -11431,16 +11431,16 @@
         <v>316</v>
       </c>
       <c r="C308">
-        <v>-17.1</v>
+        <v>-16.9</v>
       </c>
       <c r="D308">
-        <v>-18.5</v>
+        <v>-18</v>
       </c>
       <c r="E308">
-        <v>-40.4</v>
+        <v>-39.1</v>
       </c>
       <c r="F308">
-        <v>-100</v>
+        <v>-96.9</v>
       </c>
       <c r="G308">
         <v>1.08</v>
@@ -11463,16 +11463,16 @@
         <v>317</v>
       </c>
       <c r="C309">
-        <v>-43.7</v>
+        <v>-43.1</v>
       </c>
       <c r="D309">
-        <v>-42.3</v>
+        <v>-40.9</v>
       </c>
       <c r="E309">
-        <v>-60.3</v>
+        <v>-57.5</v>
       </c>
       <c r="F309">
-        <v>-100</v>
+        <v>-93.5</v>
       </c>
       <c r="G309">
         <v>0.8</v>
@@ -11495,16 +11495,16 @@
         <v>318</v>
       </c>
       <c r="C310">
-        <v>-43.4</v>
+        <v>-43.3</v>
       </c>
       <c r="D310">
-        <v>-37.4</v>
+        <v>-37.2</v>
       </c>
       <c r="E310">
-        <v>-45.2</v>
+        <v>-44.9</v>
       </c>
       <c r="F310">
-        <v>-100</v>
+        <v>-99.2</v>
       </c>
       <c r="G310">
         <v>1.02</v>
@@ -11527,16 +11527,16 @@
         <v>319</v>
       </c>
       <c r="C311">
-        <v>-25.2</v>
+        <v>-24.2</v>
       </c>
       <c r="D311">
-        <v>-7.9</v>
+        <v>-4.9</v>
       </c>
       <c r="E311">
-        <v>-22.8</v>
+        <v>-15.8</v>
       </c>
       <c r="F311">
-        <v>-100</v>
+        <v>-83.9</v>
       </c>
       <c r="G311">
         <v>0.69</v>
@@ -11559,16 +11559,16 @@
         <v>320</v>
       </c>
       <c r="C312">
-        <v>-29.4</v>
+        <v>-28.4</v>
       </c>
       <c r="D312">
-        <v>-7.9</v>
+        <v>-4.9</v>
       </c>
       <c r="E312">
-        <v>-37.3</v>
+        <v>-30.3</v>
       </c>
       <c r="F312">
-        <v>-100</v>
+        <v>-84.1</v>
       </c>
       <c r="G312">
         <v>0.61</v>
@@ -11591,16 +11591,16 @@
         <v>321</v>
       </c>
       <c r="C313">
-        <v>-32</v>
+        <v>-31.4</v>
       </c>
       <c r="D313">
-        <v>-17.2</v>
+        <v>-15.5</v>
       </c>
       <c r="E313">
-        <v>-42</v>
+        <v>-37.9</v>
       </c>
       <c r="F313">
-        <v>-100</v>
+        <v>-90.6</v>
       </c>
       <c r="G313">
         <v>0.64</v>
@@ -11623,16 +11623,16 @@
         <v>322</v>
       </c>
       <c r="C314">
-        <v>-54.9</v>
+        <v>-54.8</v>
       </c>
       <c r="D314">
-        <v>-48.9</v>
+        <v>-48.8</v>
       </c>
       <c r="E314">
-        <v>-54</v>
+        <v>-53.8</v>
       </c>
       <c r="F314">
-        <v>-100</v>
+        <v>-99.4</v>
       </c>
       <c r="G314">
         <v>1.04</v>
@@ -11655,16 +11655,16 @@
         <v>323</v>
       </c>
       <c r="C315">
-        <v>-23.3</v>
+        <v>-22.9</v>
       </c>
       <c r="D315">
-        <v>-20.7</v>
+        <v>-19.8</v>
       </c>
       <c r="E315">
-        <v>-40.3</v>
+        <v>-38</v>
       </c>
       <c r="F315">
-        <v>-99.9</v>
+        <v>-94.3</v>
       </c>
       <c r="G315">
         <v>1.1</v>
@@ -11687,16 +11687,16 @@
         <v>324</v>
       </c>
       <c r="C316">
-        <v>-29.6</v>
+        <v>-29.3</v>
       </c>
       <c r="D316">
-        <v>-40.1</v>
+        <v>-39.3</v>
       </c>
       <c r="E316">
-        <v>-47</v>
+        <v>-45.3</v>
       </c>
       <c r="F316">
-        <v>-100</v>
+        <v>-96.2</v>
       </c>
       <c r="G316">
         <v>1.29</v>
@@ -11719,16 +11719,16 @@
         <v>325</v>
       </c>
       <c r="C317">
-        <v>-28</v>
+        <v>-27.7</v>
       </c>
       <c r="D317">
-        <v>-13.9</v>
+        <v>-13</v>
       </c>
       <c r="E317">
-        <v>-22.4</v>
+        <v>-20.2</v>
       </c>
       <c r="F317">
-        <v>-100</v>
+        <v>-94.7</v>
       </c>
       <c r="G317">
         <v>0.74</v>
@@ -11754,13 +11754,13 @@
         <v>-27.6</v>
       </c>
       <c r="D318">
-        <v>-14.9</v>
+        <v>-14.8</v>
       </c>
       <c r="E318">
-        <v>-24.2</v>
+        <v>-24</v>
       </c>
       <c r="F318">
-        <v>-100</v>
+        <v>-99.6</v>
       </c>
       <c r="G318">
         <v>1.25</v>
@@ -11815,16 +11815,16 @@
         <v>328</v>
       </c>
       <c r="C320">
-        <v>-19</v>
+        <v>-18.4</v>
       </c>
       <c r="D320">
-        <v>-21.9</v>
+        <v>-20.3</v>
       </c>
       <c r="E320">
-        <v>-41.5</v>
+        <v>-37.9</v>
       </c>
       <c r="F320">
-        <v>-99.9</v>
+        <v>-92</v>
       </c>
       <c r="G320">
         <v>1.11</v>
@@ -11850,13 +11850,13 @@
         <v>-24.2</v>
       </c>
       <c r="D321">
-        <v>-40.8</v>
+        <v>-40.7</v>
       </c>
       <c r="E321">
-        <v>-42.2</v>
+        <v>-41.9</v>
       </c>
       <c r="F321">
-        <v>-100</v>
+        <v>-99.3</v>
       </c>
       <c r="G321">
         <v>1.19</v>
@@ -11879,16 +11879,16 @@
         <v>330</v>
       </c>
       <c r="C322">
-        <v>-32.7</v>
+        <v>-32</v>
       </c>
       <c r="D322">
-        <v>-42.8</v>
+        <v>-41.1</v>
       </c>
       <c r="E322">
-        <v>-47.5</v>
+        <v>-43.1</v>
       </c>
       <c r="F322">
-        <v>-100</v>
+        <v>-88.3</v>
       </c>
       <c r="G322">
         <v>1.16</v>
@@ -11911,16 +11911,16 @@
         <v>331</v>
       </c>
       <c r="C323">
-        <v>-48.9</v>
+        <v>-48.8</v>
       </c>
       <c r="D323">
         <v>-44.9</v>
       </c>
       <c r="E323">
-        <v>-63.7</v>
+        <v>-63.6</v>
       </c>
       <c r="F323">
-        <v>-100</v>
+        <v>-99.6</v>
       </c>
       <c r="G323">
         <v>2.03</v>
@@ -11943,16 +11943,16 @@
         <v>332</v>
       </c>
       <c r="C324">
-        <v>-20.6</v>
+        <v>-20</v>
       </c>
       <c r="D324">
-        <v>-31.7</v>
+        <v>-30.3</v>
       </c>
       <c r="E324">
-        <v>-40.2</v>
+        <v>-36.5</v>
       </c>
       <c r="F324">
-        <v>-100</v>
+        <v>-90.6</v>
       </c>
       <c r="G324">
         <v>1.17</v>
@@ -12071,16 +12071,16 @@
         <v>336</v>
       </c>
       <c r="C328">
-        <v>-33.5</v>
+        <v>-32.9</v>
       </c>
       <c r="D328">
-        <v>-43.7</v>
+        <v>-42.4</v>
       </c>
       <c r="E328">
-        <v>-48.6</v>
+        <v>-45.5</v>
       </c>
       <c r="F328">
-        <v>-100</v>
+        <v>-91.9</v>
       </c>
       <c r="G328">
         <v>1.24</v>
@@ -12103,16 +12103,16 @@
         <v>337</v>
       </c>
       <c r="C329">
-        <v>-8.2</v>
+        <v>-7.8</v>
       </c>
       <c r="D329">
-        <v>-17.9</v>
+        <v>-17</v>
       </c>
       <c r="E329">
-        <v>-29.9</v>
+        <v>-27.7</v>
       </c>
       <c r="F329">
-        <v>-100</v>
+        <v>-94.6</v>
       </c>
       <c r="G329">
         <v>1.16</v>
@@ -12135,16 +12135,16 @@
         <v>338</v>
       </c>
       <c r="C330">
-        <v>-9.9</v>
+        <v>-9.8</v>
       </c>
       <c r="D330">
-        <v>-22.9</v>
+        <v>-22.6</v>
       </c>
       <c r="E330">
-        <v>-31.3</v>
+        <v>-30.7</v>
       </c>
       <c r="F330">
-        <v>-100</v>
+        <v>-98.5</v>
       </c>
       <c r="G330">
         <v>1.15</v>
@@ -12170,13 +12170,13 @@
         <v>-25.2</v>
       </c>
       <c r="D331">
-        <v>-39.3</v>
+        <v>-39.2</v>
       </c>
       <c r="E331">
-        <v>-35.7</v>
+        <v>-35.6</v>
       </c>
       <c r="F331">
-        <v>-99.9</v>
+        <v>-99.6</v>
       </c>
       <c r="G331">
         <v>1.28</v>
@@ -12208,7 +12208,7 @@
         <v>-42.7</v>
       </c>
       <c r="F332">
-        <v>-100</v>
+        <v>-99.9</v>
       </c>
       <c r="G332">
         <v>1.03</v>
@@ -12231,16 +12231,16 @@
         <v>341</v>
       </c>
       <c r="C333">
-        <v>-22.4</v>
+        <v>-22.2</v>
       </c>
       <c r="D333">
-        <v>-40.4</v>
+        <v>-40</v>
       </c>
       <c r="E333">
-        <v>-40.7</v>
+        <v>-39.6</v>
       </c>
       <c r="F333">
-        <v>-100</v>
+        <v>-97.5</v>
       </c>
       <c r="G333">
         <v>1.17</v>
@@ -12263,16 +12263,16 @@
         <v>342</v>
       </c>
       <c r="C334">
-        <v>-39.3</v>
+        <v>-39.1</v>
       </c>
       <c r="D334">
-        <v>-41.1</v>
+        <v>-40.7</v>
       </c>
       <c r="E334">
-        <v>-50</v>
+        <v>-49.2</v>
       </c>
       <c r="F334">
-        <v>-100</v>
+        <v>-97.9</v>
       </c>
       <c r="G334">
         <v>1.31</v>
@@ -12295,16 +12295,16 @@
         <v>343</v>
       </c>
       <c r="C335">
-        <v>-41.3</v>
+        <v>-41.1</v>
       </c>
       <c r="D335">
-        <v>-43.7</v>
+        <v>-43.2</v>
       </c>
       <c r="E335">
-        <v>-51</v>
+        <v>-50</v>
       </c>
       <c r="F335">
-        <v>-100</v>
+        <v>-97.7</v>
       </c>
       <c r="G335">
         <v>1.36</v>
@@ -12327,16 +12327,16 @@
         <v>344</v>
       </c>
       <c r="C336">
-        <v>-24.6</v>
+        <v>-24.5</v>
       </c>
       <c r="D336">
-        <v>-40.8</v>
+        <v>-40.6</v>
       </c>
       <c r="E336">
-        <v>-43.3</v>
+        <v>-42.9</v>
       </c>
       <c r="F336">
-        <v>-100</v>
+        <v>-99.1</v>
       </c>
       <c r="G336">
         <v>1.24</v>
@@ -12359,16 +12359,16 @@
         <v>345</v>
       </c>
       <c r="C337">
-        <v>-54.2</v>
+        <v>-53.9</v>
       </c>
       <c r="D337">
-        <v>-49.1</v>
+        <v>-48.4</v>
       </c>
       <c r="E337">
-        <v>-66.8</v>
+        <v>-65.4</v>
       </c>
       <c r="F337">
-        <v>-100</v>
+        <v>-96.9</v>
       </c>
       <c r="G337">
         <v>1.96</v>
@@ -12397,10 +12397,10 @@
         <v>-45.3</v>
       </c>
       <c r="E338">
-        <v>-62.4</v>
+        <v>-62.3</v>
       </c>
       <c r="F338">
-        <v>-100</v>
+        <v>-99.6</v>
       </c>
       <c r="G338">
         <v>1.74</v>
@@ -12423,16 +12423,16 @@
         <v>347</v>
       </c>
       <c r="C339">
-        <v>-44.6</v>
+        <v>-44.5</v>
       </c>
       <c r="D339">
-        <v>-41.6</v>
+        <v>-41.3</v>
       </c>
       <c r="E339">
-        <v>-54.9</v>
+        <v>-54.3</v>
       </c>
       <c r="F339">
-        <v>-100</v>
+        <v>-98.6</v>
       </c>
       <c r="G339">
         <v>1.61</v>
@@ -12458,13 +12458,13 @@
         <v>-55.5</v>
       </c>
       <c r="D340">
-        <v>-45.4</v>
+        <v>-45.2</v>
       </c>
       <c r="E340">
-        <v>-56.5</v>
+        <v>-56.3</v>
       </c>
       <c r="F340">
-        <v>-100</v>
+        <v>-99.2</v>
       </c>
       <c r="G340">
         <v>1.72</v>
@@ -12490,13 +12490,13 @@
         <v>-15.3</v>
       </c>
       <c r="D341">
-        <v>-33</v>
+        <v>-32.9</v>
       </c>
       <c r="E341">
-        <v>-35.9</v>
+        <v>-35.6</v>
       </c>
       <c r="F341">
-        <v>-99.7</v>
+        <v>-98.9</v>
       </c>
       <c r="G341">
         <v>1.15</v>
@@ -12519,16 +12519,16 @@
         <v>350</v>
       </c>
       <c r="C342">
-        <v>-12.6</v>
+        <v>-12.5</v>
       </c>
       <c r="D342">
-        <v>-27.5</v>
+        <v>-27.3</v>
       </c>
       <c r="E342">
-        <v>-36.9</v>
+        <v>-36.5</v>
       </c>
       <c r="F342">
-        <v>-98.8</v>
+        <v>-97.6</v>
       </c>
       <c r="G342">
         <v>1.26</v>
@@ -12551,16 +12551,16 @@
         <v>351</v>
       </c>
       <c r="C343">
-        <v>-32.8</v>
+        <v>-32.7</v>
       </c>
       <c r="D343">
-        <v>-38.5</v>
+        <v>-38.1</v>
       </c>
       <c r="E343">
-        <v>-37.6</v>
+        <v>-36.7</v>
       </c>
       <c r="F343">
-        <v>-100</v>
+        <v>-98</v>
       </c>
       <c r="G343">
         <v>1.15</v>
@@ -12583,16 +12583,16 @@
         <v>352</v>
       </c>
       <c r="C344">
-        <v>-42.9</v>
+        <v>-42.8</v>
       </c>
       <c r="D344">
-        <v>-42</v>
+        <v>-41.6</v>
       </c>
       <c r="E344">
-        <v>-52.1</v>
+        <v>-51.3</v>
       </c>
       <c r="F344">
-        <v>-100</v>
+        <v>-98.2</v>
       </c>
       <c r="G344">
         <v>1.42</v>
@@ -12615,16 +12615,16 @@
         <v>353</v>
       </c>
       <c r="C345">
-        <v>-43.4</v>
+        <v>-43.3</v>
       </c>
       <c r="D345">
-        <v>-43.3</v>
+        <v>-43</v>
       </c>
       <c r="E345">
-        <v>-51.8</v>
+        <v>-51.2</v>
       </c>
       <c r="F345">
-        <v>-100</v>
+        <v>-98.4</v>
       </c>
       <c r="G345">
         <v>1.39</v>
@@ -12647,16 +12647,16 @@
         <v>354</v>
       </c>
       <c r="C346">
-        <v>-50.3</v>
+        <v>-50.1</v>
       </c>
       <c r="D346">
-        <v>-47.6</v>
+        <v>-47.2</v>
       </c>
       <c r="E346">
-        <v>-61.7</v>
+        <v>-60.8</v>
       </c>
       <c r="F346">
-        <v>-100</v>
+        <v>-97.9</v>
       </c>
       <c r="G346">
         <v>1.63</v>
@@ -12679,16 +12679,16 @@
         <v>355</v>
       </c>
       <c r="C347">
-        <v>-50.7</v>
+        <v>-50.3</v>
       </c>
       <c r="D347">
-        <v>-48.8</v>
+        <v>-47.7</v>
       </c>
       <c r="E347">
-        <v>-52.4</v>
+        <v>-50.1</v>
       </c>
       <c r="F347">
-        <v>-100</v>
+        <v>-95.1</v>
       </c>
       <c r="G347">
         <v>1.66</v>
@@ -12711,16 +12711,16 @@
         <v>356</v>
       </c>
       <c r="C348">
-        <v>-34.6</v>
+        <v>-34.3</v>
       </c>
       <c r="D348">
-        <v>-26.5</v>
+        <v>-25.6</v>
       </c>
       <c r="E348">
-        <v>-33</v>
+        <v>-31.1</v>
       </c>
       <c r="F348">
-        <v>-100</v>
+        <v>-96.1</v>
       </c>
       <c r="G348">
         <v>1.64</v>
@@ -12743,16 +12743,16 @@
         <v>357</v>
       </c>
       <c r="C349">
-        <v>-38.9</v>
+        <v>-38.5</v>
       </c>
       <c r="D349">
-        <v>-29.5</v>
+        <v>-28.3</v>
       </c>
       <c r="E349">
-        <v>-40.1</v>
+        <v>-37.6</v>
       </c>
       <c r="F349">
-        <v>-100</v>
+        <v>-95.3</v>
       </c>
       <c r="G349">
         <v>1.55</v>
@@ -12775,16 +12775,16 @@
         <v>358</v>
       </c>
       <c r="C350">
-        <v>-41.6</v>
+        <v>-41.3</v>
       </c>
       <c r="D350">
-        <v>-34.7</v>
+        <v>-33.8</v>
       </c>
       <c r="E350">
-        <v>-41.3</v>
+        <v>-39.4</v>
       </c>
       <c r="F350">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="G350">
         <v>1.41</v>
@@ -12807,16 +12807,16 @@
         <v>359</v>
       </c>
       <c r="C351">
-        <v>-48.7</v>
+        <v>-48.3</v>
       </c>
       <c r="D351">
-        <v>-45.1</v>
+        <v>-44.2</v>
       </c>
       <c r="E351">
-        <v>-58.1</v>
+        <v>-56</v>
       </c>
       <c r="F351">
-        <v>-100</v>
+        <v>-95.5</v>
       </c>
       <c r="G351">
         <v>1.13</v>
@@ -12839,16 +12839,16 @@
         <v>360</v>
       </c>
       <c r="C352">
-        <v>-13.8</v>
+        <v>-13.3</v>
       </c>
       <c r="D352">
-        <v>-28.1</v>
+        <v>-26.5</v>
       </c>
       <c r="E352">
-        <v>-40</v>
+        <v>-36.3</v>
       </c>
       <c r="F352">
-        <v>-100</v>
+        <v>-92.1</v>
       </c>
       <c r="G352">
         <v>1.3</v>
@@ -12871,16 +12871,16 @@
         <v>361</v>
       </c>
       <c r="C353">
-        <v>-21.8</v>
+        <v>-21.5</v>
       </c>
       <c r="D353">
-        <v>-14</v>
+        <v>-13.2</v>
       </c>
       <c r="E353">
-        <v>-27.6</v>
+        <v>-26</v>
       </c>
       <c r="F353">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="G353">
         <v>1.62</v>
@@ -12903,16 +12903,16 @@
         <v>362</v>
       </c>
       <c r="C354">
-        <v>-16.7</v>
+        <v>-16.3</v>
       </c>
       <c r="D354">
-        <v>-25.4</v>
+        <v>-24.5</v>
       </c>
       <c r="E354">
-        <v>-32.5</v>
+        <v>-30.2</v>
       </c>
       <c r="F354">
-        <v>-100</v>
+        <v>-95.3</v>
       </c>
       <c r="G354">
         <v>1.31</v>
@@ -12935,16 +12935,16 @@
         <v>363</v>
       </c>
       <c r="C355">
-        <v>-10.2</v>
+        <v>-9.4</v>
       </c>
       <c r="D355">
-        <v>-20.9</v>
+        <v>-18.9</v>
       </c>
       <c r="E355">
-        <v>-37.1</v>
+        <v>-32.5</v>
       </c>
       <c r="F355">
-        <v>-100</v>
+        <v>-91</v>
       </c>
       <c r="G355">
         <v>1.3</v>
@@ -12967,16 +12967,16 @@
         <v>364</v>
       </c>
       <c r="C356">
-        <v>-44.3</v>
+        <v>-43.8</v>
       </c>
       <c r="D356">
-        <v>-43.8</v>
+        <v>-42.5</v>
       </c>
       <c r="E356">
-        <v>-62</v>
+        <v>-59.2</v>
       </c>
       <c r="F356">
-        <v>-100</v>
+        <v>-94</v>
       </c>
       <c r="G356">
         <v>0.97</v>
@@ -12999,16 +12999,16 @@
         <v>365</v>
       </c>
       <c r="C357">
-        <v>-52.5</v>
+        <v>-52.1</v>
       </c>
       <c r="D357">
-        <v>-45</v>
+        <v>-43.9</v>
       </c>
       <c r="E357">
-        <v>-63.4</v>
+        <v>-61</v>
       </c>
       <c r="F357">
-        <v>-100</v>
+        <v>-94.9</v>
       </c>
       <c r="G357">
         <v>1</v>
@@ -13031,16 +13031,16 @@
         <v>366</v>
       </c>
       <c r="C358">
-        <v>-15.2</v>
+        <v>-14.9</v>
       </c>
       <c r="D358">
-        <v>-3.7</v>
+        <v>-2.7</v>
       </c>
       <c r="E358">
-        <v>-8.7</v>
+        <v>-6.6</v>
       </c>
       <c r="F358">
-        <v>-100</v>
+        <v>-96.2</v>
       </c>
       <c r="G358">
         <v>1.48</v>
@@ -13063,16 +13063,16 @@
         <v>367</v>
       </c>
       <c r="C359">
-        <v>-11.4</v>
+        <v>-10.4</v>
       </c>
       <c r="D359">
-        <v>-29</v>
+        <v>-26.3</v>
       </c>
       <c r="E359">
-        <v>-34.1</v>
+        <v>-28.4</v>
       </c>
       <c r="F359">
-        <v>-100</v>
+        <v>-90.2</v>
       </c>
       <c r="G359">
         <v>1.31</v>
@@ -13095,16 +13095,16 @@
         <v>368</v>
       </c>
       <c r="C360">
-        <v>-13.6</v>
+        <v>-13.3</v>
       </c>
       <c r="D360">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="E360">
-        <v>-3.7</v>
+        <v>-1.4</v>
       </c>
       <c r="F360">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="G360">
         <v>1.52</v>
@@ -13127,16 +13127,16 @@
         <v>369</v>
       </c>
       <c r="C361">
-        <v>-19</v>
+        <v>-18.3</v>
       </c>
       <c r="D361">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="E361">
-        <v>-12.5</v>
+        <v>-7.8</v>
       </c>
       <c r="F361">
-        <v>-100</v>
+        <v>-91.9</v>
       </c>
       <c r="G361">
         <v>1.47</v>
@@ -13159,16 +13159,16 @@
         <v>370</v>
       </c>
       <c r="C362">
-        <v>-23</v>
+        <v>-22.6</v>
       </c>
       <c r="D362">
-        <v>-4.6</v>
+        <v>-3.3</v>
       </c>
       <c r="E362">
-        <v>-21.2</v>
+        <v>-18.3</v>
       </c>
       <c r="F362">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="G362">
         <v>1.54</v>
@@ -13191,16 +13191,16 @@
         <v>371</v>
       </c>
       <c r="C363">
-        <v>-12.6</v>
+        <v>-11.6</v>
       </c>
       <c r="D363">
-        <v>-20.7</v>
+        <v>-17.7</v>
       </c>
       <c r="E363">
-        <v>-36.3</v>
+        <v>-29.3</v>
       </c>
       <c r="F363">
-        <v>-100</v>
+        <v>-87</v>
       </c>
       <c r="G363">
         <v>1.28</v>
@@ -13223,16 +13223,16 @@
         <v>372</v>
       </c>
       <c r="C364">
-        <v>-7.7</v>
+        <v>-6.4</v>
       </c>
       <c r="D364">
-        <v>-13.3</v>
+        <v>-9.8</v>
       </c>
       <c r="E364">
-        <v>-34.8</v>
+        <v>-26.9</v>
       </c>
       <c r="F364">
-        <v>-100</v>
+        <v>-86.1</v>
       </c>
       <c r="G364">
         <v>1.29</v>
@@ -13255,16 +13255,16 @@
         <v>373</v>
       </c>
       <c r="C365">
-        <v>-2.1</v>
+        <v>-0.6</v>
       </c>
       <c r="D365">
-        <v>-9.7</v>
+        <v>-5.4</v>
       </c>
       <c r="E365">
-        <v>-34.1</v>
+        <v>-25.1</v>
       </c>
       <c r="F365">
-        <v>-100</v>
+        <v>-84.8</v>
       </c>
       <c r="G365">
         <v>1.29</v>
@@ -13287,16 +13287,16 @@
         <v>374</v>
       </c>
       <c r="C366">
-        <v>-2.9</v>
+        <v>-1.6</v>
       </c>
       <c r="D366">
-        <v>-14.4</v>
+        <v>-10.7</v>
       </c>
       <c r="E366">
-        <v>-34.9</v>
+        <v>-27.2</v>
       </c>
       <c r="F366">
-        <v>-100</v>
+        <v>-86.4</v>
       </c>
       <c r="G366">
         <v>1.3</v>
@@ -13319,16 +13319,16 @@
         <v>375</v>
       </c>
       <c r="C367">
-        <v>-3.3</v>
+        <v>-2.3</v>
       </c>
       <c r="D367">
-        <v>-12.2</v>
+        <v>-9.6</v>
       </c>
       <c r="E367">
-        <v>-26.3</v>
+        <v>-20.9</v>
       </c>
       <c r="F367">
-        <v>-100</v>
+        <v>-91.3</v>
       </c>
       <c r="G367">
         <v>1.29</v>
@@ -13351,16 +13351,16 @@
         <v>376</v>
       </c>
       <c r="C368">
-        <v>-22.6</v>
+        <v>-22</v>
       </c>
       <c r="D368">
-        <v>-18.1</v>
+        <v>-16.8</v>
       </c>
       <c r="E368">
-        <v>-32.3</v>
+        <v>-28.8</v>
       </c>
       <c r="F368">
-        <v>-99.9</v>
+        <v>-91.1</v>
       </c>
       <c r="G368">
         <v>1.18</v>
@@ -13383,16 +13383,16 @@
         <v>377</v>
       </c>
       <c r="C369">
-        <v>-19.5</v>
+        <v>-19.3</v>
       </c>
       <c r="D369">
-        <v>-17.5</v>
+        <v>-17.1</v>
       </c>
       <c r="E369">
-        <v>-38.3</v>
+        <v>-37.4</v>
       </c>
       <c r="F369">
-        <v>-97.4</v>
+        <v>-95.2</v>
       </c>
       <c r="G369">
         <v>0.6</v>
@@ -13415,16 +13415,16 @@
         <v>378</v>
       </c>
       <c r="C370">
-        <v>-19</v>
+        <v>-18.9</v>
       </c>
       <c r="D370">
-        <v>-18.1</v>
+        <v>-17.8</v>
       </c>
       <c r="E370">
-        <v>-39.9</v>
+        <v>-39.2</v>
       </c>
       <c r="F370">
-        <v>-98.7</v>
+        <v>-97.2</v>
       </c>
       <c r="G370">
         <v>0.56</v>
@@ -13447,16 +13447,16 @@
         <v>379</v>
       </c>
       <c r="C371">
-        <v>-12.7</v>
+        <v>-12.3</v>
       </c>
       <c r="D371">
-        <v>-12.1</v>
+        <v>-11</v>
       </c>
       <c r="E371">
-        <v>-35.1</v>
+        <v>-32.2</v>
       </c>
       <c r="F371">
-        <v>-99.1</v>
+        <v>-92.4</v>
       </c>
       <c r="G371">
         <v>0.77</v>
@@ -13479,16 +13479,16 @@
         <v>380</v>
       </c>
       <c r="C372">
-        <v>-34.2</v>
+        <v>-33.5</v>
       </c>
       <c r="D372">
-        <v>-49.3</v>
+        <v>-47.9</v>
       </c>
       <c r="E372">
-        <v>-73.4</v>
+        <v>-70.6</v>
       </c>
       <c r="F372">
-        <v>-99.6</v>
+        <v>-92.8</v>
       </c>
       <c r="G372">
         <v>0.31</v>
@@ -13511,16 +13511,16 @@
         <v>381</v>
       </c>
       <c r="C373">
-        <v>-44.9</v>
+        <v>-44.5</v>
       </c>
       <c r="D373">
-        <v>-49.7</v>
+        <v>-48.7</v>
       </c>
       <c r="E373">
-        <v>-72.4</v>
+        <v>-70.5</v>
       </c>
       <c r="F373">
-        <v>-99.3</v>
+        <v>-94.9</v>
       </c>
       <c r="G373">
         <v>0.56</v>
@@ -13546,13 +13546,13 @@
         <v>-56.4</v>
       </c>
       <c r="D374">
-        <v>-48.6</v>
+        <v>-48.5</v>
       </c>
       <c r="E374">
-        <v>-59.8</v>
+        <v>-59.6</v>
       </c>
       <c r="F374">
-        <v>-100</v>
+        <v>-99.5</v>
       </c>
       <c r="G374">
         <v>1.25</v>
@@ -13575,16 +13575,16 @@
         <v>383</v>
       </c>
       <c r="C375">
-        <v>-51.9</v>
+        <v>-51.8</v>
       </c>
       <c r="D375">
-        <v>-58.9</v>
+        <v>-58.8</v>
       </c>
       <c r="E375">
-        <v>-62.1</v>
+        <v>-61.8</v>
       </c>
       <c r="F375">
-        <v>-98.1</v>
+        <v>-97.3</v>
       </c>
       <c r="G375">
         <v>0.53</v>
@@ -13607,16 +13607,16 @@
         <v>384</v>
       </c>
       <c r="C376">
-        <v>-34.4</v>
+        <v>-33.9</v>
       </c>
       <c r="D376">
-        <v>-24</v>
+        <v>-22.2</v>
       </c>
       <c r="E376">
-        <v>-36.2</v>
+        <v>-32.5</v>
       </c>
       <c r="F376">
-        <v>-100</v>
+        <v>-93.3</v>
       </c>
       <c r="G376">
         <v>1.58</v>
@@ -13639,16 +13639,16 @@
         <v>385</v>
       </c>
       <c r="C377">
-        <v>-52.2</v>
+        <v>-51.8</v>
       </c>
       <c r="D377">
-        <v>-51.2</v>
+        <v>-50.3</v>
       </c>
       <c r="E377">
-        <v>-60.8</v>
+        <v>-59.1</v>
       </c>
       <c r="F377">
-        <v>-100</v>
+        <v>-95.8</v>
       </c>
       <c r="G377">
         <v>1.43</v>
@@ -13671,16 +13671,16 @@
         <v>386</v>
       </c>
       <c r="C378">
-        <v>-15.8</v>
+        <v>-15.7</v>
       </c>
       <c r="D378">
-        <v>-13.3</v>
+        <v>-12.9</v>
       </c>
       <c r="E378">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="F378">
-        <v>-99.9</v>
+        <v>-97.3</v>
       </c>
       <c r="G378">
         <v>1.1</v>
@@ -13703,16 +13703,16 @@
         <v>387</v>
       </c>
       <c r="C379">
-        <v>-45.1</v>
+        <v>-44.7</v>
       </c>
       <c r="D379">
-        <v>-47.2</v>
+        <v>-46.1</v>
       </c>
       <c r="E379">
-        <v>-64.9</v>
+        <v>-62.8</v>
       </c>
       <c r="F379">
-        <v>-100</v>
+        <v>-94.8</v>
       </c>
       <c r="G379">
         <v>0.65</v>
@@ -13735,16 +13735,16 @@
         <v>388</v>
       </c>
       <c r="C380">
-        <v>-28.7</v>
+        <v>-28.1</v>
       </c>
       <c r="D380">
-        <v>-36.4</v>
+        <v>-35</v>
       </c>
       <c r="E380">
-        <v>-33.9</v>
+        <v>-30.2</v>
       </c>
       <c r="F380">
-        <v>-100</v>
+        <v>-90.1</v>
       </c>
       <c r="G380">
         <v>1.15</v>
@@ -13767,16 +13767,16 @@
         <v>389</v>
       </c>
       <c r="C381">
-        <v>-29.4</v>
+        <v>-28.9</v>
       </c>
       <c r="D381">
-        <v>-37.2</v>
+        <v>-36</v>
       </c>
       <c r="E381">
-        <v>-35.4</v>
+        <v>-32.4</v>
       </c>
       <c r="F381">
-        <v>-100</v>
+        <v>-92.2</v>
       </c>
       <c r="G381">
         <v>1.15</v>
@@ -13799,16 +13799,16 @@
         <v>390</v>
       </c>
       <c r="C382">
-        <v>-25.5</v>
+        <v>-25.3</v>
       </c>
       <c r="D382">
-        <v>-27.3</v>
+        <v>-26.4</v>
       </c>
       <c r="E382">
-        <v>-23.9</v>
+        <v>-22.2</v>
       </c>
       <c r="F382">
-        <v>-100</v>
+        <v>-96.3</v>
       </c>
       <c r="G382">
         <v>1.16</v>
@@ -13831,16 +13831,16 @@
         <v>391</v>
       </c>
       <c r="C383">
-        <v>-54.6</v>
+        <v>-54.4</v>
       </c>
       <c r="D383">
-        <v>-50.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E383">
-        <v>-63.5</v>
+        <v>-62.4</v>
       </c>
       <c r="F383">
-        <v>-100</v>
+        <v>-96.8</v>
       </c>
       <c r="G383">
         <v>1.08</v>
@@ -13863,7 +13863,7 @@
         <v>392</v>
       </c>
       <c r="C384">
-        <v>-31.7</v>
+        <v>-31.6</v>
       </c>
       <c r="D384">
         <v>-43.6</v>
@@ -13895,16 +13895,16 @@
         <v>393</v>
       </c>
       <c r="C385">
-        <v>-29.4</v>
+        <v>-28.6</v>
       </c>
       <c r="D385">
-        <v>-40.3</v>
+        <v>-38.5</v>
       </c>
       <c r="E385">
-        <v>-43.2</v>
+        <v>-38.6</v>
       </c>
       <c r="F385">
-        <v>-100</v>
+        <v>-87.3</v>
       </c>
       <c r="G385">
         <v>1.16</v>
@@ -13927,16 +13927,16 @@
         <v>394</v>
       </c>
       <c r="C386">
-        <v>-18.6</v>
+        <v>-18.2</v>
       </c>
       <c r="D386">
-        <v>-19</v>
+        <v>-17.9</v>
       </c>
       <c r="E386">
-        <v>-53.8</v>
+        <v>-51.4</v>
       </c>
       <c r="F386">
-        <v>-99.8</v>
+        <v>-94</v>
       </c>
       <c r="G386">
         <v>0.69</v>
@@ -13959,16 +13959,16 @@
         <v>395</v>
       </c>
       <c r="C387">
-        <v>-19.1</v>
+        <v>-18.7</v>
       </c>
       <c r="D387">
-        <v>-16.3</v>
+        <v>-15.4</v>
       </c>
       <c r="E387">
-        <v>-51.7</v>
+        <v>-49.7</v>
       </c>
       <c r="F387">
-        <v>-100</v>
+        <v>-95.3</v>
       </c>
       <c r="G387">
         <v>0.56</v>
@@ -13991,16 +13991,16 @@
         <v>396</v>
       </c>
       <c r="C388">
-        <v>-18.6</v>
+        <v>-18.3</v>
       </c>
       <c r="D388">
-        <v>-18.9</v>
+        <v>-18.3</v>
       </c>
       <c r="E388">
-        <v>-44.8</v>
+        <v>-43.3</v>
       </c>
       <c r="F388">
-        <v>-100</v>
+        <v>-96.4</v>
       </c>
       <c r="G388">
         <v>0.81</v>
@@ -14023,16 +14023,16 @@
         <v>397</v>
       </c>
       <c r="C389">
-        <v>-57.8</v>
+        <v>-57.6</v>
       </c>
       <c r="D389">
-        <v>-59.3</v>
+        <v>-58.8</v>
       </c>
       <c r="E389">
-        <v>-69.1</v>
+        <v>-68</v>
       </c>
       <c r="F389">
-        <v>-100</v>
+        <v>-97.3</v>
       </c>
       <c r="G389">
         <v>1.24</v>
@@ -14055,16 +14055,16 @@
         <v>398</v>
       </c>
       <c r="C390">
-        <v>-52.3</v>
+        <v>-52</v>
       </c>
       <c r="D390">
+        <v>-48.4</v>
+      </c>
+      <c r="E390">
         <v>-49.2</v>
       </c>
-      <c r="E390">
-        <v>-51</v>
-      </c>
       <c r="F390">
-        <v>-100</v>
+        <v>-95.9</v>
       </c>
       <c r="G390">
         <v>1.6</v>
@@ -14087,16 +14087,16 @@
         <v>399</v>
       </c>
       <c r="C391">
-        <v>-10.7</v>
+        <v>-10.4</v>
       </c>
       <c r="D391">
-        <v>-11.8</v>
+        <v>-11.1</v>
       </c>
       <c r="E391">
-        <v>-38.2</v>
+        <v>-36.5</v>
       </c>
       <c r="F391">
-        <v>-99.9</v>
+        <v>-96.1</v>
       </c>
       <c r="G391">
         <v>0.77</v>
@@ -14119,16 +14119,16 @@
         <v>400</v>
       </c>
       <c r="C392">
-        <v>-22.9</v>
+        <v>-22.3</v>
       </c>
       <c r="D392">
-        <v>-23.5</v>
+        <v>-22.3</v>
       </c>
       <c r="E392">
-        <v>-51.6</v>
+        <v>-48.8</v>
       </c>
       <c r="F392">
-        <v>-100</v>
+        <v>-92.8</v>
       </c>
       <c r="G392">
         <v>0.75</v>
@@ -14151,16 +14151,16 @@
         <v>401</v>
       </c>
       <c r="C393">
-        <v>-19.2</v>
+        <v>-18.3</v>
       </c>
       <c r="D393">
-        <v>-19</v>
+        <v>-16.8</v>
       </c>
       <c r="E393">
-        <v>-38.6</v>
+        <v>-33.4</v>
       </c>
       <c r="F393">
-        <v>-100</v>
+        <v>-87.4</v>
       </c>
       <c r="G393">
         <v>0.8</v>
@@ -14183,16 +14183,16 @@
         <v>402</v>
       </c>
       <c r="C394">
-        <v>-17</v>
+        <v>-16.6</v>
       </c>
       <c r="D394">
-        <v>-27.5</v>
+        <v>-26.4</v>
       </c>
       <c r="E394">
-        <v>-34.4</v>
+        <v>-31.9</v>
       </c>
       <c r="F394">
-        <v>-100</v>
+        <v>-94.6</v>
       </c>
       <c r="G394">
         <v>1.31</v>
@@ -14215,16 +14215,16 @@
         <v>403</v>
       </c>
       <c r="C395">
-        <v>-16.6</v>
+        <v>-16.5</v>
       </c>
       <c r="D395">
-        <v>-15.3</v>
+        <v>-15.1</v>
       </c>
       <c r="E395">
-        <v>-30.6</v>
+        <v>-30.1</v>
       </c>
       <c r="F395">
-        <v>-100</v>
+        <v>-98.9</v>
       </c>
       <c r="G395">
         <v>1.13</v>
@@ -14247,16 +14247,16 @@
         <v>404</v>
       </c>
       <c r="C396">
-        <v>-30.1</v>
+        <v>-29.8</v>
       </c>
       <c r="D396">
-        <v>-32.9</v>
+        <v>-32.2</v>
       </c>
       <c r="E396">
-        <v>-40.2</v>
+        <v>-38.7</v>
       </c>
       <c r="F396">
-        <v>-100</v>
+        <v>-96.2</v>
       </c>
       <c r="G396">
         <v>1.11</v>
@@ -14285,10 +14285,10 @@
         <v>-38.7</v>
       </c>
       <c r="E397">
-        <v>-39.1</v>
+        <v>-39</v>
       </c>
       <c r="F397">
-        <v>-99.1</v>
+        <v>-98.7</v>
       </c>
       <c r="G397">
         <v>1.26</v>
@@ -14311,16 +14311,16 @@
         <v>406</v>
       </c>
       <c r="C398">
-        <v>-23.9</v>
+        <v>-23.6</v>
       </c>
       <c r="D398">
-        <v>-36.4</v>
+        <v>-35.6</v>
       </c>
       <c r="E398">
-        <v>-41.9</v>
+        <v>-40.2</v>
       </c>
       <c r="F398">
-        <v>-100</v>
+        <v>-96.1</v>
       </c>
       <c r="G398">
         <v>1.3</v>
@@ -14343,16 +14343,16 @@
         <v>407</v>
       </c>
       <c r="C399">
-        <v>-60.1</v>
+        <v>-59.8</v>
       </c>
       <c r="D399">
-        <v>-59</v>
+        <v>-58</v>
       </c>
       <c r="E399">
-        <v>-61</v>
+        <v>-59.1</v>
       </c>
       <c r="F399">
-        <v>-100</v>
+        <v>-95.5</v>
       </c>
       <c r="G399">
         <v>1.63</v>
@@ -14375,16 +14375,16 @@
         <v>408</v>
       </c>
       <c r="C400">
-        <v>-19.5</v>
+        <v>-18.7</v>
       </c>
       <c r="D400">
-        <v>-28.8</v>
+        <v>-26.5</v>
       </c>
       <c r="E400">
-        <v>-27.2</v>
+        <v>-22.2</v>
       </c>
       <c r="F400">
-        <v>-100</v>
+        <v>-90.2</v>
       </c>
       <c r="G400">
         <v>1.27</v>

--- a/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
+++ b/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
@@ -22,16 +22,16 @@
     <t>NOME</t>
   </si>
   <si>
-    <t>AN_ANUAL_202009</t>
-  </si>
-  <si>
-    <t>AN_SEM_202009</t>
-  </si>
-  <si>
-    <t>AN_TRI_202009</t>
-  </si>
-  <si>
-    <t>AN_202009</t>
+    <t>AN_ANUAL_202010</t>
+  </si>
+  <si>
+    <t>AN_SEM_202010</t>
+  </si>
+  <si>
+    <t>AN_TRI_202010</t>
+  </si>
+  <si>
+    <t>AN_20201010</t>
   </si>
   <si>
     <t>SPI1_202009</t>
@@ -1592,7 +1592,7 @@
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
@@ -1639,16 +1639,16 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>-46.3</v>
+        <v>-47.5</v>
       </c>
       <c r="D2">
-        <v>-44.5</v>
+        <v>-47.3</v>
       </c>
       <c r="E2">
-        <v>-44.5</v>
+        <v>-45.6</v>
       </c>
       <c r="F2">
-        <v>-72.6</v>
+        <v>-74.4</v>
       </c>
       <c r="G2">
         <v>-1.64</v>
@@ -1671,16 +1671,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>-54.4</v>
+        <v>-55.6</v>
       </c>
       <c r="D3">
-        <v>-49.2</v>
+        <v>-51.9</v>
       </c>
       <c r="E3">
-        <v>-47.2</v>
+        <v>-48.9</v>
       </c>
       <c r="F3">
-        <v>-74.5</v>
+        <v>-79.3</v>
       </c>
       <c r="G3">
         <v>-1.69</v>
@@ -1703,16 +1703,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>-37.5</v>
+        <v>-41.4</v>
       </c>
       <c r="D4">
-        <v>-34.8</v>
+        <v>-42.1</v>
       </c>
       <c r="E4">
-        <v>-52.1</v>
+        <v>-60.7</v>
       </c>
       <c r="F4">
-        <v>-72</v>
+        <v>-80.5</v>
       </c>
       <c r="G4">
         <v>-1.18</v>
@@ -1735,16 +1735,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>-44.1</v>
+        <v>-48.2</v>
       </c>
       <c r="D5">
-        <v>-39.8</v>
+        <v>-46.2</v>
       </c>
       <c r="E5">
-        <v>-52</v>
+        <v>-59.4</v>
       </c>
       <c r="F5">
-        <v>-65.7</v>
+        <v>-83.3</v>
       </c>
       <c r="G5">
         <v>-0.98</v>
@@ -1767,16 +1767,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>-50.3</v>
+        <v>-52</v>
       </c>
       <c r="D6">
-        <v>-46.2</v>
+        <v>-49.1</v>
       </c>
       <c r="E6">
-        <v>-49.6</v>
+        <v>-50.4</v>
       </c>
       <c r="F6">
-        <v>-82.4</v>
+        <v>-82.2</v>
       </c>
       <c r="G6">
         <v>-2.1</v>
@@ -1799,16 +1799,16 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>-24.1</v>
+        <v>-30.7</v>
       </c>
       <c r="D7">
-        <v>-26.7</v>
+        <v>-39.2</v>
       </c>
       <c r="E7">
-        <v>-35.8</v>
+        <v>-62.9</v>
       </c>
       <c r="F7">
-        <v>-74.6</v>
+        <v>-97.5</v>
       </c>
       <c r="G7">
         <v>-1.56</v>
@@ -1831,16 +1831,16 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>-25</v>
+        <v>-31.6</v>
       </c>
       <c r="D8">
-        <v>-26.8</v>
+        <v>-39.3</v>
       </c>
       <c r="E8">
-        <v>-33.9</v>
+        <v>-60.2</v>
       </c>
       <c r="F8">
-        <v>-73.6</v>
+        <v>-95.2</v>
       </c>
       <c r="G8">
         <v>-1.2</v>
@@ -1863,16 +1863,16 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>-24.9</v>
+        <v>-31.9</v>
       </c>
       <c r="D9">
-        <v>-37.1</v>
+        <v>-47.8</v>
       </c>
       <c r="E9">
-        <v>-43.9</v>
+        <v>-55</v>
       </c>
       <c r="F9">
-        <v>-95.4</v>
+        <v>-90.8</v>
       </c>
       <c r="G9">
         <v>-1.66</v>
@@ -1895,16 +1895,16 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>-30.9</v>
+        <v>-34</v>
       </c>
       <c r="D10">
-        <v>-27.9</v>
+        <v>-36.8</v>
       </c>
       <c r="E10">
-        <v>-35.6</v>
+        <v>-47.7</v>
       </c>
       <c r="F10">
-        <v>-91.9</v>
+        <v>-92</v>
       </c>
       <c r="G10">
         <v>-1.06</v>
@@ -1927,16 +1927,16 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>-43.3</v>
+        <v>-46.2</v>
       </c>
       <c r="D11">
-        <v>-34.7</v>
+        <v>-44</v>
       </c>
       <c r="E11">
-        <v>-42.4</v>
+        <v>-54</v>
       </c>
       <c r="F11">
-        <v>-95.8</v>
+        <v>-96.4</v>
       </c>
       <c r="G11">
         <v>-2.22</v>
@@ -1959,16 +1959,16 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>-52.7</v>
+        <v>-55.3</v>
       </c>
       <c r="D12">
-        <v>-38.7</v>
+        <v>-44</v>
       </c>
       <c r="E12">
-        <v>-36</v>
+        <v>-48.3</v>
       </c>
       <c r="F12">
-        <v>-69.6</v>
+        <v>-87</v>
       </c>
       <c r="G12">
         <v>-1.3</v>
@@ -1991,16 +1991,16 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>-27</v>
+        <v>-31.5</v>
       </c>
       <c r="D13">
-        <v>-39.9</v>
+        <v>-45.3</v>
       </c>
       <c r="E13">
-        <v>-40.3</v>
+        <v>-45.3</v>
       </c>
       <c r="F13">
-        <v>-93.4</v>
+        <v>-87.1</v>
       </c>
       <c r="G13">
         <v>-1.07</v>
@@ -2023,16 +2023,16 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>-30.3</v>
+        <v>-37.2</v>
       </c>
       <c r="D14">
-        <v>-40.1</v>
+        <v>-45.8</v>
       </c>
       <c r="E14">
-        <v>-36.2</v>
+        <v>-40.4</v>
       </c>
       <c r="F14">
-        <v>-91.5</v>
+        <v>-87</v>
       </c>
       <c r="G14">
         <v>-1.43</v>
@@ -2055,16 +2055,16 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>-26.5</v>
+        <v>-30</v>
       </c>
       <c r="D15">
-        <v>-21.2</v>
+        <v>-29.1</v>
       </c>
       <c r="E15">
-        <v>-0.8</v>
+        <v>-22.5</v>
       </c>
       <c r="F15">
-        <v>-87.3</v>
+        <v>-89.4</v>
       </c>
       <c r="G15">
         <v>-2.02</v>
@@ -2087,16 +2087,16 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>-14.1</v>
+        <v>-17.6</v>
       </c>
       <c r="D16">
-        <v>3.9</v>
+        <v>-7.6</v>
       </c>
       <c r="E16">
-        <v>2.5</v>
+        <v>-21.5</v>
       </c>
       <c r="F16">
-        <v>-73.2</v>
+        <v>-87</v>
       </c>
       <c r="G16">
         <v>-1.9</v>
@@ -2119,16 +2119,16 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>-41</v>
+        <v>-42.9</v>
       </c>
       <c r="D17">
-        <v>-34.7</v>
+        <v>-38.6</v>
       </c>
       <c r="E17">
-        <v>-39.5</v>
+        <v>-42.8</v>
       </c>
       <c r="F17">
-        <v>-66.5</v>
+        <v>-80.9</v>
       </c>
       <c r="G17">
         <v>-2.66</v>
@@ -2151,16 +2151,16 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>-48.4</v>
+        <v>-50</v>
       </c>
       <c r="D18">
-        <v>-41.1</v>
+        <v>-46.4</v>
       </c>
       <c r="E18">
-        <v>-53.4</v>
+        <v>-58.4</v>
       </c>
       <c r="F18">
-        <v>-85</v>
+        <v>-87.7</v>
       </c>
       <c r="G18">
         <v>-2.28</v>
@@ -2183,16 +2183,16 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>-58.5</v>
+        <v>-59.2</v>
       </c>
       <c r="D19">
-        <v>-54.9</v>
+        <v>-51.7</v>
       </c>
       <c r="E19">
-        <v>-48</v>
+        <v>-54.8</v>
       </c>
       <c r="F19">
-        <v>-80.3</v>
+        <v>-73.9</v>
       </c>
       <c r="G19">
         <v>-2.29</v>
@@ -2215,16 +2215,16 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>-61.6</v>
+        <v>-61.9</v>
       </c>
       <c r="D20">
-        <v>-59.4</v>
+        <v>-59.1</v>
       </c>
       <c r="E20">
-        <v>-53.9</v>
+        <v>-57.6</v>
       </c>
       <c r="F20">
-        <v>-90.4</v>
+        <v>-77.5</v>
       </c>
       <c r="G20">
         <v>-2.55</v>
@@ -2247,16 +2247,16 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>-54</v>
+        <v>-55.7</v>
       </c>
       <c r="D21">
-        <v>-48.7</v>
+        <v>-59.3</v>
       </c>
       <c r="E21">
-        <v>-57</v>
+        <v>-68.6</v>
       </c>
       <c r="F21">
-        <v>-82.2</v>
+        <v>-92.9</v>
       </c>
       <c r="G21">
         <v>-1.09</v>
@@ -2279,16 +2279,16 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>-50.9</v>
+        <v>-53.5</v>
       </c>
       <c r="D22">
-        <v>-45.5</v>
+        <v>-56.9</v>
       </c>
       <c r="E22">
-        <v>-54.1</v>
+        <v>-66.5</v>
       </c>
       <c r="F22">
-        <v>-80.5</v>
+        <v>-94</v>
       </c>
       <c r="G22">
         <v>-1.03</v>
@@ -2311,16 +2311,16 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>-28.3</v>
+        <v>-34.2</v>
       </c>
       <c r="D23">
-        <v>-34.7</v>
+        <v>-45.1</v>
       </c>
       <c r="E23">
-        <v>-41.9</v>
+        <v>-65.3</v>
       </c>
       <c r="F23">
-        <v>-79.5</v>
+        <v>-97.8</v>
       </c>
       <c r="G23">
         <v>-1.89</v>
@@ -2343,16 +2343,16 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>-63.7</v>
+        <v>-63.1</v>
       </c>
       <c r="D24">
-        <v>-56.9</v>
+        <v>-57.2</v>
       </c>
       <c r="E24">
-        <v>-55.2</v>
+        <v>-57.1</v>
       </c>
       <c r="F24">
-        <v>-93</v>
+        <v>-76.9</v>
       </c>
       <c r="G24">
         <v>-2.45</v>
@@ -2375,16 +2375,16 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>-63.2</v>
+        <v>-62.2</v>
       </c>
       <c r="D25">
-        <v>-55.3</v>
+        <v>-53.6</v>
       </c>
       <c r="E25">
-        <v>-54.5</v>
+        <v>-56</v>
       </c>
       <c r="F25">
-        <v>-95.9</v>
+        <v>-71.9</v>
       </c>
       <c r="G25">
         <v>-2.67</v>
@@ -2407,16 +2407,16 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>-7</v>
+        <v>-17</v>
       </c>
       <c r="D26">
-        <v>-9.2</v>
+        <v>-18.8</v>
       </c>
       <c r="E26">
-        <v>-26.9</v>
+        <v>-53.2</v>
       </c>
       <c r="F26">
-        <v>-81.2</v>
+        <v>-88.1</v>
       </c>
       <c r="G26">
         <v>-1.08</v>
@@ -2439,16 +2439,16 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>-9</v>
+        <v>-17.7</v>
       </c>
       <c r="D27">
-        <v>-11.6</v>
+        <v>-20.7</v>
       </c>
       <c r="E27">
-        <v>-32.1</v>
+        <v>-53</v>
       </c>
       <c r="F27">
-        <v>-81.5</v>
+        <v>-88.5</v>
       </c>
       <c r="G27">
         <v>-1.13</v>
@@ -2471,16 +2471,16 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>-40</v>
+        <v>-43.4</v>
       </c>
       <c r="D28">
-        <v>-40.7</v>
+        <v>-46.1</v>
       </c>
       <c r="E28">
-        <v>-59.2</v>
+        <v>-63</v>
       </c>
       <c r="F28">
-        <v>-79.5</v>
+        <v>-79.3</v>
       </c>
       <c r="G28">
         <v>-1.11</v>
@@ -2503,16 +2503,16 @@
         <v>37</v>
       </c>
       <c r="C29">
-        <v>-48.7</v>
+        <v>-50.9</v>
       </c>
       <c r="D29">
-        <v>-38.2</v>
+        <v>-42.9</v>
       </c>
       <c r="E29">
-        <v>-37.6</v>
+        <v>-46.2</v>
       </c>
       <c r="F29">
-        <v>-67.2</v>
+        <v>-81.7</v>
       </c>
       <c r="G29">
         <v>-1.4</v>
@@ -2535,16 +2535,16 @@
         <v>38</v>
       </c>
       <c r="C30">
-        <v>-27.2</v>
+        <v>-32.3</v>
       </c>
       <c r="D30">
-        <v>-11.1</v>
+        <v>-23.9</v>
       </c>
       <c r="E30">
-        <v>-35.8</v>
+        <v>-57.5</v>
       </c>
       <c r="F30">
-        <v>-64.6</v>
+        <v>-83.3</v>
       </c>
       <c r="G30">
         <v>-2.58</v>
@@ -2567,16 +2567,16 @@
         <v>39</v>
       </c>
       <c r="C31">
-        <v>-54.2</v>
+        <v>-52.1</v>
       </c>
       <c r="D31">
-        <v>-43.1</v>
+        <v>-40.8</v>
       </c>
       <c r="E31">
-        <v>-48.7</v>
+        <v>-41.2</v>
       </c>
       <c r="F31">
-        <v>-88.8</v>
+        <v>-59.2</v>
       </c>
       <c r="G31">
         <v>-2.85</v>
@@ -2599,16 +2599,16 @@
         <v>40</v>
       </c>
       <c r="C32">
-        <v>-20.1</v>
+        <v>-24.2</v>
       </c>
       <c r="D32">
-        <v>-34.8</v>
+        <v>-40.8</v>
       </c>
       <c r="E32">
-        <v>-35</v>
+        <v>-44.7</v>
       </c>
       <c r="F32">
-        <v>-87.9</v>
+        <v>-87.3</v>
       </c>
       <c r="G32">
         <v>-1.54</v>
@@ -2631,16 +2631,16 @@
         <v>41</v>
       </c>
       <c r="C33">
-        <v>-17.2</v>
+        <v>-21.6</v>
       </c>
       <c r="D33">
-        <v>-26.5</v>
+        <v>-36.3</v>
       </c>
       <c r="E33">
-        <v>-23.3</v>
+        <v>-42.6</v>
       </c>
       <c r="F33">
-        <v>-81.4</v>
+        <v>-93.7</v>
       </c>
       <c r="G33">
         <v>-2.91</v>
@@ -2663,16 +2663,16 @@
         <v>42</v>
       </c>
       <c r="C34">
-        <v>-52.4</v>
+        <v>-54.2</v>
       </c>
       <c r="D34">
-        <v>-62.2</v>
+        <v>-62.4</v>
       </c>
       <c r="E34">
-        <v>-64.1</v>
+        <v>-71.9</v>
       </c>
       <c r="F34">
-        <v>-82.8</v>
+        <v>-79.7</v>
       </c>
       <c r="G34">
         <v>-1.34</v>
@@ -2695,16 +2695,16 @@
         <v>43</v>
       </c>
       <c r="C35">
-        <v>-50.5</v>
+        <v>-52.8</v>
       </c>
       <c r="D35">
-        <v>-35.4</v>
+        <v>-41</v>
       </c>
       <c r="E35">
-        <v>-31.1</v>
+        <v>-41.8</v>
       </c>
       <c r="F35">
-        <v>-70.2</v>
+        <v>-83.1</v>
       </c>
       <c r="G35">
         <v>-1.18</v>
@@ -2727,16 +2727,16 @@
         <v>44</v>
       </c>
       <c r="C36">
-        <v>-47.1</v>
+        <v>-49</v>
       </c>
       <c r="D36">
-        <v>-35.3</v>
+        <v>-38.4</v>
       </c>
       <c r="E36">
-        <v>-29.9</v>
+        <v>-34.9</v>
       </c>
       <c r="F36">
-        <v>-64.1</v>
+        <v>-75.2</v>
       </c>
       <c r="G36">
         <v>-1.17</v>
@@ -2759,16 +2759,16 @@
         <v>45</v>
       </c>
       <c r="C37">
-        <v>-47.6</v>
+        <v>-48.8</v>
       </c>
       <c r="D37">
-        <v>-39.1</v>
+        <v>-43.1</v>
       </c>
       <c r="E37">
-        <v>-40.6</v>
+        <v>-46.2</v>
       </c>
       <c r="F37">
-        <v>-69.3</v>
+        <v>-67.1</v>
       </c>
       <c r="G37">
         <v>-1.59</v>
@@ -2791,16 +2791,16 @@
         <v>46</v>
       </c>
       <c r="C38">
-        <v>-38.8</v>
+        <v>-40.7</v>
       </c>
       <c r="D38">
-        <v>-28.1</v>
+        <v>-30.8</v>
       </c>
       <c r="E38">
-        <v>-29.6</v>
+        <v>-34.7</v>
       </c>
       <c r="F38">
-        <v>-78.8</v>
+        <v>-69.1</v>
       </c>
       <c r="G38">
         <v>-1.73</v>
@@ -2823,16 +2823,16 @@
         <v>47</v>
       </c>
       <c r="C39">
-        <v>-42.5</v>
+        <v>-46</v>
       </c>
       <c r="D39">
-        <v>-41.9</v>
+        <v>-46.1</v>
       </c>
       <c r="E39">
-        <v>-40.2</v>
+        <v>-43</v>
       </c>
       <c r="F39">
-        <v>-64.6</v>
+        <v>-82</v>
       </c>
       <c r="G39">
         <v>-1.46</v>
@@ -2855,16 +2855,16 @@
         <v>48</v>
       </c>
       <c r="C40">
-        <v>-47.9</v>
+        <v>-50.4</v>
       </c>
       <c r="D40">
-        <v>-43</v>
+        <v>-46.8</v>
       </c>
       <c r="E40">
-        <v>-43.7</v>
+        <v>-44</v>
       </c>
       <c r="F40">
-        <v>-55.3</v>
+        <v>-81.6</v>
       </c>
       <c r="G40">
         <v>-1.43</v>
@@ -2887,16 +2887,16 @@
         <v>49</v>
       </c>
       <c r="C41">
-        <v>-15.5</v>
+        <v>-21.2</v>
       </c>
       <c r="D41">
-        <v>-12.1</v>
+        <v>-21.2</v>
       </c>
       <c r="E41">
-        <v>-13.6</v>
+        <v>-36.3</v>
       </c>
       <c r="F41">
-        <v>-61.4</v>
+        <v>-78.7</v>
       </c>
       <c r="G41">
         <v>-0.54</v>
@@ -2919,16 +2919,16 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>-44.7</v>
+        <v>-47.6</v>
       </c>
       <c r="D42">
-        <v>-41.3</v>
+        <v>-46.8</v>
       </c>
       <c r="E42">
-        <v>-40.1</v>
+        <v>-49.9</v>
       </c>
       <c r="F42">
-        <v>-63</v>
+        <v>-74.3</v>
       </c>
       <c r="G42">
         <v>-1.5</v>
@@ -2951,16 +2951,16 @@
         <v>51</v>
       </c>
       <c r="C43">
-        <v>-51.2</v>
+        <v>-53.4</v>
       </c>
       <c r="D43">
-        <v>-54.1</v>
+        <v>-55.5</v>
       </c>
       <c r="E43">
-        <v>-50.1</v>
+        <v>-60.7</v>
       </c>
       <c r="F43">
-        <v>-72.6</v>
+        <v>-79.4</v>
       </c>
       <c r="G43">
         <v>-1.55</v>
@@ -2983,16 +2983,16 @@
         <v>52</v>
       </c>
       <c r="C44">
-        <v>-24.2</v>
+        <v>-30</v>
       </c>
       <c r="D44">
-        <v>-26.7</v>
+        <v>-36.9</v>
       </c>
       <c r="E44">
-        <v>-34.1</v>
+        <v>-57</v>
       </c>
       <c r="F44">
-        <v>-72.9</v>
+        <v>-93.5</v>
       </c>
       <c r="G44">
         <v>-1.31</v>
@@ -3015,16 +3015,16 @@
         <v>53</v>
       </c>
       <c r="C45">
-        <v>-30.4</v>
+        <v>-37.8</v>
       </c>
       <c r="D45">
-        <v>-32.4</v>
+        <v>-41.6</v>
       </c>
       <c r="E45">
-        <v>-48.7</v>
+        <v>-68.8</v>
       </c>
       <c r="F45">
-        <v>-80.5</v>
+        <v>-96.7</v>
       </c>
       <c r="G45">
         <v>-1.08</v>
@@ -3047,16 +3047,16 @@
         <v>54</v>
       </c>
       <c r="C46">
-        <v>-28.4</v>
+        <v>-35.9</v>
       </c>
       <c r="D46">
-        <v>-29.9</v>
+        <v>-39.2</v>
       </c>
       <c r="E46">
-        <v>-45.4</v>
+        <v>-66.9</v>
       </c>
       <c r="F46">
-        <v>-81.5</v>
+        <v>-97</v>
       </c>
       <c r="G46">
         <v>-1.1</v>
@@ -3079,16 +3079,16 @@
         <v>55</v>
       </c>
       <c r="C47">
-        <v>-23.3</v>
+        <v>-29.6</v>
       </c>
       <c r="D47">
-        <v>-24.7</v>
+        <v>-36.1</v>
       </c>
       <c r="E47">
-        <v>-33.7</v>
+        <v>-58</v>
       </c>
       <c r="F47">
-        <v>-69.4</v>
+        <v>-93.3</v>
       </c>
       <c r="G47">
         <v>-1.23</v>
@@ -3111,16 +3111,16 @@
         <v>56</v>
       </c>
       <c r="C48">
-        <v>-18.9</v>
+        <v>-25</v>
       </c>
       <c r="D48">
-        <v>-21.4</v>
+        <v>-34.6</v>
       </c>
       <c r="E48">
-        <v>-22.4</v>
+        <v>-51</v>
       </c>
       <c r="F48">
-        <v>-77.7</v>
+        <v>-95.1</v>
       </c>
       <c r="G48">
         <v>-1.31</v>
@@ -3143,16 +3143,16 @@
         <v>57</v>
       </c>
       <c r="C49">
-        <v>-52.3</v>
+        <v>-53.9</v>
       </c>
       <c r="D49">
-        <v>-45.3</v>
+        <v>-48.4</v>
       </c>
       <c r="E49">
-        <v>-45.2</v>
+        <v>-46.4</v>
       </c>
       <c r="F49">
-        <v>-73.1</v>
+        <v>-71.2</v>
       </c>
       <c r="G49">
         <v>-1.6</v>
@@ -3175,16 +3175,16 @@
         <v>58</v>
       </c>
       <c r="C50">
-        <v>-50.2</v>
+        <v>-52.2</v>
       </c>
       <c r="D50">
-        <v>-48.4</v>
+        <v>-51.1</v>
       </c>
       <c r="E50">
         <v>-47.5</v>
       </c>
       <c r="F50">
-        <v>-74.9</v>
+        <v>-79.4</v>
       </c>
       <c r="G50">
         <v>-1.68</v>
@@ -3207,16 +3207,16 @@
         <v>59</v>
       </c>
       <c r="C51">
-        <v>-52</v>
+        <v>-52.8</v>
       </c>
       <c r="D51">
-        <v>-37.4</v>
+        <v>-40.8</v>
       </c>
       <c r="E51">
-        <v>-36.8</v>
+        <v>-40.5</v>
       </c>
       <c r="F51">
-        <v>-66.1</v>
+        <v>-77.5</v>
       </c>
       <c r="G51">
         <v>-1.15</v>
@@ -3239,16 +3239,16 @@
         <v>60</v>
       </c>
       <c r="C52">
-        <v>-47.1</v>
+        <v>-47.7</v>
       </c>
       <c r="D52">
-        <v>-41.7</v>
+        <v>-41.1</v>
       </c>
       <c r="E52">
-        <v>-40.7</v>
+        <v>-39.5</v>
       </c>
       <c r="F52">
-        <v>-71.6</v>
+        <v>-66.9</v>
       </c>
       <c r="G52">
         <v>-1.9</v>
@@ -3271,16 +3271,16 @@
         <v>61</v>
       </c>
       <c r="C53">
-        <v>-52.1</v>
+        <v>-52.2</v>
       </c>
       <c r="D53">
-        <v>-43.8</v>
+        <v>-43.4</v>
       </c>
       <c r="E53">
-        <v>-44.1</v>
+        <v>-40.3</v>
       </c>
       <c r="F53">
-        <v>-63.3</v>
+        <v>-66.2</v>
       </c>
       <c r="G53">
         <v>-1.24</v>
@@ -3303,16 +3303,16 @@
         <v>62</v>
       </c>
       <c r="C54">
-        <v>-12.7</v>
+        <v>-19</v>
       </c>
       <c r="D54">
-        <v>-9.4</v>
+        <v>-19.6</v>
       </c>
       <c r="E54">
-        <v>8.6</v>
+        <v>-26.6</v>
       </c>
       <c r="F54">
-        <v>-66.8</v>
+        <v>-92</v>
       </c>
       <c r="G54">
         <v>-0.92</v>
@@ -3335,16 +3335,16 @@
         <v>63</v>
       </c>
       <c r="C55">
-        <v>-53.4</v>
+        <v>-54.7</v>
       </c>
       <c r="D55">
-        <v>-51</v>
+        <v>-53.1</v>
       </c>
       <c r="E55">
-        <v>-45.8</v>
+        <v>-54.4</v>
       </c>
       <c r="F55">
-        <v>-70.5</v>
+        <v>-76.2</v>
       </c>
       <c r="G55">
         <v>-1.7</v>
@@ -3367,16 +3367,16 @@
         <v>64</v>
       </c>
       <c r="C56">
-        <v>-50.9</v>
+        <v>-51.8</v>
       </c>
       <c r="D56">
-        <v>-47.6</v>
+        <v>-49.6</v>
       </c>
       <c r="E56">
-        <v>-46.1</v>
+        <v>-46.6</v>
       </c>
       <c r="F56">
-        <v>-72.8</v>
+        <v>-71.2</v>
       </c>
       <c r="G56">
         <v>-1.62</v>
@@ -3399,16 +3399,16 @@
         <v>65</v>
       </c>
       <c r="C57">
-        <v>-27</v>
+        <v>-32</v>
       </c>
       <c r="D57">
-        <v>-7.1</v>
+        <v>-17.5</v>
       </c>
       <c r="E57">
-        <v>6.4</v>
+        <v>-29.6</v>
       </c>
       <c r="F57">
-        <v>-63.8</v>
+        <v>-79.7</v>
       </c>
       <c r="G57">
         <v>-2.71</v>
@@ -3431,16 +3431,16 @@
         <v>66</v>
       </c>
       <c r="C58">
-        <v>-26.2</v>
+        <v>-31.3</v>
       </c>
       <c r="D58">
-        <v>-11.3</v>
+        <v>-19.3</v>
       </c>
       <c r="E58">
-        <v>-2.9</v>
+        <v>-31.9</v>
       </c>
       <c r="F58">
-        <v>-70.5</v>
+        <v>-78.7</v>
       </c>
       <c r="G58">
         <v>-2.04</v>
@@ -3463,16 +3463,16 @@
         <v>67</v>
       </c>
       <c r="C59">
-        <v>-21.8</v>
+        <v>-27.6</v>
       </c>
       <c r="D59">
-        <v>-9.9</v>
+        <v>-19.6</v>
       </c>
       <c r="E59">
-        <v>-6.3</v>
+        <v>-37.6</v>
       </c>
       <c r="F59">
-        <v>-61.8</v>
+        <v>-80.4</v>
       </c>
       <c r="G59">
         <v>-0.61</v>
@@ -3495,16 +3495,16 @@
         <v>68</v>
       </c>
       <c r="C60">
-        <v>-28.5</v>
+        <v>-33.4</v>
       </c>
       <c r="D60">
-        <v>-18.1</v>
+        <v>-24.7</v>
       </c>
       <c r="E60">
-        <v>-26.6</v>
+        <v>-44.5</v>
       </c>
       <c r="F60">
-        <v>-72.4</v>
+        <v>-78.3</v>
       </c>
       <c r="G60">
         <v>-1.26</v>
@@ -3527,16 +3527,16 @@
         <v>69</v>
       </c>
       <c r="C61">
-        <v>-47</v>
+        <v>-47.8</v>
       </c>
       <c r="D61">
-        <v>-39.2</v>
+        <v>-43.8</v>
       </c>
       <c r="E61">
-        <v>-44.4</v>
+        <v>-45.4</v>
       </c>
       <c r="F61">
-        <v>-61.6</v>
+        <v>-73.9</v>
       </c>
       <c r="G61">
         <v>-1.57</v>
@@ -3559,16 +3559,16 @@
         <v>70</v>
       </c>
       <c r="C62">
-        <v>-27.6</v>
+        <v>-33.3</v>
       </c>
       <c r="D62">
-        <v>-31.6</v>
+        <v>-45.6</v>
       </c>
       <c r="E62">
-        <v>-38.6</v>
+        <v>-62.2</v>
       </c>
       <c r="F62">
-        <v>-82.1</v>
+        <v>-97.9</v>
       </c>
       <c r="G62">
         <v>-1.57</v>
@@ -3591,16 +3591,16 @@
         <v>71</v>
       </c>
       <c r="C63">
-        <v>-29</v>
+        <v>-32.4</v>
       </c>
       <c r="D63">
-        <v>-16</v>
+        <v>-22.1</v>
       </c>
       <c r="E63">
-        <v>-11.5</v>
+        <v>-33.9</v>
       </c>
       <c r="F63">
-        <v>-76.7</v>
+        <v>-78.5</v>
       </c>
       <c r="G63">
         <v>-1.65</v>
@@ -3623,16 +3623,16 @@
         <v>72</v>
       </c>
       <c r="C64">
-        <v>-7.7</v>
+        <v>-13.5</v>
       </c>
       <c r="D64">
-        <v>-1.3</v>
+        <v>-13.1</v>
       </c>
       <c r="E64">
-        <v>6.7</v>
+        <v>-33.5</v>
       </c>
       <c r="F64">
-        <v>-71.1</v>
+        <v>-87.2</v>
       </c>
       <c r="G64">
         <v>-1.13</v>
@@ -3655,16 +3655,16 @@
         <v>73</v>
       </c>
       <c r="C65">
-        <v>-12.2</v>
+        <v>-18.5</v>
       </c>
       <c r="D65">
-        <v>-4.5</v>
+        <v>-14.1</v>
       </c>
       <c r="E65">
-        <v>-1.1</v>
+        <v>-34.4</v>
       </c>
       <c r="F65">
-        <v>-69.1</v>
+        <v>-82</v>
       </c>
       <c r="G65">
         <v>-0.9</v>
@@ -3687,16 +3687,16 @@
         <v>74</v>
       </c>
       <c r="C66">
-        <v>-13.6</v>
+        <v>-19.8</v>
       </c>
       <c r="D66">
-        <v>-12.2</v>
+        <v>-24</v>
       </c>
       <c r="E66">
-        <v>-9.4</v>
+        <v>-40.7</v>
       </c>
       <c r="F66">
-        <v>-63.4</v>
+        <v>-84.7</v>
       </c>
       <c r="G66">
         <v>-0.55</v>
@@ -3719,16 +3719,16 @@
         <v>75</v>
       </c>
       <c r="C67">
-        <v>-58</v>
+        <v>-58.4</v>
       </c>
       <c r="D67">
-        <v>-60.9</v>
+        <v>-60</v>
       </c>
       <c r="E67">
-        <v>-55.4</v>
+        <v>-61.4</v>
       </c>
       <c r="F67">
-        <v>-86.4</v>
+        <v>-79.5</v>
       </c>
       <c r="G67">
         <v>-2.05</v>
@@ -3751,16 +3751,16 @@
         <v>76</v>
       </c>
       <c r="C68">
-        <v>-31</v>
+        <v>-36.5</v>
       </c>
       <c r="D68">
-        <v>-38.9</v>
+        <v>-48</v>
       </c>
       <c r="E68">
-        <v>-47.8</v>
+        <v>-67.7</v>
       </c>
       <c r="F68">
-        <v>-81.6</v>
+        <v>-97.1</v>
       </c>
       <c r="G68">
         <v>-1.83</v>
@@ -3783,16 +3783,16 @@
         <v>77</v>
       </c>
       <c r="C69">
-        <v>-47.1</v>
+        <v>-46.5</v>
       </c>
       <c r="D69">
-        <v>-42.8</v>
+        <v>-39.4</v>
       </c>
       <c r="E69">
-        <v>-40.4</v>
+        <v>-34</v>
       </c>
       <c r="F69">
-        <v>-62.7</v>
+        <v>-56.1</v>
       </c>
       <c r="G69">
         <v>-1.38</v>
@@ -3815,13 +3815,13 @@
         <v>78</v>
       </c>
       <c r="C70">
-        <v>-43.7</v>
+        <v>-44.3</v>
       </c>
       <c r="D70">
-        <v>-39.6</v>
+        <v>-39.1</v>
       </c>
       <c r="E70">
-        <v>-39.2</v>
+        <v>-38</v>
       </c>
       <c r="F70">
         <v>-65.4</v>
@@ -3847,16 +3847,16 @@
         <v>79</v>
       </c>
       <c r="C71">
-        <v>-21.7</v>
+        <v>-27.9</v>
       </c>
       <c r="D71">
-        <v>-31.9</v>
+        <v>-42.7</v>
       </c>
       <c r="E71">
-        <v>-32.9</v>
+        <v>-58.7</v>
       </c>
       <c r="F71">
-        <v>-85</v>
+        <v>-99.1</v>
       </c>
       <c r="G71">
         <v>-2.13</v>
@@ -3879,16 +3879,16 @@
         <v>80</v>
       </c>
       <c r="C72">
-        <v>-28</v>
+        <v>-33.1</v>
       </c>
       <c r="D72">
-        <v>-33.8</v>
+        <v>-42.9</v>
       </c>
       <c r="E72">
-        <v>-48.4</v>
+        <v>-66</v>
       </c>
       <c r="F72">
-        <v>-81.8</v>
+        <v>-97.6</v>
       </c>
       <c r="G72">
         <v>-1.85</v>
@@ -3911,16 +3911,16 @@
         <v>81</v>
       </c>
       <c r="C73">
-        <v>-10.7</v>
+        <v>-14.9</v>
       </c>
       <c r="D73">
-        <v>-23</v>
+        <v>-35.3</v>
       </c>
       <c r="E73">
-        <v>-24.8</v>
+        <v>-41.9</v>
       </c>
       <c r="F73">
-        <v>-89.5</v>
+        <v>-90.6</v>
       </c>
       <c r="G73">
         <v>-1.7</v>
@@ -3943,16 +3943,16 @@
         <v>82</v>
       </c>
       <c r="C74">
-        <v>-2.1</v>
+        <v>-7.1</v>
       </c>
       <c r="D74">
-        <v>-9.1</v>
+        <v>-25.2</v>
       </c>
       <c r="E74">
-        <v>-23.2</v>
+        <v>-45.5</v>
       </c>
       <c r="F74">
-        <v>-91.2</v>
+        <v>-91.6</v>
       </c>
       <c r="G74">
         <v>-1.74</v>
@@ -3975,16 +3975,16 @@
         <v>83</v>
       </c>
       <c r="C75">
-        <v>18.7</v>
+        <v>11.6</v>
       </c>
       <c r="D75">
-        <v>10.1</v>
+        <v>-10.8</v>
       </c>
       <c r="E75">
-        <v>-13.3</v>
+        <v>-35.6</v>
       </c>
       <c r="F75">
-        <v>-84.4</v>
+        <v>-85.6</v>
       </c>
       <c r="G75">
         <v>-1.73</v>
@@ -4007,16 +4007,16 @@
         <v>84</v>
       </c>
       <c r="C76">
-        <v>27.4</v>
+        <v>19.4</v>
       </c>
       <c r="D76">
-        <v>24.5</v>
+        <v>-1.4</v>
       </c>
       <c r="E76">
-        <v>-4.4</v>
+        <v>-35.4</v>
       </c>
       <c r="F76">
-        <v>-84.1</v>
+        <v>-85.8</v>
       </c>
       <c r="G76">
         <v>-1.74</v>
@@ -4039,16 +4039,16 @@
         <v>85</v>
       </c>
       <c r="C77">
-        <v>-4.7</v>
+        <v>-10.6</v>
       </c>
       <c r="D77">
-        <v>-18.7</v>
+        <v>-31.9</v>
       </c>
       <c r="E77">
-        <v>-30.3</v>
+        <v>-43.8</v>
       </c>
       <c r="F77">
-        <v>-87.8</v>
+        <v>-87.1</v>
       </c>
       <c r="G77">
         <v>-1.65</v>
@@ -4071,16 +4071,16 @@
         <v>86</v>
       </c>
       <c r="C78">
-        <v>3.9</v>
+        <v>-2.2</v>
       </c>
       <c r="D78">
-        <v>-4.5</v>
+        <v>-20.2</v>
       </c>
       <c r="E78">
-        <v>-13.9</v>
+        <v>-37.6</v>
       </c>
       <c r="F78">
-        <v>-81.7</v>
+        <v>-86</v>
       </c>
       <c r="G78">
         <v>-1.66</v>
@@ -4103,16 +4103,16 @@
         <v>87</v>
       </c>
       <c r="C79">
-        <v>-33.3</v>
+        <v>-36.8</v>
       </c>
       <c r="D79">
-        <v>-28</v>
+        <v>-37.8</v>
       </c>
       <c r="E79">
-        <v>-37.4</v>
+        <v>-51.5</v>
       </c>
       <c r="F79">
-        <v>-83.6</v>
+        <v>-92.5</v>
       </c>
       <c r="G79">
         <v>-2.08</v>
@@ -4135,16 +4135,16 @@
         <v>88</v>
       </c>
       <c r="C80">
-        <v>-36.4</v>
+        <v>-39.1</v>
       </c>
       <c r="D80">
-        <v>-25.6</v>
+        <v>-34.7</v>
       </c>
       <c r="E80">
-        <v>-38.9</v>
+        <v>-48.6</v>
       </c>
       <c r="F80">
-        <v>-93.6</v>
+        <v>-91.8</v>
       </c>
       <c r="G80">
         <v>-2.35</v>
@@ -4167,16 +4167,16 @@
         <v>89</v>
       </c>
       <c r="C81">
-        <v>-28.2</v>
+        <v>-31.9</v>
       </c>
       <c r="D81">
-        <v>-33.9</v>
+        <v>-42</v>
       </c>
       <c r="E81">
-        <v>-26.1</v>
+        <v>-44.1</v>
       </c>
       <c r="F81">
-        <v>-57.3</v>
+        <v>-92.2</v>
       </c>
       <c r="G81">
         <v>-3.07</v>
@@ -4199,16 +4199,16 @@
         <v>90</v>
       </c>
       <c r="C82">
-        <v>-42.8</v>
+        <v>-46.2</v>
       </c>
       <c r="D82">
-        <v>-48.2</v>
+        <v>-55.2</v>
       </c>
       <c r="E82">
-        <v>-44.2</v>
+        <v>-55.1</v>
       </c>
       <c r="F82">
-        <v>-68.1</v>
+        <v>-94.4</v>
       </c>
       <c r="G82">
         <v>-3.03</v>
@@ -4231,16 +4231,16 @@
         <v>91</v>
       </c>
       <c r="C83">
-        <v>-26.6</v>
+        <v>-30.5</v>
       </c>
       <c r="D83">
-        <v>-33.1</v>
+        <v>-41.7</v>
       </c>
       <c r="E83">
-        <v>-38.4</v>
+        <v>-47</v>
       </c>
       <c r="F83">
-        <v>-89.4</v>
+        <v>-88.9</v>
       </c>
       <c r="G83">
         <v>-0.88</v>
@@ -4263,16 +4263,16 @@
         <v>92</v>
       </c>
       <c r="C84">
-        <v>-46</v>
+        <v>-45.5</v>
       </c>
       <c r="D84">
-        <v>-39.6</v>
+        <v>-42.3</v>
       </c>
       <c r="E84">
-        <v>-55.4</v>
+        <v>-54.7</v>
       </c>
       <c r="F84">
-        <v>-80.2</v>
+        <v>-75.8</v>
       </c>
       <c r="G84">
         <v>-2.23</v>
@@ -4295,16 +4295,16 @@
         <v>93</v>
       </c>
       <c r="C85">
-        <v>-47.9</v>
+        <v>-47.2</v>
       </c>
       <c r="D85">
-        <v>-40.6</v>
+        <v>-43.9</v>
       </c>
       <c r="E85">
-        <v>-57.9</v>
+        <v>-57.6</v>
       </c>
       <c r="F85">
-        <v>-79.3</v>
+        <v>-76.2</v>
       </c>
       <c r="G85">
         <v>-2.16</v>
@@ -4327,16 +4327,16 @@
         <v>94</v>
       </c>
       <c r="C86">
-        <v>-8.6</v>
+        <v>-13.5</v>
       </c>
       <c r="D86">
-        <v>-18.9</v>
+        <v>-27.8</v>
       </c>
       <c r="E86">
-        <v>-17.8</v>
+        <v>-39</v>
       </c>
       <c r="F86">
-        <v>-68</v>
+        <v>-91.2</v>
       </c>
       <c r="G86">
         <v>-2.34</v>
@@ -4359,16 +4359,16 @@
         <v>95</v>
       </c>
       <c r="C87">
-        <v>-25.8</v>
+        <v>-30.8</v>
       </c>
       <c r="D87">
-        <v>-37.6</v>
+        <v>-49.1</v>
       </c>
       <c r="E87">
-        <v>-36.4</v>
+        <v>-57.1</v>
       </c>
       <c r="F87">
-        <v>-78.9</v>
+        <v>-98.7</v>
       </c>
       <c r="G87">
         <v>-3.06</v>
@@ -4391,16 +4391,16 @@
         <v>96</v>
       </c>
       <c r="C88">
-        <v>-37.3</v>
+        <v>-40.3</v>
       </c>
       <c r="D88">
-        <v>-31.6</v>
+        <v>-40.3</v>
       </c>
       <c r="E88">
-        <v>-36</v>
+        <v>-49.2</v>
       </c>
       <c r="F88">
-        <v>-94.8</v>
+        <v>-92.6</v>
       </c>
       <c r="G88">
         <v>-1.36</v>
@@ -4423,16 +4423,16 @@
         <v>97</v>
       </c>
       <c r="C89">
-        <v>-41.6</v>
+        <v>-44.5</v>
       </c>
       <c r="D89">
-        <v>-36</v>
+        <v>-45.8</v>
       </c>
       <c r="E89">
-        <v>-44</v>
+        <v>-56.8</v>
       </c>
       <c r="F89">
-        <v>-95.1</v>
+        <v>-94.6</v>
       </c>
       <c r="G89">
         <v>-1.85</v>
@@ -4455,16 +4455,16 @@
         <v>98</v>
       </c>
       <c r="C90">
-        <v>-33.4</v>
+        <v>-36.9</v>
       </c>
       <c r="D90">
-        <v>-30.8</v>
+        <v>-39.2</v>
       </c>
       <c r="E90">
-        <v>-32.3</v>
+        <v>-45</v>
       </c>
       <c r="F90">
-        <v>-92.8</v>
+        <v>-90.9</v>
       </c>
       <c r="G90">
         <v>-1.04</v>
@@ -4487,16 +4487,16 @@
         <v>99</v>
       </c>
       <c r="C91">
-        <v>-35.2</v>
+        <v>-39.1</v>
       </c>
       <c r="D91">
-        <v>-36.2</v>
+        <v>-43.4</v>
       </c>
       <c r="E91">
-        <v>-37.5</v>
+        <v>-47</v>
       </c>
       <c r="F91">
-        <v>-93.1</v>
+        <v>-89.5</v>
       </c>
       <c r="G91">
         <v>-1.06</v>
@@ -4519,16 +4519,16 @@
         <v>100</v>
       </c>
       <c r="C92">
-        <v>-51.7</v>
+        <v>-51.2</v>
       </c>
       <c r="D92">
-        <v>-41.6</v>
+        <v>-47</v>
       </c>
       <c r="E92">
-        <v>-56</v>
+        <v>-60.4</v>
       </c>
       <c r="F92">
-        <v>-83.4</v>
+        <v>-79.9</v>
       </c>
       <c r="G92">
         <v>-2.05</v>
@@ -4551,16 +4551,16 @@
         <v>101</v>
       </c>
       <c r="C93">
-        <v>-33.7</v>
+        <v>-37.8</v>
       </c>
       <c r="D93">
-        <v>-40.4</v>
+        <v>-49.1</v>
       </c>
       <c r="E93">
-        <v>-35.5</v>
+        <v>-49.8</v>
       </c>
       <c r="F93">
-        <v>-66.5</v>
+        <v>-95.9</v>
       </c>
       <c r="G93">
         <v>-2.68</v>
@@ -4583,16 +4583,16 @@
         <v>102</v>
       </c>
       <c r="C94">
-        <v>-27.1</v>
+        <v>-30.7</v>
       </c>
       <c r="D94">
-        <v>-36.6</v>
+        <v>-48</v>
       </c>
       <c r="E94">
-        <v>-37.1</v>
+        <v>-55.8</v>
       </c>
       <c r="F94">
-        <v>-79.9</v>
+        <v>-96.9</v>
       </c>
       <c r="G94">
         <v>-3.13</v>
@@ -4615,16 +4615,16 @@
         <v>103</v>
       </c>
       <c r="C95">
-        <v>-41.6</v>
+        <v>-45</v>
       </c>
       <c r="D95">
-        <v>-49.6</v>
+        <v>-58</v>
       </c>
       <c r="E95">
-        <v>-51.1</v>
+        <v>-63.7</v>
       </c>
       <c r="F95">
-        <v>-89.9</v>
+        <v>-94.9</v>
       </c>
       <c r="G95">
         <v>-3.25</v>
@@ -4647,16 +4647,16 @@
         <v>104</v>
       </c>
       <c r="C96">
-        <v>-45.3</v>
+        <v>-43.6</v>
       </c>
       <c r="D96">
-        <v>-27</v>
+        <v>-32.4</v>
       </c>
       <c r="E96">
-        <v>-38.3</v>
+        <v>-46.4</v>
       </c>
       <c r="F96">
-        <v>-85.6</v>
+        <v>-66.9</v>
       </c>
       <c r="G96">
         <v>-2.16</v>
@@ -4679,16 +4679,16 @@
         <v>105</v>
       </c>
       <c r="C97">
-        <v>-52.2</v>
+        <v>-51.7</v>
       </c>
       <c r="D97">
-        <v>-39</v>
+        <v>-46.7</v>
       </c>
       <c r="E97">
-        <v>-50.9</v>
+        <v>-60</v>
       </c>
       <c r="F97">
-        <v>-88.2</v>
+        <v>-77.9</v>
       </c>
       <c r="G97">
         <v>-2.03</v>
@@ -4711,16 +4711,16 @@
         <v>106</v>
       </c>
       <c r="C98">
-        <v>-19.6</v>
+        <v>-23.4</v>
       </c>
       <c r="D98">
-        <v>-34.3</v>
+        <v>-47.1</v>
       </c>
       <c r="E98">
-        <v>-39.6</v>
+        <v>-57.4</v>
       </c>
       <c r="F98">
-        <v>-91.8</v>
+        <v>-96.4</v>
       </c>
       <c r="G98">
         <v>-3.17</v>
@@ -4743,16 +4743,16 @@
         <v>107</v>
       </c>
       <c r="C99">
-        <v>-15.5</v>
+        <v>-19.3</v>
       </c>
       <c r="D99">
-        <v>-28.6</v>
+        <v>-42.8</v>
       </c>
       <c r="E99">
-        <v>-36.9</v>
+        <v>-55.7</v>
       </c>
       <c r="F99">
-        <v>-98.7</v>
+        <v>-95.3</v>
       </c>
       <c r="G99">
         <v>-3.24</v>
@@ -4775,16 +4775,16 @@
         <v>108</v>
       </c>
       <c r="C100">
-        <v>-61.4</v>
+        <v>-61.3</v>
       </c>
       <c r="D100">
-        <v>-46.9</v>
+        <v>-53.8</v>
       </c>
       <c r="E100">
-        <v>-56.6</v>
+        <v>-67.1</v>
       </c>
       <c r="F100">
-        <v>-89.2</v>
+        <v>-84.9</v>
       </c>
       <c r="G100">
         <v>-1.98</v>
@@ -4807,16 +4807,16 @@
         <v>109</v>
       </c>
       <c r="C101">
-        <v>-29.8</v>
+        <v>-36.7</v>
       </c>
       <c r="D101">
-        <v>-44.1</v>
+        <v>-53.1</v>
       </c>
       <c r="E101">
-        <v>-50.1</v>
+        <v>-58.8</v>
       </c>
       <c r="F101">
-        <v>-94.8</v>
+        <v>-93.2</v>
       </c>
       <c r="G101">
         <v>-1.96</v>
@@ -4839,16 +4839,16 @@
         <v>110</v>
       </c>
       <c r="C102">
-        <v>-27.3</v>
+        <v>-35</v>
       </c>
       <c r="D102">
-        <v>-39</v>
+        <v>-49.1</v>
       </c>
       <c r="E102">
-        <v>-47</v>
+        <v>-56.4</v>
       </c>
       <c r="F102">
-        <v>-95.9</v>
+        <v>-93.9</v>
       </c>
       <c r="G102">
         <v>-1.79</v>
@@ -4871,16 +4871,16 @@
         <v>111</v>
       </c>
       <c r="C103">
-        <v>-17.1</v>
+        <v>-21.3</v>
       </c>
       <c r="D103">
-        <v>-22.3</v>
+        <v>-35.7</v>
       </c>
       <c r="E103">
-        <v>-13.6</v>
+        <v>-34.2</v>
       </c>
       <c r="F103">
-        <v>-86.6</v>
+        <v>-92.7</v>
       </c>
       <c r="G103">
         <v>-1.96</v>
@@ -4903,16 +4903,16 @@
         <v>112</v>
       </c>
       <c r="C104">
-        <v>-27.5</v>
+        <v>-35</v>
       </c>
       <c r="D104">
-        <v>-38.4</v>
+        <v>-48.5</v>
       </c>
       <c r="E104">
-        <v>-45.8</v>
+        <v>-55.8</v>
       </c>
       <c r="F104">
-        <v>-96.6</v>
+        <v>-91.9</v>
       </c>
       <c r="G104">
         <v>-1.71</v>
@@ -4935,16 +4935,16 @@
         <v>113</v>
       </c>
       <c r="C105">
-        <v>-24.6</v>
+        <v>-32.3</v>
       </c>
       <c r="D105">
-        <v>-32.4</v>
+        <v>-43.5</v>
       </c>
       <c r="E105">
-        <v>-39</v>
+        <v>-50.7</v>
       </c>
       <c r="F105">
-        <v>-94.8</v>
+        <v>-94.4</v>
       </c>
       <c r="G105">
         <v>-2.39</v>
@@ -4967,16 +4967,16 @@
         <v>114</v>
       </c>
       <c r="C106">
-        <v>-24.6</v>
+        <v>-32.1</v>
       </c>
       <c r="D106">
-        <v>-36.2</v>
+        <v>-46.1</v>
       </c>
       <c r="E106">
-        <v>-39.1</v>
+        <v>-49.2</v>
       </c>
       <c r="F106">
-        <v>-94.6</v>
+        <v>-93.1</v>
       </c>
       <c r="G106">
         <v>-2.32</v>
@@ -4999,16 +4999,16 @@
         <v>115</v>
       </c>
       <c r="C107">
-        <v>-23.3</v>
+        <v>-28.8</v>
       </c>
       <c r="D107">
-        <v>-36.3</v>
+        <v>-47.2</v>
       </c>
       <c r="E107">
-        <v>-43.9</v>
+        <v>-59</v>
       </c>
       <c r="F107">
-        <v>-95</v>
+        <v>-93.9</v>
       </c>
       <c r="G107">
         <v>-2.6</v>
@@ -5031,16 +5031,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>-24.9</v>
+        <v>-30.2</v>
       </c>
       <c r="D108">
-        <v>-31.2</v>
+        <v>-40.7</v>
       </c>
       <c r="E108">
-        <v>-34</v>
+        <v>-47.4</v>
       </c>
       <c r="F108">
-        <v>-95.3</v>
+        <v>-93.2</v>
       </c>
       <c r="G108">
         <v>-2.37</v>
@@ -5063,16 +5063,16 @@
         <v>117</v>
       </c>
       <c r="C109">
-        <v>-24.8</v>
+        <v>-29.2</v>
       </c>
       <c r="D109">
-        <v>-25</v>
+        <v>-37.4</v>
       </c>
       <c r="E109">
-        <v>-20.4</v>
+        <v>-38.8</v>
       </c>
       <c r="F109">
-        <v>-86.5</v>
+        <v>-89.5</v>
       </c>
       <c r="G109">
         <v>-1.89</v>
@@ -5095,16 +5095,16 @@
         <v>118</v>
       </c>
       <c r="C110">
-        <v>-22.6</v>
+        <v>-26.1</v>
       </c>
       <c r="D110">
-        <v>-18.9</v>
+        <v>-31</v>
       </c>
       <c r="E110">
-        <v>-10.8</v>
+        <v>-30.9</v>
       </c>
       <c r="F110">
-        <v>-88.3</v>
+        <v>-90.3</v>
       </c>
       <c r="G110">
         <v>-1.78</v>
@@ -5127,16 +5127,16 @@
         <v>119</v>
       </c>
       <c r="C111">
-        <v>-24.8</v>
+        <v>-29.3</v>
       </c>
       <c r="D111">
-        <v>-33.6</v>
+        <v>-45.3</v>
       </c>
       <c r="E111">
-        <v>-29.4</v>
+        <v>-44.1</v>
       </c>
       <c r="F111">
-        <v>-86.4</v>
+        <v>-93.2</v>
       </c>
       <c r="G111">
         <v>-2.06</v>
@@ -5159,16 +5159,16 @@
         <v>120</v>
       </c>
       <c r="C112">
-        <v>-27.5</v>
+        <v>-33.6</v>
       </c>
       <c r="D112">
-        <v>-38.8</v>
+        <v>-48.8</v>
       </c>
       <c r="E112">
-        <v>-43.3</v>
+        <v>-53.7</v>
       </c>
       <c r="F112">
-        <v>-94.7</v>
+        <v>-92.3</v>
       </c>
       <c r="G112">
         <v>-1.81</v>
@@ -5191,16 +5191,16 @@
         <v>121</v>
       </c>
       <c r="C113">
-        <v>-49.8</v>
+        <v>-50.2</v>
       </c>
       <c r="D113">
-        <v>-41.8</v>
+        <v>-51</v>
       </c>
       <c r="E113">
-        <v>-53</v>
+        <v>-63.2</v>
       </c>
       <c r="F113">
-        <v>-83.7</v>
+        <v>-88.7</v>
       </c>
       <c r="G113">
         <v>-1.16</v>
@@ -5223,16 +5223,16 @@
         <v>122</v>
       </c>
       <c r="C114">
-        <v>-55.8</v>
+        <v>-57</v>
       </c>
       <c r="D114">
-        <v>-49.1</v>
+        <v>-57</v>
       </c>
       <c r="E114">
-        <v>-51.8</v>
+        <v>-62.9</v>
       </c>
       <c r="F114">
-        <v>-73.9</v>
+        <v>-90.6</v>
       </c>
       <c r="G114">
         <v>-1.03</v>
@@ -5255,16 +5255,16 @@
         <v>123</v>
       </c>
       <c r="C115">
-        <v>-7.7</v>
+        <v>-13</v>
       </c>
       <c r="D115">
-        <v>-16</v>
+        <v>-31.7</v>
       </c>
       <c r="E115">
-        <v>-26.1</v>
+        <v>-49.5</v>
       </c>
       <c r="F115">
-        <v>-90.8</v>
+        <v>-89.9</v>
       </c>
       <c r="G115">
         <v>-2.78</v>
@@ -5287,16 +5287,16 @@
         <v>124</v>
       </c>
       <c r="C116">
-        <v>-53.7</v>
+        <v>-55.6</v>
       </c>
       <c r="D116">
-        <v>-50.9</v>
+        <v>-59</v>
       </c>
       <c r="E116">
-        <v>-47.5</v>
+        <v>-63.2</v>
       </c>
       <c r="F116">
-        <v>-88.2</v>
+        <v>-95.2</v>
       </c>
       <c r="G116">
         <v>-1.64</v>
@@ -5319,16 +5319,16 @@
         <v>125</v>
       </c>
       <c r="C117">
-        <v>-17.2</v>
+        <v>-20.5</v>
       </c>
       <c r="D117">
-        <v>-16.6</v>
+        <v>-29.8</v>
       </c>
       <c r="E117">
-        <v>-6.2</v>
+        <v>-30</v>
       </c>
       <c r="F117">
-        <v>-89.9</v>
+        <v>-93.2</v>
       </c>
       <c r="G117">
         <v>-1.94</v>
@@ -5351,16 +5351,16 @@
         <v>126</v>
       </c>
       <c r="C118">
-        <v>-23.1</v>
+        <v>-28.2</v>
       </c>
       <c r="D118">
-        <v>-34.9</v>
+        <v>-47.2</v>
       </c>
       <c r="E118">
-        <v>-42.9</v>
+        <v>-60</v>
       </c>
       <c r="F118">
-        <v>-98.2</v>
+        <v>-93.9</v>
       </c>
       <c r="G118">
         <v>-2.91</v>
@@ -5383,16 +5383,16 @@
         <v>127</v>
       </c>
       <c r="C119">
-        <v>-14.4</v>
+        <v>-20</v>
       </c>
       <c r="D119">
-        <v>-24.4</v>
+        <v>-40.7</v>
       </c>
       <c r="E119">
-        <v>-36.5</v>
+        <v>-57.6</v>
       </c>
       <c r="F119">
-        <v>-98.3</v>
+        <v>-94.4</v>
       </c>
       <c r="G119">
         <v>-3.13</v>
@@ -5415,16 +5415,16 @@
         <v>128</v>
       </c>
       <c r="C120">
-        <v>-15.9</v>
+        <v>-20.4</v>
       </c>
       <c r="D120">
-        <v>-24.2</v>
+        <v>-36.6</v>
       </c>
       <c r="E120">
-        <v>-32.5</v>
+        <v>-52.1</v>
       </c>
       <c r="F120">
-        <v>-95.4</v>
+        <v>-89.1</v>
       </c>
       <c r="G120">
         <v>-2.74</v>
@@ -5447,16 +5447,16 @@
         <v>129</v>
       </c>
       <c r="C121">
-        <v>-50.8</v>
+        <v>-52.4</v>
       </c>
       <c r="D121">
-        <v>-44</v>
+        <v>-55.8</v>
       </c>
       <c r="E121">
-        <v>-54.2</v>
+        <v>-66.8</v>
       </c>
       <c r="F121">
-        <v>-81.5</v>
+        <v>-93.2</v>
       </c>
       <c r="G121">
         <v>-1.12</v>
@@ -5479,16 +5479,16 @@
         <v>130</v>
       </c>
       <c r="C122">
-        <v>-24.8</v>
+        <v>-31</v>
       </c>
       <c r="D122">
-        <v>-37.2</v>
+        <v>-48.4</v>
       </c>
       <c r="E122">
-        <v>-45.6</v>
+        <v>-55.2</v>
       </c>
       <c r="F122">
-        <v>-94.4</v>
+        <v>-89.6</v>
       </c>
       <c r="G122">
         <v>-1.63</v>
@@ -5511,16 +5511,16 @@
         <v>131</v>
       </c>
       <c r="C123">
-        <v>-24.3</v>
+        <v>-30</v>
       </c>
       <c r="D123">
-        <v>-32.7</v>
+        <v>-42.4</v>
       </c>
       <c r="E123">
-        <v>-37.3</v>
+        <v>-49.7</v>
       </c>
       <c r="F123">
-        <v>-95</v>
+        <v>-92.7</v>
       </c>
       <c r="G123">
         <v>-2.23</v>
@@ -5543,16 +5543,16 @@
         <v>132</v>
       </c>
       <c r="C124">
-        <v>-19.5</v>
+        <v>-24.5</v>
       </c>
       <c r="D124">
-        <v>-26.7</v>
+        <v>-36.8</v>
       </c>
       <c r="E124">
-        <v>-19.6</v>
+        <v>-38</v>
       </c>
       <c r="F124">
-        <v>-90.8</v>
+        <v>-91.6</v>
       </c>
       <c r="G124">
         <v>-2.08</v>
@@ -5575,16 +5575,16 @@
         <v>133</v>
       </c>
       <c r="C125">
-        <v>-35.3</v>
+        <v>-37.8</v>
       </c>
       <c r="D125">
-        <v>-27.2</v>
+        <v>-37.8</v>
       </c>
       <c r="E125">
-        <v>-30.6</v>
+        <v>-45.8</v>
       </c>
       <c r="F125">
-        <v>-84.7</v>
+        <v>-89.4</v>
       </c>
       <c r="G125">
         <v>-1.65</v>
@@ -5607,16 +5607,16 @@
         <v>134</v>
       </c>
       <c r="C126">
-        <v>-28</v>
+        <v>-30.9</v>
       </c>
       <c r="D126">
-        <v>-23.8</v>
+        <v>-34.3</v>
       </c>
       <c r="E126">
-        <v>-18.9</v>
+        <v>-36.3</v>
       </c>
       <c r="F126">
-        <v>-89.6</v>
+        <v>-89</v>
       </c>
       <c r="G126">
         <v>-1.67</v>
@@ -5639,16 +5639,16 @@
         <v>135</v>
       </c>
       <c r="C127">
-        <v>-18.8</v>
+        <v>-22.2</v>
       </c>
       <c r="D127">
-        <v>-14.4</v>
+        <v>-25.2</v>
       </c>
       <c r="E127">
-        <v>-4</v>
+        <v>-24.6</v>
       </c>
       <c r="F127">
-        <v>-90.4</v>
+        <v>-91.6</v>
       </c>
       <c r="G127">
         <v>-1.92</v>
@@ -5671,16 +5671,16 @@
         <v>136</v>
       </c>
       <c r="C128">
-        <v>-20.4</v>
+        <v>-24.9</v>
       </c>
       <c r="D128">
-        <v>-23</v>
+        <v>-32.6</v>
       </c>
       <c r="E128">
-        <v>-9.2</v>
+        <v>-31.1</v>
       </c>
       <c r="F128">
-        <v>-89.2</v>
+        <v>-92.5</v>
       </c>
       <c r="G128">
         <v>-2.23</v>
@@ -5703,16 +5703,16 @@
         <v>137</v>
       </c>
       <c r="C129">
-        <v>-31.4</v>
+        <v>-34.8</v>
       </c>
       <c r="D129">
-        <v>-24.4</v>
+        <v>-38.2</v>
       </c>
       <c r="E129">
-        <v>-25.4</v>
+        <v>-43.5</v>
       </c>
       <c r="F129">
-        <v>-89</v>
+        <v>-92.2</v>
       </c>
       <c r="G129">
         <v>-1.63</v>
@@ -5735,16 +5735,16 @@
         <v>138</v>
       </c>
       <c r="C130">
-        <v>-34.3</v>
+        <v>-37.8</v>
       </c>
       <c r="D130">
-        <v>-26.5</v>
+        <v>-40.2</v>
       </c>
       <c r="E130">
-        <v>-26.8</v>
+        <v>-46</v>
       </c>
       <c r="F130">
-        <v>-90.5</v>
+        <v>-94.3</v>
       </c>
       <c r="G130">
         <v>-1.63</v>
@@ -5767,16 +5767,16 @@
         <v>139</v>
       </c>
       <c r="C131">
-        <v>-26.7</v>
+        <v>-31.8</v>
       </c>
       <c r="D131">
-        <v>-36</v>
+        <v>-47.1</v>
       </c>
       <c r="E131">
-        <v>-38.9</v>
+        <v>-51.9</v>
       </c>
       <c r="F131">
-        <v>-93</v>
+        <v>-92.6</v>
       </c>
       <c r="G131">
         <v>-1.63</v>
@@ -5799,16 +5799,16 @@
         <v>140</v>
       </c>
       <c r="C132">
-        <v>-24.3</v>
+        <v>-28.4</v>
       </c>
       <c r="D132">
-        <v>-27.2</v>
+        <v>-36.5</v>
       </c>
       <c r="E132">
-        <v>-19.3</v>
+        <v>-36.9</v>
       </c>
       <c r="F132">
-        <v>-94.3</v>
+        <v>-93.2</v>
       </c>
       <c r="G132">
         <v>-2.35</v>
@@ -5831,16 +5831,16 @@
         <v>141</v>
       </c>
       <c r="C133">
-        <v>-51.3</v>
+        <v>-53.9</v>
       </c>
       <c r="D133">
-        <v>-49.9</v>
+        <v>-59.3</v>
       </c>
       <c r="E133">
-        <v>-54.4</v>
+        <v>-66.1</v>
       </c>
       <c r="F133">
-        <v>-73</v>
+        <v>-93.3</v>
       </c>
       <c r="G133">
         <v>-1.01</v>
@@ -5863,16 +5863,16 @@
         <v>142</v>
       </c>
       <c r="C134">
-        <v>-46</v>
+        <v>-48.8</v>
       </c>
       <c r="D134">
-        <v>-35.9</v>
+        <v>-48.5</v>
       </c>
       <c r="E134">
-        <v>-46.7</v>
+        <v>-61</v>
       </c>
       <c r="F134">
-        <v>-73.8</v>
+        <v>-91.6</v>
       </c>
       <c r="G134">
         <v>-1.01</v>
@@ -5895,16 +5895,16 @@
         <v>143</v>
       </c>
       <c r="C135">
-        <v>-20.1</v>
+        <v>-23.8</v>
       </c>
       <c r="D135">
-        <v>-21.6</v>
+        <v>-34.5</v>
       </c>
       <c r="E135">
-        <v>-12.1</v>
+        <v>-33.8</v>
       </c>
       <c r="F135">
-        <v>-88.8</v>
+        <v>-94.3</v>
       </c>
       <c r="G135">
         <v>-2.13</v>
@@ -5927,16 +5927,16 @@
         <v>144</v>
       </c>
       <c r="C136">
-        <v>-30.6</v>
+        <v>-34</v>
       </c>
       <c r="D136">
-        <v>-28.3</v>
+        <v>-38.7</v>
       </c>
       <c r="E136">
-        <v>-9.4</v>
+        <v>-33</v>
       </c>
       <c r="F136">
-        <v>-91.1</v>
+        <v>-94.2</v>
       </c>
       <c r="G136">
         <v>-2.18</v>
@@ -5959,16 +5959,16 @@
         <v>145</v>
       </c>
       <c r="C137">
-        <v>-13.2</v>
+        <v>-15.7</v>
       </c>
       <c r="D137">
-        <v>1.9</v>
+        <v>-9.2</v>
       </c>
       <c r="E137">
-        <v>0.2</v>
+        <v>-20.4</v>
       </c>
       <c r="F137">
-        <v>-90.9</v>
+        <v>-86.5</v>
       </c>
       <c r="G137">
         <v>-1.77</v>
@@ -5991,16 +5991,16 @@
         <v>146</v>
       </c>
       <c r="C138">
-        <v>-29.8</v>
+        <v>-33.7</v>
       </c>
       <c r="D138">
-        <v>-36.1</v>
+        <v>-49.5</v>
       </c>
       <c r="E138">
-        <v>-43.3</v>
+        <v>-60.4</v>
       </c>
       <c r="F138">
-        <v>-96.8</v>
+        <v>-95.1</v>
       </c>
       <c r="G138">
         <v>-3.26</v>
@@ -6023,16 +6023,16 @@
         <v>147</v>
       </c>
       <c r="C139">
-        <v>-41.3</v>
+        <v>-44.2</v>
       </c>
       <c r="D139">
-        <v>-45.4</v>
+        <v>-53.8</v>
       </c>
       <c r="E139">
-        <v>-43</v>
+        <v>-56.5</v>
       </c>
       <c r="F139">
-        <v>-72.2</v>
+        <v>-94.9</v>
       </c>
       <c r="G139">
         <v>-3.25</v>
@@ -6055,16 +6055,16 @@
         <v>148</v>
       </c>
       <c r="C140">
-        <v>-26.6</v>
+        <v>-31.7</v>
       </c>
       <c r="D140">
-        <v>-33.7</v>
+        <v>-43.4</v>
       </c>
       <c r="E140">
-        <v>-34.4</v>
+        <v>-47.4</v>
       </c>
       <c r="F140">
-        <v>-92.3</v>
+        <v>-93</v>
       </c>
       <c r="G140">
         <v>-2.37</v>
@@ -6087,16 +6087,16 @@
         <v>149</v>
       </c>
       <c r="C141">
-        <v>-24.4</v>
+        <v>-30.4</v>
       </c>
       <c r="D141">
-        <v>-29.9</v>
+        <v>-40.7</v>
       </c>
       <c r="E141">
-        <v>-36.2</v>
+        <v>-49.8</v>
       </c>
       <c r="F141">
-        <v>-95.6</v>
+        <v>-93.9</v>
       </c>
       <c r="G141">
         <v>-2.39</v>
@@ -6119,16 +6119,16 @@
         <v>150</v>
       </c>
       <c r="C142">
-        <v>-56.3</v>
+        <v>-57.3</v>
       </c>
       <c r="D142">
-        <v>-54.4</v>
+        <v>-62</v>
       </c>
       <c r="E142">
-        <v>-62.1</v>
+        <v>-70.8</v>
       </c>
       <c r="F142">
-        <v>-85.9</v>
+        <v>-90.5</v>
       </c>
       <c r="G142">
         <v>-1.24</v>
@@ -6151,16 +6151,16 @@
         <v>151</v>
       </c>
       <c r="C143">
-        <v>-34.7</v>
+        <v>-38.6</v>
       </c>
       <c r="D143">
-        <v>-43.3</v>
+        <v>-54.6</v>
       </c>
       <c r="E143">
-        <v>-50.6</v>
+        <v>-64.8</v>
       </c>
       <c r="F143">
-        <v>-98</v>
+        <v>-95.3</v>
       </c>
       <c r="G143">
         <v>-3.26</v>
@@ -6183,16 +6183,16 @@
         <v>152</v>
       </c>
       <c r="C144">
-        <v>-44.5</v>
+        <v>-47.3</v>
       </c>
       <c r="D144">
-        <v>-41.1</v>
+        <v>-52.4</v>
       </c>
       <c r="E144">
-        <v>-47.1</v>
+        <v>-60.2</v>
       </c>
       <c r="F144">
-        <v>-89.3</v>
+        <v>-93.1</v>
       </c>
       <c r="G144">
         <v>-1.87</v>
@@ -6215,16 +6215,16 @@
         <v>153</v>
       </c>
       <c r="C145">
-        <v>-36.6</v>
+        <v>-39.8</v>
       </c>
       <c r="D145">
-        <v>-38.4</v>
+        <v>-50.3</v>
       </c>
       <c r="E145">
-        <v>-39.8</v>
+        <v>-53.2</v>
       </c>
       <c r="F145">
-        <v>-90.3</v>
+        <v>-92.2</v>
       </c>
       <c r="G145">
         <v>-1.96</v>
@@ -6247,16 +6247,16 @@
         <v>154</v>
       </c>
       <c r="C146">
-        <v>-51</v>
+        <v>-51.1</v>
       </c>
       <c r="D146">
-        <v>-47.3</v>
+        <v>-54.4</v>
       </c>
       <c r="E146">
-        <v>-54.8</v>
+        <v>-65.1</v>
       </c>
       <c r="F146">
-        <v>-85.2</v>
+        <v>-86.4</v>
       </c>
       <c r="G146">
         <v>-1.49</v>
@@ -6279,16 +6279,16 @@
         <v>155</v>
       </c>
       <c r="C147">
-        <v>-31.9</v>
+        <v>-38.1</v>
       </c>
       <c r="D147">
-        <v>-39.5</v>
+        <v>-50.6</v>
       </c>
       <c r="E147">
-        <v>-43.4</v>
+        <v>-55.2</v>
       </c>
       <c r="F147">
-        <v>-94.2</v>
+        <v>-93.3</v>
       </c>
       <c r="G147">
         <v>-1.63</v>
@@ -6311,16 +6311,16 @@
         <v>156</v>
       </c>
       <c r="C148">
-        <v>-29.3</v>
+        <v>-34.4</v>
       </c>
       <c r="D148">
-        <v>-39.4</v>
+        <v>-48</v>
       </c>
       <c r="E148">
-        <v>-49.5</v>
+        <v>-67.6</v>
       </c>
       <c r="F148">
-        <v>-86.4</v>
+        <v>-98.6</v>
       </c>
       <c r="G148">
         <v>-2.08</v>
@@ -6343,16 +6343,16 @@
         <v>157</v>
       </c>
       <c r="C149">
-        <v>-49.3</v>
+        <v>-51.2</v>
       </c>
       <c r="D149">
-        <v>-33.9</v>
+        <v>-45.8</v>
       </c>
       <c r="E149">
-        <v>-46.8</v>
+        <v>-58.9</v>
       </c>
       <c r="F149">
-        <v>-75</v>
+        <v>-89.4</v>
       </c>
       <c r="G149">
         <v>-1.01</v>
@@ -6375,16 +6375,16 @@
         <v>158</v>
       </c>
       <c r="C150">
-        <v>-9.4</v>
+        <v>-14</v>
       </c>
       <c r="D150">
-        <v>-1.9</v>
+        <v>-15.8</v>
       </c>
       <c r="E150">
-        <v>-6.7</v>
+        <v>-30.8</v>
       </c>
       <c r="F150">
-        <v>-79.3</v>
+        <v>-89.8</v>
       </c>
       <c r="G150">
         <v>-1.92</v>
@@ -6407,16 +6407,16 @@
         <v>159</v>
       </c>
       <c r="C151">
-        <v>-13.6</v>
+        <v>-18.4</v>
       </c>
       <c r="D151">
-        <v>-24.4</v>
+        <v>-37.1</v>
       </c>
       <c r="E151">
-        <v>-33.3</v>
+        <v>-50.7</v>
       </c>
       <c r="F151">
-        <v>-91.5</v>
+        <v>-93.1</v>
       </c>
       <c r="G151">
         <v>-1.68</v>
@@ -6439,16 +6439,16 @@
         <v>160</v>
       </c>
       <c r="C152">
-        <v>-8.6</v>
+        <v>-14.1</v>
       </c>
       <c r="D152">
-        <v>-19.8</v>
+        <v>-33.5</v>
       </c>
       <c r="E152">
-        <v>-27.4</v>
+        <v>-47</v>
       </c>
       <c r="F152">
-        <v>-88.5</v>
+        <v>-90.7</v>
       </c>
       <c r="G152">
         <v>-1.66</v>
@@ -6471,16 +6471,16 @@
         <v>161</v>
       </c>
       <c r="C153">
-        <v>-15.3</v>
+        <v>-20.4</v>
       </c>
       <c r="D153">
-        <v>-23.9</v>
+        <v>-36.6</v>
       </c>
       <c r="E153">
-        <v>-31.1</v>
+        <v>-46</v>
       </c>
       <c r="F153">
-        <v>-88.6</v>
+        <v>-89.3</v>
       </c>
       <c r="G153">
         <v>-1.63</v>
@@ -6503,16 +6503,16 @@
         <v>162</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>-7.2</v>
       </c>
       <c r="D154">
-        <v>-3.6</v>
+        <v>-27.9</v>
       </c>
       <c r="E154">
-        <v>-27.4</v>
+        <v>-53.7</v>
       </c>
       <c r="F154">
-        <v>-97.4</v>
+        <v>-93</v>
       </c>
       <c r="G154">
         <v>-3.16</v>
@@ -6535,16 +6535,16 @@
         <v>163</v>
       </c>
       <c r="C155">
-        <v>-18.1</v>
+        <v>-23.1</v>
       </c>
       <c r="D155">
-        <v>-35</v>
+        <v>-47.2</v>
       </c>
       <c r="E155">
-        <v>-35.7</v>
+        <v>-58.1</v>
       </c>
       <c r="F155">
-        <v>-95.4</v>
+        <v>-98</v>
       </c>
       <c r="G155">
         <v>-3.14</v>
@@ -6567,16 +6567,16 @@
         <v>164</v>
       </c>
       <c r="C156">
-        <v>-27.2</v>
+        <v>-33.1</v>
       </c>
       <c r="D156">
-        <v>-38.2</v>
+        <v>-47</v>
       </c>
       <c r="E156">
-        <v>-35.9</v>
+        <v>-58.8</v>
       </c>
       <c r="F156">
-        <v>-88.5</v>
+        <v>-98.8</v>
       </c>
       <c r="G156">
         <v>-2.15</v>
@@ -6599,16 +6599,16 @@
         <v>165</v>
       </c>
       <c r="C157">
-        <v>-24.2</v>
+        <v>-32.1</v>
       </c>
       <c r="D157">
-        <v>-21.4</v>
+        <v>-35</v>
       </c>
       <c r="E157">
-        <v>-35.3</v>
+        <v>-62</v>
       </c>
       <c r="F157">
-        <v>-75.5</v>
+        <v>-95.8</v>
       </c>
       <c r="G157">
         <v>-1.09</v>
@@ -6631,16 +6631,16 @@
         <v>166</v>
       </c>
       <c r="C158">
-        <v>-20.5</v>
+        <v>-28.5</v>
       </c>
       <c r="D158">
-        <v>-19</v>
+        <v>-31.8</v>
       </c>
       <c r="E158">
-        <v>-34.5</v>
+        <v>-59.8</v>
       </c>
       <c r="F158">
-        <v>-67.5</v>
+        <v>-93.8</v>
       </c>
       <c r="G158">
         <v>-1.13</v>
@@ -6663,16 +6663,16 @@
         <v>167</v>
       </c>
       <c r="C159">
-        <v>-7.2</v>
+        <v>-16.6</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>-10.7</v>
       </c>
       <c r="E159">
-        <v>-16.6</v>
+        <v>-57</v>
       </c>
       <c r="F159">
-        <v>-72.6</v>
+        <v>-89.1</v>
       </c>
       <c r="G159">
         <v>-1.22</v>
@@ -6695,16 +6695,16 @@
         <v>168</v>
       </c>
       <c r="C160">
-        <v>-13.1</v>
+        <v>-19.9</v>
       </c>
       <c r="D160">
-        <v>8.2</v>
+        <v>-8.6</v>
       </c>
       <c r="E160">
-        <v>-15.6</v>
+        <v>-58.8</v>
       </c>
       <c r="F160">
-        <v>-69.9</v>
+        <v>-88.5</v>
       </c>
       <c r="G160">
         <v>-1.7</v>
@@ -6727,16 +6727,16 @@
         <v>169</v>
       </c>
       <c r="C161">
-        <v>-14.4</v>
+        <v>-19.1</v>
       </c>
       <c r="D161">
-        <v>-4.1</v>
+        <v>-16.8</v>
       </c>
       <c r="E161">
-        <v>-19.1</v>
+        <v>-60.1</v>
       </c>
       <c r="F161">
-        <v>-75.3</v>
+        <v>-85.5</v>
       </c>
       <c r="G161">
         <v>-1.68</v>
@@ -6759,16 +6759,16 @@
         <v>170</v>
       </c>
       <c r="C162">
-        <v>-3.3</v>
+        <v>-14.5</v>
       </c>
       <c r="D162">
-        <v>0.1</v>
+        <v>-10.3</v>
       </c>
       <c r="E162">
-        <v>-28.7</v>
+        <v>-60.2</v>
       </c>
       <c r="F162">
-        <v>-90.2</v>
+        <v>-88.1</v>
       </c>
       <c r="G162">
         <v>-1.1</v>
@@ -6791,16 +6791,16 @@
         <v>171</v>
       </c>
       <c r="C163">
-        <v>1.9</v>
+        <v>-9</v>
       </c>
       <c r="D163">
-        <v>1.6</v>
+        <v>-7.2</v>
       </c>
       <c r="E163">
-        <v>-22.8</v>
+        <v>-53.5</v>
       </c>
       <c r="F163">
-        <v>-85.2</v>
+        <v>-88.5</v>
       </c>
       <c r="G163">
         <v>-1.04</v>
@@ -6823,16 +6823,16 @@
         <v>172</v>
       </c>
       <c r="C164">
-        <v>-9.4</v>
+        <v>-16.9</v>
       </c>
       <c r="D164">
-        <v>6.5</v>
+        <v>-9.6</v>
       </c>
       <c r="E164">
-        <v>-20.2</v>
+        <v>-57.7</v>
       </c>
       <c r="F164">
-        <v>-56.1</v>
+        <v>-88.2</v>
       </c>
       <c r="G164">
         <v>-1.83</v>
@@ -6855,16 +6855,16 @@
         <v>173</v>
       </c>
       <c r="C165">
-        <v>-17</v>
+        <v>-23.2</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>-13.6</v>
       </c>
       <c r="E165">
-        <v>-18.6</v>
+        <v>-55</v>
       </c>
       <c r="F165">
-        <v>-47.9</v>
+        <v>-86.5</v>
       </c>
       <c r="G165">
         <v>-1.8</v>
@@ -6887,16 +6887,16 @@
         <v>174</v>
       </c>
       <c r="C166">
-        <v>-23.7</v>
+        <v>-28.8</v>
       </c>
       <c r="D166">
-        <v>-14.2</v>
+        <v>-24.8</v>
       </c>
       <c r="E166">
-        <v>-35.4</v>
+        <v>-63.1</v>
       </c>
       <c r="F166">
-        <v>-76.4</v>
+        <v>-87.2</v>
       </c>
       <c r="G166">
         <v>-1.7</v>
@@ -6919,16 +6919,16 @@
         <v>175</v>
       </c>
       <c r="C167">
-        <v>-57.8</v>
+        <v>-60.4</v>
       </c>
       <c r="D167">
-        <v>-51.3</v>
+        <v>-53.3</v>
       </c>
       <c r="E167">
-        <v>-53.6</v>
+        <v>-63.9</v>
       </c>
       <c r="F167">
-        <v>-70.3</v>
+        <v>-80</v>
       </c>
       <c r="G167">
         <v>-1.4</v>
@@ -6951,16 +6951,16 @@
         <v>176</v>
       </c>
       <c r="C168">
-        <v>-54.6</v>
+        <v>-57.7</v>
       </c>
       <c r="D168">
-        <v>-51.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E168">
-        <v>-54.6</v>
+        <v>-62.2</v>
       </c>
       <c r="F168">
-        <v>-72.6</v>
+        <v>-78.9</v>
       </c>
       <c r="G168">
         <v>-1.52</v>
@@ -6983,16 +6983,16 @@
         <v>177</v>
       </c>
       <c r="C169">
-        <v>-59</v>
+        <v>-61.9</v>
       </c>
       <c r="D169">
-        <v>-53.3</v>
+        <v>-54.5</v>
       </c>
       <c r="E169">
-        <v>-57.5</v>
+        <v>-63.3</v>
       </c>
       <c r="F169">
-        <v>-76.3</v>
+        <v>-79.7</v>
       </c>
       <c r="G169">
         <v>-1.39</v>
@@ -7015,16 +7015,16 @@
         <v>178</v>
       </c>
       <c r="C170">
-        <v>-18.3</v>
+        <v>-24.3</v>
       </c>
       <c r="D170">
-        <v>-16.1</v>
+        <v>-21.9</v>
       </c>
       <c r="E170">
-        <v>-35.6</v>
+        <v>-57.4</v>
       </c>
       <c r="F170">
-        <v>-77.7</v>
+        <v>-84</v>
       </c>
       <c r="G170">
         <v>-1.06</v>
@@ -7047,16 +7047,16 @@
         <v>179</v>
       </c>
       <c r="C171">
-        <v>-12</v>
+        <v>-21</v>
       </c>
       <c r="D171">
-        <v>-11.7</v>
+        <v>-19.4</v>
       </c>
       <c r="E171">
-        <v>-32.6</v>
+        <v>-54.7</v>
       </c>
       <c r="F171">
-        <v>-81.2</v>
+        <v>-85.9</v>
       </c>
       <c r="G171">
         <v>-0.92</v>
@@ -7079,16 +7079,16 @@
         <v>180</v>
       </c>
       <c r="C172">
-        <v>-20.2</v>
+        <v>-25.6</v>
       </c>
       <c r="D172">
-        <v>-18.3</v>
+        <v>-23.7</v>
       </c>
       <c r="E172">
-        <v>-36.8</v>
+        <v>-52</v>
       </c>
       <c r="F172">
-        <v>-70.5</v>
+        <v>-78.6</v>
       </c>
       <c r="G172">
         <v>-0.83</v>
@@ -7111,16 +7111,16 @@
         <v>181</v>
       </c>
       <c r="C173">
-        <v>-37.9</v>
+        <v>-41.5</v>
       </c>
       <c r="D173">
-        <v>-27.9</v>
+        <v>-33.3</v>
       </c>
       <c r="E173">
-        <v>-27</v>
+        <v>-43</v>
       </c>
       <c r="F173">
-        <v>-72.7</v>
+        <v>-76.4</v>
       </c>
       <c r="G173">
         <v>-1.09</v>
@@ -7143,16 +7143,16 @@
         <v>182</v>
       </c>
       <c r="C174">
-        <v>-39.1</v>
+        <v>-42.6</v>
       </c>
       <c r="D174">
-        <v>-29.5</v>
+        <v>-34.3</v>
       </c>
       <c r="E174">
-        <v>-29.3</v>
+        <v>-43.7</v>
       </c>
       <c r="F174">
-        <v>-72.5</v>
+        <v>-78</v>
       </c>
       <c r="G174">
         <v>-1.29</v>
@@ -7175,16 +7175,16 @@
         <v>183</v>
       </c>
       <c r="C175">
-        <v>-35.9</v>
+        <v>-40.4</v>
       </c>
       <c r="D175">
-        <v>-34.7</v>
+        <v>-43.5</v>
       </c>
       <c r="E175">
-        <v>-56.6</v>
+        <v>-64.8</v>
       </c>
       <c r="F175">
-        <v>-66.3</v>
+        <v>-83.5</v>
       </c>
       <c r="G175">
         <v>-1.12</v>
@@ -7207,16 +7207,16 @@
         <v>184</v>
       </c>
       <c r="C176">
-        <v>-26.2</v>
+        <v>-31.6</v>
       </c>
       <c r="D176">
-        <v>-15.6</v>
+        <v>-27.3</v>
       </c>
       <c r="E176">
-        <v>-37.5</v>
+        <v>-61.2</v>
       </c>
       <c r="F176">
-        <v>-65.8</v>
+        <v>-87.4</v>
       </c>
       <c r="G176">
         <v>-1.72</v>
@@ -7239,16 +7239,16 @@
         <v>185</v>
       </c>
       <c r="C177">
-        <v>-26.3</v>
+        <v>-32</v>
       </c>
       <c r="D177">
-        <v>-18.1</v>
+        <v>-30.4</v>
       </c>
       <c r="E177">
-        <v>-44.7</v>
+        <v>-63.7</v>
       </c>
       <c r="F177">
-        <v>-65.8</v>
+        <v>-85.4</v>
       </c>
       <c r="G177">
         <v>-2.61</v>
@@ -7271,16 +7271,16 @@
         <v>186</v>
       </c>
       <c r="C178">
-        <v>-47.2</v>
+        <v>-51.6</v>
       </c>
       <c r="D178">
-        <v>-45.3</v>
+        <v>-49.8</v>
       </c>
       <c r="E178">
-        <v>-55</v>
+        <v>-58.9</v>
       </c>
       <c r="F178">
-        <v>-74.2</v>
+        <v>-82</v>
       </c>
       <c r="G178">
         <v>-1.03</v>
@@ -7303,16 +7303,16 @@
         <v>187</v>
       </c>
       <c r="C179">
-        <v>-44.1</v>
+        <v>-47.5</v>
       </c>
       <c r="D179">
-        <v>-41.2</v>
+        <v>-42.3</v>
       </c>
       <c r="E179">
-        <v>-44.7</v>
+        <v>-52.2</v>
       </c>
       <c r="F179">
-        <v>-71.7</v>
+        <v>-73.1</v>
       </c>
       <c r="G179">
         <v>-1.52</v>
@@ -7335,16 +7335,16 @@
         <v>188</v>
       </c>
       <c r="C180">
-        <v>-50.9</v>
+        <v>-54.4</v>
       </c>
       <c r="D180">
-        <v>-45.2</v>
+        <v>-47.8</v>
       </c>
       <c r="E180">
-        <v>-47.4</v>
+        <v>-57.6</v>
       </c>
       <c r="F180">
-        <v>-73.5</v>
+        <v>-81.4</v>
       </c>
       <c r="G180">
         <v>-1.45</v>
@@ -7367,16 +7367,16 @@
         <v>189</v>
       </c>
       <c r="C181">
-        <v>-21.7</v>
+        <v>-26.8</v>
       </c>
       <c r="D181">
-        <v>-20</v>
+        <v>-29.6</v>
       </c>
       <c r="E181">
-        <v>-33.9</v>
+        <v>-47.8</v>
       </c>
       <c r="F181">
-        <v>-67.7</v>
+        <v>-82.5</v>
       </c>
       <c r="G181">
         <v>-0.57</v>
@@ -7399,16 +7399,16 @@
         <v>190</v>
       </c>
       <c r="C182">
-        <v>-17</v>
+        <v>-22.8</v>
       </c>
       <c r="D182">
-        <v>-17.5</v>
+        <v>-28.7</v>
       </c>
       <c r="E182">
-        <v>-25.5</v>
+        <v>-45</v>
       </c>
       <c r="F182">
-        <v>-67.7</v>
+        <v>-85.9</v>
       </c>
       <c r="G182">
         <v>-0.52</v>
@@ -7431,16 +7431,16 @@
         <v>191</v>
       </c>
       <c r="C183">
-        <v>-24</v>
+        <v>-30.3</v>
       </c>
       <c r="D183">
-        <v>-21.6</v>
+        <v>-35.1</v>
       </c>
       <c r="E183">
-        <v>-28.9</v>
+        <v>-53.2</v>
       </c>
       <c r="F183">
-        <v>-79.1</v>
+        <v>-91.4</v>
       </c>
       <c r="G183">
         <v>-0.65</v>
@@ -7463,16 +7463,16 @@
         <v>192</v>
       </c>
       <c r="C184">
-        <v>-10.5</v>
+        <v>-18.2</v>
       </c>
       <c r="D184">
-        <v>-7.7</v>
+        <v>-19.4</v>
       </c>
       <c r="E184">
-        <v>-1.8</v>
+        <v>-36.3</v>
       </c>
       <c r="F184">
-        <v>-65.2</v>
+        <v>-87.8</v>
       </c>
       <c r="G184">
         <v>-0.72</v>
@@ -7495,16 +7495,16 @@
         <v>193</v>
       </c>
       <c r="C185">
-        <v>-12.2</v>
+        <v>-20.4</v>
       </c>
       <c r="D185">
-        <v>-7.8</v>
+        <v>-22.9</v>
       </c>
       <c r="E185">
-        <v>0.4</v>
+        <v>-33.5</v>
       </c>
       <c r="F185">
-        <v>-70.5</v>
+        <v>-91.2</v>
       </c>
       <c r="G185">
         <v>-0.65</v>
@@ -7527,16 +7527,16 @@
         <v>194</v>
       </c>
       <c r="C186">
-        <v>-48.7</v>
+        <v>-51.5</v>
       </c>
       <c r="D186">
-        <v>-39.8</v>
+        <v>-43.9</v>
       </c>
       <c r="E186">
-        <v>-39.9</v>
+        <v>-45.5</v>
       </c>
       <c r="F186">
-        <v>-76.2</v>
+        <v>-74.2</v>
       </c>
       <c r="G186">
         <v>-1.48</v>
@@ -7559,16 +7559,16 @@
         <v>195</v>
       </c>
       <c r="C187">
-        <v>-49</v>
+        <v>-51.5</v>
       </c>
       <c r="D187">
-        <v>-49.3</v>
+        <v>-52</v>
       </c>
       <c r="E187">
-        <v>-49.8</v>
+        <v>-48.5</v>
       </c>
       <c r="F187">
-        <v>-75.9</v>
+        <v>-82.3</v>
       </c>
       <c r="G187">
         <v>-1.45</v>
@@ -7591,16 +7591,16 @@
         <v>196</v>
       </c>
       <c r="C188">
-        <v>-31.4</v>
+        <v>-35.9</v>
       </c>
       <c r="D188">
-        <v>-14.6</v>
+        <v>-27.6</v>
       </c>
       <c r="E188">
-        <v>-30.1</v>
+        <v>-51.8</v>
       </c>
       <c r="F188">
-        <v>-65.5</v>
+        <v>-81.7</v>
       </c>
       <c r="G188">
         <v>-3.03</v>
@@ -7623,16 +7623,16 @@
         <v>197</v>
       </c>
       <c r="C189">
-        <v>-32.8</v>
+        <v>-36.9</v>
       </c>
       <c r="D189">
-        <v>-23.4</v>
+        <v>-31.6</v>
       </c>
       <c r="E189">
-        <v>-29.6</v>
+        <v>-44.8</v>
       </c>
       <c r="F189">
-        <v>-70.5</v>
+        <v>-81.7</v>
       </c>
       <c r="G189">
         <v>-2.94</v>
@@ -7655,16 +7655,16 @@
         <v>198</v>
       </c>
       <c r="C190">
-        <v>-16.2</v>
+        <v>-21.3</v>
       </c>
       <c r="D190">
-        <v>-18.3</v>
+        <v>-31.2</v>
       </c>
       <c r="E190">
-        <v>-33.9</v>
+        <v>-53.1</v>
       </c>
       <c r="F190">
-        <v>-78.1</v>
+        <v>-96.4</v>
       </c>
       <c r="G190">
         <v>-0.97</v>
@@ -7687,16 +7687,16 @@
         <v>199</v>
       </c>
       <c r="C191">
-        <v>-20.7</v>
+        <v>-25.3</v>
       </c>
       <c r="D191">
-        <v>-29.7</v>
+        <v>-38.2</v>
       </c>
       <c r="E191">
-        <v>-35.2</v>
+        <v>-46.4</v>
       </c>
       <c r="F191">
-        <v>-93.4</v>
+        <v>-90</v>
       </c>
       <c r="G191">
         <v>-0.94</v>
@@ -7722,13 +7722,13 @@
         <v>-48.9</v>
       </c>
       <c r="D192">
-        <v>-43</v>
+        <v>-49.2</v>
       </c>
       <c r="E192">
-        <v>-54.4</v>
+        <v>-63.1</v>
       </c>
       <c r="F192">
-        <v>-80.2</v>
+        <v>-85.4</v>
       </c>
       <c r="G192">
         <v>-1.95</v>
@@ -7751,16 +7751,16 @@
         <v>201</v>
       </c>
       <c r="C193">
-        <v>-56</v>
+        <v>-56.9</v>
       </c>
       <c r="D193">
-        <v>-52.8</v>
+        <v>-58.4</v>
       </c>
       <c r="E193">
-        <v>-58.1</v>
+        <v>-67.1</v>
       </c>
       <c r="F193">
-        <v>-79.6</v>
+        <v>-89</v>
       </c>
       <c r="G193">
         <v>-1.76</v>
@@ -7783,16 +7783,16 @@
         <v>202</v>
       </c>
       <c r="C194">
-        <v>-63.3</v>
+        <v>-64.3</v>
       </c>
       <c r="D194">
-        <v>-58.7</v>
+        <v>-63.9</v>
       </c>
       <c r="E194">
-        <v>-60.7</v>
+        <v>-70.4</v>
       </c>
       <c r="F194">
-        <v>-81.7</v>
+        <v>-92.1</v>
       </c>
       <c r="G194">
         <v>-1.71</v>
@@ -7815,16 +7815,16 @@
         <v>203</v>
       </c>
       <c r="C195">
-        <v>-60.4</v>
+        <v>-61.5</v>
       </c>
       <c r="D195">
-        <v>-54.1</v>
+        <v>-58.3</v>
       </c>
       <c r="E195">
-        <v>-60.7</v>
+        <v>-67.9</v>
       </c>
       <c r="F195">
-        <v>-79.4</v>
+        <v>-88.6</v>
       </c>
       <c r="G195">
         <v>-1.85</v>
@@ -7847,16 +7847,16 @@
         <v>204</v>
       </c>
       <c r="C196">
-        <v>-65.9</v>
+        <v>-66.8</v>
       </c>
       <c r="D196">
-        <v>-62.5</v>
+        <v>-67.6</v>
       </c>
       <c r="E196">
-        <v>-61.9</v>
+        <v>-72.1</v>
       </c>
       <c r="F196">
-        <v>-84.5</v>
+        <v>-93.7</v>
       </c>
       <c r="G196">
         <v>-1.67</v>
@@ -7879,16 +7879,16 @@
         <v>205</v>
       </c>
       <c r="C197">
-        <v>-55.7</v>
+        <v>-56</v>
       </c>
       <c r="D197">
-        <v>-44.6</v>
+        <v>-52.2</v>
       </c>
       <c r="E197">
-        <v>-51.9</v>
+        <v>-65.1</v>
       </c>
       <c r="F197">
-        <v>-87.9</v>
+        <v>-88.4</v>
       </c>
       <c r="G197">
         <v>-1.72</v>
@@ -7911,16 +7911,16 @@
         <v>206</v>
       </c>
       <c r="C198">
-        <v>-48.8</v>
+        <v>-48.5</v>
       </c>
       <c r="D198">
-        <v>-41.6</v>
+        <v>-48.5</v>
       </c>
       <c r="E198">
-        <v>-49.2</v>
+        <v>-61.7</v>
       </c>
       <c r="F198">
-        <v>-88</v>
+        <v>-82.9</v>
       </c>
       <c r="G198">
         <v>-1.83</v>
@@ -7943,16 +7943,16 @@
         <v>207</v>
       </c>
       <c r="C199">
-        <v>-6.7</v>
+        <v>-12.6</v>
       </c>
       <c r="D199">
-        <v>-12.5</v>
+        <v>-32.3</v>
       </c>
       <c r="E199">
-        <v>-29.7</v>
+        <v>-54.7</v>
       </c>
       <c r="F199">
-        <v>-97.4</v>
+        <v>-93.8</v>
       </c>
       <c r="G199">
         <v>-3.17</v>
@@ -7975,16 +7975,16 @@
         <v>208</v>
       </c>
       <c r="C200">
-        <v>-46.1</v>
+        <v>-48.1</v>
       </c>
       <c r="D200">
-        <v>-30.2</v>
+        <v>-44.7</v>
       </c>
       <c r="E200">
-        <v>-42.1</v>
+        <v>-59</v>
       </c>
       <c r="F200">
-        <v>-71.3</v>
+        <v>-90.9</v>
       </c>
       <c r="G200">
         <v>-1.04</v>
@@ -8007,16 +8007,16 @@
         <v>209</v>
       </c>
       <c r="C201">
-        <v>-15</v>
+        <v>-18.6</v>
       </c>
       <c r="D201">
-        <v>-5.1</v>
+        <v>-15.6</v>
       </c>
       <c r="E201">
-        <v>-1.9</v>
+        <v>-22.9</v>
       </c>
       <c r="F201">
-        <v>-76.5</v>
+        <v>-86.9</v>
       </c>
       <c r="G201">
         <v>-1.97</v>
@@ -8039,16 +8039,16 @@
         <v>210</v>
       </c>
       <c r="C202">
-        <v>-10.5</v>
+        <v>-14.4</v>
       </c>
       <c r="D202">
-        <v>5.6</v>
+        <v>-6.3</v>
       </c>
       <c r="E202">
-        <v>3.5</v>
+        <v>-22.3</v>
       </c>
       <c r="F202">
-        <v>-71.3</v>
+        <v>-87</v>
       </c>
       <c r="G202">
         <v>-1.93</v>
@@ -8071,16 +8071,16 @@
         <v>211</v>
       </c>
       <c r="C203">
-        <v>-25.3</v>
+        <v>-28.9</v>
       </c>
       <c r="D203">
-        <v>-23.3</v>
+        <v>-31.6</v>
       </c>
       <c r="E203">
-        <v>-6.8</v>
+        <v>-27.1</v>
       </c>
       <c r="F203">
-        <v>-87.6</v>
+        <v>-90.5</v>
       </c>
       <c r="G203">
         <v>-2.04</v>
@@ -8103,16 +8103,16 @@
         <v>212</v>
       </c>
       <c r="C204">
-        <v>-11.3</v>
+        <v>-16</v>
       </c>
       <c r="D204">
-        <v>-16.3</v>
+        <v>-29.3</v>
       </c>
       <c r="E204">
-        <v>-13.9</v>
+        <v>-35.1</v>
       </c>
       <c r="F204">
-        <v>-87.1</v>
+        <v>-92.1</v>
       </c>
       <c r="G204">
         <v>-1.87</v>
@@ -8135,16 +8135,16 @@
         <v>213</v>
       </c>
       <c r="C205">
-        <v>-8</v>
+        <v>-12.8</v>
       </c>
       <c r="D205">
-        <v>-5.6</v>
+        <v>-19.5</v>
       </c>
       <c r="E205">
-        <v>-13.8</v>
+        <v>-36.9</v>
       </c>
       <c r="F205">
-        <v>-84.4</v>
+        <v>-90.9</v>
       </c>
       <c r="G205">
         <v>-1.87</v>
@@ -8167,16 +8167,16 @@
         <v>214</v>
       </c>
       <c r="C206">
-        <v>-4.7</v>
+        <v>-9.5</v>
       </c>
       <c r="D206">
-        <v>-8</v>
+        <v>-21.9</v>
       </c>
       <c r="E206">
-        <v>-17.4</v>
+        <v>-41.2</v>
       </c>
       <c r="F206">
-        <v>-87.9</v>
+        <v>-90.8</v>
       </c>
       <c r="G206">
         <v>-1.82</v>
@@ -8199,16 +8199,16 @@
         <v>215</v>
       </c>
       <c r="C207">
-        <v>-39.3</v>
+        <v>-44.2</v>
       </c>
       <c r="D207">
-        <v>-41.8</v>
+        <v>-48.9</v>
       </c>
       <c r="E207">
-        <v>-67.8</v>
+        <v>-70.6</v>
       </c>
       <c r="F207">
-        <v>-80.5</v>
+        <v>-85.3</v>
       </c>
       <c r="G207">
         <v>-2.73</v>
@@ -8231,16 +8231,16 @@
         <v>216</v>
       </c>
       <c r="C208">
-        <v>-50.4</v>
+        <v>-49.8</v>
       </c>
       <c r="D208">
-        <v>-40.4</v>
+        <v>-44</v>
       </c>
       <c r="E208">
-        <v>-55</v>
+        <v>-58.4</v>
       </c>
       <c r="F208">
-        <v>-76.4</v>
+        <v>-80.7</v>
       </c>
       <c r="G208">
         <v>-2.21</v>
@@ -8263,16 +8263,16 @@
         <v>217</v>
       </c>
       <c r="C209">
-        <v>-50.5</v>
+        <v>-50.4</v>
       </c>
       <c r="D209">
-        <v>-41.2</v>
+        <v>-46.3</v>
       </c>
       <c r="E209">
-        <v>-55</v>
+        <v>-61.7</v>
       </c>
       <c r="F209">
-        <v>-72.7</v>
+        <v>-85.3</v>
       </c>
       <c r="G209">
         <v>-2.15</v>
@@ -8295,16 +8295,16 @@
         <v>218</v>
       </c>
       <c r="C210">
-        <v>-36.9</v>
+        <v>-39.8</v>
       </c>
       <c r="D210">
-        <v>-34.1</v>
+        <v>-43.8</v>
       </c>
       <c r="E210">
-        <v>-43.1</v>
+        <v>-54.5</v>
       </c>
       <c r="F210">
-        <v>-94</v>
+        <v>-91.2</v>
       </c>
       <c r="G210">
         <v>-1.72</v>
@@ -8327,16 +8327,16 @@
         <v>219</v>
       </c>
       <c r="C211">
-        <v>-44.6</v>
+        <v>-47.5</v>
       </c>
       <c r="D211">
-        <v>-41</v>
+        <v>-49.4</v>
       </c>
       <c r="E211">
-        <v>-51.4</v>
+        <v>-61.4</v>
       </c>
       <c r="F211">
-        <v>-93</v>
+        <v>-94.8</v>
       </c>
       <c r="G211">
         <v>-2.06</v>
@@ -8359,16 +8359,16 @@
         <v>220</v>
       </c>
       <c r="C212">
-        <v>-28</v>
+        <v>-35</v>
       </c>
       <c r="D212">
-        <v>-42.2</v>
+        <v>-48.2</v>
       </c>
       <c r="E212">
-        <v>-38</v>
+        <v>-42.8</v>
       </c>
       <c r="F212">
-        <v>-93.4</v>
+        <v>-89.4</v>
       </c>
       <c r="G212">
         <v>-1.77</v>
@@ -8391,16 +8391,16 @@
         <v>221</v>
       </c>
       <c r="C213">
-        <v>-45.4</v>
+        <v>-48</v>
       </c>
       <c r="D213">
-        <v>-43</v>
+        <v>-53</v>
       </c>
       <c r="E213">
-        <v>-53.2</v>
+        <v>-63.6</v>
       </c>
       <c r="F213">
-        <v>-90.4</v>
+        <v>-92.9</v>
       </c>
       <c r="G213">
         <v>-1.84</v>
@@ -8423,16 +8423,16 @@
         <v>222</v>
       </c>
       <c r="C214">
-        <v>-38.9</v>
+        <v>-42.4</v>
       </c>
       <c r="D214">
-        <v>-37.8</v>
+        <v>-43.8</v>
       </c>
       <c r="E214">
-        <v>-52.7</v>
+        <v>-58.1</v>
       </c>
       <c r="F214">
-        <v>-73.9</v>
+        <v>-79.9</v>
       </c>
       <c r="G214">
         <v>-1.22</v>
@@ -8455,16 +8455,16 @@
         <v>223</v>
       </c>
       <c r="C215">
-        <v>-42.6</v>
+        <v>-45</v>
       </c>
       <c r="D215">
-        <v>-32.5</v>
+        <v>-40.2</v>
       </c>
       <c r="E215">
-        <v>-43.5</v>
+        <v>-51.1</v>
       </c>
       <c r="F215">
-        <v>-95.4</v>
+        <v>-91.6</v>
       </c>
       <c r="G215">
         <v>-2.71</v>
@@ -8487,16 +8487,16 @@
         <v>224</v>
       </c>
       <c r="C216">
-        <v>-48.9</v>
+        <v>-49.7</v>
       </c>
       <c r="D216">
-        <v>-43.2</v>
+        <v>-46</v>
       </c>
       <c r="E216">
-        <v>-53.5</v>
+        <v>-52</v>
       </c>
       <c r="F216">
-        <v>-66.8</v>
+        <v>-76.6</v>
       </c>
       <c r="G216">
         <v>-1.92</v>
@@ -8519,16 +8519,16 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>-28.1</v>
+        <v>-33.5</v>
       </c>
       <c r="D217">
-        <v>-37</v>
+        <v>-46.9</v>
       </c>
       <c r="E217">
-        <v>-39.4</v>
+        <v>-52.3</v>
       </c>
       <c r="F217">
-        <v>-93.4</v>
+        <v>-92.4</v>
       </c>
       <c r="G217">
         <v>-1.74</v>
@@ -8551,16 +8551,16 @@
         <v>226</v>
       </c>
       <c r="C218">
-        <v>-15.5</v>
+        <v>-21</v>
       </c>
       <c r="D218">
-        <v>-4</v>
+        <v>-17.2</v>
       </c>
       <c r="E218">
-        <v>-13.7</v>
+        <v>-42.2</v>
       </c>
       <c r="F218">
-        <v>-47.9</v>
+        <v>-81.4</v>
       </c>
       <c r="G218">
         <v>-0.82</v>
@@ -8583,16 +8583,16 @@
         <v>227</v>
       </c>
       <c r="C219">
-        <v>-18.7</v>
+        <v>-23.7</v>
       </c>
       <c r="D219">
-        <v>-14.4</v>
+        <v>-26.8</v>
       </c>
       <c r="E219">
-        <v>-45.8</v>
+        <v>-64.9</v>
       </c>
       <c r="F219">
-        <v>-78.4</v>
+        <v>-85</v>
       </c>
       <c r="G219">
         <v>-1.32</v>
@@ -8615,16 +8615,16 @@
         <v>228</v>
       </c>
       <c r="C220">
-        <v>-8</v>
+        <v>-15.8</v>
       </c>
       <c r="D220">
-        <v>-4.4</v>
+        <v>-14</v>
       </c>
       <c r="E220">
-        <v>-26.6</v>
+        <v>-47.3</v>
       </c>
       <c r="F220">
-        <v>-80.6</v>
+        <v>-88.6</v>
       </c>
       <c r="G220">
         <v>-1.11</v>
@@ -8647,16 +8647,16 @@
         <v>229</v>
       </c>
       <c r="C221">
-        <v>-48.7</v>
+        <v>-52.2</v>
       </c>
       <c r="D221">
-        <v>-39.6</v>
+        <v>-45.1</v>
       </c>
       <c r="E221">
-        <v>-41.4</v>
+        <v>-49.3</v>
       </c>
       <c r="F221">
-        <v>-71</v>
+        <v>-83.5</v>
       </c>
       <c r="G221">
         <v>-1.14</v>
@@ -8679,16 +8679,16 @@
         <v>230</v>
       </c>
       <c r="C222">
-        <v>-25.5</v>
+        <v>-31.8</v>
       </c>
       <c r="D222">
-        <v>-23</v>
+        <v>-35.7</v>
       </c>
       <c r="E222">
-        <v>-52</v>
+        <v>-62.3</v>
       </c>
       <c r="F222">
-        <v>-70.4</v>
+        <v>-88.3</v>
       </c>
       <c r="G222">
         <v>-3.89</v>
@@ -8711,16 +8711,16 @@
         <v>231</v>
       </c>
       <c r="C223">
-        <v>-46.3</v>
+        <v>-48.5</v>
       </c>
       <c r="D223">
-        <v>-35.6</v>
+        <v>-41.6</v>
       </c>
       <c r="E223">
-        <v>-40.2</v>
+        <v>-53.2</v>
       </c>
       <c r="F223">
-        <v>-74.3</v>
+        <v>-82.9</v>
       </c>
       <c r="G223">
         <v>-1.33</v>
@@ -8743,16 +8743,16 @@
         <v>232</v>
       </c>
       <c r="C224">
-        <v>-58.1</v>
+        <v>-59.8</v>
       </c>
       <c r="D224">
-        <v>-46.6</v>
+        <v>-49.7</v>
       </c>
       <c r="E224">
-        <v>-47.6</v>
+        <v>-52.3</v>
       </c>
       <c r="F224">
-        <v>-73.4</v>
+        <v>-82</v>
       </c>
       <c r="G224">
         <v>-1.4</v>
@@ -8775,16 +8775,16 @@
         <v>233</v>
       </c>
       <c r="C225">
-        <v>-50.8</v>
+        <v>-54.3</v>
       </c>
       <c r="D225">
-        <v>-46.8</v>
+        <v>-50.6</v>
       </c>
       <c r="E225">
-        <v>-47.3</v>
+        <v>-56</v>
       </c>
       <c r="F225">
-        <v>-71.2</v>
+        <v>-78</v>
       </c>
       <c r="G225">
         <v>-1.36</v>
@@ -8807,16 +8807,16 @@
         <v>234</v>
       </c>
       <c r="C226">
-        <v>-61.9</v>
+        <v>-62</v>
       </c>
       <c r="D226">
-        <v>-56.5</v>
+        <v>-57.1</v>
       </c>
       <c r="E226">
-        <v>-52.6</v>
+        <v>-55.7</v>
       </c>
       <c r="F226">
-        <v>-89.2</v>
+        <v>-78.3</v>
       </c>
       <c r="G226">
         <v>-2.28</v>
@@ -8839,16 +8839,16 @@
         <v>235</v>
       </c>
       <c r="C227">
-        <v>-51.4</v>
+        <v>-52.6</v>
       </c>
       <c r="D227">
-        <v>-44.6</v>
+        <v>-47.2</v>
       </c>
       <c r="E227">
-        <v>-47.9</v>
+        <v>-48.8</v>
       </c>
       <c r="F227">
-        <v>-84.1</v>
+        <v>-83.3</v>
       </c>
       <c r="G227">
         <v>-2.29</v>
@@ -8871,16 +8871,16 @@
         <v>236</v>
       </c>
       <c r="C228">
-        <v>-14.8</v>
+        <v>-19.5</v>
       </c>
       <c r="D228">
-        <v>-24.8</v>
+        <v>-36.7</v>
       </c>
       <c r="E228">
-        <v>-24.1</v>
+        <v>-41</v>
       </c>
       <c r="F228">
-        <v>-89.3</v>
+        <v>-91.2</v>
       </c>
       <c r="G228">
         <v>-1.7</v>
@@ -8903,16 +8903,16 @@
         <v>237</v>
       </c>
       <c r="C229">
-        <v>-30.9</v>
+        <v>-34.7</v>
       </c>
       <c r="D229">
-        <v>-29.1</v>
+        <v>-38.1</v>
       </c>
       <c r="E229">
-        <v>-10.5</v>
+        <v>-33.4</v>
       </c>
       <c r="F229">
-        <v>-91.4</v>
+        <v>-93.7</v>
       </c>
       <c r="G229">
         <v>-2.2</v>
@@ -8935,16 +8935,16 @@
         <v>238</v>
       </c>
       <c r="C230">
-        <v>-16</v>
+        <v>-20.8</v>
       </c>
       <c r="D230">
-        <v>-20.3</v>
+        <v>-31.8</v>
       </c>
       <c r="E230">
-        <v>-9.2</v>
+        <v>-31.4</v>
       </c>
       <c r="F230">
-        <v>-86.8</v>
+        <v>-92.3</v>
       </c>
       <c r="G230">
         <v>-1.97</v>
@@ -8967,16 +8967,16 @@
         <v>239</v>
       </c>
       <c r="C231">
-        <v>-13.8</v>
+        <v>-20.3</v>
       </c>
       <c r="D231">
-        <v>-27.8</v>
+        <v>-39.7</v>
       </c>
       <c r="E231">
-        <v>-36.3</v>
+        <v>-50.6</v>
       </c>
       <c r="F231">
-        <v>-92.6</v>
+        <v>-89.8</v>
       </c>
       <c r="G231">
         <v>-1.73</v>
@@ -8999,16 +8999,16 @@
         <v>240</v>
       </c>
       <c r="C232">
-        <v>-20.8</v>
+        <v>-27.3</v>
       </c>
       <c r="D232">
-        <v>-33.6</v>
+        <v>-44.9</v>
       </c>
       <c r="E232">
-        <v>-40.7</v>
+        <v>-53.4</v>
       </c>
       <c r="F232">
-        <v>-94.2</v>
+        <v>-90.5</v>
       </c>
       <c r="G232">
         <v>-1.69</v>
@@ -9031,16 +9031,16 @@
         <v>241</v>
       </c>
       <c r="C233">
-        <v>-28.6</v>
+        <v>-32.5</v>
       </c>
       <c r="D233">
-        <v>-34.1</v>
+        <v>-41.5</v>
       </c>
       <c r="E233">
-        <v>-38.4</v>
+        <v>-45.7</v>
       </c>
       <c r="F233">
-        <v>-90.3</v>
+        <v>-87.4</v>
       </c>
       <c r="G233">
         <v>-0.89</v>
@@ -9063,16 +9063,16 @@
         <v>242</v>
       </c>
       <c r="C234">
-        <v>-32</v>
+        <v>-37</v>
       </c>
       <c r="D234">
-        <v>-38.6</v>
+        <v>-44.4</v>
       </c>
       <c r="E234">
-        <v>-40.5</v>
+        <v>-44.6</v>
       </c>
       <c r="F234">
-        <v>-91.3</v>
+        <v>-85.5</v>
       </c>
       <c r="G234">
         <v>-1.12</v>
@@ -9095,16 +9095,16 @@
         <v>243</v>
       </c>
       <c r="C235">
-        <v>-35.6</v>
+        <v>-40.2</v>
       </c>
       <c r="D235">
-        <v>-39.1</v>
+        <v>-46.1</v>
       </c>
       <c r="E235">
-        <v>-41.5</v>
+        <v>-49.7</v>
       </c>
       <c r="F235">
-        <v>-93.3</v>
+        <v>-90.3</v>
       </c>
       <c r="G235">
         <v>-1.58</v>
@@ -9127,16 +9127,16 @@
         <v>244</v>
       </c>
       <c r="C236">
-        <v>-32.4</v>
+        <v>-37.4</v>
       </c>
       <c r="D236">
-        <v>-36.9</v>
+        <v>-46.1</v>
       </c>
       <c r="E236">
-        <v>-41.3</v>
+        <v>-51.7</v>
       </c>
       <c r="F236">
-        <v>-91.5</v>
+        <v>-92.3</v>
       </c>
       <c r="G236">
         <v>-2.08</v>
@@ -9159,16 +9159,16 @@
         <v>245</v>
       </c>
       <c r="C237">
-        <v>-43.5</v>
+        <v>-45.8</v>
       </c>
       <c r="D237">
-        <v>-35.1</v>
+        <v>-41.7</v>
       </c>
       <c r="E237">
-        <v>-47.4</v>
+        <v>-54.4</v>
       </c>
       <c r="F237">
-        <v>-90.8</v>
+        <v>-91.9</v>
       </c>
       <c r="G237">
         <v>-2.71</v>
@@ -9191,16 +9191,16 @@
         <v>246</v>
       </c>
       <c r="C238">
+        <v>-37.4</v>
+      </c>
+      <c r="D238">
         <v>-33.6</v>
       </c>
-      <c r="D238">
-        <v>-26.5</v>
-      </c>
       <c r="E238">
-        <v>-32.1</v>
+        <v>-46.7</v>
       </c>
       <c r="F238">
-        <v>-70.7</v>
+        <v>-84.3</v>
       </c>
       <c r="G238">
         <v>-1.6</v>
@@ -9223,16 +9223,16 @@
         <v>247</v>
       </c>
       <c r="C239">
-        <v>-38</v>
+        <v>-41.6</v>
       </c>
       <c r="D239">
-        <v>-31.2</v>
+        <v>-36.6</v>
       </c>
       <c r="E239">
-        <v>-35.2</v>
+        <v>-45.9</v>
       </c>
       <c r="F239">
-        <v>-67.8</v>
+        <v>-81.1</v>
       </c>
       <c r="G239">
         <v>-2.25</v>
@@ -9255,16 +9255,16 @@
         <v>248</v>
       </c>
       <c r="C240">
-        <v>-36.7</v>
+        <v>-38.8</v>
       </c>
       <c r="D240">
-        <v>-24</v>
+        <v>-27.8</v>
       </c>
       <c r="E240">
-        <v>-23.1</v>
+        <v>-37</v>
       </c>
       <c r="F240">
-        <v>-81.5</v>
+        <v>-76.1</v>
       </c>
       <c r="G240">
         <v>-1.71</v>
@@ -9287,16 +9287,16 @@
         <v>249</v>
       </c>
       <c r="C241">
-        <v>-29.4</v>
+        <v>-34.7</v>
       </c>
       <c r="D241">
-        <v>-23.1</v>
+        <v>-33.2</v>
       </c>
       <c r="E241">
-        <v>-30.5</v>
+        <v>-47.4</v>
       </c>
       <c r="F241">
-        <v>-75.7</v>
+        <v>-94.5</v>
       </c>
       <c r="G241">
         <v>-1.56</v>
@@ -9319,16 +9319,16 @@
         <v>250</v>
       </c>
       <c r="C242">
-        <v>-23.2</v>
+        <v>-29.5</v>
       </c>
       <c r="D242">
-        <v>-17.3</v>
+        <v>-25.6</v>
       </c>
       <c r="E242">
-        <v>-27.1</v>
+        <v>-46.4</v>
       </c>
       <c r="F242">
-        <v>-87</v>
+        <v>-86.5</v>
       </c>
       <c r="G242">
         <v>-1.27</v>
@@ -9351,16 +9351,16 @@
         <v>251</v>
       </c>
       <c r="C243">
-        <v>-48.5</v>
+        <v>-49</v>
       </c>
       <c r="D243">
-        <v>-43.5</v>
+        <v>-44.9</v>
       </c>
       <c r="E243">
-        <v>-49.1</v>
+        <v>-46.3</v>
       </c>
       <c r="F243">
-        <v>-81.9</v>
+        <v>-71.8</v>
       </c>
       <c r="G243">
         <v>-1.98</v>
@@ -9383,16 +9383,16 @@
         <v>252</v>
       </c>
       <c r="C244">
-        <v>-26.5</v>
+        <v>-32</v>
       </c>
       <c r="D244">
-        <v>-32.4</v>
+        <v>-42</v>
       </c>
       <c r="E244">
-        <v>-47.2</v>
+        <v>-65.3</v>
       </c>
       <c r="F244">
-        <v>-85</v>
+        <v>-98.7</v>
       </c>
       <c r="G244">
         <v>-1.92</v>
@@ -9415,16 +9415,16 @@
         <v>253</v>
       </c>
       <c r="C245">
-        <v>-30.5</v>
+        <v>-36</v>
       </c>
       <c r="D245">
-        <v>-37</v>
+        <v>-46.1</v>
       </c>
       <c r="E245">
-        <v>-51.8</v>
+        <v>-68.8</v>
       </c>
       <c r="F245">
-        <v>-88.3</v>
+        <v>-99.2</v>
       </c>
       <c r="G245">
         <v>-2</v>
@@ -9447,16 +9447,16 @@
         <v>254</v>
       </c>
       <c r="C246">
-        <v>-48.8</v>
+        <v>-48.7</v>
       </c>
       <c r="D246">
-        <v>-41</v>
+        <v>-42.2</v>
       </c>
       <c r="E246">
-        <v>-45.1</v>
+        <v>-42.8</v>
       </c>
       <c r="F246">
-        <v>-60</v>
+        <v>-68</v>
       </c>
       <c r="G246">
         <v>-1.56</v>
@@ -9479,16 +9479,16 @@
         <v>255</v>
       </c>
       <c r="C247">
-        <v>-27.7</v>
+        <v>-33</v>
       </c>
       <c r="D247">
-        <v>-38.6</v>
+        <v>-47.9</v>
       </c>
       <c r="E247">
-        <v>-51.1</v>
+        <v>-68.6</v>
       </c>
       <c r="F247">
-        <v>-87.6</v>
+        <v>-98.9</v>
       </c>
       <c r="G247">
         <v>-2.12</v>
@@ -9511,16 +9511,16 @@
         <v>256</v>
       </c>
       <c r="C248">
-        <v>-23</v>
+        <v>-28.6</v>
       </c>
       <c r="D248">
-        <v>-29.2</v>
+        <v>-38.6</v>
       </c>
       <c r="E248">
-        <v>-27.8</v>
+        <v>-54.8</v>
       </c>
       <c r="F248">
-        <v>-91</v>
+        <v>-97.9</v>
       </c>
       <c r="G248">
         <v>-1.93</v>
@@ -9543,16 +9543,16 @@
         <v>257</v>
       </c>
       <c r="C249">
-        <v>1.7</v>
+        <v>-2.9</v>
       </c>
       <c r="D249">
-        <v>21.2</v>
+        <v>5</v>
       </c>
       <c r="E249">
-        <v>25.8</v>
+        <v>-27.4</v>
       </c>
       <c r="F249">
-        <v>-56.6</v>
+        <v>-96.4</v>
       </c>
       <c r="G249">
         <v>-1.62</v>
@@ -9575,16 +9575,16 @@
         <v>258</v>
       </c>
       <c r="C250">
-        <v>-50.2</v>
+        <v>-50.9</v>
       </c>
       <c r="D250">
-        <v>-40.4</v>
+        <v>-46.4</v>
       </c>
       <c r="E250">
-        <v>-47.7</v>
+        <v>-50.5</v>
       </c>
       <c r="F250">
-        <v>-68.9</v>
+        <v>-79.9</v>
       </c>
       <c r="G250">
         <v>-1.59</v>
@@ -9607,16 +9607,16 @@
         <v>259</v>
       </c>
       <c r="C251">
-        <v>-31.7</v>
+        <v>-36</v>
       </c>
       <c r="D251">
-        <v>-26.6</v>
+        <v>-36.7</v>
       </c>
       <c r="E251">
-        <v>-32.4</v>
+        <v>-49.6</v>
       </c>
       <c r="F251">
-        <v>-59.8</v>
+        <v>-90.2</v>
       </c>
       <c r="G251">
         <v>-1.86</v>
@@ -9639,16 +9639,16 @@
         <v>260</v>
       </c>
       <c r="C252">
-        <v>-42.9</v>
+        <v>-45.4</v>
       </c>
       <c r="D252">
-        <v>-36</v>
+        <v>-39.2</v>
       </c>
       <c r="E252">
-        <v>-37.9</v>
+        <v>-45.4</v>
       </c>
       <c r="F252">
-        <v>-79.3</v>
+        <v>-75.8</v>
       </c>
       <c r="G252">
         <v>-2.01</v>
@@ -9671,16 +9671,16 @@
         <v>261</v>
       </c>
       <c r="C253">
-        <v>-42.1</v>
+        <v>-44.3</v>
       </c>
       <c r="D253">
-        <v>-35.3</v>
+        <v>-40.6</v>
       </c>
       <c r="E253">
-        <v>-37.5</v>
+        <v>-44.7</v>
       </c>
       <c r="F253">
-        <v>-74.5</v>
+        <v>-82.5</v>
       </c>
       <c r="G253">
         <v>-2.76</v>
@@ -9703,16 +9703,16 @@
         <v>262</v>
       </c>
       <c r="C254">
-        <v>-25</v>
+        <v>-30.8</v>
       </c>
       <c r="D254">
-        <v>-21.2</v>
+        <v>-29.1</v>
       </c>
       <c r="E254">
-        <v>-31.3</v>
+        <v>-46.2</v>
       </c>
       <c r="F254">
-        <v>-79.2</v>
+        <v>-92</v>
       </c>
       <c r="G254">
         <v>-1.55</v>
@@ -9735,16 +9735,16 @@
         <v>263</v>
       </c>
       <c r="C255">
-        <v>-14.9</v>
+        <v>-20.6</v>
       </c>
       <c r="D255">
-        <v>-9.7</v>
+        <v>-23.5</v>
       </c>
       <c r="E255">
-        <v>-14.3</v>
+        <v>-42.1</v>
       </c>
       <c r="F255">
-        <v>-50</v>
+        <v>-98.1</v>
       </c>
       <c r="G255">
         <v>-1.5</v>
@@ -9767,16 +9767,16 @@
         <v>264</v>
       </c>
       <c r="C256">
-        <v>-30.7</v>
+        <v>-36.6</v>
       </c>
       <c r="D256">
-        <v>-41.8</v>
+        <v>-50</v>
       </c>
       <c r="E256">
-        <v>-42.8</v>
+        <v>-62.9</v>
       </c>
       <c r="F256">
-        <v>-93.9</v>
+        <v>-98.6</v>
       </c>
       <c r="G256">
         <v>-2.67</v>
@@ -9799,16 +9799,16 @@
         <v>265</v>
       </c>
       <c r="C257">
-        <v>-54.8</v>
+        <v>-54.2</v>
       </c>
       <c r="D257">
-        <v>-43.5</v>
+        <v>-45.9</v>
       </c>
       <c r="E257">
-        <v>-51</v>
+        <v>-48.9</v>
       </c>
       <c r="F257">
-        <v>-95</v>
+        <v>-76.5</v>
       </c>
       <c r="G257">
         <v>-2.8</v>
@@ -9831,16 +9831,16 @@
         <v>266</v>
       </c>
       <c r="C258">
-        <v>-8.2</v>
+        <v>-13</v>
       </c>
       <c r="D258">
-        <v>-1.1</v>
+        <v>-11.2</v>
       </c>
       <c r="E258">
-        <v>11.7</v>
+        <v>-30.7</v>
       </c>
       <c r="F258">
-        <v>-73.6</v>
+        <v>-92</v>
       </c>
       <c r="G258">
         <v>-1.6</v>
@@ -9863,16 +9863,16 @@
         <v>267</v>
       </c>
       <c r="C259">
-        <v>-30.5</v>
+        <v>-35.6</v>
       </c>
       <c r="D259">
-        <v>-31.4</v>
+        <v>-42.9</v>
       </c>
       <c r="E259">
-        <v>-38.4</v>
+        <v>-56.8</v>
       </c>
       <c r="F259">
-        <v>-70.4</v>
+        <v>-99</v>
       </c>
       <c r="G259">
         <v>-1.54</v>
@@ -9895,16 +9895,16 @@
         <v>268</v>
       </c>
       <c r="C260">
-        <v>-21.3</v>
+        <v>-26.3</v>
       </c>
       <c r="D260">
-        <v>-23</v>
+        <v>-35.8</v>
       </c>
       <c r="E260">
-        <v>-33.5</v>
+        <v>-54.3</v>
       </c>
       <c r="F260">
-        <v>-67.4</v>
+        <v>-97.9</v>
       </c>
       <c r="G260">
         <v>-1.31</v>
@@ -9927,16 +9927,16 @@
         <v>269</v>
       </c>
       <c r="C261">
-        <v>-17.9</v>
+        <v>-23.4</v>
       </c>
       <c r="D261">
-        <v>-20.6</v>
+        <v>-31.3</v>
       </c>
       <c r="E261">
-        <v>-13.9</v>
+        <v>-45.9</v>
       </c>
       <c r="F261">
-        <v>-86</v>
+        <v>-98</v>
       </c>
       <c r="G261">
         <v>-1.84</v>
@@ -9959,16 +9959,16 @@
         <v>270</v>
       </c>
       <c r="C262">
-        <v>-15.2</v>
+        <v>-20.3</v>
       </c>
       <c r="D262">
-        <v>-14</v>
+        <v>-25.1</v>
       </c>
       <c r="E262">
-        <v>-6</v>
+        <v>-41</v>
       </c>
       <c r="F262">
-        <v>-81.2</v>
+        <v>-96.1</v>
       </c>
       <c r="G262">
         <v>-1.77</v>
@@ -9991,16 +9991,16 @@
         <v>271</v>
       </c>
       <c r="C263">
-        <v>-22.3</v>
+        <v>-27.4</v>
       </c>
       <c r="D263">
-        <v>-25.8</v>
+        <v>-34.9</v>
       </c>
       <c r="E263">
-        <v>-16.4</v>
+        <v>-44.5</v>
       </c>
       <c r="F263">
-        <v>-78.3</v>
+        <v>-97</v>
       </c>
       <c r="G263">
         <v>-2.02</v>
@@ -10023,16 +10023,16 @@
         <v>272</v>
       </c>
       <c r="C264">
-        <v>-24.5</v>
+        <v>-30.8</v>
       </c>
       <c r="D264">
-        <v>-32.2</v>
+        <v>-42</v>
       </c>
       <c r="E264">
-        <v>-26.7</v>
+        <v>-48.7</v>
       </c>
       <c r="F264">
-        <v>-91.8</v>
+        <v>-96.3</v>
       </c>
       <c r="G264">
         <v>-2.11</v>
@@ -10055,16 +10055,16 @@
         <v>273</v>
       </c>
       <c r="C265">
-        <v>-11.3</v>
+        <v>-16.2</v>
       </c>
       <c r="D265">
-        <v>-0.8</v>
+        <v>-10.7</v>
       </c>
       <c r="E265">
-        <v>14.7</v>
+        <v>-29.2</v>
       </c>
       <c r="F265">
-        <v>-67.6</v>
+        <v>-95</v>
       </c>
       <c r="G265">
         <v>-1.81</v>
@@ -10087,16 +10087,16 @@
         <v>274</v>
       </c>
       <c r="C266">
-        <v>-14.7</v>
+        <v>-20.1</v>
       </c>
       <c r="D266">
-        <v>-7.3</v>
+        <v>-17.9</v>
       </c>
       <c r="E266">
-        <v>6.8</v>
+        <v>-33.5</v>
       </c>
       <c r="F266">
-        <v>-70.5</v>
+        <v>-96.7</v>
       </c>
       <c r="G266">
         <v>-1.9</v>
@@ -10119,16 +10119,16 @@
         <v>275</v>
       </c>
       <c r="C267">
-        <v>-4.7</v>
+        <v>-9.3</v>
       </c>
       <c r="D267">
-        <v>5.5</v>
+        <v>-6.4</v>
       </c>
       <c r="E267">
-        <v>15.6</v>
+        <v>-25.7</v>
       </c>
       <c r="F267">
-        <v>-52</v>
+        <v>-97.5</v>
       </c>
       <c r="G267">
         <v>-1.98</v>
@@ -10151,16 +10151,16 @@
         <v>276</v>
       </c>
       <c r="C268">
-        <v>-34.8</v>
+        <v>-39.2</v>
       </c>
       <c r="D268">
-        <v>-44.7</v>
+        <v>-52</v>
       </c>
       <c r="E268">
-        <v>-46.2</v>
+        <v>-64.8</v>
       </c>
       <c r="F268">
-        <v>-93.5</v>
+        <v>-98</v>
       </c>
       <c r="G268">
         <v>-2.81</v>
@@ -10183,16 +10183,16 @@
         <v>277</v>
       </c>
       <c r="C269">
-        <v>-33.6</v>
+        <v>-39.1</v>
       </c>
       <c r="D269">
-        <v>-43</v>
+        <v>-51.5</v>
       </c>
       <c r="E269">
-        <v>-47.3</v>
+        <v>-65.6</v>
       </c>
       <c r="F269">
-        <v>-91.8</v>
+        <v>-99</v>
       </c>
       <c r="G269">
         <v>-2.12</v>
@@ -10215,16 +10215,16 @@
         <v>278</v>
       </c>
       <c r="C270">
-        <v>-2.8</v>
+        <v>-9.1</v>
       </c>
       <c r="D270">
-        <v>-5.9</v>
+        <v>-20.2</v>
       </c>
       <c r="E270">
-        <v>-18.3</v>
+        <v>-45.5</v>
       </c>
       <c r="F270">
-        <v>-69.3</v>
+        <v>-98.4</v>
       </c>
       <c r="G270">
         <v>-1.25</v>
@@ -10247,16 +10247,16 @@
         <v>279</v>
       </c>
       <c r="C271">
-        <v>-0.4</v>
+        <v>-5.8</v>
       </c>
       <c r="D271">
-        <v>1.2</v>
+        <v>-12.5</v>
       </c>
       <c r="E271">
-        <v>-4.2</v>
+        <v>-34.5</v>
       </c>
       <c r="F271">
-        <v>-61.2</v>
+        <v>-98.3</v>
       </c>
       <c r="G271">
         <v>-1.88</v>
@@ -10279,16 +10279,16 @@
         <v>280</v>
       </c>
       <c r="C272">
-        <v>-30.8</v>
+        <v>-35.9</v>
       </c>
       <c r="D272">
-        <v>-43.1</v>
+        <v>-51.1</v>
       </c>
       <c r="E272">
-        <v>-37.9</v>
+        <v>-56</v>
       </c>
       <c r="F272">
-        <v>-95.2</v>
+        <v>-97</v>
       </c>
       <c r="G272">
         <v>-3</v>
@@ -10311,16 +10311,16 @@
         <v>281</v>
       </c>
       <c r="C273">
-        <v>-34.4</v>
+        <v>-39.2</v>
       </c>
       <c r="D273">
-        <v>-47</v>
+        <v>-54.5</v>
       </c>
       <c r="E273">
-        <v>-46.2</v>
+        <v>-62.7</v>
       </c>
       <c r="F273">
-        <v>-96.4</v>
+        <v>-97.1</v>
       </c>
       <c r="G273">
         <v>-3.32</v>
@@ -10343,16 +10343,16 @@
         <v>282</v>
       </c>
       <c r="C274">
-        <v>-10.5</v>
+        <v>-14.7</v>
       </c>
       <c r="D274">
-        <v>-9.1</v>
+        <v>-24.8</v>
       </c>
       <c r="E274">
-        <v>-27.2</v>
+        <v>-47.9</v>
       </c>
       <c r="F274">
-        <v>-76</v>
+        <v>-91.9</v>
       </c>
       <c r="G274">
         <v>-1.05</v>
@@ -10375,16 +10375,16 @@
         <v>283</v>
       </c>
       <c r="C275">
-        <v>-6.6</v>
+        <v>-12.4</v>
       </c>
       <c r="D275">
-        <v>-16.6</v>
+        <v>-36</v>
       </c>
       <c r="E275">
-        <v>-30.1</v>
+        <v>-55</v>
       </c>
       <c r="F275">
-        <v>-96.4</v>
+        <v>-96.3</v>
       </c>
       <c r="G275">
         <v>-3.13</v>
@@ -10407,16 +10407,16 @@
         <v>284</v>
       </c>
       <c r="C276">
-        <v>-46.2</v>
+        <v>-45.9</v>
       </c>
       <c r="D276">
-        <v>-40.9</v>
+        <v>-47.7</v>
       </c>
       <c r="E276">
-        <v>-49.2</v>
+        <v>-61.1</v>
       </c>
       <c r="F276">
-        <v>-87.3</v>
+        <v>-82.1</v>
       </c>
       <c r="G276">
         <v>-1.83</v>
@@ -10439,16 +10439,16 @@
         <v>285</v>
       </c>
       <c r="C277">
-        <v>-34.5</v>
+        <v>-38.4</v>
       </c>
       <c r="D277">
-        <v>-38.1</v>
+        <v>-48.9</v>
       </c>
       <c r="E277">
-        <v>-37.6</v>
+        <v>-51.3</v>
       </c>
       <c r="F277">
-        <v>-89.2</v>
+        <v>-92.4</v>
       </c>
       <c r="G277">
         <v>-2</v>
@@ -10471,16 +10471,16 @@
         <v>286</v>
       </c>
       <c r="C278">
-        <v>-29.3</v>
+        <v>-34.7</v>
       </c>
       <c r="D278">
-        <v>-35.8</v>
+        <v>-45.7</v>
       </c>
       <c r="E278">
-        <v>-37.7</v>
+        <v>-49</v>
       </c>
       <c r="F278">
-        <v>-92.2</v>
+        <v>-93.6</v>
       </c>
       <c r="G278">
         <v>-2.32</v>
@@ -10503,16 +10503,16 @@
         <v>287</v>
       </c>
       <c r="C279">
-        <v>-32</v>
+        <v>-35.8</v>
       </c>
       <c r="D279">
-        <v>-33.5</v>
+        <v>-47.1</v>
       </c>
       <c r="E279">
-        <v>-34.6</v>
+        <v>-50.7</v>
       </c>
       <c r="F279">
-        <v>-89</v>
+        <v>-92.8</v>
       </c>
       <c r="G279">
         <v>-1.92</v>
@@ -10535,16 +10535,16 @@
         <v>288</v>
       </c>
       <c r="C280">
-        <v>-17.4</v>
+        <v>-24.7</v>
       </c>
       <c r="D280">
-        <v>-34.5</v>
+        <v>-45.1</v>
       </c>
       <c r="E280">
-        <v>-35.6</v>
+        <v>-46.9</v>
       </c>
       <c r="F280">
-        <v>-91.3</v>
+        <v>-93.4</v>
       </c>
       <c r="G280">
         <v>-2.01</v>
@@ -10567,16 +10567,16 @@
         <v>289</v>
       </c>
       <c r="C281">
-        <v>-23.7</v>
+        <v>-30.8</v>
       </c>
       <c r="D281">
-        <v>-36</v>
+        <v>-46.1</v>
       </c>
       <c r="E281">
-        <v>-40.9</v>
+        <v>-50.7</v>
       </c>
       <c r="F281">
-        <v>-94.6</v>
+        <v>-92.3</v>
       </c>
       <c r="G281">
         <v>-2.12</v>
@@ -10599,16 +10599,16 @@
         <v>290</v>
       </c>
       <c r="C282">
-        <v>-48.7</v>
+        <v>-48.4</v>
       </c>
       <c r="D282">
-        <v>-40.3</v>
+        <v>-49</v>
       </c>
       <c r="E282">
-        <v>-50.1</v>
+        <v>-61.3</v>
       </c>
       <c r="F282">
-        <v>-83.7</v>
+        <v>-86.5</v>
       </c>
       <c r="G282">
         <v>-1.4</v>
@@ -10631,16 +10631,16 @@
         <v>291</v>
       </c>
       <c r="C283">
-        <v>-59.9</v>
+        <v>-60.3</v>
       </c>
       <c r="D283">
-        <v>-46.8</v>
+        <v>-53.9</v>
       </c>
       <c r="E283">
-        <v>-55.5</v>
+        <v>-67.3</v>
       </c>
       <c r="F283">
-        <v>-89</v>
+        <v>-88.7</v>
       </c>
       <c r="G283">
         <v>-1.77</v>
@@ -10663,16 +10663,16 @@
         <v>292</v>
       </c>
       <c r="C284">
-        <v>-57</v>
+        <v>-57.8</v>
       </c>
       <c r="D284">
-        <v>-47.2</v>
+        <v>-55.2</v>
       </c>
       <c r="E284">
-        <v>-55.2</v>
+        <v>-66.8</v>
       </c>
       <c r="F284">
-        <v>-86.8</v>
+        <v>-91.3</v>
       </c>
       <c r="G284">
         <v>-1.26</v>
@@ -10695,16 +10695,16 @@
         <v>293</v>
       </c>
       <c r="C285">
-        <v>-27</v>
+        <v>-34.5</v>
       </c>
       <c r="D285">
-        <v>-41.9</v>
+        <v>-51.8</v>
       </c>
       <c r="E285">
-        <v>-47.5</v>
+        <v>-56.3</v>
       </c>
       <c r="F285">
-        <v>-93.9</v>
+        <v>-94.4</v>
       </c>
       <c r="G285">
         <v>-1.95</v>
@@ -10727,16 +10727,16 @@
         <v>294</v>
       </c>
       <c r="C286">
-        <v>-32.7</v>
+        <v>-42</v>
       </c>
       <c r="D286">
-        <v>-41.6</v>
+        <v>-48.6</v>
       </c>
       <c r="E286">
-        <v>-36.8</v>
+        <v>-43</v>
       </c>
       <c r="F286">
-        <v>-96.1</v>
+        <v>-93.4</v>
       </c>
       <c r="G286">
         <v>-2.33</v>
@@ -10759,16 +10759,16 @@
         <v>295</v>
       </c>
       <c r="C287">
-        <v>-28.4</v>
+        <v>-37.1</v>
       </c>
       <c r="D287">
-        <v>-40.3</v>
+        <v>-48.4</v>
       </c>
       <c r="E287">
-        <v>-38.4</v>
+        <v>-46.1</v>
       </c>
       <c r="F287">
-        <v>-95.4</v>
+        <v>-93.6</v>
       </c>
       <c r="G287">
         <v>-2.33</v>
@@ -10791,16 +10791,16 @@
         <v>296</v>
       </c>
       <c r="C288">
-        <v>-35.3</v>
+        <v>-45</v>
       </c>
       <c r="D288">
-        <v>-37.7</v>
+        <v>-45</v>
       </c>
       <c r="E288">
-        <v>-34.3</v>
+        <v>-41</v>
       </c>
       <c r="F288">
-        <v>-96</v>
+        <v>-93.5</v>
       </c>
       <c r="G288">
         <v>-2.35</v>
@@ -10823,16 +10823,16 @@
         <v>297</v>
       </c>
       <c r="C289">
-        <v>-33.6</v>
+        <v>-38.2</v>
       </c>
       <c r="D289">
-        <v>-45.9</v>
+        <v>-54.6</v>
       </c>
       <c r="E289">
-        <v>-50.1</v>
+        <v>-62.1</v>
       </c>
       <c r="F289">
-        <v>-95.1</v>
+        <v>-95.2</v>
       </c>
       <c r="G289">
         <v>-3</v>
@@ -10855,16 +10855,16 @@
         <v>298</v>
       </c>
       <c r="C290">
-        <v>-28.2</v>
+        <v>-34.5</v>
       </c>
       <c r="D290">
-        <v>-41.7</v>
+        <v>-50.9</v>
       </c>
       <c r="E290">
-        <v>-46.8</v>
+        <v>-58.4</v>
       </c>
       <c r="F290">
-        <v>-94.2</v>
+        <v>-93.3</v>
       </c>
       <c r="G290">
         <v>-2.36</v>
@@ -10887,16 +10887,16 @@
         <v>299</v>
       </c>
       <c r="C291">
-        <v>-29.2</v>
+        <v>-33.7</v>
       </c>
       <c r="D291">
-        <v>-41.5</v>
+        <v>-52.2</v>
       </c>
       <c r="E291">
-        <v>-50.3</v>
+        <v>-64.1</v>
       </c>
       <c r="F291">
-        <v>-97.8</v>
+        <v>-95.1</v>
       </c>
       <c r="G291">
         <v>-3.06</v>
@@ -10919,16 +10919,16 @@
         <v>300</v>
       </c>
       <c r="C292">
-        <v>-57.6</v>
+        <v>-58.4</v>
       </c>
       <c r="D292">
-        <v>-52.9</v>
+        <v>-58.8</v>
       </c>
       <c r="E292">
-        <v>-55.9</v>
+        <v>-66.3</v>
       </c>
       <c r="F292">
-        <v>-80.1</v>
+        <v>-90.7</v>
       </c>
       <c r="G292">
         <v>-1.75</v>
@@ -10951,16 +10951,16 @@
         <v>301</v>
       </c>
       <c r="C293">
-        <v>-32.4</v>
+        <v>-35.9</v>
       </c>
       <c r="D293">
-        <v>-28.5</v>
+        <v>-41.5</v>
       </c>
       <c r="E293">
-        <v>-28.9</v>
+        <v>-45.3</v>
       </c>
       <c r="F293">
-        <v>-91.4</v>
+        <v>-92.6</v>
       </c>
       <c r="G293">
         <v>-1.63</v>
@@ -10983,16 +10983,16 @@
         <v>302</v>
       </c>
       <c r="C294">
-        <v>-45</v>
+        <v>-47.2</v>
       </c>
       <c r="D294">
-        <v>-39.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E294">
-        <v>-43.9</v>
+        <v>-58.6</v>
       </c>
       <c r="F294">
-        <v>-90.1</v>
+        <v>-93.7</v>
       </c>
       <c r="G294">
         <v>-1.45</v>
@@ -11015,16 +11015,16 @@
         <v>303</v>
       </c>
       <c r="C295">
-        <v>-47.4</v>
+        <v>-50.1</v>
       </c>
       <c r="D295">
-        <v>-45.1</v>
+        <v>-53.1</v>
       </c>
       <c r="E295">
-        <v>-58</v>
+        <v>-66.6</v>
       </c>
       <c r="F295">
-        <v>-90.2</v>
+        <v>-93.4</v>
       </c>
       <c r="G295">
         <v>-1.93</v>
@@ -11047,16 +11047,16 @@
         <v>304</v>
       </c>
       <c r="C296">
-        <v>-39.5</v>
+        <v>-42.8</v>
       </c>
       <c r="D296">
-        <v>-38.9</v>
+        <v>-42.7</v>
       </c>
       <c r="E296">
-        <v>-52.2</v>
+        <v>-55.6</v>
       </c>
       <c r="F296">
-        <v>-76.1</v>
+        <v>-79.1</v>
       </c>
       <c r="G296">
         <v>-1.46</v>
@@ -11079,16 +11079,16 @@
         <v>305</v>
       </c>
       <c r="C297">
-        <v>-1.2</v>
+        <v>-11.8</v>
       </c>
       <c r="D297">
-        <v>-0.6</v>
+        <v>-9.7</v>
       </c>
       <c r="E297">
-        <v>-18.8</v>
+        <v>-50.8</v>
       </c>
       <c r="F297">
-        <v>-78</v>
+        <v>-89</v>
       </c>
       <c r="G297">
         <v>-1.03</v>
@@ -11111,16 +11111,16 @@
         <v>306</v>
       </c>
       <c r="C298">
-        <v>-5.3</v>
+        <v>-15.7</v>
       </c>
       <c r="D298">
-        <v>-0.7</v>
+        <v>-10.3</v>
       </c>
       <c r="E298">
-        <v>-22.2</v>
+        <v>-56.3</v>
       </c>
       <c r="F298">
-        <v>-79.2</v>
+        <v>-88.8</v>
       </c>
       <c r="G298">
         <v>-1.05</v>
@@ -11143,16 +11143,16 @@
         <v>307</v>
       </c>
       <c r="C299">
-        <v>-10</v>
+        <v>-19.7</v>
       </c>
       <c r="D299">
-        <v>-8.9</v>
+        <v>-16.7</v>
       </c>
       <c r="E299">
-        <v>-29</v>
+        <v>-55.9</v>
       </c>
       <c r="F299">
-        <v>-79.4</v>
+        <v>-87.2</v>
       </c>
       <c r="G299">
         <v>-0.96</v>
@@ -11175,16 +11175,16 @@
         <v>308</v>
       </c>
       <c r="C300">
-        <v>-24.1</v>
+        <v>-29.4</v>
       </c>
       <c r="D300">
-        <v>-32.3</v>
+        <v>-42.9</v>
       </c>
       <c r="E300">
-        <v>-26.2</v>
+        <v>-47.1</v>
       </c>
       <c r="F300">
-        <v>-72.4</v>
+        <v>-96.7</v>
       </c>
       <c r="G300">
         <v>-2.35</v>
@@ -11207,16 +11207,16 @@
         <v>309</v>
       </c>
       <c r="C301">
-        <v>-25.6</v>
+        <v>-33.8</v>
       </c>
       <c r="D301">
-        <v>-38.3</v>
+        <v>-47.8</v>
       </c>
       <c r="E301">
-        <v>-32</v>
+        <v>-57.1</v>
       </c>
       <c r="F301">
-        <v>-91.6</v>
+        <v>-98.9</v>
       </c>
       <c r="G301">
         <v>-2.25</v>
@@ -11239,16 +11239,16 @@
         <v>310</v>
       </c>
       <c r="C302">
-        <v>-14.9</v>
+        <v>-20.7</v>
       </c>
       <c r="D302">
-        <v>-14.8</v>
+        <v>-24.9</v>
       </c>
       <c r="E302">
-        <v>-13.5</v>
+        <v>-40.7</v>
       </c>
       <c r="F302">
-        <v>-62.4</v>
+        <v>-86</v>
       </c>
       <c r="G302">
         <v>-0.54</v>
@@ -11271,16 +11271,16 @@
         <v>311</v>
       </c>
       <c r="C303">
-        <v>-9.9</v>
+        <v>-17.5</v>
       </c>
       <c r="D303">
-        <v>-7.4</v>
+        <v>-18.8</v>
       </c>
       <c r="E303">
-        <v>-24.1</v>
+        <v>-48.3</v>
       </c>
       <c r="F303">
-        <v>-73.4</v>
+        <v>-88.5</v>
       </c>
       <c r="G303">
         <v>-1.11</v>
@@ -11303,16 +11303,16 @@
         <v>312</v>
       </c>
       <c r="C304">
-        <v>-6.2</v>
+        <v>-14.2</v>
       </c>
       <c r="D304">
-        <v>-1.3</v>
+        <v>-12.9</v>
       </c>
       <c r="E304">
-        <v>22.8</v>
+        <v>-18.8</v>
       </c>
       <c r="F304">
-        <v>-60.5</v>
+        <v>-88.8</v>
       </c>
       <c r="G304">
         <v>-0.67</v>
@@ -11335,16 +11335,16 @@
         <v>313</v>
       </c>
       <c r="C305">
-        <v>-48.3</v>
+        <v>-49.8</v>
       </c>
       <c r="D305">
-        <v>-65.3</v>
+        <v>-62</v>
       </c>
       <c r="E305">
-        <v>-70.1</v>
+        <v>-69.3</v>
       </c>
       <c r="F305">
-        <v>-79.7</v>
+        <v>-74.2</v>
       </c>
       <c r="G305">
         <v>-1.25</v>
@@ -11367,16 +11367,16 @@
         <v>314</v>
       </c>
       <c r="C306">
-        <v>-51.8</v>
+        <v>-52.8</v>
       </c>
       <c r="D306">
-        <v>-54.6</v>
+        <v>-52</v>
       </c>
       <c r="E306">
-        <v>-50.6</v>
+        <v>-57.5</v>
       </c>
       <c r="F306">
-        <v>-73.1</v>
+        <v>-77.3</v>
       </c>
       <c r="G306">
         <v>-1.55</v>
@@ -11399,16 +11399,16 @@
         <v>315</v>
       </c>
       <c r="C307">
-        <v>-18.7</v>
+        <v>-25.9</v>
       </c>
       <c r="D307">
-        <v>-14.8</v>
+        <v>-24.1</v>
       </c>
       <c r="E307">
-        <v>-33.8</v>
+        <v>-53.1</v>
       </c>
       <c r="F307">
-        <v>-73</v>
+        <v>-87.1</v>
       </c>
       <c r="G307">
         <v>-0.74</v>
@@ -11431,16 +11431,16 @@
         <v>316</v>
       </c>
       <c r="C308">
-        <v>-15.6</v>
+        <v>-24.1</v>
       </c>
       <c r="D308">
-        <v>-14.9</v>
+        <v>-24.4</v>
       </c>
       <c r="E308">
-        <v>-31.2</v>
+        <v>-52.9</v>
       </c>
       <c r="F308">
-        <v>-77.2</v>
+        <v>-88.8</v>
       </c>
       <c r="G308">
         <v>-0.77</v>
@@ -11463,16 +11463,16 @@
         <v>317</v>
       </c>
       <c r="C309">
-        <v>-41.6</v>
+        <v>-44.7</v>
       </c>
       <c r="D309">
-        <v>-37.5</v>
+        <v>-42.3</v>
       </c>
       <c r="E309">
-        <v>-50.6</v>
+        <v>-55.4</v>
       </c>
       <c r="F309">
-        <v>-77.1</v>
+        <v>-78</v>
       </c>
       <c r="G309">
         <v>-1.05</v>
@@ -11495,16 +11495,16 @@
         <v>318</v>
       </c>
       <c r="C310">
-        <v>-41.5</v>
+        <v>-44.2</v>
       </c>
       <c r="D310">
-        <v>-33</v>
+        <v>-37.2</v>
       </c>
       <c r="E310">
-        <v>-36</v>
+        <v>-40.5</v>
       </c>
       <c r="F310">
-        <v>-77.2</v>
+        <v>-74.7</v>
       </c>
       <c r="G310">
         <v>-1.23</v>
@@ -11527,16 +11527,16 @@
         <v>319</v>
       </c>
       <c r="C311">
-        <v>-21.5</v>
+        <v>-26.9</v>
       </c>
       <c r="D311">
-        <v>2.6</v>
+        <v>-11.7</v>
       </c>
       <c r="E311">
-        <v>1.9</v>
+        <v>-35.3</v>
       </c>
       <c r="F311">
-        <v>-43.6</v>
+        <v>-81.2</v>
       </c>
       <c r="G311">
         <v>-0.84</v>
@@ -11559,16 +11559,16 @@
         <v>320</v>
       </c>
       <c r="C312">
-        <v>-26.6</v>
+        <v>-31</v>
       </c>
       <c r="D312">
-        <v>0.4</v>
+        <v>-13.9</v>
       </c>
       <c r="E312">
-        <v>-18</v>
+        <v>-44.6</v>
       </c>
       <c r="F312">
-        <v>-56.2</v>
+        <v>-78.9</v>
       </c>
       <c r="G312">
         <v>-1.19</v>
@@ -11591,16 +11591,16 @@
         <v>321</v>
       </c>
       <c r="C313">
-        <v>-29.6</v>
+        <v>-34</v>
       </c>
       <c r="D313">
-        <v>-10.2</v>
+        <v>-21.9</v>
       </c>
       <c r="E313">
-        <v>-25.3</v>
+        <v>-50.4</v>
       </c>
       <c r="F313">
-        <v>-62</v>
+        <v>-80.9</v>
       </c>
       <c r="G313">
         <v>-1.3</v>
@@ -11623,16 +11623,16 @@
         <v>322</v>
       </c>
       <c r="C314">
-        <v>-52.9</v>
+        <v>-55.1</v>
       </c>
       <c r="D314">
-        <v>-43.8</v>
+        <v>-47.5</v>
       </c>
       <c r="E314">
-        <v>-43.4</v>
+        <v>-52</v>
       </c>
       <c r="F314">
-        <v>-72.9</v>
+        <v>-80.9</v>
       </c>
       <c r="G314">
         <v>-1.4</v>
@@ -11655,16 +11655,16 @@
         <v>323</v>
       </c>
       <c r="C315">
-        <v>-21.4</v>
+        <v>-26.8</v>
       </c>
       <c r="D315">
-        <v>-16</v>
+        <v>-27.8</v>
       </c>
       <c r="E315">
-        <v>-28.7</v>
+        <v>-49.3</v>
       </c>
       <c r="F315">
-        <v>-71.7</v>
+        <v>-86.6</v>
       </c>
       <c r="G315">
         <v>-0.62</v>
@@ -11687,16 +11687,16 @@
         <v>324</v>
       </c>
       <c r="C316">
-        <v>-29.3</v>
+        <v>-36.1</v>
       </c>
       <c r="D316">
-        <v>-39.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E316">
-        <v>-45.1</v>
+        <v>-55.9</v>
       </c>
       <c r="F316">
-        <v>-95.8</v>
+        <v>-93.8</v>
       </c>
       <c r="G316">
         <v>-1.7</v>
@@ -11719,16 +11719,16 @@
         <v>325</v>
       </c>
       <c r="C317">
-        <v>-25.5</v>
+        <v>-30.2</v>
       </c>
       <c r="D317">
-        <v>-7.3</v>
+        <v>-16.6</v>
       </c>
       <c r="E317">
-        <v>-6.4</v>
+        <v>-34.7</v>
       </c>
       <c r="F317">
-        <v>-61.1</v>
+        <v>-74.4</v>
       </c>
       <c r="G317">
         <v>-2</v>
@@ -11751,16 +11751,16 @@
         <v>326</v>
       </c>
       <c r="C318">
-        <v>-26</v>
+        <v>-30.7</v>
       </c>
       <c r="D318">
-        <v>-10.7</v>
+        <v>-20.3</v>
       </c>
       <c r="E318">
-        <v>-14</v>
+        <v>-39.1</v>
       </c>
       <c r="F318">
-        <v>-76.8</v>
+        <v>-81.6</v>
       </c>
       <c r="G318">
         <v>-1.58</v>
@@ -11783,16 +11783,16 @@
         <v>327</v>
       </c>
       <c r="C319">
-        <v>-48.5</v>
+        <v>-52.4</v>
       </c>
       <c r="D319">
-        <v>-43.8</v>
+        <v>-46</v>
       </c>
       <c r="E319">
-        <v>-42.3</v>
+        <v>-47.5</v>
       </c>
       <c r="F319">
-        <v>-77.1</v>
+        <v>-74.4</v>
       </c>
       <c r="G319">
         <v>-1.39</v>
@@ -11815,16 +11815,16 @@
         <v>328</v>
       </c>
       <c r="C320">
-        <v>-17.2</v>
+        <v>-21</v>
       </c>
       <c r="D320">
-        <v>-17.5</v>
+        <v>-31.6</v>
       </c>
       <c r="E320">
-        <v>-31.6</v>
+        <v>-49.7</v>
       </c>
       <c r="F320">
-        <v>-77.8</v>
+        <v>-92.6</v>
       </c>
       <c r="G320">
         <v>-0.91</v>
@@ -11847,16 +11847,16 @@
         <v>329</v>
       </c>
       <c r="C321">
-        <v>-24</v>
+        <v>-29.9</v>
       </c>
       <c r="D321">
-        <v>-40.2</v>
+        <v>-49.7</v>
       </c>
       <c r="E321">
-        <v>-40.7</v>
+        <v>-61</v>
       </c>
       <c r="F321">
-        <v>-96.8</v>
+        <v>-98.1</v>
       </c>
       <c r="G321">
         <v>-3.27</v>
@@ -11879,16 +11879,16 @@
         <v>330</v>
       </c>
       <c r="C322">
-        <v>-31.1</v>
+        <v>-35.3</v>
       </c>
       <c r="D322">
-        <v>-39</v>
+        <v>-46.9</v>
       </c>
       <c r="E322">
-        <v>-37.7</v>
+        <v>-53.5</v>
       </c>
       <c r="F322">
-        <v>-73.8</v>
+        <v>-96.6</v>
       </c>
       <c r="G322">
         <v>-2.17</v>
@@ -11911,16 +11911,16 @@
         <v>331</v>
       </c>
       <c r="C323">
-        <v>-47.5</v>
+        <v>-48.3</v>
       </c>
       <c r="D323">
-        <v>-41.7</v>
+        <v>-44.8</v>
       </c>
       <c r="E323">
-        <v>-56.9</v>
+        <v>-56</v>
       </c>
       <c r="F323">
-        <v>-84.3</v>
+        <v>-80.5</v>
       </c>
       <c r="G323">
         <v>-2.25</v>
@@ -11943,16 +11943,16 @@
         <v>332</v>
       </c>
       <c r="C324">
-        <v>-18.1</v>
+        <v>-22.8</v>
       </c>
       <c r="D324">
-        <v>-26</v>
+        <v>-35.1</v>
       </c>
       <c r="E324">
-        <v>-25.3</v>
+        <v>-45.4</v>
       </c>
       <c r="F324">
-        <v>-61.6</v>
+        <v>-96.2</v>
       </c>
       <c r="G324">
         <v>-2.26</v>
@@ -11975,16 +11975,16 @@
         <v>333</v>
       </c>
       <c r="C325">
-        <v>-35.5</v>
+        <v>-38.1</v>
       </c>
       <c r="D325">
-        <v>-27.6</v>
+        <v>-36.1</v>
       </c>
       <c r="E325">
-        <v>-38.2</v>
+        <v>-48.5</v>
       </c>
       <c r="F325">
-        <v>-93.8</v>
+        <v>-92.5</v>
       </c>
       <c r="G325">
         <v>-1.6</v>
@@ -12007,16 +12007,16 @@
         <v>334</v>
       </c>
       <c r="C326">
-        <v>-49.4</v>
+        <v>-49.3</v>
       </c>
       <c r="D326">
-        <v>-44.6</v>
+        <v>-46.8</v>
       </c>
       <c r="E326">
-        <v>-53.5</v>
+        <v>-51.2</v>
       </c>
       <c r="F326">
-        <v>-80.3</v>
+        <v>-72.4</v>
       </c>
       <c r="G326">
         <v>-2.02</v>
@@ -12039,16 +12039,16 @@
         <v>335</v>
       </c>
       <c r="C327">
-        <v>-49.1</v>
+        <v>-48.5</v>
       </c>
       <c r="D327">
-        <v>-36.8</v>
+        <v>-42</v>
       </c>
       <c r="E327">
-        <v>-43.3</v>
+        <v>-48.5</v>
       </c>
       <c r="F327">
-        <v>-85.9</v>
+        <v>-74.3</v>
       </c>
       <c r="G327">
         <v>-2.09</v>
@@ -12071,16 +12071,16 @@
         <v>336</v>
       </c>
       <c r="C328">
-        <v>-31.1</v>
+        <v>-35</v>
       </c>
       <c r="D328">
-        <v>-38</v>
+        <v>-45.8</v>
       </c>
       <c r="E328">
-        <v>-34.5</v>
+        <v>-49</v>
       </c>
       <c r="F328">
-        <v>-63.9</v>
+        <v>-92.9</v>
       </c>
       <c r="G328">
         <v>-2.62</v>
@@ -12103,16 +12103,16 @@
         <v>337</v>
       </c>
       <c r="C329">
-        <v>-5.9</v>
+        <v>-11.8</v>
       </c>
       <c r="D329">
-        <v>-12.3</v>
+        <v>-24.7</v>
       </c>
       <c r="E329">
-        <v>-16</v>
+        <v>-41.7</v>
       </c>
       <c r="F329">
-        <v>-65.9</v>
+        <v>-96.7</v>
       </c>
       <c r="G329">
         <v>-1.78</v>
@@ -12135,16 +12135,16 @@
         <v>338</v>
       </c>
       <c r="C330">
-        <v>-7.9</v>
+        <v>-12.9</v>
       </c>
       <c r="D330">
-        <v>-18</v>
+        <v>-27.3</v>
       </c>
       <c r="E330">
-        <v>-19.7</v>
+        <v>-39.8</v>
       </c>
       <c r="F330">
-        <v>-72.8</v>
+        <v>-89.2</v>
       </c>
       <c r="G330">
         <v>-1.46</v>
@@ -12167,16 +12167,16 @@
         <v>339</v>
       </c>
       <c r="C331">
-        <v>-24.7</v>
+        <v>-30.2</v>
       </c>
       <c r="D331">
-        <v>-38.2</v>
+        <v>-47.5</v>
       </c>
       <c r="E331">
-        <v>-33</v>
+        <v>-53</v>
       </c>
       <c r="F331">
-        <v>-93.5</v>
+        <v>-96.6</v>
       </c>
       <c r="G331">
         <v>-3.27</v>
@@ -12199,16 +12199,16 @@
         <v>340</v>
       </c>
       <c r="C332">
-        <v>-25.4</v>
+        <v>-32</v>
       </c>
       <c r="D332">
-        <v>-45.1</v>
+        <v>-53.6</v>
       </c>
       <c r="E332">
-        <v>-41.2</v>
+        <v>-61</v>
       </c>
       <c r="F332">
-        <v>-96.8</v>
+        <v>-99.1</v>
       </c>
       <c r="G332">
         <v>-3.1</v>
@@ -12231,16 +12231,16 @@
         <v>341</v>
       </c>
       <c r="C333">
-        <v>-21.8</v>
+        <v>-28.5</v>
       </c>
       <c r="D333">
-        <v>-39</v>
+        <v>-47.1</v>
       </c>
       <c r="E333">
-        <v>-37.5</v>
+        <v>-45.8</v>
       </c>
       <c r="F333">
-        <v>-92.4</v>
+        <v>-92</v>
       </c>
       <c r="G333">
         <v>-1.95</v>
@@ -12263,16 +12263,16 @@
         <v>342</v>
       </c>
       <c r="C334">
-        <v>-38.9</v>
+        <v>-42.1</v>
       </c>
       <c r="D334">
-        <v>-39.9</v>
+        <v>-48.8</v>
       </c>
       <c r="E334">
-        <v>-47.5</v>
+        <v>-57.2</v>
       </c>
       <c r="F334">
-        <v>-93.6</v>
+        <v>-90.5</v>
       </c>
       <c r="G334">
         <v>-1.76</v>
@@ -12295,16 +12295,16 @@
         <v>343</v>
       </c>
       <c r="C335">
-        <v>-40.7</v>
+        <v>-43.9</v>
       </c>
       <c r="D335">
-        <v>-42</v>
+        <v>-51.4</v>
       </c>
       <c r="E335">
-        <v>-47.3</v>
+        <v>-58.3</v>
       </c>
       <c r="F335">
-        <v>-91</v>
+        <v>-91.1</v>
       </c>
       <c r="G335">
         <v>-1.94</v>
@@ -12327,16 +12327,16 @@
         <v>344</v>
       </c>
       <c r="C336">
-        <v>-23.8</v>
+        <v>-28.9</v>
       </c>
       <c r="D336">
-        <v>-38.9</v>
+        <v>-48.6</v>
       </c>
       <c r="E336">
-        <v>-39.2</v>
+        <v>-50.6</v>
       </c>
       <c r="F336">
-        <v>-90.5</v>
+        <v>-94.6</v>
       </c>
       <c r="G336">
         <v>-2.14</v>
@@ -12359,16 +12359,16 @@
         <v>345</v>
       </c>
       <c r="C337">
-        <v>-52.1</v>
+        <v>-52.6</v>
       </c>
       <c r="D337">
-        <v>-43.3</v>
+        <v>-47.5</v>
       </c>
       <c r="E337">
-        <v>-54.7</v>
+        <v>-61</v>
       </c>
       <c r="F337">
-        <v>-73.2</v>
+        <v>-84.6</v>
       </c>
       <c r="G337">
         <v>-2.14</v>
@@ -12391,16 +12391,16 @@
         <v>346</v>
       </c>
       <c r="C338">
-        <v>-50.5</v>
+        <v>-49.7</v>
       </c>
       <c r="D338">
-        <v>-42.1</v>
+        <v>-47.3</v>
       </c>
       <c r="E338">
-        <v>-55.8</v>
+        <v>-62.3</v>
       </c>
       <c r="F338">
-        <v>-83.7</v>
+        <v>-80.4</v>
       </c>
       <c r="G338">
         <v>-2.03</v>
@@ -12423,16 +12423,16 @@
         <v>347</v>
       </c>
       <c r="C339">
-        <v>-43.6</v>
+        <v>-43.1</v>
       </c>
       <c r="D339">
-        <v>-38.7</v>
+        <v>-45.7</v>
       </c>
       <c r="E339">
-        <v>-49.1</v>
+        <v>-59.2</v>
       </c>
       <c r="F339">
-        <v>-85.7</v>
+        <v>-81.4</v>
       </c>
       <c r="G339">
         <v>-1.84</v>
@@ -12455,16 +12455,16 @@
         <v>348</v>
       </c>
       <c r="C340">
-        <v>-54.7</v>
+        <v>-54.3</v>
       </c>
       <c r="D340">
-        <v>-43.1</v>
+        <v>-50</v>
       </c>
       <c r="E340">
-        <v>-52</v>
+        <v>-62.9</v>
       </c>
       <c r="F340">
-        <v>-87.8</v>
+        <v>-81.5</v>
       </c>
       <c r="G340">
         <v>-2.02</v>
@@ -12487,16 +12487,16 @@
         <v>349</v>
       </c>
       <c r="C341">
-        <v>-15.2</v>
+        <v>-20.1</v>
       </c>
       <c r="D341">
-        <v>-32.8</v>
+        <v>-45.5</v>
       </c>
       <c r="E341">
-        <v>-35.4</v>
+        <v>-56.5</v>
       </c>
       <c r="F341">
-        <v>-98.5</v>
+        <v>-97.1</v>
       </c>
       <c r="G341">
         <v>-3.11</v>
@@ -12519,16 +12519,16 @@
         <v>350</v>
       </c>
       <c r="C342">
-        <v>-12.5</v>
+        <v>-17.1</v>
       </c>
       <c r="D342">
-        <v>-27.3</v>
+        <v>-41.7</v>
       </c>
       <c r="E342">
-        <v>-36.4</v>
+        <v>-55.9</v>
       </c>
       <c r="F342">
-        <v>-97.4</v>
+        <v>-95.9</v>
       </c>
       <c r="G342">
         <v>-3.15</v>
@@ -12551,16 +12551,16 @@
         <v>351</v>
       </c>
       <c r="C343">
-        <v>-32.4</v>
+        <v>-40.3</v>
       </c>
       <c r="D343">
-        <v>-37.4</v>
+        <v>-44.4</v>
       </c>
       <c r="E343">
-        <v>-35.2</v>
+        <v>-41.4</v>
       </c>
       <c r="F343">
-        <v>-94.2</v>
+        <v>-91</v>
       </c>
       <c r="G343">
         <v>-2.17</v>
@@ -12583,16 +12583,16 @@
         <v>352</v>
       </c>
       <c r="C344">
-        <v>-42.3</v>
+        <v>-44.7</v>
       </c>
       <c r="D344">
-        <v>-40.4</v>
+        <v>-50.5</v>
       </c>
       <c r="E344">
-        <v>-48.6</v>
+        <v>-59.3</v>
       </c>
       <c r="F344">
-        <v>-91.7</v>
+        <v>-92.3</v>
       </c>
       <c r="G344">
         <v>-1.92</v>
@@ -12615,16 +12615,16 @@
         <v>353</v>
       </c>
       <c r="C345">
-        <v>-42.8</v>
+        <v>-45.3</v>
       </c>
       <c r="D345">
-        <v>-41.6</v>
+        <v>-51.7</v>
       </c>
       <c r="E345">
-        <v>-48.2</v>
+        <v>-59.4</v>
       </c>
       <c r="F345">
-        <v>-91.2</v>
+        <v>-92.1</v>
       </c>
       <c r="G345">
         <v>-1.93</v>
@@ -12647,16 +12647,16 @@
         <v>354</v>
       </c>
       <c r="C346">
-        <v>-49.4</v>
+        <v>-51.6</v>
       </c>
       <c r="D346">
-        <v>-45</v>
+        <v>-52.4</v>
       </c>
       <c r="E346">
-        <v>-56.2</v>
+        <v>-64.6</v>
       </c>
       <c r="F346">
-        <v>-87.2</v>
+        <v>-88.5</v>
       </c>
       <c r="G346">
         <v>-1.83</v>
@@ -12679,16 +12679,16 @@
         <v>355</v>
       </c>
       <c r="C347">
-        <v>-49.8</v>
+        <v>-52.2</v>
       </c>
       <c r="D347">
-        <v>-46.2</v>
+        <v>-55.3</v>
       </c>
       <c r="E347">
-        <v>-46.7</v>
+        <v>-61.4</v>
       </c>
       <c r="F347">
-        <v>-87.6</v>
+        <v>-91.7</v>
       </c>
       <c r="G347">
         <v>-1.65</v>
@@ -12711,16 +12711,16 @@
         <v>356</v>
       </c>
       <c r="C348">
-        <v>-33.5</v>
+        <v>-36.4</v>
       </c>
       <c r="D348">
-        <v>-23</v>
+        <v>-34.8</v>
       </c>
       <c r="E348">
-        <v>-25.7</v>
+        <v>-42</v>
       </c>
       <c r="F348">
-        <v>-84.9</v>
+        <v>-90</v>
       </c>
       <c r="G348">
         <v>-1.64</v>
@@ -12743,16 +12743,16 @@
         <v>357</v>
       </c>
       <c r="C349">
-        <v>-37.7</v>
+        <v>-39.8</v>
       </c>
       <c r="D349">
-        <v>-26</v>
+        <v>-36.4</v>
       </c>
       <c r="E349">
-        <v>-32.7</v>
+        <v>-49</v>
       </c>
       <c r="F349">
-        <v>-85.6</v>
+        <v>-89.4</v>
       </c>
       <c r="G349">
         <v>-1.61</v>
@@ -12775,16 +12775,16 @@
         <v>358</v>
       </c>
       <c r="C350">
-        <v>-40.6</v>
+        <v>-43.3</v>
       </c>
       <c r="D350">
-        <v>-31.9</v>
+        <v>-42.9</v>
       </c>
       <c r="E350">
-        <v>-35.3</v>
+        <v>-52.4</v>
       </c>
       <c r="F350">
-        <v>-87.5</v>
+        <v>-92.2</v>
       </c>
       <c r="G350">
         <v>-1.46</v>
@@ -12807,16 +12807,16 @@
         <v>359</v>
       </c>
       <c r="C351">
-        <v>-47.3</v>
+        <v>-49.6</v>
       </c>
       <c r="D351">
-        <v>-41.3</v>
+        <v>-51.4</v>
       </c>
       <c r="E351">
-        <v>-49.9</v>
+        <v>-61.3</v>
       </c>
       <c r="F351">
-        <v>-81.7</v>
+        <v>-92.8</v>
       </c>
       <c r="G351">
         <v>-1.18</v>
@@ -12839,16 +12839,16 @@
         <v>360</v>
       </c>
       <c r="C352">
-        <v>-13.3</v>
+        <v>-19.3</v>
       </c>
       <c r="D352">
-        <v>-26.5</v>
+        <v>-37.5</v>
       </c>
       <c r="E352">
-        <v>-36.3</v>
+        <v>-50.8</v>
       </c>
       <c r="F352">
-        <v>-92.1</v>
+        <v>-89.2</v>
       </c>
       <c r="G352">
         <v>-1.87</v>
@@ -12871,16 +12871,16 @@
         <v>361</v>
       </c>
       <c r="C353">
-        <v>-20.8</v>
+        <v>-22.8</v>
       </c>
       <c r="D353">
-        <v>-11.1</v>
+        <v>-23.6</v>
       </c>
       <c r="E353">
-        <v>-21.5</v>
+        <v>-39.1</v>
       </c>
       <c r="F353">
-        <v>-88.6</v>
+        <v>-87.1</v>
       </c>
       <c r="G353">
         <v>-1.69</v>
@@ -12903,16 +12903,16 @@
         <v>362</v>
       </c>
       <c r="C354">
-        <v>-16.3</v>
+        <v>-21.1</v>
       </c>
       <c r="D354">
-        <v>-24.5</v>
+        <v>-37</v>
       </c>
       <c r="E354">
-        <v>-30.2</v>
+        <v>-50.1</v>
       </c>
       <c r="F354">
-        <v>-95.3</v>
+        <v>-89.9</v>
       </c>
       <c r="G354">
         <v>-2.62</v>
@@ -12935,16 +12935,16 @@
         <v>363</v>
       </c>
       <c r="C355">
-        <v>-9.4</v>
+        <v>-14.7</v>
       </c>
       <c r="D355">
-        <v>-18.9</v>
+        <v>-31</v>
       </c>
       <c r="E355">
-        <v>-32.5</v>
+        <v>-47.5</v>
       </c>
       <c r="F355">
-        <v>-91</v>
+        <v>-88.5</v>
       </c>
       <c r="G355">
         <v>-1.97</v>
@@ -12967,16 +12967,16 @@
         <v>364</v>
       </c>
       <c r="C356">
-        <v>-42.7</v>
+        <v>-46</v>
       </c>
       <c r="D356">
-        <v>-38.9</v>
+        <v>-50.5</v>
       </c>
       <c r="E356">
-        <v>-51.4</v>
+        <v>-63.9</v>
       </c>
       <c r="F356">
-        <v>-77.6</v>
+        <v>-93.2</v>
       </c>
       <c r="G356">
         <v>-1.01</v>
@@ -12999,16 +12999,16 @@
         <v>365</v>
       </c>
       <c r="C357">
-        <v>-50.7</v>
+        <v>-52.9</v>
       </c>
       <c r="D357">
-        <v>-39.9</v>
+        <v>-51.6</v>
       </c>
       <c r="E357">
-        <v>-52.6</v>
+        <v>-64.1</v>
       </c>
       <c r="F357">
-        <v>-76.5</v>
+        <v>-92.8</v>
       </c>
       <c r="G357">
         <v>-1.04</v>
@@ -13031,16 +13031,16 @@
         <v>366</v>
       </c>
       <c r="C358">
-        <v>-14</v>
+        <v>-17.3</v>
       </c>
       <c r="D358">
-        <v>-0.1</v>
+        <v>-10.2</v>
       </c>
       <c r="E358">
-        <v>-1</v>
+        <v>-19.9</v>
       </c>
       <c r="F358">
-        <v>-86</v>
+        <v>-86.4</v>
       </c>
       <c r="G358">
         <v>-1.85</v>
@@ -13063,16 +13063,16 @@
         <v>367</v>
       </c>
       <c r="C359">
-        <v>-10.4</v>
+        <v>-15.3</v>
       </c>
       <c r="D359">
-        <v>-26.2</v>
+        <v>-37.9</v>
       </c>
       <c r="E359">
-        <v>-28.2</v>
+        <v>-45.1</v>
       </c>
       <c r="F359">
-        <v>-89.9</v>
+        <v>-91.8</v>
       </c>
       <c r="G359">
         <v>-1.64</v>
@@ -13095,16 +13095,16 @@
         <v>368</v>
       </c>
       <c r="C360">
-        <v>-12.4</v>
+        <v>-14.6</v>
       </c>
       <c r="D360">
-        <v>12.3</v>
+        <v>-0.5</v>
       </c>
       <c r="E360">
-        <v>5.1</v>
+        <v>-18.9</v>
       </c>
       <c r="F360">
-        <v>-84.8</v>
+        <v>-84.5</v>
       </c>
       <c r="G360">
         <v>-1.8</v>
@@ -13127,16 +13127,16 @@
         <v>369</v>
       </c>
       <c r="C361">
-        <v>-16.8</v>
+        <v>-19.8</v>
       </c>
       <c r="D361">
-        <v>8.3</v>
+        <v>-7.2</v>
       </c>
       <c r="E361">
-        <v>3.6</v>
+        <v>-27.2</v>
       </c>
       <c r="F361">
-        <v>-72.4</v>
+        <v>-88</v>
       </c>
       <c r="G361">
         <v>-1.83</v>
@@ -13159,16 +13159,16 @@
         <v>370</v>
       </c>
       <c r="C362">
-        <v>-21.4</v>
+        <v>-23.9</v>
       </c>
       <c r="D362">
-        <v>0.5</v>
+        <v>-13.5</v>
       </c>
       <c r="E362">
-        <v>-9.9</v>
+        <v>-35.2</v>
       </c>
       <c r="F362">
-        <v>-80.4</v>
+        <v>-86.7</v>
       </c>
       <c r="G362">
         <v>-1.75</v>
@@ -13191,16 +13191,16 @@
         <v>371</v>
       </c>
       <c r="C363">
-        <v>-11.6</v>
+        <v>-17</v>
       </c>
       <c r="D363">
-        <v>-17.7</v>
+        <v>-31.1</v>
       </c>
       <c r="E363">
-        <v>-29.3</v>
+        <v>-48.2</v>
       </c>
       <c r="F363">
-        <v>-87</v>
+        <v>-89</v>
       </c>
       <c r="G363">
         <v>-2.28</v>
@@ -13223,16 +13223,16 @@
         <v>372</v>
       </c>
       <c r="C364">
-        <v>-6.4</v>
+        <v>-11.8</v>
       </c>
       <c r="D364">
-        <v>-9.8</v>
+        <v>-24.8</v>
       </c>
       <c r="E364">
-        <v>-26.9</v>
+        <v>-45.2</v>
       </c>
       <c r="F364">
-        <v>-86.1</v>
+        <v>-88.4</v>
       </c>
       <c r="G364">
         <v>-2.03</v>
@@ -13255,16 +13255,16 @@
         <v>373</v>
       </c>
       <c r="C365">
-        <v>-0.6</v>
+        <v>-6.4</v>
       </c>
       <c r="D365">
-        <v>-5.4</v>
+        <v>-21.4</v>
       </c>
       <c r="E365">
-        <v>-25.1</v>
+        <v>-43.1</v>
       </c>
       <c r="F365">
-        <v>-84.8</v>
+        <v>-87.1</v>
       </c>
       <c r="G365">
         <v>-1.86</v>
@@ -13287,16 +13287,16 @@
         <v>374</v>
       </c>
       <c r="C366">
-        <v>-1.6</v>
+        <v>-7.5</v>
       </c>
       <c r="D366">
-        <v>-10.7</v>
+        <v>-25.6</v>
       </c>
       <c r="E366">
-        <v>-27.2</v>
+        <v>-43.5</v>
       </c>
       <c r="F366">
-        <v>-86.4</v>
+        <v>-87.1</v>
       </c>
       <c r="G366">
         <v>-1.76</v>
@@ -13319,16 +13319,16 @@
         <v>375</v>
       </c>
       <c r="C367">
-        <v>-2.2</v>
+        <v>-6.8</v>
       </c>
       <c r="D367">
-        <v>-9.2</v>
+        <v>-23.1</v>
       </c>
       <c r="E367">
-        <v>-20</v>
+        <v>-44.2</v>
       </c>
       <c r="F367">
-        <v>-89.9</v>
+        <v>-89.2</v>
       </c>
       <c r="G367">
         <v>-1.76</v>
@@ -13351,16 +13351,16 @@
         <v>376</v>
       </c>
       <c r="C368">
-        <v>-21.2</v>
+        <v>-26.4</v>
       </c>
       <c r="D368">
-        <v>-14.6</v>
+        <v>-23.9</v>
       </c>
       <c r="E368">
-        <v>-23.5</v>
+        <v>-46.6</v>
       </c>
       <c r="F368">
-        <v>-77.2</v>
+        <v>-93.6</v>
       </c>
       <c r="G368">
         <v>-1.49</v>
@@ -13383,16 +13383,16 @@
         <v>377</v>
       </c>
       <c r="C369">
-        <v>-17.5</v>
+        <v>-24.1</v>
       </c>
       <c r="D369">
-        <v>-12.9</v>
+        <v>-22</v>
       </c>
       <c r="E369">
-        <v>-27</v>
+        <v>-60.8</v>
       </c>
       <c r="F369">
-        <v>-71.7</v>
+        <v>-89</v>
       </c>
       <c r="G369">
         <v>-1.43</v>
@@ -13415,16 +13415,16 @@
         <v>378</v>
       </c>
       <c r="C370">
-        <v>-17.2</v>
+        <v>-22.3</v>
       </c>
       <c r="D370">
-        <v>-13.8</v>
+        <v>-24.1</v>
       </c>
       <c r="E370">
-        <v>-29.5</v>
+        <v>-62.5</v>
       </c>
       <c r="F370">
-        <v>-75.4</v>
+        <v>-86.1</v>
       </c>
       <c r="G370">
         <v>-1.6</v>
@@ -13447,16 +13447,16 @@
         <v>379</v>
       </c>
       <c r="C371">
-        <v>-11.2</v>
+        <v>-20.7</v>
       </c>
       <c r="D371">
-        <v>-8.3</v>
+        <v>-17.2</v>
       </c>
       <c r="E371">
-        <v>-25.3</v>
+        <v>-57.4</v>
       </c>
       <c r="F371">
-        <v>-76</v>
+        <v>-88.2</v>
       </c>
       <c r="G371">
         <v>-1.03</v>
@@ -13479,16 +13479,16 @@
         <v>380</v>
       </c>
       <c r="C372">
-        <v>-32.1</v>
+        <v>-39.5</v>
       </c>
       <c r="D372">
-        <v>-44.5</v>
+        <v>-52.5</v>
       </c>
       <c r="E372">
-        <v>-63.8</v>
+        <v>-72.2</v>
       </c>
       <c r="F372">
-        <v>-76.3</v>
+        <v>-88.4</v>
       </c>
       <c r="G372">
         <v>-1.77</v>
@@ -13511,16 +13511,16 @@
         <v>381</v>
       </c>
       <c r="C373">
-        <v>-43</v>
+        <v>-49.2</v>
       </c>
       <c r="D373">
-        <v>-45.3</v>
+        <v>-53.3</v>
       </c>
       <c r="E373">
-        <v>-63.9</v>
+        <v>-74.3</v>
       </c>
       <c r="F373">
-        <v>-79.3</v>
+        <v>-90.4</v>
       </c>
       <c r="G373">
         <v>-1.3</v>
@@ -13543,16 +13543,16 @@
         <v>382</v>
       </c>
       <c r="C374">
-        <v>-53.5</v>
+        <v>-54.2</v>
       </c>
       <c r="D374">
-        <v>-41.8</v>
+        <v>-44.4</v>
       </c>
       <c r="E374">
-        <v>-46</v>
+        <v>-45.9</v>
       </c>
       <c r="F374">
-        <v>-64.4</v>
+        <v>-75.6</v>
       </c>
       <c r="G374">
         <v>-1.27</v>
@@ -13575,16 +13575,16 @@
         <v>383</v>
       </c>
       <c r="C375">
-        <v>-50.6</v>
+        <v>-51.3</v>
       </c>
       <c r="D375">
-        <v>-55.1</v>
+        <v>-51.4</v>
       </c>
       <c r="E375">
-        <v>-53.1</v>
+        <v>-56.6</v>
       </c>
       <c r="F375">
-        <v>-76.7</v>
+        <v>-74.9</v>
       </c>
       <c r="G375">
         <v>-1.31</v>
@@ -13607,16 +13607,16 @@
         <v>384</v>
       </c>
       <c r="C376">
-        <v>-33</v>
+        <v>-35.1</v>
       </c>
       <c r="D376">
-        <v>-19.6</v>
+        <v>-29.9</v>
       </c>
       <c r="E376">
-        <v>-26.9</v>
+        <v>-44.8</v>
       </c>
       <c r="F376">
-        <v>-83.1</v>
+        <v>-86.3</v>
       </c>
       <c r="G376">
         <v>-1.68</v>
@@ -13639,16 +13639,16 @@
         <v>385</v>
       </c>
       <c r="C377">
-        <v>-51</v>
+        <v>-52</v>
       </c>
       <c r="D377">
-        <v>-48.1</v>
+        <v>-56.5</v>
       </c>
       <c r="E377">
-        <v>-54.6</v>
+        <v>-65.1</v>
       </c>
       <c r="F377">
-        <v>-85.1</v>
+        <v>-91.1</v>
       </c>
       <c r="G377">
         <v>-1.51</v>
@@ -13671,16 +13671,16 @@
         <v>386</v>
       </c>
       <c r="C378">
-        <v>-14.4</v>
+        <v>-22.6</v>
       </c>
       <c r="D378">
-        <v>-9.8</v>
+        <v>-22</v>
       </c>
       <c r="E378">
-        <v>-16.3</v>
+        <v>-44.7</v>
       </c>
       <c r="F378">
-        <v>-78.2</v>
+        <v>-90.2</v>
       </c>
       <c r="G378">
         <v>-0.78</v>
@@ -13703,16 +13703,16 @@
         <v>387</v>
       </c>
       <c r="C379">
-        <v>-43.1</v>
+        <v>-45.3</v>
       </c>
       <c r="D379">
-        <v>-42.7</v>
+        <v>-48.8</v>
       </c>
       <c r="E379">
-        <v>-55.7</v>
+        <v>-63.2</v>
       </c>
       <c r="F379">
-        <v>-77.4</v>
+        <v>-83</v>
       </c>
       <c r="G379">
         <v>-1.28</v>
@@ -13735,16 +13735,16 @@
         <v>388</v>
       </c>
       <c r="C380">
-        <v>-27.6</v>
+        <v>-32.7</v>
       </c>
       <c r="D380">
-        <v>-33.7</v>
+        <v>-41.6</v>
       </c>
       <c r="E380">
-        <v>-26.9</v>
+        <v>-49.4</v>
       </c>
       <c r="F380">
-        <v>-81.1</v>
+        <v>-96.3</v>
       </c>
       <c r="G380">
         <v>-2.02</v>
@@ -13767,16 +13767,16 @@
         <v>389</v>
       </c>
       <c r="C381">
-        <v>-28.4</v>
+        <v>-33.9</v>
       </c>
       <c r="D381">
-        <v>-34.9</v>
+        <v>-43.3</v>
       </c>
       <c r="E381">
-        <v>-29.4</v>
+        <v>-49.8</v>
       </c>
       <c r="F381">
-        <v>-84.1</v>
+        <v>-95.9</v>
       </c>
       <c r="G381">
         <v>-2.02</v>
@@ -13799,16 +13799,16 @@
         <v>390</v>
       </c>
       <c r="C382">
-        <v>-25.2</v>
+        <v>-29</v>
       </c>
       <c r="D382">
-        <v>-26.2</v>
+        <v>-37</v>
       </c>
       <c r="E382">
-        <v>-21.7</v>
+        <v>-38.9</v>
       </c>
       <c r="F382">
-        <v>-95.4</v>
+        <v>-93.8</v>
       </c>
       <c r="G382">
         <v>-2.34</v>
@@ -13831,16 +13831,16 @@
         <v>391</v>
       </c>
       <c r="C383">
-        <v>-53.7</v>
+        <v>-54.4</v>
       </c>
       <c r="D383">
-        <v>-48.3</v>
+        <v>-57.1</v>
       </c>
       <c r="E383">
-        <v>-58.6</v>
+        <v>-67.6</v>
       </c>
       <c r="F383">
-        <v>-85.7</v>
+        <v>-90</v>
       </c>
       <c r="G383">
         <v>-1.16</v>
@@ -13863,16 +13863,16 @@
         <v>392</v>
       </c>
       <c r="C384">
-        <v>-31.3</v>
+        <v>-37.8</v>
       </c>
       <c r="D384">
-        <v>-42.8</v>
+        <v>-50.7</v>
       </c>
       <c r="E384">
-        <v>-41.8</v>
+        <v>-61.1</v>
       </c>
       <c r="F384">
-        <v>-96.6</v>
+        <v>-98.1</v>
       </c>
       <c r="G384">
         <v>-3.14</v>
@@ -13895,16 +13895,16 @@
         <v>393</v>
       </c>
       <c r="C385">
-        <v>-27.8</v>
+        <v>-33</v>
       </c>
       <c r="D385">
-        <v>-36.6</v>
+        <v>-45.5</v>
       </c>
       <c r="E385">
-        <v>-33.7</v>
+        <v>-49.3</v>
       </c>
       <c r="F385">
-        <v>-74.1</v>
+        <v>-96</v>
       </c>
       <c r="G385">
         <v>-2.08</v>
@@ -13927,16 +13927,16 @@
         <v>394</v>
       </c>
       <c r="C386">
-        <v>-15.9</v>
+        <v>-20</v>
       </c>
       <c r="D386">
-        <v>-12.8</v>
+        <v>-22.1</v>
       </c>
       <c r="E386">
-        <v>-39.6</v>
+        <v>-54.6</v>
       </c>
       <c r="F386">
-        <v>-65.2</v>
+        <v>-81</v>
       </c>
       <c r="G386">
         <v>-0.8</v>
@@ -13959,16 +13959,16 @@
         <v>395</v>
       </c>
       <c r="C387">
-        <v>-17.6</v>
+        <v>-22.5</v>
       </c>
       <c r="D387">
-        <v>-12.6</v>
+        <v>-23.4</v>
       </c>
       <c r="E387">
-        <v>-43.4</v>
+        <v>-64.3</v>
       </c>
       <c r="F387">
-        <v>-80.8</v>
+        <v>-83.7</v>
       </c>
       <c r="G387">
         <v>-1.61</v>
@@ -13991,16 +13991,16 @@
         <v>396</v>
       </c>
       <c r="C388">
-        <v>-16.9</v>
+        <v>-24.2</v>
       </c>
       <c r="D388">
-        <v>-14.7</v>
+        <v>-21.1</v>
       </c>
       <c r="E388">
-        <v>-33.8</v>
+        <v>-52.2</v>
       </c>
       <c r="F388">
-        <v>-72.8</v>
+        <v>-81</v>
       </c>
       <c r="G388">
         <v>-0.83</v>
@@ -14023,16 +14023,16 @@
         <v>397</v>
       </c>
       <c r="C389">
-        <v>-56.7</v>
+        <v>-57.8</v>
       </c>
       <c r="D389">
-        <v>-56.5</v>
+        <v>-63.7</v>
       </c>
       <c r="E389">
-        <v>-63.3</v>
+        <v>-72</v>
       </c>
       <c r="F389">
-        <v>-85.3</v>
+        <v>-91.3</v>
       </c>
       <c r="G389">
         <v>-1.34</v>
@@ -14055,16 +14055,16 @@
         <v>398</v>
       </c>
       <c r="C390">
-        <v>-51.3</v>
+        <v>-52.9</v>
       </c>
       <c r="D390">
-        <v>-46.6</v>
+        <v>-55.6</v>
       </c>
       <c r="E390">
-        <v>-45.5</v>
+        <v>-60.5</v>
       </c>
       <c r="F390">
-        <v>-87.5</v>
+        <v>-93.5</v>
       </c>
       <c r="G390">
         <v>-1.62</v>
@@ -14087,16 +14087,16 @@
         <v>399</v>
       </c>
       <c r="C391">
-        <v>-9.3</v>
+        <v>-18.3</v>
       </c>
       <c r="D391">
-        <v>-8.6</v>
+        <v>-17.5</v>
       </c>
       <c r="E391">
-        <v>-30.3</v>
+        <v>-52.7</v>
       </c>
       <c r="F391">
-        <v>-81.6</v>
+        <v>-86.8</v>
       </c>
       <c r="G391">
         <v>-1.04</v>
@@ -14119,16 +14119,16 @@
         <v>400</v>
       </c>
       <c r="C392">
-        <v>-20.6</v>
+        <v>-24.6</v>
       </c>
       <c r="D392">
-        <v>-18.3</v>
+        <v>-26.5</v>
       </c>
       <c r="E392">
-        <v>-39.4</v>
+        <v>-51</v>
       </c>
       <c r="F392">
-        <v>-69.5</v>
+        <v>-80.2</v>
       </c>
       <c r="G392">
         <v>-0.76</v>
@@ -14151,16 +14151,16 @@
         <v>401</v>
       </c>
       <c r="C393">
-        <v>-16</v>
+        <v>-21</v>
       </c>
       <c r="D393">
-        <v>-11.6</v>
+        <v>-21</v>
       </c>
       <c r="E393">
-        <v>-20.9</v>
+        <v>-38.8</v>
       </c>
       <c r="F393">
-        <v>-56.9</v>
+        <v>-77.5</v>
       </c>
       <c r="G393">
         <v>-0.72</v>
@@ -14183,16 +14183,16 @@
         <v>402</v>
       </c>
       <c r="C394">
-        <v>-16.6</v>
+        <v>-22</v>
       </c>
       <c r="D394">
-        <v>-26.4</v>
+        <v>-38.4</v>
       </c>
       <c r="E394">
-        <v>-31.9</v>
+        <v>-50.5</v>
       </c>
       <c r="F394">
-        <v>-94.6</v>
+        <v>-90.7</v>
       </c>
       <c r="G394">
         <v>-2.39</v>
@@ -14215,16 +14215,16 @@
         <v>403</v>
       </c>
       <c r="C395">
-        <v>-15.7</v>
+        <v>-19.1</v>
       </c>
       <c r="D395">
-        <v>-13.2</v>
+        <v>-23.9</v>
       </c>
       <c r="E395">
-        <v>-25.8</v>
+        <v>-42.8</v>
       </c>
       <c r="F395">
-        <v>-88.8</v>
+        <v>-89.8</v>
       </c>
       <c r="G395">
         <v>-1</v>
@@ -14247,16 +14247,16 @@
         <v>404</v>
       </c>
       <c r="C396">
-        <v>-29.4</v>
+        <v>-33</v>
       </c>
       <c r="D396">
-        <v>-31.2</v>
+        <v>-39.8</v>
       </c>
       <c r="E396">
-        <v>-36.4</v>
+        <v>-47</v>
       </c>
       <c r="F396">
-        <v>-90.8</v>
+        <v>-91.3</v>
       </c>
       <c r="G396">
         <v>-0.89</v>
@@ -14279,16 +14279,16 @@
         <v>405</v>
       </c>
       <c r="C397">
-        <v>-22.8</v>
+        <v>-27.8</v>
       </c>
       <c r="D397">
-        <v>-37.6</v>
+        <v>-48.3</v>
       </c>
       <c r="E397">
-        <v>-36.2</v>
+        <v>-58.9</v>
       </c>
       <c r="F397">
-        <v>-91.2</v>
+        <v>-98.4</v>
       </c>
       <c r="G397">
         <v>-3.32</v>
@@ -14311,16 +14311,16 @@
         <v>406</v>
       </c>
       <c r="C398">
-        <v>-23.5</v>
+        <v>-30.2</v>
       </c>
       <c r="D398">
-        <v>-35.2</v>
+        <v>-45.7</v>
       </c>
       <c r="E398">
-        <v>-39.3</v>
+        <v>-53.9</v>
       </c>
       <c r="F398">
-        <v>-94.1</v>
+        <v>-92.6</v>
       </c>
       <c r="G398">
         <v>-1.93</v>
@@ -14343,16 +14343,16 @@
         <v>407</v>
       </c>
       <c r="C399">
-        <v>-59</v>
+        <v>-59.9</v>
       </c>
       <c r="D399">
-        <v>-56</v>
+        <v>-62.4</v>
       </c>
       <c r="E399">
-        <v>-54.7</v>
+        <v>-66.5</v>
       </c>
       <c r="F399">
-        <v>-85.4</v>
+        <v>-93</v>
       </c>
       <c r="G399">
         <v>-1.65</v>
@@ -14375,16 +14375,16 @@
         <v>408</v>
       </c>
       <c r="C400">
-        <v>-18.6</v>
+        <v>-23.6</v>
       </c>
       <c r="D400">
-        <v>-26.2</v>
+        <v>-37.2</v>
       </c>
       <c r="E400">
-        <v>-21.7</v>
+        <v>-39.6</v>
       </c>
       <c r="F400">
-        <v>-89.2</v>
+        <v>-91.5</v>
       </c>
       <c r="G400">
         <v>-1.82</v>

--- a/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
+++ b/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
@@ -31,7 +31,7 @@
     <t>AN_TRI_202010</t>
   </si>
   <si>
-    <t>AN_20201010</t>
+    <t>AN_20201020</t>
   </si>
   <si>
     <t>SPI1_202009</t>
@@ -1645,10 +1645,10 @@
         <v>-47.3</v>
       </c>
       <c r="E2">
-        <v>-45.6</v>
+        <v>-45.5</v>
       </c>
       <c r="F2">
-        <v>-74.4</v>
+        <v>-74.2</v>
       </c>
       <c r="G2">
         <v>-1.64</v>
@@ -1671,16 +1671,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>-55.6</v>
+        <v>-55.4</v>
       </c>
       <c r="D3">
-        <v>-51.9</v>
+        <v>-51.4</v>
       </c>
       <c r="E3">
-        <v>-48.9</v>
+        <v>-48</v>
       </c>
       <c r="F3">
-        <v>-79.3</v>
+        <v>-77.1</v>
       </c>
       <c r="G3">
         <v>-1.69</v>
@@ -1703,16 +1703,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>-41.4</v>
+        <v>-41.2</v>
       </c>
       <c r="D4">
-        <v>-42.1</v>
+        <v>-41.8</v>
       </c>
       <c r="E4">
-        <v>-60.7</v>
+        <v>-60.2</v>
       </c>
       <c r="F4">
-        <v>-80.5</v>
+        <v>-79.5</v>
       </c>
       <c r="G4">
         <v>-1.18</v>
@@ -1735,16 +1735,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>-48.2</v>
+        <v>-47.9</v>
       </c>
       <c r="D5">
-        <v>-46.2</v>
+        <v>-45.6</v>
       </c>
       <c r="E5">
-        <v>-59.4</v>
+        <v>-58.5</v>
       </c>
       <c r="F5">
-        <v>-83.3</v>
+        <v>-81.2</v>
       </c>
       <c r="G5">
         <v>-0.98</v>
@@ -1767,16 +1767,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>-52</v>
+        <v>-51.8</v>
       </c>
       <c r="D6">
-        <v>-49.1</v>
+        <v>-48.5</v>
       </c>
       <c r="E6">
-        <v>-50.4</v>
+        <v>-49.3</v>
       </c>
       <c r="F6">
-        <v>-82.2</v>
+        <v>-79.6</v>
       </c>
       <c r="G6">
         <v>-2.1</v>
@@ -1799,16 +1799,16 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>-30.7</v>
+        <v>-26.3</v>
       </c>
       <c r="D7">
-        <v>-39.2</v>
+        <v>-29.7</v>
       </c>
       <c r="E7">
-        <v>-62.9</v>
+        <v>-45.1</v>
       </c>
       <c r="F7">
-        <v>-97.5</v>
+        <v>-62.3</v>
       </c>
       <c r="G7">
         <v>-1.56</v>
@@ -1831,16 +1831,16 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>-31.6</v>
+        <v>-29</v>
       </c>
       <c r="D8">
-        <v>-39.3</v>
+        <v>-33.7</v>
       </c>
       <c r="E8">
-        <v>-60.2</v>
+        <v>-49.6</v>
       </c>
       <c r="F8">
-        <v>-95.2</v>
+        <v>-74.3</v>
       </c>
       <c r="G8">
         <v>-1.2</v>
@@ -1863,16 +1863,16 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>-31.9</v>
+        <v>-30.7</v>
       </c>
       <c r="D9">
-        <v>-47.8</v>
+        <v>-44.6</v>
       </c>
       <c r="E9">
-        <v>-55</v>
+        <v>-49.2</v>
       </c>
       <c r="F9">
-        <v>-90.8</v>
+        <v>-78.7</v>
       </c>
       <c r="G9">
         <v>-1.66</v>
@@ -1895,16 +1895,16 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>-34</v>
+        <v>-33</v>
       </c>
       <c r="D10">
-        <v>-36.8</v>
+        <v>-34.5</v>
       </c>
       <c r="E10">
-        <v>-47.7</v>
+        <v>-43.1</v>
       </c>
       <c r="F10">
-        <v>-92</v>
+        <v>-82.2</v>
       </c>
       <c r="G10">
         <v>-1.06</v>
@@ -1927,16 +1927,16 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>-46.2</v>
+        <v>-45.7</v>
       </c>
       <c r="D11">
-        <v>-44</v>
+        <v>-42.9</v>
       </c>
       <c r="E11">
-        <v>-54</v>
+        <v>-51.8</v>
       </c>
       <c r="F11">
-        <v>-96.4</v>
+        <v>-91.9</v>
       </c>
       <c r="G11">
         <v>-2.22</v>
@@ -1959,16 +1959,16 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>-55.3</v>
+        <v>-55.2</v>
       </c>
       <c r="D12">
-        <v>-44</v>
+        <v>-43.9</v>
       </c>
       <c r="E12">
-        <v>-48.3</v>
+        <v>-48</v>
       </c>
       <c r="F12">
-        <v>-87</v>
+        <v>-86.3</v>
       </c>
       <c r="G12">
         <v>-1.3</v>
@@ -1991,16 +1991,16 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>-31.5</v>
+        <v>-30.4</v>
       </c>
       <c r="D13">
-        <v>-45.3</v>
+        <v>-42.7</v>
       </c>
       <c r="E13">
-        <v>-45.3</v>
+        <v>-40</v>
       </c>
       <c r="F13">
-        <v>-87.1</v>
+        <v>-75.5</v>
       </c>
       <c r="G13">
         <v>-1.07</v>
@@ -2023,16 +2023,16 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>-37.2</v>
+        <v>-36</v>
       </c>
       <c r="D14">
-        <v>-45.8</v>
+        <v>-43</v>
       </c>
       <c r="E14">
-        <v>-40.4</v>
+        <v>-34.8</v>
       </c>
       <c r="F14">
-        <v>-87</v>
+        <v>-74.5</v>
       </c>
       <c r="G14">
         <v>-1.43</v>
@@ -2055,16 +2055,16 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>-30</v>
+        <v>-28</v>
       </c>
       <c r="D15">
-        <v>-29.1</v>
+        <v>-23.6</v>
       </c>
       <c r="E15">
-        <v>-22.5</v>
+        <v>-12.3</v>
       </c>
       <c r="F15">
-        <v>-89.4</v>
+        <v>-67.5</v>
       </c>
       <c r="G15">
         <v>-2.02</v>
@@ -2087,16 +2087,16 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>-17.6</v>
+        <v>-15.2</v>
       </c>
       <c r="D16">
-        <v>-7.6</v>
+        <v>-0.5</v>
       </c>
       <c r="E16">
-        <v>-21.5</v>
+        <v>-9</v>
       </c>
       <c r="F16">
-        <v>-87</v>
+        <v>-60.5</v>
       </c>
       <c r="G16">
         <v>-1.9</v>
@@ -2119,16 +2119,16 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>-42.9</v>
+        <v>-41.7</v>
       </c>
       <c r="D17">
-        <v>-38.6</v>
+        <v>-36</v>
       </c>
       <c r="E17">
-        <v>-42.8</v>
+        <v>-37.8</v>
       </c>
       <c r="F17">
-        <v>-80.9</v>
+        <v>-69.8</v>
       </c>
       <c r="G17">
         <v>-2.66</v>
@@ -2151,16 +2151,16 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>-50</v>
+        <v>-49.5</v>
       </c>
       <c r="D18">
-        <v>-46.4</v>
+        <v>-45.2</v>
       </c>
       <c r="E18">
-        <v>-58.4</v>
+        <v>-56.1</v>
       </c>
       <c r="F18">
-        <v>-87.7</v>
+        <v>-82.6</v>
       </c>
       <c r="G18">
         <v>-2.28</v>
@@ -2183,16 +2183,16 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>-59.2</v>
+        <v>-58.9</v>
       </c>
       <c r="D19">
-        <v>-51.7</v>
+        <v>-50.7</v>
       </c>
       <c r="E19">
-        <v>-54.8</v>
+        <v>-52.8</v>
       </c>
       <c r="F19">
-        <v>-73.9</v>
+        <v>-69.8</v>
       </c>
       <c r="G19">
         <v>-2.29</v>
@@ -2215,16 +2215,16 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>-61.9</v>
+        <v>-61.7</v>
       </c>
       <c r="D20">
-        <v>-59.1</v>
+        <v>-58.7</v>
       </c>
       <c r="E20">
-        <v>-57.6</v>
+        <v>-56.7</v>
       </c>
       <c r="F20">
-        <v>-77.5</v>
+        <v>-75.4</v>
       </c>
       <c r="G20">
         <v>-2.55</v>
@@ -2247,16 +2247,16 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>-55.7</v>
+        <v>-54.7</v>
       </c>
       <c r="D21">
-        <v>-59.3</v>
+        <v>-56.9</v>
       </c>
       <c r="E21">
-        <v>-68.6</v>
+        <v>-64.4</v>
       </c>
       <c r="F21">
-        <v>-92.9</v>
+        <v>-84.6</v>
       </c>
       <c r="G21">
         <v>-1.09</v>
@@ -2279,16 +2279,16 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>-53.5</v>
+        <v>-52.7</v>
       </c>
       <c r="D22">
-        <v>-56.9</v>
+        <v>-54.9</v>
       </c>
       <c r="E22">
-        <v>-66.5</v>
+        <v>-63.1</v>
       </c>
       <c r="F22">
-        <v>-94</v>
+        <v>-87.1</v>
       </c>
       <c r="G22">
         <v>-1.03</v>
@@ -2311,16 +2311,16 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>-34.2</v>
+        <v>-29.7</v>
       </c>
       <c r="D23">
-        <v>-45.1</v>
+        <v>-35.4</v>
       </c>
       <c r="E23">
-        <v>-65.3</v>
+        <v>-47</v>
       </c>
       <c r="F23">
-        <v>-97.8</v>
+        <v>-60.5</v>
       </c>
       <c r="G23">
         <v>-1.89</v>
@@ -2343,16 +2343,16 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>-63.1</v>
+        <v>-62.9</v>
       </c>
       <c r="D24">
-        <v>-57.2</v>
+        <v>-56.6</v>
       </c>
       <c r="E24">
-        <v>-57.1</v>
+        <v>-56.1</v>
       </c>
       <c r="F24">
-        <v>-76.9</v>
+        <v>-74.7</v>
       </c>
       <c r="G24">
         <v>-2.45</v>
@@ -2375,16 +2375,16 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>-62.2</v>
+        <v>-61.9</v>
       </c>
       <c r="D25">
-        <v>-53.6</v>
+        <v>-52.8</v>
       </c>
       <c r="E25">
-        <v>-56</v>
+        <v>-54.7</v>
       </c>
       <c r="F25">
-        <v>-71.9</v>
+        <v>-68.8</v>
       </c>
       <c r="G25">
         <v>-2.67</v>
@@ -2407,16 +2407,16 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>-17</v>
+        <v>-14.7</v>
       </c>
       <c r="D26">
-        <v>-18.8</v>
+        <v>-13.7</v>
       </c>
       <c r="E26">
-        <v>-53.2</v>
+        <v>-43.9</v>
       </c>
       <c r="F26">
-        <v>-88.1</v>
+        <v>-69.4</v>
       </c>
       <c r="G26">
         <v>-1.08</v>
@@ -2439,16 +2439,16 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>-17.7</v>
+        <v>-15.1</v>
       </c>
       <c r="D27">
-        <v>-20.7</v>
+        <v>-14.9</v>
       </c>
       <c r="E27">
-        <v>-53</v>
+        <v>-42</v>
       </c>
       <c r="F27">
-        <v>-88.5</v>
+        <v>-66.2</v>
       </c>
       <c r="G27">
         <v>-1.13</v>
@@ -2471,16 +2471,16 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>-43.4</v>
+        <v>-43.2</v>
       </c>
       <c r="D28">
-        <v>-46.1</v>
+        <v>-45.7</v>
       </c>
       <c r="E28">
-        <v>-63</v>
+        <v>-62.4</v>
       </c>
       <c r="F28">
-        <v>-79.3</v>
+        <v>-78</v>
       </c>
       <c r="G28">
         <v>-1.11</v>
@@ -2503,16 +2503,16 @@
         <v>37</v>
       </c>
       <c r="C29">
-        <v>-50.9</v>
+        <v>-50.8</v>
       </c>
       <c r="D29">
-        <v>-42.9</v>
+        <v>-42.5</v>
       </c>
       <c r="E29">
-        <v>-46.2</v>
+        <v>-45.5</v>
       </c>
       <c r="F29">
-        <v>-81.7</v>
+        <v>-80.4</v>
       </c>
       <c r="G29">
         <v>-1.4</v>
@@ -2535,16 +2535,16 @@
         <v>38</v>
       </c>
       <c r="C30">
-        <v>-32.3</v>
+        <v>-31.3</v>
       </c>
       <c r="D30">
-        <v>-23.9</v>
+        <v>-21.6</v>
       </c>
       <c r="E30">
-        <v>-57.5</v>
+        <v>-53.8</v>
       </c>
       <c r="F30">
-        <v>-83.3</v>
+        <v>-76.4</v>
       </c>
       <c r="G30">
         <v>-2.58</v>
@@ -2567,16 +2567,16 @@
         <v>39</v>
       </c>
       <c r="C31">
-        <v>-52.1</v>
+        <v>-51.6</v>
       </c>
       <c r="D31">
-        <v>-40.8</v>
+        <v>-39.6</v>
       </c>
       <c r="E31">
-        <v>-41.2</v>
+        <v>-38.9</v>
       </c>
       <c r="F31">
-        <v>-59.2</v>
+        <v>-54</v>
       </c>
       <c r="G31">
         <v>-2.85</v>
@@ -2599,16 +2599,16 @@
         <v>40</v>
       </c>
       <c r="C32">
-        <v>-24.2</v>
+        <v>-22.6</v>
       </c>
       <c r="D32">
-        <v>-40.8</v>
+        <v>-37.2</v>
       </c>
       <c r="E32">
-        <v>-44.7</v>
+        <v>-37.6</v>
       </c>
       <c r="F32">
-        <v>-87.3</v>
+        <v>-71.5</v>
       </c>
       <c r="G32">
         <v>-1.54</v>
@@ -2631,16 +2631,16 @@
         <v>41</v>
       </c>
       <c r="C33">
-        <v>-21.6</v>
+        <v>-19.9</v>
       </c>
       <c r="D33">
-        <v>-36.3</v>
+        <v>-32.2</v>
       </c>
       <c r="E33">
-        <v>-42.6</v>
+        <v>-34.6</v>
       </c>
       <c r="F33">
-        <v>-93.7</v>
+        <v>-76.6</v>
       </c>
       <c r="G33">
         <v>-2.91</v>
@@ -2663,16 +2663,16 @@
         <v>42</v>
       </c>
       <c r="C34">
-        <v>-54.2</v>
+        <v>-54.1</v>
       </c>
       <c r="D34">
-        <v>-62.4</v>
+        <v>-62.1</v>
       </c>
       <c r="E34">
-        <v>-71.9</v>
+        <v>-71.4</v>
       </c>
       <c r="F34">
-        <v>-79.7</v>
+        <v>-78.6</v>
       </c>
       <c r="G34">
         <v>-1.34</v>
@@ -2695,16 +2695,16 @@
         <v>43</v>
       </c>
       <c r="C35">
-        <v>-52.8</v>
+        <v>-51.8</v>
       </c>
       <c r="D35">
-        <v>-41</v>
+        <v>-39.2</v>
       </c>
       <c r="E35">
-        <v>-41.8</v>
+        <v>-38.4</v>
       </c>
       <c r="F35">
-        <v>-83.1</v>
+        <v>-75.5</v>
       </c>
       <c r="G35">
         <v>-1.18</v>
@@ -2727,16 +2727,16 @@
         <v>44</v>
       </c>
       <c r="C36">
-        <v>-49</v>
+        <v>-48.2</v>
       </c>
       <c r="D36">
-        <v>-38.4</v>
+        <v>-36.7</v>
       </c>
       <c r="E36">
-        <v>-34.9</v>
+        <v>-31.7</v>
       </c>
       <c r="F36">
-        <v>-75.2</v>
+        <v>-68.2</v>
       </c>
       <c r="G36">
         <v>-1.17</v>
@@ -2791,16 +2791,16 @@
         <v>46</v>
       </c>
       <c r="C38">
-        <v>-40.7</v>
+        <v>-39.9</v>
       </c>
       <c r="D38">
-        <v>-30.8</v>
+        <v>-29</v>
       </c>
       <c r="E38">
-        <v>-34.7</v>
+        <v>-31.2</v>
       </c>
       <c r="F38">
-        <v>-69.1</v>
+        <v>-61.5</v>
       </c>
       <c r="G38">
         <v>-1.73</v>
@@ -2823,16 +2823,16 @@
         <v>47</v>
       </c>
       <c r="C39">
-        <v>-46</v>
+        <v>-45.8</v>
       </c>
       <c r="D39">
-        <v>-46.1</v>
+        <v>-45.7</v>
       </c>
       <c r="E39">
-        <v>-43</v>
+        <v>-42.1</v>
       </c>
       <c r="F39">
-        <v>-82</v>
+        <v>-80.1</v>
       </c>
       <c r="G39">
         <v>-1.46</v>
@@ -2855,16 +2855,16 @@
         <v>48</v>
       </c>
       <c r="C40">
-        <v>-50.4</v>
+        <v>-49.6</v>
       </c>
       <c r="D40">
-        <v>-46.8</v>
+        <v>-45.2</v>
       </c>
       <c r="E40">
-        <v>-44</v>
+        <v>-40.8</v>
       </c>
       <c r="F40">
-        <v>-81.6</v>
+        <v>-74.9</v>
       </c>
       <c r="G40">
         <v>-1.43</v>
@@ -2887,16 +2887,16 @@
         <v>49</v>
       </c>
       <c r="C41">
-        <v>-21.2</v>
+        <v>-19.5</v>
       </c>
       <c r="D41">
-        <v>-21.2</v>
+        <v>-17.5</v>
       </c>
       <c r="E41">
-        <v>-36.3</v>
+        <v>-29.4</v>
       </c>
       <c r="F41">
-        <v>-78.7</v>
+        <v>-65.4</v>
       </c>
       <c r="G41">
         <v>-0.54</v>
@@ -2919,16 +2919,16 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>-47.6</v>
+        <v>-47.3</v>
       </c>
       <c r="D42">
-        <v>-46.8</v>
+        <v>-46.2</v>
       </c>
       <c r="E42">
-        <v>-49.9</v>
+        <v>-48.9</v>
       </c>
       <c r="F42">
-        <v>-74.3</v>
+        <v>-72.2</v>
       </c>
       <c r="G42">
         <v>-1.5</v>
@@ -2951,16 +2951,16 @@
         <v>51</v>
       </c>
       <c r="C43">
-        <v>-53.4</v>
+        <v>-53.1</v>
       </c>
       <c r="D43">
-        <v>-55.5</v>
+        <v>-54.7</v>
       </c>
       <c r="E43">
-        <v>-60.7</v>
+        <v>-59.4</v>
       </c>
       <c r="F43">
-        <v>-79.4</v>
+        <v>-76.5</v>
       </c>
       <c r="G43">
         <v>-1.55</v>
@@ -2983,16 +2983,16 @@
         <v>52</v>
       </c>
       <c r="C44">
-        <v>-30</v>
+        <v>-28.1</v>
       </c>
       <c r="D44">
-        <v>-36.9</v>
+        <v>-32.9</v>
       </c>
       <c r="E44">
-        <v>-57</v>
+        <v>-49.4</v>
       </c>
       <c r="F44">
-        <v>-93.5</v>
+        <v>-78.1</v>
       </c>
       <c r="G44">
         <v>-1.31</v>
@@ -3015,16 +3015,16 @@
         <v>53</v>
       </c>
       <c r="C45">
-        <v>-37.8</v>
+        <v>-35.3</v>
       </c>
       <c r="D45">
-        <v>-41.6</v>
+        <v>-36.2</v>
       </c>
       <c r="E45">
-        <v>-68.8</v>
+        <v>-58.5</v>
       </c>
       <c r="F45">
-        <v>-96.7</v>
+        <v>-75.1</v>
       </c>
       <c r="G45">
         <v>-1.08</v>
@@ -3047,16 +3047,16 @@
         <v>54</v>
       </c>
       <c r="C46">
-        <v>-35.9</v>
+        <v>-33.3</v>
       </c>
       <c r="D46">
-        <v>-39.2</v>
+        <v>-33.6</v>
       </c>
       <c r="E46">
-        <v>-66.9</v>
+        <v>-56.6</v>
       </c>
       <c r="F46">
-        <v>-97</v>
+        <v>-75.3</v>
       </c>
       <c r="G46">
         <v>-1.1</v>
@@ -3079,16 +3079,16 @@
         <v>55</v>
       </c>
       <c r="C47">
-        <v>-29.6</v>
+        <v>-26.9</v>
       </c>
       <c r="D47">
-        <v>-36.1</v>
+        <v>-30.4</v>
       </c>
       <c r="E47">
-        <v>-58</v>
+        <v>-47.3</v>
       </c>
       <c r="F47">
-        <v>-93.3</v>
+        <v>-71.8</v>
       </c>
       <c r="G47">
         <v>-1.23</v>
@@ -3111,16 +3111,16 @@
         <v>56</v>
       </c>
       <c r="C48">
-        <v>-25</v>
+        <v>-23.6</v>
       </c>
       <c r="D48">
-        <v>-34.6</v>
+        <v>-31.6</v>
       </c>
       <c r="E48">
-        <v>-51</v>
+        <v>-45.5</v>
       </c>
       <c r="F48">
-        <v>-95.1</v>
+        <v>-84.9</v>
       </c>
       <c r="G48">
         <v>-1.31</v>
@@ -3152,7 +3152,7 @@
         <v>-46.4</v>
       </c>
       <c r="F49">
-        <v>-71.2</v>
+        <v>-71.1</v>
       </c>
       <c r="G49">
         <v>-1.6</v>
@@ -3175,16 +3175,16 @@
         <v>58</v>
       </c>
       <c r="C50">
-        <v>-52.2</v>
+        <v>-51.9</v>
       </c>
       <c r="D50">
-        <v>-51.1</v>
+        <v>-50.6</v>
       </c>
       <c r="E50">
-        <v>-47.5</v>
+        <v>-46.4</v>
       </c>
       <c r="F50">
-        <v>-79.4</v>
+        <v>-77</v>
       </c>
       <c r="G50">
         <v>-1.68</v>
@@ -3207,16 +3207,16 @@
         <v>59</v>
       </c>
       <c r="C51">
-        <v>-52.8</v>
+        <v>-51.1</v>
       </c>
       <c r="D51">
-        <v>-40.8</v>
+        <v>-37.4</v>
       </c>
       <c r="E51">
-        <v>-40.5</v>
+        <v>-34</v>
       </c>
       <c r="F51">
-        <v>-77.5</v>
+        <v>-63</v>
       </c>
       <c r="G51">
         <v>-1.15</v>
@@ -3239,16 +3239,16 @@
         <v>60</v>
       </c>
       <c r="C52">
-        <v>-47.7</v>
+        <v>-47.1</v>
       </c>
       <c r="D52">
-        <v>-41.1</v>
+        <v>-39.7</v>
       </c>
       <c r="E52">
-        <v>-39.5</v>
+        <v>-36.9</v>
       </c>
       <c r="F52">
-        <v>-66.9</v>
+        <v>-61.3</v>
       </c>
       <c r="G52">
         <v>-1.9</v>
@@ -3271,16 +3271,16 @@
         <v>61</v>
       </c>
       <c r="C53">
-        <v>-52.2</v>
+        <v>-51.2</v>
       </c>
       <c r="D53">
-        <v>-43.4</v>
+        <v>-41.1</v>
       </c>
       <c r="E53">
-        <v>-40.3</v>
+        <v>-35.8</v>
       </c>
       <c r="F53">
-        <v>-66.2</v>
+        <v>-56.2</v>
       </c>
       <c r="G53">
         <v>-1.24</v>
@@ -3303,16 +3303,16 @@
         <v>62</v>
       </c>
       <c r="C54">
-        <v>-19</v>
+        <v>-17.1</v>
       </c>
       <c r="D54">
-        <v>-19.6</v>
+        <v>-15.4</v>
       </c>
       <c r="E54">
-        <v>-26.6</v>
+        <v>-18.4</v>
       </c>
       <c r="F54">
-        <v>-92</v>
+        <v>-75.8</v>
       </c>
       <c r="G54">
         <v>-0.92</v>
@@ -3335,16 +3335,16 @@
         <v>63</v>
       </c>
       <c r="C55">
-        <v>-54.7</v>
+        <v>-54.4</v>
       </c>
       <c r="D55">
-        <v>-53.1</v>
+        <v>-52.2</v>
       </c>
       <c r="E55">
-        <v>-54.4</v>
+        <v>-52.7</v>
       </c>
       <c r="F55">
-        <v>-76.2</v>
+        <v>-72.5</v>
       </c>
       <c r="G55">
         <v>-1.7</v>
@@ -3367,16 +3367,16 @@
         <v>64</v>
       </c>
       <c r="C56">
-        <v>-51.8</v>
+        <v>-51.7</v>
       </c>
       <c r="D56">
-        <v>-49.6</v>
+        <v>-49.5</v>
       </c>
       <c r="E56">
-        <v>-46.6</v>
+        <v>-46.4</v>
       </c>
       <c r="F56">
-        <v>-71.2</v>
+        <v>-70.8</v>
       </c>
       <c r="G56">
         <v>-1.62</v>
@@ -3399,16 +3399,16 @@
         <v>65</v>
       </c>
       <c r="C57">
-        <v>-32</v>
+        <v>-31.5</v>
       </c>
       <c r="D57">
-        <v>-17.5</v>
+        <v>-16.1</v>
       </c>
       <c r="E57">
-        <v>-29.6</v>
+        <v>-27.4</v>
       </c>
       <c r="F57">
-        <v>-79.7</v>
+        <v>-75.4</v>
       </c>
       <c r="G57">
         <v>-2.71</v>
@@ -3431,16 +3431,16 @@
         <v>66</v>
       </c>
       <c r="C58">
-        <v>-31.3</v>
+        <v>-30.7</v>
       </c>
       <c r="D58">
-        <v>-19.3</v>
+        <v>-17.9</v>
       </c>
       <c r="E58">
-        <v>-31.9</v>
+        <v>-29.4</v>
       </c>
       <c r="F58">
-        <v>-78.7</v>
+        <v>-73.8</v>
       </c>
       <c r="G58">
         <v>-2.04</v>
@@ -3463,16 +3463,16 @@
         <v>67</v>
       </c>
       <c r="C59">
-        <v>-27.6</v>
+        <v>-26.5</v>
       </c>
       <c r="D59">
-        <v>-19.6</v>
+        <v>-16.9</v>
       </c>
       <c r="E59">
-        <v>-37.6</v>
+        <v>-33</v>
       </c>
       <c r="F59">
-        <v>-80.4</v>
+        <v>-71.8</v>
       </c>
       <c r="G59">
         <v>-0.61</v>
@@ -3495,16 +3495,16 @@
         <v>68</v>
       </c>
       <c r="C60">
-        <v>-33.4</v>
+        <v>-32.8</v>
       </c>
       <c r="D60">
-        <v>-24.7</v>
+        <v>-23.3</v>
       </c>
       <c r="E60">
-        <v>-44.5</v>
+        <v>-42</v>
       </c>
       <c r="F60">
-        <v>-78.3</v>
+        <v>-73.4</v>
       </c>
       <c r="G60">
         <v>-1.26</v>
@@ -3527,16 +3527,16 @@
         <v>69</v>
       </c>
       <c r="C61">
-        <v>-47.8</v>
+        <v>-47.3</v>
       </c>
       <c r="D61">
-        <v>-43.8</v>
+        <v>-42.7</v>
       </c>
       <c r="E61">
-        <v>-45.4</v>
+        <v>-43.4</v>
       </c>
       <c r="F61">
-        <v>-73.9</v>
+        <v>-69.6</v>
       </c>
       <c r="G61">
         <v>-1.57</v>
@@ -3559,16 +3559,16 @@
         <v>70</v>
       </c>
       <c r="C62">
-        <v>-33.3</v>
+        <v>-32.1</v>
       </c>
       <c r="D62">
-        <v>-45.6</v>
+        <v>-43.2</v>
       </c>
       <c r="E62">
-        <v>-62.2</v>
+        <v>-57.9</v>
       </c>
       <c r="F62">
-        <v>-97.9</v>
+        <v>-89.9</v>
       </c>
       <c r="G62">
         <v>-1.57</v>
@@ -3591,16 +3591,16 @@
         <v>71</v>
       </c>
       <c r="C63">
-        <v>-32.4</v>
+        <v>-31.6</v>
       </c>
       <c r="D63">
-        <v>-22.1</v>
+        <v>-20.2</v>
       </c>
       <c r="E63">
-        <v>-33.9</v>
+        <v>-30.4</v>
       </c>
       <c r="F63">
-        <v>-78.5</v>
+        <v>-71.3</v>
       </c>
       <c r="G63">
         <v>-1.65</v>
@@ -3623,16 +3623,16 @@
         <v>72</v>
       </c>
       <c r="C64">
-        <v>-13.5</v>
+        <v>-12.3</v>
       </c>
       <c r="D64">
-        <v>-13.1</v>
+        <v>-10.1</v>
       </c>
       <c r="E64">
-        <v>-33.5</v>
+        <v>-28.2</v>
       </c>
       <c r="F64">
-        <v>-87.2</v>
+        <v>-76.8</v>
       </c>
       <c r="G64">
         <v>-1.13</v>
@@ -3655,16 +3655,16 @@
         <v>73</v>
       </c>
       <c r="C65">
-        <v>-18.5</v>
+        <v>-17.6</v>
       </c>
       <c r="D65">
-        <v>-14.1</v>
+        <v>-11.9</v>
       </c>
       <c r="E65">
-        <v>-34.4</v>
+        <v>-30.6</v>
       </c>
       <c r="F65">
-        <v>-82</v>
+        <v>-74.7</v>
       </c>
       <c r="G65">
         <v>-0.9</v>
@@ -3687,16 +3687,16 @@
         <v>74</v>
       </c>
       <c r="C66">
-        <v>-19.8</v>
+        <v>-18.6</v>
       </c>
       <c r="D66">
-        <v>-24</v>
+        <v>-21.3</v>
       </c>
       <c r="E66">
-        <v>-40.7</v>
+        <v>-36.1</v>
       </c>
       <c r="F66">
-        <v>-84.7</v>
+        <v>-76</v>
       </c>
       <c r="G66">
         <v>-0.55</v>
@@ -3719,16 +3719,16 @@
         <v>75</v>
       </c>
       <c r="C67">
-        <v>-58.4</v>
+        <v>-58.3</v>
       </c>
       <c r="D67">
-        <v>-60</v>
+        <v>-59.7</v>
       </c>
       <c r="E67">
-        <v>-61.4</v>
+        <v>-60.9</v>
       </c>
       <c r="F67">
-        <v>-79.5</v>
+        <v>-78.3</v>
       </c>
       <c r="G67">
         <v>-2.05</v>
@@ -3751,16 +3751,16 @@
         <v>76</v>
       </c>
       <c r="C68">
-        <v>-36.5</v>
+        <v>-32.4</v>
       </c>
       <c r="D68">
-        <v>-48</v>
+        <v>-39.4</v>
       </c>
       <c r="E68">
-        <v>-67.7</v>
+        <v>-51.8</v>
       </c>
       <c r="F68">
-        <v>-97.1</v>
+        <v>-62.5</v>
       </c>
       <c r="G68">
         <v>-1.83</v>
@@ -3783,16 +3783,16 @@
         <v>77</v>
       </c>
       <c r="C69">
-        <v>-46.5</v>
+        <v>-45.9</v>
       </c>
       <c r="D69">
-        <v>-39.4</v>
+        <v>-38</v>
       </c>
       <c r="E69">
-        <v>-34</v>
+        <v>-31.3</v>
       </c>
       <c r="F69">
-        <v>-56.1</v>
+        <v>-50</v>
       </c>
       <c r="G69">
         <v>-1.38</v>
@@ -3815,16 +3815,16 @@
         <v>78</v>
       </c>
       <c r="C70">
-        <v>-44.3</v>
+        <v>-43.7</v>
       </c>
       <c r="D70">
-        <v>-39.1</v>
+        <v>-37.9</v>
       </c>
       <c r="E70">
-        <v>-38</v>
+        <v>-35.8</v>
       </c>
       <c r="F70">
-        <v>-65.4</v>
+        <v>-60.5</v>
       </c>
       <c r="G70">
         <v>-1.94</v>
@@ -3847,16 +3847,16 @@
         <v>79</v>
       </c>
       <c r="C71">
-        <v>-27.9</v>
+        <v>-22.5</v>
       </c>
       <c r="D71">
-        <v>-42.7</v>
+        <v>-31</v>
       </c>
       <c r="E71">
-        <v>-58.7</v>
+        <v>-36.6</v>
       </c>
       <c r="F71">
-        <v>-99.1</v>
+        <v>-54</v>
       </c>
       <c r="G71">
         <v>-2.13</v>
@@ -3879,16 +3879,16 @@
         <v>80</v>
       </c>
       <c r="C72">
-        <v>-33.1</v>
+        <v>-29.7</v>
       </c>
       <c r="D72">
-        <v>-42.9</v>
+        <v>-35.7</v>
       </c>
       <c r="E72">
-        <v>-66</v>
+        <v>-53.2</v>
       </c>
       <c r="F72">
-        <v>-97.6</v>
+        <v>-68.9</v>
       </c>
       <c r="G72">
         <v>-1.85</v>
@@ -3911,16 +3911,16 @@
         <v>81</v>
       </c>
       <c r="C73">
-        <v>-14.9</v>
+        <v>-13.3</v>
       </c>
       <c r="D73">
-        <v>-35.3</v>
+        <v>-31.3</v>
       </c>
       <c r="E73">
-        <v>-41.9</v>
+        <v>-34.8</v>
       </c>
       <c r="F73">
-        <v>-90.6</v>
+        <v>-74.7</v>
       </c>
       <c r="G73">
         <v>-1.7</v>
@@ -3943,16 +3943,16 @@
         <v>82</v>
       </c>
       <c r="C74">
-        <v>-7.1</v>
+        <v>-5.2</v>
       </c>
       <c r="D74">
-        <v>-25.2</v>
+        <v>-20.7</v>
       </c>
       <c r="E74">
-        <v>-45.5</v>
+        <v>-38.2</v>
       </c>
       <c r="F74">
-        <v>-91.6</v>
+        <v>-75.6</v>
       </c>
       <c r="G74">
         <v>-1.74</v>
@@ -3975,16 +3975,16 @@
         <v>83</v>
       </c>
       <c r="C75">
-        <v>11.6</v>
+        <v>14</v>
       </c>
       <c r="D75">
-        <v>-10.8</v>
+        <v>-4.9</v>
       </c>
       <c r="E75">
-        <v>-35.6</v>
+        <v>-26.5</v>
       </c>
       <c r="F75">
-        <v>-85.6</v>
+        <v>-66.7</v>
       </c>
       <c r="G75">
         <v>-1.73</v>
@@ -4007,16 +4007,16 @@
         <v>84</v>
       </c>
       <c r="C76">
-        <v>19.4</v>
+        <v>23</v>
       </c>
       <c r="D76">
-        <v>-1.4</v>
+        <v>7.7</v>
       </c>
       <c r="E76">
-        <v>-35.4</v>
+        <v>-22.4</v>
       </c>
       <c r="F76">
-        <v>-85.8</v>
+        <v>-59</v>
       </c>
       <c r="G76">
         <v>-1.74</v>
@@ -4039,16 +4039,16 @@
         <v>85</v>
       </c>
       <c r="C77">
-        <v>-10.6</v>
+        <v>-9.6</v>
       </c>
       <c r="D77">
-        <v>-31.9</v>
+        <v>-29.1</v>
       </c>
       <c r="E77">
-        <v>-43.8</v>
+        <v>-39.1</v>
       </c>
       <c r="F77">
-        <v>-87.1</v>
+        <v>-76.8</v>
       </c>
       <c r="G77">
         <v>-1.65</v>
@@ -4071,16 +4071,16 @@
         <v>86</v>
       </c>
       <c r="C78">
-        <v>-2.2</v>
+        <v>0.6</v>
       </c>
       <c r="D78">
-        <v>-20.2</v>
+        <v>-12.9</v>
       </c>
       <c r="E78">
-        <v>-37.6</v>
+        <v>-25.8</v>
       </c>
       <c r="F78">
-        <v>-86</v>
+        <v>-61.1</v>
       </c>
       <c r="G78">
         <v>-1.66</v>
@@ -4103,16 +4103,16 @@
         <v>87</v>
       </c>
       <c r="C79">
-        <v>-36.8</v>
+        <v>-35.5</v>
       </c>
       <c r="D79">
-        <v>-37.8</v>
+        <v>-34.8</v>
       </c>
       <c r="E79">
-        <v>-51.5</v>
+        <v>-45.6</v>
       </c>
       <c r="F79">
-        <v>-92.5</v>
+        <v>-80.4</v>
       </c>
       <c r="G79">
         <v>-2.08</v>
@@ -4135,16 +4135,16 @@
         <v>88</v>
       </c>
       <c r="C80">
-        <v>-39.1</v>
+        <v>-38.2</v>
       </c>
       <c r="D80">
-        <v>-34.7</v>
+        <v>-32.8</v>
       </c>
       <c r="E80">
-        <v>-48.6</v>
+        <v>-44.7</v>
       </c>
       <c r="F80">
-        <v>-91.8</v>
+        <v>-83.7</v>
       </c>
       <c r="G80">
         <v>-2.35</v>
@@ -4167,16 +4167,16 @@
         <v>89</v>
       </c>
       <c r="C81">
-        <v>-31.9</v>
+        <v>-30.1</v>
       </c>
       <c r="D81">
-        <v>-42</v>
+        <v>-37.8</v>
       </c>
       <c r="E81">
-        <v>-44.1</v>
+        <v>-35.5</v>
       </c>
       <c r="F81">
-        <v>-92.2</v>
+        <v>-74.2</v>
       </c>
       <c r="G81">
         <v>-3.07</v>
@@ -4199,16 +4199,16 @@
         <v>90</v>
       </c>
       <c r="C82">
-        <v>-46.2</v>
+        <v>-45.1</v>
       </c>
       <c r="D82">
-        <v>-55.2</v>
+        <v>-52.6</v>
       </c>
       <c r="E82">
-        <v>-55.1</v>
+        <v>-49.4</v>
       </c>
       <c r="F82">
-        <v>-94.4</v>
+        <v>-82.2</v>
       </c>
       <c r="G82">
         <v>-3.03</v>
@@ -4231,16 +4231,16 @@
         <v>91</v>
       </c>
       <c r="C83">
-        <v>-30.5</v>
+        <v>-29.3</v>
       </c>
       <c r="D83">
-        <v>-41.7</v>
+        <v>-38.8</v>
       </c>
       <c r="E83">
-        <v>-47</v>
+        <v>-41.4</v>
       </c>
       <c r="F83">
-        <v>-88.9</v>
+        <v>-76.8</v>
       </c>
       <c r="G83">
         <v>-0.88</v>
@@ -4263,16 +4263,16 @@
         <v>92</v>
       </c>
       <c r="C84">
-        <v>-45.5</v>
+        <v>-45</v>
       </c>
       <c r="D84">
-        <v>-42.3</v>
+        <v>-41.2</v>
       </c>
       <c r="E84">
-        <v>-54.7</v>
+        <v>-52.6</v>
       </c>
       <c r="F84">
-        <v>-75.8</v>
+        <v>-71</v>
       </c>
       <c r="G84">
         <v>-2.23</v>
@@ -4295,16 +4295,16 @@
         <v>93</v>
       </c>
       <c r="C85">
-        <v>-47.2</v>
+        <v>-46.6</v>
       </c>
       <c r="D85">
-        <v>-43.9</v>
+        <v>-42.4</v>
       </c>
       <c r="E85">
-        <v>-57.6</v>
+        <v>-54.8</v>
       </c>
       <c r="F85">
-        <v>-76.2</v>
+        <v>-69.7</v>
       </c>
       <c r="G85">
         <v>-2.16</v>
@@ -4327,16 +4327,16 @@
         <v>94</v>
       </c>
       <c r="C86">
-        <v>-13.5</v>
+        <v>-11.2</v>
       </c>
       <c r="D86">
-        <v>-27.8</v>
+        <v>-22.6</v>
       </c>
       <c r="E86">
-        <v>-39</v>
+        <v>-28.8</v>
       </c>
       <c r="F86">
-        <v>-91.2</v>
+        <v>-69.6</v>
       </c>
       <c r="G86">
         <v>-2.34</v>
@@ -4359,16 +4359,16 @@
         <v>95</v>
       </c>
       <c r="C87">
-        <v>-30.8</v>
+        <v>-29.2</v>
       </c>
       <c r="D87">
-        <v>-49.1</v>
+        <v>-45.5</v>
       </c>
       <c r="E87">
-        <v>-57.1</v>
+        <v>-50.1</v>
       </c>
       <c r="F87">
-        <v>-98.7</v>
+        <v>-85</v>
       </c>
       <c r="G87">
         <v>-3.06</v>
@@ -4391,16 +4391,16 @@
         <v>96</v>
       </c>
       <c r="C88">
-        <v>-40.3</v>
+        <v>-39.6</v>
       </c>
       <c r="D88">
-        <v>-40.3</v>
+        <v>-38.7</v>
       </c>
       <c r="E88">
-        <v>-49.2</v>
+        <v>-46</v>
       </c>
       <c r="F88">
-        <v>-92.6</v>
+        <v>-86</v>
       </c>
       <c r="G88">
         <v>-1.36</v>
@@ -4423,16 +4423,16 @@
         <v>97</v>
       </c>
       <c r="C89">
-        <v>-44.5</v>
+        <v>-43.9</v>
       </c>
       <c r="D89">
-        <v>-45.8</v>
+        <v>-44.2</v>
       </c>
       <c r="E89">
-        <v>-56.8</v>
+        <v>-53.7</v>
       </c>
       <c r="F89">
-        <v>-94.6</v>
+        <v>-88.5</v>
       </c>
       <c r="G89">
         <v>-1.85</v>
@@ -4455,16 +4455,16 @@
         <v>98</v>
       </c>
       <c r="C90">
+        <v>-35.9</v>
+      </c>
+      <c r="D90">
         <v>-36.9</v>
       </c>
-      <c r="D90">
-        <v>-39.2</v>
-      </c>
       <c r="E90">
-        <v>-45</v>
+        <v>-40.6</v>
       </c>
       <c r="F90">
-        <v>-90.9</v>
+        <v>-81.7</v>
       </c>
       <c r="G90">
         <v>-1.04</v>
@@ -4487,16 +4487,16 @@
         <v>99</v>
       </c>
       <c r="C91">
-        <v>-39.1</v>
+        <v>-38.1</v>
       </c>
       <c r="D91">
-        <v>-43.4</v>
+        <v>-41.2</v>
       </c>
       <c r="E91">
-        <v>-47</v>
+        <v>-42.7</v>
       </c>
       <c r="F91">
-        <v>-89.5</v>
+        <v>-80.2</v>
       </c>
       <c r="G91">
         <v>-1.06</v>
@@ -4519,16 +4519,16 @@
         <v>100</v>
       </c>
       <c r="C92">
-        <v>-51.2</v>
+        <v>-50.4</v>
       </c>
       <c r="D92">
-        <v>-47</v>
+        <v>-45</v>
       </c>
       <c r="E92">
-        <v>-60.4</v>
+        <v>-56.7</v>
       </c>
       <c r="F92">
-        <v>-79.9</v>
+        <v>-71.9</v>
       </c>
       <c r="G92">
         <v>-2.05</v>
@@ -4551,16 +4551,16 @@
         <v>101</v>
       </c>
       <c r="C93">
-        <v>-37.8</v>
+        <v>-36.7</v>
       </c>
       <c r="D93">
-        <v>-49.1</v>
+        <v>-46.8</v>
       </c>
       <c r="E93">
-        <v>-49.8</v>
+        <v>-44.9</v>
       </c>
       <c r="F93">
-        <v>-95.9</v>
+        <v>-85.7</v>
       </c>
       <c r="G93">
         <v>-2.68</v>
@@ -4583,16 +4583,16 @@
         <v>102</v>
       </c>
       <c r="C94">
-        <v>-30.7</v>
+        <v>-29.4</v>
       </c>
       <c r="D94">
-        <v>-48</v>
+        <v>-45.2</v>
       </c>
       <c r="E94">
-        <v>-55.8</v>
+        <v>-50.2</v>
       </c>
       <c r="F94">
-        <v>-96.9</v>
+        <v>-86</v>
       </c>
       <c r="G94">
         <v>-3.13</v>
@@ -4615,16 +4615,16 @@
         <v>103</v>
       </c>
       <c r="C95">
-        <v>-45</v>
+        <v>-43.5</v>
       </c>
       <c r="D95">
-        <v>-58</v>
+        <v>-54.4</v>
       </c>
       <c r="E95">
-        <v>-63.7</v>
+        <v>-56.7</v>
       </c>
       <c r="F95">
-        <v>-94.9</v>
+        <v>-80.5</v>
       </c>
       <c r="G95">
         <v>-3.25</v>
@@ -4647,16 +4647,16 @@
         <v>104</v>
       </c>
       <c r="C96">
-        <v>-43.6</v>
+        <v>-42</v>
       </c>
       <c r="D96">
-        <v>-32.4</v>
+        <v>-27.9</v>
       </c>
       <c r="E96">
-        <v>-46.4</v>
+        <v>-38.5</v>
       </c>
       <c r="F96">
-        <v>-66.9</v>
+        <v>-50.7</v>
       </c>
       <c r="G96">
         <v>-2.16</v>
@@ -4679,16 +4679,16 @@
         <v>105</v>
       </c>
       <c r="C97">
-        <v>-51.7</v>
+        <v>-50.2</v>
       </c>
       <c r="D97">
-        <v>-46.7</v>
+        <v>-42.9</v>
       </c>
       <c r="E97">
-        <v>-60</v>
+        <v>-53</v>
       </c>
       <c r="F97">
-        <v>-77.9</v>
+        <v>-63.4</v>
       </c>
       <c r="G97">
         <v>-2.03</v>
@@ -4711,16 +4711,16 @@
         <v>106</v>
       </c>
       <c r="C98">
-        <v>-23.4</v>
+        <v>-22.1</v>
       </c>
       <c r="D98">
-        <v>-47.1</v>
+        <v>-44.1</v>
       </c>
       <c r="E98">
-        <v>-57.4</v>
+        <v>-51.6</v>
       </c>
       <c r="F98">
-        <v>-96.4</v>
+        <v>-85.3</v>
       </c>
       <c r="G98">
         <v>-3.17</v>
@@ -4743,16 +4743,16 @@
         <v>107</v>
       </c>
       <c r="C99">
-        <v>-19.3</v>
+        <v>-18</v>
       </c>
       <c r="D99">
-        <v>-42.8</v>
+        <v>-39.7</v>
       </c>
       <c r="E99">
-        <v>-55.7</v>
+        <v>-49.9</v>
       </c>
       <c r="F99">
-        <v>-95.3</v>
+        <v>-83.9</v>
       </c>
       <c r="G99">
         <v>-3.24</v>
@@ -4775,16 +4775,16 @@
         <v>108</v>
       </c>
       <c r="C100">
-        <v>-61.3</v>
+        <v>-60.2</v>
       </c>
       <c r="D100">
-        <v>-53.8</v>
+        <v>-50.8</v>
       </c>
       <c r="E100">
-        <v>-67.1</v>
+        <v>-61.9</v>
       </c>
       <c r="F100">
-        <v>-84.9</v>
+        <v>-73.8</v>
       </c>
       <c r="G100">
         <v>-1.98</v>
@@ -4807,16 +4807,16 @@
         <v>109</v>
       </c>
       <c r="C101">
-        <v>-36.7</v>
+        <v>-35.3</v>
       </c>
       <c r="D101">
-        <v>-53.1</v>
+        <v>-49.4</v>
       </c>
       <c r="E101">
-        <v>-58.8</v>
+        <v>-51.5</v>
       </c>
       <c r="F101">
-        <v>-93.2</v>
+        <v>-77.8</v>
       </c>
       <c r="G101">
         <v>-1.96</v>
@@ -4839,16 +4839,16 @@
         <v>110</v>
       </c>
       <c r="C102">
-        <v>-35</v>
+        <v>-33.6</v>
       </c>
       <c r="D102">
-        <v>-49.1</v>
+        <v>-45.5</v>
       </c>
       <c r="E102">
-        <v>-56.4</v>
+        <v>-49.6</v>
       </c>
       <c r="F102">
-        <v>-93.9</v>
+        <v>-79</v>
       </c>
       <c r="G102">
         <v>-1.79</v>
@@ -4871,16 +4871,16 @@
         <v>111</v>
       </c>
       <c r="C103">
-        <v>-21.3</v>
+        <v>-19.8</v>
       </c>
       <c r="D103">
-        <v>-35.7</v>
+        <v>-31.7</v>
       </c>
       <c r="E103">
-        <v>-34.2</v>
+        <v>-26.5</v>
       </c>
       <c r="F103">
-        <v>-92.7</v>
+        <v>-76.9</v>
       </c>
       <c r="G103">
         <v>-1.96</v>
@@ -4903,16 +4903,16 @@
         <v>112</v>
       </c>
       <c r="C104">
-        <v>-35</v>
+        <v>-33.5</v>
       </c>
       <c r="D104">
-        <v>-48.5</v>
+        <v>-44.6</v>
       </c>
       <c r="E104">
-        <v>-55.8</v>
+        <v>-48.6</v>
       </c>
       <c r="F104">
-        <v>-91.9</v>
+        <v>-76.5</v>
       </c>
       <c r="G104">
         <v>-1.71</v>
@@ -4935,16 +4935,16 @@
         <v>113</v>
       </c>
       <c r="C105">
-        <v>-32.3</v>
+        <v>-30.6</v>
       </c>
       <c r="D105">
-        <v>-43.5</v>
+        <v>-39.5</v>
       </c>
       <c r="E105">
-        <v>-50.7</v>
+        <v>-43.2</v>
       </c>
       <c r="F105">
-        <v>-94.4</v>
+        <v>-78.7</v>
       </c>
       <c r="G105">
         <v>-2.39</v>
@@ -4967,16 +4967,16 @@
         <v>114</v>
       </c>
       <c r="C106">
-        <v>-32.1</v>
+        <v>-30.7</v>
       </c>
       <c r="D106">
-        <v>-46.1</v>
+        <v>-42.6</v>
       </c>
       <c r="E106">
-        <v>-49.2</v>
+        <v>-42.6</v>
       </c>
       <c r="F106">
-        <v>-93.1</v>
+        <v>-79</v>
       </c>
       <c r="G106">
         <v>-2.32</v>
@@ -4999,16 +4999,16 @@
         <v>115</v>
       </c>
       <c r="C107">
-        <v>-28.8</v>
+        <v>-27.5</v>
       </c>
       <c r="D107">
-        <v>-47.2</v>
+        <v>-43.8</v>
       </c>
       <c r="E107">
-        <v>-59</v>
+        <v>-52.7</v>
       </c>
       <c r="F107">
-        <v>-93.9</v>
+        <v>-81.2</v>
       </c>
       <c r="G107">
         <v>-2.6</v>
@@ -5031,16 +5031,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>-30.2</v>
+        <v>-28.5</v>
       </c>
       <c r="D108">
-        <v>-40.7</v>
+        <v>-36.4</v>
       </c>
       <c r="E108">
-        <v>-47.4</v>
+        <v>-39.1</v>
       </c>
       <c r="F108">
-        <v>-93.2</v>
+        <v>-75.3</v>
       </c>
       <c r="G108">
         <v>-2.37</v>
@@ -5063,16 +5063,16 @@
         <v>117</v>
       </c>
       <c r="C109">
-        <v>-29.2</v>
+        <v>-27.3</v>
       </c>
       <c r="D109">
-        <v>-37.4</v>
+        <v>-32.5</v>
       </c>
       <c r="E109">
-        <v>-38.8</v>
+        <v>-29.5</v>
       </c>
       <c r="F109">
-        <v>-89.5</v>
+        <v>-70.4</v>
       </c>
       <c r="G109">
         <v>-1.89</v>
@@ -5095,16 +5095,16 @@
         <v>118</v>
       </c>
       <c r="C110">
-        <v>-26.1</v>
+        <v>-24.7</v>
       </c>
       <c r="D110">
-        <v>-31</v>
+        <v>-27.3</v>
       </c>
       <c r="E110">
-        <v>-30.9</v>
+        <v>-23.6</v>
       </c>
       <c r="F110">
-        <v>-90.3</v>
+        <v>-75.3</v>
       </c>
       <c r="G110">
         <v>-1.78</v>
@@ -5127,16 +5127,16 @@
         <v>119</v>
       </c>
       <c r="C111">
-        <v>-29.3</v>
+        <v>-27.6</v>
       </c>
       <c r="D111">
-        <v>-45.3</v>
+        <v>-41</v>
       </c>
       <c r="E111">
-        <v>-44.1</v>
+        <v>-36</v>
       </c>
       <c r="F111">
-        <v>-93.2</v>
+        <v>-76</v>
       </c>
       <c r="G111">
         <v>-2.06</v>
@@ -5159,16 +5159,16 @@
         <v>120</v>
       </c>
       <c r="C112">
-        <v>-33.6</v>
+        <v>-32.4</v>
       </c>
       <c r="D112">
-        <v>-48.8</v>
+        <v>-45.6</v>
       </c>
       <c r="E112">
-        <v>-53.7</v>
+        <v>-47.9</v>
       </c>
       <c r="F112">
-        <v>-92.3</v>
+        <v>-79.8</v>
       </c>
       <c r="G112">
         <v>-1.81</v>
@@ -5191,16 +5191,16 @@
         <v>121</v>
       </c>
       <c r="C113">
-        <v>-50.2</v>
+        <v>-49.1</v>
       </c>
       <c r="D113">
-        <v>-51</v>
+        <v>-48.4</v>
       </c>
       <c r="E113">
-        <v>-63.2</v>
+        <v>-58.5</v>
       </c>
       <c r="F113">
-        <v>-88.7</v>
+        <v>-79.3</v>
       </c>
       <c r="G113">
         <v>-1.16</v>
@@ -5223,16 +5223,16 @@
         <v>122</v>
       </c>
       <c r="C114">
-        <v>-57</v>
+        <v>-55.8</v>
       </c>
       <c r="D114">
-        <v>-57</v>
+        <v>-54.1</v>
       </c>
       <c r="E114">
-        <v>-62.9</v>
+        <v>-57.7</v>
       </c>
       <c r="F114">
-        <v>-90.6</v>
+        <v>-80.2</v>
       </c>
       <c r="G114">
         <v>-1.03</v>
@@ -5255,16 +5255,16 @@
         <v>123</v>
       </c>
       <c r="C115">
-        <v>-13</v>
+        <v>-11.6</v>
       </c>
       <c r="D115">
-        <v>-31.7</v>
+        <v>-27.9</v>
       </c>
       <c r="E115">
-        <v>-49.5</v>
+        <v>-43.1</v>
       </c>
       <c r="F115">
-        <v>-89.9</v>
+        <v>-77.6</v>
       </c>
       <c r="G115">
         <v>-2.78</v>
@@ -5287,16 +5287,16 @@
         <v>124</v>
       </c>
       <c r="C116">
-        <v>-55.6</v>
+        <v>-54.9</v>
       </c>
       <c r="D116">
-        <v>-59</v>
+        <v>-57.3</v>
       </c>
       <c r="E116">
-        <v>-63.2</v>
+        <v>-60.2</v>
       </c>
       <c r="F116">
-        <v>-95.2</v>
+        <v>-89</v>
       </c>
       <c r="G116">
         <v>-1.64</v>
@@ -5319,16 +5319,16 @@
         <v>125</v>
       </c>
       <c r="C117">
-        <v>-20.5</v>
+        <v>-19.1</v>
       </c>
       <c r="D117">
-        <v>-29.8</v>
+        <v>-25.9</v>
       </c>
       <c r="E117">
-        <v>-30</v>
+        <v>-22.8</v>
       </c>
       <c r="F117">
-        <v>-93.2</v>
+        <v>-78.3</v>
       </c>
       <c r="G117">
         <v>-1.94</v>
@@ -5351,16 +5351,16 @@
         <v>126</v>
       </c>
       <c r="C118">
-        <v>-28.2</v>
+        <v>-27.1</v>
       </c>
       <c r="D118">
-        <v>-47.2</v>
+        <v>-44.4</v>
       </c>
       <c r="E118">
-        <v>-60</v>
+        <v>-55.1</v>
       </c>
       <c r="F118">
-        <v>-93.9</v>
+        <v>-84.4</v>
       </c>
       <c r="G118">
         <v>-2.91</v>
@@ -5383,16 +5383,16 @@
         <v>127</v>
       </c>
       <c r="C119">
-        <v>-20</v>
+        <v>-19.2</v>
       </c>
       <c r="D119">
-        <v>-40.7</v>
+        <v>-38.7</v>
       </c>
       <c r="E119">
-        <v>-57.6</v>
+        <v>-54.3</v>
       </c>
       <c r="F119">
-        <v>-94.4</v>
+        <v>-87.9</v>
       </c>
       <c r="G119">
         <v>-3.13</v>
@@ -5415,16 +5415,16 @@
         <v>128</v>
       </c>
       <c r="C120">
-        <v>-20.4</v>
+        <v>-19.8</v>
       </c>
       <c r="D120">
-        <v>-36.6</v>
+        <v>-35.1</v>
       </c>
       <c r="E120">
-        <v>-52.1</v>
+        <v>-49.4</v>
       </c>
       <c r="F120">
-        <v>-89.1</v>
+        <v>-83.9</v>
       </c>
       <c r="G120">
         <v>-2.74</v>
@@ -5447,16 +5447,16 @@
         <v>129</v>
       </c>
       <c r="C121">
-        <v>-52.4</v>
+        <v>-51.3</v>
       </c>
       <c r="D121">
-        <v>-55.8</v>
+        <v>-53.2</v>
       </c>
       <c r="E121">
-        <v>-66.8</v>
+        <v>-62.5</v>
       </c>
       <c r="F121">
-        <v>-93.2</v>
+        <v>-84.5</v>
       </c>
       <c r="G121">
         <v>-1.12</v>
@@ -5479,16 +5479,16 @@
         <v>130</v>
       </c>
       <c r="C122">
-        <v>-31</v>
+        <v>-30.1</v>
       </c>
       <c r="D122">
-        <v>-48.4</v>
+        <v>-46</v>
       </c>
       <c r="E122">
-        <v>-55.2</v>
+        <v>-50.9</v>
       </c>
       <c r="F122">
-        <v>-89.6</v>
+        <v>-80.7</v>
       </c>
       <c r="G122">
         <v>-1.63</v>
@@ -5511,16 +5511,16 @@
         <v>131</v>
       </c>
       <c r="C123">
-        <v>-30</v>
+        <v>-28.4</v>
       </c>
       <c r="D123">
-        <v>-42.4</v>
+        <v>-38.3</v>
       </c>
       <c r="E123">
-        <v>-49.7</v>
+        <v>-41.9</v>
       </c>
       <c r="F123">
-        <v>-92.7</v>
+        <v>-75.7</v>
       </c>
       <c r="G123">
         <v>-2.23</v>
@@ -5543,16 +5543,16 @@
         <v>132</v>
       </c>
       <c r="C124">
-        <v>-24.5</v>
+        <v>-23.1</v>
       </c>
       <c r="D124">
-        <v>-36.8</v>
+        <v>-33.2</v>
       </c>
       <c r="E124">
-        <v>-38</v>
+        <v>-31</v>
       </c>
       <c r="F124">
-        <v>-91.6</v>
+        <v>-76.5</v>
       </c>
       <c r="G124">
         <v>-2.08</v>
@@ -5575,16 +5575,16 @@
         <v>133</v>
       </c>
       <c r="C125">
-        <v>-37.8</v>
+        <v>-36.5</v>
       </c>
       <c r="D125">
-        <v>-37.8</v>
+        <v>-34.4</v>
       </c>
       <c r="E125">
-        <v>-45.8</v>
+        <v>-39.7</v>
       </c>
       <c r="F125">
-        <v>-89.4</v>
+        <v>-76.7</v>
       </c>
       <c r="G125">
         <v>-1.65</v>
@@ -5607,16 +5607,16 @@
         <v>134</v>
       </c>
       <c r="C126">
-        <v>-30.9</v>
+        <v>-29.6</v>
       </c>
       <c r="D126">
-        <v>-34.3</v>
+        <v>-31</v>
       </c>
       <c r="E126">
-        <v>-36.3</v>
+        <v>-29.9</v>
       </c>
       <c r="F126">
-        <v>-89</v>
+        <v>-75.7</v>
       </c>
       <c r="G126">
         <v>-1.67</v>
@@ -5639,16 +5639,16 @@
         <v>135</v>
       </c>
       <c r="C127">
-        <v>-22.2</v>
+        <v>-20.6</v>
       </c>
       <c r="D127">
-        <v>-25.2</v>
+        <v>-20.6</v>
       </c>
       <c r="E127">
-        <v>-24.6</v>
+        <v>-16</v>
       </c>
       <c r="F127">
-        <v>-91.6</v>
+        <v>-73.2</v>
       </c>
       <c r="G127">
         <v>-1.92</v>
@@ -5671,16 +5671,16 @@
         <v>136</v>
       </c>
       <c r="C128">
-        <v>-24.9</v>
+        <v>-23.6</v>
       </c>
       <c r="D128">
-        <v>-32.6</v>
+        <v>-29.2</v>
       </c>
       <c r="E128">
-        <v>-31.1</v>
+        <v>-24.4</v>
       </c>
       <c r="F128">
-        <v>-92.5</v>
+        <v>-78.2</v>
       </c>
       <c r="G128">
         <v>-2.23</v>
@@ -5703,16 +5703,16 @@
         <v>137</v>
       </c>
       <c r="C129">
-        <v>-34.8</v>
+        <v>-33.6</v>
       </c>
       <c r="D129">
-        <v>-38.2</v>
+        <v>-35.2</v>
       </c>
       <c r="E129">
-        <v>-43.5</v>
+        <v>-38</v>
       </c>
       <c r="F129">
-        <v>-92.2</v>
+        <v>-81.2</v>
       </c>
       <c r="G129">
         <v>-1.63</v>
@@ -5735,16 +5735,16 @@
         <v>138</v>
       </c>
       <c r="C130">
-        <v>-37.8</v>
+        <v>-36.4</v>
       </c>
       <c r="D130">
-        <v>-40.2</v>
+        <v>-36.8</v>
       </c>
       <c r="E130">
-        <v>-46</v>
+        <v>-39.8</v>
       </c>
       <c r="F130">
-        <v>-94.3</v>
+        <v>-81.5</v>
       </c>
       <c r="G130">
         <v>-1.63</v>
@@ -5767,16 +5767,16 @@
         <v>139</v>
       </c>
       <c r="C131">
-        <v>-31.8</v>
+        <v>-31</v>
       </c>
       <c r="D131">
-        <v>-47.1</v>
+        <v>-45.3</v>
       </c>
       <c r="E131">
-        <v>-51.9</v>
+        <v>-48.7</v>
       </c>
       <c r="F131">
-        <v>-92.6</v>
+        <v>-85.4</v>
       </c>
       <c r="G131">
         <v>-1.63</v>
@@ -5799,16 +5799,16 @@
         <v>140</v>
       </c>
       <c r="C132">
-        <v>-28.4</v>
+        <v>-26.8</v>
       </c>
       <c r="D132">
-        <v>-36.5</v>
+        <v>-32.2</v>
       </c>
       <c r="E132">
-        <v>-36.9</v>
+        <v>-28.5</v>
       </c>
       <c r="F132">
-        <v>-93.2</v>
+        <v>-75.2</v>
       </c>
       <c r="G132">
         <v>-2.35</v>
@@ -5831,16 +5831,16 @@
         <v>141</v>
       </c>
       <c r="C133">
-        <v>-53.9</v>
+        <v>-53.1</v>
       </c>
       <c r="D133">
-        <v>-59.3</v>
+        <v>-57.2</v>
       </c>
       <c r="E133">
-        <v>-66.1</v>
+        <v>-62.5</v>
       </c>
       <c r="F133">
-        <v>-93.3</v>
+        <v>-86.2</v>
       </c>
       <c r="G133">
         <v>-1.01</v>
@@ -5863,16 +5863,16 @@
         <v>142</v>
       </c>
       <c r="C134">
-        <v>-48.8</v>
+        <v>-48.4</v>
       </c>
       <c r="D134">
-        <v>-48.5</v>
+        <v>-47.3</v>
       </c>
       <c r="E134">
-        <v>-61</v>
+        <v>-59</v>
       </c>
       <c r="F134">
-        <v>-91.6</v>
+        <v>-87.7</v>
       </c>
       <c r="G134">
         <v>-1.01</v>
@@ -5895,16 +5895,16 @@
         <v>143</v>
       </c>
       <c r="C135">
-        <v>-23.8</v>
+        <v>-22.4</v>
       </c>
       <c r="D135">
-        <v>-34.5</v>
+        <v>-31</v>
       </c>
       <c r="E135">
-        <v>-33.8</v>
+        <v>-27.2</v>
       </c>
       <c r="F135">
-        <v>-94.3</v>
+        <v>-80.5</v>
       </c>
       <c r="G135">
         <v>-2.13</v>
@@ -5927,16 +5927,16 @@
         <v>144</v>
       </c>
       <c r="C136">
-        <v>-34</v>
+        <v>-32.8</v>
       </c>
       <c r="D136">
-        <v>-38.7</v>
+        <v>-35.3</v>
       </c>
       <c r="E136">
-        <v>-33</v>
+        <v>-26.7</v>
       </c>
       <c r="F136">
-        <v>-94.2</v>
+        <v>-81.1</v>
       </c>
       <c r="G136">
         <v>-2.18</v>
@@ -5959,16 +5959,16 @@
         <v>145</v>
       </c>
       <c r="C137">
-        <v>-15.7</v>
+        <v>-13.9</v>
       </c>
       <c r="D137">
-        <v>-9.2</v>
+        <v>-4.1</v>
       </c>
       <c r="E137">
-        <v>-20.4</v>
+        <v>-11.1</v>
       </c>
       <c r="F137">
-        <v>-86.5</v>
+        <v>-66</v>
       </c>
       <c r="G137">
         <v>-1.77</v>
@@ -5991,16 +5991,16 @@
         <v>146</v>
       </c>
       <c r="C138">
-        <v>-33.7</v>
+        <v>-32.1</v>
       </c>
       <c r="D138">
-        <v>-49.5</v>
+        <v>-45.8</v>
       </c>
       <c r="E138">
-        <v>-60.4</v>
+        <v>-53.6</v>
       </c>
       <c r="F138">
-        <v>-95.1</v>
+        <v>-81.7</v>
       </c>
       <c r="G138">
         <v>-3.26</v>
@@ -6023,16 +6023,16 @@
         <v>147</v>
       </c>
       <c r="C139">
-        <v>-44.2</v>
+        <v>-42.8</v>
       </c>
       <c r="D139">
-        <v>-53.8</v>
+        <v>-50.7</v>
       </c>
       <c r="E139">
-        <v>-56.5</v>
+        <v>-50.1</v>
       </c>
       <c r="F139">
-        <v>-94.9</v>
+        <v>-81.7</v>
       </c>
       <c r="G139">
         <v>-3.25</v>
@@ -6055,16 +6055,16 @@
         <v>148</v>
       </c>
       <c r="C140">
-        <v>-31.7</v>
+        <v>-29.8</v>
       </c>
       <c r="D140">
-        <v>-43.4</v>
+        <v>-38.5</v>
       </c>
       <c r="E140">
-        <v>-47.4</v>
+        <v>-37.9</v>
       </c>
       <c r="F140">
-        <v>-93</v>
+        <v>-73</v>
       </c>
       <c r="G140">
         <v>-2.37</v>
@@ -6087,16 +6087,16 @@
         <v>149</v>
       </c>
       <c r="C141">
-        <v>-30.4</v>
+        <v>-28.5</v>
       </c>
       <c r="D141">
-        <v>-40.7</v>
+        <v>-36.2</v>
       </c>
       <c r="E141">
-        <v>-49.8</v>
+        <v>-41.3</v>
       </c>
       <c r="F141">
-        <v>-93.9</v>
+        <v>-75.8</v>
       </c>
       <c r="G141">
         <v>-2.39</v>
@@ -6119,16 +6119,16 @@
         <v>150</v>
       </c>
       <c r="C142">
-        <v>-57.3</v>
+        <v>-56.5</v>
       </c>
       <c r="D142">
-        <v>-62</v>
+        <v>-59.9</v>
       </c>
       <c r="E142">
-        <v>-70.8</v>
+        <v>-67</v>
       </c>
       <c r="F142">
-        <v>-90.5</v>
+        <v>-82.6</v>
       </c>
       <c r="G142">
         <v>-1.24</v>
@@ -6151,16 +6151,16 @@
         <v>151</v>
       </c>
       <c r="C143">
-        <v>-38.6</v>
+        <v>-37</v>
       </c>
       <c r="D143">
-        <v>-54.6</v>
+        <v>-50.8</v>
       </c>
       <c r="E143">
-        <v>-64.8</v>
+        <v>-57.7</v>
       </c>
       <c r="F143">
-        <v>-95.3</v>
+        <v>-81.2</v>
       </c>
       <c r="G143">
         <v>-3.26</v>
@@ -6183,16 +6183,16 @@
         <v>152</v>
       </c>
       <c r="C144">
-        <v>-47.3</v>
+        <v>-45.7</v>
       </c>
       <c r="D144">
-        <v>-52.4</v>
+        <v>-48.4</v>
       </c>
       <c r="E144">
-        <v>-60.2</v>
+        <v>-52.9</v>
       </c>
       <c r="F144">
-        <v>-93.1</v>
+        <v>-78.2</v>
       </c>
       <c r="G144">
         <v>-1.87</v>
@@ -6215,16 +6215,16 @@
         <v>153</v>
       </c>
       <c r="C145">
-        <v>-39.8</v>
+        <v>-38</v>
       </c>
       <c r="D145">
-        <v>-50.3</v>
+        <v>-45.8</v>
       </c>
       <c r="E145">
-        <v>-53.2</v>
+        <v>-45</v>
       </c>
       <c r="F145">
-        <v>-92.2</v>
+        <v>-74.9</v>
       </c>
       <c r="G145">
         <v>-1.96</v>
@@ -6247,16 +6247,16 @@
         <v>154</v>
       </c>
       <c r="C146">
-        <v>-51.1</v>
+        <v>-50.1</v>
       </c>
       <c r="D146">
-        <v>-54.4</v>
+        <v>-52.1</v>
       </c>
       <c r="E146">
-        <v>-65.1</v>
+        <v>-60.8</v>
       </c>
       <c r="F146">
-        <v>-86.4</v>
+        <v>-77.3</v>
       </c>
       <c r="G146">
         <v>-1.49</v>
@@ -6279,16 +6279,16 @@
         <v>155</v>
       </c>
       <c r="C147">
-        <v>-38.1</v>
+        <v>-37.2</v>
       </c>
       <c r="D147">
-        <v>-50.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E147">
-        <v>-55.2</v>
+        <v>-51.3</v>
       </c>
       <c r="F147">
-        <v>-93.3</v>
+        <v>-84.9</v>
       </c>
       <c r="G147">
         <v>-1.63</v>
@@ -6311,16 +6311,16 @@
         <v>156</v>
       </c>
       <c r="C148">
-        <v>-34.4</v>
+        <v>-28.4</v>
       </c>
       <c r="D148">
-        <v>-48</v>
+        <v>-35.2</v>
       </c>
       <c r="E148">
-        <v>-67.6</v>
+        <v>-44.7</v>
       </c>
       <c r="F148">
-        <v>-98.6</v>
+        <v>-46.9</v>
       </c>
       <c r="G148">
         <v>-2.08</v>
@@ -6343,16 +6343,16 @@
         <v>157</v>
       </c>
       <c r="C149">
-        <v>-51.2</v>
+        <v>-50.8</v>
       </c>
       <c r="D149">
-        <v>-45.8</v>
+        <v>-44.8</v>
       </c>
       <c r="E149">
-        <v>-58.9</v>
+        <v>-57.1</v>
       </c>
       <c r="F149">
-        <v>-89.4</v>
+        <v>-85.7</v>
       </c>
       <c r="G149">
         <v>-1.01</v>
@@ -6375,16 +6375,16 @@
         <v>158</v>
       </c>
       <c r="C150">
-        <v>-14</v>
+        <v>-11.1</v>
       </c>
       <c r="D150">
-        <v>-15.8</v>
+        <v>-8.4</v>
       </c>
       <c r="E150">
-        <v>-30.8</v>
+        <v>-17.8</v>
       </c>
       <c r="F150">
-        <v>-89.8</v>
+        <v>-62.2</v>
       </c>
       <c r="G150">
         <v>-1.92</v>
@@ -6407,16 +6407,16 @@
         <v>159</v>
       </c>
       <c r="C151">
-        <v>-18.4</v>
+        <v>-16.9</v>
       </c>
       <c r="D151">
-        <v>-37.1</v>
+        <v>-33.6</v>
       </c>
       <c r="E151">
-        <v>-50.7</v>
+        <v>-44.8</v>
       </c>
       <c r="F151">
-        <v>-93.1</v>
+        <v>-80</v>
       </c>
       <c r="G151">
         <v>-1.68</v>
@@ -6439,16 +6439,16 @@
         <v>160</v>
       </c>
       <c r="C152">
-        <v>-14.1</v>
+        <v>-12.1</v>
       </c>
       <c r="D152">
-        <v>-33.5</v>
+        <v>-28.6</v>
       </c>
       <c r="E152">
-        <v>-47</v>
+        <v>-38.9</v>
       </c>
       <c r="F152">
-        <v>-90.7</v>
+        <v>-72.9</v>
       </c>
       <c r="G152">
         <v>-1.66</v>
@@ -6471,16 +6471,16 @@
         <v>161</v>
       </c>
       <c r="C153">
-        <v>-20.4</v>
+        <v>-19.2</v>
       </c>
       <c r="D153">
-        <v>-36.6</v>
+        <v>-33.5</v>
       </c>
       <c r="E153">
-        <v>-46</v>
+        <v>-40.7</v>
       </c>
       <c r="F153">
-        <v>-89.3</v>
+        <v>-77.7</v>
       </c>
       <c r="G153">
         <v>-1.63</v>
@@ -6503,16 +6503,16 @@
         <v>162</v>
       </c>
       <c r="C154">
-        <v>-7.2</v>
+        <v>-5.6</v>
       </c>
       <c r="D154">
-        <v>-27.9</v>
+        <v>-24</v>
       </c>
       <c r="E154">
-        <v>-53.7</v>
+        <v>-47.4</v>
       </c>
       <c r="F154">
-        <v>-93</v>
+        <v>-81.2</v>
       </c>
       <c r="G154">
         <v>-3.16</v>
@@ -6535,16 +6535,16 @@
         <v>163</v>
       </c>
       <c r="C155">
-        <v>-23.1</v>
+        <v>-20.5</v>
       </c>
       <c r="D155">
-        <v>-47.2</v>
+        <v>-41</v>
       </c>
       <c r="E155">
-        <v>-58.1</v>
+        <v>-46.7</v>
       </c>
       <c r="F155">
-        <v>-98</v>
+        <v>-76</v>
       </c>
       <c r="G155">
         <v>-3.14</v>
@@ -6567,16 +6567,16 @@
         <v>164</v>
       </c>
       <c r="C156">
-        <v>-33.1</v>
+        <v>-28.9</v>
       </c>
       <c r="D156">
-        <v>-47</v>
+        <v>-37.9</v>
       </c>
       <c r="E156">
-        <v>-58.8</v>
+        <v>-42.8</v>
       </c>
       <c r="F156">
-        <v>-98.8</v>
+        <v>-63.6</v>
       </c>
       <c r="G156">
         <v>-2.15</v>
@@ -6599,16 +6599,16 @@
         <v>165</v>
       </c>
       <c r="C157">
-        <v>-32.1</v>
+        <v>-29.4</v>
       </c>
       <c r="D157">
-        <v>-35</v>
+        <v>-29.2</v>
       </c>
       <c r="E157">
-        <v>-62</v>
+        <v>-51.2</v>
       </c>
       <c r="F157">
-        <v>-95.8</v>
+        <v>-74.7</v>
       </c>
       <c r="G157">
         <v>-1.09</v>
@@ -6631,16 +6631,16 @@
         <v>166</v>
       </c>
       <c r="C158">
-        <v>-28.5</v>
+        <v>-25.1</v>
       </c>
       <c r="D158">
-        <v>-31.8</v>
+        <v>-24.5</v>
       </c>
       <c r="E158">
-        <v>-59.8</v>
+        <v>-45.9</v>
       </c>
       <c r="F158">
-        <v>-93.8</v>
+        <v>-67</v>
       </c>
       <c r="G158">
         <v>-1.13</v>
@@ -6663,16 +6663,16 @@
         <v>167</v>
       </c>
       <c r="C159">
-        <v>-16.6</v>
+        <v>-16</v>
       </c>
       <c r="D159">
-        <v>-10.7</v>
+        <v>-9.2</v>
       </c>
       <c r="E159">
-        <v>-57</v>
+        <v>-54.6</v>
       </c>
       <c r="F159">
-        <v>-89.1</v>
+        <v>-84.2</v>
       </c>
       <c r="G159">
         <v>-1.22</v>
@@ -6695,16 +6695,16 @@
         <v>168</v>
       </c>
       <c r="C160">
-        <v>-19.9</v>
+        <v>-19.6</v>
       </c>
       <c r="D160">
-        <v>-8.6</v>
+        <v>-7.8</v>
       </c>
       <c r="E160">
-        <v>-58.8</v>
+        <v>-57.5</v>
       </c>
       <c r="F160">
-        <v>-88.5</v>
+        <v>-86.2</v>
       </c>
       <c r="G160">
         <v>-1.7</v>
@@ -6727,16 +6727,16 @@
         <v>169</v>
       </c>
       <c r="C161">
-        <v>-19.1</v>
+        <v>-18.6</v>
       </c>
       <c r="D161">
-        <v>-16.8</v>
+        <v>-15.8</v>
       </c>
       <c r="E161">
-        <v>-60.1</v>
+        <v>-58.4</v>
       </c>
       <c r="F161">
-        <v>-85.5</v>
+        <v>-82.3</v>
       </c>
       <c r="G161">
         <v>-1.68</v>
@@ -6759,16 +6759,16 @@
         <v>170</v>
       </c>
       <c r="C162">
-        <v>-14.5</v>
+        <v>-13.6</v>
       </c>
       <c r="D162">
-        <v>-10.3</v>
+        <v>-8.2</v>
       </c>
       <c r="E162">
-        <v>-60.2</v>
+        <v>-56.6</v>
       </c>
       <c r="F162">
-        <v>-88.1</v>
+        <v>-80.4</v>
       </c>
       <c r="G162">
         <v>-1.1</v>
@@ -6791,16 +6791,16 @@
         <v>171</v>
       </c>
       <c r="C163">
-        <v>-9</v>
+        <v>-7.7</v>
       </c>
       <c r="D163">
-        <v>-7.2</v>
+        <v>-4.3</v>
       </c>
       <c r="E163">
-        <v>-53.5</v>
+        <v>-48.1</v>
       </c>
       <c r="F163">
-        <v>-88.5</v>
+        <v>-77.3</v>
       </c>
       <c r="G163">
         <v>-1.04</v>
@@ -6823,16 +6823,16 @@
         <v>172</v>
       </c>
       <c r="C164">
-        <v>-16.9</v>
+        <v>-16.6</v>
       </c>
       <c r="D164">
-        <v>-9.6</v>
+        <v>-8.8</v>
       </c>
       <c r="E164">
-        <v>-57.7</v>
+        <v>-56.4</v>
       </c>
       <c r="F164">
-        <v>-88.2</v>
+        <v>-85.8</v>
       </c>
       <c r="G164">
         <v>-1.83</v>
@@ -6855,16 +6855,16 @@
         <v>173</v>
       </c>
       <c r="C165">
-        <v>-23.2</v>
+        <v>-22.2</v>
       </c>
       <c r="D165">
-        <v>-13.6</v>
+        <v>-11.2</v>
       </c>
       <c r="E165">
-        <v>-55</v>
+        <v>-51.2</v>
       </c>
       <c r="F165">
-        <v>-86.5</v>
+        <v>-79.8</v>
       </c>
       <c r="G165">
         <v>-1.8</v>
@@ -6887,16 +6887,16 @@
         <v>174</v>
       </c>
       <c r="C166">
-        <v>-28.8</v>
+        <v>-28.1</v>
       </c>
       <c r="D166">
-        <v>-24.8</v>
+        <v>-23.3</v>
       </c>
       <c r="E166">
-        <v>-63.1</v>
+        <v>-60.7</v>
       </c>
       <c r="F166">
-        <v>-87.2</v>
+        <v>-82.2</v>
       </c>
       <c r="G166">
         <v>-1.7</v>
@@ -6919,16 +6919,16 @@
         <v>175</v>
       </c>
       <c r="C167">
-        <v>-60.4</v>
+        <v>-60.3</v>
       </c>
       <c r="D167">
-        <v>-53.3</v>
+        <v>-53.2</v>
       </c>
       <c r="E167">
-        <v>-63.9</v>
+        <v>-63.8</v>
       </c>
       <c r="F167">
-        <v>-80</v>
+        <v>-79.7</v>
       </c>
       <c r="G167">
         <v>-1.4</v>
@@ -6954,13 +6954,13 @@
         <v>-57.7</v>
       </c>
       <c r="D168">
-        <v>-51.3</v>
+        <v>-51.2</v>
       </c>
       <c r="E168">
-        <v>-62.2</v>
+        <v>-61.9</v>
       </c>
       <c r="F168">
-        <v>-78.9</v>
+        <v>-78.2</v>
       </c>
       <c r="G168">
         <v>-1.52</v>
@@ -6986,13 +6986,13 @@
         <v>-61.9</v>
       </c>
       <c r="D169">
-        <v>-54.5</v>
+        <v>-54.4</v>
       </c>
       <c r="E169">
-        <v>-63.3</v>
+        <v>-63.2</v>
       </c>
       <c r="F169">
-        <v>-79.7</v>
+        <v>-79.4</v>
       </c>
       <c r="G169">
         <v>-1.39</v>
@@ -7015,16 +7015,16 @@
         <v>178</v>
       </c>
       <c r="C170">
-        <v>-24.3</v>
+        <v>-23.4</v>
       </c>
       <c r="D170">
-        <v>-21.9</v>
+        <v>-19.8</v>
       </c>
       <c r="E170">
-        <v>-57.4</v>
+        <v>-53.6</v>
       </c>
       <c r="F170">
-        <v>-84</v>
+        <v>-76</v>
       </c>
       <c r="G170">
         <v>-1.06</v>
@@ -7047,16 +7047,16 @@
         <v>179</v>
       </c>
       <c r="C171">
-        <v>-21</v>
+        <v>-19.6</v>
       </c>
       <c r="D171">
-        <v>-19.4</v>
+        <v>-16.1</v>
       </c>
       <c r="E171">
-        <v>-54.7</v>
+        <v>-48.6</v>
       </c>
       <c r="F171">
-        <v>-85.9</v>
+        <v>-73.6</v>
       </c>
       <c r="G171">
         <v>-0.92</v>
@@ -7079,16 +7079,16 @@
         <v>180</v>
       </c>
       <c r="C172">
-        <v>-25.6</v>
+        <v>-24.1</v>
       </c>
       <c r="D172">
-        <v>-23.7</v>
+        <v>-20.5</v>
       </c>
       <c r="E172">
-        <v>-52</v>
+        <v>-45.8</v>
       </c>
       <c r="F172">
-        <v>-78.6</v>
+        <v>-66.3</v>
       </c>
       <c r="G172">
         <v>-0.83</v>
@@ -7175,16 +7175,16 @@
         <v>183</v>
       </c>
       <c r="C175">
-        <v>-40.4</v>
+        <v>-40.1</v>
       </c>
       <c r="D175">
-        <v>-43.5</v>
+        <v>-42.8</v>
       </c>
       <c r="E175">
-        <v>-64.8</v>
+        <v>-63.6</v>
       </c>
       <c r="F175">
-        <v>-83.5</v>
+        <v>-81.2</v>
       </c>
       <c r="G175">
         <v>-1.12</v>
@@ -7207,16 +7207,16 @@
         <v>184</v>
       </c>
       <c r="C176">
-        <v>-31.6</v>
+        <v>-30.6</v>
       </c>
       <c r="D176">
-        <v>-27.3</v>
+        <v>-24.9</v>
       </c>
       <c r="E176">
-        <v>-61.2</v>
+        <v>-57.2</v>
       </c>
       <c r="F176">
-        <v>-87.4</v>
+        <v>-79.7</v>
       </c>
       <c r="G176">
         <v>-1.72</v>
@@ -7239,16 +7239,16 @@
         <v>185</v>
       </c>
       <c r="C177">
-        <v>-32</v>
+        <v>-31.3</v>
       </c>
       <c r="D177">
-        <v>-30.4</v>
+        <v>-28.8</v>
       </c>
       <c r="E177">
-        <v>-63.7</v>
+        <v>-61.2</v>
       </c>
       <c r="F177">
-        <v>-85.4</v>
+        <v>-80.7</v>
       </c>
       <c r="G177">
         <v>-2.61</v>
@@ -7271,16 +7271,16 @@
         <v>186</v>
       </c>
       <c r="C178">
-        <v>-51.6</v>
+        <v>-51</v>
       </c>
       <c r="D178">
-        <v>-49.8</v>
+        <v>-48.7</v>
       </c>
       <c r="E178">
-        <v>-58.9</v>
+        <v>-57</v>
       </c>
       <c r="F178">
-        <v>-82</v>
+        <v>-77.7</v>
       </c>
       <c r="G178">
         <v>-1.03</v>
@@ -7309,10 +7309,10 @@
         <v>-42.3</v>
       </c>
       <c r="E179">
-        <v>-52.2</v>
+        <v>-52.1</v>
       </c>
       <c r="F179">
-        <v>-73.1</v>
+        <v>-72.9</v>
       </c>
       <c r="G179">
         <v>-1.52</v>
@@ -7338,13 +7338,13 @@
         <v>-54.4</v>
       </c>
       <c r="D180">
-        <v>-47.8</v>
+        <v>-47.7</v>
       </c>
       <c r="E180">
-        <v>-57.6</v>
+        <v>-57.4</v>
       </c>
       <c r="F180">
-        <v>-81.4</v>
+        <v>-81</v>
       </c>
       <c r="G180">
         <v>-1.45</v>
@@ -7367,16 +7367,16 @@
         <v>189</v>
       </c>
       <c r="C181">
-        <v>-26.8</v>
+        <v>-25</v>
       </c>
       <c r="D181">
-        <v>-29.6</v>
+        <v>-25.9</v>
       </c>
       <c r="E181">
-        <v>-47.8</v>
+        <v>-40.4</v>
       </c>
       <c r="F181">
-        <v>-82.5</v>
+        <v>-68</v>
       </c>
       <c r="G181">
         <v>-0.57</v>
@@ -7399,16 +7399,16 @@
         <v>190</v>
       </c>
       <c r="C182">
-        <v>-22.8</v>
+        <v>-21.3</v>
       </c>
       <c r="D182">
-        <v>-28.7</v>
+        <v>-25.5</v>
       </c>
       <c r="E182">
-        <v>-45</v>
+        <v>-38.8</v>
       </c>
       <c r="F182">
-        <v>-85.9</v>
+        <v>-74</v>
       </c>
       <c r="G182">
         <v>-0.52</v>
@@ -7431,16 +7431,16 @@
         <v>191</v>
       </c>
       <c r="C183">
-        <v>-30.3</v>
+        <v>-29.2</v>
       </c>
       <c r="D183">
-        <v>-35.1</v>
+        <v>-32.7</v>
       </c>
       <c r="E183">
-        <v>-53.2</v>
+        <v>-48.6</v>
       </c>
       <c r="F183">
-        <v>-91.4</v>
+        <v>-83.2</v>
       </c>
       <c r="G183">
         <v>-0.65</v>
@@ -7463,16 +7463,16 @@
         <v>192</v>
       </c>
       <c r="C184">
-        <v>-18.2</v>
+        <v>-16.7</v>
       </c>
       <c r="D184">
-        <v>-19.4</v>
+        <v>-16.1</v>
       </c>
       <c r="E184">
-        <v>-36.3</v>
+        <v>-29.4</v>
       </c>
       <c r="F184">
-        <v>-87.8</v>
+        <v>-75.2</v>
       </c>
       <c r="G184">
         <v>-0.72</v>
@@ -7495,16 +7495,16 @@
         <v>193</v>
       </c>
       <c r="C185">
-        <v>-20.4</v>
+        <v>-19</v>
       </c>
       <c r="D185">
-        <v>-22.9</v>
+        <v>-19.9</v>
       </c>
       <c r="E185">
-        <v>-33.5</v>
+        <v>-27.7</v>
       </c>
       <c r="F185">
-        <v>-91.2</v>
+        <v>-80.5</v>
       </c>
       <c r="G185">
         <v>-0.65</v>
@@ -7565,10 +7565,10 @@
         <v>-52</v>
       </c>
       <c r="E187">
-        <v>-48.5</v>
+        <v>-48.4</v>
       </c>
       <c r="F187">
-        <v>-82.3</v>
+        <v>-82</v>
       </c>
       <c r="G187">
         <v>-1.45</v>
@@ -7591,16 +7591,16 @@
         <v>196</v>
       </c>
       <c r="C188">
-        <v>-35.9</v>
+        <v>-35.1</v>
       </c>
       <c r="D188">
-        <v>-27.6</v>
+        <v>-25.6</v>
       </c>
       <c r="E188">
-        <v>-51.8</v>
+        <v>-48.7</v>
       </c>
       <c r="F188">
-        <v>-81.7</v>
+        <v>-75.8</v>
       </c>
       <c r="G188">
         <v>-3.03</v>
@@ -7623,16 +7623,16 @@
         <v>197</v>
       </c>
       <c r="C189">
-        <v>-36.9</v>
+        <v>-36.3</v>
       </c>
       <c r="D189">
-        <v>-31.6</v>
+        <v>-30.4</v>
       </c>
       <c r="E189">
-        <v>-44.8</v>
+        <v>-42.5</v>
       </c>
       <c r="F189">
-        <v>-81.7</v>
+        <v>-76.9</v>
       </c>
       <c r="G189">
         <v>-2.94</v>
@@ -7655,16 +7655,16 @@
         <v>198</v>
       </c>
       <c r="C190">
-        <v>-21.3</v>
+        <v>-19.8</v>
       </c>
       <c r="D190">
-        <v>-31.2</v>
+        <v>-27.7</v>
       </c>
       <c r="E190">
-        <v>-53.1</v>
+        <v>-46.7</v>
       </c>
       <c r="F190">
-        <v>-96.4</v>
+        <v>-82.3</v>
       </c>
       <c r="G190">
         <v>-0.97</v>
@@ -7687,16 +7687,16 @@
         <v>199</v>
       </c>
       <c r="C191">
-        <v>-25.3</v>
+        <v>-24.1</v>
       </c>
       <c r="D191">
-        <v>-38.2</v>
+        <v>-35.5</v>
       </c>
       <c r="E191">
-        <v>-46.4</v>
+        <v>-41.2</v>
       </c>
       <c r="F191">
-        <v>-90</v>
+        <v>-78.4</v>
       </c>
       <c r="G191">
         <v>-0.94</v>
@@ -7719,16 +7719,16 @@
         <v>200</v>
       </c>
       <c r="C192">
-        <v>-48.9</v>
+        <v>-48</v>
       </c>
       <c r="D192">
-        <v>-49.2</v>
+        <v>-46.9</v>
       </c>
       <c r="E192">
-        <v>-63.1</v>
+        <v>-59</v>
       </c>
       <c r="F192">
-        <v>-85.4</v>
+        <v>-76.1</v>
       </c>
       <c r="G192">
         <v>-1.95</v>
@@ -7751,16 +7751,16 @@
         <v>201</v>
       </c>
       <c r="C193">
-        <v>-56.9</v>
+        <v>-55.7</v>
       </c>
       <c r="D193">
-        <v>-58.4</v>
+        <v>-55.6</v>
       </c>
       <c r="E193">
-        <v>-67.1</v>
+        <v>-62</v>
       </c>
       <c r="F193">
-        <v>-89</v>
+        <v>-78</v>
       </c>
       <c r="G193">
         <v>-1.76</v>
@@ -7783,16 +7783,16 @@
         <v>202</v>
       </c>
       <c r="C194">
-        <v>-64.3</v>
+        <v>-63.2</v>
       </c>
       <c r="D194">
-        <v>-63.9</v>
+        <v>-61.4</v>
       </c>
       <c r="E194">
-        <v>-70.4</v>
+        <v>-66</v>
       </c>
       <c r="F194">
-        <v>-92.1</v>
+        <v>-83</v>
       </c>
       <c r="G194">
         <v>-1.71</v>
@@ -7815,16 +7815,16 @@
         <v>203</v>
       </c>
       <c r="C195">
-        <v>-61.5</v>
+        <v>-60.5</v>
       </c>
       <c r="D195">
-        <v>-58.3</v>
+        <v>-56</v>
       </c>
       <c r="E195">
-        <v>-67.9</v>
+        <v>-63.8</v>
       </c>
       <c r="F195">
-        <v>-88.6</v>
+        <v>-80</v>
       </c>
       <c r="G195">
         <v>-1.85</v>
@@ -7847,16 +7847,16 @@
         <v>204</v>
       </c>
       <c r="C196">
-        <v>-66.8</v>
+        <v>-66</v>
       </c>
       <c r="D196">
-        <v>-67.6</v>
+        <v>-65.7</v>
       </c>
       <c r="E196">
-        <v>-72.1</v>
+        <v>-68.8</v>
       </c>
       <c r="F196">
-        <v>-93.7</v>
+        <v>-86.6</v>
       </c>
       <c r="G196">
         <v>-1.67</v>
@@ -7879,16 +7879,16 @@
         <v>205</v>
       </c>
       <c r="C197">
-        <v>-56</v>
+        <v>-55</v>
       </c>
       <c r="D197">
-        <v>-52.2</v>
+        <v>-49.7</v>
       </c>
       <c r="E197">
-        <v>-65.1</v>
+        <v>-60.4</v>
       </c>
       <c r="F197">
-        <v>-88.4</v>
+        <v>-78.7</v>
       </c>
       <c r="G197">
         <v>-1.72</v>
@@ -7911,16 +7911,16 @@
         <v>206</v>
       </c>
       <c r="C198">
-        <v>-48.5</v>
+        <v>-47.6</v>
       </c>
       <c r="D198">
-        <v>-48.5</v>
+        <v>-46</v>
       </c>
       <c r="E198">
-        <v>-61.7</v>
+        <v>-57.2</v>
       </c>
       <c r="F198">
-        <v>-82.9</v>
+        <v>-73.5</v>
       </c>
       <c r="G198">
         <v>-1.83</v>
@@ -7943,16 +7943,16 @@
         <v>207</v>
       </c>
       <c r="C199">
-        <v>-12.6</v>
+        <v>-11.6</v>
       </c>
       <c r="D199">
-        <v>-32.3</v>
+        <v>-30</v>
       </c>
       <c r="E199">
-        <v>-54.7</v>
+        <v>-50.7</v>
       </c>
       <c r="F199">
-        <v>-93.8</v>
+        <v>-86.1</v>
       </c>
       <c r="G199">
         <v>-3.17</v>
@@ -7975,16 +7975,16 @@
         <v>208</v>
       </c>
       <c r="C200">
-        <v>-48.1</v>
+        <v>-47.5</v>
       </c>
       <c r="D200">
-        <v>-44.7</v>
+        <v>-43.4</v>
       </c>
       <c r="E200">
-        <v>-59</v>
+        <v>-56.7</v>
       </c>
       <c r="F200">
-        <v>-90.9</v>
+        <v>-86.4</v>
       </c>
       <c r="G200">
         <v>-1.04</v>
@@ -8007,16 +8007,16 @@
         <v>209</v>
       </c>
       <c r="C201">
-        <v>-18.6</v>
+        <v>-15.8</v>
       </c>
       <c r="D201">
-        <v>-15.6</v>
+        <v>-8</v>
       </c>
       <c r="E201">
-        <v>-22.9</v>
+        <v>-9.3</v>
       </c>
       <c r="F201">
-        <v>-86.9</v>
+        <v>-57.4</v>
       </c>
       <c r="G201">
         <v>-1.97</v>
@@ -8039,16 +8039,16 @@
         <v>210</v>
       </c>
       <c r="C202">
-        <v>-14.4</v>
+        <v>-11.6</v>
       </c>
       <c r="D202">
-        <v>-6.3</v>
+        <v>1.7</v>
       </c>
       <c r="E202">
-        <v>-22.3</v>
+        <v>-8.3</v>
       </c>
       <c r="F202">
-        <v>-87</v>
+        <v>-57.7</v>
       </c>
       <c r="G202">
         <v>-1.93</v>
@@ -8071,16 +8071,16 @@
         <v>211</v>
       </c>
       <c r="C203">
-        <v>-28.9</v>
+        <v>-26.7</v>
       </c>
       <c r="D203">
-        <v>-31.6</v>
+        <v>-25.8</v>
       </c>
       <c r="E203">
-        <v>-27.1</v>
+        <v>-16.4</v>
       </c>
       <c r="F203">
-        <v>-90.5</v>
+        <v>-67</v>
       </c>
       <c r="G203">
         <v>-2.04</v>
@@ -8103,16 +8103,16 @@
         <v>212</v>
       </c>
       <c r="C204">
-        <v>-16</v>
+        <v>-13.7</v>
       </c>
       <c r="D204">
-        <v>-29.3</v>
+        <v>-23.5</v>
       </c>
       <c r="E204">
-        <v>-35.1</v>
+        <v>-24.5</v>
       </c>
       <c r="F204">
-        <v>-92.1</v>
+        <v>-69.1</v>
       </c>
       <c r="G204">
         <v>-1.87</v>
@@ -8135,16 +8135,16 @@
         <v>213</v>
       </c>
       <c r="C205">
-        <v>-12.8</v>
+        <v>-10.2</v>
       </c>
       <c r="D205">
-        <v>-19.5</v>
+        <v>-13.1</v>
       </c>
       <c r="E205">
-        <v>-36.9</v>
+        <v>-25.8</v>
       </c>
       <c r="F205">
-        <v>-90.9</v>
+        <v>-67.3</v>
       </c>
       <c r="G205">
         <v>-1.87</v>
@@ -8167,16 +8167,16 @@
         <v>214</v>
       </c>
       <c r="C206">
-        <v>-9.5</v>
+        <v>-6.9</v>
       </c>
       <c r="D206">
-        <v>-21.9</v>
+        <v>-15.8</v>
       </c>
       <c r="E206">
-        <v>-41.2</v>
+        <v>-31</v>
       </c>
       <c r="F206">
-        <v>-90.8</v>
+        <v>-69.2</v>
       </c>
       <c r="G206">
         <v>-1.82</v>
@@ -8199,16 +8199,16 @@
         <v>215</v>
       </c>
       <c r="C207">
-        <v>-44.2</v>
+        <v>-43.8</v>
       </c>
       <c r="D207">
-        <v>-48.9</v>
+        <v>-48.2</v>
       </c>
       <c r="E207">
-        <v>-70.6</v>
+        <v>-69.2</v>
       </c>
       <c r="F207">
-        <v>-85.3</v>
+        <v>-82.5</v>
       </c>
       <c r="G207">
         <v>-2.73</v>
@@ -8231,16 +8231,16 @@
         <v>216</v>
       </c>
       <c r="C208">
-        <v>-49.8</v>
+        <v>-49</v>
       </c>
       <c r="D208">
-        <v>-44</v>
+        <v>-42</v>
       </c>
       <c r="E208">
-        <v>-58.4</v>
+        <v>-54.7</v>
       </c>
       <c r="F208">
-        <v>-80.7</v>
+        <v>-72.4</v>
       </c>
       <c r="G208">
         <v>-2.21</v>
@@ -8263,16 +8263,16 @@
         <v>217</v>
       </c>
       <c r="C209">
-        <v>-50.4</v>
+        <v>-49.6</v>
       </c>
       <c r="D209">
-        <v>-46.3</v>
+        <v>-44.1</v>
       </c>
       <c r="E209">
-        <v>-61.7</v>
+        <v>-57.7</v>
       </c>
       <c r="F209">
-        <v>-85.3</v>
+        <v>-76.4</v>
       </c>
       <c r="G209">
         <v>-2.15</v>
@@ -8295,16 +8295,16 @@
         <v>218</v>
       </c>
       <c r="C210">
-        <v>-39.8</v>
+        <v>-39</v>
       </c>
       <c r="D210">
-        <v>-43.8</v>
+        <v>-41.9</v>
       </c>
       <c r="E210">
-        <v>-54.5</v>
+        <v>-50.7</v>
       </c>
       <c r="F210">
-        <v>-91.2</v>
+        <v>-83.3</v>
       </c>
       <c r="G210">
         <v>-1.72</v>
@@ -8327,16 +8327,16 @@
         <v>219</v>
       </c>
       <c r="C211">
-        <v>-47.5</v>
+        <v>-46.8</v>
       </c>
       <c r="D211">
-        <v>-49.4</v>
+        <v>-47.8</v>
       </c>
       <c r="E211">
-        <v>-61.4</v>
+        <v>-58.4</v>
       </c>
       <c r="F211">
-        <v>-94.8</v>
+        <v>-88.5</v>
       </c>
       <c r="G211">
         <v>-2.06</v>
@@ -8359,16 +8359,16 @@
         <v>220</v>
       </c>
       <c r="C212">
-        <v>-35</v>
+        <v>-33.8</v>
       </c>
       <c r="D212">
-        <v>-48.2</v>
+        <v>-45.2</v>
       </c>
       <c r="E212">
-        <v>-42.8</v>
+        <v>-36.8</v>
       </c>
       <c r="F212">
-        <v>-89.4</v>
+        <v>-75.6</v>
       </c>
       <c r="G212">
         <v>-1.77</v>
@@ -8391,16 +8391,16 @@
         <v>221</v>
       </c>
       <c r="C213">
-        <v>-48</v>
+        <v>-46.8</v>
       </c>
       <c r="D213">
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="E213">
-        <v>-63.6</v>
+        <v>-58.2</v>
       </c>
       <c r="F213">
-        <v>-92.9</v>
+        <v>-81.8</v>
       </c>
       <c r="G213">
         <v>-1.84</v>
@@ -8423,16 +8423,16 @@
         <v>222</v>
       </c>
       <c r="C214">
-        <v>-42.4</v>
+        <v>-42.2</v>
       </c>
       <c r="D214">
-        <v>-43.8</v>
+        <v>-43.6</v>
       </c>
       <c r="E214">
-        <v>-58.1</v>
+        <v>-57.7</v>
       </c>
       <c r="F214">
-        <v>-79.9</v>
+        <v>-79.1</v>
       </c>
       <c r="G214">
         <v>-1.22</v>
@@ -8455,16 +8455,16 @@
         <v>223</v>
       </c>
       <c r="C215">
-        <v>-45</v>
+        <v>-44.4</v>
       </c>
       <c r="D215">
-        <v>-40.2</v>
+        <v>-38.9</v>
       </c>
       <c r="E215">
-        <v>-51.1</v>
+        <v>-48.5</v>
       </c>
       <c r="F215">
-        <v>-91.6</v>
+        <v>-86</v>
       </c>
       <c r="G215">
         <v>-2.71</v>
@@ -8487,16 +8487,16 @@
         <v>224</v>
       </c>
       <c r="C216">
-        <v>-49.7</v>
+        <v>-48.9</v>
       </c>
       <c r="D216">
-        <v>-46</v>
+        <v>-44.3</v>
       </c>
       <c r="E216">
-        <v>-52</v>
+        <v>-48.8</v>
       </c>
       <c r="F216">
-        <v>-76.6</v>
+        <v>-69.2</v>
       </c>
       <c r="G216">
         <v>-1.92</v>
@@ -8519,16 +8519,16 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>-33.5</v>
+        <v>-32.4</v>
       </c>
       <c r="D217">
-        <v>-46.9</v>
+        <v>-44.1</v>
       </c>
       <c r="E217">
-        <v>-52.3</v>
+        <v>-47.1</v>
       </c>
       <c r="F217">
-        <v>-92.4</v>
+        <v>-81.1</v>
       </c>
       <c r="G217">
         <v>-1.74</v>
@@ -8551,16 +8551,16 @@
         <v>226</v>
       </c>
       <c r="C218">
-        <v>-21</v>
+        <v>-19.4</v>
       </c>
       <c r="D218">
-        <v>-17.2</v>
+        <v>-13.7</v>
       </c>
       <c r="E218">
-        <v>-42.2</v>
+        <v>-36.2</v>
       </c>
       <c r="F218">
-        <v>-81.4</v>
+        <v>-70.1</v>
       </c>
       <c r="G218">
         <v>-0.82</v>
@@ -8583,16 +8583,16 @@
         <v>227</v>
       </c>
       <c r="C219">
-        <v>-23.7</v>
+        <v>-22.7</v>
       </c>
       <c r="D219">
-        <v>-26.8</v>
+        <v>-24.7</v>
       </c>
       <c r="E219">
-        <v>-64.9</v>
+        <v>-61.4</v>
       </c>
       <c r="F219">
-        <v>-85</v>
+        <v>-78.1</v>
       </c>
       <c r="G219">
         <v>-1.32</v>
@@ -8615,16 +8615,16 @@
         <v>228</v>
       </c>
       <c r="C220">
-        <v>-15.8</v>
+        <v>-13.2</v>
       </c>
       <c r="D220">
-        <v>-14</v>
+        <v>-8.3</v>
       </c>
       <c r="E220">
-        <v>-47.3</v>
+        <v>-36.1</v>
       </c>
       <c r="F220">
-        <v>-88.6</v>
+        <v>-65.5</v>
       </c>
       <c r="G220">
         <v>-1.11</v>
@@ -8647,16 +8647,16 @@
         <v>229</v>
       </c>
       <c r="C221">
-        <v>-52.2</v>
+        <v>-51.5</v>
       </c>
       <c r="D221">
-        <v>-45.1</v>
+        <v>-43.8</v>
       </c>
       <c r="E221">
-        <v>-49.3</v>
+        <v>-46.9</v>
       </c>
       <c r="F221">
-        <v>-83.5</v>
+        <v>-78.2</v>
       </c>
       <c r="G221">
         <v>-1.14</v>
@@ -8679,16 +8679,16 @@
         <v>230</v>
       </c>
       <c r="C222">
-        <v>-31.8</v>
+        <v>-31.4</v>
       </c>
       <c r="D222">
-        <v>-35.7</v>
+        <v>-34.8</v>
       </c>
       <c r="E222">
-        <v>-62.3</v>
+        <v>-60.7</v>
       </c>
       <c r="F222">
-        <v>-88.3</v>
+        <v>-85</v>
       </c>
       <c r="G222">
         <v>-3.89</v>
@@ -8711,16 +8711,16 @@
         <v>231</v>
       </c>
       <c r="C223">
-        <v>-48.5</v>
+        <v>-48</v>
       </c>
       <c r="D223">
-        <v>-41.6</v>
+        <v>-40.5</v>
       </c>
       <c r="E223">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="F223">
-        <v>-82.9</v>
+        <v>-78.8</v>
       </c>
       <c r="G223">
         <v>-1.33</v>
@@ -8743,16 +8743,16 @@
         <v>232</v>
       </c>
       <c r="C224">
-        <v>-59.8</v>
+        <v>-58.9</v>
       </c>
       <c r="D224">
-        <v>-49.7</v>
+        <v>-47.9</v>
       </c>
       <c r="E224">
-        <v>-52.3</v>
+        <v>-48.8</v>
       </c>
       <c r="F224">
-        <v>-82</v>
+        <v>-74.5</v>
       </c>
       <c r="G224">
         <v>-1.4</v>
@@ -8778,13 +8778,13 @@
         <v>-54.3</v>
       </c>
       <c r="D225">
-        <v>-50.6</v>
+        <v>-50.5</v>
       </c>
       <c r="E225">
-        <v>-56</v>
+        <v>-55.7</v>
       </c>
       <c r="F225">
-        <v>-78</v>
+        <v>-77.5</v>
       </c>
       <c r="G225">
         <v>-1.36</v>
@@ -8807,16 +8807,16 @@
         <v>234</v>
       </c>
       <c r="C226">
-        <v>-62</v>
+        <v>-61.8</v>
       </c>
       <c r="D226">
-        <v>-57.1</v>
+        <v>-56.7</v>
       </c>
       <c r="E226">
-        <v>-55.7</v>
+        <v>-55</v>
       </c>
       <c r="F226">
-        <v>-78.3</v>
+        <v>-76.6</v>
       </c>
       <c r="G226">
         <v>-2.28</v>
@@ -8839,16 +8839,16 @@
         <v>235</v>
       </c>
       <c r="C227">
-        <v>-52.6</v>
+        <v>-52.5</v>
       </c>
       <c r="D227">
-        <v>-47.2</v>
+        <v>-47.1</v>
       </c>
       <c r="E227">
-        <v>-48.8</v>
+        <v>-48.5</v>
       </c>
       <c r="F227">
-        <v>-83.3</v>
+        <v>-82.5</v>
       </c>
       <c r="G227">
         <v>-2.29</v>
@@ -8871,16 +8871,16 @@
         <v>236</v>
       </c>
       <c r="C228">
-        <v>-19.5</v>
+        <v>-18.6</v>
       </c>
       <c r="D228">
-        <v>-36.7</v>
+        <v>-34.3</v>
       </c>
       <c r="E228">
-        <v>-41</v>
+        <v>-36.6</v>
       </c>
       <c r="F228">
-        <v>-91.2</v>
+        <v>-81.4</v>
       </c>
       <c r="G228">
         <v>-1.7</v>
@@ -8903,16 +8903,16 @@
         <v>237</v>
       </c>
       <c r="C229">
-        <v>-34.7</v>
+        <v>-33.4</v>
       </c>
       <c r="D229">
-        <v>-38.1</v>
+        <v>-34.6</v>
       </c>
       <c r="E229">
-        <v>-33.4</v>
+        <v>-26.8</v>
       </c>
       <c r="F229">
-        <v>-93.7</v>
+        <v>-79.7</v>
       </c>
       <c r="G229">
         <v>-2.2</v>
@@ -8935,16 +8935,16 @@
         <v>238</v>
       </c>
       <c r="C230">
-        <v>-20.8</v>
+        <v>-19.3</v>
       </c>
       <c r="D230">
-        <v>-31.8</v>
+        <v>-27.9</v>
       </c>
       <c r="E230">
-        <v>-31.4</v>
+        <v>-24</v>
       </c>
       <c r="F230">
-        <v>-92.3</v>
+        <v>-76</v>
       </c>
       <c r="G230">
         <v>-1.97</v>
@@ -8967,16 +8967,16 @@
         <v>239</v>
       </c>
       <c r="C231">
-        <v>-20.3</v>
+        <v>-19.6</v>
       </c>
       <c r="D231">
-        <v>-39.7</v>
+        <v>-37.9</v>
       </c>
       <c r="E231">
-        <v>-50.6</v>
+        <v>-47.4</v>
       </c>
       <c r="F231">
-        <v>-89.8</v>
+        <v>-83.3</v>
       </c>
       <c r="G231">
         <v>-1.73</v>
@@ -8999,16 +8999,16 @@
         <v>240</v>
       </c>
       <c r="C232">
-        <v>-27.3</v>
+        <v>-26.3</v>
       </c>
       <c r="D232">
-        <v>-44.9</v>
+        <v>-42.3</v>
       </c>
       <c r="E232">
-        <v>-53.4</v>
+        <v>-48.7</v>
       </c>
       <c r="F232">
-        <v>-90.5</v>
+        <v>-80.8</v>
       </c>
       <c r="G232">
         <v>-1.69</v>
@@ -9031,16 +9031,16 @@
         <v>241</v>
       </c>
       <c r="C233">
-        <v>-32.5</v>
+        <v>-31.4</v>
       </c>
       <c r="D233">
-        <v>-41.5</v>
+        <v>-38.9</v>
       </c>
       <c r="E233">
-        <v>-45.7</v>
+        <v>-40.6</v>
       </c>
       <c r="F233">
-        <v>-87.4</v>
+        <v>-76.5</v>
       </c>
       <c r="G233">
         <v>-0.89</v>
@@ -9063,16 +9063,16 @@
         <v>242</v>
       </c>
       <c r="C234">
-        <v>-37</v>
+        <v>-36</v>
       </c>
       <c r="D234">
-        <v>-44.4</v>
+        <v>-42.1</v>
       </c>
       <c r="E234">
-        <v>-44.6</v>
+        <v>-40</v>
       </c>
       <c r="F234">
-        <v>-85.5</v>
+        <v>-75.5</v>
       </c>
       <c r="G234">
         <v>-1.12</v>
@@ -9095,16 +9095,16 @@
         <v>243</v>
       </c>
       <c r="C235">
-        <v>-40.2</v>
+        <v>-39.1</v>
       </c>
       <c r="D235">
-        <v>-46.1</v>
+        <v>-43.3</v>
       </c>
       <c r="E235">
-        <v>-49.7</v>
+        <v>-44.4</v>
       </c>
       <c r="F235">
-        <v>-90.3</v>
+        <v>-78.6</v>
       </c>
       <c r="G235">
         <v>-1.58</v>
@@ -9127,16 +9127,16 @@
         <v>244</v>
       </c>
       <c r="C236">
-        <v>-37.4</v>
+        <v>-35.8</v>
       </c>
       <c r="D236">
-        <v>-46.1</v>
+        <v>-41.9</v>
       </c>
       <c r="E236">
-        <v>-51.7</v>
+        <v>-43.8</v>
       </c>
       <c r="F236">
-        <v>-92.3</v>
+        <v>-75.2</v>
       </c>
       <c r="G236">
         <v>-2.08</v>
@@ -9159,16 +9159,16 @@
         <v>245</v>
       </c>
       <c r="C237">
-        <v>-45.8</v>
+        <v>-45.2</v>
       </c>
       <c r="D237">
-        <v>-41.7</v>
+        <v>-40.5</v>
       </c>
       <c r="E237">
-        <v>-54.4</v>
+        <v>-51.9</v>
       </c>
       <c r="F237">
-        <v>-91.9</v>
+        <v>-86.4</v>
       </c>
       <c r="G237">
         <v>-2.71</v>
@@ -9191,16 +9191,16 @@
         <v>246</v>
       </c>
       <c r="C238">
-        <v>-37.4</v>
+        <v>-36.4</v>
       </c>
       <c r="D238">
-        <v>-33.6</v>
+        <v>-31.3</v>
       </c>
       <c r="E238">
-        <v>-46.7</v>
+        <v>-42.5</v>
       </c>
       <c r="F238">
-        <v>-84.3</v>
+        <v>-75.1</v>
       </c>
       <c r="G238">
         <v>-1.6</v>
@@ -9223,16 +9223,16 @@
         <v>247</v>
       </c>
       <c r="C239">
-        <v>-41.6</v>
+        <v>-40.3</v>
       </c>
       <c r="D239">
-        <v>-36.6</v>
+        <v>-33.7</v>
       </c>
       <c r="E239">
-        <v>-45.9</v>
+        <v>-40.5</v>
       </c>
       <c r="F239">
-        <v>-81.1</v>
+        <v>-69.7</v>
       </c>
       <c r="G239">
         <v>-2.25</v>
@@ -9255,16 +9255,16 @@
         <v>248</v>
       </c>
       <c r="C240">
-        <v>-38.8</v>
+        <v>-37.7</v>
       </c>
       <c r="D240">
-        <v>-27.8</v>
+        <v>-25.4</v>
       </c>
       <c r="E240">
-        <v>-37</v>
+        <v>-32.4</v>
       </c>
       <c r="F240">
-        <v>-76.1</v>
+        <v>-66</v>
       </c>
       <c r="G240">
         <v>-1.71</v>
@@ -9287,16 +9287,16 @@
         <v>249</v>
       </c>
       <c r="C241">
-        <v>-34.7</v>
+        <v>-34.2</v>
       </c>
       <c r="D241">
-        <v>-33.2</v>
+        <v>-32.2</v>
       </c>
       <c r="E241">
-        <v>-47.4</v>
+        <v>-45.4</v>
       </c>
       <c r="F241">
-        <v>-94.5</v>
+        <v>-90.1</v>
       </c>
       <c r="G241">
         <v>-1.56</v>
@@ -9319,16 +9319,16 @@
         <v>250</v>
       </c>
       <c r="C242">
-        <v>-29.5</v>
+        <v>-29</v>
       </c>
       <c r="D242">
-        <v>-25.6</v>
+        <v>-24.3</v>
       </c>
       <c r="E242">
-        <v>-46.4</v>
+        <v>-44.1</v>
       </c>
       <c r="F242">
-        <v>-86.5</v>
+        <v>-81.8</v>
       </c>
       <c r="G242">
         <v>-1.27</v>
@@ -9351,16 +9351,16 @@
         <v>251</v>
       </c>
       <c r="C243">
-        <v>-49</v>
+        <v>-48.7</v>
       </c>
       <c r="D243">
-        <v>-44.9</v>
+        <v>-44</v>
       </c>
       <c r="E243">
-        <v>-46.3</v>
+        <v>-44.6</v>
       </c>
       <c r="F243">
-        <v>-71.8</v>
+        <v>-68</v>
       </c>
       <c r="G243">
         <v>-1.98</v>
@@ -9383,16 +9383,16 @@
         <v>252</v>
       </c>
       <c r="C244">
-        <v>-32</v>
+        <v>-28.7</v>
       </c>
       <c r="D244">
-        <v>-42</v>
+        <v>-35.1</v>
       </c>
       <c r="E244">
-        <v>-65.3</v>
+        <v>-53</v>
       </c>
       <c r="F244">
-        <v>-98.7</v>
+        <v>-71.3</v>
       </c>
       <c r="G244">
         <v>-1.92</v>
@@ -9415,16 +9415,16 @@
         <v>253</v>
       </c>
       <c r="C245">
-        <v>-36</v>
+        <v>-32.9</v>
       </c>
       <c r="D245">
-        <v>-46.1</v>
+        <v>-39.6</v>
       </c>
       <c r="E245">
-        <v>-68.8</v>
+        <v>-57.1</v>
       </c>
       <c r="F245">
-        <v>-99.2</v>
+        <v>-73.7</v>
       </c>
       <c r="G245">
         <v>-2</v>
@@ -9447,16 +9447,16 @@
         <v>254</v>
       </c>
       <c r="C246">
-        <v>-48.7</v>
+        <v>-48</v>
       </c>
       <c r="D246">
-        <v>-42.2</v>
+        <v>-40.6</v>
       </c>
       <c r="E246">
-        <v>-42.8</v>
+        <v>-39.7</v>
       </c>
       <c r="F246">
-        <v>-68</v>
+        <v>-61</v>
       </c>
       <c r="G246">
         <v>-1.56</v>
@@ -9479,16 +9479,16 @@
         <v>255</v>
       </c>
       <c r="C247">
-        <v>-33</v>
+        <v>-27.5</v>
       </c>
       <c r="D247">
+        <v>-36.2</v>
+      </c>
+      <c r="E247">
         <v>-47.9</v>
       </c>
-      <c r="E247">
-        <v>-68.6</v>
-      </c>
       <c r="F247">
-        <v>-98.9</v>
+        <v>-52.5</v>
       </c>
       <c r="G247">
         <v>-2.12</v>
@@ -9511,16 +9511,16 @@
         <v>256</v>
       </c>
       <c r="C248">
-        <v>-28.6</v>
+        <v>-27.5</v>
       </c>
       <c r="D248">
-        <v>-38.6</v>
+        <v>-36</v>
       </c>
       <c r="E248">
-        <v>-54.8</v>
+        <v>-49.9</v>
       </c>
       <c r="F248">
-        <v>-97.9</v>
+        <v>-87.9</v>
       </c>
       <c r="G248">
         <v>-1.93</v>
@@ -9543,16 +9543,16 @@
         <v>257</v>
       </c>
       <c r="C249">
-        <v>-2.9</v>
+        <v>-1.9</v>
       </c>
       <c r="D249">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E249">
-        <v>-27.4</v>
+        <v>-22.5</v>
       </c>
       <c r="F249">
-        <v>-96.4</v>
+        <v>-87.2</v>
       </c>
       <c r="G249">
         <v>-1.62</v>
@@ -9575,16 +9575,16 @@
         <v>258</v>
       </c>
       <c r="C250">
-        <v>-50.9</v>
+        <v>-50.7</v>
       </c>
       <c r="D250">
-        <v>-46.4</v>
+        <v>-45.9</v>
       </c>
       <c r="E250">
-        <v>-50.5</v>
+        <v>-49.6</v>
       </c>
       <c r="F250">
-        <v>-79.9</v>
+        <v>-77.9</v>
       </c>
       <c r="G250">
         <v>-1.59</v>
@@ -9607,16 +9607,16 @@
         <v>259</v>
       </c>
       <c r="C251">
-        <v>-36</v>
+        <v>-34.7</v>
       </c>
       <c r="D251">
-        <v>-36.7</v>
+        <v>-33.7</v>
       </c>
       <c r="E251">
-        <v>-49.6</v>
+        <v>-44</v>
       </c>
       <c r="F251">
-        <v>-90.2</v>
+        <v>-78.2</v>
       </c>
       <c r="G251">
         <v>-1.86</v>
@@ -9639,16 +9639,16 @@
         <v>260</v>
       </c>
       <c r="C252">
-        <v>-45.4</v>
+        <v>-44.5</v>
       </c>
       <c r="D252">
-        <v>-39.2</v>
+        <v>-37</v>
       </c>
       <c r="E252">
-        <v>-45.4</v>
+        <v>-41.3</v>
       </c>
       <c r="F252">
-        <v>-75.8</v>
+        <v>-67.1</v>
       </c>
       <c r="G252">
         <v>-2.01</v>
@@ -9671,16 +9671,16 @@
         <v>261</v>
       </c>
       <c r="C253">
-        <v>-44.3</v>
+        <v>-43.3</v>
       </c>
       <c r="D253">
-        <v>-40.6</v>
+        <v>-38.3</v>
       </c>
       <c r="E253">
-        <v>-44.7</v>
+        <v>-40.4</v>
       </c>
       <c r="F253">
-        <v>-82.5</v>
+        <v>-73.2</v>
       </c>
       <c r="G253">
         <v>-2.76</v>
@@ -9703,16 +9703,16 @@
         <v>262</v>
       </c>
       <c r="C254">
-        <v>-30.8</v>
+        <v>-30.1</v>
       </c>
       <c r="D254">
-        <v>-29.1</v>
+        <v>-27.8</v>
       </c>
       <c r="E254">
-        <v>-46.2</v>
+        <v>-43.6</v>
       </c>
       <c r="F254">
-        <v>-92</v>
+        <v>-86.2</v>
       </c>
       <c r="G254">
         <v>-1.55</v>
@@ -9735,16 +9735,16 @@
         <v>263</v>
       </c>
       <c r="C255">
-        <v>-20.6</v>
+        <v>-19.7</v>
       </c>
       <c r="D255">
-        <v>-23.5</v>
+        <v>-21.2</v>
       </c>
       <c r="E255">
-        <v>-42.1</v>
+        <v>-37.9</v>
       </c>
       <c r="F255">
-        <v>-98.1</v>
+        <v>-89.5</v>
       </c>
       <c r="G255">
         <v>-1.5</v>
@@ -9767,16 +9767,16 @@
         <v>264</v>
       </c>
       <c r="C256">
-        <v>-36.6</v>
+        <v>-33.9</v>
       </c>
       <c r="D256">
-        <v>-50</v>
+        <v>-44.1</v>
       </c>
       <c r="E256">
-        <v>-62.9</v>
+        <v>-52.6</v>
       </c>
       <c r="F256">
-        <v>-98.6</v>
+        <v>-75.6</v>
       </c>
       <c r="G256">
         <v>-2.67</v>
@@ -9799,16 +9799,16 @@
         <v>265</v>
       </c>
       <c r="C257">
-        <v>-54.2</v>
+        <v>-54.1</v>
       </c>
       <c r="D257">
-        <v>-45.9</v>
+        <v>-45.6</v>
       </c>
       <c r="E257">
-        <v>-48.9</v>
+        <v>-48.4</v>
       </c>
       <c r="F257">
-        <v>-76.5</v>
+        <v>-75.2</v>
       </c>
       <c r="G257">
         <v>-2.8</v>
@@ -9831,16 +9831,16 @@
         <v>266</v>
       </c>
       <c r="C258">
-        <v>-13</v>
+        <v>-11.7</v>
       </c>
       <c r="D258">
-        <v>-11.2</v>
+        <v>-7.8</v>
       </c>
       <c r="E258">
-        <v>-30.7</v>
+        <v>-24.3</v>
       </c>
       <c r="F258">
-        <v>-92</v>
+        <v>-79.2</v>
       </c>
       <c r="G258">
         <v>-1.6</v>
@@ -9863,16 +9863,16 @@
         <v>267</v>
       </c>
       <c r="C259">
-        <v>-35.6</v>
+        <v>-34.8</v>
       </c>
       <c r="D259">
-        <v>-42.9</v>
+        <v>-41.3</v>
       </c>
       <c r="E259">
-        <v>-56.8</v>
+        <v>-53.9</v>
       </c>
       <c r="F259">
-        <v>-99</v>
+        <v>-92.5</v>
       </c>
       <c r="G259">
         <v>-1.54</v>
@@ -9895,16 +9895,16 @@
         <v>268</v>
       </c>
       <c r="C260">
-        <v>-26.3</v>
+        <v>-25.1</v>
       </c>
       <c r="D260">
-        <v>-35.8</v>
+        <v>-33.2</v>
       </c>
       <c r="E260">
-        <v>-54.3</v>
+        <v>-49.5</v>
       </c>
       <c r="F260">
-        <v>-97.9</v>
+        <v>-87.2</v>
       </c>
       <c r="G260">
         <v>-1.31</v>
@@ -9927,16 +9927,16 @@
         <v>269</v>
       </c>
       <c r="C261">
-        <v>-23.4</v>
+        <v>-22</v>
       </c>
       <c r="D261">
-        <v>-31.3</v>
+        <v>-28.1</v>
       </c>
       <c r="E261">
-        <v>-45.9</v>
+        <v>-40.1</v>
       </c>
       <c r="F261">
-        <v>-98</v>
+        <v>-85.9</v>
       </c>
       <c r="G261">
         <v>-1.84</v>
@@ -9959,16 +9959,16 @@
         <v>270</v>
       </c>
       <c r="C262">
-        <v>-20.3</v>
+        <v>-18.9</v>
       </c>
       <c r="D262">
-        <v>-25.1</v>
+        <v>-21.7</v>
       </c>
       <c r="E262">
-        <v>-41</v>
+        <v>-34.7</v>
       </c>
       <c r="F262">
-        <v>-96.1</v>
+        <v>-83.4</v>
       </c>
       <c r="G262">
         <v>-1.77</v>
@@ -9991,16 +9991,16 @@
         <v>271</v>
       </c>
       <c r="C263">
-        <v>-27.4</v>
+        <v>-26.2</v>
       </c>
       <c r="D263">
-        <v>-34.9</v>
+        <v>-32</v>
       </c>
       <c r="E263">
-        <v>-44.5</v>
+        <v>-38.7</v>
       </c>
       <c r="F263">
-        <v>-97</v>
+        <v>-84.7</v>
       </c>
       <c r="G263">
         <v>-2.02</v>
@@ -10023,16 +10023,16 @@
         <v>272</v>
       </c>
       <c r="C264">
-        <v>-30.8</v>
+        <v>-29.6</v>
       </c>
       <c r="D264">
-        <v>-42</v>
+        <v>-39.3</v>
       </c>
       <c r="E264">
-        <v>-48.7</v>
+        <v>-43.4</v>
       </c>
       <c r="F264">
-        <v>-96.3</v>
+        <v>-85.4</v>
       </c>
       <c r="G264">
         <v>-2.11</v>
@@ -10055,16 +10055,16 @@
         <v>273</v>
       </c>
       <c r="C265">
-        <v>-16.2</v>
+        <v>-14.9</v>
       </c>
       <c r="D265">
-        <v>-10.7</v>
+        <v>-7.4</v>
       </c>
       <c r="E265">
-        <v>-29.2</v>
+        <v>-22.8</v>
       </c>
       <c r="F265">
-        <v>-95</v>
+        <v>-82.3</v>
       </c>
       <c r="G265">
         <v>-1.81</v>
@@ -10087,16 +10087,16 @@
         <v>274</v>
       </c>
       <c r="C266">
-        <v>-20.1</v>
+        <v>-18.8</v>
       </c>
       <c r="D266">
-        <v>-17.9</v>
+        <v>-14.7</v>
       </c>
       <c r="E266">
-        <v>-33.5</v>
+        <v>-27.2</v>
       </c>
       <c r="F266">
-        <v>-96.7</v>
+        <v>-84.1</v>
       </c>
       <c r="G266">
         <v>-1.9</v>
@@ -10119,16 +10119,16 @@
         <v>275</v>
       </c>
       <c r="C267">
-        <v>-9.3</v>
+        <v>-8.2</v>
       </c>
       <c r="D267">
-        <v>-6.4</v>
+        <v>-3.9</v>
       </c>
       <c r="E267">
-        <v>-25.7</v>
+        <v>-20.5</v>
       </c>
       <c r="F267">
-        <v>-97.5</v>
+        <v>-86.9</v>
       </c>
       <c r="G267">
         <v>-1.98</v>
@@ -10151,16 +10151,16 @@
         <v>276</v>
       </c>
       <c r="C268">
-        <v>-39.2</v>
+        <v>-37.2</v>
       </c>
       <c r="D268">
-        <v>-52</v>
+        <v>-47.7</v>
       </c>
       <c r="E268">
-        <v>-64.8</v>
+        <v>-56.8</v>
       </c>
       <c r="F268">
-        <v>-98</v>
+        <v>-80.5</v>
       </c>
       <c r="G268">
         <v>-2.81</v>
@@ -10183,16 +10183,16 @@
         <v>277</v>
       </c>
       <c r="C269">
-        <v>-39.1</v>
+        <v>-37.7</v>
       </c>
       <c r="D269">
-        <v>-51.5</v>
+        <v>-48.5</v>
       </c>
       <c r="E269">
-        <v>-65.6</v>
+        <v>-60.1</v>
       </c>
       <c r="F269">
-        <v>-99</v>
+        <v>-87.6</v>
       </c>
       <c r="G269">
         <v>-2.12</v>
@@ -10215,16 +10215,16 @@
         <v>278</v>
       </c>
       <c r="C270">
-        <v>-9.1</v>
+        <v>-7.3</v>
       </c>
       <c r="D270">
-        <v>-20.2</v>
+        <v>-16.1</v>
       </c>
       <c r="E270">
-        <v>-45.5</v>
+        <v>-37.8</v>
       </c>
       <c r="F270">
-        <v>-98.4</v>
+        <v>-81.8</v>
       </c>
       <c r="G270">
         <v>-1.25</v>
@@ -10247,16 +10247,16 @@
         <v>279</v>
       </c>
       <c r="C271">
-        <v>-5.8</v>
+        <v>-4.2</v>
       </c>
       <c r="D271">
-        <v>-12.5</v>
+        <v>-8.9</v>
       </c>
       <c r="E271">
-        <v>-34.5</v>
+        <v>-27.3</v>
       </c>
       <c r="F271">
-        <v>-98.3</v>
+        <v>-83.1</v>
       </c>
       <c r="G271">
         <v>-1.88</v>
@@ -10279,16 +10279,16 @@
         <v>280</v>
       </c>
       <c r="C272">
-        <v>-35.9</v>
+        <v>-34.4</v>
       </c>
       <c r="D272">
-        <v>-51.1</v>
+        <v>-47.9</v>
       </c>
       <c r="E272">
-        <v>-56</v>
+        <v>-49.8</v>
       </c>
       <c r="F272">
-        <v>-97</v>
+        <v>-83.7</v>
       </c>
       <c r="G272">
         <v>-3</v>
@@ -10311,16 +10311,16 @@
         <v>281</v>
       </c>
       <c r="C273">
-        <v>-39.2</v>
+        <v>-37.6</v>
       </c>
       <c r="D273">
-        <v>-54.5</v>
+        <v>-51.1</v>
       </c>
       <c r="E273">
-        <v>-62.7</v>
+        <v>-56.2</v>
       </c>
       <c r="F273">
-        <v>-97.1</v>
+        <v>-82.9</v>
       </c>
       <c r="G273">
         <v>-3.32</v>
@@ -10343,16 +10343,16 @@
         <v>282</v>
       </c>
       <c r="C274">
-        <v>-14.7</v>
+        <v>-12.9</v>
       </c>
       <c r="D274">
-        <v>-24.8</v>
+        <v>-20.9</v>
       </c>
       <c r="E274">
-        <v>-47.9</v>
+        <v>-40.8</v>
       </c>
       <c r="F274">
-        <v>-91.9</v>
+        <v>-76.6</v>
       </c>
       <c r="G274">
         <v>-1.05</v>
@@ -10375,16 +10375,16 @@
         <v>283</v>
       </c>
       <c r="C275">
-        <v>-12.4</v>
+        <v>-10.5</v>
       </c>
       <c r="D275">
-        <v>-36</v>
+        <v>-31.5</v>
       </c>
       <c r="E275">
-        <v>-55</v>
+        <v>-47.3</v>
       </c>
       <c r="F275">
-        <v>-96.3</v>
+        <v>-81.6</v>
       </c>
       <c r="G275">
         <v>-3.13</v>
@@ -10407,16 +10407,16 @@
         <v>284</v>
       </c>
       <c r="C276">
-        <v>-45.9</v>
+        <v>-45</v>
       </c>
       <c r="D276">
-        <v>-47.7</v>
+        <v>-45.4</v>
       </c>
       <c r="E276">
-        <v>-61.1</v>
+        <v>-56.8</v>
       </c>
       <c r="F276">
-        <v>-82.1</v>
+        <v>-72.8</v>
       </c>
       <c r="G276">
         <v>-1.83</v>
@@ -10439,16 +10439,16 @@
         <v>285</v>
       </c>
       <c r="C277">
-        <v>-38.4</v>
+        <v>-36.7</v>
       </c>
       <c r="D277">
-        <v>-48.9</v>
+        <v>-44.6</v>
       </c>
       <c r="E277">
-        <v>-51.3</v>
+        <v>-43.3</v>
       </c>
       <c r="F277">
-        <v>-92.4</v>
+        <v>-75.7</v>
       </c>
       <c r="G277">
         <v>-2</v>
@@ -10471,16 +10471,16 @@
         <v>286</v>
       </c>
       <c r="C278">
-        <v>-34.7</v>
+        <v>-33</v>
       </c>
       <c r="D278">
-        <v>-45.7</v>
+        <v>-41.1</v>
       </c>
       <c r="E278">
-        <v>-49</v>
+        <v>-40.2</v>
       </c>
       <c r="F278">
-        <v>-93.6</v>
+        <v>-74.9</v>
       </c>
       <c r="G278">
         <v>-2.32</v>
@@ -10503,16 +10503,16 @@
         <v>287</v>
       </c>
       <c r="C279">
-        <v>-35.8</v>
+        <v>-33.8</v>
       </c>
       <c r="D279">
-        <v>-47.1</v>
+        <v>-42</v>
       </c>
       <c r="E279">
-        <v>-50.7</v>
+        <v>-41.5</v>
       </c>
       <c r="F279">
-        <v>-92.8</v>
+        <v>-73.7</v>
       </c>
       <c r="G279">
         <v>-1.92</v>
@@ -10535,16 +10535,16 @@
         <v>288</v>
       </c>
       <c r="C280">
-        <v>-24.7</v>
+        <v>-23.4</v>
       </c>
       <c r="D280">
-        <v>-45.1</v>
+        <v>-42</v>
       </c>
       <c r="E280">
-        <v>-46.9</v>
+        <v>-41</v>
       </c>
       <c r="F280">
-        <v>-93.4</v>
+        <v>-80.5</v>
       </c>
       <c r="G280">
         <v>-2.01</v>
@@ -10567,16 +10567,16 @@
         <v>289</v>
       </c>
       <c r="C281">
-        <v>-30.8</v>
+        <v>-29.5</v>
       </c>
       <c r="D281">
-        <v>-46.1</v>
+        <v>-42.9</v>
       </c>
       <c r="E281">
-        <v>-50.7</v>
+        <v>-44.7</v>
       </c>
       <c r="F281">
-        <v>-92.3</v>
+        <v>-79.4</v>
       </c>
       <c r="G281">
         <v>-2.12</v>
@@ -10599,16 +10599,16 @@
         <v>290</v>
       </c>
       <c r="C282">
-        <v>-48.4</v>
+        <v>-47.4</v>
       </c>
       <c r="D282">
-        <v>-49</v>
+        <v>-46.7</v>
       </c>
       <c r="E282">
-        <v>-61.3</v>
+        <v>-57.1</v>
       </c>
       <c r="F282">
-        <v>-86.5</v>
+        <v>-77.9</v>
       </c>
       <c r="G282">
         <v>-1.4</v>
@@ -10631,16 +10631,16 @@
         <v>291</v>
       </c>
       <c r="C283">
-        <v>-60.3</v>
+        <v>-59.2</v>
       </c>
       <c r="D283">
-        <v>-53.9</v>
+        <v>-51.2</v>
       </c>
       <c r="E283">
-        <v>-67.3</v>
+        <v>-62.5</v>
       </c>
       <c r="F283">
-        <v>-88.7</v>
+        <v>-78.5</v>
       </c>
       <c r="G283">
         <v>-1.77</v>
@@ -10663,16 +10663,16 @@
         <v>292</v>
       </c>
       <c r="C284">
-        <v>-57.8</v>
+        <v>-56.6</v>
       </c>
       <c r="D284">
-        <v>-55.2</v>
+        <v>-52.1</v>
       </c>
       <c r="E284">
-        <v>-66.8</v>
+        <v>-61.3</v>
       </c>
       <c r="F284">
-        <v>-91.3</v>
+        <v>-80</v>
       </c>
       <c r="G284">
         <v>-1.26</v>
@@ -10695,16 +10695,16 @@
         <v>293</v>
       </c>
       <c r="C285">
-        <v>-34.5</v>
+        <v>-33.2</v>
       </c>
       <c r="D285">
-        <v>-51.8</v>
+        <v>-48.7</v>
       </c>
       <c r="E285">
-        <v>-56.3</v>
+        <v>-50.5</v>
       </c>
       <c r="F285">
-        <v>-94.4</v>
+        <v>-81.6</v>
       </c>
       <c r="G285">
         <v>-1.95</v>
@@ -10727,16 +10727,16 @@
         <v>294</v>
       </c>
       <c r="C286">
-        <v>-42</v>
+        <v>-40.5</v>
       </c>
       <c r="D286">
-        <v>-48.6</v>
+        <v>-44.9</v>
       </c>
       <c r="E286">
-        <v>-43</v>
+        <v>-35.9</v>
       </c>
       <c r="F286">
-        <v>-93.4</v>
+        <v>-76.7</v>
       </c>
       <c r="G286">
         <v>-2.33</v>
@@ -10759,16 +10759,16 @@
         <v>295</v>
       </c>
       <c r="C287">
-        <v>-37.1</v>
+        <v>-35.6</v>
       </c>
       <c r="D287">
-        <v>-48.4</v>
+        <v>-44.9</v>
       </c>
       <c r="E287">
-        <v>-46.1</v>
+        <v>-39.4</v>
       </c>
       <c r="F287">
-        <v>-93.6</v>
+        <v>-78.4</v>
       </c>
       <c r="G287">
         <v>-2.33</v>
@@ -10791,16 +10791,16 @@
         <v>296</v>
       </c>
       <c r="C288">
-        <v>-45</v>
+        <v>-43.2</v>
       </c>
       <c r="D288">
-        <v>-45</v>
+        <v>-40.8</v>
       </c>
       <c r="E288">
-        <v>-41</v>
+        <v>-32.8</v>
       </c>
       <c r="F288">
-        <v>-93.5</v>
+        <v>-74.7</v>
       </c>
       <c r="G288">
         <v>-2.35</v>
@@ -10823,16 +10823,16 @@
         <v>297</v>
       </c>
       <c r="C289">
-        <v>-38.2</v>
+        <v>-36.6</v>
       </c>
       <c r="D289">
-        <v>-54.6</v>
+        <v>-51</v>
       </c>
       <c r="E289">
-        <v>-62.1</v>
+        <v>-55.1</v>
       </c>
       <c r="F289">
-        <v>-95.2</v>
+        <v>-80.5</v>
       </c>
       <c r="G289">
         <v>-3</v>
@@ -10855,16 +10855,16 @@
         <v>298</v>
       </c>
       <c r="C290">
-        <v>-34.5</v>
+        <v>-33</v>
       </c>
       <c r="D290">
-        <v>-50.9</v>
+        <v>-47.2</v>
       </c>
       <c r="E290">
-        <v>-58.4</v>
+        <v>-51.4</v>
       </c>
       <c r="F290">
-        <v>-93.3</v>
+        <v>-78.6</v>
       </c>
       <c r="G290">
         <v>-2.36</v>
@@ -10887,16 +10887,16 @@
         <v>299</v>
       </c>
       <c r="C291">
-        <v>-33.7</v>
+        <v>-32.3</v>
       </c>
       <c r="D291">
-        <v>-52.2</v>
+        <v>-48.6</v>
       </c>
       <c r="E291">
-        <v>-64.1</v>
+        <v>-57.6</v>
       </c>
       <c r="F291">
-        <v>-95.1</v>
+        <v>-81.9</v>
       </c>
       <c r="G291">
         <v>-3.06</v>
@@ -10919,16 +10919,16 @@
         <v>300</v>
       </c>
       <c r="C292">
-        <v>-58.4</v>
+        <v>-57.2</v>
       </c>
       <c r="D292">
-        <v>-58.8</v>
+        <v>-56</v>
       </c>
       <c r="E292">
-        <v>-66.3</v>
+        <v>-61.2</v>
       </c>
       <c r="F292">
-        <v>-90.7</v>
+        <v>-79.9</v>
       </c>
       <c r="G292">
         <v>-1.75</v>
@@ -10951,16 +10951,16 @@
         <v>301</v>
       </c>
       <c r="C293">
-        <v>-35.9</v>
+        <v>-34.8</v>
       </c>
       <c r="D293">
-        <v>-41.5</v>
+        <v>-38.5</v>
       </c>
       <c r="E293">
-        <v>-45.3</v>
+        <v>-39.8</v>
       </c>
       <c r="F293">
-        <v>-92.6</v>
+        <v>-81.6</v>
       </c>
       <c r="G293">
         <v>-1.63</v>
@@ -10983,16 +10983,16 @@
         <v>302</v>
       </c>
       <c r="C294">
-        <v>-47.2</v>
+        <v>-45.8</v>
       </c>
       <c r="D294">
-        <v>-50.1</v>
+        <v>-47</v>
       </c>
       <c r="E294">
-        <v>-58.6</v>
+        <v>-52.9</v>
       </c>
       <c r="F294">
-        <v>-93.7</v>
+        <v>-81.8</v>
       </c>
       <c r="G294">
         <v>-1.45</v>
@@ -11015,16 +11015,16 @@
         <v>303</v>
       </c>
       <c r="C295">
-        <v>-50.1</v>
+        <v>-49.4</v>
       </c>
       <c r="D295">
-        <v>-53.1</v>
+        <v>-51.3</v>
       </c>
       <c r="E295">
-        <v>-66.6</v>
+        <v>-63.3</v>
       </c>
       <c r="F295">
-        <v>-93.4</v>
+        <v>-86.6</v>
       </c>
       <c r="G295">
         <v>-1.93</v>
@@ -11047,16 +11047,16 @@
         <v>304</v>
       </c>
       <c r="C296">
-        <v>-42.8</v>
+        <v>-42.5</v>
       </c>
       <c r="D296">
-        <v>-42.7</v>
+        <v>-42.1</v>
       </c>
       <c r="E296">
-        <v>-55.6</v>
+        <v>-54.4</v>
       </c>
       <c r="F296">
-        <v>-79.1</v>
+        <v>-76.5</v>
       </c>
       <c r="G296">
         <v>-1.46</v>
@@ -11079,16 +11079,16 @@
         <v>305</v>
       </c>
       <c r="C297">
-        <v>-11.8</v>
+        <v>-9.8</v>
       </c>
       <c r="D297">
-        <v>-9.7</v>
+        <v>-5.1</v>
       </c>
       <c r="E297">
-        <v>-50.8</v>
+        <v>-42.3</v>
       </c>
       <c r="F297">
-        <v>-89</v>
+        <v>-71.6</v>
       </c>
       <c r="G297">
         <v>-1.03</v>
@@ -11111,16 +11111,16 @@
         <v>306</v>
       </c>
       <c r="C298">
-        <v>-15.7</v>
+        <v>-14.7</v>
       </c>
       <c r="D298">
-        <v>-10.3</v>
+        <v>-8</v>
       </c>
       <c r="E298">
-        <v>-56.3</v>
+        <v>-52.3</v>
       </c>
       <c r="F298">
-        <v>-88.8</v>
+        <v>-80.9</v>
       </c>
       <c r="G298">
         <v>-1.05</v>
@@ -11143,16 +11143,16 @@
         <v>307</v>
       </c>
       <c r="C299">
-        <v>-19.7</v>
+        <v>-18.2</v>
       </c>
       <c r="D299">
-        <v>-16.7</v>
+        <v>-13.3</v>
       </c>
       <c r="E299">
-        <v>-55.9</v>
+        <v>-49.5</v>
       </c>
       <c r="F299">
-        <v>-87.2</v>
+        <v>-74.2</v>
       </c>
       <c r="G299">
         <v>-0.96</v>
@@ -11175,16 +11175,16 @@
         <v>308</v>
       </c>
       <c r="C300">
-        <v>-29.4</v>
+        <v>-28.2</v>
       </c>
       <c r="D300">
-        <v>-42.9</v>
+        <v>-40.2</v>
       </c>
       <c r="E300">
-        <v>-47.1</v>
+        <v>-41.6</v>
       </c>
       <c r="F300">
-        <v>-96.7</v>
+        <v>-85.7</v>
       </c>
       <c r="G300">
         <v>-2.35</v>
@@ -11207,16 +11207,16 @@
         <v>309</v>
       </c>
       <c r="C301">
-        <v>-33.8</v>
+        <v>-30.7</v>
       </c>
       <c r="D301">
-        <v>-47.8</v>
+        <v>-41.1</v>
       </c>
       <c r="E301">
-        <v>-57.1</v>
+        <v>-45.6</v>
       </c>
       <c r="F301">
-        <v>-98.9</v>
+        <v>-74</v>
       </c>
       <c r="G301">
         <v>-2.25</v>
@@ -11239,16 +11239,16 @@
         <v>310</v>
       </c>
       <c r="C302">
-        <v>-20.7</v>
+        <v>-19.2</v>
       </c>
       <c r="D302">
-        <v>-24.9</v>
+        <v>-21.7</v>
       </c>
       <c r="E302">
-        <v>-40.7</v>
+        <v>-34.8</v>
       </c>
       <c r="F302">
-        <v>-86</v>
+        <v>-74.6</v>
       </c>
       <c r="G302">
         <v>-0.54</v>
@@ -11271,16 +11271,16 @@
         <v>311</v>
       </c>
       <c r="C303">
-        <v>-17.5</v>
+        <v>-14.8</v>
       </c>
       <c r="D303">
-        <v>-18.8</v>
+        <v>-13.1</v>
       </c>
       <c r="E303">
-        <v>-48.3</v>
+        <v>-37.3</v>
       </c>
       <c r="F303">
-        <v>-88.5</v>
+        <v>-66.3</v>
       </c>
       <c r="G303">
         <v>-1.11</v>
@@ -11303,16 +11303,16 @@
         <v>312</v>
       </c>
       <c r="C304">
-        <v>-14.2</v>
+        <v>-12.5</v>
       </c>
       <c r="D304">
-        <v>-12.9</v>
+        <v>-9.1</v>
       </c>
       <c r="E304">
-        <v>-18.8</v>
+        <v>-11.2</v>
       </c>
       <c r="F304">
-        <v>-88.8</v>
+        <v>-74.5</v>
       </c>
       <c r="G304">
         <v>-0.67</v>
@@ -11335,16 +11335,16 @@
         <v>313</v>
       </c>
       <c r="C305">
-        <v>-49.8</v>
+        <v>-49.7</v>
       </c>
       <c r="D305">
-        <v>-62</v>
+        <v>-61.9</v>
       </c>
       <c r="E305">
-        <v>-69.3</v>
+        <v>-69</v>
       </c>
       <c r="F305">
-        <v>-74.2</v>
+        <v>-73.6</v>
       </c>
       <c r="G305">
         <v>-1.25</v>
@@ -11373,10 +11373,10 @@
         <v>-52</v>
       </c>
       <c r="E306">
-        <v>-57.5</v>
+        <v>-57.4</v>
       </c>
       <c r="F306">
-        <v>-77.3</v>
+        <v>-77</v>
       </c>
       <c r="G306">
         <v>-1.55</v>
@@ -11399,16 +11399,16 @@
         <v>315</v>
       </c>
       <c r="C307">
-        <v>-25.9</v>
+        <v>-24.5</v>
       </c>
       <c r="D307">
-        <v>-24.1</v>
+        <v>-21</v>
       </c>
       <c r="E307">
-        <v>-53.1</v>
+        <v>-46.9</v>
       </c>
       <c r="F307">
-        <v>-87.1</v>
+        <v>-75.3</v>
       </c>
       <c r="G307">
         <v>-0.74</v>
@@ -11431,16 +11431,16 @@
         <v>316</v>
       </c>
       <c r="C308">
-        <v>-24.1</v>
+        <v>-23.1</v>
       </c>
       <c r="D308">
-        <v>-24.4</v>
+        <v>-22</v>
       </c>
       <c r="E308">
-        <v>-52.9</v>
+        <v>-48.3</v>
       </c>
       <c r="F308">
-        <v>-88.8</v>
+        <v>-80.2</v>
       </c>
       <c r="G308">
         <v>-0.77</v>
@@ -11463,16 +11463,16 @@
         <v>317</v>
       </c>
       <c r="C309">
-        <v>-44.7</v>
+        <v>-44.5</v>
       </c>
       <c r="D309">
-        <v>-42.3</v>
+        <v>-41.8</v>
       </c>
       <c r="E309">
-        <v>-55.4</v>
+        <v>-54.6</v>
       </c>
       <c r="F309">
-        <v>-78</v>
+        <v>-76.2</v>
       </c>
       <c r="G309">
         <v>-1.05</v>
@@ -11495,16 +11495,16 @@
         <v>318</v>
       </c>
       <c r="C310">
-        <v>-44.2</v>
+        <v>-43.9</v>
       </c>
       <c r="D310">
-        <v>-37.2</v>
+        <v>-36.7</v>
       </c>
       <c r="E310">
-        <v>-40.5</v>
+        <v>-39.5</v>
       </c>
       <c r="F310">
-        <v>-74.7</v>
+        <v>-72.5</v>
       </c>
       <c r="G310">
         <v>-1.23</v>
@@ -11527,16 +11527,16 @@
         <v>319</v>
       </c>
       <c r="C311">
-        <v>-26.9</v>
+        <v>-25.2</v>
       </c>
       <c r="D311">
-        <v>-11.7</v>
+        <v>-7.7</v>
       </c>
       <c r="E311">
-        <v>-35.3</v>
+        <v>-29</v>
       </c>
       <c r="F311">
-        <v>-81.2</v>
+        <v>-69.5</v>
       </c>
       <c r="G311">
         <v>-0.84</v>
@@ -11559,16 +11559,16 @@
         <v>320</v>
       </c>
       <c r="C312">
-        <v>-31</v>
+        <v>-29.6</v>
       </c>
       <c r="D312">
-        <v>-13.9</v>
+        <v>-10.6</v>
       </c>
       <c r="E312">
-        <v>-44.6</v>
+        <v>-39</v>
       </c>
       <c r="F312">
-        <v>-78.9</v>
+        <v>-69</v>
       </c>
       <c r="G312">
         <v>-1.19</v>
@@ -11591,16 +11591,16 @@
         <v>321</v>
       </c>
       <c r="C313">
-        <v>-34</v>
+        <v>-32.9</v>
       </c>
       <c r="D313">
-        <v>-21.9</v>
+        <v>-19.1</v>
       </c>
       <c r="E313">
-        <v>-50.4</v>
+        <v>-45.9</v>
       </c>
       <c r="F313">
-        <v>-80.9</v>
+        <v>-72.6</v>
       </c>
       <c r="G313">
         <v>-1.3</v>
@@ -11623,16 +11623,16 @@
         <v>322</v>
       </c>
       <c r="C314">
-        <v>-55.1</v>
+        <v>-55</v>
       </c>
       <c r="D314">
-        <v>-47.5</v>
+        <v>-47.4</v>
       </c>
       <c r="E314">
-        <v>-52</v>
+        <v>-51.9</v>
       </c>
       <c r="F314">
-        <v>-80.9</v>
+        <v>-80.7</v>
       </c>
       <c r="G314">
         <v>-1.4</v>
@@ -11655,16 +11655,16 @@
         <v>323</v>
       </c>
       <c r="C315">
-        <v>-26.8</v>
+        <v>-25.1</v>
       </c>
       <c r="D315">
-        <v>-27.8</v>
+        <v>-24.1</v>
       </c>
       <c r="E315">
-        <v>-49.3</v>
+        <v>-41.9</v>
       </c>
       <c r="F315">
-        <v>-86.6</v>
+        <v>-72.8</v>
       </c>
       <c r="G315">
         <v>-0.62</v>
@@ -11687,16 +11687,16 @@
         <v>324</v>
       </c>
       <c r="C316">
-        <v>-36.1</v>
+        <v>-34.8</v>
       </c>
       <c r="D316">
-        <v>-49.6</v>
+        <v>-46.4</v>
       </c>
       <c r="E316">
-        <v>-55.9</v>
+        <v>-50.1</v>
       </c>
       <c r="F316">
-        <v>-93.8</v>
+        <v>-81.4</v>
       </c>
       <c r="G316">
         <v>-1.7</v>
@@ -11719,16 +11719,16 @@
         <v>325</v>
       </c>
       <c r="C317">
-        <v>-30.2</v>
+        <v>-29.4</v>
       </c>
       <c r="D317">
-        <v>-16.6</v>
+        <v>-14.9</v>
       </c>
       <c r="E317">
-        <v>-34.7</v>
+        <v>-31.8</v>
       </c>
       <c r="F317">
-        <v>-74.4</v>
+        <v>-68.9</v>
       </c>
       <c r="G317">
         <v>-2</v>
@@ -11751,16 +11751,16 @@
         <v>326</v>
       </c>
       <c r="C318">
-        <v>-30.7</v>
+        <v>-30</v>
       </c>
       <c r="D318">
-        <v>-20.3</v>
+        <v>-18.7</v>
       </c>
       <c r="E318">
-        <v>-39.1</v>
+        <v>-36.3</v>
       </c>
       <c r="F318">
-        <v>-81.6</v>
+        <v>-75.9</v>
       </c>
       <c r="G318">
         <v>-1.58</v>
@@ -11789,10 +11789,10 @@
         <v>-46</v>
       </c>
       <c r="E319">
-        <v>-47.5</v>
+        <v>-47.4</v>
       </c>
       <c r="F319">
-        <v>-74.4</v>
+        <v>-74.3</v>
       </c>
       <c r="G319">
         <v>-1.39</v>
@@ -11815,16 +11815,16 @@
         <v>328</v>
       </c>
       <c r="C320">
-        <v>-21</v>
+        <v>-19.4</v>
       </c>
       <c r="D320">
-        <v>-31.6</v>
+        <v>-28.1</v>
       </c>
       <c r="E320">
-        <v>-49.7</v>
+        <v>-43.1</v>
       </c>
       <c r="F320">
-        <v>-92.6</v>
+        <v>-78.4</v>
       </c>
       <c r="G320">
         <v>-0.91</v>
@@ -11847,16 +11847,16 @@
         <v>329</v>
       </c>
       <c r="C321">
-        <v>-29.9</v>
+        <v>-27.4</v>
       </c>
       <c r="D321">
-        <v>-49.7</v>
+        <v>-44.1</v>
       </c>
       <c r="E321">
-        <v>-61</v>
+        <v>-51.1</v>
       </c>
       <c r="F321">
-        <v>-98.1</v>
+        <v>-77.1</v>
       </c>
       <c r="G321">
         <v>-3.27</v>
@@ -11879,16 +11879,16 @@
         <v>330</v>
       </c>
       <c r="C322">
-        <v>-35.3</v>
+        <v>-33.9</v>
       </c>
       <c r="D322">
-        <v>-46.9</v>
+        <v>-43.8</v>
       </c>
       <c r="E322">
-        <v>-53.5</v>
+        <v>-46.7</v>
       </c>
       <c r="F322">
-        <v>-96.6</v>
+        <v>-81.9</v>
       </c>
       <c r="G322">
         <v>-2.17</v>
@@ -11911,16 +11911,16 @@
         <v>331</v>
       </c>
       <c r="C323">
-        <v>-48.3</v>
+        <v>-47.5</v>
       </c>
       <c r="D323">
-        <v>-44.8</v>
+        <v>-43.2</v>
       </c>
       <c r="E323">
-        <v>-56</v>
+        <v>-52.9</v>
       </c>
       <c r="F323">
-        <v>-80.5</v>
+        <v>-73</v>
       </c>
       <c r="G323">
         <v>-2.25</v>
@@ -11943,16 +11943,16 @@
         <v>332</v>
       </c>
       <c r="C324">
-        <v>-22.8</v>
+        <v>-21.1</v>
       </c>
       <c r="D324">
-        <v>-35.1</v>
+        <v>-31.2</v>
       </c>
       <c r="E324">
-        <v>-45.4</v>
+        <v>-37.2</v>
       </c>
       <c r="F324">
-        <v>-96.2</v>
+        <v>-78.6</v>
       </c>
       <c r="G324">
         <v>-2.26</v>
@@ -11975,16 +11975,16 @@
         <v>333</v>
       </c>
       <c r="C325">
-        <v>-38.1</v>
+        <v>-37.3</v>
       </c>
       <c r="D325">
-        <v>-36.1</v>
+        <v>-34.1</v>
       </c>
       <c r="E325">
-        <v>-48.5</v>
+        <v>-44.6</v>
       </c>
       <c r="F325">
-        <v>-92.5</v>
+        <v>-84.3</v>
       </c>
       <c r="G325">
         <v>-1.6</v>
@@ -12007,16 +12007,16 @@
         <v>334</v>
       </c>
       <c r="C326">
-        <v>-49.3</v>
+        <v>-48.8</v>
       </c>
       <c r="D326">
-        <v>-46.8</v>
+        <v>-45.7</v>
       </c>
       <c r="E326">
-        <v>-51.2</v>
+        <v>-49.1</v>
       </c>
       <c r="F326">
-        <v>-72.4</v>
+        <v>-67.8</v>
       </c>
       <c r="G326">
         <v>-2.02</v>
@@ -12039,16 +12039,16 @@
         <v>335</v>
       </c>
       <c r="C327">
-        <v>-48.5</v>
+        <v>-47.8</v>
       </c>
       <c r="D327">
-        <v>-42</v>
+        <v>-40.3</v>
       </c>
       <c r="E327">
-        <v>-48.5</v>
+        <v>-45.3</v>
       </c>
       <c r="F327">
-        <v>-74.3</v>
+        <v>-67.7</v>
       </c>
       <c r="G327">
         <v>-2.09</v>
@@ -12071,16 +12071,16 @@
         <v>336</v>
       </c>
       <c r="C328">
-        <v>-35</v>
+        <v>-33.4</v>
       </c>
       <c r="D328">
-        <v>-45.8</v>
+        <v>-42.2</v>
       </c>
       <c r="E328">
-        <v>-49</v>
+        <v>-41.3</v>
       </c>
       <c r="F328">
-        <v>-92.9</v>
+        <v>-76.4</v>
       </c>
       <c r="G328">
         <v>-2.62</v>
@@ -12103,16 +12103,16 @@
         <v>337</v>
       </c>
       <c r="C329">
-        <v>-11.8</v>
+        <v>-9.8</v>
       </c>
       <c r="D329">
-        <v>-24.7</v>
+        <v>-20.1</v>
       </c>
       <c r="E329">
-        <v>-41.7</v>
+        <v>-32.8</v>
       </c>
       <c r="F329">
-        <v>-96.7</v>
+        <v>-77.9</v>
       </c>
       <c r="G329">
         <v>-1.78</v>
@@ -12135,16 +12135,16 @@
         <v>338</v>
       </c>
       <c r="C330">
-        <v>-12.9</v>
+        <v>-10.8</v>
       </c>
       <c r="D330">
-        <v>-27.3</v>
+        <v>-22.5</v>
       </c>
       <c r="E330">
-        <v>-39.8</v>
+        <v>-30.7</v>
       </c>
       <c r="F330">
-        <v>-89.2</v>
+        <v>-69.6</v>
       </c>
       <c r="G330">
         <v>-1.46</v>
@@ -12167,16 +12167,16 @@
         <v>339</v>
       </c>
       <c r="C331">
-        <v>-30.2</v>
+        <v>-28.5</v>
       </c>
       <c r="D331">
-        <v>-47.5</v>
+        <v>-43.9</v>
       </c>
       <c r="E331">
-        <v>-53</v>
+        <v>-46</v>
       </c>
       <c r="F331">
-        <v>-96.6</v>
+        <v>-81.9</v>
       </c>
       <c r="G331">
         <v>-3.27</v>
@@ -12199,16 +12199,16 @@
         <v>340</v>
       </c>
       <c r="C332">
-        <v>-32</v>
+        <v>-29.3</v>
       </c>
       <c r="D332">
-        <v>-53.6</v>
+        <v>-47.6</v>
       </c>
       <c r="E332">
-        <v>-61</v>
+        <v>-50.3</v>
       </c>
       <c r="F332">
-        <v>-99.1</v>
+        <v>-76.3</v>
       </c>
       <c r="G332">
         <v>-3.1</v>
@@ -12231,16 +12231,16 @@
         <v>341</v>
       </c>
       <c r="C333">
-        <v>-28.5</v>
+        <v>-27.3</v>
       </c>
       <c r="D333">
-        <v>-47.1</v>
+        <v>-44.3</v>
       </c>
       <c r="E333">
-        <v>-45.8</v>
+        <v>-40.1</v>
       </c>
       <c r="F333">
-        <v>-92</v>
+        <v>-79.3</v>
       </c>
       <c r="G333">
         <v>-1.95</v>
@@ -12263,16 +12263,16 @@
         <v>342</v>
       </c>
       <c r="C334">
-        <v>-42.1</v>
+        <v>-41.1</v>
       </c>
       <c r="D334">
-        <v>-48.8</v>
+        <v>-46.3</v>
       </c>
       <c r="E334">
-        <v>-57.2</v>
+        <v>-52.5</v>
       </c>
       <c r="F334">
-        <v>-90.5</v>
+        <v>-80.6</v>
       </c>
       <c r="G334">
         <v>-1.76</v>
@@ -12295,16 +12295,16 @@
         <v>343</v>
       </c>
       <c r="C335">
-        <v>-43.9</v>
+        <v>-42.6</v>
       </c>
       <c r="D335">
-        <v>-51.4</v>
+        <v>-48.2</v>
       </c>
       <c r="E335">
-        <v>-58.3</v>
+        <v>-52.3</v>
       </c>
       <c r="F335">
-        <v>-91.1</v>
+        <v>-78.7</v>
       </c>
       <c r="G335">
         <v>-1.94</v>
@@ -12327,16 +12327,16 @@
         <v>344</v>
       </c>
       <c r="C336">
-        <v>-28.9</v>
+        <v>-27.6</v>
       </c>
       <c r="D336">
-        <v>-48.6</v>
+        <v>-45.6</v>
       </c>
       <c r="E336">
-        <v>-50.6</v>
+        <v>-44.8</v>
       </c>
       <c r="F336">
-        <v>-94.6</v>
+        <v>-82</v>
       </c>
       <c r="G336">
         <v>-2.14</v>
@@ -12359,16 +12359,16 @@
         <v>345</v>
       </c>
       <c r="C337">
-        <v>-52.6</v>
+        <v>-51.6</v>
       </c>
       <c r="D337">
-        <v>-47.5</v>
+        <v>-45</v>
       </c>
       <c r="E337">
-        <v>-61</v>
+        <v>-56.4</v>
       </c>
       <c r="F337">
-        <v>-84.6</v>
+        <v>-74.6</v>
       </c>
       <c r="G337">
         <v>-2.14</v>
@@ -12391,16 +12391,16 @@
         <v>346</v>
       </c>
       <c r="C338">
-        <v>-49.7</v>
+        <v>-49</v>
       </c>
       <c r="D338">
-        <v>-47.3</v>
+        <v>-45.3</v>
       </c>
       <c r="E338">
-        <v>-62.3</v>
+        <v>-58.8</v>
       </c>
       <c r="F338">
-        <v>-80.4</v>
+        <v>-72.6</v>
       </c>
       <c r="G338">
         <v>-2.03</v>
@@ -12423,16 +12423,16 @@
         <v>347</v>
       </c>
       <c r="C339">
-        <v>-43.1</v>
+        <v>-42.2</v>
       </c>
       <c r="D339">
-        <v>-45.7</v>
+        <v>-43.3</v>
       </c>
       <c r="E339">
-        <v>-59.2</v>
+        <v>-54.9</v>
       </c>
       <c r="F339">
-        <v>-81.4</v>
+        <v>-71.7</v>
       </c>
       <c r="G339">
         <v>-1.84</v>
@@ -12455,16 +12455,16 @@
         <v>348</v>
       </c>
       <c r="C340">
-        <v>-54.3</v>
+        <v>-53.2</v>
       </c>
       <c r="D340">
-        <v>-50</v>
+        <v>-47.1</v>
       </c>
       <c r="E340">
-        <v>-62.9</v>
+        <v>-57.7</v>
       </c>
       <c r="F340">
-        <v>-81.5</v>
+        <v>-70.5</v>
       </c>
       <c r="G340">
         <v>-2.02</v>
@@ -12487,16 +12487,16 @@
         <v>349</v>
       </c>
       <c r="C341">
-        <v>-20.1</v>
+        <v>-17.5</v>
       </c>
       <c r="D341">
-        <v>-45.5</v>
+        <v>-39.3</v>
       </c>
       <c r="E341">
-        <v>-56.5</v>
+        <v>-45</v>
       </c>
       <c r="F341">
-        <v>-97.1</v>
+        <v>-74.9</v>
       </c>
       <c r="G341">
         <v>-3.11</v>
@@ -12519,16 +12519,16 @@
         <v>350</v>
       </c>
       <c r="C342">
-        <v>-17.1</v>
+        <v>-15.4</v>
       </c>
       <c r="D342">
-        <v>-41.7</v>
+        <v>-37.8</v>
       </c>
       <c r="E342">
-        <v>-55.9</v>
+        <v>-48.6</v>
       </c>
       <c r="F342">
-        <v>-95.9</v>
+        <v>-81.9</v>
       </c>
       <c r="G342">
         <v>-3.15</v>
@@ -12551,16 +12551,16 @@
         <v>351</v>
       </c>
       <c r="C343">
-        <v>-40.3</v>
+        <v>-38.6</v>
       </c>
       <c r="D343">
-        <v>-44.4</v>
+        <v>-40.1</v>
       </c>
       <c r="E343">
-        <v>-41.4</v>
+        <v>-33</v>
       </c>
       <c r="F343">
-        <v>-91</v>
+        <v>-71.9</v>
       </c>
       <c r="G343">
         <v>-2.17</v>
@@ -12583,16 +12583,16 @@
         <v>352</v>
       </c>
       <c r="C344">
-        <v>-44.7</v>
+        <v>-43.3</v>
       </c>
       <c r="D344">
-        <v>-50.5</v>
+        <v>-47.2</v>
       </c>
       <c r="E344">
-        <v>-59.3</v>
+        <v>-53.1</v>
       </c>
       <c r="F344">
-        <v>-92.3</v>
+        <v>-79.5</v>
       </c>
       <c r="G344">
         <v>-1.92</v>
@@ -12615,16 +12615,16 @@
         <v>353</v>
       </c>
       <c r="C345">
-        <v>-45.3</v>
+        <v>-44</v>
       </c>
       <c r="D345">
-        <v>-51.7</v>
+        <v>-48.4</v>
       </c>
       <c r="E345">
-        <v>-59.4</v>
+        <v>-53.3</v>
       </c>
       <c r="F345">
-        <v>-92.1</v>
+        <v>-79.4</v>
       </c>
       <c r="G345">
         <v>-1.93</v>
@@ -12647,16 +12647,16 @@
         <v>354</v>
       </c>
       <c r="C346">
-        <v>-51.6</v>
+        <v>-50.8</v>
       </c>
       <c r="D346">
-        <v>-52.4</v>
+        <v>-50.4</v>
       </c>
       <c r="E346">
-        <v>-64.6</v>
+        <v>-61</v>
       </c>
       <c r="F346">
-        <v>-88.5</v>
+        <v>-81.3</v>
       </c>
       <c r="G346">
         <v>-1.83</v>
@@ -12679,16 +12679,16 @@
         <v>355</v>
       </c>
       <c r="C347">
-        <v>-52.2</v>
+        <v>-51.3</v>
       </c>
       <c r="D347">
-        <v>-55.3</v>
+        <v>-53</v>
       </c>
       <c r="E347">
-        <v>-61.4</v>
+        <v>-57.2</v>
       </c>
       <c r="F347">
-        <v>-91.7</v>
+        <v>-83.2</v>
       </c>
       <c r="G347">
         <v>-1.65</v>
@@ -12711,16 +12711,16 @@
         <v>356</v>
       </c>
       <c r="C348">
-        <v>-36.4</v>
+        <v>-35</v>
       </c>
       <c r="D348">
-        <v>-34.8</v>
+        <v>-31.1</v>
       </c>
       <c r="E348">
-        <v>-42</v>
+        <v>-35.4</v>
       </c>
       <c r="F348">
-        <v>-90</v>
+        <v>-76.3</v>
       </c>
       <c r="G348">
         <v>-1.64</v>
@@ -12743,16 +12743,16 @@
         <v>357</v>
       </c>
       <c r="C349">
-        <v>-39.8</v>
+        <v>-38.8</v>
       </c>
       <c r="D349">
-        <v>-36.4</v>
+        <v>-33.6</v>
       </c>
       <c r="E349">
-        <v>-49</v>
+        <v>-44.3</v>
       </c>
       <c r="F349">
-        <v>-89.4</v>
+        <v>-79.4</v>
       </c>
       <c r="G349">
         <v>-1.61</v>
@@ -12775,16 +12775,16 @@
         <v>358</v>
       </c>
       <c r="C350">
-        <v>-43.3</v>
+        <v>-42</v>
       </c>
       <c r="D350">
-        <v>-42.9</v>
+        <v>-39.4</v>
       </c>
       <c r="E350">
-        <v>-52.4</v>
+        <v>-46.2</v>
       </c>
       <c r="F350">
-        <v>-92.2</v>
+        <v>-79.3</v>
       </c>
       <c r="G350">
         <v>-1.46</v>
@@ -12807,16 +12807,16 @@
         <v>359</v>
       </c>
       <c r="C351">
-        <v>-49.6</v>
+        <v>-48.8</v>
       </c>
       <c r="D351">
-        <v>-51.4</v>
+        <v>-49.3</v>
       </c>
       <c r="E351">
-        <v>-61.3</v>
+        <v>-57.4</v>
       </c>
       <c r="F351">
-        <v>-92.8</v>
+        <v>-84.9</v>
       </c>
       <c r="G351">
         <v>-1.18</v>
@@ -12839,16 +12839,16 @@
         <v>360</v>
       </c>
       <c r="C352">
-        <v>-19.3</v>
+        <v>-18.7</v>
       </c>
       <c r="D352">
-        <v>-37.5</v>
+        <v>-36</v>
       </c>
       <c r="E352">
-        <v>-50.8</v>
+        <v>-48.2</v>
       </c>
       <c r="F352">
-        <v>-89.2</v>
+        <v>-83.9</v>
       </c>
       <c r="G352">
         <v>-1.87</v>
@@ -12871,16 +12871,16 @@
         <v>361</v>
       </c>
       <c r="C353">
-        <v>-22.8</v>
+        <v>-21.2</v>
       </c>
       <c r="D353">
-        <v>-23.6</v>
+        <v>-19.2</v>
       </c>
       <c r="E353">
-        <v>-39.1</v>
+        <v>-31.5</v>
       </c>
       <c r="F353">
-        <v>-87.1</v>
+        <v>-70.6</v>
       </c>
       <c r="G353">
         <v>-1.69</v>
@@ -12903,16 +12903,16 @@
         <v>362</v>
       </c>
       <c r="C354">
-        <v>-21.1</v>
+        <v>-20.7</v>
       </c>
       <c r="D354">
-        <v>-37</v>
+        <v>-36</v>
       </c>
       <c r="E354">
-        <v>-50.1</v>
+        <v>-48.2</v>
       </c>
       <c r="F354">
-        <v>-89.9</v>
+        <v>-86.2</v>
       </c>
       <c r="G354">
         <v>-2.62</v>
@@ -12935,16 +12935,16 @@
         <v>363</v>
       </c>
       <c r="C355">
-        <v>-14.7</v>
+        <v>-14.1</v>
       </c>
       <c r="D355">
-        <v>-31</v>
+        <v>-29.6</v>
       </c>
       <c r="E355">
-        <v>-47.5</v>
+        <v>-45.2</v>
       </c>
       <c r="F355">
-        <v>-88.5</v>
+        <v>-83.6</v>
       </c>
       <c r="G355">
         <v>-1.97</v>
@@ -12967,16 +12967,16 @@
         <v>364</v>
       </c>
       <c r="C356">
-        <v>-46</v>
+        <v>-45.3</v>
       </c>
       <c r="D356">
-        <v>-50.5</v>
+        <v>-48.7</v>
       </c>
       <c r="E356">
-        <v>-63.9</v>
+        <v>-60.8</v>
       </c>
       <c r="F356">
-        <v>-93.2</v>
+        <v>-87.2</v>
       </c>
       <c r="G356">
         <v>-1.01</v>
@@ -12999,16 +12999,16 @@
         <v>365</v>
       </c>
       <c r="C357">
-        <v>-52.9</v>
+        <v>-52.3</v>
       </c>
       <c r="D357">
-        <v>-51.6</v>
+        <v>-50.2</v>
       </c>
       <c r="E357">
-        <v>-64.1</v>
+        <v>-61.5</v>
       </c>
       <c r="F357">
-        <v>-92.8</v>
+        <v>-87.6</v>
       </c>
       <c r="G357">
         <v>-1.04</v>
@@ -13031,16 +13031,16 @@
         <v>366</v>
       </c>
       <c r="C358">
-        <v>-17.3</v>
+        <v>-15.3</v>
       </c>
       <c r="D358">
-        <v>-10.2</v>
+        <v>-4.1</v>
       </c>
       <c r="E358">
-        <v>-19.9</v>
+        <v>-8.8</v>
       </c>
       <c r="F358">
-        <v>-86.4</v>
+        <v>-61.9</v>
       </c>
       <c r="G358">
         <v>-1.85</v>
@@ -13063,16 +13063,16 @@
         <v>367</v>
       </c>
       <c r="C359">
-        <v>-15.3</v>
+        <v>-13.8</v>
       </c>
       <c r="D359">
-        <v>-37.9</v>
+        <v>-34</v>
       </c>
       <c r="E359">
-        <v>-45.1</v>
+        <v>-38.4</v>
       </c>
       <c r="F359">
-        <v>-91.8</v>
+        <v>-76.9</v>
       </c>
       <c r="G359">
         <v>-1.64</v>
@@ -13095,16 +13095,16 @@
         <v>368</v>
       </c>
       <c r="C360">
-        <v>-14.6</v>
+        <v>-12.6</v>
       </c>
       <c r="D360">
-        <v>-0.5</v>
+        <v>5.6</v>
       </c>
       <c r="E360">
-        <v>-18.9</v>
+        <v>-8.1</v>
       </c>
       <c r="F360">
-        <v>-84.5</v>
+        <v>-61.3</v>
       </c>
       <c r="G360">
         <v>-1.8</v>
@@ -13127,16 +13127,16 @@
         <v>369</v>
       </c>
       <c r="C361">
-        <v>-19.8</v>
+        <v>-17.8</v>
       </c>
       <c r="D361">
-        <v>-7.2</v>
+        <v>-1.3</v>
       </c>
       <c r="E361">
-        <v>-27.2</v>
+        <v>-17</v>
       </c>
       <c r="F361">
-        <v>-88</v>
+        <v>-67.6</v>
       </c>
       <c r="G361">
         <v>-1.83</v>
@@ -13159,16 +13159,16 @@
         <v>370</v>
       </c>
       <c r="C362">
-        <v>-23.9</v>
+        <v>-22.4</v>
       </c>
       <c r="D362">
-        <v>-13.5</v>
+        <v>-9.3</v>
       </c>
       <c r="E362">
-        <v>-35.2</v>
+        <v>-28.1</v>
       </c>
       <c r="F362">
-        <v>-86.7</v>
+        <v>-72.1</v>
       </c>
       <c r="G362">
         <v>-1.75</v>
@@ -13191,16 +13191,16 @@
         <v>371</v>
       </c>
       <c r="C363">
-        <v>-17</v>
+        <v>-15.1</v>
       </c>
       <c r="D363">
-        <v>-31.1</v>
+        <v>-26.1</v>
       </c>
       <c r="E363">
-        <v>-48.2</v>
+        <v>-39.9</v>
       </c>
       <c r="F363">
-        <v>-89</v>
+        <v>-72.8</v>
       </c>
       <c r="G363">
         <v>-2.28</v>
@@ -13223,16 +13223,16 @@
         <v>372</v>
       </c>
       <c r="C364">
-        <v>-11.8</v>
+        <v>-9.8</v>
       </c>
       <c r="D364">
-        <v>-24.8</v>
+        <v>-19.4</v>
       </c>
       <c r="E364">
-        <v>-45.2</v>
+        <v>-36.4</v>
       </c>
       <c r="F364">
-        <v>-88.4</v>
+        <v>-70.6</v>
       </c>
       <c r="G364">
         <v>-2.03</v>
@@ -13255,16 +13255,16 @@
         <v>373</v>
       </c>
       <c r="C365">
-        <v>-6.4</v>
+        <v>-3.8</v>
       </c>
       <c r="D365">
-        <v>-21.4</v>
+        <v>-14.6</v>
       </c>
       <c r="E365">
-        <v>-43.1</v>
+        <v>-32.2</v>
       </c>
       <c r="F365">
-        <v>-87.1</v>
+        <v>-64.3</v>
       </c>
       <c r="G365">
         <v>-1.86</v>
@@ -13287,16 +13287,16 @@
         <v>374</v>
       </c>
       <c r="C366">
-        <v>-7.5</v>
+        <v>-5.8</v>
       </c>
       <c r="D366">
-        <v>-25.6</v>
+        <v>-21.1</v>
       </c>
       <c r="E366">
-        <v>-43.5</v>
+        <v>-36.2</v>
       </c>
       <c r="F366">
-        <v>-87.1</v>
+        <v>-71.5</v>
       </c>
       <c r="G366">
         <v>-1.76</v>
@@ -13319,16 +13319,16 @@
         <v>375</v>
       </c>
       <c r="C367">
-        <v>-6.8</v>
+        <v>-4.5</v>
       </c>
       <c r="D367">
-        <v>-23.1</v>
+        <v>-17.9</v>
       </c>
       <c r="E367">
-        <v>-44.2</v>
+        <v>-35.9</v>
       </c>
       <c r="F367">
-        <v>-89.2</v>
+        <v>-71.5</v>
       </c>
       <c r="G367">
         <v>-1.76</v>
@@ -13351,16 +13351,16 @@
         <v>376</v>
       </c>
       <c r="C368">
-        <v>-26.4</v>
+        <v>-25.6</v>
       </c>
       <c r="D368">
-        <v>-23.9</v>
+        <v>-22.1</v>
       </c>
       <c r="E368">
-        <v>-46.6</v>
+        <v>-43.3</v>
       </c>
       <c r="F368">
-        <v>-93.6</v>
+        <v>-86.9</v>
       </c>
       <c r="G368">
         <v>-1.49</v>
@@ -13383,16 +13383,16 @@
         <v>377</v>
       </c>
       <c r="C369">
-        <v>-24.1</v>
+        <v>-23.5</v>
       </c>
       <c r="D369">
-        <v>-22</v>
+        <v>-20.8</v>
       </c>
       <c r="E369">
-        <v>-60.8</v>
+        <v>-58.6</v>
       </c>
       <c r="F369">
-        <v>-89</v>
+        <v>-84.4</v>
       </c>
       <c r="G369">
         <v>-1.43</v>
@@ -13415,16 +13415,16 @@
         <v>378</v>
       </c>
       <c r="C370">
-        <v>-22.3</v>
+        <v>-21.7</v>
       </c>
       <c r="D370">
-        <v>-24.1</v>
+        <v>-22.8</v>
       </c>
       <c r="E370">
-        <v>-62.5</v>
+        <v>-60.3</v>
       </c>
       <c r="F370">
-        <v>-86.1</v>
+        <v>-81.6</v>
       </c>
       <c r="G370">
         <v>-1.6</v>
@@ -13447,16 +13447,16 @@
         <v>379</v>
       </c>
       <c r="C371">
-        <v>-20.7</v>
+        <v>-19.8</v>
       </c>
       <c r="D371">
-        <v>-17.2</v>
+        <v>-15.2</v>
       </c>
       <c r="E371">
-        <v>-57.4</v>
+        <v>-53.8</v>
       </c>
       <c r="F371">
-        <v>-88.2</v>
+        <v>-81.3</v>
       </c>
       <c r="G371">
         <v>-1.03</v>
@@ -13479,16 +13479,16 @@
         <v>380</v>
       </c>
       <c r="C372">
-        <v>-39.5</v>
+        <v>-39.2</v>
       </c>
       <c r="D372">
-        <v>-52.5</v>
+        <v>-52</v>
       </c>
       <c r="E372">
-        <v>-72.2</v>
+        <v>-71.2</v>
       </c>
       <c r="F372">
-        <v>-88.4</v>
+        <v>-86.3</v>
       </c>
       <c r="G372">
         <v>-1.77</v>
@@ -13511,16 +13511,16 @@
         <v>381</v>
       </c>
       <c r="C373">
-        <v>-49.2</v>
+        <v>-49.1</v>
       </c>
       <c r="D373">
-        <v>-53.3</v>
+        <v>-53.2</v>
       </c>
       <c r="E373">
-        <v>-74.3</v>
+        <v>-74.2</v>
       </c>
       <c r="F373">
-        <v>-90.4</v>
+        <v>-90.1</v>
       </c>
       <c r="G373">
         <v>-1.3</v>
@@ -13543,16 +13543,16 @@
         <v>382</v>
       </c>
       <c r="C374">
-        <v>-54.2</v>
+        <v>-52.8</v>
       </c>
       <c r="D374">
-        <v>-44.4</v>
+        <v>-41.4</v>
       </c>
       <c r="E374">
-        <v>-45.9</v>
+        <v>-40</v>
       </c>
       <c r="F374">
-        <v>-75.6</v>
+        <v>-62.7</v>
       </c>
       <c r="G374">
         <v>-1.27</v>
@@ -13578,13 +13578,13 @@
         <v>-51.3</v>
       </c>
       <c r="D375">
-        <v>-51.4</v>
+        <v>-51.3</v>
       </c>
       <c r="E375">
-        <v>-56.6</v>
+        <v>-56.5</v>
       </c>
       <c r="F375">
-        <v>-74.9</v>
+        <v>-74.6</v>
       </c>
       <c r="G375">
         <v>-1.31</v>
@@ -13607,16 +13607,16 @@
         <v>384</v>
       </c>
       <c r="C376">
-        <v>-35.1</v>
+        <v>-33.9</v>
       </c>
       <c r="D376">
-        <v>-29.9</v>
+        <v>-26.8</v>
       </c>
       <c r="E376">
-        <v>-44.8</v>
+        <v>-39.4</v>
       </c>
       <c r="F376">
-        <v>-86.3</v>
+        <v>-75</v>
       </c>
       <c r="G376">
         <v>-1.68</v>
@@ -13639,16 +13639,16 @@
         <v>385</v>
       </c>
       <c r="C377">
-        <v>-52</v>
+        <v>-51.1</v>
       </c>
       <c r="D377">
-        <v>-56.5</v>
+        <v>-54.3</v>
       </c>
       <c r="E377">
-        <v>-65.1</v>
+        <v>-61.3</v>
       </c>
       <c r="F377">
-        <v>-91.1</v>
+        <v>-82.6</v>
       </c>
       <c r="G377">
         <v>-1.51</v>
@@ -13671,16 +13671,16 @@
         <v>386</v>
       </c>
       <c r="C378">
-        <v>-22.6</v>
+        <v>-21.4</v>
       </c>
       <c r="D378">
-        <v>-22</v>
+        <v>-19.5</v>
       </c>
       <c r="E378">
-        <v>-44.7</v>
+        <v>-39.8</v>
       </c>
       <c r="F378">
-        <v>-90.2</v>
+        <v>-81.1</v>
       </c>
       <c r="G378">
         <v>-0.78</v>
@@ -13712,7 +13712,7 @@
         <v>-63.2</v>
       </c>
       <c r="F379">
-        <v>-83</v>
+        <v>-82.9</v>
       </c>
       <c r="G379">
         <v>-1.28</v>
@@ -13735,16 +13735,16 @@
         <v>388</v>
       </c>
       <c r="C380">
-        <v>-32.7</v>
+        <v>-31.5</v>
       </c>
       <c r="D380">
-        <v>-41.6</v>
+        <v>-38.7</v>
       </c>
       <c r="E380">
-        <v>-49.4</v>
+        <v>-43.4</v>
       </c>
       <c r="F380">
-        <v>-96.3</v>
+        <v>-83.4</v>
       </c>
       <c r="G380">
         <v>-2.02</v>
@@ -13767,16 +13767,16 @@
         <v>389</v>
       </c>
       <c r="C381">
-        <v>-33.9</v>
+        <v>-32.6</v>
       </c>
       <c r="D381">
-        <v>-43.3</v>
+        <v>-40.4</v>
       </c>
       <c r="E381">
-        <v>-49.8</v>
+        <v>-43.8</v>
       </c>
       <c r="F381">
-        <v>-95.9</v>
+        <v>-83.3</v>
       </c>
       <c r="G381">
         <v>-2.02</v>
@@ -13799,16 +13799,16 @@
         <v>390</v>
       </c>
       <c r="C382">
-        <v>-29</v>
+        <v>-27.4</v>
       </c>
       <c r="D382">
-        <v>-37</v>
+        <v>-32.8</v>
       </c>
       <c r="E382">
-        <v>-38.9</v>
+        <v>-30.8</v>
       </c>
       <c r="F382">
-        <v>-93.8</v>
+        <v>-76.6</v>
       </c>
       <c r="G382">
         <v>-2.34</v>
@@ -13831,16 +13831,16 @@
         <v>391</v>
       </c>
       <c r="C383">
-        <v>-54.4</v>
+        <v>-53.5</v>
       </c>
       <c r="D383">
-        <v>-57.1</v>
+        <v>-54.9</v>
       </c>
       <c r="E383">
-        <v>-67.6</v>
+        <v>-63.6</v>
       </c>
       <c r="F383">
-        <v>-90</v>
+        <v>-81.8</v>
       </c>
       <c r="G383">
         <v>-1.16</v>
@@ -13863,16 +13863,16 @@
         <v>392</v>
       </c>
       <c r="C384">
-        <v>-37.8</v>
+        <v>-35.6</v>
       </c>
       <c r="D384">
-        <v>-50.7</v>
+        <v>-46</v>
       </c>
       <c r="E384">
-        <v>-61.1</v>
+        <v>-52.8</v>
       </c>
       <c r="F384">
-        <v>-98.1</v>
+        <v>-79.5</v>
       </c>
       <c r="G384">
         <v>-3.14</v>
@@ -13895,16 +13895,16 @@
         <v>393</v>
       </c>
       <c r="C385">
-        <v>-33</v>
+        <v>-31.7</v>
       </c>
       <c r="D385">
-        <v>-45.5</v>
+        <v>-42.7</v>
       </c>
       <c r="E385">
-        <v>-49.3</v>
+        <v>-43.2</v>
       </c>
       <c r="F385">
-        <v>-96</v>
+        <v>-82.9</v>
       </c>
       <c r="G385">
         <v>-2.08</v>
@@ -13927,16 +13927,16 @@
         <v>394</v>
       </c>
       <c r="C386">
-        <v>-20</v>
+        <v>-18.4</v>
       </c>
       <c r="D386">
-        <v>-22.1</v>
+        <v>-18.9</v>
       </c>
       <c r="E386">
-        <v>-54.6</v>
+        <v>-48.7</v>
       </c>
       <c r="F386">
-        <v>-81</v>
+        <v>-68.7</v>
       </c>
       <c r="G386">
         <v>-0.8</v>
@@ -13959,16 +13959,16 @@
         <v>395</v>
       </c>
       <c r="C387">
-        <v>-22.5</v>
+        <v>-21.7</v>
       </c>
       <c r="D387">
-        <v>-23.4</v>
+        <v>-21.7</v>
       </c>
       <c r="E387">
-        <v>-64.3</v>
+        <v>-61.4</v>
       </c>
       <c r="F387">
-        <v>-83.7</v>
+        <v>-77.7</v>
       </c>
       <c r="G387">
         <v>-1.61</v>
@@ -13991,16 +13991,16 @@
         <v>396</v>
       </c>
       <c r="C388">
-        <v>-24.2</v>
+        <v>-23</v>
       </c>
       <c r="D388">
-        <v>-21.1</v>
+        <v>-18.2</v>
       </c>
       <c r="E388">
-        <v>-52.2</v>
+        <v>-46.7</v>
       </c>
       <c r="F388">
-        <v>-81</v>
+        <v>-70.5</v>
       </c>
       <c r="G388">
         <v>-0.83</v>
@@ -14023,16 +14023,16 @@
         <v>397</v>
       </c>
       <c r="C389">
-        <v>-57.8</v>
+        <v>-56.9</v>
       </c>
       <c r="D389">
-        <v>-63.7</v>
+        <v>-61.5</v>
       </c>
       <c r="E389">
-        <v>-72</v>
+        <v>-68.2</v>
       </c>
       <c r="F389">
-        <v>-91.3</v>
+        <v>-83.5</v>
       </c>
       <c r="G389">
         <v>-1.34</v>
@@ -14055,16 +14055,16 @@
         <v>398</v>
       </c>
       <c r="C390">
-        <v>-52.9</v>
+        <v>-51.8</v>
       </c>
       <c r="D390">
-        <v>-55.6</v>
+        <v>-53.1</v>
       </c>
       <c r="E390">
-        <v>-60.5</v>
+        <v>-56.1</v>
       </c>
       <c r="F390">
-        <v>-93.5</v>
+        <v>-84</v>
       </c>
       <c r="G390">
         <v>-1.62</v>
@@ -14087,16 +14087,16 @@
         <v>399</v>
       </c>
       <c r="C391">
-        <v>-18.3</v>
+        <v>-16.2</v>
       </c>
       <c r="D391">
-        <v>-17.5</v>
+        <v>-12.9</v>
       </c>
       <c r="E391">
-        <v>-52.7</v>
+        <v>-43.8</v>
       </c>
       <c r="F391">
-        <v>-86.8</v>
+        <v>-68.8</v>
       </c>
       <c r="G391">
         <v>-1.04</v>
@@ -14119,16 +14119,16 @@
         <v>400</v>
       </c>
       <c r="C392">
-        <v>-24.6</v>
+        <v>-22.6</v>
       </c>
       <c r="D392">
-        <v>-26.5</v>
+        <v>-22.4</v>
       </c>
       <c r="E392">
-        <v>-51</v>
+        <v>-42.8</v>
       </c>
       <c r="F392">
-        <v>-80.2</v>
+        <v>-63.2</v>
       </c>
       <c r="G392">
         <v>-0.76</v>
@@ -14151,16 +14151,16 @@
         <v>401</v>
       </c>
       <c r="C393">
-        <v>-21</v>
+        <v>-18.9</v>
       </c>
       <c r="D393">
-        <v>-21</v>
+        <v>-16.8</v>
       </c>
       <c r="E393">
-        <v>-38.8</v>
+        <v>-30.8</v>
       </c>
       <c r="F393">
-        <v>-77.5</v>
+        <v>-62</v>
       </c>
       <c r="G393">
         <v>-0.72</v>
@@ -14183,16 +14183,16 @@
         <v>402</v>
       </c>
       <c r="C394">
-        <v>-22</v>
+        <v>-21.5</v>
       </c>
       <c r="D394">
-        <v>-38.4</v>
+        <v>-37</v>
       </c>
       <c r="E394">
-        <v>-50.5</v>
+        <v>-48.1</v>
       </c>
       <c r="F394">
-        <v>-90.7</v>
+        <v>-85.9</v>
       </c>
       <c r="G394">
         <v>-2.39</v>
@@ -14215,16 +14215,16 @@
         <v>403</v>
       </c>
       <c r="C395">
-        <v>-19.1</v>
+        <v>-17.7</v>
       </c>
       <c r="D395">
-        <v>-23.9</v>
+        <v>-20.8</v>
       </c>
       <c r="E395">
-        <v>-42.8</v>
+        <v>-36.8</v>
       </c>
       <c r="F395">
-        <v>-89.8</v>
+        <v>-77.3</v>
       </c>
       <c r="G395">
         <v>-1</v>
@@ -14247,16 +14247,16 @@
         <v>404</v>
       </c>
       <c r="C396">
-        <v>-33</v>
+        <v>-31.8</v>
       </c>
       <c r="D396">
-        <v>-39.8</v>
+        <v>-37.1</v>
       </c>
       <c r="E396">
-        <v>-47</v>
+        <v>-41.8</v>
       </c>
       <c r="F396">
-        <v>-91.3</v>
+        <v>-79.9</v>
       </c>
       <c r="G396">
         <v>-0.89</v>
@@ -14279,16 +14279,16 @@
         <v>405</v>
       </c>
       <c r="C397">
-        <v>-27.8</v>
+        <v>-25.4</v>
       </c>
       <c r="D397">
-        <v>-48.3</v>
+        <v>-42.9</v>
       </c>
       <c r="E397">
-        <v>-58.9</v>
+        <v>-48.4</v>
       </c>
       <c r="F397">
-        <v>-98.4</v>
+        <v>-78</v>
       </c>
       <c r="G397">
         <v>-3.32</v>
@@ -14311,16 +14311,16 @@
         <v>406</v>
       </c>
       <c r="C398">
-        <v>-30.2</v>
+        <v>-29</v>
       </c>
       <c r="D398">
-        <v>-45.7</v>
+        <v>-42.7</v>
       </c>
       <c r="E398">
-        <v>-53.9</v>
+        <v>-48.2</v>
       </c>
       <c r="F398">
-        <v>-92.6</v>
+        <v>-81.1</v>
       </c>
       <c r="G398">
         <v>-1.93</v>
@@ -14343,16 +14343,16 @@
         <v>407</v>
       </c>
       <c r="C399">
-        <v>-59.9</v>
+        <v>-59.1</v>
       </c>
       <c r="D399">
-        <v>-62.4</v>
+        <v>-60.4</v>
       </c>
       <c r="E399">
-        <v>-66.5</v>
+        <v>-63.1</v>
       </c>
       <c r="F399">
-        <v>-93</v>
+        <v>-85.5</v>
       </c>
       <c r="G399">
         <v>-1.65</v>
@@ -14375,16 +14375,16 @@
         <v>408</v>
       </c>
       <c r="C400">
-        <v>-23.6</v>
+        <v>-22.6</v>
       </c>
       <c r="D400">
-        <v>-37.2</v>
+        <v>-34.6</v>
       </c>
       <c r="E400">
-        <v>-39.6</v>
+        <v>-34.7</v>
       </c>
       <c r="F400">
-        <v>-91.5</v>
+        <v>-80.7</v>
       </c>
       <c r="G400">
         <v>-1.82</v>

--- a/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
+++ b/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
@@ -31,7 +31,7 @@
     <t>AN_TRI_202010</t>
   </si>
   <si>
-    <t>AN_20201020</t>
+    <t>AN_20201025</t>
   </si>
   <si>
     <t>SPI1_202009</t>
@@ -1639,16 +1639,16 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>-47.5</v>
+        <v>-46.4</v>
       </c>
       <c r="D2">
-        <v>-47.3</v>
+        <v>-44.9</v>
       </c>
       <c r="E2">
-        <v>-45.5</v>
+        <v>-41</v>
       </c>
       <c r="F2">
-        <v>-74.2</v>
+        <v>-62.4</v>
       </c>
       <c r="G2">
         <v>-1.64</v>
@@ -1671,16 +1671,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>-55.4</v>
+        <v>-54.7</v>
       </c>
       <c r="D3">
-        <v>-51.4</v>
+        <v>-49.9</v>
       </c>
       <c r="E3">
-        <v>-48</v>
+        <v>-45.1</v>
       </c>
       <c r="F3">
-        <v>-77.1</v>
+        <v>-69.9</v>
       </c>
       <c r="G3">
         <v>-1.69</v>
@@ -1709,10 +1709,10 @@
         <v>-41.8</v>
       </c>
       <c r="E4">
-        <v>-60.2</v>
+        <v>-60.1</v>
       </c>
       <c r="F4">
-        <v>-79.5</v>
+        <v>-79.3</v>
       </c>
       <c r="G4">
         <v>-1.18</v>
@@ -1735,16 +1735,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>-47.9</v>
+        <v>-47.8</v>
       </c>
       <c r="D5">
-        <v>-45.6</v>
+        <v>-45.5</v>
       </c>
       <c r="E5">
-        <v>-58.5</v>
+        <v>-58.2</v>
       </c>
       <c r="F5">
-        <v>-81.2</v>
+        <v>-80.7</v>
       </c>
       <c r="G5">
         <v>-0.98</v>
@@ -1767,16 +1767,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>-51.8</v>
+        <v>-51.1</v>
       </c>
       <c r="D6">
-        <v>-48.5</v>
+        <v>-47</v>
       </c>
       <c r="E6">
-        <v>-49.3</v>
+        <v>-46.4</v>
       </c>
       <c r="F6">
-        <v>-79.6</v>
+        <v>-72.6</v>
       </c>
       <c r="G6">
         <v>-2.1</v>
@@ -1802,7 +1802,7 @@
         <v>-26.3</v>
       </c>
       <c r="D7">
-        <v>-29.7</v>
+        <v>-29.6</v>
       </c>
       <c r="E7">
         <v>-45.1</v>
@@ -1863,16 +1863,16 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>-30.7</v>
+        <v>-30.3</v>
       </c>
       <c r="D9">
-        <v>-44.6</v>
+        <v>-43.7</v>
       </c>
       <c r="E9">
-        <v>-49.2</v>
+        <v>-47.4</v>
       </c>
       <c r="F9">
-        <v>-78.7</v>
+        <v>-75.1</v>
       </c>
       <c r="G9">
         <v>-1.66</v>
@@ -1895,16 +1895,16 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>-33</v>
+        <v>-32.9</v>
       </c>
       <c r="D10">
-        <v>-34.5</v>
+        <v>-34.4</v>
       </c>
       <c r="E10">
-        <v>-43.1</v>
+        <v>-42.9</v>
       </c>
       <c r="F10">
-        <v>-82.2</v>
+        <v>-81.8</v>
       </c>
       <c r="G10">
         <v>-1.06</v>
@@ -1927,16 +1927,16 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>-45.7</v>
+        <v>-45.5</v>
       </c>
       <c r="D11">
-        <v>-42.9</v>
+        <v>-42.5</v>
       </c>
       <c r="E11">
-        <v>-51.8</v>
+        <v>-51.1</v>
       </c>
       <c r="F11">
-        <v>-91.9</v>
+        <v>-90.4</v>
       </c>
       <c r="G11">
         <v>-2.22</v>
@@ -1959,16 +1959,16 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>-55.2</v>
+        <v>-55.1</v>
       </c>
       <c r="D12">
-        <v>-43.9</v>
+        <v>-43.5</v>
       </c>
       <c r="E12">
-        <v>-48</v>
+        <v>-47.3</v>
       </c>
       <c r="F12">
-        <v>-86.3</v>
+        <v>-84.9</v>
       </c>
       <c r="G12">
         <v>-1.3</v>
@@ -1991,16 +1991,16 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>-30.4</v>
+        <v>-30.1</v>
       </c>
       <c r="D13">
-        <v>-42.7</v>
+        <v>-42.1</v>
       </c>
       <c r="E13">
-        <v>-40</v>
+        <v>-38.7</v>
       </c>
       <c r="F13">
-        <v>-75.5</v>
+        <v>-72.5</v>
       </c>
       <c r="G13">
         <v>-1.07</v>
@@ -2023,16 +2023,16 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>-36</v>
+        <v>-35.4</v>
       </c>
       <c r="D14">
-        <v>-43</v>
+        <v>-41.6</v>
       </c>
       <c r="E14">
-        <v>-34.8</v>
+        <v>-32.1</v>
       </c>
       <c r="F14">
-        <v>-74.5</v>
+        <v>-68.4</v>
       </c>
       <c r="G14">
         <v>-1.43</v>
@@ -2055,16 +2055,16 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>-28</v>
+        <v>-27.5</v>
       </c>
       <c r="D15">
-        <v>-23.6</v>
+        <v>-22.2</v>
       </c>
       <c r="E15">
-        <v>-12.3</v>
+        <v>-9.7</v>
       </c>
       <c r="F15">
-        <v>-67.5</v>
+        <v>-62</v>
       </c>
       <c r="G15">
         <v>-2.02</v>
@@ -2087,16 +2087,16 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>-15.2</v>
+        <v>-15</v>
       </c>
       <c r="D16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="F16">
-        <v>-60.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G16">
         <v>-1.9</v>
@@ -2119,16 +2119,16 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>-41.7</v>
+        <v>-41.6</v>
       </c>
       <c r="D17">
-        <v>-36</v>
+        <v>-35.7</v>
       </c>
       <c r="E17">
-        <v>-37.8</v>
+        <v>-37.3</v>
       </c>
       <c r="F17">
-        <v>-69.8</v>
+        <v>-68.6</v>
       </c>
       <c r="G17">
         <v>-2.66</v>
@@ -2151,16 +2151,16 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>-49.5</v>
+        <v>-49.1</v>
       </c>
       <c r="D18">
-        <v>-45.2</v>
+        <v>-44.3</v>
       </c>
       <c r="E18">
-        <v>-56.1</v>
+        <v>-54.5</v>
       </c>
       <c r="F18">
-        <v>-82.6</v>
+        <v>-79.1</v>
       </c>
       <c r="G18">
         <v>-2.28</v>
@@ -2183,16 +2183,16 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>-58.9</v>
+        <v>-58.6</v>
       </c>
       <c r="D19">
-        <v>-50.7</v>
+        <v>-49.8</v>
       </c>
       <c r="E19">
-        <v>-52.8</v>
+        <v>-51</v>
       </c>
       <c r="F19">
-        <v>-69.8</v>
+        <v>-66.1</v>
       </c>
       <c r="G19">
         <v>-2.29</v>
@@ -2215,16 +2215,16 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>-61.7</v>
+        <v>-61.3</v>
       </c>
       <c r="D20">
-        <v>-58.7</v>
+        <v>-57.5</v>
       </c>
       <c r="E20">
-        <v>-56.7</v>
+        <v>-54.6</v>
       </c>
       <c r="F20">
-        <v>-75.4</v>
+        <v>-70.4</v>
       </c>
       <c r="G20">
         <v>-2.55</v>
@@ -2247,16 +2247,16 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>-54.7</v>
+        <v>-54.1</v>
       </c>
       <c r="D21">
-        <v>-56.9</v>
+        <v>-55.7</v>
       </c>
       <c r="E21">
-        <v>-64.4</v>
+        <v>-62.3</v>
       </c>
       <c r="F21">
-        <v>-84.6</v>
+        <v>-80.3</v>
       </c>
       <c r="G21">
         <v>-1.09</v>
@@ -2279,16 +2279,16 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>-52.7</v>
+        <v>-52.1</v>
       </c>
       <c r="D22">
-        <v>-54.9</v>
+        <v>-53.5</v>
       </c>
       <c r="E22">
-        <v>-63.1</v>
+        <v>-60.6</v>
       </c>
       <c r="F22">
-        <v>-87.1</v>
+        <v>-82.2</v>
       </c>
       <c r="G22">
         <v>-1.03</v>
@@ -2343,16 +2343,16 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>-62.9</v>
+        <v>-62.8</v>
       </c>
       <c r="D24">
-        <v>-56.6</v>
+        <v>-56.4</v>
       </c>
       <c r="E24">
-        <v>-56.1</v>
+        <v>-55.7</v>
       </c>
       <c r="F24">
-        <v>-74.7</v>
+        <v>-73.8</v>
       </c>
       <c r="G24">
         <v>-2.45</v>
@@ -2375,16 +2375,16 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>-61.9</v>
+        <v>-61.7</v>
       </c>
       <c r="D25">
-        <v>-52.8</v>
+        <v>-52.5</v>
       </c>
       <c r="E25">
-        <v>-54.7</v>
+        <v>-54.1</v>
       </c>
       <c r="F25">
-        <v>-68.8</v>
+        <v>-67.6</v>
       </c>
       <c r="G25">
         <v>-2.67</v>
@@ -2413,7 +2413,7 @@
         <v>-13.7</v>
       </c>
       <c r="E26">
-        <v>-43.9</v>
+        <v>-43.8</v>
       </c>
       <c r="F26">
         <v>-69.4</v>
@@ -2471,16 +2471,16 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>-43.2</v>
+        <v>-43.1</v>
       </c>
       <c r="D28">
-        <v>-45.7</v>
+        <v>-45.4</v>
       </c>
       <c r="E28">
-        <v>-62.4</v>
+        <v>-61.9</v>
       </c>
       <c r="F28">
-        <v>-78</v>
+        <v>-76.8</v>
       </c>
       <c r="G28">
         <v>-1.11</v>
@@ -2503,16 +2503,16 @@
         <v>37</v>
       </c>
       <c r="C29">
-        <v>-50.8</v>
+        <v>-50.1</v>
       </c>
       <c r="D29">
-        <v>-42.5</v>
+        <v>-41.1</v>
       </c>
       <c r="E29">
-        <v>-45.5</v>
+        <v>-42.9</v>
       </c>
       <c r="F29">
-        <v>-80.4</v>
+        <v>-74.6</v>
       </c>
       <c r="G29">
         <v>-1.4</v>
@@ -2567,16 +2567,16 @@
         <v>39</v>
       </c>
       <c r="C31">
-        <v>-51.6</v>
+        <v>-50.2</v>
       </c>
       <c r="D31">
-        <v>-39.6</v>
+        <v>-36.2</v>
       </c>
       <c r="E31">
-        <v>-38.9</v>
+        <v>-32.6</v>
       </c>
       <c r="F31">
-        <v>-54</v>
+        <v>-40</v>
       </c>
       <c r="G31">
         <v>-2.85</v>
@@ -2599,16 +2599,16 @@
         <v>40</v>
       </c>
       <c r="C32">
-        <v>-22.6</v>
+        <v>-22.5</v>
       </c>
       <c r="D32">
-        <v>-37.2</v>
+        <v>-36.8</v>
       </c>
       <c r="E32">
-        <v>-37.6</v>
+        <v>-36.8</v>
       </c>
       <c r="F32">
-        <v>-71.5</v>
+        <v>-69.6</v>
       </c>
       <c r="G32">
         <v>-1.54</v>
@@ -2631,16 +2631,16 @@
         <v>41</v>
       </c>
       <c r="C33">
-        <v>-19.9</v>
+        <v>-19.8</v>
       </c>
       <c r="D33">
-        <v>-32.2</v>
+        <v>-31.9</v>
       </c>
       <c r="E33">
-        <v>-34.6</v>
+        <v>-34.1</v>
       </c>
       <c r="F33">
-        <v>-76.6</v>
+        <v>-75.5</v>
       </c>
       <c r="G33">
         <v>-2.91</v>
@@ -2663,16 +2663,16 @@
         <v>42</v>
       </c>
       <c r="C34">
-        <v>-54.1</v>
+        <v>-53.9</v>
       </c>
       <c r="D34">
-        <v>-62.1</v>
+        <v>-61.5</v>
       </c>
       <c r="E34">
-        <v>-71.4</v>
+        <v>-70.3</v>
       </c>
       <c r="F34">
-        <v>-78.6</v>
+        <v>-76.2</v>
       </c>
       <c r="G34">
         <v>-1.34</v>
@@ -2695,16 +2695,16 @@
         <v>43</v>
       </c>
       <c r="C35">
-        <v>-51.8</v>
+        <v>-51.5</v>
       </c>
       <c r="D35">
-        <v>-39.2</v>
+        <v>-38.4</v>
       </c>
       <c r="E35">
-        <v>-38.4</v>
+        <v>-37</v>
       </c>
       <c r="F35">
-        <v>-75.5</v>
+        <v>-72.5</v>
       </c>
       <c r="G35">
         <v>-1.18</v>
@@ -2727,16 +2727,16 @@
         <v>44</v>
       </c>
       <c r="C36">
-        <v>-48.2</v>
+        <v>-47.6</v>
       </c>
       <c r="D36">
-        <v>-36.7</v>
+        <v>-35.5</v>
       </c>
       <c r="E36">
-        <v>-31.7</v>
+        <v>-29.3</v>
       </c>
       <c r="F36">
-        <v>-68.2</v>
+        <v>-62.8</v>
       </c>
       <c r="G36">
         <v>-1.17</v>
@@ -2759,16 +2759,16 @@
         <v>45</v>
       </c>
       <c r="C37">
-        <v>-48.8</v>
+        <v>-47.8</v>
       </c>
       <c r="D37">
-        <v>-43.1</v>
+        <v>-40.7</v>
       </c>
       <c r="E37">
-        <v>-46.2</v>
+        <v>-42.2</v>
       </c>
       <c r="F37">
-        <v>-67.1</v>
+        <v>-57.8</v>
       </c>
       <c r="G37">
         <v>-1.59</v>
@@ -2791,16 +2791,16 @@
         <v>46</v>
       </c>
       <c r="C38">
-        <v>-39.9</v>
+        <v>-39.6</v>
       </c>
       <c r="D38">
-        <v>-29</v>
+        <v>-28.4</v>
       </c>
       <c r="E38">
-        <v>-31.2</v>
+        <v>-30.1</v>
       </c>
       <c r="F38">
-        <v>-61.5</v>
+        <v>-59.1</v>
       </c>
       <c r="G38">
         <v>-1.73</v>
@@ -2823,16 +2823,16 @@
         <v>47</v>
       </c>
       <c r="C39">
-        <v>-45.8</v>
+        <v>-44.3</v>
       </c>
       <c r="D39">
-        <v>-45.7</v>
+        <v>-42.5</v>
       </c>
       <c r="E39">
-        <v>-42.1</v>
+        <v>-35.9</v>
       </c>
       <c r="F39">
-        <v>-80.1</v>
+        <v>-66.4</v>
       </c>
       <c r="G39">
         <v>-1.46</v>
@@ -2855,16 +2855,16 @@
         <v>48</v>
       </c>
       <c r="C40">
-        <v>-49.6</v>
+        <v>-48.8</v>
       </c>
       <c r="D40">
-        <v>-45.2</v>
+        <v>-43.5</v>
       </c>
       <c r="E40">
-        <v>-40.8</v>
+        <v>-37.3</v>
       </c>
       <c r="F40">
-        <v>-74.9</v>
+        <v>-67.7</v>
       </c>
       <c r="G40">
         <v>-1.43</v>
@@ -2919,16 +2919,16 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>-47.3</v>
+        <v>-46.3</v>
       </c>
       <c r="D42">
-        <v>-46.2</v>
+        <v>-43.9</v>
       </c>
       <c r="E42">
-        <v>-48.9</v>
+        <v>-44.6</v>
       </c>
       <c r="F42">
-        <v>-72.2</v>
+        <v>-62.8</v>
       </c>
       <c r="G42">
         <v>-1.5</v>
@@ -2951,16 +2951,16 @@
         <v>51</v>
       </c>
       <c r="C43">
-        <v>-53.1</v>
+        <v>-52.5</v>
       </c>
       <c r="D43">
-        <v>-54.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E43">
-        <v>-59.4</v>
+        <v>-56.7</v>
       </c>
       <c r="F43">
-        <v>-76.5</v>
+        <v>-70.4</v>
       </c>
       <c r="G43">
         <v>-1.55</v>
@@ -3053,10 +3053,10 @@
         <v>-33.6</v>
       </c>
       <c r="E46">
-        <v>-56.6</v>
+        <v>-56.5</v>
       </c>
       <c r="F46">
-        <v>-75.3</v>
+        <v>-75.2</v>
       </c>
       <c r="G46">
         <v>-1.1</v>
@@ -3114,13 +3114,13 @@
         <v>-23.6</v>
       </c>
       <c r="D48">
-        <v>-31.6</v>
+        <v>-31.5</v>
       </c>
       <c r="E48">
-        <v>-45.5</v>
+        <v>-45.3</v>
       </c>
       <c r="F48">
-        <v>-84.9</v>
+        <v>-84.6</v>
       </c>
       <c r="G48">
         <v>-1.31</v>
@@ -3143,16 +3143,16 @@
         <v>57</v>
       </c>
       <c r="C49">
-        <v>-53.9</v>
+        <v>-52.8</v>
       </c>
       <c r="D49">
-        <v>-48.4</v>
+        <v>-46</v>
       </c>
       <c r="E49">
-        <v>-46.4</v>
+        <v>-41.9</v>
       </c>
       <c r="F49">
-        <v>-71.1</v>
+        <v>-60.1</v>
       </c>
       <c r="G49">
         <v>-1.6</v>
@@ -3175,16 +3175,16 @@
         <v>58</v>
       </c>
       <c r="C50">
-        <v>-51.9</v>
+        <v>-51.2</v>
       </c>
       <c r="D50">
-        <v>-50.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E50">
-        <v>-46.4</v>
+        <v>-42.9</v>
       </c>
       <c r="F50">
-        <v>-77</v>
+        <v>-69</v>
       </c>
       <c r="G50">
         <v>-1.68</v>
@@ -3207,16 +3207,16 @@
         <v>59</v>
       </c>
       <c r="C51">
-        <v>-51.1</v>
+        <v>-50.6</v>
       </c>
       <c r="D51">
-        <v>-37.4</v>
+        <v>-36.2</v>
       </c>
       <c r="E51">
-        <v>-34</v>
+        <v>-31.7</v>
       </c>
       <c r="F51">
-        <v>-63</v>
+        <v>-57.9</v>
       </c>
       <c r="G51">
         <v>-1.15</v>
@@ -3239,16 +3239,16 @@
         <v>60</v>
       </c>
       <c r="C52">
-        <v>-47.1</v>
+        <v>-47</v>
       </c>
       <c r="D52">
-        <v>-39.7</v>
+        <v>-39.5</v>
       </c>
       <c r="E52">
-        <v>-36.9</v>
+        <v>-36.4</v>
       </c>
       <c r="F52">
-        <v>-61.3</v>
+        <v>-60.3</v>
       </c>
       <c r="G52">
         <v>-1.9</v>
@@ -3271,16 +3271,16 @@
         <v>61</v>
       </c>
       <c r="C53">
-        <v>-51.2</v>
+        <v>-50.7</v>
       </c>
       <c r="D53">
-        <v>-41.1</v>
+        <v>-40.1</v>
       </c>
       <c r="E53">
-        <v>-35.8</v>
+        <v>-33.7</v>
       </c>
       <c r="F53">
-        <v>-56.2</v>
+        <v>-51.5</v>
       </c>
       <c r="G53">
         <v>-1.24</v>
@@ -3335,16 +3335,16 @@
         <v>63</v>
       </c>
       <c r="C55">
-        <v>-54.4</v>
+        <v>-53.4</v>
       </c>
       <c r="D55">
-        <v>-52.2</v>
+        <v>-50</v>
       </c>
       <c r="E55">
-        <v>-52.7</v>
+        <v>-48.6</v>
       </c>
       <c r="F55">
-        <v>-72.5</v>
+        <v>-63.4</v>
       </c>
       <c r="G55">
         <v>-1.7</v>
@@ -3367,16 +3367,16 @@
         <v>64</v>
       </c>
       <c r="C56">
-        <v>-51.7</v>
+        <v>-50.5</v>
       </c>
       <c r="D56">
-        <v>-49.5</v>
+        <v>-46.8</v>
       </c>
       <c r="E56">
-        <v>-46.4</v>
+        <v>-41.3</v>
       </c>
       <c r="F56">
-        <v>-70.8</v>
+        <v>-58.3</v>
       </c>
       <c r="G56">
         <v>-1.62</v>
@@ -3527,16 +3527,16 @@
         <v>69</v>
       </c>
       <c r="C61">
-        <v>-47.3</v>
+        <v>-46.7</v>
       </c>
       <c r="D61">
-        <v>-42.7</v>
+        <v>-41.3</v>
       </c>
       <c r="E61">
-        <v>-43.4</v>
+        <v>-40.7</v>
       </c>
       <c r="F61">
-        <v>-69.6</v>
+        <v>-63.9</v>
       </c>
       <c r="G61">
         <v>-1.57</v>
@@ -3559,16 +3559,16 @@
         <v>70</v>
       </c>
       <c r="C62">
-        <v>-32.1</v>
+        <v>-32</v>
       </c>
       <c r="D62">
-        <v>-43.2</v>
+        <v>-43.1</v>
       </c>
       <c r="E62">
-        <v>-57.9</v>
+        <v>-57.8</v>
       </c>
       <c r="F62">
-        <v>-89.9</v>
+        <v>-89.8</v>
       </c>
       <c r="G62">
         <v>-1.57</v>
@@ -3719,16 +3719,16 @@
         <v>75</v>
       </c>
       <c r="C67">
-        <v>-58.3</v>
+        <v>-57.9</v>
       </c>
       <c r="D67">
-        <v>-59.7</v>
+        <v>-58.5</v>
       </c>
       <c r="E67">
-        <v>-60.9</v>
+        <v>-58.6</v>
       </c>
       <c r="F67">
-        <v>-78.3</v>
+        <v>-73.1</v>
       </c>
       <c r="G67">
         <v>-2.05</v>
@@ -3783,16 +3783,16 @@
         <v>77</v>
       </c>
       <c r="C69">
-        <v>-45.9</v>
+        <v>-45.6</v>
       </c>
       <c r="D69">
-        <v>-38</v>
+        <v>-37.5</v>
       </c>
       <c r="E69">
-        <v>-31.3</v>
+        <v>-30.3</v>
       </c>
       <c r="F69">
-        <v>-50</v>
+        <v>-47.7</v>
       </c>
       <c r="G69">
         <v>-1.38</v>
@@ -3818,13 +3818,13 @@
         <v>-43.7</v>
       </c>
       <c r="D70">
-        <v>-37.9</v>
+        <v>-37.8</v>
       </c>
       <c r="E70">
-        <v>-35.8</v>
+        <v>-35.5</v>
       </c>
       <c r="F70">
-        <v>-60.5</v>
+        <v>-60</v>
       </c>
       <c r="G70">
         <v>-1.94</v>
@@ -3856,7 +3856,7 @@
         <v>-36.6</v>
       </c>
       <c r="F71">
-        <v>-54</v>
+        <v>-53.9</v>
       </c>
       <c r="G71">
         <v>-2.13</v>
@@ -3885,10 +3885,10 @@
         <v>-35.7</v>
       </c>
       <c r="E72">
-        <v>-53.2</v>
+        <v>-53.1</v>
       </c>
       <c r="F72">
-        <v>-68.9</v>
+        <v>-68.8</v>
       </c>
       <c r="G72">
         <v>-1.85</v>
@@ -3911,16 +3911,16 @@
         <v>81</v>
       </c>
       <c r="C73">
-        <v>-13.3</v>
+        <v>-13.1</v>
       </c>
       <c r="D73">
-        <v>-31.3</v>
+        <v>-31</v>
       </c>
       <c r="E73">
-        <v>-34.8</v>
+        <v>-34.2</v>
       </c>
       <c r="F73">
-        <v>-74.7</v>
+        <v>-73.2</v>
       </c>
       <c r="G73">
         <v>-1.7</v>
@@ -3946,13 +3946,13 @@
         <v>-5.2</v>
       </c>
       <c r="D74">
-        <v>-20.7</v>
+        <v>-20.6</v>
       </c>
       <c r="E74">
         <v>-38.2</v>
       </c>
       <c r="F74">
-        <v>-75.6</v>
+        <v>-75.5</v>
       </c>
       <c r="G74">
         <v>-1.74</v>
@@ -3984,7 +3984,7 @@
         <v>-26.5</v>
       </c>
       <c r="F75">
-        <v>-66.7</v>
+        <v>-66.6</v>
       </c>
       <c r="G75">
         <v>-1.73</v>
@@ -4007,16 +4007,16 @@
         <v>84</v>
       </c>
       <c r="C76">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D76">
         <v>7.7</v>
       </c>
       <c r="E76">
-        <v>-22.4</v>
+        <v>-22.3</v>
       </c>
       <c r="F76">
-        <v>-59</v>
+        <v>-58.9</v>
       </c>
       <c r="G76">
         <v>-1.74</v>
@@ -4039,16 +4039,16 @@
         <v>85</v>
       </c>
       <c r="C77">
-        <v>-9.6</v>
+        <v>-9.5</v>
       </c>
       <c r="D77">
-        <v>-29.1</v>
+        <v>-28.9</v>
       </c>
       <c r="E77">
-        <v>-39.1</v>
+        <v>-38.9</v>
       </c>
       <c r="F77">
-        <v>-76.8</v>
+        <v>-76.3</v>
       </c>
       <c r="G77">
         <v>-1.65</v>
@@ -4071,16 +4071,16 @@
         <v>86</v>
       </c>
       <c r="C78">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D78">
         <v>-12.9</v>
       </c>
       <c r="E78">
-        <v>-25.8</v>
+        <v>-25.7</v>
       </c>
       <c r="F78">
-        <v>-61.1</v>
+        <v>-61</v>
       </c>
       <c r="G78">
         <v>-1.66</v>
@@ -4103,16 +4103,16 @@
         <v>87</v>
       </c>
       <c r="C79">
-        <v>-35.5</v>
+        <v>-35.4</v>
       </c>
       <c r="D79">
-        <v>-34.8</v>
+        <v>-34.6</v>
       </c>
       <c r="E79">
-        <v>-45.6</v>
+        <v>-45.2</v>
       </c>
       <c r="F79">
-        <v>-80.4</v>
+        <v>-79.5</v>
       </c>
       <c r="G79">
         <v>-2.08</v>
@@ -4135,16 +4135,16 @@
         <v>88</v>
       </c>
       <c r="C80">
-        <v>-38.2</v>
+        <v>-38</v>
       </c>
       <c r="D80">
-        <v>-32.8</v>
+        <v>-32.3</v>
       </c>
       <c r="E80">
-        <v>-44.7</v>
+        <v>-43.9</v>
       </c>
       <c r="F80">
-        <v>-83.7</v>
+        <v>-81.8</v>
       </c>
       <c r="G80">
         <v>-2.35</v>
@@ -4231,16 +4231,16 @@
         <v>91</v>
       </c>
       <c r="C83">
-        <v>-29.3</v>
+        <v>-29.1</v>
       </c>
       <c r="D83">
-        <v>-38.8</v>
+        <v>-38.5</v>
       </c>
       <c r="E83">
-        <v>-41.4</v>
+        <v>-40.7</v>
       </c>
       <c r="F83">
-        <v>-76.8</v>
+        <v>-75.3</v>
       </c>
       <c r="G83">
         <v>-0.88</v>
@@ -4263,16 +4263,16 @@
         <v>92</v>
       </c>
       <c r="C84">
-        <v>-45</v>
+        <v>-44.8</v>
       </c>
       <c r="D84">
-        <v>-41.2</v>
+        <v>-40.7</v>
       </c>
       <c r="E84">
-        <v>-52.6</v>
+        <v>-51.5</v>
       </c>
       <c r="F84">
-        <v>-71</v>
+        <v>-68.5</v>
       </c>
       <c r="G84">
         <v>-2.23</v>
@@ -4295,16 +4295,16 @@
         <v>93</v>
       </c>
       <c r="C85">
-        <v>-46.6</v>
+        <v>-45.9</v>
       </c>
       <c r="D85">
-        <v>-42.4</v>
+        <v>-40.7</v>
       </c>
       <c r="E85">
-        <v>-54.8</v>
+        <v>-51.7</v>
       </c>
       <c r="F85">
-        <v>-69.7</v>
+        <v>-62.5</v>
       </c>
       <c r="G85">
         <v>-2.16</v>
@@ -4330,13 +4330,13 @@
         <v>-11.2</v>
       </c>
       <c r="D86">
-        <v>-22.6</v>
+        <v>-22.5</v>
       </c>
       <c r="E86">
-        <v>-28.8</v>
+        <v>-28.7</v>
       </c>
       <c r="F86">
-        <v>-69.6</v>
+        <v>-69.3</v>
       </c>
       <c r="G86">
         <v>-2.34</v>
@@ -4365,7 +4365,7 @@
         <v>-45.5</v>
       </c>
       <c r="E87">
-        <v>-50.1</v>
+        <v>-50</v>
       </c>
       <c r="F87">
         <v>-85</v>
@@ -4391,16 +4391,16 @@
         <v>96</v>
       </c>
       <c r="C88">
-        <v>-39.6</v>
+        <v>-39.5</v>
       </c>
       <c r="D88">
-        <v>-38.7</v>
+        <v>-38.6</v>
       </c>
       <c r="E88">
-        <v>-46</v>
+        <v>-45.8</v>
       </c>
       <c r="F88">
-        <v>-86</v>
+        <v>-85.5</v>
       </c>
       <c r="G88">
         <v>-1.36</v>
@@ -4423,16 +4423,16 @@
         <v>97</v>
       </c>
       <c r="C89">
-        <v>-43.9</v>
+        <v>-43.8</v>
       </c>
       <c r="D89">
-        <v>-44.2</v>
+        <v>-44</v>
       </c>
       <c r="E89">
-        <v>-53.7</v>
+        <v>-53.3</v>
       </c>
       <c r="F89">
-        <v>-88.5</v>
+        <v>-87.6</v>
       </c>
       <c r="G89">
         <v>-1.85</v>
@@ -4461,10 +4461,10 @@
         <v>-36.9</v>
       </c>
       <c r="E90">
-        <v>-40.6</v>
+        <v>-40.5</v>
       </c>
       <c r="F90">
-        <v>-81.7</v>
+        <v>-81.4</v>
       </c>
       <c r="G90">
         <v>-1.04</v>
@@ -4487,16 +4487,16 @@
         <v>99</v>
       </c>
       <c r="C91">
-        <v>-38.1</v>
+        <v>-38</v>
       </c>
       <c r="D91">
-        <v>-41.2</v>
+        <v>-40.9</v>
       </c>
       <c r="E91">
-        <v>-42.7</v>
+        <v>-42.1</v>
       </c>
       <c r="F91">
-        <v>-80.2</v>
+        <v>-79</v>
       </c>
       <c r="G91">
         <v>-1.06</v>
@@ -4519,16 +4519,16 @@
         <v>100</v>
       </c>
       <c r="C92">
-        <v>-50.4</v>
+        <v>-48.9</v>
       </c>
       <c r="D92">
-        <v>-45</v>
+        <v>-41.1</v>
       </c>
       <c r="E92">
-        <v>-56.7</v>
+        <v>-49.6</v>
       </c>
       <c r="F92">
-        <v>-71.9</v>
+        <v>-56.3</v>
       </c>
       <c r="G92">
         <v>-2.05</v>
@@ -4586,13 +4586,13 @@
         <v>-29.4</v>
       </c>
       <c r="D94">
-        <v>-45.2</v>
+        <v>-45.1</v>
       </c>
       <c r="E94">
-        <v>-50.2</v>
+        <v>-50</v>
       </c>
       <c r="F94">
-        <v>-86</v>
+        <v>-85.7</v>
       </c>
       <c r="G94">
         <v>-3.13</v>
@@ -4618,13 +4618,13 @@
         <v>-43.5</v>
       </c>
       <c r="D95">
-        <v>-54.4</v>
+        <v>-54.3</v>
       </c>
       <c r="E95">
-        <v>-56.7</v>
+        <v>-56.6</v>
       </c>
       <c r="F95">
-        <v>-80.5</v>
+        <v>-80.3</v>
       </c>
       <c r="G95">
         <v>-3.25</v>
@@ -4647,16 +4647,16 @@
         <v>104</v>
       </c>
       <c r="C96">
-        <v>-42</v>
+        <v>-40.3</v>
       </c>
       <c r="D96">
-        <v>-27.9</v>
+        <v>-23.5</v>
       </c>
       <c r="E96">
-        <v>-38.5</v>
+        <v>-30.8</v>
       </c>
       <c r="F96">
-        <v>-50.7</v>
+        <v>-34.5</v>
       </c>
       <c r="G96">
         <v>-2.16</v>
@@ -4679,16 +4679,16 @@
         <v>105</v>
       </c>
       <c r="C97">
-        <v>-50.2</v>
+        <v>-48.7</v>
       </c>
       <c r="D97">
-        <v>-42.9</v>
+        <v>-39.1</v>
       </c>
       <c r="E97">
-        <v>-53</v>
+        <v>-46</v>
       </c>
       <c r="F97">
-        <v>-63.4</v>
+        <v>-48.8</v>
       </c>
       <c r="G97">
         <v>-2.03</v>
@@ -4711,16 +4711,16 @@
         <v>106</v>
       </c>
       <c r="C98">
-        <v>-22.1</v>
+        <v>-22</v>
       </c>
       <c r="D98">
-        <v>-44.1</v>
+        <v>-44</v>
       </c>
       <c r="E98">
-        <v>-51.6</v>
+        <v>-51.3</v>
       </c>
       <c r="F98">
-        <v>-85.3</v>
+        <v>-84.6</v>
       </c>
       <c r="G98">
         <v>-3.17</v>
@@ -4743,16 +4743,16 @@
         <v>107</v>
       </c>
       <c r="C99">
-        <v>-18</v>
+        <v>-17.8</v>
       </c>
       <c r="D99">
-        <v>-39.7</v>
+        <v>-39.4</v>
       </c>
       <c r="E99">
-        <v>-49.9</v>
+        <v>-49.3</v>
       </c>
       <c r="F99">
-        <v>-83.9</v>
+        <v>-82.7</v>
       </c>
       <c r="G99">
         <v>-3.24</v>
@@ -4775,16 +4775,16 @@
         <v>108</v>
       </c>
       <c r="C100">
-        <v>-60.2</v>
+        <v>-59.2</v>
       </c>
       <c r="D100">
-        <v>-50.8</v>
+        <v>-48.4</v>
       </c>
       <c r="E100">
-        <v>-61.9</v>
+        <v>-57.4</v>
       </c>
       <c r="F100">
-        <v>-73.8</v>
+        <v>-64.5</v>
       </c>
       <c r="G100">
         <v>-1.98</v>
@@ -4807,16 +4807,16 @@
         <v>109</v>
       </c>
       <c r="C101">
-        <v>-35.3</v>
+        <v>-34.6</v>
       </c>
       <c r="D101">
-        <v>-49.4</v>
+        <v>-47.8</v>
       </c>
       <c r="E101">
-        <v>-51.5</v>
+        <v>-48.6</v>
       </c>
       <c r="F101">
-        <v>-77.8</v>
+        <v>-71.5</v>
       </c>
       <c r="G101">
         <v>-1.96</v>
@@ -4839,16 +4839,16 @@
         <v>110</v>
       </c>
       <c r="C102">
-        <v>-33.6</v>
+        <v>-32.9</v>
       </c>
       <c r="D102">
-        <v>-45.5</v>
+        <v>-43.7</v>
       </c>
       <c r="E102">
-        <v>-49.6</v>
+        <v>-46.2</v>
       </c>
       <c r="F102">
-        <v>-79</v>
+        <v>-71.6</v>
       </c>
       <c r="G102">
         <v>-1.79</v>
@@ -4871,16 +4871,16 @@
         <v>111</v>
       </c>
       <c r="C103">
-        <v>-19.8</v>
+        <v>-17.9</v>
       </c>
       <c r="D103">
-        <v>-31.7</v>
+        <v>-26.6</v>
       </c>
       <c r="E103">
-        <v>-26.5</v>
+        <v>-16.7</v>
       </c>
       <c r="F103">
-        <v>-76.9</v>
+        <v>-56.5</v>
       </c>
       <c r="G103">
         <v>-1.96</v>
@@ -4903,16 +4903,16 @@
         <v>112</v>
       </c>
       <c r="C104">
-        <v>-33.5</v>
+        <v>-32.9</v>
       </c>
       <c r="D104">
-        <v>-44.6</v>
+        <v>-43.1</v>
       </c>
       <c r="E104">
-        <v>-48.6</v>
+        <v>-45.8</v>
       </c>
       <c r="F104">
-        <v>-76.5</v>
+        <v>-70.6</v>
       </c>
       <c r="G104">
         <v>-1.71</v>
@@ -4935,16 +4935,16 @@
         <v>113</v>
       </c>
       <c r="C105">
-        <v>-30.6</v>
+        <v>-29.3</v>
       </c>
       <c r="D105">
-        <v>-39.5</v>
+        <v>-36.3</v>
       </c>
       <c r="E105">
-        <v>-43.2</v>
+        <v>-37.1</v>
       </c>
       <c r="F105">
-        <v>-78.7</v>
+        <v>-65.9</v>
       </c>
       <c r="G105">
         <v>-2.39</v>
@@ -4967,16 +4967,16 @@
         <v>114</v>
       </c>
       <c r="C106">
-        <v>-30.7</v>
+        <v>-29.5</v>
       </c>
       <c r="D106">
-        <v>-42.6</v>
+        <v>-39.7</v>
       </c>
       <c r="E106">
-        <v>-42.6</v>
+        <v>-37.1</v>
       </c>
       <c r="F106">
-        <v>-79</v>
+        <v>-67.1</v>
       </c>
       <c r="G106">
         <v>-2.32</v>
@@ -4999,16 +4999,16 @@
         <v>115</v>
       </c>
       <c r="C107">
-        <v>-27.5</v>
+        <v>-27.4</v>
       </c>
       <c r="D107">
-        <v>-43.8</v>
+        <v>-43.7</v>
       </c>
       <c r="E107">
-        <v>-52.7</v>
+        <v>-52.6</v>
       </c>
       <c r="F107">
-        <v>-81.2</v>
+        <v>-81</v>
       </c>
       <c r="G107">
         <v>-2.6</v>
@@ -5031,16 +5031,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>-28.5</v>
+        <v>-27.6</v>
       </c>
       <c r="D108">
-        <v>-36.4</v>
+        <v>-33.9</v>
       </c>
       <c r="E108">
-        <v>-39.1</v>
+        <v>-34.4</v>
       </c>
       <c r="F108">
-        <v>-75.3</v>
+        <v>-65.2</v>
       </c>
       <c r="G108">
         <v>-2.37</v>
@@ -5063,16 +5063,16 @@
         <v>117</v>
       </c>
       <c r="C109">
-        <v>-27.3</v>
+        <v>-25.8</v>
       </c>
       <c r="D109">
-        <v>-32.5</v>
+        <v>-28.6</v>
       </c>
       <c r="E109">
-        <v>-29.5</v>
+        <v>-22</v>
       </c>
       <c r="F109">
-        <v>-70.4</v>
+        <v>-55.1</v>
       </c>
       <c r="G109">
         <v>-1.89</v>
@@ -5095,16 +5095,16 @@
         <v>118</v>
       </c>
       <c r="C110">
-        <v>-24.7</v>
+        <v>-23.6</v>
       </c>
       <c r="D110">
-        <v>-27.3</v>
+        <v>-24.3</v>
       </c>
       <c r="E110">
-        <v>-23.6</v>
+        <v>-17.8</v>
       </c>
       <c r="F110">
-        <v>-75.3</v>
+        <v>-63.5</v>
       </c>
       <c r="G110">
         <v>-1.78</v>
@@ -5127,16 +5127,16 @@
         <v>119</v>
       </c>
       <c r="C111">
-        <v>-27.6</v>
+        <v>-25.6</v>
       </c>
       <c r="D111">
-        <v>-41</v>
+        <v>-35.8</v>
       </c>
       <c r="E111">
-        <v>-36</v>
+        <v>-26.1</v>
       </c>
       <c r="F111">
-        <v>-76</v>
+        <v>-55.3</v>
       </c>
       <c r="G111">
         <v>-2.06</v>
@@ -5159,16 +5159,16 @@
         <v>120</v>
       </c>
       <c r="C112">
-        <v>-32.4</v>
+        <v>-31.7</v>
       </c>
       <c r="D112">
-        <v>-45.6</v>
+        <v>-44</v>
       </c>
       <c r="E112">
-        <v>-47.9</v>
+        <v>-44.9</v>
       </c>
       <c r="F112">
-        <v>-79.8</v>
+        <v>-73.5</v>
       </c>
       <c r="G112">
         <v>-1.81</v>
@@ -5191,16 +5191,16 @@
         <v>121</v>
       </c>
       <c r="C113">
-        <v>-49.1</v>
+        <v>-48.2</v>
       </c>
       <c r="D113">
-        <v>-48.4</v>
+        <v>-46.2</v>
       </c>
       <c r="E113">
-        <v>-58.5</v>
+        <v>-54.5</v>
       </c>
       <c r="F113">
-        <v>-79.3</v>
+        <v>-71.1</v>
       </c>
       <c r="G113">
         <v>-1.16</v>
@@ -5223,16 +5223,16 @@
         <v>122</v>
       </c>
       <c r="C114">
-        <v>-55.8</v>
+        <v>-54.7</v>
       </c>
       <c r="D114">
-        <v>-54.1</v>
+        <v>-51.1</v>
       </c>
       <c r="E114">
-        <v>-57.7</v>
+        <v>-52.4</v>
       </c>
       <c r="F114">
-        <v>-80.2</v>
+        <v>-69.8</v>
       </c>
       <c r="G114">
         <v>-1.03</v>
@@ -5258,13 +5258,13 @@
         <v>-11.6</v>
       </c>
       <c r="D115">
-        <v>-27.9</v>
+        <v>-27.8</v>
       </c>
       <c r="E115">
-        <v>-43.1</v>
+        <v>-43</v>
       </c>
       <c r="F115">
-        <v>-77.6</v>
+        <v>-77.4</v>
       </c>
       <c r="G115">
         <v>-2.78</v>
@@ -5287,16 +5287,16 @@
         <v>124</v>
       </c>
       <c r="C116">
-        <v>-54.9</v>
+        <v>-54.2</v>
       </c>
       <c r="D116">
-        <v>-57.3</v>
+        <v>-55.4</v>
       </c>
       <c r="E116">
-        <v>-60.2</v>
+        <v>-56.9</v>
       </c>
       <c r="F116">
-        <v>-89</v>
+        <v>-82</v>
       </c>
       <c r="G116">
         <v>-1.64</v>
@@ -5319,16 +5319,16 @@
         <v>125</v>
       </c>
       <c r="C117">
-        <v>-19.1</v>
+        <v>-18.1</v>
       </c>
       <c r="D117">
-        <v>-25.9</v>
+        <v>-23.3</v>
       </c>
       <c r="E117">
-        <v>-22.8</v>
+        <v>-17.9</v>
       </c>
       <c r="F117">
-        <v>-78.3</v>
+        <v>-68</v>
       </c>
       <c r="G117">
         <v>-1.94</v>
@@ -5351,7 +5351,7 @@
         <v>126</v>
       </c>
       <c r="C118">
-        <v>-27.1</v>
+        <v>-27</v>
       </c>
       <c r="D118">
         <v>-44.4</v>
@@ -5360,7 +5360,7 @@
         <v>-55.1</v>
       </c>
       <c r="F118">
-        <v>-84.4</v>
+        <v>-84.2</v>
       </c>
       <c r="G118">
         <v>-2.91</v>
@@ -5383,16 +5383,16 @@
         <v>127</v>
       </c>
       <c r="C119">
-        <v>-19.2</v>
+        <v>-19.1</v>
       </c>
       <c r="D119">
-        <v>-38.7</v>
+        <v>-38.6</v>
       </c>
       <c r="E119">
-        <v>-54.3</v>
+        <v>-54.1</v>
       </c>
       <c r="F119">
-        <v>-87.9</v>
+        <v>-87.6</v>
       </c>
       <c r="G119">
         <v>-3.13</v>
@@ -5447,16 +5447,16 @@
         <v>129</v>
       </c>
       <c r="C121">
-        <v>-51.3</v>
+        <v>-50.7</v>
       </c>
       <c r="D121">
-        <v>-53.2</v>
+        <v>-52</v>
       </c>
       <c r="E121">
-        <v>-62.5</v>
+        <v>-60.3</v>
       </c>
       <c r="F121">
-        <v>-84.5</v>
+        <v>-80.1</v>
       </c>
       <c r="G121">
         <v>-1.12</v>
@@ -5479,16 +5479,16 @@
         <v>130</v>
       </c>
       <c r="C122">
-        <v>-30.1</v>
+        <v>-29.7</v>
       </c>
       <c r="D122">
-        <v>-46</v>
+        <v>-45.1</v>
       </c>
       <c r="E122">
-        <v>-50.9</v>
+        <v>-49.4</v>
       </c>
       <c r="F122">
-        <v>-80.7</v>
+        <v>-77.3</v>
       </c>
       <c r="G122">
         <v>-1.63</v>
@@ -5511,16 +5511,16 @@
         <v>131</v>
       </c>
       <c r="C123">
-        <v>-28.4</v>
+        <v>-27.7</v>
       </c>
       <c r="D123">
-        <v>-38.3</v>
+        <v>-36.5</v>
       </c>
       <c r="E123">
-        <v>-41.9</v>
+        <v>-38.6</v>
       </c>
       <c r="F123">
-        <v>-75.7</v>
+        <v>-68.5</v>
       </c>
       <c r="G123">
         <v>-2.23</v>
@@ -5543,16 +5543,16 @@
         <v>132</v>
       </c>
       <c r="C124">
-        <v>-23.1</v>
+        <v>-22.2</v>
       </c>
       <c r="D124">
-        <v>-33.2</v>
+        <v>-31</v>
       </c>
       <c r="E124">
-        <v>-31</v>
+        <v>-26.8</v>
       </c>
       <c r="F124">
-        <v>-76.5</v>
+        <v>-67.3</v>
       </c>
       <c r="G124">
         <v>-2.08</v>
@@ -5575,16 +5575,16 @@
         <v>133</v>
       </c>
       <c r="C125">
-        <v>-36.5</v>
+        <v>-35.9</v>
       </c>
       <c r="D125">
-        <v>-34.4</v>
+        <v>-32.9</v>
       </c>
       <c r="E125">
-        <v>-39.7</v>
+        <v>-37.1</v>
       </c>
       <c r="F125">
-        <v>-76.7</v>
+        <v>-71.3</v>
       </c>
       <c r="G125">
         <v>-1.65</v>
@@ -5607,16 +5607,16 @@
         <v>134</v>
       </c>
       <c r="C126">
-        <v>-29.6</v>
+        <v>-28.8</v>
       </c>
       <c r="D126">
-        <v>-31</v>
+        <v>-28.7</v>
       </c>
       <c r="E126">
-        <v>-29.9</v>
+        <v>-25.6</v>
       </c>
       <c r="F126">
-        <v>-75.7</v>
+        <v>-66.7</v>
       </c>
       <c r="G126">
         <v>-1.67</v>
@@ -5639,16 +5639,16 @@
         <v>135</v>
       </c>
       <c r="C127">
-        <v>-20.6</v>
+        <v>-20.2</v>
       </c>
       <c r="D127">
-        <v>-20.6</v>
+        <v>-19.4</v>
       </c>
       <c r="E127">
-        <v>-16</v>
+        <v>-13.9</v>
       </c>
       <c r="F127">
-        <v>-73.2</v>
+        <v>-68.7</v>
       </c>
       <c r="G127">
         <v>-1.92</v>
@@ -5671,16 +5671,16 @@
         <v>136</v>
       </c>
       <c r="C128">
-        <v>-23.6</v>
+        <v>-22.5</v>
       </c>
       <c r="D128">
-        <v>-29.2</v>
+        <v>-26.4</v>
       </c>
       <c r="E128">
-        <v>-24.4</v>
+        <v>-18.8</v>
       </c>
       <c r="F128">
-        <v>-78.2</v>
+        <v>-66.3</v>
       </c>
       <c r="G128">
         <v>-2.23</v>
@@ -5703,16 +5703,16 @@
         <v>137</v>
       </c>
       <c r="C129">
-        <v>-33.6</v>
+        <v>-32.3</v>
       </c>
       <c r="D129">
-        <v>-35.2</v>
+        <v>-31.9</v>
       </c>
       <c r="E129">
-        <v>-38</v>
+        <v>-32.2</v>
       </c>
       <c r="F129">
-        <v>-81.2</v>
+        <v>-69.4</v>
       </c>
       <c r="G129">
         <v>-1.63</v>
@@ -5735,16 +5735,16 @@
         <v>138</v>
       </c>
       <c r="C130">
-        <v>-36.4</v>
+        <v>-35.9</v>
       </c>
       <c r="D130">
-        <v>-36.8</v>
+        <v>-35.4</v>
       </c>
       <c r="E130">
-        <v>-39.8</v>
+        <v>-37.4</v>
       </c>
       <c r="F130">
-        <v>-81.5</v>
+        <v>-76.6</v>
       </c>
       <c r="G130">
         <v>-1.63</v>
@@ -5767,16 +5767,16 @@
         <v>139</v>
       </c>
       <c r="C131">
-        <v>-31</v>
+        <v>-30.6</v>
       </c>
       <c r="D131">
-        <v>-45.3</v>
+        <v>-44.3</v>
       </c>
       <c r="E131">
-        <v>-48.7</v>
+        <v>-46.9</v>
       </c>
       <c r="F131">
-        <v>-85.4</v>
+        <v>-81.4</v>
       </c>
       <c r="G131">
         <v>-1.63</v>
@@ -5799,16 +5799,16 @@
         <v>140</v>
       </c>
       <c r="C132">
-        <v>-26.8</v>
+        <v>-25.5</v>
       </c>
       <c r="D132">
-        <v>-32.2</v>
+        <v>-28.9</v>
       </c>
       <c r="E132">
-        <v>-28.5</v>
+        <v>-22</v>
       </c>
       <c r="F132">
-        <v>-75.2</v>
+        <v>-61.4</v>
       </c>
       <c r="G132">
         <v>-2.35</v>
@@ -5831,16 +5831,16 @@
         <v>141</v>
       </c>
       <c r="C133">
-        <v>-53.1</v>
+        <v>-52.1</v>
       </c>
       <c r="D133">
-        <v>-57.2</v>
+        <v>-54.9</v>
       </c>
       <c r="E133">
-        <v>-62.5</v>
+        <v>-58.3</v>
       </c>
       <c r="F133">
-        <v>-86.2</v>
+        <v>-78.1</v>
       </c>
       <c r="G133">
         <v>-1.01</v>
@@ -5863,16 +5863,16 @@
         <v>142</v>
       </c>
       <c r="C134">
-        <v>-48.4</v>
+        <v>-47.7</v>
       </c>
       <c r="D134">
-        <v>-47.3</v>
+        <v>-45.8</v>
       </c>
       <c r="E134">
-        <v>-59</v>
+        <v>-56.3</v>
       </c>
       <c r="F134">
-        <v>-87.7</v>
+        <v>-82.5</v>
       </c>
       <c r="G134">
         <v>-1.01</v>
@@ -5895,16 +5895,16 @@
         <v>143</v>
       </c>
       <c r="C135">
-        <v>-22.4</v>
+        <v>-20.9</v>
       </c>
       <c r="D135">
-        <v>-31</v>
+        <v>-26.8</v>
       </c>
       <c r="E135">
-        <v>-27.2</v>
+        <v>-19.2</v>
       </c>
       <c r="F135">
-        <v>-80.5</v>
+        <v>-63.8</v>
       </c>
       <c r="G135">
         <v>-2.13</v>
@@ -5927,16 +5927,16 @@
         <v>144</v>
       </c>
       <c r="C136">
-        <v>-32.8</v>
+        <v>-31.7</v>
       </c>
       <c r="D136">
-        <v>-35.3</v>
+        <v>-32.4</v>
       </c>
       <c r="E136">
-        <v>-26.7</v>
+        <v>-21.3</v>
       </c>
       <c r="F136">
-        <v>-81.1</v>
+        <v>-70</v>
       </c>
       <c r="G136">
         <v>-2.18</v>
@@ -5959,16 +5959,16 @@
         <v>145</v>
       </c>
       <c r="C137">
-        <v>-13.9</v>
+        <v>-13.7</v>
       </c>
       <c r="D137">
-        <v>-4.1</v>
+        <v>-3.4</v>
       </c>
       <c r="E137">
-        <v>-11.1</v>
+        <v>-9.8</v>
       </c>
       <c r="F137">
-        <v>-66</v>
+        <v>-63.1</v>
       </c>
       <c r="G137">
         <v>-1.77</v>
@@ -5991,16 +5991,16 @@
         <v>146</v>
       </c>
       <c r="C138">
-        <v>-32.1</v>
+        <v>-32</v>
       </c>
       <c r="D138">
-        <v>-45.8</v>
+        <v>-45.7</v>
       </c>
       <c r="E138">
-        <v>-53.6</v>
+        <v>-53.3</v>
       </c>
       <c r="F138">
-        <v>-81.7</v>
+        <v>-81.3</v>
       </c>
       <c r="G138">
         <v>-3.26</v>
@@ -6032,7 +6032,7 @@
         <v>-50.1</v>
       </c>
       <c r="F139">
-        <v>-81.7</v>
+        <v>-81.6</v>
       </c>
       <c r="G139">
         <v>-3.25</v>
@@ -6055,16 +6055,16 @@
         <v>148</v>
       </c>
       <c r="C140">
-        <v>-29.8</v>
+        <v>-27.9</v>
       </c>
       <c r="D140">
-        <v>-38.5</v>
+        <v>-33.8</v>
       </c>
       <c r="E140">
-        <v>-37.9</v>
+        <v>-28.9</v>
       </c>
       <c r="F140">
-        <v>-73</v>
+        <v>-54</v>
       </c>
       <c r="G140">
         <v>-2.37</v>
@@ -6087,16 +6087,16 @@
         <v>149</v>
       </c>
       <c r="C141">
-        <v>-28.5</v>
+        <v>-27</v>
       </c>
       <c r="D141">
-        <v>-36.2</v>
+        <v>-32.3</v>
       </c>
       <c r="E141">
-        <v>-41.3</v>
+        <v>-34</v>
       </c>
       <c r="F141">
-        <v>-75.8</v>
+        <v>-60.3</v>
       </c>
       <c r="G141">
         <v>-2.39</v>
@@ -6119,16 +6119,16 @@
         <v>150</v>
       </c>
       <c r="C142">
-        <v>-56.5</v>
+        <v>-55.9</v>
       </c>
       <c r="D142">
-        <v>-59.9</v>
+        <v>-58.6</v>
       </c>
       <c r="E142">
-        <v>-67</v>
+        <v>-64.8</v>
       </c>
       <c r="F142">
-        <v>-82.6</v>
+        <v>-78</v>
       </c>
       <c r="G142">
         <v>-1.24</v>
@@ -6154,13 +6154,13 @@
         <v>-37</v>
       </c>
       <c r="D143">
-        <v>-50.8</v>
+        <v>-50.6</v>
       </c>
       <c r="E143">
-        <v>-57.7</v>
+        <v>-57.4</v>
       </c>
       <c r="F143">
-        <v>-81.2</v>
+        <v>-80.7</v>
       </c>
       <c r="G143">
         <v>-3.26</v>
@@ -6183,16 +6183,16 @@
         <v>152</v>
       </c>
       <c r="C144">
-        <v>-45.7</v>
+        <v>-44.9</v>
       </c>
       <c r="D144">
-        <v>-48.4</v>
+        <v>-46.3</v>
       </c>
       <c r="E144">
-        <v>-52.9</v>
+        <v>-49.1</v>
       </c>
       <c r="F144">
-        <v>-78.2</v>
+        <v>-70.4</v>
       </c>
       <c r="G144">
         <v>-1.87</v>
@@ -6215,16 +6215,16 @@
         <v>153</v>
       </c>
       <c r="C145">
-        <v>-38</v>
+        <v>-37.1</v>
       </c>
       <c r="D145">
-        <v>-45.8</v>
+        <v>-43.5</v>
       </c>
       <c r="E145">
-        <v>-45</v>
+        <v>-40.6</v>
       </c>
       <c r="F145">
-        <v>-74.9</v>
+        <v>-65.7</v>
       </c>
       <c r="G145">
         <v>-1.96</v>
@@ -6247,16 +6247,16 @@
         <v>154</v>
       </c>
       <c r="C146">
-        <v>-50.1</v>
+        <v>-49.5</v>
       </c>
       <c r="D146">
-        <v>-52.1</v>
+        <v>-50.6</v>
       </c>
       <c r="E146">
-        <v>-60.8</v>
+        <v>-58</v>
       </c>
       <c r="F146">
-        <v>-77.3</v>
+        <v>-71.5</v>
       </c>
       <c r="G146">
         <v>-1.49</v>
@@ -6279,16 +6279,16 @@
         <v>155</v>
       </c>
       <c r="C147">
-        <v>-37.2</v>
+        <v>-36.8</v>
       </c>
       <c r="D147">
-        <v>-48.4</v>
+        <v>-47.3</v>
       </c>
       <c r="E147">
-        <v>-51.3</v>
+        <v>-49.4</v>
       </c>
       <c r="F147">
-        <v>-84.9</v>
+        <v>-80.8</v>
       </c>
       <c r="G147">
         <v>-1.63</v>
@@ -6343,16 +6343,16 @@
         <v>157</v>
       </c>
       <c r="C149">
-        <v>-50.8</v>
+        <v>-49.9</v>
       </c>
       <c r="D149">
-        <v>-44.8</v>
+        <v>-42.7</v>
       </c>
       <c r="E149">
-        <v>-57.1</v>
+        <v>-53.4</v>
       </c>
       <c r="F149">
-        <v>-85.7</v>
+        <v>-78.3</v>
       </c>
       <c r="G149">
         <v>-1.01</v>
@@ -6375,16 +6375,16 @@
         <v>158</v>
       </c>
       <c r="C150">
-        <v>-11.1</v>
+        <v>-10.9</v>
       </c>
       <c r="D150">
-        <v>-8.4</v>
+        <v>-7.8</v>
       </c>
       <c r="E150">
-        <v>-17.8</v>
+        <v>-16.9</v>
       </c>
       <c r="F150">
-        <v>-62.2</v>
+        <v>-60.2</v>
       </c>
       <c r="G150">
         <v>-1.92</v>
@@ -6416,7 +6416,7 @@
         <v>-44.8</v>
       </c>
       <c r="F151">
-        <v>-80</v>
+        <v>-79.9</v>
       </c>
       <c r="G151">
         <v>-1.68</v>
@@ -6442,13 +6442,13 @@
         <v>-12.1</v>
       </c>
       <c r="D152">
-        <v>-28.6</v>
+        <v>-28.5</v>
       </c>
       <c r="E152">
-        <v>-38.9</v>
+        <v>-38.8</v>
       </c>
       <c r="F152">
-        <v>-72.9</v>
+        <v>-72.7</v>
       </c>
       <c r="G152">
         <v>-1.66</v>
@@ -6471,16 +6471,16 @@
         <v>161</v>
       </c>
       <c r="C153">
-        <v>-19.2</v>
+        <v>-19</v>
       </c>
       <c r="D153">
-        <v>-33.5</v>
+        <v>-32.9</v>
       </c>
       <c r="E153">
-        <v>-40.7</v>
+        <v>-39.6</v>
       </c>
       <c r="F153">
-        <v>-77.7</v>
+        <v>-75.3</v>
       </c>
       <c r="G153">
         <v>-1.63</v>
@@ -6509,10 +6509,10 @@
         <v>-24</v>
       </c>
       <c r="E154">
-        <v>-47.4</v>
+        <v>-47.3</v>
       </c>
       <c r="F154">
-        <v>-81.2</v>
+        <v>-81</v>
       </c>
       <c r="G154">
         <v>-3.16</v>
@@ -6541,10 +6541,10 @@
         <v>-41</v>
       </c>
       <c r="E155">
-        <v>-46.7</v>
+        <v>-46.6</v>
       </c>
       <c r="F155">
-        <v>-76</v>
+        <v>-75.9</v>
       </c>
       <c r="G155">
         <v>-3.14</v>
@@ -6576,7 +6576,7 @@
         <v>-42.8</v>
       </c>
       <c r="F156">
-        <v>-63.6</v>
+        <v>-63.5</v>
       </c>
       <c r="G156">
         <v>-2.15</v>
@@ -6695,16 +6695,16 @@
         <v>168</v>
       </c>
       <c r="C160">
-        <v>-19.6</v>
+        <v>-19.4</v>
       </c>
       <c r="D160">
-        <v>-7.8</v>
+        <v>-7.2</v>
       </c>
       <c r="E160">
-        <v>-57.5</v>
+        <v>-56.5</v>
       </c>
       <c r="F160">
-        <v>-86.2</v>
+        <v>-84.4</v>
       </c>
       <c r="G160">
         <v>-1.7</v>
@@ -6727,16 +6727,16 @@
         <v>169</v>
       </c>
       <c r="C161">
-        <v>-18.6</v>
+        <v>-18.5</v>
       </c>
       <c r="D161">
-        <v>-15.8</v>
+        <v>-15.5</v>
       </c>
       <c r="E161">
-        <v>-58.4</v>
+        <v>-57.8</v>
       </c>
       <c r="F161">
-        <v>-82.3</v>
+        <v>-81.2</v>
       </c>
       <c r="G161">
         <v>-1.68</v>
@@ -6759,16 +6759,16 @@
         <v>170</v>
       </c>
       <c r="C162">
-        <v>-13.6</v>
+        <v>-13.5</v>
       </c>
       <c r="D162">
-        <v>-8.2</v>
+        <v>-8.1</v>
       </c>
       <c r="E162">
-        <v>-56.6</v>
+        <v>-56.4</v>
       </c>
       <c r="F162">
-        <v>-80.4</v>
+        <v>-80.1</v>
       </c>
       <c r="G162">
         <v>-1.1</v>
@@ -6823,16 +6823,16 @@
         <v>172</v>
       </c>
       <c r="C164">
-        <v>-16.6</v>
+        <v>-16.3</v>
       </c>
       <c r="D164">
-        <v>-8.8</v>
+        <v>-8.2</v>
       </c>
       <c r="E164">
-        <v>-56.4</v>
+        <v>-55.5</v>
       </c>
       <c r="F164">
-        <v>-85.8</v>
+        <v>-84.1</v>
       </c>
       <c r="G164">
         <v>-1.83</v>
@@ -6858,13 +6858,13 @@
         <v>-22.2</v>
       </c>
       <c r="D165">
-        <v>-11.2</v>
+        <v>-11.1</v>
       </c>
       <c r="E165">
-        <v>-51.2</v>
+        <v>-51.1</v>
       </c>
       <c r="F165">
-        <v>-79.8</v>
+        <v>-79.5</v>
       </c>
       <c r="G165">
         <v>-1.8</v>
@@ -6887,16 +6887,16 @@
         <v>174</v>
       </c>
       <c r="C166">
-        <v>-28.1</v>
+        <v>-28</v>
       </c>
       <c r="D166">
-        <v>-23.3</v>
+        <v>-23.1</v>
       </c>
       <c r="E166">
-        <v>-60.7</v>
+        <v>-60.2</v>
       </c>
       <c r="F166">
-        <v>-82.2</v>
+        <v>-81.2</v>
       </c>
       <c r="G166">
         <v>-1.7</v>
@@ -6919,16 +6919,16 @@
         <v>175</v>
       </c>
       <c r="C167">
-        <v>-60.3</v>
+        <v>-60</v>
       </c>
       <c r="D167">
-        <v>-53.2</v>
+        <v>-52.3</v>
       </c>
       <c r="E167">
-        <v>-63.8</v>
+        <v>-62.1</v>
       </c>
       <c r="F167">
-        <v>-79.7</v>
+        <v>-76</v>
       </c>
       <c r="G167">
         <v>-1.4</v>
@@ -6951,16 +6951,16 @@
         <v>176</v>
       </c>
       <c r="C168">
-        <v>-57.7</v>
+        <v>-57.6</v>
       </c>
       <c r="D168">
-        <v>-51.2</v>
+        <v>-51</v>
       </c>
       <c r="E168">
-        <v>-61.9</v>
+        <v>-61.6</v>
       </c>
       <c r="F168">
-        <v>-78.2</v>
+        <v>-77.5</v>
       </c>
       <c r="G168">
         <v>-1.52</v>
@@ -6983,16 +6983,16 @@
         <v>177</v>
       </c>
       <c r="C169">
-        <v>-61.9</v>
+        <v>-61.7</v>
       </c>
       <c r="D169">
-        <v>-54.4</v>
+        <v>-53.8</v>
       </c>
       <c r="E169">
-        <v>-63.2</v>
+        <v>-62.1</v>
       </c>
       <c r="F169">
-        <v>-79.4</v>
+        <v>-77</v>
       </c>
       <c r="G169">
         <v>-1.39</v>
@@ -7015,16 +7015,16 @@
         <v>178</v>
       </c>
       <c r="C170">
-        <v>-23.4</v>
+        <v>-23.3</v>
       </c>
       <c r="D170">
-        <v>-19.8</v>
+        <v>-19.7</v>
       </c>
       <c r="E170">
-        <v>-53.6</v>
+        <v>-53.5</v>
       </c>
       <c r="F170">
-        <v>-76</v>
+        <v>-75.8</v>
       </c>
       <c r="G170">
         <v>-1.06</v>
@@ -7047,16 +7047,16 @@
         <v>179</v>
       </c>
       <c r="C171">
-        <v>-19.6</v>
+        <v>-19.4</v>
       </c>
       <c r="D171">
-        <v>-16.1</v>
+        <v>-15.8</v>
       </c>
       <c r="E171">
-        <v>-48.6</v>
+        <v>-47.9</v>
       </c>
       <c r="F171">
-        <v>-73.6</v>
+        <v>-72.3</v>
       </c>
       <c r="G171">
         <v>-0.92</v>
@@ -7088,7 +7088,7 @@
         <v>-45.8</v>
       </c>
       <c r="F172">
-        <v>-66.3</v>
+        <v>-66.2</v>
       </c>
       <c r="G172">
         <v>-0.83</v>
@@ -7117,10 +7117,10 @@
         <v>-33.3</v>
       </c>
       <c r="E173">
-        <v>-43</v>
+        <v>-42.9</v>
       </c>
       <c r="F173">
-        <v>-76.4</v>
+        <v>-76.3</v>
       </c>
       <c r="G173">
         <v>-1.09</v>
@@ -7146,13 +7146,13 @@
         <v>-42.6</v>
       </c>
       <c r="D174">
-        <v>-34.3</v>
+        <v>-34.1</v>
       </c>
       <c r="E174">
-        <v>-43.7</v>
+        <v>-43.5</v>
       </c>
       <c r="F174">
-        <v>-78</v>
+        <v>-77.3</v>
       </c>
       <c r="G174">
         <v>-1.29</v>
@@ -7175,16 +7175,16 @@
         <v>183</v>
       </c>
       <c r="C175">
-        <v>-40.1</v>
+        <v>-40</v>
       </c>
       <c r="D175">
-        <v>-42.8</v>
+        <v>-42.6</v>
       </c>
       <c r="E175">
-        <v>-63.6</v>
+        <v>-63.2</v>
       </c>
       <c r="F175">
-        <v>-81.2</v>
+        <v>-80.4</v>
       </c>
       <c r="G175">
         <v>-1.12</v>
@@ -7213,10 +7213,10 @@
         <v>-24.9</v>
       </c>
       <c r="E176">
-        <v>-57.2</v>
+        <v>-57.1</v>
       </c>
       <c r="F176">
-        <v>-79.7</v>
+        <v>-79.5</v>
       </c>
       <c r="G176">
         <v>-1.72</v>
@@ -7242,13 +7242,13 @@
         <v>-31.3</v>
       </c>
       <c r="D177">
-        <v>-28.8</v>
+        <v>-28.7</v>
       </c>
       <c r="E177">
-        <v>-61.2</v>
+        <v>-61.1</v>
       </c>
       <c r="F177">
-        <v>-80.7</v>
+        <v>-80.5</v>
       </c>
       <c r="G177">
         <v>-2.61</v>
@@ -7274,13 +7274,13 @@
         <v>-51</v>
       </c>
       <c r="D178">
-        <v>-48.7</v>
+        <v>-48.5</v>
       </c>
       <c r="E178">
-        <v>-57</v>
+        <v>-56.6</v>
       </c>
       <c r="F178">
-        <v>-77.7</v>
+        <v>-76.9</v>
       </c>
       <c r="G178">
         <v>-1.03</v>
@@ -7309,7 +7309,7 @@
         <v>-42.3</v>
       </c>
       <c r="E179">
-        <v>-52.1</v>
+        <v>-52</v>
       </c>
       <c r="F179">
         <v>-72.9</v>
@@ -7335,16 +7335,16 @@
         <v>188</v>
       </c>
       <c r="C180">
-        <v>-54.4</v>
+        <v>-54.2</v>
       </c>
       <c r="D180">
-        <v>-47.7</v>
+        <v>-47.2</v>
       </c>
       <c r="E180">
-        <v>-57.4</v>
+        <v>-56.4</v>
       </c>
       <c r="F180">
-        <v>-81</v>
+        <v>-79</v>
       </c>
       <c r="G180">
         <v>-1.45</v>
@@ -7399,16 +7399,16 @@
         <v>190</v>
       </c>
       <c r="C182">
-        <v>-21.3</v>
+        <v>-21.2</v>
       </c>
       <c r="D182">
-        <v>-25.5</v>
+        <v>-25.4</v>
       </c>
       <c r="E182">
-        <v>-38.8</v>
+        <v>-38.6</v>
       </c>
       <c r="F182">
-        <v>-74</v>
+        <v>-73.7</v>
       </c>
       <c r="G182">
         <v>-0.52</v>
@@ -7434,13 +7434,13 @@
         <v>-29.2</v>
       </c>
       <c r="D183">
-        <v>-32.7</v>
+        <v>-32.5</v>
       </c>
       <c r="E183">
-        <v>-48.6</v>
+        <v>-48.3</v>
       </c>
       <c r="F183">
-        <v>-83.2</v>
+        <v>-82.6</v>
       </c>
       <c r="G183">
         <v>-0.65</v>
@@ -7495,16 +7495,16 @@
         <v>193</v>
       </c>
       <c r="C185">
-        <v>-19</v>
+        <v>-18.9</v>
       </c>
       <c r="D185">
-        <v>-19.9</v>
+        <v>-19.7</v>
       </c>
       <c r="E185">
-        <v>-27.7</v>
+        <v>-27.2</v>
       </c>
       <c r="F185">
-        <v>-80.5</v>
+        <v>-79.7</v>
       </c>
       <c r="G185">
         <v>-0.65</v>
@@ -7527,16 +7527,16 @@
         <v>194</v>
       </c>
       <c r="C186">
-        <v>-51.5</v>
+        <v>-50.9</v>
       </c>
       <c r="D186">
-        <v>-43.9</v>
+        <v>-42.7</v>
       </c>
       <c r="E186">
-        <v>-45.5</v>
+        <v>-43</v>
       </c>
       <c r="F186">
-        <v>-74.2</v>
+        <v>-68.7</v>
       </c>
       <c r="G186">
         <v>-1.48</v>
@@ -7559,16 +7559,16 @@
         <v>195</v>
       </c>
       <c r="C187">
-        <v>-51.5</v>
+        <v>-50.5</v>
       </c>
       <c r="D187">
-        <v>-52</v>
+        <v>-49.9</v>
       </c>
       <c r="E187">
-        <v>-48.4</v>
+        <v>-44</v>
       </c>
       <c r="F187">
-        <v>-82</v>
+        <v>-73</v>
       </c>
       <c r="G187">
         <v>-1.45</v>
@@ -7626,13 +7626,13 @@
         <v>-36.3</v>
       </c>
       <c r="D189">
-        <v>-30.4</v>
+        <v>-30.3</v>
       </c>
       <c r="E189">
-        <v>-42.5</v>
+        <v>-42.4</v>
       </c>
       <c r="F189">
-        <v>-76.9</v>
+        <v>-76.6</v>
       </c>
       <c r="G189">
         <v>-2.94</v>
@@ -7661,10 +7661,10 @@
         <v>-27.7</v>
       </c>
       <c r="E190">
-        <v>-46.7</v>
+        <v>-46.6</v>
       </c>
       <c r="F190">
-        <v>-82.3</v>
+        <v>-82.1</v>
       </c>
       <c r="G190">
         <v>-0.97</v>
@@ -7690,13 +7690,13 @@
         <v>-24.1</v>
       </c>
       <c r="D191">
-        <v>-35.5</v>
+        <v>-35.4</v>
       </c>
       <c r="E191">
-        <v>-41.2</v>
+        <v>-40.8</v>
       </c>
       <c r="F191">
-        <v>-78.4</v>
+        <v>-77.7</v>
       </c>
       <c r="G191">
         <v>-0.94</v>
@@ -7719,16 +7719,16 @@
         <v>200</v>
       </c>
       <c r="C192">
-        <v>-48</v>
+        <v>-47.5</v>
       </c>
       <c r="D192">
-        <v>-46.9</v>
+        <v>-45.7</v>
       </c>
       <c r="E192">
-        <v>-59</v>
+        <v>-56.7</v>
       </c>
       <c r="F192">
-        <v>-76.1</v>
+        <v>-70.9</v>
       </c>
       <c r="G192">
         <v>-1.95</v>
@@ -7751,16 +7751,16 @@
         <v>201</v>
       </c>
       <c r="C193">
-        <v>-55.7</v>
+        <v>-55.3</v>
       </c>
       <c r="D193">
-        <v>-55.6</v>
+        <v>-54.5</v>
       </c>
       <c r="E193">
-        <v>-62</v>
+        <v>-60.1</v>
       </c>
       <c r="F193">
-        <v>-78</v>
+        <v>-73.7</v>
       </c>
       <c r="G193">
         <v>-1.76</v>
@@ -7783,16 +7783,16 @@
         <v>202</v>
       </c>
       <c r="C194">
-        <v>-63.2</v>
+        <v>-62.6</v>
       </c>
       <c r="D194">
-        <v>-61.4</v>
+        <v>-60.1</v>
       </c>
       <c r="E194">
-        <v>-66</v>
+        <v>-63.6</v>
       </c>
       <c r="F194">
-        <v>-83</v>
+        <v>-78.2</v>
       </c>
       <c r="G194">
         <v>-1.71</v>
@@ -7815,16 +7815,16 @@
         <v>203</v>
       </c>
       <c r="C195">
-        <v>-60.5</v>
+        <v>-59.7</v>
       </c>
       <c r="D195">
-        <v>-56</v>
+        <v>-54.2</v>
       </c>
       <c r="E195">
-        <v>-63.8</v>
+        <v>-60.6</v>
       </c>
       <c r="F195">
-        <v>-80</v>
+        <v>-73.3</v>
       </c>
       <c r="G195">
         <v>-1.85</v>
@@ -7847,16 +7847,16 @@
         <v>204</v>
       </c>
       <c r="C196">
-        <v>-66</v>
+        <v>-65.4</v>
       </c>
       <c r="D196">
-        <v>-65.7</v>
+        <v>-64.3</v>
       </c>
       <c r="E196">
-        <v>-68.8</v>
+        <v>-66.2</v>
       </c>
       <c r="F196">
-        <v>-86.6</v>
+        <v>-81.5</v>
       </c>
       <c r="G196">
         <v>-1.67</v>
@@ -7879,16 +7879,16 @@
         <v>205</v>
       </c>
       <c r="C197">
-        <v>-55</v>
+        <v>-54.2</v>
       </c>
       <c r="D197">
-        <v>-49.7</v>
+        <v>-47.7</v>
       </c>
       <c r="E197">
-        <v>-60.4</v>
+        <v>-57</v>
       </c>
       <c r="F197">
-        <v>-78.7</v>
+        <v>-71.5</v>
       </c>
       <c r="G197">
         <v>-1.72</v>
@@ -7911,16 +7911,16 @@
         <v>206</v>
       </c>
       <c r="C198">
-        <v>-47.6</v>
+        <v>-46.6</v>
       </c>
       <c r="D198">
-        <v>-46</v>
+        <v>-43.6</v>
       </c>
       <c r="E198">
-        <v>-57.2</v>
+        <v>-52.8</v>
       </c>
       <c r="F198">
-        <v>-73.5</v>
+        <v>-64.2</v>
       </c>
       <c r="G198">
         <v>-1.83</v>
@@ -7946,13 +7946,13 @@
         <v>-11.6</v>
       </c>
       <c r="D199">
-        <v>-30</v>
+        <v>-29.9</v>
       </c>
       <c r="E199">
-        <v>-50.7</v>
+        <v>-50.5</v>
       </c>
       <c r="F199">
-        <v>-86.1</v>
+        <v>-85.9</v>
       </c>
       <c r="G199">
         <v>-3.17</v>
@@ -7975,16 +7975,16 @@
         <v>208</v>
       </c>
       <c r="C200">
-        <v>-47.5</v>
+        <v>-46.8</v>
       </c>
       <c r="D200">
-        <v>-43.4</v>
+        <v>-41.7</v>
       </c>
       <c r="E200">
-        <v>-56.7</v>
+        <v>-53.7</v>
       </c>
       <c r="F200">
-        <v>-86.4</v>
+        <v>-80.5</v>
       </c>
       <c r="G200">
         <v>-1.04</v>
@@ -8007,16 +8007,16 @@
         <v>209</v>
       </c>
       <c r="C201">
-        <v>-15.8</v>
+        <v>-15.6</v>
       </c>
       <c r="D201">
-        <v>-8</v>
+        <v>-7.6</v>
       </c>
       <c r="E201">
-        <v>-9.3</v>
+        <v>-8.5</v>
       </c>
       <c r="F201">
-        <v>-57.4</v>
+        <v>-55.8</v>
       </c>
       <c r="G201">
         <v>-1.97</v>
@@ -8039,16 +8039,16 @@
         <v>210</v>
       </c>
       <c r="C202">
-        <v>-11.6</v>
+        <v>-11.5</v>
       </c>
       <c r="D202">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E202">
-        <v>-8.3</v>
+        <v>-7.7</v>
       </c>
       <c r="F202">
-        <v>-57.7</v>
+        <v>-56.4</v>
       </c>
       <c r="G202">
         <v>-1.93</v>
@@ -8071,16 +8071,16 @@
         <v>211</v>
       </c>
       <c r="C203">
-        <v>-26.7</v>
+        <v>-26.3</v>
       </c>
       <c r="D203">
-        <v>-25.8</v>
+        <v>-24.6</v>
       </c>
       <c r="E203">
-        <v>-16.4</v>
+        <v>-14.2</v>
       </c>
       <c r="F203">
-        <v>-67</v>
+        <v>-62.3</v>
       </c>
       <c r="G203">
         <v>-2.04</v>
@@ -8103,16 +8103,16 @@
         <v>212</v>
       </c>
       <c r="C204">
-        <v>-13.7</v>
+        <v>-13.4</v>
       </c>
       <c r="D204">
-        <v>-23.5</v>
+        <v>-22.9</v>
       </c>
       <c r="E204">
-        <v>-24.5</v>
+        <v>-23.4</v>
       </c>
       <c r="F204">
-        <v>-69.1</v>
+        <v>-66.6</v>
       </c>
       <c r="G204">
         <v>-1.87</v>
@@ -8135,16 +8135,16 @@
         <v>213</v>
       </c>
       <c r="C205">
-        <v>-10.2</v>
+        <v>-10</v>
       </c>
       <c r="D205">
-        <v>-13.1</v>
+        <v>-12.6</v>
       </c>
       <c r="E205">
-        <v>-25.8</v>
+        <v>-25.1</v>
       </c>
       <c r="F205">
-        <v>-67.3</v>
+        <v>-65.6</v>
       </c>
       <c r="G205">
         <v>-1.87</v>
@@ -8167,16 +8167,16 @@
         <v>214</v>
       </c>
       <c r="C206">
-        <v>-6.9</v>
+        <v>-6.8</v>
       </c>
       <c r="D206">
-        <v>-15.8</v>
+        <v>-15.5</v>
       </c>
       <c r="E206">
-        <v>-31</v>
+        <v>-30.4</v>
       </c>
       <c r="F206">
-        <v>-69.2</v>
+        <v>-68</v>
       </c>
       <c r="G206">
         <v>-1.82</v>
@@ -8231,16 +8231,16 @@
         <v>216</v>
       </c>
       <c r="C208">
-        <v>-49</v>
+        <v>-48.6</v>
       </c>
       <c r="D208">
-        <v>-42</v>
+        <v>-41.1</v>
       </c>
       <c r="E208">
-        <v>-54.7</v>
+        <v>-53</v>
       </c>
       <c r="F208">
-        <v>-72.4</v>
+        <v>-68.6</v>
       </c>
       <c r="G208">
         <v>-2.21</v>
@@ -8263,16 +8263,16 @@
         <v>217</v>
       </c>
       <c r="C209">
-        <v>-49.6</v>
+        <v>-49.1</v>
       </c>
       <c r="D209">
-        <v>-44.1</v>
+        <v>-43</v>
       </c>
       <c r="E209">
-        <v>-57.7</v>
+        <v>-55.7</v>
       </c>
       <c r="F209">
-        <v>-76.4</v>
+        <v>-71.9</v>
       </c>
       <c r="G209">
         <v>-2.15</v>
@@ -8295,16 +8295,16 @@
         <v>218</v>
       </c>
       <c r="C210">
-        <v>-39</v>
+        <v>-38.9</v>
       </c>
       <c r="D210">
-        <v>-41.9</v>
+        <v>-41.7</v>
       </c>
       <c r="E210">
-        <v>-50.7</v>
+        <v>-50.4</v>
       </c>
       <c r="F210">
-        <v>-83.3</v>
+        <v>-82.6</v>
       </c>
       <c r="G210">
         <v>-1.72</v>
@@ -8327,16 +8327,16 @@
         <v>219</v>
       </c>
       <c r="C211">
-        <v>-46.8</v>
+        <v>-46.4</v>
       </c>
       <c r="D211">
-        <v>-47.8</v>
+        <v>-47</v>
       </c>
       <c r="E211">
-        <v>-58.4</v>
+        <v>-56.8</v>
       </c>
       <c r="F211">
-        <v>-88.5</v>
+        <v>-85.3</v>
       </c>
       <c r="G211">
         <v>-2.06</v>
@@ -8359,16 +8359,16 @@
         <v>220</v>
       </c>
       <c r="C212">
-        <v>-33.8</v>
+        <v>-33.1</v>
       </c>
       <c r="D212">
-        <v>-45.2</v>
+        <v>-43.6</v>
       </c>
       <c r="E212">
-        <v>-36.8</v>
+        <v>-33.5</v>
       </c>
       <c r="F212">
-        <v>-75.6</v>
+        <v>-68</v>
       </c>
       <c r="G212">
         <v>-1.77</v>
@@ -8391,16 +8391,16 @@
         <v>221</v>
       </c>
       <c r="C213">
-        <v>-46.8</v>
+        <v>-46.2</v>
       </c>
       <c r="D213">
-        <v>-50</v>
+        <v>-48.4</v>
       </c>
       <c r="E213">
-        <v>-58.2</v>
+        <v>-55.3</v>
       </c>
       <c r="F213">
-        <v>-81.8</v>
+        <v>-76</v>
       </c>
       <c r="G213">
         <v>-1.84</v>
@@ -8423,16 +8423,16 @@
         <v>222</v>
       </c>
       <c r="C214">
-        <v>-42.2</v>
+        <v>-42.1</v>
       </c>
       <c r="D214">
-        <v>-43.6</v>
+        <v>-43.3</v>
       </c>
       <c r="E214">
-        <v>-57.7</v>
+        <v>-57.2</v>
       </c>
       <c r="F214">
-        <v>-79.1</v>
+        <v>-78</v>
       </c>
       <c r="G214">
         <v>-1.22</v>
@@ -8455,16 +8455,16 @@
         <v>223</v>
       </c>
       <c r="C215">
-        <v>-44.4</v>
+        <v>-44.2</v>
       </c>
       <c r="D215">
-        <v>-38.9</v>
+        <v>-38.4</v>
       </c>
       <c r="E215">
-        <v>-48.5</v>
+        <v>-47.5</v>
       </c>
       <c r="F215">
-        <v>-86</v>
+        <v>-83.9</v>
       </c>
       <c r="G215">
         <v>-2.71</v>
@@ -8487,16 +8487,16 @@
         <v>224</v>
       </c>
       <c r="C216">
-        <v>-48.9</v>
+        <v>-48.6</v>
       </c>
       <c r="D216">
-        <v>-44.3</v>
+        <v>-43.6</v>
       </c>
       <c r="E216">
-        <v>-48.8</v>
+        <v>-47.5</v>
       </c>
       <c r="F216">
-        <v>-69.2</v>
+        <v>-66</v>
       </c>
       <c r="G216">
         <v>-1.92</v>
@@ -8519,16 +8519,16 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>-32.4</v>
+        <v>-31.9</v>
       </c>
       <c r="D217">
-        <v>-44.1</v>
+        <v>-42.7</v>
       </c>
       <c r="E217">
-        <v>-47.1</v>
+        <v>-44.7</v>
       </c>
       <c r="F217">
-        <v>-81.1</v>
+        <v>-75.8</v>
       </c>
       <c r="G217">
         <v>-1.74</v>
@@ -8551,16 +8551,16 @@
         <v>226</v>
       </c>
       <c r="C218">
-        <v>-19.4</v>
+        <v>-19.1</v>
       </c>
       <c r="D218">
-        <v>-13.7</v>
+        <v>-12.9</v>
       </c>
       <c r="E218">
-        <v>-36.2</v>
+        <v>-35</v>
       </c>
       <c r="F218">
-        <v>-70.1</v>
+        <v>-67.7</v>
       </c>
       <c r="G218">
         <v>-0.82</v>
@@ -8583,16 +8583,16 @@
         <v>227</v>
       </c>
       <c r="C219">
-        <v>-22.7</v>
+        <v>-22.5</v>
       </c>
       <c r="D219">
-        <v>-24.7</v>
+        <v>-24.2</v>
       </c>
       <c r="E219">
-        <v>-61.4</v>
+        <v>-60.6</v>
       </c>
       <c r="F219">
-        <v>-78.1</v>
+        <v>-76.4</v>
       </c>
       <c r="G219">
         <v>-1.32</v>
@@ -8647,16 +8647,16 @@
         <v>229</v>
       </c>
       <c r="C221">
-        <v>-51.5</v>
+        <v>-51.3</v>
       </c>
       <c r="D221">
-        <v>-43.8</v>
+        <v>-43.4</v>
       </c>
       <c r="E221">
-        <v>-46.9</v>
+        <v>-46.1</v>
       </c>
       <c r="F221">
-        <v>-78.2</v>
+        <v>-76.5</v>
       </c>
       <c r="G221">
         <v>-1.14</v>
@@ -8711,16 +8711,16 @@
         <v>231</v>
       </c>
       <c r="C223">
-        <v>-48</v>
+        <v>-47.9</v>
       </c>
       <c r="D223">
-        <v>-40.5</v>
+        <v>-40.3</v>
       </c>
       <c r="E223">
-        <v>-51.3</v>
+        <v>-50.9</v>
       </c>
       <c r="F223">
-        <v>-78.8</v>
+        <v>-77.7</v>
       </c>
       <c r="G223">
         <v>-1.33</v>
@@ -8743,16 +8743,16 @@
         <v>232</v>
       </c>
       <c r="C224">
-        <v>-58.9</v>
+        <v>-58.6</v>
       </c>
       <c r="D224">
-        <v>-47.9</v>
+        <v>-47.1</v>
       </c>
       <c r="E224">
-        <v>-48.8</v>
+        <v>-47.4</v>
       </c>
       <c r="F224">
-        <v>-74.5</v>
+        <v>-71.6</v>
       </c>
       <c r="G224">
         <v>-1.4</v>
@@ -8775,16 +8775,16 @@
         <v>233</v>
       </c>
       <c r="C225">
-        <v>-54.3</v>
+        <v>-53.9</v>
       </c>
       <c r="D225">
-        <v>-50.5</v>
+        <v>-49.6</v>
       </c>
       <c r="E225">
-        <v>-55.7</v>
+        <v>-54</v>
       </c>
       <c r="F225">
-        <v>-77.5</v>
+        <v>-73.6</v>
       </c>
       <c r="G225">
         <v>-1.36</v>
@@ -8807,16 +8807,16 @@
         <v>234</v>
       </c>
       <c r="C226">
-        <v>-61.8</v>
+        <v>-61.5</v>
       </c>
       <c r="D226">
-        <v>-56.7</v>
+        <v>-56</v>
       </c>
       <c r="E226">
-        <v>-55</v>
+        <v>-53.7</v>
       </c>
       <c r="F226">
-        <v>-76.6</v>
+        <v>-73.6</v>
       </c>
       <c r="G226">
         <v>-2.28</v>
@@ -8839,16 +8839,16 @@
         <v>235</v>
       </c>
       <c r="C227">
-        <v>-52.5</v>
+        <v>-52</v>
       </c>
       <c r="D227">
-        <v>-47.1</v>
+        <v>-45.7</v>
       </c>
       <c r="E227">
-        <v>-48.5</v>
+        <v>-45.8</v>
       </c>
       <c r="F227">
-        <v>-82.5</v>
+        <v>-76.1</v>
       </c>
       <c r="G227">
         <v>-2.29</v>
@@ -8871,16 +8871,16 @@
         <v>236</v>
       </c>
       <c r="C228">
-        <v>-18.6</v>
+        <v>-18.1</v>
       </c>
       <c r="D228">
-        <v>-34.3</v>
+        <v>-33.2</v>
       </c>
       <c r="E228">
-        <v>-36.6</v>
+        <v>-34.6</v>
       </c>
       <c r="F228">
-        <v>-81.4</v>
+        <v>-76.8</v>
       </c>
       <c r="G228">
         <v>-1.7</v>
@@ -8903,16 +8903,16 @@
         <v>237</v>
       </c>
       <c r="C229">
-        <v>-33.4</v>
+        <v>-32.4</v>
       </c>
       <c r="D229">
-        <v>-34.6</v>
+        <v>-32.2</v>
       </c>
       <c r="E229">
-        <v>-26.8</v>
+        <v>-22.2</v>
       </c>
       <c r="F229">
-        <v>-79.7</v>
+        <v>-70.1</v>
       </c>
       <c r="G229">
         <v>-2.2</v>
@@ -8935,16 +8935,16 @@
         <v>238</v>
       </c>
       <c r="C230">
-        <v>-19.3</v>
+        <v>-18.6</v>
       </c>
       <c r="D230">
-        <v>-27.9</v>
+        <v>-26.1</v>
       </c>
       <c r="E230">
-        <v>-24</v>
+        <v>-20.8</v>
       </c>
       <c r="F230">
-        <v>-76</v>
+        <v>-68.9</v>
       </c>
       <c r="G230">
         <v>-1.97</v>
@@ -8967,16 +8967,16 @@
         <v>239</v>
       </c>
       <c r="C231">
-        <v>-19.6</v>
+        <v>-19.5</v>
       </c>
       <c r="D231">
-        <v>-37.9</v>
+        <v>-37.8</v>
       </c>
       <c r="E231">
-        <v>-47.4</v>
+        <v>-47.2</v>
       </c>
       <c r="F231">
-        <v>-83.3</v>
+        <v>-82.8</v>
       </c>
       <c r="G231">
         <v>-1.73</v>
@@ -8999,16 +8999,16 @@
         <v>240</v>
       </c>
       <c r="C232">
-        <v>-26.3</v>
+        <v>-26.1</v>
       </c>
       <c r="D232">
-        <v>-42.3</v>
+        <v>-41.8</v>
       </c>
       <c r="E232">
-        <v>-48.7</v>
+        <v>-47.8</v>
       </c>
       <c r="F232">
-        <v>-80.8</v>
+        <v>-78.9</v>
       </c>
       <c r="G232">
         <v>-1.69</v>
@@ -9031,16 +9031,16 @@
         <v>241</v>
       </c>
       <c r="C233">
-        <v>-31.4</v>
+        <v>-31.2</v>
       </c>
       <c r="D233">
-        <v>-38.9</v>
+        <v>-38.6</v>
       </c>
       <c r="E233">
-        <v>-40.6</v>
+        <v>-39.9</v>
       </c>
       <c r="F233">
-        <v>-76.5</v>
+        <v>-75</v>
       </c>
       <c r="G233">
         <v>-0.89</v>
@@ -9063,16 +9063,16 @@
         <v>242</v>
       </c>
       <c r="C234">
-        <v>-36</v>
+        <v>-35.7</v>
       </c>
       <c r="D234">
-        <v>-42.1</v>
+        <v>-41.3</v>
       </c>
       <c r="E234">
-        <v>-40</v>
+        <v>-38.6</v>
       </c>
       <c r="F234">
-        <v>-75.5</v>
+        <v>-72.3</v>
       </c>
       <c r="G234">
         <v>-1.12</v>
@@ -9095,16 +9095,16 @@
         <v>243</v>
       </c>
       <c r="C235">
-        <v>-39.1</v>
+        <v>-38.8</v>
       </c>
       <c r="D235">
-        <v>-43.3</v>
+        <v>-42.6</v>
       </c>
       <c r="E235">
-        <v>-44.4</v>
+        <v>-43</v>
       </c>
       <c r="F235">
-        <v>-78.6</v>
+        <v>-75.5</v>
       </c>
       <c r="G235">
         <v>-1.58</v>
@@ -9127,16 +9127,16 @@
         <v>244</v>
       </c>
       <c r="C236">
-        <v>-35.8</v>
+        <v>-34.9</v>
       </c>
       <c r="D236">
-        <v>-41.9</v>
+        <v>-39.7</v>
       </c>
       <c r="E236">
-        <v>-43.8</v>
+        <v>-39.7</v>
       </c>
       <c r="F236">
-        <v>-75.2</v>
+        <v>-66.4</v>
       </c>
       <c r="G236">
         <v>-2.08</v>
@@ -9159,16 +9159,16 @@
         <v>245</v>
       </c>
       <c r="C237">
-        <v>-45.2</v>
+        <v>-45.1</v>
       </c>
       <c r="D237">
-        <v>-40.5</v>
+        <v>-40.1</v>
       </c>
       <c r="E237">
-        <v>-51.9</v>
+        <v>-51.2</v>
       </c>
       <c r="F237">
-        <v>-86.4</v>
+        <v>-85</v>
       </c>
       <c r="G237">
         <v>-2.71</v>
@@ -9200,7 +9200,7 @@
         <v>-42.5</v>
       </c>
       <c r="F238">
-        <v>-75.1</v>
+        <v>-75</v>
       </c>
       <c r="G238">
         <v>-1.6</v>
@@ -9223,16 +9223,16 @@
         <v>247</v>
       </c>
       <c r="C239">
-        <v>-40.3</v>
+        <v>-40.2</v>
       </c>
       <c r="D239">
-        <v>-33.7</v>
+        <v>-33.4</v>
       </c>
       <c r="E239">
-        <v>-40.5</v>
+        <v>-40.1</v>
       </c>
       <c r="F239">
-        <v>-69.7</v>
+        <v>-68.7</v>
       </c>
       <c r="G239">
         <v>-2.25</v>
@@ -9258,13 +9258,13 @@
         <v>-37.7</v>
       </c>
       <c r="D240">
-        <v>-25.4</v>
+        <v>-25.2</v>
       </c>
       <c r="E240">
-        <v>-32.4</v>
+        <v>-32.2</v>
       </c>
       <c r="F240">
-        <v>-66</v>
+        <v>-65.4</v>
       </c>
       <c r="G240">
         <v>-1.71</v>
@@ -9351,16 +9351,16 @@
         <v>251</v>
       </c>
       <c r="C243">
-        <v>-48.7</v>
+        <v>-47.5</v>
       </c>
       <c r="D243">
-        <v>-44</v>
+        <v>-41.3</v>
       </c>
       <c r="E243">
-        <v>-44.6</v>
+        <v>-39.6</v>
       </c>
       <c r="F243">
-        <v>-68</v>
+        <v>-56.8</v>
       </c>
       <c r="G243">
         <v>-1.98</v>
@@ -9389,10 +9389,10 @@
         <v>-35.1</v>
       </c>
       <c r="E244">
-        <v>-53</v>
+        <v>-52.9</v>
       </c>
       <c r="F244">
-        <v>-71.3</v>
+        <v>-71.2</v>
       </c>
       <c r="G244">
         <v>-1.92</v>
@@ -9447,16 +9447,16 @@
         <v>254</v>
       </c>
       <c r="C246">
-        <v>-48</v>
+        <v>-47.7</v>
       </c>
       <c r="D246">
-        <v>-40.6</v>
+        <v>-40.1</v>
       </c>
       <c r="E246">
-        <v>-39.7</v>
+        <v>-38.7</v>
       </c>
       <c r="F246">
-        <v>-61</v>
+        <v>-58.6</v>
       </c>
       <c r="G246">
         <v>-1.56</v>
@@ -9575,16 +9575,16 @@
         <v>258</v>
       </c>
       <c r="C250">
-        <v>-50.7</v>
+        <v>-50</v>
       </c>
       <c r="D250">
-        <v>-45.9</v>
+        <v>-44.4</v>
       </c>
       <c r="E250">
-        <v>-49.6</v>
+        <v>-46.7</v>
       </c>
       <c r="F250">
-        <v>-77.9</v>
+        <v>-71.4</v>
       </c>
       <c r="G250">
         <v>-1.59</v>
@@ -9607,16 +9607,16 @@
         <v>259</v>
       </c>
       <c r="C251">
-        <v>-34.7</v>
+        <v>-34.6</v>
       </c>
       <c r="D251">
-        <v>-33.7</v>
+        <v>-33.4</v>
       </c>
       <c r="E251">
-        <v>-44</v>
+        <v>-43.6</v>
       </c>
       <c r="F251">
-        <v>-78.2</v>
+        <v>-77.4</v>
       </c>
       <c r="G251">
         <v>-1.86</v>
@@ -9639,16 +9639,16 @@
         <v>260</v>
       </c>
       <c r="C252">
-        <v>-44.5</v>
+        <v>-44.4</v>
       </c>
       <c r="D252">
-        <v>-37</v>
+        <v>-36.8</v>
       </c>
       <c r="E252">
-        <v>-41.3</v>
+        <v>-40.9</v>
       </c>
       <c r="F252">
-        <v>-67.1</v>
+        <v>-66.1</v>
       </c>
       <c r="G252">
         <v>-2.01</v>
@@ -9671,16 +9671,16 @@
         <v>261</v>
       </c>
       <c r="C253">
-        <v>-43.3</v>
+        <v>-43.2</v>
       </c>
       <c r="D253">
-        <v>-38.3</v>
+        <v>-38.2</v>
       </c>
       <c r="E253">
-        <v>-40.4</v>
+        <v>-40</v>
       </c>
       <c r="F253">
-        <v>-73.2</v>
+        <v>-72.5</v>
       </c>
       <c r="G253">
         <v>-2.76</v>
@@ -9799,16 +9799,16 @@
         <v>265</v>
       </c>
       <c r="C257">
-        <v>-54.1</v>
+        <v>-53.5</v>
       </c>
       <c r="D257">
-        <v>-45.6</v>
+        <v>-44.2</v>
       </c>
       <c r="E257">
-        <v>-48.4</v>
+        <v>-45.8</v>
       </c>
       <c r="F257">
-        <v>-75.2</v>
+        <v>-69.1</v>
       </c>
       <c r="G257">
         <v>-2.8</v>
@@ -9933,10 +9933,10 @@
         <v>-28.1</v>
       </c>
       <c r="E261">
-        <v>-40.1</v>
+        <v>-40</v>
       </c>
       <c r="F261">
-        <v>-85.9</v>
+        <v>-85.8</v>
       </c>
       <c r="G261">
         <v>-1.84</v>
@@ -9965,10 +9965,10 @@
         <v>-21.7</v>
       </c>
       <c r="E262">
-        <v>-34.7</v>
+        <v>-34.6</v>
       </c>
       <c r="F262">
-        <v>-83.4</v>
+        <v>-83.2</v>
       </c>
       <c r="G262">
         <v>-1.77</v>
@@ -10375,16 +10375,16 @@
         <v>283</v>
       </c>
       <c r="C275">
-        <v>-10.5</v>
+        <v>-10.4</v>
       </c>
       <c r="D275">
-        <v>-31.5</v>
+        <v>-31.4</v>
       </c>
       <c r="E275">
-        <v>-47.3</v>
+        <v>-47.2</v>
       </c>
       <c r="F275">
-        <v>-81.6</v>
+        <v>-81.4</v>
       </c>
       <c r="G275">
         <v>-3.13</v>
@@ -10407,16 +10407,16 @@
         <v>284</v>
       </c>
       <c r="C276">
-        <v>-45</v>
+        <v>-44.2</v>
       </c>
       <c r="D276">
-        <v>-45.4</v>
+        <v>-43.4</v>
       </c>
       <c r="E276">
-        <v>-56.8</v>
+        <v>-53.2</v>
       </c>
       <c r="F276">
-        <v>-72.8</v>
+        <v>-64.9</v>
       </c>
       <c r="G276">
         <v>-1.83</v>
@@ -10439,16 +10439,16 @@
         <v>285</v>
       </c>
       <c r="C277">
-        <v>-36.7</v>
+        <v>-35.5</v>
       </c>
       <c r="D277">
-        <v>-44.6</v>
+        <v>-41.5</v>
       </c>
       <c r="E277">
-        <v>-43.3</v>
+        <v>-37.5</v>
       </c>
       <c r="F277">
-        <v>-75.7</v>
+        <v>-63.7</v>
       </c>
       <c r="G277">
         <v>-2</v>
@@ -10471,16 +10471,16 @@
         <v>286</v>
       </c>
       <c r="C278">
-        <v>-33</v>
+        <v>-31.3</v>
       </c>
       <c r="D278">
-        <v>-41.1</v>
+        <v>-37</v>
       </c>
       <c r="E278">
-        <v>-40.2</v>
+        <v>-32.4</v>
       </c>
       <c r="F278">
-        <v>-74.9</v>
+        <v>-58.1</v>
       </c>
       <c r="G278">
         <v>-2.32</v>
@@ -10503,16 +10503,16 @@
         <v>287</v>
       </c>
       <c r="C279">
-        <v>-33.8</v>
+        <v>-32.7</v>
       </c>
       <c r="D279">
-        <v>-42</v>
+        <v>-39.1</v>
       </c>
       <c r="E279">
-        <v>-41.5</v>
+        <v>-36.2</v>
       </c>
       <c r="F279">
-        <v>-73.7</v>
+        <v>-62.6</v>
       </c>
       <c r="G279">
         <v>-1.92</v>
@@ -10535,16 +10535,16 @@
         <v>288</v>
       </c>
       <c r="C280">
-        <v>-23.4</v>
+        <v>-22.6</v>
       </c>
       <c r="D280">
-        <v>-42</v>
+        <v>-40.1</v>
       </c>
       <c r="E280">
-        <v>-41</v>
+        <v>-37.3</v>
       </c>
       <c r="F280">
-        <v>-80.5</v>
+        <v>-72.5</v>
       </c>
       <c r="G280">
         <v>-2.01</v>
@@ -10567,16 +10567,16 @@
         <v>289</v>
       </c>
       <c r="C281">
-        <v>-29.5</v>
+        <v>-28.6</v>
       </c>
       <c r="D281">
-        <v>-42.9</v>
+        <v>-40.5</v>
       </c>
       <c r="E281">
-        <v>-44.7</v>
+        <v>-40.3</v>
       </c>
       <c r="F281">
-        <v>-79.4</v>
+        <v>-69.9</v>
       </c>
       <c r="G281">
         <v>-2.12</v>
@@ -10599,16 +10599,16 @@
         <v>290</v>
       </c>
       <c r="C282">
-        <v>-47.4</v>
+        <v>-46.6</v>
       </c>
       <c r="D282">
-        <v>-46.7</v>
+        <v>-44.7</v>
       </c>
       <c r="E282">
-        <v>-57.1</v>
+        <v>-53.4</v>
       </c>
       <c r="F282">
-        <v>-77.9</v>
+        <v>-70.4</v>
       </c>
       <c r="G282">
         <v>-1.4</v>
@@ -10631,16 +10631,16 @@
         <v>291</v>
       </c>
       <c r="C283">
-        <v>-59.2</v>
+        <v>-58.4</v>
       </c>
       <c r="D283">
-        <v>-51.2</v>
+        <v>-49.2</v>
       </c>
       <c r="E283">
-        <v>-62.5</v>
+        <v>-58.9</v>
       </c>
       <c r="F283">
-        <v>-78.5</v>
+        <v>-70.9</v>
       </c>
       <c r="G283">
         <v>-1.77</v>
@@ -10663,16 +10663,16 @@
         <v>292</v>
       </c>
       <c r="C284">
-        <v>-56.6</v>
+        <v>-55.7</v>
       </c>
       <c r="D284">
-        <v>-52.1</v>
+        <v>-49.8</v>
       </c>
       <c r="E284">
-        <v>-61.3</v>
+        <v>-57.2</v>
       </c>
       <c r="F284">
-        <v>-80</v>
+        <v>-71.8</v>
       </c>
       <c r="G284">
         <v>-1.26</v>
@@ -10695,16 +10695,16 @@
         <v>293</v>
       </c>
       <c r="C285">
-        <v>-33.2</v>
+        <v>-32.5</v>
       </c>
       <c r="D285">
-        <v>-48.7</v>
+        <v>-46.9</v>
       </c>
       <c r="E285">
-        <v>-50.5</v>
+        <v>-47.1</v>
       </c>
       <c r="F285">
-        <v>-81.6</v>
+        <v>-74.2</v>
       </c>
       <c r="G285">
         <v>-1.95</v>
@@ -10727,16 +10727,16 @@
         <v>294</v>
       </c>
       <c r="C286">
-        <v>-40.5</v>
+        <v>-39.1</v>
       </c>
       <c r="D286">
-        <v>-44.9</v>
+        <v>-41.6</v>
       </c>
       <c r="E286">
-        <v>-35.9</v>
+        <v>-29.4</v>
       </c>
       <c r="F286">
-        <v>-76.7</v>
+        <v>-61.6</v>
       </c>
       <c r="G286">
         <v>-2.33</v>
@@ -10759,16 +10759,16 @@
         <v>295</v>
       </c>
       <c r="C287">
-        <v>-35.6</v>
+        <v>-34.3</v>
       </c>
       <c r="D287">
-        <v>-44.9</v>
+        <v>-41.5</v>
       </c>
       <c r="E287">
-        <v>-39.4</v>
+        <v>-32.9</v>
       </c>
       <c r="F287">
-        <v>-78.4</v>
+        <v>-63.7</v>
       </c>
       <c r="G287">
         <v>-2.33</v>
@@ -10791,16 +10791,16 @@
         <v>296</v>
       </c>
       <c r="C288">
-        <v>-43.2</v>
+        <v>-41.7</v>
       </c>
       <c r="D288">
-        <v>-40.8</v>
+        <v>-37.3</v>
       </c>
       <c r="E288">
-        <v>-32.8</v>
+        <v>-25.8</v>
       </c>
       <c r="F288">
-        <v>-74.7</v>
+        <v>-58.7</v>
       </c>
       <c r="G288">
         <v>-2.35</v>
@@ -10823,16 +10823,16 @@
         <v>297</v>
       </c>
       <c r="C289">
-        <v>-36.6</v>
+        <v>-36.4</v>
       </c>
       <c r="D289">
-        <v>-51</v>
+        <v>-50.6</v>
       </c>
       <c r="E289">
-        <v>-55.1</v>
+        <v>-54.3</v>
       </c>
       <c r="F289">
-        <v>-80.5</v>
+        <v>-78.7</v>
       </c>
       <c r="G289">
         <v>-3</v>
@@ -10855,16 +10855,16 @@
         <v>298</v>
       </c>
       <c r="C290">
-        <v>-33</v>
+        <v>-32.7</v>
       </c>
       <c r="D290">
-        <v>-47.2</v>
+        <v>-46.4</v>
       </c>
       <c r="E290">
-        <v>-51.4</v>
+        <v>-49.9</v>
       </c>
       <c r="F290">
-        <v>-78.6</v>
+        <v>-75.4</v>
       </c>
       <c r="G290">
         <v>-2.36</v>
@@ -10919,16 +10919,16 @@
         <v>300</v>
       </c>
       <c r="C292">
-        <v>-57.2</v>
+        <v>-56.7</v>
       </c>
       <c r="D292">
-        <v>-56</v>
+        <v>-54.8</v>
       </c>
       <c r="E292">
-        <v>-61.2</v>
+        <v>-59.1</v>
       </c>
       <c r="F292">
-        <v>-79.9</v>
+        <v>-75.5</v>
       </c>
       <c r="G292">
         <v>-1.75</v>
@@ -10951,16 +10951,16 @@
         <v>301</v>
       </c>
       <c r="C293">
-        <v>-34.8</v>
+        <v>-33.3</v>
       </c>
       <c r="D293">
-        <v>-38.5</v>
+        <v>-34.7</v>
       </c>
       <c r="E293">
-        <v>-39.8</v>
+        <v>-32.8</v>
       </c>
       <c r="F293">
-        <v>-81.6</v>
+        <v>-67.8</v>
       </c>
       <c r="G293">
         <v>-1.63</v>
@@ -10983,16 +10983,16 @@
         <v>302</v>
       </c>
       <c r="C294">
-        <v>-45.8</v>
+        <v>-45.6</v>
       </c>
       <c r="D294">
-        <v>-47</v>
+        <v>-46.3</v>
       </c>
       <c r="E294">
-        <v>-52.9</v>
+        <v>-51.7</v>
       </c>
       <c r="F294">
-        <v>-81.8</v>
+        <v>-79.1</v>
       </c>
       <c r="G294">
         <v>-1.45</v>
@@ -11015,16 +11015,16 @@
         <v>303</v>
       </c>
       <c r="C295">
-        <v>-49.4</v>
+        <v>-48.9</v>
       </c>
       <c r="D295">
-        <v>-51.3</v>
+        <v>-50</v>
       </c>
       <c r="E295">
-        <v>-63.3</v>
+        <v>-60.8</v>
       </c>
       <c r="F295">
-        <v>-86.6</v>
+        <v>-81.6</v>
       </c>
       <c r="G295">
         <v>-1.93</v>
@@ -11047,13 +11047,13 @@
         <v>304</v>
       </c>
       <c r="C296">
-        <v>-42.5</v>
+        <v>-42.4</v>
       </c>
       <c r="D296">
         <v>-42.1</v>
       </c>
       <c r="E296">
-        <v>-54.4</v>
+        <v>-54.3</v>
       </c>
       <c r="F296">
         <v>-76.5</v>
@@ -11117,10 +11117,10 @@
         <v>-8</v>
       </c>
       <c r="E298">
-        <v>-52.3</v>
+        <v>-52.2</v>
       </c>
       <c r="F298">
-        <v>-80.9</v>
+        <v>-80.8</v>
       </c>
       <c r="G298">
         <v>-1.05</v>
@@ -11143,16 +11143,16 @@
         <v>307</v>
       </c>
       <c r="C299">
-        <v>-18.2</v>
+        <v>-18.1</v>
       </c>
       <c r="D299">
-        <v>-13.3</v>
+        <v>-13</v>
       </c>
       <c r="E299">
-        <v>-49.5</v>
+        <v>-49</v>
       </c>
       <c r="F299">
-        <v>-74.2</v>
+        <v>-73.3</v>
       </c>
       <c r="G299">
         <v>-0.96</v>
@@ -11242,7 +11242,7 @@
         <v>-19.2</v>
       </c>
       <c r="D302">
-        <v>-21.7</v>
+        <v>-21.6</v>
       </c>
       <c r="E302">
         <v>-34.8</v>
@@ -11335,16 +11335,16 @@
         <v>313</v>
       </c>
       <c r="C305">
-        <v>-49.7</v>
+        <v>-49.6</v>
       </c>
       <c r="D305">
-        <v>-61.9</v>
+        <v>-61.7</v>
       </c>
       <c r="E305">
-        <v>-69</v>
+        <v>-68.6</v>
       </c>
       <c r="F305">
-        <v>-73.6</v>
+        <v>-72.6</v>
       </c>
       <c r="G305">
         <v>-1.25</v>
@@ -11367,16 +11367,16 @@
         <v>314</v>
       </c>
       <c r="C306">
-        <v>-52.8</v>
+        <v>-52.7</v>
       </c>
       <c r="D306">
-        <v>-52</v>
+        <v>-51.7</v>
       </c>
       <c r="E306">
-        <v>-57.4</v>
+        <v>-57</v>
       </c>
       <c r="F306">
-        <v>-77</v>
+        <v>-76</v>
       </c>
       <c r="G306">
         <v>-1.55</v>
@@ -11402,10 +11402,10 @@
         <v>-24.5</v>
       </c>
       <c r="D307">
-        <v>-21</v>
+        <v>-20.9</v>
       </c>
       <c r="E307">
-        <v>-46.9</v>
+        <v>-46.8</v>
       </c>
       <c r="F307">
         <v>-75.3</v>
@@ -11431,16 +11431,16 @@
         <v>316</v>
       </c>
       <c r="C308">
-        <v>-23.1</v>
+        <v>-23</v>
       </c>
       <c r="D308">
-        <v>-22</v>
+        <v>-21.9</v>
       </c>
       <c r="E308">
-        <v>-48.3</v>
+        <v>-48.1</v>
       </c>
       <c r="F308">
-        <v>-80.2</v>
+        <v>-79.8</v>
       </c>
       <c r="G308">
         <v>-0.77</v>
@@ -11463,16 +11463,16 @@
         <v>317</v>
       </c>
       <c r="C309">
-        <v>-44.5</v>
+        <v>-44.4</v>
       </c>
       <c r="D309">
-        <v>-41.8</v>
+        <v>-41.7</v>
       </c>
       <c r="E309">
-        <v>-54.6</v>
+        <v>-54.4</v>
       </c>
       <c r="F309">
-        <v>-76.2</v>
+        <v>-75.8</v>
       </c>
       <c r="G309">
         <v>-1.05</v>
@@ -11495,16 +11495,16 @@
         <v>318</v>
       </c>
       <c r="C310">
-        <v>-43.9</v>
+        <v>-43.8</v>
       </c>
       <c r="D310">
-        <v>-36.7</v>
+        <v>-36.5</v>
       </c>
       <c r="E310">
-        <v>-39.5</v>
+        <v>-39.1</v>
       </c>
       <c r="F310">
-        <v>-72.5</v>
+        <v>-71.7</v>
       </c>
       <c r="G310">
         <v>-1.23</v>
@@ -11530,13 +11530,13 @@
         <v>-25.2</v>
       </c>
       <c r="D311">
-        <v>-7.7</v>
+        <v>-7.6</v>
       </c>
       <c r="E311">
-        <v>-29</v>
+        <v>-28.7</v>
       </c>
       <c r="F311">
-        <v>-69.5</v>
+        <v>-69.2</v>
       </c>
       <c r="G311">
         <v>-0.84</v>
@@ -11623,16 +11623,16 @@
         <v>322</v>
       </c>
       <c r="C314">
-        <v>-55</v>
+        <v>-54.4</v>
       </c>
       <c r="D314">
-        <v>-47.4</v>
+        <v>-45.8</v>
       </c>
       <c r="E314">
-        <v>-51.9</v>
+        <v>-48.9</v>
       </c>
       <c r="F314">
-        <v>-80.7</v>
+        <v>-74.5</v>
       </c>
       <c r="G314">
         <v>-1.4</v>
@@ -11687,16 +11687,16 @@
         <v>324</v>
       </c>
       <c r="C316">
-        <v>-34.8</v>
+        <v>-34.3</v>
       </c>
       <c r="D316">
-        <v>-46.4</v>
+        <v>-45.1</v>
       </c>
       <c r="E316">
-        <v>-50.1</v>
+        <v>-47.6</v>
       </c>
       <c r="F316">
-        <v>-81.4</v>
+        <v>-76.1</v>
       </c>
       <c r="G316">
         <v>-1.7</v>
@@ -11728,7 +11728,7 @@
         <v>-31.8</v>
       </c>
       <c r="F317">
-        <v>-68.9</v>
+        <v>-68.8</v>
       </c>
       <c r="G317">
         <v>-2</v>
@@ -11783,16 +11783,16 @@
         <v>327</v>
       </c>
       <c r="C319">
-        <v>-52.4</v>
+        <v>-52.1</v>
       </c>
       <c r="D319">
-        <v>-46</v>
+        <v>-45.4</v>
       </c>
       <c r="E319">
-        <v>-47.4</v>
+        <v>-46.4</v>
       </c>
       <c r="F319">
-        <v>-74.3</v>
+        <v>-71.8</v>
       </c>
       <c r="G319">
         <v>-1.39</v>
@@ -11815,16 +11815,16 @@
         <v>328</v>
       </c>
       <c r="C320">
-        <v>-19.4</v>
+        <v>-19.3</v>
       </c>
       <c r="D320">
-        <v>-28.1</v>
+        <v>-28</v>
       </c>
       <c r="E320">
-        <v>-43.1</v>
+        <v>-42.9</v>
       </c>
       <c r="F320">
-        <v>-78.4</v>
+        <v>-78</v>
       </c>
       <c r="G320">
         <v>-0.91</v>
@@ -11853,10 +11853,10 @@
         <v>-44.1</v>
       </c>
       <c r="E321">
-        <v>-51.1</v>
+        <v>-51</v>
       </c>
       <c r="F321">
-        <v>-77.1</v>
+        <v>-77</v>
       </c>
       <c r="G321">
         <v>-3.27</v>
@@ -11917,10 +11917,10 @@
         <v>-43.2</v>
       </c>
       <c r="E323">
-        <v>-52.9</v>
+        <v>-52.8</v>
       </c>
       <c r="F323">
-        <v>-73</v>
+        <v>-72.8</v>
       </c>
       <c r="G323">
         <v>-2.25</v>
@@ -11975,16 +11975,16 @@
         <v>333</v>
       </c>
       <c r="C325">
-        <v>-37.3</v>
+        <v>-37.1</v>
       </c>
       <c r="D325">
-        <v>-34.1</v>
+        <v>-33.9</v>
       </c>
       <c r="E325">
-        <v>-44.6</v>
+        <v>-44</v>
       </c>
       <c r="F325">
-        <v>-84.3</v>
+        <v>-83.2</v>
       </c>
       <c r="G325">
         <v>-1.6</v>
@@ -12007,16 +12007,16 @@
         <v>334</v>
       </c>
       <c r="C326">
-        <v>-48.8</v>
+        <v>-47.2</v>
       </c>
       <c r="D326">
-        <v>-45.7</v>
+        <v>-42.2</v>
       </c>
       <c r="E326">
-        <v>-49.1</v>
+        <v>-42.3</v>
       </c>
       <c r="F326">
-        <v>-67.8</v>
+        <v>-53</v>
       </c>
       <c r="G326">
         <v>-2.02</v>
@@ -12039,16 +12039,16 @@
         <v>335</v>
       </c>
       <c r="C327">
-        <v>-47.8</v>
+        <v>-45.1</v>
       </c>
       <c r="D327">
-        <v>-40.3</v>
+        <v>-33.6</v>
       </c>
       <c r="E327">
-        <v>-45.3</v>
+        <v>-32.8</v>
       </c>
       <c r="F327">
-        <v>-67.7</v>
+        <v>-41.7</v>
       </c>
       <c r="G327">
         <v>-2.09</v>
@@ -12138,13 +12138,13 @@
         <v>-10.8</v>
       </c>
       <c r="D330">
-        <v>-22.5</v>
+        <v>-22.4</v>
       </c>
       <c r="E330">
-        <v>-30.7</v>
+        <v>-30.5</v>
       </c>
       <c r="F330">
-        <v>-69.6</v>
+        <v>-69.1</v>
       </c>
       <c r="G330">
         <v>-1.46</v>
@@ -12208,7 +12208,7 @@
         <v>-50.3</v>
       </c>
       <c r="F332">
-        <v>-76.3</v>
+        <v>-76.2</v>
       </c>
       <c r="G332">
         <v>-3.1</v>
@@ -12231,16 +12231,16 @@
         <v>341</v>
       </c>
       <c r="C333">
-        <v>-27.3</v>
+        <v>-26.5</v>
       </c>
       <c r="D333">
-        <v>-44.3</v>
+        <v>-42.5</v>
       </c>
       <c r="E333">
-        <v>-40.1</v>
+        <v>-36.7</v>
       </c>
       <c r="F333">
-        <v>-79.3</v>
+        <v>-71.6</v>
       </c>
       <c r="G333">
         <v>-1.95</v>
@@ -12263,16 +12263,16 @@
         <v>342</v>
       </c>
       <c r="C334">
-        <v>-41.1</v>
+        <v>-40.9</v>
       </c>
       <c r="D334">
-        <v>-46.3</v>
+        <v>-45.9</v>
       </c>
       <c r="E334">
-        <v>-52.5</v>
+        <v>-51.7</v>
       </c>
       <c r="F334">
-        <v>-80.6</v>
+        <v>-79</v>
       </c>
       <c r="G334">
         <v>-1.76</v>
@@ -12295,16 +12295,16 @@
         <v>343</v>
       </c>
       <c r="C335">
-        <v>-42.6</v>
+        <v>-42.1</v>
       </c>
       <c r="D335">
-        <v>-48.2</v>
+        <v>-47.1</v>
       </c>
       <c r="E335">
-        <v>-52.3</v>
+        <v>-50.3</v>
       </c>
       <c r="F335">
-        <v>-78.7</v>
+        <v>-74.5</v>
       </c>
       <c r="G335">
         <v>-1.94</v>
@@ -12327,16 +12327,16 @@
         <v>344</v>
       </c>
       <c r="C336">
-        <v>-27.6</v>
+        <v>-27.1</v>
       </c>
       <c r="D336">
-        <v>-45.6</v>
+        <v>-44.5</v>
       </c>
       <c r="E336">
-        <v>-44.8</v>
+        <v>-42.6</v>
       </c>
       <c r="F336">
-        <v>-82</v>
+        <v>-77.2</v>
       </c>
       <c r="G336">
         <v>-2.14</v>
@@ -12359,16 +12359,16 @@
         <v>345</v>
       </c>
       <c r="C337">
-        <v>-51.6</v>
+        <v>-51.1</v>
       </c>
       <c r="D337">
-        <v>-45</v>
+        <v>-43.8</v>
       </c>
       <c r="E337">
-        <v>-56.4</v>
+        <v>-54.3</v>
       </c>
       <c r="F337">
-        <v>-74.6</v>
+        <v>-69.9</v>
       </c>
       <c r="G337">
         <v>-2.14</v>
@@ -12391,16 +12391,16 @@
         <v>346</v>
       </c>
       <c r="C338">
-        <v>-49</v>
+        <v>-48</v>
       </c>
       <c r="D338">
-        <v>-45.3</v>
+        <v>-43</v>
       </c>
       <c r="E338">
-        <v>-58.8</v>
+        <v>-54.3</v>
       </c>
       <c r="F338">
-        <v>-72.6</v>
+        <v>-62.9</v>
       </c>
       <c r="G338">
         <v>-2.03</v>
@@ -12423,16 +12423,16 @@
         <v>347</v>
       </c>
       <c r="C339">
-        <v>-42.2</v>
+        <v>-41.5</v>
       </c>
       <c r="D339">
-        <v>-43.3</v>
+        <v>-41.6</v>
       </c>
       <c r="E339">
-        <v>-54.9</v>
+        <v>-51.7</v>
       </c>
       <c r="F339">
-        <v>-71.7</v>
+        <v>-64.8</v>
       </c>
       <c r="G339">
         <v>-1.84</v>
@@ -12455,16 +12455,16 @@
         <v>348</v>
       </c>
       <c r="C340">
-        <v>-53.2</v>
+        <v>-52</v>
       </c>
       <c r="D340">
-        <v>-47.1</v>
+        <v>-44</v>
       </c>
       <c r="E340">
-        <v>-57.7</v>
+        <v>-52</v>
       </c>
       <c r="F340">
-        <v>-70.5</v>
+        <v>-58.7</v>
       </c>
       <c r="G340">
         <v>-2.02</v>
@@ -12496,7 +12496,7 @@
         <v>-45</v>
       </c>
       <c r="F341">
-        <v>-74.9</v>
+        <v>-74.8</v>
       </c>
       <c r="G341">
         <v>-3.11</v>
@@ -12519,16 +12519,16 @@
         <v>350</v>
       </c>
       <c r="C342">
-        <v>-15.4</v>
+        <v>-15.3</v>
       </c>
       <c r="D342">
-        <v>-37.8</v>
+        <v>-37.6</v>
       </c>
       <c r="E342">
-        <v>-48.6</v>
+        <v>-48.4</v>
       </c>
       <c r="F342">
-        <v>-81.9</v>
+        <v>-81.5</v>
       </c>
       <c r="G342">
         <v>-3.15</v>
@@ -12551,16 +12551,16 @@
         <v>351</v>
       </c>
       <c r="C343">
-        <v>-38.6</v>
+        <v>-37.5</v>
       </c>
       <c r="D343">
-        <v>-40.1</v>
+        <v>-37.6</v>
       </c>
       <c r="E343">
-        <v>-33</v>
+        <v>-28.1</v>
       </c>
       <c r="F343">
-        <v>-71.9</v>
+        <v>-60.7</v>
       </c>
       <c r="G343">
         <v>-2.17</v>
@@ -12583,16 +12583,16 @@
         <v>352</v>
       </c>
       <c r="C344">
-        <v>-43.3</v>
+        <v>-43</v>
       </c>
       <c r="D344">
-        <v>-47.2</v>
+        <v>-46.2</v>
       </c>
       <c r="E344">
-        <v>-53.1</v>
+        <v>-51.3</v>
       </c>
       <c r="F344">
-        <v>-79.5</v>
+        <v>-75.8</v>
       </c>
       <c r="G344">
         <v>-1.92</v>
@@ -12615,16 +12615,16 @@
         <v>353</v>
       </c>
       <c r="C345">
-        <v>-44</v>
+        <v>-43.7</v>
       </c>
       <c r="D345">
-        <v>-48.4</v>
+        <v>-47.6</v>
       </c>
       <c r="E345">
-        <v>-53.3</v>
+        <v>-51.8</v>
       </c>
       <c r="F345">
-        <v>-79.4</v>
+        <v>-76.1</v>
       </c>
       <c r="G345">
         <v>-1.93</v>
@@ -12647,16 +12647,16 @@
         <v>354</v>
       </c>
       <c r="C346">
-        <v>-50.8</v>
+        <v>-49.7</v>
       </c>
       <c r="D346">
-        <v>-50.4</v>
+        <v>-48</v>
       </c>
       <c r="E346">
-        <v>-61</v>
+        <v>-56.6</v>
       </c>
       <c r="F346">
-        <v>-81.3</v>
+        <v>-72.6</v>
       </c>
       <c r="G346">
         <v>-1.83</v>
@@ -12679,16 +12679,16 @@
         <v>355</v>
       </c>
       <c r="C347">
-        <v>-51.3</v>
+        <v>-50.1</v>
       </c>
       <c r="D347">
-        <v>-53</v>
+        <v>-50.2</v>
       </c>
       <c r="E347">
-        <v>-57.2</v>
+        <v>-52</v>
       </c>
       <c r="F347">
-        <v>-83.2</v>
+        <v>-72.8</v>
       </c>
       <c r="G347">
         <v>-1.65</v>
@@ -12711,16 +12711,16 @@
         <v>356</v>
       </c>
       <c r="C348">
-        <v>-35</v>
+        <v>-34.5</v>
       </c>
       <c r="D348">
-        <v>-31.1</v>
+        <v>-29.9</v>
       </c>
       <c r="E348">
-        <v>-35.4</v>
+        <v>-33.2</v>
       </c>
       <c r="F348">
-        <v>-76.3</v>
+        <v>-71.9</v>
       </c>
       <c r="G348">
         <v>-1.64</v>
@@ -12743,16 +12743,16 @@
         <v>357</v>
       </c>
       <c r="C349">
-        <v>-38.8</v>
+        <v>-38.7</v>
       </c>
       <c r="D349">
-        <v>-33.6</v>
+        <v>-33.3</v>
       </c>
       <c r="E349">
-        <v>-44.3</v>
+        <v>-43.7</v>
       </c>
       <c r="F349">
-        <v>-79.4</v>
+        <v>-78.1</v>
       </c>
       <c r="G349">
         <v>-1.61</v>
@@ -12775,16 +12775,16 @@
         <v>358</v>
       </c>
       <c r="C350">
-        <v>-42</v>
+        <v>-41.8</v>
       </c>
       <c r="D350">
-        <v>-39.4</v>
+        <v>-38.9</v>
       </c>
       <c r="E350">
-        <v>-46.2</v>
+        <v>-45.4</v>
       </c>
       <c r="F350">
-        <v>-79.3</v>
+        <v>-77.5</v>
       </c>
       <c r="G350">
         <v>-1.46</v>
@@ -12807,16 +12807,16 @@
         <v>359</v>
       </c>
       <c r="C351">
-        <v>-48.8</v>
+        <v>-48.3</v>
       </c>
       <c r="D351">
-        <v>-49.3</v>
+        <v>-48.3</v>
       </c>
       <c r="E351">
-        <v>-57.4</v>
+        <v>-55.5</v>
       </c>
       <c r="F351">
-        <v>-84.9</v>
+        <v>-81</v>
       </c>
       <c r="G351">
         <v>-1.18</v>
@@ -12871,16 +12871,16 @@
         <v>361</v>
       </c>
       <c r="C353">
-        <v>-21.2</v>
+        <v>-20.9</v>
       </c>
       <c r="D353">
-        <v>-19.2</v>
+        <v>-18.2</v>
       </c>
       <c r="E353">
-        <v>-31.5</v>
+        <v>-29.8</v>
       </c>
       <c r="F353">
-        <v>-70.6</v>
+        <v>-66.9</v>
       </c>
       <c r="G353">
         <v>-1.69</v>
@@ -12906,7 +12906,7 @@
         <v>-20.7</v>
       </c>
       <c r="D354">
-        <v>-36</v>
+        <v>-35.9</v>
       </c>
       <c r="E354">
         <v>-48.2</v>
@@ -12967,16 +12967,16 @@
         <v>364</v>
       </c>
       <c r="C356">
-        <v>-45.3</v>
+        <v>-44.1</v>
       </c>
       <c r="D356">
-        <v>-48.7</v>
+        <v>-45.4</v>
       </c>
       <c r="E356">
-        <v>-60.8</v>
+        <v>-55.1</v>
       </c>
       <c r="F356">
-        <v>-87.2</v>
+        <v>-76.3</v>
       </c>
       <c r="G356">
         <v>-1.01</v>
@@ -12999,16 +12999,16 @@
         <v>365</v>
       </c>
       <c r="C357">
-        <v>-52.3</v>
+        <v>-51.6</v>
       </c>
       <c r="D357">
-        <v>-50.2</v>
+        <v>-48.3</v>
       </c>
       <c r="E357">
-        <v>-61.5</v>
+        <v>-58.3</v>
       </c>
       <c r="F357">
-        <v>-87.6</v>
+        <v>-81.2</v>
       </c>
       <c r="G357">
         <v>-1.04</v>
@@ -13031,16 +13031,16 @@
         <v>366</v>
       </c>
       <c r="C358">
-        <v>-15.3</v>
+        <v>-15.1</v>
       </c>
       <c r="D358">
-        <v>-4.1</v>
+        <v>-3.7</v>
       </c>
       <c r="E358">
-        <v>-8.8</v>
+        <v>-8</v>
       </c>
       <c r="F358">
-        <v>-61.9</v>
+        <v>-60.1</v>
       </c>
       <c r="G358">
         <v>-1.85</v>
@@ -13063,16 +13063,16 @@
         <v>367</v>
       </c>
       <c r="C359">
-        <v>-13.8</v>
+        <v>-13.7</v>
       </c>
       <c r="D359">
-        <v>-34</v>
+        <v>-33.7</v>
       </c>
       <c r="E359">
-        <v>-38.4</v>
+        <v>-37.9</v>
       </c>
       <c r="F359">
-        <v>-76.9</v>
+        <v>-75.6</v>
       </c>
       <c r="G359">
         <v>-1.64</v>
@@ -13095,16 +13095,16 @@
         <v>368</v>
       </c>
       <c r="C360">
-        <v>-12.6</v>
+        <v>-12.5</v>
       </c>
       <c r="D360">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="E360">
-        <v>-8.1</v>
+        <v>-7.1</v>
       </c>
       <c r="F360">
-        <v>-61.3</v>
+        <v>-59.2</v>
       </c>
       <c r="G360">
         <v>-1.8</v>
@@ -13127,16 +13127,16 @@
         <v>369</v>
       </c>
       <c r="C361">
-        <v>-17.8</v>
+        <v>-17.6</v>
       </c>
       <c r="D361">
-        <v>-1.3</v>
+        <v>-0.7</v>
       </c>
       <c r="E361">
-        <v>-17</v>
+        <v>-15.9</v>
       </c>
       <c r="F361">
-        <v>-67.6</v>
+        <v>-65.5</v>
       </c>
       <c r="G361">
         <v>-1.83</v>
@@ -13159,16 +13159,16 @@
         <v>370</v>
       </c>
       <c r="C362">
-        <v>-22.4</v>
+        <v>-22.3</v>
       </c>
       <c r="D362">
-        <v>-9.3</v>
+        <v>-8.9</v>
       </c>
       <c r="E362">
-        <v>-28.1</v>
+        <v>-27.4</v>
       </c>
       <c r="F362">
-        <v>-72.1</v>
+        <v>-70.5</v>
       </c>
       <c r="G362">
         <v>-1.75</v>
@@ -13194,13 +13194,13 @@
         <v>-15.1</v>
       </c>
       <c r="D363">
-        <v>-26.1</v>
+        <v>-26</v>
       </c>
       <c r="E363">
-        <v>-39.9</v>
+        <v>-39.7</v>
       </c>
       <c r="F363">
-        <v>-72.8</v>
+        <v>-72.5</v>
       </c>
       <c r="G363">
         <v>-2.28</v>
@@ -13223,16 +13223,16 @@
         <v>372</v>
       </c>
       <c r="C364">
-        <v>-9.8</v>
+        <v>-9.7</v>
       </c>
       <c r="D364">
-        <v>-19.4</v>
+        <v>-19.3</v>
       </c>
       <c r="E364">
-        <v>-36.4</v>
+        <v>-36.2</v>
       </c>
       <c r="F364">
-        <v>-70.6</v>
+        <v>-70.2</v>
       </c>
       <c r="G364">
         <v>-2.03</v>
@@ -13255,16 +13255,16 @@
         <v>373</v>
       </c>
       <c r="C365">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="D365">
-        <v>-14.6</v>
+        <v>-14.2</v>
       </c>
       <c r="E365">
-        <v>-32.2</v>
+        <v>-31.6</v>
       </c>
       <c r="F365">
-        <v>-64.3</v>
+        <v>-63.2</v>
       </c>
       <c r="G365">
         <v>-1.86</v>
@@ -13287,16 +13287,16 @@
         <v>374</v>
       </c>
       <c r="C366">
-        <v>-5.8</v>
+        <v>-5.7</v>
       </c>
       <c r="D366">
-        <v>-21.1</v>
+        <v>-21</v>
       </c>
       <c r="E366">
-        <v>-36.2</v>
+        <v>-36</v>
       </c>
       <c r="F366">
-        <v>-71.5</v>
+        <v>-71.2</v>
       </c>
       <c r="G366">
         <v>-1.76</v>
@@ -13325,10 +13325,10 @@
         <v>-17.9</v>
       </c>
       <c r="E367">
-        <v>-35.9</v>
+        <v>-35.8</v>
       </c>
       <c r="F367">
-        <v>-71.5</v>
+        <v>-71.3</v>
       </c>
       <c r="G367">
         <v>-1.76</v>
@@ -13421,10 +13421,10 @@
         <v>-22.8</v>
       </c>
       <c r="E370">
-        <v>-60.3</v>
+        <v>-60.2</v>
       </c>
       <c r="F370">
-        <v>-81.6</v>
+        <v>-81.4</v>
       </c>
       <c r="G370">
         <v>-1.6</v>
@@ -13450,13 +13450,13 @@
         <v>-19.8</v>
       </c>
       <c r="D371">
-        <v>-15.2</v>
+        <v>-15.1</v>
       </c>
       <c r="E371">
-        <v>-53.8</v>
+        <v>-53.7</v>
       </c>
       <c r="F371">
-        <v>-81.3</v>
+        <v>-80.9</v>
       </c>
       <c r="G371">
         <v>-1.03</v>
@@ -13479,16 +13479,16 @@
         <v>380</v>
       </c>
       <c r="C372">
-        <v>-39.2</v>
+        <v>-38.8</v>
       </c>
       <c r="D372">
-        <v>-52</v>
+        <v>-51</v>
       </c>
       <c r="E372">
-        <v>-71.2</v>
+        <v>-69.6</v>
       </c>
       <c r="F372">
-        <v>-86.3</v>
+        <v>-82.9</v>
       </c>
       <c r="G372">
         <v>-1.77</v>
@@ -13511,16 +13511,16 @@
         <v>381</v>
       </c>
       <c r="C373">
-        <v>-49.1</v>
+        <v>-48.7</v>
       </c>
       <c r="D373">
-        <v>-53.2</v>
+        <v>-52.3</v>
       </c>
       <c r="E373">
-        <v>-74.2</v>
+        <v>-72.7</v>
       </c>
       <c r="F373">
-        <v>-90.1</v>
+        <v>-87</v>
       </c>
       <c r="G373">
         <v>-1.3</v>
@@ -13543,16 +13543,16 @@
         <v>382</v>
       </c>
       <c r="C374">
-        <v>-52.8</v>
+        <v>-52.2</v>
       </c>
       <c r="D374">
-        <v>-41.4</v>
+        <v>-40.3</v>
       </c>
       <c r="E374">
-        <v>-40</v>
+        <v>-37.8</v>
       </c>
       <c r="F374">
-        <v>-62.7</v>
+        <v>-57.8</v>
       </c>
       <c r="G374">
         <v>-1.27</v>
@@ -13575,16 +13575,16 @@
         <v>383</v>
       </c>
       <c r="C375">
-        <v>-51.3</v>
+        <v>-51.2</v>
       </c>
       <c r="D375">
-        <v>-51.3</v>
+        <v>-51.1</v>
       </c>
       <c r="E375">
-        <v>-56.5</v>
+        <v>-56.2</v>
       </c>
       <c r="F375">
-        <v>-74.6</v>
+        <v>-73.9</v>
       </c>
       <c r="G375">
         <v>-1.31</v>
@@ -13607,16 +13607,16 @@
         <v>384</v>
       </c>
       <c r="C376">
-        <v>-33.9</v>
+        <v>-33.7</v>
       </c>
       <c r="D376">
-        <v>-26.8</v>
+        <v>-26.4</v>
       </c>
       <c r="E376">
-        <v>-39.4</v>
+        <v>-38.7</v>
       </c>
       <c r="F376">
-        <v>-75</v>
+        <v>-73.5</v>
       </c>
       <c r="G376">
         <v>-1.68</v>
@@ -13639,16 +13639,16 @@
         <v>385</v>
       </c>
       <c r="C377">
-        <v>-51.1</v>
+        <v>-50.4</v>
       </c>
       <c r="D377">
-        <v>-54.3</v>
+        <v>-52.8</v>
       </c>
       <c r="E377">
-        <v>-61.3</v>
+        <v>-58.7</v>
       </c>
       <c r="F377">
-        <v>-82.6</v>
+        <v>-77</v>
       </c>
       <c r="G377">
         <v>-1.51</v>
@@ -13680,7 +13680,7 @@
         <v>-39.8</v>
       </c>
       <c r="F378">
-        <v>-81.1</v>
+        <v>-81</v>
       </c>
       <c r="G378">
         <v>-0.78</v>
@@ -13703,16 +13703,16 @@
         <v>387</v>
       </c>
       <c r="C379">
-        <v>-45.3</v>
+        <v>-45</v>
       </c>
       <c r="D379">
-        <v>-48.8</v>
+        <v>-48.2</v>
       </c>
       <c r="E379">
-        <v>-63.2</v>
+        <v>-62.2</v>
       </c>
       <c r="F379">
-        <v>-82.9</v>
+        <v>-80.7</v>
       </c>
       <c r="G379">
         <v>-1.28</v>
@@ -13799,16 +13799,16 @@
         <v>390</v>
       </c>
       <c r="C382">
-        <v>-27.4</v>
+        <v>-26</v>
       </c>
       <c r="D382">
-        <v>-32.8</v>
+        <v>-29.1</v>
       </c>
       <c r="E382">
-        <v>-30.8</v>
+        <v>-23.6</v>
       </c>
       <c r="F382">
-        <v>-76.6</v>
+        <v>-61.2</v>
       </c>
       <c r="G382">
         <v>-2.34</v>
@@ -13831,16 +13831,16 @@
         <v>391</v>
       </c>
       <c r="C383">
-        <v>-53.5</v>
+        <v>-52.8</v>
       </c>
       <c r="D383">
-        <v>-54.9</v>
+        <v>-53.3</v>
       </c>
       <c r="E383">
-        <v>-63.6</v>
+        <v>-60.8</v>
       </c>
       <c r="F383">
-        <v>-81.8</v>
+        <v>-76.1</v>
       </c>
       <c r="G383">
         <v>-1.16</v>
@@ -13927,16 +13927,16 @@
         <v>394</v>
       </c>
       <c r="C386">
-        <v>-18.4</v>
+        <v>-18.1</v>
       </c>
       <c r="D386">
-        <v>-18.9</v>
+        <v>-18.3</v>
       </c>
       <c r="E386">
-        <v>-48.7</v>
+        <v>-47.7</v>
       </c>
       <c r="F386">
-        <v>-68.7</v>
+        <v>-66.5</v>
       </c>
       <c r="G386">
         <v>-0.8</v>
@@ -13962,13 +13962,13 @@
         <v>-21.7</v>
       </c>
       <c r="D387">
-        <v>-21.7</v>
+        <v>-21.5</v>
       </c>
       <c r="E387">
-        <v>-61.4</v>
+        <v>-61.2</v>
       </c>
       <c r="F387">
-        <v>-77.7</v>
+        <v>-77.3</v>
       </c>
       <c r="G387">
         <v>-1.61</v>
@@ -13991,16 +13991,16 @@
         <v>396</v>
       </c>
       <c r="C388">
-        <v>-23</v>
+        <v>-22.9</v>
       </c>
       <c r="D388">
-        <v>-18.2</v>
+        <v>-18.1</v>
       </c>
       <c r="E388">
-        <v>-46.7</v>
+        <v>-46.6</v>
       </c>
       <c r="F388">
-        <v>-70.5</v>
+        <v>-70.2</v>
       </c>
       <c r="G388">
         <v>-0.83</v>
@@ -14023,16 +14023,16 @@
         <v>397</v>
       </c>
       <c r="C389">
-        <v>-56.9</v>
+        <v>-56.4</v>
       </c>
       <c r="D389">
-        <v>-61.5</v>
+        <v>-60.4</v>
       </c>
       <c r="E389">
-        <v>-68.2</v>
+        <v>-66.3</v>
       </c>
       <c r="F389">
-        <v>-83.5</v>
+        <v>-79.4</v>
       </c>
       <c r="G389">
         <v>-1.34</v>
@@ -14055,16 +14055,16 @@
         <v>398</v>
       </c>
       <c r="C390">
-        <v>-51.8</v>
+        <v>-51.4</v>
       </c>
       <c r="D390">
-        <v>-53.1</v>
+        <v>-52</v>
       </c>
       <c r="E390">
-        <v>-56.1</v>
+        <v>-54.1</v>
       </c>
       <c r="F390">
-        <v>-84</v>
+        <v>-79.8</v>
       </c>
       <c r="G390">
         <v>-1.62</v>
@@ -14119,16 +14119,16 @@
         <v>400</v>
       </c>
       <c r="C392">
-        <v>-22.6</v>
+        <v>-22.5</v>
       </c>
       <c r="D392">
-        <v>-22.4</v>
+        <v>-22.2</v>
       </c>
       <c r="E392">
-        <v>-42.8</v>
+        <v>-42.5</v>
       </c>
       <c r="F392">
-        <v>-63.2</v>
+        <v>-62.6</v>
       </c>
       <c r="G392">
         <v>-0.76</v>
@@ -14154,13 +14154,13 @@
         <v>-18.9</v>
       </c>
       <c r="D393">
-        <v>-16.8</v>
+        <v>-16.7</v>
       </c>
       <c r="E393">
-        <v>-30.8</v>
+        <v>-30.7</v>
       </c>
       <c r="F393">
-        <v>-62</v>
+        <v>-61.7</v>
       </c>
       <c r="G393">
         <v>-0.72</v>
@@ -14192,7 +14192,7 @@
         <v>-48.1</v>
       </c>
       <c r="F394">
-        <v>-85.9</v>
+        <v>-85.8</v>
       </c>
       <c r="G394">
         <v>-2.39</v>
@@ -14250,13 +14250,13 @@
         <v>-31.8</v>
       </c>
       <c r="D396">
-        <v>-37.1</v>
+        <v>-37</v>
       </c>
       <c r="E396">
-        <v>-41.8</v>
+        <v>-41.5</v>
       </c>
       <c r="F396">
-        <v>-79.9</v>
+        <v>-79.4</v>
       </c>
       <c r="G396">
         <v>-0.89</v>
@@ -14288,7 +14288,7 @@
         <v>-48.4</v>
       </c>
       <c r="F397">
-        <v>-78</v>
+        <v>-77.9</v>
       </c>
       <c r="G397">
         <v>-3.32</v>
@@ -14311,16 +14311,16 @@
         <v>406</v>
       </c>
       <c r="C398">
-        <v>-29</v>
+        <v>-28.9</v>
       </c>
       <c r="D398">
-        <v>-42.7</v>
+        <v>-42.3</v>
       </c>
       <c r="E398">
-        <v>-48.2</v>
+        <v>-47.4</v>
       </c>
       <c r="F398">
-        <v>-81.1</v>
+        <v>-79.5</v>
       </c>
       <c r="G398">
         <v>-1.93</v>
@@ -14343,16 +14343,16 @@
         <v>407</v>
       </c>
       <c r="C399">
-        <v>-59.1</v>
+        <v>-58.5</v>
       </c>
       <c r="D399">
-        <v>-60.4</v>
+        <v>-59.2</v>
       </c>
       <c r="E399">
-        <v>-63.1</v>
+        <v>-60.8</v>
       </c>
       <c r="F399">
-        <v>-85.5</v>
+        <v>-80.7</v>
       </c>
       <c r="G399">
         <v>-1.65</v>
@@ -14375,16 +14375,16 @@
         <v>408</v>
       </c>
       <c r="C400">
-        <v>-22.6</v>
+        <v>-21.9</v>
       </c>
       <c r="D400">
-        <v>-34.6</v>
+        <v>-32.9</v>
       </c>
       <c r="E400">
-        <v>-34.7</v>
+        <v>-31.5</v>
       </c>
       <c r="F400">
-        <v>-80.7</v>
+        <v>-73.5</v>
       </c>
       <c r="G400">
         <v>-1.82</v>

--- a/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
+++ b/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
@@ -22,16 +22,16 @@
     <t>NOME</t>
   </si>
   <si>
-    <t>AN_ANUAL_202010</t>
-  </si>
-  <si>
-    <t>AN_SEM_202010</t>
-  </si>
-  <si>
-    <t>AN_TRI_202010</t>
-  </si>
-  <si>
-    <t>AN_202010</t>
+    <t>AN_ANUAL_202011</t>
+  </si>
+  <si>
+    <t>AN_SEM_202011</t>
+  </si>
+  <si>
+    <t>AN_TRI_202011</t>
+  </si>
+  <si>
+    <t>AN_20201122</t>
   </si>
   <si>
     <t>SPI1_202010</t>
@@ -1592,7 +1592,7 @@
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
@@ -1639,16 +1639,16 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>-44.7</v>
+        <v>-45.9</v>
       </c>
       <c r="D2">
-        <v>-41.3</v>
+        <v>-33</v>
       </c>
       <c r="E2">
-        <v>-34.2</v>
+        <v>-46.8</v>
       </c>
       <c r="F2">
-        <v>-44.7</v>
+        <v>-14.4</v>
       </c>
       <c r="G2">
         <v>-0.83</v>
@@ -1671,16 +1671,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>-53.2</v>
+        <v>-54</v>
       </c>
       <c r="D3">
-        <v>-46.5</v>
+        <v>-38</v>
       </c>
       <c r="E3">
-        <v>-38.6</v>
+        <v>-52.1</v>
       </c>
       <c r="F3">
-        <v>-54.3</v>
+        <v>-23.2</v>
       </c>
       <c r="G3">
         <v>-0.79</v>
@@ -1703,16 +1703,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>-40.7</v>
+        <v>-43.8</v>
       </c>
       <c r="D4">
-        <v>-40.9</v>
+        <v>-39.3</v>
       </c>
       <c r="E4">
-        <v>-58.5</v>
+        <v>-66.3</v>
       </c>
       <c r="F4">
-        <v>-75.9</v>
+        <v>-42.9</v>
       </c>
       <c r="G4">
         <v>-1.7</v>
@@ -1735,16 +1735,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>-47.3</v>
+        <v>-50</v>
       </c>
       <c r="D5">
-        <v>-44.6</v>
+        <v>-43.5</v>
       </c>
       <c r="E5">
-        <v>-56.6</v>
+        <v>-66.1</v>
       </c>
       <c r="F5">
-        <v>-77</v>
+        <v>-47.9</v>
       </c>
       <c r="G5">
         <v>-1.57</v>
@@ -1767,16 +1767,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>-49.7</v>
+        <v>-52</v>
       </c>
       <c r="D6">
-        <v>-43.7</v>
+        <v>-36.5</v>
       </c>
       <c r="E6">
-        <v>-40.1</v>
+        <v>-58.9</v>
       </c>
       <c r="F6">
-        <v>-57.6</v>
+        <v>-34</v>
       </c>
       <c r="G6">
         <v>-0.68</v>
@@ -1799,16 +1799,16 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>-25.1</v>
+        <v>-30.6</v>
       </c>
       <c r="D7">
-        <v>-27</v>
+        <v>-49.5</v>
       </c>
       <c r="E7">
-        <v>-40.3</v>
+        <v>-69.2</v>
       </c>
       <c r="F7">
-        <v>-52.7</v>
+        <v>-85.6</v>
       </c>
       <c r="G7">
         <v>-1.2</v>
@@ -1831,16 +1831,16 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>-27.9</v>
+        <v>-34</v>
       </c>
       <c r="D8">
-        <v>-31.3</v>
+        <v>-51.9</v>
       </c>
       <c r="E8">
-        <v>-45</v>
+        <v>-74.7</v>
       </c>
       <c r="F8">
-        <v>-65.1</v>
+        <v>-87.6</v>
       </c>
       <c r="G8">
         <v>-1.2</v>
@@ -1863,16 +1863,16 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>-27.8</v>
+        <v>-33.2</v>
       </c>
       <c r="D9">
-        <v>-37.2</v>
+        <v>-45.2</v>
       </c>
       <c r="E9">
-        <v>-35.7</v>
+        <v>-74.7</v>
       </c>
       <c r="F9">
-        <v>-50.8</v>
+        <v>-85.7</v>
       </c>
       <c r="G9">
         <v>-0.53</v>
@@ -1895,16 +1895,16 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>-32.5</v>
+        <v>-38.7</v>
       </c>
       <c r="D10">
-        <v>-33.4</v>
+        <v>-40.3</v>
       </c>
       <c r="E10">
-        <v>-41</v>
+        <v>-78.1</v>
       </c>
       <c r="F10">
-        <v>-77.6</v>
+        <v>-68.4</v>
       </c>
       <c r="G10">
         <v>-1.07</v>
@@ -1927,16 +1927,16 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>-45.2</v>
+        <v>-50.5</v>
       </c>
       <c r="D11">
-        <v>-41.7</v>
+        <v>-47.6</v>
       </c>
       <c r="E11">
-        <v>-49.6</v>
+        <v>-83.3</v>
       </c>
       <c r="F11">
-        <v>-87.3</v>
+        <v>-70.3</v>
       </c>
       <c r="G11">
         <v>-1.55</v>
@@ -1959,16 +1959,16 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>-54.2</v>
+        <v>-56.2</v>
       </c>
       <c r="D12">
         <v>-41.6</v>
       </c>
       <c r="E12">
-        <v>-43.9</v>
+        <v>-71.1</v>
       </c>
       <c r="F12">
-        <v>-77.3</v>
+        <v>-63.6</v>
       </c>
       <c r="G12">
         <v>-1.53</v>
@@ -1991,16 +1991,16 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>-29.2</v>
+        <v>-35</v>
       </c>
       <c r="D13">
-        <v>-40</v>
+        <v>-42.5</v>
       </c>
       <c r="E13">
-        <v>-34.6</v>
+        <v>-73.5</v>
       </c>
       <c r="F13">
-        <v>-63.2</v>
+        <v>-67.4</v>
       </c>
       <c r="G13">
         <v>-1.04</v>
@@ -2023,16 +2023,16 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>-34.4</v>
+        <v>-39.6</v>
       </c>
       <c r="D14">
-        <v>-39.2</v>
+        <v>-38.8</v>
       </c>
       <c r="E14">
-        <v>-27.3</v>
+        <v>-70.6</v>
       </c>
       <c r="F14">
-        <v>-57.6</v>
+        <v>-67</v>
       </c>
       <c r="G14">
         <v>-1.06</v>
@@ -2055,16 +2055,16 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>-24.6</v>
+        <v>-29.5</v>
       </c>
       <c r="D15">
-        <v>-14</v>
+        <v>-19.8</v>
       </c>
       <c r="E15">
-        <v>5.2</v>
+        <v>-59</v>
       </c>
       <c r="F15">
-        <v>-29.9</v>
+        <v>-61.3</v>
       </c>
       <c r="G15">
         <v>-0.87</v>
@@ -2087,16 +2087,16 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>-12.8</v>
+        <v>-15.2</v>
       </c>
       <c r="D16">
-        <v>6.3</v>
+        <v>-8.2</v>
       </c>
       <c r="E16">
-        <v>3.1</v>
+        <v>-57.3</v>
       </c>
       <c r="F16">
-        <v>-34.9</v>
+        <v>-64.2</v>
       </c>
       <c r="G16">
         <v>-0.83</v>
@@ -2119,13 +2119,13 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>-41.4</v>
+        <v>-47.8</v>
       </c>
       <c r="D17">
-        <v>-35.4</v>
+        <v>-39.7</v>
       </c>
       <c r="E17">
-        <v>-36.6</v>
+        <v>-66.9</v>
       </c>
       <c r="F17">
         <v>-67.1</v>
@@ -2151,16 +2151,16 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>-49</v>
+        <v>-53.7</v>
       </c>
       <c r="D18">
-        <v>-43.9</v>
+        <v>-48.2</v>
       </c>
       <c r="E18">
-        <v>-53.8</v>
+        <v>-77.2</v>
       </c>
       <c r="F18">
-        <v>-77.6</v>
+        <v>-69.9</v>
       </c>
       <c r="G18">
         <v>-1.5</v>
@@ -2183,16 +2183,16 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>-56.4</v>
+        <v>-57.4</v>
       </c>
       <c r="D19">
-        <v>-42.6</v>
+        <v>-38.4</v>
       </c>
       <c r="E19">
-        <v>-37</v>
+        <v>-54</v>
       </c>
       <c r="F19">
-        <v>-36.9</v>
+        <v>-55.7</v>
       </c>
       <c r="G19">
         <v>-0.06</v>
@@ -2215,16 +2215,16 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>-59.3</v>
+        <v>-61.9</v>
       </c>
       <c r="D20">
-        <v>-52.5</v>
+        <v>-47.1</v>
       </c>
       <c r="E20">
-        <v>-45.2</v>
+        <v>-62.6</v>
       </c>
       <c r="F20">
-        <v>-48</v>
+        <v>-53.7</v>
       </c>
       <c r="G20">
         <v>-0.37</v>
@@ -2247,16 +2247,16 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>-53.9</v>
+        <v>-58.4</v>
       </c>
       <c r="D21">
-        <v>-55.2</v>
+        <v>-58.3</v>
       </c>
       <c r="E21">
-        <v>-61.4</v>
+        <v>-77.6</v>
       </c>
       <c r="F21">
-        <v>-78.5</v>
+        <v>-73.2</v>
       </c>
       <c r="G21">
         <v>-1.13</v>
@@ -2279,16 +2279,16 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>-52</v>
+        <v>-55.2</v>
       </c>
       <c r="D22">
-        <v>-53.2</v>
+        <v>-54.7</v>
       </c>
       <c r="E22">
-        <v>-60</v>
+        <v>-74.6</v>
       </c>
       <c r="F22">
-        <v>-81.1</v>
+        <v>-62.6</v>
       </c>
       <c r="G22">
         <v>-1.14</v>
@@ -2311,16 +2311,16 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>-28.6</v>
+        <v>-34</v>
       </c>
       <c r="D23">
-        <v>-33</v>
+        <v>-54.4</v>
       </c>
       <c r="E23">
-        <v>-42.4</v>
+        <v>-70.1</v>
       </c>
       <c r="F23">
-        <v>-51.2</v>
+        <v>-86.4</v>
       </c>
       <c r="G23">
         <v>-1.21</v>
@@ -2343,16 +2343,16 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>-61.3</v>
+        <v>-64.3</v>
       </c>
       <c r="D24">
-        <v>-52.8</v>
+        <v>-49.8</v>
       </c>
       <c r="E24">
-        <v>-49.1</v>
+        <v>-70.1</v>
       </c>
       <c r="F24">
-        <v>-58.7</v>
+        <v>-63.8</v>
       </c>
       <c r="G24">
         <v>-0.38</v>
@@ -2375,16 +2375,16 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>-60.4</v>
+        <v>-63.1</v>
       </c>
       <c r="D25">
-        <v>-49.3</v>
+        <v>-47.7</v>
       </c>
       <c r="E25">
-        <v>-48.2</v>
+        <v>-69.9</v>
       </c>
       <c r="F25">
-        <v>-54.1</v>
+        <v>-67</v>
       </c>
       <c r="G25">
         <v>-0.34</v>
@@ -2407,16 +2407,16 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>-14.1</v>
+        <v>-21.3</v>
       </c>
       <c r="D26">
-        <v>-12.4</v>
+        <v>-30.1</v>
       </c>
       <c r="E26">
-        <v>-41.3</v>
+        <v>-67.6</v>
       </c>
       <c r="F26">
-        <v>-64.3</v>
+        <v>-60.8</v>
       </c>
       <c r="G26">
         <v>-0.89</v>
@@ -2439,16 +2439,16 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>-14.4</v>
+        <v>-21.2</v>
       </c>
       <c r="D27">
-        <v>-13.4</v>
+        <v>-34.2</v>
       </c>
       <c r="E27">
-        <v>-39</v>
+        <v>-68.3</v>
       </c>
       <c r="F27">
-        <v>-60.2</v>
+        <v>-68.1</v>
       </c>
       <c r="G27">
         <v>-0.74</v>
@@ -2471,16 +2471,16 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>-42.8</v>
+        <v>-48.4</v>
       </c>
       <c r="D28">
-        <v>-44.9</v>
+        <v>-50.4</v>
       </c>
       <c r="E28">
-        <v>-60.9</v>
+        <v>-75.9</v>
       </c>
       <c r="F28">
-        <v>-74.6</v>
+        <v>-73.8</v>
       </c>
       <c r="G28">
         <v>-1.65</v>
@@ -2503,16 +2503,16 @@
         <v>37</v>
       </c>
       <c r="C29">
-        <v>-48.9</v>
+        <v>-52.3</v>
       </c>
       <c r="D29">
-        <v>-38.4</v>
+        <v>-36.1</v>
       </c>
       <c r="E29">
-        <v>-38</v>
+        <v>-62.6</v>
       </c>
       <c r="F29">
-        <v>-63.8</v>
+        <v>-55.9</v>
       </c>
       <c r="G29">
         <v>-1.31</v>
@@ -2535,16 +2535,16 @@
         <v>38</v>
       </c>
       <c r="C30">
-        <v>-30.9</v>
+        <v>-36.8</v>
       </c>
       <c r="D30">
-        <v>-20.6</v>
+        <v>-35</v>
       </c>
       <c r="E30">
-        <v>-52.2</v>
+        <v>-70</v>
       </c>
       <c r="F30">
-        <v>-73.4</v>
+        <v>-69.2</v>
       </c>
       <c r="G30">
         <v>-2.26</v>
@@ -2567,16 +2567,16 @@
         <v>39</v>
       </c>
       <c r="C31">
-        <v>-48.8</v>
+        <v>-52.5</v>
       </c>
       <c r="D31">
-        <v>-32.7</v>
+        <v>-30.6</v>
       </c>
       <c r="E31">
-        <v>-26</v>
+        <v>-53.6</v>
       </c>
       <c r="F31">
-        <v>-25.1</v>
+        <v>-56.9</v>
       </c>
       <c r="G31">
         <v>-0.49</v>
@@ -2599,16 +2599,16 @@
         <v>40</v>
       </c>
       <c r="C32">
-        <v>-21.3</v>
+        <v>-27.5</v>
       </c>
       <c r="D32">
-        <v>-34.1</v>
+        <v>-37.9</v>
       </c>
       <c r="E32">
-        <v>-31.5</v>
+        <v>-70.3</v>
       </c>
       <c r="F32">
-        <v>-57.8</v>
+        <v>-68.6</v>
       </c>
       <c r="G32">
         <v>-1.25</v>
@@ -2631,16 +2631,16 @@
         <v>41</v>
       </c>
       <c r="C33">
-        <v>-17.9</v>
+        <v>-23.9</v>
       </c>
       <c r="D33">
-        <v>-27.6</v>
+        <v>-33.3</v>
       </c>
       <c r="E33">
-        <v>-25.6</v>
+        <v>-68.4</v>
       </c>
       <c r="F33">
-        <v>-57.4</v>
+        <v>-70</v>
       </c>
       <c r="G33">
         <v>-1.82</v>
@@ -2663,16 +2663,16 @@
         <v>42</v>
       </c>
       <c r="C34">
-        <v>-51.8</v>
+        <v>-53.7</v>
       </c>
       <c r="D34">
-        <v>-55.8</v>
+        <v>-50.3</v>
       </c>
       <c r="E34">
-        <v>-59.8</v>
+        <v>-63.2</v>
       </c>
       <c r="F34">
-        <v>-53.8</v>
+        <v>-58.6</v>
       </c>
       <c r="G34">
         <v>-0.3</v>
@@ -2695,16 +2695,16 @@
         <v>43</v>
       </c>
       <c r="C35">
-        <v>-50.8</v>
+        <v>-52</v>
       </c>
       <c r="D35">
-        <v>-37.1</v>
+        <v>-37.7</v>
       </c>
       <c r="E35">
-        <v>-34.5</v>
+        <v>-65</v>
       </c>
       <c r="F35">
-        <v>-67</v>
+        <v>-55.1</v>
       </c>
       <c r="G35">
         <v>-0.58</v>
@@ -2727,16 +2727,16 @@
         <v>44</v>
       </c>
       <c r="C36">
-        <v>-47.1</v>
+        <v>-48.6</v>
       </c>
       <c r="D36">
-        <v>-34.3</v>
+        <v>-35.4</v>
       </c>
       <c r="E36">
-        <v>-27.1</v>
+        <v>-56.3</v>
       </c>
       <c r="F36">
-        <v>-58</v>
+        <v>-44.1</v>
       </c>
       <c r="G36">
         <v>-0.55</v>
@@ -2759,16 +2759,16 @@
         <v>45</v>
       </c>
       <c r="C37">
-        <v>-45.7</v>
+        <v>-44.5</v>
       </c>
       <c r="D37">
-        <v>-36</v>
+        <v>-25.5</v>
       </c>
       <c r="E37">
-        <v>-34</v>
+        <v>-38.1</v>
       </c>
       <c r="F37">
-        <v>-39.1</v>
+        <v>-6.3</v>
       </c>
       <c r="G37">
         <v>-0.81</v>
@@ -2791,16 +2791,16 @@
         <v>46</v>
       </c>
       <c r="C38">
-        <v>-39.4</v>
+        <v>-43.9</v>
       </c>
       <c r="D38">
-        <v>-27.9</v>
+        <v>-36.9</v>
       </c>
       <c r="E38">
-        <v>-29.1</v>
+        <v>-67.5</v>
       </c>
       <c r="F38">
-        <v>-56.9</v>
+        <v>-71.1</v>
       </c>
       <c r="G38">
         <v>-0.83</v>
@@ -2823,16 +2823,16 @@
         <v>47</v>
       </c>
       <c r="C39">
-        <v>-42.4</v>
+        <v>-48.2</v>
       </c>
       <c r="D39">
-        <v>-38.4</v>
+        <v>-37.3</v>
       </c>
       <c r="E39">
-        <v>-27.9</v>
+        <v>-54.8</v>
       </c>
       <c r="F39">
-        <v>-48.7</v>
+        <v>-53</v>
       </c>
       <c r="G39">
         <v>-0.51</v>
@@ -2855,16 +2855,16 @@
         <v>48</v>
       </c>
       <c r="C40">
-        <v>-47.4</v>
+        <v>-51.4</v>
       </c>
       <c r="D40">
         <v>-40.5</v>
       </c>
       <c r="E40">
-        <v>-31.2</v>
+        <v>-56.6</v>
       </c>
       <c r="F40">
-        <v>-54.8</v>
+        <v>-60.9</v>
       </c>
       <c r="G40">
         <v>-0.66</v>
@@ -2887,16 +2887,16 @@
         <v>49</v>
       </c>
       <c r="C41">
-        <v>-19.3</v>
+        <v>-25.3</v>
       </c>
       <c r="D41">
-        <v>-17.1</v>
+        <v>-34.8</v>
       </c>
       <c r="E41">
-        <v>-28.6</v>
+        <v>-64.6</v>
       </c>
       <c r="F41">
-        <v>-64</v>
+        <v>-68</v>
       </c>
       <c r="G41">
         <v>-1.01</v>
@@ -2919,16 +2919,16 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>-44.6</v>
+        <v>-44.4</v>
       </c>
       <c r="D42">
-        <v>-39.8</v>
+        <v>-28.4</v>
       </c>
       <c r="E42">
-        <v>-37.2</v>
+        <v>-41.2</v>
       </c>
       <c r="F42">
-        <v>-46.8</v>
+        <v>-14.6</v>
       </c>
       <c r="G42">
         <v>-0.68</v>
@@ -2951,16 +2951,16 @@
         <v>51</v>
       </c>
       <c r="C43">
-        <v>-51</v>
+        <v>-53.3</v>
       </c>
       <c r="D43">
-        <v>-49.1</v>
+        <v>-43.7</v>
       </c>
       <c r="E43">
-        <v>-49.2</v>
+        <v>-58.3</v>
       </c>
       <c r="F43">
-        <v>-53.6</v>
+        <v>-51.2</v>
       </c>
       <c r="G43">
         <v>-0.49</v>
@@ -2983,16 +2983,16 @@
         <v>52</v>
       </c>
       <c r="C44">
-        <v>-27.1</v>
+        <v>-32.7</v>
       </c>
       <c r="D44">
-        <v>-30.9</v>
+        <v>-50.5</v>
       </c>
       <c r="E44">
-        <v>-45.7</v>
+        <v>-73.4</v>
       </c>
       <c r="F44">
-        <v>-70.6</v>
+        <v>-78.1</v>
       </c>
       <c r="G44">
         <v>-1.52</v>
@@ -3015,16 +3015,16 @@
         <v>53</v>
       </c>
       <c r="C45">
-        <v>-33.9</v>
+        <v>-38.5</v>
       </c>
       <c r="D45">
-        <v>-33</v>
+        <v>-50</v>
       </c>
       <c r="E45">
-        <v>-52.5</v>
+        <v>-74</v>
       </c>
       <c r="F45">
-        <v>-62.5</v>
+        <v>-83.3</v>
       </c>
       <c r="G45">
         <v>-1.2</v>
@@ -3047,16 +3047,16 @@
         <v>54</v>
       </c>
       <c r="C46">
-        <v>-31.8</v>
+        <v>-36.7</v>
       </c>
       <c r="D46">
-        <v>-30.3</v>
+        <v>-47.4</v>
       </c>
       <c r="E46">
-        <v>-50.3</v>
+        <v>-73.3</v>
       </c>
       <c r="F46">
-        <v>-62.3</v>
+        <v>-80.8</v>
       </c>
       <c r="G46">
         <v>-1.2</v>
@@ -3079,16 +3079,16 @@
         <v>55</v>
       </c>
       <c r="C47">
-        <v>-25.8</v>
+        <v>-31.6</v>
       </c>
       <c r="D47">
-        <v>-28.1</v>
+        <v>-47.9</v>
       </c>
       <c r="E47">
-        <v>-43</v>
+        <v>-71.2</v>
       </c>
       <c r="F47">
-        <v>-63</v>
+        <v>-84</v>
       </c>
       <c r="G47">
         <v>-0.98</v>
@@ -3111,16 +3111,16 @@
         <v>56</v>
       </c>
       <c r="C48">
-        <v>-22.8</v>
+        <v>-29.7</v>
       </c>
       <c r="D48">
-        <v>-29.9</v>
+        <v>-47.6</v>
       </c>
       <c r="E48">
-        <v>-42.3</v>
+        <v>-77.5</v>
       </c>
       <c r="F48">
-        <v>-79</v>
+        <v>-75.1</v>
       </c>
       <c r="G48">
         <v>-1.82</v>
@@ -3143,16 +3143,16 @@
         <v>57</v>
       </c>
       <c r="C49">
-        <v>-50.7</v>
+        <v>-49.7</v>
       </c>
       <c r="D49">
-        <v>-41.5</v>
+        <v>-33.7</v>
       </c>
       <c r="E49">
-        <v>-33.4</v>
+        <v>-45.7</v>
       </c>
       <c r="F49">
-        <v>-39.1</v>
+        <v>-20.5</v>
       </c>
       <c r="G49">
         <v>-0.81</v>
@@ -3175,16 +3175,16 @@
         <v>58</v>
       </c>
       <c r="C50">
-        <v>-49.7</v>
+        <v>-52.2</v>
       </c>
       <c r="D50">
-        <v>-45.4</v>
+        <v>-40</v>
       </c>
       <c r="E50">
-        <v>-36.2</v>
+        <v>-56.3</v>
       </c>
       <c r="F50">
-        <v>-54</v>
+        <v>-40.7</v>
       </c>
       <c r="G50">
         <v>-0.81</v>
@@ -3207,16 +3207,16 @@
         <v>59</v>
       </c>
       <c r="C51">
-        <v>-49.6</v>
+        <v>-50.6</v>
       </c>
       <c r="D51">
-        <v>-34.3</v>
+        <v>-36.6</v>
       </c>
       <c r="E51">
-        <v>-27.8</v>
+        <v>-57.7</v>
       </c>
       <c r="F51">
-        <v>-49.3</v>
+        <v>-60.6</v>
       </c>
       <c r="G51">
         <v>-0.37</v>
@@ -3239,16 +3239,16 @@
         <v>60</v>
       </c>
       <c r="C52">
-        <v>-46.8</v>
+        <v>-51.1</v>
       </c>
       <c r="D52">
-        <v>-39</v>
+        <v>-43.4</v>
       </c>
       <c r="E52">
-        <v>-35.6</v>
+        <v>-65.2</v>
       </c>
       <c r="F52">
-        <v>-58.5</v>
+        <v>-68.4</v>
       </c>
       <c r="G52">
         <v>-1.16</v>
@@ -3271,16 +3271,16 @@
         <v>61</v>
       </c>
       <c r="C53">
-        <v>-50.1</v>
+        <v>-53.8</v>
       </c>
       <c r="D53">
-        <v>-38.8</v>
+        <v>-42.6</v>
       </c>
       <c r="E53">
-        <v>-31.1</v>
+        <v>-58.6</v>
       </c>
       <c r="F53">
-        <v>-45.8</v>
+        <v>-71.8</v>
       </c>
       <c r="G53">
         <v>-0.55</v>
@@ -3303,16 +3303,16 @@
         <v>62</v>
       </c>
       <c r="C54">
-        <v>-16.3</v>
+        <v>-23.1</v>
       </c>
       <c r="D54">
-        <v>-13.9</v>
+        <v>-32.8</v>
       </c>
       <c r="E54">
-        <v>-15.2</v>
+        <v>-69.8</v>
       </c>
       <c r="F54">
-        <v>-69.6</v>
+        <v>-72.6</v>
       </c>
       <c r="G54">
         <v>-1.71</v>
@@ -3335,16 +3335,16 @@
         <v>63</v>
       </c>
       <c r="C55">
-        <v>-51.6</v>
+        <v>-53.9</v>
       </c>
       <c r="D55">
-        <v>-45.6</v>
+        <v>-40</v>
       </c>
       <c r="E55">
-        <v>-40.5</v>
+        <v>-53.9</v>
       </c>
       <c r="F55">
-        <v>-45.7</v>
+        <v>-48.8</v>
       </c>
       <c r="G55">
         <v>-0.61</v>
@@ -3367,16 +3367,16 @@
         <v>64</v>
       </c>
       <c r="C56">
+        <v>-50.9</v>
+      </c>
+      <c r="D56">
+        <v>-36</v>
+      </c>
+      <c r="E56">
         <v>-48.6</v>
       </c>
-      <c r="D56">
-        <v>-42.5</v>
-      </c>
-      <c r="E56">
-        <v>-33.1</v>
-      </c>
       <c r="F56">
-        <v>-38</v>
+        <v>-32</v>
       </c>
       <c r="G56">
         <v>-0.8</v>
@@ -3399,16 +3399,16 @@
         <v>65</v>
       </c>
       <c r="C57">
-        <v>-31.3</v>
+        <v>-36.7</v>
       </c>
       <c r="D57">
-        <v>-15.8</v>
+        <v>-29.5</v>
       </c>
       <c r="E57">
-        <v>-26.8</v>
+        <v>-70</v>
       </c>
       <c r="F57">
-        <v>-74.2</v>
+        <v>-68.1</v>
       </c>
       <c r="G57">
         <v>-2.63</v>
@@ -3431,16 +3431,16 @@
         <v>66</v>
       </c>
       <c r="C58">
-        <v>-30.5</v>
+        <v>-36.2</v>
       </c>
       <c r="D58">
-        <v>-17.4</v>
+        <v>-29.4</v>
       </c>
       <c r="E58">
-        <v>-28.5</v>
+        <v>-68.5</v>
       </c>
       <c r="F58">
-        <v>-71.9</v>
+        <v>-61.9</v>
       </c>
       <c r="G58">
         <v>-2.92</v>
@@ -3463,16 +3463,16 @@
         <v>67</v>
       </c>
       <c r="C59">
-        <v>-26.4</v>
+        <v>-32.8</v>
       </c>
       <c r="D59">
-        <v>-16.7</v>
+        <v>-33.6</v>
       </c>
       <c r="E59">
-        <v>-32.7</v>
+        <v>-67.9</v>
       </c>
       <c r="F59">
-        <v>-71.2</v>
+        <v>-66.9</v>
       </c>
       <c r="G59">
         <v>-1.1</v>
@@ -3495,16 +3495,16 @@
         <v>68</v>
       </c>
       <c r="C60">
-        <v>-32.7</v>
+        <v>-37.4</v>
       </c>
       <c r="D60">
-        <v>-22.9</v>
+        <v>-34.3</v>
       </c>
       <c r="E60">
-        <v>-41.4</v>
+        <v>-67.2</v>
       </c>
       <c r="F60">
-        <v>-72.1</v>
+        <v>-56</v>
       </c>
       <c r="G60">
         <v>-2.42</v>
@@ -3527,16 +3527,16 @@
         <v>69</v>
       </c>
       <c r="C61">
-        <v>-45.3</v>
+        <v>-50.6</v>
       </c>
       <c r="D61">
-        <v>-38.1</v>
+        <v>-38.5</v>
       </c>
       <c r="E61">
-        <v>-34.6</v>
+        <v>-57.6</v>
       </c>
       <c r="F61">
-        <v>-51</v>
+        <v>-63.4</v>
       </c>
       <c r="G61">
         <v>-1.09</v>
@@ -3559,16 +3559,16 @@
         <v>70</v>
       </c>
       <c r="C62">
-        <v>-31.2</v>
+        <v>-36.5</v>
       </c>
       <c r="D62">
-        <v>-41.4</v>
+        <v>-58.2</v>
       </c>
       <c r="E62">
-        <v>-54.8</v>
+        <v>-81.9</v>
       </c>
       <c r="F62">
-        <v>-84.2</v>
+        <v>-77.5</v>
       </c>
       <c r="G62">
         <v>-2.04</v>
@@ -3591,16 +3591,16 @@
         <v>71</v>
       </c>
       <c r="C63">
-        <v>-31.4</v>
+        <v>-37.1</v>
       </c>
       <c r="D63">
-        <v>-19.9</v>
+        <v>-30.1</v>
       </c>
       <c r="E63">
-        <v>-29.7</v>
+        <v>-71.3</v>
       </c>
       <c r="F63">
-        <v>-69.8</v>
+        <v>-68.1</v>
       </c>
       <c r="G63">
         <v>-3.08</v>
@@ -3623,16 +3623,16 @@
         <v>72</v>
       </c>
       <c r="C64">
-        <v>-11.8</v>
+        <v>-18.2</v>
       </c>
       <c r="D64">
-        <v>-8.9</v>
+        <v>-28.7</v>
       </c>
       <c r="E64">
-        <v>-26</v>
+        <v>-68.3</v>
       </c>
       <c r="F64">
-        <v>-72.5</v>
+        <v>-61.4</v>
       </c>
       <c r="G64">
         <v>-1.57</v>
@@ -3655,16 +3655,16 @@
         <v>73</v>
       </c>
       <c r="C65">
-        <v>-17.3</v>
+        <v>-23.2</v>
       </c>
       <c r="D65">
-        <v>-11.3</v>
+        <v>-27.6</v>
       </c>
       <c r="E65">
-        <v>-29.5</v>
+        <v>-67</v>
       </c>
       <c r="F65">
-        <v>-72.6</v>
+        <v>-57.7</v>
       </c>
       <c r="G65">
         <v>-1.52</v>
@@ -3687,16 +3687,16 @@
         <v>74</v>
       </c>
       <c r="C66">
-        <v>-18.3</v>
+        <v>-25.2</v>
       </c>
       <c r="D66">
-        <v>-20.7</v>
+        <v>-37.4</v>
       </c>
       <c r="E66">
-        <v>-34.9</v>
+        <v>-68.5</v>
       </c>
       <c r="F66">
-        <v>-73.9</v>
+        <v>-63.6</v>
       </c>
       <c r="G66">
         <v>-1.04</v>
@@ -3719,16 +3719,16 @@
         <v>75</v>
       </c>
       <c r="C67">
-        <v>-55.4</v>
+        <v>-57.5</v>
       </c>
       <c r="D67">
-        <v>-51.2</v>
+        <v>-44.2</v>
       </c>
       <c r="E67">
-        <v>-45.1</v>
+        <v>-55.6</v>
       </c>
       <c r="F67">
-        <v>-43.1</v>
+        <v>-46.4</v>
       </c>
       <c r="G67">
         <v>0.19</v>
@@ -3751,16 +3751,16 @@
         <v>76</v>
       </c>
       <c r="C68">
-        <v>-31.4</v>
+        <v>-37.4</v>
       </c>
       <c r="D68">
-        <v>-37.2</v>
+        <v>-57.5</v>
       </c>
       <c r="E68">
-        <v>-47.7</v>
+        <v>-72.5</v>
       </c>
       <c r="F68">
-        <v>-53.7</v>
+        <v>-88.7</v>
       </c>
       <c r="G68">
         <v>-1.33</v>
@@ -3783,16 +3783,16 @@
         <v>77</v>
       </c>
       <c r="C69">
-        <v>-45.3</v>
+        <v>-49.6</v>
       </c>
       <c r="D69">
-        <v>-36.8</v>
+        <v>-41.3</v>
       </c>
       <c r="E69">
-        <v>-28.9</v>
+        <v>-57.2</v>
       </c>
       <c r="F69">
-        <v>-44.7</v>
+        <v>-68.9</v>
       </c>
       <c r="G69">
         <v>-0.72</v>
@@ -3815,16 +3815,16 @@
         <v>78</v>
       </c>
       <c r="C70">
-        <v>-43.4</v>
+        <v>-48.8</v>
       </c>
       <c r="D70">
-        <v>-37.3</v>
+        <v>-43</v>
       </c>
       <c r="E70">
-        <v>-34.5</v>
+        <v>-65.6</v>
       </c>
       <c r="F70">
-        <v>-57.7</v>
+        <v>-77.2</v>
       </c>
       <c r="G70">
         <v>-1.28</v>
@@ -3847,16 +3847,16 @@
         <v>79</v>
       </c>
       <c r="C71">
-        <v>-21.2</v>
+        <v>-27.7</v>
       </c>
       <c r="D71">
-        <v>-28.2</v>
+        <v>-49.4</v>
       </c>
       <c r="E71">
-        <v>-31.3</v>
+        <v>-66.6</v>
       </c>
       <c r="F71">
-        <v>-43.1</v>
+        <v>-81.4</v>
       </c>
       <c r="G71">
         <v>-1.19</v>
@@ -3879,16 +3879,16 @@
         <v>80</v>
       </c>
       <c r="C72">
-        <v>-28.7</v>
+        <v>-34.6</v>
       </c>
       <c r="D72">
-        <v>-33.6</v>
+        <v>-54.9</v>
       </c>
       <c r="E72">
-        <v>-49.5</v>
+        <v>-73.8</v>
       </c>
       <c r="F72">
-        <v>-60.8</v>
+        <v>-84.1</v>
       </c>
       <c r="G72">
         <v>-1.93</v>
@@ -3911,16 +3911,16 @@
         <v>81</v>
       </c>
       <c r="C73">
-        <v>-9.6</v>
+        <v>-14.3</v>
       </c>
       <c r="D73">
-        <v>-22.5</v>
+        <v>-26.2</v>
       </c>
       <c r="E73">
-        <v>-19</v>
+        <v>-68.8</v>
       </c>
       <c r="F73">
-        <v>-39.1</v>
+        <v>-77.2</v>
       </c>
       <c r="G73">
         <v>-0.57</v>
@@ -3943,16 +3943,16 @@
         <v>82</v>
       </c>
       <c r="C74">
-        <v>-1.1</v>
+        <v>-3.8</v>
       </c>
       <c r="D74">
-        <v>-11.2</v>
+        <v>-16.2</v>
       </c>
       <c r="E74">
-        <v>-22.9</v>
+        <v>-67.3</v>
       </c>
       <c r="F74">
-        <v>-41.8</v>
+        <v>-70</v>
       </c>
       <c r="G74">
         <v>-0.62</v>
@@ -3975,16 +3975,16 @@
         <v>83</v>
       </c>
       <c r="C75">
-        <v>21.3</v>
+        <v>14.8</v>
       </c>
       <c r="D75">
-        <v>13.4</v>
+        <v>-6.2</v>
       </c>
       <c r="E75">
-        <v>1.7</v>
+        <v>-55.5</v>
       </c>
       <c r="F75">
-        <v>-8.1</v>
+        <v>-88.7</v>
       </c>
       <c r="G75">
         <v>-0.61</v>
@@ -4007,16 +4007,16 @@
         <v>84</v>
       </c>
       <c r="C76">
-        <v>31.7</v>
+        <v>23.7</v>
       </c>
       <c r="D76">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <v>8.2</v>
+        <v>-49.8</v>
       </c>
       <c r="F76">
-        <v>4.2</v>
+        <v>-89.4</v>
       </c>
       <c r="G76">
         <v>-0.63</v>
@@ -4039,16 +4039,16 @@
         <v>85</v>
       </c>
       <c r="C77">
-        <v>-5.3</v>
+        <v>-11.3</v>
       </c>
       <c r="D77">
-        <v>-17.9</v>
+        <v>-31.1</v>
       </c>
       <c r="E77">
-        <v>-20.3</v>
+        <v>-68.7</v>
       </c>
       <c r="F77">
-        <v>-35.5</v>
+        <v>-89</v>
       </c>
       <c r="G77">
         <v>-0.53</v>
@@ -4071,16 +4071,16 @@
         <v>86</v>
       </c>
       <c r="C78">
-        <v>6.2</v>
+        <v>-0.2</v>
       </c>
       <c r="D78">
-        <v>1.3</v>
+        <v>-13.6</v>
       </c>
       <c r="E78">
-        <v>-2.6</v>
+        <v>-57.4</v>
       </c>
       <c r="F78">
-        <v>-12.6</v>
+        <v>-87.2</v>
       </c>
       <c r="G78">
         <v>-0.54</v>
@@ -4103,16 +4103,16 @@
         <v>87</v>
       </c>
       <c r="C79">
-        <v>-34.9</v>
+        <v>-42.4</v>
       </c>
       <c r="D79">
-        <v>-33.5</v>
+        <v>-42.1</v>
       </c>
       <c r="E79">
-        <v>-43.1</v>
+        <v>-75.8</v>
       </c>
       <c r="F79">
-        <v>-75.1</v>
+        <v>-70.4</v>
       </c>
       <c r="G79">
         <v>-1.74</v>
@@ -4135,16 +4135,16 @@
         <v>88</v>
       </c>
       <c r="C80">
-        <v>-37.7</v>
+        <v>-44.3</v>
       </c>
       <c r="D80">
-        <v>-31.6</v>
+        <v>-38.7</v>
       </c>
       <c r="E80">
-        <v>-42.4</v>
+        <v>-78.8</v>
       </c>
       <c r="F80">
-        <v>-78.8</v>
+        <v>-67.2</v>
       </c>
       <c r="G80">
         <v>-1.74</v>
@@ -4167,16 +4167,16 @@
         <v>89</v>
       </c>
       <c r="C81">
-        <v>-28.6</v>
+        <v>-33</v>
       </c>
       <c r="D81">
-        <v>-34.5</v>
+        <v>-40.2</v>
       </c>
       <c r="E81">
-        <v>-28.9</v>
+        <v>-64.9</v>
       </c>
       <c r="F81">
-        <v>-60.2</v>
+        <v>-74.5</v>
       </c>
       <c r="G81">
         <v>-1.93</v>
@@ -4199,16 +4199,16 @@
         <v>90</v>
       </c>
       <c r="C82">
-        <v>-43.6</v>
+        <v>-46.6</v>
       </c>
       <c r="D82">
-        <v>-49.4</v>
+        <v>-54</v>
       </c>
       <c r="E82">
-        <v>-42.6</v>
+        <v>-72.3</v>
       </c>
       <c r="F82">
-        <v>-67.7</v>
+        <v>-79.5</v>
       </c>
       <c r="G82">
         <v>-1.93</v>
@@ -4231,16 +4231,16 @@
         <v>91</v>
       </c>
       <c r="C83">
-        <v>-28.5</v>
+        <v>-34.5</v>
       </c>
       <c r="D83">
-        <v>-37.1</v>
+        <v>-43.4</v>
       </c>
       <c r="E83">
-        <v>-37.9</v>
+        <v>-74.8</v>
       </c>
       <c r="F83">
-        <v>-69.3</v>
+        <v>-69.5</v>
       </c>
       <c r="G83">
         <v>-1.01</v>
@@ -4263,16 +4263,16 @@
         <v>92</v>
       </c>
       <c r="C84">
-        <v>-44.5</v>
+        <v>-51.7</v>
       </c>
       <c r="D84">
-        <v>-40.1</v>
+        <v>-45.9</v>
       </c>
       <c r="E84">
-        <v>-50.5</v>
+        <v>-72</v>
       </c>
       <c r="F84">
-        <v>-66.2</v>
+        <v>-71</v>
       </c>
       <c r="G84">
         <v>-1.49</v>
@@ -4295,16 +4295,16 @@
         <v>93</v>
       </c>
       <c r="C85">
-        <v>-45.4</v>
+        <v>-52.4</v>
       </c>
       <c r="D85">
-        <v>-39.6</v>
+        <v>-45.7</v>
       </c>
       <c r="E85">
-        <v>-49.6</v>
+        <v>-71.2</v>
       </c>
       <c r="F85">
-        <v>-57.7</v>
+        <v>-78.1</v>
       </c>
       <c r="G85">
         <v>-1.22</v>
@@ -4327,16 +4327,16 @@
         <v>94</v>
       </c>
       <c r="C86">
-        <v>-9.9</v>
+        <v>-15.9</v>
       </c>
       <c r="D86">
-        <v>-19.6</v>
+        <v>-27.3</v>
       </c>
       <c r="E86">
-        <v>-22.9</v>
+        <v>-62</v>
       </c>
       <c r="F86">
-        <v>-56.8</v>
+        <v>-63.3</v>
       </c>
       <c r="G86">
         <v>-1.71</v>
@@ -4359,16 +4359,16 @@
         <v>95</v>
       </c>
       <c r="C87">
-        <v>-27.2</v>
+        <v>-30.9</v>
       </c>
       <c r="D87">
-        <v>-41.2</v>
+        <v>-47</v>
       </c>
       <c r="E87">
-        <v>-41.3</v>
+        <v>-71.5</v>
       </c>
       <c r="F87">
-        <v>-68</v>
+        <v>-71.2</v>
       </c>
       <c r="G87">
         <v>-1.21</v>
@@ -4391,16 +4391,16 @@
         <v>96</v>
       </c>
       <c r="C88">
-        <v>-39.1</v>
+        <v>-43.8</v>
       </c>
       <c r="D88">
-        <v>-37.6</v>
+        <v>-43.1</v>
       </c>
       <c r="E88">
-        <v>-43.9</v>
+        <v>-79.9</v>
       </c>
       <c r="F88">
-        <v>-81.7</v>
+        <v>-68.3</v>
       </c>
       <c r="G88">
         <v>-1.07</v>
@@ -4423,16 +4423,16 @@
         <v>97</v>
       </c>
       <c r="C89">
-        <v>-43.4</v>
+        <v>-47.7</v>
       </c>
       <c r="D89">
-        <v>-43.1</v>
+        <v>-47.8</v>
       </c>
       <c r="E89">
-        <v>-51.7</v>
+        <v>-81.4</v>
       </c>
       <c r="F89">
-        <v>-84.3</v>
+        <v>-70</v>
       </c>
       <c r="G89">
         <v>-1.01</v>
@@ -4455,16 +4455,16 @@
         <v>98</v>
       </c>
       <c r="C90">
-        <v>-35.4</v>
+        <v>-40.4</v>
       </c>
       <c r="D90">
-        <v>-35.5</v>
+        <v>-41</v>
       </c>
       <c r="E90">
-        <v>-37.9</v>
+        <v>-77.2</v>
       </c>
       <c r="F90">
-        <v>-76</v>
+        <v>-67.8</v>
       </c>
       <c r="G90">
         <v>-1.02</v>
@@ -4487,16 +4487,16 @@
         <v>99</v>
       </c>
       <c r="C91">
-        <v>-37.4</v>
+        <v>-41.9</v>
       </c>
       <c r="D91">
-        <v>-39.4</v>
+        <v>-43</v>
       </c>
       <c r="E91">
-        <v>-39.3</v>
+        <v>-76.2</v>
       </c>
       <c r="F91">
-        <v>-73</v>
+        <v>-67.5</v>
       </c>
       <c r="G91">
         <v>-1</v>
@@ -4519,16 +4519,16 @@
         <v>100</v>
       </c>
       <c r="C92">
-        <v>-48.2</v>
+        <v>-55.7</v>
       </c>
       <c r="D92">
-        <v>-39.4</v>
+        <v>-45.3</v>
       </c>
       <c r="E92">
-        <v>-46.3</v>
+        <v>-69.7</v>
       </c>
       <c r="F92">
-        <v>-49.2</v>
+        <v>-81.2</v>
       </c>
       <c r="G92">
         <v>-0.39</v>
@@ -4551,16 +4551,16 @@
         <v>101</v>
       </c>
       <c r="C93">
-        <v>-35</v>
+        <v>-38.4</v>
       </c>
       <c r="D93">
-        <v>-43</v>
+        <v>-48</v>
       </c>
       <c r="E93">
-        <v>-36.9</v>
+        <v>-70.2</v>
       </c>
       <c r="F93">
-        <v>-68.8</v>
+        <v>-74.1</v>
       </c>
       <c r="G93">
         <v>-1.83</v>
@@ -4583,16 +4583,16 @@
         <v>102</v>
       </c>
       <c r="C94">
-        <v>-27.4</v>
+        <v>-31.9</v>
       </c>
       <c r="D94">
-        <v>-40.7</v>
+        <v>-45.7</v>
       </c>
       <c r="E94">
-        <v>-41.2</v>
+        <v>-73.5</v>
       </c>
       <c r="F94">
-        <v>-68.6</v>
+        <v>-75.9</v>
       </c>
       <c r="G94">
         <v>-1.85</v>
@@ -4615,16 +4615,16 @@
         <v>103</v>
       </c>
       <c r="C95">
-        <v>-41.5</v>
+        <v>-45.7</v>
       </c>
       <c r="D95">
-        <v>-49.7</v>
+        <v>-53.8</v>
       </c>
       <c r="E95">
-        <v>-47.6</v>
+        <v>-76.5</v>
       </c>
       <c r="F95">
-        <v>-61.8</v>
+        <v>-82.7</v>
       </c>
       <c r="G95">
         <v>-1.99</v>
@@ -4647,16 +4647,16 @@
         <v>104</v>
       </c>
       <c r="C96">
-        <v>-39.4</v>
+        <v>-47.2</v>
       </c>
       <c r="D96">
-        <v>-20.9</v>
+        <v>-28</v>
       </c>
       <c r="E96">
-        <v>-26.2</v>
+        <v>-56.7</v>
       </c>
       <c r="F96">
-        <v>-25</v>
+        <v>-71</v>
       </c>
       <c r="G96">
         <v>-0.28</v>
@@ -4679,16 +4679,16 @@
         <v>105</v>
       </c>
       <c r="C97">
-        <v>-48</v>
+        <v>-55.7</v>
       </c>
       <c r="D97">
-        <v>-37.2</v>
+        <v>-43.3</v>
       </c>
       <c r="E97">
-        <v>-42.4</v>
+        <v>-65.9</v>
       </c>
       <c r="F97">
-        <v>-41.4</v>
+        <v>-76.6</v>
       </c>
       <c r="G97">
         <v>-0.25</v>
@@ -4711,16 +4711,16 @@
         <v>106</v>
       </c>
       <c r="C98">
-        <v>-19.8</v>
+        <v>-24.5</v>
       </c>
       <c r="D98">
-        <v>-39</v>
+        <v>-46.1</v>
       </c>
       <c r="E98">
-        <v>-41.6</v>
+        <v>-75</v>
       </c>
       <c r="F98">
-        <v>-65.9</v>
+        <v>-76.1</v>
       </c>
       <c r="G98">
         <v>-1.68</v>
@@ -4743,16 +4743,16 @@
         <v>107</v>
       </c>
       <c r="C99">
-        <v>-15.4</v>
+        <v>-20.9</v>
       </c>
       <c r="D99">
-        <v>-33.9</v>
+        <v>-40.8</v>
       </c>
       <c r="E99">
-        <v>-38.9</v>
+        <v>-75.7</v>
       </c>
       <c r="F99">
-        <v>-62.5</v>
+        <v>-78.2</v>
       </c>
       <c r="G99">
         <v>-1.94</v>
@@ -4775,16 +4775,16 @@
         <v>108</v>
       </c>
       <c r="C100">
-        <v>-58.8</v>
+        <v>-62.9</v>
       </c>
       <c r="D100">
-        <v>-47.4</v>
+        <v>-52</v>
       </c>
       <c r="E100">
-        <v>-55.6</v>
+        <v>-72.6</v>
       </c>
       <c r="F100">
-        <v>-60.8</v>
+        <v>-74.9</v>
       </c>
       <c r="G100">
         <v>-0.33</v>
@@ -4807,16 +4807,16 @@
         <v>109</v>
       </c>
       <c r="C101">
-        <v>-32.6</v>
+        <v>-39.1</v>
       </c>
       <c r="D101">
-        <v>-42.9</v>
+        <v>-49.6</v>
       </c>
       <c r="E101">
-        <v>-38.9</v>
+        <v>-75</v>
       </c>
       <c r="F101">
-        <v>-50.9</v>
+        <v>-84.4</v>
       </c>
       <c r="G101">
         <v>-0.85</v>
@@ -4839,16 +4839,16 @@
         <v>110</v>
       </c>
       <c r="C102">
-        <v>-30.9</v>
+        <v>-37.9</v>
       </c>
       <c r="D102">
-        <v>-38.9</v>
+        <v>-48.8</v>
       </c>
       <c r="E102">
-        <v>-36.9</v>
+        <v>-77.4</v>
       </c>
       <c r="F102">
-        <v>-51.5</v>
+        <v>-89.5</v>
       </c>
       <c r="G102">
         <v>-0.67</v>
@@ -4871,16 +4871,16 @@
         <v>111</v>
       </c>
       <c r="C103">
-        <v>-16.8</v>
+        <v>-22.5</v>
       </c>
       <c r="D103">
-        <v>-23.6</v>
+        <v>-29.5</v>
       </c>
       <c r="E103">
-        <v>-11</v>
+        <v>-65.9</v>
       </c>
       <c r="F103">
-        <v>-44.8</v>
+        <v>-70.8</v>
       </c>
       <c r="G103">
         <v>-0.55</v>
@@ -4903,16 +4903,16 @@
         <v>112</v>
       </c>
       <c r="C104">
-        <v>-30.8</v>
+        <v>-37.3</v>
       </c>
       <c r="D104">
-        <v>-37.7</v>
+        <v>-47.5</v>
       </c>
       <c r="E104">
-        <v>-35.5</v>
+        <v>-76.3</v>
       </c>
       <c r="F104">
-        <v>-49</v>
+        <v>-89.7</v>
       </c>
       <c r="G104">
         <v>-0.59</v>
@@ -4935,16 +4935,16 @@
         <v>113</v>
       </c>
       <c r="C105">
-        <v>-27.8</v>
+        <v>-31.5</v>
       </c>
       <c r="D105">
-        <v>-32.5</v>
+        <v>-38.4</v>
       </c>
       <c r="E105">
-        <v>-29.9</v>
+        <v>-73.2</v>
       </c>
       <c r="F105">
-        <v>-50.8</v>
+        <v>-82.2</v>
       </c>
       <c r="G105">
         <v>-1.21</v>
@@ -4967,16 +4967,16 @@
         <v>114</v>
       </c>
       <c r="C106">
-        <v>-27.8</v>
+        <v>-32.1</v>
       </c>
       <c r="D106">
-        <v>-35.3</v>
+        <v>-40.5</v>
       </c>
       <c r="E106">
-        <v>-29</v>
+        <v>-72.8</v>
       </c>
       <c r="F106">
-        <v>-49.7</v>
+        <v>-81.2</v>
       </c>
       <c r="G106">
         <v>-1.15</v>
@@ -4999,16 +4999,16 @@
         <v>115</v>
       </c>
       <c r="C107">
-        <v>-24.4</v>
+        <v>-29</v>
       </c>
       <c r="D107">
-        <v>-36.1</v>
+        <v>-44.7</v>
       </c>
       <c r="E107">
-        <v>-38.6</v>
+        <v>-74.3</v>
       </c>
       <c r="F107">
-        <v>-52.7</v>
+        <v>-84.7</v>
       </c>
       <c r="G107">
         <v>-1.41</v>
@@ -5031,16 +5031,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>-25.4</v>
+        <v>-29.3</v>
       </c>
       <c r="D108">
-        <v>-28.4</v>
+        <v>-36.6</v>
       </c>
       <c r="E108">
-        <v>-23.7</v>
+        <v>-70.8</v>
       </c>
       <c r="F108">
-        <v>-42.3</v>
+        <v>-81.3</v>
       </c>
       <c r="G108">
         <v>-1.19</v>
@@ -5063,16 +5063,16 @@
         <v>117</v>
       </c>
       <c r="C109">
-        <v>-25.1</v>
+        <v>-29</v>
       </c>
       <c r="D109">
-        <v>-26.8</v>
+        <v>-32.7</v>
       </c>
       <c r="E109">
-        <v>-18.6</v>
+        <v>-67.7</v>
       </c>
       <c r="F109">
-        <v>-48.1</v>
+        <v>-73.9</v>
       </c>
       <c r="G109">
         <v>-0.58</v>
@@ -5095,16 +5095,16 @@
         <v>118</v>
       </c>
       <c r="C110">
-        <v>-22.7</v>
+        <v>-26.2</v>
       </c>
       <c r="D110">
-        <v>-21.9</v>
+        <v>-29.7</v>
       </c>
       <c r="E110">
-        <v>-13.1</v>
+        <v>-69.2</v>
       </c>
       <c r="F110">
-        <v>-53.7</v>
+        <v>-69.9</v>
       </c>
       <c r="G110">
         <v>-0.73</v>
@@ -5127,16 +5127,16 @@
         <v>119</v>
       </c>
       <c r="C111">
-        <v>-24.7</v>
+        <v>-30.7</v>
       </c>
       <c r="D111">
-        <v>-33.4</v>
+        <v>-38.4</v>
       </c>
       <c r="E111">
-        <v>-21.6</v>
+        <v>-67.8</v>
       </c>
       <c r="F111">
-        <v>-45.9</v>
+        <v>-75.8</v>
       </c>
       <c r="G111">
         <v>-0.68</v>
@@ -5159,16 +5159,16 @@
         <v>120</v>
       </c>
       <c r="C112">
-        <v>-29.5</v>
+        <v>-34</v>
       </c>
       <c r="D112">
-        <v>-38.5</v>
+        <v>-44.7</v>
       </c>
       <c r="E112">
-        <v>-34.8</v>
+        <v>-74.6</v>
       </c>
       <c r="F112">
-        <v>-51.8</v>
+        <v>-84.2</v>
       </c>
       <c r="G112">
         <v>-0.67</v>
@@ -5191,16 +5191,16 @@
         <v>121</v>
       </c>
       <c r="C113">
-        <v>-48.1</v>
+        <v>-52.5</v>
       </c>
       <c r="D113">
-        <v>-46</v>
+        <v>-47.4</v>
       </c>
       <c r="E113">
-        <v>-54.2</v>
+        <v>-68.9</v>
       </c>
       <c r="F113">
-        <v>-70.3</v>
+        <v>-57.8</v>
       </c>
       <c r="G113">
         <v>-1.06</v>
@@ -5223,16 +5223,16 @@
         <v>122</v>
       </c>
       <c r="C114">
-        <v>-54.7</v>
+        <v>-58.9</v>
       </c>
       <c r="D114">
-        <v>-51.1</v>
+        <v>-54</v>
       </c>
       <c r="E114">
-        <v>-52.4</v>
+        <v>-70.2</v>
       </c>
       <c r="F114">
-        <v>-69.7</v>
+        <v>-68.2</v>
       </c>
       <c r="G114">
         <v>-1.14</v>
@@ -5255,16 +5255,16 @@
         <v>123</v>
       </c>
       <c r="C115">
-        <v>-3.7</v>
+        <v>-10.7</v>
       </c>
       <c r="D115">
-        <v>-7.3</v>
+        <v>-22.6</v>
       </c>
       <c r="E115">
-        <v>-9</v>
+        <v>-56.5</v>
       </c>
       <c r="F115">
-        <v>-11.4</v>
+        <v>-85.7</v>
       </c>
       <c r="G115">
         <v>-1.56</v>
@@ -5287,16 +5287,16 @@
         <v>124</v>
       </c>
       <c r="C116">
-        <v>-54.1</v>
+        <v>-56.8</v>
       </c>
       <c r="D116">
-        <v>-55.3</v>
+        <v>-57.1</v>
       </c>
       <c r="E116">
-        <v>-56.7</v>
+        <v>-78.3</v>
       </c>
       <c r="F116">
-        <v>-81.7</v>
+        <v>-68.1</v>
       </c>
       <c r="G116">
         <v>-0.89</v>
@@ -5319,16 +5319,16 @@
         <v>125</v>
       </c>
       <c r="C117">
-        <v>-16.6</v>
+        <v>-19.9</v>
       </c>
       <c r="D117">
-        <v>-19.3</v>
+        <v>-25.9</v>
       </c>
       <c r="E117">
-        <v>-10.3</v>
+        <v>-66.7</v>
       </c>
       <c r="F117">
-        <v>-52.3</v>
+        <v>-62.9</v>
       </c>
       <c r="G117">
         <v>-0.66</v>
@@ -5351,16 +5351,16 @@
         <v>126</v>
       </c>
       <c r="C118">
-        <v>-23.6</v>
+        <v>-28.1</v>
       </c>
       <c r="D118">
-        <v>-35.7</v>
+        <v>-45.3</v>
       </c>
       <c r="E118">
-        <v>-39.7</v>
+        <v>-74.9</v>
       </c>
       <c r="F118">
-        <v>-53.9</v>
+        <v>-82.8</v>
       </c>
       <c r="G118">
         <v>-1.69</v>
@@ -5383,16 +5383,16 @@
         <v>127</v>
       </c>
       <c r="C119">
-        <v>-14.9</v>
+        <v>-20.7</v>
       </c>
       <c r="D119">
-        <v>-28</v>
+        <v>-41.6</v>
       </c>
       <c r="E119">
-        <v>-35.9</v>
+        <v>-74.8</v>
       </c>
       <c r="F119">
-        <v>-52.3</v>
+        <v>-84.8</v>
       </c>
       <c r="G119">
         <v>-1.88</v>
@@ -5415,16 +5415,16 @@
         <v>128</v>
       </c>
       <c r="C120">
-        <v>-13.7</v>
+        <v>-19.6</v>
       </c>
       <c r="D120">
-        <v>-19.6</v>
+        <v>-32.5</v>
       </c>
       <c r="E120">
-        <v>-23</v>
+        <v>-67</v>
       </c>
       <c r="F120">
-        <v>-32</v>
+        <v>-88</v>
       </c>
       <c r="G120">
         <v>-1.54</v>
@@ -5447,16 +5447,16 @@
         <v>129</v>
       </c>
       <c r="C121">
-        <v>-50.5</v>
+        <v>-55.7</v>
       </c>
       <c r="D121">
-        <v>-51.4</v>
+        <v>-55.3</v>
       </c>
       <c r="E121">
-        <v>-59.2</v>
+        <v>-77.2</v>
       </c>
       <c r="F121">
-        <v>-78.1</v>
+        <v>-73</v>
       </c>
       <c r="G121">
         <v>-1.11</v>
@@ -5479,16 +5479,16 @@
         <v>130</v>
       </c>
       <c r="C122">
-        <v>-26.9</v>
+        <v>-31.9</v>
       </c>
       <c r="D122">
-        <v>-37.8</v>
+        <v>-45.3</v>
       </c>
       <c r="E122">
-        <v>-36.1</v>
+        <v>-74.2</v>
       </c>
       <c r="F122">
-        <v>-49.3</v>
+        <v>-85.7</v>
       </c>
       <c r="G122">
         <v>-0.51</v>
@@ -5511,16 +5511,16 @@
         <v>131</v>
       </c>
       <c r="C123">
-        <v>-25.5</v>
+        <v>-29.5</v>
       </c>
       <c r="D123">
-        <v>-30.9</v>
+        <v>-39.8</v>
       </c>
       <c r="E123">
-        <v>-28.1</v>
+        <v>-72.5</v>
       </c>
       <c r="F123">
-        <v>-45.9</v>
+        <v>-83.1</v>
       </c>
       <c r="G123">
         <v>-1.06</v>
@@ -5543,16 +5543,16 @@
         <v>132</v>
       </c>
       <c r="C124">
-        <v>-19.4</v>
+        <v>-24.4</v>
       </c>
       <c r="D124">
-        <v>-23.7</v>
+        <v>-29.5</v>
       </c>
       <c r="E124">
-        <v>-12.8</v>
+        <v>-68.3</v>
       </c>
       <c r="F124">
-        <v>-36.8</v>
+        <v>-79.7</v>
       </c>
       <c r="G124">
         <v>-0.92</v>
@@ -5575,16 +5575,16 @@
         <v>133</v>
       </c>
       <c r="C125">
-        <v>-35.5</v>
+        <v>-39.3</v>
       </c>
       <c r="D125">
-        <v>-31.8</v>
+        <v>-43.6</v>
       </c>
       <c r="E125">
-        <v>-35.2</v>
+        <v>-76.1</v>
       </c>
       <c r="F125">
-        <v>-67.3</v>
+        <v>-78.1</v>
       </c>
       <c r="G125">
         <v>-0.88</v>
@@ -5607,16 +5607,16 @@
         <v>134</v>
       </c>
       <c r="C126">
-        <v>-28</v>
+        <v>-31.1</v>
       </c>
       <c r="D126">
-        <v>-26.6</v>
+        <v>-36.4</v>
       </c>
       <c r="E126">
-        <v>-21.6</v>
+        <v>-72.2</v>
       </c>
       <c r="F126">
-        <v>-58.4</v>
+        <v>-71.9</v>
       </c>
       <c r="G126">
         <v>-0.86</v>
@@ -5639,16 +5639,16 @@
         <v>135</v>
       </c>
       <c r="C127">
-        <v>-18.3</v>
+        <v>-21</v>
       </c>
       <c r="D127">
-        <v>-14.1</v>
+        <v>-22.9</v>
       </c>
       <c r="E127">
-        <v>-4.1</v>
+        <v>-64.6</v>
       </c>
       <c r="F127">
-        <v>-47.6</v>
+        <v>-59.7</v>
       </c>
       <c r="G127">
         <v>-0.79</v>
@@ -5671,16 +5671,16 @@
         <v>136</v>
       </c>
       <c r="C128">
-        <v>-19.3</v>
+        <v>-24.5</v>
       </c>
       <c r="D128">
-        <v>-18.1</v>
+        <v>-23.8</v>
       </c>
       <c r="E128">
-        <v>-2.7</v>
+        <v>-64.1</v>
       </c>
       <c r="F128">
-        <v>-31.7</v>
+        <v>-73.6</v>
       </c>
       <c r="G128">
         <v>-1.06</v>
@@ -5703,16 +5703,16 @@
         <v>137</v>
       </c>
       <c r="C129">
-        <v>-32.2</v>
+        <v>-38</v>
       </c>
       <c r="D129">
-        <v>-31.6</v>
+        <v>-42.3</v>
       </c>
       <c r="E129">
-        <v>-31.6</v>
+        <v>-74.6</v>
       </c>
       <c r="F129">
-        <v>-68.3</v>
+        <v>-71.7</v>
       </c>
       <c r="G129">
         <v>-0.89</v>
@@ -5735,16 +5735,16 @@
         <v>138</v>
       </c>
       <c r="C130">
-        <v>-35.8</v>
+        <v>-40.6</v>
       </c>
       <c r="D130">
-        <v>-35.3</v>
+        <v>-44.1</v>
       </c>
       <c r="E130">
-        <v>-37.1</v>
+        <v>-77.3</v>
       </c>
       <c r="F130">
-        <v>-76.1</v>
+        <v>-70.1</v>
       </c>
       <c r="G130">
         <v>-0.89</v>
@@ -5767,16 +5767,16 @@
         <v>139</v>
       </c>
       <c r="C131">
-        <v>-27.7</v>
+        <v>-32.2</v>
       </c>
       <c r="D131">
-        <v>-36.9</v>
+        <v>-43.5</v>
       </c>
       <c r="E131">
-        <v>-33.7</v>
+        <v>-76</v>
       </c>
       <c r="F131">
-        <v>-52.2</v>
+        <v>-86.2</v>
       </c>
       <c r="G131">
         <v>-0.5</v>
@@ -5799,16 +5799,16 @@
         <v>140</v>
       </c>
       <c r="C132">
-        <v>-22.5</v>
+        <v>-27.1</v>
       </c>
       <c r="D132">
-        <v>-21.2</v>
+        <v>-27.2</v>
       </c>
       <c r="E132">
-        <v>-7</v>
+        <v>-64.5</v>
       </c>
       <c r="F132">
-        <v>-29.4</v>
+        <v>-73.9</v>
       </c>
       <c r="G132">
         <v>-1.17</v>
@@ -5831,16 +5831,16 @@
         <v>141</v>
       </c>
       <c r="C133">
-        <v>-52</v>
+        <v>-55.6</v>
       </c>
       <c r="D133">
-        <v>-54.5</v>
+        <v>-56.9</v>
       </c>
       <c r="E133">
-        <v>-57.7</v>
+        <v>-71.6</v>
       </c>
       <c r="F133">
-        <v>-76.9</v>
+        <v>-64.8</v>
       </c>
       <c r="G133">
         <v>-1.15</v>
@@ -5863,16 +5863,16 @@
         <v>142</v>
       </c>
       <c r="C134">
-        <v>-47.4</v>
+        <v>-50.7</v>
       </c>
       <c r="D134">
-        <v>-45</v>
+        <v>-48.3</v>
       </c>
       <c r="E134">
-        <v>-55</v>
+        <v>-72.4</v>
       </c>
       <c r="F134">
-        <v>-79.9</v>
+        <v>-62.7</v>
       </c>
       <c r="G134">
         <v>-1.15</v>
@@ -5895,16 +5895,16 @@
         <v>143</v>
       </c>
       <c r="C135">
-        <v>-19</v>
+        <v>-23.9</v>
       </c>
       <c r="D135">
-        <v>-21.8</v>
+        <v>-28.1</v>
       </c>
       <c r="E135">
-        <v>-9.7</v>
+        <v>-64.9</v>
       </c>
       <c r="F135">
-        <v>-44</v>
+        <v>-66.6</v>
       </c>
       <c r="G135">
         <v>-0.86</v>
@@ -5927,16 +5927,16 @@
         <v>144</v>
       </c>
       <c r="C136">
-        <v>-29.1</v>
+        <v>-34.7</v>
       </c>
       <c r="D136">
-        <v>-25.5</v>
+        <v>-30.7</v>
       </c>
       <c r="E136">
-        <v>-8.4</v>
+        <v>-64.8</v>
       </c>
       <c r="F136">
-        <v>-43.4</v>
+        <v>-65</v>
       </c>
       <c r="G136">
         <v>-0.97</v>
@@ -5959,16 +5959,16 @@
         <v>145</v>
       </c>
       <c r="C137">
-        <v>-12.5</v>
+        <v>-14</v>
       </c>
       <c r="D137">
-        <v>0.2</v>
+        <v>-15.6</v>
       </c>
       <c r="E137">
-        <v>-3.2</v>
+        <v>-65.6</v>
       </c>
       <c r="F137">
-        <v>-48.5</v>
+        <v>-60</v>
       </c>
       <c r="G137">
         <v>-0.8</v>
@@ -5991,16 +5991,16 @@
         <v>146</v>
       </c>
       <c r="C138">
-        <v>-29.5</v>
+        <v>-33.9</v>
       </c>
       <c r="D138">
-        <v>-39.8</v>
+        <v>-46.1</v>
       </c>
       <c r="E138">
-        <v>-42.4</v>
+        <v>-75.8</v>
       </c>
       <c r="F138">
-        <v>-59.9</v>
+        <v>-81.1</v>
       </c>
       <c r="G138">
         <v>-1.98</v>
@@ -6023,16 +6023,16 @@
         <v>147</v>
       </c>
       <c r="C139">
-        <v>-41.1</v>
+        <v>-44</v>
       </c>
       <c r="D139">
-        <v>-46.8</v>
+        <v>-49.8</v>
       </c>
       <c r="E139">
-        <v>-42.1</v>
+        <v>-71.9</v>
       </c>
       <c r="F139">
-        <v>-65.2</v>
+        <v>-79.1</v>
       </c>
       <c r="G139">
         <v>-1.99</v>
@@ -6055,16 +6055,16 @@
         <v>148</v>
       </c>
       <c r="C140">
-        <v>-26.5</v>
+        <v>-30.2</v>
       </c>
       <c r="D140">
-        <v>-30.2</v>
+        <v>-34.6</v>
       </c>
       <c r="E140">
-        <v>-21.8</v>
+        <v>-67.3</v>
       </c>
       <c r="F140">
-        <v>-39.2</v>
+        <v>-78.2</v>
       </c>
       <c r="G140">
         <v>-1.19</v>
@@ -6087,16 +6087,16 @@
         <v>149</v>
       </c>
       <c r="C141">
-        <v>-25.1</v>
+        <v>-28.1</v>
       </c>
       <c r="D141">
-        <v>-27.6</v>
+        <v>-33.9</v>
       </c>
       <c r="E141">
-        <v>-25</v>
+        <v>-69.1</v>
       </c>
       <c r="F141">
-        <v>-41.2</v>
+        <v>-79.4</v>
       </c>
       <c r="G141">
         <v>-1.21</v>
@@ -6119,16 +6119,16 @@
         <v>150</v>
       </c>
       <c r="C142">
-        <v>-55.8</v>
+        <v>-61.3</v>
       </c>
       <c r="D142">
-        <v>-58.4</v>
+        <v>-62.7</v>
       </c>
       <c r="E142">
-        <v>-64.4</v>
+        <v>-79.5</v>
       </c>
       <c r="F142">
-        <v>-77.1</v>
+        <v>-78</v>
       </c>
       <c r="G142">
         <v>-1.09</v>
@@ -6151,16 +6151,16 @@
         <v>151</v>
       </c>
       <c r="C143">
-        <v>-34.4</v>
+        <v>-38.7</v>
       </c>
       <c r="D143">
-        <v>-44.3</v>
+        <v>-50.9</v>
       </c>
       <c r="E143">
-        <v>-45.6</v>
+        <v>-76.3</v>
       </c>
       <c r="F143">
-        <v>-57.4</v>
+        <v>-82.6</v>
       </c>
       <c r="G143">
         <v>-1.99</v>
@@ -6183,16 +6183,16 @@
         <v>152</v>
       </c>
       <c r="C144">
-        <v>-44.5</v>
+        <v>-47.3</v>
       </c>
       <c r="D144">
-        <v>-45.3</v>
+        <v>-49.8</v>
       </c>
       <c r="E144">
-        <v>-47.3</v>
+        <v>-75.9</v>
       </c>
       <c r="F144">
-        <v>-66.7</v>
+        <v>-76.3</v>
       </c>
       <c r="G144">
         <v>-0.62</v>
@@ -6215,16 +6215,16 @@
         <v>153</v>
       </c>
       <c r="C145">
-        <v>-36.6</v>
+        <v>-40.2</v>
       </c>
       <c r="D145">
-        <v>-42.1</v>
+        <v>-46.3</v>
       </c>
       <c r="E145">
-        <v>-38.1</v>
+        <v>-74.1</v>
       </c>
       <c r="F145">
-        <v>-60.4</v>
+        <v>-77</v>
       </c>
       <c r="G145">
         <v>-0.51</v>
@@ -6247,16 +6247,16 @@
         <v>154</v>
       </c>
       <c r="C146">
-        <v>-49.4</v>
+        <v>-56.1</v>
       </c>
       <c r="D146">
-        <v>-50.2</v>
+        <v>-55.6</v>
       </c>
       <c r="E146">
-        <v>-57.4</v>
+        <v>-76.2</v>
       </c>
       <c r="F146">
-        <v>-70.2</v>
+        <v>-76.4</v>
       </c>
       <c r="G146">
         <v>-0.95</v>
@@ -6279,16 +6279,16 @@
         <v>155</v>
       </c>
       <c r="C147">
-        <v>-34.1</v>
+        <v>-38.4</v>
       </c>
       <c r="D147">
-        <v>-40.5</v>
+        <v>-46.2</v>
       </c>
       <c r="E147">
-        <v>-37.1</v>
+        <v>-76.1</v>
       </c>
       <c r="F147">
-        <v>-54.4</v>
+        <v>-86.1</v>
       </c>
       <c r="G147">
         <v>-0.5</v>
@@ -6311,16 +6311,16 @@
         <v>156</v>
       </c>
       <c r="C148">
-        <v>-27.3</v>
+        <v>-33.7</v>
       </c>
       <c r="D148">
-        <v>-33</v>
+        <v>-53.8</v>
       </c>
       <c r="E148">
-        <v>-40.7</v>
+        <v>-66.6</v>
       </c>
       <c r="F148">
-        <v>-37.9</v>
+        <v>-85.4</v>
       </c>
       <c r="G148">
         <v>-1.3</v>
@@ -6343,16 +6343,16 @@
         <v>157</v>
       </c>
       <c r="C149">
-        <v>-49.6</v>
+        <v>-52.2</v>
       </c>
       <c r="D149">
-        <v>-41.9</v>
+        <v>-45.7</v>
       </c>
       <c r="E149">
-        <v>-52.1</v>
+        <v>-71.2</v>
       </c>
       <c r="F149">
-        <v>-75.6</v>
+        <v>-63.2</v>
       </c>
       <c r="G149">
         <v>-1.15</v>
@@ -6375,16 +6375,16 @@
         <v>158</v>
       </c>
       <c r="C150">
-        <v>-7.5</v>
+        <v>-10.2</v>
       </c>
       <c r="D150">
-        <v>1.1</v>
+        <v>-6.2</v>
       </c>
       <c r="E150">
-        <v>-1.3</v>
+        <v>-56.2</v>
       </c>
       <c r="F150">
-        <v>-27.1</v>
+        <v>-63.5</v>
       </c>
       <c r="G150">
         <v>-0.8</v>
@@ -6407,16 +6407,16 @@
         <v>159</v>
       </c>
       <c r="C151">
-        <v>-13.4</v>
+        <v>-17.1</v>
       </c>
       <c r="D151">
-        <v>-25</v>
+        <v>-29.8</v>
       </c>
       <c r="E151">
-        <v>-30.6</v>
+        <v>-71.5</v>
       </c>
       <c r="F151">
-        <v>-48.3</v>
+        <v>-75.3</v>
       </c>
       <c r="G151">
         <v>-0.56</v>
@@ -6439,16 +6439,16 @@
         <v>160</v>
       </c>
       <c r="C152">
-        <v>-8.3</v>
+        <v>-13.2</v>
       </c>
       <c r="D152">
-        <v>-19</v>
+        <v>-27.9</v>
       </c>
       <c r="E152">
-        <v>-23.1</v>
+        <v>-67.9</v>
       </c>
       <c r="F152">
-        <v>-38.4</v>
+        <v>-78.5</v>
       </c>
       <c r="G152">
         <v>-0.54</v>
@@ -6471,16 +6471,16 @@
         <v>161</v>
       </c>
       <c r="C153">
-        <v>-15.2</v>
+        <v>-20.3</v>
       </c>
       <c r="D153">
-        <v>-23.2</v>
+        <v>-34.1</v>
       </c>
       <c r="E153">
-        <v>-22.9</v>
+        <v>-70.2</v>
       </c>
       <c r="F153">
-        <v>-38.7</v>
+        <v>-86.6</v>
       </c>
       <c r="G153">
         <v>-0.51</v>
@@ -6503,16 +6503,16 @@
         <v>162</v>
       </c>
       <c r="C154">
-        <v>-0.4</v>
+        <v>-6.9</v>
       </c>
       <c r="D154">
-        <v>-11.2</v>
+        <v>-30.6</v>
       </c>
       <c r="E154">
-        <v>-26.6</v>
+        <v>-68.3</v>
       </c>
       <c r="F154">
-        <v>-42</v>
+        <v>-82.3</v>
       </c>
       <c r="G154">
         <v>-1.87</v>
@@ -6535,16 +6535,16 @@
         <v>163</v>
       </c>
       <c r="C155">
-        <v>-18</v>
+        <v>-23.1</v>
       </c>
       <c r="D155">
-        <v>-35.1</v>
+        <v>-45.5</v>
       </c>
       <c r="E155">
-        <v>-35.9</v>
+        <v>-72.3</v>
       </c>
       <c r="F155">
-        <v>-55.2</v>
+        <v>-78.9</v>
       </c>
       <c r="G155">
         <v>-1.08</v>
@@ -6567,16 +6567,16 @@
         <v>164</v>
       </c>
       <c r="C156">
-        <v>-27.5</v>
+        <v>-34.8</v>
       </c>
       <c r="D156">
-        <v>-34.9</v>
+        <v>-52.8</v>
       </c>
       <c r="E156">
-        <v>-37.4</v>
+        <v>-71.9</v>
       </c>
       <c r="F156">
-        <v>-51.7</v>
+        <v>-82.3</v>
       </c>
       <c r="G156">
         <v>-1.22</v>
@@ -6599,16 +6599,16 @@
         <v>165</v>
       </c>
       <c r="C157">
-        <v>-28.1</v>
+        <v>-33</v>
       </c>
       <c r="D157">
-        <v>-26.5</v>
+        <v>-48.1</v>
       </c>
       <c r="E157">
-        <v>-46.2</v>
+        <v>-75.1</v>
       </c>
       <c r="F157">
-        <v>-65</v>
+        <v>-88</v>
       </c>
       <c r="G157">
         <v>-1.2</v>
@@ -6631,16 +6631,16 @@
         <v>166</v>
       </c>
       <c r="C158">
-        <v>-24</v>
+        <v>-29.3</v>
       </c>
       <c r="D158">
-        <v>-21.9</v>
+        <v>-42.8</v>
       </c>
       <c r="E158">
-        <v>-41.1</v>
+        <v>-68.9</v>
       </c>
       <c r="F158">
-        <v>-57.7</v>
+        <v>-85</v>
       </c>
       <c r="G158">
         <v>-0.92</v>
@@ -6663,16 +6663,16 @@
         <v>167</v>
       </c>
       <c r="C159">
-        <v>-15.5</v>
+        <v>-23.7</v>
       </c>
       <c r="D159">
-        <v>-8.1</v>
+        <v>-32.5</v>
       </c>
       <c r="E159">
-        <v>-52.6</v>
+        <v>-74.6</v>
       </c>
       <c r="F159">
-        <v>-80.3</v>
+        <v>-68.5</v>
       </c>
       <c r="G159">
         <v>-1.7</v>
@@ -6695,16 +6695,16 @@
         <v>168</v>
       </c>
       <c r="C160">
-        <v>-19.3</v>
+        <v>-29.1</v>
       </c>
       <c r="D160">
-        <v>-7.1</v>
+        <v>-22</v>
       </c>
       <c r="E160">
-        <v>-56.4</v>
+        <v>-75.7</v>
       </c>
       <c r="F160">
-        <v>-84.2</v>
+        <v>-68</v>
       </c>
       <c r="G160">
         <v>-2.33</v>
@@ -6727,16 +6727,16 @@
         <v>169</v>
       </c>
       <c r="C161">
-        <v>-18.4</v>
+        <v>-28.4</v>
       </c>
       <c r="D161">
-        <v>-15.4</v>
+        <v>-27.7</v>
       </c>
       <c r="E161">
-        <v>-57.7</v>
+        <v>-75.4</v>
       </c>
       <c r="F161">
-        <v>-80.9</v>
+        <v>-68.2</v>
       </c>
       <c r="G161">
         <v>-2.34</v>
@@ -6759,16 +6759,16 @@
         <v>170</v>
       </c>
       <c r="C162">
-        <v>-13</v>
+        <v>-21.6</v>
       </c>
       <c r="D162">
-        <v>-7</v>
+        <v>-32.3</v>
       </c>
       <c r="E162">
-        <v>-54.5</v>
+        <v>-79</v>
       </c>
       <c r="F162">
-        <v>-76.1</v>
+        <v>-73.2</v>
       </c>
       <c r="G162">
         <v>-1.38</v>
@@ -6791,16 +6791,16 @@
         <v>171</v>
       </c>
       <c r="C163">
-        <v>-7.2</v>
+        <v>-15.8</v>
       </c>
       <c r="D163">
-        <v>-3.2</v>
+        <v>-28.4</v>
       </c>
       <c r="E163">
-        <v>-46</v>
+        <v>-74.8</v>
       </c>
       <c r="F163">
-        <v>-72.9</v>
+        <v>-68.8</v>
       </c>
       <c r="G163">
         <v>-1.27</v>
@@ -6823,16 +6823,16 @@
         <v>172</v>
       </c>
       <c r="C164">
-        <v>-16.2</v>
+        <v>-27.2</v>
       </c>
       <c r="D164">
-        <v>-8</v>
+        <v>-22.2</v>
       </c>
       <c r="E164">
-        <v>-55.1</v>
+        <v>-70.8</v>
       </c>
       <c r="F164">
-        <v>-83.4</v>
+        <v>-63.5</v>
       </c>
       <c r="G164">
         <v>-2.23</v>
@@ -6855,16 +6855,16 @@
         <v>173</v>
       </c>
       <c r="C165">
-        <v>-22</v>
+        <v>-30.8</v>
       </c>
       <c r="D165">
-        <v>-10.4</v>
+        <v>-25.9</v>
       </c>
       <c r="E165">
-        <v>-50.1</v>
+        <v>-68</v>
       </c>
       <c r="F165">
-        <v>-77.8</v>
+        <v>-67.5</v>
       </c>
       <c r="G165">
         <v>-2.16</v>
@@ -6887,16 +6887,16 @@
         <v>174</v>
       </c>
       <c r="C166">
-        <v>-27.9</v>
+        <v>-35.7</v>
       </c>
       <c r="D166">
-        <v>-22.9</v>
+        <v>-36.5</v>
       </c>
       <c r="E166">
-        <v>-59.9</v>
+        <v>-78.2</v>
       </c>
       <c r="F166">
-        <v>-80.6</v>
+        <v>-76.5</v>
       </c>
       <c r="G166">
         <v>-2.36</v>
@@ -6919,16 +6919,16 @@
         <v>175</v>
       </c>
       <c r="C167">
-        <v>-58.1</v>
+        <v>-57.6</v>
       </c>
       <c r="D167">
-        <v>-47.8</v>
+        <v>-40.8</v>
       </c>
       <c r="E167">
-        <v>-53.8</v>
+        <v>-58.7</v>
       </c>
       <c r="F167">
-        <v>-57.7</v>
+        <v>-50</v>
       </c>
       <c r="G167">
         <v>-0.03</v>
@@ -6951,16 +6951,16 @@
         <v>176</v>
       </c>
       <c r="C168">
-        <v>-56.3</v>
+        <v>-57.1</v>
       </c>
       <c r="D168">
-        <v>-48</v>
+        <v>-40.9</v>
       </c>
       <c r="E168">
-        <v>-56.1</v>
+        <v>-61.7</v>
       </c>
       <c r="F168">
-        <v>-65.1</v>
+        <v>-46.2</v>
       </c>
       <c r="G168">
         <v>-0.63</v>
@@ -6983,16 +6983,16 @@
         <v>177</v>
       </c>
       <c r="C169">
-        <v>-59.8</v>
+        <v>-60.2</v>
       </c>
       <c r="D169">
-        <v>-49.6</v>
+        <v>-43.2</v>
       </c>
       <c r="E169">
-        <v>-54.1</v>
+        <v>-61.4</v>
       </c>
       <c r="F169">
-        <v>-58.9</v>
+        <v>-49.9</v>
       </c>
       <c r="G169">
         <v>-0.26</v>
@@ -7015,16 +7015,16 @@
         <v>178</v>
       </c>
       <c r="C170">
-        <v>-23</v>
+        <v>-29.9</v>
       </c>
       <c r="D170">
-        <v>-19</v>
+        <v>-37.7</v>
       </c>
       <c r="E170">
-        <v>-52.2</v>
+        <v>-71.9</v>
       </c>
       <c r="F170">
-        <v>-73.2</v>
+        <v>-65.3</v>
       </c>
       <c r="G170">
         <v>-1.56</v>
@@ -7047,16 +7047,16 @@
         <v>179</v>
       </c>
       <c r="C171">
-        <v>-18.7</v>
+        <v>-25.2</v>
       </c>
       <c r="D171">
-        <v>-14.2</v>
+        <v>-34.5</v>
       </c>
       <c r="E171">
-        <v>-44.9</v>
+        <v>-66.8</v>
       </c>
       <c r="F171">
-        <v>-66.4</v>
+        <v>-55.6</v>
       </c>
       <c r="G171">
         <v>-1.23</v>
@@ -7079,16 +7079,16 @@
         <v>180</v>
       </c>
       <c r="C172">
-        <v>-23.7</v>
+        <v>-30.1</v>
       </c>
       <c r="D172">
-        <v>-19.7</v>
+        <v>-39.2</v>
       </c>
       <c r="E172">
-        <v>-44.2</v>
+        <v>-64.4</v>
       </c>
       <c r="F172">
-        <v>-63.1</v>
+        <v>-61.3</v>
       </c>
       <c r="G172">
         <v>-1.29</v>
@@ -7111,16 +7111,16 @@
         <v>181</v>
       </c>
       <c r="C173">
-        <v>-40.7</v>
+        <v>-43.6</v>
       </c>
       <c r="D173">
-        <v>-31.5</v>
+        <v>-29.1</v>
       </c>
       <c r="E173">
-        <v>-39.8</v>
+        <v>-65.9</v>
       </c>
       <c r="F173">
-        <v>-69.1</v>
+        <v>-53.8</v>
       </c>
       <c r="G173">
         <v>-1.36</v>
@@ -7143,16 +7143,16 @@
         <v>182</v>
       </c>
       <c r="C174">
-        <v>-41.4</v>
+        <v>-44.6</v>
       </c>
       <c r="D174">
-        <v>-31.6</v>
+        <v>-29.1</v>
       </c>
       <c r="E174">
-        <v>-39</v>
+        <v>-64</v>
       </c>
       <c r="F174">
-        <v>-67.2</v>
+        <v>-50.9</v>
       </c>
       <c r="G174">
         <v>-1.5</v>
@@ -7175,16 +7175,16 @@
         <v>183</v>
       </c>
       <c r="C175">
-        <v>-39.7</v>
+        <v>-47</v>
       </c>
       <c r="D175">
-        <v>-42.1</v>
+        <v>-49.8</v>
       </c>
       <c r="E175">
-        <v>-62.3</v>
+        <v>-75</v>
       </c>
       <c r="F175">
-        <v>-78.6</v>
+        <v>-77.5</v>
       </c>
       <c r="G175">
         <v>-1.49</v>
@@ -7207,16 +7207,16 @@
         <v>184</v>
       </c>
       <c r="C176">
-        <v>-30.3</v>
+        <v>-37.1</v>
       </c>
       <c r="D176">
-        <v>-24.2</v>
+        <v>-38.9</v>
       </c>
       <c r="E176">
-        <v>-56</v>
+        <v>-73.9</v>
       </c>
       <c r="F176">
-        <v>-77.4</v>
+        <v>-75.1</v>
       </c>
       <c r="G176">
         <v>-2.24</v>
@@ -7239,16 +7239,16 @@
         <v>185</v>
       </c>
       <c r="C177">
-        <v>-30.9</v>
+        <v>-38.3</v>
       </c>
       <c r="D177">
-        <v>-27.8</v>
+        <v>-40</v>
       </c>
       <c r="E177">
-        <v>-59.6</v>
+        <v>-72.7</v>
       </c>
       <c r="F177">
-        <v>-77.7</v>
+        <v>-70.6</v>
       </c>
       <c r="G177">
         <v>-2.18</v>
@@ -7271,16 +7271,16 @@
         <v>186</v>
       </c>
       <c r="C178">
-        <v>-50.5</v>
+        <v>-52.4</v>
       </c>
       <c r="D178">
-        <v>-47.7</v>
+        <v>-45.9</v>
       </c>
       <c r="E178">
-        <v>-55</v>
+        <v>-64.9</v>
       </c>
       <c r="F178">
-        <v>-73.4</v>
+        <v>-39.1</v>
       </c>
       <c r="G178">
         <v>-1.63</v>
@@ -7303,16 +7303,16 @@
         <v>187</v>
       </c>
       <c r="C179">
-        <v>-46.4</v>
+        <v>-47.6</v>
       </c>
       <c r="D179">
-        <v>-39.8</v>
+        <v>-32.9</v>
       </c>
       <c r="E179">
-        <v>-47.6</v>
+        <v>-57.8</v>
       </c>
       <c r="F179">
-        <v>-62.6</v>
+        <v>-37.6</v>
       </c>
       <c r="G179">
         <v>-0.7</v>
@@ -7335,16 +7335,16 @@
         <v>188</v>
       </c>
       <c r="C180">
-        <v>-52.7</v>
+        <v>-54.7</v>
       </c>
       <c r="D180">
-        <v>-43.8</v>
+        <v>-38.7</v>
       </c>
       <c r="E180">
-        <v>-50.1</v>
+        <v>-63.9</v>
       </c>
       <c r="F180">
-        <v>-65.7</v>
+        <v>-52.4</v>
       </c>
       <c r="G180">
         <v>-0.96</v>
@@ -7367,16 +7367,16 @@
         <v>189</v>
       </c>
       <c r="C181">
-        <v>-24.7</v>
+        <v>-31.5</v>
       </c>
       <c r="D181">
-        <v>-25.3</v>
+        <v>-43.5</v>
       </c>
       <c r="E181">
-        <v>-39.2</v>
+        <v>-68.5</v>
       </c>
       <c r="F181">
-        <v>-65.6</v>
+        <v>-73.4</v>
       </c>
       <c r="G181">
         <v>-1.06</v>
@@ -7399,16 +7399,16 @@
         <v>190</v>
       </c>
       <c r="C182">
-        <v>-20.9</v>
+        <v>-28</v>
       </c>
       <c r="D182">
-        <v>-24.7</v>
+        <v>-43</v>
       </c>
       <c r="E182">
-        <v>-37.3</v>
+        <v>-71.7</v>
       </c>
       <c r="F182">
-        <v>-71.1</v>
+        <v>-76.2</v>
       </c>
       <c r="G182">
         <v>-1.11</v>
@@ -7431,16 +7431,16 @@
         <v>191</v>
       </c>
       <c r="C183">
-        <v>-28.8</v>
+        <v>-36.1</v>
       </c>
       <c r="D183">
-        <v>-31.7</v>
+        <v>-50.8</v>
       </c>
       <c r="E183">
-        <v>-46.8</v>
+        <v>-79.7</v>
       </c>
       <c r="F183">
-        <v>-79.9</v>
+        <v>-80</v>
       </c>
       <c r="G183">
         <v>-1.64</v>
@@ -7463,16 +7463,16 @@
         <v>192</v>
       </c>
       <c r="C184">
-        <v>-16</v>
+        <v>-21.9</v>
       </c>
       <c r="D184">
-        <v>-14.4</v>
+        <v>-37.5</v>
       </c>
       <c r="E184">
-        <v>-26</v>
+        <v>-71.1</v>
       </c>
       <c r="F184">
-        <v>-68.9</v>
+        <v>-79.9</v>
       </c>
       <c r="G184">
         <v>-1.6</v>
@@ -7495,16 +7495,16 @@
         <v>193</v>
       </c>
       <c r="C185">
-        <v>-18.4</v>
+        <v>-26.5</v>
       </c>
       <c r="D185">
-        <v>-18.6</v>
+        <v>-38.3</v>
       </c>
       <c r="E185">
-        <v>-25.2</v>
+        <v>-75.8</v>
       </c>
       <c r="F185">
-        <v>-76</v>
+        <v>-80.2</v>
       </c>
       <c r="G185">
         <v>-1.69</v>
@@ -7527,16 +7527,16 @@
         <v>194</v>
       </c>
       <c r="C186">
-        <v>-48.3</v>
+        <v>-50.3</v>
       </c>
       <c r="D186">
-        <v>-36.7</v>
+        <v>-31.4</v>
       </c>
       <c r="E186">
-        <v>-31.5</v>
+        <v>-53.2</v>
       </c>
       <c r="F186">
-        <v>-42.7</v>
+        <v>-41.8</v>
       </c>
       <c r="G186">
         <v>-0.77</v>
@@ -7559,16 +7559,16 @@
         <v>195</v>
       </c>
       <c r="C187">
-        <v>-48.6</v>
+        <v>-53.2</v>
       </c>
       <c r="D187">
-        <v>-46</v>
+        <v>-42.5</v>
       </c>
       <c r="E187">
-        <v>-35.5</v>
+        <v>-58.7</v>
       </c>
       <c r="F187">
-        <v>-55.3</v>
+        <v>-46.9</v>
       </c>
       <c r="G187">
         <v>-0.74</v>
@@ -7591,16 +7591,16 @@
         <v>196</v>
       </c>
       <c r="C188">
-        <v>-35</v>
+        <v>-40.2</v>
       </c>
       <c r="D188">
-        <v>-25.4</v>
+        <v>-40.7</v>
       </c>
       <c r="E188">
-        <v>-48.3</v>
+        <v>-72.2</v>
       </c>
       <c r="F188">
-        <v>-75.1</v>
+        <v>-73.1</v>
       </c>
       <c r="G188">
         <v>-2.38</v>
@@ -7623,16 +7623,16 @@
         <v>197</v>
       </c>
       <c r="C189">
-        <v>-36</v>
+        <v>-41.9</v>
       </c>
       <c r="D189">
-        <v>-29.7</v>
+        <v>-41.4</v>
       </c>
       <c r="E189">
-        <v>-41.3</v>
+        <v>-73.5</v>
       </c>
       <c r="F189">
-        <v>-74.3</v>
+        <v>-74.7</v>
       </c>
       <c r="G189">
         <v>-2.06</v>
@@ -7655,16 +7655,16 @@
         <v>198</v>
       </c>
       <c r="C190">
-        <v>-19</v>
+        <v>-25.3</v>
       </c>
       <c r="D190">
-        <v>-26</v>
+        <v>-33.5</v>
       </c>
       <c r="E190">
-        <v>-43.5</v>
+        <v>-72.1</v>
       </c>
       <c r="F190">
-        <v>-75.2</v>
+        <v>-62.9</v>
       </c>
       <c r="G190">
         <v>-1.28</v>
@@ -7687,16 +7687,16 @@
         <v>199</v>
       </c>
       <c r="C191">
-        <v>-23.3</v>
+        <v>-28.5</v>
       </c>
       <c r="D191">
-        <v>-33.7</v>
+        <v>-38</v>
       </c>
       <c r="E191">
-        <v>-37.6</v>
+        <v>-74.8</v>
       </c>
       <c r="F191">
-        <v>-70.5</v>
+        <v>-62.9</v>
       </c>
       <c r="G191">
         <v>-1.04</v>
@@ -7719,16 +7719,16 @@
         <v>200</v>
       </c>
       <c r="C192">
-        <v>-47.2</v>
+        <v>-55.1</v>
       </c>
       <c r="D192">
-        <v>-44.9</v>
+        <v>-54</v>
       </c>
       <c r="E192">
-        <v>-55.3</v>
+        <v>-79.3</v>
       </c>
       <c r="F192">
-        <v>-67.8</v>
+        <v>-89.9</v>
       </c>
       <c r="G192">
         <v>-1.05</v>
@@ -7751,16 +7751,16 @@
         <v>201</v>
       </c>
       <c r="C193">
-        <v>-55.1</v>
+        <v>-60.5</v>
       </c>
       <c r="D193">
-        <v>-54.1</v>
+        <v>-59.6</v>
       </c>
       <c r="E193">
-        <v>-59.3</v>
+        <v>-78</v>
       </c>
       <c r="F193">
-        <v>-72.1</v>
+        <v>-83</v>
       </c>
       <c r="G193">
         <v>-1.09</v>
@@ -7783,16 +7783,16 @@
         <v>202</v>
       </c>
       <c r="C194">
-        <v>-62.6</v>
+        <v>-65.1</v>
       </c>
       <c r="D194">
-        <v>-60.1</v>
+        <v>-61.2</v>
       </c>
       <c r="E194">
-        <v>-63.6</v>
+        <v>-78</v>
       </c>
       <c r="F194">
-        <v>-78.1</v>
+        <v>-75</v>
       </c>
       <c r="G194">
         <v>-0.94</v>
@@ -7815,16 +7815,16 @@
         <v>203</v>
       </c>
       <c r="C195">
-        <v>-59.7</v>
+        <v>-62.2</v>
       </c>
       <c r="D195">
-        <v>-54.1</v>
+        <v>-55.8</v>
       </c>
       <c r="E195">
-        <v>-60.4</v>
+        <v>-74.2</v>
       </c>
       <c r="F195">
-        <v>-73</v>
+        <v>-71.5</v>
       </c>
       <c r="G195">
         <v>-1.06</v>
@@ -7847,16 +7847,16 @@
         <v>204</v>
       </c>
       <c r="C196">
-        <v>-65.4</v>
+        <v>-67</v>
       </c>
       <c r="D196">
-        <v>-64.3</v>
+        <v>-64.4</v>
       </c>
       <c r="E196">
-        <v>-66.2</v>
+        <v>-79.4</v>
       </c>
       <c r="F196">
-        <v>-81.4</v>
+        <v>-73</v>
       </c>
       <c r="G196">
         <v>-0.9</v>
@@ -7879,16 +7879,16 @@
         <v>205</v>
       </c>
       <c r="C197">
-        <v>-53.9</v>
+        <v>-59.4</v>
       </c>
       <c r="D197">
-        <v>-46.9</v>
+        <v>-50.5</v>
       </c>
       <c r="E197">
-        <v>-55.5</v>
+        <v>-73.7</v>
       </c>
       <c r="F197">
-        <v>-68.4</v>
+        <v>-70.1</v>
       </c>
       <c r="G197">
         <v>-0.6</v>
@@ -7911,16 +7911,16 @@
         <v>206</v>
       </c>
       <c r="C198">
-        <v>-46.3</v>
+        <v>-54.7</v>
       </c>
       <c r="D198">
-        <v>-42.8</v>
+        <v>-48.5</v>
       </c>
       <c r="E198">
-        <v>-51.3</v>
+        <v>-73.2</v>
       </c>
       <c r="F198">
-        <v>-61</v>
+        <v>-76.1</v>
       </c>
       <c r="G198">
         <v>-0.57</v>
@@ -7943,16 +7943,16 @@
         <v>207</v>
       </c>
       <c r="C199">
-        <v>-6.4</v>
+        <v>-13.3</v>
       </c>
       <c r="D199">
-        <v>-17</v>
+        <v>-33.5</v>
       </c>
       <c r="E199">
-        <v>-28.6</v>
+        <v>-70.4</v>
       </c>
       <c r="F199">
-        <v>-44.1</v>
+        <v>-84.7</v>
       </c>
       <c r="G199">
         <v>-1.9</v>
@@ -7975,16 +7975,16 @@
         <v>208</v>
       </c>
       <c r="C200">
-        <v>-46.3</v>
+        <v>-50.7</v>
       </c>
       <c r="D200">
-        <v>-40.6</v>
+        <v>-44.7</v>
       </c>
       <c r="E200">
-        <v>-51.8</v>
+        <v>-72.2</v>
       </c>
       <c r="F200">
-        <v>-76.7</v>
+        <v>-67.3</v>
       </c>
       <c r="G200">
         <v>-1.14</v>
@@ -8007,16 +8007,16 @@
         <v>209</v>
       </c>
       <c r="C201">
-        <v>-12.6</v>
+        <v>-16.1</v>
       </c>
       <c r="D201">
-        <v>0.7</v>
+        <v>-7.7</v>
       </c>
       <c r="E201">
-        <v>6.5</v>
+        <v>-54.2</v>
       </c>
       <c r="F201">
-        <v>-23.2</v>
+        <v>-62.2</v>
       </c>
       <c r="G201">
         <v>-0.84</v>
@@ -8039,16 +8039,16 @@
         <v>210</v>
       </c>
       <c r="C202">
-        <v>-8.7</v>
+        <v>-11.3</v>
       </c>
       <c r="D202">
-        <v>9.8</v>
+        <v>-2.7</v>
       </c>
       <c r="E202">
-        <v>6</v>
+        <v>-54.1</v>
       </c>
       <c r="F202">
-        <v>-27.7</v>
+        <v>-64</v>
       </c>
       <c r="G202">
         <v>-0.83</v>
@@ -8071,16 +8071,16 @@
         <v>211</v>
       </c>
       <c r="C203">
-        <v>-22.9</v>
+        <v>-27.9</v>
       </c>
       <c r="D203">
-        <v>-15.4</v>
+        <v>-19</v>
       </c>
       <c r="E203">
-        <v>2.9</v>
+        <v>-58.4</v>
       </c>
       <c r="F203">
-        <v>-25.3</v>
+        <v>-62.4</v>
       </c>
       <c r="G203">
         <v>-0.89</v>
@@ -8103,16 +8103,16 @@
         <v>212</v>
       </c>
       <c r="C204">
-        <v>-9.8</v>
+        <v>-14.1</v>
       </c>
       <c r="D204">
-        <v>-13.8</v>
+        <v>-17.2</v>
       </c>
       <c r="E204">
-        <v>-6.9</v>
+        <v>-62</v>
       </c>
       <c r="F204">
-        <v>-30.7</v>
+        <v>-68.2</v>
       </c>
       <c r="G204">
         <v>-0.73</v>
@@ -8135,16 +8135,16 @@
         <v>213</v>
       </c>
       <c r="C205">
-        <v>-6.3</v>
+        <v>-8.9</v>
       </c>
       <c r="D205">
-        <v>-3.6</v>
+        <v>-9</v>
       </c>
       <c r="E205">
-        <v>-9.5</v>
+        <v>-60.2</v>
       </c>
       <c r="F205">
-        <v>-32.5</v>
+        <v>-65.5</v>
       </c>
       <c r="G205">
         <v>-0.74</v>
@@ -8167,16 +8167,16 @@
         <v>214</v>
       </c>
       <c r="C206">
-        <v>-2.8</v>
+        <v>-5.1</v>
       </c>
       <c r="D206">
-        <v>-6</v>
+        <v>-10.6</v>
       </c>
       <c r="E206">
-        <v>-14.6</v>
+        <v>-61.7</v>
       </c>
       <c r="F206">
-        <v>-34.7</v>
+        <v>-65.4</v>
       </c>
       <c r="G206">
         <v>-0.7</v>
@@ -8199,16 +8199,16 @@
         <v>215</v>
       </c>
       <c r="C207">
-        <v>-43.5</v>
+        <v>-49.1</v>
       </c>
       <c r="D207">
-        <v>-47.6</v>
+        <v>-55.7</v>
       </c>
       <c r="E207">
-        <v>-68.2</v>
+        <v>-79.6</v>
       </c>
       <c r="F207">
-        <v>-80.5</v>
+        <v>-77.3</v>
       </c>
       <c r="G207">
         <v>-2.19</v>
@@ -8231,16 +8231,16 @@
         <v>216</v>
       </c>
       <c r="C208">
-        <v>-48.4</v>
+        <v>-55</v>
       </c>
       <c r="D208">
-        <v>-40.6</v>
+        <v>-47.7</v>
       </c>
       <c r="E208">
-        <v>-52.1</v>
+        <v>-74.2</v>
       </c>
       <c r="F208">
-        <v>-66.4</v>
+        <v>-80.4</v>
       </c>
       <c r="G208">
         <v>-1.44</v>
@@ -8263,16 +8263,16 @@
         <v>217</v>
       </c>
       <c r="C209">
-        <v>-49</v>
+        <v>-55.7</v>
       </c>
       <c r="D209">
-        <v>-42.5</v>
+        <v>-50.8</v>
       </c>
       <c r="E209">
-        <v>-55</v>
+        <v>-76.4</v>
       </c>
       <c r="F209">
-        <v>-70.1</v>
+        <v>-85.2</v>
       </c>
       <c r="G209">
         <v>-1.35</v>
@@ -8295,16 +8295,16 @@
         <v>218</v>
       </c>
       <c r="C210">
-        <v>-38.4</v>
+        <v>-41.7</v>
       </c>
       <c r="D210">
-        <v>-40.4</v>
+        <v>-44.2</v>
       </c>
       <c r="E210">
-        <v>-48</v>
+        <v>-76</v>
       </c>
       <c r="F210">
-        <v>-77.6</v>
+        <v>-63.2</v>
       </c>
       <c r="G210">
         <v>-0.82</v>
@@ -8327,16 +8327,16 @@
         <v>219</v>
       </c>
       <c r="C211">
-        <v>-46.1</v>
+        <v>-50.1</v>
       </c>
       <c r="D211">
-        <v>-46.2</v>
+        <v>-50</v>
       </c>
       <c r="E211">
-        <v>-55.4</v>
+        <v>-81</v>
       </c>
       <c r="F211">
-        <v>-82.4</v>
+        <v>-70.8</v>
       </c>
       <c r="G211">
         <v>-1.11</v>
@@ -8359,16 +8359,16 @@
         <v>220</v>
       </c>
       <c r="C212">
-        <v>-31.8</v>
+        <v>-37</v>
       </c>
       <c r="D212">
-        <v>-40.6</v>
+        <v>-40.2</v>
       </c>
       <c r="E212">
-        <v>-27.7</v>
+        <v>-70.3</v>
       </c>
       <c r="F212">
-        <v>-54.6</v>
+        <v>-67.4</v>
       </c>
       <c r="G212">
         <v>-1.1</v>
@@ -8391,16 +8391,16 @@
         <v>221</v>
       </c>
       <c r="C213">
-        <v>-45.9</v>
+        <v>-48.7</v>
       </c>
       <c r="D213">
-        <v>-47.6</v>
+        <v>-51.7</v>
       </c>
       <c r="E213">
-        <v>-53.9</v>
+        <v>-77.6</v>
       </c>
       <c r="F213">
-        <v>-73.2</v>
+        <v>-73.1</v>
       </c>
       <c r="G213">
         <v>-0.7</v>
@@ -8423,16 +8423,16 @@
         <v>222</v>
       </c>
       <c r="C214">
-        <v>-41.7</v>
+        <v>-44.7</v>
       </c>
       <c r="D214">
-        <v>-42.4</v>
+        <v>-42.1</v>
       </c>
       <c r="E214">
-        <v>-55.7</v>
+        <v>-65.6</v>
       </c>
       <c r="F214">
-        <v>-74.6</v>
+        <v>-41.1</v>
       </c>
       <c r="G214">
         <v>-1.86</v>
@@ -8455,16 +8455,16 @@
         <v>223</v>
       </c>
       <c r="C215">
-        <v>-43.9</v>
+        <v>-49.7</v>
       </c>
       <c r="D215">
-        <v>-37.7</v>
+        <v>-43.3</v>
       </c>
       <c r="E215">
-        <v>-46.1</v>
+        <v>-80.2</v>
       </c>
       <c r="F215">
-        <v>-81</v>
+        <v>-66.6</v>
       </c>
       <c r="G215">
         <v>-1.88</v>
@@ -8487,16 +8487,16 @@
         <v>224</v>
       </c>
       <c r="C216">
-        <v>-48</v>
+        <v>-54.1</v>
       </c>
       <c r="D216">
-        <v>-42.4</v>
+        <v>-46</v>
       </c>
       <c r="E216">
-        <v>-45</v>
+        <v>-65.5</v>
       </c>
       <c r="F216">
-        <v>-60.2</v>
+        <v>-70.8</v>
       </c>
       <c r="G216">
         <v>-1.32</v>
@@ -8519,16 +8519,16 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>-29.4</v>
+        <v>-33.6</v>
       </c>
       <c r="D217">
-        <v>-36.5</v>
+        <v>-43</v>
       </c>
       <c r="E217">
-        <v>-33.3</v>
+        <v>-74.7</v>
       </c>
       <c r="F217">
-        <v>-50.8</v>
+        <v>-84.8</v>
       </c>
       <c r="G217">
         <v>-0.61</v>
@@ -8551,16 +8551,16 @@
         <v>226</v>
       </c>
       <c r="C218">
-        <v>-18.9</v>
+        <v>-26.1</v>
       </c>
       <c r="D218">
-        <v>-12.5</v>
+        <v>-30.2</v>
       </c>
       <c r="E218">
-        <v>-34.3</v>
+        <v>-62.6</v>
       </c>
       <c r="F218">
-        <v>-66.5</v>
+        <v>-69</v>
       </c>
       <c r="G218">
         <v>-1.26</v>
@@ -8583,16 +8583,16 @@
         <v>227</v>
       </c>
       <c r="C219">
-        <v>-22.3</v>
+        <v>-30.1</v>
       </c>
       <c r="D219">
-        <v>-23.8</v>
+        <v>-41.6</v>
       </c>
       <c r="E219">
-        <v>-60</v>
+        <v>-75.3</v>
       </c>
       <c r="F219">
-        <v>-75.1</v>
+        <v>-72.7</v>
       </c>
       <c r="G219">
         <v>-1.89</v>
@@ -8615,16 +8615,16 @@
         <v>228</v>
       </c>
       <c r="C220">
-        <v>-12.4</v>
+        <v>-18.9</v>
       </c>
       <c r="D220">
-        <v>-6.6</v>
+        <v>-34.2</v>
       </c>
       <c r="E220">
-        <v>-32.8</v>
+        <v>-69.6</v>
       </c>
       <c r="F220">
-        <v>-58.6</v>
+        <v>-74.7</v>
       </c>
       <c r="G220">
         <v>-0.76</v>
@@ -8647,16 +8647,16 @@
         <v>229</v>
       </c>
       <c r="C221">
-        <v>-50.8</v>
+        <v>-51.8</v>
       </c>
       <c r="D221">
-        <v>-42.2</v>
+        <v>-40.6</v>
       </c>
       <c r="E221">
-        <v>-44</v>
+        <v>-62.7</v>
       </c>
       <c r="F221">
-        <v>-72</v>
+        <v>-35.8</v>
       </c>
       <c r="G221">
         <v>-1.04</v>
@@ -8679,16 +8679,16 @@
         <v>230</v>
       </c>
       <c r="C222">
-        <v>-31.1</v>
+        <v>-37.3</v>
       </c>
       <c r="D222">
-        <v>-34.1</v>
+        <v>-46.8</v>
       </c>
       <c r="E222">
-        <v>-59.5</v>
+        <v>-75.3</v>
       </c>
       <c r="F222">
-        <v>-82.6</v>
+        <v>-69.6</v>
       </c>
       <c r="G222">
         <v>-2.71</v>
@@ -8711,16 +8711,16 @@
         <v>231</v>
       </c>
       <c r="C223">
-        <v>-46.9</v>
+        <v>-48.5</v>
       </c>
       <c r="D223">
-        <v>-38.2</v>
+        <v>-38.4</v>
       </c>
       <c r="E223">
-        <v>-47.2</v>
+        <v>-67.6</v>
       </c>
       <c r="F223">
-        <v>-69.7</v>
+        <v>-56.7</v>
       </c>
       <c r="G223">
         <v>-1.33</v>
@@ -8743,16 +8743,16 @@
         <v>232</v>
       </c>
       <c r="C224">
-        <v>-57.7</v>
+        <v>-59.3</v>
       </c>
       <c r="D224">
-        <v>-45.2</v>
+        <v>-45</v>
       </c>
       <c r="E224">
-        <v>-43.7</v>
+        <v>-66.3</v>
       </c>
       <c r="F224">
-        <v>-63.7</v>
+        <v>-63</v>
       </c>
       <c r="G224">
         <v>-1.02</v>
@@ -8775,16 +8775,16 @@
         <v>233</v>
       </c>
       <c r="C225">
-        <v>-52</v>
+        <v>-51.8</v>
       </c>
       <c r="D225">
-        <v>-45.1</v>
+        <v>-35.5</v>
       </c>
       <c r="E225">
-        <v>-45.8</v>
+        <v>-52.1</v>
       </c>
       <c r="F225">
-        <v>-55.1</v>
+        <v>-30.2</v>
       </c>
       <c r="G225">
         <v>-0.44</v>
@@ -8807,16 +8807,16 @@
         <v>234</v>
       </c>
       <c r="C226">
-        <v>-59.9</v>
+        <v>-62.7</v>
       </c>
       <c r="D226">
-        <v>-52</v>
+        <v>-47.3</v>
       </c>
       <c r="E226">
-        <v>-46.3</v>
+        <v>-66.1</v>
       </c>
       <c r="F226">
-        <v>-56.2</v>
+        <v>-55.9</v>
       </c>
       <c r="G226">
         <v>-0.47</v>
@@ -8839,16 +8839,16 @@
         <v>235</v>
       </c>
       <c r="C227">
-        <v>-50.4</v>
+        <v>-52</v>
       </c>
       <c r="D227">
-        <v>-42</v>
+        <v>-34.1</v>
       </c>
       <c r="E227">
-        <v>-38.6</v>
+        <v>-57.5</v>
       </c>
       <c r="F227">
-        <v>-58.9</v>
+        <v>-27.4</v>
       </c>
       <c r="G227">
         <v>-0.59</v>
@@ -8871,16 +8871,16 @@
         <v>236</v>
       </c>
       <c r="C228">
-        <v>-14.9</v>
+        <v>-20.1</v>
       </c>
       <c r="D228">
-        <v>-25.2</v>
+        <v>-30.4</v>
       </c>
       <c r="E228">
-        <v>-19.7</v>
+        <v>-71.3</v>
       </c>
       <c r="F228">
-        <v>-43.7</v>
+        <v>-80.9</v>
       </c>
       <c r="G228">
         <v>-0.57</v>
@@ -8903,16 +8903,16 @@
         <v>237</v>
       </c>
       <c r="C229">
-        <v>-29.2</v>
+        <v>-35.1</v>
       </c>
       <c r="D229">
-        <v>-23.7</v>
+        <v>-28.4</v>
       </c>
       <c r="E229">
-        <v>-6.2</v>
+        <v>-63.5</v>
       </c>
       <c r="F229">
-        <v>-36.4</v>
+        <v>-66.6</v>
       </c>
       <c r="G229">
         <v>-1.02</v>
@@ -8935,16 +8935,16 @@
         <v>238</v>
       </c>
       <c r="C230">
-        <v>-15.1</v>
+        <v>-20.2</v>
       </c>
       <c r="D230">
-        <v>-17.4</v>
+        <v>-21</v>
       </c>
       <c r="E230">
-        <v>-4.2</v>
+        <v>-63.8</v>
       </c>
       <c r="F230">
-        <v>-32.6</v>
+        <v>-72.2</v>
       </c>
       <c r="G230">
         <v>-0.82</v>
@@ -8967,16 +8967,16 @@
         <v>239</v>
       </c>
       <c r="C231">
-        <v>-16.2</v>
+        <v>-21.2</v>
       </c>
       <c r="D231">
-        <v>-28.9</v>
+        <v>-39.6</v>
       </c>
       <c r="E231">
-        <v>-31.5</v>
+        <v>-73.5</v>
       </c>
       <c r="F231">
-        <v>-50.6</v>
+        <v>-84.9</v>
       </c>
       <c r="G231">
         <v>-0.61</v>
@@ -8999,16 +8999,16 @@
         <v>240</v>
       </c>
       <c r="C232">
-        <v>-23.2</v>
+        <v>-28.1</v>
       </c>
       <c r="D232">
-        <v>-34.3</v>
+        <v>-43.2</v>
       </c>
       <c r="E232">
-        <v>-34.2</v>
+        <v>-74.2</v>
       </c>
       <c r="F232">
-        <v>-50.9</v>
+        <v>-85.1</v>
       </c>
       <c r="G232">
         <v>-0.56</v>
@@ -9031,16 +9031,16 @@
         <v>241</v>
       </c>
       <c r="C233">
-        <v>-30.5</v>
+        <v>-36.2</v>
       </c>
       <c r="D233">
-        <v>-37</v>
+        <v>-41.6</v>
       </c>
       <c r="E233">
-        <v>-36.8</v>
+        <v>-73.8</v>
       </c>
       <c r="F233">
-        <v>-68.2</v>
+        <v>-67.2</v>
       </c>
       <c r="G233">
         <v>-1.01</v>
@@ -9063,16 +9063,16 @@
         <v>242</v>
       </c>
       <c r="C234">
-        <v>-34.8</v>
+        <v>-39.8</v>
       </c>
       <c r="D234">
-        <v>-39.1</v>
+        <v>-41.6</v>
       </c>
       <c r="E234">
-        <v>-34.3</v>
+        <v>-72.1</v>
       </c>
       <c r="F234">
-        <v>-62.8</v>
+        <v>-67</v>
       </c>
       <c r="G234">
         <v>-1.02</v>
@@ -9095,16 +9095,16 @@
         <v>243</v>
       </c>
       <c r="C235">
-        <v>-38.1</v>
+        <v>-42.2</v>
       </c>
       <c r="D235">
-        <v>-40.9</v>
+        <v>-44.1</v>
       </c>
       <c r="E235">
-        <v>-39.7</v>
+        <v>-75.3</v>
       </c>
       <c r="F235">
-        <v>-68.4</v>
+        <v>-69.2</v>
       </c>
       <c r="G235">
         <v>-0.97</v>
@@ -9127,16 +9127,16 @@
         <v>244</v>
       </c>
       <c r="C236">
-        <v>-34.2</v>
+        <v>-38.7</v>
       </c>
       <c r="D236">
-        <v>-37.8</v>
+        <v>-42.7</v>
       </c>
       <c r="E236">
-        <v>-36.2</v>
+        <v>-73.6</v>
       </c>
       <c r="F236">
-        <v>-58.8</v>
+        <v>-75.4</v>
       </c>
       <c r="G236">
         <v>-0.9</v>
@@ -9159,16 +9159,16 @@
         <v>245</v>
       </c>
       <c r="C237">
-        <v>-44.8</v>
+        <v>-50.8</v>
       </c>
       <c r="D237">
-        <v>-39.5</v>
+        <v>-43.9</v>
       </c>
       <c r="E237">
-        <v>-50</v>
+        <v>-79.4</v>
       </c>
       <c r="F237">
-        <v>-82.3</v>
+        <v>-66.3</v>
       </c>
       <c r="G237">
         <v>-1.87</v>
@@ -9191,16 +9191,16 @@
         <v>246</v>
       </c>
       <c r="C238">
-        <v>-36.1</v>
+        <v>-41.4</v>
       </c>
       <c r="D238">
-        <v>-30.7</v>
+        <v>-40.2</v>
       </c>
       <c r="E238">
-        <v>-41.4</v>
+        <v>-72.8</v>
       </c>
       <c r="F238">
-        <v>-72.6</v>
+        <v>-75.3</v>
       </c>
       <c r="G238">
         <v>-3.44</v>
@@ -9223,16 +9223,16 @@
         <v>247</v>
       </c>
       <c r="C239">
-        <v>-39.9</v>
+        <v>-46.1</v>
       </c>
       <c r="D239">
-        <v>-32.6</v>
+        <v>-41.4</v>
       </c>
       <c r="E239">
-        <v>-38.5</v>
+        <v>-69.2</v>
       </c>
       <c r="F239">
-        <v>-65.2</v>
+        <v>-76.2</v>
       </c>
       <c r="G239">
         <v>-1.86</v>
@@ -9255,16 +9255,16 @@
         <v>248</v>
       </c>
       <c r="C240">
-        <v>-37.6</v>
+        <v>-42.7</v>
       </c>
       <c r="D240">
-        <v>-25</v>
+        <v>-34.4</v>
       </c>
       <c r="E240">
-        <v>-31.8</v>
+        <v>-71.6</v>
       </c>
       <c r="F240">
-        <v>-64.7</v>
+        <v>-71.3</v>
       </c>
       <c r="G240">
         <v>-1.61</v>
@@ -9287,16 +9287,16 @@
         <v>249</v>
       </c>
       <c r="C241">
-        <v>-34</v>
+        <v>-39.4</v>
       </c>
       <c r="D241">
-        <v>-31.8</v>
+        <v>-42.8</v>
       </c>
       <c r="E241">
-        <v>-44.8</v>
+        <v>-82.2</v>
       </c>
       <c r="F241">
-        <v>-88.7</v>
+        <v>-79.5</v>
       </c>
       <c r="G241">
         <v>-3.78</v>
@@ -9319,16 +9319,16 @@
         <v>250</v>
       </c>
       <c r="C242">
-        <v>-28.7</v>
+        <v>-32.9</v>
       </c>
       <c r="D242">
-        <v>-23.7</v>
+        <v>-33.6</v>
       </c>
       <c r="E242">
-        <v>-43</v>
+        <v>-73.1</v>
       </c>
       <c r="F242">
-        <v>-79.6</v>
+        <v>-53.4</v>
       </c>
       <c r="G242">
         <v>-2.58</v>
@@ -9351,16 +9351,16 @@
         <v>251</v>
       </c>
       <c r="C243">
-        <v>-46.2</v>
+        <v>-52</v>
       </c>
       <c r="D243">
-        <v>-38.4</v>
+        <v>-37.5</v>
       </c>
       <c r="E243">
-        <v>-33.9</v>
+        <v>-60.2</v>
       </c>
       <c r="F243">
-        <v>-44.3</v>
+        <v>-61.5</v>
       </c>
       <c r="G243">
         <v>-0.96</v>
@@ -9383,16 +9383,16 @@
         <v>252</v>
       </c>
       <c r="C244">
-        <v>-27.7</v>
+        <v>-34.5</v>
       </c>
       <c r="D244">
-        <v>-33</v>
+        <v>-54.7</v>
       </c>
       <c r="E244">
-        <v>-49.3</v>
+        <v>-75.4</v>
       </c>
       <c r="F244">
-        <v>-63.2</v>
+        <v>-83.4</v>
       </c>
       <c r="G244">
         <v>-2.06</v>
@@ -9415,16 +9415,16 @@
         <v>253</v>
       </c>
       <c r="C245">
-        <v>-31.8</v>
+        <v>-39.2</v>
       </c>
       <c r="D245">
-        <v>-37.3</v>
+        <v>-57.6</v>
       </c>
       <c r="E245">
-        <v>-53</v>
+        <v>-77.3</v>
       </c>
       <c r="F245">
-        <v>-64.7</v>
+        <v>-84</v>
       </c>
       <c r="G245">
         <v>-2.22</v>
@@ -9447,16 +9447,16 @@
         <v>254</v>
       </c>
       <c r="C246">
-        <v>-47.1</v>
+        <v>-52.3</v>
       </c>
       <c r="D246">
-        <v>-38.7</v>
+        <v>-42.3</v>
       </c>
       <c r="E246">
-        <v>-36</v>
+        <v>-61</v>
       </c>
       <c r="F246">
-        <v>-52.6</v>
+        <v>-73.6</v>
       </c>
       <c r="G246">
         <v>-1.09</v>
@@ -9479,16 +9479,16 @@
         <v>255</v>
       </c>
       <c r="C247">
-        <v>-26.3</v>
+        <v>-33.4</v>
       </c>
       <c r="D247">
-        <v>-33.8</v>
+        <v>-53.4</v>
       </c>
       <c r="E247">
-        <v>-43.7</v>
+        <v>-67.8</v>
       </c>
       <c r="F247">
-        <v>-43</v>
+        <v>-81.8</v>
       </c>
       <c r="G247">
         <v>-1.29</v>
@@ -9511,16 +9511,16 @@
         <v>256</v>
       </c>
       <c r="C248">
-        <v>-26.3</v>
+        <v>-33</v>
       </c>
       <c r="D248">
-        <v>-33.2</v>
+        <v>-49.9</v>
       </c>
       <c r="E248">
-        <v>-44.7</v>
+        <v>-81.5</v>
       </c>
       <c r="F248">
-        <v>-77.2</v>
+        <v>-80.3</v>
       </c>
       <c r="G248">
         <v>-2.04</v>
@@ -9543,16 +9543,16 @@
         <v>257</v>
       </c>
       <c r="C249">
-        <v>-1</v>
+        <v>-6.5</v>
       </c>
       <c r="D249">
-        <v>9.7</v>
+        <v>-13.4</v>
       </c>
       <c r="E249">
-        <v>-18.4</v>
+        <v>-68.1</v>
       </c>
       <c r="F249">
-        <v>-79.3</v>
+        <v>-60.7</v>
       </c>
       <c r="G249">
         <v>-2.3</v>
@@ -9575,16 +9575,16 @@
         <v>258</v>
       </c>
       <c r="C250">
-        <v>-48.8</v>
+        <v>-54.8</v>
       </c>
       <c r="D250">
-        <v>-41.8</v>
+        <v>-43.7</v>
       </c>
       <c r="E250">
-        <v>-41.9</v>
+        <v>-64.9</v>
       </c>
       <c r="F250">
-        <v>-60.6</v>
+        <v>-66.9</v>
       </c>
       <c r="G250">
         <v>-1.15</v>
@@ -9607,16 +9607,16 @@
         <v>259</v>
       </c>
       <c r="C251">
-        <v>-34.1</v>
+        <v>-40.7</v>
       </c>
       <c r="D251">
-        <v>-32.4</v>
+        <v>-41.7</v>
       </c>
       <c r="E251">
-        <v>-41.6</v>
+        <v>-69.6</v>
       </c>
       <c r="F251">
-        <v>-73.2</v>
+        <v>-73.5</v>
       </c>
       <c r="G251">
         <v>-2.61</v>
@@ -9639,16 +9639,16 @@
         <v>260</v>
       </c>
       <c r="C252">
-        <v>-44.1</v>
+        <v>-49.7</v>
       </c>
       <c r="D252">
-        <v>-36.3</v>
+        <v>-44.7</v>
       </c>
       <c r="E252">
-        <v>-39.9</v>
+        <v>-72.7</v>
       </c>
       <c r="F252">
-        <v>-64.1</v>
+        <v>-78.7</v>
       </c>
       <c r="G252">
         <v>-1.13</v>
@@ -9671,16 +9671,16 @@
         <v>261</v>
       </c>
       <c r="C253">
-        <v>-42.9</v>
+        <v>-49.1</v>
       </c>
       <c r="D253">
-        <v>-37.5</v>
+        <v>-42.4</v>
       </c>
       <c r="E253">
-        <v>-38.7</v>
+        <v>-71.2</v>
       </c>
       <c r="F253">
-        <v>-69.7</v>
+        <v>-70</v>
       </c>
       <c r="G253">
         <v>-1.91</v>
@@ -9703,16 +9703,16 @@
         <v>262</v>
       </c>
       <c r="C254">
-        <v>-29.9</v>
+        <v>-34</v>
       </c>
       <c r="D254">
-        <v>-27.2</v>
+        <v>-35.9</v>
       </c>
       <c r="E254">
-        <v>-42.6</v>
+        <v>-74.7</v>
       </c>
       <c r="F254">
-        <v>-83.9</v>
+        <v>-58</v>
       </c>
       <c r="G254">
         <v>-3.67</v>
@@ -9735,16 +9735,16 @@
         <v>263</v>
       </c>
       <c r="C255">
-        <v>-19.1</v>
+        <v>-23.6</v>
       </c>
       <c r="D255">
-        <v>-19.9</v>
+        <v>-32</v>
       </c>
       <c r="E255">
-        <v>-35.4</v>
+        <v>-68.7</v>
       </c>
       <c r="F255">
-        <v>-84.3</v>
+        <v>-62.6</v>
       </c>
       <c r="G255">
         <v>-3.19</v>
@@ -9767,16 +9767,16 @@
         <v>264</v>
       </c>
       <c r="C256">
-        <v>-32.3</v>
+        <v>-38.9</v>
       </c>
       <c r="D256">
-        <v>-40.5</v>
+        <v>-56.9</v>
       </c>
       <c r="E256">
-        <v>-46.2</v>
+        <v>-76.9</v>
       </c>
       <c r="F256">
-        <v>-61.4</v>
+        <v>-80.1</v>
       </c>
       <c r="G256">
         <v>-1.19</v>
@@ -9799,16 +9799,16 @@
         <v>265</v>
       </c>
       <c r="C257">
-        <v>-51.6</v>
+        <v>-53.6</v>
       </c>
       <c r="D257">
-        <v>-39.8</v>
+        <v>-34.1</v>
       </c>
       <c r="E257">
-        <v>-37.4</v>
+        <v>-60.4</v>
       </c>
       <c r="F257">
-        <v>-49.3</v>
+        <v>-40</v>
       </c>
       <c r="G257">
         <v>-0.5</v>
@@ -9831,16 +9831,16 @@
         <v>266</v>
       </c>
       <c r="C258">
-        <v>-10.9</v>
+        <v>-17.4</v>
       </c>
       <c r="D258">
-        <v>-5.9</v>
+        <v>-29.1</v>
       </c>
       <c r="E258">
-        <v>-20.7</v>
+        <v>-70.9</v>
       </c>
       <c r="F258">
-        <v>-71.8</v>
+        <v>-68.4</v>
       </c>
       <c r="G258">
         <v>-1.88</v>
@@ -9863,16 +9863,16 @@
         <v>267</v>
       </c>
       <c r="C259">
-        <v>-34.6</v>
+        <v>-40.6</v>
       </c>
       <c r="D259">
-        <v>-40.7</v>
+        <v>-50.6</v>
       </c>
       <c r="E259">
-        <v>-52.9</v>
+        <v>-81.9</v>
       </c>
       <c r="F259">
-        <v>-90.2</v>
+        <v>-81.9</v>
       </c>
       <c r="G259">
         <v>-3.69</v>
@@ -9895,16 +9895,16 @@
         <v>268</v>
       </c>
       <c r="C260">
-        <v>-24.5</v>
+        <v>-31.4</v>
       </c>
       <c r="D260">
-        <v>-31.9</v>
+        <v>-42.1</v>
       </c>
       <c r="E260">
-        <v>-47.2</v>
+        <v>-75.3</v>
       </c>
       <c r="F260">
-        <v>-82.2</v>
+        <v>-74.2</v>
       </c>
       <c r="G260">
         <v>-2.65</v>
@@ -9927,16 +9927,16 @@
         <v>269</v>
       </c>
       <c r="C261">
-        <v>-20.9</v>
+        <v>-27.3</v>
       </c>
       <c r="D261">
-        <v>-25.4</v>
+        <v>-42.4</v>
       </c>
       <c r="E261">
-        <v>-35.1</v>
+        <v>-77.8</v>
       </c>
       <c r="F261">
-        <v>-75.6</v>
+        <v>-75.1</v>
       </c>
       <c r="G261">
         <v>-2</v>
@@ -9959,16 +9959,16 @@
         <v>270</v>
       </c>
       <c r="C262">
-        <v>-17.9</v>
+        <v>-23.9</v>
       </c>
       <c r="D262">
-        <v>-19.4</v>
+        <v>-38</v>
       </c>
       <c r="E262">
-        <v>-30.4</v>
+        <v>-75</v>
       </c>
       <c r="F262">
-        <v>-74.8</v>
+        <v>-71.5</v>
       </c>
       <c r="G262">
         <v>-1.96</v>
@@ -9991,16 +9991,16 @@
         <v>271</v>
       </c>
       <c r="C263">
-        <v>-25.1</v>
+        <v>-29.7</v>
       </c>
       <c r="D263">
-        <v>-29.5</v>
+        <v>-43.3</v>
       </c>
       <c r="E263">
-        <v>-33.7</v>
+        <v>-74.1</v>
       </c>
       <c r="F263">
-        <v>-74.1</v>
+        <v>-71.6</v>
       </c>
       <c r="G263">
         <v>-1.77</v>
@@ -10023,16 +10023,16 @@
         <v>272</v>
       </c>
       <c r="C264">
-        <v>-28.3</v>
+        <v>-32.7</v>
       </c>
       <c r="D264">
-        <v>-36.4</v>
+        <v>-48.1</v>
       </c>
       <c r="E264">
-        <v>-37.7</v>
+        <v>-78</v>
       </c>
       <c r="F264">
-        <v>-73.5</v>
+        <v>-73.6</v>
       </c>
       <c r="G264">
         <v>-1.73</v>
@@ -10055,16 +10055,16 @@
         <v>273</v>
       </c>
       <c r="C265">
-        <v>-14</v>
+        <v>-19.2</v>
       </c>
       <c r="D265">
-        <v>-5.1</v>
+        <v>-27.4</v>
       </c>
       <c r="E265">
-        <v>-18.3</v>
+        <v>-69.6</v>
       </c>
       <c r="F265">
-        <v>-73.3</v>
+        <v>-66.4</v>
       </c>
       <c r="G265">
         <v>-1.89</v>
@@ -10087,16 +10087,16 @@
         <v>274</v>
       </c>
       <c r="C266">
-        <v>-17.8</v>
+        <v>-22.6</v>
       </c>
       <c r="D266">
-        <v>-12.3</v>
+        <v>-31.6</v>
       </c>
       <c r="E266">
-        <v>-22.7</v>
+        <v>-71.5</v>
       </c>
       <c r="F266">
-        <v>-74.9</v>
+        <v>-68.1</v>
       </c>
       <c r="G266">
         <v>-1.87</v>
@@ -10119,16 +10119,16 @@
         <v>275</v>
       </c>
       <c r="C267">
-        <v>-7.3</v>
+        <v>-12.7</v>
       </c>
       <c r="D267">
-        <v>-1.5</v>
+        <v>-22.7</v>
       </c>
       <c r="E267">
-        <v>-15.4</v>
+        <v>-67.3</v>
       </c>
       <c r="F267">
-        <v>-76.7</v>
+        <v>-66.3</v>
       </c>
       <c r="G267">
         <v>-1.82</v>
@@ -10151,16 +10151,16 @@
         <v>276</v>
       </c>
       <c r="C268">
-        <v>-35.7</v>
+        <v>-41.2</v>
       </c>
       <c r="D268">
-        <v>-44.3</v>
+        <v>-59.4</v>
       </c>
       <c r="E268">
-        <v>-50.7</v>
+        <v>-77.1</v>
       </c>
       <c r="F268">
-        <v>-67.2</v>
+        <v>-74.8</v>
       </c>
       <c r="G268">
         <v>-1.34</v>
@@ -10183,16 +10183,16 @@
         <v>277</v>
       </c>
       <c r="C269">
-        <v>-36.5</v>
+        <v>-43.5</v>
       </c>
       <c r="D269">
-        <v>-46</v>
+        <v>-63.2</v>
       </c>
       <c r="E269">
-        <v>-55.4</v>
+        <v>-82.7</v>
       </c>
       <c r="F269">
-        <v>-77.7</v>
+        <v>-81.8</v>
       </c>
       <c r="G269">
         <v>-2.14</v>
@@ -10215,16 +10215,16 @@
         <v>278</v>
       </c>
       <c r="C270">
-        <v>-6.4</v>
+        <v>-12.6</v>
       </c>
       <c r="D270">
-        <v>-14</v>
+        <v>-24.5</v>
       </c>
       <c r="E270">
-        <v>-33.8</v>
+        <v>-67.1</v>
       </c>
       <c r="F270">
-        <v>-73.4</v>
+        <v>-58</v>
       </c>
       <c r="G270">
         <v>-1.6</v>
@@ -10247,16 +10247,16 @@
         <v>279</v>
       </c>
       <c r="C271">
-        <v>-3.2</v>
+        <v>-9</v>
       </c>
       <c r="D271">
-        <v>-6.5</v>
+        <v>-24</v>
       </c>
       <c r="E271">
-        <v>-22.4</v>
+        <v>-67.1</v>
       </c>
       <c r="F271">
-        <v>-72.7</v>
+        <v>-65.1</v>
       </c>
       <c r="G271">
         <v>-1.84</v>
@@ -10279,16 +10279,16 @@
         <v>280</v>
       </c>
       <c r="C272">
-        <v>-32.8</v>
+        <v>-39.1</v>
       </c>
       <c r="D272">
-        <v>-44.3</v>
+        <v>-55.3</v>
       </c>
       <c r="E272">
-        <v>-42.9</v>
+        <v>-77.5</v>
       </c>
       <c r="F272">
-        <v>-68.8</v>
+        <v>-73.6</v>
       </c>
       <c r="G272">
         <v>-1.12</v>
@@ -10311,16 +10311,16 @@
         <v>281</v>
       </c>
       <c r="C273">
-        <v>-35.7</v>
+        <v>-41.9</v>
       </c>
       <c r="D273">
-        <v>-47</v>
+        <v>-59.1</v>
       </c>
       <c r="E273">
-        <v>-48.5</v>
+        <v>-77.5</v>
       </c>
       <c r="F273">
-        <v>-66.1</v>
+        <v>-74.6</v>
       </c>
       <c r="G273">
         <v>-0.87</v>
@@ -10343,16 +10343,16 @@
         <v>282</v>
       </c>
       <c r="C274">
-        <v>-12.3</v>
+        <v>-21.5</v>
       </c>
       <c r="D274">
-        <v>-19.7</v>
+        <v>-32.3</v>
       </c>
       <c r="E274">
-        <v>-38.5</v>
+        <v>-71.9</v>
       </c>
       <c r="F274">
-        <v>-71.7</v>
+        <v>-68.4</v>
       </c>
       <c r="G274">
         <v>-1.49</v>
@@ -10375,16 +10375,16 @@
         <v>283</v>
       </c>
       <c r="C275">
-        <v>-7</v>
+        <v>-12.2</v>
       </c>
       <c r="D275">
-        <v>-23.4</v>
+        <v>-36.4</v>
       </c>
       <c r="E275">
-        <v>-33.6</v>
+        <v>-70.7</v>
       </c>
       <c r="F275">
-        <v>-55.4</v>
+        <v>-74.6</v>
       </c>
       <c r="G275">
         <v>-1.63</v>
@@ -10407,16 +10407,16 @@
         <v>284</v>
       </c>
       <c r="C276">
-        <v>-43.9</v>
+        <v>-53</v>
       </c>
       <c r="D276">
-        <v>-42.7</v>
+        <v>-50.8</v>
       </c>
       <c r="E276">
-        <v>-51.9</v>
+        <v>-76.6</v>
       </c>
       <c r="F276">
-        <v>-62</v>
+        <v>-83.6</v>
       </c>
       <c r="G276">
         <v>-0.71</v>
@@ -10439,16 +10439,16 @@
         <v>285</v>
       </c>
       <c r="C277">
-        <v>-34.9</v>
+        <v>-39.3</v>
       </c>
       <c r="D277">
-        <v>-39.9</v>
+        <v>-44.8</v>
       </c>
       <c r="E277">
-        <v>-34.6</v>
+        <v>-73.3</v>
       </c>
       <c r="F277">
-        <v>-57.4</v>
+        <v>-78.5</v>
       </c>
       <c r="G277">
         <v>-0.59</v>
@@ -10471,16 +10471,16 @@
         <v>286</v>
       </c>
       <c r="C278">
-        <v>-30.2</v>
+        <v>-34.3</v>
       </c>
       <c r="D278">
-        <v>-34.1</v>
+        <v>-38.5</v>
       </c>
       <c r="E278">
-        <v>-26.7</v>
+        <v>-70.1</v>
       </c>
       <c r="F278">
-        <v>-46.1</v>
+        <v>-78.2</v>
       </c>
       <c r="G278">
         <v>-1.1</v>
@@ -10503,16 +10503,16 @@
         <v>287</v>
       </c>
       <c r="C279">
-        <v>-32.1</v>
+        <v>-35.7</v>
       </c>
       <c r="D279">
-        <v>-37.8</v>
+        <v>-42.5</v>
       </c>
       <c r="E279">
-        <v>-33.7</v>
+        <v>-72.2</v>
       </c>
       <c r="F279">
-        <v>-57.5</v>
+        <v>-75.7</v>
       </c>
       <c r="G279">
         <v>-0.55</v>
@@ -10535,16 +10535,16 @@
         <v>288</v>
       </c>
       <c r="C280">
-        <v>-20.8</v>
+        <v>-26.5</v>
       </c>
       <c r="D280">
-        <v>-35.8</v>
+        <v>-38</v>
       </c>
       <c r="E280">
-        <v>-29.2</v>
+        <v>-69</v>
       </c>
       <c r="F280">
-        <v>-54.6</v>
+        <v>-67.1</v>
       </c>
       <c r="G280">
         <v>-1.03</v>
@@ -10567,16 +10567,16 @@
         <v>289</v>
       </c>
       <c r="C281">
-        <v>-26.6</v>
+        <v>-31.5</v>
       </c>
       <c r="D281">
-        <v>-35.7</v>
+        <v>-42.1</v>
       </c>
       <c r="E281">
-        <v>-31.3</v>
+        <v>-73.3</v>
       </c>
       <c r="F281">
-        <v>-50.4</v>
+        <v>-81.6</v>
       </c>
       <c r="G281">
         <v>-0.97</v>
@@ -10599,16 +10599,16 @@
         <v>290</v>
       </c>
       <c r="C282">
-        <v>-46.5</v>
+        <v>-51.7</v>
       </c>
       <c r="D282">
-        <v>-44.3</v>
+        <v>-46.2</v>
       </c>
       <c r="E282">
-        <v>-52.7</v>
+        <v>-68.6</v>
       </c>
       <c r="F282">
-        <v>-69</v>
+        <v>-58.5</v>
       </c>
       <c r="G282">
         <v>-0.9</v>
@@ -10631,16 +10631,16 @@
         <v>291</v>
       </c>
       <c r="C283">
-        <v>-58.1</v>
+        <v>-62.4</v>
       </c>
       <c r="D283">
-        <v>-48.3</v>
+        <v>-52.2</v>
       </c>
       <c r="E283">
-        <v>-57.4</v>
+        <v>-74.7</v>
       </c>
       <c r="F283">
-        <v>-67.9</v>
+        <v>-72.5</v>
       </c>
       <c r="G283">
         <v>-0.55</v>
@@ -10663,16 +10663,16 @@
         <v>292</v>
       </c>
       <c r="C284">
-        <v>-55.6</v>
+        <v>-60</v>
       </c>
       <c r="D284">
-        <v>-49.5</v>
+        <v>-52.2</v>
       </c>
       <c r="E284">
-        <v>-56.7</v>
+        <v>-73.6</v>
       </c>
       <c r="F284">
-        <v>-70.6</v>
+        <v>-67.5</v>
       </c>
       <c r="G284">
         <v>-0.98</v>
@@ -10695,16 +10695,16 @@
         <v>293</v>
       </c>
       <c r="C285">
-        <v>-30.6</v>
+        <v>-36.8</v>
       </c>
       <c r="D285">
-        <v>-42.4</v>
+        <v>-47.9</v>
       </c>
       <c r="E285">
-        <v>-38.5</v>
+        <v>-74.9</v>
       </c>
       <c r="F285">
-        <v>-55.4</v>
+        <v>-80.2</v>
       </c>
       <c r="G285">
         <v>-0.85</v>
@@ -10727,16 +10727,16 @@
         <v>294</v>
       </c>
       <c r="C286">
-        <v>-37.6</v>
+        <v>-40.9</v>
       </c>
       <c r="D286">
-        <v>-38.1</v>
+        <v>-36.4</v>
       </c>
       <c r="E286">
-        <v>-22.5</v>
+        <v>-70.3</v>
       </c>
       <c r="F286">
-        <v>-45.4</v>
+        <v>-74.2</v>
       </c>
       <c r="G286">
         <v>-1.18</v>
@@ -10759,16 +10759,16 @@
         <v>295</v>
       </c>
       <c r="C287">
-        <v>-32.7</v>
+        <v>-36.8</v>
       </c>
       <c r="D287">
-        <v>-37.7</v>
+        <v>-38.7</v>
       </c>
       <c r="E287">
-        <v>-25.6</v>
+        <v>-71.6</v>
       </c>
       <c r="F287">
-        <v>-47.1</v>
+        <v>-78</v>
       </c>
       <c r="G287">
         <v>-1.17</v>
@@ -10791,16 +10791,16 @@
         <v>296</v>
       </c>
       <c r="C288">
-        <v>-40.3</v>
+        <v>-42.6</v>
       </c>
       <c r="D288">
-        <v>-34</v>
+        <v>-32.7</v>
       </c>
       <c r="E288">
-        <v>-19.4</v>
+        <v>-68.9</v>
       </c>
       <c r="F288">
-        <v>-44</v>
+        <v>-72.3</v>
       </c>
       <c r="G288">
         <v>-1.19</v>
@@ -10823,16 +10823,16 @@
         <v>297</v>
       </c>
       <c r="C289">
-        <v>-34.4</v>
+        <v>-39.6</v>
       </c>
       <c r="D289">
-        <v>-45.7</v>
+        <v>-49.9</v>
       </c>
       <c r="E289">
-        <v>-45.1</v>
+        <v>-76.1</v>
       </c>
       <c r="F289">
-        <v>-59.3</v>
+        <v>-79.6</v>
       </c>
       <c r="G289">
         <v>-1.8</v>
@@ -10855,16 +10855,16 @@
         <v>298</v>
       </c>
       <c r="C290">
-        <v>-30.4</v>
+        <v>-35.8</v>
       </c>
       <c r="D290">
-        <v>-40.6</v>
+        <v>-46.7</v>
       </c>
       <c r="E290">
-        <v>-38.8</v>
+        <v>-73.9</v>
       </c>
       <c r="F290">
-        <v>-52.3</v>
+        <v>-82</v>
       </c>
       <c r="G290">
         <v>-1.21</v>
@@ -10887,16 +10887,16 @@
         <v>299</v>
       </c>
       <c r="C291">
-        <v>-29.3</v>
+        <v>-33.8</v>
       </c>
       <c r="D291">
-        <v>-41.3</v>
+        <v>-49.3</v>
       </c>
       <c r="E291">
-        <v>-44.2</v>
+        <v>-75.2</v>
       </c>
       <c r="F291">
-        <v>-55.1</v>
+        <v>-82</v>
       </c>
       <c r="G291">
         <v>-1.82</v>
@@ -10919,16 +10919,16 @@
         <v>300</v>
       </c>
       <c r="C292">
-        <v>-56.7</v>
+        <v>-60.7</v>
       </c>
       <c r="D292">
-        <v>-54.6</v>
+        <v>-58.2</v>
       </c>
       <c r="E292">
-        <v>-58.9</v>
+        <v>-77.6</v>
       </c>
       <c r="F292">
-        <v>-74.9</v>
+        <v>-78.6</v>
       </c>
       <c r="G292">
         <v>-1.01</v>
@@ -10951,16 +10951,16 @@
         <v>301</v>
       </c>
       <c r="C293">
-        <v>-33.2</v>
+        <v>-39.4</v>
       </c>
       <c r="D293">
-        <v>-34.3</v>
+        <v>-45.6</v>
       </c>
       <c r="E293">
-        <v>-32.1</v>
+        <v>-76.9</v>
       </c>
       <c r="F293">
-        <v>-66.5</v>
+        <v>-77</v>
       </c>
       <c r="G293">
         <v>-0.89</v>
@@ -10983,16 +10983,16 @@
         <v>302</v>
       </c>
       <c r="C294">
-        <v>-45.5</v>
+        <v>-50.8</v>
       </c>
       <c r="D294">
-        <v>-46</v>
+        <v>-52.5</v>
       </c>
       <c r="E294">
-        <v>-51.2</v>
+        <v>-80.4</v>
       </c>
       <c r="F294">
-        <v>-78.2</v>
+        <v>-75.8</v>
       </c>
       <c r="G294">
         <v>-0.98</v>
@@ -11015,16 +11015,16 @@
         <v>303</v>
       </c>
       <c r="C295">
-        <v>-48.6</v>
+        <v>-51.5</v>
       </c>
       <c r="D295">
-        <v>-49.5</v>
+        <v>-52.6</v>
       </c>
       <c r="E295">
-        <v>-59.9</v>
+        <v>-78.9</v>
       </c>
       <c r="F295">
-        <v>-79.7</v>
+        <v>-69.4</v>
       </c>
       <c r="G295">
         <v>-0.94</v>
@@ -11047,16 +11047,16 @@
         <v>304</v>
       </c>
       <c r="C296">
-        <v>-42.1</v>
+        <v>-47</v>
       </c>
       <c r="D296">
-        <v>-41.4</v>
+        <v>-49</v>
       </c>
       <c r="E296">
-        <v>-53.1</v>
+        <v>-75.9</v>
       </c>
       <c r="F296">
-        <v>-73.8</v>
+        <v>-78.9</v>
       </c>
       <c r="G296">
         <v>-1.59</v>
@@ -11079,16 +11079,16 @@
         <v>305</v>
       </c>
       <c r="C297">
-        <v>-9.2</v>
+        <v>-17.7</v>
       </c>
       <c r="D297">
-        <v>-3.8</v>
+        <v>-25.9</v>
       </c>
       <c r="E297">
-        <v>-39.9</v>
+        <v>-68.6</v>
       </c>
       <c r="F297">
-        <v>-66.7</v>
+        <v>-63.7</v>
       </c>
       <c r="G297">
         <v>-1.08</v>
@@ -11111,16 +11111,16 @@
         <v>306</v>
       </c>
       <c r="C298">
-        <v>-14.2</v>
+        <v>-21.5</v>
       </c>
       <c r="D298">
-        <v>-6.8</v>
+        <v>-32.1</v>
       </c>
       <c r="E298">
-        <v>-50</v>
+        <v>-72.8</v>
       </c>
       <c r="F298">
-        <v>-76.5</v>
+        <v>-63.1</v>
       </c>
       <c r="G298">
         <v>-1.43</v>
@@ -11143,16 +11143,16 @@
         <v>307</v>
       </c>
       <c r="C299">
-        <v>-17.5</v>
+        <v>-23.9</v>
       </c>
       <c r="D299">
-        <v>-11.6</v>
+        <v>-30.8</v>
       </c>
       <c r="E299">
-        <v>-46.3</v>
+        <v>-66</v>
       </c>
       <c r="F299">
-        <v>-67.9</v>
+        <v>-53.2</v>
       </c>
       <c r="G299">
         <v>-1.26</v>
@@ -11175,16 +11175,16 @@
         <v>308</v>
       </c>
       <c r="C300">
-        <v>-26.4</v>
+        <v>-30</v>
       </c>
       <c r="D300">
-        <v>-36.3</v>
+        <v>-42.5</v>
       </c>
       <c r="E300">
-        <v>-33.7</v>
+        <v>-69.7</v>
       </c>
       <c r="F300">
-        <v>-70.1</v>
+        <v>-67.2</v>
       </c>
       <c r="G300">
         <v>-1.63</v>
@@ -11207,16 +11207,16 @@
         <v>309</v>
       </c>
       <c r="C301">
-        <v>-29.1</v>
+        <v>-36.4</v>
       </c>
       <c r="D301">
-        <v>-37.6</v>
+        <v>-54.3</v>
       </c>
       <c r="E301">
-        <v>-39.5</v>
+        <v>-76.4</v>
       </c>
       <c r="F301">
-        <v>-60.8</v>
+        <v>-82.6</v>
       </c>
       <c r="G301">
         <v>-1.21</v>
@@ -11239,16 +11239,16 @@
         <v>310</v>
       </c>
       <c r="C302">
-        <v>-18.8</v>
+        <v>-25.6</v>
       </c>
       <c r="D302">
-        <v>-20.8</v>
+        <v>-38.7</v>
       </c>
       <c r="E302">
-        <v>-33.1</v>
+        <v>-68.5</v>
       </c>
       <c r="F302">
-        <v>-71.5</v>
+        <v>-68.3</v>
       </c>
       <c r="G302">
         <v>-1.03</v>
@@ -11271,16 +11271,16 @@
         <v>311</v>
       </c>
       <c r="C303">
-        <v>-13.9</v>
+        <v>-19.1</v>
       </c>
       <c r="D303">
-        <v>-11</v>
+        <v>-35.4</v>
       </c>
       <c r="E303">
-        <v>-33.3</v>
+        <v>-69.2</v>
       </c>
       <c r="F303">
-        <v>-58.1</v>
+        <v>-81.8</v>
       </c>
       <c r="G303">
         <v>-0.76</v>
@@ -11303,16 +11303,16 @@
         <v>312</v>
       </c>
       <c r="C304">
-        <v>-11.8</v>
+        <v>-19.1</v>
       </c>
       <c r="D304">
-        <v>-7.5</v>
+        <v>-28.9</v>
       </c>
       <c r="E304">
-        <v>-7.8</v>
+        <v>-68.6</v>
       </c>
       <c r="F304">
-        <v>-68.4</v>
+        <v>-76</v>
       </c>
       <c r="G304">
         <v>-1.7</v>
@@ -11335,16 +11335,16 @@
         <v>313</v>
       </c>
       <c r="C305">
-        <v>-47.2</v>
+        <v>-48.9</v>
       </c>
       <c r="D305">
-        <v>-54.5</v>
+        <v>-47.5</v>
       </c>
       <c r="E305">
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="F305">
-        <v>-41.9</v>
+        <v>-46.2</v>
       </c>
       <c r="G305">
         <v>-0.3</v>
@@ -11367,16 +11367,16 @@
         <v>314</v>
       </c>
       <c r="C306">
-        <v>-50.2</v>
+        <v>-50.9</v>
       </c>
       <c r="D306">
-        <v>-43.8</v>
+        <v>-36.5</v>
       </c>
       <c r="E306">
-        <v>-42.2</v>
+        <v>-52.3</v>
       </c>
       <c r="F306">
-        <v>-42.4</v>
+        <v>-46.2</v>
       </c>
       <c r="G306">
         <v>-0.22</v>
@@ -11399,16 +11399,16 @@
         <v>315</v>
       </c>
       <c r="C307">
-        <v>-23.9</v>
+        <v>-30.8</v>
       </c>
       <c r="D307">
-        <v>-19.6</v>
+        <v>-44.3</v>
       </c>
       <c r="E307">
-        <v>-44.3</v>
+        <v>-69</v>
       </c>
       <c r="F307">
-        <v>-70.4</v>
+        <v>-63.6</v>
       </c>
       <c r="G307">
         <v>-1.39</v>
@@ -11431,16 +11431,16 @@
         <v>316</v>
       </c>
       <c r="C308">
-        <v>-22.4</v>
+        <v>-29.2</v>
       </c>
       <c r="D308">
-        <v>-20.5</v>
+        <v>-43.1</v>
       </c>
       <c r="E308">
-        <v>-45.4</v>
+        <v>-71.9</v>
       </c>
       <c r="F308">
-        <v>-74.6</v>
+        <v>-63.4</v>
       </c>
       <c r="G308">
         <v>-1.47</v>
@@ -11463,16 +11463,16 @@
         <v>317</v>
       </c>
       <c r="C309">
-        <v>-44.1</v>
+        <v>-47.2</v>
       </c>
       <c r="D309">
-        <v>-41.1</v>
+        <v>-43.3</v>
       </c>
       <c r="E309">
-        <v>-53.2</v>
+        <v>-68.8</v>
       </c>
       <c r="F309">
-        <v>-73.1</v>
+        <v>-51.5</v>
       </c>
       <c r="G309">
         <v>-1.75</v>
@@ -11495,16 +11495,16 @@
         <v>318</v>
       </c>
       <c r="C310">
-        <v>-43.5</v>
+        <v>-44.8</v>
       </c>
       <c r="D310">
-        <v>-35.8</v>
+        <v>-36.8</v>
       </c>
       <c r="E310">
-        <v>-37.9</v>
+        <v>-63</v>
       </c>
       <c r="F310">
-        <v>-69</v>
+        <v>-35.6</v>
       </c>
       <c r="G310">
         <v>-1.42</v>
@@ -11527,13 +11527,13 @@
         <v>319</v>
       </c>
       <c r="C311">
-        <v>-25</v>
+        <v>-30.2</v>
       </c>
       <c r="D311">
-        <v>-7.2</v>
+        <v>-26.2</v>
       </c>
       <c r="E311">
-        <v>-28.1</v>
+        <v>-62.4</v>
       </c>
       <c r="F311">
         <v>-68</v>
@@ -11559,16 +11559,16 @@
         <v>320</v>
       </c>
       <c r="C312">
-        <v>-29.4</v>
+        <v>-33.9</v>
       </c>
       <c r="D312">
-        <v>-10.1</v>
+        <v>-29.2</v>
       </c>
       <c r="E312">
-        <v>-38.3</v>
+        <v>-66.1</v>
       </c>
       <c r="F312">
-        <v>-67.6</v>
+        <v>-71</v>
       </c>
       <c r="G312">
         <v>-1.52</v>
@@ -11591,16 +11591,16 @@
         <v>321</v>
       </c>
       <c r="C313">
-        <v>-32.8</v>
+        <v>-38.5</v>
       </c>
       <c r="D313">
-        <v>-19</v>
+        <v>-37.3</v>
       </c>
       <c r="E313">
-        <v>-45.7</v>
+        <v>-70.1</v>
       </c>
       <c r="F313">
-        <v>-72.3</v>
+        <v>-72.7</v>
       </c>
       <c r="G313">
         <v>-1.54</v>
@@ -11623,16 +11623,16 @@
         <v>322</v>
       </c>
       <c r="C314">
-        <v>-51.8</v>
+        <v>-54.4</v>
       </c>
       <c r="D314">
-        <v>-40.1</v>
+        <v>-34.8</v>
       </c>
       <c r="E314">
-        <v>-37.8</v>
+        <v>-56.6</v>
       </c>
       <c r="F314">
-        <v>-51.7</v>
+        <v>-48.1</v>
       </c>
       <c r="G314">
         <v>-1.18</v>
@@ -11655,16 +11655,16 @@
         <v>323</v>
       </c>
       <c r="C315">
-        <v>-24.8</v>
+        <v>-32.5</v>
       </c>
       <c r="D315">
-        <v>-23.4</v>
+        <v>-44.4</v>
       </c>
       <c r="E315">
-        <v>-40.5</v>
+        <v>-72.1</v>
       </c>
       <c r="F315">
-        <v>-70.2</v>
+        <v>-75.3</v>
       </c>
       <c r="G315">
         <v>-1.28</v>
@@ -11687,16 +11687,16 @@
         <v>324</v>
       </c>
       <c r="C316">
-        <v>-32.1</v>
+        <v>-37.5</v>
       </c>
       <c r="D316">
-        <v>-39.7</v>
+        <v>-47.8</v>
       </c>
       <c r="E316">
-        <v>-37.8</v>
+        <v>-77.3</v>
       </c>
       <c r="F316">
-        <v>-54.9</v>
+        <v>-87.1</v>
       </c>
       <c r="G316">
         <v>-0.57</v>
@@ -11719,16 +11719,16 @@
         <v>325</v>
       </c>
       <c r="C317">
-        <v>-29.3</v>
+        <v>-34.1</v>
       </c>
       <c r="D317">
-        <v>-14.5</v>
+        <v>-29.2</v>
       </c>
       <c r="E317">
-        <v>-31.2</v>
+        <v>-65</v>
       </c>
       <c r="F317">
-        <v>-67.8</v>
+        <v>-63.6</v>
       </c>
       <c r="G317">
         <v>-2.7</v>
@@ -11751,16 +11751,16 @@
         <v>326</v>
       </c>
       <c r="C318">
-        <v>-29.8</v>
+        <v>-35.2</v>
       </c>
       <c r="D318">
-        <v>-18.3</v>
+        <v>-29.5</v>
       </c>
       <c r="E318">
-        <v>-35.5</v>
+        <v>-72</v>
       </c>
       <c r="F318">
-        <v>-74.3</v>
+        <v>-63.8</v>
       </c>
       <c r="G318">
         <v>-3.72</v>
@@ -11783,16 +11783,16 @@
         <v>327</v>
       </c>
       <c r="C319">
-        <v>-49.6</v>
+        <v>-51.3</v>
       </c>
       <c r="D319">
-        <v>-39.8</v>
+        <v>-32.5</v>
       </c>
       <c r="E319">
-        <v>-35.1</v>
+        <v>-54.8</v>
       </c>
       <c r="F319">
-        <v>-45.6</v>
+        <v>-42.1</v>
       </c>
       <c r="G319">
         <v>-0.3</v>
@@ -11815,16 +11815,16 @@
         <v>328</v>
       </c>
       <c r="C320">
-        <v>-18.7</v>
+        <v>-25.8</v>
       </c>
       <c r="D320">
-        <v>-26.5</v>
+        <v>-35.3</v>
       </c>
       <c r="E320">
-        <v>-40.1</v>
+        <v>-71.9</v>
       </c>
       <c r="F320">
-        <v>-72</v>
+        <v>-66.7</v>
       </c>
       <c r="G320">
         <v>-1.09</v>
@@ -11847,16 +11847,16 @@
         <v>329</v>
       </c>
       <c r="C321">
-        <v>-25.1</v>
+        <v>-30.9</v>
       </c>
       <c r="D321">
-        <v>-38.9</v>
+        <v>-52.9</v>
       </c>
       <c r="E321">
-        <v>-41.7</v>
+        <v>-75.9</v>
       </c>
       <c r="F321">
-        <v>-57.4</v>
+        <v>-81.1</v>
       </c>
       <c r="G321">
         <v>-0.89</v>
@@ -11879,16 +11879,16 @@
         <v>330</v>
       </c>
       <c r="C322">
-        <v>-32.8</v>
+        <v>-37.2</v>
       </c>
       <c r="D322">
-        <v>-41.4</v>
+        <v>-50.7</v>
       </c>
       <c r="E322">
-        <v>-41.4</v>
+        <v>-73.7</v>
       </c>
       <c r="F322">
-        <v>-70.3</v>
+        <v>-76.7</v>
       </c>
       <c r="G322">
         <v>-1.75</v>
@@ -11911,16 +11911,16 @@
         <v>331</v>
       </c>
       <c r="C323">
-        <v>-47.4</v>
+        <v>-53.8</v>
       </c>
       <c r="D323">
-        <v>-42.9</v>
+        <v>-47.6</v>
       </c>
       <c r="E323">
-        <v>-52.3</v>
+        <v>-74.7</v>
       </c>
       <c r="F323">
-        <v>-71.8</v>
+        <v>-68</v>
       </c>
       <c r="G323">
         <v>-1.51</v>
@@ -11943,16 +11943,16 @@
         <v>332</v>
       </c>
       <c r="C324">
-        <v>-19.9</v>
+        <v>-24.8</v>
       </c>
       <c r="D324">
-        <v>-28.5</v>
+        <v>-39.4</v>
       </c>
       <c r="E324">
-        <v>-31.4</v>
+        <v>-67.5</v>
       </c>
       <c r="F324">
-        <v>-66.2</v>
+        <v>-72.1</v>
       </c>
       <c r="G324">
         <v>-1.78</v>
@@ -11975,16 +11975,16 @@
         <v>333</v>
       </c>
       <c r="C325">
-        <v>-36.8</v>
+        <v>-43.2</v>
       </c>
       <c r="D325">
-        <v>-33.1</v>
+        <v>-40.5</v>
       </c>
       <c r="E325">
-        <v>-42.4</v>
+        <v>-79.5</v>
       </c>
       <c r="F325">
-        <v>-79.9</v>
+        <v>-68.3</v>
       </c>
       <c r="G325">
         <v>-1.36</v>
@@ -12007,16 +12007,16 @@
         <v>334</v>
       </c>
       <c r="C326">
-        <v>-46.3</v>
+        <v>-53.1</v>
       </c>
       <c r="D326">
-        <v>-39.9</v>
+        <v>-41.7</v>
       </c>
       <c r="E326">
-        <v>-38</v>
+        <v>-63</v>
       </c>
       <c r="F326">
-        <v>-43.6</v>
+        <v>-71.8</v>
       </c>
       <c r="G326">
         <v>-0.59</v>
@@ -12039,16 +12039,16 @@
         <v>335</v>
       </c>
       <c r="C327">
-        <v>-44.1</v>
+        <v>-51.5</v>
       </c>
       <c r="D327">
-        <v>-30.9</v>
+        <v>-34.4</v>
       </c>
       <c r="E327">
-        <v>-27.7</v>
+        <v>-59.6</v>
       </c>
       <c r="F327">
-        <v>-31.1</v>
+        <v>-73.1</v>
       </c>
       <c r="G327">
         <v>-0.27</v>
@@ -12071,16 +12071,16 @@
         <v>336</v>
       </c>
       <c r="C328">
-        <v>-32.1</v>
+        <v>-36.3</v>
       </c>
       <c r="D328">
-        <v>-39.5</v>
+        <v>-46</v>
       </c>
       <c r="E328">
-        <v>-35.5</v>
+        <v>-68.6</v>
       </c>
       <c r="F328">
-        <v>-64.3</v>
+        <v>-75.7</v>
       </c>
       <c r="G328">
         <v>-1.83</v>
@@ -12103,16 +12103,16 @@
         <v>337</v>
       </c>
       <c r="C329">
-        <v>-8.8</v>
+        <v>-14.7</v>
       </c>
       <c r="D329">
-        <v>-17.8</v>
+        <v>-27.7</v>
       </c>
       <c r="E329">
-        <v>-28.3</v>
+        <v>-65.3</v>
       </c>
       <c r="F329">
-        <v>-68.2</v>
+        <v>-61.5</v>
       </c>
       <c r="G329">
         <v>-1.61</v>
@@ -12135,16 +12135,16 @@
         <v>338</v>
       </c>
       <c r="C330">
-        <v>-9.7</v>
+        <v>-15.9</v>
       </c>
       <c r="D330">
-        <v>-19.9</v>
+        <v>-26.6</v>
       </c>
       <c r="E330">
-        <v>-25.6</v>
+        <v>-63.4</v>
       </c>
       <c r="F330">
-        <v>-58.7</v>
+        <v>-61.3</v>
       </c>
       <c r="G330">
         <v>-1.32</v>
@@ -12167,16 +12167,16 @@
         <v>339</v>
       </c>
       <c r="C331">
-        <v>-26.4</v>
+        <v>-31.3</v>
       </c>
       <c r="D331">
-        <v>-39.2</v>
+        <v>-48.4</v>
       </c>
       <c r="E331">
-        <v>-36.8</v>
+        <v>-73.7</v>
       </c>
       <c r="F331">
-        <v>-62.8</v>
+        <v>-71.3</v>
       </c>
       <c r="G331">
         <v>-0.89</v>
@@ -12199,16 +12199,16 @@
         <v>340</v>
       </c>
       <c r="C332">
-        <v>-26.7</v>
+        <v>-33.6</v>
       </c>
       <c r="D332">
-        <v>-41.9</v>
+        <v>-56.4</v>
       </c>
       <c r="E332">
-        <v>-40.3</v>
+        <v>-79</v>
       </c>
       <c r="F332">
-        <v>-54.7</v>
+        <v>-90.9</v>
       </c>
       <c r="G332">
         <v>-1.01</v>
@@ -12231,16 +12231,16 @@
         <v>341</v>
       </c>
       <c r="C333">
-        <v>-25</v>
+        <v>-30.4</v>
       </c>
       <c r="D333">
-        <v>-38.8</v>
+        <v>-40</v>
       </c>
       <c r="E333">
-        <v>-29.5</v>
+        <v>-70.1</v>
       </c>
       <c r="F333">
-        <v>-55.4</v>
+        <v>-67.5</v>
       </c>
       <c r="G333">
         <v>-1.09</v>
@@ -12263,16 +12263,16 @@
         <v>342</v>
       </c>
       <c r="C334">
-        <v>-40.3</v>
+        <v>-43.5</v>
       </c>
       <c r="D334">
-        <v>-44.4</v>
+        <v>-48.2</v>
       </c>
       <c r="E334">
-        <v>-49</v>
+        <v>-76.1</v>
       </c>
       <c r="F334">
-        <v>-73.1</v>
+        <v>-67.6</v>
       </c>
       <c r="G334">
         <v>-0.76</v>
@@ -12295,16 +12295,16 @@
         <v>343</v>
       </c>
       <c r="C335">
-        <v>-41.6</v>
+        <v>-45.1</v>
       </c>
       <c r="D335">
-        <v>-45.6</v>
+        <v>-50.1</v>
       </c>
       <c r="E335">
-        <v>-47.6</v>
+        <v>-76.5</v>
       </c>
       <c r="F335">
-        <v>-68.8</v>
+        <v>-74.9</v>
       </c>
       <c r="G335">
         <v>-0.62</v>
@@ -12327,16 +12327,16 @@
         <v>344</v>
       </c>
       <c r="C336">
-        <v>-25.6</v>
+        <v>-31</v>
       </c>
       <c r="D336">
-        <v>-40.8</v>
+        <v>-42.3</v>
       </c>
       <c r="E336">
-        <v>-35.5</v>
+        <v>-71.8</v>
       </c>
       <c r="F336">
-        <v>-61.8</v>
+        <v>-67.2</v>
       </c>
       <c r="G336">
         <v>-1.26</v>
@@ -12359,16 +12359,16 @@
         <v>345</v>
       </c>
       <c r="C337">
-        <v>-50.9</v>
+        <v>-56.5</v>
       </c>
       <c r="D337">
-        <v>-43.3</v>
+        <v>-50</v>
       </c>
       <c r="E337">
-        <v>-53.5</v>
+        <v>-73.7</v>
       </c>
       <c r="F337">
-        <v>-68.2</v>
+        <v>-79.7</v>
       </c>
       <c r="G337">
         <v>-1.38</v>
@@ -12391,16 +12391,16 @@
         <v>346</v>
       </c>
       <c r="C338">
-        <v>-47.6</v>
+        <v>-56.3</v>
       </c>
       <c r="D338">
-        <v>-41.7</v>
+        <v>-50.7</v>
       </c>
       <c r="E338">
-        <v>-52.1</v>
+        <v>-76.2</v>
       </c>
       <c r="F338">
-        <v>-58</v>
+        <v>-88.7</v>
       </c>
       <c r="G338">
         <v>-0.49</v>
@@ -12423,16 +12423,16 @@
         <v>347</v>
       </c>
       <c r="C339">
-        <v>-41.1</v>
+        <v>-50.8</v>
       </c>
       <c r="D339">
-        <v>-40.8</v>
+        <v>-51.5</v>
       </c>
       <c r="E339">
-        <v>-50.2</v>
+        <v>-78.5</v>
       </c>
       <c r="F339">
-        <v>-61.3</v>
+        <v>-90</v>
       </c>
       <c r="G339">
         <v>-0.82</v>
@@ -12455,16 +12455,16 @@
         <v>348</v>
       </c>
       <c r="C340">
-        <v>-51.4</v>
+        <v>-58.2</v>
       </c>
       <c r="D340">
-        <v>-42.6</v>
+        <v>-48.3</v>
       </c>
       <c r="E340">
-        <v>-49.4</v>
+        <v>-70.5</v>
       </c>
       <c r="F340">
-        <v>-53.2</v>
+        <v>-77.6</v>
       </c>
       <c r="G340">
         <v>-0.28</v>
@@ -12487,16 +12487,16 @@
         <v>349</v>
       </c>
       <c r="C341">
-        <v>-14.8</v>
+        <v>-20.4</v>
       </c>
       <c r="D341">
-        <v>-33</v>
+        <v>-42.6</v>
       </c>
       <c r="E341">
-        <v>-33.5</v>
+        <v>-69.5</v>
       </c>
       <c r="F341">
-        <v>-52.5</v>
+        <v>-72.7</v>
       </c>
       <c r="G341">
         <v>-1.23</v>
@@ -12519,16 +12519,16 @@
         <v>350</v>
       </c>
       <c r="C342">
-        <v>-12.7</v>
+        <v>-18</v>
       </c>
       <c r="D342">
-        <v>-31.5</v>
+        <v>-41.9</v>
       </c>
       <c r="E342">
-        <v>-37.1</v>
+        <v>-71.8</v>
       </c>
       <c r="F342">
-        <v>-59.8</v>
+        <v>-72.1</v>
       </c>
       <c r="G342">
         <v>-1.6</v>
@@ -12551,16 +12551,16 @@
         <v>351</v>
       </c>
       <c r="C343">
-        <v>-36.4</v>
+        <v>-40.2</v>
       </c>
       <c r="D343">
-        <v>-34.7</v>
+        <v>-34.5</v>
       </c>
       <c r="E343">
-        <v>-22.5</v>
+        <v>-69.3</v>
       </c>
       <c r="F343">
-        <v>-48</v>
+        <v>-70.4</v>
       </c>
       <c r="G343">
         <v>-1.13</v>
@@ -12583,16 +12583,16 @@
         <v>352</v>
       </c>
       <c r="C344">
-        <v>-42.6</v>
+        <v>-45.8</v>
       </c>
       <c r="D344">
-        <v>-45.3</v>
+        <v>-49.1</v>
       </c>
       <c r="E344">
-        <v>-49.5</v>
+        <v>-77.5</v>
       </c>
       <c r="F344">
-        <v>-72.1</v>
+        <v>-73.2</v>
       </c>
       <c r="G344">
         <v>-0.6</v>
@@ -12615,16 +12615,16 @@
         <v>353</v>
       </c>
       <c r="C345">
-        <v>-43.2</v>
+        <v>-46.3</v>
       </c>
       <c r="D345">
-        <v>-46.5</v>
+        <v>-50</v>
       </c>
       <c r="E345">
-        <v>-49.7</v>
+        <v>-77.1</v>
       </c>
       <c r="F345">
-        <v>-71.8</v>
+        <v>-73.2</v>
       </c>
       <c r="G345">
         <v>-0.57</v>
@@ -12647,16 +12647,16 @@
         <v>354</v>
       </c>
       <c r="C346">
-        <v>-49.7</v>
+        <v>-51.5</v>
       </c>
       <c r="D346">
-        <v>-47.8</v>
+        <v>-50.1</v>
       </c>
       <c r="E346">
-        <v>-56.2</v>
+        <v>-73.7</v>
       </c>
       <c r="F346">
-        <v>-71.8</v>
+        <v>-65.5</v>
       </c>
       <c r="G346">
         <v>-0.93</v>
@@ -12679,16 +12679,16 @@
         <v>355</v>
       </c>
       <c r="C347">
-        <v>-49.9</v>
+        <v>-51.7</v>
       </c>
       <c r="D347">
-        <v>-49.7</v>
+        <v>-52.1</v>
       </c>
       <c r="E347">
-        <v>-51.2</v>
+        <v>-74</v>
       </c>
       <c r="F347">
-        <v>-71.2</v>
+        <v>-67</v>
       </c>
       <c r="G347">
         <v>-0.88</v>
@@ -12711,16 +12711,16 @@
         <v>356</v>
       </c>
       <c r="C348">
-        <v>-34.3</v>
+        <v>-39.1</v>
       </c>
       <c r="D348">
-        <v>-29.3</v>
+        <v>-41</v>
       </c>
       <c r="E348">
-        <v>-32.1</v>
+        <v>-76</v>
       </c>
       <c r="F348">
-        <v>-69.5</v>
+        <v>-75.8</v>
       </c>
       <c r="G348">
         <v>-0.89</v>
@@ -12743,16 +12743,16 @@
         <v>357</v>
       </c>
       <c r="C349">
-        <v>-38.5</v>
+        <v>-43.2</v>
       </c>
       <c r="D349">
-        <v>-32.9</v>
+        <v>-43.7</v>
       </c>
       <c r="E349">
-        <v>-43</v>
+        <v>-78.5</v>
       </c>
       <c r="F349">
-        <v>-76.7</v>
+        <v>-74.9</v>
       </c>
       <c r="G349">
         <v>-0.9</v>
@@ -12775,16 +12775,16 @@
         <v>358</v>
       </c>
       <c r="C350">
-        <v>-41.8</v>
+        <v>-46.1</v>
       </c>
       <c r="D350">
-        <v>-38.9</v>
+        <v>-46</v>
       </c>
       <c r="E350">
-        <v>-45.3</v>
+        <v>-77.1</v>
       </c>
       <c r="F350">
-        <v>-77.4</v>
+        <v>-69.4</v>
       </c>
       <c r="G350">
         <v>-0.97</v>
@@ -12807,16 +12807,16 @@
         <v>359</v>
       </c>
       <c r="C351">
-        <v>-48.2</v>
+        <v>-53.3</v>
       </c>
       <c r="D351">
-        <v>-48</v>
+        <v>-53.3</v>
       </c>
       <c r="E351">
-        <v>-55.1</v>
+        <v>-77.4</v>
       </c>
       <c r="F351">
-        <v>-80.1</v>
+        <v>-71.5</v>
       </c>
       <c r="G351">
         <v>-1.09</v>
@@ -12839,16 +12839,16 @@
         <v>360</v>
       </c>
       <c r="C352">
-        <v>-15.3</v>
+        <v>-19.9</v>
       </c>
       <c r="D352">
-        <v>-26.9</v>
+        <v>-38.3</v>
       </c>
       <c r="E352">
-        <v>-32.2</v>
+        <v>-73.3</v>
       </c>
       <c r="F352">
-        <v>-50.9</v>
+        <v>-85.1</v>
       </c>
       <c r="G352">
         <v>-0.74</v>
@@ -12871,16 +12871,16 @@
         <v>361</v>
       </c>
       <c r="C353">
-        <v>-20.1</v>
+        <v>-23.2</v>
       </c>
       <c r="D353">
-        <v>-16.2</v>
+        <v>-31.3</v>
       </c>
       <c r="E353">
-        <v>-26.2</v>
+        <v>-71.7</v>
       </c>
       <c r="F353">
-        <v>-59.1</v>
+        <v>-70</v>
       </c>
       <c r="G353">
         <v>-0.85</v>
@@ -12903,16 +12903,16 @@
         <v>362</v>
       </c>
       <c r="C354">
-        <v>-16.2</v>
+        <v>-22</v>
       </c>
       <c r="D354">
-        <v>-24.5</v>
+        <v>-36.8</v>
       </c>
       <c r="E354">
-        <v>-28.4</v>
+        <v>-73.2</v>
       </c>
       <c r="F354">
-        <v>-47</v>
+        <v>-88.4</v>
       </c>
       <c r="G354">
         <v>-1.43</v>
@@ -12935,16 +12935,16 @@
         <v>363</v>
       </c>
       <c r="C355">
-        <v>-10.4</v>
+        <v>-14.9</v>
       </c>
       <c r="D355">
-        <v>-19.9</v>
+        <v>-33.4</v>
       </c>
       <c r="E355">
-        <v>-28.6</v>
+        <v>-73.7</v>
       </c>
       <c r="F355">
-        <v>-48.6</v>
+        <v>-88.5</v>
       </c>
       <c r="G355">
         <v>-0.84</v>
@@ -12967,16 +12967,16 @@
         <v>364</v>
       </c>
       <c r="C356">
-        <v>-43.8</v>
+        <v>-47.8</v>
       </c>
       <c r="D356">
-        <v>-44.7</v>
+        <v>-49.1</v>
       </c>
       <c r="E356">
-        <v>-53.9</v>
+        <v>-70.1</v>
       </c>
       <c r="F356">
-        <v>-74.1</v>
+        <v>-60.6</v>
       </c>
       <c r="G356">
         <v>-1.15</v>
@@ -12999,16 +12999,16 @@
         <v>365</v>
       </c>
       <c r="C357">
-        <v>-51.5</v>
+        <v>-55</v>
       </c>
       <c r="D357">
-        <v>-48.1</v>
+        <v>-51.9</v>
       </c>
       <c r="E357">
-        <v>-57.9</v>
+        <v>-74.4</v>
       </c>
       <c r="F357">
-        <v>-80.4</v>
+        <v>-65.7</v>
       </c>
       <c r="G357">
         <v>-1.14</v>
@@ -13031,16 +13031,16 @@
         <v>366</v>
       </c>
       <c r="C358">
-        <v>-13.4</v>
+        <v>-15</v>
       </c>
       <c r="D358">
-        <v>1.3</v>
+        <v>-12.6</v>
       </c>
       <c r="E358">
-        <v>1.2</v>
+        <v>-60.9</v>
       </c>
       <c r="F358">
-        <v>-39.9</v>
+        <v>-58.1</v>
       </c>
       <c r="G358">
         <v>-0.8</v>
@@ -13063,16 +13063,16 @@
         <v>367</v>
       </c>
       <c r="C359">
-        <v>-10.3</v>
+        <v>-15</v>
       </c>
       <c r="D359">
-        <v>-25.2</v>
+        <v>-32.8</v>
       </c>
       <c r="E359">
-        <v>-23</v>
+        <v>-71.4</v>
       </c>
       <c r="F359">
-        <v>-42.4</v>
+        <v>-82</v>
       </c>
       <c r="G359">
         <v>-0.51</v>
@@ -13095,16 +13095,16 @@
         <v>368</v>
       </c>
       <c r="C360">
-        <v>-11.2</v>
+        <v>-12.8</v>
       </c>
       <c r="D360">
-        <v>10</v>
+        <v>-9</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>-62.3</v>
       </c>
       <c r="F360">
-        <v>-44.2</v>
+        <v>-60.5</v>
       </c>
       <c r="G360">
         <v>-0.82</v>
@@ -13127,16 +13127,16 @@
         <v>369</v>
       </c>
       <c r="C361">
-        <v>-16.3</v>
+        <v>-18.5</v>
       </c>
       <c r="D361">
-        <v>3</v>
+        <v>-14.5</v>
       </c>
       <c r="E361">
-        <v>-9.5</v>
+        <v>-63.8</v>
       </c>
       <c r="F361">
-        <v>-52.6</v>
+        <v>-67.8</v>
       </c>
       <c r="G361">
         <v>-0.83</v>
@@ -13159,16 +13159,16 @@
         <v>370</v>
       </c>
       <c r="C362">
-        <v>-21.4</v>
+        <v>-23.5</v>
       </c>
       <c r="D362">
-        <v>-6.5</v>
+        <v>-22.2</v>
       </c>
       <c r="E362">
-        <v>-23.3</v>
+        <v>-69.1</v>
       </c>
       <c r="F362">
-        <v>-62.2</v>
+        <v>-67</v>
       </c>
       <c r="G362">
         <v>-0.84</v>
@@ -13191,16 +13191,16 @@
         <v>371</v>
       </c>
       <c r="C363">
-        <v>-9.4</v>
+        <v>-15.3</v>
       </c>
       <c r="D363">
-        <v>-10.9</v>
+        <v>-27.1</v>
       </c>
       <c r="E363">
-        <v>-14.5</v>
+        <v>-61.7</v>
       </c>
       <c r="F363">
-        <v>-22.9</v>
+        <v>-87.4</v>
       </c>
       <c r="G363">
         <v>-1.14</v>
@@ -13223,16 +13223,16 @@
         <v>372</v>
       </c>
       <c r="C364">
-        <v>-5</v>
+        <v>-10.1</v>
       </c>
       <c r="D364">
-        <v>-7.1</v>
+        <v>-24</v>
       </c>
       <c r="E364">
-        <v>-16.2</v>
+        <v>-64.4</v>
       </c>
       <c r="F364">
-        <v>-29.5</v>
+        <v>-88.2</v>
       </c>
       <c r="G364">
         <v>-0.91</v>
@@ -13255,16 +13255,16 @@
         <v>373</v>
       </c>
       <c r="C365">
-        <v>1.5</v>
+        <v>-3.8</v>
       </c>
       <c r="D365">
-        <v>-0.7</v>
+        <v>-18.6</v>
       </c>
       <c r="E365">
-        <v>-10</v>
+        <v>-59.9</v>
       </c>
       <c r="F365">
-        <v>-18.2</v>
+        <v>-87.8</v>
       </c>
       <c r="G365">
         <v>-0.75</v>
@@ -13287,16 +13287,16 @@
         <v>374</v>
       </c>
       <c r="C366">
-        <v>-0.5</v>
+        <v>-5.8</v>
       </c>
       <c r="D366">
-        <v>-7.5</v>
+        <v>-23.1</v>
       </c>
       <c r="E366">
-        <v>-14.1</v>
+        <v>-63.7</v>
       </c>
       <c r="F366">
-        <v>-24.6</v>
+        <v>-89.6</v>
       </c>
       <c r="G366">
         <v>-0.65</v>
@@ -13319,16 +13319,16 @@
         <v>375</v>
       </c>
       <c r="C367">
-        <v>-0.2</v>
+        <v>-2.6</v>
       </c>
       <c r="D367">
-        <v>-8</v>
+        <v>-12.9</v>
       </c>
       <c r="E367">
-        <v>-20</v>
+        <v>-64.7</v>
       </c>
       <c r="F367">
-        <v>-37.7</v>
+        <v>-70.2</v>
       </c>
       <c r="G367">
         <v>-0.65</v>
@@ -13351,16 +13351,16 @@
         <v>376</v>
       </c>
       <c r="C368">
-        <v>-25.2</v>
+        <v>-29.4</v>
       </c>
       <c r="D368">
-        <v>-21.2</v>
+        <v>-34.4</v>
       </c>
       <c r="E368">
-        <v>-41.6</v>
+        <v>-73.9</v>
       </c>
       <c r="F368">
-        <v>-83.3</v>
+        <v>-59.2</v>
       </c>
       <c r="G368">
         <v>-3.01</v>
@@ -13383,16 +13383,16 @@
         <v>377</v>
       </c>
       <c r="C369">
-        <v>-23.1</v>
+        <v>-31.1</v>
       </c>
       <c r="D369">
-        <v>-19.8</v>
+        <v>-38.1</v>
       </c>
       <c r="E369">
-        <v>-57</v>
+        <v>-75.9</v>
       </c>
       <c r="F369">
-        <v>-81</v>
+        <v>-72.5</v>
       </c>
       <c r="G369">
         <v>-2.01</v>
@@ -13415,16 +13415,16 @@
         <v>378</v>
       </c>
       <c r="C370">
-        <v>-21.5</v>
+        <v>-30.5</v>
       </c>
       <c r="D370">
-        <v>-22.3</v>
+        <v>-37.3</v>
       </c>
       <c r="E370">
-        <v>-59.5</v>
+        <v>-75.7</v>
       </c>
       <c r="F370">
-        <v>-80</v>
+        <v>-69.8</v>
       </c>
       <c r="G370">
         <v>-2.24</v>
@@ -13447,16 +13447,16 @@
         <v>379</v>
       </c>
       <c r="C371">
-        <v>-19.2</v>
+        <v>-25.9</v>
       </c>
       <c r="D371">
-        <v>-13.8</v>
+        <v>-34.3</v>
       </c>
       <c r="E371">
-        <v>-51.2</v>
+        <v>-70.6</v>
       </c>
       <c r="F371">
-        <v>-76.2</v>
+        <v>-59.3</v>
       </c>
       <c r="G371">
         <v>-1.46</v>
@@ -13479,16 +13479,16 @@
         <v>380</v>
       </c>
       <c r="C372">
-        <v>-38.6</v>
+        <v>-46.8</v>
       </c>
       <c r="D372">
-        <v>-50.6</v>
+        <v>-54.5</v>
       </c>
       <c r="E372">
-        <v>-68.9</v>
+        <v>-74.8</v>
       </c>
       <c r="F372">
-        <v>-81.5</v>
+        <v>-62.6</v>
       </c>
       <c r="G372">
         <v>-2.09</v>
@@ -13511,16 +13511,16 @@
         <v>381</v>
       </c>
       <c r="C373">
-        <v>-48.3</v>
+        <v>-52.3</v>
       </c>
       <c r="D373">
-        <v>-51.6</v>
+        <v>-55.2</v>
       </c>
       <c r="E373">
-        <v>-71.4</v>
+        <v>-75.1</v>
       </c>
       <c r="F373">
-        <v>-84.3</v>
+        <v>-54.6</v>
       </c>
       <c r="G373">
         <v>-1.88</v>
@@ -13543,16 +13543,16 @@
         <v>382</v>
       </c>
       <c r="C374">
-        <v>-51.2</v>
+        <v>-54.3</v>
       </c>
       <c r="D374">
-        <v>-38</v>
+        <v>-40</v>
       </c>
       <c r="E374">
-        <v>-33.3</v>
+        <v>-57.7</v>
       </c>
       <c r="F374">
-        <v>-47.8</v>
+        <v>-65.2</v>
       </c>
       <c r="G374">
         <v>-0.63</v>
@@ -13575,16 +13575,16 @@
         <v>383</v>
       </c>
       <c r="C375">
-        <v>-48.7</v>
+        <v>-48.6</v>
       </c>
       <c r="D375">
-        <v>-43.3</v>
+        <v>-35.6</v>
       </c>
       <c r="E375">
-        <v>-41</v>
+        <v>-51.1</v>
       </c>
       <c r="F375">
-        <v>-38.3</v>
+        <v>-43.2</v>
       </c>
       <c r="G375">
         <v>-0.3</v>
@@ -13607,16 +13607,16 @@
         <v>384</v>
       </c>
       <c r="C376">
-        <v>-33.3</v>
+        <v>-36.8</v>
       </c>
       <c r="D376">
-        <v>-25.2</v>
+        <v>-37.8</v>
       </c>
       <c r="E376">
-        <v>-36.6</v>
+        <v>-75.4</v>
       </c>
       <c r="F376">
-        <v>-69.2</v>
+        <v>-75.4</v>
       </c>
       <c r="G376">
         <v>-0.86</v>
@@ -13639,16 +13639,16 @@
         <v>385</v>
       </c>
       <c r="C377">
-        <v>-50.3</v>
+        <v>-56.5</v>
       </c>
       <c r="D377">
-        <v>-52.5</v>
+        <v>-58.6</v>
       </c>
       <c r="E377">
-        <v>-58.1</v>
+        <v>-78.9</v>
       </c>
       <c r="F377">
-        <v>-75.6</v>
+        <v>-77.8</v>
       </c>
       <c r="G377">
         <v>-1</v>
@@ -13671,16 +13671,16 @@
         <v>386</v>
       </c>
       <c r="C378">
-        <v>-20.9</v>
+        <v>-27.6</v>
       </c>
       <c r="D378">
-        <v>-18.2</v>
+        <v>-41.3</v>
       </c>
       <c r="E378">
-        <v>-37.3</v>
+        <v>-76.4</v>
       </c>
       <c r="F378">
-        <v>-76.3</v>
+        <v>-74.9</v>
       </c>
       <c r="G378">
         <v>-1.46</v>
@@ -13703,16 +13703,16 @@
         <v>387</v>
       </c>
       <c r="C379">
-        <v>-44.6</v>
+        <v>-48</v>
       </c>
       <c r="D379">
-        <v>-47.4</v>
+        <v>-49.2</v>
       </c>
       <c r="E379">
-        <v>-60.8</v>
+        <v>-71.2</v>
       </c>
       <c r="F379">
-        <v>-77.5</v>
+        <v>-54</v>
       </c>
       <c r="G379">
         <v>-1.88</v>
@@ -13735,16 +13735,16 @@
         <v>388</v>
       </c>
       <c r="C380">
-        <v>-30.4</v>
+        <v>-35.1</v>
       </c>
       <c r="D380">
-        <v>-36.1</v>
+        <v>-48.1</v>
       </c>
       <c r="E380">
-        <v>-38.2</v>
+        <v>-74.5</v>
       </c>
       <c r="F380">
-        <v>-72</v>
+        <v>-73</v>
       </c>
       <c r="G380">
         <v>-1.73</v>
@@ -13767,16 +13767,16 @@
         <v>389</v>
       </c>
       <c r="C381">
-        <v>-31.5</v>
+        <v>-36</v>
       </c>
       <c r="D381">
-        <v>-37.8</v>
+        <v>-48.9</v>
       </c>
       <c r="E381">
-        <v>-38.5</v>
+        <v>-75.6</v>
       </c>
       <c r="F381">
-        <v>-71.9</v>
+        <v>-74.1</v>
       </c>
       <c r="G381">
         <v>-1.73</v>
@@ -13799,16 +13799,16 @@
         <v>390</v>
       </c>
       <c r="C382">
-        <v>-23.3</v>
+        <v>-27.6</v>
       </c>
       <c r="D382">
-        <v>-22</v>
+        <v>-28.5</v>
       </c>
       <c r="E382">
-        <v>-9.9</v>
+        <v>-64.5</v>
       </c>
       <c r="F382">
-        <v>-31.9</v>
+        <v>-71.1</v>
       </c>
       <c r="G382">
         <v>-1.15</v>
@@ -13831,16 +13831,16 @@
         <v>391</v>
       </c>
       <c r="C383">
-        <v>-52.8</v>
+        <v>-57.1</v>
       </c>
       <c r="D383">
-        <v>-53.2</v>
+        <v>-55.6</v>
       </c>
       <c r="E383">
-        <v>-60.5</v>
+        <v>-74.1</v>
       </c>
       <c r="F383">
-        <v>-75.5</v>
+        <v>-65.5</v>
       </c>
       <c r="G383">
         <v>-1.08</v>
@@ -13863,16 +13863,16 @@
         <v>392</v>
       </c>
       <c r="C384">
-        <v>-33.4</v>
+        <v>-41.3</v>
       </c>
       <c r="D384">
-        <v>-41.4</v>
+        <v>-57.2</v>
       </c>
       <c r="E384">
-        <v>-44.8</v>
+        <v>-78.4</v>
       </c>
       <c r="F384">
-        <v>-61.5</v>
+        <v>-80.9</v>
       </c>
       <c r="G384">
         <v>-0.96</v>
@@ -13895,16 +13895,16 @@
         <v>393</v>
       </c>
       <c r="C385">
-        <v>-30.4</v>
+        <v>-34.9</v>
       </c>
       <c r="D385">
-        <v>-39.7</v>
+        <v>-48</v>
       </c>
       <c r="E385">
-        <v>-36.7</v>
+        <v>-71.3</v>
       </c>
       <c r="F385">
-        <v>-68.6</v>
+        <v>-72.2</v>
       </c>
       <c r="G385">
         <v>-1.74</v>
@@ -13927,16 +13927,16 @@
         <v>394</v>
       </c>
       <c r="C386">
-        <v>-17.9</v>
+        <v>-25.7</v>
       </c>
       <c r="D386">
-        <v>-17.9</v>
+        <v>-36.8</v>
       </c>
       <c r="E386">
-        <v>-47</v>
+        <v>-66.2</v>
       </c>
       <c r="F386">
-        <v>-65.1</v>
+        <v>-68.8</v>
       </c>
       <c r="G386">
         <v>-1.24</v>
@@ -13959,16 +13959,16 @@
         <v>395</v>
       </c>
       <c r="C387">
-        <v>-21.6</v>
+        <v>-29.6</v>
       </c>
       <c r="D387">
-        <v>-21.3</v>
+        <v>-38.4</v>
       </c>
       <c r="E387">
-        <v>-60.8</v>
+        <v>-76.2</v>
       </c>
       <c r="F387">
-        <v>-76.6</v>
+        <v>-71.8</v>
       </c>
       <c r="G387">
         <v>-2.25</v>
@@ -13991,16 +13991,16 @@
         <v>396</v>
       </c>
       <c r="C388">
-        <v>-22.2</v>
+        <v>-28.6</v>
       </c>
       <c r="D388">
-        <v>-16.6</v>
+        <v>-38.4</v>
       </c>
       <c r="E388">
-        <v>-43.7</v>
+        <v>-63.9</v>
       </c>
       <c r="F388">
-        <v>-64.8</v>
+        <v>-55.6</v>
       </c>
       <c r="G388">
         <v>-1.32</v>
@@ -14023,16 +14023,16 @@
         <v>397</v>
       </c>
       <c r="C389">
-        <v>-56.2</v>
+        <v>-62.2</v>
       </c>
       <c r="D389">
-        <v>-59.9</v>
+        <v>-65</v>
       </c>
       <c r="E389">
-        <v>-65.4</v>
+        <v>-81</v>
       </c>
       <c r="F389">
-        <v>-77.5</v>
+        <v>-82</v>
       </c>
       <c r="G389">
         <v>-1.08</v>
@@ -14055,16 +14055,16 @@
         <v>398</v>
       </c>
       <c r="C390">
-        <v>-51.4</v>
+        <v>-55.7</v>
       </c>
       <c r="D390">
-        <v>-51.9</v>
+        <v>-57.2</v>
       </c>
       <c r="E390">
-        <v>-54.1</v>
+        <v>-80.7</v>
       </c>
       <c r="F390">
-        <v>-79.6</v>
+        <v>-77.1</v>
       </c>
       <c r="G390">
         <v>-0.91</v>
@@ -14087,16 +14087,16 @@
         <v>399</v>
       </c>
       <c r="C391">
-        <v>-15.5</v>
+        <v>-22.7</v>
       </c>
       <c r="D391">
-        <v>-11.4</v>
+        <v>-33.2</v>
       </c>
       <c r="E391">
-        <v>-41</v>
+        <v>-68.4</v>
       </c>
       <c r="F391">
-        <v>-63</v>
+        <v>-64.2</v>
       </c>
       <c r="G391">
         <v>-0.94</v>
@@ -14119,16 +14119,16 @@
         <v>400</v>
       </c>
       <c r="C392">
-        <v>-22.3</v>
+        <v>-29.9</v>
       </c>
       <c r="D392">
-        <v>-21.8</v>
+        <v>-41.8</v>
       </c>
       <c r="E392">
-        <v>-41.6</v>
+        <v>-66.6</v>
       </c>
       <c r="F392">
-        <v>-60.8</v>
+        <v>-72.1</v>
       </c>
       <c r="G392">
         <v>-1.21</v>
@@ -14151,16 +14151,16 @@
         <v>401</v>
       </c>
       <c r="C393">
-        <v>-18.7</v>
+        <v>-25.5</v>
       </c>
       <c r="D393">
-        <v>-16.4</v>
+        <v>-34.5</v>
       </c>
       <c r="E393">
-        <v>-30</v>
+        <v>-62.2</v>
       </c>
       <c r="F393">
-        <v>-60.3</v>
+        <v>-69.8</v>
       </c>
       <c r="G393">
         <v>-1.16</v>
@@ -14183,16 +14183,16 @@
         <v>402</v>
       </c>
       <c r="C394">
-        <v>-17.6</v>
+        <v>-22.3</v>
       </c>
       <c r="D394">
-        <v>-27</v>
+        <v>-37.5</v>
       </c>
       <c r="E394">
-        <v>-30.5</v>
+        <v>-73.4</v>
       </c>
       <c r="F394">
-        <v>-50.7</v>
+        <v>-85.1</v>
       </c>
       <c r="G394">
         <v>-1.23</v>
@@ -14215,16 +14215,16 @@
         <v>403</v>
       </c>
       <c r="C395">
-        <v>-17.2</v>
+        <v>-26.7</v>
       </c>
       <c r="D395">
-        <v>-19.7</v>
+        <v>-31.9</v>
       </c>
       <c r="E395">
-        <v>-34.6</v>
+        <v>-74.8</v>
       </c>
       <c r="F395">
-        <v>-72.6</v>
+        <v>-66.4</v>
       </c>
       <c r="G395">
         <v>-1.11</v>
@@ -14247,16 +14247,16 @@
         <v>404</v>
       </c>
       <c r="C396">
-        <v>-31.2</v>
+        <v>-37.1</v>
       </c>
       <c r="D396">
-        <v>-35.7</v>
+        <v>-40.8</v>
       </c>
       <c r="E396">
-        <v>-38.8</v>
+        <v>-76.5</v>
       </c>
       <c r="F396">
-        <v>-73.7</v>
+        <v>-68.6</v>
       </c>
       <c r="G396">
         <v>-1.01</v>
@@ -14279,16 +14279,16 @@
         <v>405</v>
       </c>
       <c r="C397">
-        <v>-23.3</v>
+        <v>-27.6</v>
       </c>
       <c r="D397">
-        <v>-38.3</v>
+        <v>-46.3</v>
       </c>
       <c r="E397">
-        <v>-39.5</v>
+        <v>-71.7</v>
       </c>
       <c r="F397">
-        <v>-60.5</v>
+        <v>-72.8</v>
       </c>
       <c r="G397">
         <v>-0.87</v>
@@ -14311,16 +14311,16 @@
         <v>406</v>
       </c>
       <c r="C398">
-        <v>-26.2</v>
+        <v>-30.9</v>
       </c>
       <c r="D398">
-        <v>-35.4</v>
+        <v>-44.3</v>
       </c>
       <c r="E398">
-        <v>-34.6</v>
+        <v>-75.8</v>
       </c>
       <c r="F398">
-        <v>-53.3</v>
+        <v>-87.5</v>
       </c>
       <c r="G398">
         <v>-0.8</v>
@@ -14343,16 +14343,16 @@
         <v>407</v>
       </c>
       <c r="C399">
-        <v>-58.5</v>
+        <v>-61.7</v>
       </c>
       <c r="D399">
-        <v>-59.1</v>
+        <v>-61.8</v>
       </c>
       <c r="E399">
-        <v>-60.8</v>
+        <v>-80.6</v>
       </c>
       <c r="F399">
-        <v>-80.6</v>
+        <v>-76.8</v>
       </c>
       <c r="G399">
         <v>-0.91</v>
@@ -14375,16 +14375,16 @@
         <v>408</v>
       </c>
       <c r="C400">
-        <v>-18.9</v>
+        <v>-24.2</v>
       </c>
       <c r="D400">
-        <v>-25.2</v>
+        <v>-30.2</v>
       </c>
       <c r="E400">
-        <v>-17</v>
+        <v>-70.1</v>
       </c>
       <c r="F400">
-        <v>-41.7</v>
+        <v>-80.7</v>
       </c>
       <c r="G400">
         <v>-0.68</v>

--- a/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
+++ b/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
@@ -22,16 +22,16 @@
     <t>NOME</t>
   </si>
   <si>
-    <t>AN_ANUAL_202012</t>
-  </si>
-  <si>
-    <t>AN_SEM_202012</t>
-  </si>
-  <si>
-    <t>AN_TRI_202012</t>
-  </si>
-  <si>
-    <t>AN_202012</t>
+    <t>AN_ANUAL_202101</t>
+  </si>
+  <si>
+    <t>AN_SEM_202101</t>
+  </si>
+  <si>
+    <t>AN_TRI_202101</t>
+  </si>
+  <si>
+    <t>AN_20210115</t>
   </si>
   <si>
     <t>SPI1_202012</t>
@@ -1592,7 +1592,7 @@
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
@@ -1639,16 +1639,16 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>-36.5</v>
+        <v>-40.5</v>
       </c>
       <c r="D2">
-        <v>-24.9</v>
+        <v>-29.9</v>
       </c>
       <c r="E2">
-        <v>-6.2</v>
+        <v>-26.1</v>
       </c>
       <c r="F2">
-        <v>23.3</v>
+        <v>-76.4</v>
       </c>
       <c r="G2">
         <v>0.55</v>
@@ -1671,16 +1671,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>-45.1</v>
+        <v>-48.9</v>
       </c>
       <c r="D3">
-        <v>-31.4</v>
+        <v>-39</v>
       </c>
       <c r="E3">
-        <v>-18.1</v>
+        <v>-39.4</v>
       </c>
       <c r="F3">
-        <v>3.9</v>
+        <v>-87.9</v>
       </c>
       <c r="G3">
         <v>0.57</v>
@@ -1703,16 +1703,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>-34.2</v>
+        <v>-36.6</v>
       </c>
       <c r="D4">
-        <v>-37</v>
+        <v>-35.7</v>
       </c>
       <c r="E4">
-        <v>-26.5</v>
+        <v>-11.4</v>
       </c>
       <c r="F4">
-        <v>36.8</v>
+        <v>-52.7</v>
       </c>
       <c r="G4">
         <v>0.92</v>
@@ -1735,16 +1735,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>-40.6</v>
+        <v>-42.4</v>
       </c>
       <c r="D5">
-        <v>-41.2</v>
+        <v>-40.4</v>
       </c>
       <c r="E5">
-        <v>-33.3</v>
+        <v>-23.7</v>
       </c>
       <c r="F5">
-        <v>20.2</v>
+        <v>-63.3</v>
       </c>
       <c r="G5">
         <v>0.82</v>
@@ -1767,16 +1767,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>-44.1</v>
+        <v>-48.2</v>
       </c>
       <c r="D6">
-        <v>-36.5</v>
+        <v>-43.3</v>
       </c>
       <c r="E6">
-        <v>-26.2</v>
+        <v>-45.7</v>
       </c>
       <c r="F6">
-        <v>-9</v>
+        <v>-88.1</v>
       </c>
       <c r="G6">
         <v>0.67</v>
@@ -1799,16 +1799,16 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>-28.5</v>
+        <v>-37.6</v>
       </c>
       <c r="D7">
-        <v>-34.7</v>
+        <v>-37.2</v>
       </c>
       <c r="E7">
-        <v>-34.1</v>
+        <v>-34.6</v>
       </c>
       <c r="F7">
-        <v>40.8</v>
+        <v>-58.9</v>
       </c>
       <c r="G7">
         <v>-0.15</v>
@@ -1831,16 +1831,16 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>-29.4</v>
+        <v>-33.7</v>
       </c>
       <c r="D8">
-        <v>-33.4</v>
+        <v>-32.4</v>
       </c>
       <c r="E8">
-        <v>-33.1</v>
+        <v>-21.5</v>
       </c>
       <c r="F8">
-        <v>53.4</v>
+        <v>-40</v>
       </c>
       <c r="G8">
         <v>-0.69</v>
@@ -1863,16 +1863,16 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>-45</v>
+        <v>-49.9</v>
       </c>
       <c r="D9">
-        <v>-53.4</v>
+        <v>-54.9</v>
       </c>
       <c r="E9">
-        <v>-58.2</v>
+        <v>-66.9</v>
       </c>
       <c r="F9">
-        <v>-44.2</v>
+        <v>-75.6</v>
       </c>
       <c r="G9">
         <v>0.59</v>
@@ -1895,16 +1895,16 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>-39.8</v>
+        <v>-44.4</v>
       </c>
       <c r="D10">
-        <v>-46</v>
+        <v>-47.4</v>
       </c>
       <c r="E10">
         <v>-51.9</v>
       </c>
       <c r="F10">
-        <v>-16.3</v>
+        <v>-77</v>
       </c>
       <c r="G10">
         <v>1.22</v>
@@ -1927,16 +1927,16 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>-50.2</v>
+        <v>-52.5</v>
       </c>
       <c r="D11">
-        <v>-52.5</v>
+        <v>-55</v>
       </c>
       <c r="E11">
-        <v>-58.4</v>
+        <v>-58.7</v>
       </c>
       <c r="F11">
-        <v>-22.5</v>
+        <v>-84</v>
       </c>
       <c r="G11">
         <v>0.36</v>
@@ -1959,16 +1959,16 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>-50.4</v>
+        <v>-53.5</v>
       </c>
       <c r="D12">
-        <v>-45.5</v>
+        <v>-51.6</v>
       </c>
       <c r="E12">
-        <v>-52.2</v>
+        <v>-58.4</v>
       </c>
       <c r="F12">
-        <v>-30.4</v>
+        <v>-93.6</v>
       </c>
       <c r="G12">
         <v>0.83</v>
@@ -1991,16 +1991,16 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>-38.7</v>
+        <v>-46.5</v>
       </c>
       <c r="D13">
-        <v>-39.1</v>
+        <v>-42</v>
       </c>
       <c r="E13">
-        <v>-38.3</v>
+        <v>-47.1</v>
       </c>
       <c r="F13">
-        <v>7.1</v>
+        <v>-78.3</v>
       </c>
       <c r="G13">
         <v>1.21</v>
@@ -2023,16 +2023,16 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>-39.3</v>
+        <v>-43.4</v>
       </c>
       <c r="D14">
-        <v>-31.7</v>
+        <v>-35.1</v>
       </c>
       <c r="E14">
-        <v>-28.7</v>
+        <v>-40.4</v>
       </c>
       <c r="F14">
-        <v>26.3</v>
+        <v>-77.2</v>
       </c>
       <c r="G14">
         <v>0.91</v>
@@ -2055,16 +2055,16 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>-29.2</v>
+        <v>-37.7</v>
       </c>
       <c r="D15">
-        <v>-13.7</v>
+        <v>-26.6</v>
       </c>
       <c r="E15">
-        <v>-20.1</v>
+        <v>-43.8</v>
       </c>
       <c r="F15">
-        <v>23.3</v>
+        <v>-90.2</v>
       </c>
       <c r="G15">
         <v>0.32</v>
@@ -2087,16 +2087,16 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>-19.4</v>
+        <v>-27.3</v>
       </c>
       <c r="D16">
-        <v>-19.3</v>
+        <v>-31.1</v>
       </c>
       <c r="E16">
-        <v>-29.5</v>
+        <v>-49.2</v>
       </c>
       <c r="F16">
-        <v>2.1</v>
+        <v>-84.4</v>
       </c>
       <c r="G16">
         <v>0.27</v>
@@ -2119,16 +2119,16 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>-45.5</v>
+        <v>-49.4</v>
       </c>
       <c r="D17">
-        <v>-44.7</v>
+        <v>-48.8</v>
       </c>
       <c r="E17">
-        <v>-48.3</v>
+        <v>-58.3</v>
       </c>
       <c r="F17">
-        <v>-26.7</v>
+        <v>-88.4</v>
       </c>
       <c r="G17">
         <v>-0.01</v>
@@ -2151,16 +2151,16 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>-53.6</v>
+        <v>-56.2</v>
       </c>
       <c r="D18">
-        <v>-56.9</v>
+        <v>-60.2</v>
       </c>
       <c r="E18">
-        <v>-59.2</v>
+        <v>-64.6</v>
       </c>
       <c r="F18">
-        <v>-35.8</v>
+        <v>-85.6</v>
       </c>
       <c r="G18">
         <v>0.08</v>
@@ -2183,16 +2183,16 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>-47.9</v>
+        <v>-46.5</v>
       </c>
       <c r="D19">
-        <v>-30.9</v>
+        <v>-36.9</v>
       </c>
       <c r="E19">
-        <v>-22.7</v>
+        <v>-36.9</v>
       </c>
       <c r="F19">
-        <v>4.3</v>
+        <v>-58.6</v>
       </c>
       <c r="G19">
         <v>0.97</v>
@@ -2215,16 +2215,16 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>-54.2</v>
+        <v>-56.2</v>
       </c>
       <c r="D20">
-        <v>-42.5</v>
+        <v>-47</v>
       </c>
       <c r="E20">
-        <v>-34.9</v>
+        <v>-48</v>
       </c>
       <c r="F20">
-        <v>-21.8</v>
+        <v>-72.3</v>
       </c>
       <c r="G20">
         <v>0.4</v>
@@ -2247,16 +2247,16 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>-57</v>
+        <v>-59.3</v>
       </c>
       <c r="D21">
-        <v>-59.2</v>
+        <v>-62.4</v>
       </c>
       <c r="E21">
-        <v>-60.5</v>
+        <v>-63.2</v>
       </c>
       <c r="F21">
-        <v>-29.9</v>
+        <v>-83.9</v>
       </c>
       <c r="G21">
         <v>1.64</v>
@@ -2279,16 +2279,16 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>-52.5</v>
+        <v>-53.7</v>
       </c>
       <c r="D22">
-        <v>-54.5</v>
+        <v>-56</v>
       </c>
       <c r="E22">
-        <v>-54.8</v>
+        <v>-53</v>
       </c>
       <c r="F22">
-        <v>-17.9</v>
+        <v>-72.8</v>
       </c>
       <c r="G22">
         <v>1.76</v>
@@ -2311,16 +2311,16 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>-33.1</v>
+        <v>-41.9</v>
       </c>
       <c r="D23">
-        <v>-37.7</v>
+        <v>-40.5</v>
       </c>
       <c r="E23">
-        <v>-35.4</v>
+        <v>-38.8</v>
       </c>
       <c r="F23">
-        <v>38</v>
+        <v>-65.7</v>
       </c>
       <c r="G23">
         <v>0.49</v>
@@ -2343,16 +2343,16 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>-57.5</v>
+        <v>-58.5</v>
       </c>
       <c r="D24">
-        <v>-48.7</v>
+        <v>-52</v>
       </c>
       <c r="E24">
-        <v>-44.6</v>
+        <v>-53.8</v>
       </c>
       <c r="F24">
-        <v>-30.2</v>
+        <v>-76.3</v>
       </c>
       <c r="G24">
         <v>0.64</v>
@@ -2375,16 +2375,16 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>-57.7</v>
+        <v>-59.2</v>
       </c>
       <c r="D25">
-        <v>-51.3</v>
+        <v>-56.4</v>
       </c>
       <c r="E25">
-        <v>-49.4</v>
+        <v>-61.7</v>
       </c>
       <c r="F25">
-        <v>-48.3</v>
+        <v>-82.4</v>
       </c>
       <c r="G25">
         <v>0.69</v>
@@ -2407,16 +2407,16 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>-17.4</v>
+        <v>-24.4</v>
       </c>
       <c r="D26">
-        <v>-28</v>
+        <v>-28.7</v>
       </c>
       <c r="E26">
-        <v>-28.6</v>
+        <v>-18</v>
       </c>
       <c r="F26">
-        <v>36.7</v>
+        <v>-40.6</v>
       </c>
       <c r="G26">
         <v>0.29</v>
@@ -2439,16 +2439,16 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>-17.1</v>
+        <v>-23.2</v>
       </c>
       <c r="D27">
-        <v>-27.3</v>
+        <v>-25.1</v>
       </c>
       <c r="E27">
-        <v>-24.6</v>
+        <v>-13.4</v>
       </c>
       <c r="F27">
-        <v>43</v>
+        <v>-34.7</v>
       </c>
       <c r="G27">
         <v>0.24</v>
@@ -2471,16 +2471,16 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>-40.4</v>
+        <v>-43.1</v>
       </c>
       <c r="D28">
-        <v>-46</v>
+        <v>-45.5</v>
       </c>
       <c r="E28">
-        <v>-35.9</v>
+        <v>-28.8</v>
       </c>
       <c r="F28">
-        <v>16.1</v>
+        <v>-69.2</v>
       </c>
       <c r="G28">
         <v>1.02</v>
@@ -2503,16 +2503,16 @@
         <v>37</v>
       </c>
       <c r="C29">
-        <v>-44.6</v>
+        <v>-48.9</v>
       </c>
       <c r="D29">
-        <v>-36.7</v>
+        <v>-42.8</v>
       </c>
       <c r="E29">
-        <v>-36</v>
+        <v>-46.8</v>
       </c>
       <c r="F29">
-        <v>-6.1</v>
+        <v>-89.5</v>
       </c>
       <c r="G29">
         <v>1.05</v>
@@ -2535,16 +2535,16 @@
         <v>38</v>
       </c>
       <c r="C30">
-        <v>-30.8</v>
+        <v>-32</v>
       </c>
       <c r="D30">
-        <v>-35.7</v>
+        <v>-38</v>
       </c>
       <c r="E30">
-        <v>-35.7</v>
+        <v>-26.5</v>
       </c>
       <c r="F30">
-        <v>16.1</v>
+        <v>-53.4</v>
       </c>
       <c r="G30">
         <v>0.28</v>
@@ -2567,16 +2567,16 @@
         <v>39</v>
       </c>
       <c r="C31">
-        <v>-47.5</v>
+        <v>-50.9</v>
       </c>
       <c r="D31">
-        <v>-40.2</v>
+        <v>-47.9</v>
       </c>
       <c r="E31">
-        <v>-34.7</v>
+        <v>-62</v>
       </c>
       <c r="F31">
-        <v>-46.3</v>
+        <v>-92</v>
       </c>
       <c r="G31">
         <v>0.9</v>
@@ -2599,16 +2599,16 @@
         <v>40</v>
       </c>
       <c r="C32">
-        <v>-32.8</v>
+        <v>-40.8</v>
       </c>
       <c r="D32">
-        <v>-36</v>
+        <v>-39.1</v>
       </c>
       <c r="E32">
-        <v>-36.7</v>
+        <v>-44.2</v>
       </c>
       <c r="F32">
-        <v>10.5</v>
+        <v>-72.6</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2631,16 +2631,16 @@
         <v>41</v>
       </c>
       <c r="C33">
-        <v>-30.3</v>
+        <v>-34.6</v>
       </c>
       <c r="D33">
-        <v>-29.9</v>
+        <v>-30.6</v>
       </c>
       <c r="E33">
-        <v>-33.4</v>
+        <v>-34</v>
       </c>
       <c r="F33">
-        <v>17.9</v>
+        <v>-57.2</v>
       </c>
       <c r="G33">
         <v>0.48</v>
@@ -2663,16 +2663,16 @@
         <v>42</v>
       </c>
       <c r="C34">
-        <v>-42.6</v>
+        <v>-44</v>
       </c>
       <c r="D34">
-        <v>-37.1</v>
+        <v>-44</v>
       </c>
       <c r="E34">
-        <v>-21.9</v>
+        <v>-34.6</v>
       </c>
       <c r="F34">
-        <v>35.5</v>
+        <v>-67.4</v>
       </c>
       <c r="G34">
         <v>1.45</v>
@@ -2695,16 +2695,16 @@
         <v>43</v>
       </c>
       <c r="C35">
-        <v>-45.3</v>
+        <v>-48.6</v>
       </c>
       <c r="D35">
-        <v>-35.8</v>
+        <v>-41.1</v>
       </c>
       <c r="E35">
-        <v>-39.4</v>
+        <v>-47.6</v>
       </c>
       <c r="F35">
-        <v>-8.9</v>
+        <v>-88.2</v>
       </c>
       <c r="G35">
         <v>0.69</v>
@@ -2727,16 +2727,16 @@
         <v>44</v>
       </c>
       <c r="C36">
-        <v>-41</v>
+        <v>-45.1</v>
       </c>
       <c r="D36">
-        <v>-28</v>
+        <v>-33.2</v>
       </c>
       <c r="E36">
-        <v>-26.6</v>
+        <v>-38.6</v>
       </c>
       <c r="F36">
-        <v>7.3</v>
+        <v>-84.6</v>
       </c>
       <c r="G36">
         <v>0.78</v>
@@ -2759,16 +2759,16 @@
         <v>45</v>
       </c>
       <c r="C37">
-        <v>-34.5</v>
+        <v>-39.7</v>
       </c>
       <c r="D37">
-        <v>-21.5</v>
+        <v>-31.2</v>
       </c>
       <c r="E37">
-        <v>-8.7</v>
+        <v>-28.9</v>
       </c>
       <c r="F37">
-        <v>-2.2</v>
+        <v>-84</v>
       </c>
       <c r="G37">
         <v>0.49</v>
@@ -2791,16 +2791,16 @@
         <v>46</v>
       </c>
       <c r="C38">
-        <v>-34.9</v>
+        <v>-39.3</v>
       </c>
       <c r="D38">
-        <v>-25</v>
+        <v>-32.2</v>
       </c>
       <c r="E38">
-        <v>-21.9</v>
+        <v>-34.6</v>
       </c>
       <c r="F38">
-        <v>29.9</v>
+        <v>-84.7</v>
       </c>
       <c r="G38">
         <v>1.51</v>
@@ -2823,16 +2823,16 @@
         <v>47</v>
       </c>
       <c r="C39">
-        <v>-39.7</v>
+        <v>-44.9</v>
       </c>
       <c r="D39">
-        <v>-31.6</v>
+        <v>-33.8</v>
       </c>
       <c r="E39">
-        <v>-25.2</v>
+        <v>-38.9</v>
       </c>
       <c r="F39">
-        <v>5.2</v>
+        <v>-85.1</v>
       </c>
       <c r="G39">
         <v>0.77</v>
@@ -2855,16 +2855,16 @@
         <v>48</v>
       </c>
       <c r="C40">
-        <v>-45.1</v>
+        <v>-49.7</v>
       </c>
       <c r="D40">
-        <v>-39.8</v>
+        <v>-41.1</v>
       </c>
       <c r="E40">
-        <v>-37</v>
+        <v>-49.2</v>
       </c>
       <c r="F40">
-        <v>-18.5</v>
+        <v>-86.3</v>
       </c>
       <c r="G40">
         <v>0.67</v>
@@ -2887,16 +2887,16 @@
         <v>49</v>
       </c>
       <c r="C41">
-        <v>-16</v>
+        <v>-19.2</v>
       </c>
       <c r="D41">
-        <v>-13.4</v>
+        <v>-11.7</v>
       </c>
       <c r="E41">
-        <v>-13.3</v>
+        <v>2.4</v>
       </c>
       <c r="F41">
-        <v>60.1</v>
+        <v>-29.7</v>
       </c>
       <c r="G41">
         <v>1.1</v>
@@ -2919,16 +2919,16 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>-34.8</v>
+        <v>-38.8</v>
       </c>
       <c r="D42">
-        <v>-22.7</v>
+        <v>-33.3</v>
       </c>
       <c r="E42">
-        <v>-11.4</v>
+        <v>-30.4</v>
       </c>
       <c r="F42">
-        <v>14.5</v>
+        <v>-83.4</v>
       </c>
       <c r="G42">
         <v>0.36</v>
@@ -2951,16 +2951,16 @@
         <v>51</v>
       </c>
       <c r="C43">
-        <v>-42</v>
+        <v>-43.4</v>
       </c>
       <c r="D43">
-        <v>-33.7</v>
+        <v>-40.7</v>
       </c>
       <c r="E43">
-        <v>-23.8</v>
+        <v>-35.5</v>
       </c>
       <c r="F43">
-        <v>13.7</v>
+        <v>-68.1</v>
       </c>
       <c r="G43">
         <v>0.58</v>
@@ -2983,16 +2983,16 @@
         <v>52</v>
       </c>
       <c r="C44">
-        <v>-26.4</v>
+        <v>-27.9</v>
       </c>
       <c r="D44">
-        <v>-28.2</v>
+        <v>-24.9</v>
       </c>
       <c r="E44">
-        <v>-24.8</v>
+        <v>-6</v>
       </c>
       <c r="F44">
-        <v>46</v>
+        <v>-29.4</v>
       </c>
       <c r="G44">
         <v>0.51</v>
@@ -3015,16 +3015,16 @@
         <v>53</v>
       </c>
       <c r="C45">
-        <v>-33</v>
+        <v>-35.1</v>
       </c>
       <c r="D45">
-        <v>-40.7</v>
+        <v>-33.7</v>
       </c>
       <c r="E45">
-        <v>-36</v>
+        <v>-17.9</v>
       </c>
       <c r="F45">
-        <v>29.3</v>
+        <v>-13.8</v>
       </c>
       <c r="G45">
         <v>-1.05</v>
@@ -3047,16 +3047,16 @@
         <v>54</v>
       </c>
       <c r="C46">
-        <v>-30.2</v>
+        <v>-31.5</v>
       </c>
       <c r="D46">
-        <v>-37.3</v>
+        <v>-28.7</v>
       </c>
       <c r="E46">
-        <v>-32.7</v>
+        <v>-10.3</v>
       </c>
       <c r="F46">
-        <v>35.6</v>
+        <v>-1.6</v>
       </c>
       <c r="G46">
         <v>-1.01</v>
@@ -3079,16 +3079,16 @@
         <v>55</v>
       </c>
       <c r="C47">
-        <v>-26.2</v>
+        <v>-28.1</v>
       </c>
       <c r="D47">
-        <v>-29.2</v>
+        <v>-26.5</v>
       </c>
       <c r="E47">
-        <v>-26.7</v>
+        <v>-12.3</v>
       </c>
       <c r="F47">
-        <v>43.8</v>
+        <v>-29.8</v>
       </c>
       <c r="G47">
         <v>0.1</v>
@@ -3111,16 +3111,16 @@
         <v>56</v>
       </c>
       <c r="C48">
-        <v>-23.3</v>
+        <v>-27.5</v>
       </c>
       <c r="D48">
-        <v>-25.7</v>
+        <v>-24.7</v>
       </c>
       <c r="E48">
-        <v>-27.4</v>
+        <v>-9.6</v>
       </c>
       <c r="F48">
-        <v>61.1</v>
+        <v>-44.5</v>
       </c>
       <c r="G48">
         <v>0.82</v>
@@ -3143,16 +3143,16 @@
         <v>57</v>
       </c>
       <c r="C49">
-        <v>-37.4</v>
+        <v>-40.9</v>
       </c>
       <c r="D49">
-        <v>-17.9</v>
+        <v>-23.9</v>
       </c>
       <c r="E49">
-        <v>5.4</v>
+        <v>-15.6</v>
       </c>
       <c r="F49">
-        <v>42.9</v>
+        <v>-78.6</v>
       </c>
       <c r="G49">
         <v>0.56</v>
@@ -3175,16 +3175,16 @@
         <v>58</v>
       </c>
       <c r="C50">
-        <v>-46.1</v>
+        <v>-51.2</v>
       </c>
       <c r="D50">
-        <v>-38.5</v>
+        <v>-43.8</v>
       </c>
       <c r="E50">
-        <v>-31.7</v>
+        <v>-49.4</v>
       </c>
       <c r="F50">
-        <v>-16.7</v>
+        <v>-88.2</v>
       </c>
       <c r="G50">
         <v>0.6</v>
@@ -3207,16 +3207,16 @@
         <v>59</v>
       </c>
       <c r="C51">
-        <v>-43</v>
+        <v>-47.5</v>
       </c>
       <c r="D51">
-        <v>-32.4</v>
+        <v>-37.8</v>
       </c>
       <c r="E51">
-        <v>-28.9</v>
+        <v>-46.6</v>
       </c>
       <c r="F51">
-        <v>-10.5</v>
+        <v>-91.9</v>
       </c>
       <c r="G51">
         <v>0.63</v>
@@ -3239,16 +3239,16 @@
         <v>60</v>
       </c>
       <c r="C52">
-        <v>-47.2</v>
+        <v>-52.6</v>
       </c>
       <c r="D52">
-        <v>-42</v>
+        <v>-47.7</v>
       </c>
       <c r="E52">
-        <v>-42.9</v>
+        <v>-57.1</v>
       </c>
       <c r="F52">
-        <v>-17.6</v>
+        <v>-90.1</v>
       </c>
       <c r="G52">
         <v>0.77</v>
@@ -3271,16 +3271,16 @@
         <v>61</v>
       </c>
       <c r="C53">
-        <v>-49.4</v>
+        <v>-54.1</v>
       </c>
       <c r="D53">
-        <v>-43</v>
+        <v>-47.5</v>
       </c>
       <c r="E53">
-        <v>-42.2</v>
+        <v>-60.9</v>
       </c>
       <c r="F53">
-        <v>-29.2</v>
+        <v>-91.9</v>
       </c>
       <c r="G53">
         <v>0.5</v>
@@ -3303,16 +3303,16 @@
         <v>62</v>
       </c>
       <c r="C54">
-        <v>-14.1</v>
+        <v>-13.9</v>
       </c>
       <c r="D54">
-        <v>-7</v>
+        <v>0.2</v>
       </c>
       <c r="E54">
-        <v>-15.4</v>
+        <v>12.8</v>
       </c>
       <c r="F54">
-        <v>50.7</v>
+        <v>2.2</v>
       </c>
       <c r="G54">
         <v>0.71</v>
@@ -3335,16 +3335,16 @@
         <v>63</v>
       </c>
       <c r="C55">
-        <v>-45.6</v>
+        <v>-48.5</v>
       </c>
       <c r="D55">
-        <v>-35.7</v>
+        <v>-43</v>
       </c>
       <c r="E55">
-        <v>-29.1</v>
+        <v>-44.7</v>
       </c>
       <c r="F55">
-        <v>-6.5</v>
+        <v>-78.5</v>
       </c>
       <c r="G55">
         <v>0.36</v>
@@ -3367,16 +3367,16 @@
         <v>64</v>
       </c>
       <c r="C56">
-        <v>-44.5</v>
+        <v>-48.3</v>
       </c>
       <c r="D56">
-        <v>-34.3</v>
+        <v>-38.9</v>
       </c>
       <c r="E56">
-        <v>-24</v>
+        <v>-43.5</v>
       </c>
       <c r="F56">
-        <v>-19</v>
+        <v>-75.9</v>
       </c>
       <c r="G56">
         <v>0.51</v>
@@ -3399,16 +3399,16 @@
         <v>65</v>
       </c>
       <c r="C57">
-        <v>-27.5</v>
+        <v>-28.5</v>
       </c>
       <c r="D57">
-        <v>-13.6</v>
+        <v>-20.3</v>
       </c>
       <c r="E57">
-        <v>-23.3</v>
+        <v>-15</v>
       </c>
       <c r="F57">
-        <v>50.7</v>
+        <v>-56.7</v>
       </c>
       <c r="G57">
         <v>0.58</v>
@@ -3431,16 +3431,16 @@
         <v>66</v>
       </c>
       <c r="C58">
-        <v>-26.2</v>
+        <v>-28.2</v>
       </c>
       <c r="D58">
-        <v>-11.8</v>
+        <v>-19.2</v>
       </c>
       <c r="E58">
-        <v>-16.5</v>
+        <v>-11.7</v>
       </c>
       <c r="F58">
-        <v>67</v>
+        <v>-59</v>
       </c>
       <c r="G58">
         <v>0.9</v>
@@ -3463,16 +3463,16 @@
         <v>67</v>
       </c>
       <c r="C59">
-        <v>-25.5</v>
+        <v>-26.5</v>
       </c>
       <c r="D59">
-        <v>-18.7</v>
+        <v>-21.8</v>
       </c>
       <c r="E59">
-        <v>-24.3</v>
+        <v>-13.6</v>
       </c>
       <c r="F59">
-        <v>43.9</v>
+        <v>-43.2</v>
       </c>
       <c r="G59">
         <v>1.09</v>
@@ -3495,16 +3495,16 @@
         <v>68</v>
       </c>
       <c r="C60">
-        <v>-29.9</v>
+        <v>-30.9</v>
       </c>
       <c r="D60">
-        <v>-23.9</v>
+        <v>-26.9</v>
       </c>
       <c r="E60">
-        <v>-22.5</v>
+        <v>-16.4</v>
       </c>
       <c r="F60">
-        <v>45.9</v>
+        <v>-51.3</v>
       </c>
       <c r="G60">
         <v>0.9</v>
@@ -3527,16 +3527,16 @@
         <v>69</v>
       </c>
       <c r="C61">
-        <v>-45.6</v>
+        <v>-49.2</v>
       </c>
       <c r="D61">
-        <v>-41.7</v>
+        <v>-45.1</v>
       </c>
       <c r="E61">
-        <v>-39.9</v>
+        <v>-53.5</v>
       </c>
       <c r="F61">
-        <v>-31.9</v>
+        <v>-85.1</v>
       </c>
       <c r="G61">
         <v>0.03</v>
@@ -3559,16 +3559,16 @@
         <v>70</v>
       </c>
       <c r="C62">
-        <v>-31</v>
+        <v>-33.1</v>
       </c>
       <c r="D62">
-        <v>-35.9</v>
+        <v>-31.9</v>
       </c>
       <c r="E62">
-        <v>-34.5</v>
+        <v>-8</v>
       </c>
       <c r="F62">
-        <v>59.3</v>
+        <v>-38.9</v>
       </c>
       <c r="G62">
         <v>0.73</v>
@@ -3591,16 +3591,16 @@
         <v>71</v>
       </c>
       <c r="C63">
-        <v>-26.4</v>
+        <v>-30.2</v>
       </c>
       <c r="D63">
-        <v>-13</v>
+        <v>-22.6</v>
       </c>
       <c r="E63">
-        <v>-13.9</v>
+        <v>-17</v>
       </c>
       <c r="F63">
-        <v>73.1</v>
+        <v>-69.2</v>
       </c>
       <c r="G63">
         <v>1.23</v>
@@ -3623,16 +3623,16 @@
         <v>72</v>
       </c>
       <c r="C64">
-        <v>-12.8</v>
+        <v>-17.2</v>
       </c>
       <c r="D64">
-        <v>-10.5</v>
+        <v>-15.9</v>
       </c>
       <c r="E64">
-        <v>-18.1</v>
+        <v>-8.5</v>
       </c>
       <c r="F64">
-        <v>66.8</v>
+        <v>-46.2</v>
       </c>
       <c r="G64">
         <v>1.01</v>
@@ -3655,16 +3655,16 @@
         <v>73</v>
       </c>
       <c r="C65">
-        <v>-16.9</v>
+        <v>-20.5</v>
       </c>
       <c r="D65">
-        <v>-12.9</v>
+        <v>-18.6</v>
       </c>
       <c r="E65">
-        <v>-18.4</v>
+        <v>-10.3</v>
       </c>
       <c r="F65">
-        <v>67.1</v>
+        <v>-51.6</v>
       </c>
       <c r="G65">
         <v>1.09</v>
@@ -3687,16 +3687,16 @@
         <v>74</v>
       </c>
       <c r="C66">
-        <v>-17.2</v>
+        <v>-20.3</v>
       </c>
       <c r="D66">
-        <v>-15.3</v>
+        <v>-16</v>
       </c>
       <c r="E66">
-        <v>-18.2</v>
+        <v>0.4</v>
       </c>
       <c r="F66">
-        <v>75.1</v>
+        <v>-37</v>
       </c>
       <c r="G66">
         <v>1.19</v>
@@ -3719,16 +3719,16 @@
         <v>75</v>
       </c>
       <c r="C67">
-        <v>-45.8</v>
+        <v>-45.7</v>
       </c>
       <c r="D67">
-        <v>-31.4</v>
+        <v>-35.3</v>
       </c>
       <c r="E67">
-        <v>-18.1</v>
+        <v>-30.1</v>
       </c>
       <c r="F67">
-        <v>11.6</v>
+        <v>-58.1</v>
       </c>
       <c r="G67">
         <v>1.24</v>
@@ -3751,16 +3751,16 @@
         <v>76</v>
       </c>
       <c r="C68">
-        <v>-35.9</v>
+        <v>-42.1</v>
       </c>
       <c r="D68">
-        <v>-40.1</v>
+        <v>-41.3</v>
       </c>
       <c r="E68">
-        <v>-35.5</v>
+        <v>-35.4</v>
       </c>
       <c r="F68">
-        <v>33.1</v>
+        <v>-58.4</v>
       </c>
       <c r="G68">
         <v>0.49</v>
@@ -3783,16 +3783,16 @@
         <v>77</v>
       </c>
       <c r="C69">
-        <v>-45.6</v>
+        <v>-51.6</v>
       </c>
       <c r="D69">
-        <v>-39.3</v>
+        <v>-44.9</v>
       </c>
       <c r="E69">
-        <v>-38.4</v>
+        <v>-58.1</v>
       </c>
       <c r="F69">
-        <v>-17.8</v>
+        <v>-93</v>
       </c>
       <c r="G69">
         <v>0.65</v>
@@ -3815,16 +3815,16 @@
         <v>78</v>
       </c>
       <c r="C70">
-        <v>-46.6</v>
+        <v>-51.6</v>
       </c>
       <c r="D70">
-        <v>-45.2</v>
+        <v>-50.1</v>
       </c>
       <c r="E70">
-        <v>-49.2</v>
+        <v>-62.6</v>
       </c>
       <c r="F70">
-        <v>-32.3</v>
+        <v>-92.1</v>
       </c>
       <c r="G70">
         <v>0.34</v>
@@ -3847,16 +3847,16 @@
         <v>79</v>
       </c>
       <c r="C71">
-        <v>-29.9</v>
+        <v>-40.8</v>
       </c>
       <c r="D71">
-        <v>-29.9</v>
+        <v>-35.5</v>
       </c>
       <c r="E71">
-        <v>-28.2</v>
+        <v>-39.1</v>
       </c>
       <c r="F71">
-        <v>49.2</v>
+        <v>-75.7</v>
       </c>
       <c r="G71">
         <v>0.93</v>
@@ -3879,16 +3879,16 @@
         <v>80</v>
       </c>
       <c r="C72">
-        <v>-33.1</v>
+        <v>-38.2</v>
       </c>
       <c r="D72">
-        <v>-39.7</v>
+        <v>-40.1</v>
       </c>
       <c r="E72">
-        <v>-34.3</v>
+        <v>-31</v>
       </c>
       <c r="F72">
-        <v>33.3</v>
+        <v>-60.1</v>
       </c>
       <c r="G72">
         <v>0.74</v>
@@ -3911,16 +3911,16 @@
         <v>81</v>
       </c>
       <c r="C73">
-        <v>-21.4</v>
+        <v>-33.4</v>
       </c>
       <c r="D73">
-        <v>-35.7</v>
+        <v>-40.7</v>
       </c>
       <c r="E73">
-        <v>-41.4</v>
+        <v>-54.9</v>
       </c>
       <c r="F73">
-        <v>-15.3</v>
+        <v>-78.6</v>
       </c>
       <c r="G73">
         <v>0.56</v>
@@ -3943,16 +3943,16 @@
         <v>82</v>
       </c>
       <c r="C74">
-        <v>-10.2</v>
+        <v>-21.9</v>
       </c>
       <c r="D74">
-        <v>-30.4</v>
+        <v>-37.4</v>
       </c>
       <c r="E74">
-        <v>-34.3</v>
+        <v>-48.8</v>
       </c>
       <c r="F74">
-        <v>0.9</v>
+        <v>-83.6</v>
       </c>
       <c r="G74">
         <v>0.53</v>
@@ -3975,16 +3975,16 @@
         <v>83</v>
       </c>
       <c r="C75">
-        <v>1.9</v>
+        <v>-6.4</v>
       </c>
       <c r="D75">
-        <v>-24.8</v>
+        <v>-20</v>
       </c>
       <c r="E75">
-        <v>-31.1</v>
+        <v>-38.9</v>
       </c>
       <c r="F75">
-        <v>-15.4</v>
+        <v>-25.2</v>
       </c>
       <c r="G75">
         <v>0.58</v>
@@ -4007,16 +4007,16 @@
         <v>84</v>
       </c>
       <c r="C76">
-        <v>11.6</v>
+        <v>3.6</v>
       </c>
       <c r="D76">
-        <v>-16.2</v>
+        <v>-12.3</v>
       </c>
       <c r="E76">
-        <v>-22.4</v>
+        <v>-32</v>
       </c>
       <c r="F76">
-        <v>-7.5</v>
+        <v>-12.6</v>
       </c>
       <c r="G76">
         <v>0.58</v>
@@ -4039,16 +4039,16 @@
         <v>85</v>
       </c>
       <c r="C77">
-        <v>-23.8</v>
+        <v>-31.3</v>
       </c>
       <c r="D77">
-        <v>-44.2</v>
+        <v>-43.2</v>
       </c>
       <c r="E77">
-        <v>-51.4</v>
+        <v>-58.9</v>
       </c>
       <c r="F77">
-        <v>-40.6</v>
+        <v>-58.7</v>
       </c>
       <c r="G77">
         <v>0.59</v>
@@ -4071,16 +4071,16 @@
         <v>86</v>
       </c>
       <c r="C78">
-        <v>-12.6</v>
+        <v>-20.4</v>
       </c>
       <c r="D78">
-        <v>-31.2</v>
+        <v>-31.9</v>
       </c>
       <c r="E78">
-        <v>-39.8</v>
+        <v>-53.6</v>
       </c>
       <c r="F78">
-        <v>-31</v>
+        <v>-52.9</v>
       </c>
       <c r="G78">
         <v>0.59</v>
@@ -4103,16 +4103,16 @@
         <v>87</v>
       </c>
       <c r="C79">
-        <v>-36.8</v>
+        <v>-42.1</v>
       </c>
       <c r="D79">
-        <v>-38.2</v>
+        <v>-41.6</v>
       </c>
       <c r="E79">
-        <v>-38.7</v>
+        <v>-40.5</v>
       </c>
       <c r="F79">
-        <v>19.8</v>
+        <v>-79.4</v>
       </c>
       <c r="G79">
         <v>0.48</v>
@@ -4135,16 +4135,16 @@
         <v>88</v>
       </c>
       <c r="C80">
-        <v>-40.6</v>
+        <v>-44.7</v>
       </c>
       <c r="D80">
-        <v>-43.4</v>
+        <v>-46.5</v>
       </c>
       <c r="E80">
-        <v>-46.2</v>
+        <v>-49.6</v>
       </c>
       <c r="F80">
-        <v>4.4</v>
+        <v>-84.5</v>
       </c>
       <c r="G80">
         <v>0.28</v>
@@ -4167,16 +4167,16 @@
         <v>89</v>
       </c>
       <c r="C81">
-        <v>-36.2</v>
+        <v>-37.6</v>
       </c>
       <c r="D81">
-        <v>-31.8</v>
+        <v>-30.5</v>
       </c>
       <c r="E81">
-        <v>-34.8</v>
+        <v>-31.6</v>
       </c>
       <c r="F81">
-        <v>24</v>
+        <v>-49.9</v>
       </c>
       <c r="G81">
         <v>0.46</v>
@@ -4199,16 +4199,16 @@
         <v>90</v>
       </c>
       <c r="C82">
-        <v>-46.8</v>
+        <v>-45.8</v>
       </c>
       <c r="D82">
-        <v>-40.8</v>
+        <v>-35.6</v>
       </c>
       <c r="E82">
-        <v>-39</v>
+        <v>-31</v>
       </c>
       <c r="F82">
-        <v>22.2</v>
+        <v>-42.1</v>
       </c>
       <c r="G82">
         <v>0.53</v>
@@ -4231,16 +4231,16 @@
         <v>91</v>
       </c>
       <c r="C83">
-        <v>-36.3</v>
+        <v>-40.7</v>
       </c>
       <c r="D83">
-        <v>-39.7</v>
+        <v>-37.6</v>
       </c>
       <c r="E83">
-        <v>-40.4</v>
+        <v>-37.5</v>
       </c>
       <c r="F83">
-        <v>9.6</v>
+        <v>-61.2</v>
       </c>
       <c r="G83">
         <v>1.34</v>
@@ -4263,16 +4263,16 @@
         <v>92</v>
       </c>
       <c r="C84">
-        <v>-52.9</v>
+        <v>-56</v>
       </c>
       <c r="D84">
-        <v>-58.8</v>
+        <v>-62.5</v>
       </c>
       <c r="E84">
-        <v>-61.1</v>
+        <v>-71.3</v>
       </c>
       <c r="F84">
-        <v>-52.7</v>
+        <v>-89.9</v>
       </c>
       <c r="G84">
         <v>-0.02</v>
@@ -4295,16 +4295,16 @@
         <v>93</v>
       </c>
       <c r="C85">
-        <v>-53.6</v>
+        <v>-57</v>
       </c>
       <c r="D85">
-        <v>-60</v>
+        <v>-63.8</v>
       </c>
       <c r="E85">
-        <v>-61.3</v>
+        <v>-73.5</v>
       </c>
       <c r="F85">
-        <v>-54.2</v>
+        <v>-88.3</v>
       </c>
       <c r="G85">
         <v>-0.35</v>
@@ -4327,16 +4327,16 @@
         <v>94</v>
       </c>
       <c r="C86">
-        <v>-19.3</v>
+        <v>-23.7</v>
       </c>
       <c r="D86">
-        <v>-21.3</v>
+        <v>-22.6</v>
       </c>
       <c r="E86">
-        <v>-23.2</v>
+        <v>-22.4</v>
       </c>
       <c r="F86">
-        <v>44</v>
+        <v>-51.9</v>
       </c>
       <c r="G86">
         <v>0.78</v>
@@ -4359,16 +4359,16 @@
         <v>95</v>
       </c>
       <c r="C87">
-        <v>-32.9</v>
+        <v>-35.9</v>
       </c>
       <c r="D87">
-        <v>-29.9</v>
+        <v>-24.8</v>
       </c>
       <c r="E87">
-        <v>-26.4</v>
+        <v>-11.9</v>
       </c>
       <c r="F87">
-        <v>45.8</v>
+        <v>-34</v>
       </c>
       <c r="G87">
         <v>1.04</v>
@@ -4391,16 +4391,16 @@
         <v>96</v>
       </c>
       <c r="C88">
-        <v>-47</v>
+        <v>-49.7</v>
       </c>
       <c r="D88">
-        <v>-51.1</v>
+        <v>-54.2</v>
       </c>
       <c r="E88">
-        <v>-59.1</v>
+        <v>-60.9</v>
       </c>
       <c r="F88">
-        <v>-35</v>
+        <v>-83.8</v>
       </c>
       <c r="G88">
         <v>1.01</v>
@@ -4423,16 +4423,16 @@
         <v>97</v>
       </c>
       <c r="C89">
-        <v>-50.3</v>
+        <v>-52.4</v>
       </c>
       <c r="D89">
-        <v>-54.8</v>
+        <v>-57.7</v>
       </c>
       <c r="E89">
-        <v>-60.5</v>
+        <v>-61.6</v>
       </c>
       <c r="F89">
-        <v>-33.6</v>
+        <v>-83.5</v>
       </c>
       <c r="G89">
         <v>0.64</v>
@@ -4455,16 +4455,16 @@
         <v>98</v>
       </c>
       <c r="C90">
-        <v>-43.5</v>
+        <v>-47.3</v>
       </c>
       <c r="D90">
-        <v>-47.1</v>
+        <v>-49.9</v>
       </c>
       <c r="E90">
-        <v>-55</v>
+        <v>-57.8</v>
       </c>
       <c r="F90">
-        <v>-28.4</v>
+        <v>-81.1</v>
       </c>
       <c r="G90">
         <v>1.23</v>
@@ -4487,16 +4487,16 @@
         <v>99</v>
       </c>
       <c r="C91">
-        <v>-45.2</v>
+        <v>-49</v>
       </c>
       <c r="D91">
-        <v>-47.2</v>
+        <v>-50.2</v>
       </c>
       <c r="E91">
-        <v>-52.7</v>
+        <v>-57.3</v>
       </c>
       <c r="F91">
-        <v>-26.8</v>
+        <v>-81.8</v>
       </c>
       <c r="G91">
         <v>1.22</v>
@@ -4519,16 +4519,16 @@
         <v>100</v>
       </c>
       <c r="C92">
-        <v>-56.2</v>
+        <v>-60.3</v>
       </c>
       <c r="D92">
-        <v>-59</v>
+        <v>-65.7</v>
       </c>
       <c r="E92">
-        <v>-60.8</v>
+        <v>-77.1</v>
       </c>
       <c r="F92">
-        <v>-57</v>
+        <v>-90.5</v>
       </c>
       <c r="G92">
         <v>-0.57</v>
@@ -4551,16 +4551,16 @@
         <v>101</v>
       </c>
       <c r="C93">
-        <v>-37.5</v>
+        <v>-37.1</v>
       </c>
       <c r="D93">
-        <v>-29.8</v>
+        <v>-23.5</v>
       </c>
       <c r="E93">
-        <v>-26.7</v>
+        <v>-14.1</v>
       </c>
       <c r="F93">
-        <v>51.1</v>
+        <v>-31.8</v>
       </c>
       <c r="G93">
         <v>0.82</v>
@@ -4583,16 +4583,16 @@
         <v>102</v>
       </c>
       <c r="C94">
-        <v>-36.9</v>
+        <v>-39.3</v>
       </c>
       <c r="D94">
-        <v>-36.9</v>
+        <v>-33.2</v>
       </c>
       <c r="E94">
-        <v>-36.8</v>
+        <v>-27.3</v>
       </c>
       <c r="F94">
-        <v>21.5</v>
+        <v>-44.6</v>
       </c>
       <c r="G94">
         <v>0.53</v>
@@ -4615,16 +4615,16 @@
         <v>103</v>
       </c>
       <c r="C95">
-        <v>-50.9</v>
+        <v>-53.5</v>
       </c>
       <c r="D95">
-        <v>-51.3</v>
+        <v>-50.4</v>
       </c>
       <c r="E95">
-        <v>-51.3</v>
+        <v>-52.4</v>
       </c>
       <c r="F95">
-        <v>-16.6</v>
+        <v>-64.8</v>
       </c>
       <c r="G95">
         <v>0.35</v>
@@ -4647,16 +4647,16 @@
         <v>104</v>
       </c>
       <c r="C96">
-        <v>-46.3</v>
+        <v>-51.3</v>
       </c>
       <c r="D96">
-        <v>-45.2</v>
+        <v>-57.7</v>
       </c>
       <c r="E96">
-        <v>-48.7</v>
+        <v>-74.8</v>
       </c>
       <c r="F96">
-        <v>-56.5</v>
+        <v>-92.3</v>
       </c>
       <c r="G96">
         <v>-0.37</v>
@@ -4679,16 +4679,16 @@
         <v>105</v>
       </c>
       <c r="C97">
-        <v>-57.7</v>
+        <v>-62.5</v>
       </c>
       <c r="D97">
-        <v>-58.9</v>
+        <v>-68.8</v>
       </c>
       <c r="E97">
-        <v>-63.3</v>
+        <v>-83.1</v>
       </c>
       <c r="F97">
-        <v>-72</v>
+        <v>-94.5</v>
       </c>
       <c r="G97">
         <v>-0.6</v>
@@ -4711,16 +4711,16 @@
         <v>106</v>
       </c>
       <c r="C98">
-        <v>-33.4</v>
+        <v>-36.4</v>
       </c>
       <c r="D98">
-        <v>-37</v>
+        <v>-31</v>
       </c>
       <c r="E98">
-        <v>-35.8</v>
+        <v>-23.4</v>
       </c>
       <c r="F98">
-        <v>18.5</v>
+        <v>-32</v>
       </c>
       <c r="G98">
         <v>0.64</v>
@@ -4743,16 +4743,16 @@
         <v>107</v>
       </c>
       <c r="C99">
-        <v>-32.8</v>
+        <v>-37.8</v>
       </c>
       <c r="D99">
-        <v>-39.6</v>
+        <v>-37</v>
       </c>
       <c r="E99">
-        <v>-40.9</v>
+        <v>-35.7</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>-50.4</v>
       </c>
       <c r="G99">
         <v>0.4</v>
@@ -4775,16 +4775,16 @@
         <v>108</v>
       </c>
       <c r="C100">
-        <v>-63</v>
+        <v>-65.8</v>
       </c>
       <c r="D100">
-        <v>-62</v>
+        <v>-69.6</v>
       </c>
       <c r="E100">
-        <v>-65</v>
+        <v>-77.7</v>
       </c>
       <c r="F100">
-        <v>-61.6</v>
+        <v>-90.4</v>
       </c>
       <c r="G100">
         <v>-0.42</v>
@@ -4807,16 +4807,16 @@
         <v>109</v>
       </c>
       <c r="C101">
-        <v>-49.1</v>
+        <v>-51.1</v>
       </c>
       <c r="D101">
-        <v>-52.6</v>
+        <v>-50.4</v>
       </c>
       <c r="E101">
-        <v>-53.9</v>
+        <v>-57.4</v>
       </c>
       <c r="F101">
-        <v>-31.3</v>
+        <v>-61</v>
       </c>
       <c r="G101">
         <v>0.52</v>
@@ -4839,16 +4839,16 @@
         <v>110</v>
       </c>
       <c r="C102">
-        <v>-47.6</v>
+        <v>-49.7</v>
       </c>
       <c r="D102">
-        <v>-53.5</v>
+        <v>-51.4</v>
       </c>
       <c r="E102">
-        <v>-57</v>
+        <v>-60.5</v>
       </c>
       <c r="F102">
-        <v>-33.7</v>
+        <v>-62</v>
       </c>
       <c r="G102">
         <v>0.52</v>
@@ -4871,16 +4871,16 @@
         <v>111</v>
       </c>
       <c r="C103">
-        <v>-28.3</v>
+        <v>-36.2</v>
       </c>
       <c r="D103">
-        <v>-26.3</v>
+        <v>-35.5</v>
       </c>
       <c r="E103">
-        <v>-32.9</v>
+        <v>-49.7</v>
       </c>
       <c r="F103">
-        <v>1.4</v>
+        <v>-85.9</v>
       </c>
       <c r="G103">
         <v>0.8</v>
@@ -4903,16 +4903,16 @@
         <v>112</v>
       </c>
       <c r="C104">
-        <v>-48.1</v>
+        <v>-51.7</v>
       </c>
       <c r="D104">
-        <v>-53.7</v>
+        <v>-55</v>
       </c>
       <c r="E104">
-        <v>-57.8</v>
+        <v>-66.9</v>
       </c>
       <c r="F104">
-        <v>-39.1</v>
+        <v>-75</v>
       </c>
       <c r="G104">
         <v>0.57</v>
@@ -4935,16 +4935,16 @@
         <v>113</v>
       </c>
       <c r="C105">
-        <v>-38.5</v>
+        <v>-40.2</v>
       </c>
       <c r="D105">
-        <v>-42.9</v>
+        <v>-41.5</v>
       </c>
       <c r="E105">
-        <v>-45</v>
+        <v>-48.7</v>
       </c>
       <c r="F105">
-        <v>-16.9</v>
+        <v>-58.6</v>
       </c>
       <c r="G105">
         <v>0.12</v>
@@ -4967,16 +4967,16 @@
         <v>114</v>
       </c>
       <c r="C106">
-        <v>-38.9</v>
+        <v>-41.7</v>
       </c>
       <c r="D106">
-        <v>-43.5</v>
+        <v>-42</v>
       </c>
       <c r="E106">
-        <v>-46</v>
+        <v>-50.4</v>
       </c>
       <c r="F106">
-        <v>-18</v>
+        <v>-59.9</v>
       </c>
       <c r="G106">
         <v>0.17</v>
@@ -4999,16 +4999,16 @@
         <v>115</v>
       </c>
       <c r="C107">
-        <v>-42.8</v>
+        <v>-47.6</v>
       </c>
       <c r="D107">
-        <v>-50.9</v>
+        <v>-50.1</v>
       </c>
       <c r="E107">
-        <v>-54.4</v>
+        <v>-57.8</v>
       </c>
       <c r="F107">
-        <v>-34</v>
+        <v>-62.6</v>
       </c>
       <c r="G107">
         <v>0.46</v>
@@ -5031,16 +5031,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>-37.5</v>
+        <v>-43.3</v>
       </c>
       <c r="D108">
-        <v>-40.2</v>
+        <v>-44.6</v>
       </c>
       <c r="E108">
-        <v>-43.6</v>
+        <v>-57.1</v>
       </c>
       <c r="F108">
-        <v>-20</v>
+        <v>-77.4</v>
       </c>
       <c r="G108">
         <v>0.14</v>
@@ -5063,16 +5063,16 @@
         <v>117</v>
       </c>
       <c r="C109">
-        <v>-32.9</v>
+        <v>-39.7</v>
       </c>
       <c r="D109">
-        <v>-33.3</v>
+        <v>-43</v>
       </c>
       <c r="E109">
-        <v>-40.1</v>
+        <v>-57.7</v>
       </c>
       <c r="F109">
-        <v>-14.4</v>
+        <v>-89</v>
       </c>
       <c r="G109">
         <v>0.63</v>
@@ -5095,16 +5095,16 @@
         <v>118</v>
       </c>
       <c r="C110">
-        <v>-32.2</v>
+        <v>-40.3</v>
       </c>
       <c r="D110">
-        <v>-33.2</v>
+        <v>-43.2</v>
       </c>
       <c r="E110">
-        <v>-44.3</v>
+        <v>-59.4</v>
       </c>
       <c r="F110">
-        <v>-23.5</v>
+        <v>-90</v>
       </c>
       <c r="G110">
         <v>0.2</v>
@@ -5127,16 +5127,16 @@
         <v>119</v>
       </c>
       <c r="C111">
-        <v>-36.2</v>
+        <v>-42.4</v>
       </c>
       <c r="D111">
-        <v>-34.9</v>
+        <v>-42.2</v>
       </c>
       <c r="E111">
-        <v>-37.8</v>
+        <v>-54.3</v>
       </c>
       <c r="F111">
-        <v>-5.7</v>
+        <v>-84.6</v>
       </c>
       <c r="G111">
         <v>0.68</v>
@@ -5159,16 +5159,16 @@
         <v>120</v>
       </c>
       <c r="C112">
-        <v>-42.7</v>
+        <v>-48.9</v>
       </c>
       <c r="D112">
-        <v>-50.5</v>
+        <v>-53.2</v>
       </c>
       <c r="E112">
-        <v>-54.5</v>
+        <v>-65.1</v>
       </c>
       <c r="F112">
-        <v>-36.7</v>
+        <v>-79.6</v>
       </c>
       <c r="G112">
         <v>0.49</v>
@@ -5191,16 +5191,16 @@
         <v>121</v>
       </c>
       <c r="C113">
-        <v>-52.7</v>
+        <v>-53.9</v>
       </c>
       <c r="D113">
-        <v>-54</v>
+        <v>-54.8</v>
       </c>
       <c r="E113">
-        <v>-54.6</v>
+        <v>-55.2</v>
       </c>
       <c r="F113">
-        <v>-38.2</v>
+        <v>-68.3</v>
       </c>
       <c r="G113">
         <v>1.5</v>
@@ -5223,16 +5223,16 @@
         <v>122</v>
       </c>
       <c r="C114">
-        <v>-53.6</v>
+        <v>-55</v>
       </c>
       <c r="D114">
-        <v>-49</v>
+        <v>-52.4</v>
       </c>
       <c r="E114">
-        <v>-47.6</v>
+        <v>-52.4</v>
       </c>
       <c r="F114">
-        <v>-11.6</v>
+        <v>-74.9</v>
       </c>
       <c r="G114">
         <v>1.75</v>
@@ -5255,16 +5255,16 @@
         <v>123</v>
       </c>
       <c r="C115">
-        <v>-18</v>
+        <v>-28.5</v>
       </c>
       <c r="D115">
-        <v>-28.7</v>
+        <v>-28.4</v>
       </c>
       <c r="E115">
-        <v>-29.8</v>
+        <v>-42.4</v>
       </c>
       <c r="F115">
-        <v>-9.4</v>
+        <v>-48.7</v>
       </c>
       <c r="G115">
         <v>0.55</v>
@@ -5287,16 +5287,16 @@
         <v>124</v>
       </c>
       <c r="C116">
-        <v>-56.2</v>
+        <v>-60.1</v>
       </c>
       <c r="D116">
-        <v>-53.4</v>
+        <v>-59.6</v>
       </c>
       <c r="E116">
-        <v>-56.5</v>
+        <v>-61.7</v>
       </c>
       <c r="F116">
-        <v>-20.9</v>
+        <v>-92</v>
       </c>
       <c r="G116">
         <v>-0.28</v>
@@ -5319,16 +5319,16 @@
         <v>125</v>
       </c>
       <c r="C117">
-        <v>-26.7</v>
+        <v>-36.8</v>
       </c>
       <c r="D117">
-        <v>-26.3</v>
+        <v>-37</v>
       </c>
       <c r="E117">
-        <v>-36.3</v>
+        <v>-52</v>
       </c>
       <c r="F117">
-        <v>-7.9</v>
+        <v>-90.8</v>
       </c>
       <c r="G117">
         <v>0.57</v>
@@ -5351,16 +5351,16 @@
         <v>126</v>
       </c>
       <c r="C118">
-        <v>-40.5</v>
+        <v>-46.3</v>
       </c>
       <c r="D118">
-        <v>-50.2</v>
+        <v>-49.7</v>
       </c>
       <c r="E118">
-        <v>-53.6</v>
+        <v>-56.8</v>
       </c>
       <c r="F118">
-        <v>-32</v>
+        <v>-63.6</v>
       </c>
       <c r="G118">
         <v>0.42</v>
@@ -5383,16 +5383,16 @@
         <v>127</v>
       </c>
       <c r="C119">
-        <v>-32.6</v>
+        <v>-38.7</v>
       </c>
       <c r="D119">
-        <v>-44.6</v>
+        <v>-43.4</v>
       </c>
       <c r="E119">
-        <v>-48.2</v>
+        <v>-48.9</v>
       </c>
       <c r="F119">
-        <v>-19</v>
+        <v>-55.5</v>
       </c>
       <c r="G119">
         <v>0.39</v>
@@ -5415,16 +5415,16 @@
         <v>128</v>
       </c>
       <c r="C120">
-        <v>-26.8</v>
+        <v>-35.7</v>
       </c>
       <c r="D120">
-        <v>-38.8</v>
+        <v>-38.1</v>
       </c>
       <c r="E120">
-        <v>-41.5</v>
+        <v>-49.1</v>
       </c>
       <c r="F120">
-        <v>-19.8</v>
+        <v>-54.1</v>
       </c>
       <c r="G120">
         <v>0.5</v>
@@ -5447,16 +5447,16 @@
         <v>129</v>
       </c>
       <c r="C121">
-        <v>-53.9</v>
+        <v>-57.2</v>
       </c>
       <c r="D121">
-        <v>-56.3</v>
+        <v>-59.9</v>
       </c>
       <c r="E121">
-        <v>-57.6</v>
+        <v>-60.5</v>
       </c>
       <c r="F121">
-        <v>-20.3</v>
+        <v>-84.9</v>
       </c>
       <c r="G121">
         <v>1.54</v>
@@ -5479,16 +5479,16 @@
         <v>130</v>
       </c>
       <c r="C122">
-        <v>-43.7</v>
+        <v>-49</v>
       </c>
       <c r="D122">
-        <v>-54.7</v>
+        <v>-55.5</v>
       </c>
       <c r="E122">
-        <v>-59.2</v>
+        <v>-67.6</v>
       </c>
       <c r="F122">
-        <v>-48.1</v>
+        <v>-74.1</v>
       </c>
       <c r="G122">
         <v>0.6</v>
@@ -5511,16 +5511,16 @@
         <v>131</v>
       </c>
       <c r="C123">
-        <v>-38</v>
+        <v>-45.4</v>
       </c>
       <c r="D123">
-        <v>-44.7</v>
+        <v>-49.2</v>
       </c>
       <c r="E123">
-        <v>-48.7</v>
+        <v>-62</v>
       </c>
       <c r="F123">
-        <v>-27.6</v>
+        <v>-80.6</v>
       </c>
       <c r="G123">
         <v>0.22</v>
@@ -5543,16 +5543,16 @@
         <v>132</v>
       </c>
       <c r="C124">
-        <v>-31.8</v>
+        <v>-40.3</v>
       </c>
       <c r="D124">
-        <v>-32.7</v>
+        <v>-39.6</v>
       </c>
       <c r="E124">
-        <v>-39.6</v>
+        <v>-55.4</v>
       </c>
       <c r="F124">
-        <v>-10.4</v>
+        <v>-80.1</v>
       </c>
       <c r="G124">
         <v>0.32</v>
@@ -5575,16 +5575,16 @@
         <v>133</v>
       </c>
       <c r="C125">
-        <v>-43.6</v>
+        <v>-48</v>
       </c>
       <c r="D125">
-        <v>-47</v>
+        <v>-54.7</v>
       </c>
       <c r="E125">
-        <v>-55.1</v>
+        <v>-66.4</v>
       </c>
       <c r="F125">
-        <v>-26</v>
+        <v>-92.8</v>
       </c>
       <c r="G125">
         <v>-0.22</v>
@@ -5607,16 +5607,16 @@
         <v>134</v>
       </c>
       <c r="C126">
-        <v>-37.7</v>
+        <v>-44.6</v>
       </c>
       <c r="D126">
-        <v>-39.5</v>
+        <v>-48.8</v>
       </c>
       <c r="E126">
-        <v>-49.5</v>
+        <v>-63.6</v>
       </c>
       <c r="F126">
-        <v>-31.7</v>
+        <v>-92.1</v>
       </c>
       <c r="G126">
         <v>-0.21</v>
@@ -5639,16 +5639,16 @@
         <v>135</v>
       </c>
       <c r="C127">
-        <v>-26.5</v>
+        <v>-36.9</v>
       </c>
       <c r="D127">
-        <v>-24.4</v>
+        <v>-35.9</v>
       </c>
       <c r="E127">
-        <v>-34.3</v>
+        <v>-52.6</v>
       </c>
       <c r="F127">
-        <v>-6</v>
+        <v>-92.9</v>
       </c>
       <c r="G127">
         <v>0.31</v>
@@ -5671,16 +5671,16 @@
         <v>136</v>
       </c>
       <c r="C128">
-        <v>-30</v>
+        <v>-37.9</v>
       </c>
       <c r="D128">
-        <v>-23.9</v>
+        <v>-33.1</v>
       </c>
       <c r="E128">
-        <v>-31.7</v>
+        <v>-50.7</v>
       </c>
       <c r="F128">
-        <v>3.6</v>
+        <v>-82.7</v>
       </c>
       <c r="G128">
         <v>0.23</v>
@@ -5703,16 +5703,16 @@
         <v>137</v>
       </c>
       <c r="C129">
-        <v>-41.7</v>
+        <v>-46.9</v>
       </c>
       <c r="D129">
-        <v>-44</v>
+        <v>-52</v>
       </c>
       <c r="E129">
-        <v>-53</v>
+        <v>-64.1</v>
       </c>
       <c r="F129">
-        <v>-17.7</v>
+        <v>-92.9</v>
       </c>
       <c r="G129">
         <v>-0.3</v>
@@ -5735,16 +5735,16 @@
         <v>138</v>
       </c>
       <c r="C130">
-        <v>-41</v>
+        <v>-46.6</v>
       </c>
       <c r="D130">
-        <v>-42.1</v>
+        <v>-50.2</v>
       </c>
       <c r="E130">
-        <v>-50</v>
+        <v>-58.5</v>
       </c>
       <c r="F130">
-        <v>-2</v>
+        <v>-92.5</v>
       </c>
       <c r="G130">
         <v>-0.2</v>
@@ -5767,16 +5767,16 @@
         <v>139</v>
       </c>
       <c r="C131">
-        <v>-39.5</v>
+        <v>-49.8</v>
       </c>
       <c r="D131">
-        <v>-50.2</v>
+        <v>-53.5</v>
       </c>
       <c r="E131">
-        <v>-56.4</v>
+        <v>-66.7</v>
       </c>
       <c r="F131">
-        <v>-37</v>
+        <v>-80.7</v>
       </c>
       <c r="G131">
         <v>0.6</v>
@@ -5799,16 +5799,16 @@
         <v>140</v>
       </c>
       <c r="C132">
-        <v>-33.4</v>
+        <v>-40</v>
       </c>
       <c r="D132">
-        <v>-26.9</v>
+        <v>-35</v>
       </c>
       <c r="E132">
-        <v>-30.9</v>
+        <v>-51</v>
       </c>
       <c r="F132">
-        <v>0.4</v>
+        <v>-83</v>
       </c>
       <c r="G132">
         <v>0.15</v>
@@ -5831,16 +5831,16 @@
         <v>141</v>
       </c>
       <c r="C133">
-        <v>-49.3</v>
+        <v>-51.4</v>
       </c>
       <c r="D133">
-        <v>-47</v>
+        <v>-50.2</v>
       </c>
       <c r="E133">
-        <v>-43.4</v>
+        <v>-45.5</v>
       </c>
       <c r="F133">
-        <v>5.2</v>
+        <v>-74.6</v>
       </c>
       <c r="G133">
         <v>1.8</v>
@@ -5863,16 +5863,16 @@
         <v>142</v>
       </c>
       <c r="C134">
-        <v>-44.7</v>
+        <v>-47.1</v>
       </c>
       <c r="D134">
-        <v>-45</v>
+        <v>-50.3</v>
       </c>
       <c r="E134">
-        <v>-44.1</v>
+        <v>-47.1</v>
       </c>
       <c r="F134">
-        <v>14.8</v>
+        <v>-81.4</v>
       </c>
       <c r="G134">
         <v>1.8</v>
@@ -5895,16 +5895,16 @@
         <v>143</v>
       </c>
       <c r="C135">
-        <v>-29.9</v>
+        <v>-37.8</v>
       </c>
       <c r="D135">
-        <v>-25</v>
+        <v>-34.4</v>
       </c>
       <c r="E135">
-        <v>-31.7</v>
+        <v>-48.6</v>
       </c>
       <c r="F135">
-        <v>2.4</v>
+        <v>-86.6</v>
       </c>
       <c r="G135">
         <v>0.45</v>
@@ -5927,16 +5927,16 @@
         <v>144</v>
       </c>
       <c r="C136">
-        <v>-36.8</v>
+        <v>-44.6</v>
       </c>
       <c r="D136">
-        <v>-22.7</v>
+        <v>-33.3</v>
       </c>
       <c r="E136">
-        <v>-29.3</v>
+        <v>-47.5</v>
       </c>
       <c r="F136">
-        <v>12</v>
+        <v>-89</v>
       </c>
       <c r="G136">
         <v>0.32</v>
@@ -5959,16 +5959,16 @@
         <v>145</v>
       </c>
       <c r="C137">
-        <v>-21.2</v>
+        <v>-29.9</v>
       </c>
       <c r="D137">
-        <v>-26.1</v>
+        <v>-38.7</v>
       </c>
       <c r="E137">
-        <v>-38.1</v>
+        <v>-56.4</v>
       </c>
       <c r="F137">
-        <v>-19.1</v>
+        <v>-92.8</v>
       </c>
       <c r="G137">
         <v>0.07</v>
@@ -5991,16 +5991,16 @@
         <v>146</v>
       </c>
       <c r="C138">
-        <v>-41.8</v>
+        <v>-45.4</v>
       </c>
       <c r="D138">
-        <v>-45.6</v>
+        <v>-44</v>
       </c>
       <c r="E138">
-        <v>-46.7</v>
+        <v>-45.2</v>
       </c>
       <c r="F138">
-        <v>-9.7</v>
+        <v>-57.7</v>
       </c>
       <c r="G138">
         <v>0.36</v>
@@ -6023,16 +6023,16 @@
         <v>147</v>
       </c>
       <c r="C139">
-        <v>-45.7</v>
+        <v>-45.8</v>
       </c>
       <c r="D139">
-        <v>-41.2</v>
+        <v>-37.1</v>
       </c>
       <c r="E139">
-        <v>-40.2</v>
+        <v>-33.6</v>
       </c>
       <c r="F139">
-        <v>14.1</v>
+        <v>-46.3</v>
       </c>
       <c r="G139">
         <v>0.37</v>
@@ -6055,16 +6055,16 @@
         <v>148</v>
       </c>
       <c r="C140">
-        <v>-37</v>
+        <v>-41.6</v>
       </c>
       <c r="D140">
-        <v>-34.4</v>
+        <v>-39.1</v>
       </c>
       <c r="E140">
-        <v>-34.4</v>
+        <v>-49.5</v>
       </c>
       <c r="F140">
-        <v>-4</v>
+        <v>-74.1</v>
       </c>
       <c r="G140">
         <v>0.15</v>
@@ -6087,16 +6087,16 @@
         <v>149</v>
       </c>
       <c r="C141">
-        <v>-36.2</v>
+        <v>-39.1</v>
       </c>
       <c r="D141">
-        <v>-35.8</v>
+        <v>-37.5</v>
       </c>
       <c r="E141">
-        <v>-35.7</v>
+        <v>-45.3</v>
       </c>
       <c r="F141">
-        <v>-6.5</v>
+        <v>-64.3</v>
       </c>
       <c r="G141">
         <v>0.12</v>
@@ -6119,16 +6119,16 @@
         <v>150</v>
       </c>
       <c r="C142">
-        <v>-60.8</v>
+        <v>-63.1</v>
       </c>
       <c r="D142">
-        <v>-63</v>
+        <v>-66.2</v>
       </c>
       <c r="E142">
-        <v>-63.5</v>
+        <v>-67.5</v>
       </c>
       <c r="F142">
-        <v>-40.6</v>
+        <v>-82.7</v>
       </c>
       <c r="G142">
         <v>1.42</v>
@@ -6151,16 +6151,16 @@
         <v>151</v>
       </c>
       <c r="C143">
-        <v>-47.6</v>
+        <v>-51.6</v>
       </c>
       <c r="D143">
-        <v>-52.5</v>
+        <v>-52</v>
       </c>
       <c r="E143">
-        <v>-53.3</v>
+        <v>-56.3</v>
       </c>
       <c r="F143">
-        <v>-27.8</v>
+        <v>-66.9</v>
       </c>
       <c r="G143">
         <v>0.35</v>
@@ -6183,16 +6183,16 @@
         <v>152</v>
       </c>
       <c r="C144">
-        <v>-50.3</v>
+        <v>-54.7</v>
       </c>
       <c r="D144">
-        <v>-53.5</v>
+        <v>-60</v>
       </c>
       <c r="E144">
-        <v>-56.9</v>
+        <v>-68</v>
       </c>
       <c r="F144">
-        <v>-44.6</v>
+        <v>-89.4</v>
       </c>
       <c r="G144">
         <v>0.55</v>
@@ -6215,16 +6215,16 @@
         <v>153</v>
       </c>
       <c r="C145">
-        <v>-44.1</v>
+        <v>-48.9</v>
       </c>
       <c r="D145">
-        <v>-45.9</v>
+        <v>-53.3</v>
       </c>
       <c r="E145">
-        <v>-49.2</v>
+        <v>-62.8</v>
       </c>
       <c r="F145">
-        <v>-25.6</v>
+        <v>-89.9</v>
       </c>
       <c r="G145">
         <v>0.86</v>
@@ -6247,16 +6247,16 @@
         <v>154</v>
       </c>
       <c r="C146">
-        <v>-57.3</v>
+        <v>-60.5</v>
       </c>
       <c r="D146">
-        <v>-60.2</v>
+        <v>-64.7</v>
       </c>
       <c r="E146">
-        <v>-63.4</v>
+        <v>-69.1</v>
       </c>
       <c r="F146">
-        <v>-51.2</v>
+        <v>-80.2</v>
       </c>
       <c r="G146">
         <v>0.92</v>
@@ -6279,16 +6279,16 @@
         <v>155</v>
       </c>
       <c r="C147">
-        <v>-47.6</v>
+        <v>-52.6</v>
       </c>
       <c r="D147">
-        <v>-53.7</v>
+        <v>-56.4</v>
       </c>
       <c r="E147">
-        <v>-59.2</v>
+        <v>-69.2</v>
       </c>
       <c r="F147">
-        <v>-43.8</v>
+        <v>-81.7</v>
       </c>
       <c r="G147">
         <v>0.6</v>
@@ -6311,16 +6311,16 @@
         <v>156</v>
       </c>
       <c r="C148">
-        <v>-34.2</v>
+        <v>-42.2</v>
       </c>
       <c r="D148">
-        <v>-36.7</v>
+        <v>-40</v>
       </c>
       <c r="E148">
-        <v>-28.5</v>
+        <v>-39.3</v>
       </c>
       <c r="F148">
-        <v>40.6</v>
+        <v>-72.7</v>
       </c>
       <c r="G148">
         <v>0.88</v>
@@ -6343,16 +6343,16 @@
         <v>157</v>
       </c>
       <c r="C149">
-        <v>-47.5</v>
+        <v>-51.1</v>
       </c>
       <c r="D149">
-        <v>-48.1</v>
+        <v>-54.4</v>
       </c>
       <c r="E149">
-        <v>-48.8</v>
+        <v>-56</v>
       </c>
       <c r="F149">
-        <v>-7.2</v>
+        <v>-88.3</v>
       </c>
       <c r="G149">
         <v>1.79</v>
@@ -6375,16 +6375,16 @@
         <v>158</v>
       </c>
       <c r="C150">
-        <v>-14.2</v>
+        <v>-22.2</v>
       </c>
       <c r="D150">
-        <v>-17.2</v>
+        <v>-26.2</v>
       </c>
       <c r="E150">
-        <v>-22.6</v>
+        <v>-41.9</v>
       </c>
       <c r="F150">
-        <v>17</v>
+        <v>-77</v>
       </c>
       <c r="G150">
         <v>0.4</v>
@@ -6407,16 +6407,16 @@
         <v>159</v>
       </c>
       <c r="C151">
-        <v>-25.3</v>
+        <v>-36.7</v>
       </c>
       <c r="D151">
-        <v>-43.3</v>
+        <v>-47.4</v>
       </c>
       <c r="E151">
-        <v>-48.3</v>
+        <v>-59.1</v>
       </c>
       <c r="F151">
-        <v>-27.7</v>
+        <v>-81.4</v>
       </c>
       <c r="G151">
         <v>0.57</v>
@@ -6439,16 +6439,16 @@
         <v>160</v>
       </c>
       <c r="C152">
-        <v>-23.1</v>
+        <v>-34.5</v>
       </c>
       <c r="D152">
-        <v>-42</v>
+        <v>-45.5</v>
       </c>
       <c r="E152">
-        <v>-49</v>
+        <v>-61</v>
       </c>
       <c r="F152">
-        <v>-34.3</v>
+        <v>-76.3</v>
       </c>
       <c r="G152">
         <v>0.58</v>
@@ -6471,16 +6471,16 @@
         <v>161</v>
       </c>
       <c r="C153">
-        <v>-30.4</v>
+        <v>-38.8</v>
       </c>
       <c r="D153">
-        <v>-45.4</v>
+        <v>-46.7</v>
       </c>
       <c r="E153">
-        <v>-52.8</v>
+        <v>-62.6</v>
       </c>
       <c r="F153">
-        <v>-38.6</v>
+        <v>-68.8</v>
       </c>
       <c r="G153">
         <v>0.6</v>
@@ -6503,16 +6503,16 @@
         <v>162</v>
       </c>
       <c r="C154">
-        <v>-17.1</v>
+        <v>-25.3</v>
       </c>
       <c r="D154">
-        <v>-29.8</v>
+        <v>-29.6</v>
       </c>
       <c r="E154">
-        <v>-30.8</v>
+        <v>-32</v>
       </c>
       <c r="F154">
-        <v>17.2</v>
+        <v>-49.8</v>
       </c>
       <c r="G154">
         <v>0.46</v>
@@ -6535,16 +6535,16 @@
         <v>163</v>
       </c>
       <c r="C155">
-        <v>-25.9</v>
+        <v>-29.5</v>
       </c>
       <c r="D155">
-        <v>-23.4</v>
+        <v>-19.9</v>
       </c>
       <c r="E155">
-        <v>-17.5</v>
+        <v>-8.3</v>
       </c>
       <c r="F155">
-        <v>71.2</v>
+        <v>-32.7</v>
       </c>
       <c r="G155">
         <v>1.28</v>
@@ -6567,16 +6567,16 @@
         <v>164</v>
       </c>
       <c r="C156">
-        <v>-35.8</v>
+        <v>-43.9</v>
       </c>
       <c r="D156">
-        <v>-33.5</v>
+        <v>-39.1</v>
       </c>
       <c r="E156">
-        <v>-32</v>
+        <v>-40.6</v>
       </c>
       <c r="F156">
-        <v>45.9</v>
+        <v>-78</v>
       </c>
       <c r="G156">
         <v>0.94</v>
@@ -6599,16 +6599,16 @@
         <v>165</v>
       </c>
       <c r="C157">
-        <v>-28.7</v>
+        <v>-32.9</v>
       </c>
       <c r="D157">
-        <v>-37.2</v>
+        <v>-34.7</v>
       </c>
       <c r="E157">
-        <v>-38.3</v>
+        <v>-24.7</v>
       </c>
       <c r="F157">
-        <v>45.2</v>
+        <v>-33.8</v>
       </c>
       <c r="G157">
         <v>-1.03</v>
@@ -6631,16 +6631,16 @@
         <v>166</v>
       </c>
       <c r="C158">
-        <v>-23.7</v>
+        <v>-24.3</v>
       </c>
       <c r="D158">
-        <v>-28.7</v>
+        <v>-23.2</v>
       </c>
       <c r="E158">
-        <v>-25.6</v>
+        <v>-8.3</v>
       </c>
       <c r="F158">
-        <v>56.1</v>
+        <v>-15.8</v>
       </c>
       <c r="G158">
         <v>-0.35</v>
@@ -6663,16 +6663,16 @@
         <v>167</v>
       </c>
       <c r="C159">
-        <v>-20.2</v>
+        <v>-26.2</v>
       </c>
       <c r="D159">
-        <v>-34.7</v>
+        <v>-42.1</v>
       </c>
       <c r="E159">
-        <v>-44</v>
+        <v>-33.3</v>
       </c>
       <c r="F159">
-        <v>15.3</v>
+        <v>-56.1</v>
       </c>
       <c r="G159">
         <v>0.29</v>
@@ -6695,16 +6695,16 @@
         <v>168</v>
       </c>
       <c r="C160">
-        <v>-24.7</v>
+        <v>-31.1</v>
       </c>
       <c r="D160">
-        <v>-34.6</v>
+        <v>-43.8</v>
       </c>
       <c r="E160">
-        <v>-43.5</v>
+        <v>-33.4</v>
       </c>
       <c r="F160">
-        <v>23.8</v>
+        <v>-65.1</v>
       </c>
       <c r="G160">
         <v>0.1</v>
@@ -6727,16 +6727,16 @@
         <v>169</v>
       </c>
       <c r="C161">
-        <v>-22</v>
+        <v>-27.9</v>
       </c>
       <c r="D161">
-        <v>-34.8</v>
+        <v>-42.9</v>
       </c>
       <c r="E161">
-        <v>-42.7</v>
+        <v>-29.7</v>
       </c>
       <c r="F161">
-        <v>21.3</v>
+        <v>-54.6</v>
       </c>
       <c r="G161">
         <v>0.06</v>
@@ -6759,16 +6759,16 @@
         <v>170</v>
       </c>
       <c r="C162">
-        <v>-19</v>
+        <v>-27.9</v>
       </c>
       <c r="D162">
-        <v>-41.9</v>
+        <v>-48.5</v>
       </c>
       <c r="E162">
-        <v>-49.3</v>
+        <v>-43.4</v>
       </c>
       <c r="F162">
-        <v>-3.4</v>
+        <v>-62.9</v>
       </c>
       <c r="G162">
         <v>0.36</v>
@@ -6791,16 +6791,16 @@
         <v>171</v>
       </c>
       <c r="C163">
-        <v>-12.6</v>
+        <v>-23.2</v>
       </c>
       <c r="D163">
-        <v>-34.4</v>
+        <v>-41</v>
       </c>
       <c r="E163">
-        <v>-41</v>
+        <v>-37</v>
       </c>
       <c r="F163">
-        <v>14.9</v>
+        <v>-63.9</v>
       </c>
       <c r="G163">
         <v>0.38</v>
@@ -6823,16 +6823,16 @@
         <v>172</v>
       </c>
       <c r="C164">
-        <v>-22.6</v>
+        <v>-30.4</v>
       </c>
       <c r="D164">
-        <v>-33</v>
+        <v>-41.4</v>
       </c>
       <c r="E164">
-        <v>-39</v>
+        <v>-30.2</v>
       </c>
       <c r="F164">
-        <v>16.2</v>
+        <v>-68.2</v>
       </c>
       <c r="G164">
         <v>0.5</v>
@@ -6855,16 +6855,16 @@
         <v>173</v>
       </c>
       <c r="C165">
-        <v>-26.1</v>
+        <v>-31.3</v>
       </c>
       <c r="D165">
-        <v>-33.4</v>
+        <v>-40</v>
       </c>
       <c r="E165">
-        <v>-39.8</v>
+        <v>-32</v>
       </c>
       <c r="F165">
-        <v>10.6</v>
+        <v>-62.9</v>
       </c>
       <c r="G165">
         <v>0.25</v>
@@ -6887,16 +6887,16 @@
         <v>174</v>
       </c>
       <c r="C166">
-        <v>-31.2</v>
+        <v>-35.4</v>
       </c>
       <c r="D166">
-        <v>-44.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E166">
-        <v>-49.8</v>
+        <v>-38.9</v>
       </c>
       <c r="F166">
-        <v>0.9</v>
+        <v>-57.3</v>
       </c>
       <c r="G166">
         <v>0.05</v>
@@ -6919,16 +6919,16 @@
         <v>175</v>
       </c>
       <c r="C167">
+        <v>-51</v>
+      </c>
+      <c r="D167">
         <v>-49</v>
       </c>
-      <c r="D167">
-        <v>-41.8</v>
-      </c>
       <c r="E167">
-        <v>-34.5</v>
+        <v>-45.7</v>
       </c>
       <c r="F167">
-        <v>-14.5</v>
+        <v>-79.1</v>
       </c>
       <c r="G167">
         <v>0.94</v>
@@ -6951,16 +6951,16 @@
         <v>176</v>
       </c>
       <c r="C168">
-        <v>-50.4</v>
+        <v>-52.5</v>
       </c>
       <c r="D168">
-        <v>-43.4</v>
+        <v>-49.8</v>
       </c>
       <c r="E168">
-        <v>-35.6</v>
+        <v>-45.1</v>
       </c>
       <c r="F168">
-        <v>-10.6</v>
+        <v>-81.3</v>
       </c>
       <c r="G168">
         <v>1.13</v>
@@ -6983,16 +6983,16 @@
         <v>177</v>
       </c>
       <c r="C169">
-        <v>-52.2</v>
+        <v>-55.8</v>
       </c>
       <c r="D169">
-        <v>-45.1</v>
+        <v>-51.8</v>
       </c>
       <c r="E169">
-        <v>-36.5</v>
+        <v>-50.1</v>
       </c>
       <c r="F169">
-        <v>-16.4</v>
+        <v>-88.4</v>
       </c>
       <c r="G169">
         <v>0.9</v>
@@ -7015,16 +7015,16 @@
         <v>178</v>
       </c>
       <c r="C170">
-        <v>-27.2</v>
+        <v>-32</v>
       </c>
       <c r="D170">
-        <v>-41.4</v>
+        <v>-44.1</v>
       </c>
       <c r="E170">
-        <v>-44.6</v>
+        <v>-37.1</v>
       </c>
       <c r="F170">
-        <v>-3.4</v>
+        <v>-56.2</v>
       </c>
       <c r="G170">
         <v>0.29</v>
@@ -7047,16 +7047,16 @@
         <v>179</v>
       </c>
       <c r="C171">
-        <v>-20.1</v>
+        <v>-24.4</v>
       </c>
       <c r="D171">
-        <v>-26.7</v>
+        <v>-25.8</v>
       </c>
       <c r="E171">
-        <v>-23.4</v>
+        <v>-10.7</v>
       </c>
       <c r="F171">
-        <v>42.4</v>
+        <v>-34.6</v>
       </c>
       <c r="G171">
         <v>0.46</v>
@@ -7079,16 +7079,16 @@
         <v>180</v>
       </c>
       <c r="C172">
-        <v>-26.5</v>
+        <v>-29.8</v>
       </c>
       <c r="D172">
-        <v>-34.9</v>
+        <v>-35</v>
       </c>
       <c r="E172">
-        <v>-33.8</v>
+        <v>-27.4</v>
       </c>
       <c r="F172">
-        <v>9.3</v>
+        <v>-48.7</v>
       </c>
       <c r="G172">
         <v>0.36</v>
@@ -7111,16 +7111,16 @@
         <v>181</v>
       </c>
       <c r="C173">
-        <v>-34.8</v>
+        <v>-37.8</v>
       </c>
       <c r="D173">
-        <v>-30.1</v>
+        <v>-37.1</v>
       </c>
       <c r="E173">
-        <v>-32.2</v>
+        <v>-34.6</v>
       </c>
       <c r="F173">
-        <v>4.1</v>
+        <v>-76</v>
       </c>
       <c r="G173">
         <v>1.01</v>
@@ -7143,16 +7143,16 @@
         <v>182</v>
       </c>
       <c r="C174">
-        <v>-36.5</v>
+        <v>-40.8</v>
       </c>
       <c r="D174">
-        <v>-31.5</v>
+        <v>-39.7</v>
       </c>
       <c r="E174">
-        <v>-32.9</v>
+        <v>-40.3</v>
       </c>
       <c r="F174">
-        <v>0.8</v>
+        <v>-84.5</v>
       </c>
       <c r="G174">
         <v>1.04</v>
@@ -7175,16 +7175,16 @@
         <v>183</v>
       </c>
       <c r="C175">
-        <v>-40.8</v>
+        <v>-44.5</v>
       </c>
       <c r="D175">
-        <v>-50.2</v>
+        <v>-50.7</v>
       </c>
       <c r="E175">
-        <v>-46.4</v>
+        <v>-39.5</v>
       </c>
       <c r="F175">
-        <v>-3</v>
+        <v>-73.2</v>
       </c>
       <c r="G175">
         <v>0.53</v>
@@ -7207,16 +7207,16 @@
         <v>184</v>
       </c>
       <c r="C176">
-        <v>-31.8</v>
+        <v>-34.8</v>
       </c>
       <c r="D176">
-        <v>-41.9</v>
+        <v>-45.1</v>
       </c>
       <c r="E176">
-        <v>-44.1</v>
+        <v>-36</v>
       </c>
       <c r="F176">
-        <v>3.1</v>
+        <v>-61.6</v>
       </c>
       <c r="G176">
         <v>0.11</v>
@@ -7239,16 +7239,16 @@
         <v>185</v>
       </c>
       <c r="C177">
-        <v>-33.7</v>
+        <v>-37.4</v>
       </c>
       <c r="D177">
-        <v>-44.1</v>
+        <v>-45.9</v>
       </c>
       <c r="E177">
-        <v>-43.8</v>
+        <v>-34.2</v>
       </c>
       <c r="F177">
-        <v>0.2</v>
+        <v>-60</v>
       </c>
       <c r="G177">
         <v>0.37</v>
@@ -7271,16 +7271,16 @@
         <v>186</v>
       </c>
       <c r="C178">
-        <v>-42.2</v>
+        <v>-44.9</v>
       </c>
       <c r="D178">
-        <v>-38.1</v>
+        <v>-38.5</v>
       </c>
       <c r="E178">
-        <v>-25.6</v>
+        <v>-22.7</v>
       </c>
       <c r="F178">
-        <v>24.4</v>
+        <v>-71.4</v>
       </c>
       <c r="G178">
         <v>0.78</v>
@@ -7303,16 +7303,16 @@
         <v>187</v>
       </c>
       <c r="C179">
-        <v>-40.1</v>
+        <v>-43</v>
       </c>
       <c r="D179">
-        <v>-32.6</v>
+        <v>-39.4</v>
       </c>
       <c r="E179">
-        <v>-23.8</v>
+        <v>-32.7</v>
       </c>
       <c r="F179">
-        <v>14.2</v>
+        <v>-77.1</v>
       </c>
       <c r="G179">
         <v>1.15</v>
@@ -7335,16 +7335,16 @@
         <v>188</v>
       </c>
       <c r="C180">
-        <v>-47.3</v>
+        <v>-51.9</v>
       </c>
       <c r="D180">
-        <v>-41</v>
+        <v>-48.2</v>
       </c>
       <c r="E180">
-        <v>-36.9</v>
+        <v>-46.8</v>
       </c>
       <c r="F180">
-        <v>-5.3</v>
+        <v>-87.3</v>
       </c>
       <c r="G180">
         <v>1.1</v>
@@ -7367,16 +7367,16 @@
         <v>189</v>
       </c>
       <c r="C181">
-        <v>-24.9</v>
+        <v>-27.4</v>
       </c>
       <c r="D181">
-        <v>-28.6</v>
+        <v>-23.2</v>
       </c>
       <c r="E181">
-        <v>-25.4</v>
+        <v>-8.8</v>
       </c>
       <c r="F181">
-        <v>40.7</v>
+        <v>-30.3</v>
       </c>
       <c r="G181">
         <v>0.99</v>
@@ -7399,16 +7399,16 @@
         <v>190</v>
       </c>
       <c r="C182">
-        <v>-20.7</v>
+        <v>-24.2</v>
       </c>
       <c r="D182">
-        <v>-24.6</v>
+        <v>-17.6</v>
       </c>
       <c r="E182">
-        <v>-24.1</v>
+        <v>-0.6</v>
       </c>
       <c r="F182">
-        <v>38.4</v>
+        <v>-17.1</v>
       </c>
       <c r="G182">
         <v>1.13</v>
@@ -7431,16 +7431,16 @@
         <v>191</v>
       </c>
       <c r="C183">
-        <v>-32.4</v>
+        <v>-35.4</v>
       </c>
       <c r="D183">
-        <v>-36.4</v>
+        <v>-31.4</v>
       </c>
       <c r="E183">
-        <v>-40.3</v>
+        <v>-18.2</v>
       </c>
       <c r="F183">
-        <v>19.1</v>
+        <v>-30.7</v>
       </c>
       <c r="G183">
         <v>0.75</v>
@@ -7463,16 +7463,16 @@
         <v>192</v>
       </c>
       <c r="C184">
-        <v>-16.2</v>
+        <v>-19.2</v>
       </c>
       <c r="D184">
-        <v>-15.2</v>
+        <v>-13.6</v>
       </c>
       <c r="E184">
-        <v>-22.2</v>
+        <v>-3.9</v>
       </c>
       <c r="F184">
-        <v>40</v>
+        <v>-26.5</v>
       </c>
       <c r="G184">
         <v>0.66</v>
@@ -7495,16 +7495,16 @@
         <v>193</v>
       </c>
       <c r="C185">
-        <v>-20.5</v>
+        <v>-22.9</v>
       </c>
       <c r="D185">
-        <v>-19.3</v>
+        <v>-13.4</v>
       </c>
       <c r="E185">
-        <v>-29.5</v>
+        <v>-3.5</v>
       </c>
       <c r="F185">
-        <v>27.9</v>
+        <v>-15.8</v>
       </c>
       <c r="G185">
         <v>0.75</v>
@@ -7527,16 +7527,16 @@
         <v>194</v>
       </c>
       <c r="C186">
-        <v>-40.3</v>
+        <v>-45.1</v>
       </c>
       <c r="D186">
-        <v>-23.6</v>
+        <v>-32.1</v>
       </c>
       <c r="E186">
-        <v>-11.5</v>
+        <v>-32.5</v>
       </c>
       <c r="F186">
-        <v>36.3</v>
+        <v>-87.3</v>
       </c>
       <c r="G186">
         <v>0.75</v>
@@ -7559,16 +7559,16 @@
         <v>195</v>
       </c>
       <c r="C187">
-        <v>-46.5</v>
+        <v>-53.1</v>
       </c>
       <c r="D187">
-        <v>-40.8</v>
+        <v>-41.8</v>
       </c>
       <c r="E187">
-        <v>-33.8</v>
+        <v>-46.6</v>
       </c>
       <c r="F187">
-        <v>-9.6</v>
+        <v>-86.5</v>
       </c>
       <c r="G187">
         <v>0.84</v>
@@ -7591,16 +7591,16 @@
         <v>196</v>
       </c>
       <c r="C188">
-        <v>-31.8</v>
+        <v>-31.7</v>
       </c>
       <c r="D188">
-        <v>-29.5</v>
+        <v>-31.2</v>
       </c>
       <c r="E188">
-        <v>-29.2</v>
+        <v>-17.6</v>
       </c>
       <c r="F188">
-        <v>34.7</v>
+        <v>-48</v>
       </c>
       <c r="G188">
         <v>0.39</v>
@@ -7623,16 +7623,16 @@
         <v>197</v>
       </c>
       <c r="C189">
-        <v>-33</v>
+        <v>-35.5</v>
       </c>
       <c r="D189">
-        <v>-28.8</v>
+        <v>-32.2</v>
       </c>
       <c r="E189">
-        <v>-28.3</v>
+        <v>-24.7</v>
       </c>
       <c r="F189">
-        <v>42.4</v>
+        <v>-66.1</v>
       </c>
       <c r="G189">
         <v>0.77</v>
@@ -7655,16 +7655,16 @@
         <v>198</v>
       </c>
       <c r="C190">
-        <v>-25</v>
+        <v>-31.7</v>
       </c>
       <c r="D190">
-        <v>-32.7</v>
+        <v>-35.6</v>
       </c>
       <c r="E190">
-        <v>-31.9</v>
+        <v>-29.6</v>
       </c>
       <c r="F190">
-        <v>33.1</v>
+        <v>-63.8</v>
       </c>
       <c r="G190">
         <v>1.33</v>
@@ -7687,16 +7687,16 @@
         <v>199</v>
       </c>
       <c r="C191">
-        <v>-30.7</v>
+        <v>-38.7</v>
       </c>
       <c r="D191">
-        <v>-33.7</v>
+        <v>-36.9</v>
       </c>
       <c r="E191">
-        <v>-32.8</v>
+        <v>-36.4</v>
       </c>
       <c r="F191">
-        <v>28</v>
+        <v>-72.6</v>
       </c>
       <c r="G191">
         <v>1.31</v>
@@ -7719,16 +7719,16 @@
         <v>200</v>
       </c>
       <c r="C192">
-        <v>-55.8</v>
+        <v>-60.5</v>
       </c>
       <c r="D192">
-        <v>-62</v>
+        <v>-67.3</v>
       </c>
       <c r="E192">
-        <v>-66.5</v>
+        <v>-74.7</v>
       </c>
       <c r="F192">
-        <v>-50</v>
+        <v>-86.1</v>
       </c>
       <c r="G192">
         <v>0.15</v>
@@ -7751,16 +7751,16 @@
         <v>201</v>
       </c>
       <c r="C193">
-        <v>-59.8</v>
+        <v>-62.9</v>
       </c>
       <c r="D193">
-        <v>-59.8</v>
+        <v>-64.9</v>
       </c>
       <c r="E193">
-        <v>-60.9</v>
+        <v>-68.8</v>
       </c>
       <c r="F193">
-        <v>-36.3</v>
+        <v>-87.4</v>
       </c>
       <c r="G193">
         <v>0.37</v>
@@ -7783,16 +7783,16 @@
         <v>202</v>
       </c>
       <c r="C194">
-        <v>-62.8</v>
+        <v>-64.4</v>
       </c>
       <c r="D194">
-        <v>-59.6</v>
+        <v>-62.2</v>
       </c>
       <c r="E194">
-        <v>-59</v>
+        <v>-61.1</v>
       </c>
       <c r="F194">
-        <v>-23.3</v>
+        <v>-82.4</v>
       </c>
       <c r="G194">
         <v>-0.12</v>
@@ -7815,16 +7815,16 @@
         <v>203</v>
       </c>
       <c r="C195">
-        <v>-59.9</v>
+        <v>-60.8</v>
       </c>
       <c r="D195">
-        <v>-56.5</v>
+        <v>-58.3</v>
       </c>
       <c r="E195">
-        <v>-54</v>
+        <v>-56.7</v>
       </c>
       <c r="F195">
-        <v>-19.6</v>
+        <v>-78.1</v>
       </c>
       <c r="G195">
         <v>-0.07</v>
@@ -7847,16 +7847,16 @@
         <v>204</v>
       </c>
       <c r="C196">
-        <v>-64.5</v>
+        <v>-66.8</v>
       </c>
       <c r="D196">
-        <v>-60.5</v>
+        <v>-63.9</v>
       </c>
       <c r="E196">
-        <v>-59.7</v>
+        <v>-62</v>
       </c>
       <c r="F196">
-        <v>-22.5</v>
+        <v>-86.5</v>
       </c>
       <c r="G196">
         <v>-0.21</v>
@@ -7879,16 +7879,16 @@
         <v>205</v>
       </c>
       <c r="C197">
-        <v>-60</v>
+        <v>-62.6</v>
       </c>
       <c r="D197">
-        <v>-60</v>
+        <v>-66.3</v>
       </c>
       <c r="E197">
-        <v>-64.4</v>
+        <v>-72.7</v>
       </c>
       <c r="F197">
-        <v>-57.4</v>
+        <v>-85.5</v>
       </c>
       <c r="G197">
         <v>0.23</v>
@@ -7911,16 +7911,16 @@
         <v>206</v>
       </c>
       <c r="C198">
-        <v>-56</v>
+        <v>-60.6</v>
       </c>
       <c r="D198">
-        <v>-57.6</v>
+        <v>-65</v>
       </c>
       <c r="E198">
-        <v>-62.1</v>
+        <v>-73</v>
       </c>
       <c r="F198">
-        <v>-53.5</v>
+        <v>-85.2</v>
       </c>
       <c r="G198">
         <v>0.01</v>
@@ -7943,16 +7943,16 @@
         <v>207</v>
       </c>
       <c r="C199">
-        <v>-24.5</v>
+        <v>-31.5</v>
       </c>
       <c r="D199">
-        <v>-37.2</v>
+        <v>-36.9</v>
       </c>
       <c r="E199">
-        <v>-40.4</v>
+        <v>-42.9</v>
       </c>
       <c r="F199">
-        <v>-7.6</v>
+        <v>-53.3</v>
       </c>
       <c r="G199">
         <v>0.4</v>
@@ -7975,16 +7975,16 @@
         <v>208</v>
       </c>
       <c r="C200">
-        <v>-47.7</v>
+        <v>-51</v>
       </c>
       <c r="D200">
-        <v>-49.1</v>
+        <v>-54.7</v>
       </c>
       <c r="E200">
-        <v>-53.1</v>
+        <v>-57</v>
       </c>
       <c r="F200">
-        <v>-9.6</v>
+        <v>-84.8</v>
       </c>
       <c r="G200">
         <v>1.72</v>
@@ -8007,16 +8007,16 @@
         <v>209</v>
       </c>
       <c r="C201">
-        <v>-18.8</v>
+        <v>-27.2</v>
       </c>
       <c r="D201">
-        <v>-14.6</v>
+        <v>-25.6</v>
       </c>
       <c r="E201">
-        <v>-21.2</v>
+        <v>-44.1</v>
       </c>
       <c r="F201">
-        <v>15.9</v>
+        <v>-83.7</v>
       </c>
       <c r="G201">
         <v>0.34</v>
@@ -8039,16 +8039,16 @@
         <v>210</v>
       </c>
       <c r="C202">
-        <v>-14.7</v>
+        <v>-22.1</v>
       </c>
       <c r="D202">
-        <v>-13.7</v>
+        <v>-24.8</v>
       </c>
       <c r="E202">
-        <v>-22.1</v>
+        <v>-42.6</v>
       </c>
       <c r="F202">
-        <v>18.6</v>
+        <v>-78.5</v>
       </c>
       <c r="G202">
         <v>0.33</v>
@@ -8071,16 +8071,16 @@
         <v>211</v>
       </c>
       <c r="C203">
-        <v>-28.3</v>
+        <v>-36.3</v>
       </c>
       <c r="D203">
-        <v>-14.4</v>
+        <v>-25.9</v>
       </c>
       <c r="E203">
-        <v>-18.4</v>
+        <v>-42.3</v>
       </c>
       <c r="F203">
-        <v>27.4</v>
+        <v>-87.1</v>
       </c>
       <c r="G203">
         <v>0.34</v>
@@ -8103,16 +8103,16 @@
         <v>212</v>
       </c>
       <c r="C204">
-        <v>-18.7</v>
+        <v>-27.5</v>
       </c>
       <c r="D204">
-        <v>-23</v>
+        <v>-30.9</v>
       </c>
       <c r="E204">
-        <v>-27.8</v>
+        <v>-46.2</v>
       </c>
       <c r="F204">
-        <v>10</v>
+        <v>-80.4</v>
       </c>
       <c r="G204">
         <v>0.45</v>
@@ -8135,16 +8135,16 @@
         <v>213</v>
       </c>
       <c r="C205">
-        <v>-13.3</v>
+        <v>-22.2</v>
       </c>
       <c r="D205">
-        <v>-21.9</v>
+        <v>-29.6</v>
       </c>
       <c r="E205">
-        <v>-26.2</v>
+        <v>-43.5</v>
       </c>
       <c r="F205">
-        <v>13.3</v>
+        <v>-78.7</v>
       </c>
       <c r="G205">
         <v>0.44</v>
@@ -8167,16 +8167,16 @@
         <v>214</v>
       </c>
       <c r="C206">
-        <v>-10.2</v>
+        <v>-19.8</v>
       </c>
       <c r="D206">
-        <v>-23.2</v>
+        <v>-30.5</v>
       </c>
       <c r="E206">
-        <v>-26.3</v>
+        <v>-42.4</v>
       </c>
       <c r="F206">
-        <v>14.6</v>
+        <v>-79.1</v>
       </c>
       <c r="G206">
         <v>0.48</v>
@@ -8199,16 +8199,16 @@
         <v>215</v>
       </c>
       <c r="C207">
-        <v>-42.3</v>
+        <v>-46.4</v>
       </c>
       <c r="D207">
-        <v>-53.7</v>
+        <v>-52.3</v>
       </c>
       <c r="E207">
-        <v>-44.6</v>
+        <v>-37.4</v>
       </c>
       <c r="F207">
-        <v>3.1</v>
+        <v>-71.4</v>
       </c>
       <c r="G207">
         <v>0.57</v>
@@ -8231,16 +8231,16 @@
         <v>216</v>
       </c>
       <c r="C208">
-        <v>-56.3</v>
+        <v>-60.6</v>
       </c>
       <c r="D208">
-        <v>-63.1</v>
+        <v>-68.6</v>
       </c>
       <c r="E208">
-        <v>-67.8</v>
+        <v>-78.8</v>
       </c>
       <c r="F208">
-        <v>-61.9</v>
+        <v>-92.1</v>
       </c>
       <c r="G208">
         <v>-0.06</v>
@@ -8263,16 +8263,16 @@
         <v>217</v>
       </c>
       <c r="C209">
-        <v>-56.7</v>
+        <v>-61.5</v>
       </c>
       <c r="D209">
-        <v>-64.1</v>
+        <v>-69.4</v>
       </c>
       <c r="E209">
-        <v>-69.4</v>
+        <v>-78.2</v>
       </c>
       <c r="F209">
-        <v>-60.4</v>
+        <v>-90</v>
       </c>
       <c r="G209">
         <v>0.05</v>
@@ -8295,16 +8295,16 @@
         <v>218</v>
       </c>
       <c r="C210">
-        <v>-46.6</v>
+        <v>-48.8</v>
       </c>
       <c r="D210">
-        <v>-50.9</v>
+        <v>-53.9</v>
       </c>
       <c r="E210">
-        <v>-55</v>
+        <v>-57.6</v>
       </c>
       <c r="F210">
-        <v>-36.9</v>
+        <v>-81.3</v>
       </c>
       <c r="G210">
         <v>0.8</v>
@@ -8327,16 +8327,16 @@
         <v>219</v>
       </c>
       <c r="C211">
-        <v>-52.3</v>
+        <v>-54.9</v>
       </c>
       <c r="D211">
-        <v>-57.4</v>
+        <v>-60.5</v>
       </c>
       <c r="E211">
-        <v>-60.8</v>
+        <v>-63.9</v>
       </c>
       <c r="F211">
-        <v>-33.3</v>
+        <v>-85.8</v>
       </c>
       <c r="G211">
         <v>0.38</v>
@@ -8359,16 +8359,16 @@
         <v>220</v>
       </c>
       <c r="C212">
-        <v>-38.4</v>
+        <v>-43.8</v>
       </c>
       <c r="D212">
-        <v>-32</v>
+        <v>-34.9</v>
       </c>
       <c r="E212">
-        <v>-27.9</v>
+        <v>-39.9</v>
       </c>
       <c r="F212">
-        <v>24.9</v>
+        <v>-74.8</v>
       </c>
       <c r="G212">
         <v>0.64</v>
@@ -8391,16 +8391,16 @@
         <v>221</v>
       </c>
       <c r="C213">
-        <v>-52.2</v>
+        <v>-55.9</v>
       </c>
       <c r="D213">
-        <v>-56.5</v>
+        <v>-61.7</v>
       </c>
       <c r="E213">
-        <v>-58.3</v>
+        <v>-66.6</v>
       </c>
       <c r="F213">
-        <v>-39.2</v>
+        <v>-88.8</v>
       </c>
       <c r="G213">
         <v>0.41</v>
@@ -8423,16 +8423,16 @@
         <v>222</v>
       </c>
       <c r="C214">
-        <v>-35.4</v>
+        <v>-37.2</v>
       </c>
       <c r="D214">
-        <v>-37.2</v>
+        <v>-35.2</v>
       </c>
       <c r="E214">
-        <v>-25.4</v>
+        <v>-13.3</v>
       </c>
       <c r="F214">
-        <v>23.3</v>
+        <v>-56.8</v>
       </c>
       <c r="G214">
         <v>0.45</v>
@@ -8455,16 +8455,16 @@
         <v>223</v>
       </c>
       <c r="C215">
-        <v>-46.5</v>
+        <v>-49.6</v>
       </c>
       <c r="D215">
-        <v>-46.9</v>
+        <v>-49.7</v>
       </c>
       <c r="E215">
-        <v>-49.1</v>
+        <v>-52.2</v>
       </c>
       <c r="F215">
-        <v>-4.4</v>
+        <v>-83.7</v>
       </c>
       <c r="G215">
         <v>0.02</v>
@@ -8487,16 +8487,16 @@
         <v>224</v>
       </c>
       <c r="C216">
-        <v>-52.7</v>
+        <v>-55.8</v>
       </c>
       <c r="D216">
-        <v>-53.7</v>
+        <v>-56.2</v>
       </c>
       <c r="E216">
-        <v>-53.8</v>
+        <v>-65.3</v>
       </c>
       <c r="F216">
-        <v>-48.1</v>
+        <v>-89.1</v>
       </c>
       <c r="G216">
         <v>-0.02</v>
@@ -8519,16 +8519,16 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>-41.4</v>
+        <v>-49.7</v>
       </c>
       <c r="D217">
-        <v>-49.2</v>
+        <v>-53.7</v>
       </c>
       <c r="E217">
-        <v>-54.5</v>
+        <v>-66.6</v>
       </c>
       <c r="F217">
-        <v>-36.4</v>
+        <v>-82.9</v>
       </c>
       <c r="G217">
         <v>0.52</v>
@@ -8551,16 +8551,16 @@
         <v>226</v>
       </c>
       <c r="C218">
-        <v>-19.9</v>
+        <v>-21.7</v>
       </c>
       <c r="D218">
-        <v>-25</v>
+        <v>-24.7</v>
       </c>
       <c r="E218">
-        <v>-31</v>
+        <v>-15.8</v>
       </c>
       <c r="F218">
-        <v>23.7</v>
+        <v>-37</v>
       </c>
       <c r="G218">
         <v>0.33</v>
@@ -8583,16 +8583,16 @@
         <v>227</v>
       </c>
       <c r="C219">
-        <v>-26.2</v>
+        <v>-30</v>
       </c>
       <c r="D219">
-        <v>-46.5</v>
+        <v>-46.3</v>
       </c>
       <c r="E219">
+        <v>-32.2</v>
+      </c>
+      <c r="F219">
         <v>-46.9</v>
-      </c>
-      <c r="F219">
-        <v>0.8</v>
       </c>
       <c r="G219">
         <v>0.16</v>
@@ -8615,16 +8615,16 @@
         <v>228</v>
       </c>
       <c r="C220">
-        <v>-14.4</v>
+        <v>-18.9</v>
       </c>
       <c r="D220">
-        <v>-24.9</v>
+        <v>-21.1</v>
       </c>
       <c r="E220">
-        <v>-23.9</v>
+        <v>-11.6</v>
       </c>
       <c r="F220">
-        <v>42.7</v>
+        <v>-27.6</v>
       </c>
       <c r="G220">
         <v>0.26</v>
@@ -8647,16 +8647,16 @@
         <v>229</v>
       </c>
       <c r="C221">
-        <v>-42.7</v>
+        <v>-45.7</v>
       </c>
       <c r="D221">
-        <v>-34</v>
+        <v>-37</v>
       </c>
       <c r="E221">
-        <v>-28.5</v>
+        <v>-30.3</v>
       </c>
       <c r="F221">
-        <v>14.7</v>
+        <v>-78.8</v>
       </c>
       <c r="G221">
         <v>0.82</v>
@@ -8679,16 +8679,16 @@
         <v>230</v>
       </c>
       <c r="C222">
-        <v>-30.6</v>
+        <v>-34.2</v>
       </c>
       <c r="D222">
-        <v>-42</v>
+        <v>-42.2</v>
       </c>
       <c r="E222">
-        <v>-36.1</v>
+        <v>-27.1</v>
       </c>
       <c r="F222">
-        <v>22.8</v>
+        <v>-65.7</v>
       </c>
       <c r="G222">
         <v>0.32</v>
@@ -8711,16 +8711,16 @@
         <v>231</v>
       </c>
       <c r="C223">
-        <v>-41.7</v>
+        <v>-45.1</v>
       </c>
       <c r="D223">
-        <v>-39.7</v>
+        <v>-46</v>
       </c>
       <c r="E223">
-        <v>-39.4</v>
+        <v>-44.8</v>
       </c>
       <c r="F223">
-        <v>-5.6</v>
+        <v>-84.5</v>
       </c>
       <c r="G223">
         <v>0.86</v>
@@ -8743,16 +8743,16 @@
         <v>232</v>
       </c>
       <c r="C224">
-        <v>-53.3</v>
+        <v>-56</v>
       </c>
       <c r="D224">
-        <v>-46.1</v>
+        <v>-50.3</v>
       </c>
       <c r="E224">
-        <v>-45.1</v>
+        <v>-56.1</v>
       </c>
       <c r="F224">
-        <v>-28.8</v>
+        <v>-91.9</v>
       </c>
       <c r="G224">
         <v>0.85</v>
@@ -8775,16 +8775,16 @@
         <v>233</v>
       </c>
       <c r="C225">
-        <v>-43.1</v>
+        <v>-46.9</v>
       </c>
       <c r="D225">
-        <v>-33.7</v>
+        <v>-42</v>
       </c>
       <c r="E225">
-        <v>-24.6</v>
+        <v>-39.3</v>
       </c>
       <c r="F225">
-        <v>-2.2</v>
+        <v>-81</v>
       </c>
       <c r="G225">
         <v>0.51</v>
@@ -8807,16 +8807,16 @@
         <v>234</v>
       </c>
       <c r="C226">
-        <v>-55.4</v>
+        <v>-57.9</v>
       </c>
       <c r="D226">
-        <v>-44.8</v>
+        <v>-49.3</v>
       </c>
       <c r="E226">
-        <v>-39.4</v>
+        <v>-51.4</v>
       </c>
       <c r="F226">
-        <v>-26</v>
+        <v>-77.8</v>
       </c>
       <c r="G226">
         <v>0.51</v>
@@ -8839,16 +8839,16 @@
         <v>235</v>
       </c>
       <c r="C227">
-        <v>-44</v>
+        <v>-47.4</v>
       </c>
       <c r="D227">
-        <v>-34.9</v>
+        <v>-41.9</v>
       </c>
       <c r="E227">
-        <v>-24.7</v>
+        <v>-44.2</v>
       </c>
       <c r="F227">
-        <v>-12.8</v>
+        <v>-85.7</v>
       </c>
       <c r="G227">
         <v>0.75</v>
@@ -8871,16 +8871,16 @@
         <v>236</v>
       </c>
       <c r="C228">
-        <v>-27.5</v>
+        <v>-38.7</v>
       </c>
       <c r="D228">
-        <v>-37.7</v>
+        <v>-42.7</v>
       </c>
       <c r="E228">
-        <v>-44.9</v>
+        <v>-57</v>
       </c>
       <c r="F228">
-        <v>-17.5</v>
+        <v>-77.6</v>
       </c>
       <c r="G228">
         <v>0.55</v>
@@ -8903,16 +8903,16 @@
         <v>237</v>
       </c>
       <c r="C229">
-        <v>-35.9</v>
+        <v>-43.1</v>
       </c>
       <c r="D229">
-        <v>-20.1</v>
+        <v>-31.1</v>
       </c>
       <c r="E229">
-        <v>-25.2</v>
+        <v>-45.5</v>
       </c>
       <c r="F229">
-        <v>22.2</v>
+        <v>-88</v>
       </c>
       <c r="G229">
         <v>0.26</v>
@@ -8935,16 +8935,16 @@
         <v>238</v>
       </c>
       <c r="C230">
-        <v>-24.7</v>
+        <v>-33.3</v>
       </c>
       <c r="D230">
-        <v>-22.2</v>
+        <v>-31.3</v>
       </c>
       <c r="E230">
-        <v>-29.1</v>
+        <v>-47.8</v>
       </c>
       <c r="F230">
-        <v>11.2</v>
+        <v>-82.1</v>
       </c>
       <c r="G230">
         <v>0.39</v>
@@ -8967,16 +8967,16 @@
         <v>239</v>
       </c>
       <c r="C231">
-        <v>-34.5</v>
+        <v>-41</v>
       </c>
       <c r="D231">
-        <v>-50.7</v>
+        <v>-50.2</v>
       </c>
       <c r="E231">
-        <v>-57.4</v>
+        <v>-62.2</v>
       </c>
       <c r="F231">
-        <v>-45.6</v>
+        <v>-64.9</v>
       </c>
       <c r="G231">
         <v>0.58</v>
@@ -8999,16 +8999,16 @@
         <v>240</v>
       </c>
       <c r="C232">
-        <v>-41.4</v>
+        <v>-46.8</v>
       </c>
       <c r="D232">
-        <v>-53.5</v>
+        <v>-53.9</v>
       </c>
       <c r="E232">
-        <v>-59.5</v>
+        <v>-65.9</v>
       </c>
       <c r="F232">
-        <v>-49.7</v>
+        <v>-70.2</v>
       </c>
       <c r="G232">
         <v>0.59</v>
@@ -9031,16 +9031,16 @@
         <v>241</v>
       </c>
       <c r="C233">
-        <v>-38.2</v>
+        <v>-42.8</v>
       </c>
       <c r="D233">
-        <v>-41.4</v>
+        <v>-40.9</v>
       </c>
       <c r="E233">
-        <v>-43.2</v>
+        <v>-43.9</v>
       </c>
       <c r="F233">
-        <v>-3.1</v>
+        <v>-69</v>
       </c>
       <c r="G233">
         <v>1.34</v>
@@ -9063,16 +9063,16 @@
         <v>242</v>
       </c>
       <c r="C234">
-        <v>-41.7</v>
+        <v>-45.5</v>
       </c>
       <c r="D234">
-        <v>-40.9</v>
+        <v>-43.7</v>
       </c>
       <c r="E234">
-        <v>-41.1</v>
+        <v>-49.8</v>
       </c>
       <c r="F234">
-        <v>-3.8</v>
+        <v>-79</v>
       </c>
       <c r="G234">
         <v>1.16</v>
@@ -9095,16 +9095,16 @@
         <v>243</v>
       </c>
       <c r="C235">
-        <v>-45.8</v>
+        <v>-49</v>
       </c>
       <c r="D235">
-        <v>-46.2</v>
+        <v>-49.8</v>
       </c>
       <c r="E235">
-        <v>-48.9</v>
+        <v>-56.3</v>
       </c>
       <c r="F235">
-        <v>-21.8</v>
+        <v>-81.5</v>
       </c>
       <c r="G235">
         <v>0.85</v>
@@ -9127,16 +9127,16 @@
         <v>244</v>
       </c>
       <c r="C236">
-        <v>-43.9</v>
+        <v>-47.5</v>
       </c>
       <c r="D236">
-        <v>-45.6</v>
+        <v>-50.2</v>
       </c>
       <c r="E236">
-        <v>-48</v>
+        <v>-58.9</v>
       </c>
       <c r="F236">
-        <v>-23.6</v>
+        <v>-82.2</v>
       </c>
       <c r="G236">
         <v>0.52</v>
@@ -9159,16 +9159,16 @@
         <v>245</v>
       </c>
       <c r="C237">
-        <v>-48.1</v>
+        <v>-50.7</v>
       </c>
       <c r="D237">
-        <v>-49.3</v>
+        <v>-52.2</v>
       </c>
       <c r="E237">
-        <v>-50.5</v>
+        <v>-53.8</v>
       </c>
       <c r="F237">
-        <v>-9.6</v>
+        <v>-83.8</v>
       </c>
       <c r="G237">
         <v>0.01</v>
@@ -9191,16 +9191,16 @@
         <v>246</v>
       </c>
       <c r="C238">
-        <v>-32.6</v>
+        <v>-37.5</v>
       </c>
       <c r="D238">
-        <v>-27.5</v>
+        <v>-33.6</v>
       </c>
       <c r="E238">
-        <v>-24.7</v>
+        <v>-27.4</v>
       </c>
       <c r="F238">
-        <v>46.9</v>
+        <v>-71.9</v>
       </c>
       <c r="G238">
         <v>1.13</v>
@@ -9223,16 +9223,16 @@
         <v>247</v>
       </c>
       <c r="C239">
-        <v>-40.2</v>
+        <v>-46</v>
       </c>
       <c r="D239">
-        <v>-36.7</v>
+        <v>-43.8</v>
       </c>
       <c r="E239">
-        <v>-37.6</v>
+        <v>-47.7</v>
       </c>
       <c r="F239">
-        <v>0.6</v>
+        <v>-83.1</v>
       </c>
       <c r="G239">
         <v>0.57</v>
@@ -9255,16 +9255,16 @@
         <v>248</v>
       </c>
       <c r="C240">
-        <v>-32.9</v>
+        <v>-37.4</v>
       </c>
       <c r="D240">
-        <v>-20.1</v>
+        <v>-30.3</v>
       </c>
       <c r="E240">
-        <v>-18.3</v>
+        <v>-29.1</v>
       </c>
       <c r="F240">
-        <v>49.5</v>
+        <v>-79</v>
       </c>
       <c r="G240">
         <v>1.42</v>
@@ -9287,16 +9287,16 @@
         <v>249</v>
       </c>
       <c r="C241">
-        <v>-32</v>
+        <v>-35.3</v>
       </c>
       <c r="D241">
-        <v>-32.3</v>
+        <v>-33</v>
       </c>
       <c r="E241">
-        <v>-33.4</v>
+        <v>-23.5</v>
       </c>
       <c r="F241">
-        <v>57.8</v>
+        <v>-58.4</v>
       </c>
       <c r="G241">
         <v>1.06</v>
@@ -9319,16 +9319,16 @@
         <v>250</v>
       </c>
       <c r="C242">
-        <v>-26.8</v>
+        <v>-31.6</v>
       </c>
       <c r="D242">
-        <v>-25.4</v>
+        <v>-30.5</v>
       </c>
       <c r="E242">
-        <v>-24.4</v>
+        <v>-21</v>
       </c>
       <c r="F242">
-        <v>56.4</v>
+        <v>-66</v>
       </c>
       <c r="G242">
         <v>1.01</v>
@@ -9351,16 +9351,16 @@
         <v>251</v>
       </c>
       <c r="C243">
-        <v>-48.2</v>
+        <v>-51.1</v>
       </c>
       <c r="D243">
-        <v>-43.4</v>
+        <v>-47.5</v>
       </c>
       <c r="E243">
-        <v>-39.5</v>
+        <v>-57.8</v>
       </c>
       <c r="F243">
-        <v>-39.3</v>
+        <v>-88.2</v>
       </c>
       <c r="G243">
         <v>0.19</v>
@@ -9383,16 +9383,16 @@
         <v>252</v>
       </c>
       <c r="C244">
-        <v>-34.3</v>
+        <v>-39.4</v>
       </c>
       <c r="D244">
-        <v>-41.1</v>
+        <v>-43.1</v>
       </c>
       <c r="E244">
         <v>-37.3</v>
       </c>
       <c r="F244">
-        <v>30.5</v>
+        <v>-70.8</v>
       </c>
       <c r="G244">
         <v>0.79</v>
@@ -9415,16 +9415,16 @@
         <v>253</v>
       </c>
       <c r="C245">
-        <v>-39.9</v>
+        <v>-44.4</v>
       </c>
       <c r="D245">
-        <v>-45.1</v>
+        <v>-47.9</v>
       </c>
       <c r="E245">
-        <v>-41.1</v>
+        <v>-43.4</v>
       </c>
       <c r="F245">
-        <v>25.2</v>
+        <v>-77.4</v>
       </c>
       <c r="G245">
         <v>0.8</v>
@@ -9447,16 +9447,16 @@
         <v>254</v>
       </c>
       <c r="C246">
-        <v>-48.9</v>
+        <v>-53.2</v>
       </c>
       <c r="D246">
-        <v>-46.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E246">
-        <v>-46.8</v>
+        <v>-62.6</v>
       </c>
       <c r="F246">
-        <v>-37.1</v>
+        <v>-92.8</v>
       </c>
       <c r="G246">
         <v>0.08</v>
@@ -9479,16 +9479,16 @@
         <v>255</v>
       </c>
       <c r="C247">
-        <v>-35</v>
+        <v>-43.1</v>
       </c>
       <c r="D247">
-        <v>-39</v>
+        <v>-43.1</v>
       </c>
       <c r="E247">
-        <v>-31.5</v>
+        <v>-42.6</v>
       </c>
       <c r="F247">
-        <v>33.2</v>
+        <v>-79</v>
       </c>
       <c r="G247">
         <v>0.92</v>
@@ -9511,16 +9511,16 @@
         <v>256</v>
       </c>
       <c r="C248">
-        <v>-32.8</v>
+        <v>-39.2</v>
       </c>
       <c r="D248">
-        <v>-35.7</v>
+        <v>-41.6</v>
       </c>
       <c r="E248">
-        <v>-39.5</v>
+        <v>-39.3</v>
       </c>
       <c r="F248">
-        <v>27</v>
+        <v>-76.7</v>
       </c>
       <c r="G248">
         <v>0.98</v>
@@ -9543,16 +9543,16 @@
         <v>257</v>
       </c>
       <c r="C249">
-        <v>-6.4</v>
+        <v>-10.9</v>
       </c>
       <c r="D249">
-        <v>-10.3</v>
+        <v>-20</v>
       </c>
       <c r="E249">
-        <v>-25</v>
+        <v>-21.1</v>
       </c>
       <c r="F249">
-        <v>52</v>
+        <v>-59.6</v>
       </c>
       <c r="G249">
         <v>1.03</v>
@@ -9575,16 +9575,16 @@
         <v>258</v>
       </c>
       <c r="C250">
-        <v>-50.8</v>
+        <v>-53.4</v>
       </c>
       <c r="D250">
-        <v>-48.5</v>
+        <v>-50.7</v>
       </c>
       <c r="E250">
-        <v>-49</v>
+        <v>-58.4</v>
       </c>
       <c r="F250">
-        <v>-46.2</v>
+        <v>-86</v>
       </c>
       <c r="G250">
         <v>-0.07</v>
@@ -9607,16 +9607,16 @@
         <v>259</v>
       </c>
       <c r="C251">
-        <v>-34.9</v>
+        <v>-40.9</v>
       </c>
       <c r="D251">
-        <v>-35.1</v>
+        <v>-39.3</v>
       </c>
       <c r="E251">
-        <v>-36.7</v>
+        <v>-37.5</v>
       </c>
       <c r="F251">
-        <v>17.9</v>
+        <v>-72.7</v>
       </c>
       <c r="G251">
         <v>0.72</v>
@@ -9639,16 +9639,16 @@
         <v>260</v>
       </c>
       <c r="C252">
-        <v>-44.9</v>
+        <v>-50.4</v>
       </c>
       <c r="D252">
-        <v>-40.9</v>
+        <v>-48.6</v>
       </c>
       <c r="E252">
-        <v>-42.8</v>
+        <v>-55.1</v>
       </c>
       <c r="F252">
-        <v>-5.3</v>
+        <v>-87.4</v>
       </c>
       <c r="G252">
         <v>1.06</v>
@@ -9671,16 +9671,16 @@
         <v>261</v>
       </c>
       <c r="C253">
-        <v>-45.6</v>
+        <v>-50.2</v>
       </c>
       <c r="D253">
-        <v>-43.9</v>
+        <v>-48.7</v>
       </c>
       <c r="E253">
-        <v>-48</v>
+        <v>-56.4</v>
       </c>
       <c r="F253">
-        <v>-21.3</v>
+        <v>-87</v>
       </c>
       <c r="G253">
         <v>-0.01</v>
@@ -9703,16 +9703,16 @@
         <v>262</v>
       </c>
       <c r="C254">
-        <v>-29.7</v>
+        <v>-34.3</v>
       </c>
       <c r="D254">
-        <v>-32.1</v>
+        <v>-33.8</v>
       </c>
       <c r="E254">
-        <v>-32.7</v>
+        <v>-27</v>
       </c>
       <c r="F254">
-        <v>34.5</v>
+        <v>-61.5</v>
       </c>
       <c r="G254">
         <v>0.99</v>
@@ -9735,16 +9735,16 @@
         <v>263</v>
       </c>
       <c r="C255">
-        <v>-23.5</v>
+        <v>-30.7</v>
       </c>
       <c r="D255">
-        <v>-30.9</v>
+        <v>-36.3</v>
       </c>
       <c r="E255">
-        <v>-40.3</v>
+        <v>-36.9</v>
       </c>
       <c r="F255">
-        <v>18</v>
+        <v>-69.3</v>
       </c>
       <c r="G255">
         <v>1.11</v>
@@ -9767,16 +9767,16 @@
         <v>264</v>
       </c>
       <c r="C256">
-        <v>-39.3</v>
+        <v>-45.5</v>
       </c>
       <c r="D256">
-        <v>-36.9</v>
+        <v>-40.4</v>
       </c>
       <c r="E256">
-        <v>-33.5</v>
+        <v>-35.6</v>
       </c>
       <c r="F256">
-        <v>46.9</v>
+        <v>-73.8</v>
       </c>
       <c r="G256">
         <v>1.03</v>
@@ -9799,16 +9799,16 @@
         <v>265</v>
       </c>
       <c r="C257">
-        <v>-45.7</v>
+        <v>-47.9</v>
       </c>
       <c r="D257">
-        <v>-37.3</v>
+        <v>-43</v>
       </c>
       <c r="E257">
-        <v>-27.4</v>
+        <v>-46.8</v>
       </c>
       <c r="F257">
-        <v>-24.7</v>
+        <v>-85.7</v>
       </c>
       <c r="G257">
         <v>0.96</v>
@@ -9831,16 +9831,16 @@
         <v>266</v>
       </c>
       <c r="C258">
-        <v>-14.2</v>
+        <v>-19.5</v>
       </c>
       <c r="D258">
-        <v>-11.6</v>
+        <v>-19.3</v>
       </c>
       <c r="E258">
-        <v>-21.9</v>
+        <v>-18.3</v>
       </c>
       <c r="F258">
-        <v>54.4</v>
+        <v>-56.4</v>
       </c>
       <c r="G258">
         <v>0.91</v>
@@ -9863,16 +9863,16 @@
         <v>267</v>
       </c>
       <c r="C259">
-        <v>-35.3</v>
+        <v>-41.8</v>
       </c>
       <c r="D259">
-        <v>-39.8</v>
+        <v>-42.5</v>
       </c>
       <c r="E259">
-        <v>-40.7</v>
+        <v>-33.9</v>
       </c>
       <c r="F259">
-        <v>44.9</v>
+        <v>-69.4</v>
       </c>
       <c r="G259">
         <v>1.21</v>
@@ -9895,16 +9895,16 @@
         <v>268</v>
       </c>
       <c r="C260">
-        <v>-29.2</v>
+        <v>-37.4</v>
       </c>
       <c r="D260">
-        <v>-38.2</v>
+        <v>-41.2</v>
       </c>
       <c r="E260">
-        <v>-41</v>
+        <v>-36.4</v>
       </c>
       <c r="F260">
-        <v>28.4</v>
+        <v>-67</v>
       </c>
       <c r="G260">
         <v>1.28</v>
@@ -9927,16 +9927,16 @@
         <v>269</v>
       </c>
       <c r="C261">
-        <v>-26.6</v>
+        <v>-32.8</v>
       </c>
       <c r="D261">
-        <v>-27.3</v>
+        <v>-34.5</v>
       </c>
       <c r="E261">
         <v>-34</v>
       </c>
       <c r="F261">
-        <v>28.9</v>
+        <v>-73.8</v>
       </c>
       <c r="G261">
         <v>0.94</v>
@@ -9959,16 +9959,16 @@
         <v>270</v>
       </c>
       <c r="C262">
-        <v>-22</v>
+        <v>-27.8</v>
       </c>
       <c r="D262">
-        <v>-21.7</v>
+        <v>-28.3</v>
       </c>
       <c r="E262">
-        <v>-29.2</v>
+        <v>-26.8</v>
       </c>
       <c r="F262">
-        <v>41.7</v>
+        <v>-66.7</v>
       </c>
       <c r="G262">
         <v>0.92</v>
@@ -9991,16 +9991,16 @@
         <v>271</v>
       </c>
       <c r="C263">
-        <v>-28.5</v>
+        <v>-32.5</v>
       </c>
       <c r="D263">
-        <v>-26.3</v>
+        <v>-31.9</v>
       </c>
       <c r="E263">
-        <v>-31.2</v>
+        <v>-30.7</v>
       </c>
       <c r="F263">
-        <v>37.3</v>
+        <v>-65.3</v>
       </c>
       <c r="G263">
         <v>1.22</v>
@@ -10023,16 +10023,16 @@
         <v>272</v>
       </c>
       <c r="C264">
-        <v>-32.6</v>
+        <v>-38.4</v>
       </c>
       <c r="D264">
-        <v>-29.8</v>
+        <v>-33.3</v>
       </c>
       <c r="E264">
-        <v>-31.4</v>
+        <v>-30</v>
       </c>
       <c r="F264">
-        <v>45.8</v>
+        <v>-71.9</v>
       </c>
       <c r="G264">
         <v>1.22</v>
@@ -10055,16 +10055,16 @@
         <v>273</v>
       </c>
       <c r="C265">
-        <v>-18.4</v>
+        <v>-22.8</v>
       </c>
       <c r="D265">
-        <v>-14.4</v>
+        <v>-23.6</v>
       </c>
       <c r="E265">
-        <v>-27</v>
+        <v>-26.9</v>
       </c>
       <c r="F265">
-        <v>34.8</v>
+        <v>-63.9</v>
       </c>
       <c r="G265">
         <v>0.99</v>
@@ -10087,16 +10087,16 @@
         <v>274</v>
       </c>
       <c r="C266">
-        <v>-22.3</v>
+        <v>-26.4</v>
       </c>
       <c r="D266">
-        <v>-18.9</v>
+        <v>-26.7</v>
       </c>
       <c r="E266">
-        <v>-30.6</v>
+        <v>-29.3</v>
       </c>
       <c r="F266">
-        <v>29.4</v>
+        <v>-64.5</v>
       </c>
       <c r="G266">
         <v>1.04</v>
@@ -10119,16 +10119,16 @@
         <v>275</v>
       </c>
       <c r="C267">
-        <v>-12.9</v>
+        <v>-14.7</v>
       </c>
       <c r="D267">
-        <v>-13.3</v>
+        <v>-18.8</v>
       </c>
       <c r="E267">
-        <v>-25.8</v>
+        <v>-20.7</v>
       </c>
       <c r="F267">
-        <v>50.9</v>
+        <v>-51.7</v>
       </c>
       <c r="G267">
         <v>1.1</v>
@@ -10151,16 +10151,16 @@
         <v>276</v>
       </c>
       <c r="C268">
-        <v>-41</v>
+        <v>-46.4</v>
       </c>
       <c r="D268">
-        <v>-37</v>
+        <v>-41.2</v>
       </c>
       <c r="E268">
-        <v>-31.8</v>
+        <v>-33.6</v>
       </c>
       <c r="F268">
-        <v>47.1</v>
+        <v>-76.8</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -10183,16 +10183,16 @@
         <v>277</v>
       </c>
       <c r="C269">
-        <v>-42.9</v>
+        <v>-47.8</v>
       </c>
       <c r="D269">
-        <v>-44.4</v>
+        <v>-47.6</v>
       </c>
       <c r="E269">
-        <v>-42.7</v>
+        <v>-41.1</v>
       </c>
       <c r="F269">
-        <v>31.2</v>
+        <v>-79.8</v>
       </c>
       <c r="G269">
         <v>0.84</v>
@@ -10215,16 +10215,16 @@
         <v>278</v>
       </c>
       <c r="C270">
-        <v>-14.7</v>
+        <v>-22.2</v>
       </c>
       <c r="D270">
-        <v>-24.4</v>
+        <v>-30.5</v>
       </c>
       <c r="E270">
-        <v>-27.8</v>
+        <v>-28.1</v>
       </c>
       <c r="F270">
-        <v>41.6</v>
+        <v>-65.5</v>
       </c>
       <c r="G270">
         <v>1.21</v>
@@ -10247,16 +10247,16 @@
         <v>279</v>
       </c>
       <c r="C271">
-        <v>-9.7</v>
+        <v>-14</v>
       </c>
       <c r="D271">
-        <v>-15.1</v>
+        <v>-19.3</v>
       </c>
       <c r="E271">
-        <v>-20.6</v>
+        <v>-17.3</v>
       </c>
       <c r="F271">
-        <v>70.2</v>
+        <v>-55.1</v>
       </c>
       <c r="G271">
         <v>1.03</v>
@@ -10279,16 +10279,16 @@
         <v>280</v>
       </c>
       <c r="C272">
-        <v>-39.3</v>
+        <v>-45.4</v>
       </c>
       <c r="D272">
-        <v>-35.3</v>
+        <v>-39.7</v>
       </c>
       <c r="E272">
-        <v>-33.8</v>
+        <v>-37.3</v>
       </c>
       <c r="F272">
-        <v>34.9</v>
+        <v>-80.7</v>
       </c>
       <c r="G272">
         <v>1.11</v>
@@ -10311,16 +10311,16 @@
         <v>281</v>
       </c>
       <c r="C273">
-        <v>-42.8</v>
+        <v>-48.4</v>
       </c>
       <c r="D273">
-        <v>-37.4</v>
+        <v>-41</v>
       </c>
       <c r="E273">
-        <v>-32.3</v>
+        <v>-35.1</v>
       </c>
       <c r="F273">
-        <v>43.1</v>
+        <v>-77.8</v>
       </c>
       <c r="G273">
         <v>1.1</v>
@@ -10343,16 +10343,16 @@
         <v>282</v>
       </c>
       <c r="C274">
-        <v>-18.5</v>
+        <v>-28</v>
       </c>
       <c r="D274">
-        <v>-32.6</v>
+        <v>-32.4</v>
       </c>
       <c r="E274">
-        <v>-35.7</v>
+        <v>-27.3</v>
       </c>
       <c r="F274">
-        <v>26.4</v>
+        <v>-53.5</v>
       </c>
       <c r="G274">
         <v>1.29</v>
@@ -10375,16 +10375,16 @@
         <v>283</v>
       </c>
       <c r="C275">
-        <v>-23</v>
+        <v>-30.4</v>
       </c>
       <c r="D275">
-        <v>-30.6</v>
+        <v>-29.8</v>
       </c>
       <c r="E275">
-        <v>-30.9</v>
+        <v>-26.8</v>
       </c>
       <c r="F275">
-        <v>23.5</v>
+        <v>-49.4</v>
       </c>
       <c r="G275">
         <v>0.73</v>
@@ -10407,16 +10407,16 @@
         <v>284</v>
       </c>
       <c r="C276">
-        <v>-55</v>
+        <v>-59.5</v>
       </c>
       <c r="D276">
-        <v>-58.2</v>
+        <v>-64.8</v>
       </c>
       <c r="E276">
-        <v>-63.4</v>
+        <v>-72.3</v>
       </c>
       <c r="F276">
-        <v>-49.7</v>
+        <v>-82.1</v>
       </c>
       <c r="G276">
         <v>0.11</v>
@@ -10439,16 +10439,16 @@
         <v>285</v>
       </c>
       <c r="C277">
-        <v>-44.2</v>
+        <v>-48.8</v>
       </c>
       <c r="D277">
-        <v>-45.6</v>
+        <v>-52.4</v>
       </c>
       <c r="E277">
-        <v>-49.7</v>
+        <v>-63.2</v>
       </c>
       <c r="F277">
-        <v>-27.2</v>
+        <v>-87.8</v>
       </c>
       <c r="G277">
         <v>0.78</v>
@@ -10471,16 +10471,16 @@
         <v>286</v>
       </c>
       <c r="C278">
-        <v>-39.7</v>
+        <v>-43.8</v>
       </c>
       <c r="D278">
-        <v>-38.6</v>
+        <v>-43</v>
       </c>
       <c r="E278">
-        <v>-39</v>
+        <v>-52.9</v>
       </c>
       <c r="F278">
-        <v>-7.7</v>
+        <v>-77.1</v>
       </c>
       <c r="G278">
         <v>0.24</v>
@@ -10503,16 +10503,16 @@
         <v>287</v>
       </c>
       <c r="C279">
-        <v>-39.3</v>
+        <v>-45.1</v>
       </c>
       <c r="D279">
-        <v>-42.4</v>
+        <v>-50.2</v>
       </c>
       <c r="E279">
-        <v>-46.7</v>
+        <v>-60.7</v>
       </c>
       <c r="F279">
-        <v>-23.3</v>
+        <v>-89</v>
       </c>
       <c r="G279">
         <v>0.74</v>
@@ -10535,16 +10535,16 @@
         <v>288</v>
       </c>
       <c r="C280">
-        <v>-34.4</v>
+        <v>-39.4</v>
       </c>
       <c r="D280">
-        <v>-37</v>
+        <v>-35.3</v>
       </c>
       <c r="E280">
-        <v>-37.8</v>
+        <v>-39.6</v>
       </c>
       <c r="F280">
-        <v>-1.6</v>
+        <v>-56.1</v>
       </c>
       <c r="G280">
         <v>0.45</v>
@@ -10567,16 +10567,16 @@
         <v>289</v>
       </c>
       <c r="C281">
-        <v>-39.5</v>
+        <v>-43.1</v>
       </c>
       <c r="D281">
-        <v>-45.9</v>
+        <v>-44.6</v>
       </c>
       <c r="E281">
-        <v>-48.6</v>
+        <v>-53</v>
       </c>
       <c r="F281">
-        <v>-23.5</v>
+        <v>-61.2</v>
       </c>
       <c r="G281">
         <v>0.3</v>
@@ -10599,16 +10599,16 @@
         <v>290</v>
       </c>
       <c r="C282">
-        <v>-53.5</v>
+        <v>-55.3</v>
       </c>
       <c r="D282">
-        <v>-55.5</v>
+        <v>-57.9</v>
       </c>
       <c r="E282">
-        <v>-58.5</v>
+        <v>-61.1</v>
       </c>
       <c r="F282">
-        <v>-50.7</v>
+        <v>-71.9</v>
       </c>
       <c r="G282">
         <v>1.01</v>
@@ -10631,16 +10631,16 @@
         <v>291</v>
       </c>
       <c r="C283">
-        <v>-62</v>
+        <v>-64.3</v>
       </c>
       <c r="D283">
-        <v>-61</v>
+        <v>-67.7</v>
       </c>
       <c r="E283">
-        <v>-64</v>
+        <v>-73.7</v>
       </c>
       <c r="F283">
-        <v>-54.7</v>
+        <v>-87.7</v>
       </c>
       <c r="G283">
         <v>0.11</v>
@@ -10663,16 +10663,16 @@
         <v>292</v>
       </c>
       <c r="C284">
-        <v>-57.8</v>
+        <v>-59.5</v>
       </c>
       <c r="D284">
-        <v>-55.9</v>
+        <v>-60.6</v>
       </c>
       <c r="E284">
-        <v>-56.3</v>
+        <v>-63.1</v>
       </c>
       <c r="F284">
-        <v>-35.3</v>
+        <v>-81.1</v>
       </c>
       <c r="G284">
         <v>1.3</v>
@@ -10695,16 +10695,16 @@
         <v>293</v>
       </c>
       <c r="C285">
-        <v>-45.9</v>
+        <v>-47.4</v>
       </c>
       <c r="D285">
-        <v>-49.7</v>
+        <v>-44.8</v>
       </c>
       <c r="E285">
-        <v>-51</v>
+        <v>-48.8</v>
       </c>
       <c r="F285">
-        <v>-23.3</v>
+        <v>-48.7</v>
       </c>
       <c r="G285">
         <v>0.47</v>
@@ -10727,16 +10727,16 @@
         <v>294</v>
       </c>
       <c r="C286">
-        <v>-39.6</v>
+        <v>-40.5</v>
       </c>
       <c r="D286">
-        <v>-29.5</v>
+        <v>-29.4</v>
       </c>
       <c r="E286">
-        <v>-24.5</v>
+        <v>-34.1</v>
       </c>
       <c r="F286">
-        <v>30.2</v>
+        <v>-61.3</v>
       </c>
       <c r="G286">
         <v>0.17</v>
@@ -10759,16 +10759,16 @@
         <v>295</v>
       </c>
       <c r="C287">
-        <v>-39.5</v>
+        <v>-40.8</v>
       </c>
       <c r="D287">
-        <v>-36.5</v>
+        <v>-34.6</v>
       </c>
       <c r="E287">
-        <v>-35.3</v>
+        <v>-40.5</v>
       </c>
       <c r="F287">
-        <v>6.1</v>
+        <v>-56</v>
       </c>
       <c r="G287">
         <v>0.17</v>
@@ -10791,16 +10791,16 @@
         <v>296</v>
       </c>
       <c r="C288">
-        <v>-39.2</v>
+        <v>-39.3</v>
       </c>
       <c r="D288">
-        <v>-25.5</v>
+        <v>-26.8</v>
       </c>
       <c r="E288">
-        <v>-19.4</v>
+        <v>-31.8</v>
       </c>
       <c r="F288">
-        <v>40.9</v>
+        <v>-65</v>
       </c>
       <c r="G288">
         <v>0.15</v>
@@ -10823,16 +10823,16 @@
         <v>297</v>
       </c>
       <c r="C289">
-        <v>-48.2</v>
+        <v>-52.2</v>
       </c>
       <c r="D289">
-        <v>-51.2</v>
+        <v>-50.8</v>
       </c>
       <c r="E289">
-        <v>-51.7</v>
+        <v>-54.7</v>
       </c>
       <c r="F289">
-        <v>-23.6</v>
+        <v>-67.8</v>
       </c>
       <c r="G289">
         <v>0.41</v>
@@ -10855,16 +10855,16 @@
         <v>298</v>
       </c>
       <c r="C290">
-        <v>-47</v>
+        <v>-50.9</v>
       </c>
       <c r="D290">
-        <v>-51.1</v>
+        <v>-51.3</v>
       </c>
       <c r="E290">
-        <v>-53.2</v>
+        <v>-59.2</v>
       </c>
       <c r="F290">
-        <v>-32.9</v>
+        <v>-69</v>
       </c>
       <c r="G290">
         <v>0.49</v>
@@ -10887,16 +10887,16 @@
         <v>299</v>
       </c>
       <c r="C291">
-        <v>-46.2</v>
+        <v>-51</v>
       </c>
       <c r="D291">
-        <v>-53.3</v>
+        <v>-52.9</v>
       </c>
       <c r="E291">
-        <v>-54.7</v>
+        <v>-59</v>
       </c>
       <c r="F291">
-        <v>-34</v>
+        <v>-67.6</v>
       </c>
       <c r="G291">
         <v>0.39</v>
@@ -10919,16 +10919,16 @@
         <v>300</v>
       </c>
       <c r="C292">
-        <v>-59.8</v>
+        <v>-62</v>
       </c>
       <c r="D292">
-        <v>-58.4</v>
+        <v>-62.1</v>
       </c>
       <c r="E292">
-        <v>-59.9</v>
+        <v>-64.6</v>
       </c>
       <c r="F292">
-        <v>-29.8</v>
+        <v>-84.2</v>
       </c>
       <c r="G292">
         <v>0.05</v>
@@ -10951,16 +10951,16 @@
         <v>301</v>
       </c>
       <c r="C293">
-        <v>-46</v>
+        <v>-50.6</v>
       </c>
       <c r="D293">
-        <v>-50</v>
+        <v>-57.3</v>
       </c>
       <c r="E293">
-        <v>-59.8</v>
+        <v>-71.1</v>
       </c>
       <c r="F293">
-        <v>-38.2</v>
+        <v>-93.4</v>
       </c>
       <c r="G293">
         <v>-0.32</v>
@@ -10983,16 +10983,16 @@
         <v>302</v>
       </c>
       <c r="C294">
-        <v>-48.7</v>
+        <v>-52.7</v>
       </c>
       <c r="D294">
-        <v>-50.2</v>
+        <v>-55.3</v>
       </c>
       <c r="E294">
-        <v>-53.8</v>
+        <v>-58.3</v>
       </c>
       <c r="F294">
-        <v>-8.4</v>
+        <v>-86.3</v>
       </c>
       <c r="G294">
         <v>0.53</v>
@@ -11015,16 +11015,16 @@
         <v>303</v>
       </c>
       <c r="C295">
-        <v>-54</v>
+        <v>-57.1</v>
       </c>
       <c r="D295">
-        <v>-59.8</v>
+        <v>-63.6</v>
       </c>
       <c r="E295">
-        <v>-60.8</v>
+        <v>-66.2</v>
       </c>
       <c r="F295">
-        <v>-35.7</v>
+        <v>-88.7</v>
       </c>
       <c r="G295">
         <v>0.29</v>
@@ -11047,16 +11047,16 @@
         <v>304</v>
       </c>
       <c r="C296">
-        <v>-36.4</v>
+        <v>-41.3</v>
       </c>
       <c r="D296">
-        <v>-36.8</v>
+        <v>-37</v>
       </c>
       <c r="E296">
-        <v>-26</v>
+        <v>-22.1</v>
       </c>
       <c r="F296">
-        <v>45.5</v>
+        <v>-70.6</v>
       </c>
       <c r="G296">
         <v>1.5</v>
@@ -11079,16 +11079,16 @@
         <v>305</v>
       </c>
       <c r="C297">
-        <v>-14.4</v>
+        <v>-23.3</v>
       </c>
       <c r="D297">
-        <v>-28.8</v>
+        <v>-34.1</v>
       </c>
       <c r="E297">
-        <v>-34.3</v>
+        <v>-29.4</v>
       </c>
       <c r="F297">
-        <v>25</v>
+        <v>-55.4</v>
       </c>
       <c r="G297">
         <v>0.36</v>
@@ -11111,16 +11111,16 @@
         <v>306</v>
       </c>
       <c r="C298">
-        <v>-18.1</v>
+        <v>-24.8</v>
       </c>
       <c r="D298">
-        <v>-32.9</v>
+        <v>-37.7</v>
       </c>
       <c r="E298">
-        <v>-38.5</v>
+        <v>-27.7</v>
       </c>
       <c r="F298">
-        <v>21.8</v>
+        <v>-50.6</v>
       </c>
       <c r="G298">
         <v>0.38</v>
@@ -11143,16 +11143,16 @@
         <v>307</v>
       </c>
       <c r="C299">
-        <v>-19.6</v>
+        <v>-25.5</v>
       </c>
       <c r="D299">
-        <v>-28.7</v>
+        <v>-31.5</v>
       </c>
       <c r="E299">
-        <v>-28.5</v>
+        <v>-20</v>
       </c>
       <c r="F299">
-        <v>29.1</v>
+        <v>-46.3</v>
       </c>
       <c r="G299">
         <v>0.43</v>
@@ -11175,16 +11175,16 @@
         <v>308</v>
       </c>
       <c r="C300">
-        <v>-30.5</v>
+        <v>-33.2</v>
       </c>
       <c r="D300">
-        <v>-25.1</v>
+        <v>-22</v>
       </c>
       <c r="E300">
-        <v>-24.5</v>
+        <v>-13.2</v>
       </c>
       <c r="F300">
-        <v>51.6</v>
+        <v>-43.4</v>
       </c>
       <c r="G300">
         <v>1.15</v>
@@ -11207,16 +11207,16 @@
         <v>309</v>
       </c>
       <c r="C301">
-        <v>-36.8</v>
+        <v>-44.3</v>
       </c>
       <c r="D301">
-        <v>-33.4</v>
+        <v>-38.8</v>
       </c>
       <c r="E301">
-        <v>-34.3</v>
+        <v>-38.1</v>
       </c>
       <c r="F301">
-        <v>50.7</v>
+        <v>-76.5</v>
       </c>
       <c r="G301">
         <v>0.96</v>
@@ -11239,16 +11239,16 @@
         <v>310</v>
       </c>
       <c r="C302">
-        <v>-15.9</v>
+        <v>-18.7</v>
       </c>
       <c r="D302">
-        <v>-13.8</v>
+        <v>-10.4</v>
       </c>
       <c r="E302">
-        <v>-14</v>
+        <v>8.7</v>
       </c>
       <c r="F302">
-        <v>68</v>
+        <v>-21.7</v>
       </c>
       <c r="G302">
         <v>1.19</v>
@@ -11271,16 +11271,16 @@
         <v>311</v>
       </c>
       <c r="C303">
-        <v>-16.5</v>
+        <v>-20.5</v>
       </c>
       <c r="D303">
-        <v>-28.2</v>
+        <v>-25.9</v>
       </c>
       <c r="E303">
-        <v>-30.5</v>
+        <v>-19.6</v>
       </c>
       <c r="F303">
-        <v>26.6</v>
+        <v>-32.6</v>
       </c>
       <c r="G303">
         <v>0.26</v>
@@ -11303,16 +11303,16 @@
         <v>312</v>
       </c>
       <c r="C304">
-        <v>-11.5</v>
+        <v>-13</v>
       </c>
       <c r="D304">
-        <v>-2.8</v>
+        <v>1.3</v>
       </c>
       <c r="E304">
-        <v>-15.9</v>
+        <v>8.4</v>
       </c>
       <c r="F304">
-        <v>44.9</v>
+        <v>-9</v>
       </c>
       <c r="G304">
         <v>0.71</v>
@@ -11335,16 +11335,16 @@
         <v>313</v>
       </c>
       <c r="C305">
-        <v>-37.5</v>
+        <v>-37</v>
       </c>
       <c r="D305">
-        <v>-28.9</v>
+        <v>-32.4</v>
       </c>
       <c r="E305">
-        <v>-5</v>
+        <v>-20.1</v>
       </c>
       <c r="F305">
-        <v>47.2</v>
+        <v>-57.2</v>
       </c>
       <c r="G305">
         <v>1.99</v>
@@ -11367,16 +11367,16 @@
         <v>314</v>
       </c>
       <c r="C306">
-        <v>-38.2</v>
+        <v>-37.4</v>
       </c>
       <c r="D306">
-        <v>-21.8</v>
+        <v>-30.9</v>
       </c>
       <c r="E306">
-        <v>-5.5</v>
+        <v>-25.3</v>
       </c>
       <c r="F306">
-        <v>49.6</v>
+        <v>-60.8</v>
       </c>
       <c r="G306">
         <v>1.52</v>
@@ -11399,16 +11399,16 @@
         <v>315</v>
       </c>
       <c r="C307">
-        <v>-26.4</v>
+        <v>-28.6</v>
       </c>
       <c r="D307">
-        <v>-32.1</v>
+        <v>-28.2</v>
       </c>
       <c r="E307">
-        <v>-31.2</v>
+        <v>-15.5</v>
       </c>
       <c r="F307">
-        <v>25.3</v>
+        <v>-33.1</v>
       </c>
       <c r="G307">
         <v>0.6</v>
@@ -11431,16 +11431,16 @@
         <v>316</v>
       </c>
       <c r="C308">
-        <v>-24.3</v>
+        <v>-27.3</v>
       </c>
       <c r="D308">
-        <v>-29.7</v>
+        <v>-24.8</v>
       </c>
       <c r="E308">
-        <v>-29</v>
+        <v>-8.4</v>
       </c>
       <c r="F308">
-        <v>37.4</v>
+        <v>-25.2</v>
       </c>
       <c r="G308">
         <v>0.61</v>
@@ -11463,16 +11463,16 @@
         <v>317</v>
       </c>
       <c r="C309">
-        <v>-35</v>
+        <v>-36.9</v>
       </c>
       <c r="D309">
-        <v>-31.3</v>
+        <v>-29.6</v>
       </c>
       <c r="E309">
-        <v>-17.1</v>
+        <v>-5</v>
       </c>
       <c r="F309">
-        <v>57.9</v>
+        <v>-55.5</v>
       </c>
       <c r="G309">
         <v>1.22</v>
@@ -11495,16 +11495,16 @@
         <v>318</v>
       </c>
       <c r="C310">
-        <v>-34.2</v>
+        <v>-37.6</v>
       </c>
       <c r="D310">
-        <v>-24.1</v>
+        <v>-25.5</v>
       </c>
       <c r="E310">
-        <v>-15.7</v>
+        <v>-14.3</v>
       </c>
       <c r="F310">
-        <v>39.8</v>
+        <v>-68.6</v>
       </c>
       <c r="G310">
         <v>1.77</v>
@@ -11527,16 +11527,16 @@
         <v>319</v>
       </c>
       <c r="C311">
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="D311">
-        <v>-17.7</v>
+        <v>-22.3</v>
       </c>
       <c r="E311">
-        <v>-26.8</v>
+        <v>-17.5</v>
       </c>
       <c r="F311">
-        <v>31</v>
+        <v>-49.2</v>
       </c>
       <c r="G311">
         <v>0.34</v>
@@ -11559,16 +11559,16 @@
         <v>320</v>
       </c>
       <c r="C312">
-        <v>-24.7</v>
+        <v>-25.8</v>
       </c>
       <c r="D312">
-        <v>-23.9</v>
+        <v>-30.1</v>
       </c>
       <c r="E312">
-        <v>-26.6</v>
+        <v>-23.8</v>
       </c>
       <c r="F312">
-        <v>32.8</v>
+        <v>-62.6</v>
       </c>
       <c r="G312">
         <v>0.33</v>
@@ -11591,16 +11591,16 @@
         <v>321</v>
       </c>
       <c r="C313">
-        <v>-31.1</v>
+        <v>-31.5</v>
       </c>
       <c r="D313">
-        <v>-30.8</v>
+        <v>-33.5</v>
       </c>
       <c r="E313">
-        <v>-33.3</v>
+        <v>-24.2</v>
       </c>
       <c r="F313">
-        <v>16.7</v>
+        <v>-49.5</v>
       </c>
       <c r="G313">
         <v>0.51</v>
@@ -11623,16 +11623,16 @@
         <v>322</v>
       </c>
       <c r="C314">
-        <v>-46.9</v>
+        <v>-52.9</v>
       </c>
       <c r="D314">
-        <v>-36</v>
+        <v>-43.9</v>
       </c>
       <c r="E314">
-        <v>-31.1</v>
+        <v>-48.5</v>
       </c>
       <c r="F314">
-        <v>-6.5</v>
+        <v>-92.7</v>
       </c>
       <c r="G314">
         <v>1.05</v>
@@ -11655,16 +11655,16 @@
         <v>323</v>
       </c>
       <c r="C315">
-        <v>-27.8</v>
+        <v>-30</v>
       </c>
       <c r="D315">
-        <v>-29.9</v>
+        <v>-26.9</v>
       </c>
       <c r="E315">
-        <v>-30.6</v>
+        <v>-15.7</v>
       </c>
       <c r="F315">
-        <v>35.2</v>
+        <v>-37.5</v>
       </c>
       <c r="G315">
         <v>0.87</v>
@@ -11687,16 +11687,16 @@
         <v>324</v>
       </c>
       <c r="C316">
-        <v>-46.8</v>
+        <v>-51.3</v>
       </c>
       <c r="D316">
-        <v>-53.6</v>
+        <v>-55.1</v>
       </c>
       <c r="E316">
-        <v>-58.1</v>
+        <v>-66.3</v>
       </c>
       <c r="F316">
-        <v>-38.9</v>
+        <v>-76.9</v>
       </c>
       <c r="G316">
         <v>0.56</v>
@@ -11719,16 +11719,16 @@
         <v>325</v>
       </c>
       <c r="C317">
-        <v>-23.7</v>
+        <v>-24.5</v>
       </c>
       <c r="D317">
-        <v>-12.4</v>
+        <v>-18.1</v>
       </c>
       <c r="E317">
-        <v>-15.4</v>
+        <v>-7.6</v>
       </c>
       <c r="F317">
-        <v>66.5</v>
+        <v>-49.8</v>
       </c>
       <c r="G317">
         <v>0.66</v>
@@ -11751,16 +11751,16 @@
         <v>326</v>
       </c>
       <c r="C318">
-        <v>-24</v>
+        <v>-26.6</v>
       </c>
       <c r="D318">
-        <v>-14.6</v>
+        <v>-21.2</v>
       </c>
       <c r="E318">
-        <v>-14.9</v>
+        <v>-9.6</v>
       </c>
       <c r="F318">
-        <v>83.9</v>
+        <v>-57.7</v>
       </c>
       <c r="G318">
         <v>0.96</v>
@@ -11783,16 +11783,16 @@
         <v>327</v>
       </c>
       <c r="C319">
-        <v>-40.4</v>
+        <v>-45.9</v>
       </c>
       <c r="D319">
-        <v>-27</v>
+        <v>-34.6</v>
       </c>
       <c r="E319">
-        <v>-14.9</v>
+        <v>-34.2</v>
       </c>
       <c r="F319">
-        <v>28</v>
+        <v>-87.6</v>
       </c>
       <c r="G319">
         <v>0.68</v>
@@ -11815,16 +11815,16 @@
         <v>328</v>
       </c>
       <c r="C320">
-        <v>-24.5</v>
+        <v>-31.4</v>
       </c>
       <c r="D320">
-        <v>-33.9</v>
+        <v>-32.9</v>
       </c>
       <c r="E320">
-        <v>-35.1</v>
+        <v>-27.2</v>
       </c>
       <c r="F320">
-        <v>25.4</v>
+        <v>-51.5</v>
       </c>
       <c r="G320">
         <v>1.34</v>
@@ -11847,16 +11847,16 @@
         <v>329</v>
       </c>
       <c r="C321">
-        <v>-32.4</v>
+        <v>-37.2</v>
       </c>
       <c r="D321">
-        <v>-27.8</v>
+        <v>-29</v>
       </c>
       <c r="E321">
-        <v>-20.9</v>
+        <v>-18.9</v>
       </c>
       <c r="F321">
-        <v>74.8</v>
+        <v>-59.9</v>
       </c>
       <c r="G321">
         <v>1.25</v>
@@ -11879,16 +11879,16 @@
         <v>330</v>
       </c>
       <c r="C322">
-        <v>-37.8</v>
+        <v>-39.3</v>
       </c>
       <c r="D322">
-        <v>-37.6</v>
+        <v>-36.3</v>
       </c>
       <c r="E322">
-        <v>-37.5</v>
+        <v>-32.9</v>
       </c>
       <c r="F322">
-        <v>32.5</v>
+        <v>-52.9</v>
       </c>
       <c r="G322">
         <v>1.15</v>
@@ -11911,16 +11911,16 @@
         <v>331</v>
       </c>
       <c r="C323">
-        <v>-53.7</v>
+        <v>-56.4</v>
       </c>
       <c r="D323">
-        <v>-57</v>
+        <v>-59.9</v>
       </c>
       <c r="E323">
-        <v>-57.1</v>
+        <v>-65.6</v>
       </c>
       <c r="F323">
-        <v>-41.5</v>
+        <v>-87.8</v>
       </c>
       <c r="G323">
         <v>0.03</v>
@@ -11943,16 +11943,16 @@
         <v>332</v>
       </c>
       <c r="C324">
-        <v>-26.3</v>
+        <v>-28.7</v>
       </c>
       <c r="D324">
-        <v>-28.4</v>
+        <v>-28.2</v>
       </c>
       <c r="E324">
-        <v>-30</v>
+        <v>-26.1</v>
       </c>
       <c r="F324">
-        <v>46.6</v>
+        <v>-51.2</v>
       </c>
       <c r="G324">
         <v>0.97</v>
@@ -11975,16 +11975,16 @@
         <v>333</v>
       </c>
       <c r="C325">
-        <v>-41.7</v>
+        <v>-45.7</v>
       </c>
       <c r="D325">
-        <v>-46</v>
+        <v>-48</v>
       </c>
       <c r="E325">
-        <v>-50.6</v>
+        <v>-52</v>
       </c>
       <c r="F325">
-        <v>-8.5</v>
+        <v>-82</v>
       </c>
       <c r="G325">
         <v>0.83</v>
@@ -12007,16 +12007,16 @@
         <v>334</v>
       </c>
       <c r="C326">
-        <v>-51.7</v>
+        <v>-54.1</v>
       </c>
       <c r="D326">
-        <v>-50.2</v>
+        <v>-54.4</v>
       </c>
       <c r="E326">
-        <v>-48</v>
+        <v>-66.1</v>
       </c>
       <c r="F326">
-        <v>-43.6</v>
+        <v>-87.7</v>
       </c>
       <c r="G326">
         <v>-0.33</v>
@@ -12039,16 +12039,16 @@
         <v>335</v>
       </c>
       <c r="C327">
-        <v>-49.9</v>
+        <v>-52.6</v>
       </c>
       <c r="D327">
-        <v>-46.2</v>
+        <v>-54.2</v>
       </c>
       <c r="E327">
-        <v>-47.8</v>
+        <v>-69.9</v>
       </c>
       <c r="F327">
-        <v>-48</v>
+        <v>-86.3</v>
       </c>
       <c r="G327">
         <v>-0.49</v>
@@ -12071,16 +12071,16 @@
         <v>336</v>
       </c>
       <c r="C328">
-        <v>-37.8</v>
+        <v>-38.3</v>
       </c>
       <c r="D328">
-        <v>-34.9</v>
+        <v>-32</v>
       </c>
       <c r="E328">
-        <v>-35.1</v>
+        <v>-29.6</v>
       </c>
       <c r="F328">
-        <v>32.8</v>
+        <v>-47</v>
       </c>
       <c r="G328">
         <v>0.79</v>
@@ -12103,16 +12103,16 @@
         <v>337</v>
       </c>
       <c r="C329">
-        <v>-17.3</v>
+        <v>-22.5</v>
       </c>
       <c r="D329">
-        <v>-24</v>
+        <v>-26.7</v>
       </c>
       <c r="E329">
-        <v>-28.4</v>
+        <v>-25.5</v>
       </c>
       <c r="F329">
-        <v>39</v>
+        <v>-56.6</v>
       </c>
       <c r="G329">
         <v>1.02</v>
@@ -12135,16 +12135,16 @@
         <v>338</v>
       </c>
       <c r="C330">
-        <v>-19.8</v>
+        <v>-26.7</v>
       </c>
       <c r="D330">
-        <v>-24.7</v>
+        <v>-28.9</v>
       </c>
       <c r="E330">
-        <v>-27.6</v>
+        <v>-31.3</v>
       </c>
       <c r="F330">
-        <v>30.8</v>
+        <v>-63.4</v>
       </c>
       <c r="G330">
         <v>1.1</v>
@@ -12167,16 +12167,16 @@
         <v>339</v>
       </c>
       <c r="C331">
-        <v>-32.7</v>
+        <v>-39.3</v>
       </c>
       <c r="D331">
-        <v>-27.3</v>
+        <v>-30.5</v>
       </c>
       <c r="E331">
-        <v>-24.3</v>
+        <v>-25.7</v>
       </c>
       <c r="F331">
-        <v>51.3</v>
+        <v>-70.3</v>
       </c>
       <c r="G331">
         <v>1.12</v>
@@ -12199,16 +12199,16 @@
         <v>340</v>
       </c>
       <c r="C332">
-        <v>-34.9</v>
+        <v>-38.3</v>
       </c>
       <c r="D332">
-        <v>-26.7</v>
+        <v>-27.4</v>
       </c>
       <c r="E332">
-        <v>-19</v>
+        <v>-16.7</v>
       </c>
       <c r="F332">
-        <v>96.2</v>
+        <v>-62</v>
       </c>
       <c r="G332">
         <v>1.5</v>
@@ -12231,16 +12231,16 @@
         <v>341</v>
       </c>
       <c r="C333">
-        <v>-36.2</v>
+        <v>-42.2</v>
       </c>
       <c r="D333">
-        <v>-36.1</v>
+        <v>-37.1</v>
       </c>
       <c r="E333">
-        <v>-35.2</v>
+        <v>-42.2</v>
       </c>
       <c r="F333">
-        <v>6.4</v>
+        <v>-67.3</v>
       </c>
       <c r="G333">
         <v>0.5</v>
@@ -12263,16 +12263,16 @@
         <v>342</v>
       </c>
       <c r="C334">
-        <v>-48.7</v>
+        <v>-51.8</v>
       </c>
       <c r="D334">
-        <v>-51.9</v>
+        <v>-56.1</v>
       </c>
       <c r="E334">
-        <v>-54.3</v>
+        <v>-60.8</v>
       </c>
       <c r="F334">
-        <v>-37.2</v>
+        <v>-86.3</v>
       </c>
       <c r="G334">
         <v>0.82</v>
@@ -12295,16 +12295,16 @@
         <v>343</v>
       </c>
       <c r="C335">
-        <v>-50.3</v>
+        <v>-53.9</v>
       </c>
       <c r="D335">
-        <v>-53.3</v>
+        <v>-58.6</v>
       </c>
       <c r="E335">
-        <v>-56.5</v>
+        <v>-65.6</v>
       </c>
       <c r="F335">
-        <v>-40.2</v>
+        <v>-88.3</v>
       </c>
       <c r="G335">
         <v>0.78</v>
@@ -12327,16 +12327,16 @@
         <v>344</v>
       </c>
       <c r="C336">
-        <v>-39.3</v>
+        <v>-45.1</v>
       </c>
       <c r="D336">
-        <v>-41</v>
+        <v>-40.3</v>
       </c>
       <c r="E336">
-        <v>-42</v>
+        <v>-43.7</v>
       </c>
       <c r="F336">
-        <v>-4.7</v>
+        <v>-64.4</v>
       </c>
       <c r="G336">
         <v>0.6</v>
@@ -12359,16 +12359,16 @@
         <v>345</v>
       </c>
       <c r="C337">
-        <v>-56.5</v>
+        <v>-59.9</v>
       </c>
       <c r="D337">
-        <v>-59.7</v>
+        <v>-64.3</v>
       </c>
       <c r="E337">
-        <v>-62.6</v>
+        <v>-71.4</v>
       </c>
       <c r="F337">
-        <v>-47</v>
+        <v>-87.1</v>
       </c>
       <c r="G337">
         <v>0.09</v>
@@ -12391,16 +12391,16 @@
         <v>346</v>
       </c>
       <c r="C338">
-        <v>-57.9</v>
+        <v>-63.1</v>
       </c>
       <c r="D338">
-        <v>-63.1</v>
+        <v>-69.3</v>
       </c>
       <c r="E338">
-        <v>-67.3</v>
+        <v>-79.1</v>
       </c>
       <c r="F338">
-        <v>-57.4</v>
+        <v>-88.3</v>
       </c>
       <c r="G338">
         <v>-0.46</v>
@@ -12423,16 +12423,16 @@
         <v>347</v>
       </c>
       <c r="C339">
-        <v>-52.7</v>
+        <v>-57.4</v>
       </c>
       <c r="D339">
-        <v>-58.1</v>
+        <v>-63.6</v>
       </c>
       <c r="E339">
-        <v>-63.4</v>
+        <v>-71.6</v>
       </c>
       <c r="F339">
-        <v>-43.8</v>
+        <v>-80.8</v>
       </c>
       <c r="G339">
         <v>0.18</v>
@@ -12455,16 +12455,16 @@
         <v>348</v>
       </c>
       <c r="C340">
-        <v>-59.6</v>
+        <v>-64.6</v>
       </c>
       <c r="D340">
-        <v>-60.4</v>
+        <v>-69.5</v>
       </c>
       <c r="E340">
-        <v>-64.9</v>
+        <v>-80.4</v>
       </c>
       <c r="F340">
-        <v>-65.8</v>
+        <v>-92.5</v>
       </c>
       <c r="G340">
         <v>-0.54</v>
@@ -12487,16 +12487,16 @@
         <v>349</v>
       </c>
       <c r="C341">
-        <v>-27</v>
+        <v>-32.2</v>
       </c>
       <c r="D341">
-        <v>-25.7</v>
+        <v>-23.1</v>
       </c>
       <c r="E341">
-        <v>-21</v>
+        <v>-15.5</v>
       </c>
       <c r="F341">
-        <v>49.3</v>
+        <v>-40</v>
       </c>
       <c r="G341">
         <v>1.15</v>
@@ -12519,16 +12519,16 @@
         <v>350</v>
       </c>
       <c r="C342">
-        <v>-27.7</v>
+        <v>-32.5</v>
       </c>
       <c r="D342">
-        <v>-32.7</v>
+        <v>-28.5</v>
       </c>
       <c r="E342">
-        <v>-31</v>
+        <v>-22.2</v>
       </c>
       <c r="F342">
-        <v>22.7</v>
+        <v>-38</v>
       </c>
       <c r="G342">
         <v>0.74</v>
@@ -12551,16 +12551,16 @@
         <v>351</v>
       </c>
       <c r="C343">
-        <v>-39.6</v>
+        <v>-41.8</v>
       </c>
       <c r="D343">
-        <v>-30.2</v>
+        <v>-34.3</v>
       </c>
       <c r="E343">
-        <v>-27</v>
+        <v>-42</v>
       </c>
       <c r="F343">
-        <v>22.4</v>
+        <v>-76</v>
       </c>
       <c r="G343">
         <v>0.32</v>
@@ -12583,16 +12583,16 @@
         <v>352</v>
       </c>
       <c r="C344">
-        <v>-50.1</v>
+        <v>-53.9</v>
       </c>
       <c r="D344">
-        <v>-54.3</v>
+        <v>-59.3</v>
       </c>
       <c r="E344">
-        <v>-57.4</v>
+        <v>-65.4</v>
       </c>
       <c r="F344">
-        <v>-41</v>
+        <v>-87.8</v>
       </c>
       <c r="G344">
         <v>0.72</v>
@@ -12615,16 +12615,16 @@
         <v>353</v>
       </c>
       <c r="C345">
-        <v>-50.9</v>
+        <v>-54.5</v>
       </c>
       <c r="D345">
-        <v>-54</v>
+        <v>-59.4</v>
       </c>
       <c r="E345">
-        <v>-57.1</v>
+        <v>-65.5</v>
       </c>
       <c r="F345">
-        <v>-41.8</v>
+        <v>-88.7</v>
       </c>
       <c r="G345">
         <v>0.79</v>
@@ -12647,16 +12647,16 @@
         <v>354</v>
       </c>
       <c r="C346">
-        <v>-52.6</v>
+        <v>-55.4</v>
       </c>
       <c r="D346">
-        <v>-54.3</v>
+        <v>-59.1</v>
       </c>
       <c r="E346">
-        <v>-53.2</v>
+        <v>-61.2</v>
       </c>
       <c r="F346">
-        <v>-24.7</v>
+        <v>-88.2</v>
       </c>
       <c r="G346">
         <v>0.06</v>
@@ -12679,16 +12679,16 @@
         <v>355</v>
       </c>
       <c r="C347">
-        <v>-53</v>
+        <v>-56.7</v>
       </c>
       <c r="D347">
-        <v>-50.7</v>
+        <v>-58</v>
       </c>
       <c r="E347">
-        <v>-52.8</v>
+        <v>-62.5</v>
       </c>
       <c r="F347">
-        <v>-28.5</v>
+        <v>-90.8</v>
       </c>
       <c r="G347">
         <v>-0.26</v>
@@ -12711,16 +12711,16 @@
         <v>356</v>
       </c>
       <c r="C348">
-        <v>-41.6</v>
+        <v>-46.4</v>
       </c>
       <c r="D348">
-        <v>-43.9</v>
+        <v>-52.1</v>
       </c>
       <c r="E348">
-        <v>-53.1</v>
+        <v>-64.2</v>
       </c>
       <c r="F348">
-        <v>-14.1</v>
+        <v>-93</v>
       </c>
       <c r="G348">
         <v>-0.19</v>
@@ -12743,16 +12743,16 @@
         <v>357</v>
       </c>
       <c r="C349">
-        <v>-43.2</v>
+        <v>-47.5</v>
       </c>
       <c r="D349">
-        <v>-46.7</v>
+        <v>-54.5</v>
       </c>
       <c r="E349">
-        <v>-53.7</v>
+        <v>-61.5</v>
       </c>
       <c r="F349">
-        <v>-8.8</v>
+        <v>-90.5</v>
       </c>
       <c r="G349">
         <v>0.08</v>
@@ -12775,16 +12775,16 @@
         <v>358</v>
       </c>
       <c r="C350">
-        <v>-44.6</v>
+        <v>-49.5</v>
       </c>
       <c r="D350">
-        <v>-46.1</v>
+        <v>-53.3</v>
       </c>
       <c r="E350">
-        <v>-51.8</v>
+        <v>-58.6</v>
       </c>
       <c r="F350">
-        <v>-7.1</v>
+        <v>-89.6</v>
       </c>
       <c r="G350">
         <v>0.49</v>
@@ -12807,16 +12807,16 @@
         <v>359</v>
       </c>
       <c r="C351">
-        <v>-51</v>
+        <v>-54.9</v>
       </c>
       <c r="D351">
-        <v>-52.7</v>
+        <v>-57.3</v>
       </c>
       <c r="E351">
-        <v>-54.3</v>
+        <v>-58.8</v>
       </c>
       <c r="F351">
-        <v>-9</v>
+        <v>-87.4</v>
       </c>
       <c r="G351">
         <v>1.36</v>
@@ -12839,16 +12839,16 @@
         <v>360</v>
       </c>
       <c r="C352">
-        <v>-32.2</v>
+        <v>-39.4</v>
       </c>
       <c r="D352">
-        <v>-49.7</v>
+        <v>-49.3</v>
       </c>
       <c r="E352">
-        <v>-56.1</v>
+        <v>-60.7</v>
       </c>
       <c r="F352">
-        <v>-42</v>
+        <v>-64.3</v>
       </c>
       <c r="G352">
         <v>0.56</v>
@@ -12871,16 +12871,16 @@
         <v>361</v>
       </c>
       <c r="C353">
-        <v>-29.3</v>
+        <v>-34.5</v>
       </c>
       <c r="D353">
-        <v>-35.8</v>
+        <v>-44.8</v>
       </c>
       <c r="E353">
-        <v>-42.8</v>
+        <v>-55.6</v>
       </c>
       <c r="F353">
-        <v>-14.7</v>
+        <v>-88.1</v>
       </c>
       <c r="G353">
         <v>-0.13</v>
@@ -12903,16 +12903,16 @@
         <v>362</v>
       </c>
       <c r="C354">
-        <v>-30.4</v>
+        <v>-38</v>
       </c>
       <c r="D354">
-        <v>-43.7</v>
+        <v>-43.9</v>
       </c>
       <c r="E354">
-        <v>-49.9</v>
+        <v>-54.7</v>
       </c>
       <c r="F354">
-        <v>-26.5</v>
+        <v>-61.5</v>
       </c>
       <c r="G354">
         <v>0.49</v>
@@ -12935,16 +12935,16 @@
         <v>363</v>
       </c>
       <c r="C355">
-        <v>-25.3</v>
+        <v>-33.4</v>
       </c>
       <c r="D355">
         <v>-46.7</v>
       </c>
       <c r="E355">
-        <v>-53.8</v>
+        <v>-59.6</v>
       </c>
       <c r="F355">
-        <v>-35</v>
+        <v>-65.2</v>
       </c>
       <c r="G355">
         <v>0.56</v>
@@ -12967,16 +12967,16 @@
         <v>364</v>
       </c>
       <c r="C356">
-        <v>-38.4</v>
+        <v>-41.5</v>
       </c>
       <c r="D356">
-        <v>-35</v>
+        <v>-41.8</v>
       </c>
       <c r="E356">
-        <v>-27.3</v>
+        <v>-34.2</v>
       </c>
       <c r="F356">
-        <v>46.5</v>
+        <v>-80.6</v>
       </c>
       <c r="G356">
         <v>1.8</v>
@@ -12999,16 +12999,16 @@
         <v>365</v>
       </c>
       <c r="C357">
-        <v>-52</v>
+        <v>-55.8</v>
       </c>
       <c r="D357">
-        <v>-54.1</v>
+        <v>-58.9</v>
       </c>
       <c r="E357">
-        <v>-55</v>
+        <v>-59.6</v>
       </c>
       <c r="F357">
-        <v>-15.2</v>
+        <v>-88.4</v>
       </c>
       <c r="G357">
         <v>1.72</v>
@@ -13031,16 +13031,16 @@
         <v>366</v>
       </c>
       <c r="C358">
-        <v>-21.3</v>
+        <v>-30.6</v>
       </c>
       <c r="D358">
-        <v>-23.8</v>
+        <v>-36.4</v>
       </c>
       <c r="E358">
-        <v>-34.4</v>
+        <v>-55</v>
       </c>
       <c r="F358">
-        <v>-14.9</v>
+        <v>-92.2</v>
       </c>
       <c r="G358">
         <v>0.2</v>
@@ -13063,16 +13063,16 @@
         <v>367</v>
       </c>
       <c r="C359">
-        <v>-24.5</v>
+        <v>-39.8</v>
       </c>
       <c r="D359">
-        <v>-44.3</v>
+        <v>-46.7</v>
       </c>
       <c r="E359">
-        <v>-52.4</v>
+        <v>-62.2</v>
       </c>
       <c r="F359">
-        <v>-36.5</v>
+        <v>-73.4</v>
       </c>
       <c r="G359">
         <v>0.59</v>
@@ -13095,16 +13095,16 @@
         <v>368</v>
       </c>
       <c r="C360">
-        <v>-18</v>
+        <v>-26.1</v>
       </c>
       <c r="D360">
-        <v>-22.6</v>
+        <v>-35.8</v>
       </c>
       <c r="E360">
-        <v>-34.3</v>
+        <v>-53.3</v>
       </c>
       <c r="F360">
-        <v>-10.7</v>
+        <v>-90.2</v>
       </c>
       <c r="G360">
         <v>0.12</v>
@@ -13127,16 +13127,16 @@
         <v>369</v>
       </c>
       <c r="C361">
-        <v>-20.5</v>
+        <v>-27.3</v>
       </c>
       <c r="D361">
-        <v>-21.6</v>
+        <v>-34.6</v>
       </c>
       <c r="E361">
-        <v>-32.2</v>
+        <v>-48.1</v>
       </c>
       <c r="F361">
-        <v>13.1</v>
+        <v>-86.1</v>
       </c>
       <c r="G361">
         <v>0.19</v>
@@ -13159,16 +13159,16 @@
         <v>370</v>
       </c>
       <c r="C362">
-        <v>-24.8</v>
+        <v>-30.4</v>
       </c>
       <c r="D362">
-        <v>-28.4</v>
+        <v>-39.7</v>
       </c>
       <c r="E362">
-        <v>-36.7</v>
+        <v>-49.3</v>
       </c>
       <c r="F362">
-        <v>8</v>
+        <v>-88.8</v>
       </c>
       <c r="G362">
         <v>0.05</v>
@@ -13191,16 +13191,16 @@
         <v>371</v>
       </c>
       <c r="C363">
-        <v>-23.5</v>
+        <v>-33.1</v>
       </c>
       <c r="D363">
-        <v>-39</v>
+        <v>-39.2</v>
       </c>
       <c r="E363">
-        <v>-43.2</v>
+        <v>-56.2</v>
       </c>
       <c r="F363">
-        <v>-30.8</v>
+        <v>-61.5</v>
       </c>
       <c r="G363">
         <v>0.56</v>
@@ -13223,16 +13223,16 @@
         <v>372</v>
       </c>
       <c r="C364">
-        <v>-19</v>
+        <v>-28.4</v>
       </c>
       <c r="D364">
-        <v>-38.5</v>
+        <v>-38.8</v>
       </c>
       <c r="E364">
-        <v>-44</v>
+        <v>-55.1</v>
       </c>
       <c r="F364">
-        <v>-27.6</v>
+        <v>-62</v>
       </c>
       <c r="G364">
         <v>0.57</v>
@@ -13255,16 +13255,16 @@
         <v>373</v>
       </c>
       <c r="C365">
-        <v>-13.3</v>
+        <v>-22.5</v>
       </c>
       <c r="D365">
-        <v>-34.4</v>
+        <v>-33.4</v>
       </c>
       <c r="E365">
-        <v>-39.1</v>
+        <v>-51.2</v>
       </c>
       <c r="F365">
-        <v>-26</v>
+        <v>-52.5</v>
       </c>
       <c r="G365">
         <v>0.57</v>
@@ -13287,16 +13287,16 @@
         <v>374</v>
       </c>
       <c r="C366">
-        <v>-16.7</v>
+        <v>-24.9</v>
       </c>
       <c r="D366">
-        <v>-38.3</v>
+        <v>-36.3</v>
       </c>
       <c r="E366">
-        <v>-44.2</v>
+        <v>-53</v>
       </c>
       <c r="F366">
-        <v>-31.9</v>
+        <v>-49.6</v>
       </c>
       <c r="G366">
         <v>0.58</v>
@@ -13319,16 +13319,16 @@
         <v>375</v>
       </c>
       <c r="C367">
-        <v>-8.1</v>
+        <v>-18.8</v>
       </c>
       <c r="D367">
-        <v>-24.4</v>
+        <v>-31.7</v>
       </c>
       <c r="E367">
-        <v>-26.9</v>
+        <v>-41.4</v>
       </c>
       <c r="F367">
-        <v>20.8</v>
+        <v>-79.6</v>
       </c>
       <c r="G367">
         <v>0.52</v>
@@ -13351,16 +13351,16 @@
         <v>376</v>
       </c>
       <c r="C368">
-        <v>-27</v>
+        <v>-32.3</v>
       </c>
       <c r="D368">
-        <v>-30.8</v>
+        <v>-36.2</v>
       </c>
       <c r="E368">
-        <v>-34.8</v>
+        <v>-32.3</v>
       </c>
       <c r="F368">
-        <v>33</v>
+        <v>-69.8</v>
       </c>
       <c r="G368">
         <v>0.99</v>
@@ -13383,16 +13383,16 @@
         <v>377</v>
       </c>
       <c r="C369">
-        <v>-27.5</v>
+        <v>-32.6</v>
       </c>
       <c r="D369">
-        <v>-42.2</v>
+        <v>-49.8</v>
       </c>
       <c r="E369">
-        <v>-50.7</v>
+        <v>-43.4</v>
       </c>
       <c r="F369">
-        <v>-4.1</v>
+        <v>-65.9</v>
       </c>
       <c r="G369">
         <v>0.17</v>
@@ -13415,16 +13415,16 @@
         <v>378</v>
       </c>
       <c r="C370">
-        <v>-25.4</v>
+        <v>-30.8</v>
       </c>
       <c r="D370">
-        <v>-41.1</v>
+        <v>-47.9</v>
       </c>
       <c r="E370">
-        <v>-47.4</v>
+        <v>-36.9</v>
       </c>
       <c r="F370">
-        <v>4.3</v>
+        <v>-59.3</v>
       </c>
       <c r="G370">
         <v>0.09</v>
@@ -13447,16 +13447,16 @@
         <v>379</v>
       </c>
       <c r="C371">
-        <v>-22.7</v>
+        <v>-28.1</v>
       </c>
       <c r="D371">
-        <v>-33.6</v>
+        <v>-37.6</v>
       </c>
       <c r="E371">
-        <v>-37.8</v>
+        <v>-26.8</v>
       </c>
       <c r="F371">
-        <v>17</v>
+        <v>-49.9</v>
       </c>
       <c r="G371">
         <v>0.38</v>
@@ -13479,16 +13479,16 @@
         <v>380</v>
       </c>
       <c r="C372">
-        <v>-38.6</v>
+        <v>-42.4</v>
       </c>
       <c r="D372">
-        <v>-45</v>
+        <v>-43.8</v>
       </c>
       <c r="E372">
-        <v>-32.4</v>
+        <v>-18.3</v>
       </c>
       <c r="F372">
-        <v>21.9</v>
+        <v>-63.3</v>
       </c>
       <c r="G372">
         <v>0.8</v>
@@ -13511,16 +13511,16 @@
         <v>381</v>
       </c>
       <c r="C373">
-        <v>-44.9</v>
+        <v>-47.7</v>
       </c>
       <c r="D373">
-        <v>-51.7</v>
+        <v>-52.9</v>
       </c>
       <c r="E373">
-        <v>-43.1</v>
+        <v>-33</v>
       </c>
       <c r="F373">
-        <v>-11.3</v>
+        <v>-75.6</v>
       </c>
       <c r="G373">
         <v>0.39</v>
@@ -13543,16 +13543,16 @@
         <v>382</v>
       </c>
       <c r="C374">
-        <v>-49.3</v>
+        <v>-52.5</v>
       </c>
       <c r="D374">
-        <v>-42.2</v>
+        <v>-45.4</v>
       </c>
       <c r="E374">
-        <v>-39.4</v>
+        <v>-55.3</v>
       </c>
       <c r="F374">
-        <v>-34.2</v>
+        <v>-87.7</v>
       </c>
       <c r="G374">
         <v>0.4</v>
@@ -13575,16 +13575,16 @@
         <v>383</v>
       </c>
       <c r="C375">
-        <v>-37.7</v>
+        <v>-37.8</v>
       </c>
       <c r="D375">
-        <v>-22.7</v>
+        <v>-30.8</v>
       </c>
       <c r="E375">
-        <v>-4.5</v>
+        <v>-25.5</v>
       </c>
       <c r="F375">
-        <v>42.5</v>
+        <v>-62.3</v>
       </c>
       <c r="G375">
         <v>1.88</v>
@@ -13607,16 +13607,16 @@
         <v>384</v>
       </c>
       <c r="C376">
-        <v>-37.5</v>
+        <v>-41.5</v>
       </c>
       <c r="D376">
-        <v>-40.7</v>
+        <v>-49.1</v>
       </c>
       <c r="E376">
-        <v>-47.4</v>
+        <v>-56.8</v>
       </c>
       <c r="F376">
-        <v>-1.9</v>
+        <v>-88.8</v>
       </c>
       <c r="G376">
         <v>-0.02</v>
@@ -13639,16 +13639,16 @@
         <v>385</v>
       </c>
       <c r="C377">
-        <v>-57</v>
+        <v>-59.8</v>
       </c>
       <c r="D377">
-        <v>-56.5</v>
+        <v>-60.8</v>
       </c>
       <c r="E377">
-        <v>-57.7</v>
+        <v>-62.8</v>
       </c>
       <c r="F377">
-        <v>-24.2</v>
+        <v>-84.7</v>
       </c>
       <c r="G377">
         <v>0.56</v>
@@ -13671,16 +13671,16 @@
         <v>386</v>
       </c>
       <c r="C378">
-        <v>-21.5</v>
+        <v>-24.8</v>
       </c>
       <c r="D378">
-        <v>-24.5</v>
+        <v>-20.4</v>
       </c>
       <c r="E378">
-        <v>-28.9</v>
+        <v>-6.2</v>
       </c>
       <c r="F378">
-        <v>49.3</v>
+        <v>-24.1</v>
       </c>
       <c r="G378">
         <v>0.6</v>
@@ -13703,16 +13703,16 @@
         <v>387</v>
       </c>
       <c r="C379">
-        <v>-41.8</v>
+        <v>-42.9</v>
       </c>
       <c r="D379">
-        <v>-45.5</v>
+        <v>-44.3</v>
       </c>
       <c r="E379">
-        <v>-37.8</v>
+        <v>-27</v>
       </c>
       <c r="F379">
-        <v>-15</v>
+        <v>-60.4</v>
       </c>
       <c r="G379">
         <v>0.5</v>
@@ -13735,16 +13735,16 @@
         <v>388</v>
       </c>
       <c r="C380">
-        <v>-33</v>
+        <v>-37.1</v>
       </c>
       <c r="D380">
-        <v>-28.2</v>
+        <v>-32.9</v>
       </c>
       <c r="E380">
-        <v>-28.8</v>
+        <v>-29.4</v>
       </c>
       <c r="F380">
-        <v>48.3</v>
+        <v>-67.4</v>
       </c>
       <c r="G380">
         <v>1.28</v>
@@ -13767,16 +13767,16 @@
         <v>389</v>
       </c>
       <c r="C381">
-        <v>-34.5</v>
+        <v>-38.6</v>
       </c>
       <c r="D381">
-        <v>-29.4</v>
+        <v>-32.5</v>
       </c>
       <c r="E381">
-        <v>-29.4</v>
+        <v>-28.3</v>
       </c>
       <c r="F381">
-        <v>50.1</v>
+        <v>-66.2</v>
       </c>
       <c r="G381">
         <v>1.28</v>
@@ -13799,16 +13799,16 @@
         <v>390</v>
       </c>
       <c r="C382">
-        <v>-33.5</v>
+        <v>-39.6</v>
       </c>
       <c r="D382">
-        <v>-25.9</v>
+        <v>-34.3</v>
       </c>
       <c r="E382">
-        <v>-28.2</v>
+        <v>-48.6</v>
       </c>
       <c r="F382">
-        <v>6.2</v>
+        <v>-84.9</v>
       </c>
       <c r="G382">
         <v>0.17</v>
@@ -13831,16 +13831,16 @@
         <v>391</v>
       </c>
       <c r="C383">
-        <v>-57.2</v>
+        <v>-58.9</v>
       </c>
       <c r="D383">
-        <v>-59.8</v>
+        <v>-61.3</v>
       </c>
       <c r="E383">
-        <v>-60.6</v>
+        <v>-61.8</v>
       </c>
       <c r="F383">
-        <v>-44.7</v>
+        <v>-74.4</v>
       </c>
       <c r="G383">
         <v>1.53</v>
@@ -13863,16 +13863,16 @@
         <v>392</v>
       </c>
       <c r="C384">
-        <v>-42.7</v>
+        <v>-45.4</v>
       </c>
       <c r="D384">
-        <v>-36.5</v>
+        <v>-36.2</v>
       </c>
       <c r="E384">
-        <v>-33.4</v>
+        <v>-28.5</v>
       </c>
       <c r="F384">
-        <v>52.7</v>
+        <v>-57.6</v>
       </c>
       <c r="G384">
         <v>1.2</v>
@@ -13895,16 +13895,16 @@
         <v>393</v>
       </c>
       <c r="C385">
-        <v>-33.1</v>
+        <v>-34.6</v>
       </c>
       <c r="D385">
-        <v>-27.3</v>
+        <v>-25.1</v>
       </c>
       <c r="E385">
-        <v>-23.7</v>
+        <v>-17.2</v>
       </c>
       <c r="F385">
-        <v>61.2</v>
+        <v>-46.1</v>
       </c>
       <c r="G385">
         <v>1.24</v>
@@ -13927,16 +13927,16 @@
         <v>394</v>
       </c>
       <c r="C386">
-        <v>-21.8</v>
+        <v>-25.3</v>
       </c>
       <c r="D386">
-        <v>-38.8</v>
+        <v>-36.9</v>
       </c>
       <c r="E386">
-        <v>-38.3</v>
+        <v>-26.9</v>
       </c>
       <c r="F386">
-        <v>4.1</v>
+        <v>-42.2</v>
       </c>
       <c r="G386">
         <v>0.32</v>
@@ -13959,16 +13959,16 @@
         <v>395</v>
       </c>
       <c r="C387">
-        <v>-25.2</v>
+        <v>-30.2</v>
       </c>
       <c r="D387">
-        <v>-45.5</v>
+        <v>-47.2</v>
       </c>
       <c r="E387">
-        <v>-46.8</v>
+        <v>-34</v>
       </c>
       <c r="F387">
-        <v>3.5</v>
+        <v>-51.2</v>
       </c>
       <c r="G387">
         <v>0.08</v>
@@ -13991,16 +13991,16 @@
         <v>396</v>
       </c>
       <c r="C388">
-        <v>-24.9</v>
+        <v>-27.8</v>
       </c>
       <c r="D388">
-        <v>-31.4</v>
+        <v>-30.2</v>
       </c>
       <c r="E388">
-        <v>-30.2</v>
+        <v>-19.5</v>
       </c>
       <c r="F388">
-        <v>17.9</v>
+        <v>-39.6</v>
       </c>
       <c r="G388">
         <v>0.44</v>
@@ -14023,16 +14023,16 @@
         <v>397</v>
       </c>
       <c r="C389">
-        <v>-61.6</v>
+        <v>-64.5</v>
       </c>
       <c r="D389">
-        <v>-63.5</v>
+        <v>-66.9</v>
       </c>
       <c r="E389">
-        <v>-63.6</v>
+        <v>-68</v>
       </c>
       <c r="F389">
-        <v>-36.6</v>
+        <v>-85.1</v>
       </c>
       <c r="G389">
         <v>1.19</v>
@@ -14055,16 +14055,16 @@
         <v>398</v>
       </c>
       <c r="C390">
-        <v>-55.3</v>
+        <v>-58.8</v>
       </c>
       <c r="D390">
-        <v>-54.4</v>
+        <v>-59.9</v>
       </c>
       <c r="E390">
-        <v>-59.4</v>
+        <v>-64.1</v>
       </c>
       <c r="F390">
-        <v>-21.6</v>
+        <v>-89.4</v>
       </c>
       <c r="G390">
         <v>-0.06</v>
@@ -14087,16 +14087,16 @@
         <v>399</v>
       </c>
       <c r="C391">
-        <v>-17.2</v>
+        <v>-22.5</v>
       </c>
       <c r="D391">
-        <v>-25.2</v>
+        <v>-24.6</v>
       </c>
       <c r="E391">
-        <v>-22.3</v>
+        <v>-11.2</v>
       </c>
       <c r="F391">
-        <v>50.7</v>
+        <v>-36.1</v>
       </c>
       <c r="G391">
         <v>0.34</v>
@@ -14119,16 +14119,16 @@
         <v>400</v>
       </c>
       <c r="C392">
-        <v>-24.9</v>
+        <v>-27.7</v>
       </c>
       <c r="D392">
-        <v>-34</v>
+        <v>-31.2</v>
       </c>
       <c r="E392">
-        <v>-30.6</v>
+        <v>-21.9</v>
       </c>
       <c r="F392">
-        <v>21.9</v>
+        <v>-42.9</v>
       </c>
       <c r="G392">
         <v>0.42</v>
@@ -14151,16 +14151,16 @@
         <v>401</v>
       </c>
       <c r="C393">
-        <v>-18.8</v>
+        <v>-21</v>
       </c>
       <c r="D393">
-        <v>-23.1</v>
+        <v>-18.5</v>
       </c>
       <c r="E393">
-        <v>-24.3</v>
+        <v>-7.9</v>
       </c>
       <c r="F393">
-        <v>31.2</v>
+        <v>-26</v>
       </c>
       <c r="G393">
         <v>0.53</v>
@@ -14183,16 +14183,16 @@
         <v>402</v>
       </c>
       <c r="C394">
-        <v>-32.6</v>
+        <v>-39.7</v>
       </c>
       <c r="D394">
-        <v>-46.2</v>
+        <v>-46.4</v>
       </c>
       <c r="E394">
-        <v>-52.7</v>
+        <v>-57.2</v>
       </c>
       <c r="F394">
-        <v>-32.7</v>
+        <v>-64</v>
       </c>
       <c r="G394">
         <v>0.5</v>
@@ -14215,16 +14215,16 @@
         <v>403</v>
       </c>
       <c r="C395">
-        <v>-24.4</v>
+        <v>-31.8</v>
       </c>
       <c r="D395">
-        <v>-33.6</v>
+        <v>-34.1</v>
       </c>
       <c r="E395">
-        <v>-38</v>
+        <v>-33.8</v>
       </c>
       <c r="F395">
-        <v>18.5</v>
+        <v>-64.3</v>
       </c>
       <c r="G395">
         <v>1.27</v>
@@ -14247,16 +14247,16 @@
         <v>404</v>
       </c>
       <c r="C396">
-        <v>-39.3</v>
+        <v>-44.4</v>
       </c>
       <c r="D396">
-        <v>-45.5</v>
+        <v>-45.8</v>
       </c>
       <c r="E396">
         <v>-50.7</v>
       </c>
       <c r="F396">
-        <v>-16.9</v>
+        <v>-73.2</v>
       </c>
       <c r="G396">
         <v>1.34</v>
@@ -14279,16 +14279,16 @@
         <v>405</v>
       </c>
       <c r="C397">
-        <v>-29.5</v>
+        <v>-34.1</v>
       </c>
       <c r="D397">
-        <v>-26</v>
+        <v>-24.6</v>
       </c>
       <c r="E397">
-        <v>-20.8</v>
+        <v>-13.3</v>
       </c>
       <c r="F397">
-        <v>57.3</v>
+        <v>-45.4</v>
       </c>
       <c r="G397">
         <v>1.13</v>
@@ -14311,16 +14311,16 @@
         <v>406</v>
       </c>
       <c r="C398">
-        <v>-44.6</v>
+        <v>-49.3</v>
       </c>
       <c r="D398">
         <v>-52</v>
       </c>
       <c r="E398">
-        <v>-58.1</v>
+        <v>-63</v>
       </c>
       <c r="F398">
-        <v>-40.8</v>
+        <v>-67.7</v>
       </c>
       <c r="G398">
         <v>0.55</v>
@@ -14343,16 +14343,16 @@
         <v>407</v>
       </c>
       <c r="C399">
-        <v>-61.2</v>
+        <v>-64.1</v>
       </c>
       <c r="D399">
-        <v>-59.7</v>
+        <v>-64</v>
       </c>
       <c r="E399">
-        <v>-62.7</v>
+        <v>-66.5</v>
       </c>
       <c r="F399">
-        <v>-31.5</v>
+        <v>-88.5</v>
       </c>
       <c r="G399">
         <v>-0.13</v>
@@ -14375,16 +14375,16 @@
         <v>408</v>
       </c>
       <c r="C400">
-        <v>-31.2</v>
+        <v>-40.1</v>
       </c>
       <c r="D400">
-        <v>-35.2</v>
+        <v>-41.6</v>
       </c>
       <c r="E400">
-        <v>-42.3</v>
+        <v>-56.3</v>
       </c>
       <c r="F400">
-        <v>-12.4</v>
+        <v>-79.7</v>
       </c>
       <c r="G400">
         <v>0.48</v>

--- a/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
+++ b/Sistema-Operacional/Entradas/Monitoramento_Estiagem_Municipios.xlsx
@@ -22,16 +22,16 @@
     <t>NOME</t>
   </si>
   <si>
-    <t>AN_ANUAL_202101</t>
-  </si>
-  <si>
-    <t>AN_SEM_202101</t>
-  </si>
-  <si>
-    <t>AN_TRI_202101</t>
-  </si>
-  <si>
-    <t>AN_202101</t>
+    <t>AN_ANUAL_202102</t>
+  </si>
+  <si>
+    <t>AN_SEM_202102</t>
+  </si>
+  <si>
+    <t>AN_TRI_202102</t>
+  </si>
+  <si>
+    <t>AN_20210215</t>
   </si>
   <si>
     <t>SPI1_202101</t>
@@ -1592,7 +1592,7 @@
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
@@ -1639,16 +1639,16 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>-33.6</v>
+        <v>-35.4</v>
       </c>
       <c r="D2">
-        <v>-16.9</v>
+        <v>-25.8</v>
       </c>
       <c r="E2">
-        <v>-1.6</v>
+        <v>-14</v>
       </c>
       <c r="F2">
-        <v>-24.1</v>
+        <v>-59.3</v>
       </c>
       <c r="G2">
         <v>0.23</v>
@@ -1671,16 +1671,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>-42</v>
+        <v>-42.6</v>
       </c>
       <c r="D3">
-        <v>-25.9</v>
+        <v>-34.5</v>
       </c>
       <c r="E3">
-        <v>-15.9</v>
+        <v>-27.1</v>
       </c>
       <c r="F3">
-        <v>-38.2</v>
+        <v>-64.9</v>
       </c>
       <c r="G3">
         <v>0.25</v>
@@ -1703,16 +1703,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>-27.2</v>
+        <v>-27.8</v>
       </c>
       <c r="D4">
-        <v>-18.7</v>
+        <v>-23.1</v>
       </c>
       <c r="E4">
-        <v>23.8</v>
+        <v>14.9</v>
       </c>
       <c r="F4">
-        <v>41.6</v>
+        <v>-74.2</v>
       </c>
       <c r="G4">
         <v>3.2</v>
@@ -1735,16 +1735,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>-35.3</v>
+        <v>-36.1</v>
       </c>
       <c r="D5">
-        <v>-27.6</v>
+        <v>-32.8</v>
       </c>
       <c r="E5">
-        <v>2.3</v>
+        <v>-4.8</v>
       </c>
       <c r="F5">
-        <v>6.2</v>
+        <v>-74.6</v>
       </c>
       <c r="G5">
         <v>1.79</v>
@@ -1767,16 +1767,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>-41.3</v>
+        <v>-42.6</v>
       </c>
       <c r="D6">
-        <v>-30.6</v>
+        <v>-38.9</v>
       </c>
       <c r="E6">
-        <v>-23.6</v>
+        <v>-30.2</v>
       </c>
       <c r="F6">
-        <v>-41.2</v>
+        <v>-61.7</v>
       </c>
       <c r="G6">
         <v>0.13</v>
@@ -1799,16 +1799,16 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>-24.7</v>
+        <v>-23.1</v>
       </c>
       <c r="D7">
-        <v>-13.1</v>
+        <v>-20.9</v>
       </c>
       <c r="E7">
-        <v>10.1</v>
+        <v>26.5</v>
       </c>
       <c r="F7">
-        <v>70.4</v>
+        <v>-77</v>
       </c>
       <c r="G7">
         <v>3.91</v>
@@ -1831,16 +1831,16 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>-19.5</v>
+        <v>-18.6</v>
       </c>
       <c r="D8">
-        <v>-5.8</v>
+        <v>-12.5</v>
       </c>
       <c r="E8">
-        <v>28.1</v>
+        <v>46.9</v>
       </c>
       <c r="F8">
-        <v>104.9</v>
+        <v>-63.3</v>
       </c>
       <c r="G8">
         <v>4.11</v>
@@ -1863,16 +1863,16 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>-37.5</v>
+        <v>-38.1</v>
       </c>
       <c r="D9">
-        <v>-32.6</v>
+        <v>-43.2</v>
       </c>
       <c r="E9">
-        <v>-30.6</v>
+        <v>-20.9</v>
       </c>
       <c r="F9">
-        <v>22</v>
+        <v>-78.9</v>
       </c>
       <c r="G9">
         <v>1.39</v>
@@ -1895,16 +1895,16 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>-30.5</v>
+        <v>-29.4</v>
       </c>
       <c r="D10">
-        <v>-21.7</v>
+        <v>-34.9</v>
       </c>
       <c r="E10">
-        <v>-8.2</v>
+        <v>2.3</v>
       </c>
       <c r="F10">
-        <v>51.3</v>
+        <v>-76.1</v>
       </c>
       <c r="G10">
         <v>3.81</v>
@@ -1927,16 +1927,16 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>-43.8</v>
+        <v>-44.3</v>
       </c>
       <c r="D11">
-        <v>-38.6</v>
+        <v>-53.2</v>
       </c>
       <c r="E11">
-        <v>-31.1</v>
+        <v>-30.2</v>
       </c>
       <c r="F11">
-        <v>-11.8</v>
+        <v>-84.6</v>
       </c>
       <c r="G11">
         <v>2.89</v>
@@ -1959,16 +1959,16 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>-48.4</v>
+        <v>-49.1</v>
       </c>
       <c r="D12">
-        <v>-42.2</v>
+        <v>-54.1</v>
       </c>
       <c r="E12">
-        <v>-40.8</v>
+        <v>-44.3</v>
       </c>
       <c r="F12">
-        <v>-48.7</v>
+        <v>-84.1</v>
       </c>
       <c r="G12">
         <v>0.52</v>
@@ -1991,16 +1991,16 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>-31</v>
+        <v>-28.9</v>
       </c>
       <c r="D13">
-        <v>-12.6</v>
+        <v>-27.1</v>
       </c>
       <c r="E13">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
       <c r="F13">
-        <v>42.5</v>
+        <v>-73.9</v>
       </c>
       <c r="G13">
         <v>3.85</v>
@@ -2023,16 +2023,16 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>-28.3</v>
+        <v>-25.7</v>
       </c>
       <c r="D14">
-        <v>-6.3</v>
+        <v>-21.9</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>12.1</v>
       </c>
       <c r="F14">
-        <v>38</v>
+        <v>-73.5</v>
       </c>
       <c r="G14">
         <v>3.59</v>
@@ -2055,16 +2055,16 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>-25.4</v>
+        <v>-26.5</v>
       </c>
       <c r="D15">
-        <v>-4.4</v>
+        <v>-29.7</v>
       </c>
       <c r="E15">
-        <v>-9.6</v>
+        <v>-8.6</v>
       </c>
       <c r="F15">
-        <v>1.3</v>
+        <v>-85.3</v>
       </c>
       <c r="G15">
         <v>0.48</v>
@@ -2087,16 +2087,16 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>-14.9</v>
+        <v>-19.8</v>
       </c>
       <c r="D16">
-        <v>-8.8</v>
+        <v>-31.3</v>
       </c>
       <c r="E16">
-        <v>-15.2</v>
+        <v>-13.7</v>
       </c>
       <c r="F16">
-        <v>4.1</v>
+        <v>-80.1</v>
       </c>
       <c r="G16">
         <v>0.44</v>
@@ -2119,16 +2119,16 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>-41</v>
+        <v>-40.6</v>
       </c>
       <c r="D17">
-        <v>-33.1</v>
+        <v>-44.3</v>
       </c>
       <c r="E17">
-        <v>-30.4</v>
+        <v>-29.8</v>
       </c>
       <c r="F17">
-        <v>-20.6</v>
+        <v>-83.9</v>
       </c>
       <c r="G17">
         <v>2.85</v>
@@ -2151,16 +2151,16 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>-49.8</v>
+        <v>-50.9</v>
       </c>
       <c r="D18">
-        <v>-48.4</v>
+        <v>-59.2</v>
       </c>
       <c r="E18">
-        <v>-44.6</v>
+        <v>-47.1</v>
       </c>
       <c r="F18">
-        <v>-39.2</v>
+        <v>-88.8</v>
       </c>
       <c r="G18">
         <v>1.17</v>
@@ -2183,16 +2183,16 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>-38.2</v>
+        <v>-38.8</v>
       </c>
       <c r="D19">
-        <v>-21</v>
+        <v>-27.9</v>
       </c>
       <c r="E19">
-        <v>-13.9</v>
+        <v>-17.6</v>
       </c>
       <c r="F19">
-        <v>-10.7</v>
+        <v>-73.2</v>
       </c>
       <c r="G19">
         <v>0.48</v>
@@ -2215,16 +2215,16 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>-50</v>
+        <v>-47.9</v>
       </c>
       <c r="D20">
-        <v>-35.6</v>
+        <v>-41.2</v>
       </c>
       <c r="E20">
-        <v>-29.7</v>
+        <v>-30.7</v>
       </c>
       <c r="F20">
-        <v>-30.7</v>
+        <v>-63.4</v>
       </c>
       <c r="G20">
         <v>0.12</v>
@@ -2247,16 +2247,16 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>-52.9</v>
+        <v>-52.2</v>
       </c>
       <c r="D21">
-        <v>-51.1</v>
+        <v>-55.3</v>
       </c>
       <c r="E21">
-        <v>-42.9</v>
+        <v>-38.8</v>
       </c>
       <c r="F21">
-        <v>-36.1</v>
+        <v>-80.5</v>
       </c>
       <c r="G21">
         <v>0.18</v>
@@ -2279,16 +2279,16 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>-46.2</v>
+        <v>-47.7</v>
       </c>
       <c r="D22">
-        <v>-42.8</v>
+        <v>-48.2</v>
       </c>
       <c r="E22">
-        <v>-30.3</v>
+        <v>-28.5</v>
       </c>
       <c r="F22">
-        <v>-20.2</v>
+        <v>-81.5</v>
       </c>
       <c r="G22">
         <v>0.18</v>
@@ -2311,16 +2311,16 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>-29</v>
+        <v>-27.3</v>
       </c>
       <c r="D23">
-        <v>-15.9</v>
+        <v>-22.7</v>
       </c>
       <c r="E23">
-        <v>7.4</v>
+        <v>24.9</v>
       </c>
       <c r="F23">
-        <v>71.2</v>
+        <v>-75.8</v>
       </c>
       <c r="G23">
         <v>3.59</v>
@@ -2343,16 +2343,16 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>-53.7</v>
+        <v>-50.5</v>
       </c>
       <c r="D24">
-        <v>-43.6</v>
+        <v>-48</v>
       </c>
       <c r="E24">
-        <v>-39.8</v>
+        <v>-36</v>
       </c>
       <c r="F24">
-        <v>-43.1</v>
+        <v>-59.5</v>
       </c>
       <c r="G24">
         <v>0.26</v>
@@ -2375,16 +2375,16 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>-55</v>
+        <v>-52.6</v>
       </c>
       <c r="D25">
-        <v>-49</v>
+        <v>-53.5</v>
       </c>
       <c r="E25">
-        <v>-49.5</v>
+        <v>-47</v>
       </c>
       <c r="F25">
-        <v>-52.8</v>
+        <v>-69.4</v>
       </c>
       <c r="G25">
         <v>0.25</v>
@@ -2407,16 +2407,16 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>-5</v>
+        <v>-5.8</v>
       </c>
       <c r="D26">
-        <v>7.6</v>
+        <v>-6.5</v>
       </c>
       <c r="E26">
-        <v>49.1</v>
+        <v>48.3</v>
       </c>
       <c r="F26">
-        <v>138.1</v>
+        <v>-77</v>
       </c>
       <c r="G26">
         <v>3.55</v>
@@ -2439,16 +2439,16 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>-2.4</v>
+        <v>-3</v>
       </c>
       <c r="D27">
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>60</v>
+        <v>59.8</v>
       </c>
       <c r="F27">
-        <v>167.9</v>
+        <v>-77.4</v>
       </c>
       <c r="G27">
         <v>3.51</v>
@@ -2471,16 +2471,16 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>-35.4</v>
+        <v>-35.8</v>
       </c>
       <c r="D28">
-        <v>-31.5</v>
+        <v>-35.2</v>
       </c>
       <c r="E28">
-        <v>0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="F28">
-        <v>12.2</v>
+        <v>-71.5</v>
       </c>
       <c r="G28">
         <v>1.52</v>
@@ -2503,16 +2503,16 @@
         <v>37</v>
       </c>
       <c r="C29">
-        <v>-41.1</v>
+        <v>-40.6</v>
       </c>
       <c r="D29">
-        <v>-28.4</v>
+        <v>-39.1</v>
       </c>
       <c r="E29">
-        <v>-20.2</v>
+        <v>-24.4</v>
       </c>
       <c r="F29">
-        <v>-23.7</v>
+        <v>-81.1</v>
       </c>
       <c r="G29">
         <v>1.06</v>
@@ -2535,16 +2535,16 @@
         <v>38</v>
       </c>
       <c r="C30">
-        <v>-15.7</v>
+        <v>-18.1</v>
       </c>
       <c r="D30">
-        <v>-9.7</v>
+        <v>-20.5</v>
       </c>
       <c r="E30">
-        <v>24.6</v>
+        <v>14.9</v>
       </c>
       <c r="F30">
-        <v>75.8</v>
+        <v>-87.7</v>
       </c>
       <c r="G30">
         <v>2.95</v>
@@ -2567,16 +2567,16 @@
         <v>39</v>
       </c>
       <c r="C31">
-        <v>-47.2</v>
+        <v>-46.7</v>
       </c>
       <c r="D31">
-        <v>-41.1</v>
+        <v>-49.4</v>
       </c>
       <c r="E31">
-        <v>-50.9</v>
+        <v>-52.6</v>
       </c>
       <c r="F31">
-        <v>-65.9</v>
+        <v>-75.7</v>
       </c>
       <c r="G31">
         <v>-0.08</v>
@@ -2599,16 +2599,16 @@
         <v>40</v>
       </c>
       <c r="C32">
-        <v>-23.8</v>
+        <v>-22.4</v>
       </c>
       <c r="D32">
-        <v>-7.3</v>
+        <v>-19.8</v>
       </c>
       <c r="E32">
-        <v>9.2</v>
+        <v>20.7</v>
       </c>
       <c r="F32">
-        <v>64.3</v>
+        <v>-69.6</v>
       </c>
       <c r="G32">
         <v>3.3</v>
@@ -2631,16 +2631,16 @@
         <v>41</v>
       </c>
       <c r="C33">
-        <v>-16.6</v>
+        <v>-13.8</v>
       </c>
       <c r="D33">
-        <v>2.6</v>
+        <v>-8.4</v>
       </c>
       <c r="E33">
-        <v>21.4</v>
+        <v>41.6</v>
       </c>
       <c r="F33">
-        <v>106.1</v>
+        <v>-62.5</v>
       </c>
       <c r="G33">
         <v>2.13</v>
@@ -2663,16 +2663,16 @@
         <v>42</v>
       </c>
       <c r="C34">
-        <v>-34.9</v>
+        <v>-40.2</v>
       </c>
       <c r="D34">
-        <v>-27.2</v>
+        <v>-28.5</v>
       </c>
       <c r="E34">
-        <v>-7.8</v>
+        <v>-8.8</v>
       </c>
       <c r="F34">
-        <v>-10.8</v>
+        <v>-72</v>
       </c>
       <c r="G34">
         <v>0.73</v>
@@ -2695,16 +2695,16 @@
         <v>43</v>
       </c>
       <c r="C35">
-        <v>-41.7</v>
+        <v>-40.2</v>
       </c>
       <c r="D35">
+        <v>-43.2</v>
+      </c>
+      <c r="E35">
         <v>-28.5</v>
       </c>
-      <c r="E35">
-        <v>-22.6</v>
-      </c>
       <c r="F35">
-        <v>-28</v>
+        <v>-81.8</v>
       </c>
       <c r="G35">
         <v>0.62</v>
@@ -2727,16 +2727,16 @@
         <v>44</v>
       </c>
       <c r="C36">
-        <v>-36</v>
+        <v>-33.3</v>
       </c>
       <c r="D36">
-        <v>-16</v>
+        <v>-31</v>
       </c>
       <c r="E36">
-        <v>-6.1</v>
+        <v>-14.4</v>
       </c>
       <c r="F36">
-        <v>-7.7</v>
+        <v>-84.6</v>
       </c>
       <c r="G36">
         <v>0.77</v>
@@ -2759,16 +2759,16 @@
         <v>45</v>
       </c>
       <c r="C37">
-        <v>-33.5</v>
+        <v>-34.1</v>
       </c>
       <c r="D37">
-        <v>-20.4</v>
+        <v>-29.5</v>
       </c>
       <c r="E37">
-        <v>-9.6</v>
+        <v>-29.6</v>
       </c>
       <c r="F37">
-        <v>-36.5</v>
+        <v>-70.8</v>
       </c>
       <c r="G37">
         <v>0.06</v>
@@ -2791,16 +2791,16 @@
         <v>46</v>
       </c>
       <c r="C38">
-        <v>-31.2</v>
+        <v>-29.8</v>
       </c>
       <c r="D38">
-        <v>-17.1</v>
+        <v>-33.5</v>
       </c>
       <c r="E38">
-        <v>-7.5</v>
+        <v>-12.9</v>
       </c>
       <c r="F38">
-        <v>-18.2</v>
+        <v>-87.7</v>
       </c>
       <c r="G38">
         <v>0.97</v>
@@ -2823,16 +2823,16 @@
         <v>47</v>
       </c>
       <c r="C39">
-        <v>-33.7</v>
+        <v>-32.2</v>
       </c>
       <c r="D39">
-        <v>-12.4</v>
+        <v>-23.6</v>
       </c>
       <c r="E39">
-        <v>0.9</v>
+        <v>-1.6</v>
       </c>
       <c r="F39">
-        <v>19.4</v>
+        <v>-72.9</v>
       </c>
       <c r="G39">
         <v>1.88</v>
@@ -2855,16 +2855,16 @@
         <v>48</v>
       </c>
       <c r="C40">
-        <v>-41.6</v>
+        <v>-39.7</v>
       </c>
       <c r="D40">
-        <v>-25.6</v>
+        <v>-34.3</v>
       </c>
       <c r="E40">
-        <v>-21</v>
+        <v>-21.6</v>
       </c>
       <c r="F40">
-        <v>-13.5</v>
+        <v>-72.9</v>
       </c>
       <c r="G40">
         <v>1.38</v>
@@ -2887,16 +2887,16 @@
         <v>49</v>
       </c>
       <c r="C41">
-        <v>-4.5</v>
+        <v>-5.8</v>
       </c>
       <c r="D41">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>51.7</v>
+        <v>47.1</v>
       </c>
       <c r="F41">
-        <v>99.4</v>
+        <v>-80.9</v>
       </c>
       <c r="G41">
         <v>3.88</v>
@@ -2919,16 +2919,16 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>-33.3</v>
+        <v>-35.8</v>
       </c>
       <c r="D42">
-        <v>-23.5</v>
+        <v>-31.1</v>
       </c>
       <c r="E42">
-        <v>-13.5</v>
+        <v>-27.7</v>
       </c>
       <c r="F42">
-        <v>-43.9</v>
+        <v>-69</v>
       </c>
       <c r="G42">
         <v>-0.3</v>
@@ -2951,16 +2951,16 @@
         <v>51</v>
       </c>
       <c r="C43">
-        <v>-36.5</v>
+        <v>-40.6</v>
       </c>
       <c r="D43">
-        <v>-28.1</v>
+        <v>-31.6</v>
       </c>
       <c r="E43">
-        <v>-15.1</v>
+        <v>-17</v>
       </c>
       <c r="F43">
-        <v>-22.8</v>
+        <v>-66.4</v>
       </c>
       <c r="G43">
         <v>0.18</v>
@@ -2983,16 +2983,16 @@
         <v>52</v>
       </c>
       <c r="C44">
-        <v>-11.9</v>
+        <v>-12.5</v>
       </c>
       <c r="D44">
-        <v>4.9</v>
+        <v>-2.8</v>
       </c>
       <c r="E44">
-        <v>50.9</v>
+        <v>56</v>
       </c>
       <c r="F44">
-        <v>136.5</v>
+        <v>-70.7</v>
       </c>
       <c r="G44">
         <v>2.96</v>
@@ -3015,16 +3015,16 @@
         <v>53</v>
       </c>
       <c r="C45">
-        <v>-19.2</v>
+        <v>-18.5</v>
       </c>
       <c r="D45">
-        <v>-3.8</v>
+        <v>-10.3</v>
       </c>
       <c r="E45">
-        <v>37.2</v>
+        <v>48.8</v>
       </c>
       <c r="F45">
-        <v>149.7</v>
+        <v>-78.8</v>
       </c>
       <c r="G45">
         <v>4.34</v>
@@ -3047,16 +3047,16 @@
         <v>54</v>
       </c>
       <c r="C46">
-        <v>-14.1</v>
+        <v>-13.1</v>
       </c>
       <c r="D46">
-        <v>3.9</v>
+        <v>-3.7</v>
       </c>
       <c r="E46">
-        <v>50.1</v>
+        <v>61.7</v>
       </c>
       <c r="F46">
-        <v>181.4</v>
+        <v>-77.8</v>
       </c>
       <c r="G46">
         <v>4.32</v>
@@ -3079,16 +3079,16 @@
         <v>55</v>
       </c>
       <c r="C47">
-        <v>-11.7</v>
+        <v>-11.4</v>
       </c>
       <c r="D47">
-        <v>3.9</v>
+        <v>-1.5</v>
       </c>
       <c r="E47">
-        <v>44.2</v>
+        <v>58.9</v>
       </c>
       <c r="F47">
-        <v>131.9</v>
+        <v>-60.4</v>
       </c>
       <c r="G47">
         <v>3.53</v>
@@ -3111,16 +3111,16 @@
         <v>56</v>
       </c>
       <c r="C48">
-        <v>-10.7</v>
+        <v>-12.5</v>
       </c>
       <c r="D48">
-        <v>6.5</v>
+        <v>-7.5</v>
       </c>
       <c r="E48">
-        <v>48.3</v>
+        <v>51.4</v>
       </c>
       <c r="F48">
-        <v>119.3</v>
+        <v>-78.6</v>
       </c>
       <c r="G48">
         <v>2.44</v>
@@ -3143,16 +3143,16 @@
         <v>57</v>
       </c>
       <c r="C49">
-        <v>-34.3</v>
+        <v>-34.2</v>
       </c>
       <c r="D49">
-        <v>-11.1</v>
+        <v>-22.6</v>
       </c>
       <c r="E49">
-        <v>8.4</v>
+        <v>-13.3</v>
       </c>
       <c r="F49">
-        <v>-23.9</v>
+        <v>-69.7</v>
       </c>
       <c r="G49">
         <v>0.24</v>
@@ -3175,16 +3175,16 @@
         <v>58</v>
       </c>
       <c r="C50">
-        <v>-43.5</v>
+        <v>-43.6</v>
       </c>
       <c r="D50">
-        <v>-29</v>
+        <v>-37.9</v>
       </c>
       <c r="E50">
-        <v>-23.7</v>
+        <v>-28.6</v>
       </c>
       <c r="F50">
-        <v>-30.2</v>
+        <v>-66.4</v>
       </c>
       <c r="G50">
         <v>0.6</v>
@@ -3207,16 +3207,16 @@
         <v>59</v>
       </c>
       <c r="C51">
-        <v>-39.3</v>
+        <v>-36.6</v>
       </c>
       <c r="D51">
-        <v>-22.4</v>
+        <v>-34.1</v>
       </c>
       <c r="E51">
-        <v>-17.5</v>
+        <v>-22.3</v>
       </c>
       <c r="F51">
-        <v>-21</v>
+        <v>-76.8</v>
       </c>
       <c r="G51">
         <v>0.62</v>
@@ -3239,16 +3239,16 @@
         <v>60</v>
       </c>
       <c r="C52">
-        <v>-44.9</v>
+        <v>-44</v>
       </c>
       <c r="D52">
-        <v>-33.2</v>
+        <v>-45.1</v>
       </c>
       <c r="E52">
-        <v>-31.4</v>
+        <v>-32.3</v>
       </c>
       <c r="F52">
-        <v>-28.8</v>
+        <v>-92</v>
       </c>
       <c r="G52">
         <v>1.72</v>
@@ -3271,16 +3271,16 @@
         <v>61</v>
       </c>
       <c r="C53">
-        <v>-46.6</v>
+        <v>-43.8</v>
       </c>
       <c r="D53">
-        <v>-33.3</v>
+        <v>-41.1</v>
       </c>
       <c r="E53">
-        <v>-35.1</v>
+        <v>-30.5</v>
       </c>
       <c r="F53">
-        <v>-27.8</v>
+        <v>-91.2</v>
       </c>
       <c r="G53">
         <v>0.62</v>
@@ -3303,16 +3303,16 @@
         <v>62</v>
       </c>
       <c r="C54">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="D54">
-        <v>36.2</v>
+        <v>13.6</v>
       </c>
       <c r="E54">
-        <v>78.1</v>
+        <v>76.8</v>
       </c>
       <c r="F54">
-        <v>203.1</v>
+        <v>-77.6</v>
       </c>
       <c r="G54">
         <v>3.36</v>
@@ -3335,16 +3335,16 @@
         <v>63</v>
       </c>
       <c r="C55">
-        <v>-43.8</v>
+        <v>-46.5</v>
       </c>
       <c r="D55">
-        <v>-34.5</v>
+        <v>-42</v>
       </c>
       <c r="E55">
-        <v>-30.3</v>
+        <v>-36.1</v>
       </c>
       <c r="F55">
-        <v>-44.2</v>
+        <v>-71.5</v>
       </c>
       <c r="G55">
         <v>-0.34</v>
@@ -3367,16 +3367,16 @@
         <v>64</v>
       </c>
       <c r="C56">
-        <v>-42.7</v>
+        <v>-44</v>
       </c>
       <c r="D56">
-        <v>-28.3</v>
+        <v>-38.6</v>
       </c>
       <c r="E56">
-        <v>-24.5</v>
+        <v>-35.3</v>
       </c>
       <c r="F56">
-        <v>-34.9</v>
+        <v>-71</v>
       </c>
       <c r="G56">
         <v>0.11</v>
@@ -3399,16 +3399,16 @@
         <v>65</v>
       </c>
       <c r="C57">
-        <v>-13.6</v>
+        <v>-14.9</v>
       </c>
       <c r="D57">
-        <v>6.3</v>
+        <v>-18.5</v>
       </c>
       <c r="E57">
-        <v>33.3</v>
+        <v>16.6</v>
       </c>
       <c r="F57">
-        <v>63.8</v>
+        <v>-87.3</v>
       </c>
       <c r="G57">
         <v>2.16</v>
@@ -3434,13 +3434,13 @@
         <v>-14.1</v>
       </c>
       <c r="D58">
-        <v>6.9</v>
+        <v>-15.5</v>
       </c>
       <c r="E58">
-        <v>35.3</v>
+        <v>21.8</v>
       </c>
       <c r="F58">
-        <v>55.7</v>
+        <v>-81.2</v>
       </c>
       <c r="G58">
         <v>1.78</v>
@@ -3463,16 +3463,16 @@
         <v>67</v>
       </c>
       <c r="C59">
-        <v>-11.8</v>
+        <v>-12.3</v>
       </c>
       <c r="D59">
-        <v>4.2</v>
+        <v>-10.9</v>
       </c>
       <c r="E59">
-        <v>31.6</v>
+        <v>26.4</v>
       </c>
       <c r="F59">
-        <v>65.3</v>
+        <v>-81.8</v>
       </c>
       <c r="G59">
         <v>3.65</v>
@@ -3495,16 +3495,16 @@
         <v>68</v>
       </c>
       <c r="C60">
-        <v>-14.6</v>
+        <v>-12.7</v>
       </c>
       <c r="D60">
-        <v>2.3</v>
+        <v>-7.8</v>
       </c>
       <c r="E60">
-        <v>33.9</v>
+        <v>33.3</v>
       </c>
       <c r="F60">
-        <v>66.5</v>
+        <v>-73.5</v>
       </c>
       <c r="G60">
         <v>2.94</v>
@@ -3527,16 +3527,16 @@
         <v>69</v>
       </c>
       <c r="C61">
-        <v>-42.6</v>
+        <v>-42.3</v>
       </c>
       <c r="D61">
-        <v>-32.8</v>
+        <v>-41.5</v>
       </c>
       <c r="E61">
-        <v>-31.3</v>
+        <v>-35.3</v>
       </c>
       <c r="F61">
-        <v>-28.6</v>
+        <v>-78.6</v>
       </c>
       <c r="G61">
         <v>0.27</v>
@@ -3559,16 +3559,16 @@
         <v>70</v>
       </c>
       <c r="C62">
-        <v>-18.8</v>
+        <v>-22.2</v>
       </c>
       <c r="D62">
-        <v>-5.6</v>
+        <v>-17.1</v>
       </c>
       <c r="E62">
-        <v>45.6</v>
+        <v>45.8</v>
       </c>
       <c r="F62">
-        <v>117.5</v>
+        <v>-85.2</v>
       </c>
       <c r="G62">
         <v>2.13</v>
@@ -3591,16 +3591,16 @@
         <v>71</v>
       </c>
       <c r="C63">
-        <v>-19.1</v>
+        <v>-16.6</v>
       </c>
       <c r="D63">
-        <v>-1.9</v>
+        <v>-19.9</v>
       </c>
       <c r="E63">
-        <v>19.9</v>
+        <v>14.4</v>
       </c>
       <c r="F63">
-        <v>15.5</v>
+        <v>-70.5</v>
       </c>
       <c r="G63">
         <v>1.42</v>
@@ -3623,16 +3623,16 @@
         <v>72</v>
       </c>
       <c r="C64">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D64">
-        <v>19.6</v>
+        <v>5.5</v>
       </c>
       <c r="E64">
-        <v>52.9</v>
+        <v>59.9</v>
       </c>
       <c r="F64">
-        <v>113.7</v>
+        <v>-65.4</v>
       </c>
       <c r="G64">
         <v>2.45</v>
@@ -3655,16 +3655,16 @@
         <v>73</v>
       </c>
       <c r="C65">
-        <v>-1.5</v>
+        <v>-0.9</v>
       </c>
       <c r="D65">
-        <v>15.9</v>
+        <v>2.6</v>
       </c>
       <c r="E65">
-        <v>50.5</v>
+        <v>55.1</v>
       </c>
       <c r="F65">
-        <v>100.1</v>
+        <v>-68.9</v>
       </c>
       <c r="G65">
         <v>2.88</v>
@@ -3687,16 +3687,16 @@
         <v>74</v>
       </c>
       <c r="C66">
-        <v>-2.8</v>
+        <v>-2.3</v>
       </c>
       <c r="D66">
-        <v>15.8</v>
+        <v>4.9</v>
       </c>
       <c r="E66">
-        <v>59.9</v>
+        <v>65.7</v>
       </c>
       <c r="F66">
-        <v>122.2</v>
+        <v>-69.6</v>
       </c>
       <c r="G66">
         <v>3.03</v>
@@ -3719,16 +3719,16 @@
         <v>75</v>
       </c>
       <c r="C67">
-        <v>-38.1</v>
+        <v>-39.6</v>
       </c>
       <c r="D67">
-        <v>-21.1</v>
+        <v>-26.5</v>
       </c>
       <c r="E67">
-        <v>-8.4</v>
+        <v>-12.8</v>
       </c>
       <c r="F67">
-        <v>-9.8</v>
+        <v>-65.9</v>
       </c>
       <c r="G67">
         <v>0.5</v>
@@ -3751,16 +3751,16 @@
         <v>76</v>
       </c>
       <c r="C68">
-        <v>-29.9</v>
+        <v>-28.8</v>
       </c>
       <c r="D68">
-        <v>-18.4</v>
+        <v>-22.9</v>
       </c>
       <c r="E68">
-        <v>8.3</v>
+        <v>25.4</v>
       </c>
       <c r="F68">
-        <v>74.6</v>
+        <v>-73.8</v>
       </c>
       <c r="G68">
         <v>3.41</v>
@@ -3783,16 +3783,16 @@
         <v>77</v>
       </c>
       <c r="C69">
-        <v>-43.4</v>
+        <v>-42.2</v>
       </c>
       <c r="D69">
-        <v>-29.6</v>
+        <v>-39.6</v>
       </c>
       <c r="E69">
-        <v>-30.3</v>
+        <v>-27.3</v>
       </c>
       <c r="F69">
-        <v>-23.8</v>
+        <v>-92.3</v>
       </c>
       <c r="G69">
         <v>0.89</v>
@@ -3815,16 +3815,16 @@
         <v>78</v>
       </c>
       <c r="C70">
-        <v>-43</v>
+        <v>-42.3</v>
       </c>
       <c r="D70">
-        <v>-34.1</v>
+        <v>-42.9</v>
       </c>
       <c r="E70">
-        <v>-33.8</v>
+        <v>-27</v>
       </c>
       <c r="F70">
-        <v>-17.1</v>
+        <v>-92.3</v>
       </c>
       <c r="G70">
         <v>1.67</v>
@@ -3847,16 +3847,16 @@
         <v>79</v>
       </c>
       <c r="C71">
-        <v>-26.7</v>
+        <v>-23.6</v>
       </c>
       <c r="D71">
-        <v>-9.2</v>
+        <v>-19.4</v>
       </c>
       <c r="E71">
-        <v>9.5</v>
+        <v>28</v>
       </c>
       <c r="F71">
-        <v>59.7</v>
+        <v>-75.5</v>
       </c>
       <c r="G71">
         <v>3.41</v>
@@ -3879,16 +3879,16 @@
         <v>80</v>
       </c>
       <c r="C72">
-        <v>-26.6</v>
+        <v>-26</v>
       </c>
       <c r="D72">
-        <v>-19</v>
+        <v>-23.8</v>
       </c>
       <c r="E72">
-        <v>10.9</v>
+        <v>24.7</v>
       </c>
       <c r="F72">
-        <v>69.8</v>
+        <v>-75.7</v>
       </c>
       <c r="G72">
         <v>2.48</v>
@@ -3911,16 +3911,16 @@
         <v>81</v>
       </c>
       <c r="C73">
-        <v>-19.2</v>
+        <v>-24.7</v>
       </c>
       <c r="D73">
-        <v>-16.4</v>
+        <v>-32.7</v>
       </c>
       <c r="E73">
-        <v>-14.7</v>
+        <v>-2</v>
       </c>
       <c r="F73">
-        <v>38.1</v>
+        <v>-81.5</v>
       </c>
       <c r="G73">
         <v>1.37</v>
@@ -3943,16 +3943,16 @@
         <v>82</v>
       </c>
       <c r="C74">
-        <v>-6.5</v>
+        <v>-14.7</v>
       </c>
       <c r="D74">
-        <v>-11.7</v>
+        <v>-26.8</v>
       </c>
       <c r="E74">
-        <v>-2.9</v>
+        <v>13.1</v>
       </c>
       <c r="F74">
-        <v>48.1</v>
+        <v>-78.9</v>
       </c>
       <c r="G74">
         <v>1.33</v>
@@ -3975,16 +3975,16 @@
         <v>83</v>
       </c>
       <c r="C75">
-        <v>15.6</v>
+        <v>10</v>
       </c>
       <c r="D75">
-        <v>19.3</v>
+        <v>3.3</v>
       </c>
       <c r="E75">
-        <v>34.6</v>
+        <v>56</v>
       </c>
       <c r="F75">
-        <v>204.1</v>
+        <v>-54.6</v>
       </c>
       <c r="G75">
         <v>1.43</v>
@@ -4007,16 +4007,16 @@
         <v>84</v>
       </c>
       <c r="C76">
-        <v>28.7</v>
+        <v>23.1</v>
       </c>
       <c r="D76">
-        <v>31.3</v>
+        <v>14.6</v>
       </c>
       <c r="E76">
-        <v>53.3</v>
+        <v>77.1</v>
       </c>
       <c r="F76">
-        <v>289.2</v>
+        <v>-52.3</v>
       </c>
       <c r="G76">
         <v>1.43</v>
@@ -4039,16 +4039,16 @@
         <v>85</v>
       </c>
       <c r="C77">
-        <v>-15.6</v>
+        <v>-19.4</v>
       </c>
       <c r="D77">
-        <v>-15.1</v>
+        <v>-26.4</v>
       </c>
       <c r="E77">
-        <v>-11.6</v>
+        <v>4.4</v>
       </c>
       <c r="F77">
-        <v>77.1</v>
+        <v>-65.3</v>
       </c>
       <c r="G77">
         <v>1.39</v>
@@ -4071,16 +4071,16 @@
         <v>86</v>
       </c>
       <c r="C78">
-        <v>-1.9</v>
+        <v>-6.6</v>
       </c>
       <c r="D78">
-        <v>0.9</v>
+        <v>-13.7</v>
       </c>
       <c r="E78">
-        <v>3.5</v>
+        <v>22.9</v>
       </c>
       <c r="F78">
-        <v>126</v>
+        <v>-64.3</v>
       </c>
       <c r="G78">
         <v>1.39</v>
@@ -4103,16 +4103,16 @@
         <v>87</v>
       </c>
       <c r="C79">
-        <v>-29.7</v>
+        <v>-28.8</v>
       </c>
       <c r="D79">
-        <v>-18.4</v>
+        <v>-31.5</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="F79">
-        <v>30.7</v>
+        <v>-83.4</v>
       </c>
       <c r="G79">
         <v>3.47</v>
@@ -4135,16 +4135,16 @@
         <v>88</v>
       </c>
       <c r="C80">
-        <v>-33</v>
+        <v>-32.4</v>
       </c>
       <c r="D80">
-        <v>-24.5</v>
+        <v>-40</v>
       </c>
       <c r="E80">
-        <v>-11.4</v>
+        <v>-8.2</v>
       </c>
       <c r="F80">
-        <v>14.4</v>
+        <v>-82.8</v>
       </c>
       <c r="G80">
         <v>3.37</v>
@@ -4167,16 +4167,16 @@
         <v>89</v>
       </c>
       <c r="C81">
-        <v>-21</v>
+        <v>-17.2</v>
       </c>
       <c r="D81">
-        <v>0.6</v>
+        <v>-4.6</v>
       </c>
       <c r="E81">
-        <v>20.5</v>
+        <v>48.8</v>
       </c>
       <c r="F81">
-        <v>109.1</v>
+        <v>-58.6</v>
       </c>
       <c r="G81">
         <v>2.03</v>
@@ -4199,16 +4199,16 @@
         <v>90</v>
       </c>
       <c r="C82">
-        <v>-31.6</v>
+        <v>-29.2</v>
       </c>
       <c r="D82">
-        <v>-8.4</v>
+        <v>-13.1</v>
       </c>
       <c r="E82">
-        <v>14.3</v>
+        <v>38.3</v>
       </c>
       <c r="F82">
-        <v>101</v>
+        <v>-72.9</v>
       </c>
       <c r="G82">
         <v>1.99</v>
@@ -4231,16 +4231,16 @@
         <v>91</v>
       </c>
       <c r="C83">
-        <v>-26.3</v>
+        <v>-24</v>
       </c>
       <c r="D83">
-        <v>-10.6</v>
+        <v>-22.1</v>
       </c>
       <c r="E83">
-        <v>9.6</v>
+        <v>23.6</v>
       </c>
       <c r="F83">
-        <v>77.1</v>
+        <v>-72.9</v>
       </c>
       <c r="G83">
         <v>4.03</v>
@@ -4263,16 +4263,16 @@
         <v>92</v>
       </c>
       <c r="C84">
-        <v>-49.7</v>
+        <v>-50.8</v>
       </c>
       <c r="D84">
-        <v>-51</v>
+        <v>-59.6</v>
       </c>
       <c r="E84">
-        <v>-51.4</v>
+        <v>-51.2</v>
       </c>
       <c r="F84">
-        <v>-41.3</v>
+        <v>-86</v>
       </c>
       <c r="G84">
         <v>0.53</v>
@@ -4295,16 +4295,16 @@
         <v>93</v>
       </c>
       <c r="C85">
-        <v>-50.6</v>
+        <v>-50.4</v>
       </c>
       <c r="D85">
-        <v>-52.5</v>
+        <v>-57.5</v>
       </c>
       <c r="E85">
-        <v>-54.4</v>
+        <v>-48.2</v>
       </c>
       <c r="F85">
-        <v>-42.1</v>
+        <v>-83.9</v>
       </c>
       <c r="G85">
         <v>0.16</v>
@@ -4327,16 +4327,16 @@
         <v>94</v>
       </c>
       <c r="C86">
-        <v>-4</v>
+        <v>-1.2</v>
       </c>
       <c r="D86">
-        <v>14</v>
+        <v>7.3</v>
       </c>
       <c r="E86">
-        <v>39.9</v>
+        <v>67.1</v>
       </c>
       <c r="F86">
-        <v>122.7</v>
+        <v>-47.1</v>
       </c>
       <c r="G86">
         <v>2.46</v>
@@ -4359,16 +4359,16 @@
         <v>95</v>
       </c>
       <c r="C87">
-        <v>-21.1</v>
+        <v>-20.1</v>
       </c>
       <c r="D87">
-        <v>3.6</v>
+        <v>-7.2</v>
       </c>
       <c r="E87">
-        <v>38.9</v>
+        <v>47.8</v>
       </c>
       <c r="F87">
-        <v>133</v>
+        <v>-75</v>
       </c>
       <c r="G87">
         <v>2.54</v>
@@ -4391,16 +4391,16 @@
         <v>96</v>
       </c>
       <c r="C88">
-        <v>-39.1</v>
+        <v>-39.5</v>
       </c>
       <c r="D88">
-        <v>-34.6</v>
+        <v>-48.1</v>
       </c>
       <c r="E88">
-        <v>-28.6</v>
+        <v>-23.2</v>
       </c>
       <c r="F88">
-        <v>6.6</v>
+        <v>-78.5</v>
       </c>
       <c r="G88">
         <v>3.11</v>
@@ -4423,16 +4423,16 @@
         <v>97</v>
       </c>
       <c r="C89">
-        <v>-43.6</v>
+        <v>-45.1</v>
       </c>
       <c r="D89">
-        <v>-41.4</v>
+        <v>-53.4</v>
       </c>
       <c r="E89">
-        <v>-34.7</v>
+        <v>-32.4</v>
       </c>
       <c r="F89">
-        <v>-12.3</v>
+        <v>-82.7</v>
       </c>
       <c r="G89">
         <v>1.66</v>
@@ -4455,16 +4455,16 @@
         <v>98</v>
       </c>
       <c r="C90">
-        <v>-35.4</v>
+        <v>-34.7</v>
       </c>
       <c r="D90">
-        <v>-28</v>
+        <v>-41.7</v>
       </c>
       <c r="E90">
-        <v>-21.4</v>
+        <v>-13.3</v>
       </c>
       <c r="F90">
-        <v>20.5</v>
+        <v>-76</v>
       </c>
       <c r="G90">
         <v>3.69</v>
@@ -4487,16 +4487,16 @@
         <v>99</v>
       </c>
       <c r="C91">
-        <v>-37.2</v>
+        <v>-36.5</v>
       </c>
       <c r="D91">
-        <v>-28.5</v>
+        <v>-41.3</v>
       </c>
       <c r="E91">
-        <v>-21.4</v>
+        <v>-15.2</v>
       </c>
       <c r="F91">
-        <v>14.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G91">
         <v>3.65</v>
@@ -4519,16 +4519,16 @@
         <v>100</v>
       </c>
       <c r="C92">
-        <v>-54.6</v>
+        <v>-53.7</v>
       </c>
       <c r="D92">
-        <v>-55.8</v>
+        <v>-60.3</v>
       </c>
       <c r="E92">
-        <v>-61.4</v>
+        <v>-54.7</v>
       </c>
       <c r="F92">
-        <v>-55.1</v>
+        <v>-86.3</v>
       </c>
       <c r="G92">
         <v>-1.1</v>
@@ -4551,16 +4551,16 @@
         <v>101</v>
       </c>
       <c r="C93">
-        <v>-22.3</v>
+        <v>-19.5</v>
       </c>
       <c r="D93">
-        <v>5.2</v>
+        <v>-2.2</v>
       </c>
       <c r="E93">
-        <v>34.8</v>
+        <v>56.2</v>
       </c>
       <c r="F93">
-        <v>122.9</v>
+        <v>-74.2</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -4583,16 +4583,16 @@
         <v>102</v>
       </c>
       <c r="C94">
-        <v>-24.6</v>
+        <v>-23</v>
       </c>
       <c r="D94">
-        <v>-5.4</v>
+        <v>-14.3</v>
       </c>
       <c r="E94">
-        <v>20.7</v>
+        <v>35.6</v>
       </c>
       <c r="F94">
-        <v>111.7</v>
+        <v>-74.4</v>
       </c>
       <c r="G94">
         <v>2.06</v>
@@ -4615,16 +4615,16 @@
         <v>103</v>
       </c>
       <c r="C95">
-        <v>-39.8</v>
+        <v>-36.2</v>
       </c>
       <c r="D95">
-        <v>-25.2</v>
+        <v>-30.2</v>
       </c>
       <c r="E95">
-        <v>-10.1</v>
+        <v>7.7</v>
       </c>
       <c r="F95">
-        <v>63.1</v>
+        <v>-68.3</v>
       </c>
       <c r="G95">
         <v>1.97</v>
@@ -4647,16 +4647,16 @@
         <v>104</v>
       </c>
       <c r="C96">
-        <v>-47.1</v>
+        <v>-47.5</v>
       </c>
       <c r="D96">
-        <v>-50.8</v>
+        <v>-56.6</v>
       </c>
       <c r="E96">
-        <v>-64.2</v>
+        <v>-58.1</v>
       </c>
       <c r="F96">
-        <v>-69</v>
+        <v>-83.2</v>
       </c>
       <c r="G96">
         <v>-1.13</v>
@@ -4679,16 +4679,16 @@
         <v>105</v>
       </c>
       <c r="C97">
-        <v>-57.9</v>
+        <v>-57</v>
       </c>
       <c r="D97">
-        <v>-61.2</v>
+        <v>-66.3</v>
       </c>
       <c r="E97">
-        <v>-71.3</v>
+        <v>-66.7</v>
       </c>
       <c r="F97">
-        <v>-68.4</v>
+        <v>-88.6</v>
       </c>
       <c r="G97">
         <v>-1.33</v>
@@ -4711,16 +4711,16 @@
         <v>106</v>
       </c>
       <c r="C98">
-        <v>-20.2</v>
+        <v>-18.6</v>
       </c>
       <c r="D98">
-        <v>-1.2</v>
+        <v>-10.4</v>
       </c>
       <c r="E98">
-        <v>27.9</v>
+        <v>43.9</v>
       </c>
       <c r="F98">
-        <v>144.1</v>
+        <v>-68.2</v>
       </c>
       <c r="G98">
         <v>2.25</v>
@@ -4743,16 +4743,16 @@
         <v>107</v>
       </c>
       <c r="C99">
-        <v>-22</v>
+        <v>-19.5</v>
       </c>
       <c r="D99">
-        <v>-8.4</v>
+        <v>-17.2</v>
       </c>
       <c r="E99">
-        <v>13.8</v>
+        <v>30.8</v>
       </c>
       <c r="F99">
-        <v>115.9</v>
+        <v>-61.3</v>
       </c>
       <c r="G99">
         <v>2.02</v>
@@ -4775,16 +4775,16 @@
         <v>108</v>
       </c>
       <c r="C100">
-        <v>-60.8</v>
+        <v>-58.8</v>
       </c>
       <c r="D100">
-        <v>-61.2</v>
+        <v>-64.5</v>
       </c>
       <c r="E100">
-        <v>-64.5</v>
+        <v>-59.1</v>
       </c>
       <c r="F100">
-        <v>-61.2</v>
+        <v>-82.3</v>
       </c>
       <c r="G100">
         <v>-1.16</v>
@@ -4807,16 +4807,16 @@
         <v>109</v>
       </c>
       <c r="C101">
-        <v>-37.3</v>
+        <v>-35.8</v>
       </c>
       <c r="D101">
-        <v>-24.8</v>
+        <v>-34.3</v>
       </c>
       <c r="E101">
-        <v>-16.1</v>
+        <v>-4.2</v>
       </c>
       <c r="F101">
-        <v>50</v>
+        <v>-76.4</v>
       </c>
       <c r="G101">
         <v>1.57</v>
@@ -4839,16 +4839,16 @@
         <v>110</v>
       </c>
       <c r="C102">
-        <v>-35.7</v>
+        <v>-34.9</v>
       </c>
       <c r="D102">
-        <v>-26.1</v>
+        <v>-36.9</v>
       </c>
       <c r="E102">
-        <v>-19.3</v>
+        <v>-7</v>
       </c>
       <c r="F102">
-        <v>46.3</v>
+        <v>-79.4</v>
       </c>
       <c r="G102">
         <v>1.44</v>
@@ -4871,16 +4871,16 @@
         <v>111</v>
       </c>
       <c r="C103">
-        <v>-25.4</v>
+        <v>-26.8</v>
       </c>
       <c r="D103">
-        <v>-15.5</v>
+        <v>-35.4</v>
       </c>
       <c r="E103">
-        <v>-18.1</v>
+        <v>-16.5</v>
       </c>
       <c r="F103">
-        <v>-2.9</v>
+        <v>-80.7</v>
       </c>
       <c r="G103">
         <v>0.18</v>
@@ -4903,16 +4903,16 @@
         <v>112</v>
       </c>
       <c r="C104">
-        <v>-38.1</v>
+        <v>-37.9</v>
       </c>
       <c r="D104">
-        <v>-30.4</v>
+        <v>-41.4</v>
       </c>
       <c r="E104">
-        <v>-27.3</v>
+        <v>-16.2</v>
       </c>
       <c r="F104">
-        <v>28.9</v>
+        <v>-81.4</v>
       </c>
       <c r="G104">
         <v>1.41</v>
@@ -4935,16 +4935,16 @@
         <v>113</v>
       </c>
       <c r="C105">
-        <v>-27.2</v>
+        <v>-29.5</v>
       </c>
       <c r="D105">
-        <v>-17.9</v>
+        <v>-31.8</v>
       </c>
       <c r="E105">
-        <v>-10.5</v>
+        <v>-3.9</v>
       </c>
       <c r="F105">
-        <v>36.5</v>
+        <v>-80.4</v>
       </c>
       <c r="G105">
         <v>1.26</v>
@@ -4967,16 +4967,16 @@
         <v>114</v>
       </c>
       <c r="C106">
-        <v>-29.4</v>
+        <v>-31</v>
       </c>
       <c r="D106">
-        <v>-19.6</v>
+        <v>-34</v>
       </c>
       <c r="E106">
-        <v>-13.6</v>
+        <v>-7.1</v>
       </c>
       <c r="F106">
-        <v>33.2</v>
+        <v>-79.6</v>
       </c>
       <c r="G106">
         <v>1.44</v>
@@ -4999,16 +4999,16 @@
         <v>115</v>
       </c>
       <c r="C107">
-        <v>-30</v>
+        <v>-28.4</v>
       </c>
       <c r="D107">
-        <v>-17.3</v>
+        <v>-26.9</v>
       </c>
       <c r="E107">
-        <v>-3.1</v>
+        <v>9.1</v>
       </c>
       <c r="F107">
-        <v>95.2</v>
+        <v>-67.1</v>
       </c>
       <c r="G107">
         <v>1.78</v>
@@ -5031,16 +5031,16 @@
         <v>116</v>
       </c>
       <c r="C108">
-        <v>-31.2</v>
+        <v>-34.3</v>
       </c>
       <c r="D108">
-        <v>-22.6</v>
+        <v>-39.2</v>
       </c>
       <c r="E108">
-        <v>-21.9</v>
+        <v>-18.6</v>
       </c>
       <c r="F108">
-        <v>13.2</v>
+        <v>-88.9</v>
       </c>
       <c r="G108">
         <v>1.23</v>
@@ -5063,16 +5063,16 @@
         <v>117</v>
       </c>
       <c r="C109">
-        <v>-31.1</v>
+        <v>-32</v>
       </c>
       <c r="D109">
-        <v>-27.2</v>
+        <v>-42.2</v>
       </c>
       <c r="E109">
-        <v>-32.4</v>
+        <v>-27.3</v>
       </c>
       <c r="F109">
-        <v>-27</v>
+        <v>-75</v>
       </c>
       <c r="G109">
         <v>0.18</v>
@@ -5095,16 +5095,16 @@
         <v>118</v>
       </c>
       <c r="C110">
-        <v>-30.9</v>
+        <v>-32.3</v>
       </c>
       <c r="D110">
-        <v>-25.9</v>
+        <v>-44.1</v>
       </c>
       <c r="E110">
-        <v>-32.8</v>
+        <v>-29.2</v>
       </c>
       <c r="F110">
-        <v>-21.1</v>
+        <v>-77.5</v>
       </c>
       <c r="G110">
         <v>0.18</v>
@@ -5127,16 +5127,16 @@
         <v>119</v>
       </c>
       <c r="C111">
-        <v>-32.4</v>
+        <v>-33.9</v>
       </c>
       <c r="D111">
-        <v>-23.8</v>
+        <v>-40.2</v>
       </c>
       <c r="E111">
-        <v>-25.1</v>
+        <v>-23.4</v>
       </c>
       <c r="F111">
-        <v>-11.9</v>
+        <v>-84</v>
       </c>
       <c r="G111">
         <v>0.19</v>
@@ -5159,16 +5159,16 @@
         <v>120</v>
       </c>
       <c r="C112">
-        <v>-37.9</v>
+        <v>-39.5</v>
       </c>
       <c r="D112">
-        <v>-33.4</v>
+        <v>-46.2</v>
       </c>
       <c r="E112">
-        <v>-32.5</v>
+        <v>-26.7</v>
       </c>
       <c r="F112">
-        <v>3.7</v>
+        <v>-85.3</v>
       </c>
       <c r="G112">
         <v>1.39</v>
@@ -5191,16 +5191,16 @@
         <v>121</v>
       </c>
       <c r="C113">
-        <v>-46.7</v>
+        <v>-47.3</v>
       </c>
       <c r="D113">
-        <v>-42.2</v>
+        <v>-48.6</v>
       </c>
       <c r="E113">
-        <v>-34.4</v>
+        <v>-34.1</v>
       </c>
       <c r="F113">
-        <v>-18.8</v>
+        <v>-79.3</v>
       </c>
       <c r="G113">
         <v>0.05</v>
@@ -5223,16 +5223,16 @@
         <v>122</v>
       </c>
       <c r="C114">
-        <v>-49</v>
+        <v>-50.1</v>
       </c>
       <c r="D114">
-        <v>-42</v>
+        <v>-47.9</v>
       </c>
       <c r="E114">
-        <v>-35.8</v>
+        <v>-33</v>
       </c>
       <c r="F114">
-        <v>-35.3</v>
+        <v>-78.5</v>
       </c>
       <c r="G114">
         <v>0.16</v>
@@ -5255,16 +5255,16 @@
         <v>123</v>
       </c>
       <c r="C115">
-        <v>-13.8</v>
+        <v>-5.6</v>
       </c>
       <c r="D115">
-        <v>-1.6</v>
+        <v>-3.6</v>
       </c>
       <c r="E115">
-        <v>3.7</v>
+        <v>38.4</v>
       </c>
       <c r="F115">
-        <v>100.9</v>
+        <v>-21.5</v>
       </c>
       <c r="G115">
         <v>2.03</v>
@@ -5287,16 +5287,16 @@
         <v>124</v>
       </c>
       <c r="C116">
-        <v>-51</v>
+        <v>-49.8</v>
       </c>
       <c r="D116">
-        <v>-43.6</v>
+        <v>-51.2</v>
       </c>
       <c r="E116">
-        <v>-34.6</v>
+        <v>-29.1</v>
       </c>
       <c r="F116">
-        <v>-20.9</v>
+        <v>-74.9</v>
       </c>
       <c r="G116">
         <v>0.19</v>
@@ -5319,16 +5319,16 @@
         <v>125</v>
       </c>
       <c r="C117">
-        <v>-25.6</v>
+        <v>-28.2</v>
       </c>
       <c r="D117">
-        <v>-16.7</v>
+        <v>-38.9</v>
       </c>
       <c r="E117">
-        <v>-20.2</v>
+        <v>-20.9</v>
       </c>
       <c r="F117">
-        <v>-4.3</v>
+        <v>-83</v>
       </c>
       <c r="G117">
         <v>0.2</v>
@@ -5351,16 +5351,16 @@
         <v>126</v>
       </c>
       <c r="C118">
-        <v>-31.6</v>
+        <v>-29.4</v>
       </c>
       <c r="D118">
-        <v>-22.6</v>
+        <v>-29.6</v>
       </c>
       <c r="E118">
-        <v>-10.3</v>
+        <v>7.5</v>
       </c>
       <c r="F118">
-        <v>76.5</v>
+        <v>-58.1</v>
       </c>
       <c r="G118">
         <v>1.89</v>
@@ -5383,16 +5383,16 @@
         <v>127</v>
       </c>
       <c r="C119">
-        <v>-23.7</v>
+        <v>-20.3</v>
       </c>
       <c r="D119">
-        <v>-16.2</v>
+        <v>-21.2</v>
       </c>
       <c r="E119">
-        <v>-1.7</v>
+        <v>25.3</v>
       </c>
       <c r="F119">
-        <v>95.6</v>
+        <v>-42.6</v>
       </c>
       <c r="G119">
         <v>1.97</v>
@@ -5415,16 +5415,16 @@
         <v>128</v>
       </c>
       <c r="C120">
-        <v>-22.8</v>
+        <v>-18.3</v>
       </c>
       <c r="D120">
-        <v>-14.3</v>
+        <v>-19.1</v>
       </c>
       <c r="E120">
-        <v>-8.1</v>
+        <v>18.7</v>
       </c>
       <c r="F120">
-        <v>73.6</v>
+        <v>-37.6</v>
       </c>
       <c r="G120">
         <v>1.92</v>
@@ -5447,16 +5447,16 @@
         <v>129</v>
       </c>
       <c r="C121">
-        <v>-50.2</v>
+        <v>-48.3</v>
       </c>
       <c r="D121">
-        <v>-47.6</v>
+        <v>-52.1</v>
       </c>
       <c r="E121">
-        <v>-38</v>
+        <v>-32.8</v>
       </c>
       <c r="F121">
-        <v>-31</v>
+        <v>-77.2</v>
       </c>
       <c r="G121">
         <v>0.19</v>
@@ -5479,16 +5479,16 @@
         <v>130</v>
       </c>
       <c r="C122">
-        <v>-37.6</v>
+        <v>-38.8</v>
       </c>
       <c r="D122">
-        <v>-35</v>
+        <v>-44.6</v>
       </c>
       <c r="E122">
-        <v>-34.4</v>
+        <v>-23.6</v>
       </c>
       <c r="F122">
-        <v>16.5</v>
+        <v>-78.6</v>
       </c>
       <c r="G122">
         <v>1.39</v>
@@ -5511,16 +5511,16 @@
         <v>131</v>
       </c>
       <c r="C123">
-        <v>-34.3</v>
+        <v>-37.2</v>
       </c>
       <c r="D123">
-        <v>-29.2</v>
+        <v>-44.1</v>
       </c>
       <c r="E123">
-        <v>-29.8</v>
+        <v>-25.4</v>
       </c>
       <c r="F123">
-        <v>1.1</v>
+        <v>-89.5</v>
       </c>
       <c r="G123">
         <v>1.36</v>
@@ -5543,16 +5543,16 @@
         <v>132</v>
       </c>
       <c r="C124">
-        <v>-27.8</v>
+        <v>-31</v>
       </c>
       <c r="D124">
-        <v>-16.8</v>
+        <v>-37</v>
       </c>
       <c r="E124">
-        <v>-19.2</v>
+        <v>-14.8</v>
       </c>
       <c r="F124">
-        <v>17.1</v>
+        <v>-90</v>
       </c>
       <c r="G124">
         <v>1.33</v>
@@ -5575,16 +5575,16 @@
         <v>133</v>
       </c>
       <c r="C125">
-        <v>-38.8</v>
+        <v>-40.5</v>
       </c>
       <c r="D125">
-        <v>-38.7</v>
+        <v>-51.2</v>
       </c>
       <c r="E125">
-        <v>-40.7</v>
+        <v>-33</v>
       </c>
       <c r="F125">
-        <v>-27.4</v>
+        <v>-72.7</v>
       </c>
       <c r="G125">
         <v>0.19</v>
@@ -5607,16 +5607,16 @@
         <v>134</v>
       </c>
       <c r="C126">
-        <v>-35.9</v>
+        <v>-37.4</v>
       </c>
       <c r="D126">
-        <v>-33</v>
+        <v>-49.2</v>
       </c>
       <c r="E126">
-        <v>-39.3</v>
+        <v>-35.3</v>
       </c>
       <c r="F126">
-        <v>-28.9</v>
+        <v>-76</v>
       </c>
       <c r="G126">
         <v>0.19</v>
@@ -5639,16 +5639,16 @@
         <v>135</v>
       </c>
       <c r="C127">
-        <v>-25.2</v>
+        <v>-28.6</v>
       </c>
       <c r="D127">
-        <v>-14.9</v>
+        <v>-38.6</v>
       </c>
       <c r="E127">
-        <v>-20.6</v>
+        <v>-21.1</v>
       </c>
       <c r="F127">
-        <v>-6</v>
+        <v>-83.6</v>
       </c>
       <c r="G127">
         <v>0.26</v>
@@ -5671,16 +5671,16 @@
         <v>136</v>
       </c>
       <c r="C128">
-        <v>-24.2</v>
+        <v>-27</v>
       </c>
       <c r="D128">
-        <v>-8</v>
+        <v>-32.1</v>
       </c>
       <c r="E128">
-        <v>-11.1</v>
+        <v>-9</v>
       </c>
       <c r="F128">
-        <v>23.5</v>
+        <v>-89.1</v>
       </c>
       <c r="G128">
         <v>1.16</v>
@@ -5703,16 +5703,16 @@
         <v>137</v>
       </c>
       <c r="C129">
-        <v>-34.8</v>
+        <v>-35.2</v>
       </c>
       <c r="D129">
-        <v>-31.1</v>
+        <v>-44.4</v>
       </c>
       <c r="E129">
-        <v>-30.9</v>
+        <v>-20.3</v>
       </c>
       <c r="F129">
-        <v>-7.7</v>
+        <v>-68.7</v>
       </c>
       <c r="G129">
         <v>0.19</v>
@@ -5735,16 +5735,16 @@
         <v>138</v>
       </c>
       <c r="C130">
-        <v>-34.1</v>
+        <v>-34.9</v>
       </c>
       <c r="D130">
-        <v>-28.1</v>
+        <v>-42</v>
       </c>
       <c r="E130">
-        <v>-22.2</v>
+        <v>-14</v>
       </c>
       <c r="F130">
-        <v>0.2</v>
+        <v>-71.2</v>
       </c>
       <c r="G130">
         <v>0.2</v>
@@ -5767,16 +5767,16 @@
         <v>139</v>
       </c>
       <c r="C131">
-        <v>-40.2</v>
+        <v>-42.1</v>
       </c>
       <c r="D131">
-        <v>-36.3</v>
+        <v>-50.8</v>
       </c>
       <c r="E131">
-        <v>-38.1</v>
+        <v>-31.8</v>
       </c>
       <c r="F131">
-        <v>-4.4</v>
+        <v>-91.1</v>
       </c>
       <c r="G131">
         <v>1.38</v>
@@ -5799,16 +5799,16 @@
         <v>140</v>
       </c>
       <c r="C132">
-        <v>-26.3</v>
+        <v>-28.8</v>
       </c>
       <c r="D132">
-        <v>-9.5</v>
+        <v>-32.5</v>
       </c>
       <c r="E132">
         <v>-10.9</v>
       </c>
       <c r="F132">
-        <v>23</v>
+        <v>-89.7</v>
       </c>
       <c r="G132">
         <v>0.88</v>
@@ -5831,16 +5831,16 @@
         <v>141</v>
       </c>
       <c r="C133">
-        <v>-44.3</v>
+        <v>-47</v>
       </c>
       <c r="D133">
-        <v>-37.9</v>
+        <v>-43.4</v>
       </c>
       <c r="E133">
-        <v>-25.4</v>
+        <v>-24.3</v>
       </c>
       <c r="F133">
-        <v>-26.2</v>
+        <v>-79.5</v>
       </c>
       <c r="G133">
         <v>0.18</v>
@@ -5863,16 +5863,16 @@
         <v>142</v>
       </c>
       <c r="C134">
-        <v>-38.8</v>
+        <v>-41</v>
       </c>
       <c r="D134">
-        <v>-35.8</v>
+        <v>-42.6</v>
       </c>
       <c r="E134">
-        <v>-22.3</v>
+        <v>-20</v>
       </c>
       <c r="F134">
-        <v>-23.5</v>
+        <v>-78.8</v>
       </c>
       <c r="G134">
         <v>0.18</v>
@@ -5895,16 +5895,16 @@
         <v>143</v>
       </c>
       <c r="C135">
-        <v>-25.7</v>
+        <v>-26.9</v>
       </c>
       <c r="D135">
-        <v>-12.1</v>
+        <v>-34.2</v>
       </c>
       <c r="E135">
-        <v>-13.5</v>
+        <v>-13.8</v>
       </c>
       <c r="F135">
-        <v>8.3</v>
+        <v>-85.4</v>
       </c>
       <c r="G135">
         <v>0.24</v>
@@ -5927,16 +5927,16 @@
         <v>144</v>
       </c>
       <c r="C136">
-        <v>-32.8</v>
+        <v>-32</v>
       </c>
       <c r="D136">
-        <v>-11.9</v>
+        <v>-35.4</v>
       </c>
       <c r="E136">
-        <v>-13.8</v>
+        <v>-14.8</v>
       </c>
       <c r="F136">
-        <v>2.1</v>
+        <v>-87.2</v>
       </c>
       <c r="G136">
         <v>0.36</v>
@@ -5959,16 +5959,16 @@
         <v>145</v>
       </c>
       <c r="C137">
-        <v>-19.5</v>
+        <v>-25</v>
       </c>
       <c r="D137">
-        <v>-20.2</v>
+        <v>-42.3</v>
       </c>
       <c r="E137">
-        <v>-28.7</v>
+        <v>-28.5</v>
       </c>
       <c r="F137">
-        <v>-19.2</v>
+        <v>-79.5</v>
       </c>
       <c r="G137">
         <v>0.21</v>
@@ -5991,16 +5991,16 @@
         <v>146</v>
       </c>
       <c r="C138">
-        <v>-30.8</v>
+        <v>-26.9</v>
       </c>
       <c r="D138">
-        <v>-17.6</v>
+        <v>-24.2</v>
       </c>
       <c r="E138">
-        <v>0.4</v>
+        <v>19.1</v>
       </c>
       <c r="F138">
-        <v>90.3</v>
+        <v>-58.6</v>
       </c>
       <c r="G138">
         <v>1.98</v>
@@ -6023,16 +6023,16 @@
         <v>147</v>
       </c>
       <c r="C139">
-        <v>-31.7</v>
+        <v>-28.7</v>
       </c>
       <c r="D139">
-        <v>-10.5</v>
+        <v>-16.2</v>
       </c>
       <c r="E139">
-        <v>11.7</v>
+        <v>31.6</v>
       </c>
       <c r="F139">
-        <v>97.5</v>
+        <v>-70.4</v>
       </c>
       <c r="G139">
         <v>1.98</v>
@@ -6055,16 +6055,16 @@
         <v>148</v>
       </c>
       <c r="C140">
-        <v>-29.4</v>
+        <v>-32.4</v>
       </c>
       <c r="D140">
-        <v>-16.5</v>
+        <v>-33.9</v>
       </c>
       <c r="E140">
-        <v>-13.4</v>
+        <v>-13.3</v>
       </c>
       <c r="F140">
-        <v>13</v>
+        <v>-88.6</v>
       </c>
       <c r="G140">
         <v>0.34</v>
@@ -6087,16 +6087,16 @@
         <v>149</v>
       </c>
       <c r="C141">
-        <v>-24.8</v>
+        <v>-27.9</v>
       </c>
       <c r="D141">
-        <v>-11.7</v>
+        <v>-28.5</v>
       </c>
       <c r="E141">
-        <v>-3.4</v>
+        <v>-1.9</v>
       </c>
       <c r="F141">
-        <v>42.1</v>
+        <v>-88.4</v>
       </c>
       <c r="G141">
         <v>0.75</v>
@@ -6119,16 +6119,16 @@
         <v>150</v>
       </c>
       <c r="C142">
-        <v>-56.7</v>
+        <v>-56.6</v>
       </c>
       <c r="D142">
-        <v>-55</v>
+        <v>-58</v>
       </c>
       <c r="E142">
-        <v>-48.4</v>
+        <v>-44.1</v>
       </c>
       <c r="F142">
-        <v>-40</v>
+        <v>-81.4</v>
       </c>
       <c r="G142">
         <v>0.13</v>
@@ -6151,16 +6151,16 @@
         <v>151</v>
       </c>
       <c r="C143">
-        <v>-38.4</v>
+        <v>-35.4</v>
       </c>
       <c r="D143">
-        <v>-27.8</v>
+        <v>-34</v>
       </c>
       <c r="E143">
-        <v>-15.7</v>
+        <v>0.1</v>
       </c>
       <c r="F143">
-        <v>60.7</v>
+        <v>-63.9</v>
       </c>
       <c r="G143">
         <v>1.97</v>
@@ -6183,16 +6183,16 @@
         <v>152</v>
       </c>
       <c r="C144">
-        <v>-49</v>
+        <v>-49.7</v>
       </c>
       <c r="D144">
-        <v>-49.8</v>
+        <v>-59.4</v>
       </c>
       <c r="E144">
-        <v>-51.5</v>
+        <v>-51.8</v>
       </c>
       <c r="F144">
-        <v>-51.4</v>
+        <v>-85.8</v>
       </c>
       <c r="G144">
         <v>0.19</v>
@@ -6215,16 +6215,16 @@
         <v>153</v>
       </c>
       <c r="C145">
-        <v>-41.7</v>
+        <v>-42.8</v>
       </c>
       <c r="D145">
-        <v>-40.3</v>
+        <v>-52.1</v>
       </c>
       <c r="E145">
-        <v>-41.7</v>
+        <v>-39.8</v>
       </c>
       <c r="F145">
-        <v>-39</v>
+        <v>-81.4</v>
       </c>
       <c r="G145">
         <v>0.18</v>
@@ -6247,16 +6247,16 @@
         <v>154</v>
       </c>
       <c r="C146">
-        <v>-53.2</v>
+        <v>-52.8</v>
       </c>
       <c r="D146">
-        <v>-52.1</v>
+        <v>-55.4</v>
       </c>
       <c r="E146">
-        <v>-48.9</v>
+        <v>-42.4</v>
       </c>
       <c r="F146">
-        <v>-35.9</v>
+        <v>-76.2</v>
       </c>
       <c r="G146">
         <v>-0.09</v>
@@ -6279,16 +6279,16 @@
         <v>155</v>
       </c>
       <c r="C147">
-        <v>-43.1</v>
+        <v>-43.8</v>
       </c>
       <c r="D147">
-        <v>-39.4</v>
+        <v>-51.4</v>
       </c>
       <c r="E147">
-        <v>-40.9</v>
+        <v>-33.6</v>
       </c>
       <c r="F147">
-        <v>-6.7</v>
+        <v>-86.3</v>
       </c>
       <c r="G147">
         <v>1.38</v>
@@ -6311,16 +6311,16 @@
         <v>156</v>
       </c>
       <c r="C148">
-        <v>-30.1</v>
+        <v>-28.2</v>
       </c>
       <c r="D148">
-        <v>-17.9</v>
+        <v>-22.7</v>
       </c>
       <c r="E148">
-        <v>3.5</v>
+        <v>23.3</v>
       </c>
       <c r="F148">
-        <v>55.9</v>
+        <v>-75.1</v>
       </c>
       <c r="G148">
         <v>3.28</v>
@@ -6343,16 +6343,16 @@
         <v>157</v>
       </c>
       <c r="C149">
-        <v>-43.5</v>
+        <v>-44.7</v>
       </c>
       <c r="D149">
-        <v>-41</v>
+        <v>-49.1</v>
       </c>
       <c r="E149">
-        <v>-33.2</v>
+        <v>-32.6</v>
       </c>
       <c r="F149">
-        <v>-34.2</v>
+        <v>-80.9</v>
       </c>
       <c r="G149">
         <v>0.18</v>
@@ -6375,16 +6375,16 @@
         <v>158</v>
       </c>
       <c r="C150">
-        <v>-9.8</v>
+        <v>-14.3</v>
       </c>
       <c r="D150">
-        <v>-4.5</v>
+        <v>-23.8</v>
       </c>
       <c r="E150">
-        <v>-6.5</v>
+        <v>2.7</v>
       </c>
       <c r="F150">
-        <v>16.4</v>
+        <v>-74.3</v>
       </c>
       <c r="G150">
         <v>0.98</v>
@@ -6407,16 +6407,16 @@
         <v>159</v>
       </c>
       <c r="C151">
-        <v>-20.1</v>
+        <v>-24.1</v>
       </c>
       <c r="D151">
-        <v>-19.7</v>
+        <v>-31.4</v>
       </c>
       <c r="E151">
-        <v>-12.1</v>
+        <v>5.4</v>
       </c>
       <c r="F151">
-        <v>62.4</v>
+        <v>-70.8</v>
       </c>
       <c r="G151">
         <v>1.37</v>
@@ -6439,16 +6439,16 @@
         <v>160</v>
       </c>
       <c r="C152">
-        <v>-17.4</v>
+        <v>-20.3</v>
       </c>
       <c r="D152">
-        <v>-16.6</v>
+        <v>-27.8</v>
       </c>
       <c r="E152">
-        <v>-12.1</v>
+        <v>8.5</v>
       </c>
       <c r="F152">
-        <v>78.4</v>
+        <v>-67.1</v>
       </c>
       <c r="G152">
         <v>1.38</v>
@@ -6471,16 +6471,16 @@
         <v>161</v>
       </c>
       <c r="C153">
-        <v>-25.2</v>
+        <v>-27.4</v>
       </c>
       <c r="D153">
-        <v>-22.7</v>
+        <v>-35.3</v>
       </c>
       <c r="E153">
-        <v>-22.6</v>
+        <v>-7.6</v>
       </c>
       <c r="F153">
-        <v>46.6</v>
+        <v>-77.3</v>
       </c>
       <c r="G153">
         <v>1.38</v>
@@ -6503,16 +6503,16 @@
         <v>162</v>
       </c>
       <c r="C154">
-        <v>-7.7</v>
+        <v>-1.7</v>
       </c>
       <c r="D154">
-        <v>0.9</v>
+        <v>-3.8</v>
       </c>
       <c r="E154">
-        <v>22</v>
+        <v>53.2</v>
       </c>
       <c r="F154">
-        <v>128.1</v>
+        <v>-29.8</v>
       </c>
       <c r="G154">
         <v>2.07</v>
@@ -6535,16 +6535,16 @@
         <v>163</v>
       </c>
       <c r="C155">
-        <v>-13.8</v>
+        <v>-11.6</v>
       </c>
       <c r="D155">
-        <v>9.1</v>
+        <v>0.6</v>
       </c>
       <c r="E155">
-        <v>41.7</v>
+        <v>63.1</v>
       </c>
       <c r="F155">
-        <v>118.7</v>
+        <v>-62.7</v>
       </c>
       <c r="G155">
         <v>3.23</v>
@@ -6567,16 +6567,16 @@
         <v>164</v>
       </c>
       <c r="C156">
-        <v>-32.6</v>
+        <v>-28.3</v>
       </c>
       <c r="D156">
-        <v>-19.3</v>
+        <v>-26.5</v>
       </c>
       <c r="E156">
-        <v>-3.8</v>
+        <v>21.1</v>
       </c>
       <c r="F156">
-        <v>26.7</v>
+        <v>-63.3</v>
       </c>
       <c r="G156">
         <v>3.36</v>
@@ -6599,16 +6599,16 @@
         <v>165</v>
       </c>
       <c r="C157">
-        <v>-18.6</v>
+        <v>-17.7</v>
       </c>
       <c r="D157">
-        <v>-7.9</v>
+        <v>-15.6</v>
       </c>
       <c r="E157">
-        <v>25.6</v>
+        <v>46.3</v>
       </c>
       <c r="F157">
-        <v>117.1</v>
+        <v>-69.4</v>
       </c>
       <c r="G157">
         <v>4.33</v>
@@ -6631,16 +6631,16 @@
         <v>166</v>
       </c>
       <c r="C158">
-        <v>-8.1</v>
+        <v>-7.8</v>
       </c>
       <c r="D158">
-        <v>7.1</v>
+        <v>1.3</v>
       </c>
       <c r="E158">
-        <v>47.6</v>
+        <v>66.2</v>
       </c>
       <c r="F158">
-        <v>145.5</v>
+        <v>-58.1</v>
       </c>
       <c r="G158">
         <v>3.86</v>
@@ -6663,16 +6663,16 @@
         <v>167</v>
       </c>
       <c r="C159">
-        <v>-10</v>
+        <v>-11.1</v>
       </c>
       <c r="D159">
-        <v>-13.5</v>
+        <v>-22.8</v>
       </c>
       <c r="E159">
-        <v>19.4</v>
+        <v>24.8</v>
       </c>
       <c r="F159">
-        <v>85</v>
+        <v>-74.2</v>
       </c>
       <c r="G159">
         <v>3.63</v>
@@ -6695,16 +6695,16 @@
         <v>168</v>
       </c>
       <c r="C160">
-        <v>-18.6</v>
+        <v>-20</v>
       </c>
       <c r="D160">
-        <v>-21.3</v>
+        <v>-33.7</v>
       </c>
       <c r="E160">
-        <v>7.9</v>
+        <v>0.9</v>
       </c>
       <c r="F160">
-        <v>40.8</v>
+        <v>-87.6</v>
       </c>
       <c r="G160">
         <v>3.39</v>
@@ -6727,16 +6727,16 @@
         <v>169</v>
       </c>
       <c r="C161">
-        <v>-12.6</v>
+        <v>-15.3</v>
       </c>
       <c r="D161">
-        <v>-15.6</v>
+        <v>-26.2</v>
       </c>
       <c r="E161">
-        <v>21.9</v>
+        <v>19.1</v>
       </c>
       <c r="F161">
-        <v>86.3</v>
+        <v>-86.1</v>
       </c>
       <c r="G161">
         <v>3.45</v>
@@ -6759,16 +6759,16 @@
         <v>170</v>
       </c>
       <c r="C162">
-        <v>-13.7</v>
+        <v>-15.6</v>
       </c>
       <c r="D162">
-        <v>-23.7</v>
+        <v>-34.4</v>
       </c>
       <c r="E162">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="F162">
-        <v>67.2</v>
+        <v>-83.2</v>
       </c>
       <c r="G162">
         <v>3.6</v>
@@ -6791,16 +6791,16 @@
         <v>171</v>
       </c>
       <c r="C163">
-        <v>-5.8</v>
+        <v>-8.8</v>
       </c>
       <c r="D163">
-        <v>-9.1</v>
+        <v>-23.6</v>
       </c>
       <c r="E163">
-        <v>20.5</v>
+        <v>23.3</v>
       </c>
       <c r="F163">
-        <v>95</v>
+        <v>-87.7</v>
       </c>
       <c r="G163">
         <v>3.62</v>
@@ -6823,16 +6823,16 @@
         <v>172</v>
       </c>
       <c r="C164">
-        <v>-18.7</v>
+        <v>-19.4</v>
       </c>
       <c r="D164">
-        <v>-20.6</v>
+        <v>-29.3</v>
       </c>
       <c r="E164">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
       <c r="F164">
-        <v>32.7</v>
+        <v>-85.5</v>
       </c>
       <c r="G164">
         <v>2.48</v>
@@ -6855,16 +6855,16 @@
         <v>173</v>
       </c>
       <c r="C165">
-        <v>-16.9</v>
+        <v>-18.6</v>
       </c>
       <c r="D165">
-        <v>-14.7</v>
+        <v>-23.6</v>
       </c>
       <c r="E165">
-        <v>13.6</v>
+        <v>7.9</v>
       </c>
       <c r="F165">
-        <v>53.2</v>
+        <v>-82.1</v>
       </c>
       <c r="G165">
         <v>2.7</v>
@@ -6887,16 +6887,16 @@
         <v>174</v>
       </c>
       <c r="C166">
-        <v>-21.1</v>
+        <v>-24.1</v>
       </c>
       <c r="D166">
-        <v>-22.6</v>
+        <v>-32.2</v>
       </c>
       <c r="E166">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="F166">
-        <v>82.2</v>
+        <v>-90.4</v>
       </c>
       <c r="G166">
         <v>3.45</v>
@@ -6919,16 +6919,16 @@
         <v>175</v>
       </c>
       <c r="C167">
-        <v>-45.3</v>
+        <v>-45.4</v>
       </c>
       <c r="D167">
-        <v>-38.7</v>
+        <v>-41.1</v>
       </c>
       <c r="E167">
-        <v>-28.1</v>
+        <v>-32.7</v>
       </c>
       <c r="F167">
-        <v>-36.7</v>
+        <v>-73.6</v>
       </c>
       <c r="G167">
         <v>0.14</v>
@@ -6951,16 +6951,16 @@
         <v>176</v>
       </c>
       <c r="C168">
-        <v>-45.3</v>
+        <v>-45.1</v>
       </c>
       <c r="D168">
-        <v>-36.5</v>
+        <v>-38.7</v>
       </c>
       <c r="E168">
-        <v>-21.7</v>
+        <v>-25.4</v>
       </c>
       <c r="F168">
-        <v>-26.2</v>
+        <v>-69.6</v>
       </c>
       <c r="G168">
         <v>0.99</v>
@@ -6983,16 +6983,16 @@
         <v>177</v>
       </c>
       <c r="C169">
-        <v>-50.7</v>
+        <v>-50.3</v>
       </c>
       <c r="D169">
-        <v>-42.3</v>
+        <v>-46.3</v>
       </c>
       <c r="E169">
-        <v>-33.3</v>
+        <v>-38.4</v>
       </c>
       <c r="F169">
-        <v>-47.3</v>
+        <v>-76.2</v>
       </c>
       <c r="G169">
         <v>0.37</v>
@@ -7015,16 +7015,16 @@
         <v>178</v>
       </c>
       <c r="C170">
-        <v>-16.6</v>
+        <v>-21.3</v>
       </c>
       <c r="D170">
-        <v>-15.4</v>
+        <v>-27.4</v>
       </c>
       <c r="E170">
-        <v>15.9</v>
+        <v>11.6</v>
       </c>
       <c r="F170">
-        <v>86.7</v>
+        <v>-88.8</v>
       </c>
       <c r="G170">
         <v>3.83</v>
@@ -7047,16 +7047,16 @@
         <v>179</v>
       </c>
       <c r="C171">
-        <v>-4.3</v>
+        <v>-5.2</v>
       </c>
       <c r="D171">
-        <v>12.3</v>
+        <v>-2.1</v>
       </c>
       <c r="E171">
-        <v>57.3</v>
+        <v>49.2</v>
       </c>
       <c r="F171">
-        <v>140.3</v>
+        <v>-83.2</v>
       </c>
       <c r="G171">
         <v>3.68</v>
@@ -7079,16 +7079,16 @@
         <v>180</v>
       </c>
       <c r="C172">
-        <v>-16.3</v>
+        <v>-20.9</v>
       </c>
       <c r="D172">
-        <v>-9.4</v>
+        <v>-21.8</v>
       </c>
       <c r="E172">
-        <v>19.1</v>
+        <v>12.1</v>
       </c>
       <c r="F172">
-        <v>72.7</v>
+        <v>-90.9</v>
       </c>
       <c r="G172">
         <v>4</v>
@@ -7111,16 +7111,16 @@
         <v>181</v>
       </c>
       <c r="C173">
-        <v>-29.1</v>
+        <v>-31.7</v>
       </c>
       <c r="D173">
-        <v>-21.7</v>
+        <v>-33</v>
       </c>
       <c r="E173">
-        <v>-5.4</v>
+        <v>-10.6</v>
       </c>
       <c r="F173">
-        <v>-0.7</v>
+        <v>-73.3</v>
       </c>
       <c r="G173">
         <v>1.23</v>
@@ -7143,16 +7143,16 @@
         <v>182</v>
       </c>
       <c r="C174">
-        <v>-31.5</v>
+        <v>-34</v>
       </c>
       <c r="D174">
-        <v>-23.1</v>
+        <v>-35.3</v>
       </c>
       <c r="E174">
-        <v>-9.7</v>
+        <v>-16</v>
       </c>
       <c r="F174">
-        <v>-6.4</v>
+        <v>-76.7</v>
       </c>
       <c r="G174">
         <v>1.07</v>
@@ -7175,16 +7175,16 @@
         <v>183</v>
       </c>
       <c r="C175">
-        <v>-36</v>
+        <v>-36.8</v>
       </c>
       <c r="D175">
-        <v>-35.8</v>
+        <v>-38</v>
       </c>
       <c r="E175">
-        <v>-10.2</v>
+        <v>-6.8</v>
       </c>
       <c r="F175">
-        <v>12.3</v>
+        <v>-70.8</v>
       </c>
       <c r="G175">
         <v>0.91</v>
@@ -7207,16 +7207,16 @@
         <v>184</v>
       </c>
       <c r="C176">
-        <v>-19.2</v>
+        <v>-22.5</v>
       </c>
       <c r="D176">
-        <v>-17.1</v>
+        <v>-25.1</v>
       </c>
       <c r="E176">
-        <v>15.7</v>
+        <v>13.3</v>
       </c>
       <c r="F176">
-        <v>74.6</v>
+        <v>-87.3</v>
       </c>
       <c r="G176">
         <v>3.4</v>
@@ -7239,16 +7239,16 @@
         <v>185</v>
       </c>
       <c r="C177">
-        <v>-24.6</v>
+        <v>-25.8</v>
       </c>
       <c r="D177">
-        <v>-23.6</v>
+        <v>-29</v>
       </c>
       <c r="E177">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="F177">
-        <v>52.5</v>
+        <v>-83.2</v>
       </c>
       <c r="G177">
         <v>1.86</v>
@@ -7271,16 +7271,16 @@
         <v>186</v>
       </c>
       <c r="C178">
-        <v>-37.7</v>
+        <v>-37.4</v>
       </c>
       <c r="D178">
-        <v>-25.3</v>
+        <v>-32</v>
       </c>
       <c r="E178">
-        <v>3.2</v>
+        <v>-7.4</v>
       </c>
       <c r="F178">
-        <v>-4.7</v>
+        <v>-74.4</v>
       </c>
       <c r="G178">
         <v>1.66</v>
@@ -7303,16 +7303,16 @@
         <v>187</v>
       </c>
       <c r="C179">
-        <v>-34.1</v>
+        <v>-34.2</v>
       </c>
       <c r="D179">
-        <v>-23.2</v>
+        <v>-27.1</v>
       </c>
       <c r="E179">
-        <v>-3.4</v>
+        <v>-6.8</v>
       </c>
       <c r="F179">
-        <v>-7.3</v>
+        <v>-63.4</v>
       </c>
       <c r="G179">
         <v>1.06</v>
@@ -7335,16 +7335,16 @@
         <v>188</v>
       </c>
       <c r="C180">
-        <v>-45.2</v>
+        <v>-45.3</v>
       </c>
       <c r="D180">
-        <v>-35.7</v>
+        <v>-42</v>
       </c>
       <c r="E180">
-        <v>-24.4</v>
+        <v>-28.3</v>
       </c>
       <c r="F180">
-        <v>-32.5</v>
+        <v>-75.5</v>
       </c>
       <c r="G180">
         <v>0.9</v>
@@ -7367,16 +7367,16 @@
         <v>189</v>
       </c>
       <c r="C181">
-        <v>-16.1</v>
+        <v>-18.4</v>
       </c>
       <c r="D181">
-        <v>-1.7</v>
+        <v>-15.9</v>
       </c>
       <c r="E181">
-        <v>32</v>
+        <v>27.9</v>
       </c>
       <c r="F181">
-        <v>85.7</v>
+        <v>-89.1</v>
       </c>
       <c r="G181">
         <v>3.95</v>
@@ -7399,16 +7399,16 @@
         <v>190</v>
       </c>
       <c r="C182">
-        <v>-10.3</v>
+        <v>-11.3</v>
       </c>
       <c r="D182">
-        <v>8.7</v>
+        <v>-6.3</v>
       </c>
       <c r="E182">
-        <v>48.4</v>
+        <v>43.4</v>
       </c>
       <c r="F182">
-        <v>123.1</v>
+        <v>-81</v>
       </c>
       <c r="G182">
         <v>3.77</v>
@@ -7431,16 +7431,16 @@
         <v>191</v>
       </c>
       <c r="C183">
-        <v>-20.5</v>
+        <v>-21.3</v>
       </c>
       <c r="D183">
-        <v>-3.1</v>
+        <v>-20.2</v>
       </c>
       <c r="E183">
-        <v>34.2</v>
+        <v>26.7</v>
       </c>
       <c r="F183">
-        <v>114.2</v>
+        <v>-86.8</v>
       </c>
       <c r="G183">
         <v>3.8</v>
@@ -7463,16 +7463,16 @@
         <v>192</v>
       </c>
       <c r="C184">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D184">
-        <v>25</v>
+        <v>7.1</v>
       </c>
       <c r="E184">
-        <v>65</v>
+        <v>62.3</v>
       </c>
       <c r="F184">
-        <v>164.3</v>
+        <v>-69.4</v>
       </c>
       <c r="G184">
         <v>3.76</v>
@@ -7495,16 +7495,16 @@
         <v>193</v>
       </c>
       <c r="C185">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="D185">
-        <v>18.4</v>
+        <v>-4.4</v>
       </c>
       <c r="E185">
-        <v>54.5</v>
+        <v>46.8</v>
       </c>
       <c r="F185">
-        <v>148.5</v>
+        <v>-76.8</v>
       </c>
       <c r="G185">
         <v>3.8</v>
@@ -7527,16 +7527,16 @@
         <v>194</v>
       </c>
       <c r="C186">
-        <v>-39</v>
+        <v>-37.6</v>
       </c>
       <c r="D186">
-        <v>-20.2</v>
+        <v>-34</v>
       </c>
       <c r="E186">
-        <v>-11.3</v>
+        <v>-22.4</v>
       </c>
       <c r="F186">
-        <v>-37.1</v>
+        <v>-77.1</v>
       </c>
       <c r="G186">
         <v>0.43</v>
@@ -7559,16 +7559,16 @@
         <v>195</v>
       </c>
       <c r="C187">
-        <v>-44.4</v>
+        <v>-41.9</v>
       </c>
       <c r="D187">
-        <v>-24.6</v>
+        <v>-35</v>
       </c>
       <c r="E187">
-        <v>-16</v>
+        <v>-18.4</v>
       </c>
       <c r="F187">
-        <v>-9.1</v>
+        <v>-74.6</v>
       </c>
       <c r="G187">
         <v>1.5</v>
@@ -7591,16 +7591,16 @@
         <v>196</v>
       </c>
       <c r="C188">
-        <v>-16.4</v>
+        <v>-18.8</v>
       </c>
       <c r="D188">
-        <v>-4.8</v>
+        <v>-20</v>
       </c>
       <c r="E188">
-        <v>29.9</v>
+        <v>14.9</v>
       </c>
       <c r="F188">
-        <v>68.6</v>
+        <v>-88.2</v>
       </c>
       <c r="G188">
         <v>2.55</v>
@@ -7623,16 +7623,16 @@
         <v>197</v>
       </c>
       <c r="C189">
-        <v>-23.9</v>
+        <v>-25.2</v>
       </c>
       <c r="D189">
-        <v>-10.9</v>
+        <v>-27.7</v>
       </c>
       <c r="E189">
-        <v>14.1</v>
+        <v>4.7</v>
       </c>
       <c r="F189">
-        <v>32</v>
+        <v>-84.9</v>
       </c>
       <c r="G189">
         <v>1.83</v>
@@ -7655,16 +7655,16 @@
         <v>198</v>
       </c>
       <c r="C190">
-        <v>-15.2</v>
+        <v>-13</v>
       </c>
       <c r="D190">
-        <v>-5</v>
+        <v>-12.4</v>
       </c>
       <c r="E190">
-        <v>24.3</v>
+        <v>34.9</v>
       </c>
       <c r="F190">
-        <v>72.3</v>
+        <v>-62.7</v>
       </c>
       <c r="G190">
         <v>3.98</v>
@@ -7687,16 +7687,16 @@
         <v>199</v>
       </c>
       <c r="C191">
-        <v>-19.9</v>
+        <v>-18.2</v>
       </c>
       <c r="D191">
-        <v>-1.2</v>
+        <v>-16.1</v>
       </c>
       <c r="E191">
-        <v>25.3</v>
+        <v>30.2</v>
       </c>
       <c r="F191">
-        <v>80.8</v>
+        <v>-73.4</v>
       </c>
       <c r="G191">
         <v>3.97</v>
@@ -7719,16 +7719,16 @@
         <v>200</v>
       </c>
       <c r="C192">
-        <v>-53.2</v>
+        <v>-52.4</v>
       </c>
       <c r="D192">
-        <v>-54.7</v>
+        <v>-57.9</v>
       </c>
       <c r="E192">
-        <v>-54.4</v>
+        <v>-44.3</v>
       </c>
       <c r="F192">
-        <v>-39.7</v>
+        <v>-77.7</v>
       </c>
       <c r="G192">
         <v>0.03</v>
@@ -7751,16 +7751,16 @@
         <v>201</v>
       </c>
       <c r="C193">
-        <v>-56.5</v>
+        <v>-55.8</v>
       </c>
       <c r="D193">
-        <v>-53.4</v>
+        <v>-57.4</v>
       </c>
       <c r="E193">
-        <v>-49.2</v>
+        <v>-44.5</v>
       </c>
       <c r="F193">
-        <v>-42.5</v>
+        <v>-81.4</v>
       </c>
       <c r="G193">
         <v>0.29</v>
@@ -7783,16 +7783,16 @@
         <v>202</v>
       </c>
       <c r="C194">
-        <v>-58.1</v>
+        <v>-57.4</v>
       </c>
       <c r="D194">
-        <v>-50.8</v>
+        <v>-56.4</v>
       </c>
       <c r="E194">
-        <v>-40.8</v>
+        <v>-39.1</v>
       </c>
       <c r="F194">
-        <v>-31.5</v>
+        <v>-85.1</v>
       </c>
       <c r="G194">
         <v>0.26</v>
@@ -7815,16 +7815,16 @@
         <v>203</v>
       </c>
       <c r="C195">
-        <v>-54.4</v>
+        <v>-53.5</v>
       </c>
       <c r="D195">
-        <v>-46.6</v>
+        <v>-53</v>
       </c>
       <c r="E195">
-        <v>-36.1</v>
+        <v>-36.9</v>
       </c>
       <c r="F195">
-        <v>-26.4</v>
+        <v>-86.5</v>
       </c>
       <c r="G195">
         <v>0.36</v>
@@ -7847,16 +7847,16 @@
         <v>204</v>
       </c>
       <c r="C196">
-        <v>-60.5</v>
+        <v>-59.4</v>
       </c>
       <c r="D196">
-        <v>-52.7</v>
+        <v>-57.6</v>
       </c>
       <c r="E196">
-        <v>-42</v>
+        <v>-39.4</v>
       </c>
       <c r="F196">
-        <v>-35.5</v>
+        <v>-83.4</v>
       </c>
       <c r="G196">
         <v>0.22</v>
@@ -7879,16 +7879,16 @@
         <v>205</v>
       </c>
       <c r="C197">
-        <v>-56.8</v>
+        <v>-56.4</v>
       </c>
       <c r="D197">
-        <v>-56.5</v>
+        <v>-61.4</v>
       </c>
       <c r="E197">
-        <v>-57.1</v>
+        <v>-53.5</v>
       </c>
       <c r="F197">
-        <v>-50.9</v>
+        <v>-81.7</v>
       </c>
       <c r="G197">
         <v>-0.69</v>
@@ -7911,16 +7911,16 @@
         <v>206</v>
       </c>
       <c r="C198">
-        <v>-54</v>
+        <v>-53</v>
       </c>
       <c r="D198">
-        <v>-53.8</v>
+        <v>-58.1</v>
       </c>
       <c r="E198">
-        <v>-55.3</v>
+        <v>-48.5</v>
       </c>
       <c r="F198">
-        <v>-46.5</v>
+        <v>-80.8</v>
       </c>
       <c r="G198">
         <v>-0.76</v>
@@ -7943,16 +7943,16 @@
         <v>207</v>
       </c>
       <c r="C199">
-        <v>-15.8</v>
+        <v>-11</v>
       </c>
       <c r="D199">
-        <v>-9.1</v>
+        <v>-13</v>
       </c>
       <c r="E199">
-        <v>4.9</v>
+        <v>34.7</v>
       </c>
       <c r="F199">
-        <v>104.3</v>
+        <v>-33.2</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -7975,16 +7975,16 @@
         <v>208</v>
       </c>
       <c r="C200">
-        <v>-43</v>
+        <v>-42</v>
       </c>
       <c r="D200">
-        <v>-40.5</v>
+        <v>-47.6</v>
       </c>
       <c r="E200">
-        <v>-31.4</v>
+        <v>-27.5</v>
       </c>
       <c r="F200">
-        <v>-24.4</v>
+        <v>-79.7</v>
       </c>
       <c r="G200">
         <v>0.19</v>
@@ -8007,16 +8007,16 @@
         <v>209</v>
       </c>
       <c r="C201">
-        <v>-14.6</v>
+        <v>-18.3</v>
       </c>
       <c r="D201">
-        <v>-2.9</v>
+        <v>-25.3</v>
       </c>
       <c r="E201">
-        <v>-8.4</v>
+        <v>-3.5</v>
       </c>
       <c r="F201">
-        <v>11.4</v>
+        <v>-78</v>
       </c>
       <c r="G201">
         <v>0.7</v>
@@ -8039,16 +8039,16 @@
         <v>210</v>
       </c>
       <c r="C202">
-        <v>-9.6</v>
+        <v>-14.3</v>
       </c>
       <c r="D202">
-        <v>-2.5</v>
+        <v>-24.5</v>
       </c>
       <c r="E202">
-        <v>-7.4</v>
+        <v>-2.7</v>
       </c>
       <c r="F202">
-        <v>11.9</v>
+        <v>-76.3</v>
       </c>
       <c r="G202">
         <v>0.67</v>
@@ -8071,16 +8071,16 @@
         <v>211</v>
       </c>
       <c r="C203">
-        <v>-24.1</v>
+        <v>-25.6</v>
       </c>
       <c r="D203">
-        <v>-3.8</v>
+        <v>-28.3</v>
       </c>
       <c r="E203">
-        <v>-7.5</v>
+        <v>-5.4</v>
       </c>
       <c r="F203">
-        <v>5.8</v>
+        <v>-85.5</v>
       </c>
       <c r="G203">
         <v>0.83</v>
@@ -8103,16 +8103,16 @@
         <v>212</v>
       </c>
       <c r="C204">
-        <v>-13.8</v>
+        <v>-20.2</v>
       </c>
       <c r="D204">
-        <v>-6.9</v>
+        <v>-27.9</v>
       </c>
       <c r="E204">
-        <v>-6.9</v>
+        <v>0.3</v>
       </c>
       <c r="F204">
-        <v>26.7</v>
+        <v>-84.5</v>
       </c>
       <c r="G204">
         <v>1.24</v>
@@ -8135,16 +8135,16 @@
         <v>213</v>
       </c>
       <c r="C205">
-        <v>-9.1</v>
+        <v>-14.7</v>
       </c>
       <c r="D205">
-        <v>-6.8</v>
+        <v>-24.8</v>
       </c>
       <c r="E205">
-        <v>-5</v>
+        <v>6.4</v>
       </c>
       <c r="F205">
-        <v>26.3</v>
+        <v>-76.9</v>
       </c>
       <c r="G205">
         <v>1.16</v>
@@ -8167,16 +8167,16 @@
         <v>214</v>
       </c>
       <c r="C206">
-        <v>-5.7</v>
+        <v>-13</v>
       </c>
       <c r="D206">
-        <v>-6.5</v>
+        <v>-23</v>
       </c>
       <c r="E206">
-        <v>-0.5</v>
+        <v>13.6</v>
       </c>
       <c r="F206">
-        <v>37.3</v>
+        <v>-76.1</v>
       </c>
       <c r="G206">
         <v>1.23</v>
@@ -8199,16 +8199,16 @@
         <v>215</v>
       </c>
       <c r="C207">
-        <v>-37.2</v>
+        <v>-37.9</v>
       </c>
       <c r="D207">
-        <v>-35.4</v>
+        <v>-38.1</v>
       </c>
       <c r="E207">
-        <v>-4.6</v>
+        <v>-4.9</v>
       </c>
       <c r="F207">
-        <v>20.5</v>
+        <v>-77.9</v>
       </c>
       <c r="G207">
         <v>1.82</v>
@@ -8234,13 +8234,13 @@
         <v>-54.4</v>
       </c>
       <c r="D208">
-        <v>-57.7</v>
+        <v>-63.3</v>
       </c>
       <c r="E208">
-        <v>-61.3</v>
+        <v>-56.6</v>
       </c>
       <c r="F208">
-        <v>-51.9</v>
+        <v>-85.6</v>
       </c>
       <c r="G208">
         <v>0.48</v>
@@ -8263,16 +8263,16 @@
         <v>217</v>
       </c>
       <c r="C209">
-        <v>-55.1</v>
+        <v>-54.7</v>
       </c>
       <c r="D209">
-        <v>-58.2</v>
+        <v>-62.5</v>
       </c>
       <c r="E209">
-        <v>-60.2</v>
+        <v>-54.4</v>
       </c>
       <c r="F209">
-        <v>-49</v>
+        <v>-83.6</v>
       </c>
       <c r="G209">
         <v>0.41</v>
@@ -8295,16 +8295,16 @@
         <v>218</v>
       </c>
       <c r="C210">
-        <v>-37.6</v>
+        <v>-38.9</v>
       </c>
       <c r="D210">
-        <v>-33.4</v>
+        <v>-44.6</v>
       </c>
       <c r="E210">
-        <v>-24.1</v>
+        <v>-22.5</v>
       </c>
       <c r="F210">
-        <v>10.6</v>
+        <v>-78.6</v>
       </c>
       <c r="G210">
         <v>1.42</v>
@@ -8327,16 +8327,16 @@
         <v>219</v>
       </c>
       <c r="C211">
-        <v>-47.9</v>
+        <v>-49.4</v>
       </c>
       <c r="D211">
-        <v>-47.7</v>
+        <v>-58.3</v>
       </c>
       <c r="E211">
-        <v>-42.5</v>
+        <v>-41.9</v>
       </c>
       <c r="F211">
-        <v>-33.1</v>
+        <v>-86.6</v>
       </c>
       <c r="G211">
         <v>1.25</v>
@@ -8359,16 +8359,16 @@
         <v>220</v>
       </c>
       <c r="C212">
-        <v>-28.5</v>
+        <v>-26</v>
       </c>
       <c r="D212">
-        <v>-5.7</v>
+        <v>-21.1</v>
       </c>
       <c r="E212">
-        <v>9.3</v>
+        <v>13.2</v>
       </c>
       <c r="F212">
-        <v>41.4</v>
+        <v>-72.5</v>
       </c>
       <c r="G212">
         <v>3.16</v>
@@ -8391,16 +8391,16 @@
         <v>221</v>
       </c>
       <c r="C213">
-        <v>-49.8</v>
+        <v>-50.5</v>
       </c>
       <c r="D213">
-        <v>-50.8</v>
+        <v>-59.2</v>
       </c>
       <c r="E213">
-        <v>-48.8</v>
+        <v>-48.2</v>
       </c>
       <c r="F213">
-        <v>-47.1</v>
+        <v>-85.4</v>
       </c>
       <c r="G213">
         <v>0.26</v>
@@ -8423,16 +8423,16 @@
         <v>222</v>
       </c>
       <c r="C214">
-        <v>-28.2</v>
+        <v>-29.2</v>
       </c>
       <c r="D214">
-        <v>-18.9</v>
+        <v>-24.5</v>
       </c>
       <c r="E214">
-        <v>20.4</v>
+        <v>8.9</v>
       </c>
       <c r="F214">
-        <v>35.4</v>
+        <v>-76</v>
       </c>
       <c r="G214">
         <v>2.14</v>
@@ -8455,16 +8455,16 @@
         <v>223</v>
       </c>
       <c r="C215">
-        <v>-40.6</v>
+        <v>-40.2</v>
       </c>
       <c r="D215">
-        <v>-32.7</v>
+        <v>-48.2</v>
       </c>
       <c r="E215">
-        <v>-22.9</v>
+        <v>-24</v>
       </c>
       <c r="F215">
-        <v>-11.1</v>
+        <v>-87</v>
       </c>
       <c r="G215">
         <v>3.31</v>
@@ -8487,16 +8487,16 @@
         <v>224</v>
       </c>
       <c r="C216">
-        <v>-50.1</v>
+        <v>-48.2</v>
       </c>
       <c r="D216">
-        <v>-45.4</v>
+        <v>-50.5</v>
       </c>
       <c r="E216">
-        <v>-45.8</v>
+        <v>-42.5</v>
       </c>
       <c r="F216">
-        <v>-38.8</v>
+        <v>-79.4</v>
       </c>
       <c r="G216">
         <v>0.59</v>
@@ -8519,16 +8519,16 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>-39.6</v>
+        <v>-42.1</v>
       </c>
       <c r="D217">
-        <v>-35.6</v>
+        <v>-49.9</v>
       </c>
       <c r="E217">
-        <v>-37</v>
+        <v>-33</v>
       </c>
       <c r="F217">
-        <v>-7.2</v>
+        <v>-91.4</v>
       </c>
       <c r="G217">
         <v>1.38</v>
@@ -8551,16 +8551,16 @@
         <v>226</v>
       </c>
       <c r="C218">
-        <v>-6.4</v>
+        <v>-10</v>
       </c>
       <c r="D218">
-        <v>2.7</v>
+        <v>-10.8</v>
       </c>
       <c r="E218">
-        <v>37.3</v>
+        <v>30.4</v>
       </c>
       <c r="F218">
-        <v>100.3</v>
+        <v>-83.5</v>
       </c>
       <c r="G218">
         <v>4.04</v>
@@ -8583,16 +8583,16 @@
         <v>227</v>
       </c>
       <c r="C219">
-        <v>-14.3</v>
+        <v>-18.4</v>
       </c>
       <c r="D219">
-        <v>-18.5</v>
+        <v>-25.1</v>
       </c>
       <c r="E219">
-        <v>24.5</v>
+        <v>25.9</v>
       </c>
       <c r="F219">
-        <v>112.8</v>
+        <v>-87.9</v>
       </c>
       <c r="G219">
         <v>3.7</v>
@@ -8615,16 +8615,16 @@
         <v>228</v>
       </c>
       <c r="C220">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D220">
-        <v>22.1</v>
+        <v>5.6</v>
       </c>
       <c r="E220">
-        <v>66.5</v>
+        <v>69.8</v>
       </c>
       <c r="F220">
-        <v>197.8</v>
+        <v>-78.1</v>
       </c>
       <c r="G220">
         <v>3.51</v>
@@ -8647,16 +8647,16 @@
         <v>229</v>
       </c>
       <c r="C221">
-        <v>-38.7</v>
+        <v>-37.3</v>
       </c>
       <c r="D221">
-        <v>-23.9</v>
+        <v>-35.7</v>
       </c>
       <c r="E221">
-        <v>-4.8</v>
+        <v>-17</v>
       </c>
       <c r="F221">
-        <v>-16.8</v>
+        <v>-78.9</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -8679,16 +8679,16 @@
         <v>230</v>
       </c>
       <c r="C222">
-        <v>-19.5</v>
+        <v>-22</v>
       </c>
       <c r="D222">
-        <v>-15.6</v>
+        <v>-24.5</v>
       </c>
       <c r="E222">
-        <v>22.6</v>
+        <v>15.4</v>
       </c>
       <c r="F222">
-        <v>71.2</v>
+        <v>-89.7</v>
       </c>
       <c r="G222">
         <v>2.35</v>
@@ -8711,16 +8711,16 @@
         <v>231</v>
       </c>
       <c r="C223">
-        <v>-38.8</v>
+        <v>-39.8</v>
       </c>
       <c r="D223">
-        <v>-34.6</v>
+        <v>-43.2</v>
       </c>
       <c r="E223">
-        <v>-22.8</v>
+        <v>-26.3</v>
       </c>
       <c r="F223">
-        <v>-30.1</v>
+        <v>-79.3</v>
       </c>
       <c r="G223">
         <v>0.41</v>
@@ -8743,16 +8743,16 @@
         <v>232</v>
       </c>
       <c r="C224">
-        <v>-50.9</v>
+        <v>-49.3</v>
       </c>
       <c r="D224">
-        <v>-40.8</v>
+        <v>-49.8</v>
       </c>
       <c r="E224">
-        <v>-38.4</v>
+        <v>-41.6</v>
       </c>
       <c r="F224">
-        <v>-47.5</v>
+        <v>-82.4</v>
       </c>
       <c r="G224">
         <v>0.56</v>
@@ -8775,16 +8775,16 @@
         <v>233</v>
       </c>
       <c r="C225">
-        <v>-40.8</v>
+        <v>-39.8</v>
       </c>
       <c r="D225">
-        <v>-30.7</v>
+        <v>-35.1</v>
       </c>
       <c r="E225">
-        <v>-19.8</v>
+        <v>-26.5</v>
       </c>
       <c r="F225">
-        <v>-36.2</v>
+        <v>-61.4</v>
       </c>
       <c r="G225">
         <v>0.13</v>
@@ -8807,16 +8807,16 @@
         <v>234</v>
       </c>
       <c r="C226">
-        <v>-52.5</v>
+        <v>-49.1</v>
       </c>
       <c r="D226">
-        <v>-39.3</v>
+        <v>-44.7</v>
       </c>
       <c r="E226">
-        <v>-34.7</v>
+        <v>-34.1</v>
       </c>
       <c r="F226">
-        <v>-39.8</v>
+        <v>-59</v>
       </c>
       <c r="G226">
         <v>0.11</v>
@@ -8839,16 +8839,16 @@
         <v>235</v>
       </c>
       <c r="C227">
-        <v>-41.5</v>
+        <v>-42.9</v>
       </c>
       <c r="D227">
-        <v>-31</v>
+        <v>-40.9</v>
       </c>
       <c r="E227">
-        <v>-25.9</v>
+        <v>-35.9</v>
       </c>
       <c r="F227">
-        <v>-47.7</v>
+        <v>-65.1</v>
       </c>
       <c r="G227">
         <v>0.05</v>
@@ -8871,16 +8871,16 @@
         <v>236</v>
       </c>
       <c r="C228">
-        <v>-26</v>
+        <v>-30.1</v>
       </c>
       <c r="D228">
-        <v>-20.3</v>
+        <v>-38.2</v>
       </c>
       <c r="E228">
-        <v>-20.7</v>
+        <v>-12.5</v>
       </c>
       <c r="F228">
-        <v>23.3</v>
+        <v>-87</v>
       </c>
       <c r="G228">
         <v>1.37</v>
@@ -8903,16 +8903,16 @@
         <v>237</v>
       </c>
       <c r="C229">
-        <v>-30.3</v>
+        <v>-30.1</v>
       </c>
       <c r="D229">
-        <v>-7.8</v>
+        <v>-32.2</v>
       </c>
       <c r="E229">
-        <v>-8.8</v>
+        <v>-8.9</v>
       </c>
       <c r="F229">
-        <v>10.5</v>
+        <v>-88.4</v>
       </c>
       <c r="G229">
         <v>0.78</v>
@@ -8935,16 +8935,16 @@
         <v>238</v>
       </c>
       <c r="C230">
-        <v>-19.9</v>
+        <v>-24</v>
       </c>
       <c r="D230">
-        <v>-7.2</v>
+        <v>-30.3</v>
       </c>
       <c r="E230">
-        <v>-9.1</v>
+        <v>-4.4</v>
       </c>
       <c r="F230">
-        <v>22.6</v>
+        <v>-86.8</v>
       </c>
       <c r="G230">
         <v>1.26</v>
@@ -8967,16 +8967,16 @@
         <v>239</v>
       </c>
       <c r="C231">
-        <v>-27.1</v>
+        <v>-30</v>
       </c>
       <c r="D231">
-        <v>-25.1</v>
+        <v>-36</v>
       </c>
       <c r="E231">
-        <v>-21</v>
+        <v>-9.6</v>
       </c>
       <c r="F231">
-        <v>52.7</v>
+        <v>-71.5</v>
       </c>
       <c r="G231">
         <v>1.43</v>
@@ -8999,16 +8999,16 @@
         <v>240</v>
       </c>
       <c r="C232">
-        <v>-33.8</v>
+        <v>-35.6</v>
       </c>
       <c r="D232">
-        <v>-30.4</v>
+        <v>-40.9</v>
       </c>
       <c r="E232">
-        <v>-28.1</v>
+        <v>-17.8</v>
       </c>
       <c r="F232">
-        <v>34.5</v>
+        <v>-75.5</v>
       </c>
       <c r="G232">
         <v>1.41</v>
@@ -9031,16 +9031,16 @@
         <v>241</v>
       </c>
       <c r="C233">
-        <v>-29</v>
+        <v>-26.9</v>
       </c>
       <c r="D233">
-        <v>-15.1</v>
+        <v>-27.3</v>
       </c>
       <c r="E233">
-        <v>0.4</v>
+        <v>10.8</v>
       </c>
       <c r="F233">
-        <v>57</v>
+        <v>-74.2</v>
       </c>
       <c r="G233">
         <v>4.02</v>
@@ -9063,16 +9063,16 @@
         <v>242</v>
       </c>
       <c r="C234">
-        <v>-32.2</v>
+        <v>-30.8</v>
       </c>
       <c r="D234">
-        <v>-18.8</v>
+        <v>-32</v>
       </c>
       <c r="E234">
-        <v>-8.7</v>
+        <v>-3.6</v>
       </c>
       <c r="F234">
-        <v>23.6</v>
+        <v>-75.7</v>
       </c>
       <c r="G234">
         <v>3.79</v>
@@ -9095,16 +9095,16 @@
         <v>243</v>
       </c>
       <c r="C235">
-        <v>-37.8</v>
+        <v>-37.9</v>
       </c>
       <c r="D235">
-        <v>-29.5</v>
+        <v>-42.2</v>
       </c>
       <c r="E235">
-        <v>-23</v>
+        <v>-19.9</v>
       </c>
       <c r="F235">
-        <v>2.5</v>
+        <v>-79.8</v>
       </c>
       <c r="G235">
         <v>2.62</v>
@@ -9127,16 +9127,16 @@
         <v>244</v>
       </c>
       <c r="C236">
-        <v>-37.9</v>
+        <v>-38.9</v>
       </c>
       <c r="D236">
-        <v>-32.7</v>
+        <v>-45.8</v>
       </c>
       <c r="E236">
-        <v>-30.5</v>
+        <v>-28.4</v>
       </c>
       <c r="F236">
-        <v>-12.6</v>
+        <v>-82.8</v>
       </c>
       <c r="G236">
         <v>0.82</v>
@@ -9159,16 +9159,16 @@
         <v>245</v>
       </c>
       <c r="C237">
-        <v>-42.7</v>
+        <v>-43.1</v>
       </c>
       <c r="D237">
-        <v>-37.3</v>
+        <v>-51</v>
       </c>
       <c r="E237">
-        <v>-28.1</v>
+        <v>-30.7</v>
       </c>
       <c r="F237">
-        <v>-21.9</v>
+        <v>-86.7</v>
       </c>
       <c r="G237">
         <v>3.18</v>
@@ -9191,16 +9191,16 @@
         <v>246</v>
       </c>
       <c r="C238">
-        <v>-28.2</v>
+        <v>-24.5</v>
       </c>
       <c r="D238">
-        <v>-16.3</v>
+        <v>-25.2</v>
       </c>
       <c r="E238">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="F238">
-        <v>1.2</v>
+        <v>-65.5</v>
       </c>
       <c r="G238">
         <v>2.01</v>
@@ -9223,16 +9223,16 @@
         <v>247</v>
       </c>
       <c r="C239">
-        <v>-37.3</v>
+        <v>-36.4</v>
       </c>
       <c r="D239">
-        <v>-27.7</v>
+        <v>-39.7</v>
       </c>
       <c r="E239">
-        <v>-19.7</v>
+        <v>-23.8</v>
       </c>
       <c r="F239">
-        <v>-18.2</v>
+        <v>-88.4</v>
       </c>
       <c r="G239">
         <v>2.46</v>
@@ -9255,16 +9255,16 @@
         <v>248</v>
       </c>
       <c r="C240">
-        <v>-28.6</v>
+        <v>-26.3</v>
       </c>
       <c r="D240">
-        <v>-13.9</v>
+        <v>-31.2</v>
       </c>
       <c r="E240">
-        <v>-0.2</v>
+        <v>-7.4</v>
       </c>
       <c r="F240">
-        <v>-14</v>
+        <v>-79.6</v>
       </c>
       <c r="G240">
         <v>1.08</v>
@@ -9287,16 +9287,16 @@
         <v>249</v>
       </c>
       <c r="C241">
-        <v>-22.2</v>
+        <v>-18.1</v>
       </c>
       <c r="D241">
-        <v>-8.3</v>
+        <v>-16.2</v>
       </c>
       <c r="E241">
-        <v>21.2</v>
+        <v>36.2</v>
       </c>
       <c r="F241">
-        <v>49.6</v>
+        <v>-48.3</v>
       </c>
       <c r="G241">
         <v>2.69</v>
@@ -9319,16 +9319,16 @@
         <v>250</v>
       </c>
       <c r="C242">
-        <v>-13.1</v>
+        <v>-10.1</v>
       </c>
       <c r="D242">
-        <v>3.1</v>
+        <v>-5.5</v>
       </c>
       <c r="E242">
-        <v>38.2</v>
+        <v>47</v>
       </c>
       <c r="F242">
-        <v>75.8</v>
+        <v>-61.6</v>
       </c>
       <c r="G242">
         <v>2.74</v>
@@ -9351,16 +9351,16 @@
         <v>251</v>
       </c>
       <c r="C243">
-        <v>-46</v>
+        <v>-45.6</v>
       </c>
       <c r="D243">
-        <v>-38</v>
+        <v>-46.5</v>
       </c>
       <c r="E243">
-        <v>-41</v>
+        <v>-42.6</v>
       </c>
       <c r="F243">
-        <v>-47.2</v>
+        <v>-73.7</v>
       </c>
       <c r="G243">
         <v>-0.03</v>
@@ -9383,16 +9383,16 @@
         <v>252</v>
       </c>
       <c r="C244">
-        <v>-28.2</v>
+        <v>-27.8</v>
       </c>
       <c r="D244">
-        <v>-22.7</v>
+        <v>-29.2</v>
       </c>
       <c r="E244">
-        <v>2.5</v>
+        <v>16.1</v>
       </c>
       <c r="F244">
-        <v>51.1</v>
+        <v>-78.4</v>
       </c>
       <c r="G244">
         <v>2.33</v>
@@ -9415,16 +9415,16 @@
         <v>253</v>
       </c>
       <c r="C245">
-        <v>-33.4</v>
+        <v>-32</v>
       </c>
       <c r="D245">
-        <v>-28</v>
+        <v>-32.7</v>
       </c>
       <c r="E245">
-        <v>-5.8</v>
+        <v>12.1</v>
       </c>
       <c r="F245">
-        <v>37.2</v>
+        <v>-75</v>
       </c>
       <c r="G245">
         <v>2.22</v>
@@ -9447,16 +9447,16 @@
         <v>254</v>
       </c>
       <c r="C246">
-        <v>-46.5</v>
+        <v>-44</v>
       </c>
       <c r="D246">
-        <v>-38</v>
+        <v>-43.8</v>
       </c>
       <c r="E246">
-        <v>-39.7</v>
+        <v>-34.8</v>
       </c>
       <c r="F246">
-        <v>-33.7</v>
+        <v>-87.9</v>
       </c>
       <c r="G246">
         <v>0.64</v>
@@ -9479,16 +9479,16 @@
         <v>255</v>
       </c>
       <c r="C247">
-        <v>-31.5</v>
+        <v>-28.5</v>
       </c>
       <c r="D247">
-        <v>-22.3</v>
+        <v>-25.5</v>
       </c>
       <c r="E247">
-        <v>-2.7</v>
+        <v>19.5</v>
       </c>
       <c r="F247">
-        <v>41.1</v>
+        <v>-69.9</v>
       </c>
       <c r="G247">
         <v>3.28</v>
@@ -9511,16 +9511,16 @@
         <v>256</v>
       </c>
       <c r="C248">
-        <v>-26.9</v>
+        <v>-28.1</v>
       </c>
       <c r="D248">
-        <v>-19</v>
+        <v>-30.4</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="F248">
-        <v>33.9</v>
+        <v>-74.8</v>
       </c>
       <c r="G248">
         <v>2.02</v>
@@ -9543,16 +9543,16 @@
         <v>257</v>
       </c>
       <c r="C249">
-        <v>10.9</v>
+        <v>11.6</v>
       </c>
       <c r="D249">
-        <v>20.3</v>
+        <v>9.6</v>
       </c>
       <c r="E249">
-        <v>44.6</v>
+        <v>64.6</v>
       </c>
       <c r="F249">
-        <v>101.5</v>
+        <v>-44.6</v>
       </c>
       <c r="G249">
         <v>2.59</v>
@@ -9575,16 +9575,16 @@
         <v>258</v>
       </c>
       <c r="C250">
-        <v>-48.4</v>
+        <v>-47.7</v>
       </c>
       <c r="D250">
-        <v>-41.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E250">
-        <v>-40.9</v>
+        <v>-45.1</v>
       </c>
       <c r="F250">
-        <v>-39.1</v>
+        <v>-82.7</v>
       </c>
       <c r="G250">
         <v>0.13</v>
@@ -9607,16 +9607,16 @@
         <v>259</v>
       </c>
       <c r="C251">
-        <v>-30.5</v>
+        <v>-28.8</v>
       </c>
       <c r="D251">
-        <v>-20.3</v>
+        <v>-30.1</v>
       </c>
       <c r="E251">
-        <v>-3.5</v>
+        <v>-2.4</v>
       </c>
       <c r="F251">
-        <v>13.5</v>
+        <v>-80.6</v>
       </c>
       <c r="G251">
         <v>3.16</v>
@@ -9639,16 +9639,16 @@
         <v>260</v>
       </c>
       <c r="C252">
-        <v>-43</v>
+        <v>-42.1</v>
       </c>
       <c r="D252">
-        <v>-34.9</v>
+        <v>-47.5</v>
       </c>
       <c r="E252">
-        <v>-31.2</v>
+        <v>-32.5</v>
       </c>
       <c r="F252">
-        <v>-33.4</v>
+        <v>-89.4</v>
       </c>
       <c r="G252">
         <v>1.64</v>
@@ -9671,16 +9671,16 @@
         <v>261</v>
       </c>
       <c r="C253">
-        <v>-39.5</v>
+        <v>-39.3</v>
       </c>
       <c r="D253">
-        <v>-28.9</v>
+        <v>-42.4</v>
       </c>
       <c r="E253">
-        <v>-21.4</v>
+        <v>-23.6</v>
       </c>
       <c r="F253">
-        <v>-2.6</v>
+        <v>-90.9</v>
       </c>
       <c r="G253">
         <v>3.35</v>
@@ -9703,16 +9703,16 @@
         <v>262</v>
       </c>
       <c r="C254">
-        <v>-17.2</v>
+        <v>-13.5</v>
       </c>
       <c r="D254">
-        <v>-1.9</v>
+        <v>-8.2</v>
       </c>
       <c r="E254">
-        <v>29.3</v>
+        <v>44.2</v>
       </c>
       <c r="F254">
-        <v>72.2</v>
+        <v>-47.7</v>
       </c>
       <c r="G254">
         <v>2.73</v>
@@ -9735,16 +9735,16 @@
         <v>263</v>
       </c>
       <c r="C255">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="D255">
-        <v>-7.5</v>
+        <v>-12.4</v>
       </c>
       <c r="E255">
-        <v>13.2</v>
+        <v>29.9</v>
       </c>
       <c r="F255">
-        <v>46.7</v>
+        <v>-43.8</v>
       </c>
       <c r="G255">
         <v>3.2</v>
@@ -9767,16 +9767,16 @@
         <v>264</v>
       </c>
       <c r="C256">
-        <v>-34.5</v>
+        <v>-27.6</v>
       </c>
       <c r="D256">
-        <v>-21</v>
+        <v>-25</v>
       </c>
       <c r="E256">
-        <v>0.2</v>
+        <v>31</v>
       </c>
       <c r="F256">
-        <v>39.7</v>
+        <v>-42.9</v>
       </c>
       <c r="G256">
         <v>2.99</v>
@@ -9799,16 +9799,16 @@
         <v>265</v>
       </c>
       <c r="C257">
-        <v>-42.7</v>
+        <v>-41.9</v>
       </c>
       <c r="D257">
-        <v>-33.6</v>
+        <v>-42.4</v>
       </c>
       <c r="E257">
-        <v>-31</v>
+        <v>-37.5</v>
       </c>
       <c r="F257">
-        <v>-50</v>
+        <v>-62.9</v>
       </c>
       <c r="G257">
         <v>0.01</v>
@@ -9831,16 +9831,16 @@
         <v>266</v>
       </c>
       <c r="C258">
-        <v>-2</v>
+        <v>-2.8</v>
       </c>
       <c r="D258">
-        <v>13</v>
+        <v>-2.6</v>
       </c>
       <c r="E258">
-        <v>35.7</v>
+        <v>44</v>
       </c>
       <c r="F258">
-        <v>85.4</v>
+        <v>-65.4</v>
       </c>
       <c r="G258">
         <v>2.19</v>
@@ -9863,16 +9863,16 @@
         <v>267</v>
       </c>
       <c r="C259">
-        <v>-30.8</v>
+        <v>-27.7</v>
       </c>
       <c r="D259">
-        <v>-22.4</v>
+        <v>-27</v>
       </c>
       <c r="E259">
-        <v>3</v>
+        <v>18.1</v>
       </c>
       <c r="F259">
-        <v>20.8</v>
+        <v>-54.8</v>
       </c>
       <c r="G259">
         <v>3.51</v>
@@ -9895,16 +9895,16 @@
         <v>268</v>
       </c>
       <c r="C260">
-        <v>-23.8</v>
+        <v>-21</v>
       </c>
       <c r="D260">
-        <v>-16.6</v>
+        <v>-21.4</v>
       </c>
       <c r="E260">
-        <v>8.1</v>
+        <v>24.1</v>
       </c>
       <c r="F260">
-        <v>45.1</v>
+        <v>-56.1</v>
       </c>
       <c r="G260">
         <v>3.84</v>
@@ -9927,16 +9927,16 @@
         <v>269</v>
       </c>
       <c r="C261">
-        <v>-19</v>
+        <v>-20.8</v>
       </c>
       <c r="D261">
-        <v>-9.1</v>
+        <v>-23.6</v>
       </c>
       <c r="E261">
-        <v>10</v>
+        <v>14.6</v>
       </c>
       <c r="F261">
-        <v>44.4</v>
+        <v>-75.6</v>
       </c>
       <c r="G261">
         <v>2.04</v>
@@ -9959,16 +9959,16 @@
         <v>270</v>
       </c>
       <c r="C262">
-        <v>-12.5</v>
+        <v>-13.8</v>
       </c>
       <c r="D262">
-        <v>0.2</v>
+        <v>-14.8</v>
       </c>
       <c r="E262">
-        <v>22.5</v>
+        <v>27.8</v>
       </c>
       <c r="F262">
-        <v>65.4</v>
+        <v>-71.4</v>
       </c>
       <c r="G262">
         <v>2.08</v>
@@ -9991,16 +9991,16 @@
         <v>271</v>
       </c>
       <c r="C263">
-        <v>-18.6</v>
+        <v>-19.1</v>
       </c>
       <c r="D263">
-        <v>-5.8</v>
+        <v>-16.5</v>
       </c>
       <c r="E263">
-        <v>12.5</v>
+        <v>25.1</v>
       </c>
       <c r="F263">
-        <v>50.7</v>
+        <v>-65.3</v>
       </c>
       <c r="G263">
         <v>1.98</v>
@@ -10023,16 +10023,16 @@
         <v>272</v>
       </c>
       <c r="C264">
-        <v>-25.2</v>
+        <v>-23.4</v>
       </c>
       <c r="D264">
-        <v>-8.6</v>
+        <v>-20.4</v>
       </c>
       <c r="E264">
-        <v>12.8</v>
+        <v>30</v>
       </c>
       <c r="F264">
-        <v>57.3</v>
+        <v>-59.5</v>
       </c>
       <c r="G264">
         <v>2.02</v>
@@ -10055,16 +10055,16 @@
         <v>273</v>
       </c>
       <c r="C265">
+        <v>-4.9</v>
+      </c>
+      <c r="D265">
         <v>-5.1</v>
       </c>
-      <c r="D265">
-        <v>9.5</v>
-      </c>
       <c r="E265">
-        <v>26.8</v>
+        <v>35.8</v>
       </c>
       <c r="F265">
-        <v>74.5</v>
+        <v>-63.2</v>
       </c>
       <c r="G265">
         <v>2.12</v>
@@ -10087,16 +10087,16 @@
         <v>274</v>
       </c>
       <c r="C266">
-        <v>-9.8</v>
+        <v>-9.5</v>
       </c>
       <c r="D266">
-        <v>4.4</v>
+        <v>-9.7</v>
       </c>
       <c r="E266">
-        <v>22</v>
+        <v>30.6</v>
       </c>
       <c r="F266">
-        <v>69.9</v>
+        <v>-64.7</v>
       </c>
       <c r="G266">
         <v>2.07</v>
@@ -10119,16 +10119,16 @@
         <v>275</v>
       </c>
       <c r="C267">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D267">
-        <v>21.7</v>
+        <v>9.8</v>
       </c>
       <c r="E267">
-        <v>43.1</v>
+        <v>66.5</v>
       </c>
       <c r="F267">
-        <v>122.6</v>
+        <v>-51.7</v>
       </c>
       <c r="G267">
         <v>2.11</v>
@@ -10151,16 +10151,16 @@
         <v>276</v>
       </c>
       <c r="C268">
-        <v>-33.9</v>
+        <v>-26.1</v>
       </c>
       <c r="D268">
-        <v>-18.8</v>
+        <v>-20.5</v>
       </c>
       <c r="E268">
-        <v>6.7</v>
+        <v>36.6</v>
       </c>
       <c r="F268">
-        <v>46.2</v>
+        <v>-35.9</v>
       </c>
       <c r="G268">
         <v>2.58</v>
@@ -10183,16 +10183,16 @@
         <v>277</v>
       </c>
       <c r="C269">
-        <v>-36.4</v>
+        <v>-35.3</v>
       </c>
       <c r="D269">
-        <v>-26.9</v>
+        <v>-34.1</v>
       </c>
       <c r="E269">
-        <v>-2.7</v>
+        <v>12.6</v>
       </c>
       <c r="F269">
-        <v>33.9</v>
+        <v>-72.3</v>
       </c>
       <c r="G269">
         <v>2.16</v>
@@ -10215,16 +10215,16 @@
         <v>278</v>
       </c>
       <c r="C270">
-        <v>-3.1</v>
+        <v>-0.6</v>
       </c>
       <c r="D270">
-        <v>4.8</v>
+        <v>0.3</v>
       </c>
       <c r="E270">
-        <v>32.7</v>
+        <v>52.8</v>
       </c>
       <c r="F270">
-        <v>81.3</v>
+        <v>-38.5</v>
       </c>
       <c r="G270">
         <v>3.58</v>
@@ -10247,16 +10247,16 @@
         <v>279</v>
       </c>
       <c r="C271">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="D271">
-        <v>20.4</v>
+        <v>12.9</v>
       </c>
       <c r="E271">
-        <v>48.4</v>
+        <v>78.1</v>
       </c>
       <c r="F271">
-        <v>120.4</v>
+        <v>-42.1</v>
       </c>
       <c r="G271">
         <v>2.5</v>
@@ -10279,16 +10279,16 @@
         <v>280</v>
       </c>
       <c r="C272">
-        <v>-33.5</v>
+        <v>-31.3</v>
       </c>
       <c r="D272">
-        <v>-17.9</v>
+        <v>-27.3</v>
       </c>
       <c r="E272">
-        <v>1.1</v>
+        <v>17.9</v>
       </c>
       <c r="F272">
-        <v>32.2</v>
+        <v>-59.7</v>
       </c>
       <c r="G272">
         <v>2.54</v>
@@ -10311,16 +10311,16 @@
         <v>281</v>
       </c>
       <c r="C273">
-        <v>-36.7</v>
+        <v>-30.2</v>
       </c>
       <c r="D273">
-        <v>-20</v>
+        <v>-24.2</v>
       </c>
       <c r="E273">
-        <v>2.4</v>
+        <v>29.1</v>
       </c>
       <c r="F273">
-        <v>36.7</v>
+        <v>-40.9</v>
       </c>
       <c r="G273">
         <v>2.73</v>
@@ -10343,16 +10343,16 @@
         <v>282</v>
       </c>
       <c r="C274">
-        <v>-11.2</v>
+        <v>-6.9</v>
       </c>
       <c r="D274">
-        <v>-2.2</v>
+        <v>-11.1</v>
       </c>
       <c r="E274">
-        <v>28</v>
+        <v>47.9</v>
       </c>
       <c r="F274">
-        <v>122.5</v>
+        <v>-64.9</v>
       </c>
       <c r="G274">
         <v>3.94</v>
@@ -10375,16 +10375,16 @@
         <v>283</v>
       </c>
       <c r="C275">
-        <v>-14</v>
+        <v>-9.2</v>
       </c>
       <c r="D275">
-        <v>-0.6</v>
+        <v>-7.2</v>
       </c>
       <c r="E275">
-        <v>25.6</v>
+        <v>46.5</v>
       </c>
       <c r="F275">
-        <v>109.8</v>
+        <v>-46.1</v>
       </c>
       <c r="G275">
         <v>2.44</v>
@@ -10407,16 +10407,16 @@
         <v>284</v>
       </c>
       <c r="C276">
-        <v>-51.8</v>
+        <v>-50.5</v>
       </c>
       <c r="D276">
-        <v>-51.5</v>
+        <v>-55.4</v>
       </c>
       <c r="E276">
-        <v>-51.3</v>
+        <v>-41.5</v>
       </c>
       <c r="F276">
-        <v>-36</v>
+        <v>-75.8</v>
       </c>
       <c r="G276">
         <v>-0.51</v>
@@ -10439,16 +10439,16 @@
         <v>285</v>
       </c>
       <c r="C277">
-        <v>-41</v>
+        <v>-42.5</v>
       </c>
       <c r="D277">
+        <v>-51.1</v>
+      </c>
+      <c r="E277">
         <v>-38.4</v>
       </c>
-      <c r="E277">
-        <v>-40.7</v>
-      </c>
       <c r="F277">
-        <v>-33.1</v>
+        <v>-83.2</v>
       </c>
       <c r="G277">
         <v>0.21</v>
@@ -10471,16 +10471,16 @@
         <v>286</v>
       </c>
       <c r="C278">
-        <v>-32.9</v>
+        <v>-34.6</v>
       </c>
       <c r="D278">
-        <v>-22.9</v>
+        <v>-38.3</v>
       </c>
       <c r="E278">
-        <v>-20.5</v>
+        <v>-18.2</v>
       </c>
       <c r="F278">
-        <v>0.8</v>
+        <v>-85.6</v>
       </c>
       <c r="G278">
         <v>0.47</v>
@@ -10503,16 +10503,16 @@
         <v>287</v>
       </c>
       <c r="C279">
-        <v>-38</v>
+        <v>-39</v>
       </c>
       <c r="D279">
-        <v>-37.5</v>
+        <v>-49.6</v>
       </c>
       <c r="E279">
-        <v>-39.9</v>
+        <v>-37</v>
       </c>
       <c r="F279">
-        <v>-38.2</v>
+        <v>-79.7</v>
       </c>
       <c r="G279">
         <v>0.18</v>
@@ -10535,16 +10535,16 @@
         <v>288</v>
       </c>
       <c r="C280">
-        <v>-24.6</v>
+        <v>-22.5</v>
       </c>
       <c r="D280">
-        <v>-8.1</v>
+        <v>-21</v>
       </c>
       <c r="E280">
-        <v>6.4</v>
+        <v>14.2</v>
       </c>
       <c r="F280">
-        <v>62.3</v>
+        <v>-66.6</v>
       </c>
       <c r="G280">
         <v>2.04</v>
@@ -10567,16 +10567,16 @@
         <v>289</v>
       </c>
       <c r="C281">
-        <v>-31</v>
+        <v>-31.8</v>
       </c>
       <c r="D281">
-        <v>-22.6</v>
+        <v>-35.8</v>
       </c>
       <c r="E281">
-        <v>-17</v>
+        <v>-9.6</v>
       </c>
       <c r="F281">
-        <v>30.8</v>
+        <v>-79.7</v>
       </c>
       <c r="G281">
         <v>1.43</v>
@@ -10599,16 +10599,16 @@
         <v>290</v>
       </c>
       <c r="C282">
-        <v>-48</v>
+        <v>-48.2</v>
       </c>
       <c r="D282">
-        <v>-45.3</v>
+        <v>-50.7</v>
       </c>
       <c r="E282">
-        <v>-40.6</v>
+        <v>-38.3</v>
       </c>
       <c r="F282">
-        <v>-25.3</v>
+        <v>-77.5</v>
       </c>
       <c r="G282">
         <v>-0.19</v>
@@ -10631,16 +10631,16 @@
         <v>291</v>
       </c>
       <c r="C283">
-        <v>-58.7</v>
+        <v>-57.7</v>
       </c>
       <c r="D283">
-        <v>-58.2</v>
+        <v>-62.4</v>
       </c>
       <c r="E283">
-        <v>-58.7</v>
+        <v>-54.4</v>
       </c>
       <c r="F283">
-        <v>-54.7</v>
+        <v>-81.6</v>
       </c>
       <c r="G283">
         <v>-0.78</v>
@@ -10663,16 +10663,16 @@
         <v>292</v>
       </c>
       <c r="C284">
-        <v>-53.6</v>
+        <v>-53.8</v>
       </c>
       <c r="D284">
-        <v>-50.4</v>
+        <v>-56</v>
       </c>
       <c r="E284">
-        <v>-46.5</v>
+        <v>-44.5</v>
       </c>
       <c r="F284">
-        <v>-44</v>
+        <v>-80.5</v>
       </c>
       <c r="G284">
         <v>-0.07</v>
@@ -10695,16 +10695,16 @@
         <v>293</v>
       </c>
       <c r="C285">
-        <v>-33.5</v>
+        <v>-31.4</v>
       </c>
       <c r="D285">
-        <v>-19.4</v>
+        <v>-29.5</v>
       </c>
       <c r="E285">
-        <v>-6.8</v>
+        <v>4.8</v>
       </c>
       <c r="F285">
-        <v>63.2</v>
+        <v>-72.4</v>
       </c>
       <c r="G285">
         <v>1.57</v>
@@ -10727,16 +10727,16 @@
         <v>294</v>
       </c>
       <c r="C286">
-        <v>-25.5</v>
+        <v>-24.2</v>
       </c>
       <c r="D286">
-        <v>-1.3</v>
+        <v>-18.6</v>
       </c>
       <c r="E286">
-        <v>13.1</v>
+        <v>16.8</v>
       </c>
       <c r="F286">
-        <v>49.5</v>
+        <v>-75.7</v>
       </c>
       <c r="G286">
         <v>1.84</v>
@@ -10759,16 +10759,16 @@
         <v>295</v>
       </c>
       <c r="C287">
-        <v>-27.3</v>
+        <v>-27.5</v>
       </c>
       <c r="D287">
-        <v>-9.6</v>
+        <v>-25.7</v>
       </c>
       <c r="E287">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="F287">
-        <v>43.6</v>
+        <v>-76.5</v>
       </c>
       <c r="G287">
         <v>1.65</v>
@@ -10791,16 +10791,16 @@
         <v>296</v>
       </c>
       <c r="C288">
-        <v>-23.8</v>
+        <v>-21.7</v>
       </c>
       <c r="D288">
-        <v>2.3</v>
+        <v>-15.7</v>
       </c>
       <c r="E288">
-        <v>17.1</v>
+        <v>20.6</v>
       </c>
       <c r="F288">
-        <v>48.1</v>
+        <v>-77.2</v>
       </c>
       <c r="G288">
         <v>1.63</v>
@@ -10823,16 +10823,16 @@
         <v>297</v>
       </c>
       <c r="C289">
-        <v>-38.2</v>
+        <v>-34.9</v>
       </c>
       <c r="D289">
-        <v>-24.9</v>
+        <v>-31.7</v>
       </c>
       <c r="E289">
-        <v>-11.1</v>
+        <v>4.4</v>
       </c>
       <c r="F289">
-        <v>62.3</v>
+        <v>-67.5</v>
       </c>
       <c r="G289">
         <v>1.97</v>
@@ -10855,16 +10855,16 @@
         <v>298</v>
       </c>
       <c r="C290">
-        <v>-36.2</v>
+        <v>-34.2</v>
       </c>
       <c r="D290">
-        <v>-24.1</v>
+        <v>-33</v>
       </c>
       <c r="E290">
-        <v>-14.8</v>
+        <v>-3.2</v>
       </c>
       <c r="F290">
-        <v>54.1</v>
+        <v>-70.7</v>
       </c>
       <c r="G290">
         <v>1.71</v>
@@ -10887,16 +10887,16 @@
         <v>299</v>
       </c>
       <c r="C291">
-        <v>-36.1</v>
+        <v>-33.9</v>
       </c>
       <c r="D291">
-        <v>-25.2</v>
+        <v>-32.7</v>
       </c>
       <c r="E291">
-        <v>-12.1</v>
+        <v>0.8</v>
       </c>
       <c r="F291">
-        <v>71.3</v>
+        <v>-65.6</v>
       </c>
       <c r="G291">
         <v>1.94</v>
@@ -10919,16 +10919,16 @@
         <v>300</v>
       </c>
       <c r="C292">
-        <v>-55.6</v>
+        <v>-55</v>
       </c>
       <c r="D292">
-        <v>-50.4</v>
+        <v>-56.1</v>
       </c>
       <c r="E292">
-        <v>-43.9</v>
+        <v>-40.3</v>
       </c>
       <c r="F292">
-        <v>-34.1</v>
+        <v>-82.6</v>
       </c>
       <c r="G292">
         <v>0.29</v>
@@ -10951,16 +10951,16 @@
         <v>301</v>
       </c>
       <c r="C293">
-        <v>-40.4</v>
+        <v>-41.3</v>
       </c>
       <c r="D293">
-        <v>-39.9</v>
+        <v>-52.4</v>
       </c>
       <c r="E293">
-        <v>-44.1</v>
+        <v>-34</v>
       </c>
       <c r="F293">
-        <v>-24.6</v>
+        <v>-69.2</v>
       </c>
       <c r="G293">
         <v>0.19</v>
@@ -10983,16 +10983,16 @@
         <v>302</v>
       </c>
       <c r="C294">
-        <v>-43.5</v>
+        <v>-41.5</v>
       </c>
       <c r="D294">
-        <v>-38.7</v>
+        <v>-46</v>
       </c>
       <c r="E294">
-        <v>-29.7</v>
+        <v>-19.4</v>
       </c>
       <c r="F294">
-        <v>-13.9</v>
+        <v>-69.6</v>
       </c>
       <c r="G294">
         <v>0.21</v>
@@ -11015,16 +11015,16 @@
         <v>303</v>
       </c>
       <c r="C295">
-        <v>-51.2</v>
+        <v>-51.8</v>
       </c>
       <c r="D295">
-        <v>-52.9</v>
+        <v>-60.3</v>
       </c>
       <c r="E295">
-        <v>-48.1</v>
+        <v>-46.9</v>
       </c>
       <c r="F295">
-        <v>-45.7</v>
+        <v>-87.1</v>
       </c>
       <c r="G295">
         <v>0.62</v>
@@ -11047,16 +11047,16 @@
         <v>304</v>
       </c>
       <c r="C296">
-        <v>-32.8</v>
+        <v>-32.2</v>
       </c>
       <c r="D296">
-        <v>-20.9</v>
+        <v>-28.7</v>
       </c>
       <c r="E296">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="F296">
-        <v>11.6</v>
+        <v>-79.8</v>
       </c>
       <c r="G296">
         <v>1.33</v>
@@ -11079,16 +11079,16 @@
         <v>305</v>
       </c>
       <c r="C297">
-        <v>-4.5</v>
+        <v>-6.2</v>
       </c>
       <c r="D297">
-        <v>0.8</v>
+        <v>-14.1</v>
       </c>
       <c r="E297">
-        <v>33.3</v>
+        <v>34.3</v>
       </c>
       <c r="F297">
-        <v>113.9</v>
+        <v>-83.2</v>
       </c>
       <c r="G297">
         <v>3.59</v>
@@ -11111,16 +11111,16 @@
         <v>306</v>
       </c>
       <c r="C298">
-        <v>-7.3</v>
+        <v>-8.7</v>
       </c>
       <c r="D298">
-        <v>-6</v>
+        <v>-18.1</v>
       </c>
       <c r="E298">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="F298">
-        <v>101.7</v>
+        <v>-79.1</v>
       </c>
       <c r="G298">
         <v>3.68</v>
@@ -11143,16 +11143,16 @@
         <v>307</v>
       </c>
       <c r="C299">
-        <v>-6.6</v>
+        <v>-7.8</v>
       </c>
       <c r="D299">
-        <v>3.8</v>
+        <v>-9.5</v>
       </c>
       <c r="E299">
-        <v>42.8</v>
+        <v>36.1</v>
       </c>
       <c r="F299">
-        <v>117.8</v>
+        <v>-82.8</v>
       </c>
       <c r="G299">
         <v>3.68</v>
@@ -11175,16 +11175,16 @@
         <v>308</v>
       </c>
       <c r="C300">
-        <v>-18.1</v>
+        <v>-16.1</v>
       </c>
       <c r="D300">
-        <v>7</v>
+        <v>-3.9</v>
       </c>
       <c r="E300">
-        <v>37.9</v>
+        <v>50.9</v>
       </c>
       <c r="F300">
-        <v>114.9</v>
+        <v>-70.5</v>
       </c>
       <c r="G300">
         <v>2.08</v>
@@ -11207,16 +11207,16 @@
         <v>309</v>
       </c>
       <c r="C301">
-        <v>-33.5</v>
+        <v>-28.4</v>
       </c>
       <c r="D301">
-        <v>-20.1</v>
+        <v>-28.1</v>
       </c>
       <c r="E301">
-        <v>-3.5</v>
+        <v>23.9</v>
       </c>
       <c r="F301">
-        <v>24.8</v>
+        <v>-55.9</v>
       </c>
       <c r="G301">
         <v>3.3</v>
@@ -11242,13 +11242,13 @@
         <v>-2.6</v>
       </c>
       <c r="D302">
-        <v>19.7</v>
+        <v>7.6</v>
       </c>
       <c r="E302">
-        <v>64.1</v>
+        <v>65.5</v>
       </c>
       <c r="F302">
-        <v>133.2</v>
+        <v>-71</v>
       </c>
       <c r="G302">
         <v>3.33</v>
@@ -11271,16 +11271,16 @@
         <v>311</v>
       </c>
       <c r="C303">
-        <v>-0.9</v>
+        <v>-2.6</v>
       </c>
       <c r="D303">
-        <v>11.4</v>
+        <v>-0.5</v>
       </c>
       <c r="E303">
-        <v>49.4</v>
+        <v>60.1</v>
       </c>
       <c r="F303">
-        <v>170.7</v>
+        <v>-75.7</v>
       </c>
       <c r="G303">
         <v>3.51</v>
@@ -11306,13 +11306,13 @@
         <v>6.3</v>
       </c>
       <c r="D304">
-        <v>39.3</v>
+        <v>14.1</v>
       </c>
       <c r="E304">
-        <v>75.8</v>
+        <v>70.1</v>
       </c>
       <c r="F304">
-        <v>183.2</v>
+        <v>-71.2</v>
       </c>
       <c r="G304">
         <v>3.79</v>
@@ -11335,16 +11335,16 @@
         <v>313</v>
       </c>
       <c r="C305">
-        <v>-24.3</v>
+        <v>-33.3</v>
       </c>
       <c r="D305">
-        <v>-7.9</v>
+        <v>-12.6</v>
       </c>
       <c r="E305">
-        <v>17.7</v>
+        <v>8.8</v>
       </c>
       <c r="F305">
-        <v>25.5</v>
+        <v>-72.5</v>
       </c>
       <c r="G305">
         <v>1.2</v>
@@ -11367,16 +11367,16 @@
         <v>314</v>
       </c>
       <c r="C306">
-        <v>-25.6</v>
+        <v>-31.2</v>
       </c>
       <c r="D306">
-        <v>-8.1</v>
+        <v>-15.3</v>
       </c>
       <c r="E306">
-        <v>8.9</v>
+        <v>2.4</v>
       </c>
       <c r="F306">
-        <v>7.2</v>
+        <v>-71.7</v>
       </c>
       <c r="G306">
         <v>0.82</v>
@@ -11399,16 +11399,16 @@
         <v>315</v>
       </c>
       <c r="C307">
-        <v>-13.9</v>
+        <v>-16.4</v>
       </c>
       <c r="D307">
-        <v>0</v>
+        <v>-15.4</v>
       </c>
       <c r="E307">
-        <v>35</v>
+        <v>25.5</v>
       </c>
       <c r="F307">
-        <v>98.3</v>
+        <v>-90.2</v>
       </c>
       <c r="G307">
         <v>3.87</v>
@@ -11431,16 +11431,16 @@
         <v>316</v>
       </c>
       <c r="C308">
-        <v>-8.8</v>
+        <v>-9.6</v>
       </c>
       <c r="D308">
-        <v>10.9</v>
+        <v>-5.4</v>
       </c>
       <c r="E308">
-        <v>55.4</v>
+        <v>45.9</v>
       </c>
       <c r="F308">
-        <v>140.7</v>
+        <v>-86.1</v>
       </c>
       <c r="G308">
         <v>3.76</v>
@@ -11463,16 +11463,16 @@
         <v>317</v>
       </c>
       <c r="C309">
-        <v>-28.6</v>
+        <v>-28</v>
       </c>
       <c r="D309">
-        <v>-14.2</v>
+        <v>-22.8</v>
       </c>
       <c r="E309">
-        <v>26.3</v>
+        <v>14.8</v>
       </c>
       <c r="F309">
-        <v>28.1</v>
+        <v>-80.2</v>
       </c>
       <c r="G309">
         <v>1.75</v>
@@ -11495,16 +11495,16 @@
         <v>318</v>
       </c>
       <c r="C310">
-        <v>-29.5</v>
+        <v>-27.7</v>
       </c>
       <c r="D310">
-        <v>-10.4</v>
+        <v>-25.7</v>
       </c>
       <c r="E310">
-        <v>14.6</v>
+        <v>0.3</v>
       </c>
       <c r="F310">
-        <v>4.3</v>
+        <v>-89.4</v>
       </c>
       <c r="G310">
         <v>1.34</v>
@@ -11527,16 +11527,16 @@
         <v>319</v>
       </c>
       <c r="C311">
-        <v>-6</v>
+        <v>-8.7</v>
       </c>
       <c r="D311">
-        <v>7.5</v>
+        <v>-10.1</v>
       </c>
       <c r="E311">
-        <v>36.5</v>
+        <v>24.8</v>
       </c>
       <c r="F311">
-        <v>81.7</v>
+        <v>-83.6</v>
       </c>
       <c r="G311">
         <v>4.02</v>
@@ -11559,16 +11559,16 @@
         <v>320</v>
       </c>
       <c r="C312">
-        <v>-6.9</v>
+        <v>-9.8</v>
       </c>
       <c r="D312">
-        <v>3.1</v>
+        <v>-11.6</v>
       </c>
       <c r="E312">
-        <v>34.5</v>
+        <v>25.1</v>
       </c>
       <c r="F312">
-        <v>79.9</v>
+        <v>-85.4</v>
       </c>
       <c r="G312">
         <v>3.76</v>
@@ -11591,16 +11591,16 @@
         <v>321</v>
       </c>
       <c r="C313">
-        <v>-17</v>
+        <v>-19.3</v>
       </c>
       <c r="D313">
-        <v>-8.4</v>
+        <v>-21.8</v>
       </c>
       <c r="E313">
-        <v>19.7</v>
+        <v>7.8</v>
       </c>
       <c r="F313">
-        <v>54.7</v>
+        <v>-86.7</v>
       </c>
       <c r="G313">
         <v>3.54</v>
@@ -11623,16 +11623,16 @@
         <v>322</v>
       </c>
       <c r="C314">
-        <v>-47.9</v>
+        <v>-46.9</v>
       </c>
       <c r="D314">
-        <v>-34.5</v>
+        <v>-45.8</v>
       </c>
       <c r="E314">
-        <v>-31.9</v>
+        <v>-40.8</v>
       </c>
       <c r="F314">
-        <v>-51.9</v>
+        <v>-87.8</v>
       </c>
       <c r="G314">
         <v>0.74</v>
@@ -11655,16 +11655,16 @@
         <v>323</v>
       </c>
       <c r="C315">
-        <v>-18.1</v>
+        <v>-20.4</v>
       </c>
       <c r="D315">
-        <v>-4</v>
+        <v>-21.1</v>
       </c>
       <c r="E315">
-        <v>26.2</v>
+        <v>18.3</v>
       </c>
       <c r="F315">
-        <v>75.2</v>
+        <v>-91.6</v>
       </c>
       <c r="G315">
         <v>3.87</v>
@@ -11687,16 +11687,16 @@
         <v>324</v>
       </c>
       <c r="C316">
-        <v>-39.9</v>
+        <v>-40.4</v>
       </c>
       <c r="D316">
-        <v>-34.4</v>
+        <v>-46.4</v>
       </c>
       <c r="E316">
-        <v>-32.2</v>
+        <v>-24.3</v>
       </c>
       <c r="F316">
-        <v>12</v>
+        <v>-83.1</v>
       </c>
       <c r="G316">
         <v>1.39</v>
@@ -11719,16 +11719,16 @@
         <v>325</v>
       </c>
       <c r="C317">
-        <v>-8</v>
+        <v>-7.2</v>
       </c>
       <c r="D317">
-        <v>10.9</v>
+        <v>-5.8</v>
       </c>
       <c r="E317">
-        <v>44.5</v>
+        <v>36.3</v>
       </c>
       <c r="F317">
-        <v>76</v>
+        <v>-82.5</v>
       </c>
       <c r="G317">
         <v>2.44</v>
@@ -11751,16 +11751,16 @@
         <v>326</v>
       </c>
       <c r="C318">
-        <v>-10.8</v>
+        <v>-7.1</v>
       </c>
       <c r="D318">
-        <v>7.6</v>
+        <v>-6.2</v>
       </c>
       <c r="E318">
-        <v>42.2</v>
+        <v>43</v>
       </c>
       <c r="F318">
-        <v>61.3</v>
+        <v>-60.6</v>
       </c>
       <c r="G318">
         <v>2.03</v>
@@ -11783,16 +11783,16 @@
         <v>327</v>
       </c>
       <c r="C319">
-        <v>-40.1</v>
+        <v>-40.2</v>
       </c>
       <c r="D319">
+        <v>-35.1</v>
+      </c>
+      <c r="E319">
         <v>-22.9</v>
       </c>
-      <c r="E319">
-        <v>-13.2</v>
-      </c>
       <c r="F319">
-        <v>-36.4</v>
+        <v>-70.6</v>
       </c>
       <c r="G319">
         <v>0.12</v>
@@ -11815,16 +11815,16 @@
         <v>328</v>
       </c>
       <c r="C320">
-        <v>-15</v>
+        <v>-11.7</v>
       </c>
       <c r="D320">
-        <v>-3</v>
+        <v>-10.6</v>
       </c>
       <c r="E320">
-        <v>26.4</v>
+        <v>44.9</v>
       </c>
       <c r="F320">
-        <v>108</v>
+        <v>-65.3</v>
       </c>
       <c r="G320">
         <v>4.02</v>
@@ -11847,16 +11847,16 @@
         <v>329</v>
       </c>
       <c r="C321">
-        <v>-25.1</v>
+        <v>-21.5</v>
       </c>
       <c r="D321">
-        <v>-7.4</v>
+        <v>-14.4</v>
       </c>
       <c r="E321">
-        <v>20</v>
+        <v>48.3</v>
       </c>
       <c r="F321">
-        <v>68.1</v>
+        <v>-48.3</v>
       </c>
       <c r="G321">
         <v>3.11</v>
@@ -11879,16 +11879,16 @@
         <v>330</v>
       </c>
       <c r="C322">
-        <v>-25.2</v>
+        <v>-23.4</v>
       </c>
       <c r="D322">
-        <v>-9</v>
+        <v>-13.1</v>
       </c>
       <c r="E322">
-        <v>12.1</v>
+        <v>39.2</v>
       </c>
       <c r="F322">
-        <v>78.3</v>
+        <v>-62</v>
       </c>
       <c r="G322">
         <v>2</v>
@@ -11911,16 +11911,16 @@
         <v>331</v>
       </c>
       <c r="C323">
-        <v>-49.9</v>
+        <v>-49.5</v>
       </c>
       <c r="D323">
-        <v>-47.9</v>
+        <v>-56</v>
       </c>
       <c r="E323">
-        <v>-44.7</v>
+        <v>-43.5</v>
       </c>
       <c r="F323">
-        <v>-38.7</v>
+        <v>-82.2</v>
       </c>
       <c r="G323">
         <v>0.67</v>
@@ -11943,16 +11943,16 @@
         <v>332</v>
       </c>
       <c r="C324">
-        <v>-11.4</v>
+        <v>-9.7</v>
       </c>
       <c r="D324">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="E324">
-        <v>29</v>
+        <v>60.8</v>
       </c>
       <c r="F324">
-        <v>108.8</v>
+        <v>-51.9</v>
       </c>
       <c r="G324">
         <v>2.16</v>
@@ -11975,16 +11975,16 @@
         <v>333</v>
       </c>
       <c r="C325">
-        <v>-32.7</v>
+        <v>-32</v>
       </c>
       <c r="D325">
-        <v>-23.4</v>
+        <v>-38.5</v>
       </c>
       <c r="E325">
-        <v>-9.9</v>
+        <v>-4.3</v>
       </c>
       <c r="F325">
-        <v>34</v>
+        <v>-80.1</v>
       </c>
       <c r="G325">
         <v>3.52</v>
@@ -12007,16 +12007,16 @@
         <v>334</v>
       </c>
       <c r="C326">
-        <v>-49.3</v>
+        <v>-48.7</v>
       </c>
       <c r="D326">
-        <v>-45.6</v>
+        <v>-51.5</v>
       </c>
       <c r="E326">
-        <v>-51.1</v>
+        <v>-45.7</v>
       </c>
       <c r="F326">
-        <v>-51.9</v>
+        <v>-83.5</v>
       </c>
       <c r="G326">
         <v>-0.7</v>
@@ -12039,16 +12039,16 @@
         <v>335</v>
       </c>
       <c r="C327">
-        <v>-48.2</v>
+        <v>-47.8</v>
       </c>
       <c r="D327">
-        <v>-46.5</v>
+        <v>-53.4</v>
       </c>
       <c r="E327">
-        <v>-57.7</v>
+        <v>-50.7</v>
       </c>
       <c r="F327">
-        <v>-59.1</v>
+        <v>-86.4</v>
       </c>
       <c r="G327">
         <v>-1.23</v>
@@ -12071,16 +12071,16 @@
         <v>336</v>
       </c>
       <c r="C328">
-        <v>-23</v>
+        <v>-20.3</v>
       </c>
       <c r="D328">
-        <v>-2.7</v>
+        <v>-6.7</v>
       </c>
       <c r="E328">
-        <v>19.7</v>
+        <v>50.3</v>
       </c>
       <c r="F328">
-        <v>104.8</v>
+        <v>-60.5</v>
       </c>
       <c r="G328">
         <v>2.06</v>
@@ -12103,16 +12103,16 @@
         <v>337</v>
       </c>
       <c r="C329">
-        <v>-2.5</v>
+        <v>-0.1</v>
       </c>
       <c r="D329">
-        <v>10.5</v>
+        <v>5.3</v>
       </c>
       <c r="E329">
-        <v>38.4</v>
+        <v>64.6</v>
       </c>
       <c r="F329">
-        <v>113.4</v>
+        <v>-41.2</v>
       </c>
       <c r="G329">
         <v>2.89</v>
@@ -12135,16 +12135,16 @@
         <v>338</v>
       </c>
       <c r="C330">
-        <v>-7</v>
+        <v>-5.9</v>
       </c>
       <c r="D330">
-        <v>7.4</v>
+        <v>-2.2</v>
       </c>
       <c r="E330">
-        <v>30.9</v>
+        <v>47.4</v>
       </c>
       <c r="F330">
-        <v>95.9</v>
+        <v>-58.3</v>
       </c>
       <c r="G330">
         <v>3.41</v>
@@ -12167,16 +12167,16 @@
         <v>339</v>
       </c>
       <c r="C331">
-        <v>-25.5</v>
+        <v>-23.4</v>
       </c>
       <c r="D331">
-        <v>-4.9</v>
+        <v>-16.8</v>
       </c>
       <c r="E331">
-        <v>19.2</v>
+        <v>33.9</v>
       </c>
       <c r="F331">
-        <v>64.1</v>
+        <v>-65.7</v>
       </c>
       <c r="G331">
         <v>2.68</v>
@@ -12199,16 +12199,16 @@
         <v>340</v>
       </c>
       <c r="C332">
-        <v>-26.9</v>
+        <v>-22.9</v>
       </c>
       <c r="D332">
-        <v>-7.2</v>
+        <v>-14.4</v>
       </c>
       <c r="E332">
-        <v>20.3</v>
+        <v>58.6</v>
       </c>
       <c r="F332">
-        <v>76.7</v>
+        <v>-42.2</v>
       </c>
       <c r="G332">
         <v>3.69</v>
@@ -12231,16 +12231,16 @@
         <v>341</v>
       </c>
       <c r="C333">
-        <v>-27.9</v>
+        <v>-26.3</v>
       </c>
       <c r="D333">
-        <v>-10.3</v>
+        <v>-24.3</v>
       </c>
       <c r="E333">
-        <v>2.8</v>
+        <v>8.2</v>
       </c>
       <c r="F333">
-        <v>42.8</v>
+        <v>-70</v>
       </c>
       <c r="G333">
         <v>2.52</v>
@@ -12263,16 +12263,16 @@
         <v>342</v>
       </c>
       <c r="C334">
-        <v>-41.4</v>
+        <v>-42.6</v>
       </c>
       <c r="D334">
-        <v>-37.4</v>
+        <v>-47.9</v>
       </c>
       <c r="E334">
-        <v>-30</v>
+        <v>-29.6</v>
       </c>
       <c r="F334">
-        <v>-5.9</v>
+        <v>-82</v>
       </c>
       <c r="G334">
         <v>1.24</v>
@@ -12295,16 +12295,16 @@
         <v>343</v>
       </c>
       <c r="C335">
-        <v>-45.6</v>
+        <v>-46.9</v>
       </c>
       <c r="D335">
-        <v>-43.9</v>
+        <v>-54</v>
       </c>
       <c r="E335">
-        <v>-41.6</v>
+        <v>-40.7</v>
       </c>
       <c r="F335">
-        <v>-28.5</v>
+        <v>-83.9</v>
       </c>
       <c r="G335">
         <v>0.4</v>
@@ -12327,16 +12327,16 @@
         <v>344</v>
       </c>
       <c r="C336">
-        <v>-29.6</v>
+        <v>-26.3</v>
       </c>
       <c r="D336">
-        <v>-11.5</v>
+        <v>-22.3</v>
       </c>
       <c r="E336">
-        <v>5.3</v>
+        <v>17.7</v>
       </c>
       <c r="F336">
-        <v>71.4</v>
+        <v>-61.9</v>
       </c>
       <c r="G336">
         <v>2.25</v>
@@ -12359,16 +12359,16 @@
         <v>345</v>
       </c>
       <c r="C337">
-        <v>-53.8</v>
+        <v>-53.7</v>
       </c>
       <c r="D337">
-        <v>-53.3</v>
+        <v>-59.8</v>
       </c>
       <c r="E337">
-        <v>-53.1</v>
+        <v>-51.3</v>
       </c>
       <c r="F337">
-        <v>-44.4</v>
+        <v>-86.8</v>
       </c>
       <c r="G337">
         <v>0.5</v>
@@ -12391,16 +12391,16 @@
         <v>346</v>
       </c>
       <c r="C338">
-        <v>-56.5</v>
+        <v>-54.8</v>
       </c>
       <c r="D338">
-        <v>-58.1</v>
+        <v>-61.2</v>
       </c>
       <c r="E338">
-        <v>-61.6</v>
+        <v>-51.1</v>
       </c>
       <c r="F338">
-        <v>-49.2</v>
+        <v>-81.7</v>
       </c>
       <c r="G338">
         <v>-0.91</v>
@@ -12423,16 +12423,16 @@
         <v>347</v>
       </c>
       <c r="C339">
-        <v>-48.7</v>
+        <v>-47.5</v>
       </c>
       <c r="D339">
-        <v>-48.8</v>
+        <v>-52.4</v>
       </c>
       <c r="E339">
-        <v>-48</v>
+        <v>-34.7</v>
       </c>
       <c r="F339">
-        <v>-27.3</v>
+        <v>-71.6</v>
       </c>
       <c r="G339">
         <v>-0.33</v>
@@ -12455,16 +12455,16 @@
         <v>348</v>
       </c>
       <c r="C340">
-        <v>-59.7</v>
+        <v>-58.5</v>
       </c>
       <c r="D340">
-        <v>-61.3</v>
+        <v>-65.6</v>
       </c>
       <c r="E340">
-        <v>-67.8</v>
+        <v>-62.7</v>
       </c>
       <c r="F340">
-        <v>-64.4</v>
+        <v>-86.7</v>
       </c>
       <c r="G340">
         <v>-1.26</v>
@@ -12487,16 +12487,16 @@
         <v>349</v>
       </c>
       <c r="C341">
-        <v>-16.6</v>
+        <v>-12.2</v>
       </c>
       <c r="D341">
-        <v>5.6</v>
+        <v>-1.5</v>
       </c>
       <c r="E341">
-        <v>34.1</v>
+        <v>55</v>
       </c>
       <c r="F341">
-        <v>108.2</v>
+        <v>-56.4</v>
       </c>
       <c r="G341">
         <v>3.05</v>
@@ -12519,16 +12519,16 @@
         <v>350</v>
       </c>
       <c r="C342">
-        <v>-16</v>
+        <v>-12.4</v>
       </c>
       <c r="D342">
-        <v>1.5</v>
+        <v>-5</v>
       </c>
       <c r="E342">
-        <v>29.8</v>
+        <v>49.6</v>
       </c>
       <c r="F342">
-        <v>126.7</v>
+        <v>-56</v>
       </c>
       <c r="G342">
         <v>2.43</v>
@@ -12551,16 +12551,16 @@
         <v>351</v>
       </c>
       <c r="C343">
-        <v>-28.1</v>
+        <v>-26.4</v>
       </c>
       <c r="D343">
-        <v>-8.7</v>
+        <v>-25.5</v>
       </c>
       <c r="E343">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="F343">
-        <v>22.6</v>
+        <v>-77.9</v>
       </c>
       <c r="G343">
         <v>2.06</v>
@@ -12583,16 +12583,16 @@
         <v>352</v>
       </c>
       <c r="C344">
-        <v>-46.7</v>
+        <v>-47.9</v>
       </c>
       <c r="D344">
-        <v>-46.3</v>
+        <v>-56.4</v>
       </c>
       <c r="E344">
-        <v>-44.3</v>
+        <v>-44.4</v>
       </c>
       <c r="F344">
-        <v>-36.4</v>
+        <v>-84.1</v>
       </c>
       <c r="G344">
         <v>0.27</v>
@@ -12615,16 +12615,16 @@
         <v>353</v>
       </c>
       <c r="C345">
-        <v>-46.7</v>
+        <v>-47.9</v>
       </c>
       <c r="D345">
-        <v>-45.3</v>
+        <v>-55.3</v>
       </c>
       <c r="E345">
-        <v>-42.5</v>
+        <v>-43.1</v>
       </c>
       <c r="F345">
-        <v>-32.4</v>
+        <v>-83.9</v>
       </c>
       <c r="G345">
         <v>0.29</v>
@@ -12647,16 +12647,16 @@
         <v>354</v>
       </c>
       <c r="C346">
-        <v>-49</v>
+        <v>-49.3</v>
       </c>
       <c r="D346">
-        <v>-47.4</v>
+        <v>-56.2</v>
       </c>
       <c r="E346">
-        <v>-41.1</v>
+        <v>-43.8</v>
       </c>
       <c r="F346">
-        <v>-40.4</v>
+        <v>-88.8</v>
       </c>
       <c r="G346">
         <v>0.4</v>
@@ -12679,16 +12679,16 @@
         <v>355</v>
       </c>
       <c r="C347">
-        <v>-49</v>
+        <v>-47.8</v>
       </c>
       <c r="D347">
-        <v>-44.4</v>
+        <v>-52.4</v>
       </c>
       <c r="E347">
-        <v>-39.9</v>
+        <v>-38.1</v>
       </c>
       <c r="F347">
-        <v>-36</v>
+        <v>-77.9</v>
       </c>
       <c r="G347">
         <v>0.19</v>
@@ -12711,16 +12711,16 @@
         <v>356</v>
       </c>
       <c r="C348">
-        <v>-35.7</v>
+        <v>-37.4</v>
       </c>
       <c r="D348">
-        <v>-33</v>
+        <v>-47.2</v>
       </c>
       <c r="E348">
-        <v>-33.6</v>
+        <v>-25.1</v>
       </c>
       <c r="F348">
-        <v>-16.6</v>
+        <v>-72.3</v>
       </c>
       <c r="G348">
         <v>0.2</v>
@@ -12743,16 +12743,16 @@
         <v>357</v>
       </c>
       <c r="C349">
-        <v>-36.9</v>
+        <v>-38.9</v>
       </c>
       <c r="D349">
-        <v>-35.6</v>
+        <v>-47.9</v>
       </c>
       <c r="E349">
-        <v>-31.1</v>
+        <v>-23.6</v>
       </c>
       <c r="F349">
-        <v>-13.3</v>
+        <v>-75.5</v>
       </c>
       <c r="G349">
         <v>0.22</v>
@@ -12775,16 +12775,16 @@
         <v>358</v>
       </c>
       <c r="C350">
-        <v>-39.7</v>
+        <v>-40.6</v>
       </c>
       <c r="D350">
-        <v>-35.7</v>
+        <v>-47.3</v>
       </c>
       <c r="E350">
-        <v>-29.3</v>
+        <v>-23.8</v>
       </c>
       <c r="F350">
-        <v>-15.2</v>
+        <v>-75.5</v>
       </c>
       <c r="G350">
         <v>0.21</v>
@@ -12807,16 +12807,16 @@
         <v>359</v>
       </c>
       <c r="C351">
-        <v>-46.9</v>
+        <v>-46.1</v>
       </c>
       <c r="D351">
-        <v>-42.6</v>
+        <v>-50.3</v>
       </c>
       <c r="E351">
-        <v>-33.7</v>
+        <v>-29.4</v>
       </c>
       <c r="F351">
-        <v>-25.4</v>
+        <v>-78.2</v>
       </c>
       <c r="G351">
         <v>0.2</v>
@@ -12839,16 +12839,16 @@
         <v>360</v>
       </c>
       <c r="C352">
-        <v>-25.6</v>
+        <v>-28.3</v>
       </c>
       <c r="D352">
-        <v>-24.1</v>
+        <v>-34.1</v>
       </c>
       <c r="E352">
-        <v>-18.7</v>
+        <v>-6.3</v>
       </c>
       <c r="F352">
-        <v>55.5</v>
+        <v>-66.9</v>
       </c>
       <c r="G352">
         <v>1.49</v>
@@ -12871,16 +12871,16 @@
         <v>361</v>
       </c>
       <c r="C353">
-        <v>-25</v>
+        <v>-28.8</v>
       </c>
       <c r="D353">
-        <v>-28.3</v>
+        <v>-44.1</v>
       </c>
       <c r="E353">
-        <v>-29.5</v>
+        <v>-26.3</v>
       </c>
       <c r="F353">
-        <v>-19</v>
+        <v>-76.4</v>
       </c>
       <c r="G353">
         <v>0.2</v>
@@ -12903,16 +12903,16 @@
         <v>362</v>
       </c>
       <c r="C354">
-        <v>-25.7</v>
+        <v>-24.4</v>
       </c>
       <c r="D354">
-        <v>-21.3</v>
+        <v>-28.8</v>
       </c>
       <c r="E354">
-        <v>-16.2</v>
+        <v>5.6</v>
       </c>
       <c r="F354">
-        <v>53.8</v>
+        <v>-50</v>
       </c>
       <c r="G354">
         <v>1.84</v>
@@ -12935,16 +12935,16 @@
         <v>363</v>
       </c>
       <c r="C355">
-        <v>-21.6</v>
+        <v>-24.2</v>
       </c>
       <c r="D355">
-        <v>-25.2</v>
+        <v>-33.5</v>
       </c>
       <c r="E355">
-        <v>-22.8</v>
+        <v>-3.2</v>
       </c>
       <c r="F355">
-        <v>40.1</v>
+        <v>-56.2</v>
       </c>
       <c r="G355">
         <v>1.55</v>
@@ -12967,16 +12967,16 @@
         <v>364</v>
       </c>
       <c r="C356">
-        <v>-33.6</v>
+        <v>-37.8</v>
       </c>
       <c r="D356">
-        <v>-27.9</v>
+        <v>-36.2</v>
       </c>
       <c r="E356">
-        <v>-11.4</v>
+        <v>-13.8</v>
       </c>
       <c r="F356">
-        <v>-26.2</v>
+        <v>-79.1</v>
       </c>
       <c r="G356">
         <v>0.18</v>
@@ -12999,16 +12999,16 @@
         <v>365</v>
       </c>
       <c r="C357">
-        <v>-48.5</v>
+        <v>-48.7</v>
       </c>
       <c r="D357">
-        <v>-45.6</v>
+        <v>-53</v>
       </c>
       <c r="E357">
-        <v>-36.7</v>
+        <v>-36.3</v>
       </c>
       <c r="F357">
-        <v>-33.3</v>
+        <v>-83.9</v>
       </c>
       <c r="G357">
         <v>0.19</v>
@@ -13031,16 +13031,16 @@
         <v>366</v>
       </c>
       <c r="C358">
-        <v>-19.2</v>
+        <v>-24.5</v>
       </c>
       <c r="D358">
-        <v>-15.8</v>
+        <v>-38.7</v>
       </c>
       <c r="E358">
-        <v>-24.2</v>
+        <v>-24.8</v>
       </c>
       <c r="F358">
-        <v>-10.6</v>
+        <v>-82.4</v>
       </c>
       <c r="G358">
         <v>0.25</v>
@@ -13063,16 +13063,16 @@
         <v>367</v>
       </c>
       <c r="C359">
-        <v>-24.8</v>
+        <v>-27</v>
       </c>
       <c r="D359">
-        <v>-20.8</v>
+        <v>-33.9</v>
       </c>
       <c r="E359">
-        <v>-19.4</v>
+        <v>-1.7</v>
       </c>
       <c r="F359">
-        <v>57.1</v>
+        <v>-73.4</v>
       </c>
       <c r="G359">
         <v>1.38</v>
@@ -13095,16 +13095,16 @@
         <v>368</v>
       </c>
       <c r="C360">
-        <v>-15</v>
+        <v>-20.5</v>
       </c>
       <c r="D360">
-        <v>-16</v>
+        <v>-37.9</v>
       </c>
       <c r="E360">
-        <v>-23.8</v>
+        <v>-22.9</v>
       </c>
       <c r="F360">
-        <v>-12.6</v>
+        <v>-79.1</v>
       </c>
       <c r="G360">
         <v>0.26</v>
@@ -13127,16 +13127,16 @@
         <v>369</v>
       </c>
       <c r="C361">
-        <v>-16.4</v>
+        <v>-20.8</v>
       </c>
       <c r="D361">
-        <v>-15.3</v>
+        <v>-34.7</v>
       </c>
       <c r="E361">
-        <v>-18.4</v>
+        <v>-14.9</v>
       </c>
       <c r="F361">
-        <v>-11.1</v>
+        <v>-79</v>
       </c>
       <c r="G361">
         <v>0.36</v>
@@ -13159,16 +13159,16 @@
         <v>370</v>
       </c>
       <c r="C362">
-        <v>-20.5</v>
+        <v>-24.8</v>
       </c>
       <c r="D362">
-        <v>-22.1</v>
+        <v>-40.1</v>
       </c>
       <c r="E362">
-        <v>-21.5</v>
+        <v>-19.8</v>
       </c>
       <c r="F362">
-        <v>-15.6</v>
+        <v>-78</v>
       </c>
       <c r="G362">
         <v>0.26</v>
@@ -13191,16 +13191,16 @@
         <v>371</v>
       </c>
       <c r="C363">
-        <v>-19.4</v>
+        <v>-18.3</v>
       </c>
       <c r="D363">
-        <v>-14.4</v>
+        <v>-21.8</v>
       </c>
       <c r="E363">
-        <v>-14.4</v>
+        <v>9.4</v>
       </c>
       <c r="F363">
-        <v>68.2</v>
+        <v>-53.2</v>
       </c>
       <c r="G363">
         <v>1.76</v>
@@ -13223,16 +13223,16 @@
         <v>372</v>
       </c>
       <c r="C364">
-        <v>-14.3</v>
+        <v>-15.6</v>
       </c>
       <c r="D364">
-        <v>-13.5</v>
+        <v>-22.7</v>
       </c>
       <c r="E364">
-        <v>-11.5</v>
+        <v>9.9</v>
       </c>
       <c r="F364">
-        <v>69.4</v>
+        <v>-54.4</v>
       </c>
       <c r="G364">
         <v>1.61</v>
@@ -13255,16 +13255,16 @@
         <v>373</v>
       </c>
       <c r="C365">
-        <v>-6.2</v>
+        <v>-8.8</v>
       </c>
       <c r="D365">
-        <v>-4.1</v>
+        <v>-15.5</v>
       </c>
       <c r="E365">
-        <v>0.5</v>
+        <v>20.4</v>
       </c>
       <c r="F365">
-        <v>104.4</v>
+        <v>-56.2</v>
       </c>
       <c r="G365">
         <v>1.5</v>
@@ -13287,16 +13287,16 @@
         <v>374</v>
       </c>
       <c r="C366">
-        <v>-8.7</v>
+        <v>-12.5</v>
       </c>
       <c r="D366">
-        <v>-7.1</v>
+        <v>-18.9</v>
       </c>
       <c r="E366">
-        <v>-1.8</v>
+        <v>16.1</v>
       </c>
       <c r="F366">
-        <v>100</v>
+        <v>-60</v>
       </c>
       <c r="G366">
         <v>1.45</v>
@@ -13319,16 +13319,16 @@
         <v>375</v>
       </c>
       <c r="C367">
-        <v>-4.4</v>
+        <v>-11.3</v>
       </c>
       <c r="D367">
-        <v>-7.6</v>
+        <v>-21.8</v>
       </c>
       <c r="E367">
-        <v>2.7</v>
+        <v>22.1</v>
       </c>
       <c r="F367">
-        <v>44.4</v>
+        <v>-72.3</v>
       </c>
       <c r="G367">
         <v>1.3</v>
@@ -13351,16 +13351,16 @@
         <v>376</v>
       </c>
       <c r="C368">
-        <v>-15.3</v>
+        <v>-13.6</v>
       </c>
       <c r="D368">
-        <v>-5</v>
+        <v>-11.5</v>
       </c>
       <c r="E368">
-        <v>21.4</v>
+        <v>36.9</v>
       </c>
       <c r="F368">
-        <v>59.9</v>
+        <v>-56.9</v>
       </c>
       <c r="G368">
         <v>2.65</v>
@@ -13383,16 +13383,16 @@
         <v>377</v>
       </c>
       <c r="C369">
-        <v>-18.4</v>
+        <v>-21.6</v>
       </c>
       <c r="D369">
-        <v>-24.4</v>
+        <v>-33.4</v>
       </c>
       <c r="E369">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="F369">
-        <v>64.9</v>
+        <v>-85.8</v>
       </c>
       <c r="G369">
         <v>3.58</v>
@@ -13415,16 +13415,16 @@
         <v>378</v>
       </c>
       <c r="C370">
-        <v>-15</v>
+        <v>-18.7</v>
       </c>
       <c r="D370">
-        <v>-19.7</v>
+        <v>-28.3</v>
       </c>
       <c r="E370">
-        <v>17.8</v>
+        <v>16.1</v>
       </c>
       <c r="F370">
-        <v>85.3</v>
+        <v>-86.5</v>
       </c>
       <c r="G370">
         <v>3.5</v>
@@ -13447,16 +13447,16 @@
         <v>379</v>
       </c>
       <c r="C371">
-        <v>-11.2</v>
+        <v>-13.2</v>
       </c>
       <c r="D371">
-        <v>-6.6</v>
+        <v>-18.6</v>
       </c>
       <c r="E371">
-        <v>28.7</v>
+        <v>24.8</v>
       </c>
       <c r="F371">
-        <v>97.1</v>
+        <v>-81.7</v>
       </c>
       <c r="G371">
         <v>3.74</v>
@@ -13479,16 +13479,16 @@
         <v>380</v>
       </c>
       <c r="C372">
-        <v>-34.3</v>
+        <v>-33.7</v>
       </c>
       <c r="D372">
-        <v>-29.3</v>
+        <v>-29</v>
       </c>
       <c r="E372">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="F372">
-        <v>26.9</v>
+        <v>-63.1</v>
       </c>
       <c r="G372">
         <v>1.12</v>
@@ -13511,16 +13511,16 @@
         <v>381</v>
       </c>
       <c r="C373">
+        <v>-41</v>
+      </c>
+      <c r="D373">
         <v>-41.6</v>
       </c>
-      <c r="D373">
-        <v>-42.2</v>
-      </c>
       <c r="E373">
-        <v>-10.6</v>
+        <v>-14.7</v>
       </c>
       <c r="F373">
-        <v>-7.6</v>
+        <v>-70.8</v>
       </c>
       <c r="G373">
         <v>0.76</v>
@@ -13543,16 +13543,16 @@
         <v>382</v>
       </c>
       <c r="C374">
-        <v>-45.9</v>
+        <v>-42.7</v>
       </c>
       <c r="D374">
-        <v>-32.9</v>
+        <v>-40.5</v>
       </c>
       <c r="E374">
-        <v>-32.6</v>
+        <v>-33.4</v>
       </c>
       <c r="F374">
-        <v>-30</v>
+        <v>-82.9</v>
       </c>
       <c r="G374">
         <v>0.54</v>
@@ -13575,16 +13575,16 @@
         <v>383</v>
       </c>
       <c r="C375">
-        <v>-25.1</v>
+        <v>-31.4</v>
       </c>
       <c r="D375">
-        <v>-5.4</v>
+        <v>-13.2</v>
       </c>
       <c r="E375">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="F375">
-        <v>16</v>
+        <v>-72.3</v>
       </c>
       <c r="G375">
         <v>1.11</v>
@@ -13607,16 +13607,16 @@
         <v>384</v>
       </c>
       <c r="C376">
-        <v>-31.1</v>
+        <v>-33.9</v>
       </c>
       <c r="D376">
-        <v>-30.6</v>
+        <v>-45.1</v>
       </c>
       <c r="E376">
-        <v>-26.9</v>
+        <v>-21.7</v>
       </c>
       <c r="F376">
-        <v>-11</v>
+        <v>-75.4</v>
       </c>
       <c r="G376">
         <v>0.23</v>
@@ -13639,16 +13639,16 @@
         <v>385</v>
       </c>
       <c r="C377">
-        <v>-52.3</v>
+        <v>-50.5</v>
       </c>
       <c r="D377">
-        <v>-47.5</v>
+        <v>-52.6</v>
       </c>
       <c r="E377">
-        <v>-39.5</v>
+        <v>-34</v>
       </c>
       <c r="F377">
-        <v>-29.5</v>
+        <v>-77.3</v>
       </c>
       <c r="G377">
         <v>0.22</v>
@@ -13671,16 +13671,16 @@
         <v>386</v>
       </c>
       <c r="C378">
-        <v>-4.6</v>
+        <v>-4.9</v>
       </c>
       <c r="D378">
-        <v>18.7</v>
+        <v>-1.3</v>
       </c>
       <c r="E378">
-        <v>65.3</v>
+        <v>59.2</v>
       </c>
       <c r="F378">
-        <v>170.2</v>
+        <v>-81.9</v>
       </c>
       <c r="G378">
         <v>3.73</v>
@@ -13703,16 +13703,16 @@
         <v>387</v>
       </c>
       <c r="C379">
-        <v>-35</v>
+        <v>-36.5</v>
       </c>
       <c r="D379">
-        <v>-30</v>
+        <v>-34.4</v>
       </c>
       <c r="E379">
-        <v>2.5</v>
+        <v>-9.5</v>
       </c>
       <c r="F379">
-        <v>23.8</v>
+        <v>-81.1</v>
       </c>
       <c r="G379">
         <v>2.28</v>
@@ -13735,16 +13735,16 @@
         <v>388</v>
       </c>
       <c r="C380">
-        <v>-24.2</v>
+        <v>-23.3</v>
       </c>
       <c r="D380">
-        <v>-8.3</v>
+        <v>-17.7</v>
       </c>
       <c r="E380">
-        <v>11.6</v>
+        <v>25.7</v>
       </c>
       <c r="F380">
-        <v>47.2</v>
+        <v>-65.2</v>
       </c>
       <c r="G380">
         <v>1.96</v>
@@ -13767,16 +13767,16 @@
         <v>389</v>
       </c>
       <c r="C381">
-        <v>-25.7</v>
+        <v>-23.7</v>
       </c>
       <c r="D381">
-        <v>-8</v>
+        <v>-17.5</v>
       </c>
       <c r="E381">
-        <v>13.2</v>
+        <v>29.7</v>
       </c>
       <c r="F381">
-        <v>53.9</v>
+        <v>-63.3</v>
       </c>
       <c r="G381">
         <v>1.96</v>
@@ -13799,16 +13799,16 @@
         <v>390</v>
       </c>
       <c r="C382">
-        <v>-25.9</v>
+        <v>-27.7</v>
       </c>
       <c r="D382">
-        <v>-9</v>
+        <v>-31.8</v>
       </c>
       <c r="E382">
-        <v>-8.4</v>
+        <v>-9.9</v>
       </c>
       <c r="F382">
-        <v>21.6</v>
+        <v>-90.4</v>
       </c>
       <c r="G382">
         <v>0.53</v>
@@ -13831,16 +13831,16 @@
         <v>391</v>
       </c>
       <c r="C383">
-        <v>-52.1</v>
+        <v>-52.3</v>
       </c>
       <c r="D383">
-        <v>-49.3</v>
+        <v>-53.5</v>
       </c>
       <c r="E383">
-        <v>-41.9</v>
+        <v>-39.9</v>
       </c>
       <c r="F383">
-        <v>-29.4</v>
+        <v>-80.3</v>
       </c>
       <c r="G383">
         <v>0.1</v>
@@ -13863,16 +13863,16 @@
         <v>392</v>
       </c>
       <c r="C384">
-        <v>-36.3</v>
+        <v>-27.9</v>
       </c>
       <c r="D384">
-        <v>-20.4</v>
+        <v>-24.6</v>
       </c>
       <c r="E384">
-        <v>1.4</v>
+        <v>42.6</v>
       </c>
       <c r="F384">
-        <v>57.4</v>
+        <v>-27.1</v>
       </c>
       <c r="G384">
         <v>3.07</v>
@@ -13895,16 +13895,16 @@
         <v>393</v>
       </c>
       <c r="C385">
-        <v>-20.2</v>
+        <v>-17.7</v>
       </c>
       <c r="D385">
-        <v>2.9</v>
+        <v>-3.7</v>
       </c>
       <c r="E385">
-        <v>29.8</v>
+        <v>53</v>
       </c>
       <c r="F385">
-        <v>93</v>
+        <v>-64.7</v>
       </c>
       <c r="G385">
         <v>1.97</v>
@@ -13927,16 +13927,16 @@
         <v>394</v>
       </c>
       <c r="C386">
-        <v>-12.2</v>
+        <v>-17.6</v>
       </c>
       <c r="D386">
-        <v>-12.6</v>
+        <v>-22.1</v>
       </c>
       <c r="E386">
-        <v>21.3</v>
+        <v>18.1</v>
       </c>
       <c r="F386">
-        <v>94.2</v>
+        <v>-89.5</v>
       </c>
       <c r="G386">
         <v>4.05</v>
@@ -13959,16 +13959,16 @@
         <v>395</v>
       </c>
       <c r="C387">
-        <v>-13.4</v>
+        <v>-17.2</v>
       </c>
       <c r="D387">
-        <v>-17</v>
+        <v>-24.8</v>
       </c>
       <c r="E387">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F387">
-        <v>113.3</v>
+        <v>-86.8</v>
       </c>
       <c r="G387">
         <v>3.51</v>
@@ -13991,16 +13991,16 @@
         <v>396</v>
       </c>
       <c r="C388">
-        <v>-12.4</v>
+        <v>-15.5</v>
       </c>
       <c r="D388">
-        <v>-0.9</v>
+        <v>-15</v>
       </c>
       <c r="E388">
-        <v>32.9</v>
+        <v>22.7</v>
       </c>
       <c r="F388">
-        <v>95</v>
+        <v>-89</v>
       </c>
       <c r="G388">
         <v>3.92</v>
@@ -14023,16 +14023,16 @@
         <v>397</v>
       </c>
       <c r="C389">
-        <v>-58.1</v>
+        <v>-57.3</v>
       </c>
       <c r="D389">
-        <v>-55.6</v>
+        <v>-58.7</v>
       </c>
       <c r="E389">
-        <v>-48.3</v>
+        <v>-43.6</v>
       </c>
       <c r="F389">
-        <v>-39.7</v>
+        <v>-81.8</v>
       </c>
       <c r="G389">
         <v>0.18</v>
@@ -14055,16 +14055,16 @@
         <v>398</v>
       </c>
       <c r="C390">
-        <v>-50.5</v>
+        <v>-49.3</v>
       </c>
       <c r="D390">
-        <v>-45.2</v>
+        <v>-52.2</v>
       </c>
       <c r="E390">
-        <v>-38.7</v>
+        <v>-29.1</v>
       </c>
       <c r="F390">
-        <v>-23.6</v>
+        <v>-74.1</v>
       </c>
       <c r="G390">
         <v>0.21</v>
@@ -14087,16 +14087,16 @@
         <v>399</v>
       </c>
       <c r="C391">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="D391">
-        <v>16.9</v>
+        <v>1.9</v>
       </c>
       <c r="E391">
-        <v>64.2</v>
+        <v>60.5</v>
       </c>
       <c r="F391">
-        <v>160.5</v>
+        <v>-79.3</v>
       </c>
       <c r="G391">
         <v>3.57</v>
@@ -14119,16 +14119,16 @@
         <v>400</v>
       </c>
       <c r="C392">
-        <v>-19.6</v>
+        <v>-24.5</v>
       </c>
       <c r="D392">
-        <v>-15.8</v>
+        <v>-28</v>
       </c>
       <c r="E392">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="F392">
-        <v>40</v>
+        <v>-92</v>
       </c>
       <c r="G392">
         <v>4.05</v>
@@ -14151,16 +14151,16 @@
         <v>401</v>
       </c>
       <c r="C393">
-        <v>-8.9</v>
+        <v>-12.1</v>
       </c>
       <c r="D393">
-        <v>4.2</v>
+        <v>-10.1</v>
       </c>
       <c r="E393">
-        <v>35.7</v>
+        <v>31.9</v>
       </c>
       <c r="F393">
-        <v>94.1</v>
+        <v>-84</v>
       </c>
       <c r="G393">
         <v>4.05</v>
@@ -14183,16 +14183,16 @@
         <v>402</v>
       </c>
       <c r="C394">
-        <v>-26.2</v>
+        <v>-26.1</v>
       </c>
       <c r="D394">
-        <v>-21.5</v>
+        <v>-30.5</v>
       </c>
       <c r="E394">
-        <v>-15.3</v>
+        <v>1.6</v>
       </c>
       <c r="F394">
-        <v>59.3</v>
+        <v>-57.9</v>
       </c>
       <c r="G394">
         <v>1.72</v>
@@ -14215,16 +14215,16 @@
         <v>403</v>
       </c>
       <c r="C395">
-        <v>-11.6</v>
+        <v>-9</v>
       </c>
       <c r="D395">
-        <v>3.3</v>
+        <v>-11</v>
       </c>
       <c r="E395">
-        <v>32.1</v>
+        <v>48.9</v>
       </c>
       <c r="F395">
-        <v>145.4</v>
+        <v>-73.4</v>
       </c>
       <c r="G395">
         <v>3.95</v>
@@ -14247,16 +14247,16 @@
         <v>404</v>
       </c>
       <c r="C396">
-        <v>-30.9</v>
+        <v>-29.1</v>
       </c>
       <c r="D396">
-        <v>-20.7</v>
+        <v>-32.7</v>
       </c>
       <c r="E396">
-        <v>-7.9</v>
+        <v>5</v>
       </c>
       <c r="F396">
-        <v>54.3</v>
+        <v>-73.4</v>
       </c>
       <c r="G396">
         <v>4.02</v>
@@ -14279,16 +14279,16 @@
         <v>405</v>
       </c>
       <c r="C397">
-        <v>-20.4</v>
+        <v>-19.7</v>
       </c>
       <c r="D397">
-        <v>1.3</v>
+        <v>-9.3</v>
       </c>
       <c r="E397">
-        <v>32.4</v>
+        <v>43.9</v>
       </c>
       <c r="F397">
-        <v>95.6</v>
+        <v>-68.8</v>
       </c>
       <c r="G397">
         <v>2.81</v>
@@ -14311,16 +14311,16 @@
         <v>406</v>
       </c>
       <c r="C398">
-        <v>-33.6</v>
+        <v>-33.2</v>
       </c>
       <c r="D398">
-        <v>-23</v>
+        <v>-34.8</v>
       </c>
       <c r="E398">
-        <v>-15.7</v>
+        <v>-5.4</v>
       </c>
       <c r="F398">
-        <v>62.5</v>
+        <v>-73.8</v>
       </c>
       <c r="G398">
         <v>1.52</v>
@@ -14343,16 +14343,16 @@
         <v>407</v>
       </c>
       <c r="C399">
-        <v>-57.5</v>
+        <v>-56.7</v>
       </c>
       <c r="D399">
-        <v>-52.1</v>
+        <v>-57.8</v>
       </c>
       <c r="E399">
-        <v>-45.4</v>
+        <v>-39.6</v>
       </c>
       <c r="F399">
-        <v>-35.2</v>
+        <v>-79.8</v>
       </c>
       <c r="G399">
         <v>0.22</v>
@@ -14375,16 +14375,16 @@
         <v>408</v>
       </c>
       <c r="C400">
-        <v>-27.8</v>
+        <v>-31.5</v>
       </c>
       <c r="D400">
-        <v>-19.4</v>
+        <v>-38.6</v>
       </c>
       <c r="E400">
-        <v>-20.9</v>
+        <v>-15.3</v>
       </c>
       <c r="F400">
-        <v>16.2</v>
+        <v>-89.7</v>
       </c>
       <c r="G400">
         <v>1.37</v>
